--- a/staker_incentives.xlsx
+++ b/staker_incentives.xlsx
@@ -4,6 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Blocks 68093124 - 68374032" sheetId="1" r:id="rId1"/>
+    <sheet name="Blocks 68093124 - 68655289" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -399,7 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -1397,4 +1398,975 @@
     <ignoredError numberStoredAsText="1" sqref="A1:C90"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>address</v>
+      </c>
+      <c r="B1" t="str">
+        <v>incentive - script output</v>
+      </c>
+      <c r="C1" t="str">
+        <v>incentive (TEL)</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+      </c>
+      <c r="B2">
+        <v>NaN</v>
+      </c>
+      <c r="C2">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>0xE3060D70A15f2EdFb390D66e60467Da6F5ECA1C7</v>
+      </c>
+      <c r="B3">
+        <v>NaN</v>
+      </c>
+      <c r="C3">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
+      </c>
+      <c r="B4">
+        <v>NaN</v>
+      </c>
+      <c r="C4">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
+      </c>
+      <c r="B5">
+        <v>NaN</v>
+      </c>
+      <c r="C5">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
+      </c>
+      <c r="B6">
+        <v>NaN</v>
+      </c>
+      <c r="C6">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
+      </c>
+      <c r="B7">
+        <v>NaN</v>
+      </c>
+      <c r="C7">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>0x5B74F5c8A2C00fea77cAED166Eb4F71BCe7d38bC</v>
+      </c>
+      <c r="B8">
+        <v>NaN</v>
+      </c>
+      <c r="C8">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+      </c>
+      <c r="B9">
+        <v>NaN</v>
+      </c>
+      <c r="C9">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
+      </c>
+      <c r="B10">
+        <v>NaN</v>
+      </c>
+      <c r="C10">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>0x7308fC774925316052AD22Fbdc21f2a7FF4bDA49</v>
+      </c>
+      <c r="B11">
+        <v>NaN</v>
+      </c>
+      <c r="C11">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+      </c>
+      <c r="B12">
+        <v>NaN</v>
+      </c>
+      <c r="C12">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
+      </c>
+      <c r="B13">
+        <v>NaN</v>
+      </c>
+      <c r="C13">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>0xff9aE836c989360f013A4d2F184b5f7e59aD6C11</v>
+      </c>
+      <c r="B14">
+        <v>NaN</v>
+      </c>
+      <c r="C14">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>0x9C4e5edC6A735e4AB68ef04497b64008A955A1A5</v>
+      </c>
+      <c r="B15">
+        <v>NaN</v>
+      </c>
+      <c r="C15">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>0xC090D9F71184D03568485a351456C570ff9F9Cbf</v>
+      </c>
+      <c r="B16">
+        <v>NaN</v>
+      </c>
+      <c r="C16">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
+      </c>
+      <c r="B17">
+        <v>NaN</v>
+      </c>
+      <c r="C17">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
+      </c>
+      <c r="B18">
+        <v>NaN</v>
+      </c>
+      <c r="C18">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>0xd685199C3Bfc7DD24d7E4A6bfD17dCa2bBF2F57d</v>
+      </c>
+      <c r="B19">
+        <v>NaN</v>
+      </c>
+      <c r="C19">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>0x8218E1a9D02E26E2aF124EA28b121031Cf25AaC8</v>
+      </c>
+      <c r="B20">
+        <v>NaN</v>
+      </c>
+      <c r="C20">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+      </c>
+      <c r="B21">
+        <v>NaN</v>
+      </c>
+      <c r="C21">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>0xdFdf143A6a12185023e01ddC61092Ac97eCB6c05</v>
+      </c>
+      <c r="B22">
+        <v>NaN</v>
+      </c>
+      <c r="C22">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+      </c>
+      <c r="B23">
+        <v>NaN</v>
+      </c>
+      <c r="C23">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>0xb8e441ad9cA68bf92Da52A40BFBb03Bc6454ABB4</v>
+      </c>
+      <c r="B24">
+        <v>NaN</v>
+      </c>
+      <c r="C24">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>0x9B73f16958aD4dF607E8B58aA2f407d66e9FA543</v>
+      </c>
+      <c r="B25">
+        <v>NaN</v>
+      </c>
+      <c r="C25">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
+      </c>
+      <c r="B26">
+        <v>NaN</v>
+      </c>
+      <c r="C26">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>0xF197552b64740Ff554D2887B59CD299d7b853Df3</v>
+      </c>
+      <c r="B27">
+        <v>NaN</v>
+      </c>
+      <c r="C27">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+      </c>
+      <c r="B28">
+        <v>NaN</v>
+      </c>
+      <c r="C28">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+      </c>
+      <c r="B29">
+        <v>NaN</v>
+      </c>
+      <c r="C29">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+      </c>
+      <c r="B30">
+        <v>NaN</v>
+      </c>
+      <c r="C30">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+      </c>
+      <c r="B31">
+        <v>NaN</v>
+      </c>
+      <c r="C31">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>0xD7Be7655070f986B3E311EE04cc9aa87Cd11ab5d</v>
+      </c>
+      <c r="B32">
+        <v>NaN</v>
+      </c>
+      <c r="C32">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
+      </c>
+      <c r="B33">
+        <v>NaN</v>
+      </c>
+      <c r="C33">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
+      </c>
+      <c r="B34">
+        <v>NaN</v>
+      </c>
+      <c r="C34">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>0x4DF1C6c7973f4E6e3B22149f7b8eFc4389f97C56</v>
+      </c>
+      <c r="B35">
+        <v>NaN</v>
+      </c>
+      <c r="C35">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>0x3d1F678EBd71CA033f21D6B1B5B0781a66537447</v>
+      </c>
+      <c r="B36">
+        <v>NaN</v>
+      </c>
+      <c r="C36">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+      </c>
+      <c r="B37">
+        <v>NaN</v>
+      </c>
+      <c r="C37">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
+      </c>
+      <c r="B38">
+        <v>NaN</v>
+      </c>
+      <c r="C38">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>0xb91406Ea49418Ff04F73231BA48930278bCef631</v>
+      </c>
+      <c r="B39">
+        <v>NaN</v>
+      </c>
+      <c r="C39">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
+      </c>
+      <c r="B40">
+        <v>NaN</v>
+      </c>
+      <c r="C40">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+      </c>
+      <c r="B41">
+        <v>NaN</v>
+      </c>
+      <c r="C41">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+      </c>
+      <c r="B42">
+        <v>NaN</v>
+      </c>
+      <c r="C42">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+      </c>
+      <c r="B43">
+        <v>NaN</v>
+      </c>
+      <c r="C43">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
+      </c>
+      <c r="B44">
+        <v>NaN</v>
+      </c>
+      <c r="C44">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>0x8f437d47c7723C7AB5ab896D59549D547181BecB</v>
+      </c>
+      <c r="B45">
+        <v>NaN</v>
+      </c>
+      <c r="C45">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>0xA742150Bb2b4e5DfCC4E6df0E577237Fceb797b2</v>
+      </c>
+      <c r="B46">
+        <v>NaN</v>
+      </c>
+      <c r="C46">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+      </c>
+      <c r="B47">
+        <v>NaN</v>
+      </c>
+      <c r="C47">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+      </c>
+      <c r="B48">
+        <v>NaN</v>
+      </c>
+      <c r="C48">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+      </c>
+      <c r="B49">
+        <v>NaN</v>
+      </c>
+      <c r="C49">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>0x6f9A5457e35FF98FCcA68b71c2D1bf7aAAeB714E</v>
+      </c>
+      <c r="B50">
+        <v>NaN</v>
+      </c>
+      <c r="C50">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>0x0b3d82e9b1D9163a1fe71DC2bc60C6Fb7fb13863</v>
+      </c>
+      <c r="B51">
+        <v>NaN</v>
+      </c>
+      <c r="C51">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>0xb12042f547d28da37E88d7Db7A2CBAaf8CD88F68</v>
+      </c>
+      <c r="B52">
+        <v>NaN</v>
+      </c>
+      <c r="C52">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>0xDF6F220E72A6320E87576c5075899Be34212f97D</v>
+      </c>
+      <c r="B53">
+        <v>NaN</v>
+      </c>
+      <c r="C53">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>0x3E3309ab5312f6875b6e9bE672b9A43EFb70D760</v>
+      </c>
+      <c r="B54">
+        <v>NaN</v>
+      </c>
+      <c r="C54">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+      </c>
+      <c r="B55">
+        <v>NaN</v>
+      </c>
+      <c r="C55">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
+      </c>
+      <c r="B56">
+        <v>NaN</v>
+      </c>
+      <c r="C56">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>0x2EeCd56c9A00E81a393Fd24F22a07C9D80336E20</v>
+      </c>
+      <c r="B57">
+        <v>NaN</v>
+      </c>
+      <c r="C57">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>0x2abf42F330c60491E8A36B73c9F3F9Ed40CDa546</v>
+      </c>
+      <c r="B58">
+        <v>NaN</v>
+      </c>
+      <c r="C58">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>0x66B6221845b9bd7A029BCCb5523168a5AcE1e013</v>
+      </c>
+      <c r="B59">
+        <v>NaN</v>
+      </c>
+      <c r="C59">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>0x331B6287b04a4Bb359C75D102a2104561BB84fe3</v>
+      </c>
+      <c r="B60">
+        <v>NaN</v>
+      </c>
+      <c r="C60">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>0x2A1Cc6c77782EA6BE6C08d61430A79E31Ea4efDf</v>
+      </c>
+      <c r="B61">
+        <v>NaN</v>
+      </c>
+      <c r="C61">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>0x417eD74e3904f2C2d2eBb4e8050bD772374bd82a</v>
+      </c>
+      <c r="B62">
+        <v>NaN</v>
+      </c>
+      <c r="C62">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
+      </c>
+      <c r="B63">
+        <v>NaN</v>
+      </c>
+      <c r="C63">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>0x733e103A702EACEa3189361a3b79902491FBACd1</v>
+      </c>
+      <c r="B64">
+        <v>NaN</v>
+      </c>
+      <c r="C64">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>0xE17Aa7A67B0834823F56f01260b1E0965f14Eb4c</v>
+      </c>
+      <c r="B65">
+        <v>NaN</v>
+      </c>
+      <c r="C65">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
+      </c>
+      <c r="B66">
+        <v>NaN</v>
+      </c>
+      <c r="C66">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>0x469E40f0854EC0E8FaC1Afd4Af2DFfD5aE5569B0</v>
+      </c>
+      <c r="B67">
+        <v>NaN</v>
+      </c>
+      <c r="C67">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
+      </c>
+      <c r="B68">
+        <v>NaN</v>
+      </c>
+      <c r="C68">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>0xe6eaa2b28ce4b4064E37eF290E82de53Fd81C211</v>
+      </c>
+      <c r="B69">
+        <v>NaN</v>
+      </c>
+      <c r="C69">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
+      </c>
+      <c r="B70">
+        <v>NaN</v>
+      </c>
+      <c r="C70">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
+      </c>
+      <c r="B71">
+        <v>NaN</v>
+      </c>
+      <c r="C71">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>0x8fa6e6dB6B86d0Cad2fa8DeEb737BC1cB97a2bE1</v>
+      </c>
+      <c r="B72">
+        <v>NaN</v>
+      </c>
+      <c r="C72">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
+      </c>
+      <c r="B73">
+        <v>NaN</v>
+      </c>
+      <c r="C73">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>0x9fF7d51Cf6a3A12F2Cdd36035827037a35A4B139</v>
+      </c>
+      <c r="B74">
+        <v>NaN</v>
+      </c>
+      <c r="C74">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>0x8B66c0aEEc3a231F6e3302dBb7d351B5c7B094B0</v>
+      </c>
+      <c r="B75">
+        <v>NaN</v>
+      </c>
+      <c r="C75">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>0xD81F1cF201B68a9EA0E8f10b1864DFE925202643</v>
+      </c>
+      <c r="B76">
+        <v>NaN</v>
+      </c>
+      <c r="C76">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
+      </c>
+      <c r="B77">
+        <v>NaN</v>
+      </c>
+      <c r="C77">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
+      </c>
+      <c r="B78">
+        <v>NaN</v>
+      </c>
+      <c r="C78">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+      </c>
+      <c r="B79">
+        <v>NaN</v>
+      </c>
+      <c r="C79">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>0x8f1928e8FEa7238b9B53A7E62AFd471b69732a66</v>
+      </c>
+      <c r="B80">
+        <v>NaN</v>
+      </c>
+      <c r="C80">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>0x5390651dd0824159FE0e82554feC7b283bCa3745</v>
+      </c>
+      <c r="B81">
+        <v>NaN</v>
+      </c>
+      <c r="C81">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>0xf33639F5c9cDB8E242c3E20Fdaf98Ae389f0e399</v>
+      </c>
+      <c r="B82">
+        <v>NaN</v>
+      </c>
+      <c r="C82">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>0x0116c14c39b5a5ecD03193E56E975064b4a405D2</v>
+      </c>
+      <c r="B83">
+        <v>NaN</v>
+      </c>
+      <c r="C83">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>0xbD73E24F927E9f1D9ce45B7e47f36711Dca35A88</v>
+      </c>
+      <c r="B84">
+        <v>NaN</v>
+      </c>
+      <c r="C84">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>0xb05822516a701573678447E6966F7eD3bdDf78C5</v>
+      </c>
+      <c r="B85">
+        <v>NaN</v>
+      </c>
+      <c r="C85">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+      </c>
+      <c r="B86">
+        <v>NaN</v>
+      </c>
+      <c r="C86">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B87">
+        <v>NaN</v>
+      </c>
+      <c r="C87" t="str">
+        <v>NaN</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C87"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/staker_incentives.xlsx
+++ b/staker_incentives.xlsx
@@ -3,9 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Blocks 68093124 - 68655289" sheetId="1" r:id="rId1"/>
-    <sheet name="Blocks 68093124 - 68374032" sheetId="2" r:id="rId2"/>
-    <sheet name="Blocks 68374032 - 68655289" sheetId="3" r:id="rId3"/>
+    <sheet name="Blocks 68093124 - 68374032" sheetId="1" r:id="rId1"/>
+    <sheet name="Blocks 68374032 - 68655289" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -399,1499 +398,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E87"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>address</v>
-      </c>
-      <c r="B1" t="str">
-        <v>incentive - script output</v>
-      </c>
-      <c r="C1" t="str">
-        <v>incentive (TEL)</v>
-      </c>
-      <c r="D1" t="str">
-        <v>uncapped amount - script output</v>
-      </c>
-      <c r="E1" t="str">
-        <v>uncapped amount (TEL)</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
-      </c>
-      <c r="B2">
-        <v>26898709</v>
-      </c>
-      <c r="C2" t="str">
-        <v>268,987.09</v>
-      </c>
-      <c r="D2">
-        <v>26898709</v>
-      </c>
-      <c r="E2" t="str">
-        <v>268,987.09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>0xE3060D70A15f2EdFb390D66e60467Da6F5ECA1C7</v>
-      </c>
-      <c r="B3">
-        <v>140273</v>
-      </c>
-      <c r="C3" t="str">
-        <v>1,402.73</v>
-      </c>
-      <c r="D3">
-        <v>140273</v>
-      </c>
-      <c r="E3" t="str">
-        <v>1,402.73</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
-      </c>
-      <c r="B4">
-        <v>13963745</v>
-      </c>
-      <c r="C4" t="str">
-        <v>139,637.45</v>
-      </c>
-      <c r="D4">
-        <v>13963745</v>
-      </c>
-      <c r="E4" t="str">
-        <v>139,637.45</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
-      </c>
-      <c r="B5">
-        <v>2350333</v>
-      </c>
-      <c r="C5" t="str">
-        <v>23,503.33</v>
-      </c>
-      <c r="D5">
-        <v>2350333</v>
-      </c>
-      <c r="E5" t="str">
-        <v>23,503.33</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
-      </c>
-      <c r="B6">
-        <v>1493</v>
-      </c>
-      <c r="C6" t="str">
-        <v>14.93</v>
-      </c>
-      <c r="D6">
-        <v>1493</v>
-      </c>
-      <c r="E6" t="str">
-        <v>14.93</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
-      </c>
-      <c r="B7">
-        <v>4253163</v>
-      </c>
-      <c r="C7" t="str">
-        <v>42,531.63</v>
-      </c>
-      <c r="D7">
-        <v>4253163</v>
-      </c>
-      <c r="E7" t="str">
-        <v>42,531.63</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>0x5B74F5c8A2C00fea77cAED166Eb4F71BCe7d38bC</v>
-      </c>
-      <c r="B8">
-        <v>55495</v>
-      </c>
-      <c r="C8" t="str">
-        <v>554.95</v>
-      </c>
-      <c r="D8">
-        <v>55495</v>
-      </c>
-      <c r="E8" t="str">
-        <v>554.95</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
-      </c>
-      <c r="B9">
-        <v>7850777</v>
-      </c>
-      <c r="C9" t="str">
-        <v>78,507.77</v>
-      </c>
-      <c r="D9">
-        <v>7850777</v>
-      </c>
-      <c r="E9" t="str">
-        <v>78,507.77</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
-      </c>
-      <c r="B10">
-        <v>1292683</v>
-      </c>
-      <c r="C10" t="str">
-        <v>12,926.83</v>
-      </c>
-      <c r="D10">
-        <v>1292683</v>
-      </c>
-      <c r="E10" t="str">
-        <v>12,926.83</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>0x7308fC774925316052AD22Fbdc21f2a7FF4bDA49</v>
-      </c>
-      <c r="B11">
-        <v>6947309</v>
-      </c>
-      <c r="C11" t="str">
-        <v>69,473.09</v>
-      </c>
-      <c r="D11">
-        <v>6947309</v>
-      </c>
-      <c r="E11" t="str">
-        <v>69,473.09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
-      </c>
-      <c r="B12">
-        <v>4147647</v>
-      </c>
-      <c r="C12" t="str">
-        <v>41,476.47</v>
-      </c>
-      <c r="D12">
-        <v>4147647</v>
-      </c>
-      <c r="E12" t="str">
-        <v>41,476.47</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
-      </c>
-      <c r="B13">
-        <v>2115300</v>
-      </c>
-      <c r="C13" t="str">
-        <v>21,153</v>
-      </c>
-      <c r="D13">
-        <v>2115300</v>
-      </c>
-      <c r="E13" t="str">
-        <v>21,153</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>0xff9aE836c989360f013A4d2F184b5f7e59aD6C11</v>
-      </c>
-      <c r="B14">
-        <v>357739</v>
-      </c>
-      <c r="C14" t="str">
-        <v>3,577.39</v>
-      </c>
-      <c r="D14">
-        <v>6912745</v>
-      </c>
-      <c r="E14" t="str">
-        <v>69,127.45</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>0x9C4e5edC6A735e4AB68ef04497b64008A955A1A5</v>
-      </c>
-      <c r="B15">
-        <v>557554</v>
-      </c>
-      <c r="C15" t="str">
-        <v>5,575.54</v>
-      </c>
-      <c r="D15">
-        <v>557554</v>
-      </c>
-      <c r="E15" t="str">
-        <v>5,575.54</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>0xC090D9F71184D03568485a351456C570ff9F9Cbf</v>
-      </c>
-      <c r="B16">
-        <v>81515</v>
-      </c>
-      <c r="C16" t="str">
-        <v>815.15</v>
-      </c>
-      <c r="D16">
-        <v>81515</v>
-      </c>
-      <c r="E16" t="str">
-        <v>815.15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
-      </c>
-      <c r="B17">
-        <v>20738236</v>
-      </c>
-      <c r="C17" t="str">
-        <v>207,382.36</v>
-      </c>
-      <c r="D17">
-        <v>20738236</v>
-      </c>
-      <c r="E17" t="str">
-        <v>207,382.36</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
-      </c>
-      <c r="B18">
-        <v>711874</v>
-      </c>
-      <c r="C18" t="str">
-        <v>7,118.74</v>
-      </c>
-      <c r="D18">
-        <v>711874</v>
-      </c>
-      <c r="E18" t="str">
-        <v>7,118.74</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>0xd685199C3Bfc7DD24d7E4A6bfD17dCa2bBF2F57d</v>
-      </c>
-      <c r="B19">
-        <v>13825491</v>
-      </c>
-      <c r="C19" t="str">
-        <v>138,254.91</v>
-      </c>
-      <c r="D19">
-        <v>13825491</v>
-      </c>
-      <c r="E19" t="str">
-        <v>138,254.91</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>0x8218E1a9D02E26E2aF124EA28b121031Cf25AaC8</v>
-      </c>
-      <c r="B20">
-        <v>276509</v>
-      </c>
-      <c r="C20" t="str">
-        <v>2,765.09</v>
-      </c>
-      <c r="D20">
-        <v>276509</v>
-      </c>
-      <c r="E20" t="str">
-        <v>2,765.09</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
-      </c>
-      <c r="B21">
-        <v>414764</v>
-      </c>
-      <c r="C21" t="str">
-        <v>4,147.64</v>
-      </c>
-      <c r="D21">
-        <v>414764</v>
-      </c>
-      <c r="E21" t="str">
-        <v>4,147.64</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>0xdFdf143A6a12185023e01ddC61092Ac97eCB6c05</v>
-      </c>
-      <c r="B22">
-        <v>691274</v>
-      </c>
-      <c r="C22" t="str">
-        <v>6,912.74</v>
-      </c>
-      <c r="D22">
-        <v>691274</v>
-      </c>
-      <c r="E22" t="str">
-        <v>6,912.74</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
-      </c>
-      <c r="B23">
-        <v>5128704</v>
-      </c>
-      <c r="C23" t="str">
-        <v>51,287.04</v>
-      </c>
-      <c r="D23">
-        <v>5128704</v>
-      </c>
-      <c r="E23" t="str">
-        <v>51,287.04</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>0xb8e441ad9cA68bf92Da52A40BFBb03Bc6454ABB4</v>
-      </c>
-      <c r="B24">
-        <v>21429511</v>
-      </c>
-      <c r="C24" t="str">
-        <v>214,295.11</v>
-      </c>
-      <c r="D24">
-        <v>21429511</v>
-      </c>
-      <c r="E24" t="str">
-        <v>214,295.11</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>0x9B73f16958aD4dF607E8B58aA2f407d66e9FA543</v>
-      </c>
-      <c r="B25">
-        <v>69127</v>
-      </c>
-      <c r="C25" t="str">
-        <v>691.27</v>
-      </c>
-      <c r="D25">
-        <v>69127</v>
-      </c>
-      <c r="E25" t="str">
-        <v>691.27</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
-      </c>
-      <c r="B26">
-        <v>1890</v>
-      </c>
-      <c r="C26" t="str">
-        <v>18.9</v>
-      </c>
-      <c r="D26">
-        <v>69127</v>
-      </c>
-      <c r="E26" t="str">
-        <v>691.27</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>0xF197552b64740Ff554D2887B59CD299d7b853Df3</v>
-      </c>
-      <c r="B27">
-        <v>1001000</v>
-      </c>
-      <c r="C27" t="str">
-        <v>10,010</v>
-      </c>
-      <c r="D27">
-        <v>98160986</v>
-      </c>
-      <c r="E27" t="str">
-        <v>981,609.86</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
-      </c>
-      <c r="B28">
-        <v>152080</v>
-      </c>
-      <c r="C28" t="str">
-        <v>1,520.8</v>
-      </c>
-      <c r="D28">
-        <v>152080</v>
-      </c>
-      <c r="E28" t="str">
-        <v>1,520.8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
-      </c>
-      <c r="B29">
-        <v>7826201</v>
-      </c>
-      <c r="C29" t="str">
-        <v>78,262.01</v>
-      </c>
-      <c r="D29">
-        <v>28484050</v>
-      </c>
-      <c r="E29" t="str">
-        <v>284,840.5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
-      </c>
-      <c r="B30">
-        <v>1000000</v>
-      </c>
-      <c r="C30" t="str">
-        <v>10,000</v>
-      </c>
-      <c r="D30">
-        <v>24257128</v>
-      </c>
-      <c r="E30" t="str">
-        <v>242,571.28</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
-      </c>
-      <c r="B31">
-        <v>26898709</v>
-      </c>
-      <c r="C31" t="str">
-        <v>268,987.09</v>
-      </c>
-      <c r="D31">
-        <v>26898709</v>
-      </c>
-      <c r="E31" t="str">
-        <v>268,987.09</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>0xD7Be7655070f986B3E311EE04cc9aa87Cd11ab5d</v>
-      </c>
-      <c r="B32">
-        <v>140273</v>
-      </c>
-      <c r="C32" t="str">
-        <v>1,402.73</v>
-      </c>
-      <c r="D32">
-        <v>140273</v>
-      </c>
-      <c r="E32" t="str">
-        <v>1,402.73</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
-      </c>
-      <c r="B33">
-        <v>138254</v>
-      </c>
-      <c r="C33" t="str">
-        <v>1,382.54</v>
-      </c>
-      <c r="D33">
-        <v>138254</v>
-      </c>
-      <c r="E33" t="str">
-        <v>1,382.54</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
-      </c>
-      <c r="B34">
-        <v>60845986</v>
-      </c>
-      <c r="C34" t="str">
-        <v>608,459.86</v>
-      </c>
-      <c r="D34">
-        <v>60845986</v>
-      </c>
-      <c r="E34" t="str">
-        <v>608,459.86</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>0x4DF1C6c7973f4E6e3B22149f7b8eFc4389f97C56</v>
-      </c>
-      <c r="B35">
-        <v>41490298</v>
-      </c>
-      <c r="C35" t="str">
-        <v>414,902.98</v>
-      </c>
-      <c r="D35">
-        <v>41490298</v>
-      </c>
-      <c r="E35" t="str">
-        <v>414,902.98</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>0x3d1F678EBd71CA033f21D6B1B5B0781a66537447</v>
-      </c>
-      <c r="B36">
-        <v>1479327</v>
-      </c>
-      <c r="C36" t="str">
-        <v>14,793.27</v>
-      </c>
-      <c r="D36">
-        <v>1479327</v>
-      </c>
-      <c r="E36" t="str">
-        <v>14,793.27</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
-      </c>
-      <c r="B37">
-        <v>345637</v>
-      </c>
-      <c r="C37" t="str">
-        <v>3,456.37</v>
-      </c>
-      <c r="D37">
-        <v>345637</v>
-      </c>
-      <c r="E37" t="str">
-        <v>3,456.37</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
-      </c>
-      <c r="B38">
-        <v>100000</v>
-      </c>
-      <c r="C38" t="str">
-        <v>1,000</v>
-      </c>
-      <c r="D38">
-        <v>138254</v>
-      </c>
-      <c r="E38" t="str">
-        <v>1,382.54</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>0xb91406Ea49418Ff04F73231BA48930278bCef631</v>
-      </c>
-      <c r="B39">
-        <v>276509</v>
-      </c>
-      <c r="C39" t="str">
-        <v>2,765.09</v>
-      </c>
-      <c r="D39">
-        <v>276509</v>
-      </c>
-      <c r="E39" t="str">
-        <v>2,765.09</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
-      </c>
-      <c r="B40">
-        <v>345637</v>
-      </c>
-      <c r="C40" t="str">
-        <v>3,456.37</v>
-      </c>
-      <c r="D40">
-        <v>345637</v>
-      </c>
-      <c r="E40" t="str">
-        <v>3,456.37</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
-      </c>
-      <c r="B41">
-        <v>7000094</v>
-      </c>
-      <c r="C41" t="str">
-        <v>70,000.94</v>
-      </c>
-      <c r="D41">
-        <v>7000094</v>
-      </c>
-      <c r="E41" t="str">
-        <v>70,000.94</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
-      </c>
-      <c r="B42">
-        <v>1451676</v>
-      </c>
-      <c r="C42" t="str">
-        <v>14,516.76</v>
-      </c>
-      <c r="D42">
-        <v>1451676</v>
-      </c>
-      <c r="E42" t="str">
-        <v>14,516.76</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
-      </c>
-      <c r="B43">
-        <v>13825491</v>
-      </c>
-      <c r="C43" t="str">
-        <v>138,254.91</v>
-      </c>
-      <c r="D43">
-        <v>13825491</v>
-      </c>
-      <c r="E43" t="str">
-        <v>138,254.91</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
-      </c>
-      <c r="B44">
-        <v>20895100</v>
-      </c>
-      <c r="C44" t="str">
-        <v>208,951</v>
-      </c>
-      <c r="D44">
-        <v>20895100</v>
-      </c>
-      <c r="E44" t="str">
-        <v>208,951</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>0x8f437d47c7723C7AB5ab896D59549D547181BecB</v>
-      </c>
-      <c r="B45">
-        <v>6736194</v>
-      </c>
-      <c r="C45" t="str">
-        <v>67,361.94</v>
-      </c>
-      <c r="D45">
-        <v>6736194</v>
-      </c>
-      <c r="E45" t="str">
-        <v>67,361.94</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>0xA742150Bb2b4e5DfCC4E6df0E577237Fceb797b2</v>
-      </c>
-      <c r="B46">
-        <v>500000</v>
-      </c>
-      <c r="C46" t="str">
-        <v>5,000</v>
-      </c>
-      <c r="D46">
-        <v>6736194</v>
-      </c>
-      <c r="E46" t="str">
-        <v>67,361.94</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
-      </c>
-      <c r="B47">
-        <v>13542151</v>
-      </c>
-      <c r="C47" t="str">
-        <v>135,421.51</v>
-      </c>
-      <c r="D47">
-        <v>13542151</v>
-      </c>
-      <c r="E47" t="str">
-        <v>135,421.51</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
-      </c>
-      <c r="B48">
-        <v>7697535</v>
-      </c>
-      <c r="C48" t="str">
-        <v>76,975.35</v>
-      </c>
-      <c r="D48">
-        <v>7697535</v>
-      </c>
-      <c r="E48" t="str">
-        <v>76,975.35</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
-      </c>
-      <c r="B49">
-        <v>7364037</v>
-      </c>
-      <c r="C49" t="str">
-        <v>73,640.37</v>
-      </c>
-      <c r="D49">
-        <v>7364037</v>
-      </c>
-      <c r="E49" t="str">
-        <v>73,640.37</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>0x6f9A5457e35FF98FCcA68b71c2D1bf7aAAeB714E</v>
-      </c>
-      <c r="B50">
-        <v>46</v>
-      </c>
-      <c r="C50" t="str">
-        <v>0.46</v>
-      </c>
-      <c r="D50">
-        <v>189077</v>
-      </c>
-      <c r="E50" t="str">
-        <v>1,890.77</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>0x0b3d82e9b1D9163a1fe71DC2bc60C6Fb7fb13863</v>
-      </c>
-      <c r="B51">
-        <v>189077</v>
-      </c>
-      <c r="C51" t="str">
-        <v>1,890.77</v>
-      </c>
-      <c r="D51">
-        <v>189077</v>
-      </c>
-      <c r="E51" t="str">
-        <v>1,890.77</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>0xb12042f547d28da37E88d7Db7A2CBAaf8CD88F68</v>
-      </c>
-      <c r="B52">
-        <v>691274</v>
-      </c>
-      <c r="C52" t="str">
-        <v>6,912.74</v>
-      </c>
-      <c r="D52">
-        <v>691274</v>
-      </c>
-      <c r="E52" t="str">
-        <v>6,912.74</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>0xDF6F220E72A6320E87576c5075899Be34212f97D</v>
-      </c>
-      <c r="B53">
-        <v>56242</v>
-      </c>
-      <c r="C53" t="str">
-        <v>562.42</v>
-      </c>
-      <c r="D53">
-        <v>56242</v>
-      </c>
-      <c r="E53" t="str">
-        <v>562.42</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>0x3E3309ab5312f6875b6e9bE672b9A43EFb70D760</v>
-      </c>
-      <c r="B54">
-        <v>6221470</v>
-      </c>
-      <c r="C54" t="str">
-        <v>62,214.7</v>
-      </c>
-      <c r="D54">
-        <v>6221470</v>
-      </c>
-      <c r="E54" t="str">
-        <v>62,214.7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
-      </c>
-      <c r="B55">
-        <v>1022560</v>
-      </c>
-      <c r="C55" t="str">
-        <v>10,225.6</v>
-      </c>
-      <c r="D55">
-        <v>1022560</v>
-      </c>
-      <c r="E55" t="str">
-        <v>10,225.6</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
-      </c>
-      <c r="B56">
-        <v>9332206</v>
-      </c>
-      <c r="C56" t="str">
-        <v>93,322.06</v>
-      </c>
-      <c r="D56">
-        <v>9332206</v>
-      </c>
-      <c r="E56" t="str">
-        <v>93,322.06</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>0x2EeCd56c9A00E81a393Fd24F22a07C9D80336E20</v>
-      </c>
-      <c r="B57">
-        <v>1861989</v>
-      </c>
-      <c r="C57" t="str">
-        <v>18,619.89</v>
-      </c>
-      <c r="D57">
-        <v>1861989</v>
-      </c>
-      <c r="E57" t="str">
-        <v>18,619.89</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>0x2abf42F330c60491E8A36B73c9F3F9Ed40CDa546</v>
-      </c>
-      <c r="B58">
-        <v>10106433</v>
-      </c>
-      <c r="C58" t="str">
-        <v>101,064.33</v>
-      </c>
-      <c r="D58">
-        <v>10106433</v>
-      </c>
-      <c r="E58" t="str">
-        <v>101,064.33</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>0x66B6221845b9bd7A029BCCb5523168a5AcE1e013</v>
-      </c>
-      <c r="B59">
-        <v>28660242</v>
-      </c>
-      <c r="C59" t="str">
-        <v>286,602.42</v>
-      </c>
-      <c r="D59">
-        <v>28660242</v>
-      </c>
-      <c r="E59" t="str">
-        <v>286,602.42</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>0x331B6287b04a4Bb359C75D102a2104561BB84fe3</v>
-      </c>
-      <c r="B60">
-        <v>41476</v>
-      </c>
-      <c r="C60" t="str">
-        <v>414.76</v>
-      </c>
-      <c r="D60">
-        <v>41476</v>
-      </c>
-      <c r="E60" t="str">
-        <v>414.76</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>0x2A1Cc6c77782EA6BE6C08d61430A79E31Ea4efDf</v>
-      </c>
-      <c r="B61">
-        <v>670536</v>
-      </c>
-      <c r="C61" t="str">
-        <v>6,705.36</v>
-      </c>
-      <c r="D61">
-        <v>670536</v>
-      </c>
-      <c r="E61" t="str">
-        <v>6,705.36</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>0x417eD74e3904f2C2d2eBb4e8050bD772374bd82a</v>
-      </c>
-      <c r="B62">
-        <v>89865</v>
-      </c>
-      <c r="C62" t="str">
-        <v>898.65</v>
-      </c>
-      <c r="D62">
-        <v>89865</v>
-      </c>
-      <c r="E62" t="str">
-        <v>898.65</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
-      </c>
-      <c r="B63">
-        <v>6223130</v>
-      </c>
-      <c r="C63" t="str">
-        <v>62,231.3</v>
-      </c>
-      <c r="D63">
-        <v>6223130</v>
-      </c>
-      <c r="E63" t="str">
-        <v>62,231.3</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>0x733e103A702EACEa3189361a3b79902491FBACd1</v>
-      </c>
-      <c r="B64">
-        <v>138254</v>
-      </c>
-      <c r="C64" t="str">
-        <v>1,382.54</v>
-      </c>
-      <c r="D64">
-        <v>138254</v>
-      </c>
-      <c r="E64" t="str">
-        <v>1,382.54</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>0xE17Aa7A67B0834823F56f01260b1E0965f14Eb4c</v>
-      </c>
-      <c r="B65">
-        <v>6912745</v>
-      </c>
-      <c r="C65" t="str">
-        <v>69,127.45</v>
-      </c>
-      <c r="D65">
-        <v>6912745</v>
-      </c>
-      <c r="E65" t="str">
-        <v>69,127.45</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
-      </c>
-      <c r="B66">
-        <v>2765098</v>
-      </c>
-      <c r="C66" t="str">
-        <v>27,650.98</v>
-      </c>
-      <c r="D66">
-        <v>2765098</v>
-      </c>
-      <c r="E66" t="str">
-        <v>27,650.98</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>0x469E40f0854EC0E8FaC1Afd4Af2DFfD5aE5569B0</v>
-      </c>
-      <c r="B67">
-        <v>110603</v>
-      </c>
-      <c r="C67" t="str">
-        <v>1,106.03</v>
-      </c>
-      <c r="D67">
-        <v>110603</v>
-      </c>
-      <c r="E67" t="str">
-        <v>1,106.03</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
-      </c>
-      <c r="B68">
-        <v>81515</v>
-      </c>
-      <c r="C68" t="str">
-        <v>815.15</v>
-      </c>
-      <c r="D68">
-        <v>81515</v>
-      </c>
-      <c r="E68" t="str">
-        <v>815.15</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>0xe6eaa2b28ce4b4064E37eF290E82de53Fd81C211</v>
-      </c>
-      <c r="B69">
-        <v>1036911</v>
-      </c>
-      <c r="C69" t="str">
-        <v>10,369.11</v>
-      </c>
-      <c r="D69">
-        <v>1036911</v>
-      </c>
-      <c r="E69" t="str">
-        <v>10,369.11</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
-      </c>
-      <c r="B70">
-        <v>20738236</v>
-      </c>
-      <c r="C70" t="str">
-        <v>207,382.36</v>
-      </c>
-      <c r="D70">
-        <v>20738236</v>
-      </c>
-      <c r="E70" t="str">
-        <v>207,382.36</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
-      </c>
-      <c r="B71">
-        <v>2765098</v>
-      </c>
-      <c r="C71" t="str">
-        <v>27,650.98</v>
-      </c>
-      <c r="D71">
-        <v>2765098</v>
-      </c>
-      <c r="E71" t="str">
-        <v>27,650.98</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>0x8fa6e6dB6B86d0Cad2fa8DeEb737BC1cB97a2bE1</v>
-      </c>
-      <c r="B72">
-        <v>691274</v>
-      </c>
-      <c r="C72" t="str">
-        <v>6,912.74</v>
-      </c>
-      <c r="D72">
-        <v>691274</v>
-      </c>
-      <c r="E72" t="str">
-        <v>6,912.74</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
-      </c>
-      <c r="B73">
-        <v>691274</v>
-      </c>
-      <c r="C73" t="str">
-        <v>6,912.74</v>
-      </c>
-      <c r="D73">
-        <v>691274</v>
-      </c>
-      <c r="E73" t="str">
-        <v>6,912.74</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>0x9fF7d51Cf6a3A12F2Cdd36035827037a35A4B139</v>
-      </c>
-      <c r="B74">
-        <v>23613</v>
-      </c>
-      <c r="C74" t="str">
-        <v>236.13</v>
-      </c>
-      <c r="D74">
-        <v>23613</v>
-      </c>
-      <c r="E74" t="str">
-        <v>236.13</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>0x8B66c0aEEc3a231F6e3302dBb7d351B5c7B094B0</v>
-      </c>
-      <c r="B75">
-        <v>276509</v>
-      </c>
-      <c r="C75" t="str">
-        <v>2,765.09</v>
-      </c>
-      <c r="D75">
-        <v>276509</v>
-      </c>
-      <c r="E75" t="str">
-        <v>2,765.09</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>0xD81F1cF201B68a9EA0E8f10b1864DFE925202643</v>
-      </c>
-      <c r="B76">
-        <v>317986</v>
-      </c>
-      <c r="C76" t="str">
-        <v>3,179.86</v>
-      </c>
-      <c r="D76">
-        <v>317986</v>
-      </c>
-      <c r="E76" t="str">
-        <v>3,179.86</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
-      </c>
-      <c r="B77">
-        <v>317986</v>
-      </c>
-      <c r="C77" t="str">
-        <v>3,179.86</v>
-      </c>
-      <c r="D77">
-        <v>317986</v>
-      </c>
-      <c r="E77" t="str">
-        <v>3,179.86</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
-      </c>
-      <c r="B78">
-        <v>2500000</v>
-      </c>
-      <c r="C78" t="str">
-        <v>25,000</v>
-      </c>
-      <c r="D78">
-        <v>8986569</v>
-      </c>
-      <c r="E78" t="str">
-        <v>89,865.69</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
-      </c>
-      <c r="B79">
-        <v>417391</v>
-      </c>
-      <c r="C79" t="str">
-        <v>4,173.91</v>
-      </c>
-      <c r="D79">
-        <v>417391</v>
-      </c>
-      <c r="E79" t="str">
-        <v>4,173.91</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>0x8f1928e8FEa7238b9B53A7E62AFd471b69732a66</v>
-      </c>
-      <c r="B80">
-        <v>4147647</v>
-      </c>
-      <c r="C80" t="str">
-        <v>41,476.47</v>
-      </c>
-      <c r="D80">
-        <v>4147647</v>
-      </c>
-      <c r="E80" t="str">
-        <v>41,476.47</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>0x5390651dd0824159FE0e82554feC7b283bCa3745</v>
-      </c>
-      <c r="B81">
-        <v>4147647</v>
-      </c>
-      <c r="C81" t="str">
-        <v>41,476.47</v>
-      </c>
-      <c r="D81">
-        <v>4147647</v>
-      </c>
-      <c r="E81" t="str">
-        <v>41,476.47</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>0xf33639F5c9cDB8E242c3E20Fdaf98Ae389f0e399</v>
-      </c>
-      <c r="B82">
-        <v>414764</v>
-      </c>
-      <c r="C82" t="str">
-        <v>4,147.64</v>
-      </c>
-      <c r="D82">
-        <v>414764</v>
-      </c>
-      <c r="E82" t="str">
-        <v>4,147.64</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>0x0116c14c39b5a5ecD03193E56E975064b4a405D2</v>
-      </c>
-      <c r="B83">
-        <v>414764</v>
-      </c>
-      <c r="C83" t="str">
-        <v>4,147.64</v>
-      </c>
-      <c r="D83">
-        <v>414764</v>
-      </c>
-      <c r="E83" t="str">
-        <v>4,147.64</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>0xbD73E24F927E9f1D9ce45B7e47f36711Dca35A88</v>
-      </c>
-      <c r="B84">
-        <v>5530196</v>
-      </c>
-      <c r="C84" t="str">
-        <v>55,301.96</v>
-      </c>
-      <c r="D84">
-        <v>5530196</v>
-      </c>
-      <c r="E84" t="str">
-        <v>55,301.96</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>0xb05822516a701573678447E6966F7eD3bdDf78C5</v>
-      </c>
-      <c r="B85">
-        <v>2653885</v>
-      </c>
-      <c r="C85" t="str">
-        <v>26,538.85</v>
-      </c>
-      <c r="D85">
-        <v>2653885</v>
-      </c>
-      <c r="E85" t="str">
-        <v>26,538.85</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
-      </c>
-      <c r="B86">
-        <v>2765098</v>
-      </c>
-      <c r="C86" t="str">
-        <v>27,650.98</v>
-      </c>
-      <c r="D86">
-        <v>2765098</v>
-      </c>
-      <c r="E86" t="str">
-        <v>27,650.98</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v>Total</v>
-      </c>
-      <c r="B87">
-        <v>480378344</v>
-      </c>
-      <c r="C87" t="str">
-        <v>4,803,783.44</v>
-      </c>
-      <c r="D87">
-        <v>641025598</v>
-      </c>
-      <c r="E87" t="str">
-        <v>6,410,255.98</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E87"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
@@ -2873,7 +1379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E58"/>
   <sheetViews>

--- a/staker_incentives.xlsx
+++ b/staker_incentives.xlsx
@@ -13228,7 +13228,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E318"/>
+  <dimension ref="A1:E327"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -13429,143 +13429,143 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
       </c>
       <c r="B12" t="str">
-        <v>20,299.21</v>
+        <v>0</v>
       </c>
       <c r="C12" t="str">
-        <v>20,299.21</v>
+        <v>379,539.83</v>
       </c>
       <c r="D12" t="str">
-        <v>484.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="str">
-        <v>9,696.85</v>
+        <v>190,363.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>0xe6003157081195744A8064AB632bf7FeCE95BEEb</v>
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
       </c>
       <c r="B13" t="str">
-        <v>1,495.32</v>
+        <v>20,299.21</v>
       </c>
       <c r="C13" t="str">
-        <v>1,495.32</v>
+        <v>20,299.21</v>
       </c>
       <c r="D13" t="str">
-        <v>750</v>
+        <v>484.5</v>
       </c>
       <c r="E13" t="str">
-        <v>0</v>
+        <v>9,696.85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>0x942E746C384bec88Dfa6164e8d699858E9988FeB</v>
+        <v>0xe6003157081195744A8064AB632bf7FeCE95BEEb</v>
       </c>
       <c r="B14" t="str">
-        <v>5,783.11</v>
+        <v>1,495.32</v>
       </c>
       <c r="C14" t="str">
-        <v>5,783.11</v>
+        <v>1,495.32</v>
       </c>
       <c r="D14" t="str">
-        <v>818.51</v>
+        <v>750</v>
       </c>
       <c r="E14" t="str">
-        <v>2,082.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>0x1C0357bBaeC65A3f909490A8b2150323710a3d81</v>
+        <v>0x942E746C384bec88Dfa6164e8d699858E9988FeB</v>
       </c>
       <c r="B15" t="str">
-        <v>2,242.98</v>
+        <v>5,783.11</v>
       </c>
       <c r="C15" t="str">
-        <v>2,242.98</v>
+        <v>5,783.11</v>
       </c>
       <c r="D15" t="str">
-        <v>1,125</v>
+        <v>818.51</v>
       </c>
       <c r="E15" t="str">
-        <v>0</v>
+        <v>2,082.09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
+        <v>0x1C0357bBaeC65A3f909490A8b2150323710a3d81</v>
       </c>
       <c r="B16" t="str">
-        <v>31,016.8</v>
+        <v>2,242.98</v>
       </c>
       <c r="C16" t="str">
-        <v>31,016.8</v>
+        <v>2,242.98</v>
       </c>
       <c r="D16" t="str">
-        <v>814.91</v>
+        <v>1,125</v>
       </c>
       <c r="E16" t="str">
-        <v>14,741.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>0xD957cc84a2B565e7572a8F02A39e487466c3bFF7</v>
+        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
       </c>
       <c r="B17" t="str">
-        <v>5,123.71</v>
+        <v>31,016.8</v>
       </c>
       <c r="C17" t="str">
-        <v>5,123.71</v>
+        <v>31,016.8</v>
       </c>
       <c r="D17" t="str">
-        <v>0</v>
+        <v>814.91</v>
       </c>
       <c r="E17" t="str">
-        <v>2,569.87</v>
+        <v>14,741.99</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+        <v>0xD957cc84a2B565e7572a8F02A39e487466c3bFF7</v>
       </c>
       <c r="B18" t="str">
-        <v>1,816.85</v>
+        <v>5,123.71</v>
       </c>
       <c r="C18" t="str">
-        <v>1,816.85</v>
+        <v>5,123.71</v>
       </c>
       <c r="D18" t="str">
-        <v>140.66</v>
+        <v>0</v>
       </c>
       <c r="E18" t="str">
-        <v>770.61</v>
+        <v>2,569.87</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>0x8d78DC05373E4Fa05593FfCB93ab88192F6C8121</v>
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
       </c>
       <c r="B19" t="str">
-        <v>151.74</v>
+        <v>1,816.85</v>
       </c>
       <c r="C19" t="str">
-        <v>151.74</v>
+        <v>1,816.85</v>
       </c>
       <c r="D19" t="str">
-        <v>76.11</v>
+        <v>140.66</v>
       </c>
       <c r="E19" t="str">
-        <v>0</v>
+        <v>770.61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
+        <v>0x8d78DC05373E4Fa05593FfCB93ab88192F6C8121</v>
       </c>
       <c r="B20" t="str">
         <v>151.74</v>
@@ -13574,92 +13574,92 @@
         <v>151.74</v>
       </c>
       <c r="D20" t="str">
-        <v>0</v>
+        <v>76.11</v>
       </c>
       <c r="E20" t="str">
-        <v>76.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>0x458456AC82D1aBC05e3d00c3e5d672eE82BfE003</v>
+        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
       </c>
       <c r="B21" t="str">
-        <v>64.29</v>
+        <v>151.74</v>
       </c>
       <c r="C21" t="str">
-        <v>64.29</v>
+        <v>151.74</v>
       </c>
       <c r="D21" t="str">
-        <v>32.25</v>
+        <v>0</v>
       </c>
       <c r="E21" t="str">
-        <v>0</v>
+        <v>76.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>0x93dF9FA2f92ce2cfDE334E12e238D86F114FF251</v>
+        <v>0x458456AC82D1aBC05e3d00c3e5d672eE82BfE003</v>
       </c>
       <c r="B22" t="str">
-        <v>307.19</v>
+        <v>64.29</v>
       </c>
       <c r="C22" t="str">
-        <v>307.19</v>
+        <v>64.29</v>
       </c>
       <c r="D22" t="str">
-        <v>121.83</v>
+        <v>32.25</v>
       </c>
       <c r="E22" t="str">
-        <v>32.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+        <v>0x93dF9FA2f92ce2cfDE334E12e238D86F114FF251</v>
       </c>
       <c r="B23" t="str">
-        <v>99,799</v>
+        <v>307.19</v>
       </c>
       <c r="C23" t="str">
-        <v>99,799</v>
+        <v>307.19</v>
       </c>
       <c r="D23" t="str">
-        <v>50,034.9</v>
+        <v>121.83</v>
       </c>
       <c r="E23" t="str">
-        <v>20.65</v>
+        <v>32.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>0x4232c562AB3dc0937c3b3879349CB7CBFc9ceF8C</v>
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
       </c>
       <c r="B24" t="str">
-        <v>1,113.21</v>
+        <v>99,799</v>
       </c>
       <c r="C24" t="str">
-        <v>1,113.21</v>
+        <v>99,799</v>
       </c>
       <c r="D24" t="str">
-        <v>558.35</v>
+        <v>50,034.9</v>
       </c>
       <c r="E24" t="str">
-        <v>0</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>0xa8f881849583f2dBC55f04433C62Edbc79f46286</v>
+        <v>0x4232c562AB3dc0937c3b3879349CB7CBFc9ceF8C</v>
       </c>
       <c r="B25" t="str">
-        <v>67.56</v>
+        <v>1,113.21</v>
       </c>
       <c r="C25" t="str">
-        <v>67.56</v>
+        <v>1,113.21</v>
       </c>
       <c r="D25" t="str">
-        <v>33.89</v>
+        <v>558.35</v>
       </c>
       <c r="E25" t="str">
         <v>0</v>
@@ -13667,16 +13667,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
+        <v>0xa8f881849583f2dBC55f04433C62Edbc79f46286</v>
       </c>
       <c r="B26" t="str">
-        <v>1,840.96</v>
+        <v>67.56</v>
       </c>
       <c r="C26" t="str">
-        <v>1,840.96</v>
+        <v>67.56</v>
       </c>
       <c r="D26" t="str">
-        <v>923.36</v>
+        <v>33.89</v>
       </c>
       <c r="E26" t="str">
         <v>0</v>
@@ -13684,16 +13684,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
+        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
       </c>
       <c r="B27" t="str">
-        <v>116.69</v>
+        <v>1,840.96</v>
       </c>
       <c r="C27" t="str">
-        <v>116.69</v>
+        <v>1,840.96</v>
       </c>
       <c r="D27" t="str">
-        <v>58.53</v>
+        <v>923.36</v>
       </c>
       <c r="E27" t="str">
         <v>0</v>
@@ -13701,101 +13701,101 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>0xd685199C3Bfc7DD24d7E4A6bfD17dCa2bBF2F57d</v>
+        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
       </c>
       <c r="B28" t="str">
-        <v>21,450.85</v>
+        <v>116.69</v>
       </c>
       <c r="C28" t="str">
-        <v>21,450.85</v>
+        <v>116.69</v>
       </c>
       <c r="D28" t="str">
-        <v>91.35</v>
+        <v>58.53</v>
       </c>
       <c r="E28" t="str">
-        <v>10,667.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>0x65ED1e1351640D112aeAc04d4988B6916a5f62dc</v>
+        <v>0xd685199C3Bfc7DD24d7E4A6bfD17dCa2bBF2F57d</v>
       </c>
       <c r="B29" t="str">
-        <v>1,028.26</v>
+        <v>21,450.85</v>
       </c>
       <c r="C29" t="str">
-        <v>1,028.26</v>
+        <v>21,450.85</v>
       </c>
       <c r="D29" t="str">
-        <v>515.74</v>
+        <v>91.35</v>
       </c>
       <c r="E29" t="str">
-        <v>0</v>
+        <v>10,667.62</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+        <v>0x65ED1e1351640D112aeAc04d4988B6916a5f62dc</v>
       </c>
       <c r="B30" t="str">
-        <v>3,763.05</v>
+        <v>1,028.26</v>
       </c>
       <c r="C30" t="str">
-        <v>3,763.05</v>
+        <v>1,028.26</v>
       </c>
       <c r="D30" t="str">
-        <v>32.48</v>
+        <v>515.74</v>
       </c>
       <c r="E30" t="str">
-        <v>1,854.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
       </c>
       <c r="B31" t="str">
-        <v>118.05</v>
+        <v>3,763.05</v>
       </c>
       <c r="C31" t="str">
-        <v>118.05</v>
+        <v>3,763.05</v>
       </c>
       <c r="D31" t="str">
-        <v>0</v>
+        <v>32.48</v>
       </c>
       <c r="E31" t="str">
-        <v>59.21</v>
+        <v>1,854.93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
       </c>
       <c r="B32" t="str">
-        <v>367.15</v>
+        <v>118.05</v>
       </c>
       <c r="C32" t="str">
-        <v>367.15</v>
+        <v>118.05</v>
       </c>
       <c r="D32" t="str">
-        <v>184.15</v>
+        <v>0</v>
       </c>
       <c r="E32" t="str">
-        <v>0</v>
+        <v>59.21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>0xc4a806D25d423059bb2E5D6aFc7dC5E046518E15</v>
+        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
       </c>
       <c r="B33" t="str">
-        <v>3,334.93</v>
+        <v>367.15</v>
       </c>
       <c r="C33" t="str">
-        <v>3,334.93</v>
+        <v>367.15</v>
       </c>
       <c r="D33" t="str">
-        <v>1,672.68</v>
+        <v>184.15</v>
       </c>
       <c r="E33" t="str">
         <v>0</v>
@@ -13803,50 +13803,50 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>0x47AC835002937B1C8C6004D7f8E23f99De995516</v>
+        <v>0xc4a806D25d423059bb2E5D6aFc7dC5E046518E15</v>
       </c>
       <c r="B34" t="str">
-        <v>332.46</v>
+        <v>3,334.93</v>
       </c>
       <c r="C34" t="str">
-        <v>332.46</v>
+        <v>3,334.93</v>
       </c>
       <c r="D34" t="str">
-        <v>0.67</v>
+        <v>1,672.68</v>
       </c>
       <c r="E34" t="str">
-        <v>166.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>0xFC27318Dc8d42bcB1bf334F34309AF579D532b64</v>
+        <v>0x47AC835002937B1C8C6004D7f8E23f99De995516</v>
       </c>
       <c r="B35" t="str">
-        <v>18.94</v>
+        <v>332.46</v>
       </c>
       <c r="C35" t="str">
-        <v>18.94</v>
+        <v>332.46</v>
       </c>
       <c r="D35" t="str">
-        <v>9.5</v>
+        <v>0.67</v>
       </c>
       <c r="E35" t="str">
-        <v>0</v>
+        <v>166.08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>0x2e9Ba451A457f10c4737C4d3B2a16db225153B84</v>
+        <v>0xFC27318Dc8d42bcB1bf334F34309AF579D532b64</v>
       </c>
       <c r="B36" t="str">
-        <v>1,844.23</v>
+        <v>18.94</v>
       </c>
       <c r="C36" t="str">
-        <v>1,844.23</v>
+        <v>18.94</v>
       </c>
       <c r="D36" t="str">
-        <v>925</v>
+        <v>9.5</v>
       </c>
       <c r="E36" t="str">
         <v>0</v>
@@ -13854,16 +13854,16 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>0xE910838B91486D4Fef2d0C4a77a3819D7600D36b</v>
+        <v>0x2e9Ba451A457f10c4737C4d3B2a16db225153B84</v>
       </c>
       <c r="B37" t="str">
-        <v>51.49</v>
+        <v>1,844.23</v>
       </c>
       <c r="C37" t="str">
-        <v>51.49</v>
+        <v>1,844.23</v>
       </c>
       <c r="D37" t="str">
-        <v>25.83</v>
+        <v>925</v>
       </c>
       <c r="E37" t="str">
         <v>0</v>
@@ -13871,84 +13871,84 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>0x212A3caD6d1572C706959d2aeF63071e61914bf2</v>
+        <v>0xE910838B91486D4Fef2d0C4a77a3819D7600D36b</v>
       </c>
       <c r="B38" t="str">
-        <v>4,678.15</v>
+        <v>51.49</v>
       </c>
       <c r="C38" t="str">
-        <v>4,678.15</v>
+        <v>51.49</v>
       </c>
       <c r="D38" t="str">
-        <v>1,663.58</v>
+        <v>25.83</v>
       </c>
       <c r="E38" t="str">
-        <v>682.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>0xE02A23F9DA0971f65a548e3Da4F247a5ed6Fc82d</v>
+        <v>0x212A3caD6d1572C706959d2aeF63071e61914bf2</v>
       </c>
       <c r="B39" t="str">
-        <v>316.94</v>
+        <v>4,678.15</v>
       </c>
       <c r="C39" t="str">
-        <v>316.94</v>
+        <v>4,678.15</v>
       </c>
       <c r="D39" t="str">
-        <v>158.97</v>
+        <v>1,663.58</v>
       </c>
       <c r="E39" t="str">
-        <v>0</v>
+        <v>682.81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
+        <v>0xE02A23F9DA0971f65a548e3Da4F247a5ed6Fc82d</v>
       </c>
       <c r="B40" t="str">
-        <v>2,522.27</v>
+        <v>316.94</v>
       </c>
       <c r="C40" t="str">
-        <v>2,522.27</v>
+        <v>316.94</v>
       </c>
       <c r="D40" t="str">
-        <v>142.15</v>
+        <v>158.97</v>
       </c>
       <c r="E40" t="str">
-        <v>1,122.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
+        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
       </c>
       <c r="B41" t="str">
-        <v>1,000</v>
+        <v>2,522.27</v>
       </c>
       <c r="C41" t="str">
-        <v>4,249.11</v>
+        <v>2,522.27</v>
       </c>
       <c r="D41" t="str">
-        <v>2,131.2</v>
+        <v>142.15</v>
       </c>
       <c r="E41" t="str">
-        <v>0</v>
+        <v>1,122.93</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>0x240e0289a4d0D6B1b412ad1A4fD04711656A29ee</v>
+        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
       </c>
       <c r="B42" t="str">
-        <v>102.53</v>
+        <v>1,000</v>
       </c>
       <c r="C42" t="str">
-        <v>102.53</v>
+        <v>4,249.11</v>
       </c>
       <c r="D42" t="str">
-        <v>51.43</v>
+        <v>2,131.2</v>
       </c>
       <c r="E42" t="str">
         <v>0</v>
@@ -13956,16 +13956,16 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>0xa755B0E03b0C0411c64749C64F063a6600a24D8c</v>
+        <v>0x240e0289a4d0D6B1b412ad1A4fD04711656A29ee</v>
       </c>
       <c r="B43" t="str">
-        <v>1,819.74</v>
+        <v>102.53</v>
       </c>
       <c r="C43" t="str">
-        <v>1,819.74</v>
+        <v>102.53</v>
       </c>
       <c r="D43" t="str">
-        <v>912.72</v>
+        <v>51.43</v>
       </c>
       <c r="E43" t="str">
         <v>0</v>
@@ -13973,16 +13973,16 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>0x7DDA419096b8c81d4A5E6cc65ea0D380D0A1b6E4</v>
+        <v>0xa755B0E03b0C0411c64749C64F063a6600a24D8c</v>
       </c>
       <c r="B44" t="str">
-        <v>54,828.17</v>
+        <v>1,819.74</v>
       </c>
       <c r="C44" t="str">
-        <v>54,828.17</v>
+        <v>1,819.74</v>
       </c>
       <c r="D44" t="str">
-        <v>27,499.82</v>
+        <v>912.72</v>
       </c>
       <c r="E44" t="str">
         <v>0</v>
@@ -13990,50 +13990,50 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>0x86d04b2FA806dce57fF1b99971FF524d0484a2EC</v>
+        <v>0x7DDA419096b8c81d4A5E6cc65ea0D380D0A1b6E4</v>
       </c>
       <c r="B45" t="str">
-        <v>997.67</v>
+        <v>54,828.17</v>
       </c>
       <c r="C45" t="str">
-        <v>997.67</v>
+        <v>54,828.17</v>
       </c>
       <c r="D45" t="str">
-        <v>269.13</v>
+        <v>27,499.82</v>
       </c>
       <c r="E45" t="str">
-        <v>231.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
+        <v>0x86d04b2FA806dce57fF1b99971FF524d0484a2EC</v>
       </c>
       <c r="B46" t="str">
-        <v>708.44</v>
+        <v>997.67</v>
       </c>
       <c r="C46" t="str">
-        <v>708.44</v>
+        <v>997.67</v>
       </c>
       <c r="D46" t="str">
-        <v>355.33</v>
+        <v>269.13</v>
       </c>
       <c r="E46" t="str">
-        <v>0</v>
+        <v>231.27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>0x2c7771aCC47795D2F05Ed29C8c17e8887e49fda7</v>
+        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
       </c>
       <c r="B47" t="str">
-        <v>556.61</v>
+        <v>708.44</v>
       </c>
       <c r="C47" t="str">
-        <v>556.61</v>
+        <v>708.44</v>
       </c>
       <c r="D47" t="str">
-        <v>279.18</v>
+        <v>355.33</v>
       </c>
       <c r="E47" t="str">
         <v>0</v>
@@ -14041,16 +14041,16 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>0x3d5F0A62033206273527Ef33569213E904eC4DdF</v>
+        <v>0x2c7771aCC47795D2F05Ed29C8c17e8887e49fda7</v>
       </c>
       <c r="B48" t="str">
-        <v>165.56</v>
+        <v>556.61</v>
       </c>
       <c r="C48" t="str">
-        <v>165.56</v>
+        <v>556.61</v>
       </c>
       <c r="D48" t="str">
-        <v>83.04</v>
+        <v>279.18</v>
       </c>
       <c r="E48" t="str">
         <v>0</v>
@@ -14058,16 +14058,16 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>0x9C19FE52c5b04d39EF89d58fCDef24A55CfDA4a7</v>
+        <v>0x3d5F0A62033206273527Ef33569213E904eC4DdF</v>
       </c>
       <c r="B49" t="str">
-        <v>84.59</v>
+        <v>165.56</v>
       </c>
       <c r="C49" t="str">
-        <v>84.59</v>
+        <v>165.56</v>
       </c>
       <c r="D49" t="str">
-        <v>42.43</v>
+        <v>83.04</v>
       </c>
       <c r="E49" t="str">
         <v>0</v>
@@ -14075,16 +14075,16 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>0x165F4f9805770Eb044Cd2A5a3f1b3E07Ba8B15e9</v>
+        <v>0x9C19FE52c5b04d39EF89d58fCDef24A55CfDA4a7</v>
       </c>
       <c r="B50" t="str">
-        <v>169.68</v>
+        <v>84.59</v>
       </c>
       <c r="C50" t="str">
-        <v>169.68</v>
+        <v>84.59</v>
       </c>
       <c r="D50" t="str">
-        <v>85.11</v>
+        <v>42.43</v>
       </c>
       <c r="E50" t="str">
         <v>0</v>
@@ -14092,16 +14092,16 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>0x5bFeF23589734f0a9D3e009953d658E244198C04</v>
+        <v>0x165F4f9805770Eb044Cd2A5a3f1b3E07Ba8B15e9</v>
       </c>
       <c r="B51" t="str">
-        <v>337.12</v>
+        <v>169.68</v>
       </c>
       <c r="C51" t="str">
-        <v>337.12</v>
+        <v>169.68</v>
       </c>
       <c r="D51" t="str">
-        <v>169.09</v>
+        <v>85.11</v>
       </c>
       <c r="E51" t="str">
         <v>0</v>
@@ -14109,58 +14109,58 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+        <v>0x5bFeF23589734f0a9D3e009953d658E244198C04</v>
       </c>
       <c r="B52" t="str">
-        <v>7,979</v>
+        <v>337.12</v>
       </c>
       <c r="C52" t="str">
-        <v>7,979</v>
+        <v>337.12</v>
       </c>
       <c r="D52" t="str">
-        <v>2,361.52</v>
+        <v>169.09</v>
       </c>
       <c r="E52" t="str">
-        <v>1,640.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>0xF6259D890819865117BBFEf9761f0eE159b48b16</v>
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
       </c>
       <c r="B53" t="str">
-        <v>3,157.6</v>
+        <v>7,979</v>
       </c>
       <c r="C53" t="str">
-        <v>3,157.6</v>
+        <v>7,979</v>
       </c>
       <c r="D53" t="str">
-        <v>0</v>
+        <v>2,361.52</v>
       </c>
       <c r="E53" t="str">
-        <v>1,583.74</v>
+        <v>1,640.46</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>0x5496F1d35E91d780632a801ca996b5508cecF3e7</v>
+        <v>0xF6259D890819865117BBFEf9761f0eE159b48b16</v>
       </c>
       <c r="B54" t="str">
-        <v>371.91</v>
+        <v>3,157.6</v>
       </c>
       <c r="C54" t="str">
-        <v>371.91</v>
+        <v>3,157.6</v>
       </c>
       <c r="D54" t="str">
-        <v>186.54</v>
+        <v>0</v>
       </c>
       <c r="E54" t="str">
-        <v>0</v>
+        <v>1,583.74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>0x8fd80f8AF7c37cA844986bdDb1E192C2736514fc</v>
+        <v>0x5496F1d35E91d780632a801ca996b5508cecF3e7</v>
       </c>
       <c r="B55" t="str">
         <v>371.91</v>
@@ -14169,58 +14169,58 @@
         <v>371.91</v>
       </c>
       <c r="D55" t="str">
-        <v>0</v>
+        <v>186.54</v>
       </c>
       <c r="E55" t="str">
-        <v>186.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>0x37d7eEE87ed06624BF058f1c304b503c5b24E878</v>
+        <v>0x8fd80f8AF7c37cA844986bdDb1E192C2736514fc</v>
       </c>
       <c r="B56" t="str">
-        <v>97.69</v>
+        <v>371.91</v>
       </c>
       <c r="C56" t="str">
-        <v>97.69</v>
+        <v>371.91</v>
       </c>
       <c r="D56" t="str">
         <v>0</v>
       </c>
       <c r="E56" t="str">
-        <v>49</v>
+        <v>186.54</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>0xc160A02bB3A721343Ff818774DB890903FA7E62A</v>
+        <v>0x37d7eEE87ed06624BF058f1c304b503c5b24E878</v>
       </c>
       <c r="B57" t="str">
-        <v>10.57</v>
+        <v>97.69</v>
       </c>
       <c r="C57" t="str">
-        <v>331.12</v>
+        <v>97.69</v>
       </c>
       <c r="D57" t="str">
-        <v>166.08</v>
+        <v>0</v>
       </c>
       <c r="E57" t="str">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>0x141BfAf3C000d7fAB603cB462eE5B7dADcCcA5c8</v>
+        <v>0xc160A02bB3A721343Ff818774DB890903FA7E62A</v>
       </c>
       <c r="B58" t="str">
-        <v>5,559.91</v>
+        <v>10.57</v>
       </c>
       <c r="C58" t="str">
-        <v>5,559.91</v>
+        <v>331.12</v>
       </c>
       <c r="D58" t="str">
-        <v>2,788.65</v>
+        <v>166.08</v>
       </c>
       <c r="E58" t="str">
         <v>0</v>
@@ -14228,16 +14228,16 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>0xE1f71e381E59d5e94bf5cbd574ce30eDa01Ca894</v>
+        <v>0x141BfAf3C000d7fAB603cB462eE5B7dADcCcA5c8</v>
       </c>
       <c r="B59" t="str">
-        <v>491.94</v>
+        <v>5,559.91</v>
       </c>
       <c r="C59" t="str">
-        <v>491.94</v>
+        <v>5,559.91</v>
       </c>
       <c r="D59" t="str">
-        <v>246.74</v>
+        <v>2,788.65</v>
       </c>
       <c r="E59" t="str">
         <v>0</v>
@@ -14245,84 +14245,84 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>0xcE1290F5457067497EAd8Aea22515d52ca94357E</v>
+        <v>0xE1f71e381E59d5e94bf5cbd574ce30eDa01Ca894</v>
       </c>
       <c r="B60" t="str">
-        <v>554.94</v>
+        <v>491.94</v>
       </c>
       <c r="C60" t="str">
-        <v>554.94</v>
+        <v>491.94</v>
       </c>
       <c r="D60" t="str">
-        <v>0</v>
+        <v>246.74</v>
       </c>
       <c r="E60" t="str">
-        <v>278.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
+        <v>0xcE1290F5457067497EAd8Aea22515d52ca94357E</v>
       </c>
       <c r="B61" t="str">
-        <v>175.55</v>
+        <v>554.94</v>
       </c>
       <c r="C61" t="str">
-        <v>175.55</v>
+        <v>554.94</v>
       </c>
       <c r="D61" t="str">
-        <v>88.05</v>
+        <v>0</v>
       </c>
       <c r="E61" t="str">
-        <v>0</v>
+        <v>278.34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>0x13D50e9a61d3aA421c534150FB6A21dA75dcd828</v>
+        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
       </c>
       <c r="B62" t="str">
-        <v>54.66</v>
+        <v>175.55</v>
       </c>
       <c r="C62" t="str">
-        <v>54.66</v>
+        <v>175.55</v>
       </c>
       <c r="D62" t="str">
-        <v>0</v>
+        <v>88.05</v>
       </c>
       <c r="E62" t="str">
-        <v>27.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>0xCD1E76A8499C205324b23F2D8332B78021b9996C</v>
+        <v>0x13D50e9a61d3aA421c534150FB6A21dA75dcd828</v>
       </c>
       <c r="B63" t="str">
-        <v>725.03</v>
+        <v>54.66</v>
       </c>
       <c r="C63" t="str">
-        <v>725.03</v>
+        <v>54.66</v>
       </c>
       <c r="D63" t="str">
-        <v>363.65</v>
+        <v>0</v>
       </c>
       <c r="E63" t="str">
-        <v>0</v>
+        <v>27.42</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>0xcC07cb9557409822792D39FA9918c4d1Fd0F6E62</v>
+        <v>0xCD1E76A8499C205324b23F2D8332B78021b9996C</v>
       </c>
       <c r="B64" t="str">
-        <v>742.43</v>
+        <v>725.03</v>
       </c>
       <c r="C64" t="str">
-        <v>742.43</v>
+        <v>725.03</v>
       </c>
       <c r="D64" t="str">
-        <v>372.38</v>
+        <v>363.65</v>
       </c>
       <c r="E64" t="str">
         <v>0</v>
@@ -14330,16 +14330,16 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>0x579a5fc8fc57De93baA767387d51e84457e8869A</v>
+        <v>0xcC07cb9557409822792D39FA9918c4d1Fd0F6E62</v>
       </c>
       <c r="B65" t="str">
-        <v>1,154.94</v>
+        <v>742.43</v>
       </c>
       <c r="C65" t="str">
-        <v>1,154.94</v>
+        <v>742.43</v>
       </c>
       <c r="D65" t="str">
-        <v>579.28</v>
+        <v>372.38</v>
       </c>
       <c r="E65" t="str">
         <v>0</v>
@@ -14347,16 +14347,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>0x6BC61C0aD543265EC67164F11d3e57c42BFC3a17</v>
+        <v>0x579a5fc8fc57De93baA767387d51e84457e8869A</v>
       </c>
       <c r="B66" t="str">
-        <v>30.38</v>
+        <v>1,154.94</v>
       </c>
       <c r="C66" t="str">
-        <v>30.38</v>
+        <v>1,154.94</v>
       </c>
       <c r="D66" t="str">
-        <v>15.24</v>
+        <v>579.28</v>
       </c>
       <c r="E66" t="str">
         <v>0</v>
@@ -14364,16 +14364,16 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>0xdE97F2A86426FDD68C450Bc8A5c334032720F5E5</v>
+        <v>0x6BC61C0aD543265EC67164F11d3e57c42BFC3a17</v>
       </c>
       <c r="B67" t="str">
-        <v>173.41</v>
+        <v>30.38</v>
       </c>
       <c r="C67" t="str">
-        <v>173.41</v>
+        <v>30.38</v>
       </c>
       <c r="D67" t="str">
-        <v>86.98</v>
+        <v>15.24</v>
       </c>
       <c r="E67" t="str">
         <v>0</v>
@@ -14381,441 +14381,441 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>0xb8e441ad9cA68bf92Da52A40BFBb03Bc6454ABB4</v>
+        <v>0xdE97F2A86426FDD68C450Bc8A5c334032720F5E5</v>
       </c>
       <c r="B68" t="str">
-        <v>8,236.84</v>
+        <v>173.41</v>
       </c>
       <c r="C68" t="str">
-        <v>8,236.84</v>
+        <v>173.41</v>
       </c>
       <c r="D68" t="str">
-        <v>0</v>
+        <v>86.98</v>
       </c>
       <c r="E68" t="str">
-        <v>4,131.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+        <v>0xb8e441ad9cA68bf92Da52A40BFBb03Bc6454ABB4</v>
       </c>
       <c r="B69" t="str">
-        <v>18,608.42</v>
+        <v>8,236.84</v>
       </c>
       <c r="C69" t="str">
-        <v>18,608.42</v>
+        <v>8,236.84</v>
       </c>
       <c r="D69" t="str">
         <v>0</v>
       </c>
       <c r="E69" t="str">
-        <v>9,333.31</v>
+        <v>4,131.3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
       </c>
       <c r="B70" t="str">
-        <v>28.92</v>
+        <v>18,608.42</v>
       </c>
       <c r="C70" t="str">
-        <v>28.92</v>
+        <v>18,608.42</v>
       </c>
       <c r="D70" t="str">
         <v>0</v>
       </c>
       <c r="E70" t="str">
-        <v>14.51</v>
+        <v>9,333.31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>0x46d47D232d27bdF83FEA707ffd9Ce3e175B2D1dE</v>
+        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
       </c>
       <c r="B71" t="str">
-        <v>21,931.41</v>
+        <v>28.92</v>
       </c>
       <c r="C71" t="str">
-        <v>21,931.41</v>
+        <v>28.92</v>
       </c>
       <c r="D71" t="str">
         <v>0</v>
       </c>
       <c r="E71" t="str">
-        <v>11,000</v>
+        <v>14.51</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
+        <v>0x46d47D232d27bdF83FEA707ffd9Ce3e175B2D1dE</v>
       </c>
       <c r="B72" t="str">
-        <v>75,520.7</v>
+        <v>21,931.41</v>
       </c>
       <c r="C72" t="str">
-        <v>75,520.7</v>
+        <v>21,931.41</v>
       </c>
       <c r="D72" t="str">
-        <v>31,975.04</v>
+        <v>0</v>
       </c>
       <c r="E72" t="str">
-        <v>5,903.4</v>
+        <v>11,000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>0x4DF1C6c7973f4E6e3B22149f7b8eFc4389f97C56</v>
+        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
       </c>
       <c r="B73" t="str">
-        <v>63,750.71</v>
+        <v>75,520.7</v>
       </c>
       <c r="C73" t="str">
-        <v>63,750.71</v>
+        <v>75,520.7</v>
       </c>
       <c r="D73" t="str">
-        <v>0</v>
+        <v>31,975.04</v>
       </c>
       <c r="E73" t="str">
-        <v>31,975.04</v>
+        <v>5,903.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>0xE1FcC0676dE7f03EB6c63b55A5ad667416029A5F</v>
+        <v>0x4DF1C6c7973f4E6e3B22149f7b8eFc4389f97C56</v>
       </c>
       <c r="B74" t="str">
-        <v>215.8</v>
+        <v>63,750.71</v>
       </c>
       <c r="C74" t="str">
-        <v>215.8</v>
+        <v>63,750.71</v>
       </c>
       <c r="D74" t="str">
         <v>0</v>
       </c>
       <c r="E74" t="str">
-        <v>108.24</v>
+        <v>31,975.04</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
+        <v>0xE1FcC0676dE7f03EB6c63b55A5ad667416029A5F</v>
       </c>
       <c r="B75" t="str">
-        <v>2,353.1</v>
+        <v>215.8</v>
       </c>
       <c r="C75" t="str">
-        <v>2,353.1</v>
+        <v>215.8</v>
       </c>
       <c r="D75" t="str">
         <v>0</v>
       </c>
       <c r="E75" t="str">
-        <v>1,180.23</v>
+        <v>108.24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>0xea84D65FB1FFE88a7Fcd76ef49507BFC6B4A7f07</v>
+        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
       </c>
       <c r="B76" t="str">
-        <v>644.14</v>
+        <v>2,353.1</v>
       </c>
       <c r="C76" t="str">
-        <v>644.14</v>
+        <v>2,353.1</v>
       </c>
       <c r="D76" t="str">
-        <v>323.08</v>
+        <v>0</v>
       </c>
       <c r="E76" t="str">
-        <v>0</v>
+        <v>1,180.23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>0x8a2780cB77Ab1d5eE17bFc3319d71490cF34C627</v>
+        <v>0xea84D65FB1FFE88a7Fcd76ef49507BFC6B4A7f07</v>
       </c>
       <c r="B77" t="str">
-        <v>5,948.79</v>
+        <v>644.14</v>
       </c>
       <c r="C77" t="str">
-        <v>5,948.79</v>
+        <v>644.14</v>
       </c>
       <c r="D77" t="str">
-        <v>235.56</v>
+        <v>323.08</v>
       </c>
       <c r="E77" t="str">
-        <v>2,748.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+        <v>0x8a2780cB77Ab1d5eE17bFc3319d71490cF34C627</v>
       </c>
       <c r="B78" t="str">
-        <v>61,020.89</v>
+        <v>5,948.79</v>
       </c>
       <c r="C78" t="str">
-        <v>61,020.89</v>
+        <v>5,948.79</v>
       </c>
       <c r="D78" t="str">
-        <v>14,995.74</v>
+        <v>235.56</v>
       </c>
       <c r="E78" t="str">
-        <v>15,610.12</v>
+        <v>2,748.14</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
       </c>
       <c r="B79" t="str">
-        <v>1,811.47</v>
+        <v>61,020.89</v>
       </c>
       <c r="C79" t="str">
-        <v>1,811.47</v>
+        <v>61,020.89</v>
       </c>
       <c r="D79" t="str">
-        <v>5.09</v>
+        <v>14,995.74</v>
       </c>
       <c r="E79" t="str">
-        <v>903.48</v>
+        <v>15,610.12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>0x98446b4e57Ff8AF60e6aC0304e278E658a5CddE9</v>
+        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
       </c>
       <c r="B80" t="str">
-        <v>715.34</v>
+        <v>1,811.47</v>
       </c>
       <c r="C80" t="str">
-        <v>715.34</v>
+        <v>1,811.47</v>
       </c>
       <c r="D80" t="str">
-        <v>0</v>
+        <v>5.09</v>
       </c>
       <c r="E80" t="str">
-        <v>358.79</v>
+        <v>903.48</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+        <v>0xCDcC603eBE915814D49B83d3A1986B7017da993e</v>
       </c>
       <c r="B81" t="str">
-        <v>161.93</v>
+        <v>0</v>
       </c>
       <c r="C81" t="str">
-        <v>161.93</v>
+        <v>715.34</v>
       </c>
       <c r="D81" t="str">
-        <v>6.3</v>
+        <v>358.79</v>
       </c>
       <c r="E81" t="str">
-        <v>74.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>0x9EFb0e36091F4cD5298c1453Ca141Ee1D4CbC0bc</v>
+        <v>0x98446b4e57Ff8AF60e6aC0304e278E658a5CddE9</v>
       </c>
       <c r="B82" t="str">
-        <v>306.02</v>
+        <v>715.34</v>
       </c>
       <c r="C82" t="str">
-        <v>306.02</v>
+        <v>715.34</v>
       </c>
       <c r="D82" t="str">
-        <v>31.66</v>
+        <v>0</v>
       </c>
       <c r="E82" t="str">
-        <v>121.83</v>
+        <v>358.79</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
       </c>
       <c r="B83" t="str">
-        <v>22,824.3</v>
+        <v>161.93</v>
       </c>
       <c r="C83" t="str">
-        <v>22,824.3</v>
+        <v>161.93</v>
       </c>
       <c r="D83" t="str">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="E83" t="str">
-        <v>11,447.84</v>
+        <v>74.92</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>0x8Cf38fe7DDb8D871a8BF46dB42258067f8842301</v>
+        <v>0x9EFb0e36091F4cD5298c1453Ca141Ee1D4CbC0bc</v>
       </c>
       <c r="B84" t="str">
-        <v>24.06</v>
+        <v>306.02</v>
       </c>
       <c r="C84" t="str">
-        <v>24.06</v>
+        <v>306.02</v>
       </c>
       <c r="D84" t="str">
-        <v>12.07</v>
+        <v>31.66</v>
       </c>
       <c r="E84" t="str">
-        <v>0</v>
+        <v>121.83</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>0x97c4b656e3d5BFbcEd52d0dCcBbEc6564DBC2625</v>
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
       </c>
       <c r="B85" t="str">
-        <v>975.34</v>
+        <v>22,824.3</v>
       </c>
       <c r="C85" t="str">
-        <v>975.34</v>
+        <v>22,824.3</v>
       </c>
       <c r="D85" t="str">
         <v>0</v>
       </c>
       <c r="E85" t="str">
-        <v>489.2</v>
+        <v>11,447.84</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
+        <v>0x8Cf38fe7DDb8D871a8BF46dB42258067f8842301</v>
       </c>
       <c r="B86" t="str">
-        <v>27,042.29</v>
+        <v>24.06</v>
       </c>
       <c r="C86" t="str">
-        <v>27,042.29</v>
+        <v>24.06</v>
       </c>
       <c r="D86" t="str">
-        <v>13,472.34</v>
+        <v>12.07</v>
       </c>
       <c r="E86" t="str">
-        <v>91.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>0xbD73E24F927E9f1D9ce45B7e47f36711Dca35A88</v>
+        <v>0x97c4b656e3d5BFbcEd52d0dCcBbEc6564DBC2625</v>
       </c>
       <c r="B87" t="str">
-        <v>4,269.66</v>
+        <v>975.34</v>
       </c>
       <c r="C87" t="str">
-        <v>4,269.66</v>
+        <v>975.34</v>
       </c>
       <c r="D87" t="str">
         <v>0</v>
       </c>
       <c r="E87" t="str">
-        <v>2,141.51</v>
+        <v>489.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>0xD7Be7655070f986B3E311EE04cc9aa87Cd11ab5d</v>
+        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
       </c>
       <c r="B88" t="str">
-        <v>1,194.98</v>
+        <v>27,042.29</v>
       </c>
       <c r="C88" t="str">
-        <v>1,194.98</v>
+        <v>27,042.29</v>
       </c>
       <c r="D88" t="str">
-        <v>451.67</v>
+        <v>13,472.34</v>
       </c>
       <c r="E88" t="str">
-        <v>147.69</v>
+        <v>91.09</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>0xE3060D70A15f2EdFb390D66e60467Da6F5ECA1C7</v>
+        <v>0xbD73E24F927E9f1D9ce45B7e47f36711Dca35A88</v>
       </c>
       <c r="B89" t="str">
-        <v>2,942.65</v>
+        <v>4,269.66</v>
       </c>
       <c r="C89" t="str">
-        <v>2,942.65</v>
+        <v>4,269.66</v>
       </c>
       <c r="D89" t="str">
-        <v>147.69</v>
+        <v>0</v>
       </c>
       <c r="E89" t="str">
-        <v>1,328.24</v>
+        <v>2,141.51</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>0x25E9eA1a93D9e505cd7d056C1e1bA16789537EAb</v>
+        <v>0xD7Be7655070f986B3E311EE04cc9aa87Cd11ab5d</v>
       </c>
       <c r="B90" t="str">
-        <v>35,305.21</v>
+        <v>1,194.98</v>
       </c>
       <c r="C90" t="str">
-        <v>35,305.21</v>
+        <v>1,194.98</v>
       </c>
       <c r="D90" t="str">
-        <v>9,888.21</v>
+        <v>451.67</v>
       </c>
       <c r="E90" t="str">
-        <v>7,819.6</v>
+        <v>147.69</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+        <v>0xE3060D70A15f2EdFb390D66e60467Da6F5ECA1C7</v>
       </c>
       <c r="B91" t="str">
-        <v>1,840.96</v>
+        <v>2,942.65</v>
       </c>
       <c r="C91" t="str">
-        <v>1,840.96</v>
+        <v>2,942.65</v>
       </c>
       <c r="D91" t="str">
-        <v>0</v>
+        <v>147.69</v>
       </c>
       <c r="E91" t="str">
-        <v>923.36</v>
+        <v>1,328.24</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
+        <v>0x25E9eA1a93D9e505cd7d056C1e1bA16789537EAb</v>
       </c>
       <c r="B92" t="str">
-        <v>17,446.53</v>
+        <v>35,305.21</v>
       </c>
       <c r="C92" t="str">
-        <v>17,446.53</v>
+        <v>35,305.21</v>
       </c>
       <c r="D92" t="str">
-        <v>0</v>
+        <v>9,888.21</v>
       </c>
       <c r="E92" t="str">
-        <v>8,750.55</v>
+        <v>7,819.6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>0x886049Df7a8010a7e3c21A32b74e41402986ae37</v>
+        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
       </c>
       <c r="B93" t="str">
-        <v>639.02</v>
+        <v>0</v>
       </c>
       <c r="C93" t="str">
-        <v>639.02</v>
+        <v>17,972.45</v>
       </c>
       <c r="D93" t="str">
-        <v>320.51</v>
+        <v>9,014.33</v>
       </c>
       <c r="E93" t="str">
         <v>0</v>
@@ -14823,594 +14823,594 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
       </c>
       <c r="B94" t="str">
-        <v>155,610.62</v>
+        <v>1,840.96</v>
       </c>
       <c r="C94" t="str">
-        <v>155,610.62</v>
+        <v>1,840.96</v>
       </c>
       <c r="D94" t="str">
-        <v>957.12</v>
+        <v>0</v>
       </c>
       <c r="E94" t="str">
-        <v>77,091.51</v>
+        <v>923.36</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
       </c>
       <c r="B95" t="str">
-        <v>1,280.39</v>
+        <v>17,446.53</v>
       </c>
       <c r="C95" t="str">
-        <v>1,280.39</v>
+        <v>17,446.53</v>
       </c>
       <c r="D95" t="str">
         <v>0</v>
       </c>
       <c r="E95" t="str">
-        <v>642.2</v>
+        <v>8,750.55</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+        <v>0x886049Df7a8010a7e3c21A32b74e41402986ae37</v>
       </c>
       <c r="B96" t="str">
-        <v>28,175.06</v>
+        <v>639.02</v>
       </c>
       <c r="C96" t="str">
-        <v>28,175.06</v>
+        <v>639.02</v>
       </c>
       <c r="D96" t="str">
-        <v>0</v>
+        <v>320.51</v>
       </c>
       <c r="E96" t="str">
-        <v>14,131.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>0x0fB3b0892619aF19B0a8016783f84EED26CfAE1E</v>
+        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
       </c>
       <c r="B97" t="str">
-        <v>149.53</v>
+        <v>155,610.62</v>
       </c>
       <c r="C97" t="str">
-        <v>149.53</v>
+        <v>155,610.62</v>
       </c>
       <c r="D97" t="str">
-        <v>75</v>
+        <v>957.12</v>
       </c>
       <c r="E97" t="str">
-        <v>0</v>
+        <v>77,091.51</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>0x4e300F965ACE7aBF11A53662419F9A2D27dE3B1d</v>
+        <v>0xD465Ffa5efAdF5cF1Dd6c45c3C305f58279A2140</v>
       </c>
       <c r="B98" t="str">
-        <v>149.53</v>
+        <v>0</v>
       </c>
       <c r="C98" t="str">
-        <v>149.53</v>
+        <v>1,141.13</v>
       </c>
       <c r="D98" t="str">
         <v>0</v>
       </c>
       <c r="E98" t="str">
-        <v>75</v>
+        <v>572.35</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+        <v>0x8a3B39c36e88E3BE71B960cFBe2e4F66dB890E42</v>
       </c>
       <c r="B99" t="str">
-        <v>69,549.12</v>
+        <v>0</v>
       </c>
       <c r="C99" t="str">
-        <v>69,549.12</v>
+        <v>15,586.27</v>
       </c>
       <c r="D99" t="str">
-        <v>0</v>
+        <v>7,817.51</v>
       </c>
       <c r="E99" t="str">
-        <v>34,883.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
       </c>
       <c r="B100" t="str">
-        <v>10,281.12</v>
+        <v>1,280.39</v>
       </c>
       <c r="C100" t="str">
-        <v>10,281.12</v>
+        <v>1,280.39</v>
       </c>
       <c r="D100" t="str">
         <v>0</v>
       </c>
       <c r="E100" t="str">
-        <v>5,156.64</v>
+        <v>642.2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
       </c>
       <c r="B101" t="str">
-        <v>1,076.69</v>
+        <v>0</v>
       </c>
       <c r="C101" t="str">
-        <v>1,076.69</v>
+        <v>23,057.93</v>
       </c>
       <c r="D101" t="str">
-        <v>540.03</v>
+        <v>0</v>
       </c>
       <c r="E101" t="str">
-        <v>0</v>
+        <v>11,565.02</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
       </c>
       <c r="B102" t="str">
-        <v>43,690.42</v>
+        <v>28,175.06</v>
       </c>
       <c r="C102" t="str">
-        <v>43,690.42</v>
+        <v>28,175.06</v>
       </c>
       <c r="D102" t="str">
         <v>0</v>
       </c>
       <c r="E102" t="str">
-        <v>21,913.53</v>
+        <v>14,131.59</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>0xeBB36F543A6c3E09a06c937E86fB0930a6EdA151</v>
+        <v>0x0fB3b0892619aF19B0a8016783f84EED26CfAE1E</v>
       </c>
       <c r="B103" t="str">
-        <v>20,351.63</v>
+        <v>149.53</v>
       </c>
       <c r="C103" t="str">
-        <v>20,351.63</v>
+        <v>149.53</v>
       </c>
       <c r="D103" t="str">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E103" t="str">
-        <v>10,207.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
+        <v>0x4e300F965ACE7aBF11A53662419F9A2D27dE3B1d</v>
       </c>
       <c r="B104" t="str">
-        <v>3,295.81</v>
+        <v>149.53</v>
       </c>
       <c r="C104" t="str">
-        <v>3,295.81</v>
+        <v>149.53</v>
       </c>
       <c r="D104" t="str">
         <v>0</v>
       </c>
       <c r="E104" t="str">
-        <v>1,653.06</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
       </c>
       <c r="B105" t="str">
-        <v>5,668.61</v>
+        <v>69,549.12</v>
       </c>
       <c r="C105" t="str">
-        <v>5,668.61</v>
+        <v>69,549.12</v>
       </c>
       <c r="D105" t="str">
-        <v>2,263.89</v>
+        <v>0</v>
       </c>
       <c r="E105" t="str">
-        <v>579.28</v>
+        <v>34,883.31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>0xC090D9F71184D03568485a351456C570ff9F9Cbf</v>
+        <v>0xF197552b64740Ff554D2887B59CD299d7b853Df3</v>
       </c>
       <c r="B106" t="str">
-        <v>4,513.66</v>
+        <v>0</v>
       </c>
       <c r="C106" t="str">
-        <v>4,513.66</v>
+        <v>12,461.03</v>
       </c>
       <c r="D106" t="str">
         <v>0</v>
       </c>
       <c r="E106" t="str">
-        <v>2,263.89</v>
+        <v>6,250</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
       </c>
       <c r="B107" t="str">
-        <v>1,495.32</v>
+        <v>10,281.12</v>
       </c>
       <c r="C107" t="str">
-        <v>1,495.32</v>
+        <v>10,281.12</v>
       </c>
       <c r="D107" t="str">
         <v>0</v>
       </c>
       <c r="E107" t="str">
-        <v>750</v>
+        <v>5,156.64</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>0xf0eeE0837e8F4feaC444412991f7005B8dFFa305</v>
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
       </c>
       <c r="B108" t="str">
-        <v>5,783.11</v>
+        <v>1,076.69</v>
       </c>
       <c r="C108" t="str">
-        <v>5,783.11</v>
+        <v>1,076.69</v>
       </c>
       <c r="D108" t="str">
-        <v>2,082.09</v>
+        <v>540.03</v>
       </c>
       <c r="E108" t="str">
-        <v>818.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>0x406d01fbF31Aeb1953b3c8F1E98aAE2BA6e8329a</v>
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
       </c>
       <c r="B109" t="str">
-        <v>228.42</v>
+        <v>43,690.42</v>
       </c>
       <c r="C109" t="str">
-        <v>228.42</v>
+        <v>43,690.42</v>
       </c>
       <c r="D109" t="str">
         <v>0</v>
       </c>
       <c r="E109" t="str">
-        <v>114.57</v>
+        <v>21,913.53</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+        <v>0xeBB36F543A6c3E09a06c937E86fB0930a6EdA151</v>
       </c>
       <c r="B110" t="str">
-        <v>33,124.55</v>
+        <v>20,351.63</v>
       </c>
       <c r="C110" t="str">
-        <v>33,124.55</v>
+        <v>20,351.63</v>
       </c>
       <c r="D110" t="str">
         <v>0</v>
       </c>
       <c r="E110" t="str">
-        <v>16,614.07</v>
+        <v>10,207.64</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>0xf0a8596541F839EBcC9f0A9d1442c15f43A2836E</v>
+        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
       </c>
       <c r="B111" t="str">
-        <v>1,786.51</v>
+        <v>3,295.81</v>
       </c>
       <c r="C111" t="str">
-        <v>2,504.14</v>
+        <v>3,295.81</v>
       </c>
       <c r="D111" t="str">
         <v>0</v>
       </c>
       <c r="E111" t="str">
-        <v>1,255.99</v>
+        <v>1,653.06</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>0x783361E3caF53e6DbC5150E85ad30dd1540Eb3a2</v>
+        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
       </c>
       <c r="B112" t="str">
-        <v>40.41</v>
+        <v>5,668.61</v>
       </c>
       <c r="C112" t="str">
-        <v>40.41</v>
+        <v>5,668.61</v>
       </c>
       <c r="D112" t="str">
-        <v>0</v>
+        <v>2,263.89</v>
       </c>
       <c r="E112" t="str">
-        <v>20.27</v>
+        <v>579.28</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>0x889f1F09b491711013cA6787E29e07a04FDf42a4</v>
+        <v>0xC090D9F71184D03568485a351456C570ff9F9Cbf</v>
       </c>
       <c r="B113" t="str">
-        <v>312,765.69</v>
+        <v>4,513.66</v>
       </c>
       <c r="C113" t="str">
-        <v>312,765.69</v>
+        <v>4,513.66</v>
       </c>
       <c r="D113" t="str">
         <v>0</v>
       </c>
       <c r="E113" t="str">
-        <v>156,871.9</v>
+        <v>2,263.89</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>0x8Ad7B9763377E32645D8C7Da41e28F0800a831bB</v>
+        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
       </c>
       <c r="B114" t="str">
-        <v>242.14</v>
+        <v>1,495.32</v>
       </c>
       <c r="C114" t="str">
-        <v>242.14</v>
+        <v>1,495.32</v>
       </c>
       <c r="D114" t="str">
         <v>0</v>
       </c>
       <c r="E114" t="str">
-        <v>121.45</v>
+        <v>750</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>0x8989324658d346f23a0A7b87e02B19C24Dda1B29</v>
+        <v>0xf0eeE0837e8F4feaC444412991f7005B8dFFa305</v>
       </c>
       <c r="B115" t="str">
-        <v>10.98</v>
+        <v>5,783.11</v>
       </c>
       <c r="C115" t="str">
-        <v>10.98</v>
+        <v>5,783.11</v>
       </c>
       <c r="D115" t="str">
-        <v>0</v>
+        <v>2,082.09</v>
       </c>
       <c r="E115" t="str">
-        <v>5.51</v>
+        <v>818.51</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>0xa8CE35A87d51EaC37675c1Cf7C5d6435a3b2079A</v>
+        <v>0x406d01fbF31Aeb1953b3c8F1E98aAE2BA6e8329a</v>
       </c>
       <c r="B116" t="str">
-        <v>58,496.4</v>
+        <v>228.42</v>
       </c>
       <c r="C116" t="str">
-        <v>58,496.4</v>
+        <v>228.42</v>
       </c>
       <c r="D116" t="str">
         <v>0</v>
       </c>
       <c r="E116" t="str">
-        <v>29,339.67</v>
+        <v>114.57</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>0xE592EbB555eC4dBc9b98B0D6C8e86c7a7Fa24138</v>
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
       </c>
       <c r="B117" t="str">
-        <v>6,526.72</v>
+        <v>33,124.55</v>
       </c>
       <c r="C117" t="str">
-        <v>6,526.72</v>
+        <v>33,124.55</v>
       </c>
       <c r="D117" t="str">
-        <v>3,271.77</v>
+        <v>0</v>
       </c>
       <c r="E117" t="str">
-        <v>1.8</v>
+        <v>16,614.07</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+        <v>0xf0a8596541F839EBcC9f0A9d1442c15f43A2836E</v>
       </c>
       <c r="B118" t="str">
-        <v>22,404.93</v>
+        <v>1,786.51</v>
       </c>
       <c r="C118" t="str">
-        <v>40,327.74</v>
+        <v>2,504.14</v>
       </c>
       <c r="D118" t="str">
-        <v>16,955.16</v>
+        <v>0</v>
       </c>
       <c r="E118" t="str">
-        <v>3,271.77</v>
+        <v>1,255.99</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>0xc677a6C972baeCe4Bf9C0a2EbB600886F0300a7D</v>
+        <v>0x783361E3caF53e6DbC5150E85ad30dd1540Eb3a2</v>
       </c>
       <c r="B119" t="str">
-        <v>34,708.01</v>
+        <v>40.41</v>
       </c>
       <c r="C119" t="str">
-        <v>34,708.01</v>
+        <v>40.41</v>
       </c>
       <c r="D119" t="str">
-        <v>17,408.28</v>
+        <v>0</v>
       </c>
       <c r="E119" t="str">
-        <v>0</v>
+        <v>20.27</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+        <v>0x889f1F09b491711013cA6787E29e07a04FDf42a4</v>
       </c>
       <c r="B120" t="str">
-        <v>171,852.49</v>
+        <v>312,765.69</v>
       </c>
       <c r="C120" t="str">
-        <v>171,852.49</v>
+        <v>312,765.69</v>
       </c>
       <c r="D120" t="str">
-        <v>187.5</v>
+        <v>0</v>
       </c>
       <c r="E120" t="str">
-        <v>86,007.46</v>
+        <v>156,871.9</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>0x69f96f2A5Cdd84E574dB2a353880095988243417</v>
+        <v>0x8Ad7B9763377E32645D8C7Da41e28F0800a831bB</v>
       </c>
       <c r="B121" t="str">
-        <v>100</v>
+        <v>242.14</v>
       </c>
       <c r="C121" t="str">
-        <v>10,688.85</v>
+        <v>242.14</v>
       </c>
       <c r="D121" t="str">
-        <v>5,361.14</v>
+        <v>0</v>
       </c>
       <c r="E121" t="str">
-        <v>0</v>
+        <v>121.45</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
+        <v>0x8989324658d346f23a0A7b87e02B19C24Dda1B29</v>
       </c>
       <c r="B122" t="str">
-        <v>31,016.8</v>
+        <v>10.98</v>
       </c>
       <c r="C122" t="str">
-        <v>31,016.8</v>
+        <v>10.98</v>
       </c>
       <c r="D122" t="str">
-        <v>14,741.99</v>
+        <v>0</v>
       </c>
       <c r="E122" t="str">
-        <v>814.91</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>0xe1Ffd90E9095735B49566430397A0A77c36583B3</v>
+        <v>0xa8CE35A87d51EaC37675c1Cf7C5d6435a3b2079A</v>
       </c>
       <c r="B123" t="str">
-        <v>11.88</v>
+        <v>58,496.4</v>
       </c>
       <c r="C123" t="str">
-        <v>11.88</v>
+        <v>58,496.4</v>
       </c>
       <c r="D123" t="str">
-        <v>5.96</v>
+        <v>0</v>
       </c>
       <c r="E123" t="str">
-        <v>0</v>
+        <v>29,339.67</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>0x3d1F678EBd71CA033f21D6B1B5B0781a66537447</v>
+        <v>0xE592EbB555eC4dBc9b98B0D6C8e86c7a7Fa24138</v>
       </c>
       <c r="B124" t="str">
-        <v>2,621.74</v>
+        <v>6,526.72</v>
       </c>
       <c r="C124" t="str">
-        <v>2,621.74</v>
+        <v>6,526.72</v>
       </c>
       <c r="D124" t="str">
-        <v>0</v>
+        <v>3,271.77</v>
       </c>
       <c r="E124" t="str">
-        <v>1,314.97</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
       </c>
       <c r="B125" t="str">
-        <v>604.86</v>
+        <v>22,404.93</v>
       </c>
       <c r="C125" t="str">
-        <v>604.86</v>
+        <v>40,327.74</v>
       </c>
       <c r="D125" t="str">
-        <v>303.38</v>
+        <v>16,955.16</v>
       </c>
       <c r="E125" t="str">
-        <v>0</v>
+        <v>3,271.77</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
+        <v>0xc677a6C972baeCe4Bf9C0a2EbB600886F0300a7D</v>
       </c>
       <c r="B126" t="str">
-        <v>8,218.93</v>
+        <v>34,708.01</v>
       </c>
       <c r="C126" t="str">
-        <v>8,218.93</v>
+        <v>34,708.01</v>
       </c>
       <c r="D126" t="str">
-        <v>0</v>
+        <v>17,408.28</v>
       </c>
       <c r="E126" t="str">
-        <v>4,122.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>0xC6B5338601Fea42e176E0BDF0537D116aeB13D12</v>
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
       </c>
       <c r="B127" t="str">
-        <v>0.77</v>
+        <v>171,852.49</v>
       </c>
       <c r="C127" t="str">
-        <v>14,257.05</v>
+        <v>171,852.49</v>
       </c>
       <c r="D127" t="str">
-        <v>7,150.82</v>
+        <v>187.5</v>
       </c>
       <c r="E127" t="str">
-        <v>0</v>
+        <v>86,007.46</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+        <v>0x69f96f2A5Cdd84E574dB2a353880095988243417</v>
       </c>
       <c r="B128" t="str">
-        <v>416.99</v>
+        <v>100</v>
       </c>
       <c r="C128" t="str">
-        <v>416.99</v>
+        <v>10,688.85</v>
       </c>
       <c r="D128" t="str">
-        <v>209.15</v>
+        <v>5,361.14</v>
       </c>
       <c r="E128" t="str">
         <v>0</v>
@@ -15418,67 +15418,67 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
+        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
       </c>
       <c r="B129" t="str">
-        <v>1,243.73</v>
+        <v>31,016.8</v>
       </c>
       <c r="C129" t="str">
-        <v>1,243.73</v>
+        <v>31,016.8</v>
       </c>
       <c r="D129" t="str">
-        <v>439.66</v>
+        <v>14,741.99</v>
       </c>
       <c r="E129" t="str">
-        <v>184.15</v>
+        <v>814.91</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
+        <v>0xe1Ffd90E9095735B49566430397A0A77c36583B3</v>
       </c>
       <c r="B130" t="str">
-        <v>13,015.43</v>
+        <v>11.88</v>
       </c>
       <c r="C130" t="str">
-        <v>13,015.43</v>
+        <v>11.88</v>
       </c>
       <c r="D130" t="str">
-        <v>5,016.2</v>
+        <v>5.96</v>
       </c>
       <c r="E130" t="str">
-        <v>1,511.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+        <v>0x3d1F678EBd71CA033f21D6B1B5B0781a66537447</v>
       </c>
       <c r="B131" t="str">
-        <v>1,816.85</v>
+        <v>2,621.74</v>
       </c>
       <c r="C131" t="str">
-        <v>1,816.85</v>
+        <v>2,621.74</v>
       </c>
       <c r="D131" t="str">
-        <v>770.61</v>
+        <v>0</v>
       </c>
       <c r="E131" t="str">
-        <v>140.66</v>
+        <v>1,314.97</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>0x1cCCF8364535d4F4D96bf926c4552c36831bF826</v>
+        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
       </c>
       <c r="B132" t="str">
-        <v>181.61</v>
+        <v>604.86</v>
       </c>
       <c r="C132" t="str">
-        <v>181.61</v>
+        <v>604.86</v>
       </c>
       <c r="D132" t="str">
-        <v>91.09</v>
+        <v>303.38</v>
       </c>
       <c r="E132" t="str">
         <v>0</v>
@@ -15486,220 +15486,220 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>0xD6F834375a1c100D2b7f62e390264009c0a5F40F</v>
+        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
       </c>
       <c r="B133" t="str">
-        <v>6.41</v>
+        <v>8,218.93</v>
       </c>
       <c r="C133" t="str">
-        <v>6.41</v>
+        <v>8,218.93</v>
       </c>
       <c r="D133" t="str">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="E133" t="str">
-        <v>0</v>
+        <v>4,122.32</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>0x77Fb1AeEEC6e3F3Cfe3a1f3aB87E7cB74872Db5D</v>
+        <v>0xC6B5338601Fea42e176E0BDF0537D116aeB13D12</v>
       </c>
       <c r="B134" t="str">
-        <v>2,341.75</v>
+        <v>0.77</v>
       </c>
       <c r="C134" t="str">
-        <v>2,341.75</v>
+        <v>14,257.05</v>
       </c>
       <c r="D134" t="str">
-        <v>0</v>
+        <v>7,150.82</v>
       </c>
       <c r="E134" t="str">
-        <v>1,174.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>0x1e08bba24EeaB34dCc15Bc335c2638D40E1e3BD5</v>
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
       </c>
       <c r="B135" t="str">
-        <v>7,229.51</v>
+        <v>416.99</v>
       </c>
       <c r="C135" t="str">
-        <v>7,229.51</v>
+        <v>416.99</v>
       </c>
       <c r="D135" t="str">
-        <v>1,801.75</v>
+        <v>209.15</v>
       </c>
       <c r="E135" t="str">
-        <v>1,824.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>0x60999E23eccfa3f5e3361ABAb7DA635f2aBf891e</v>
+        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
       </c>
       <c r="B136" t="str">
-        <v>4,321.26</v>
+        <v>1,243.73</v>
       </c>
       <c r="C136" t="str">
-        <v>4,321.26</v>
+        <v>1,243.73</v>
       </c>
       <c r="D136" t="str">
-        <v>365.64</v>
+        <v>439.66</v>
       </c>
       <c r="E136" t="str">
-        <v>1,801.75</v>
+        <v>184.15</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>0x48682644c1e8529338e46e7DdabA4383C1fceBb1</v>
+        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
       </c>
       <c r="B137" t="str">
-        <v>3,208.2</v>
+        <v>13,015.43</v>
       </c>
       <c r="C137" t="str">
-        <v>3,208.2</v>
+        <v>13,015.43</v>
       </c>
       <c r="D137" t="str">
-        <v>1,093.68</v>
+        <v>5,016.2</v>
       </c>
       <c r="E137" t="str">
-        <v>515.44</v>
+        <v>1,511.87</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>0x7A7d706D6578FE3DD1540dC69b31de7C8C0c20d2</v>
+        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
       </c>
       <c r="B138" t="str">
-        <v>61.1</v>
+        <v>1,816.85</v>
       </c>
       <c r="C138" t="str">
-        <v>61.1</v>
+        <v>1,816.85</v>
       </c>
       <c r="D138" t="str">
-        <v>30.65</v>
+        <v>770.61</v>
       </c>
       <c r="E138" t="str">
-        <v>0</v>
+        <v>140.66</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>0x760d7E2525DDB8790d047CFF195b753F9dCCac41</v>
+        <v>0x1cCCF8364535d4F4D96bf926c4552c36831bF826</v>
       </c>
       <c r="B139" t="str">
-        <v>61.1</v>
+        <v>181.61</v>
       </c>
       <c r="C139" t="str">
-        <v>61.1</v>
+        <v>181.61</v>
       </c>
       <c r="D139" t="str">
-        <v>0</v>
+        <v>91.09</v>
       </c>
       <c r="E139" t="str">
-        <v>30.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
+        <v>0xD6F834375a1c100D2b7f62e390264009c0a5F40F</v>
       </c>
       <c r="B140" t="str">
-        <v>5,026.46</v>
+        <v>6.41</v>
       </c>
       <c r="C140" t="str">
-        <v>5,026.46</v>
+        <v>6.41</v>
       </c>
       <c r="D140" t="str">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="E140" t="str">
-        <v>2,521.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>0x0F6b0AE7be4dc9173E938237B6969499463a5eB7</v>
+        <v>0x77Fb1AeEEC6e3F3Cfe3a1f3aB87E7cB74872Db5D</v>
       </c>
       <c r="B141" t="str">
-        <v>869.68</v>
+        <v>2,341.75</v>
       </c>
       <c r="C141" t="str">
-        <v>869.68</v>
+        <v>2,341.75</v>
       </c>
       <c r="D141" t="str">
-        <v>436.2</v>
+        <v>0</v>
       </c>
       <c r="E141" t="str">
-        <v>0</v>
+        <v>1,174.54</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>0x5f29805024b14736b5e6f2bfBe425e67a22e33B4</v>
+        <v>0x1e08bba24EeaB34dCc15Bc335c2638D40E1e3BD5</v>
       </c>
       <c r="B142" t="str">
-        <v>869.68</v>
+        <v>7,229.51</v>
       </c>
       <c r="C142" t="str">
-        <v>869.68</v>
+        <v>7,229.51</v>
       </c>
       <c r="D142" t="str">
-        <v>0</v>
+        <v>1,801.75</v>
       </c>
       <c r="E142" t="str">
-        <v>436.2</v>
+        <v>1,824.31</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>0x2A1Cc6c77782EA6BE6C08d61430A79E31Ea4efDf</v>
+        <v>0x60999E23eccfa3f5e3361ABAb7DA635f2aBf891e</v>
       </c>
       <c r="B143" t="str">
-        <v>18,008.78</v>
+        <v>4,321.26</v>
       </c>
       <c r="C143" t="str">
-        <v>18,008.78</v>
+        <v>4,321.26</v>
       </c>
       <c r="D143" t="str">
-        <v>9,001.21</v>
+        <v>365.64</v>
       </c>
       <c r="E143" t="str">
-        <v>31.34</v>
+        <v>1,801.75</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>0x1D712193A96B4d9D4eC32108cfcde704AC9CCC9C</v>
+        <v>0x48682644c1e8529338e46e7DdabA4383C1fceBb1</v>
       </c>
       <c r="B144" t="str">
-        <v>3,718.17</v>
+        <v>3,208.2</v>
       </c>
       <c r="C144" t="str">
-        <v>3,718.17</v>
+        <v>3,208.2</v>
       </c>
       <c r="D144" t="str">
-        <v>684.37</v>
+        <v>1,093.68</v>
       </c>
       <c r="E144" t="str">
-        <v>1,180.53</v>
+        <v>515.44</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
+        <v>0x7A7d706D6578FE3DD1540dC69b31de7C8C0c20d2</v>
       </c>
       <c r="B145" t="str">
-        <v>12,677.85</v>
+        <v>61.1</v>
       </c>
       <c r="C145" t="str">
-        <v>12,677.85</v>
+        <v>61.1</v>
       </c>
       <c r="D145" t="str">
-        <v>6,358.75</v>
+        <v>30.65</v>
       </c>
       <c r="E145" t="str">
         <v>0</v>
@@ -15707,339 +15707,339 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
+        <v>0x760d7E2525DDB8790d047CFF195b753F9dCCac41</v>
       </c>
       <c r="B146" t="str">
-        <v>12,677.85</v>
+        <v>61.1</v>
       </c>
       <c r="C146" t="str">
-        <v>12,677.85</v>
+        <v>61.1</v>
       </c>
       <c r="D146" t="str">
         <v>0</v>
       </c>
       <c r="E146" t="str">
-        <v>6,358.75</v>
+        <v>30.65</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>0x24CAEFe09e10B896Dd031CDe933c57aD4EB42d0a</v>
+        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
       </c>
       <c r="B147" t="str">
-        <v>426.96</v>
+        <v>5,026.46</v>
       </c>
       <c r="C147" t="str">
-        <v>426.96</v>
+        <v>5,026.46</v>
       </c>
       <c r="D147" t="str">
-        <v>214.15</v>
+        <v>0</v>
       </c>
       <c r="E147" t="str">
-        <v>0</v>
+        <v>2,521.09</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>0x3966290733ca02e46E1EAdc4bb135548748a2fAD</v>
+        <v>0x0F6b0AE7be4dc9173E938237B6969499463a5eB7</v>
       </c>
       <c r="B148" t="str">
-        <v>1,113.21</v>
+        <v>869.68</v>
       </c>
       <c r="C148" t="str">
-        <v>1,113.21</v>
+        <v>869.68</v>
       </c>
       <c r="D148" t="str">
-        <v>0</v>
+        <v>436.2</v>
       </c>
       <c r="E148" t="str">
-        <v>558.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
+        <v>0x5f29805024b14736b5e6f2bfBe425e67a22e33B4</v>
       </c>
       <c r="B149" t="str">
-        <v>1,133.89</v>
+        <v>869.68</v>
       </c>
       <c r="C149" t="str">
-        <v>1,133.89</v>
+        <v>869.68</v>
       </c>
       <c r="D149" t="str">
         <v>0</v>
       </c>
       <c r="E149" t="str">
-        <v>568.72</v>
+        <v>436.2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>0x1A24A8CDa46ACac40606af1D233dAfF9AEe66e2f</v>
+        <v>0x2A1Cc6c77782EA6BE6C08d61430A79E31Ea4efDf</v>
       </c>
       <c r="B150" t="str">
-        <v>251.87</v>
+        <v>18,008.78</v>
       </c>
       <c r="C150" t="str">
-        <v>251.87</v>
+        <v>18,008.78</v>
       </c>
       <c r="D150" t="str">
-        <v>0</v>
+        <v>9,001.21</v>
       </c>
       <c r="E150" t="str">
-        <v>126.33</v>
+        <v>31.34</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+        <v>0x1D712193A96B4d9D4eC32108cfcde704AC9CCC9C</v>
       </c>
       <c r="B151" t="str">
-        <v>4,726.89</v>
+        <v>3,718.17</v>
       </c>
       <c r="C151" t="str">
-        <v>4,726.89</v>
+        <v>3,718.17</v>
       </c>
       <c r="D151" t="str">
-        <v>0</v>
+        <v>684.37</v>
       </c>
       <c r="E151" t="str">
-        <v>2,370.84</v>
+        <v>1,180.53</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>0x075aD91bE193D5a734a800D800D1CAf3a89595d8</v>
+        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
       </c>
       <c r="B152" t="str">
-        <v>42.74</v>
+        <v>12,677.85</v>
       </c>
       <c r="C152" t="str">
-        <v>42.74</v>
+        <v>12,677.85</v>
       </c>
       <c r="D152" t="str">
-        <v>0</v>
+        <v>6,358.75</v>
       </c>
       <c r="E152" t="str">
-        <v>21.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
+        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
       </c>
       <c r="B153" t="str">
-        <v>15,252.48</v>
+        <v>12,677.85</v>
       </c>
       <c r="C153" t="str">
-        <v>15,252.48</v>
+        <v>12,677.85</v>
       </c>
       <c r="D153" t="str">
-        <v>7,650.09</v>
+        <v>0</v>
       </c>
       <c r="E153" t="str">
-        <v>0</v>
+        <v>6,358.75</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
+        <v>0x24CAEFe09e10B896Dd031CDe933c57aD4EB42d0a</v>
       </c>
       <c r="B154" t="str">
-        <v>15,252.48</v>
+        <v>426.96</v>
       </c>
       <c r="C154" t="str">
-        <v>15,252.48</v>
+        <v>426.96</v>
       </c>
       <c r="D154" t="str">
-        <v>0</v>
+        <v>214.15</v>
       </c>
       <c r="E154" t="str">
-        <v>7,650.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>0xCf54bb8C360FB4Ec47AE0c31Bc8864B163651277</v>
+        <v>0x3966290733ca02e46E1EAdc4bb135548748a2fAD</v>
       </c>
       <c r="B155" t="str">
-        <v>132.88</v>
+        <v>1,113.21</v>
       </c>
       <c r="C155" t="str">
-        <v>132.88</v>
+        <v>1,113.21</v>
       </c>
       <c r="D155" t="str">
-        <v>66.65</v>
+        <v>0</v>
       </c>
       <c r="E155" t="str">
-        <v>0</v>
+        <v>558.35</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>0xEE54C926fAf924bC7dcCdc341F9629cFA0f6a1bE</v>
+        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
       </c>
       <c r="B156" t="str">
-        <v>17,668.58</v>
+        <v>1,133.89</v>
       </c>
       <c r="C156" t="str">
-        <v>17,668.58</v>
+        <v>1,133.89</v>
       </c>
       <c r="D156" t="str">
         <v>0</v>
       </c>
       <c r="E156" t="str">
-        <v>8,861.92</v>
+        <v>568.72</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>0x883c4BF5F45e8E75C59DdeA8B2ba3Cd40e81047D</v>
+        <v>0x1A24A8CDa46ACac40606af1D233dAfF9AEe66e2f</v>
       </c>
       <c r="B157" t="str">
-        <v>1,028.26</v>
+        <v>251.87</v>
       </c>
       <c r="C157" t="str">
-        <v>1,028.26</v>
+        <v>251.87</v>
       </c>
       <c r="D157" t="str">
         <v>0</v>
       </c>
       <c r="E157" t="str">
-        <v>515.74</v>
+        <v>126.33</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>0x964087989Df5D5e89cF7527b72A3949367a337bA</v>
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
       </c>
       <c r="B158" t="str">
-        <v>1,898.28</v>
+        <v>4,726.89</v>
       </c>
       <c r="C158" t="str">
-        <v>1,898.28</v>
+        <v>4,726.89</v>
       </c>
       <c r="D158" t="str">
-        <v>952.11</v>
+        <v>0</v>
       </c>
       <c r="E158" t="str">
-        <v>0</v>
+        <v>2,370.84</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>0x395eEB786dF7115b84Db4295C4576822e5D9379c</v>
+        <v>0x075aD91bE193D5a734a800D800D1CAf3a89595d8</v>
       </c>
       <c r="B159" t="str">
-        <v>101</v>
+        <v>42.74</v>
       </c>
       <c r="C159" t="str">
-        <v>101</v>
+        <v>42.74</v>
       </c>
       <c r="D159" t="str">
-        <v>50.66</v>
+        <v>0</v>
       </c>
       <c r="E159" t="str">
-        <v>0</v>
+        <v>21.44</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>0x2848A658c1097a8639d2fb62a977b23903200b53</v>
+        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
       </c>
       <c r="B160" t="str">
-        <v>533.09</v>
+        <v>15,252.48</v>
       </c>
       <c r="C160" t="str">
-        <v>533.09</v>
+        <v>15,252.48</v>
       </c>
       <c r="D160" t="str">
-        <v>0</v>
+        <v>7,650.09</v>
       </c>
       <c r="E160" t="str">
-        <v>267.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
+        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
       </c>
       <c r="B161" t="str">
-        <v>2,252.85</v>
+        <v>15,252.48</v>
       </c>
       <c r="C161" t="str">
-        <v>2,252.85</v>
+        <v>15,252.48</v>
       </c>
       <c r="D161" t="str">
-        <v>566.83</v>
+        <v>0</v>
       </c>
       <c r="E161" t="str">
-        <v>563.12</v>
+        <v>7,650.09</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+        <v>0xCf54bb8C360FB4Ec47AE0c31Bc8864B163651277</v>
       </c>
       <c r="B162" t="str">
-        <v>210.26</v>
+        <v>132.88</v>
       </c>
       <c r="C162" t="str">
-        <v>210.26</v>
+        <v>132.88</v>
       </c>
       <c r="D162" t="str">
-        <v>0</v>
+        <v>66.65</v>
       </c>
       <c r="E162" t="str">
-        <v>105.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>0xb05822516a701573678447E6966F7eD3bdDf78C5</v>
+        <v>0xEE54C926fAf924bC7dcCdc341F9629cFA0f6a1bE</v>
       </c>
       <c r="B163" t="str">
-        <v>3,652.73</v>
+        <v>17,668.58</v>
       </c>
       <c r="C163" t="str">
-        <v>3,652.73</v>
+        <v>17,668.58</v>
       </c>
       <c r="D163" t="str">
-        <v>445.68</v>
+        <v>0</v>
       </c>
       <c r="E163" t="str">
-        <v>1,386.4</v>
+        <v>8,861.92</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>0x1044c6807718B3340db2e138C101B18226Bff012</v>
+        <v>0x883c4BF5F45e8E75C59DdeA8B2ba3Cd40e81047D</v>
       </c>
       <c r="B164" t="str">
-        <v>435.21</v>
+        <v>1,028.26</v>
       </c>
       <c r="C164" t="str">
-        <v>435.21</v>
+        <v>1,028.26</v>
       </c>
       <c r="D164" t="str">
         <v>0</v>
       </c>
       <c r="E164" t="str">
-        <v>218.29</v>
+        <v>515.74</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>0x2D6Fa4f9e55ccB6574f9ac77d331290C19BEAc0b</v>
+        <v>0x964087989Df5D5e89cF7527b72A3949367a337bA</v>
       </c>
       <c r="B165" t="str">
-        <v>652.16</v>
+        <v>1,898.28</v>
       </c>
       <c r="C165" t="str">
-        <v>652.16</v>
+        <v>1,898.28</v>
       </c>
       <c r="D165" t="str">
-        <v>327.1</v>
+        <v>952.11</v>
       </c>
       <c r="E165" t="str">
         <v>0</v>
@@ -16047,186 +16047,186 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
+        <v>0x395eEB786dF7115b84Db4295C4576822e5D9379c</v>
       </c>
       <c r="B166" t="str">
-        <v>665.49</v>
+        <v>101</v>
       </c>
       <c r="C166" t="str">
-        <v>665.49</v>
+        <v>101</v>
       </c>
       <c r="D166" t="str">
-        <v>6.69</v>
+        <v>50.66</v>
       </c>
       <c r="E166" t="str">
-        <v>327.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
+        <v>0x2848A658c1097a8639d2fb62a977b23903200b53</v>
       </c>
       <c r="B167" t="str">
-        <v>1,303.12</v>
+        <v>533.09</v>
       </c>
       <c r="C167" t="str">
-        <v>1,303.12</v>
+        <v>533.09</v>
       </c>
       <c r="D167" t="str">
         <v>0</v>
       </c>
       <c r="E167" t="str">
-        <v>653.6</v>
+        <v>267.38</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
       </c>
       <c r="B168" t="str">
-        <v>50,116.91</v>
+        <v>2,252.85</v>
       </c>
       <c r="C168" t="str">
-        <v>50,116.91</v>
+        <v>2,252.85</v>
       </c>
       <c r="D168" t="str">
-        <v>15,000</v>
+        <v>566.83</v>
       </c>
       <c r="E168" t="str">
-        <v>10,136.82</v>
+        <v>563.12</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>0x3e666FADbdC565692DEc4aB6A95CaaA708d28d76</v>
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
       </c>
       <c r="B169" t="str">
-        <v>2,547.07</v>
+        <v>210.26</v>
       </c>
       <c r="C169" t="str">
-        <v>2,547.07</v>
+        <v>210.26</v>
       </c>
       <c r="D169" t="str">
-        <v>1,277.52</v>
+        <v>0</v>
       </c>
       <c r="E169" t="str">
-        <v>0</v>
+        <v>105.46</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>0xAcAc4b458E24A1533Cd0154dFc33566ee10C211C</v>
+        <v>0xb05822516a701573678447E6966F7eD3bdDf78C5</v>
       </c>
       <c r="B170" t="str">
-        <v>39.15</v>
+        <v>3,652.73</v>
       </c>
       <c r="C170" t="str">
-        <v>39.15</v>
+        <v>3,652.73</v>
       </c>
       <c r="D170" t="str">
-        <v>19.64</v>
+        <v>445.68</v>
       </c>
       <c r="E170" t="str">
-        <v>0</v>
+        <v>1,386.4</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>0x337E6F9e718f08B1Ca7927BCACF2ae54C71FE1ba</v>
+        <v>0x1044c6807718B3340db2e138C101B18226Bff012</v>
       </c>
       <c r="B171" t="str">
-        <v>39.15</v>
+        <v>435.21</v>
       </c>
       <c r="C171" t="str">
-        <v>39.15</v>
+        <v>435.21</v>
       </c>
       <c r="D171" t="str">
         <v>0</v>
       </c>
       <c r="E171" t="str">
-        <v>19.64</v>
+        <v>218.29</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+        <v>0x2D6Fa4f9e55ccB6574f9ac77d331290C19BEAc0b</v>
       </c>
       <c r="B172" t="str">
-        <v>25,972.19</v>
+        <v>652.16</v>
       </c>
       <c r="C172" t="str">
-        <v>25,972.19</v>
+        <v>652.16</v>
       </c>
       <c r="D172" t="str">
-        <v>139.2</v>
+        <v>327.1</v>
       </c>
       <c r="E172" t="str">
-        <v>12,887.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
       </c>
       <c r="B173" t="str">
-        <v>41.17</v>
+        <v>665.49</v>
       </c>
       <c r="C173" t="str">
-        <v>41.17</v>
+        <v>665.49</v>
       </c>
       <c r="D173" t="str">
-        <v>20.65</v>
+        <v>6.69</v>
       </c>
       <c r="E173" t="str">
-        <v>0</v>
+        <v>327.1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>0x02A85f9442a7aED8DeC1555014deF15fC017055D</v>
+        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
       </c>
       <c r="B174" t="str">
-        <v>72.43</v>
+        <v>1,303.12</v>
       </c>
       <c r="C174" t="str">
-        <v>72.43</v>
+        <v>1,303.12</v>
       </c>
       <c r="D174" t="str">
-        <v>36.33</v>
+        <v>0</v>
       </c>
       <c r="E174" t="str">
-        <v>0</v>
+        <v>653.6</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
       </c>
       <c r="B175" t="str">
-        <v>90,145.05</v>
+        <v>50,116.91</v>
       </c>
       <c r="C175" t="str">
-        <v>90,145.05</v>
+        <v>50,116.91</v>
       </c>
       <c r="D175" t="str">
-        <v>0</v>
+        <v>15,000</v>
       </c>
       <c r="E175" t="str">
-        <v>45,213.48</v>
+        <v>10,136.82</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>0x3c78a823dfBD3B3894080F6Cbd0Ebb449769A2bD</v>
+        <v>0x3e666FADbdC565692DEc4aB6A95CaaA708d28d76</v>
       </c>
       <c r="B176" t="str">
-        <v>3,097.49</v>
+        <v>2,547.07</v>
       </c>
       <c r="C176" t="str">
-        <v>3,097.49</v>
+        <v>2,547.07</v>
       </c>
       <c r="D176" t="str">
-        <v>1,553.59</v>
+        <v>1,277.52</v>
       </c>
       <c r="E176" t="str">
         <v>0</v>
@@ -16234,118 +16234,118 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>0x3E3309ab5312f6875b6e9bE672b9A43EFb70D760</v>
+        <v>0xAcAc4b458E24A1533Cd0154dFc33566ee10C211C</v>
       </c>
       <c r="B177" t="str">
-        <v>2,336.13</v>
+        <v>39.15</v>
       </c>
       <c r="C177" t="str">
-        <v>2,336.13</v>
+        <v>39.15</v>
       </c>
       <c r="D177" t="str">
-        <v>0</v>
+        <v>19.64</v>
       </c>
       <c r="E177" t="str">
-        <v>1,171.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
+        <v>0x337E6F9e718f08B1Ca7927BCACF2ae54C71FE1ba</v>
       </c>
       <c r="B178" t="str">
-        <v>3,675.46</v>
+        <v>39.15</v>
       </c>
       <c r="C178" t="str">
-        <v>3,675.46</v>
+        <v>39.15</v>
       </c>
       <c r="D178" t="str">
-        <v>895.68</v>
+        <v>0</v>
       </c>
       <c r="E178" t="str">
-        <v>947.8</v>
+        <v>19.64</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
+        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
       </c>
       <c r="B179" t="str">
-        <v>279.2</v>
+        <v>25,972.19</v>
       </c>
       <c r="C179" t="str">
-        <v>279.2</v>
+        <v>25,972.19</v>
       </c>
       <c r="D179" t="str">
-        <v>140.04</v>
+        <v>139.2</v>
       </c>
       <c r="E179" t="str">
-        <v>0</v>
+        <v>12,887.51</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
       </c>
       <c r="B180" t="str">
-        <v>748.75</v>
+        <v>41.17</v>
       </c>
       <c r="C180" t="str">
-        <v>748.75</v>
+        <v>41.17</v>
       </c>
       <c r="D180" t="str">
-        <v>0</v>
+        <v>20.65</v>
       </c>
       <c r="E180" t="str">
-        <v>375.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>0x4e0F1063F13d020B1316791Ae56ea5a826aba501</v>
+        <v>0x02A85f9442a7aED8DeC1555014deF15fC017055D</v>
       </c>
       <c r="B181" t="str">
-        <v>311.92</v>
+        <v>72.43</v>
       </c>
       <c r="C181" t="str">
-        <v>311.92</v>
+        <v>72.43</v>
       </c>
       <c r="D181" t="str">
-        <v>0</v>
+        <v>36.33</v>
       </c>
       <c r="E181" t="str">
-        <v>156.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
       </c>
       <c r="B182" t="str">
-        <v>165.12</v>
+        <v>90,145.05</v>
       </c>
       <c r="C182" t="str">
-        <v>165.12</v>
+        <v>90,145.05</v>
       </c>
       <c r="D182" t="str">
-        <v>82.82</v>
+        <v>0</v>
       </c>
       <c r="E182" t="str">
-        <v>0</v>
+        <v>45,213.48</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>0xfaac07aC0C2769E304c57d6348BeEF832675b225</v>
+        <v>0x3c78a823dfBD3B3894080F6Cbd0Ebb449769A2bD</v>
       </c>
       <c r="B183" t="str">
-        <v>10,475.56</v>
+        <v>3,097.49</v>
       </c>
       <c r="C183" t="str">
-        <v>10,475.56</v>
+        <v>3,097.49</v>
       </c>
       <c r="D183" t="str">
-        <v>5,254.16</v>
+        <v>1,553.59</v>
       </c>
       <c r="E183" t="str">
         <v>0</v>
@@ -16353,101 +16353,101 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>0x7aD2809008E5DA0c33A72f9144e7970a996D5B6D</v>
+        <v>0x3E3309ab5312f6875b6e9bE672b9A43EFb70D760</v>
       </c>
       <c r="B184" t="str">
-        <v>18.94</v>
+        <v>2,336.13</v>
       </c>
       <c r="C184" t="str">
-        <v>18.94</v>
+        <v>2,336.13</v>
       </c>
       <c r="D184" t="str">
         <v>0</v>
       </c>
       <c r="E184" t="str">
-        <v>9.5</v>
+        <v>1,171.72</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>0x8F6D9C04446d4ffD76b781E09Ed0870cDFD18BE7</v>
+        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
       </c>
       <c r="B185" t="str">
-        <v>24.02</v>
+        <v>3,675.46</v>
       </c>
       <c r="C185" t="str">
-        <v>24.02</v>
+        <v>3,675.46</v>
       </c>
       <c r="D185" t="str">
-        <v>12.05</v>
+        <v>895.68</v>
       </c>
       <c r="E185" t="str">
-        <v>0</v>
+        <v>947.8</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
+        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
       </c>
       <c r="B186" t="str">
-        <v>22,751.54</v>
+        <v>279.2</v>
       </c>
       <c r="C186" t="str">
-        <v>22,751.54</v>
+        <v>279.2</v>
       </c>
       <c r="D186" t="str">
-        <v>0</v>
+        <v>140.04</v>
       </c>
       <c r="E186" t="str">
-        <v>11,411.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>0xd0bc3cdF90AcCa1e338C80c97e7b5C6e7eCedEd7</v>
+        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
       </c>
       <c r="B187" t="str">
-        <v>32.55</v>
+        <v>748.75</v>
       </c>
       <c r="C187" t="str">
-        <v>32.55</v>
+        <v>748.75</v>
       </c>
       <c r="D187" t="str">
-        <v>16.33</v>
+        <v>0</v>
       </c>
       <c r="E187" t="str">
-        <v>0</v>
+        <v>375.55</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>0x947d2c8935C715428702231AD85E293a94CbEB65</v>
+        <v>0x4e0F1063F13d020B1316791Ae56ea5a826aba501</v>
       </c>
       <c r="B188" t="str">
-        <v>2,288.14</v>
+        <v>311.92</v>
       </c>
       <c r="C188" t="str">
-        <v>2,288.14</v>
+        <v>311.92</v>
       </c>
       <c r="D188" t="str">
         <v>0</v>
       </c>
       <c r="E188" t="str">
-        <v>1,147.65</v>
+        <v>156.45</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>0xdfd7445EF7dB056F68cEdEB4c1A709d02C0c3AA7</v>
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
       </c>
       <c r="B189" t="str">
-        <v>222.92</v>
+        <v>165.12</v>
       </c>
       <c r="C189" t="str">
-        <v>222.92</v>
+        <v>165.12</v>
       </c>
       <c r="D189" t="str">
-        <v>111.81</v>
+        <v>82.82</v>
       </c>
       <c r="E189" t="str">
         <v>0</v>
@@ -16455,16 +16455,16 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>0x880cd618B4cA66bBb8862558954d8473d7b0C867</v>
+        <v>0xfaac07aC0C2769E304c57d6348BeEF832675b225</v>
       </c>
       <c r="B190" t="str">
-        <v>1,075.89</v>
+        <v>10,475.56</v>
       </c>
       <c r="C190" t="str">
-        <v>1,075.89</v>
+        <v>10,475.56</v>
       </c>
       <c r="D190" t="str">
-        <v>539.63</v>
+        <v>5,254.16</v>
       </c>
       <c r="E190" t="str">
         <v>0</v>
@@ -16472,322 +16472,322 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>0xeeE85C5e6012fB7677381293C63F987d9dccA87a</v>
+        <v>0x7aD2809008E5DA0c33A72f9144e7970a996D5B6D</v>
       </c>
       <c r="B191" t="str">
-        <v>1,261.83</v>
+        <v>18.94</v>
       </c>
       <c r="C191" t="str">
-        <v>1,261.83</v>
+        <v>18.94</v>
       </c>
       <c r="D191" t="str">
-        <v>632.89</v>
+        <v>0</v>
       </c>
       <c r="E191" t="str">
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>0x35b537F3A2aF254D73263391a4eDE756Ac0f1f35</v>
+        <v>0x8F6D9C04446d4ffD76b781E09Ed0870cDFD18BE7</v>
       </c>
       <c r="B192" t="str">
-        <v>1,261.83</v>
+        <v>24.02</v>
       </c>
       <c r="C192" t="str">
-        <v>1,261.83</v>
+        <v>24.02</v>
       </c>
       <c r="D192" t="str">
-        <v>0</v>
+        <v>12.05</v>
       </c>
       <c r="E192" t="str">
-        <v>632.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>0x3479Ce7954Aebd06dD613A42301C911d85c789bF</v>
+        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
       </c>
       <c r="B193" t="str">
-        <v>8,561.56</v>
+        <v>22,751.54</v>
       </c>
       <c r="C193" t="str">
-        <v>8,561.56</v>
+        <v>22,751.54</v>
       </c>
       <c r="D193" t="str">
-        <v>4,294.17</v>
+        <v>0</v>
       </c>
       <c r="E193" t="str">
-        <v>0</v>
+        <v>11,411.35</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>0x96f194Cf1c9e5eE23B4D96785791F468F6A9C98e</v>
+        <v>0xd0bc3cdF90AcCa1e338C80c97e7b5C6e7eCedEd7</v>
       </c>
       <c r="B194" t="str">
-        <v>29,906.47</v>
+        <v>32.55</v>
       </c>
       <c r="C194" t="str">
-        <v>29,906.47</v>
+        <v>32.55</v>
       </c>
       <c r="D194" t="str">
-        <v>0</v>
+        <v>16.33</v>
       </c>
       <c r="E194" t="str">
-        <v>15,000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>0xe19CE573b43a5C9232e48A267FC2E16b1A9c456e</v>
+        <v>0x947d2c8935C715428702231AD85E293a94CbEB65</v>
       </c>
       <c r="B195" t="str">
-        <v>9,695.37</v>
+        <v>2,288.14</v>
       </c>
       <c r="C195" t="str">
-        <v>9,695.37</v>
+        <v>2,288.14</v>
       </c>
       <c r="D195" t="str">
-        <v>4,794.36</v>
+        <v>0</v>
       </c>
       <c r="E195" t="str">
-        <v>68.49</v>
+        <v>1,147.65</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
+        <v>0xdfd7445EF7dB056F68cEdEB4c1A709d02C0c3AA7</v>
       </c>
       <c r="B196" t="str">
-        <v>13.33</v>
+        <v>222.92</v>
       </c>
       <c r="C196" t="str">
-        <v>13.33</v>
+        <v>222.92</v>
       </c>
       <c r="D196" t="str">
-        <v>0</v>
+        <v>111.81</v>
       </c>
       <c r="E196" t="str">
-        <v>6.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>0xF1ea664AbbA3452bc6cA6B289a6059613855805B</v>
+        <v>0x880cd618B4cA66bBb8862558954d8473d7b0C867</v>
       </c>
       <c r="B197" t="str">
-        <v>4,678.15</v>
+        <v>1,075.89</v>
       </c>
       <c r="C197" t="str">
-        <v>4,678.15</v>
+        <v>1,075.89</v>
       </c>
       <c r="D197" t="str">
-        <v>682.81</v>
+        <v>539.63</v>
       </c>
       <c r="E197" t="str">
-        <v>1,663.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>0xAFA44A7514ad85793Bc10C56DD731aEe4EA854F3</v>
+        <v>0xeeE85C5e6012fB7677381293C63F987d9dccA87a</v>
       </c>
       <c r="B198" t="str">
-        <v>1,257.96</v>
+        <v>1,261.83</v>
       </c>
       <c r="C198" t="str">
-        <v>1,257.96</v>
+        <v>1,261.83</v>
       </c>
       <c r="D198" t="str">
-        <v>469.68</v>
+        <v>632.89</v>
       </c>
       <c r="E198" t="str">
-        <v>161.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>0x8f437d47c7723C7AB5ab896D59549D547181BecB</v>
+        <v>0x35b537F3A2aF254D73263391a4eDE756Ac0f1f35</v>
       </c>
       <c r="B199" t="str">
-        <v>1,389.81</v>
+        <v>1,261.83</v>
       </c>
       <c r="C199" t="str">
-        <v>1,389.81</v>
+        <v>1,261.83</v>
       </c>
       <c r="D199" t="str">
         <v>0</v>
       </c>
       <c r="E199" t="str">
-        <v>697.08</v>
+        <v>632.89</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>0x1Bf35e8Cd908D953b84B10a88C74DF7612Ecc660</v>
+        <v>0x3479Ce7954Aebd06dD613A42301C911d85c789bF</v>
       </c>
       <c r="B200" t="str">
-        <v>139.44</v>
+        <v>8,561.56</v>
       </c>
       <c r="C200" t="str">
-        <v>139.44</v>
+        <v>8,561.56</v>
       </c>
       <c r="D200" t="str">
-        <v>34.78</v>
+        <v>4,294.17</v>
       </c>
       <c r="E200" t="str">
-        <v>35.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>0x9A4dbCDE63b55273DC51BeA546A7ba6456f059D0</v>
+        <v>0x96f194Cf1c9e5eE23B4D96785791F468F6A9C98e</v>
       </c>
       <c r="B201" t="str">
-        <v>4,856.47</v>
+        <v>29,906.47</v>
       </c>
       <c r="C201" t="str">
-        <v>4,856.47</v>
+        <v>29,906.47</v>
       </c>
       <c r="D201" t="str">
         <v>0</v>
       </c>
       <c r="E201" t="str">
-        <v>2,435.83</v>
+        <v>15,000</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+        <v>0xe19CE573b43a5C9232e48A267FC2E16b1A9c456e</v>
       </c>
       <c r="B202" t="str">
-        <v>292.8</v>
+        <v>9,695.37</v>
       </c>
       <c r="C202" t="str">
-        <v>292.8</v>
+        <v>9,695.37</v>
       </c>
       <c r="D202" t="str">
-        <v>146.86</v>
+        <v>4,794.36</v>
       </c>
       <c r="E202" t="str">
-        <v>0</v>
+        <v>68.49</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
+        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
       </c>
       <c r="B203" t="str">
-        <v>72.03</v>
+        <v>13.33</v>
       </c>
       <c r="C203" t="str">
-        <v>72.03</v>
+        <v>13.33</v>
       </c>
       <c r="D203" t="str">
         <v>0</v>
       </c>
       <c r="E203" t="str">
-        <v>36.13</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
+        <v>0xF1ea664AbbA3452bc6cA6B289a6059613855805B</v>
       </c>
       <c r="B204" t="str">
-        <v>135.27</v>
+        <v>4,678.15</v>
       </c>
       <c r="C204" t="str">
-        <v>135.27</v>
+        <v>4,678.15</v>
       </c>
       <c r="D204" t="str">
-        <v>0</v>
+        <v>682.81</v>
       </c>
       <c r="E204" t="str">
-        <v>67.85</v>
+        <v>1,663.58</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>0x44Ae0B00492f996B8ABD8F7F38B1716aEdeb8085</v>
+        <v>0xAFA44A7514ad85793Bc10C56DD731aEe4EA854F3</v>
       </c>
       <c r="B205" t="str">
-        <v>1,213.72</v>
+        <v>1,257.96</v>
       </c>
       <c r="C205" t="str">
-        <v>1,213.72</v>
+        <v>1,257.96</v>
       </c>
       <c r="D205" t="str">
-        <v>0</v>
+        <v>469.68</v>
       </c>
       <c r="E205" t="str">
-        <v>608.76</v>
+        <v>161.27</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>0x360Fb611C2CedBB36c0022ADe9a9beb92a91e283</v>
+        <v>0x8f437d47c7723C7AB5ab896D59549D547181BecB</v>
       </c>
       <c r="B206" t="str">
-        <v>1,158.55</v>
+        <v>1,389.81</v>
       </c>
       <c r="C206" t="str">
-        <v>1,158.55</v>
+        <v>1,389.81</v>
       </c>
       <c r="D206" t="str">
-        <v>581.09</v>
+        <v>0</v>
       </c>
       <c r="E206" t="str">
-        <v>0</v>
+        <v>697.08</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>0x9C0557216e919eDaCCc56037c66A5fAC1D41D82a</v>
+        <v>0x1Bf35e8Cd908D953b84B10a88C74DF7612Ecc660</v>
       </c>
       <c r="B207" t="str">
-        <v>1,754.09</v>
+        <v>139.44</v>
       </c>
       <c r="C207" t="str">
-        <v>1,754.09</v>
+        <v>139.44</v>
       </c>
       <c r="D207" t="str">
-        <v>0</v>
+        <v>34.78</v>
       </c>
       <c r="E207" t="str">
-        <v>879.79</v>
+        <v>35.16</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>0x66B6221845b9bd7A029BCCb5523168a5AcE1e013</v>
+        <v>0x9A4dbCDE63b55273DC51BeA546A7ba6456f059D0</v>
       </c>
       <c r="B208" t="str">
-        <v>762.37</v>
+        <v>4,856.47</v>
       </c>
       <c r="C208" t="str">
-        <v>762.37</v>
+        <v>4,856.47</v>
       </c>
       <c r="D208" t="str">
         <v>0</v>
       </c>
       <c r="E208" t="str">
-        <v>382.38</v>
+        <v>2,435.83</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>0x620C45Fd6A4C15A4aa2A3a9301F0009b34F7809b</v>
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
       </c>
       <c r="B209" t="str">
-        <v>178.52</v>
+        <v>292.8</v>
       </c>
       <c r="C209" t="str">
-        <v>178.52</v>
+        <v>292.8</v>
       </c>
       <c r="D209" t="str">
-        <v>89.54</v>
+        <v>146.86</v>
       </c>
       <c r="E209" t="str">
         <v>0</v>
@@ -16795,118 +16795,118 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
+        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
       </c>
       <c r="B210" t="str">
-        <v>18.64</v>
+        <v>72.03</v>
       </c>
       <c r="C210" t="str">
-        <v>18.64</v>
+        <v>72.03</v>
       </c>
       <c r="D210" t="str">
         <v>0</v>
       </c>
       <c r="E210" t="str">
-        <v>9.35</v>
+        <v>36.13</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
       </c>
       <c r="B211" t="str">
-        <v>283.41</v>
+        <v>135.27</v>
       </c>
       <c r="C211" t="str">
-        <v>283.41</v>
+        <v>135.27</v>
       </c>
       <c r="D211" t="str">
         <v>0</v>
       </c>
       <c r="E211" t="str">
-        <v>142.15</v>
+        <v>67.85</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>0x11AbA9ACdFbAaB8e7C1Dc4d92b8B2467FD5d0e3B</v>
+        <v>0x44Ae0B00492f996B8ABD8F7F38B1716aEdeb8085</v>
       </c>
       <c r="B212" t="str">
-        <v>332.67</v>
+        <v>1,213.72</v>
       </c>
       <c r="C212" t="str">
-        <v>332.67</v>
+        <v>1,213.72</v>
       </c>
       <c r="D212" t="str">
-        <v>166.86</v>
+        <v>0</v>
       </c>
       <c r="E212" t="str">
-        <v>0</v>
+        <v>608.76</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>0x8Dca7891aAb1d43b8402d23e2Ca88B0399Ed542E</v>
+        <v>0x360Fb611C2CedBB36c0022ADe9a9beb92a91e283</v>
       </c>
       <c r="B213" t="str">
-        <v>332.67</v>
+        <v>1,158.55</v>
       </c>
       <c r="C213" t="str">
-        <v>332.67</v>
+        <v>1,158.55</v>
       </c>
       <c r="D213" t="str">
-        <v>0</v>
+        <v>581.09</v>
       </c>
       <c r="E213" t="str">
-        <v>166.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>0x5766ee90ab6f2Cd995CA845d09b2AeC45E870EC9</v>
+        <v>0x9C0557216e919eDaCCc56037c66A5fAC1D41D82a</v>
       </c>
       <c r="B214" t="str">
-        <v>553.68</v>
+        <v>1,754.09</v>
       </c>
       <c r="C214" t="str">
-        <v>553.68</v>
+        <v>1,754.09</v>
       </c>
       <c r="D214" t="str">
-        <v>167.3</v>
+        <v>0</v>
       </c>
       <c r="E214" t="str">
-        <v>110.41</v>
+        <v>879.79</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>0xd092C607a92c75de3bB1240494C4822Bf3766D46</v>
+        <v>0x66B6221845b9bd7A029BCCb5523168a5AcE1e013</v>
       </c>
       <c r="B215" t="str">
-        <v>30.5</v>
+        <v>762.37</v>
       </c>
       <c r="C215" t="str">
-        <v>30.5</v>
+        <v>762.37</v>
       </c>
       <c r="D215" t="str">
-        <v>15.3</v>
+        <v>0</v>
       </c>
       <c r="E215" t="str">
-        <v>0</v>
+        <v>382.38</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>0x4045d560bdcd01295dB6B3041ecfB7C5a346eDa8</v>
+        <v>0x620C45Fd6A4C15A4aa2A3a9301F0009b34F7809b</v>
       </c>
       <c r="B216" t="str">
-        <v>8,668.72</v>
+        <v>178.52</v>
       </c>
       <c r="C216" t="str">
-        <v>73,762.28</v>
+        <v>178.52</v>
       </c>
       <c r="D216" t="str">
-        <v>36,996.48</v>
+        <v>89.54</v>
       </c>
       <c r="E216" t="str">
         <v>0</v>
@@ -16914,50 +16914,50 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
+        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
       </c>
       <c r="B217" t="str">
-        <v>1,302.88</v>
+        <v>18.64</v>
       </c>
       <c r="C217" t="str">
-        <v>1,302.88</v>
+        <v>18.64</v>
       </c>
       <c r="D217" t="str">
-        <v>653.48</v>
+        <v>0</v>
       </c>
       <c r="E217" t="str">
-        <v>0</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>0xdF8Df47E5109Adc155E436C0712adB78f53A418c</v>
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
       </c>
       <c r="B218" t="str">
-        <v>536.58</v>
+        <v>283.41</v>
       </c>
       <c r="C218" t="str">
-        <v>536.58</v>
+        <v>283.41</v>
       </c>
       <c r="D218" t="str">
         <v>0</v>
       </c>
       <c r="E218" t="str">
-        <v>269.13</v>
+        <v>142.15</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>0x13113D25f3ab3720627e9569749A466Be5F8003b</v>
+        <v>0x11AbA9ACdFbAaB8e7C1Dc4d92b8B2467FD5d0e3B</v>
       </c>
       <c r="B219" t="str">
-        <v>47,638.68</v>
+        <v>332.67</v>
       </c>
       <c r="C219" t="str">
-        <v>47,638.68</v>
+        <v>332.67</v>
       </c>
       <c r="D219" t="str">
-        <v>23,893.83</v>
+        <v>166.86</v>
       </c>
       <c r="E219" t="str">
         <v>0</v>
@@ -16965,50 +16965,50 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>0x6605532d3D1b060bDeae5FC44DBA7EC8cd4C2dC3</v>
+        <v>0x8Dca7891aAb1d43b8402d23e2Ca88B0399Ed542E</v>
       </c>
       <c r="B220" t="str">
-        <v>1,457.92</v>
+        <v>332.67</v>
       </c>
       <c r="C220" t="str">
-        <v>1,457.92</v>
+        <v>332.67</v>
       </c>
       <c r="D220" t="str">
-        <v>421.82</v>
+        <v>0</v>
       </c>
       <c r="E220" t="str">
-        <v>309.42</v>
+        <v>166.86</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>0x58599074913db73A74d2e0fa0aF75965268c203a</v>
+        <v>0x5766ee90ab6f2Cd995CA845d09b2AeC45E870EC9</v>
       </c>
       <c r="B221" t="str">
-        <v>1,670.95</v>
+        <v>553.68</v>
       </c>
       <c r="C221" t="str">
-        <v>1,670.95</v>
+        <v>553.68</v>
       </c>
       <c r="D221" t="str">
-        <v>838.09</v>
+        <v>167.3</v>
       </c>
       <c r="E221" t="str">
-        <v>0</v>
+        <v>110.41</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>0x6A3F74A2585708dC42DA743A2E66c081fc7f5b22</v>
+        <v>0xd092C607a92c75de3bB1240494C4822Bf3766D46</v>
       </c>
       <c r="B222" t="str">
-        <v>18,320.9</v>
+        <v>30.5</v>
       </c>
       <c r="C222" t="str">
-        <v>18,320.9</v>
+        <v>30.5</v>
       </c>
       <c r="D222" t="str">
-        <v>9,189.1</v>
+        <v>15.3</v>
       </c>
       <c r="E222" t="str">
         <v>0</v>
@@ -17016,33 +17016,33 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>0x9c6E23aC65D33b747B8c56C04db77d836c41Faf5</v>
+        <v>0x4045d560bdcd01295dB6B3041ecfB7C5a346eDa8</v>
       </c>
       <c r="B223" t="str">
-        <v>2,143.93</v>
+        <v>8,668.72</v>
       </c>
       <c r="C223" t="str">
-        <v>2,143.93</v>
+        <v>73,762.28</v>
       </c>
       <c r="D223" t="str">
-        <v>0</v>
+        <v>36,996.48</v>
       </c>
       <c r="E223" t="str">
-        <v>1,075.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>0x454c9119dE1315e24f9644b9778EDA0dF266722E</v>
+        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
       </c>
       <c r="B224" t="str">
-        <v>1,070.69</v>
+        <v>1,302.88</v>
       </c>
       <c r="C224" t="str">
-        <v>1,070.69</v>
+        <v>1,302.88</v>
       </c>
       <c r="D224" t="str">
-        <v>537.02</v>
+        <v>653.48</v>
       </c>
       <c r="E224" t="str">
         <v>0</v>
@@ -17050,33 +17050,33 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>0xA7d0053076d12451b721FCa4e513CF4808846e1F</v>
+        <v>0xdF8Df47E5109Adc155E436C0712adB78f53A418c</v>
       </c>
       <c r="B225" t="str">
-        <v>3.58</v>
+        <v>536.58</v>
       </c>
       <c r="C225" t="str">
-        <v>3.58</v>
+        <v>536.58</v>
       </c>
       <c r="D225" t="str">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E225" t="str">
-        <v>0</v>
+        <v>269.13</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>0x325f292A70A46EE656b268D25EEFe5D88DfaF539</v>
+        <v>0x13113D25f3ab3720627e9569749A466Be5F8003b</v>
       </c>
       <c r="B226" t="str">
-        <v>100.7</v>
+        <v>47,638.68</v>
       </c>
       <c r="C226" t="str">
-        <v>100.7</v>
+        <v>47,638.68</v>
       </c>
       <c r="D226" t="str">
-        <v>50.51</v>
+        <v>23,893.83</v>
       </c>
       <c r="E226" t="str">
         <v>0</v>
@@ -17084,101 +17084,101 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>0x494700b98fE1F432EeF0F5Ca8262D6d903F8a5Ab</v>
+        <v>0x6605532d3D1b060bDeae5FC44DBA7EC8cd4C2dC3</v>
       </c>
       <c r="B227" t="str">
-        <v>100.7</v>
+        <v>1,457.92</v>
       </c>
       <c r="C227" t="str">
-        <v>100.7</v>
+        <v>1,457.92</v>
       </c>
       <c r="D227" t="str">
-        <v>0</v>
+        <v>421.82</v>
       </c>
       <c r="E227" t="str">
-        <v>50.51</v>
+        <v>309.42</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>0xE34bBD8d72B7Ffe5ad2e84CE93e3A07581De2e50</v>
+        <v>0x58599074913db73A74d2e0fa0aF75965268c203a</v>
       </c>
       <c r="B228" t="str">
-        <v>4,717.36</v>
+        <v>1,670.95</v>
       </c>
       <c r="C228" t="str">
-        <v>6,350.89</v>
+        <v>1,670.95</v>
       </c>
       <c r="D228" t="str">
-        <v>0</v>
+        <v>838.09</v>
       </c>
       <c r="E228" t="str">
-        <v>3,185.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>0x0a87597E226c758e1f48cf6Bd5aaBBFB250Fcbd7</v>
+        <v>0x6A3F74A2585708dC42DA743A2E66c081fc7f5b22</v>
       </c>
       <c r="B229" t="str">
-        <v>747.66</v>
+        <v>18,320.9</v>
       </c>
       <c r="C229" t="str">
-        <v>747.66</v>
+        <v>18,320.9</v>
       </c>
       <c r="D229" t="str">
-        <v>0</v>
+        <v>9,189.1</v>
       </c>
       <c r="E229" t="str">
-        <v>375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>0x9dAaF515C4Bf267a38952d9b45ffBD4169cf64aA</v>
+        <v>0x9c6E23aC65D33b747B8c56C04db77d836c41Faf5</v>
       </c>
       <c r="B230" t="str">
-        <v>330.38</v>
+        <v>2,143.93</v>
       </c>
       <c r="C230" t="str">
-        <v>330.38</v>
+        <v>2,143.93</v>
       </c>
       <c r="D230" t="str">
-        <v>165.71</v>
+        <v>0</v>
       </c>
       <c r="E230" t="str">
-        <v>0</v>
+        <v>1,075.32</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>0xf7d5269b1fB9078Bf3ed001F787EFE9456Ab2f20</v>
+        <v>0x454c9119dE1315e24f9644b9778EDA0dF266722E</v>
       </c>
       <c r="B231" t="str">
-        <v>330.38</v>
+        <v>1,070.69</v>
       </c>
       <c r="C231" t="str">
-        <v>330.38</v>
+        <v>1,070.69</v>
       </c>
       <c r="D231" t="str">
-        <v>0</v>
+        <v>537.02</v>
       </c>
       <c r="E231" t="str">
-        <v>165.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>0xA04962A376cb07f87F7dac5Ce7BA0631e26e56B9</v>
+        <v>0xA7d0053076d12451b721FCa4e513CF4808846e1F</v>
       </c>
       <c r="B232" t="str">
-        <v>76.95</v>
+        <v>3.58</v>
       </c>
       <c r="C232" t="str">
-        <v>76.95</v>
+        <v>3.58</v>
       </c>
       <c r="D232" t="str">
-        <v>38.6</v>
+        <v>1.8</v>
       </c>
       <c r="E232" t="str">
         <v>0</v>
@@ -17186,16 +17186,16 @@
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>0xf33639F5c9cDB8E242c3E20Fdaf98Ae389f0e399</v>
+        <v>0x325f292A70A46EE656b268D25EEFe5D88DfaF539</v>
       </c>
       <c r="B233" t="str">
-        <v>188.43</v>
+        <v>100.7</v>
       </c>
       <c r="C233" t="str">
-        <v>188.43</v>
+        <v>100.7</v>
       </c>
       <c r="D233" t="str">
-        <v>94.51</v>
+        <v>50.51</v>
       </c>
       <c r="E233" t="str">
         <v>0</v>
@@ -17203,67 +17203,67 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>0x0116c14c39b5a5ecD03193E56E975064b4a405D2</v>
+        <v>0x494700b98fE1F432EeF0F5Ca8262D6d903F8a5Ab</v>
       </c>
       <c r="B234" t="str">
-        <v>188.43</v>
+        <v>100.7</v>
       </c>
       <c r="C234" t="str">
-        <v>188.43</v>
+        <v>100.7</v>
       </c>
       <c r="D234" t="str">
         <v>0</v>
       </c>
       <c r="E234" t="str">
-        <v>94.51</v>
+        <v>50.51</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>0x48A7209DD07Bc7409bF3f61820E1Ee9409F462e9</v>
+        <v>0xE34bBD8d72B7Ffe5ad2e84CE93e3A07581De2e50</v>
       </c>
       <c r="B235" t="str">
-        <v>473.71</v>
+        <v>4,717.36</v>
       </c>
       <c r="C235" t="str">
-        <v>473.71</v>
+        <v>6,350.89</v>
       </c>
       <c r="D235" t="str">
-        <v>135.64</v>
+        <v>0</v>
       </c>
       <c r="E235" t="str">
-        <v>101.96</v>
+        <v>3,185.38</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>0x9ff812DfE804e2BF400Fd6fD22293203674DDdEe</v>
+        <v>0x0a87597E226c758e1f48cf6Bd5aaBBFB250Fcbd7</v>
       </c>
       <c r="B236" t="str">
-        <v>359.13</v>
+        <v>747.66</v>
       </c>
       <c r="C236" t="str">
-        <v>359.13</v>
+        <v>747.66</v>
       </c>
       <c r="D236" t="str">
         <v>0</v>
       </c>
       <c r="E236" t="str">
-        <v>180.13</v>
+        <v>375</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>0x2A1a6266DA3C692c948Ff7567C23fA1d91f246Ae</v>
+        <v>0x9dAaF515C4Bf267a38952d9b45ffBD4169cf64aA</v>
       </c>
       <c r="B237" t="str">
-        <v>171.18</v>
+        <v>330.38</v>
       </c>
       <c r="C237" t="str">
-        <v>171.18</v>
+        <v>330.38</v>
       </c>
       <c r="D237" t="str">
-        <v>85.86</v>
+        <v>165.71</v>
       </c>
       <c r="E237" t="str">
         <v>0</v>
@@ -17271,33 +17271,33 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>0xfE487554b26B93D8D061220d604a368D069b2888</v>
+        <v>0xf7d5269b1fB9078Bf3ed001F787EFE9456Ab2f20</v>
       </c>
       <c r="B238" t="str">
-        <v>1,155</v>
+        <v>330.38</v>
       </c>
       <c r="C238" t="str">
-        <v>1,155</v>
+        <v>330.38</v>
       </c>
       <c r="D238" t="str">
-        <v>374.12</v>
+        <v>0</v>
       </c>
       <c r="E238" t="str">
-        <v>205.19</v>
+        <v>165.71</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>0xa5d134A404FBAe6B980D22C2A1be268a1a995F6C</v>
+        <v>0xA04962A376cb07f87F7dac5Ce7BA0631e26e56B9</v>
       </c>
       <c r="B239" t="str">
-        <v>485.54</v>
+        <v>76.95</v>
       </c>
       <c r="C239" t="str">
-        <v>485.54</v>
+        <v>76.95</v>
       </c>
       <c r="D239" t="str">
-        <v>243.53</v>
+        <v>38.6</v>
       </c>
       <c r="E239" t="str">
         <v>0</v>
@@ -17305,16 +17305,16 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>0x033d94e0e1ca7F5c62f3490cEaA6C209006E0654</v>
+        <v>0xf33639F5c9cDB8E242c3E20Fdaf98Ae389f0e399</v>
       </c>
       <c r="B240" t="str">
-        <v>94.86</v>
+        <v>188.43</v>
       </c>
       <c r="C240" t="str">
-        <v>94.86</v>
+        <v>188.43</v>
       </c>
       <c r="D240" t="str">
-        <v>47.58</v>
+        <v>94.51</v>
       </c>
       <c r="E240" t="str">
         <v>0</v>
@@ -17322,84 +17322,84 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>0x9b6B2803cA0a3a51D447559307f937e739d4470a</v>
+        <v>0x0116c14c39b5a5ecD03193E56E975064b4a405D2</v>
       </c>
       <c r="B241" t="str">
-        <v>94.86</v>
+        <v>188.43</v>
       </c>
       <c r="C241" t="str">
-        <v>94.86</v>
+        <v>188.43</v>
       </c>
       <c r="D241" t="str">
         <v>0</v>
       </c>
       <c r="E241" t="str">
-        <v>47.58</v>
+        <v>94.51</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+        <v>0xB979919A5a696bA2864afE486aEc1072A81505cF</v>
       </c>
       <c r="B242" t="str">
-        <v>1,465.73</v>
+        <v>0</v>
       </c>
       <c r="C242" t="str">
-        <v>1,465.73</v>
+        <v>845.69</v>
       </c>
       <c r="D242" t="str">
-        <v>0</v>
+        <v>424.17</v>
       </c>
       <c r="E242" t="str">
-        <v>735.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>0x6eCe075972c5645694f233c41AA456D94307487f</v>
+        <v>0x48A7209DD07Bc7409bF3f61820E1Ee9409F462e9</v>
       </c>
       <c r="B243" t="str">
-        <v>7.08</v>
+        <v>473.71</v>
       </c>
       <c r="C243" t="str">
-        <v>553.6</v>
+        <v>473.71</v>
       </c>
       <c r="D243" t="str">
-        <v>0</v>
+        <v>135.64</v>
       </c>
       <c r="E243" t="str">
-        <v>277.67</v>
+        <v>101.96</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>0x000648b3abCcEbdEEA6594FdEC3741c54D75e21F</v>
+        <v>0x9ff812DfE804e2BF400Fd6fD22293203674DDdEe</v>
       </c>
       <c r="B244" t="str">
-        <v>895.14</v>
+        <v>359.13</v>
       </c>
       <c r="C244" t="str">
-        <v>895.14</v>
+        <v>359.13</v>
       </c>
       <c r="D244" t="str">
-        <v>448.97</v>
+        <v>0</v>
       </c>
       <c r="E244" t="str">
-        <v>0</v>
+        <v>180.13</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>0xf90518CBcd4ef086891cb22C87bd4F80B61a7081</v>
+        <v>0x2A1a6266DA3C692c948Ff7567C23fA1d91f246Ae</v>
       </c>
       <c r="B245" t="str">
-        <v>3,534.26</v>
+        <v>171.18</v>
       </c>
       <c r="C245" t="str">
-        <v>3,534.26</v>
+        <v>171.18</v>
       </c>
       <c r="D245" t="str">
-        <v>1,772.66</v>
+        <v>85.86</v>
       </c>
       <c r="E245" t="str">
         <v>0</v>
@@ -17407,33 +17407,33 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>0xD53314Cd179ccD3926Af264e62E3B6dAB06A6419</v>
+        <v>0xfE487554b26B93D8D061220d604a368D069b2888</v>
       </c>
       <c r="B246" t="str">
-        <v>3,534.26</v>
+        <v>1,155</v>
       </c>
       <c r="C246" t="str">
-        <v>3,534.26</v>
+        <v>1,155</v>
       </c>
       <c r="D246" t="str">
-        <v>0</v>
+        <v>374.12</v>
       </c>
       <c r="E246" t="str">
-        <v>1,772.66</v>
+        <v>205.19</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>0x8218E1a9D02E26E2aF124EA28b121031Cf25AaC8</v>
+        <v>0xa5d134A404FBAe6B980D22C2A1be268a1a995F6C</v>
       </c>
       <c r="B247" t="str">
-        <v>1,825.43</v>
+        <v>485.54</v>
       </c>
       <c r="C247" t="str">
-        <v>1,825.43</v>
+        <v>485.54</v>
       </c>
       <c r="D247" t="str">
-        <v>915.57</v>
+        <v>243.53</v>
       </c>
       <c r="E247" t="str">
         <v>0</v>
@@ -17441,84 +17441,84 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+        <v>0x033d94e0e1ca7F5c62f3490cEaA6C209006E0654</v>
       </c>
       <c r="B248" t="str">
-        <v>4,888.93</v>
+        <v>94.86</v>
       </c>
       <c r="C248" t="str">
-        <v>4,888.93</v>
+        <v>94.86</v>
       </c>
       <c r="D248" t="str">
-        <v>2,442.95</v>
+        <v>47.58</v>
       </c>
       <c r="E248" t="str">
-        <v>9.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>0x86C8386d85314380abCEF2Aaf1e65831A5fB821a</v>
+        <v>0x9b6B2803cA0a3a51D447559307f937e739d4470a</v>
       </c>
       <c r="B249" t="str">
-        <v>1,020.08</v>
+        <v>94.86</v>
       </c>
       <c r="C249" t="str">
-        <v>1,020.08</v>
+        <v>94.86</v>
       </c>
       <c r="D249" t="str">
-        <v>511.64</v>
+        <v>0</v>
       </c>
       <c r="E249" t="str">
-        <v>0</v>
+        <v>47.58</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>0xd939268A5C842F2082BA87849feef1bc48208DbB</v>
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
       </c>
       <c r="B250" t="str">
-        <v>1,020.08</v>
+        <v>1,465.73</v>
       </c>
       <c r="C250" t="str">
-        <v>1,020.08</v>
+        <v>1,465.73</v>
       </c>
       <c r="D250" t="str">
         <v>0</v>
       </c>
       <c r="E250" t="str">
-        <v>511.64</v>
+        <v>735.16</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>0xbc44E6f03C150df10Fe594d42eACAAC51C13e15B</v>
+        <v>0x6eCe075972c5645694f233c41AA456D94307487f</v>
       </c>
       <c r="B251" t="str">
-        <v>74.7</v>
+        <v>7.08</v>
       </c>
       <c r="C251" t="str">
-        <v>74.7</v>
+        <v>553.6</v>
       </c>
       <c r="D251" t="str">
         <v>0</v>
       </c>
       <c r="E251" t="str">
-        <v>37.47</v>
+        <v>277.67</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>0x0447E1087FBE1aA8A4F9a7553916eda2Cb4dcaAC</v>
+        <v>0x000648b3abCcEbdEEA6594FdEC3741c54D75e21F</v>
       </c>
       <c r="B252" t="str">
-        <v>9.96</v>
+        <v>895.14</v>
       </c>
       <c r="C252" t="str">
-        <v>9.96</v>
+        <v>895.14</v>
       </c>
       <c r="D252" t="str">
-        <v>5</v>
+        <v>448.97</v>
       </c>
       <c r="E252" t="str">
         <v>0</v>
@@ -17526,407 +17526,407 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>0x9C4e5edC6A735e4AB68ef04497b64008A955A1A5</v>
+        <v>0xf90518CBcd4ef086891cb22C87bd4F80B61a7081</v>
       </c>
       <c r="B253" t="str">
-        <v>5,859.11</v>
+        <v>3,534.26</v>
       </c>
       <c r="C253" t="str">
-        <v>5,859.11</v>
+        <v>3,534.26</v>
       </c>
       <c r="D253" t="str">
-        <v>0</v>
+        <v>1,772.66</v>
       </c>
       <c r="E253" t="str">
-        <v>2,938.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>0xD8b4b5b3C1F0B189C5f77A1a86e4e7B663c6C20e</v>
+        <v>0xD53314Cd179ccD3926Af264e62E3B6dAB06A6419</v>
       </c>
       <c r="B254" t="str">
-        <v>22,180.29</v>
+        <v>3,534.26</v>
       </c>
       <c r="C254" t="str">
-        <v>22,180.29</v>
+        <v>3,534.26</v>
       </c>
       <c r="D254" t="str">
-        <v>11,124.83</v>
+        <v>0</v>
       </c>
       <c r="E254" t="str">
-        <v>0</v>
+        <v>1,772.66</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>0x2EeCd56c9A00E81a393Fd24F22a07C9D80336E20</v>
+        <v>0x8218E1a9D02E26E2aF124EA28b121031Cf25AaC8</v>
       </c>
       <c r="B255" t="str">
-        <v>22,180.29</v>
+        <v>1,825.43</v>
       </c>
       <c r="C255" t="str">
-        <v>22,180.29</v>
+        <v>1,825.43</v>
       </c>
       <c r="D255" t="str">
-        <v>0</v>
+        <v>915.57</v>
       </c>
       <c r="E255" t="str">
-        <v>11,124.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
       </c>
       <c r="B256" t="str">
-        <v>885.05</v>
+        <v>4,888.93</v>
       </c>
       <c r="C256" t="str">
-        <v>1,146.15</v>
+        <v>4,888.93</v>
       </c>
       <c r="D256" t="str">
-        <v>574.87</v>
+        <v>2,442.95</v>
       </c>
       <c r="E256" t="str">
-        <v>0</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>0xb91406Ea49418Ff04F73231BA48930278bCef631</v>
+        <v>0x86C8386d85314380abCEF2Aaf1e65831A5fB821a</v>
       </c>
       <c r="B257" t="str">
-        <v>1,146.15</v>
+        <v>1,020.08</v>
       </c>
       <c r="C257" t="str">
-        <v>1,146.15</v>
+        <v>1,020.08</v>
       </c>
       <c r="D257" t="str">
-        <v>0</v>
+        <v>511.64</v>
       </c>
       <c r="E257" t="str">
-        <v>574.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+        <v>0xd939268A5C842F2082BA87849feef1bc48208DbB</v>
       </c>
       <c r="B258" t="str">
-        <v>2,586.43</v>
+        <v>1,020.08</v>
       </c>
       <c r="C258" t="str">
-        <v>2,586.43</v>
+        <v>1,020.08</v>
       </c>
       <c r="D258" t="str">
         <v>0</v>
       </c>
       <c r="E258" t="str">
-        <v>1,297.26</v>
+        <v>511.64</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>0x22D93B96fcf17f472f82267413e27f511ADd7b2e</v>
+        <v>0xbc44E6f03C150df10Fe594d42eACAAC51C13e15B</v>
       </c>
       <c r="B259" t="str">
-        <v>337.12</v>
+        <v>74.7</v>
       </c>
       <c r="C259" t="str">
-        <v>337.12</v>
+        <v>74.7</v>
       </c>
       <c r="D259" t="str">
         <v>0</v>
       </c>
       <c r="E259" t="str">
-        <v>169.09</v>
+        <v>37.47</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>0x413Af536E3D18D259A9b71B42AC66faC5aBa0Fbf</v>
+        <v>0x0447E1087FBE1aA8A4F9a7553916eda2Cb4dcaAC</v>
       </c>
       <c r="B260" t="str">
-        <v>1,899.67</v>
+        <v>9.96</v>
       </c>
       <c r="C260" t="str">
-        <v>1,899.67</v>
+        <v>9.96</v>
       </c>
       <c r="D260" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E260" t="str">
-        <v>952.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
+        <v>0x9C4e5edC6A735e4AB68ef04497b64008A955A1A5</v>
       </c>
       <c r="B261" t="str">
-        <v>2,313.7</v>
+        <v>5,859.11</v>
       </c>
       <c r="C261" t="str">
-        <v>2,313.7</v>
+        <v>5,859.11</v>
       </c>
       <c r="D261" t="str">
         <v>0</v>
       </c>
       <c r="E261" t="str">
-        <v>1,160.47</v>
+        <v>2,938.72</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>0x7aa90dE22D64831e54DA455A90621560f1bC97a2</v>
+        <v>0xD8b4b5b3C1F0B189C5f77A1a86e4e7B663c6C20e</v>
       </c>
       <c r="B262" t="str">
-        <v>1,292.65</v>
+        <v>22,180.29</v>
       </c>
       <c r="C262" t="str">
-        <v>1,292.65</v>
+        <v>22,180.29</v>
       </c>
       <c r="D262" t="str">
-        <v>176.7</v>
+        <v>11,124.83</v>
       </c>
       <c r="E262" t="str">
-        <v>471.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>0x9AFd15a40275947bDD6824ba0eAfE1cCe4143a2F</v>
+        <v>0x2EeCd56c9A00E81a393Fd24F22a07C9D80336E20</v>
       </c>
       <c r="B263" t="str">
-        <v>284.9</v>
+        <v>22,180.29</v>
       </c>
       <c r="C263" t="str">
-        <v>284.9</v>
+        <v>22,180.29</v>
       </c>
       <c r="D263" t="str">
-        <v>142.9</v>
+        <v>0</v>
       </c>
       <c r="E263" t="str">
-        <v>0</v>
+        <v>11,124.83</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>0xF473Ea7dc6E82C348530FDE410bFF035bCe0B269</v>
+        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
       </c>
       <c r="B264" t="str">
-        <v>284.9</v>
+        <v>885.05</v>
       </c>
       <c r="C264" t="str">
-        <v>284.9</v>
+        <v>1,146.15</v>
       </c>
       <c r="D264" t="str">
-        <v>0</v>
+        <v>574.87</v>
       </c>
       <c r="E264" t="str">
-        <v>142.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>0xb71A9245bC9D0f6b78c7b38527e939C4A0a2fa53</v>
+        <v>0xb91406Ea49418Ff04F73231BA48930278bCef631</v>
       </c>
       <c r="B265" t="str">
-        <v>4,364.98</v>
+        <v>1,146.15</v>
       </c>
       <c r="C265" t="str">
-        <v>4,364.98</v>
+        <v>1,146.15</v>
       </c>
       <c r="D265" t="str">
-        <v>2,189.32</v>
+        <v>0</v>
       </c>
       <c r="E265" t="str">
-        <v>0</v>
+        <v>574.87</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>0x425F2F1287045bC9d04C0f933E7FdEdA4A2e5765</v>
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
       </c>
       <c r="B266" t="str">
-        <v>4,364.98</v>
+        <v>2,586.43</v>
       </c>
       <c r="C266" t="str">
-        <v>4,364.98</v>
+        <v>2,586.43</v>
       </c>
       <c r="D266" t="str">
         <v>0</v>
       </c>
       <c r="E266" t="str">
-        <v>2,189.32</v>
+        <v>1,297.26</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>0x0b6fD0e783d6cfC912eAb83d812002d8f659b1C9</v>
+        <v>0x22D93B96fcf17f472f82267413e27f511ADd7b2e</v>
       </c>
       <c r="B267" t="str">
-        <v>3,157.6</v>
+        <v>337.12</v>
       </c>
       <c r="C267" t="str">
-        <v>3,157.6</v>
+        <v>337.12</v>
       </c>
       <c r="D267" t="str">
-        <v>1,583.74</v>
+        <v>0</v>
       </c>
       <c r="E267" t="str">
-        <v>0</v>
+        <v>169.09</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
+        <v>0x413Af536E3D18D259A9b71B42AC66faC5aBa0Fbf</v>
       </c>
       <c r="B268" t="str">
-        <v>3,382.32</v>
+        <v>1,899.67</v>
       </c>
       <c r="C268" t="str">
-        <v>3,382.32</v>
+        <v>1,899.67</v>
       </c>
       <c r="D268" t="str">
-        <v>1,696.45</v>
+        <v>0</v>
       </c>
       <c r="E268" t="str">
-        <v>0</v>
+        <v>952.81</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>0xb686AD7C71e1DA4a2C2d54c0a92d64f40A4F681B</v>
+        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
       </c>
       <c r="B269" t="str">
-        <v>143.96</v>
+        <v>2,313.7</v>
       </c>
       <c r="C269" t="str">
-        <v>143.96</v>
+        <v>2,313.7</v>
       </c>
       <c r="D269" t="str">
-        <v>72.21</v>
+        <v>0</v>
       </c>
       <c r="E269" t="str">
-        <v>0</v>
+        <v>1,160.47</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>0x68Aaa776A6Ac3DA289893423D8827DF25841F72C</v>
+        <v>0x7aa90dE22D64831e54DA455A90621560f1bC97a2</v>
       </c>
       <c r="B270" t="str">
-        <v>2,909.58</v>
+        <v>1,292.65</v>
       </c>
       <c r="C270" t="str">
-        <v>2,909.58</v>
+        <v>1,292.65</v>
       </c>
       <c r="D270" t="str">
-        <v>94.76</v>
+        <v>176.7</v>
       </c>
       <c r="E270" t="str">
-        <v>1,364.58</v>
+        <v>471.65</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>0x41382710CB3320194F0fb9Ef8e8531e0E291D740</v>
+        <v>0x6BFdCa082A0351750443A78aa3B84abee9ACBddd</v>
       </c>
       <c r="B271" t="str">
-        <v>1,029.44</v>
+        <v>0</v>
       </c>
       <c r="C271" t="str">
-        <v>1,029.44</v>
+        <v>202.42</v>
       </c>
       <c r="D271" t="str">
-        <v>280.77</v>
+        <v>101.53</v>
       </c>
       <c r="E271" t="str">
-        <v>235.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>0xAa00788779C2bB3C012BA6914A26cA5B23E02371</v>
+        <v>0x9AFd15a40275947bDD6824ba0eAfE1cCe4143a2F</v>
       </c>
       <c r="B272" t="str">
-        <v>559.78</v>
+        <v>284.9</v>
       </c>
       <c r="C272" t="str">
-        <v>559.78</v>
+        <v>284.9</v>
       </c>
       <c r="D272" t="str">
-        <v>0</v>
+        <v>142.9</v>
       </c>
       <c r="E272" t="str">
-        <v>280.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>0x355d73f03fd79854e84D49B538B816638097BA81</v>
+        <v>0xF473Ea7dc6E82C348530FDE410bFF035bCe0B269</v>
       </c>
       <c r="B273" t="str">
-        <v>181.83</v>
+        <v>284.9</v>
       </c>
       <c r="C273" t="str">
-        <v>181.83</v>
+        <v>284.9</v>
       </c>
       <c r="D273" t="str">
-        <v>91.2</v>
+        <v>0</v>
       </c>
       <c r="E273" t="str">
-        <v>0</v>
+        <v>142.9</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>0xD4588f639D5C9E922a3283E013D58a115911c63c</v>
+        <v>0xb71A9245bC9D0f6b78c7b38527e939C4A0a2fa53</v>
       </c>
       <c r="B274" t="str">
-        <v>5,213.61</v>
+        <v>4,364.98</v>
       </c>
       <c r="C274" t="str">
-        <v>5,213.61</v>
+        <v>4,364.98</v>
       </c>
       <c r="D274" t="str">
-        <v>101.96</v>
+        <v>2,189.32</v>
       </c>
       <c r="E274" t="str">
-        <v>2,513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
+        <v>0x425F2F1287045bC9d04C0f933E7FdEdA4A2e5765</v>
       </c>
       <c r="B275" t="str">
-        <v>188.55</v>
+        <v>4,364.98</v>
       </c>
       <c r="C275" t="str">
-        <v>188.55</v>
+        <v>4,364.98</v>
       </c>
       <c r="D275" t="str">
-        <v>94.57</v>
+        <v>0</v>
       </c>
       <c r="E275" t="str">
-        <v>0</v>
+        <v>2,189.32</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>0x1c44b868080D336Aad24840A61C8dD4996006B4F</v>
+        <v>0x0b6fD0e783d6cfC912eAb83d812002d8f659b1C9</v>
       </c>
       <c r="B276" t="str">
-        <v>246.7</v>
+        <v>3,157.6</v>
       </c>
       <c r="C276" t="str">
-        <v>246.7</v>
+        <v>3,157.6</v>
       </c>
       <c r="D276" t="str">
-        <v>123.74</v>
+        <v>1,583.74</v>
       </c>
       <c r="E276" t="str">
         <v>0</v>
@@ -17934,16 +17934,16 @@
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>0x2844bE58E6d43728a6E81c5C7886B938be8f5378</v>
+        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
       </c>
       <c r="B277" t="str">
-        <v>97.69</v>
+        <v>3,382.32</v>
       </c>
       <c r="C277" t="str">
-        <v>97.69</v>
+        <v>3,382.32</v>
       </c>
       <c r="D277" t="str">
-        <v>49</v>
+        <v>1,696.45</v>
       </c>
       <c r="E277" t="str">
         <v>0</v>
@@ -17951,16 +17951,16 @@
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
+        <v>0xb686AD7C71e1DA4a2C2d54c0a92d64f40A4F681B</v>
       </c>
       <c r="B278" t="str">
-        <v>3,672.53</v>
+        <v>143.96</v>
       </c>
       <c r="C278" t="str">
-        <v>3,672.53</v>
+        <v>143.96</v>
       </c>
       <c r="D278" t="str">
-        <v>1,842.01</v>
+        <v>72.21</v>
       </c>
       <c r="E278" t="str">
         <v>0</v>
@@ -17968,101 +17968,101 @@
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>0xA26AE848f47Ce6f4A2C7004B20a03c6752166505</v>
+        <v>0x68Aaa776A6Ac3DA289893423D8827DF25841F72C</v>
       </c>
       <c r="B279" t="str">
-        <v>57.34</v>
+        <v>2,909.58</v>
       </c>
       <c r="C279" t="str">
-        <v>57.34</v>
+        <v>2,909.58</v>
       </c>
       <c r="D279" t="str">
-        <v>28.76</v>
+        <v>94.76</v>
       </c>
       <c r="E279" t="str">
-        <v>0</v>
+        <v>1,364.58</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>0x69fd044CD58545B50c9Ecc08256A19e12d7F099C</v>
+        <v>0x41382710CB3320194F0fb9Ef8e8531e0E291D740</v>
       </c>
       <c r="B280" t="str">
-        <v>57.34</v>
+        <v>1,029.44</v>
       </c>
       <c r="C280" t="str">
-        <v>57.34</v>
+        <v>1,029.44</v>
       </c>
       <c r="D280" t="str">
-        <v>0</v>
+        <v>280.77</v>
       </c>
       <c r="E280" t="str">
-        <v>28.76</v>
+        <v>235.56</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>0xA2cfCc9E68d9138ED4eacF9b7E2141D9B41C6eCF</v>
+        <v>0xAa00788779C2bB3C012BA6914A26cA5B23E02371</v>
       </c>
       <c r="B281" t="str">
-        <v>35.52</v>
+        <v>559.78</v>
       </c>
       <c r="C281" t="str">
-        <v>35.52</v>
+        <v>559.78</v>
       </c>
       <c r="D281" t="str">
-        <v>17.82</v>
+        <v>0</v>
       </c>
       <c r="E281" t="str">
-        <v>0</v>
+        <v>280.77</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>0x48f5880a56dC2b8e123aB8CddD58521631332e36</v>
+        <v>0x355d73f03fd79854e84D49B538B816638097BA81</v>
       </c>
       <c r="B282" t="str">
-        <v>229.36</v>
+        <v>181.83</v>
       </c>
       <c r="C282" t="str">
-        <v>229.36</v>
+        <v>181.83</v>
       </c>
       <c r="D282" t="str">
-        <v>97.22</v>
+        <v>91.2</v>
       </c>
       <c r="E282" t="str">
-        <v>17.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+        <v>0xD4588f639D5C9E922a3283E013D58a115911c63c</v>
       </c>
       <c r="B283" t="str">
-        <v>448.59</v>
+        <v>5,213.61</v>
       </c>
       <c r="C283" t="str">
-        <v>448.59</v>
+        <v>5,213.61</v>
       </c>
       <c r="D283" t="str">
-        <v>225</v>
+        <v>101.96</v>
       </c>
       <c r="E283" t="str">
-        <v>0</v>
+        <v>2,513</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>0x75ac9574e8142636654713A984365e3E3427E31b</v>
+        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
       </c>
       <c r="B284" t="str">
-        <v>413.96</v>
+        <v>188.55</v>
       </c>
       <c r="C284" t="str">
-        <v>413.96</v>
+        <v>188.55</v>
       </c>
       <c r="D284" t="str">
-        <v>207.63</v>
+        <v>94.57</v>
       </c>
       <c r="E284" t="str">
         <v>0</v>
@@ -18070,50 +18070,50 @@
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>0x340eAB7488e336fDc588F1da47452f02945E80b3</v>
+        <v>0x1c44b868080D336Aad24840A61C8dD4996006B4F</v>
       </c>
       <c r="B285" t="str">
-        <v>487.25</v>
+        <v>246.7</v>
       </c>
       <c r="C285" t="str">
-        <v>487.25</v>
+        <v>246.7</v>
       </c>
       <c r="D285" t="str">
-        <v>0</v>
+        <v>123.74</v>
       </c>
       <c r="E285" t="str">
-        <v>244.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>0xb4903c3b44dA26bf38cD923C64c6Cdad18ED280E</v>
+        <v>0x2844bE58E6d43728a6E81c5C7886B938be8f5378</v>
       </c>
       <c r="B286" t="str">
-        <v>95.95</v>
+        <v>97.69</v>
       </c>
       <c r="C286" t="str">
-        <v>95.95</v>
+        <v>97.69</v>
       </c>
       <c r="D286" t="str">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E286" t="str">
-        <v>48.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>0xf2278c9CE9438A1e24F1BE11Ab0B399A03baB717</v>
+        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
       </c>
       <c r="B287" t="str">
-        <v>199.37</v>
+        <v>3,672.53</v>
       </c>
       <c r="C287" t="str">
-        <v>199.37</v>
+        <v>3,672.53</v>
       </c>
       <c r="D287" t="str">
-        <v>100</v>
+        <v>1,842.01</v>
       </c>
       <c r="E287" t="str">
         <v>0</v>
@@ -18121,84 +18121,84 @@
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
+        <v>0xA26AE848f47Ce6f4A2C7004B20a03c6752166505</v>
       </c>
       <c r="B288" t="str">
-        <v>563.79</v>
+        <v>57.34</v>
       </c>
       <c r="C288" t="str">
-        <v>563.79</v>
+        <v>57.34</v>
       </c>
       <c r="D288" t="str">
-        <v>0</v>
+        <v>28.76</v>
       </c>
       <c r="E288" t="str">
-        <v>282.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>0x3ff6b69e12e8883f31Da74dBdfAeC4c0e23E20aE</v>
+        <v>0x69fd044CD58545B50c9Ecc08256A19e12d7F099C</v>
       </c>
       <c r="B289" t="str">
-        <v>950.06</v>
+        <v>57.34</v>
       </c>
       <c r="C289" t="str">
-        <v>950.06</v>
+        <v>57.34</v>
       </c>
       <c r="D289" t="str">
-        <v>476.52</v>
+        <v>0</v>
       </c>
       <c r="E289" t="str">
-        <v>0</v>
+        <v>28.76</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>0x0438aa9e7235135e95FE05387081a7C7CE397628</v>
+        <v>0xA2cfCc9E68d9138ED4eacF9b7E2141D9B41C6eCF</v>
       </c>
       <c r="B290" t="str">
-        <v>662.52</v>
+        <v>35.52</v>
       </c>
       <c r="C290" t="str">
-        <v>662.52</v>
+        <v>35.52</v>
       </c>
       <c r="D290" t="str">
-        <v>309.42</v>
+        <v>17.82</v>
       </c>
       <c r="E290" t="str">
-        <v>22.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>0xE9FF93Fc39e996d74638CD648Bfc24b1d3680EE6</v>
+        <v>0x48f5880a56dC2b8e123aB8CddD58521631332e36</v>
       </c>
       <c r="B291" t="str">
-        <v>32,412.33</v>
+        <v>229.36</v>
       </c>
       <c r="C291" t="str">
-        <v>32,412.33</v>
+        <v>229.36</v>
       </c>
       <c r="D291" t="str">
-        <v>0</v>
+        <v>97.22</v>
       </c>
       <c r="E291" t="str">
-        <v>16,256.85</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>0x8fa6e6dB6B86d0Cad2fa8DeEb737BC1cB97a2bE1</v>
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
       </c>
       <c r="B292" t="str">
-        <v>498.44</v>
+        <v>448.59</v>
       </c>
       <c r="C292" t="str">
-        <v>498.44</v>
+        <v>448.59</v>
       </c>
       <c r="D292" t="str">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="E292" t="str">
         <v>0</v>
@@ -18206,16 +18206,16 @@
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>0x5C569dC00640a1bD6BCbDd9629Aa6Da1c358BD2a</v>
+        <v>0x75ac9574e8142636654713A984365e3E3427E31b</v>
       </c>
       <c r="B293" t="str">
-        <v>18.48</v>
+        <v>413.96</v>
       </c>
       <c r="C293" t="str">
-        <v>18.48</v>
+        <v>413.96</v>
       </c>
       <c r="D293" t="str">
-        <v>9.27</v>
+        <v>207.63</v>
       </c>
       <c r="E293" t="str">
         <v>0</v>
@@ -18223,84 +18223,84 @@
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>0x7c7e966dB11308a39Eb64Ae1e3779DD9Cce3E38f</v>
+        <v>0x340eAB7488e336fDc588F1da47452f02945E80b3</v>
       </c>
       <c r="B294" t="str">
-        <v>18.48</v>
+        <v>487.25</v>
       </c>
       <c r="C294" t="str">
-        <v>18.48</v>
+        <v>487.25</v>
       </c>
       <c r="D294" t="str">
         <v>0</v>
       </c>
       <c r="E294" t="str">
-        <v>9.27</v>
+        <v>244.39</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>0xC9e5f37AfF4bEb2Cfc76Be7a589fa30916656f4B</v>
+        <v>0xb4903c3b44dA26bf38cD923C64c6Cdad18ED280E</v>
       </c>
       <c r="B295" t="str">
-        <v>1,084.7</v>
+        <v>95.95</v>
       </c>
       <c r="C295" t="str">
-        <v>1,084.7</v>
+        <v>95.95</v>
       </c>
       <c r="D295" t="str">
-        <v>544.05</v>
+        <v>0</v>
       </c>
       <c r="E295" t="str">
-        <v>0</v>
+        <v>48.13</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
+        <v>0xf2278c9CE9438A1e24F1BE11Ab0B399A03baB717</v>
       </c>
       <c r="B296" t="str">
-        <v>6,441.49</v>
+        <v>199.37</v>
       </c>
       <c r="C296" t="str">
-        <v>6,441.49</v>
+        <v>199.37</v>
       </c>
       <c r="D296" t="str">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E296" t="str">
-        <v>3,230.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
+        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
       </c>
       <c r="B297" t="str">
-        <v>361.42</v>
+        <v>563.79</v>
       </c>
       <c r="C297" t="str">
-        <v>361.42</v>
+        <v>563.79</v>
       </c>
       <c r="D297" t="str">
-        <v>181.28</v>
+        <v>0</v>
       </c>
       <c r="E297" t="str">
-        <v>0</v>
+        <v>282.78</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>0x29B6F8c0497Fa8c0638d748f5c4821E9541fe3e5</v>
+        <v>0x3ff6b69e12e8883f31Da74dBdfAeC4c0e23E20aE</v>
       </c>
       <c r="B298" t="str">
-        <v>400.04</v>
+        <v>950.06</v>
       </c>
       <c r="C298" t="str">
-        <v>400.04</v>
+        <v>950.06</v>
       </c>
       <c r="D298" t="str">
-        <v>200.65</v>
+        <v>476.52</v>
       </c>
       <c r="E298" t="str">
         <v>0</v>
@@ -18308,50 +18308,50 @@
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>0xfDbb14D0A9a2f85663134F16BF006c08e2918B6a</v>
+        <v>0x0438aa9e7235135e95FE05387081a7C7CE397628</v>
       </c>
       <c r="B299" t="str">
-        <v>400.04</v>
+        <v>662.52</v>
       </c>
       <c r="C299" t="str">
-        <v>400.04</v>
+        <v>662.52</v>
       </c>
       <c r="D299" t="str">
-        <v>0</v>
+        <v>309.42</v>
       </c>
       <c r="E299" t="str">
-        <v>200.65</v>
+        <v>22.88</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>0x5c077b6a51010d308bb6F0Fce9Cd1593d0F78517</v>
+        <v>0xE9FF93Fc39e996d74638CD648Bfc24b1d3680EE6</v>
       </c>
       <c r="B300" t="str">
-        <v>346.59</v>
+        <v>32,412.33</v>
       </c>
       <c r="C300" t="str">
-        <v>346.59</v>
+        <v>32,412.33</v>
       </c>
       <c r="D300" t="str">
-        <v>173.84</v>
+        <v>0</v>
       </c>
       <c r="E300" t="str">
-        <v>0</v>
+        <v>16,256.85</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>0xC53Fa15adE563291bF8ba8d7E62a9B0959e6aE30</v>
+        <v>0x8fa6e6dB6B86d0Cad2fa8DeEb737BC1cB97a2bE1</v>
       </c>
       <c r="B301" t="str">
-        <v>554.94</v>
+        <v>498.44</v>
       </c>
       <c r="C301" t="str">
-        <v>554.94</v>
+        <v>498.44</v>
       </c>
       <c r="D301" t="str">
-        <v>278.34</v>
+        <v>250</v>
       </c>
       <c r="E301" t="str">
         <v>0</v>
@@ -18359,16 +18359,16 @@
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>0x7B82007d91312Bb84E57A79c6df7Fa3928beD152</v>
+        <v>0x5C569dC00640a1bD6BCbDd9629Aa6Da1c358BD2a</v>
       </c>
       <c r="B302" t="str">
-        <v>201.35</v>
+        <v>18.48</v>
       </c>
       <c r="C302" t="str">
-        <v>201.35</v>
+        <v>18.48</v>
       </c>
       <c r="D302" t="str">
-        <v>100.99</v>
+        <v>9.27</v>
       </c>
       <c r="E302" t="str">
         <v>0</v>
@@ -18376,135 +18376,135 @@
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>0x25F749f0D51e0F13D8EDFEce980fC2E0FAFBEB69</v>
+        <v>0x7c7e966dB11308a39Eb64Ae1e3779DD9Cce3E38f</v>
       </c>
       <c r="B303" t="str">
-        <v>96.25</v>
+        <v>18.48</v>
       </c>
       <c r="C303" t="str">
-        <v>96.25</v>
+        <v>18.48</v>
       </c>
       <c r="D303" t="str">
-        <v>48.28</v>
+        <v>0</v>
       </c>
       <c r="E303" t="str">
-        <v>0</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>0x9331C5f74A13ee04abDA206dceec4c82c9f6e19E</v>
+        <v>0xC9e5f37AfF4bEb2Cfc76Be7a589fa30916656f4B</v>
       </c>
       <c r="B304" t="str">
-        <v>66.53</v>
+        <v>1,084.7</v>
       </c>
       <c r="C304" t="str">
-        <v>66.53</v>
+        <v>1,084.7</v>
       </c>
       <c r="D304" t="str">
-        <v>0</v>
+        <v>544.05</v>
       </c>
       <c r="E304" t="str">
-        <v>33.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>0x9Af93a9013Cd64421627973055d5265F5dF83Ad3</v>
+        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
       </c>
       <c r="B305" t="str">
-        <v>175.53</v>
+        <v>6,441.49</v>
       </c>
       <c r="C305" t="str">
-        <v>175.53</v>
+        <v>6,441.49</v>
       </c>
       <c r="D305" t="str">
-        <v>88.04</v>
+        <v>0</v>
       </c>
       <c r="E305" t="str">
-        <v>0</v>
+        <v>3,230.82</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>0xd63c4fE2E52948079b40d0eFd5FBa8a5F54aB32b</v>
+        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
       </c>
       <c r="B306" t="str">
-        <v>147.04</v>
+        <v>361.42</v>
       </c>
       <c r="C306" t="str">
-        <v>147.04</v>
+        <v>361.42</v>
       </c>
       <c r="D306" t="str">
-        <v>0</v>
+        <v>181.28</v>
       </c>
       <c r="E306" t="str">
-        <v>73.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>0x2abf42F330c60491E8A36B73c9F3F9Ed40CDa546</v>
+        <v>0x29B6F8c0497Fa8c0638d748f5c4821E9541fe3e5</v>
       </c>
       <c r="B307" t="str">
-        <v>5,373.19</v>
+        <v>400.04</v>
       </c>
       <c r="C307" t="str">
-        <v>5,373.19</v>
+        <v>400.04</v>
       </c>
       <c r="D307" t="str">
-        <v>0</v>
+        <v>200.65</v>
       </c>
       <c r="E307" t="str">
-        <v>2,695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>0x12A6F41aE74857C93203001c46645d9cBF52C816</v>
+        <v>0xfDbb14D0A9a2f85663134F16BF006c08e2918B6a</v>
       </c>
       <c r="B308" t="str">
-        <v>1,089.89</v>
+        <v>400.04</v>
       </c>
       <c r="C308" t="str">
-        <v>1,089.89</v>
+        <v>400.04</v>
       </c>
       <c r="D308" t="str">
-        <v>546.65</v>
+        <v>0</v>
       </c>
       <c r="E308" t="str">
-        <v>0</v>
+        <v>200.65</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>0xdAaA67d4f3cCA96EB83c363961eC1682A16932a4</v>
+        <v>0x5c077b6a51010d308bb6F0Fce9Cd1593d0F78517</v>
       </c>
       <c r="B309" t="str">
-        <v>1,089.89</v>
+        <v>346.59</v>
       </c>
       <c r="C309" t="str">
-        <v>1,089.89</v>
+        <v>346.59</v>
       </c>
       <c r="D309" t="str">
-        <v>0</v>
+        <v>173.84</v>
       </c>
       <c r="E309" t="str">
-        <v>546.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>0x175780bC4d0A1bc28c46C3E71130C092790E7576</v>
+        <v>0xC53Fa15adE563291bF8ba8d7E62a9B0959e6aE30</v>
       </c>
       <c r="B310" t="str">
-        <v>1.33</v>
+        <v>554.94</v>
       </c>
       <c r="C310" t="str">
-        <v>1.33</v>
+        <v>554.94</v>
       </c>
       <c r="D310" t="str">
-        <v>0.67</v>
+        <v>278.34</v>
       </c>
       <c r="E310" t="str">
         <v>0</v>
@@ -18512,16 +18512,16 @@
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>0x71f33D04Dca4c21Ae9F49a9e834Af69CaD989043</v>
+        <v>0x7B82007d91312Bb84E57A79c6df7Fa3928beD152</v>
       </c>
       <c r="B311" t="str">
-        <v>1,656.71</v>
+        <v>201.35</v>
       </c>
       <c r="C311" t="str">
-        <v>1,656.71</v>
+        <v>201.35</v>
       </c>
       <c r="D311" t="str">
-        <v>830.95</v>
+        <v>100.99</v>
       </c>
       <c r="E311" t="str">
         <v>0</v>
@@ -18529,16 +18529,16 @@
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>0xF1cEC4a1a448D68262e14E1bEbEE33E5556e2BCD</v>
+        <v>0x25F749f0D51e0F13D8EDFEce980fC2E0FAFBEB69</v>
       </c>
       <c r="B312" t="str">
-        <v>54.66</v>
+        <v>96.25</v>
       </c>
       <c r="C312" t="str">
-        <v>54.66</v>
+        <v>96.25</v>
       </c>
       <c r="D312" t="str">
-        <v>27.42</v>
+        <v>48.28</v>
       </c>
       <c r="E312" t="str">
         <v>0</v>
@@ -18546,33 +18546,33 @@
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>0x0feD39AC6093e042825EfE8862f37dc8425B8f74</v>
+        <v>0x9331C5f74A13ee04abDA206dceec4c82c9f6e19E</v>
       </c>
       <c r="B313" t="str">
-        <v>181.03</v>
+        <v>66.53</v>
       </c>
       <c r="C313" t="str">
-        <v>181.03</v>
+        <v>66.53</v>
       </c>
       <c r="D313" t="str">
         <v>0</v>
       </c>
       <c r="E313" t="str">
-        <v>90.8</v>
+        <v>33.37</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>0xE5C0E06C6DDAa1CB7208Ea73Ce197a5Ca623cB77</v>
+        <v>0x9Af93a9013Cd64421627973055d5265F5dF83Ad3</v>
       </c>
       <c r="B314" t="str">
-        <v>386.69</v>
+        <v>175.53</v>
       </c>
       <c r="C314" t="str">
-        <v>386.69</v>
+        <v>175.53</v>
       </c>
       <c r="D314" t="str">
-        <v>193.95</v>
+        <v>88.04</v>
       </c>
       <c r="E314" t="str">
         <v>0</v>
@@ -18580,75 +18580,228 @@
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>0xa67C8E8c936fb8A7f48e16516a839603deC0402F</v>
+        <v>0xd63c4fE2E52948079b40d0eFd5FBa8a5F54aB32b</v>
       </c>
       <c r="B315" t="str">
-        <v>33.55</v>
+        <v>147.04</v>
       </c>
       <c r="C315" t="str">
-        <v>33.55</v>
+        <v>147.04</v>
       </c>
       <c r="D315" t="str">
-        <v>16.83</v>
+        <v>0</v>
       </c>
       <c r="E315" t="str">
-        <v>0</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>0xc3Dd788d51cA010573e840aE4B5fF45b5671F197</v>
+        <v>0x2abf42F330c60491E8A36B73c9F3F9Ed40CDa546</v>
       </c>
       <c r="B316" t="str">
-        <v>422.29</v>
+        <v>5,373.19</v>
       </c>
       <c r="C316" t="str">
-        <v>422.29</v>
+        <v>5,373.19</v>
       </c>
       <c r="D316" t="str">
-        <v>211.81</v>
+        <v>0</v>
       </c>
       <c r="E316" t="str">
-        <v>0</v>
+        <v>2,695</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>0xa2f70dB0baee0dC51453CBA49C178c31C0670fE2</v>
+        <v>0x12A6F41aE74857C93203001c46645d9cBF52C816</v>
       </c>
       <c r="B317" t="str">
-        <v>173.41</v>
+        <v>1,089.89</v>
       </c>
       <c r="C317" t="str">
-        <v>173.41</v>
+        <v>1,089.89</v>
       </c>
       <c r="D317" t="str">
-        <v>0</v>
+        <v>546.65</v>
       </c>
       <c r="E317" t="str">
-        <v>86.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
+        <v>0xdAaA67d4f3cCA96EB83c363961eC1682A16932a4</v>
+      </c>
+      <c r="B318" t="str">
+        <v>1,089.89</v>
+      </c>
+      <c r="C318" t="str">
+        <v>1,089.89</v>
+      </c>
+      <c r="D318" t="str">
+        <v>0</v>
+      </c>
+      <c r="E318" t="str">
+        <v>546.65</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>0x175780bC4d0A1bc28c46C3E71130C092790E7576</v>
+      </c>
+      <c r="B319" t="str">
+        <v>1.33</v>
+      </c>
+      <c r="C319" t="str">
+        <v>1.33</v>
+      </c>
+      <c r="D319" t="str">
+        <v>0.67</v>
+      </c>
+      <c r="E319" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>0x71f33D04Dca4c21Ae9F49a9e834Af69CaD989043</v>
+      </c>
+      <c r="B320" t="str">
+        <v>1,656.71</v>
+      </c>
+      <c r="C320" t="str">
+        <v>1,656.71</v>
+      </c>
+      <c r="D320" t="str">
+        <v>830.95</v>
+      </c>
+      <c r="E320" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>0xF1cEC4a1a448D68262e14E1bEbEE33E5556e2BCD</v>
+      </c>
+      <c r="B321" t="str">
+        <v>54.66</v>
+      </c>
+      <c r="C321" t="str">
+        <v>54.66</v>
+      </c>
+      <c r="D321" t="str">
+        <v>27.42</v>
+      </c>
+      <c r="E321" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>0x0feD39AC6093e042825EfE8862f37dc8425B8f74</v>
+      </c>
+      <c r="B322" t="str">
+        <v>181.03</v>
+      </c>
+      <c r="C322" t="str">
+        <v>181.03</v>
+      </c>
+      <c r="D322" t="str">
+        <v>0</v>
+      </c>
+      <c r="E322" t="str">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>0xE5C0E06C6DDAa1CB7208Ea73Ce197a5Ca623cB77</v>
+      </c>
+      <c r="B323" t="str">
+        <v>386.69</v>
+      </c>
+      <c r="C323" t="str">
+        <v>386.69</v>
+      </c>
+      <c r="D323" t="str">
+        <v>193.95</v>
+      </c>
+      <c r="E323" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>0xa67C8E8c936fb8A7f48e16516a839603deC0402F</v>
+      </c>
+      <c r="B324" t="str">
+        <v>33.55</v>
+      </c>
+      <c r="C324" t="str">
+        <v>33.55</v>
+      </c>
+      <c r="D324" t="str">
+        <v>16.83</v>
+      </c>
+      <c r="E324" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>0xc3Dd788d51cA010573e840aE4B5fF45b5671F197</v>
+      </c>
+      <c r="B325" t="str">
+        <v>422.29</v>
+      </c>
+      <c r="C325" t="str">
+        <v>422.29</v>
+      </c>
+      <c r="D325" t="str">
+        <v>211.81</v>
+      </c>
+      <c r="E325" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>0xa2f70dB0baee0dC51453CBA49C178c31C0670fE2</v>
+      </c>
+      <c r="B326" t="str">
+        <v>173.41</v>
+      </c>
+      <c r="C326" t="str">
+        <v>173.41</v>
+      </c>
+      <c r="D326" t="str">
+        <v>0</v>
+      </c>
+      <c r="E326" t="str">
+        <v>86.98</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
         <v>Total</v>
       </c>
-      <c r="B318">
+      <c r="B327">
         <v>2639014.5500000007</v>
       </c>
-      <c r="C318" t="str">
-        <v>0608.0782,473.5228.9221,931.412,404.650,733.2227,371.08284.43961.9744,524.2620,299.211,495.325,783.112,242.9831,016.85,123.711,816.85151.74151.7464.29307.1999,7991,113.2167.561,840.96116.6921,450.851,028.263,763.05118.05367.153,334.93332.4618.941,844.2351.494,678.15316.942,522.274,249.11102.531,819.7454,828.17997.67708.44556.61165.5684.59169.68337.127,9793,157.6371.91371.9197.69331.125,559.91491.94554.94175.5554.66725.03742.431,154.9430.38173.418,236.8418,608.4228.9221,931.4175,520.763,750.71215.82,353.1644.145,948.7961,020.891,811.47715.34161.93306.0222,824.324.06975.3427,042.294,269.661,194.982,942.6535,305.211,840.9617,446.53639.02155,610.621,280.3928,175.06149.53149.5369,549.1210,281.121,076.6943,690.4220,351.633,295.815,668.614,513.661,495.325,783.11228.4233,124.552,504.1440.41312,765.69242.1410.9858,496.46,526.7240,327.7434,708.01171,852.4910,688.8531,016.811.882,621.74604.868,218.9314,257.05416.991,243.7313,015.431,816.85181.616.412,341.757,229.514,321.263,208.261.161.15,026.46869.68869.6818,008.783,718.1712,677.8512,677.85426.961,113.211,133.89251.874,726.8942.7415,252.4815,252.48132.8817,668.581,028.261,898.28101533.092,252.85210.263,652.73435.21652.16665.491,303.1250,116.912,547.0739.1539.1525,972.1941.1772.4390,145.053,097.492,336.133,675.46279.2748.75311.92165.1210,475.5618.9424.0222,751.5432.552,288.14222.921,075.891,261.831,261.838,561.5629,906.479,695.3713.334,678.151,257.961,389.81139.444,856.47292.872.03135.271,213.721,158.551,754.09762.37178.5218.64283.41332.67332.67553.6830.573,762.281,302.88536.5847,638.681,457.921,670.9518,320.92,143.931,070.693.58100.7100.76,350.89747.66330.38330.3876.95188.43188.43473.71359.13171.181,155485.5494.8694.861,465.73553.6895.143,534.263,534.261,825.434,888.931,020.081,020.0874.79.965,859.1122,180.2922,180.291,146.151,146.152,586.43337.121,899.672,313.71,292.65284.9284.94,364.984,364.983,157.63,382.32143.962,909.581,029.44559.78181.835,213.61188.55246.797.693,672.5357.3457.3435.52229.36448.59413.96487.2595.95199.37563.79950.06662.5232,412.33498.4418.4818.481,084.76,441.49361.42400.04400.04346.59554.94201.3596.2566.53175.53147.045,373.191,089.891,089.891.331,656.7154.66181.03386.6933.55422.29173.41</v>
-      </c>
-      <c r="D318" t="str">
-        <v>0304.99259.1314.5111,0001,180.2310,225.20136.6259.21735.64484.5750818.511,125814.910140.6676.11032.25121.8350,034.9558.3533.89923.3658.5391.35515.7432.480184.151,672.680.679.592525.831,663.58158.97142.152,131.251.43912.7227,499.82269.13355.33279.1883.0442.4385.11169.092,361.520186.5400166.082,788.65246.74088.050363.65372.38579.2815.2486.98000031,975.04000323.08235.5614,995.745.0906.331.66012.07013,472.340451.67147.699,888.2100320.51957.120075000540.030002,263.89002,082.09000000003,271.7716,955.1617,408.28187.55,361.1414,741.995.960303.3807,150.82209.15439.665,016.2770.6191.093.2201,801.75365.641,093.6830.6500436.209,001.21684.376,358.750214.15000007,650.09066.6500952.1150.660566.830445.680327.16.69015,0001,277.5219.640139.220.6536.3301,553.590895.68140.040082.825,254.16012.05016.330111.81539.63632.8904,294.1704,794.360682.81469.68034.780146.86000581.090089.5400166.860167.315.336,996.48653.48023,893.83421.82838.099,189.10537.021.850.51000165.71038.694.510135.64085.86374.12243.5347.58000448.971,772.660915.572,442.95511.64005011,124.830574.8700000176.7142.902,189.3201,583.741,696.4572.2194.76280.77091.2101.9694.57123.74491,842.0128.76017.8297.22225207.63001000476.52309.4202509.270544.050181.28200.650173.84278.34100.9948.28088.0400546.6500.67830.9527.420193.9516.83211.810</v>
-      </c>
-      <c r="E318" t="str">
-        <v>0041,106.590025.8315,220.7413,728.346.04423.2821,596.119,696.8502,082.09014,741.992,569.87770.61076.11032.2520.65000010,667.6201,854.9359.2100166.08000682.8101,122.930000231.270000001,640.461,583.740186.5449000278.34027.42000004,131.39,333.3114.5111,0005,903.431,975.04108.241,180.2302,748.1415,610.12903.48358.7974.92121.8311,447.840489.291.092,141.51147.691,328.247,819.6923.368,750.55077,091.51642.214,131.5907534,883.315,156.64021,913.5310,207.641,653.06579.282,263.89750818.51114.5716,614.071,255.9920.27156,871.9121.455.5129,339.671.83,271.77086,007.460814.9101,314.9704,122.3200184.151,511.87140.66001,174.541,824.311,801.75515.44030.652,521.090436.231.341,180.5306,358.750558.35568.72126.332,370.8421.4407,650.0908,861.92515.7400267.38563.12105.461,386.4218.290327.1653.610,136.820019.6412,887.510045,213.4801,171.72947.80375.55156.45009.5011,411.3501,147.65000632.89015,00068.496.691,663.58161.27697.0835.162,435.83036.1367.85608.760879.79382.3809.35142.150166.86110.41000269.130309.42001,075.3200050.513,185.383750165.710094.51101.96180.130205.190047.58735.16277.67001,772.6609.160511.6437.4702,938.72011,124.830574.871,297.26169.09952.811,160.47471.650142.902,189.320001,364.58235.56280.7702,5130000028.76017.8200244.3948.130282.78022.8816,256.85009.2703,230.8200200.65000033.37073.752,6950546.6500090.800086.98</v>
+      <c r="C327" t="str">
+        <v>0608.0782,473.5228.9221,931.412,404.650,733.2227,371.08284.43961.9744,524.26379,539.8320,299.211,495.325,783.112,242.9831,016.85,123.711,816.85151.74151.7464.29307.1999,7991,113.2167.561,840.96116.6921,450.851,028.263,763.05118.05367.153,334.93332.4618.941,844.2351.494,678.15316.942,522.274,249.11102.531,819.7454,828.17997.67708.44556.61165.5684.59169.68337.127,9793,157.6371.91371.9197.69331.125,559.91491.94554.94175.5554.66725.03742.431,154.9430.38173.418,236.8418,608.4228.9221,931.4175,520.763,750.71215.82,353.1644.145,948.7961,020.891,811.47715.34715.34161.93306.0222,824.324.06975.3427,042.294,269.661,194.982,942.6535,305.2117,972.451,840.9617,446.53639.02155,610.621,141.1315,586.271,280.3923,057.9328,175.06149.53149.5369,549.1212,461.0310,281.121,076.6943,690.4220,351.633,295.815,668.614,513.661,495.325,783.11228.4233,124.552,504.1440.41312,765.69242.1410.9858,496.46,526.7240,327.7434,708.01171,852.4910,688.8531,016.811.882,621.74604.868,218.9314,257.05416.991,243.7313,015.431,816.85181.616.412,341.757,229.514,321.263,208.261.161.15,026.46869.68869.6818,008.783,718.1712,677.8512,677.85426.961,113.211,133.89251.874,726.8942.7415,252.4815,252.48132.8817,668.581,028.261,898.28101533.092,252.85210.263,652.73435.21652.16665.491,303.1250,116.912,547.0739.1539.1525,972.1941.1772.4390,145.053,097.492,336.133,675.46279.2748.75311.92165.1210,475.5618.9424.0222,751.5432.552,288.14222.921,075.891,261.831,261.838,561.5629,906.479,695.3713.334,678.151,257.961,389.81139.444,856.47292.872.03135.271,213.721,158.551,754.09762.37178.5218.64283.41332.67332.67553.6830.573,762.281,302.88536.5847,638.681,457.921,670.9518,320.92,143.931,070.693.58100.7100.76,350.89747.66330.38330.3876.95188.43188.43845.69473.71359.13171.181,155485.5494.8694.861,465.73553.6895.143,534.263,534.261,825.434,888.931,020.081,020.0874.79.965,859.1122,180.2922,180.291,146.151,146.152,586.43337.121,899.672,313.71,292.65202.42284.9284.94,364.984,364.983,157.63,382.32143.962,909.581,029.44559.78181.835,213.61188.55246.797.693,672.5357.3457.3435.52229.36448.59413.96487.2595.95199.37563.79950.06662.5232,412.33498.4418.4818.481,084.76,441.49361.42400.04400.04346.59554.94201.3596.2566.53175.53147.045,373.191,089.891,089.891.331,656.7154.66181.03386.6933.55422.29173.41</v>
+      </c>
+      <c r="D327" t="str">
+        <v>0304.99259.1314.5111,0001,180.2310,225.20136.6259.21735.640484.5750818.511,125814.910140.6676.11032.25121.8350,034.9558.3533.89923.3658.5391.35515.7432.480184.151,672.680.679.592525.831,663.58158.97142.152,131.251.43912.7227,499.82269.13355.33279.1883.0442.4385.11169.092,361.520186.5400166.082,788.65246.74088.050363.65372.38579.2815.2486.98000031,975.04000323.08235.5614,995.745.09358.7906.331.66012.07013,472.340451.67147.699,888.219,014.3300320.51957.1207,817.51000750000540.030002,263.89002,082.09000000003,271.7716,955.1617,408.28187.55,361.1414,741.995.960303.3807,150.82209.15439.665,016.2770.6191.093.2201,801.75365.641,093.6830.6500436.209,001.21684.376,358.750214.15000007,650.09066.6500952.1150.660566.830445.680327.16.69015,0001,277.5219.640139.220.6536.3301,553.590895.68140.040082.825,254.16012.05016.330111.81539.63632.8904,294.1704,794.360682.81469.68034.780146.86000581.090089.5400166.860167.315.336,996.48653.48023,893.83421.82838.099,189.10537.021.850.51000165.71038.694.510424.17135.64085.86374.12243.5347.58000448.971,772.660915.572,442.95511.64005011,124.830574.8700000176.7101.53142.902,189.3201,583.741,696.4572.2194.76280.77091.2101.9694.57123.74491,842.0128.76017.8297.22225207.63001000476.52309.4202509.270544.050181.28200.650173.84278.34100.9948.28088.0400546.6500.67830.9527.420193.9516.83211.810</v>
+      </c>
+      <c r="E327" t="str">
+        <v>0041,106.590025.8315,220.7413,728.346.04423.2821,596.11190,363.389,696.8502,082.09014,741.992,569.87770.61076.11032.2520.65000010,667.6201,854.9359.2100166.08000682.8101,122.930000231.270000001,640.461,583.740186.5449000278.34027.42000004,131.39,333.3114.5111,0005,903.431,975.04108.241,180.2302,748.1415,610.12903.480358.7974.92121.8311,447.840489.291.092,141.51147.691,328.247,819.60923.368,750.55077,091.51572.350642.211,565.0214,131.5907534,883.316,2505,156.64021,913.5310,207.641,653.06579.282,263.89750818.51114.5716,614.071,255.9920.27156,871.9121.455.5129,339.671.83,271.77086,007.460814.9101,314.9704,122.3200184.151,511.87140.66001,174.541,824.311,801.75515.44030.652,521.090436.231.341,180.5306,358.750558.35568.72126.332,370.8421.4407,650.0908,861.92515.7400267.38563.12105.461,386.4218.290327.1653.610,136.820019.6412,887.510045,213.4801,171.72947.80375.55156.45009.5011,411.3501,147.65000632.89015,00068.496.691,663.58161.27697.0835.162,435.83036.1367.85608.760879.79382.3809.35142.150166.86110.41000269.130309.42001,075.3200050.513,185.383750165.710094.510101.96180.130205.190047.58735.16277.67001,772.6609.160511.6437.4702,938.72011,124.830574.871,297.26169.09952.811,160.47471.6500142.902,189.320001,364.58235.56280.7702,5130000028.76017.8200244.3948.130282.78022.8816,256.85009.2703,230.8200200.65000033.37073.752,6950546.6500090.800086.98</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E318"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E327"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/staker_incentives.xlsx
+++ b/staker_incentives.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Blocks 69501563 - 69783959" sheetId="6" r:id="rId6"/>
     <sheet name="Blocks 69783960 - 70067138" sheetId="7" r:id="rId7"/>
     <sheet name="Blocks 70067139 - 70350763" sheetId="8" r:id="rId8"/>
+    <sheet name="Blocks 70350764 - 70634063" sheetId="9" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
@@ -39725,6 +39726,4015 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Staker Address</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Reward (ERC20 TEL)</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Uncapped Reward (ERC20 TEL)</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Staker Fees</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Referee Fees</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
+      </c>
+      <c r="B2" t="str">
+        <v>206.3</v>
+      </c>
+      <c r="C2" t="str">
+        <v>206.3</v>
+      </c>
+      <c r="D2" t="str">
+        <v>179.19</v>
+      </c>
+      <c r="E2" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>0xa6A4BE6499cfdd7E94Cd1BF5498533FdCbb6CE5d</v>
+      </c>
+      <c r="B3" t="str">
+        <v>140,082.76</v>
+      </c>
+      <c r="C3" t="str">
+        <v>140,082.76</v>
+      </c>
+      <c r="D3" t="str">
+        <v>120,763.96</v>
+      </c>
+      <c r="E3" t="str">
+        <v>904.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1,719.66</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1,719.66</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1,493.61</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>0x7B82007d91312Bb84E57A79c6df7Fa3928beD152</v>
+      </c>
+      <c r="B5" t="str">
+        <v>331.36</v>
+      </c>
+      <c r="C5" t="str">
+        <v>331.36</v>
+      </c>
+      <c r="D5" t="str">
+        <v>287.81</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
+      </c>
+      <c r="B6" t="str">
+        <v>5,914.78</v>
+      </c>
+      <c r="C6" t="str">
+        <v>5,914.78</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>5,137.27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+      </c>
+      <c r="B7" t="str">
+        <v>337,686.94</v>
+      </c>
+      <c r="C7" t="str">
+        <v>337,686.94</v>
+      </c>
+      <c r="D7" t="str">
+        <v>38,200.99</v>
+      </c>
+      <c r="E7" t="str">
+        <v>255,096.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>0xdfd7445EF7dB056F68cEdEB4c1A709d02C0c3AA7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>247.19</v>
+      </c>
+      <c r="C8" t="str">
+        <v>247.19</v>
+      </c>
+      <c r="D8" t="str">
+        <v>183.06</v>
+      </c>
+      <c r="E8" t="str">
+        <v>31.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>0x72d20dcB42DC91D2Dc1DB60375e1945e23708130</v>
+      </c>
+      <c r="B9" t="str">
+        <v>714.03</v>
+      </c>
+      <c r="C9" t="str">
+        <v>714.03</v>
+      </c>
+      <c r="D9" t="str">
+        <v>620.17</v>
+      </c>
+      <c r="E9" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
+      </c>
+      <c r="B10" t="str">
+        <v>828.52</v>
+      </c>
+      <c r="C10" t="str">
+        <v>828.52</v>
+      </c>
+      <c r="D10" t="str">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>719.61</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+      </c>
+      <c r="B11" t="str">
+        <v>50,839.57</v>
+      </c>
+      <c r="C11" t="str">
+        <v>50,839.57</v>
+      </c>
+      <c r="D11" t="str">
+        <v>33,913.39</v>
+      </c>
+      <c r="E11" t="str">
+        <v>10,243.21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+      </c>
+      <c r="B12" t="str">
+        <v>442,773.84</v>
+      </c>
+      <c r="C12" t="str">
+        <v>442,773.84</v>
+      </c>
+      <c r="D12" t="str">
+        <v>855.42</v>
+      </c>
+      <c r="E12" t="str">
+        <v>383,714.78</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
+      </c>
+      <c r="B13" t="str">
+        <v>420.27</v>
+      </c>
+      <c r="C13" t="str">
+        <v>420.27</v>
+      </c>
+      <c r="D13" t="str">
+        <v>365.03</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>0x5Fc4faF3934548c57d66f1179C2991cEd028E61F</v>
+      </c>
+      <c r="B14" t="str">
+        <v>141.52</v>
+      </c>
+      <c r="C14" t="str">
+        <v>141.52</v>
+      </c>
+      <c r="D14" t="str">
+        <v>122.92</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+      </c>
+      <c r="B15" t="str">
+        <v>10,617.64</v>
+      </c>
+      <c r="C15" t="str">
+        <v>10,617.64</v>
+      </c>
+      <c r="D15" t="str">
+        <v>6,156.2</v>
+      </c>
+      <c r="E15" t="str">
+        <v>3,065.73</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>0xE910838B91486D4Fef2d0C4a77a3819D7600D36b</v>
+      </c>
+      <c r="B16" t="str">
+        <v>80.87</v>
+      </c>
+      <c r="C16" t="str">
+        <v>80.87</v>
+      </c>
+      <c r="D16" t="str">
+        <v>70.24</v>
+      </c>
+      <c r="E16" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>0x88bA50adD63cB2b90Eb3277cb4AC27Ca7b4fa596</v>
+      </c>
+      <c r="B17" t="str">
+        <v>1,469.83</v>
+      </c>
+      <c r="C17" t="str">
+        <v>1,469.83</v>
+      </c>
+      <c r="D17" t="str">
+        <v>1,206.38</v>
+      </c>
+      <c r="E17" t="str">
+        <v>70.24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
+      </c>
+      <c r="B18" t="str">
+        <v>35.7</v>
+      </c>
+      <c r="C18" t="str">
+        <v>35.7</v>
+      </c>
+      <c r="D18" t="str">
+        <v>31.01</v>
+      </c>
+      <c r="E18" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>0xD57b7a370729846A41b8ab3711cAf0c598962f41</v>
+      </c>
+      <c r="B19" t="str">
+        <v>9.39</v>
+      </c>
+      <c r="C19" t="str">
+        <v>9.39</v>
+      </c>
+      <c r="D19" t="str">
+        <v>8.16</v>
+      </c>
+      <c r="E19" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
+      </c>
+      <c r="B20" t="str">
+        <v>6,598.41</v>
+      </c>
+      <c r="C20" t="str">
+        <v>6,598.41</v>
+      </c>
+      <c r="D20" t="str">
+        <v>1,839.97</v>
+      </c>
+      <c r="E20" t="str">
+        <v>3,891.07</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+      </c>
+      <c r="B21" t="str">
+        <v>20,974.15</v>
+      </c>
+      <c r="C21" t="str">
+        <v>20,974.15</v>
+      </c>
+      <c r="D21" t="str">
+        <v>15,652.96</v>
+      </c>
+      <c r="E21" t="str">
+        <v>2,564.09</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>0xAbeDa44017Fc98A48589396e9E030D92c9120125</v>
+      </c>
+      <c r="B22" t="str">
+        <v>11,739.55</v>
+      </c>
+      <c r="C22" t="str">
+        <v>11,739.55</v>
+      </c>
+      <c r="D22" t="str">
+        <v>10,196.36</v>
+      </c>
+      <c r="E22" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+      </c>
+      <c r="B23" t="str">
+        <v>121,384.69</v>
+      </c>
+      <c r="C23" t="str">
+        <v>121,384.69</v>
+      </c>
+      <c r="D23" t="str">
+        <v>266.72</v>
+      </c>
+      <c r="E23" t="str">
+        <v>105,161.68</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
+      </c>
+      <c r="B24" t="str">
+        <v>2,304.29</v>
+      </c>
+      <c r="C24" t="str">
+        <v>2,304.29</v>
+      </c>
+      <c r="D24" t="str">
+        <v>2,001.39</v>
+      </c>
+      <c r="E24" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
+      </c>
+      <c r="B25" t="str">
+        <v>2,671.86</v>
+      </c>
+      <c r="C25" t="str">
+        <v>2,671.86</v>
+      </c>
+      <c r="D25" t="str">
+        <v>315.91</v>
+      </c>
+      <c r="E25" t="str">
+        <v>2,004.73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>0x27dF802924227b28Ad0Bec076Bd7f1D223441bF5</v>
+      </c>
+      <c r="B26" t="str">
+        <v>236.88</v>
+      </c>
+      <c r="C26" t="str">
+        <v>236.88</v>
+      </c>
+      <c r="D26" t="str">
+        <v>205.75</v>
+      </c>
+      <c r="E26" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>0x80BEe177a79d87c112CB40694182fAa7351a1CF4</v>
+      </c>
+      <c r="B27" t="str">
+        <v>26,270.72</v>
+      </c>
+      <c r="C27" t="str">
+        <v>26,270.72</v>
+      </c>
+      <c r="D27" t="str">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <v>22,817.38</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
+      </c>
+      <c r="B28" t="str">
+        <v>1,300.67</v>
+      </c>
+      <c r="C28" t="str">
+        <v>1,300.67</v>
+      </c>
+      <c r="D28" t="str">
+        <v>624.03</v>
+      </c>
+      <c r="E28" t="str">
+        <v>505.67</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
+      </c>
+      <c r="B29" t="str">
+        <v>2,321.12</v>
+      </c>
+      <c r="C29" t="str">
+        <v>2,321.12</v>
+      </c>
+      <c r="D29" t="str">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <v>2,016.01</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
+      </c>
+      <c r="B30" t="str">
+        <v>181.91</v>
+      </c>
+      <c r="C30" t="str">
+        <v>181.91</v>
+      </c>
+      <c r="D30" t="str">
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>0xBC3f8985F75c8628C3a6687EB91e21f50C961a5D</v>
+      </c>
+      <c r="B31" t="str">
+        <v>253.6</v>
+      </c>
+      <c r="C31" t="str">
+        <v>253.6</v>
+      </c>
+      <c r="D31" t="str">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <v>220.27</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+      </c>
+      <c r="B32" t="str">
+        <v>376.52</v>
+      </c>
+      <c r="C32" t="str">
+        <v>376.52</v>
+      </c>
+      <c r="D32" t="str">
+        <v>327.03</v>
+      </c>
+      <c r="E32" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>0x84A49c2862331D141Cc810ABFa9598bA8EFa1309</v>
+      </c>
+      <c r="B33" t="str">
+        <v>36.19</v>
+      </c>
+      <c r="C33" t="str">
+        <v>36.19</v>
+      </c>
+      <c r="D33" t="str">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+      </c>
+      <c r="B34" t="str">
+        <v>240,479.48</v>
+      </c>
+      <c r="C34" t="str">
+        <v>240,479.48</v>
+      </c>
+      <c r="D34" t="str">
+        <v>69,623.25</v>
+      </c>
+      <c r="E34" t="str">
+        <v>139,244.65</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>0x6BC61C0aD543265EC67164F11d3e57c42BFC3a17</v>
+      </c>
+      <c r="B35" t="str">
+        <v>19.08</v>
+      </c>
+      <c r="C35" t="str">
+        <v>19.08</v>
+      </c>
+      <c r="D35" t="str">
+        <v>16.58</v>
+      </c>
+      <c r="E35" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+      </c>
+      <c r="B36" t="str">
+        <v>247.6</v>
+      </c>
+      <c r="C36" t="str">
+        <v>247.6</v>
+      </c>
+      <c r="D36" t="str">
+        <v>110.47</v>
+      </c>
+      <c r="E36" t="str">
+        <v>104.59</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+      </c>
+      <c r="B37" t="str">
+        <v>367.56</v>
+      </c>
+      <c r="C37" t="str">
+        <v>367.56</v>
+      </c>
+      <c r="D37" t="str">
+        <v>3.34</v>
+      </c>
+      <c r="E37" t="str">
+        <v>315.91</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>0x2b7b77412BDb929a9f19584C9DC4657CCc5a7BFa</v>
+      </c>
+      <c r="B38" t="str">
+        <v>366.49</v>
+      </c>
+      <c r="C38" t="str">
+        <v>366.49</v>
+      </c>
+      <c r="D38" t="str">
+        <v>318.32</v>
+      </c>
+      <c r="E38" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
+      </c>
+      <c r="B39" t="str">
+        <v>264.01</v>
+      </c>
+      <c r="C39" t="str">
+        <v>264.01</v>
+      </c>
+      <c r="D39" t="str">
+        <v>229.31</v>
+      </c>
+      <c r="E39" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>0x64DCe6ad8e1FaBE148830B9B3743Eea03f1dFd4E</v>
+      </c>
+      <c r="B40" t="str">
+        <v>36.4</v>
+      </c>
+      <c r="C40" t="str">
+        <v>36.4</v>
+      </c>
+      <c r="D40" t="str">
+        <v>31.62</v>
+      </c>
+      <c r="E40" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>0x64d564A6A6003a9fcb44f8F50b9A3C7bBea2a7E7</v>
+      </c>
+      <c r="B41" t="str">
+        <v>577.03</v>
+      </c>
+      <c r="C41" t="str">
+        <v>577.03</v>
+      </c>
+      <c r="D41" t="str">
+        <v>501.18</v>
+      </c>
+      <c r="E41" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+      </c>
+      <c r="B42" t="str">
+        <v>2,666.18</v>
+      </c>
+      <c r="C42" t="str">
+        <v>2,666.18</v>
+      </c>
+      <c r="D42" t="str">
+        <v>2,315.71</v>
+      </c>
+      <c r="E42" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+      </c>
+      <c r="B43" t="str">
+        <v>6,998.29</v>
+      </c>
+      <c r="C43" t="str">
+        <v>6,998.29</v>
+      </c>
+      <c r="D43" t="str">
+        <v>4,238.38</v>
+      </c>
+      <c r="E43" t="str">
+        <v>1,839.97</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
+      </c>
+      <c r="B44" t="str">
+        <v>539.4</v>
+      </c>
+      <c r="C44" t="str">
+        <v>539.4</v>
+      </c>
+      <c r="D44" t="str">
+        <v>468.5</v>
+      </c>
+      <c r="E44" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
+      </c>
+      <c r="B45" t="str">
+        <v>91.09</v>
+      </c>
+      <c r="C45" t="str">
+        <v>91.09</v>
+      </c>
+      <c r="D45" t="str">
+        <v>79.12</v>
+      </c>
+      <c r="E45" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>0x04d9f35C7c292ca2c75C498563b48123C0662e19</v>
+      </c>
+      <c r="B46" t="str">
+        <v>585.67</v>
+      </c>
+      <c r="C46" t="str">
+        <v>585.67</v>
+      </c>
+      <c r="D46" t="str">
+        <v>508.69</v>
+      </c>
+      <c r="E46" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>0x02A85f9442a7aED8DeC1555014deF15fC017055D</v>
+      </c>
+      <c r="B47" t="str">
+        <v>224.22</v>
+      </c>
+      <c r="C47" t="str">
+        <v>224.22</v>
+      </c>
+      <c r="D47" t="str">
+        <v>194.75</v>
+      </c>
+      <c r="E47" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>0xeb9Ea287a5BD59731C6fbDEfd9e81dAa4Dc7eB11</v>
+      </c>
+      <c r="B48" t="str">
+        <v>1,566.62</v>
+      </c>
+      <c r="C48" t="str">
+        <v>1,566.62</v>
+      </c>
+      <c r="D48" t="str">
+        <v>1,360.69</v>
+      </c>
+      <c r="E48" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>0x65ED1e1351640D112aeAc04d4988B6916a5f62dc</v>
+      </c>
+      <c r="B49" t="str">
+        <v>296.14</v>
+      </c>
+      <c r="C49" t="str">
+        <v>296.14</v>
+      </c>
+      <c r="D49" t="str">
+        <v>257.22</v>
+      </c>
+      <c r="E49" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
+      </c>
+      <c r="B50" t="str">
+        <v>40.87</v>
+      </c>
+      <c r="C50" t="str">
+        <v>40.87</v>
+      </c>
+      <c r="D50" t="str">
+        <v>35.5</v>
+      </c>
+      <c r="E50" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>0x8060070C9811bdbAeA20fd829033CFC77b498d99</v>
+      </c>
+      <c r="B51" t="str">
+        <v>5,833.01</v>
+      </c>
+      <c r="C51" t="str">
+        <v>5,833.01</v>
+      </c>
+      <c r="D51" t="str">
+        <v>5,066.25</v>
+      </c>
+      <c r="E51" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>0x4CEbE974145E6796dB356F3689082D2d1eEf02Bf</v>
+      </c>
+      <c r="B52" t="str">
+        <v>1,231.29</v>
+      </c>
+      <c r="C52" t="str">
+        <v>1,231.29</v>
+      </c>
+      <c r="D52" t="str">
+        <v>1,069.44</v>
+      </c>
+      <c r="E52" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+      </c>
+      <c r="B53" t="str">
+        <v>37.51</v>
+      </c>
+      <c r="C53" t="str">
+        <v>37.51</v>
+      </c>
+      <c r="D53" t="str">
+        <v>32.58</v>
+      </c>
+      <c r="E53" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
+      </c>
+      <c r="B54" t="str">
+        <v>648.66</v>
+      </c>
+      <c r="C54" t="str">
+        <v>648.66</v>
+      </c>
+      <c r="D54" t="str">
+        <v>288.4</v>
+      </c>
+      <c r="E54" t="str">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0x4B3D17974c2F79fEf5D495F082e9eC7d1FD95a06</v>
+      </c>
+      <c r="B55" t="str">
+        <v>1,112.9</v>
+      </c>
+      <c r="C55" t="str">
+        <v>1,112.9</v>
+      </c>
+      <c r="D55" t="str">
+        <v>966.61</v>
+      </c>
+      <c r="E55" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
+      </c>
+      <c r="B56" t="str">
+        <v>1,112.9</v>
+      </c>
+      <c r="C56" t="str">
+        <v>1,112.9</v>
+      </c>
+      <c r="D56" t="str">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <v>966.61</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>0x325f292A70A46EE656b268D25EEFe5D88DfaF539</v>
+      </c>
+      <c r="B57" t="str">
+        <v>0</v>
+      </c>
+      <c r="C57" t="str">
+        <v>606.56</v>
+      </c>
+      <c r="D57" t="str">
+        <v>526.83</v>
+      </c>
+      <c r="E57" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>0x3e666FADbdC565692DEc4aB6A95CaaA708d28d76</v>
+      </c>
+      <c r="B58" t="str">
+        <v>1,972.67</v>
+      </c>
+      <c r="C58" t="str">
+        <v>1,972.67</v>
+      </c>
+      <c r="D58" t="str">
+        <v>1,713.36</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+      </c>
+      <c r="B59" t="str">
+        <v>262.76</v>
+      </c>
+      <c r="C59" t="str">
+        <v>262.76</v>
+      </c>
+      <c r="D59" t="str">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <v>228.22</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+      </c>
+      <c r="B60" t="str">
+        <v>2,712.59</v>
+      </c>
+      <c r="C60" t="str">
+        <v>2,712.59</v>
+      </c>
+      <c r="D60" t="str">
+        <v>106.02</v>
+      </c>
+      <c r="E60" t="str">
+        <v>2,250</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>0x54241C1A4d287D49c5f815467708db4247DFA763</v>
+      </c>
+      <c r="B61" t="str">
+        <v>438.06</v>
+      </c>
+      <c r="C61" t="str">
+        <v>438.06</v>
+      </c>
+      <c r="D61" t="str">
+        <v>53.68</v>
+      </c>
+      <c r="E61" t="str">
+        <v>326.8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
+      </c>
+      <c r="B62" t="str">
+        <v>316.62</v>
+      </c>
+      <c r="C62" t="str">
+        <v>316.62</v>
+      </c>
+      <c r="D62" t="str">
+        <v>275</v>
+      </c>
+      <c r="E62" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>0xDbfd080A579b7DFc5D99834C86ffd543b688c864</v>
+      </c>
+      <c r="B63" t="str">
+        <v>603.78</v>
+      </c>
+      <c r="C63" t="str">
+        <v>603.78</v>
+      </c>
+      <c r="D63" t="str">
+        <v>524.42</v>
+      </c>
+      <c r="E63" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>0x7E92D8b1848D0646c369501455C363f687DFc93D</v>
+      </c>
+      <c r="B64" t="str">
+        <v>129.76</v>
+      </c>
+      <c r="C64" t="str">
+        <v>129.76</v>
+      </c>
+      <c r="D64" t="str">
+        <v>112.71</v>
+      </c>
+      <c r="E64" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>0x4D30408614E40276712949ACbbF49853eA606b4a</v>
+      </c>
+      <c r="B65" t="str">
+        <v>61.6</v>
+      </c>
+      <c r="C65" t="str">
+        <v>61.6</v>
+      </c>
+      <c r="D65" t="str">
+        <v>53.51</v>
+      </c>
+      <c r="E65" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>0xf6732447a0Da3D8973897e247cf04f53B87Cfa2e</v>
+      </c>
+      <c r="B66" t="str">
+        <v>114.48</v>
+      </c>
+      <c r="C66" t="str">
+        <v>114.48</v>
+      </c>
+      <c r="D66" t="str">
+        <v>99.44</v>
+      </c>
+      <c r="E66" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
+      </c>
+      <c r="B67" t="str">
+        <v>100,016.55</v>
+      </c>
+      <c r="C67" t="str">
+        <v>100,016.55</v>
+      </c>
+      <c r="D67" t="str">
+        <v>1,474.44</v>
+      </c>
+      <c r="E67" t="str">
+        <v>85,394.71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
+      </c>
+      <c r="B68" t="str">
+        <v>139,041.25</v>
+      </c>
+      <c r="C68" t="str">
+        <v>139,041.25</v>
+      </c>
+      <c r="D68" t="str">
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <v>120,763.96</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+      </c>
+      <c r="B69" t="str">
+        <v>74,655.05</v>
+      </c>
+      <c r="C69" t="str">
+        <v>74,655.05</v>
+      </c>
+      <c r="D69" t="str">
+        <v>0</v>
+      </c>
+      <c r="E69" t="str">
+        <v>64,841.48</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+      </c>
+      <c r="B70" t="str">
+        <v>778.75</v>
+      </c>
+      <c r="C70" t="str">
+        <v>778.75</v>
+      </c>
+      <c r="D70" t="str">
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <v>676.39</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
+      </c>
+      <c r="B71" t="str">
+        <v>0</v>
+      </c>
+      <c r="C71" t="str">
+        <v>3,176.72</v>
+      </c>
+      <c r="D71" t="str">
+        <v>2,759.14</v>
+      </c>
+      <c r="E71" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>0xA271d7ad0ce0b28cdc464dfD5F3A66B4d55B5Acc</v>
+      </c>
+      <c r="B72" t="str">
+        <v>741.73</v>
+      </c>
+      <c r="C72" t="str">
+        <v>741.73</v>
+      </c>
+      <c r="D72" t="str">
+        <v>644.23</v>
+      </c>
+      <c r="E72" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>0xE3c3CD768EF78506A37144Ce83b1f34af56A89D5</v>
+      </c>
+      <c r="B73" t="str">
+        <v>741.73</v>
+      </c>
+      <c r="C73" t="str">
+        <v>741.73</v>
+      </c>
+      <c r="D73" t="str">
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <v>644.23</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>0xeeE85C5e6012fB7677381293C63F987d9dccA87a</v>
+      </c>
+      <c r="B74" t="str">
+        <v>366.72</v>
+      </c>
+      <c r="C74" t="str">
+        <v>366.72</v>
+      </c>
+      <c r="D74" t="str">
+        <v>318.52</v>
+      </c>
+      <c r="E74" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>0x35b537F3A2aF254D73263391a4eDE756Ac0f1f35</v>
+      </c>
+      <c r="B75" t="str">
+        <v>366.72</v>
+      </c>
+      <c r="C75" t="str">
+        <v>366.72</v>
+      </c>
+      <c r="D75" t="str">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <v>318.52</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>0xdE976b1178696723F86102aaf17Ddd70522908dA</v>
+      </c>
+      <c r="B76" t="str">
+        <v>5,494.27</v>
+      </c>
+      <c r="C76" t="str">
+        <v>5,494.27</v>
+      </c>
+      <c r="D76" t="str">
+        <v>4,772.04</v>
+      </c>
+      <c r="E76" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>0x44Ae0B00492f996B8ABD8F7F38B1716aEdeb8085</v>
+      </c>
+      <c r="B77" t="str">
+        <v>733.96</v>
+      </c>
+      <c r="C77" t="str">
+        <v>733.96</v>
+      </c>
+      <c r="D77" t="str">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <v>637.48</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+      </c>
+      <c r="B78" t="str">
+        <v>1,041.5</v>
+      </c>
+      <c r="C78" t="str">
+        <v>1,041.5</v>
+      </c>
+      <c r="D78" t="str">
+        <v>904.6</v>
+      </c>
+      <c r="E78" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
+      </c>
+      <c r="B79" t="str">
+        <v>1,475.01</v>
+      </c>
+      <c r="C79" t="str">
+        <v>1,475.01</v>
+      </c>
+      <c r="D79" t="str">
+        <v>0</v>
+      </c>
+      <c r="E79" t="str">
+        <v>1,281.12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+      </c>
+      <c r="B80" t="str">
+        <v>14,271.87</v>
+      </c>
+      <c r="C80" t="str">
+        <v>14,271.87</v>
+      </c>
+      <c r="D80" t="str">
+        <v>0</v>
+      </c>
+      <c r="E80" t="str">
+        <v>12,395.8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+      </c>
+      <c r="B81" t="str">
+        <v>422.36</v>
+      </c>
+      <c r="C81" t="str">
+        <v>422.36</v>
+      </c>
+      <c r="D81" t="str">
+        <v>0</v>
+      </c>
+      <c r="E81" t="str">
+        <v>366.84</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>0xE1FcC0676dE7f03EB6c63b55A5ad667416029A5F</v>
+      </c>
+      <c r="B82" t="str">
+        <v>130.25</v>
+      </c>
+      <c r="C82" t="str">
+        <v>130.25</v>
+      </c>
+      <c r="D82" t="str">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <v>113.13</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>0xd59e981cc9DfbaC1ab0EE8E23e5B0C0bea0D132b</v>
+      </c>
+      <c r="B83" t="str">
+        <v>36.42</v>
+      </c>
+      <c r="C83" t="str">
+        <v>36.42</v>
+      </c>
+      <c r="D83" t="str">
+        <v>31.64</v>
+      </c>
+      <c r="E83" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
+      </c>
+      <c r="B84" t="str">
+        <v>5,816.79</v>
+      </c>
+      <c r="C84" t="str">
+        <v>5,816.79</v>
+      </c>
+      <c r="D84" t="str">
+        <v>0</v>
+      </c>
+      <c r="E84" t="str">
+        <v>5,052.16</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>0x9c6E23aC65D33b747B8c56C04db77d836c41Faf5</v>
+      </c>
+      <c r="B85" t="str">
+        <v>147.26</v>
+      </c>
+      <c r="C85" t="str">
+        <v>147.26</v>
+      </c>
+      <c r="D85" t="str">
+        <v>0</v>
+      </c>
+      <c r="E85" t="str">
+        <v>127.91</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>0x361631d54F49b6a4C19F033Ef507D67aC6BA1c0a</v>
+      </c>
+      <c r="B86" t="str">
+        <v>583.34</v>
+      </c>
+      <c r="C86" t="str">
+        <v>583.34</v>
+      </c>
+      <c r="D86" t="str">
+        <v>506.66</v>
+      </c>
+      <c r="E86" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
+      </c>
+      <c r="B87" t="str">
+        <v>329.12</v>
+      </c>
+      <c r="C87" t="str">
+        <v>329.12</v>
+      </c>
+      <c r="D87" t="str">
+        <v>0</v>
+      </c>
+      <c r="E87" t="str">
+        <v>285.86</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+      </c>
+      <c r="B88" t="str">
+        <v>53,535.64</v>
+      </c>
+      <c r="C88" t="str">
+        <v>53,535.64</v>
+      </c>
+      <c r="D88" t="str">
+        <v>10,243.21</v>
+      </c>
+      <c r="E88" t="str">
+        <v>36,255.05</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
+      </c>
+      <c r="B89" t="str">
+        <v>3,396.47</v>
+      </c>
+      <c r="C89" t="str">
+        <v>3,396.47</v>
+      </c>
+      <c r="D89" t="str">
+        <v>2,950</v>
+      </c>
+      <c r="E89" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>0xA66ABB96cC791CFD157CFcd404B27A0920824B35</v>
+      </c>
+      <c r="B90" t="str">
+        <v>184,773</v>
+      </c>
+      <c r="C90" t="str">
+        <v>184,773</v>
+      </c>
+      <c r="D90" t="str">
+        <v>160,484.17</v>
+      </c>
+      <c r="E90" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>0x889f1F09b491711013cA6787E29e07a04FDf42a4</v>
+      </c>
+      <c r="B91" t="str">
+        <v>220,198.18</v>
+      </c>
+      <c r="C91" t="str">
+        <v>220,198.18</v>
+      </c>
+      <c r="D91" t="str">
+        <v>30,768.46</v>
+      </c>
+      <c r="E91" t="str">
+        <v>160,484.17</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+      </c>
+      <c r="B92" t="str">
+        <v>6,797.46</v>
+      </c>
+      <c r="C92" t="str">
+        <v>6,797.46</v>
+      </c>
+      <c r="D92" t="str">
+        <v>0</v>
+      </c>
+      <c r="E92" t="str">
+        <v>5,903.92</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+      </c>
+      <c r="B93" t="str">
+        <v>146.71</v>
+      </c>
+      <c r="C93" t="str">
+        <v>146.71</v>
+      </c>
+      <c r="D93" t="str">
+        <v>0</v>
+      </c>
+      <c r="E93" t="str">
+        <v>127.43</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+      </c>
+      <c r="B94" t="str">
+        <v>461.67</v>
+      </c>
+      <c r="C94" t="str">
+        <v>461.67</v>
+      </c>
+      <c r="D94" t="str">
+        <v>400.99</v>
+      </c>
+      <c r="E94" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>0xFa12186c269720c59e6019e4C200589A0d4BCa24</v>
+      </c>
+      <c r="B95" t="str">
+        <v>72.39</v>
+      </c>
+      <c r="C95" t="str">
+        <v>72.39</v>
+      </c>
+      <c r="D95" t="str">
+        <v>0</v>
+      </c>
+      <c r="E95" t="str">
+        <v>62.88</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+      </c>
+      <c r="B96" t="str">
+        <v>20,532.81</v>
+      </c>
+      <c r="C96" t="str">
+        <v>20,532.81</v>
+      </c>
+      <c r="D96" t="str">
+        <v>17,833.73</v>
+      </c>
+      <c r="E96" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+      </c>
+      <c r="B97" t="str">
+        <v>0</v>
+      </c>
+      <c r="C97" t="str">
+        <v>20,532.81</v>
+      </c>
+      <c r="D97" t="str">
+        <v>0</v>
+      </c>
+      <c r="E97" t="str">
+        <v>17,833.73</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
+      </c>
+      <c r="B98" t="str">
+        <v>76.33</v>
+      </c>
+      <c r="C98" t="str">
+        <v>76.33</v>
+      </c>
+      <c r="D98" t="str">
+        <v>0</v>
+      </c>
+      <c r="E98" t="str">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
+      </c>
+      <c r="B99" t="str">
+        <v>738.81</v>
+      </c>
+      <c r="C99" t="str">
+        <v>738.81</v>
+      </c>
+      <c r="D99" t="str">
+        <v>422.33</v>
+      </c>
+      <c r="E99" t="str">
+        <v>219.37</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+      </c>
+      <c r="B100" t="str">
+        <v>216.21</v>
+      </c>
+      <c r="C100" t="str">
+        <v>216.21</v>
+      </c>
+      <c r="D100" t="str">
+        <v>0</v>
+      </c>
+      <c r="E100" t="str">
+        <v>187.79</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
+      </c>
+      <c r="B101" t="str">
+        <v>35.7</v>
+      </c>
+      <c r="C101" t="str">
+        <v>35.7</v>
+      </c>
+      <c r="D101" t="str">
+        <v>0</v>
+      </c>
+      <c r="E101" t="str">
+        <v>31.01</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+      </c>
+      <c r="B102" t="str">
+        <v>607.32</v>
+      </c>
+      <c r="C102" t="str">
+        <v>607.32</v>
+      </c>
+      <c r="D102" t="str">
+        <v>527.49</v>
+      </c>
+      <c r="E102" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>0xd939730f3611112DaF234420f57Cfe0e3D3b16B3</v>
+      </c>
+      <c r="B103" t="str">
+        <v>149.05</v>
+      </c>
+      <c r="C103" t="str">
+        <v>149.05</v>
+      </c>
+      <c r="D103" t="str">
+        <v>0</v>
+      </c>
+      <c r="E103" t="str">
+        <v>129.46</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>0x0fA1AfF9540786DCad9196e0676e2e4423317FAf</v>
+      </c>
+      <c r="B104" t="str">
+        <v>2,886.85</v>
+      </c>
+      <c r="C104" t="str">
+        <v>2,886.85</v>
+      </c>
+      <c r="D104" t="str">
+        <v>2,507.37</v>
+      </c>
+      <c r="E104" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
+      </c>
+      <c r="B105" t="str">
+        <v>2,973.2</v>
+      </c>
+      <c r="C105" t="str">
+        <v>2,973.2</v>
+      </c>
+      <c r="D105" t="str">
+        <v>75</v>
+      </c>
+      <c r="E105" t="str">
+        <v>2,507.37</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>0xb8e441ad9cA68bf92Da52A40BFBb03Bc6454ABB4</v>
+      </c>
+      <c r="B106" t="str">
+        <v>57.56</v>
+      </c>
+      <c r="C106" t="str">
+        <v>57.56</v>
+      </c>
+      <c r="D106" t="str">
+        <v>0</v>
+      </c>
+      <c r="E106" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>0xf0a8596541F839EBcC9f0A9d1442c15f43A2836E</v>
+      </c>
+      <c r="B107" t="str">
+        <v>633.94</v>
+      </c>
+      <c r="C107" t="str">
+        <v>633.94</v>
+      </c>
+      <c r="D107" t="str">
+        <v>0</v>
+      </c>
+      <c r="E107" t="str">
+        <v>550.61</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>0x03D9B5235F77265bE15e631e20B99C8b018e4128</v>
+      </c>
+      <c r="B108" t="str">
+        <v>1,489.93</v>
+      </c>
+      <c r="C108" t="str">
+        <v>1,489.93</v>
+      </c>
+      <c r="D108" t="str">
+        <v>0</v>
+      </c>
+      <c r="E108" t="str">
+        <v>1,294.08</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>0x8218E1a9D02E26E2aF124EA28b121031Cf25AaC8</v>
+      </c>
+      <c r="B109" t="str">
+        <v>804.27</v>
+      </c>
+      <c r="C109" t="str">
+        <v>804.27</v>
+      </c>
+      <c r="D109" t="str">
+        <v>698.55</v>
+      </c>
+      <c r="E109" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+      </c>
+      <c r="B110" t="str">
+        <v>105,417.11</v>
+      </c>
+      <c r="C110" t="str">
+        <v>105,417.11</v>
+      </c>
+      <c r="D110" t="str">
+        <v>0</v>
+      </c>
+      <c r="E110" t="str">
+        <v>91,559.79</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+      </c>
+      <c r="B111" t="str">
+        <v>1,512.28</v>
+      </c>
+      <c r="C111" t="str">
+        <v>1,512.28</v>
+      </c>
+      <c r="D111" t="str">
+        <v>1,007.91</v>
+      </c>
+      <c r="E111" t="str">
+        <v>305.58</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+      </c>
+      <c r="B112" t="str">
+        <v>466.42</v>
+      </c>
+      <c r="C112" t="str">
+        <v>466.42</v>
+      </c>
+      <c r="D112" t="str">
+        <v>228.22</v>
+      </c>
+      <c r="E112" t="str">
+        <v>176.89</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>0x3479Ce7954Aebd06dD613A42301C911d85c789bF</v>
+      </c>
+      <c r="B113" t="str">
+        <v>1,313.57</v>
+      </c>
+      <c r="C113" t="str">
+        <v>1,313.57</v>
+      </c>
+      <c r="D113" t="str">
+        <v>1,140.9</v>
+      </c>
+      <c r="E113" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>0xa899FaB0CE9CDA2E314856C10A9F5B578b9f2778</v>
+      </c>
+      <c r="B114" t="str">
+        <v>1,313.57</v>
+      </c>
+      <c r="C114" t="str">
+        <v>1,313.57</v>
+      </c>
+      <c r="D114" t="str">
+        <v>0</v>
+      </c>
+      <c r="E114" t="str">
+        <v>1,140.9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>0xB318309e50C1f09825f903B5773c45b0d2930f28</v>
+      </c>
+      <c r="B115" t="str">
+        <v>333.93</v>
+      </c>
+      <c r="C115" t="str">
+        <v>333.93</v>
+      </c>
+      <c r="D115" t="str">
+        <v>290.04</v>
+      </c>
+      <c r="E115" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>0xC53Fa15adE563291bF8ba8d7E62a9B0959e6aE30</v>
+      </c>
+      <c r="B116" t="str">
+        <v>320.43</v>
+      </c>
+      <c r="C116" t="str">
+        <v>320.43</v>
+      </c>
+      <c r="D116" t="str">
+        <v>278.31</v>
+      </c>
+      <c r="E116" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>0xcE1290F5457067497EAd8Aea22515d52ca94357E</v>
+      </c>
+      <c r="B117" t="str">
+        <v>320.43</v>
+      </c>
+      <c r="C117" t="str">
+        <v>320.43</v>
+      </c>
+      <c r="D117" t="str">
+        <v>0</v>
+      </c>
+      <c r="E117" t="str">
+        <v>278.31</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
+      </c>
+      <c r="B118" t="str">
+        <v>1,766.05</v>
+      </c>
+      <c r="C118" t="str">
+        <v>1,766.05</v>
+      </c>
+      <c r="D118" t="str">
+        <v>1,533.9</v>
+      </c>
+      <c r="E118" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>0x4045d560bdcd01295dB6B3041ecfB7C5a346eDa8</v>
+      </c>
+      <c r="B119" t="str">
+        <v>0</v>
+      </c>
+      <c r="C119" t="str">
+        <v>138,764.98</v>
+      </c>
+      <c r="D119" t="str">
+        <v>64,009.27</v>
+      </c>
+      <c r="E119" t="str">
+        <v>56,514.74</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
+      </c>
+      <c r="B120" t="str">
+        <v>13,428.3</v>
+      </c>
+      <c r="C120" t="str">
+        <v>13,428.3</v>
+      </c>
+      <c r="D120" t="str">
+        <v>0</v>
+      </c>
+      <c r="E120" t="str">
+        <v>11,663.12</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
+      </c>
+      <c r="B121" t="str">
+        <v>420.5</v>
+      </c>
+      <c r="C121" t="str">
+        <v>420.5</v>
+      </c>
+      <c r="D121" t="str">
+        <v>365.23</v>
+      </c>
+      <c r="E121" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>0x25E9eA1a93D9e505cd7d056C1e1bA16789537EAb</v>
+      </c>
+      <c r="B122" t="str">
+        <v>23,400.56</v>
+      </c>
+      <c r="C122" t="str">
+        <v>23,400.56</v>
+      </c>
+      <c r="D122" t="str">
+        <v>8,032.62</v>
+      </c>
+      <c r="E122" t="str">
+        <v>12,291.89</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
+      </c>
+      <c r="B123" t="str">
+        <v>12,477.43</v>
+      </c>
+      <c r="C123" t="str">
+        <v>12,477.43</v>
+      </c>
+      <c r="D123" t="str">
+        <v>0</v>
+      </c>
+      <c r="E123" t="str">
+        <v>10,837.25</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>0x1D712193A96B4d9D4eC32108cfcde704AC9CCC9C</v>
+      </c>
+      <c r="B124" t="str">
+        <v>32.01</v>
+      </c>
+      <c r="C124" t="str">
+        <v>32.01</v>
+      </c>
+      <c r="D124" t="str">
+        <v>27.81</v>
+      </c>
+      <c r="E124" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>0x8f437d47c7723C7AB5ab896D59549D547181BecB</v>
+      </c>
+      <c r="B125" t="str">
+        <v>183.11</v>
+      </c>
+      <c r="C125" t="str">
+        <v>183.11</v>
+      </c>
+      <c r="D125" t="str">
+        <v>0</v>
+      </c>
+      <c r="E125" t="str">
+        <v>159.04</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>0x11C3498d0D70BBfCdAa8dA275d7dDEb7BF977137</v>
+      </c>
+      <c r="B126" t="str">
+        <v>236.88</v>
+      </c>
+      <c r="C126" t="str">
+        <v>236.88</v>
+      </c>
+      <c r="D126" t="str">
+        <v>0</v>
+      </c>
+      <c r="E126" t="str">
+        <v>205.75</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
+      </c>
+      <c r="B127" t="str">
+        <v>0</v>
+      </c>
+      <c r="C127" t="str">
+        <v>984.88</v>
+      </c>
+      <c r="D127" t="str">
+        <v>0</v>
+      </c>
+      <c r="E127" t="str">
+        <v>855.42</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
+      </c>
+      <c r="B128" t="str">
+        <v>626.18</v>
+      </c>
+      <c r="C128" t="str">
+        <v>626.18</v>
+      </c>
+      <c r="D128" t="str">
+        <v>0</v>
+      </c>
+      <c r="E128" t="str">
+        <v>543.87</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
+      </c>
+      <c r="B129" t="str">
+        <v>1,192.16</v>
+      </c>
+      <c r="C129" t="str">
+        <v>1,192.16</v>
+      </c>
+      <c r="D129" t="str">
+        <v>1,024.92</v>
+      </c>
+      <c r="E129" t="str">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>0xc677a6C972baeCe4Bf9C0a2EbB600886F0300a7D</v>
+      </c>
+      <c r="B130" t="str">
+        <v>8,725.39</v>
+      </c>
+      <c r="C130" t="str">
+        <v>8,725.39</v>
+      </c>
+      <c r="D130" t="str">
+        <v>7,578.42</v>
+      </c>
+      <c r="E130" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>0x760d7E2525DDB8790d047CFF195b753F9dCCac41</v>
+      </c>
+      <c r="B131" t="str">
+        <v>3,028.92</v>
+      </c>
+      <c r="C131" t="str">
+        <v>3,028.92</v>
+      </c>
+      <c r="D131" t="str">
+        <v>0</v>
+      </c>
+      <c r="E131" t="str">
+        <v>2,630.77</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>0xCf54bb8C360FB4Ec47AE0c31Bc8864B163651277</v>
+      </c>
+      <c r="B132" t="str">
+        <v>390.7</v>
+      </c>
+      <c r="C132" t="str">
+        <v>390.7</v>
+      </c>
+      <c r="D132" t="str">
+        <v>339.35</v>
+      </c>
+      <c r="E132" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>0xD35Bb0C4b4E537D54f14563fA7790403f046f6E0</v>
+      </c>
+      <c r="B133" t="str">
+        <v>5,414.16</v>
+      </c>
+      <c r="C133" t="str">
+        <v>5,414.16</v>
+      </c>
+      <c r="D133" t="str">
+        <v>4,702.46</v>
+      </c>
+      <c r="E133" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>0x5929B23B9F70dA098B92EF3F3341cC8707B8f0A2</v>
+      </c>
+      <c r="B134" t="str">
+        <v>25,049.6</v>
+      </c>
+      <c r="C134" t="str">
+        <v>25,049.6</v>
+      </c>
+      <c r="D134" t="str">
+        <v>21,756.78</v>
+      </c>
+      <c r="E134" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>0xD465Ffa5efAdF5cF1Dd6c45c3C305f58279A2140</v>
+      </c>
+      <c r="B135" t="str">
+        <v>0</v>
+      </c>
+      <c r="C135" t="str">
+        <v>465.07</v>
+      </c>
+      <c r="D135" t="str">
+        <v>0</v>
+      </c>
+      <c r="E135" t="str">
+        <v>403.94</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>0xCbf575DA18d760a18dB55333bE8662CC07463069</v>
+      </c>
+      <c r="B136" t="str">
+        <v>11,179.37</v>
+      </c>
+      <c r="C136" t="str">
+        <v>11,179.37</v>
+      </c>
+      <c r="D136" t="str">
+        <v>9,709.82</v>
+      </c>
+      <c r="E136" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+      </c>
+      <c r="B137" t="str">
+        <v>28,449.58</v>
+      </c>
+      <c r="C137" t="str">
+        <v>28,449.58</v>
+      </c>
+      <c r="D137" t="str">
+        <v>10,000</v>
+      </c>
+      <c r="E137" t="str">
+        <v>14,709.82</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
+      </c>
+      <c r="B138" t="str">
+        <v>460.53</v>
+      </c>
+      <c r="C138" t="str">
+        <v>460.53</v>
+      </c>
+      <c r="D138" t="str">
+        <v>400</v>
+      </c>
+      <c r="E138" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>0x8EA76c885918FA6f548501b5c4357aff43204CD0</v>
+      </c>
+      <c r="B139" t="str">
+        <v>6.5</v>
+      </c>
+      <c r="C139" t="str">
+        <v>6.5</v>
+      </c>
+      <c r="D139" t="str">
+        <v>5.65</v>
+      </c>
+      <c r="E139" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>0x96f194Cf1c9e5eE23B4D96785791F468F6A9C98e</v>
+      </c>
+      <c r="B140" t="str">
+        <v>17,270.2</v>
+      </c>
+      <c r="C140" t="str">
+        <v>17,270.2</v>
+      </c>
+      <c r="D140" t="str">
+        <v>5,000</v>
+      </c>
+      <c r="E140" t="str">
+        <v>10,000</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>0x8f1928e8FEa7238b9B53A7E62AFd471b69732a66</v>
+      </c>
+      <c r="B141" t="str">
+        <v>234.97</v>
+      </c>
+      <c r="C141" t="str">
+        <v>234.97</v>
+      </c>
+      <c r="D141" t="str">
+        <v>0</v>
+      </c>
+      <c r="E141" t="str">
+        <v>204.09</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+      </c>
+      <c r="B142" t="str">
+        <v>2,321.12</v>
+      </c>
+      <c r="C142" t="str">
+        <v>2,321.12</v>
+      </c>
+      <c r="D142" t="str">
+        <v>2,016.01</v>
+      </c>
+      <c r="E142" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+      </c>
+      <c r="B143" t="str">
+        <v>9,198.86</v>
+      </c>
+      <c r="C143" t="str">
+        <v>9,198.86</v>
+      </c>
+      <c r="D143" t="str">
+        <v>0</v>
+      </c>
+      <c r="E143" t="str">
+        <v>7,989.65</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>0x856D87821a75300c8e5e61fAa718065aEe7FE719</v>
+      </c>
+      <c r="B144" t="str">
+        <v>4,992.71</v>
+      </c>
+      <c r="C144" t="str">
+        <v>4,992.71</v>
+      </c>
+      <c r="D144" t="str">
+        <v>4,336.41</v>
+      </c>
+      <c r="E144" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>0x09aFEC89b908C2cbD220942f3788530C195Ba894</v>
+      </c>
+      <c r="B145" t="str">
+        <v>3.68</v>
+      </c>
+      <c r="C145" t="str">
+        <v>3.68</v>
+      </c>
+      <c r="D145" t="str">
+        <v>0</v>
+      </c>
+      <c r="E145" t="str">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>0x2abf42F330c60491E8A36B73c9F3F9Ed40CDa546</v>
+      </c>
+      <c r="B146" t="str">
+        <v>38,862.16</v>
+      </c>
+      <c r="C146" t="str">
+        <v>38,862.16</v>
+      </c>
+      <c r="D146" t="str">
+        <v>0</v>
+      </c>
+      <c r="E146" t="str">
+        <v>33,753.64</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>0xbB20a4e0514AF7e17d4ED83A55881F067B393c5E</v>
+      </c>
+      <c r="B147" t="str">
+        <v>62.33</v>
+      </c>
+      <c r="C147" t="str">
+        <v>62.33</v>
+      </c>
+      <c r="D147" t="str">
+        <v>54.14</v>
+      </c>
+      <c r="E147" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
+      </c>
+      <c r="B148" t="str">
+        <v>8,578.44</v>
+      </c>
+      <c r="C148" t="str">
+        <v>8,578.44</v>
+      </c>
+      <c r="D148" t="str">
+        <v>7,396.65</v>
+      </c>
+      <c r="E148" t="str">
+        <v>54.14</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>0xBc7b31dFbEd762841AC646961C887B49e3f625d5</v>
+      </c>
+      <c r="B149" t="str">
+        <v>73.78</v>
+      </c>
+      <c r="C149" t="str">
+        <v>73.78</v>
+      </c>
+      <c r="D149" t="str">
+        <v>64.09</v>
+      </c>
+      <c r="E149" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>0xF054d867FEA9866a266cCA678cB30Fe5d9F68bA5</v>
+      </c>
+      <c r="B150" t="str">
+        <v>176.9</v>
+      </c>
+      <c r="C150" t="str">
+        <v>176.9</v>
+      </c>
+      <c r="D150" t="str">
+        <v>153.65</v>
+      </c>
+      <c r="E150" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>0x094CAE95AB3744453Cf7Ce9251dFDD816C3C810E</v>
+      </c>
+      <c r="B151" t="str">
+        <v>606.78</v>
+      </c>
+      <c r="C151" t="str">
+        <v>606.78</v>
+      </c>
+      <c r="D151" t="str">
+        <v>0</v>
+      </c>
+      <c r="E151" t="str">
+        <v>527.02</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>0x620C45Fd6A4C15A4aa2A3a9301F0009b34F7809b</v>
+      </c>
+      <c r="B152" t="str">
+        <v>1,335.71</v>
+      </c>
+      <c r="C152" t="str">
+        <v>1,335.71</v>
+      </c>
+      <c r="D152" t="str">
+        <v>1,160.13</v>
+      </c>
+      <c r="E152" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>0xdC7A5B88f099B3385a9a714e679B0a511E9071bf</v>
+      </c>
+      <c r="B153" t="str">
+        <v>127.16</v>
+      </c>
+      <c r="C153" t="str">
+        <v>127.16</v>
+      </c>
+      <c r="D153" t="str">
+        <v>110.45</v>
+      </c>
+      <c r="E153" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
+      </c>
+      <c r="B154" t="str">
+        <v>1,697.59</v>
+      </c>
+      <c r="C154" t="str">
+        <v>1,697.59</v>
+      </c>
+      <c r="D154" t="str">
+        <v>0</v>
+      </c>
+      <c r="E154" t="str">
+        <v>1,474.44</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>0x7c837800C0F43D1D9196807FD6033d206Ff3d058</v>
+      </c>
+      <c r="B155" t="str">
+        <v>136.53</v>
+      </c>
+      <c r="C155" t="str">
+        <v>136.53</v>
+      </c>
+      <c r="D155" t="str">
+        <v>0</v>
+      </c>
+      <c r="E155" t="str">
+        <v>118.59</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
+      </c>
+      <c r="B156" t="str">
+        <v>1,388.96</v>
+      </c>
+      <c r="C156" t="str">
+        <v>1,388.96</v>
+      </c>
+      <c r="D156" t="str">
+        <v>0</v>
+      </c>
+      <c r="E156" t="str">
+        <v>1,206.38</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+      </c>
+      <c r="B157" t="str">
+        <v>160,316.4</v>
+      </c>
+      <c r="C157" t="str">
+        <v>160,316.4</v>
+      </c>
+      <c r="D157" t="str">
+        <v>69,619.19</v>
+      </c>
+      <c r="E157" t="str">
+        <v>69,623.25</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
+      </c>
+      <c r="B158" t="str">
+        <v>2,102.97</v>
+      </c>
+      <c r="C158" t="str">
+        <v>2,102.97</v>
+      </c>
+      <c r="D158" t="str">
+        <v>1,473.4</v>
+      </c>
+      <c r="E158" t="str">
+        <v>353.13</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>0xE34bBD8d72B7Ffe5ad2e84CE93e3A07581De2e50</v>
+      </c>
+      <c r="B159" t="str">
+        <v>0</v>
+      </c>
+      <c r="C159" t="str">
+        <v>692.91</v>
+      </c>
+      <c r="D159" t="str">
+        <v>0</v>
+      </c>
+      <c r="E159" t="str">
+        <v>601.83</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
+      </c>
+      <c r="B160" t="str">
+        <v>1,696.39</v>
+      </c>
+      <c r="C160" t="str">
+        <v>1,696.39</v>
+      </c>
+      <c r="D160" t="str">
+        <v>0</v>
+      </c>
+      <c r="E160" t="str">
+        <v>1,473.4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>0xCB49f8F87f60d2f6790d4606BB53B41f95920A6c</v>
+      </c>
+      <c r="B161" t="str">
+        <v>124.21</v>
+      </c>
+      <c r="C161" t="str">
+        <v>124.21</v>
+      </c>
+      <c r="D161" t="str">
+        <v>107.89</v>
+      </c>
+      <c r="E161" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>0x5766ee90ab6f2Cd995CA845d09b2AeC45E870EC9</v>
+      </c>
+      <c r="B162" t="str">
+        <v>124.21</v>
+      </c>
+      <c r="C162" t="str">
+        <v>124.21</v>
+      </c>
+      <c r="D162" t="str">
+        <v>0</v>
+      </c>
+      <c r="E162" t="str">
+        <v>107.89</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+      </c>
+      <c r="B163" t="str">
+        <v>26,364.88</v>
+      </c>
+      <c r="C163" t="str">
+        <v>26,364.88</v>
+      </c>
+      <c r="D163" t="str">
+        <v>22,899.16</v>
+      </c>
+      <c r="E163" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+      </c>
+      <c r="B164" t="str">
+        <v>26,364.88</v>
+      </c>
+      <c r="C164" t="str">
+        <v>26,364.88</v>
+      </c>
+      <c r="D164" t="str">
+        <v>0</v>
+      </c>
+      <c r="E164" t="str">
+        <v>22,899.16</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>0xb8e8680a4852Ae8C79E72Bdb6dC748c8B1496032</v>
+      </c>
+      <c r="B165" t="str">
+        <v>252.57</v>
+      </c>
+      <c r="C165" t="str">
+        <v>252.57</v>
+      </c>
+      <c r="D165" t="str">
+        <v>219.37</v>
+      </c>
+      <c r="E165" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>0x2731b9BC4c6AC6287996741A5A87D6E51D18B2EB</v>
+      </c>
+      <c r="B166" t="str">
+        <v>366.49</v>
+      </c>
+      <c r="C166" t="str">
+        <v>366.49</v>
+      </c>
+      <c r="D166" t="str">
+        <v>0</v>
+      </c>
+      <c r="E166" t="str">
+        <v>318.32</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>0x180D009d48a8B254E88986BC83bF4214F7fBBafA</v>
+      </c>
+      <c r="B167" t="str">
+        <v>1,095.33</v>
+      </c>
+      <c r="C167" t="str">
+        <v>1,095.33</v>
+      </c>
+      <c r="D167" t="str">
+        <v>951.35</v>
+      </c>
+      <c r="E167" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>0xeB0F9489F9aeFB6Bbd8d7f1cc3620898E30b49c0</v>
+      </c>
+      <c r="B168" t="str">
+        <v>1,095.33</v>
+      </c>
+      <c r="C168" t="str">
+        <v>1,095.33</v>
+      </c>
+      <c r="D168" t="str">
+        <v>0</v>
+      </c>
+      <c r="E168" t="str">
+        <v>951.35</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
+      </c>
+      <c r="B169" t="str">
+        <v>264.01</v>
+      </c>
+      <c r="C169" t="str">
+        <v>264.01</v>
+      </c>
+      <c r="D169" t="str">
+        <v>0</v>
+      </c>
+      <c r="E169" t="str">
+        <v>229.31</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>0x264d1e532029b20B6C4dd301d2Cf1D8ba388aD85</v>
+      </c>
+      <c r="B170" t="str">
+        <v>60.57</v>
+      </c>
+      <c r="C170" t="str">
+        <v>60.57</v>
+      </c>
+      <c r="D170" t="str">
+        <v>52.61</v>
+      </c>
+      <c r="E170" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>0xe8214D07dB68ae0aD83B95ea77Bb6f69B6BD8F8d</v>
+      </c>
+      <c r="B171" t="str">
+        <v>0</v>
+      </c>
+      <c r="C171" t="str">
+        <v>141.04</v>
+      </c>
+      <c r="D171" t="str">
+        <v>122.5</v>
+      </c>
+      <c r="E171" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>0x4905D19461Dc2292E426A77804f7EfBe47fe03A1</v>
+      </c>
+      <c r="B172" t="str">
+        <v>80,163.08</v>
+      </c>
+      <c r="C172" t="str">
+        <v>80,163.08</v>
+      </c>
+      <c r="D172" t="str">
+        <v>69,625.46</v>
+      </c>
+      <c r="E172" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
+      </c>
+      <c r="B173" t="str">
+        <v>315.33</v>
+      </c>
+      <c r="C173" t="str">
+        <v>315.33</v>
+      </c>
+      <c r="D173" t="str">
+        <v>273.88</v>
+      </c>
+      <c r="E173" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
+      </c>
+      <c r="B174" t="str">
+        <v>315.33</v>
+      </c>
+      <c r="C174" t="str">
+        <v>315.33</v>
+      </c>
+      <c r="D174" t="str">
+        <v>0</v>
+      </c>
+      <c r="E174" t="str">
+        <v>273.88</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>0x1Bf35e8Cd908D953b84B10a88C74DF7612Ecc660</v>
+      </c>
+      <c r="B175" t="str">
+        <v>86.35</v>
+      </c>
+      <c r="C175" t="str">
+        <v>86.35</v>
+      </c>
+      <c r="D175" t="str">
+        <v>0</v>
+      </c>
+      <c r="E175" t="str">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
+      </c>
+      <c r="B176" t="str">
+        <v>0</v>
+      </c>
+      <c r="C176" t="str">
+        <v>60.82</v>
+      </c>
+      <c r="D176" t="str">
+        <v>52.83</v>
+      </c>
+      <c r="E176" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
+      </c>
+      <c r="B177" t="str">
+        <v>120.41</v>
+      </c>
+      <c r="C177" t="str">
+        <v>120.41</v>
+      </c>
+      <c r="D177" t="str">
+        <v>104.59</v>
+      </c>
+      <c r="E177" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
+      </c>
+      <c r="B178" t="str">
+        <v>244.78</v>
+      </c>
+      <c r="C178" t="str">
+        <v>244.78</v>
+      </c>
+      <c r="D178" t="str">
+        <v>212.61</v>
+      </c>
+      <c r="E178" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
+      </c>
+      <c r="B179" t="str">
+        <v>274.12</v>
+      </c>
+      <c r="C179" t="str">
+        <v>274.12</v>
+      </c>
+      <c r="D179" t="str">
+        <v>0</v>
+      </c>
+      <c r="E179" t="str">
+        <v>238.09</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
+      </c>
+      <c r="B180" t="str">
+        <v>243.19</v>
+      </c>
+      <c r="C180" t="str">
+        <v>243.19</v>
+      </c>
+      <c r="D180" t="str">
+        <v>0</v>
+      </c>
+      <c r="E180" t="str">
+        <v>211.23</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>0xAFA44A7514ad85793Bc10C56DD731aEe4EA854F3</v>
+      </c>
+      <c r="B181" t="str">
+        <v>241.66</v>
+      </c>
+      <c r="C181" t="str">
+        <v>241.66</v>
+      </c>
+      <c r="D181" t="str">
+        <v>0</v>
+      </c>
+      <c r="E181" t="str">
+        <v>209.9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
+      </c>
+      <c r="B182" t="str">
+        <v>1,835.76</v>
+      </c>
+      <c r="C182" t="str">
+        <v>1,835.76</v>
+      </c>
+      <c r="D182" t="str">
+        <v>0</v>
+      </c>
+      <c r="E182" t="str">
+        <v>1,594.45</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
+      </c>
+      <c r="B183" t="str">
+        <v>2,290.77</v>
+      </c>
+      <c r="C183" t="str">
+        <v>2,290.77</v>
+      </c>
+      <c r="D183" t="str">
+        <v>1,989.65</v>
+      </c>
+      <c r="E183" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
+      </c>
+      <c r="B184" t="str">
+        <v>2,290.77</v>
+      </c>
+      <c r="C184" t="str">
+        <v>2,290.77</v>
+      </c>
+      <c r="D184" t="str">
+        <v>0</v>
+      </c>
+      <c r="E184" t="str">
+        <v>1,989.65</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>0x66B6221845b9bd7A029BCCb5523168a5AcE1e013</v>
+      </c>
+      <c r="B185" t="str">
+        <v>307.08</v>
+      </c>
+      <c r="C185" t="str">
+        <v>307.08</v>
+      </c>
+      <c r="D185" t="str">
+        <v>0</v>
+      </c>
+      <c r="E185" t="str">
+        <v>266.72</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>0x22D93B96fcf17f472f82267413e27f511ADd7b2e</v>
+      </c>
+      <c r="B186" t="str">
+        <v>13,345.69</v>
+      </c>
+      <c r="C186" t="str">
+        <v>13,345.69</v>
+      </c>
+      <c r="D186" t="str">
+        <v>11,440.21</v>
+      </c>
+      <c r="E186" t="str">
+        <v>151.16</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+      </c>
+      <c r="B187" t="str">
+        <v>697.03</v>
+      </c>
+      <c r="C187" t="str">
+        <v>697.03</v>
+      </c>
+      <c r="D187" t="str">
+        <v>0</v>
+      </c>
+      <c r="E187" t="str">
+        <v>605.41</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
+      </c>
+      <c r="B188" t="str">
+        <v>57.8</v>
+      </c>
+      <c r="C188" t="str">
+        <v>57.8</v>
+      </c>
+      <c r="D188" t="str">
+        <v>50.21</v>
+      </c>
+      <c r="E188" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+      </c>
+      <c r="B189" t="str">
+        <v>58.87</v>
+      </c>
+      <c r="C189" t="str">
+        <v>58.87</v>
+      </c>
+      <c r="D189" t="str">
+        <v>51.14</v>
+      </c>
+      <c r="E189" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>0xabf7b5b7CdC68F8C01DE6bFD5EAf79da30D8B66A</v>
+      </c>
+      <c r="B190" t="str">
+        <v>342.94</v>
+      </c>
+      <c r="C190" t="str">
+        <v>342.94</v>
+      </c>
+      <c r="D190" t="str">
+        <v>0</v>
+      </c>
+      <c r="E190" t="str">
+        <v>297.86</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>0xf977A3246498673A5D83027183F863598dCa5E21</v>
+      </c>
+      <c r="B191" t="str">
+        <v>119.32</v>
+      </c>
+      <c r="C191" t="str">
+        <v>119.32</v>
+      </c>
+      <c r="D191" t="str">
+        <v>103.64</v>
+      </c>
+      <c r="E191" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>0x86d04b2FA806dce57fF1b99971FF524d0484a2EC</v>
+      </c>
+      <c r="B192" t="str">
+        <v>119.32</v>
+      </c>
+      <c r="C192" t="str">
+        <v>119.32</v>
+      </c>
+      <c r="D192" t="str">
+        <v>0</v>
+      </c>
+      <c r="E192" t="str">
+        <v>103.64</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
+      </c>
+      <c r="B193" t="str">
+        <v>689.86</v>
+      </c>
+      <c r="C193" t="str">
+        <v>689.86</v>
+      </c>
+      <c r="D193" t="str">
+        <v>0</v>
+      </c>
+      <c r="E193" t="str">
+        <v>599.18</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+      </c>
+      <c r="B194" t="str">
+        <v>0</v>
+      </c>
+      <c r="C194" t="str">
+        <v>1,566.62</v>
+      </c>
+      <c r="D194" t="str">
+        <v>0</v>
+      </c>
+      <c r="E194" t="str">
+        <v>1,360.69</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>0x091D2bf74f675Df1d72eD6E07bCB693D56a4163c</v>
+      </c>
+      <c r="B195" t="str">
+        <v>0</v>
+      </c>
+      <c r="C195" t="str">
+        <v>2,718.08</v>
+      </c>
+      <c r="D195" t="str">
+        <v>2,360.79</v>
+      </c>
+      <c r="E195" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>0x883c4BF5F45e8E75C59DdeA8B2ba3Cd40e81047D</v>
+      </c>
+      <c r="B196" t="str">
+        <v>296.14</v>
+      </c>
+      <c r="C196" t="str">
+        <v>296.14</v>
+      </c>
+      <c r="D196" t="str">
+        <v>0</v>
+      </c>
+      <c r="E196" t="str">
+        <v>257.22</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>0x9C4e5edC6A735e4AB68ef04497b64008A955A1A5</v>
+      </c>
+      <c r="B197" t="str">
+        <v>842.84</v>
+      </c>
+      <c r="C197" t="str">
+        <v>842.84</v>
+      </c>
+      <c r="D197" t="str">
+        <v>0</v>
+      </c>
+      <c r="E197" t="str">
+        <v>732.05</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>0x4DF1C6c7973f4E6e3B22149f7b8eFc4389f97C56</v>
+      </c>
+      <c r="B198" t="str">
+        <v>953.32</v>
+      </c>
+      <c r="C198" t="str">
+        <v>953.32</v>
+      </c>
+      <c r="D198" t="str">
+        <v>828.01</v>
+      </c>
+      <c r="E198" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+      </c>
+      <c r="B199" t="str">
+        <v>73.02</v>
+      </c>
+      <c r="C199" t="str">
+        <v>73.02</v>
+      </c>
+      <c r="D199" t="str">
+        <v>63.43</v>
+      </c>
+      <c r="E199" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>0x9964C7C7EB99E6F70dFef18c90D7526a0C13b46F</v>
+      </c>
+      <c r="B200" t="str">
+        <v>2.37</v>
+      </c>
+      <c r="C200" t="str">
+        <v>2.37</v>
+      </c>
+      <c r="D200" t="str">
+        <v>2.06</v>
+      </c>
+      <c r="E200" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+      </c>
+      <c r="B201" t="str">
+        <v>1,275.22</v>
+      </c>
+      <c r="C201" t="str">
+        <v>1,275.22</v>
+      </c>
+      <c r="D201" t="str">
+        <v>0</v>
+      </c>
+      <c r="E201" t="str">
+        <v>1,107.59</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
+      </c>
+      <c r="B202" t="str">
+        <v>323.1</v>
+      </c>
+      <c r="C202" t="str">
+        <v>323.1</v>
+      </c>
+      <c r="D202" t="str">
+        <v>0</v>
+      </c>
+      <c r="E202" t="str">
+        <v>280.63</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>0x5c077b6a51010d308bb6F0Fce9Cd1593d0F78517</v>
+      </c>
+      <c r="B203" t="str">
+        <v>230.3</v>
+      </c>
+      <c r="C203" t="str">
+        <v>230.3</v>
+      </c>
+      <c r="D203" t="str">
+        <v>0</v>
+      </c>
+      <c r="E203" t="str">
+        <v>200.03</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
+      </c>
+      <c r="B204" t="str">
+        <v>1,231.29</v>
+      </c>
+      <c r="C204" t="str">
+        <v>1,231.29</v>
+      </c>
+      <c r="D204" t="str">
+        <v>0</v>
+      </c>
+      <c r="E204" t="str">
+        <v>1,069.44</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+      </c>
+      <c r="B205" t="str">
+        <v>31.08</v>
+      </c>
+      <c r="C205" t="str">
+        <v>31.08</v>
+      </c>
+      <c r="D205" t="str">
+        <v>0</v>
+      </c>
+      <c r="E205" t="str">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>0x454c9119dE1315e24f9644b9778EDA0dF266722E</v>
+      </c>
+      <c r="B206" t="str">
+        <v>1.15</v>
+      </c>
+      <c r="C206" t="str">
+        <v>1.15</v>
+      </c>
+      <c r="D206" t="str">
+        <v>1</v>
+      </c>
+      <c r="E206" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+      </c>
+      <c r="B207" t="str">
+        <v>1,156.32</v>
+      </c>
+      <c r="C207" t="str">
+        <v>1,156.32</v>
+      </c>
+      <c r="D207" t="str">
+        <v>0</v>
+      </c>
+      <c r="E207" t="str">
+        <v>1,004.32</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>0x0a87597E226c758e1f48cf6Bd5aaBBFB250Fcbd7</v>
+      </c>
+      <c r="B208" t="str">
+        <v>62.32</v>
+      </c>
+      <c r="C208" t="str">
+        <v>62.32</v>
+      </c>
+      <c r="D208" t="str">
+        <v>0</v>
+      </c>
+      <c r="E208" t="str">
+        <v>54.13</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>0x84E4F13636D3D15e79CCCC6d7daC2d71eE3503bF</v>
+      </c>
+      <c r="B209" t="str">
+        <v>723.96</v>
+      </c>
+      <c r="C209" t="str">
+        <v>723.96</v>
+      </c>
+      <c r="D209" t="str">
+        <v>628.8</v>
+      </c>
+      <c r="E209" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>0xa63C9B5F146391A5572d2445a4dEFd67554ce7d5</v>
+      </c>
+      <c r="B210" t="str">
+        <v>723.96</v>
+      </c>
+      <c r="C210" t="str">
+        <v>723.96</v>
+      </c>
+      <c r="D210" t="str">
+        <v>0</v>
+      </c>
+      <c r="E210" t="str">
+        <v>628.8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>0x5390651dd0824159FE0e82554feC7b283bCa3745</v>
+      </c>
+      <c r="B211" t="str">
+        <v>1,155.03</v>
+      </c>
+      <c r="C211" t="str">
+        <v>1,155.03</v>
+      </c>
+      <c r="D211" t="str">
+        <v>0</v>
+      </c>
+      <c r="E211" t="str">
+        <v>1,003.2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>0xcCE9F53BB6c0C987b3247CAa3D00Dd845E2112cC</v>
+      </c>
+      <c r="B212" t="str">
+        <v>14.86</v>
+      </c>
+      <c r="C212" t="str">
+        <v>14.86</v>
+      </c>
+      <c r="D212" t="str">
+        <v>12.91</v>
+      </c>
+      <c r="E212" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>0x212A3caD6d1572C706959d2aeF63071e61914bf2</v>
+      </c>
+      <c r="B213" t="str">
+        <v>1,194.59</v>
+      </c>
+      <c r="C213" t="str">
+        <v>1,194.59</v>
+      </c>
+      <c r="D213" t="str">
+        <v>1,037.56</v>
+      </c>
+      <c r="E213" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>0xF1ea664AbbA3452bc6cA6B289a6059613855805B</v>
+      </c>
+      <c r="B214" t="str">
+        <v>1,194.59</v>
+      </c>
+      <c r="C214" t="str">
+        <v>1,194.59</v>
+      </c>
+      <c r="D214" t="str">
+        <v>0</v>
+      </c>
+      <c r="E214" t="str">
+        <v>1,037.56</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
+      </c>
+      <c r="B215" t="str">
+        <v>115.13</v>
+      </c>
+      <c r="C215" t="str">
+        <v>115.13</v>
+      </c>
+      <c r="D215" t="str">
+        <v>0</v>
+      </c>
+      <c r="E215" t="str">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>0x7946f2f0eCd0F96d02f9698d211585F84438801E</v>
+      </c>
+      <c r="B216" t="str">
+        <v>12.33</v>
+      </c>
+      <c r="C216" t="str">
+        <v>12.33</v>
+      </c>
+      <c r="D216" t="str">
+        <v>10.71</v>
+      </c>
+      <c r="E216" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>0x494700b98fE1F432EeF0F5Ca8262D6d903F8a5Ab</v>
+      </c>
+      <c r="B217" t="str">
+        <v>606.56</v>
+      </c>
+      <c r="C217" t="str">
+        <v>606.56</v>
+      </c>
+      <c r="D217" t="str">
+        <v>0</v>
+      </c>
+      <c r="E217" t="str">
+        <v>526.83</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>0x65622631Da29278f372941B24056825563457eA6</v>
+      </c>
+      <c r="B218" t="str">
+        <v>1,373.37</v>
+      </c>
+      <c r="C218" t="str">
+        <v>1,373.37</v>
+      </c>
+      <c r="D218" t="str">
+        <v>1,192.84</v>
+      </c>
+      <c r="E218" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>0x3d5F0A62033206273527Ef33569213E904eC4DdF</v>
+      </c>
+      <c r="B219" t="str">
+        <v>73.57</v>
+      </c>
+      <c r="C219" t="str">
+        <v>73.57</v>
+      </c>
+      <c r="D219" t="str">
+        <v>0</v>
+      </c>
+      <c r="E219" t="str">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>0x3E3309ab5312f6875b6e9bE672b9A43EFb70D760</v>
+      </c>
+      <c r="B220" t="str">
+        <v>11,513.47</v>
+      </c>
+      <c r="C220" t="str">
+        <v>11,513.47</v>
+      </c>
+      <c r="D220" t="str">
+        <v>10,000</v>
+      </c>
+      <c r="E220" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
+      </c>
+      <c r="B221" t="str">
+        <v>11,513.47</v>
+      </c>
+      <c r="C221" t="str">
+        <v>11,513.47</v>
+      </c>
+      <c r="D221" t="str">
+        <v>0</v>
+      </c>
+      <c r="E221" t="str">
+        <v>10,000</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>0x46d47D232d27bdF83FEA707ffd9Ce3e175B2D1dE</v>
+      </c>
+      <c r="B222" t="str">
+        <v>3,844.1</v>
+      </c>
+      <c r="C222" t="str">
+        <v>3,844.1</v>
+      </c>
+      <c r="D222" t="str">
+        <v>0</v>
+      </c>
+      <c r="E222" t="str">
+        <v>3,338.79</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+      </c>
+      <c r="B223" t="str">
+        <v>26.58</v>
+      </c>
+      <c r="C223" t="str">
+        <v>26.58</v>
+      </c>
+      <c r="D223" t="str">
+        <v>0</v>
+      </c>
+      <c r="E223" t="str">
+        <v>23.09</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>0xd2147a430DCfc5b141adcdc02ba0bD41120932c5</v>
+      </c>
+      <c r="B224" t="str">
+        <v>5.75</v>
+      </c>
+      <c r="C224" t="str">
+        <v>5.75</v>
+      </c>
+      <c r="D224" t="str">
+        <v>5</v>
+      </c>
+      <c r="E224" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>0xeD379BA7ce9E42a5C4dce34C89646e4509c46d86</v>
+      </c>
+      <c r="B225" t="str">
+        <v>1,480.54</v>
+      </c>
+      <c r="C225" t="str">
+        <v>1,480.54</v>
+      </c>
+      <c r="D225" t="str">
+        <v>1,285.92</v>
+      </c>
+      <c r="E225" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>0xBcD30108a8A27A9eB2D42B734517762A40a2b893</v>
+      </c>
+      <c r="B226" t="str">
+        <v>376.26</v>
+      </c>
+      <c r="C226" t="str">
+        <v>376.26</v>
+      </c>
+      <c r="D226" t="str">
+        <v>326.8</v>
+      </c>
+      <c r="E226" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>0x2A1Cc6c77782EA6BE6C08d61430A79E31Ea4efDf</v>
+      </c>
+      <c r="B227" t="str">
+        <v>312.47</v>
+      </c>
+      <c r="C227" t="str">
+        <v>312.47</v>
+      </c>
+      <c r="D227" t="str">
+        <v>0</v>
+      </c>
+      <c r="E227" t="str">
+        <v>271.4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>0x7e5Ea20315270AD29527DA6881aC135F043F4E47</v>
+      </c>
+      <c r="B228" t="str">
+        <v>153.26</v>
+      </c>
+      <c r="C228" t="str">
+        <v>153.26</v>
+      </c>
+      <c r="D228" t="str">
+        <v>133.12</v>
+      </c>
+      <c r="E228" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>0x5C55e86A38d24BE5fF7f12221BF674C95FB188a7</v>
+      </c>
+      <c r="B229" t="str">
+        <v>153.26</v>
+      </c>
+      <c r="C229" t="str">
+        <v>153.26</v>
+      </c>
+      <c r="D229" t="str">
+        <v>0</v>
+      </c>
+      <c r="E229" t="str">
+        <v>133.12</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>0x0b6fD0e783d6cfC912eAb83d812002d8f659b1C9</v>
+      </c>
+      <c r="B230" t="str">
+        <v>1,874.05</v>
+      </c>
+      <c r="C230" t="str">
+        <v>1,874.05</v>
+      </c>
+      <c r="D230" t="str">
+        <v>1,627.71</v>
+      </c>
+      <c r="E230" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>0xF6259D890819865117BBFEf9761f0eE159b48b16</v>
+      </c>
+      <c r="B231" t="str">
+        <v>1,874.05</v>
+      </c>
+      <c r="C231" t="str">
+        <v>1,874.05</v>
+      </c>
+      <c r="D231" t="str">
+        <v>0</v>
+      </c>
+      <c r="E231" t="str">
+        <v>1,627.71</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
+      </c>
+      <c r="B232" t="str">
+        <v>0</v>
+      </c>
+      <c r="C232" t="str">
+        <v>118.3</v>
+      </c>
+      <c r="D232" t="str">
+        <v>102.75</v>
+      </c>
+      <c r="E232" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>0xf78D0cdFB459eD9CC19eEb7c22B5F193d7662fcC</v>
+      </c>
+      <c r="B233" t="str">
+        <v>5,912.07</v>
+      </c>
+      <c r="C233" t="str">
+        <v>5,912.07</v>
+      </c>
+      <c r="D233" t="str">
+        <v>5,134.92</v>
+      </c>
+      <c r="E233" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>0x1Ce9aCdd550e245B65233252F91541467695f3f3</v>
+      </c>
+      <c r="B234" t="str">
+        <v>13,171.65</v>
+      </c>
+      <c r="C234" t="str">
+        <v>13,171.65</v>
+      </c>
+      <c r="D234" t="str">
+        <v>0</v>
+      </c>
+      <c r="E234" t="str">
+        <v>11,440.21</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B235" t="str">
+        <v>3,035,298.25</v>
+      </c>
+      <c r="C235" t="str">
+        <v>3,205,127.04</v>
+      </c>
+      <c r="D235" t="str">
+        <v>922,218.27</v>
+      </c>
+      <c r="E235" t="str">
+        <v>1,861,588.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E235"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E214"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -39752,16 +43762,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
+        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
       </c>
       <c r="B2" t="str">
-        <v>206.3</v>
+        <v>40.37</v>
       </c>
       <c r="C2" t="str">
-        <v>206.3</v>
+        <v>40.37</v>
       </c>
       <c r="D2" t="str">
-        <v>179.19</v>
+        <v>26.08</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -39769,33 +43779,33 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0xa6A4BE6499cfdd7E94Cd1BF5498533FdCbb6CE5d</v>
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
       </c>
       <c r="B3" t="str">
-        <v>140,082.76</v>
+        <v>110,977.4</v>
       </c>
       <c r="C3" t="str">
-        <v>140,082.76</v>
+        <v>110,977.4</v>
       </c>
       <c r="D3" t="str">
-        <v>120,763.96</v>
+        <v>29,666.25</v>
       </c>
       <c r="E3" t="str">
-        <v>904.6</v>
+        <v>42,013.46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
       </c>
       <c r="B4" t="str">
-        <v>1,719.66</v>
+        <v>8,682.08</v>
       </c>
       <c r="C4" t="str">
-        <v>1,719.66</v>
+        <v>8,682.08</v>
       </c>
       <c r="D4" t="str">
-        <v>1,493.61</v>
+        <v>5,607.71</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
@@ -39803,84 +43813,84 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0x7B82007d91312Bb84E57A79c6df7Fa3928beD152</v>
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
       </c>
       <c r="B5" t="str">
-        <v>331.36</v>
+        <v>4,895.7</v>
       </c>
       <c r="C5" t="str">
-        <v>331.36</v>
+        <v>4,895.7</v>
       </c>
       <c r="D5" t="str">
-        <v>287.81</v>
+        <v>1,165.2</v>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v>1,996.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
       </c>
       <c r="B6" t="str">
-        <v>5,914.78</v>
+        <v>2,119.95</v>
       </c>
       <c r="C6" t="str">
-        <v>5,914.78</v>
+        <v>2,119.95</v>
       </c>
       <c r="D6" t="str">
-        <v>0</v>
+        <v>1,369.27</v>
       </c>
       <c r="E6" t="str">
-        <v>5,137.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
       </c>
       <c r="B7" t="str">
-        <v>337,686.94</v>
+        <v>40,073.29</v>
       </c>
       <c r="C7" t="str">
-        <v>337,686.94</v>
+        <v>40,073.29</v>
       </c>
       <c r="D7" t="str">
-        <v>38,200.99</v>
+        <v>10,453.73</v>
       </c>
       <c r="E7" t="str">
-        <v>255,096.23</v>
+        <v>15,429.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0xdfd7445EF7dB056F68cEdEB4c1A709d02C0c3AA7</v>
+        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
       </c>
       <c r="B8" t="str">
-        <v>247.19</v>
+        <v>623.04</v>
       </c>
       <c r="C8" t="str">
-        <v>247.19</v>
+        <v>623.04</v>
       </c>
       <c r="D8" t="str">
-        <v>183.06</v>
+        <v>402.42</v>
       </c>
       <c r="E8" t="str">
-        <v>31.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0x72d20dcB42DC91D2Dc1DB60375e1945e23708130</v>
+        <v>0x620964B76328a1Ec5039361877eA64510A241139</v>
       </c>
       <c r="B9" t="str">
-        <v>714.03</v>
+        <v>387.06</v>
       </c>
       <c r="C9" t="str">
-        <v>714.03</v>
+        <v>387.06</v>
       </c>
       <c r="D9" t="str">
-        <v>620.17</v>
+        <v>250</v>
       </c>
       <c r="E9" t="str">
         <v>0</v>
@@ -39888,254 +43898,254 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
       </c>
       <c r="B10" t="str">
-        <v>828.52</v>
+        <v>139,661.59</v>
       </c>
       <c r="C10" t="str">
-        <v>828.52</v>
+        <v>139,661.59</v>
       </c>
       <c r="D10" t="str">
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>719.61</v>
+        <v>90,206.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+        <v>0x9ff812DfE804e2BF400Fd6fD22293203674DDdEe</v>
       </c>
       <c r="B11" t="str">
-        <v>50,839.57</v>
+        <v>5,065.93</v>
       </c>
       <c r="C11" t="str">
-        <v>50,839.57</v>
+        <v>5,065.93</v>
       </c>
       <c r="D11" t="str">
-        <v>33,913.39</v>
+        <v>3,272.06</v>
       </c>
       <c r="E11" t="str">
-        <v>10,243.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
       </c>
       <c r="B12" t="str">
-        <v>442,773.84</v>
+        <v>48,241.7</v>
       </c>
       <c r="C12" t="str">
-        <v>442,773.84</v>
+        <v>48,241.7</v>
       </c>
       <c r="D12" t="str">
-        <v>855.42</v>
+        <v>1,277.49</v>
       </c>
       <c r="E12" t="str">
-        <v>383,714.78</v>
+        <v>29,881.57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
       </c>
       <c r="B13" t="str">
-        <v>420.27</v>
+        <v>485,179.95</v>
       </c>
       <c r="C13" t="str">
-        <v>420.27</v>
+        <v>485,179.95</v>
       </c>
       <c r="D13" t="str">
-        <v>365.03</v>
+        <v>104,404.47</v>
       </c>
       <c r="E13" t="str">
-        <v>0</v>
+        <v>208,970.67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>0x5Fc4faF3934548c57d66f1179C2991cEd028E61F</v>
+        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
       </c>
       <c r="B14" t="str">
-        <v>141.52</v>
+        <v>166.6</v>
       </c>
       <c r="C14" t="str">
-        <v>141.52</v>
+        <v>166.6</v>
       </c>
       <c r="D14" t="str">
-        <v>122.92</v>
+        <v>0</v>
       </c>
       <c r="E14" t="str">
-        <v>0</v>
+        <v>107.61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+        <v>0x02A85f9442a7aED8DeC1555014deF15fC017055D</v>
       </c>
       <c r="B15" t="str">
-        <v>10,617.64</v>
+        <v>108.81</v>
       </c>
       <c r="C15" t="str">
-        <v>10,617.64</v>
+        <v>108.81</v>
       </c>
       <c r="D15" t="str">
-        <v>6,156.2</v>
+        <v>70.28</v>
       </c>
       <c r="E15" t="str">
-        <v>3,065.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>0xE910838B91486D4Fef2d0C4a77a3819D7600D36b</v>
+        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
       </c>
       <c r="B16" t="str">
-        <v>80.87</v>
+        <v>15.06</v>
       </c>
       <c r="C16" t="str">
-        <v>80.87</v>
+        <v>15.06</v>
       </c>
       <c r="D16" t="str">
-        <v>70.24</v>
+        <v>8.32</v>
       </c>
       <c r="E16" t="str">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>0x88bA50adD63cB2b90Eb3277cb4AC27Ca7b4fa596</v>
+        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
       </c>
       <c r="B17" t="str">
-        <v>1,469.83</v>
+        <v>2,832.36</v>
       </c>
       <c r="C17" t="str">
-        <v>1,469.83</v>
+        <v>2,832.36</v>
       </c>
       <c r="D17" t="str">
-        <v>1,206.38</v>
+        <v>321.93</v>
       </c>
       <c r="E17" t="str">
-        <v>70.24</v>
+        <v>1,507.48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
+        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
       </c>
       <c r="B18" t="str">
-        <v>35.7</v>
+        <v>89,542.69</v>
       </c>
       <c r="C18" t="str">
-        <v>35.7</v>
+        <v>89,542.69</v>
       </c>
       <c r="D18" t="str">
-        <v>31.01</v>
+        <v>5,000</v>
       </c>
       <c r="E18" t="str">
-        <v>0</v>
+        <v>52,835.15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>0xD57b7a370729846A41b8ab3711cAf0c598962f41</v>
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
       </c>
       <c r="B19" t="str">
-        <v>9.39</v>
+        <v>41.81</v>
       </c>
       <c r="C19" t="str">
-        <v>9.39</v>
+        <v>41.81</v>
       </c>
       <c r="D19" t="str">
-        <v>8.16</v>
+        <v>0</v>
       </c>
       <c r="E19" t="str">
-        <v>0</v>
+        <v>27.01</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
+        <v>0xE233390f362B1dC22F621feead135D828a39781A</v>
       </c>
       <c r="B20" t="str">
-        <v>6,598.41</v>
+        <v>9.52</v>
       </c>
       <c r="C20" t="str">
-        <v>6,598.41</v>
+        <v>9.52</v>
       </c>
       <c r="D20" t="str">
-        <v>1,839.97</v>
+        <v>6.15</v>
       </c>
       <c r="E20" t="str">
-        <v>3,891.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
       </c>
       <c r="B21" t="str">
-        <v>20,974.15</v>
+        <v>391.03</v>
       </c>
       <c r="C21" t="str">
-        <v>20,974.15</v>
+        <v>391.03</v>
       </c>
       <c r="D21" t="str">
-        <v>15,652.96</v>
+        <v>252.57</v>
       </c>
       <c r="E21" t="str">
-        <v>2,564.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>0xAbeDa44017Fc98A48589396e9E030D92c9120125</v>
+        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
       </c>
       <c r="B22" t="str">
-        <v>11,739.55</v>
+        <v>18,325.1</v>
       </c>
       <c r="C22" t="str">
-        <v>11,739.55</v>
+        <v>18,325.1</v>
       </c>
       <c r="D22" t="str">
-        <v>10,196.36</v>
+        <v>0</v>
       </c>
       <c r="E22" t="str">
-        <v>0</v>
+        <v>11,836.09</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+        <v>0x24EC4345706a30747bA16dCA3e9751B73b72C78a</v>
       </c>
       <c r="B23" t="str">
-        <v>121,384.69</v>
+        <v>550.53</v>
       </c>
       <c r="C23" t="str">
-        <v>121,384.69</v>
+        <v>550.53</v>
       </c>
       <c r="D23" t="str">
-        <v>266.72</v>
+        <v>355.59</v>
       </c>
       <c r="E23" t="str">
-        <v>105,161.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
       </c>
       <c r="B24" t="str">
-        <v>2,304.29</v>
+        <v>58,516.83</v>
       </c>
       <c r="C24" t="str">
-        <v>2,304.29</v>
+        <v>58,516.83</v>
       </c>
       <c r="D24" t="str">
-        <v>2,001.39</v>
+        <v>37,795.71</v>
       </c>
       <c r="E24" t="str">
         <v>0</v>
@@ -40143,33 +44153,33 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
+        <v>0x964087989Df5D5e89cF7527b72A3949367a337bA</v>
       </c>
       <c r="B25" t="str">
-        <v>2,671.86</v>
+        <v>1,625.79</v>
       </c>
       <c r="C25" t="str">
-        <v>2,671.86</v>
+        <v>1,625.79</v>
       </c>
       <c r="D25" t="str">
-        <v>315.91</v>
+        <v>1,050.09</v>
       </c>
       <c r="E25" t="str">
-        <v>2,004.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>0x27dF802924227b28Ad0Bec076Bd7f1D223441bF5</v>
+        <v>0x72d20dcB42DC91D2Dc1DB60375e1945e23708130</v>
       </c>
       <c r="B26" t="str">
-        <v>236.88</v>
+        <v>1,233.03</v>
       </c>
       <c r="C26" t="str">
-        <v>236.88</v>
+        <v>1,233.03</v>
       </c>
       <c r="D26" t="str">
-        <v>205.75</v>
+        <v>796.41</v>
       </c>
       <c r="E26" t="str">
         <v>0</v>
@@ -40177,101 +44187,101 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>0x80BEe177a79d87c112CB40694182fAa7351a1CF4</v>
+        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
       </c>
       <c r="B27" t="str">
-        <v>26,270.72</v>
+        <v>1,233.03</v>
       </c>
       <c r="C27" t="str">
-        <v>26,270.72</v>
+        <v>1,233.03</v>
       </c>
       <c r="D27" t="str">
         <v>0</v>
       </c>
       <c r="E27" t="str">
-        <v>22,817.38</v>
+        <v>796.41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
+        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
       </c>
       <c r="B28" t="str">
-        <v>1,300.67</v>
+        <v>1,264.78</v>
       </c>
       <c r="C28" t="str">
-        <v>1,300.67</v>
+        <v>1,264.78</v>
       </c>
       <c r="D28" t="str">
-        <v>624.03</v>
+        <v>816.92</v>
       </c>
       <c r="E28" t="str">
-        <v>505.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
+        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
       </c>
       <c r="B29" t="str">
-        <v>2,321.12</v>
+        <v>47.6</v>
       </c>
       <c r="C29" t="str">
-        <v>2,321.12</v>
+        <v>47.6</v>
       </c>
       <c r="D29" t="str">
-        <v>0</v>
+        <v>30.75</v>
       </c>
       <c r="E29" t="str">
-        <v>2,016.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
+        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
       </c>
       <c r="B30" t="str">
-        <v>181.91</v>
+        <v>47.6</v>
       </c>
       <c r="C30" t="str">
-        <v>181.91</v>
+        <v>47.6</v>
       </c>
       <c r="D30" t="str">
         <v>0</v>
       </c>
       <c r="E30" t="str">
-        <v>158</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>0xBC3f8985F75c8628C3a6687EB91e21f50C961a5D</v>
+        <v>0x7A7d706D6578FE3DD1540dC69b31de7C8C0c20d2</v>
       </c>
       <c r="B31" t="str">
-        <v>253.6</v>
+        <v>86.28</v>
       </c>
       <c r="C31" t="str">
-        <v>253.6</v>
+        <v>86.28</v>
       </c>
       <c r="D31" t="str">
-        <v>0</v>
+        <v>55.73</v>
       </c>
       <c r="E31" t="str">
-        <v>220.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+        <v>0xf78D0cdFB459eD9CC19eEb7c22B5F193d7662fcC</v>
       </c>
       <c r="B32" t="str">
-        <v>376.52</v>
+        <v>18,163.48</v>
       </c>
       <c r="C32" t="str">
-        <v>376.52</v>
+        <v>18,163.48</v>
       </c>
       <c r="D32" t="str">
-        <v>327.03</v>
+        <v>11,731.7</v>
       </c>
       <c r="E32" t="str">
         <v>0</v>
@@ -40279,118 +44289,118 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>0x84A49c2862331D141Cc810ABFa9598bA8EFa1309</v>
+        <v>0x5bFeF23589734f0a9D3e009953d658E244198C04</v>
       </c>
       <c r="B33" t="str">
-        <v>36.19</v>
+        <v>348.46</v>
       </c>
       <c r="C33" t="str">
-        <v>36.19</v>
+        <v>348.46</v>
       </c>
       <c r="D33" t="str">
-        <v>0</v>
+        <v>225.07</v>
       </c>
       <c r="E33" t="str">
-        <v>31.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
       </c>
       <c r="B34" t="str">
-        <v>240,479.48</v>
+        <v>375.3</v>
       </c>
       <c r="C34" t="str">
-        <v>240,479.48</v>
+        <v>375.3</v>
       </c>
       <c r="D34" t="str">
-        <v>69,623.25</v>
+        <v>242.41</v>
       </c>
       <c r="E34" t="str">
-        <v>139,244.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>0x6BC61C0aD543265EC67164F11d3e57c42BFC3a17</v>
+        <v>0xD957cc84a2B565e7572a8F02A39e487466c3bFF7</v>
       </c>
       <c r="B35" t="str">
-        <v>19.08</v>
+        <v>349.45</v>
       </c>
       <c r="C35" t="str">
-        <v>19.08</v>
+        <v>349.45</v>
       </c>
       <c r="D35" t="str">
-        <v>16.58</v>
+        <v>0</v>
       </c>
       <c r="E35" t="str">
-        <v>0</v>
+        <v>225.71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+        <v>0x0e2EFb5b86088E4e301dDe733108349E17B1edaa</v>
       </c>
       <c r="B36" t="str">
-        <v>247.6</v>
+        <v>303.14</v>
       </c>
       <c r="C36" t="str">
-        <v>247.6</v>
+        <v>303.14</v>
       </c>
       <c r="D36" t="str">
-        <v>110.47</v>
+        <v>195.8</v>
       </c>
       <c r="E36" t="str">
-        <v>104.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+        <v>0xd0bc3cdF90AcCa1e338C80c97e7b5C6e7eCedEd7</v>
       </c>
       <c r="B37" t="str">
-        <v>367.56</v>
+        <v>19.84</v>
       </c>
       <c r="C37" t="str">
-        <v>367.56</v>
+        <v>19.84</v>
       </c>
       <c r="D37" t="str">
-        <v>3.34</v>
+        <v>12.82</v>
       </c>
       <c r="E37" t="str">
-        <v>315.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>0x2b7b77412BDb929a9f19584C9DC4657CCc5a7BFa</v>
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
       </c>
       <c r="B38" t="str">
-        <v>366.49</v>
+        <v>43.21</v>
       </c>
       <c r="C38" t="str">
-        <v>366.49</v>
+        <v>43.21</v>
       </c>
       <c r="D38" t="str">
-        <v>318.32</v>
+        <v>0</v>
       </c>
       <c r="E38" t="str">
-        <v>0</v>
+        <v>27.91</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
+        <v>0x8Bd36e5768cc249C5Bd016DFC10f6EFC3D4EC4FA</v>
       </c>
       <c r="B39" t="str">
-        <v>264.01</v>
+        <v>40.14</v>
       </c>
       <c r="C39" t="str">
-        <v>264.01</v>
+        <v>40.14</v>
       </c>
       <c r="D39" t="str">
-        <v>229.31</v>
+        <v>25.93</v>
       </c>
       <c r="E39" t="str">
         <v>0</v>
@@ -40398,16 +44408,16 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>0x64DCe6ad8e1FaBE148830B9B3743Eea03f1dFd4E</v>
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
       </c>
       <c r="B40" t="str">
-        <v>36.4</v>
+        <v>50.24</v>
       </c>
       <c r="C40" t="str">
-        <v>36.4</v>
+        <v>50.24</v>
       </c>
       <c r="D40" t="str">
-        <v>31.62</v>
+        <v>32.45</v>
       </c>
       <c r="E40" t="str">
         <v>0</v>
@@ -40415,16 +44425,16 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>0x64d564A6A6003a9fcb44f8F50b9A3C7bBea2a7E7</v>
+        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
       </c>
       <c r="B41" t="str">
-        <v>577.03</v>
+        <v>402.54</v>
       </c>
       <c r="C41" t="str">
-        <v>577.03</v>
+        <v>402.54</v>
       </c>
       <c r="D41" t="str">
-        <v>501.18</v>
+        <v>260</v>
       </c>
       <c r="E41" t="str">
         <v>0</v>
@@ -40432,16 +44442,16 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+        <v>0x942E746C384bec88Dfa6164e8d699858E9988FeB</v>
       </c>
       <c r="B42" t="str">
-        <v>2,666.18</v>
+        <v>396.5</v>
       </c>
       <c r="C42" t="str">
-        <v>2,666.18</v>
+        <v>396.5</v>
       </c>
       <c r="D42" t="str">
-        <v>2,315.71</v>
+        <v>256.1</v>
       </c>
       <c r="E42" t="str">
         <v>0</v>
@@ -40449,50 +44459,50 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+        <v>0xE02A23F9DA0971f65a548e3Da4F247a5ed6Fc82d</v>
       </c>
       <c r="B43" t="str">
-        <v>6,998.29</v>
+        <v>154.65</v>
       </c>
       <c r="C43" t="str">
-        <v>6,998.29</v>
+        <v>154.65</v>
       </c>
       <c r="D43" t="str">
-        <v>4,238.38</v>
+        <v>99.89</v>
       </c>
       <c r="E43" t="str">
-        <v>1,839.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
+        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
       </c>
       <c r="B44" t="str">
-        <v>539.4</v>
+        <v>3,081.89</v>
       </c>
       <c r="C44" t="str">
-        <v>539.4</v>
+        <v>3,081.89</v>
       </c>
       <c r="D44" t="str">
-        <v>468.5</v>
+        <v>0</v>
       </c>
       <c r="E44" t="str">
-        <v>0</v>
+        <v>1,990.58</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
+        <v>0x8060070C9811bdbAeA20fd829033CFC77b498d99</v>
       </c>
       <c r="B45" t="str">
-        <v>91.09</v>
+        <v>7,484.39</v>
       </c>
       <c r="C45" t="str">
-        <v>91.09</v>
+        <v>7,484.39</v>
       </c>
       <c r="D45" t="str">
-        <v>79.12</v>
+        <v>4,834.13</v>
       </c>
       <c r="E45" t="str">
         <v>0</v>
@@ -40500,16 +44510,16 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>0x04d9f35C7c292ca2c75C498563b48123C0662e19</v>
+        <v>0xf2278c9CE9438A1e24F1BE11Ab0B399A03baB717</v>
       </c>
       <c r="B46" t="str">
-        <v>585.67</v>
+        <v>69.74</v>
       </c>
       <c r="C46" t="str">
-        <v>585.67</v>
+        <v>69.74</v>
       </c>
       <c r="D46" t="str">
-        <v>508.69</v>
+        <v>45.05</v>
       </c>
       <c r="E46" t="str">
         <v>0</v>
@@ -40517,16 +44527,16 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>0x02A85f9442a7aED8DeC1555014deF15fC017055D</v>
+        <v>0x27dF802924227b28Ad0Bec076Bd7f1D223441bF5</v>
       </c>
       <c r="B47" t="str">
-        <v>224.22</v>
+        <v>251.1</v>
       </c>
       <c r="C47" t="str">
-        <v>224.22</v>
+        <v>251.1</v>
       </c>
       <c r="D47" t="str">
-        <v>194.75</v>
+        <v>162.19</v>
       </c>
       <c r="E47" t="str">
         <v>0</v>
@@ -40534,33 +44544,33 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>0xeb9Ea287a5BD59731C6fbDEfd9e81dAa4Dc7eB11</v>
+        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
       </c>
       <c r="B48" t="str">
-        <v>1,566.62</v>
+        <v>6,302.46</v>
       </c>
       <c r="C48" t="str">
-        <v>1,566.62</v>
+        <v>6,302.46</v>
       </c>
       <c r="D48" t="str">
-        <v>1,360.69</v>
+        <v>0</v>
       </c>
       <c r="E48" t="str">
-        <v>0</v>
+        <v>4,070.73</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>0x65ED1e1351640D112aeAc04d4988B6916a5f62dc</v>
+        <v>0xD35Bb0C4b4E537D54f14563fA7790403f046f6E0</v>
       </c>
       <c r="B49" t="str">
-        <v>296.14</v>
+        <v>23,265.51</v>
       </c>
       <c r="C49" t="str">
-        <v>296.14</v>
+        <v>23,265.51</v>
       </c>
       <c r="D49" t="str">
-        <v>257.22</v>
+        <v>15,027.07</v>
       </c>
       <c r="E49" t="str">
         <v>0</v>
@@ -40568,16 +44578,16 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
+        <v>0xdFdf143A6a12185023e01ddC61092Ac97eCB6c05</v>
       </c>
       <c r="B50" t="str">
-        <v>40.87</v>
+        <v>232.23</v>
       </c>
       <c r="C50" t="str">
-        <v>40.87</v>
+        <v>232.23</v>
       </c>
       <c r="D50" t="str">
-        <v>35.5</v>
+        <v>150</v>
       </c>
       <c r="E50" t="str">
         <v>0</v>
@@ -40585,118 +44595,118 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>0x8060070C9811bdbAeA20fd829033CFC77b498d99</v>
+        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
       </c>
       <c r="B51" t="str">
-        <v>5,833.01</v>
+        <v>246.49</v>
       </c>
       <c r="C51" t="str">
-        <v>5,833.01</v>
+        <v>246.49</v>
       </c>
       <c r="D51" t="str">
-        <v>5,066.25</v>
+        <v>0</v>
       </c>
       <c r="E51" t="str">
-        <v>0</v>
+        <v>159.21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>0x4CEbE974145E6796dB356F3689082D2d1eEf02Bf</v>
+        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
       </c>
       <c r="B52" t="str">
-        <v>1,231.29</v>
+        <v>2,534.14</v>
       </c>
       <c r="C52" t="str">
-        <v>1,231.29</v>
+        <v>2,534.14</v>
       </c>
       <c r="D52" t="str">
-        <v>1,069.44</v>
+        <v>0</v>
       </c>
       <c r="E52" t="str">
-        <v>0</v>
+        <v>1,636.79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
       </c>
       <c r="B53" t="str">
-        <v>37.51</v>
+        <v>57.53</v>
       </c>
       <c r="C53" t="str">
-        <v>37.51</v>
+        <v>57.53</v>
       </c>
       <c r="D53" t="str">
-        <v>32.58</v>
+        <v>0</v>
       </c>
       <c r="E53" t="str">
-        <v>0</v>
+        <v>37.16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
+        <v>0x1A24A8CDa46ACac40606af1D233dAfF9AEe66e2f</v>
       </c>
       <c r="B54" t="str">
-        <v>648.66</v>
+        <v>249.79</v>
       </c>
       <c r="C54" t="str">
-        <v>648.66</v>
+        <v>249.79</v>
       </c>
       <c r="D54" t="str">
-        <v>288.4</v>
+        <v>0</v>
       </c>
       <c r="E54" t="str">
-        <v>275</v>
+        <v>161.34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>0x4B3D17974c2F79fEf5D495F082e9eC7d1FD95a06</v>
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
       </c>
       <c r="B55" t="str">
-        <v>1,112.9</v>
+        <v>1,244.81</v>
       </c>
       <c r="C55" t="str">
-        <v>1,112.9</v>
+        <v>1,244.81</v>
       </c>
       <c r="D55" t="str">
-        <v>966.61</v>
+        <v>0</v>
       </c>
       <c r="E55" t="str">
-        <v>0</v>
+        <v>804.02</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
       </c>
       <c r="B56" t="str">
-        <v>1,112.9</v>
+        <v>56,735.56</v>
       </c>
       <c r="C56" t="str">
-        <v>1,112.9</v>
+        <v>56,735.56</v>
       </c>
       <c r="D56" t="str">
         <v>0</v>
       </c>
       <c r="E56" t="str">
-        <v>966.61</v>
+        <v>36,645.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>0x325f292A70A46EE656b268D25EEFe5D88DfaF539</v>
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
       </c>
       <c r="B57" t="str">
-        <v>0</v>
+        <v>768.57</v>
       </c>
       <c r="C57" t="str">
-        <v>606.56</v>
+        <v>768.57</v>
       </c>
       <c r="D57" t="str">
-        <v>526.83</v>
+        <v>496.42</v>
       </c>
       <c r="E57" t="str">
         <v>0</v>
@@ -40704,16 +44714,16 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>0x3e666FADbdC565692DEc4aB6A95CaaA708d28d76</v>
+        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
       </c>
       <c r="B58" t="str">
-        <v>1,972.67</v>
+        <v>1,364.77</v>
       </c>
       <c r="C58" t="str">
-        <v>1,972.67</v>
+        <v>1,364.77</v>
       </c>
       <c r="D58" t="str">
-        <v>1,713.36</v>
+        <v>881.5</v>
       </c>
       <c r="E58" t="str">
         <v>0</v>
@@ -40721,118 +44731,118 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
       </c>
       <c r="B59" t="str">
-        <v>262.76</v>
+        <v>22,090.24</v>
       </c>
       <c r="C59" t="str">
-        <v>262.76</v>
+        <v>22,090.24</v>
       </c>
       <c r="D59" t="str">
-        <v>0</v>
+        <v>14,095.25</v>
       </c>
       <c r="E59" t="str">
-        <v>228.22</v>
+        <v>172.72</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
       </c>
       <c r="B60" t="str">
-        <v>2,712.59</v>
+        <v>23,638.94</v>
       </c>
       <c r="C60" t="str">
-        <v>2,712.59</v>
+        <v>23,638.94</v>
       </c>
       <c r="D60" t="str">
-        <v>106.02</v>
+        <v>15,268.27</v>
       </c>
       <c r="E60" t="str">
-        <v>2,250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>0x54241C1A4d287D49c5f815467708db4247DFA763</v>
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
       </c>
       <c r="B61" t="str">
-        <v>438.06</v>
+        <v>0</v>
       </c>
       <c r="C61" t="str">
-        <v>438.06</v>
+        <v>23,638.94</v>
       </c>
       <c r="D61" t="str">
-        <v>53.68</v>
+        <v>0</v>
       </c>
       <c r="E61" t="str">
-        <v>326.8</v>
+        <v>15,268.27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
+        <v>0x2A1Cc6c77782EA6BE6C08d61430A79E31Ea4efDf</v>
       </c>
       <c r="B62" t="str">
-        <v>316.62</v>
+        <v>863.42</v>
       </c>
       <c r="C62" t="str">
-        <v>316.62</v>
+        <v>863.42</v>
       </c>
       <c r="D62" t="str">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="E62" t="str">
-        <v>0</v>
+        <v>557.68</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>0xDbfd080A579b7DFc5D99834C86ffd543b688c864</v>
+        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
       </c>
       <c r="B63" t="str">
-        <v>603.78</v>
+        <v>5,868.6</v>
       </c>
       <c r="C63" t="str">
-        <v>603.78</v>
+        <v>5,868.6</v>
       </c>
       <c r="D63" t="str">
-        <v>524.42</v>
+        <v>2,973.58</v>
       </c>
       <c r="E63" t="str">
-        <v>0</v>
+        <v>816.92</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>0x7E92D8b1848D0646c369501455C363f687DFc93D</v>
+        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
       </c>
       <c r="B64" t="str">
-        <v>129.76</v>
+        <v>23,984.94</v>
       </c>
       <c r="C64" t="str">
-        <v>129.76</v>
+        <v>23,984.94</v>
       </c>
       <c r="D64" t="str">
-        <v>112.71</v>
+        <v>12,518.17</v>
       </c>
       <c r="E64" t="str">
-        <v>0</v>
+        <v>2,973.58</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>0x4D30408614E40276712949ACbbF49853eA606b4a</v>
+        <v>0x143A47CAF24904a750242e138F31ADd7F6999Cb5</v>
       </c>
       <c r="B65" t="str">
-        <v>61.6</v>
+        <v>17.1</v>
       </c>
       <c r="C65" t="str">
-        <v>61.6</v>
+        <v>17.1</v>
       </c>
       <c r="D65" t="str">
-        <v>53.51</v>
+        <v>11.05</v>
       </c>
       <c r="E65" t="str">
         <v>0</v>
@@ -40840,186 +44850,186 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>0xf6732447a0Da3D8973897e247cf04f53B87Cfa2e</v>
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
       </c>
       <c r="B66" t="str">
-        <v>114.48</v>
+        <v>144.83</v>
       </c>
       <c r="C66" t="str">
-        <v>114.48</v>
+        <v>144.83</v>
       </c>
       <c r="D66" t="str">
-        <v>99.44</v>
+        <v>0</v>
       </c>
       <c r="E66" t="str">
-        <v>0</v>
+        <v>93.55</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
+        <v>0xE3060D70A15f2EdFb390D66e60467Da6F5ECA1C7</v>
       </c>
       <c r="B67" t="str">
-        <v>100,016.55</v>
+        <v>194.04</v>
       </c>
       <c r="C67" t="str">
-        <v>100,016.55</v>
+        <v>194.04</v>
       </c>
       <c r="D67" t="str">
-        <v>1,474.44</v>
+        <v>125.33</v>
       </c>
       <c r="E67" t="str">
-        <v>85,394.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
+        <v>0xD7Be7655070f986B3E311EE04cc9aa87Cd11ab5d</v>
       </c>
       <c r="B68" t="str">
-        <v>139,041.25</v>
+        <v>194.04</v>
       </c>
       <c r="C68" t="str">
-        <v>139,041.25</v>
+        <v>194.04</v>
       </c>
       <c r="D68" t="str">
         <v>0</v>
       </c>
       <c r="E68" t="str">
-        <v>120,763.96</v>
+        <v>125.33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
       </c>
       <c r="B69" t="str">
-        <v>74,655.05</v>
+        <v>2,476.14</v>
       </c>
       <c r="C69" t="str">
-        <v>74,655.05</v>
+        <v>2,476.14</v>
       </c>
       <c r="D69" t="str">
         <v>0</v>
       </c>
       <c r="E69" t="str">
-        <v>64,841.48</v>
+        <v>1,599.33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+        <v>0x340eAB7488e336fDc588F1da47452f02945E80b3</v>
       </c>
       <c r="B70" t="str">
-        <v>778.75</v>
+        <v>12,263.02</v>
       </c>
       <c r="C70" t="str">
-        <v>778.75</v>
+        <v>12,263.02</v>
       </c>
       <c r="D70" t="str">
-        <v>0</v>
+        <v>3,372.72</v>
       </c>
       <c r="E70" t="str">
-        <v>676.39</v>
+        <v>4,547.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
+        <v>0x7c837800C0F43D1D9196807FD6033d206Ff3d058</v>
       </c>
       <c r="B71" t="str">
-        <v>0</v>
+        <v>5,221.78</v>
       </c>
       <c r="C71" t="str">
-        <v>3,176.72</v>
+        <v>5,221.78</v>
       </c>
       <c r="D71" t="str">
-        <v>2,759.14</v>
+        <v>0</v>
       </c>
       <c r="E71" t="str">
-        <v>0</v>
+        <v>3,372.72</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>0xA271d7ad0ce0b28cdc464dfD5F3A66B4d55B5Acc</v>
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
       </c>
       <c r="B72" t="str">
-        <v>741.73</v>
+        <v>96,212.14</v>
       </c>
       <c r="C72" t="str">
-        <v>741.73</v>
+        <v>96,212.14</v>
       </c>
       <c r="D72" t="str">
-        <v>644.23</v>
+        <v>0</v>
       </c>
       <c r="E72" t="str">
-        <v>0</v>
+        <v>62,142.91</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>0xE3c3CD768EF78506A37144Ce83b1f34af56A89D5</v>
+        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
       </c>
       <c r="B73" t="str">
-        <v>741.73</v>
+        <v>1,351.38</v>
       </c>
       <c r="C73" t="str">
-        <v>741.73</v>
+        <v>1,351.38</v>
       </c>
       <c r="D73" t="str">
-        <v>0</v>
+        <v>872.85</v>
       </c>
       <c r="E73" t="str">
-        <v>644.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>0xeeE85C5e6012fB7677381293C63F987d9dccA87a</v>
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
       </c>
       <c r="B74" t="str">
-        <v>366.72</v>
+        <v>141,207.34</v>
       </c>
       <c r="C74" t="str">
-        <v>366.72</v>
+        <v>141,207.34</v>
       </c>
       <c r="D74" t="str">
-        <v>318.52</v>
+        <v>0</v>
       </c>
       <c r="E74" t="str">
-        <v>0</v>
+        <v>91,205.07</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>0x35b537F3A2aF254D73263391a4eDE756Ac0f1f35</v>
+        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
       </c>
       <c r="B75" t="str">
-        <v>366.72</v>
+        <v>517.56</v>
       </c>
       <c r="C75" t="str">
-        <v>366.72</v>
+        <v>517.56</v>
       </c>
       <c r="D75" t="str">
         <v>0</v>
       </c>
       <c r="E75" t="str">
-        <v>318.52</v>
+        <v>334.29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>0xdE976b1178696723F86102aaf17Ddd70522908dA</v>
+        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
       </c>
       <c r="B76" t="str">
-        <v>5,494.27</v>
+        <v>7,660.9</v>
       </c>
       <c r="C76" t="str">
-        <v>5,494.27</v>
+        <v>7,660.9</v>
       </c>
       <c r="D76" t="str">
-        <v>4,772.04</v>
+        <v>4,948.14</v>
       </c>
       <c r="E76" t="str">
         <v>0</v>
@@ -41027,118 +45037,118 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>0x44Ae0B00492f996B8ABD8F7F38B1716aEdeb8085</v>
+        <v>0x4e50BEF218F0Db065F4EE833D3679712A74F21F2</v>
       </c>
       <c r="B77" t="str">
-        <v>733.96</v>
+        <v>5,065.93</v>
       </c>
       <c r="C77" t="str">
-        <v>733.96</v>
+        <v>5,065.93</v>
       </c>
       <c r="D77" t="str">
         <v>0</v>
       </c>
       <c r="E77" t="str">
-        <v>637.48</v>
+        <v>3,272.06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
       </c>
       <c r="B78" t="str">
-        <v>1,041.5</v>
+        <v>912.57</v>
       </c>
       <c r="C78" t="str">
-        <v>1,041.5</v>
+        <v>912.57</v>
       </c>
       <c r="D78" t="str">
-        <v>904.6</v>
+        <v>0</v>
       </c>
       <c r="E78" t="str">
-        <v>0</v>
+        <v>589.43</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
+        <v>0xA66ABB96cC791CFD157CFcd404B27A0920824B35</v>
       </c>
       <c r="B79" t="str">
-        <v>1,475.01</v>
+        <v>278,443.93</v>
       </c>
       <c r="C79" t="str">
-        <v>1,475.01</v>
+        <v>278,443.93</v>
       </c>
       <c r="D79" t="str">
-        <v>0</v>
+        <v>150,821.47</v>
       </c>
       <c r="E79" t="str">
-        <v>1,281.12</v>
+        <v>29,023.98</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+        <v>0x889f1F09b491711013cA6787E29e07a04FDf42a4</v>
       </c>
       <c r="B80" t="str">
-        <v>14,271.87</v>
+        <v>289,058.28</v>
       </c>
       <c r="C80" t="str">
-        <v>14,271.87</v>
+        <v>289,058.28</v>
       </c>
       <c r="D80" t="str">
-        <v>0</v>
+        <v>35,879.73</v>
       </c>
       <c r="E80" t="str">
-        <v>12,395.8</v>
+        <v>150,821.47</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+        <v>0xf415b01f98A5a3f9139FbC5c481a03224d709041</v>
       </c>
       <c r="B81" t="str">
-        <v>422.36</v>
+        <v>2,078.1</v>
       </c>
       <c r="C81" t="str">
-        <v>422.36</v>
+        <v>2,078.1</v>
       </c>
       <c r="D81" t="str">
-        <v>0</v>
+        <v>1,342.24</v>
       </c>
       <c r="E81" t="str">
-        <v>366.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>0xE1FcC0676dE7f03EB6c63b55A5ad667416029A5F</v>
+        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
       </c>
       <c r="B82" t="str">
-        <v>130.25</v>
+        <v>20,246.45</v>
       </c>
       <c r="C82" t="str">
-        <v>130.25</v>
+        <v>20,246.45</v>
       </c>
       <c r="D82" t="str">
         <v>0</v>
       </c>
       <c r="E82" t="str">
-        <v>113.13</v>
+        <v>13,077.08</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>0xd59e981cc9DfbaC1ab0EE8E23e5B0C0bea0D132b</v>
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
       </c>
       <c r="B83" t="str">
-        <v>36.42</v>
+        <v>167.92</v>
       </c>
       <c r="C83" t="str">
-        <v>36.42</v>
+        <v>167.92</v>
       </c>
       <c r="D83" t="str">
-        <v>31.64</v>
+        <v>108.46</v>
       </c>
       <c r="E83" t="str">
         <v>0</v>
@@ -41146,186 +45156,186 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
       </c>
       <c r="B84" t="str">
-        <v>5,816.79</v>
+        <v>1,749.51</v>
       </c>
       <c r="C84" t="str">
-        <v>5,816.79</v>
+        <v>1,749.51</v>
       </c>
       <c r="D84" t="str">
-        <v>0</v>
+        <v>1,130</v>
       </c>
       <c r="E84" t="str">
-        <v>5,052.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>0x9c6E23aC65D33b747B8c56C04db77d836c41Faf5</v>
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
       </c>
       <c r="B85" t="str">
-        <v>147.26</v>
+        <v>10,291.26</v>
       </c>
       <c r="C85" t="str">
-        <v>147.26</v>
+        <v>10,291.26</v>
       </c>
       <c r="D85" t="str">
         <v>0</v>
       </c>
       <c r="E85" t="str">
-        <v>127.91</v>
+        <v>6,647.07</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>0x361631d54F49b6a4C19F033Ef507D67aC6BA1c0a</v>
+        <v>0x25E9eA1a93D9e505cd7d056C1e1bA16789537EAb</v>
       </c>
       <c r="B86" t="str">
-        <v>583.34</v>
+        <v>14,223.86</v>
       </c>
       <c r="C86" t="str">
-        <v>583.34</v>
+        <v>14,223.86</v>
       </c>
       <c r="D86" t="str">
-        <v>506.66</v>
+        <v>0</v>
       </c>
       <c r="E86" t="str">
-        <v>0</v>
+        <v>9,187.12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
+        <v>0x48A7209DD07Bc7409bF3f61820E1Ee9409F462e9</v>
       </c>
       <c r="B87" t="str">
-        <v>329.12</v>
+        <v>84.19</v>
       </c>
       <c r="C87" t="str">
-        <v>329.12</v>
+        <v>84.19</v>
       </c>
       <c r="D87" t="str">
         <v>0</v>
       </c>
       <c r="E87" t="str">
-        <v>285.86</v>
+        <v>54.38</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+        <v>0xBc7b31dFbEd762841AC646961C887B49e3f625d5</v>
       </c>
       <c r="B88" t="str">
-        <v>53,535.64</v>
+        <v>267.41</v>
       </c>
       <c r="C88" t="str">
-        <v>53,535.64</v>
+        <v>267.41</v>
       </c>
       <c r="D88" t="str">
-        <v>10,243.21</v>
+        <v>172.72</v>
       </c>
       <c r="E88" t="str">
-        <v>36,255.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
+        <v>0x48682644c1e8529338e46e7DdabA4383C1fceBb1</v>
       </c>
       <c r="B89" t="str">
-        <v>3,396.47</v>
+        <v>531.95</v>
       </c>
       <c r="C89" t="str">
-        <v>3,396.47</v>
+        <v>531.95</v>
       </c>
       <c r="D89" t="str">
-        <v>2,950</v>
+        <v>0</v>
       </c>
       <c r="E89" t="str">
-        <v>0</v>
+        <v>343.59</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>0xA66ABB96cC791CFD157CFcd404B27A0920824B35</v>
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
       </c>
       <c r="B90" t="str">
-        <v>184,773</v>
+        <v>323,504.18</v>
       </c>
       <c r="C90" t="str">
-        <v>184,773</v>
+        <v>323,504.18</v>
       </c>
       <c r="D90" t="str">
-        <v>160,484.17</v>
+        <v>104,545.15</v>
       </c>
       <c r="E90" t="str">
-        <v>0</v>
+        <v>104,404.47</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>0x889f1F09b491711013cA6787E29e07a04FDf42a4</v>
+        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
       </c>
       <c r="B91" t="str">
-        <v>220,198.18</v>
+        <v>3.06</v>
       </c>
       <c r="C91" t="str">
-        <v>220,198.18</v>
+        <v>3.06</v>
       </c>
       <c r="D91" t="str">
-        <v>30,768.46</v>
+        <v>1.98</v>
       </c>
       <c r="E91" t="str">
-        <v>160,484.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+        <v>0x4905D19461Dc2292E426A77804f7EfBe47fe03A1</v>
       </c>
       <c r="B92" t="str">
-        <v>6,797.46</v>
+        <v>161,675.77</v>
       </c>
       <c r="C92" t="str">
-        <v>6,797.46</v>
+        <v>161,675.77</v>
       </c>
       <c r="D92" t="str">
-        <v>0</v>
+        <v>104,425.52</v>
       </c>
       <c r="E92" t="str">
-        <v>5,903.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+        <v>0xEE6cafF44C45094a0a0Dd7dD2235f534Fa1EBa3F</v>
       </c>
       <c r="B93" t="str">
-        <v>146.71</v>
+        <v>1,282.51</v>
       </c>
       <c r="C93" t="str">
-        <v>146.71</v>
+        <v>1,282.51</v>
       </c>
       <c r="D93" t="str">
         <v>0</v>
       </c>
       <c r="E93" t="str">
-        <v>127.43</v>
+        <v>828.37</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+        <v>0xCf54bb8C360FB4Ec47AE0c31Bc8864B163651277</v>
       </c>
       <c r="B94" t="str">
-        <v>461.67</v>
+        <v>115.35</v>
       </c>
       <c r="C94" t="str">
-        <v>461.67</v>
+        <v>751.48</v>
       </c>
       <c r="D94" t="str">
-        <v>400.99</v>
+        <v>485.38</v>
       </c>
       <c r="E94" t="str">
         <v>0</v>
@@ -41333,33 +45343,33 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>0xFa12186c269720c59e6019e4C200589A0d4BCa24</v>
+        <v>0xc677a6C972baeCe4Bf9C0a2EbB600886F0300a7D</v>
       </c>
       <c r="B95" t="str">
-        <v>72.39</v>
+        <v>29,448.06</v>
       </c>
       <c r="C95" t="str">
-        <v>72.39</v>
+        <v>29,448.06</v>
       </c>
       <c r="D95" t="str">
-        <v>0</v>
+        <v>19,020.35</v>
       </c>
       <c r="E95" t="str">
-        <v>62.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+        <v>0x4D30408614E40276712949ACbbF49853eA606b4a</v>
       </c>
       <c r="B96" t="str">
-        <v>20,532.81</v>
+        <v>83.41</v>
       </c>
       <c r="C96" t="str">
-        <v>20,532.81</v>
+        <v>83.41</v>
       </c>
       <c r="D96" t="str">
-        <v>17,833.73</v>
+        <v>53.88</v>
       </c>
       <c r="E96" t="str">
         <v>0</v>
@@ -41367,220 +45377,220 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
       </c>
       <c r="B97" t="str">
-        <v>0</v>
+        <v>3,702.6</v>
       </c>
       <c r="C97" t="str">
-        <v>20,532.81</v>
+        <v>3,702.6</v>
       </c>
       <c r="D97" t="str">
-        <v>0</v>
+        <v>2,391.49</v>
       </c>
       <c r="E97" t="str">
-        <v>17,833.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
+        <v>0xFa544d034dC07aD4Fa185ba769031a29Fbef5e36</v>
       </c>
       <c r="B98" t="str">
-        <v>76.33</v>
+        <v>15.06</v>
       </c>
       <c r="C98" t="str">
-        <v>76.33</v>
+        <v>15.06</v>
       </c>
       <c r="D98" t="str">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="E98" t="str">
-        <v>66.3</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
       </c>
       <c r="B99" t="str">
-        <v>738.81</v>
+        <v>498.42</v>
       </c>
       <c r="C99" t="str">
-        <v>738.81</v>
+        <v>498.42</v>
       </c>
       <c r="D99" t="str">
-        <v>422.33</v>
+        <v>0</v>
       </c>
       <c r="E99" t="str">
-        <v>219.37</v>
+        <v>321.93</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
       </c>
       <c r="B100" t="str">
-        <v>216.21</v>
+        <v>33,621.19</v>
       </c>
       <c r="C100" t="str">
-        <v>216.21</v>
+        <v>33,621.19</v>
       </c>
       <c r="D100" t="str">
-        <v>0</v>
+        <v>7,500</v>
       </c>
       <c r="E100" t="str">
-        <v>187.79</v>
+        <v>14,215.75</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
+        <v>0x4ACcEa48A017AF0543dE03811c190C4538665414</v>
       </c>
       <c r="B101" t="str">
-        <v>35.7</v>
+        <v>338.86</v>
       </c>
       <c r="C101" t="str">
-        <v>35.7</v>
+        <v>338.86</v>
       </c>
       <c r="D101" t="str">
-        <v>0</v>
+        <v>218.87</v>
       </c>
       <c r="E101" t="str">
-        <v>31.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+        <v>0x61798386b453fae6BA7D19bF5c600E357B52ab5c</v>
       </c>
       <c r="B102" t="str">
-        <v>607.32</v>
+        <v>338.86</v>
       </c>
       <c r="C102" t="str">
-        <v>607.32</v>
+        <v>338.86</v>
       </c>
       <c r="D102" t="str">
-        <v>527.49</v>
+        <v>0</v>
       </c>
       <c r="E102" t="str">
-        <v>0</v>
+        <v>218.87</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>0xd939730f3611112DaF234420f57Cfe0e3D3b16B3</v>
+        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
       </c>
       <c r="B103" t="str">
-        <v>149.05</v>
+        <v>341.54</v>
       </c>
       <c r="C103" t="str">
-        <v>149.05</v>
+        <v>341.54</v>
       </c>
       <c r="D103" t="str">
-        <v>0</v>
+        <v>220.6</v>
       </c>
       <c r="E103" t="str">
-        <v>129.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>0x0fA1AfF9540786DCad9196e0676e2e4423317FAf</v>
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
       </c>
       <c r="B104" t="str">
-        <v>2,886.85</v>
+        <v>341.54</v>
       </c>
       <c r="C104" t="str">
-        <v>2,886.85</v>
+        <v>341.54</v>
       </c>
       <c r="D104" t="str">
-        <v>2,507.37</v>
+        <v>0</v>
       </c>
       <c r="E104" t="str">
-        <v>0</v>
+        <v>220.6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
       </c>
       <c r="B105" t="str">
-        <v>2,973.2</v>
+        <v>28,413.75</v>
       </c>
       <c r="C105" t="str">
-        <v>2,973.2</v>
+        <v>28,413.75</v>
       </c>
       <c r="D105" t="str">
-        <v>75</v>
+        <v>1,772.53</v>
       </c>
       <c r="E105" t="str">
-        <v>2,507.37</v>
+        <v>16,579.76</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>0xb8e441ad9cA68bf92Da52A40BFBb03Bc6454ABB4</v>
+        <v>0x2728c19586e1eB6b2AA599c15fA1456426C7CC7C</v>
       </c>
       <c r="B106" t="str">
-        <v>57.56</v>
+        <v>17.09</v>
       </c>
       <c r="C106" t="str">
-        <v>57.56</v>
+        <v>17.09</v>
       </c>
       <c r="D106" t="str">
         <v>0</v>
       </c>
       <c r="E106" t="str">
-        <v>50</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>0xf0a8596541F839EBcC9f0A9d1442c15f43A2836E</v>
+        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
       </c>
       <c r="B107" t="str">
-        <v>633.94</v>
+        <v>1,354.71</v>
       </c>
       <c r="C107" t="str">
-        <v>633.94</v>
+        <v>1,354.71</v>
       </c>
       <c r="D107" t="str">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="E107" t="str">
-        <v>550.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>0x03D9B5235F77265bE15e631e20B99C8b018e4128</v>
+        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
       </c>
       <c r="B108" t="str">
-        <v>1,489.93</v>
+        <v>1,354.71</v>
       </c>
       <c r="C108" t="str">
-        <v>1,489.93</v>
+        <v>1,354.71</v>
       </c>
       <c r="D108" t="str">
         <v>0</v>
       </c>
       <c r="E108" t="str">
-        <v>1,294.08</v>
+        <v>875</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>0x8218E1a9D02E26E2aF124EA28b121031Cf25AaC8</v>
+        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
       </c>
       <c r="B109" t="str">
-        <v>804.27</v>
+        <v>464.47</v>
       </c>
       <c r="C109" t="str">
-        <v>804.27</v>
+        <v>464.47</v>
       </c>
       <c r="D109" t="str">
-        <v>698.55</v>
+        <v>300</v>
       </c>
       <c r="E109" t="str">
         <v>0</v>
@@ -41588,19 +45598,19 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
       </c>
       <c r="B110" t="str">
-        <v>105,417.11</v>
+        <v>511.44</v>
       </c>
       <c r="C110" t="str">
-        <v>105,417.11</v>
+        <v>511.44</v>
       </c>
       <c r="D110" t="str">
-        <v>0</v>
+        <v>330.34</v>
       </c>
       <c r="E110" t="str">
-        <v>91,559.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -41608,98 +45618,98 @@
         <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
       </c>
       <c r="B111" t="str">
-        <v>1,512.28</v>
+        <v>901.21</v>
       </c>
       <c r="C111" t="str">
-        <v>1,512.28</v>
+        <v>901.21</v>
       </c>
       <c r="D111" t="str">
-        <v>1,007.91</v>
+        <v>470.89</v>
       </c>
       <c r="E111" t="str">
-        <v>305.58</v>
+        <v>111.2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+        <v>0x4E86c25bd1DD12b5802692D438b701294f32516e</v>
       </c>
       <c r="B112" t="str">
-        <v>466.42</v>
+        <v>829.71</v>
       </c>
       <c r="C112" t="str">
-        <v>466.42</v>
+        <v>829.71</v>
       </c>
       <c r="D112" t="str">
-        <v>228.22</v>
+        <v>535.91</v>
       </c>
       <c r="E112" t="str">
-        <v>176.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>0x3479Ce7954Aebd06dD613A42301C911d85c789bF</v>
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
       </c>
       <c r="B113" t="str">
-        <v>1,313.57</v>
+        <v>37,953.34</v>
       </c>
       <c r="C113" t="str">
-        <v>1,313.57</v>
+        <v>37,953.34</v>
       </c>
       <c r="D113" t="str">
-        <v>1,140.9</v>
+        <v>14,060.13</v>
       </c>
       <c r="E113" t="str">
-        <v>0</v>
+        <v>10,453.73</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>0xa899FaB0CE9CDA2E314856C10A9F5B578b9f2778</v>
+        <v>0x413Af536E3D18D259A9b71B42AC66faC5aBa0Fbf</v>
       </c>
       <c r="B114" t="str">
-        <v>1,313.57</v>
+        <v>51.85</v>
       </c>
       <c r="C114" t="str">
-        <v>1,313.57</v>
+        <v>51.85</v>
       </c>
       <c r="D114" t="str">
-        <v>0</v>
+        <v>33.49</v>
       </c>
       <c r="E114" t="str">
-        <v>1,140.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>0xB318309e50C1f09825f903B5773c45b0d2930f28</v>
+        <v>0x9C4e5edC6A735e4AB68ef04497b64008A955A1A5</v>
       </c>
       <c r="B115" t="str">
-        <v>333.93</v>
+        <v>58.91</v>
       </c>
       <c r="C115" t="str">
-        <v>333.93</v>
+        <v>58.91</v>
       </c>
       <c r="D115" t="str">
-        <v>290.04</v>
+        <v>0</v>
       </c>
       <c r="E115" t="str">
-        <v>0</v>
+        <v>38.05</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>0xC53Fa15adE563291bF8ba8d7E62a9B0959e6aE30</v>
+        <v>0xd2147a430DCfc5b141adcdc02ba0bD41120932c5</v>
       </c>
       <c r="B116" t="str">
-        <v>320.43</v>
+        <v>18.91</v>
       </c>
       <c r="C116" t="str">
-        <v>320.43</v>
+        <v>18.91</v>
       </c>
       <c r="D116" t="str">
-        <v>278.31</v>
+        <v>12.22</v>
       </c>
       <c r="E116" t="str">
         <v>0</v>
@@ -41707,33 +45717,33 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>0xcE1290F5457067497EAd8Aea22515d52ca94357E</v>
+        <v>0x66B6221845b9bd7A029BCCb5523168a5AcE1e013</v>
       </c>
       <c r="B117" t="str">
-        <v>320.43</v>
+        <v>10,802.55</v>
       </c>
       <c r="C117" t="str">
-        <v>320.43</v>
+        <v>10,802.55</v>
       </c>
       <c r="D117" t="str">
         <v>0</v>
       </c>
       <c r="E117" t="str">
-        <v>278.31</v>
+        <v>6,977.31</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
+        <v>0xf977A3246498673A5D83027183F863598dCa5E21</v>
       </c>
       <c r="B118" t="str">
-        <v>1,766.05</v>
+        <v>172.67</v>
       </c>
       <c r="C118" t="str">
-        <v>1,766.05</v>
+        <v>172.67</v>
       </c>
       <c r="D118" t="str">
-        <v>1,533.9</v>
+        <v>111.53</v>
       </c>
       <c r="E118" t="str">
         <v>0</v>
@@ -41741,203 +45751,203 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>0x4045d560bdcd01295dB6B3041ecfB7C5a346eDa8</v>
+        <v>0x86d04b2FA806dce57fF1b99971FF524d0484a2EC</v>
       </c>
       <c r="B119" t="str">
-        <v>0</v>
+        <v>172.67</v>
       </c>
       <c r="C119" t="str">
-        <v>138,764.98</v>
+        <v>172.67</v>
       </c>
       <c r="D119" t="str">
-        <v>64,009.27</v>
+        <v>0</v>
       </c>
       <c r="E119" t="str">
-        <v>56,514.74</v>
+        <v>111.53</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
+        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
       </c>
       <c r="B120" t="str">
-        <v>13,428.3</v>
+        <v>26.84</v>
       </c>
       <c r="C120" t="str">
-        <v>13,428.3</v>
+        <v>26.84</v>
       </c>
       <c r="D120" t="str">
-        <v>0</v>
+        <v>17.34</v>
       </c>
       <c r="E120" t="str">
-        <v>11,663.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
+        <v>0x3f80b42ae4B6a8701329682B5C66a2780917E5D0</v>
       </c>
       <c r="B121" t="str">
-        <v>420.5</v>
+        <v>26.84</v>
       </c>
       <c r="C121" t="str">
-        <v>420.5</v>
+        <v>26.84</v>
       </c>
       <c r="D121" t="str">
-        <v>365.23</v>
+        <v>0</v>
       </c>
       <c r="E121" t="str">
-        <v>0</v>
+        <v>17.34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>0x25E9eA1a93D9e505cd7d056C1e1bA16789537EAb</v>
+        <v>0xC65cA88Bd73441A540590CB547F978afe8d503bb</v>
       </c>
       <c r="B122" t="str">
-        <v>23,400.56</v>
+        <v>162.99</v>
       </c>
       <c r="C122" t="str">
-        <v>23,400.56</v>
+        <v>162.99</v>
       </c>
       <c r="D122" t="str">
-        <v>8,032.62</v>
+        <v>105.28</v>
       </c>
       <c r="E122" t="str">
-        <v>12,291.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
+        <v>0x0447E1087FBE1aA8A4F9a7553916eda2Cb4dcaAC</v>
       </c>
       <c r="B123" t="str">
-        <v>12,477.43</v>
+        <v>4,990.04</v>
       </c>
       <c r="C123" t="str">
-        <v>12,477.43</v>
+        <v>5,807.41</v>
       </c>
       <c r="D123" t="str">
-        <v>0</v>
+        <v>3,750.98</v>
       </c>
       <c r="E123" t="str">
-        <v>10,837.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>0x1D712193A96B4d9D4eC32108cfcde704AC9CCC9C</v>
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
       </c>
       <c r="B124" t="str">
-        <v>32.01</v>
+        <v>4,538.24</v>
       </c>
       <c r="C124" t="str">
-        <v>32.01</v>
+        <v>4,538.24</v>
       </c>
       <c r="D124" t="str">
-        <v>27.81</v>
+        <v>0</v>
       </c>
       <c r="E124" t="str">
-        <v>0</v>
+        <v>2,931.23</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>0x8f437d47c7723C7AB5ab896D59549D547181BecB</v>
+        <v>0x760d7E2525DDB8790d047CFF195b753F9dCCac41</v>
       </c>
       <c r="B125" t="str">
-        <v>183.11</v>
+        <v>86.28</v>
       </c>
       <c r="C125" t="str">
-        <v>183.11</v>
+        <v>86.28</v>
       </c>
       <c r="D125" t="str">
         <v>0</v>
       </c>
       <c r="E125" t="str">
-        <v>159.04</v>
+        <v>55.73</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>0x11C3498d0D70BBfCdAa8dA275d7dDEb7BF977137</v>
+        <v>0xBC3f8985F75c8628C3a6687EB91e21f50C961a5D</v>
       </c>
       <c r="B126" t="str">
-        <v>236.88</v>
+        <v>173.15</v>
       </c>
       <c r="C126" t="str">
-        <v>236.88</v>
+        <v>173.15</v>
       </c>
       <c r="D126" t="str">
         <v>0</v>
       </c>
       <c r="E126" t="str">
-        <v>205.75</v>
+        <v>111.84</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
+        <v>0x947d2c8935C715428702231AD85E293a94CbEB65</v>
       </c>
       <c r="B127" t="str">
-        <v>0</v>
+        <v>1,316</v>
       </c>
       <c r="C127" t="str">
-        <v>984.88</v>
+        <v>1,316</v>
       </c>
       <c r="D127" t="str">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="E127" t="str">
-        <v>855.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
+        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
       </c>
       <c r="B128" t="str">
-        <v>626.18</v>
+        <v>1,483.3</v>
       </c>
       <c r="C128" t="str">
-        <v>626.18</v>
+        <v>1,483.3</v>
       </c>
       <c r="D128" t="str">
         <v>0</v>
       </c>
       <c r="E128" t="str">
-        <v>543.87</v>
+        <v>958.06</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
+        <v>0x56B104D91C314925d0189aB095e94A146C72b2aB</v>
       </c>
       <c r="B129" t="str">
-        <v>1,192.16</v>
+        <v>3,644.72</v>
       </c>
       <c r="C129" t="str">
-        <v>1,192.16</v>
+        <v>3,644.72</v>
       </c>
       <c r="D129" t="str">
-        <v>1,024.92</v>
+        <v>2,354.11</v>
       </c>
       <c r="E129" t="str">
-        <v>10.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>0xc677a6C972baeCe4Bf9C0a2EbB600886F0300a7D</v>
+        <v>0xC53Fa15adE563291bF8ba8d7E62a9B0959e6aE30</v>
       </c>
       <c r="B130" t="str">
-        <v>8,725.39</v>
+        <v>48.55</v>
       </c>
       <c r="C130" t="str">
-        <v>8,725.39</v>
+        <v>48.55</v>
       </c>
       <c r="D130" t="str">
-        <v>7,578.42</v>
+        <v>31.36</v>
       </c>
       <c r="E130" t="str">
         <v>0</v>
@@ -41945,50 +45955,50 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>0x760d7E2525DDB8790d047CFF195b753F9dCCac41</v>
+        <v>0xcE1290F5457067497EAd8Aea22515d52ca94357E</v>
       </c>
       <c r="B131" t="str">
-        <v>3,028.92</v>
+        <v>48.55</v>
       </c>
       <c r="C131" t="str">
-        <v>3,028.92</v>
+        <v>48.55</v>
       </c>
       <c r="D131" t="str">
         <v>0</v>
       </c>
       <c r="E131" t="str">
-        <v>2,630.77</v>
+        <v>31.36</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>0xCf54bb8C360FB4Ec47AE0c31Bc8864B163651277</v>
+        <v>0xE34bBD8d72B7Ffe5ad2e84CE93e3A07581De2e50</v>
       </c>
       <c r="B132" t="str">
-        <v>390.7</v>
+        <v>0</v>
       </c>
       <c r="C132" t="str">
-        <v>390.7</v>
+        <v>103.53</v>
       </c>
       <c r="D132" t="str">
-        <v>339.35</v>
+        <v>0</v>
       </c>
       <c r="E132" t="str">
-        <v>0</v>
+        <v>66.87</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>0xD35Bb0C4b4E537D54f14563fA7790403f046f6E0</v>
+        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
       </c>
       <c r="B133" t="str">
-        <v>5,414.16</v>
+        <v>174.33</v>
       </c>
       <c r="C133" t="str">
-        <v>5,414.16</v>
+        <v>174.33</v>
       </c>
       <c r="D133" t="str">
-        <v>4,702.46</v>
+        <v>112.6</v>
       </c>
       <c r="E133" t="str">
         <v>0</v>
@@ -41996,84 +46006,84 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>0x5929B23B9F70dA098B92EF3F3341cC8707B8f0A2</v>
+        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
       </c>
       <c r="B134" t="str">
-        <v>25,049.6</v>
+        <v>174.33</v>
       </c>
       <c r="C134" t="str">
-        <v>25,049.6</v>
+        <v>174.33</v>
       </c>
       <c r="D134" t="str">
-        <v>21,756.78</v>
+        <v>0</v>
       </c>
       <c r="E134" t="str">
-        <v>0</v>
+        <v>112.6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>0xD465Ffa5efAdF5cF1Dd6c45c3C305f58279A2140</v>
+        <v>0x22D93B96fcf17f472f82267413e27f511ADd7b2e</v>
       </c>
       <c r="B135" t="str">
-        <v>0</v>
+        <v>348.46</v>
       </c>
       <c r="C135" t="str">
-        <v>465.07</v>
+        <v>348.46</v>
       </c>
       <c r="D135" t="str">
         <v>0</v>
       </c>
       <c r="E135" t="str">
-        <v>403.94</v>
+        <v>225.07</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>0xCbf575DA18d760a18dB55333bE8662CC07463069</v>
+        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
       </c>
       <c r="B136" t="str">
-        <v>11,179.37</v>
+        <v>13,293.71</v>
       </c>
       <c r="C136" t="str">
-        <v>11,179.37</v>
+        <v>13,293.71</v>
       </c>
       <c r="D136" t="str">
-        <v>9,709.82</v>
+        <v>7,836.34</v>
       </c>
       <c r="E136" t="str">
-        <v>0</v>
+        <v>750</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
       </c>
       <c r="B137" t="str">
-        <v>28,449.58</v>
+        <v>12,132.53</v>
       </c>
       <c r="C137" t="str">
-        <v>28,449.58</v>
+        <v>12,132.53</v>
       </c>
       <c r="D137" t="str">
-        <v>10,000</v>
+        <v>0</v>
       </c>
       <c r="E137" t="str">
-        <v>14,709.82</v>
+        <v>7,836.34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
       </c>
       <c r="B138" t="str">
-        <v>460.53</v>
+        <v>2,435.25</v>
       </c>
       <c r="C138" t="str">
-        <v>460.53</v>
+        <v>2,435.25</v>
       </c>
       <c r="D138" t="str">
-        <v>400</v>
+        <v>1,572.92</v>
       </c>
       <c r="E138" t="str">
         <v>0</v>
@@ -42081,16 +46091,16 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>0x8EA76c885918FA6f548501b5c4357aff43204CD0</v>
+        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
       </c>
       <c r="B139" t="str">
-        <v>6.5</v>
+        <v>3,006.77</v>
       </c>
       <c r="C139" t="str">
-        <v>6.5</v>
+        <v>3,006.77</v>
       </c>
       <c r="D139" t="str">
-        <v>5.65</v>
+        <v>1,942.06</v>
       </c>
       <c r="E139" t="str">
         <v>0</v>
@@ -42098,50 +46108,50 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>0x96f194Cf1c9e5eE23B4D96785791F468F6A9C98e</v>
+        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
       </c>
       <c r="B140" t="str">
-        <v>17,270.2</v>
+        <v>1,760.36</v>
       </c>
       <c r="C140" t="str">
-        <v>17,270.2</v>
+        <v>1,760.36</v>
       </c>
       <c r="D140" t="str">
-        <v>5,000</v>
+        <v>0</v>
       </c>
       <c r="E140" t="str">
-        <v>10,000</v>
+        <v>1,137.01</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>0x8f1928e8FEa7238b9B53A7E62AFd471b69732a66</v>
+        <v>0x7c8f1cdd0fCC84d9A0354B91Cf77507982ED31De</v>
       </c>
       <c r="B141" t="str">
-        <v>234.97</v>
+        <v>333.36</v>
       </c>
       <c r="C141" t="str">
-        <v>234.97</v>
+        <v>333.36</v>
       </c>
       <c r="D141" t="str">
-        <v>0</v>
+        <v>215.32</v>
       </c>
       <c r="E141" t="str">
-        <v>204.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+        <v>0x9B275D3580D7db9613e14308C978e27134365828</v>
       </c>
       <c r="B142" t="str">
-        <v>2,321.12</v>
+        <v>7.05</v>
       </c>
       <c r="C142" t="str">
-        <v>2,321.12</v>
+        <v>7.05</v>
       </c>
       <c r="D142" t="str">
-        <v>2,016.01</v>
+        <v>4.56</v>
       </c>
       <c r="E142" t="str">
         <v>0</v>
@@ -42149,84 +46159,84 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+        <v>0x11AbA9ACdFbAaB8e7C1Dc4d92b8B2467FD5d0e3B</v>
       </c>
       <c r="B143" t="str">
-        <v>9,198.86</v>
+        <v>104.78</v>
       </c>
       <c r="C143" t="str">
-        <v>9,198.86</v>
+        <v>104.78</v>
       </c>
       <c r="D143" t="str">
-        <v>0</v>
+        <v>67.68</v>
       </c>
       <c r="E143" t="str">
-        <v>7,989.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>0x856D87821a75300c8e5e61fAa718065aEe7FE719</v>
+        <v>0x8Dca7891aAb1d43b8402d23e2Ca88B0399Ed542E</v>
       </c>
       <c r="B144" t="str">
-        <v>4,992.71</v>
+        <v>104.78</v>
       </c>
       <c r="C144" t="str">
-        <v>4,992.71</v>
+        <v>104.78</v>
       </c>
       <c r="D144" t="str">
-        <v>4,336.41</v>
+        <v>0</v>
       </c>
       <c r="E144" t="str">
-        <v>0</v>
+        <v>67.68</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>0x09aFEC89b908C2cbD220942f3788530C195Ba894</v>
+        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
       </c>
       <c r="B145" t="str">
-        <v>3.68</v>
+        <v>375.3</v>
       </c>
       <c r="C145" t="str">
-        <v>3.68</v>
+        <v>375.3</v>
       </c>
       <c r="D145" t="str">
         <v>0</v>
       </c>
       <c r="E145" t="str">
-        <v>3.2</v>
+        <v>242.41</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>0x2abf42F330c60491E8A36B73c9F3F9Ed40CDa546</v>
+        <v>0xCbf575DA18d760a18dB55333bE8662CC07463069</v>
       </c>
       <c r="B146" t="str">
-        <v>38,862.16</v>
+        <v>1,747.51</v>
       </c>
       <c r="C146" t="str">
-        <v>38,862.16</v>
+        <v>1,747.51</v>
       </c>
       <c r="D146" t="str">
-        <v>0</v>
+        <v>1,128.71</v>
       </c>
       <c r="E146" t="str">
-        <v>33,753.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>0xbB20a4e0514AF7e17d4ED83A55881F067B393c5E</v>
+        <v>0x3ff6b69e12e8883f31Da74dBdfAeC4c0e23E20aE</v>
       </c>
       <c r="B147" t="str">
-        <v>62.33</v>
+        <v>692.24</v>
       </c>
       <c r="C147" t="str">
-        <v>62.33</v>
+        <v>692.24</v>
       </c>
       <c r="D147" t="str">
-        <v>54.14</v>
+        <v>447.12</v>
       </c>
       <c r="E147" t="str">
         <v>0</v>
@@ -42234,33 +46244,33 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
+        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
       </c>
       <c r="B148" t="str">
-        <v>8,578.44</v>
+        <v>309.64</v>
       </c>
       <c r="C148" t="str">
-        <v>8,578.44</v>
+        <v>309.64</v>
       </c>
       <c r="D148" t="str">
-        <v>7,396.65</v>
+        <v>0</v>
       </c>
       <c r="E148" t="str">
-        <v>54.14</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>0xBc7b31dFbEd762841AC646961C887B49e3f625d5</v>
+        <v>0xD4588f639D5C9E922a3283E013D58a115911c63c</v>
       </c>
       <c r="B149" t="str">
-        <v>73.78</v>
+        <v>349.45</v>
       </c>
       <c r="C149" t="str">
-        <v>73.78</v>
+        <v>349.45</v>
       </c>
       <c r="D149" t="str">
-        <v>64.09</v>
+        <v>225.71</v>
       </c>
       <c r="E149" t="str">
         <v>0</v>
@@ -42268,16 +46278,16 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>0xF054d867FEA9866a266cCA678cB30Fe5d9F68bA5</v>
+        <v>0xA6F3eb75fa915C7Bf8a6987710511070D97E2a75</v>
       </c>
       <c r="B150" t="str">
-        <v>176.9</v>
+        <v>869.67</v>
       </c>
       <c r="C150" t="str">
-        <v>176.9</v>
+        <v>869.67</v>
       </c>
       <c r="D150" t="str">
-        <v>153.65</v>
+        <v>561.72</v>
       </c>
       <c r="E150" t="str">
         <v>0</v>
@@ -42285,50 +46295,50 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>0x094CAE95AB3744453Cf7Ce9251dFDD816C3C810E</v>
+        <v>0x240e0289a4d0D6B1b412ad1A4fD04711656A29ee</v>
       </c>
       <c r="B151" t="str">
-        <v>606.78</v>
+        <v>521.67</v>
       </c>
       <c r="C151" t="str">
-        <v>606.78</v>
+        <v>521.67</v>
       </c>
       <c r="D151" t="str">
-        <v>0</v>
+        <v>336.95</v>
       </c>
       <c r="E151" t="str">
-        <v>527.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>0x620C45Fd6A4C15A4aa2A3a9301F0009b34F7809b</v>
+        <v>0x77Fb1AeEEC6e3F3Cfe3a1f3aB87E7cB74872Db5D</v>
       </c>
       <c r="B152" t="str">
-        <v>1,335.71</v>
+        <v>523.22</v>
       </c>
       <c r="C152" t="str">
-        <v>1,335.71</v>
+        <v>523.22</v>
       </c>
       <c r="D152" t="str">
-        <v>1,160.13</v>
+        <v>1</v>
       </c>
       <c r="E152" t="str">
-        <v>0</v>
+        <v>336.95</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>0xdC7A5B88f099B3385a9a714e679B0a511E9071bf</v>
+        <v>0x0fA1AfF9540786DCad9196e0676e2e4423317FAf</v>
       </c>
       <c r="B153" t="str">
-        <v>127.16</v>
+        <v>20,447.73</v>
       </c>
       <c r="C153" t="str">
-        <v>127.16</v>
+        <v>20,447.73</v>
       </c>
       <c r="D153" t="str">
-        <v>110.45</v>
+        <v>13,207.08</v>
       </c>
       <c r="E153" t="str">
         <v>0</v>
@@ -42336,135 +46346,135 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
+        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
       </c>
       <c r="B154" t="str">
-        <v>1,697.59</v>
+        <v>20,587.18</v>
       </c>
       <c r="C154" t="str">
-        <v>1,697.59</v>
+        <v>20,587.18</v>
       </c>
       <c r="D154" t="str">
-        <v>0</v>
+        <v>90.07</v>
       </c>
       <c r="E154" t="str">
-        <v>1,474.44</v>
+        <v>13,207.08</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>0x7c837800C0F43D1D9196807FD6033d206Ff3d058</v>
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
       </c>
       <c r="B155" t="str">
-        <v>136.53</v>
+        <v>87.28</v>
       </c>
       <c r="C155" t="str">
-        <v>136.53</v>
+        <v>87.28</v>
       </c>
       <c r="D155" t="str">
-        <v>0</v>
+        <v>56.38</v>
       </c>
       <c r="E155" t="str">
-        <v>118.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
+        <v>0x7E92D8b1848D0646c369501455C363f687DFc93D</v>
       </c>
       <c r="B156" t="str">
-        <v>1,388.96</v>
+        <v>86.39</v>
       </c>
       <c r="C156" t="str">
-        <v>1,388.96</v>
+        <v>86.39</v>
       </c>
       <c r="D156" t="str">
         <v>0</v>
       </c>
       <c r="E156" t="str">
-        <v>1,206.38</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+        <v>0xD465Ffa5efAdF5cF1Dd6c45c3C305f58279A2140</v>
       </c>
       <c r="B157" t="str">
-        <v>160,316.4</v>
+        <v>0</v>
       </c>
       <c r="C157" t="str">
-        <v>160,316.4</v>
+        <v>587.58</v>
       </c>
       <c r="D157" t="str">
-        <v>69,619.19</v>
+        <v>0</v>
       </c>
       <c r="E157" t="str">
-        <v>69,623.25</v>
+        <v>379.52</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
+        <v>0x091D2bf74f675Df1d72eD6E07bCB693D56a4163c</v>
       </c>
       <c r="B158" t="str">
-        <v>2,102.97</v>
+        <v>0</v>
       </c>
       <c r="C158" t="str">
-        <v>2,102.97</v>
+        <v>3,372.06</v>
       </c>
       <c r="D158" t="str">
-        <v>1,473.4</v>
+        <v>2,178</v>
       </c>
       <c r="E158" t="str">
-        <v>353.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>0xE34bBD8d72B7Ffe5ad2e84CE93e3A07581De2e50</v>
+        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
       </c>
       <c r="B159" t="str">
-        <v>0</v>
+        <v>42,127.16</v>
       </c>
       <c r="C159" t="str">
-        <v>692.91</v>
+        <v>42,127.16</v>
       </c>
       <c r="D159" t="str">
-        <v>0</v>
+        <v>27,209.71</v>
       </c>
       <c r="E159" t="str">
-        <v>601.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
       </c>
       <c r="B160" t="str">
-        <v>1,696.39</v>
+        <v>42,127.16</v>
       </c>
       <c r="C160" t="str">
-        <v>1,696.39</v>
+        <v>42,127.16</v>
       </c>
       <c r="D160" t="str">
         <v>0</v>
       </c>
       <c r="E160" t="str">
-        <v>1,473.4</v>
+        <v>27,209.71</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>0xCB49f8F87f60d2f6790d4606BB53B41f95920A6c</v>
+        <v>0x7aa90dE22D64831e54DA455A90621560f1bC97a2</v>
       </c>
       <c r="B161" t="str">
-        <v>124.21</v>
+        <v>412.57</v>
       </c>
       <c r="C161" t="str">
-        <v>124.21</v>
+        <v>412.57</v>
       </c>
       <c r="D161" t="str">
-        <v>107.89</v>
+        <v>266.48</v>
       </c>
       <c r="E161" t="str">
         <v>0</v>
@@ -42472,33 +46482,33 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>0x5766ee90ab6f2Cd995CA845d09b2AeC45E870EC9</v>
+        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
       </c>
       <c r="B162" t="str">
-        <v>124.21</v>
+        <v>6,172.26</v>
       </c>
       <c r="C162" t="str">
-        <v>124.21</v>
+        <v>6,172.26</v>
       </c>
       <c r="D162" t="str">
         <v>0</v>
       </c>
       <c r="E162" t="str">
-        <v>107.89</v>
+        <v>3,986.63</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+        <v>0x4DF1C6c7973f4E6e3B22149f7b8eFc4389f97C56</v>
       </c>
       <c r="B163" t="str">
-        <v>26,364.88</v>
+        <v>696.7</v>
       </c>
       <c r="C163" t="str">
-        <v>26,364.88</v>
+        <v>696.7</v>
       </c>
       <c r="D163" t="str">
-        <v>22,899.16</v>
+        <v>450</v>
       </c>
       <c r="E163" t="str">
         <v>0</v>
@@ -42506,118 +46516,118 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
       </c>
       <c r="B164" t="str">
-        <v>26,364.88</v>
+        <v>8,437.9</v>
       </c>
       <c r="C164" t="str">
-        <v>26,364.88</v>
+        <v>8,437.9</v>
       </c>
       <c r="D164" t="str">
         <v>0</v>
       </c>
       <c r="E164" t="str">
-        <v>22,899.16</v>
+        <v>5,450</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>0xb8e8680a4852Ae8C79E72Bdb6dC748c8B1496032</v>
+        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
       </c>
       <c r="B165" t="str">
-        <v>252.57</v>
+        <v>363.54</v>
       </c>
       <c r="C165" t="str">
-        <v>252.57</v>
+        <v>363.54</v>
       </c>
       <c r="D165" t="str">
-        <v>219.37</v>
+        <v>0</v>
       </c>
       <c r="E165" t="str">
-        <v>0</v>
+        <v>234.81</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>0x2731b9BC4c6AC6287996741A5A87D6E51D18B2EB</v>
+        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
       </c>
       <c r="B166" t="str">
-        <v>366.49</v>
+        <v>402.54</v>
       </c>
       <c r="C166" t="str">
-        <v>366.49</v>
+        <v>402.54</v>
       </c>
       <c r="D166" t="str">
         <v>0</v>
       </c>
       <c r="E166" t="str">
-        <v>318.32</v>
+        <v>260</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>0x180D009d48a8B254E88986BC83bF4214F7fBBafA</v>
+        <v>0xf0eeE0837e8F4feaC444412991f7005B8dFFa305</v>
       </c>
       <c r="B167" t="str">
-        <v>1,095.33</v>
+        <v>396.5</v>
       </c>
       <c r="C167" t="str">
-        <v>1,095.33</v>
+        <v>396.5</v>
       </c>
       <c r="D167" t="str">
-        <v>951.35</v>
+        <v>0</v>
       </c>
       <c r="E167" t="str">
-        <v>0</v>
+        <v>256.1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>0xeB0F9489F9aeFB6Bbd8d7f1cc3620898E30b49c0</v>
+        <v>0x3471FB8D9aF068bFC40509824c4863017da90d8b</v>
       </c>
       <c r="B168" t="str">
-        <v>1,095.33</v>
+        <v>720.98</v>
       </c>
       <c r="C168" t="str">
-        <v>1,095.33</v>
+        <v>720.98</v>
       </c>
       <c r="D168" t="str">
         <v>0</v>
       </c>
       <c r="E168" t="str">
-        <v>951.35</v>
+        <v>465.68</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
+        <v>0xFeD4972A2Ee597c587C1b0643849845544c17C2F</v>
       </c>
       <c r="B169" t="str">
-        <v>264.01</v>
+        <v>3,874.93</v>
       </c>
       <c r="C169" t="str">
-        <v>264.01</v>
+        <v>3,874.93</v>
       </c>
       <c r="D169" t="str">
         <v>0</v>
       </c>
       <c r="E169" t="str">
-        <v>229.31</v>
+        <v>2,502.8</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>0x264d1e532029b20B6C4dd301d2Cf1D8ba388aD85</v>
+        <v>0x8218E1a9D02E26E2aF124EA28b121031Cf25AaC8</v>
       </c>
       <c r="B170" t="str">
-        <v>60.57</v>
+        <v>1,942.99</v>
       </c>
       <c r="C170" t="str">
-        <v>60.57</v>
+        <v>1,942.99</v>
       </c>
       <c r="D170" t="str">
-        <v>52.61</v>
+        <v>1,254.97</v>
       </c>
       <c r="E170" t="str">
         <v>0</v>
@@ -42625,16 +46635,16 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>0xe8214D07dB68ae0aD83B95ea77Bb6f69B6BD8F8d</v>
+        <v>0xeD4bb80A1be411A3274386750ea17149735F57aA</v>
       </c>
       <c r="B171" t="str">
-        <v>0</v>
+        <v>177.78</v>
       </c>
       <c r="C171" t="str">
-        <v>141.04</v>
+        <v>177.78</v>
       </c>
       <c r="D171" t="str">
-        <v>122.5</v>
+        <v>114.83</v>
       </c>
       <c r="E171" t="str">
         <v>0</v>
@@ -42642,84 +46652,84 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>0x4905D19461Dc2292E426A77804f7EfBe47fe03A1</v>
+        <v>0xa8CE35A87d51EaC37675c1Cf7C5d6435a3b2079A</v>
       </c>
       <c r="B172" t="str">
-        <v>80,163.08</v>
+        <v>11,531.98</v>
       </c>
       <c r="C172" t="str">
-        <v>80,163.08</v>
+        <v>11,531.98</v>
       </c>
       <c r="D172" t="str">
-        <v>69,625.46</v>
+        <v>0</v>
       </c>
       <c r="E172" t="str">
-        <v>0</v>
+        <v>7,448.45</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
       </c>
       <c r="B173" t="str">
-        <v>315.33</v>
+        <v>5,875.64</v>
       </c>
       <c r="C173" t="str">
-        <v>315.33</v>
+        <v>5,875.64</v>
       </c>
       <c r="D173" t="str">
-        <v>273.88</v>
+        <v>0</v>
       </c>
       <c r="E173" t="str">
-        <v>0</v>
+        <v>3,795.05</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
+        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
       </c>
       <c r="B174" t="str">
-        <v>315.33</v>
+        <v>774.12</v>
       </c>
       <c r="C174" t="str">
-        <v>315.33</v>
+        <v>774.12</v>
       </c>
       <c r="D174" t="str">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E174" t="str">
-        <v>273.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>0x1Bf35e8Cd908D953b84B10a88C74DF7612Ecc660</v>
+        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
       </c>
       <c r="B175" t="str">
-        <v>86.35</v>
+        <v>774.12</v>
       </c>
       <c r="C175" t="str">
-        <v>86.35</v>
+        <v>774.12</v>
       </c>
       <c r="D175" t="str">
         <v>0</v>
       </c>
       <c r="E175" t="str">
-        <v>75</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
+        <v>0xf90518CBcd4ef086891cb22C87bd4F80B61a7081</v>
       </c>
       <c r="B176" t="str">
-        <v>0</v>
+        <v>1,416.65</v>
       </c>
       <c r="C176" t="str">
-        <v>60.82</v>
+        <v>1,416.65</v>
       </c>
       <c r="D176" t="str">
-        <v>52.83</v>
+        <v>915.01</v>
       </c>
       <c r="E176" t="str">
         <v>0</v>
@@ -42727,33 +46737,33 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
+        <v>0xD53314Cd179ccD3926Af264e62E3B6dAB06A6419</v>
       </c>
       <c r="B177" t="str">
-        <v>120.41</v>
+        <v>1,416.65</v>
       </c>
       <c r="C177" t="str">
-        <v>120.41</v>
+        <v>1,416.65</v>
       </c>
       <c r="D177" t="str">
-        <v>104.59</v>
+        <v>0</v>
       </c>
       <c r="E177" t="str">
-        <v>0</v>
+        <v>915.01</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
+        <v>0x89f4aB2AA510225d1438a03610da94f0b39D5975</v>
       </c>
       <c r="B178" t="str">
-        <v>244.78</v>
+        <v>619.29</v>
       </c>
       <c r="C178" t="str">
-        <v>244.78</v>
+        <v>619.29</v>
       </c>
       <c r="D178" t="str">
-        <v>212.61</v>
+        <v>400</v>
       </c>
       <c r="E178" t="str">
         <v>0</v>
@@ -42761,84 +46771,84 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
+        <v>0x415B3ca9858605709816bb854b42ECfE35F0B084</v>
       </c>
       <c r="B179" t="str">
-        <v>274.12</v>
+        <v>500</v>
       </c>
       <c r="C179" t="str">
-        <v>274.12</v>
+        <v>619.29</v>
       </c>
       <c r="D179" t="str">
         <v>0</v>
       </c>
       <c r="E179" t="str">
-        <v>238.09</v>
+        <v>400</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
+        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
       </c>
       <c r="B180" t="str">
-        <v>243.19</v>
+        <v>81,511.24</v>
       </c>
       <c r="C180" t="str">
-        <v>243.19</v>
+        <v>81,511.24</v>
       </c>
       <c r="D180" t="str">
-        <v>0</v>
+        <v>52,647.68</v>
       </c>
       <c r="E180" t="str">
-        <v>211.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>0xAFA44A7514ad85793Bc10C56DD731aEe4EA854F3</v>
+        <v>0x77fd2C77312d424E9b8F646E79a0014b5C870659</v>
       </c>
       <c r="B181" t="str">
-        <v>241.66</v>
+        <v>387.06</v>
       </c>
       <c r="C181" t="str">
-        <v>241.66</v>
+        <v>387.06</v>
       </c>
       <c r="D181" t="str">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E181" t="str">
-        <v>209.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
       </c>
       <c r="B182" t="str">
-        <v>1,835.76</v>
+        <v>360.36</v>
       </c>
       <c r="C182" t="str">
-        <v>1,835.76</v>
+        <v>360.36</v>
       </c>
       <c r="D182" t="str">
         <v>0</v>
       </c>
       <c r="E182" t="str">
-        <v>1,594.45</v>
+        <v>232.76</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
+        <v>0x5099ccbB5FC14BF6ea516EE6CC3e6B209a7aA8C6</v>
       </c>
       <c r="B183" t="str">
-        <v>2,290.77</v>
+        <v>2.77</v>
       </c>
       <c r="C183" t="str">
-        <v>2,290.77</v>
+        <v>2.77</v>
       </c>
       <c r="D183" t="str">
-        <v>1,989.65</v>
+        <v>1.79</v>
       </c>
       <c r="E183" t="str">
         <v>0</v>
@@ -42846,254 +46856,254 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
+        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
       </c>
       <c r="B184" t="str">
-        <v>2,290.77</v>
+        <v>1,040.61</v>
       </c>
       <c r="C184" t="str">
-        <v>2,290.77</v>
+        <v>1,040.61</v>
       </c>
       <c r="D184" t="str">
-        <v>0</v>
+        <v>672.13</v>
       </c>
       <c r="E184" t="str">
-        <v>1,989.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>0x66B6221845b9bd7A029BCCb5523168a5AcE1e013</v>
+        <v>0x4922dc29D2d0c725F542f5021D9353F3872F2dFF</v>
       </c>
       <c r="B185" t="str">
-        <v>307.08</v>
+        <v>1,161.18</v>
       </c>
       <c r="C185" t="str">
-        <v>307.08</v>
+        <v>1,161.18</v>
       </c>
       <c r="D185" t="str">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E185" t="str">
-        <v>266.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>0x22D93B96fcf17f472f82267413e27f511ADd7b2e</v>
+        <v>0xF473Ea7dc6E82C348530FDE410bFF035bCe0B269</v>
       </c>
       <c r="B186" t="str">
-        <v>13,345.69</v>
+        <v>1,625.65</v>
       </c>
       <c r="C186" t="str">
-        <v>13,345.69</v>
+        <v>1,625.65</v>
       </c>
       <c r="D186" t="str">
-        <v>11,440.21</v>
+        <v>0</v>
       </c>
       <c r="E186" t="str">
-        <v>151.16</v>
+        <v>1,050</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+        <v>0x620C45Fd6A4C15A4aa2A3a9301F0009b34F7809b</v>
       </c>
       <c r="B187" t="str">
-        <v>697.03</v>
+        <v>1,593.68</v>
       </c>
       <c r="C187" t="str">
-        <v>697.03</v>
+        <v>1,593.68</v>
       </c>
       <c r="D187" t="str">
-        <v>0</v>
+        <v>1,029.35</v>
       </c>
       <c r="E187" t="str">
-        <v>605.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
+        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
       </c>
       <c r="B188" t="str">
-        <v>57.8</v>
+        <v>1,349.77</v>
       </c>
       <c r="C188" t="str">
-        <v>57.8</v>
+        <v>1,349.77</v>
       </c>
       <c r="D188" t="str">
-        <v>50.21</v>
+        <v>0</v>
       </c>
       <c r="E188" t="str">
-        <v>0</v>
+        <v>871.81</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+        <v>0x358e444fFb60A1Cc82A6E412C6720f110dc1E921</v>
       </c>
       <c r="B189" t="str">
-        <v>58.87</v>
+        <v>0</v>
       </c>
       <c r="C189" t="str">
-        <v>58.87</v>
+        <v>5,136.5</v>
       </c>
       <c r="D189" t="str">
-        <v>51.14</v>
+        <v>0</v>
       </c>
       <c r="E189" t="str">
-        <v>0</v>
+        <v>3,317.64</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>0xabf7b5b7CdC68F8C01DE6bFD5EAf79da30D8B66A</v>
+        <v>0x04d9f35C7c292ca2c75C498563b48123C0662e19</v>
       </c>
       <c r="B190" t="str">
-        <v>342.94</v>
+        <v>335.3</v>
       </c>
       <c r="C190" t="str">
-        <v>342.94</v>
+        <v>335.3</v>
       </c>
       <c r="D190" t="str">
-        <v>0</v>
+        <v>216.57</v>
       </c>
       <c r="E190" t="str">
-        <v>297.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>0xf977A3246498673A5D83027183F863598dCa5E21</v>
+        <v>0x11C3498d0D70BBfCdAa8dA275d7dDEb7BF977137</v>
       </c>
       <c r="B191" t="str">
-        <v>119.32</v>
+        <v>251.1</v>
       </c>
       <c r="C191" t="str">
-        <v>119.32</v>
+        <v>251.1</v>
       </c>
       <c r="D191" t="str">
-        <v>103.64</v>
+        <v>0</v>
       </c>
       <c r="E191" t="str">
-        <v>0</v>
+        <v>162.19</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>0x86d04b2FA806dce57fF1b99971FF524d0484a2EC</v>
+        <v>0x8f437d47c7723C7AB5ab896D59549D547181BecB</v>
       </c>
       <c r="B192" t="str">
-        <v>119.32</v>
+        <v>150.34</v>
       </c>
       <c r="C192" t="str">
-        <v>119.32</v>
+        <v>150.34</v>
       </c>
       <c r="D192" t="str">
         <v>0</v>
       </c>
       <c r="E192" t="str">
-        <v>103.64</v>
+        <v>97.11</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
+        <v>0xF1f24214Ee7259dC0f5BC264299b0d32C4a0CA23</v>
       </c>
       <c r="B193" t="str">
-        <v>689.86</v>
+        <v>141.43</v>
       </c>
       <c r="C193" t="str">
-        <v>689.86</v>
+        <v>141.43</v>
       </c>
       <c r="D193" t="str">
-        <v>0</v>
+        <v>91.35</v>
       </c>
       <c r="E193" t="str">
-        <v>599.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+        <v>0x61c17C2EbD2647F82F7450b9956f1EE9357eA4B1</v>
       </c>
       <c r="B194" t="str">
-        <v>0</v>
+        <v>44,936.08</v>
       </c>
       <c r="C194" t="str">
-        <v>1,566.62</v>
+        <v>44,936.08</v>
       </c>
       <c r="D194" t="str">
-        <v>0</v>
+        <v>29,023.98</v>
       </c>
       <c r="E194" t="str">
-        <v>1,360.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>0x091D2bf74f675Df1d72eD6E07bCB693D56a4163c</v>
+        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
       </c>
       <c r="B195" t="str">
         <v>0</v>
       </c>
       <c r="C195" t="str">
-        <v>2,718.08</v>
+        <v>121.47</v>
       </c>
       <c r="D195" t="str">
-        <v>2,360.79</v>
+        <v>0</v>
       </c>
       <c r="E195" t="str">
-        <v>0</v>
+        <v>78.46</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>0x883c4BF5F45e8E75C59DdeA8B2ba3Cd40e81047D</v>
+        <v>0x96f194Cf1c9e5eE23B4D96785791F468F6A9C98e</v>
       </c>
       <c r="B196" t="str">
-        <v>296.14</v>
+        <v>11,611.8</v>
       </c>
       <c r="C196" t="str">
-        <v>296.14</v>
+        <v>11,611.8</v>
       </c>
       <c r="D196" t="str">
         <v>0</v>
       </c>
       <c r="E196" t="str">
-        <v>257.22</v>
+        <v>7,500</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>0x9C4e5edC6A735e4AB68ef04497b64008A955A1A5</v>
+        <v>0x1Bf35e8Cd908D953b84B10a88C74DF7612Ecc660</v>
       </c>
       <c r="B197" t="str">
-        <v>842.84</v>
+        <v>61.92</v>
       </c>
       <c r="C197" t="str">
-        <v>842.84</v>
+        <v>61.92</v>
       </c>
       <c r="D197" t="str">
         <v>0</v>
       </c>
       <c r="E197" t="str">
-        <v>732.05</v>
+        <v>40</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>0x4DF1C6c7973f4E6e3B22149f7b8eFc4389f97C56</v>
+        <v>0x8e9c9882bCA511e4ACA47776478EE95Bd20af994</v>
       </c>
       <c r="B198" t="str">
-        <v>953.32</v>
+        <v>181.71</v>
       </c>
       <c r="C198" t="str">
-        <v>953.32</v>
+        <v>181.71</v>
       </c>
       <c r="D198" t="str">
-        <v>828.01</v>
+        <v>117.37</v>
       </c>
       <c r="E198" t="str">
         <v>0</v>
@@ -43101,16 +47111,16 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+        <v>0xb4120A72ad3778E123da74F3C09c1272521C8b7e</v>
       </c>
       <c r="B199" t="str">
-        <v>73.02</v>
+        <v>24,839.31</v>
       </c>
       <c r="C199" t="str">
-        <v>73.02</v>
+        <v>24,839.31</v>
       </c>
       <c r="D199" t="str">
-        <v>63.43</v>
+        <v>16,043.58</v>
       </c>
       <c r="E199" t="str">
         <v>0</v>
@@ -43118,16 +47128,16 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>0x9964C7C7EB99E6F70dFef18c90D7526a0C13b46F</v>
+        <v>0xC44b6fcf320C7A15f288D3792E5BBF7D770e25c4</v>
       </c>
       <c r="B200" t="str">
-        <v>2.37</v>
+        <v>37.42</v>
       </c>
       <c r="C200" t="str">
-        <v>2.37</v>
+        <v>37.42</v>
       </c>
       <c r="D200" t="str">
-        <v>2.06</v>
+        <v>24.17</v>
       </c>
       <c r="E200" t="str">
         <v>0</v>
@@ -43135,101 +47145,101 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+        <v>0x9C0557216e919eDaCCc56037c66A5fAC1D41D82a</v>
       </c>
       <c r="B201" t="str">
-        <v>1,275.22</v>
+        <v>37.42</v>
       </c>
       <c r="C201" t="str">
-        <v>1,275.22</v>
+        <v>37.42</v>
       </c>
       <c r="D201" t="str">
         <v>0</v>
       </c>
       <c r="E201" t="str">
-        <v>1,107.59</v>
+        <v>24.17</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
+        <v>0xf74f5cF53A6746b1eddD9C7ea8Ab7447797c3D74</v>
       </c>
       <c r="B202" t="str">
-        <v>323.1</v>
+        <v>7,741.2</v>
       </c>
       <c r="C202" t="str">
-        <v>323.1</v>
+        <v>7,741.2</v>
       </c>
       <c r="D202" t="str">
         <v>0</v>
       </c>
       <c r="E202" t="str">
-        <v>280.63</v>
+        <v>5,000</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>0x5c077b6a51010d308bb6F0Fce9Cd1593d0F78517</v>
+        <v>0x325f292A70A46EE656b268D25EEFe5D88DfaF539</v>
       </c>
       <c r="B203" t="str">
-        <v>230.3</v>
+        <v>2,632</v>
       </c>
       <c r="C203" t="str">
-        <v>230.3</v>
+        <v>2,632</v>
       </c>
       <c r="D203" t="str">
         <v>0</v>
       </c>
       <c r="E203" t="str">
-        <v>200.03</v>
+        <v>1,700</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
+        <v>0x90bC95fCeE9a1BC23F995f8A32EC92C24e1CaD60</v>
       </c>
       <c r="B204" t="str">
-        <v>1,231.29</v>
+        <v>369.93</v>
       </c>
       <c r="C204" t="str">
-        <v>1,231.29</v>
+        <v>369.93</v>
       </c>
       <c r="D204" t="str">
-        <v>0</v>
+        <v>238.94</v>
       </c>
       <c r="E204" t="str">
-        <v>1,069.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+        <v>0xE77dF488D556c00355342b8Be573702011C86750</v>
       </c>
       <c r="B205" t="str">
-        <v>31.08</v>
+        <v>143.75</v>
       </c>
       <c r="C205" t="str">
-        <v>31.08</v>
+        <v>143.75</v>
       </c>
       <c r="D205" t="str">
         <v>0</v>
       </c>
       <c r="E205" t="str">
-        <v>27</v>
+        <v>92.85</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>0x454c9119dE1315e24f9644b9778EDA0dF266722E</v>
+        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
       </c>
       <c r="B206" t="str">
-        <v>1.15</v>
+        <v>38.7</v>
       </c>
       <c r="C206" t="str">
-        <v>1.15</v>
+        <v>38.7</v>
       </c>
       <c r="D206" t="str">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E206" t="str">
         <v>0</v>
@@ -43237,50 +47247,50 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+        <v>0x961E6565E7c04d1541BbBb09FA22457416eE579F</v>
       </c>
       <c r="B207" t="str">
-        <v>1,156.32</v>
+        <v>2,411.86</v>
       </c>
       <c r="C207" t="str">
-        <v>1,156.32</v>
+        <v>2,411.86</v>
       </c>
       <c r="D207" t="str">
-        <v>0</v>
+        <v>1,557.81</v>
       </c>
       <c r="E207" t="str">
-        <v>1,004.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>0x0a87597E226c758e1f48cf6Bd5aaBBFB250Fcbd7</v>
+        <v>0x9AFd15a40275947bDD6824ba0eAfE1cCe4143a2F</v>
       </c>
       <c r="B208" t="str">
-        <v>62.32</v>
+        <v>464.47</v>
       </c>
       <c r="C208" t="str">
-        <v>62.32</v>
+        <v>464.47</v>
       </c>
       <c r="D208" t="str">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E208" t="str">
-        <v>54.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>0x84E4F13636D3D15e79CCCC6d7daC2d71eE3503bF</v>
+        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
       </c>
       <c r="B209" t="str">
-        <v>723.96</v>
+        <v>2,128.83</v>
       </c>
       <c r="C209" t="str">
-        <v>723.96</v>
+        <v>2,128.83</v>
       </c>
       <c r="D209" t="str">
-        <v>628.8</v>
+        <v>1,375</v>
       </c>
       <c r="E209" t="str">
         <v>0</v>
@@ -43288,50 +47298,50 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>0xa63C9B5F146391A5572d2445a4dEFd67554ce7d5</v>
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
       </c>
       <c r="B210" t="str">
-        <v>723.96</v>
+        <v>0</v>
       </c>
       <c r="C210" t="str">
-        <v>723.96</v>
+        <v>2,128.83</v>
       </c>
       <c r="D210" t="str">
         <v>0</v>
       </c>
       <c r="E210" t="str">
-        <v>628.8</v>
+        <v>1,375</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>0x5390651dd0824159FE0e82554feC7b283bCa3745</v>
+        <v>0x4Dc25eB475Ecd1Df05d62D0b5e37BD8A229b2e16</v>
       </c>
       <c r="B211" t="str">
-        <v>1,155.03</v>
+        <v>135.65</v>
       </c>
       <c r="C211" t="str">
-        <v>1,155.03</v>
+        <v>135.65</v>
       </c>
       <c r="D211" t="str">
         <v>0</v>
       </c>
       <c r="E211" t="str">
-        <v>1,003.2</v>
+        <v>87.62</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>0xcCE9F53BB6c0C987b3247CAa3D00Dd845E2112cC</v>
+        <v>0xe6eaa2b28ce4b4064E37eF290E82de53Fd81C211</v>
       </c>
       <c r="B212" t="str">
-        <v>14.86</v>
+        <v>774.12</v>
       </c>
       <c r="C212" t="str">
-        <v>14.86</v>
+        <v>774.12</v>
       </c>
       <c r="D212" t="str">
-        <v>12.91</v>
+        <v>500</v>
       </c>
       <c r="E212" t="str">
         <v>0</v>
@@ -43339,16 +47349,16 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>0x212A3caD6d1572C706959d2aeF63071e61914bf2</v>
+        <v>0xdE976b1178696723F86102aaf17Ddd70522908dA</v>
       </c>
       <c r="B213" t="str">
-        <v>1,194.59</v>
+        <v>290.24</v>
       </c>
       <c r="C213" t="str">
-        <v>1,194.59</v>
+        <v>290.24</v>
       </c>
       <c r="D213" t="str">
-        <v>1,037.56</v>
+        <v>187.47</v>
       </c>
       <c r="E213" t="str">
         <v>0</v>
@@ -43356,381 +47366,24 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>0xF1ea664AbbA3452bc6cA6B289a6059613855805B</v>
+        <v>Total</v>
       </c>
       <c r="B214" t="str">
-        <v>1,194.59</v>
+        <v>3,168,465.46</v>
       </c>
       <c r="C214" t="str">
-        <v>1,194.59</v>
+        <v>3,205,127.16</v>
       </c>
       <c r="D214" t="str">
-        <v>0</v>
+        <v>913,396.79</v>
       </c>
       <c r="E214" t="str">
-        <v>1,037.56</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="str">
-        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
-      </c>
-      <c r="B215" t="str">
-        <v>115.13</v>
-      </c>
-      <c r="C215" t="str">
-        <v>115.13</v>
-      </c>
-      <c r="D215" t="str">
-        <v>0</v>
-      </c>
-      <c r="E215" t="str">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="str">
-        <v>0x7946f2f0eCd0F96d02f9698d211585F84438801E</v>
-      </c>
-      <c r="B216" t="str">
-        <v>12.33</v>
-      </c>
-      <c r="C216" t="str">
-        <v>12.33</v>
-      </c>
-      <c r="D216" t="str">
-        <v>10.71</v>
-      </c>
-      <c r="E216" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="str">
-        <v>0x494700b98fE1F432EeF0F5Ca8262D6d903F8a5Ab</v>
-      </c>
-      <c r="B217" t="str">
-        <v>606.56</v>
-      </c>
-      <c r="C217" t="str">
-        <v>606.56</v>
-      </c>
-      <c r="D217" t="str">
-        <v>0</v>
-      </c>
-      <c r="E217" t="str">
-        <v>526.83</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="str">
-        <v>0x65622631Da29278f372941B24056825563457eA6</v>
-      </c>
-      <c r="B218" t="str">
-        <v>1,373.37</v>
-      </c>
-      <c r="C218" t="str">
-        <v>1,373.37</v>
-      </c>
-      <c r="D218" t="str">
-        <v>1,192.84</v>
-      </c>
-      <c r="E218" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="str">
-        <v>0x3d5F0A62033206273527Ef33569213E904eC4DdF</v>
-      </c>
-      <c r="B219" t="str">
-        <v>73.57</v>
-      </c>
-      <c r="C219" t="str">
-        <v>73.57</v>
-      </c>
-      <c r="D219" t="str">
-        <v>0</v>
-      </c>
-      <c r="E219" t="str">
-        <v>63.9</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="str">
-        <v>0x3E3309ab5312f6875b6e9bE672b9A43EFb70D760</v>
-      </c>
-      <c r="B220" t="str">
-        <v>11,513.47</v>
-      </c>
-      <c r="C220" t="str">
-        <v>11,513.47</v>
-      </c>
-      <c r="D220" t="str">
-        <v>10,000</v>
-      </c>
-      <c r="E220" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="str">
-        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
-      </c>
-      <c r="B221" t="str">
-        <v>11,513.47</v>
-      </c>
-      <c r="C221" t="str">
-        <v>11,513.47</v>
-      </c>
-      <c r="D221" t="str">
-        <v>0</v>
-      </c>
-      <c r="E221" t="str">
-        <v>10,000</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="str">
-        <v>0x46d47D232d27bdF83FEA707ffd9Ce3e175B2D1dE</v>
-      </c>
-      <c r="B222" t="str">
-        <v>3,844.1</v>
-      </c>
-      <c r="C222" t="str">
-        <v>3,844.1</v>
-      </c>
-      <c r="D222" t="str">
-        <v>0</v>
-      </c>
-      <c r="E222" t="str">
-        <v>3,338.79</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="str">
-        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
-      </c>
-      <c r="B223" t="str">
-        <v>26.58</v>
-      </c>
-      <c r="C223" t="str">
-        <v>26.58</v>
-      </c>
-      <c r="D223" t="str">
-        <v>0</v>
-      </c>
-      <c r="E223" t="str">
-        <v>23.09</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="str">
-        <v>0xd2147a430DCfc5b141adcdc02ba0bD41120932c5</v>
-      </c>
-      <c r="B224" t="str">
-        <v>5.75</v>
-      </c>
-      <c r="C224" t="str">
-        <v>5.75</v>
-      </c>
-      <c r="D224" t="str">
-        <v>5</v>
-      </c>
-      <c r="E224" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="str">
-        <v>0xeD379BA7ce9E42a5C4dce34C89646e4509c46d86</v>
-      </c>
-      <c r="B225" t="str">
-        <v>1,480.54</v>
-      </c>
-      <c r="C225" t="str">
-        <v>1,480.54</v>
-      </c>
-      <c r="D225" t="str">
-        <v>1,285.92</v>
-      </c>
-      <c r="E225" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="str">
-        <v>0xBcD30108a8A27A9eB2D42B734517762A40a2b893</v>
-      </c>
-      <c r="B226" t="str">
-        <v>376.26</v>
-      </c>
-      <c r="C226" t="str">
-        <v>376.26</v>
-      </c>
-      <c r="D226" t="str">
-        <v>326.8</v>
-      </c>
-      <c r="E226" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="str">
-        <v>0x2A1Cc6c77782EA6BE6C08d61430A79E31Ea4efDf</v>
-      </c>
-      <c r="B227" t="str">
-        <v>312.47</v>
-      </c>
-      <c r="C227" t="str">
-        <v>312.47</v>
-      </c>
-      <c r="D227" t="str">
-        <v>0</v>
-      </c>
-      <c r="E227" t="str">
-        <v>271.4</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="str">
-        <v>0x7e5Ea20315270AD29527DA6881aC135F043F4E47</v>
-      </c>
-      <c r="B228" t="str">
-        <v>153.26</v>
-      </c>
-      <c r="C228" t="str">
-        <v>153.26</v>
-      </c>
-      <c r="D228" t="str">
-        <v>133.12</v>
-      </c>
-      <c r="E228" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="str">
-        <v>0x5C55e86A38d24BE5fF7f12221BF674C95FB188a7</v>
-      </c>
-      <c r="B229" t="str">
-        <v>153.26</v>
-      </c>
-      <c r="C229" t="str">
-        <v>153.26</v>
-      </c>
-      <c r="D229" t="str">
-        <v>0</v>
-      </c>
-      <c r="E229" t="str">
-        <v>133.12</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="str">
-        <v>0x0b6fD0e783d6cfC912eAb83d812002d8f659b1C9</v>
-      </c>
-      <c r="B230" t="str">
-        <v>1,874.05</v>
-      </c>
-      <c r="C230" t="str">
-        <v>1,874.05</v>
-      </c>
-      <c r="D230" t="str">
-        <v>1,627.71</v>
-      </c>
-      <c r="E230" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="str">
-        <v>0xF6259D890819865117BBFEf9761f0eE159b48b16</v>
-      </c>
-      <c r="B231" t="str">
-        <v>1,874.05</v>
-      </c>
-      <c r="C231" t="str">
-        <v>1,874.05</v>
-      </c>
-      <c r="D231" t="str">
-        <v>0</v>
-      </c>
-      <c r="E231" t="str">
-        <v>1,627.71</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="str">
-        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
-      </c>
-      <c r="B232" t="str">
-        <v>0</v>
-      </c>
-      <c r="C232" t="str">
-        <v>118.3</v>
-      </c>
-      <c r="D232" t="str">
-        <v>102.75</v>
-      </c>
-      <c r="E232" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="str">
-        <v>0xf78D0cdFB459eD9CC19eEb7c22B5F193d7662fcC</v>
-      </c>
-      <c r="B233" t="str">
-        <v>5,912.07</v>
-      </c>
-      <c r="C233" t="str">
-        <v>5,912.07</v>
-      </c>
-      <c r="D233" t="str">
-        <v>5,134.92</v>
-      </c>
-      <c r="E233" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="str">
-        <v>0x1Ce9aCdd550e245B65233252F91541467695f3f3</v>
-      </c>
-      <c r="B234" t="str">
-        <v>13,171.65</v>
-      </c>
-      <c r="C234" t="str">
-        <v>13,171.65</v>
-      </c>
-      <c r="D234" t="str">
-        <v>0</v>
-      </c>
-      <c r="E234" t="str">
-        <v>11,440.21</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="str">
-        <v>Total</v>
-      </c>
-      <c r="B235" t="str">
-        <v>3,035,298.25</v>
-      </c>
-      <c r="C235" t="str">
-        <v>3,205,127.04</v>
-      </c>
-      <c r="D235" t="str">
-        <v>922,218.27</v>
-      </c>
-      <c r="E235" t="str">
-        <v>1,861,588.44</v>
+        <v>1,156,778.37</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E235"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E214"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/staker_incentives.xlsx
+++ b/staker_incentives.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Blocks 69783960 - 70067138" sheetId="7" r:id="rId7"/>
     <sheet name="Blocks 70067139 - 70350763" sheetId="8" r:id="rId8"/>
     <sheet name="Blocks 70350764 - 70634063" sheetId="9" r:id="rId9"/>
+    <sheet name="Blocks 70634064 - 70917849" sheetId="10" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
@@ -7064,6 +7065,3886 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E227"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Staker Address</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Reward (ERC20 TEL)</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Uncapped Reward (ERC20 TEL)</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Staker Fees</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Referee Fees</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1,997.25</v>
+      </c>
+      <c r="C2" t="str">
+        <v>1,997.25</v>
+      </c>
+      <c r="D2" t="str">
+        <v>309.92</v>
+      </c>
+      <c r="E2" t="str">
+        <v>1,410.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2,202.23</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2,202.23</v>
+      </c>
+      <c r="D3" t="str">
+        <v>831.4</v>
+      </c>
+      <c r="E3" t="str">
+        <v>1,065.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2,202.23</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2,202.23</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1,065.14</v>
+      </c>
+      <c r="E4" t="str">
+        <v>831.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+      </c>
+      <c r="B5" t="str">
+        <v>79,719.08</v>
+      </c>
+      <c r="C5" t="str">
+        <v>79,719.08</v>
+      </c>
+      <c r="D5" t="str">
+        <v>3,582.7</v>
+      </c>
+      <c r="E5" t="str">
+        <v>65,070.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>0x77Fb1AeEEC6e3F3Cfe3a1f3aB87E7cB74872Db5D</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1,926.5</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1,926.5</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1.06</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1,658.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+      </c>
+      <c r="B7" t="str">
+        <v>11,951.61</v>
+      </c>
+      <c r="C7" t="str">
+        <v>11,951.61</v>
+      </c>
+      <c r="D7" t="str">
+        <v>10,292.58</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>0x4B3D17974c2F79fEf5D495F082e9eC7d1FD95a06</v>
+      </c>
+      <c r="B8" t="str">
+        <v>947.01</v>
+      </c>
+      <c r="C8" t="str">
+        <v>947.01</v>
+      </c>
+      <c r="D8" t="str">
+        <v>815.56</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
+      </c>
+      <c r="B9" t="str">
+        <v>947.01</v>
+      </c>
+      <c r="C9" t="str">
+        <v>947.01</v>
+      </c>
+      <c r="D9" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>815.56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+      </c>
+      <c r="B10" t="str">
+        <v>5,465.27</v>
+      </c>
+      <c r="C10" t="str">
+        <v>5,465.27</v>
+      </c>
+      <c r="D10" t="str">
+        <v>1,164.33</v>
+      </c>
+      <c r="E10" t="str">
+        <v>3,542.3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>0xf78D0cdFB459eD9CC19eEb7c22B5F193d7662fcC</v>
+      </c>
+      <c r="B11" t="str">
+        <v>906.01</v>
+      </c>
+      <c r="C11" t="str">
+        <v>906.01</v>
+      </c>
+      <c r="D11" t="str">
+        <v>780.25</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>0xAD5c21611Ea4790991c40BFD8e0888e012D7162E</v>
+      </c>
+      <c r="B12" t="str">
+        <v>1,138</v>
+      </c>
+      <c r="C12" t="str">
+        <v>1,138</v>
+      </c>
+      <c r="D12" t="str">
+        <v>980.04</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>0x3F3Cb523ce45c048c07081925CBd588a6C601b72</v>
+      </c>
+      <c r="B13" t="str">
+        <v>90.2</v>
+      </c>
+      <c r="C13" t="str">
+        <v>90.2</v>
+      </c>
+      <c r="D13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>77.68</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>0x143A47CAF24904a750242e138F31ADd7F6999Cb5</v>
+      </c>
+      <c r="B14" t="str">
+        <v>8.99</v>
+      </c>
+      <c r="C14" t="str">
+        <v>8.99</v>
+      </c>
+      <c r="D14" t="str">
+        <v>7.75</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>0xE233390f362B1dC22F621feead135D828a39781A</v>
+      </c>
+      <c r="B15" t="str">
+        <v>17.73</v>
+      </c>
+      <c r="C15" t="str">
+        <v>17.73</v>
+      </c>
+      <c r="D15" t="str">
+        <v>15.27</v>
+      </c>
+      <c r="E15" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>0x25E9eA1a93D9e505cd7d056C1e1bA16789537EAb</v>
+      </c>
+      <c r="B16" t="str">
+        <v>9,195.33</v>
+      </c>
+      <c r="C16" t="str">
+        <v>9,195.33</v>
+      </c>
+      <c r="D16" t="str">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <v>7,918.91</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+      </c>
+      <c r="B17" t="str">
+        <v>1,707.65</v>
+      </c>
+      <c r="C17" t="str">
+        <v>1,707.65</v>
+      </c>
+      <c r="D17" t="str">
+        <v>1,470.61</v>
+      </c>
+      <c r="E17" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>0x5Fc4faF3934548c57d66f1179C2991cEd028E61F</v>
+      </c>
+      <c r="B18" t="str">
+        <v>290.29</v>
+      </c>
+      <c r="C18" t="str">
+        <v>290.29</v>
+      </c>
+      <c r="D18" t="str">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+      </c>
+      <c r="B19" t="str">
+        <v>108,672.83</v>
+      </c>
+      <c r="C19" t="str">
+        <v>108,672.83</v>
+      </c>
+      <c r="D19" t="str">
+        <v>18,501.95</v>
+      </c>
+      <c r="E19" t="str">
+        <v>75,085.76</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
+      </c>
+      <c r="B20" t="str">
+        <v>12,278.97</v>
+      </c>
+      <c r="C20" t="str">
+        <v>12,278.97</v>
+      </c>
+      <c r="D20" t="str">
+        <v>4,092.1</v>
+      </c>
+      <c r="E20" t="str">
+        <v>6,482.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
+      </c>
+      <c r="B21" t="str">
+        <v>72,480.52</v>
+      </c>
+      <c r="C21" t="str">
+        <v>72,480.52</v>
+      </c>
+      <c r="D21" t="str">
+        <v>4,601.73</v>
+      </c>
+      <c r="E21" t="str">
+        <v>57,817.61</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>0x16eE201E4fD4418f47A6c7f45fB0Aaf8a61011Df</v>
+      </c>
+      <c r="B22" t="str">
+        <v>2,858.79</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2,858.79</v>
+      </c>
+      <c r="D22" t="str">
+        <v>2,461.96</v>
+      </c>
+      <c r="E22" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+      </c>
+      <c r="B23" t="str">
+        <v>9,775.49</v>
+      </c>
+      <c r="C23" t="str">
+        <v>9,775.49</v>
+      </c>
+      <c r="D23" t="str">
+        <v>8,111.53</v>
+      </c>
+      <c r="E23" t="str">
+        <v>307.01</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+      </c>
+      <c r="B24" t="str">
+        <v>310.87</v>
+      </c>
+      <c r="C24" t="str">
+        <v>310.87</v>
+      </c>
+      <c r="D24" t="str">
+        <v>267.72</v>
+      </c>
+      <c r="E24" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+      </c>
+      <c r="B25" t="str">
+        <v>3,753.37</v>
+      </c>
+      <c r="C25" t="str">
+        <v>3,753.37</v>
+      </c>
+      <c r="D25" t="str">
+        <v>2,922.44</v>
+      </c>
+      <c r="E25" t="str">
+        <v>309.92</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
+      </c>
+      <c r="B26" t="str">
+        <v>788.88</v>
+      </c>
+      <c r="C26" t="str">
+        <v>788.88</v>
+      </c>
+      <c r="D26" t="str">
+        <v>679.38</v>
+      </c>
+      <c r="E26" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
+      </c>
+      <c r="B27" t="str">
+        <v>1,275.99</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1,275.99</v>
+      </c>
+      <c r="D27" t="str">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <v>1,098.87</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>0x72d20dcB42DC91D2Dc1DB60375e1945e23708130</v>
+      </c>
+      <c r="B28" t="str">
+        <v>480.71</v>
+      </c>
+      <c r="C28" t="str">
+        <v>480.71</v>
+      </c>
+      <c r="D28" t="str">
+        <v>413.99</v>
+      </c>
+      <c r="E28" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
+      </c>
+      <c r="B29" t="str">
+        <v>480.71</v>
+      </c>
+      <c r="C29" t="str">
+        <v>480.71</v>
+      </c>
+      <c r="D29" t="str">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <v>413.99</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>0x893b99952A101ea504E2DA3d44164858b11a58a1</v>
+      </c>
+      <c r="B30" t="str">
+        <v>118.8</v>
+      </c>
+      <c r="C30" t="str">
+        <v>118.8</v>
+      </c>
+      <c r="D30" t="str">
+        <v>102.31</v>
+      </c>
+      <c r="E30" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+      </c>
+      <c r="B31" t="str">
+        <v>0</v>
+      </c>
+      <c r="C31" t="str">
+        <v>21,514.21</v>
+      </c>
+      <c r="D31" t="str">
+        <v>17.99</v>
+      </c>
+      <c r="E31" t="str">
+        <v>18,509.79</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>0x964087989Df5D5e89cF7527b72A3949367a337bA</v>
+      </c>
+      <c r="B32" t="str">
+        <v>9,669.08</v>
+      </c>
+      <c r="C32" t="str">
+        <v>9,669.08</v>
+      </c>
+      <c r="D32" t="str">
+        <v>8,326.9</v>
+      </c>
+      <c r="E32" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>0x65ED1e1351640D112aeAc04d4988B6916a5f62dc</v>
+      </c>
+      <c r="B33" t="str">
+        <v>249.73</v>
+      </c>
+      <c r="C33" t="str">
+        <v>249.73</v>
+      </c>
+      <c r="D33" t="str">
+        <v>215.07</v>
+      </c>
+      <c r="E33" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>0x883c4BF5F45e8E75C59DdeA8B2ba3Cd40e81047D</v>
+      </c>
+      <c r="B34" t="str">
+        <v>249.73</v>
+      </c>
+      <c r="C34" t="str">
+        <v>249.73</v>
+      </c>
+      <c r="D34" t="str">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <v>215.07</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>0x8218E1a9D02E26E2aF124EA28b121031Cf25AaC8</v>
+      </c>
+      <c r="B35" t="str">
+        <v>3,442.5</v>
+      </c>
+      <c r="C35" t="str">
+        <v>3,442.5</v>
+      </c>
+      <c r="D35" t="str">
+        <v>2,964.64</v>
+      </c>
+      <c r="E35" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>0x64d564A6A6003a9fcb44f8F50b9A3C7bBea2a7E7</v>
+      </c>
+      <c r="B36" t="str">
+        <v>119.46</v>
+      </c>
+      <c r="C36" t="str">
+        <v>119.46</v>
+      </c>
+      <c r="D36" t="str">
+        <v>102.88</v>
+      </c>
+      <c r="E36" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>0xf0a8596541F839EBcC9f0A9d1442c15f43A2836E</v>
+      </c>
+      <c r="B37" t="str">
+        <v>119.46</v>
+      </c>
+      <c r="C37" t="str">
+        <v>119.46</v>
+      </c>
+      <c r="D37" t="str">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <v>102.88</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
+      </c>
+      <c r="B38" t="str">
+        <v>1,888.71</v>
+      </c>
+      <c r="C38" t="str">
+        <v>1,888.71</v>
+      </c>
+      <c r="D38" t="str">
+        <v>1,626.54</v>
+      </c>
+      <c r="E38" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>0x5099ccbB5FC14BF6ea516EE6CC3e6B209a7aA8C6</v>
+      </c>
+      <c r="B39" t="str">
+        <v>603.43</v>
+      </c>
+      <c r="C39" t="str">
+        <v>603.43</v>
+      </c>
+      <c r="D39" t="str">
+        <v>519.67</v>
+      </c>
+      <c r="E39" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
+      </c>
+      <c r="B40" t="str">
+        <v>15,946.55</v>
+      </c>
+      <c r="C40" t="str">
+        <v>15,946.55</v>
+      </c>
+      <c r="D40" t="str">
+        <v>590.78</v>
+      </c>
+      <c r="E40" t="str">
+        <v>13,142.2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+      </c>
+      <c r="B41" t="str">
+        <v>686</v>
+      </c>
+      <c r="C41" t="str">
+        <v>686</v>
+      </c>
+      <c r="D41" t="str">
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <v>590.78</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>0xdd61cabccEa7933D2372606963D66F0924831D29</v>
+      </c>
+      <c r="B42" t="str">
+        <v>20.4</v>
+      </c>
+      <c r="C42" t="str">
+        <v>20.4</v>
+      </c>
+      <c r="D42" t="str">
+        <v>17.57</v>
+      </c>
+      <c r="E42" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
+      </c>
+      <c r="B43" t="str">
+        <v>20.4</v>
+      </c>
+      <c r="C43" t="str">
+        <v>20.4</v>
+      </c>
+      <c r="D43" t="str">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
+      </c>
+      <c r="B44" t="str">
+        <v>1,436.73</v>
+      </c>
+      <c r="C44" t="str">
+        <v>1,436.73</v>
+      </c>
+      <c r="D44" t="str">
+        <v>1,237.3</v>
+      </c>
+      <c r="E44" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+      </c>
+      <c r="B45" t="str">
+        <v>44,560.21</v>
+      </c>
+      <c r="C45" t="str">
+        <v>44,560.21</v>
+      </c>
+      <c r="D45" t="str">
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <v>38,374.71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
+      </c>
+      <c r="B46" t="str">
+        <v>275.77</v>
+      </c>
+      <c r="C46" t="str">
+        <v>275.77</v>
+      </c>
+      <c r="D46" t="str">
+        <v>237.49</v>
+      </c>
+      <c r="E46" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>0x04d9f35C7c292ca2c75C498563b48123C0662e19</v>
+      </c>
+      <c r="B47" t="str">
+        <v>2,909.13</v>
+      </c>
+      <c r="C47" t="str">
+        <v>2,909.13</v>
+      </c>
+      <c r="D47" t="str">
+        <v>2,505.31</v>
+      </c>
+      <c r="E47" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>0x7B82007d91312Bb84E57A79c6df7Fa3928beD152</v>
+      </c>
+      <c r="B48" t="str">
+        <v>18.97</v>
+      </c>
+      <c r="C48" t="str">
+        <v>18.97</v>
+      </c>
+      <c r="D48" t="str">
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
+      </c>
+      <c r="B49" t="str">
+        <v>18.81</v>
+      </c>
+      <c r="C49" t="str">
+        <v>18.81</v>
+      </c>
+      <c r="D49" t="str">
+        <v>16.2</v>
+      </c>
+      <c r="E49" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+      </c>
+      <c r="B50" t="str">
+        <v>577,271.42</v>
+      </c>
+      <c r="C50" t="str">
+        <v>577,271.42</v>
+      </c>
+      <c r="D50" t="str">
+        <v>248,690.08</v>
+      </c>
+      <c r="E50" t="str">
+        <v>248,448.98</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
+      </c>
+      <c r="B51" t="str">
+        <v>284.49</v>
+      </c>
+      <c r="C51" t="str">
+        <v>284.49</v>
+      </c>
+      <c r="D51" t="str">
+        <v>245</v>
+      </c>
+      <c r="E51" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>0x413Af536E3D18D259A9b71B42AC66faC5aBa0Fbf</v>
+      </c>
+      <c r="B52" t="str">
+        <v>9.87</v>
+      </c>
+      <c r="C52" t="str">
+        <v>9.87</v>
+      </c>
+      <c r="D52" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="E52" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
+      </c>
+      <c r="B53" t="str">
+        <v>54.32</v>
+      </c>
+      <c r="C53" t="str">
+        <v>54.32</v>
+      </c>
+      <c r="D53" t="str">
+        <v>46.78</v>
+      </c>
+      <c r="E53" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>0x4e50BEF218F0Db065F4EE833D3679712A74F21F2</v>
+      </c>
+      <c r="B54" t="str">
+        <v>50.47</v>
+      </c>
+      <c r="C54" t="str">
+        <v>50.47</v>
+      </c>
+      <c r="D54" t="str">
+        <v>43.47</v>
+      </c>
+      <c r="E54" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0xc3E8E2045564533F6a31ec05b3BD9BCFc5C9f76D</v>
+      </c>
+      <c r="B55" t="str">
+        <v>44.84</v>
+      </c>
+      <c r="C55" t="str">
+        <v>44.84</v>
+      </c>
+      <c r="D55" t="str">
+        <v>38.62</v>
+      </c>
+      <c r="E55" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+      </c>
+      <c r="B56" t="str">
+        <v>32.72</v>
+      </c>
+      <c r="C56" t="str">
+        <v>32.72</v>
+      </c>
+      <c r="D56" t="str">
+        <v>28.18</v>
+      </c>
+      <c r="E56" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
+      </c>
+      <c r="B57" t="str">
+        <v>25.41</v>
+      </c>
+      <c r="C57" t="str">
+        <v>25.41</v>
+      </c>
+      <c r="D57" t="str">
+        <v>21.89</v>
+      </c>
+      <c r="E57" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>0xa755B0E03b0C0411c64749C64F063a6600a24D8c</v>
+      </c>
+      <c r="B58" t="str">
+        <v>721.32</v>
+      </c>
+      <c r="C58" t="str">
+        <v>721.32</v>
+      </c>
+      <c r="D58" t="str">
+        <v>621.2</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>0x357cDa2237d31e618ba3A39dD4691429E7cDD107</v>
+      </c>
+      <c r="B59" t="str">
+        <v>1,391.03</v>
+      </c>
+      <c r="C59" t="str">
+        <v>1,391.03</v>
+      </c>
+      <c r="D59" t="str">
+        <v>1,197.94</v>
+      </c>
+      <c r="E59" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>0x24EC4345706a30747bA16dCA3e9751B73b72C78a</v>
+      </c>
+      <c r="B60" t="str">
+        <v>466.69</v>
+      </c>
+      <c r="C60" t="str">
+        <v>466.69</v>
+      </c>
+      <c r="D60" t="str">
+        <v>401.91</v>
+      </c>
+      <c r="E60" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
+      </c>
+      <c r="B61" t="str">
+        <v>472.33</v>
+      </c>
+      <c r="C61" t="str">
+        <v>472.33</v>
+      </c>
+      <c r="D61" t="str">
+        <v>406.77</v>
+      </c>
+      <c r="E61" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>0x2731b9BC4c6AC6287996741A5A87D6E51D18B2EB</v>
+      </c>
+      <c r="B62" t="str">
+        <v>368.39</v>
+      </c>
+      <c r="C62" t="str">
+        <v>368.39</v>
+      </c>
+      <c r="D62" t="str">
+        <v>317.26</v>
+      </c>
+      <c r="E62" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>0x942E746C384bec88Dfa6164e8d699858E9988FeB</v>
+      </c>
+      <c r="B63" t="str">
+        <v>270.81</v>
+      </c>
+      <c r="C63" t="str">
+        <v>270.81</v>
+      </c>
+      <c r="D63" t="str">
+        <v>233.22</v>
+      </c>
+      <c r="E63" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
+      </c>
+      <c r="B64" t="str">
+        <v>32.95</v>
+      </c>
+      <c r="C64" t="str">
+        <v>32.95</v>
+      </c>
+      <c r="D64" t="str">
+        <v>28.38</v>
+      </c>
+      <c r="E64" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
+      </c>
+      <c r="B65" t="str">
+        <v>15,260.55</v>
+      </c>
+      <c r="C65" t="str">
+        <v>15,260.55</v>
+      </c>
+      <c r="D65" t="str">
+        <v>13,142.2</v>
+      </c>
+      <c r="E65" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
+      </c>
+      <c r="B66" t="str">
+        <v>6,070.82</v>
+      </c>
+      <c r="C66" t="str">
+        <v>6,070.82</v>
+      </c>
+      <c r="D66" t="str">
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <v>5,228.12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+      </c>
+      <c r="B67" t="str">
+        <v>878.04</v>
+      </c>
+      <c r="C67" t="str">
+        <v>878.04</v>
+      </c>
+      <c r="D67" t="str">
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <v>756.16</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>0xb4120A72ad3778E123da74F3C09c1272521C8b7e</v>
+      </c>
+      <c r="B68" t="str">
+        <v>74,795.79</v>
+      </c>
+      <c r="C68" t="str">
+        <v>74,795.79</v>
+      </c>
+      <c r="D68" t="str">
+        <v>64,413.22</v>
+      </c>
+      <c r="E68" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>0xa8f881849583f2dBC55f04433C62Edbc79f46286</v>
+      </c>
+      <c r="B69" t="str">
+        <v>23.35</v>
+      </c>
+      <c r="C69" t="str">
+        <v>23.35</v>
+      </c>
+      <c r="D69" t="str">
+        <v>20.11</v>
+      </c>
+      <c r="E69" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
+      </c>
+      <c r="B70" t="str">
+        <v>51.92</v>
+      </c>
+      <c r="C70" t="str">
+        <v>51.92</v>
+      </c>
+      <c r="D70" t="str">
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <v>44.72</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>0x7e729b21005cF2FDda685bA7Bef04c6Dc3DcD444</v>
+      </c>
+      <c r="B71" t="str">
+        <v>4.81</v>
+      </c>
+      <c r="C71" t="str">
+        <v>4.81</v>
+      </c>
+      <c r="D71" t="str">
+        <v>4.15</v>
+      </c>
+      <c r="E71" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+      </c>
+      <c r="B72" t="str">
+        <v>44,765.14</v>
+      </c>
+      <c r="C72" t="str">
+        <v>44,765.14</v>
+      </c>
+      <c r="D72" t="str">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <v>38,551.19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+      </c>
+      <c r="B73" t="str">
+        <v>1,989.25</v>
+      </c>
+      <c r="C73" t="str">
+        <v>1,989.25</v>
+      </c>
+      <c r="D73" t="str">
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <v>1,713.12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
+      </c>
+      <c r="B74" t="str">
+        <v>1,697.43</v>
+      </c>
+      <c r="C74" t="str">
+        <v>1,697.43</v>
+      </c>
+      <c r="D74" t="str">
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <v>1,461.81</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>0x494700b98fE1F432EeF0F5Ca8262D6d903F8a5Ab</v>
+      </c>
+      <c r="B75" t="str">
+        <v>1,211.72</v>
+      </c>
+      <c r="C75" t="str">
+        <v>1,211.72</v>
+      </c>
+      <c r="D75" t="str">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <v>1,043.52</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>0x889f1F09b491711013cA6787E29e07a04FDf42a4</v>
+      </c>
+      <c r="B76" t="str">
+        <v>237,594.93</v>
+      </c>
+      <c r="C76" t="str">
+        <v>237,594.93</v>
+      </c>
+      <c r="D76" t="str">
+        <v>25,974.89</v>
+      </c>
+      <c r="E76" t="str">
+        <v>178,638.95</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+      </c>
+      <c r="B77" t="str">
+        <v>194,482.46</v>
+      </c>
+      <c r="C77" t="str">
+        <v>194,482.46</v>
+      </c>
+      <c r="D77" t="str">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <v>167,485.91</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
+      </c>
+      <c r="B78" t="str">
+        <v>1,714.38</v>
+      </c>
+      <c r="C78" t="str">
+        <v>1,714.38</v>
+      </c>
+      <c r="D78" t="str">
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <v>1,476.41</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+      </c>
+      <c r="B79" t="str">
+        <v>634.9</v>
+      </c>
+      <c r="C79" t="str">
+        <v>634.9</v>
+      </c>
+      <c r="D79" t="str">
+        <v>546.77</v>
+      </c>
+      <c r="E79" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
+      </c>
+      <c r="B80" t="str">
+        <v>13,743.43</v>
+      </c>
+      <c r="C80" t="str">
+        <v>13,743.43</v>
+      </c>
+      <c r="D80" t="str">
+        <v>11,835.68</v>
+      </c>
+      <c r="E80" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
+      </c>
+      <c r="B81" t="str">
+        <v>13,743.43</v>
+      </c>
+      <c r="C81" t="str">
+        <v>13,743.43</v>
+      </c>
+      <c r="D81" t="str">
+        <v>0</v>
+      </c>
+      <c r="E81" t="str">
+        <v>11,835.68</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>0x387c310a3cC65aa12BC11CAF67a17b4a8693ed5e</v>
+      </c>
+      <c r="B82" t="str">
+        <v>11,129.75</v>
+      </c>
+      <c r="C82" t="str">
+        <v>11,129.75</v>
+      </c>
+      <c r="D82" t="str">
+        <v>9,584.81</v>
+      </c>
+      <c r="E82" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+      </c>
+      <c r="B83" t="str">
+        <v>8,390.06</v>
+      </c>
+      <c r="C83" t="str">
+        <v>8,390.06</v>
+      </c>
+      <c r="D83" t="str">
+        <v>7,225.42</v>
+      </c>
+      <c r="E83" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+      </c>
+      <c r="B84" t="str">
+        <v>8,390.06</v>
+      </c>
+      <c r="C84" t="str">
+        <v>8,390.06</v>
+      </c>
+      <c r="D84" t="str">
+        <v>0</v>
+      </c>
+      <c r="E84" t="str">
+        <v>7,225.42</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>0x0fA1AfF9540786DCad9196e0676e2e4423317FAf</v>
+      </c>
+      <c r="B85" t="str">
+        <v>9,596.35</v>
+      </c>
+      <c r="C85" t="str">
+        <v>9,596.35</v>
+      </c>
+      <c r="D85" t="str">
+        <v>8,264.26</v>
+      </c>
+      <c r="E85" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
+      </c>
+      <c r="B86" t="str">
+        <v>9,730.6</v>
+      </c>
+      <c r="C86" t="str">
+        <v>9,730.6</v>
+      </c>
+      <c r="D86" t="str">
+        <v>115.62</v>
+      </c>
+      <c r="E86" t="str">
+        <v>8,264.26</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
+      </c>
+      <c r="B87" t="str">
+        <v>3,232.73</v>
+      </c>
+      <c r="C87" t="str">
+        <v>3,232.73</v>
+      </c>
+      <c r="D87" t="str">
+        <v>2,783.99</v>
+      </c>
+      <c r="E87" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
+      </c>
+      <c r="B88" t="str">
+        <v>0</v>
+      </c>
+      <c r="C88" t="str">
+        <v>3,232.73</v>
+      </c>
+      <c r="D88" t="str">
+        <v>0</v>
+      </c>
+      <c r="E88" t="str">
+        <v>2,783.99</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+      </c>
+      <c r="B89" t="str">
+        <v>6,739.71</v>
+      </c>
+      <c r="C89" t="str">
+        <v>6,739.71</v>
+      </c>
+      <c r="D89" t="str">
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <v>5,804.16</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
+      </c>
+      <c r="B90" t="str">
+        <v>59.22</v>
+      </c>
+      <c r="C90" t="str">
+        <v>59.22</v>
+      </c>
+      <c r="D90" t="str">
+        <v>51</v>
+      </c>
+      <c r="E90" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>0xCf54bb8C360FB4Ec47AE0c31Bc8864B163651277</v>
+      </c>
+      <c r="B91" t="str">
+        <v>0</v>
+      </c>
+      <c r="C91" t="str">
+        <v>140.1</v>
+      </c>
+      <c r="D91" t="str">
+        <v>120.66</v>
+      </c>
+      <c r="E91" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
+      </c>
+      <c r="B92" t="str">
+        <v>643.82</v>
+      </c>
+      <c r="C92" t="str">
+        <v>643.82</v>
+      </c>
+      <c r="D92" t="str">
+        <v>500</v>
+      </c>
+      <c r="E92" t="str">
+        <v>54.45</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
+      </c>
+      <c r="B93" t="str">
+        <v>580.59</v>
+      </c>
+      <c r="C93" t="str">
+        <v>580.59</v>
+      </c>
+      <c r="D93" t="str">
+        <v>0</v>
+      </c>
+      <c r="E93" t="str">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+      </c>
+      <c r="B94" t="str">
+        <v>321.43</v>
+      </c>
+      <c r="C94" t="str">
+        <v>321.43</v>
+      </c>
+      <c r="D94" t="str">
+        <v>0</v>
+      </c>
+      <c r="E94" t="str">
+        <v>276.82</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+      </c>
+      <c r="B95" t="str">
+        <v>35,222.79</v>
+      </c>
+      <c r="C95" t="str">
+        <v>35,222.79</v>
+      </c>
+      <c r="D95" t="str">
+        <v>30,333.44</v>
+      </c>
+      <c r="E95" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+      </c>
+      <c r="B96" t="str">
+        <v>0</v>
+      </c>
+      <c r="C96" t="str">
+        <v>35,222.79</v>
+      </c>
+      <c r="D96" t="str">
+        <v>0</v>
+      </c>
+      <c r="E96" t="str">
+        <v>30,333.44</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+      </c>
+      <c r="B97" t="str">
+        <v>8,204.03</v>
+      </c>
+      <c r="C97" t="str">
+        <v>8,204.03</v>
+      </c>
+      <c r="D97" t="str">
+        <v>2,321.52</v>
+      </c>
+      <c r="E97" t="str">
+        <v>4,743.69</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>0x61c17C2EbD2647F82F7450b9956f1EE9357eA4B1</v>
+      </c>
+      <c r="B98" t="str">
+        <v>55,063.92</v>
+      </c>
+      <c r="C98" t="str">
+        <v>60,372.84</v>
+      </c>
+      <c r="D98" t="str">
+        <v>51,992.35</v>
+      </c>
+      <c r="E98" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>0xA66ABB96cC791CFD157CFcd404B27A0920824B35</v>
+      </c>
+      <c r="B99" t="str">
+        <v>0</v>
+      </c>
+      <c r="C99" t="str">
+        <v>267,806.07</v>
+      </c>
+      <c r="D99" t="str">
+        <v>178,638.95</v>
+      </c>
+      <c r="E99" t="str">
+        <v>51,992.35</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+      </c>
+      <c r="B100" t="str">
+        <v>46.93</v>
+      </c>
+      <c r="C100" t="str">
+        <v>46.93</v>
+      </c>
+      <c r="D100" t="str">
+        <v>40.42</v>
+      </c>
+      <c r="E100" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>0x41382710CB3320194F0fb9Ef8e8531e0E291D740</v>
+      </c>
+      <c r="B101" t="str">
+        <v>233.45</v>
+      </c>
+      <c r="C101" t="str">
+        <v>233.45</v>
+      </c>
+      <c r="D101" t="str">
+        <v>201.05</v>
+      </c>
+      <c r="E101" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>0xAa00788779C2bB3C012BA6914A26cA5B23E02371</v>
+      </c>
+      <c r="B102" t="str">
+        <v>233.45</v>
+      </c>
+      <c r="C102" t="str">
+        <v>233.45</v>
+      </c>
+      <c r="D102" t="str">
+        <v>0</v>
+      </c>
+      <c r="E102" t="str">
+        <v>201.05</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
+      </c>
+      <c r="B103" t="str">
+        <v>3,530</v>
+      </c>
+      <c r="C103" t="str">
+        <v>3,530</v>
+      </c>
+      <c r="D103" t="str">
+        <v>3,040</v>
+      </c>
+      <c r="E103" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+      </c>
+      <c r="B104" t="str">
+        <v>3,530</v>
+      </c>
+      <c r="C104" t="str">
+        <v>3,530</v>
+      </c>
+      <c r="D104" t="str">
+        <v>0</v>
+      </c>
+      <c r="E104" t="str">
+        <v>3,040</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>0xc5f85e44C65783b4f1fD18D81CDA4e0Eb0eBb77d</v>
+      </c>
+      <c r="B105" t="str">
+        <v>93.54</v>
+      </c>
+      <c r="C105" t="str">
+        <v>93.54</v>
+      </c>
+      <c r="D105" t="str">
+        <v>80.56</v>
+      </c>
+      <c r="E105" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+      </c>
+      <c r="B106" t="str">
+        <v>18,968.52</v>
+      </c>
+      <c r="C106" t="str">
+        <v>18,968.52</v>
+      </c>
+      <c r="D106" t="str">
+        <v>9,967.11</v>
+      </c>
+      <c r="E106" t="str">
+        <v>6,368.35</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>0xe1cE7bDEae6757E29008f2ECA572b6208E23a822</v>
+      </c>
+      <c r="B107" t="str">
+        <v>3,499.42</v>
+      </c>
+      <c r="C107" t="str">
+        <v>3,499.42</v>
+      </c>
+      <c r="D107" t="str">
+        <v>3,013.66</v>
+      </c>
+      <c r="E107" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>0xb8D8066d1EE9D03800B7600d2807b7749B9F6899</v>
+      </c>
+      <c r="B108" t="str">
+        <v>290.29</v>
+      </c>
+      <c r="C108" t="str">
+        <v>290.29</v>
+      </c>
+      <c r="D108" t="str">
+        <v>250</v>
+      </c>
+      <c r="E108" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>0xD465Ffa5efAdF5cF1Dd6c45c3C305f58279A2140</v>
+      </c>
+      <c r="B109" t="str">
+        <v>0</v>
+      </c>
+      <c r="C109" t="str">
+        <v>290.29</v>
+      </c>
+      <c r="D109" t="str">
+        <v>0</v>
+      </c>
+      <c r="E109" t="str">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+      </c>
+      <c r="B110" t="str">
+        <v>39.96</v>
+      </c>
+      <c r="C110" t="str">
+        <v>39.96</v>
+      </c>
+      <c r="D110" t="str">
+        <v>0</v>
+      </c>
+      <c r="E110" t="str">
+        <v>34.42</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+      </c>
+      <c r="B111" t="str">
+        <v>71.19</v>
+      </c>
+      <c r="C111" t="str">
+        <v>71.19</v>
+      </c>
+      <c r="D111" t="str">
+        <v>61.31</v>
+      </c>
+      <c r="E111" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
+      </c>
+      <c r="B112" t="str">
+        <v>28.29</v>
+      </c>
+      <c r="C112" t="str">
+        <v>28.29</v>
+      </c>
+      <c r="D112" t="str">
+        <v>0</v>
+      </c>
+      <c r="E112" t="str">
+        <v>24.37</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>0xC53Fa15adE563291bF8ba8d7E62a9B0959e6aE30</v>
+      </c>
+      <c r="B113" t="str">
+        <v>67.11</v>
+      </c>
+      <c r="C113" t="str">
+        <v>67.11</v>
+      </c>
+      <c r="D113" t="str">
+        <v>57.8</v>
+      </c>
+      <c r="E113" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>0xcE1290F5457067497EAd8Aea22515d52ca94357E</v>
+      </c>
+      <c r="B114" t="str">
+        <v>165</v>
+      </c>
+      <c r="C114" t="str">
+        <v>165</v>
+      </c>
+      <c r="D114" t="str">
+        <v>0</v>
+      </c>
+      <c r="E114" t="str">
+        <v>142.1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
+      </c>
+      <c r="B115" t="str">
+        <v>4,630.54</v>
+      </c>
+      <c r="C115" t="str">
+        <v>4,630.54</v>
+      </c>
+      <c r="D115" t="str">
+        <v>3,987.77</v>
+      </c>
+      <c r="E115" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+      </c>
+      <c r="B116" t="str">
+        <v>86,038.08</v>
+      </c>
+      <c r="C116" t="str">
+        <v>86,038.08</v>
+      </c>
+      <c r="D116" t="str">
+        <v>70,000</v>
+      </c>
+      <c r="E116" t="str">
+        <v>4,094.94</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>0x425F2F1287045bC9d04C0f933E7FdEdA4A2e5765</v>
+      </c>
+      <c r="B117" t="str">
+        <v>2,858.79</v>
+      </c>
+      <c r="C117" t="str">
+        <v>2,858.79</v>
+      </c>
+      <c r="D117" t="str">
+        <v>0</v>
+      </c>
+      <c r="E117" t="str">
+        <v>2,461.96</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>0x358e444fFb60A1Cc82A6E412C6720f110dc1E921</v>
+      </c>
+      <c r="B118" t="str">
+        <v>0</v>
+      </c>
+      <c r="C118" t="str">
+        <v>4,222.52</v>
+      </c>
+      <c r="D118" t="str">
+        <v>0</v>
+      </c>
+      <c r="E118" t="str">
+        <v>3,636.39</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>0xFeD4972A2Ee597c587C1b0643849845544c17C2F</v>
+      </c>
+      <c r="B119" t="str">
+        <v>1,071.24</v>
+      </c>
+      <c r="C119" t="str">
+        <v>1,071.24</v>
+      </c>
+      <c r="D119" t="str">
+        <v>0</v>
+      </c>
+      <c r="E119" t="str">
+        <v>922.54</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
+      </c>
+      <c r="B120" t="str">
+        <v>293.46</v>
+      </c>
+      <c r="C120" t="str">
+        <v>293.46</v>
+      </c>
+      <c r="D120" t="str">
+        <v>252.73</v>
+      </c>
+      <c r="E120" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>0x2A1Cc6c77782EA6BE6C08d61430A79E31Ea4efDf</v>
+      </c>
+      <c r="B121" t="str">
+        <v>149.95</v>
+      </c>
+      <c r="C121" t="str">
+        <v>149.95</v>
+      </c>
+      <c r="D121" t="str">
+        <v>0</v>
+      </c>
+      <c r="E121" t="str">
+        <v>129.14</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>0x233680379B54D12357711b431Be3B8a4cdfBe6bD</v>
+      </c>
+      <c r="B122" t="str">
+        <v>107.1</v>
+      </c>
+      <c r="C122" t="str">
+        <v>107.1</v>
+      </c>
+      <c r="D122" t="str">
+        <v>92.24</v>
+      </c>
+      <c r="E122" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+      </c>
+      <c r="B123" t="str">
+        <v>827.83</v>
+      </c>
+      <c r="C123" t="str">
+        <v>827.83</v>
+      </c>
+      <c r="D123" t="str">
+        <v>362.27</v>
+      </c>
+      <c r="E123" t="str">
+        <v>350.65</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>0xDbfd080A579b7DFc5D99834C86ffd543b688c864</v>
+      </c>
+      <c r="B124" t="str">
+        <v>1,916.74</v>
+      </c>
+      <c r="C124" t="str">
+        <v>1,916.74</v>
+      </c>
+      <c r="D124" t="str">
+        <v>1,650.68</v>
+      </c>
+      <c r="E124" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>0x69f96f2A5Cdd84E574dB2a353880095988243417</v>
+      </c>
+      <c r="B125" t="str">
+        <v>0</v>
+      </c>
+      <c r="C125" t="str">
+        <v>5,246.88</v>
+      </c>
+      <c r="D125" t="str">
+        <v>4,518.55</v>
+      </c>
+      <c r="E125" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+      </c>
+      <c r="B126" t="str">
+        <v>11,331.51</v>
+      </c>
+      <c r="C126" t="str">
+        <v>11,331.51</v>
+      </c>
+      <c r="D126" t="str">
+        <v>0</v>
+      </c>
+      <c r="E126" t="str">
+        <v>9,758.56</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>0x9AFd15a40275947bDD6824ba0eAfE1cCe4143a2F</v>
+      </c>
+      <c r="B127" t="str">
+        <v>378.04</v>
+      </c>
+      <c r="C127" t="str">
+        <v>378.04</v>
+      </c>
+      <c r="D127" t="str">
+        <v>325.57</v>
+      </c>
+      <c r="E127" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>0xF473Ea7dc6E82C348530FDE410bFF035bCe0B269</v>
+      </c>
+      <c r="B128" t="str">
+        <v>958.64</v>
+      </c>
+      <c r="C128" t="str">
+        <v>958.64</v>
+      </c>
+      <c r="D128" t="str">
+        <v>0</v>
+      </c>
+      <c r="E128" t="str">
+        <v>825.57</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
+      </c>
+      <c r="B129" t="str">
+        <v>4,716.57</v>
+      </c>
+      <c r="C129" t="str">
+        <v>4,716.57</v>
+      </c>
+      <c r="D129" t="str">
+        <v>0</v>
+      </c>
+      <c r="E129" t="str">
+        <v>4,061.86</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
+      </c>
+      <c r="B130" t="str">
+        <v>7.91</v>
+      </c>
+      <c r="C130" t="str">
+        <v>7.91</v>
+      </c>
+      <c r="D130" t="str">
+        <v>6.82</v>
+      </c>
+      <c r="E130" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
+      </c>
+      <c r="B131" t="str">
+        <v>7.91</v>
+      </c>
+      <c r="C131" t="str">
+        <v>7.91</v>
+      </c>
+      <c r="D131" t="str">
+        <v>0</v>
+      </c>
+      <c r="E131" t="str">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>0x9C19FE52c5b04d39EF89d58fCDef24A55CfDA4a7</v>
+      </c>
+      <c r="B132" t="str">
+        <v>98.35</v>
+      </c>
+      <c r="C132" t="str">
+        <v>98.35</v>
+      </c>
+      <c r="D132" t="str">
+        <v>84.7</v>
+      </c>
+      <c r="E132" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
+      </c>
+      <c r="B133" t="str">
+        <v>245.33</v>
+      </c>
+      <c r="C133" t="str">
+        <v>245.33</v>
+      </c>
+      <c r="D133" t="str">
+        <v>0</v>
+      </c>
+      <c r="E133" t="str">
+        <v>211.28</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+      </c>
+      <c r="B134" t="str">
+        <v>21,795.09</v>
+      </c>
+      <c r="C134" t="str">
+        <v>21,795.09</v>
+      </c>
+      <c r="D134" t="str">
+        <v>0</v>
+      </c>
+      <c r="E134" t="str">
+        <v>18,769.67</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
+      </c>
+      <c r="B135" t="str">
+        <v>1,533.09</v>
+      </c>
+      <c r="C135" t="str">
+        <v>1,533.09</v>
+      </c>
+      <c r="D135" t="str">
+        <v>235.01</v>
+      </c>
+      <c r="E135" t="str">
+        <v>1,085.27</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>0x240e0289a4d0D6B1b412ad1A4fD04711656A29ee</v>
+      </c>
+      <c r="B136" t="str">
+        <v>201.67</v>
+      </c>
+      <c r="C136" t="str">
+        <v>201.67</v>
+      </c>
+      <c r="D136" t="str">
+        <v>173.68</v>
+      </c>
+      <c r="E136" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
+      </c>
+      <c r="B137" t="str">
+        <v>26,905.19</v>
+      </c>
+      <c r="C137" t="str">
+        <v>26,905.19</v>
+      </c>
+      <c r="D137" t="str">
+        <v>0</v>
+      </c>
+      <c r="E137" t="str">
+        <v>23,170.42</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
+      </c>
+      <c r="B138" t="str">
+        <v>31.53</v>
+      </c>
+      <c r="C138" t="str">
+        <v>31.53</v>
+      </c>
+      <c r="D138" t="str">
+        <v>27.16</v>
+      </c>
+      <c r="E138" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>0xfDbb14D0A9a2f85663134F16BF006c08e2918B6a</v>
+      </c>
+      <c r="B139" t="str">
+        <v>118.8</v>
+      </c>
+      <c r="C139" t="str">
+        <v>118.8</v>
+      </c>
+      <c r="D139" t="str">
+        <v>0</v>
+      </c>
+      <c r="E139" t="str">
+        <v>102.31</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+      </c>
+      <c r="B140" t="str">
+        <v>17,260.87</v>
+      </c>
+      <c r="C140" t="str">
+        <v>17,260.87</v>
+      </c>
+      <c r="D140" t="str">
+        <v>4,897.74</v>
+      </c>
+      <c r="E140" t="str">
+        <v>9,967.11</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>0xB19c1b3cEc4c5bD6DCA220A4f59de9EC681e9211</v>
+      </c>
+      <c r="B141" t="str">
+        <v>0</v>
+      </c>
+      <c r="C141" t="str">
+        <v>180.95</v>
+      </c>
+      <c r="D141" t="str">
+        <v>12.73</v>
+      </c>
+      <c r="E141" t="str">
+        <v>143.11</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>0x175780bC4d0A1bc28c46C3E71130C092790E7576</v>
+      </c>
+      <c r="B142" t="str">
+        <v>166.17</v>
+      </c>
+      <c r="C142" t="str">
+        <v>166.17</v>
+      </c>
+      <c r="D142" t="str">
+        <v>143.11</v>
+      </c>
+      <c r="E142" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>0x19d4dEce6C48d99F0Ec4bE4258f26fdA9a7Ad4e5</v>
+      </c>
+      <c r="B143" t="str">
+        <v>350.87</v>
+      </c>
+      <c r="C143" t="str">
+        <v>350.87</v>
+      </c>
+      <c r="D143" t="str">
+        <v>302.17</v>
+      </c>
+      <c r="E143" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
+      </c>
+      <c r="B144" t="str">
+        <v>20.88</v>
+      </c>
+      <c r="C144" t="str">
+        <v>20.88</v>
+      </c>
+      <c r="D144" t="str">
+        <v>0</v>
+      </c>
+      <c r="E144" t="str">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
+      </c>
+      <c r="B145" t="str">
+        <v>3,193.26</v>
+      </c>
+      <c r="C145" t="str">
+        <v>3,193.26</v>
+      </c>
+      <c r="D145" t="str">
+        <v>2,750</v>
+      </c>
+      <c r="E145" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
+      </c>
+      <c r="B146" t="str">
+        <v>7,257.41</v>
+      </c>
+      <c r="C146" t="str">
+        <v>7,257.41</v>
+      </c>
+      <c r="D146" t="str">
+        <v>0</v>
+      </c>
+      <c r="E146" t="str">
+        <v>6,250</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>0x8538330Cd197d24CDdF7DEe46309c2ad9428FACc</v>
+      </c>
+      <c r="B147" t="str">
+        <v>32.82</v>
+      </c>
+      <c r="C147" t="str">
+        <v>32.82</v>
+      </c>
+      <c r="D147" t="str">
+        <v>28.27</v>
+      </c>
+      <c r="E147" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>0x4922dc29D2d0c725F542f5021D9353F3872F2dFF</v>
+      </c>
+      <c r="B148" t="str">
+        <v>580.59</v>
+      </c>
+      <c r="C148" t="str">
+        <v>580.59</v>
+      </c>
+      <c r="D148" t="str">
+        <v>500</v>
+      </c>
+      <c r="E148" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>0x4e0F1063F13d020B1316791Ae56ea5a826aba501</v>
+      </c>
+      <c r="B149" t="str">
+        <v>62.26</v>
+      </c>
+      <c r="C149" t="str">
+        <v>62.26</v>
+      </c>
+      <c r="D149" t="str">
+        <v>0</v>
+      </c>
+      <c r="E149" t="str">
+        <v>53.62</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+      </c>
+      <c r="B150" t="str">
+        <v>102.11</v>
+      </c>
+      <c r="C150" t="str">
+        <v>102.11</v>
+      </c>
+      <c r="D150" t="str">
+        <v>87.94</v>
+      </c>
+      <c r="E150" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
+      </c>
+      <c r="B151" t="str">
+        <v>357.77</v>
+      </c>
+      <c r="C151" t="str">
+        <v>357.77</v>
+      </c>
+      <c r="D151" t="str">
+        <v>0</v>
+      </c>
+      <c r="E151" t="str">
+        <v>308.11</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>0x96f194Cf1c9e5eE23B4D96785791F468F6A9C98e</v>
+      </c>
+      <c r="B152" t="str">
+        <v>81,283.09</v>
+      </c>
+      <c r="C152" t="str">
+        <v>81,283.09</v>
+      </c>
+      <c r="D152" t="str">
+        <v>0</v>
+      </c>
+      <c r="E152" t="str">
+        <v>70,000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>0x09aFEC89b908C2cbD220942f3788530C195Ba894</v>
+      </c>
+      <c r="B153" t="str">
+        <v>597.46</v>
+      </c>
+      <c r="C153" t="str">
+        <v>597.46</v>
+      </c>
+      <c r="D153" t="str">
+        <v>0</v>
+      </c>
+      <c r="E153" t="str">
+        <v>514.53</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+      </c>
+      <c r="B154" t="str">
+        <v>777.13</v>
+      </c>
+      <c r="C154" t="str">
+        <v>777.13</v>
+      </c>
+      <c r="D154" t="str">
+        <v>0</v>
+      </c>
+      <c r="E154" t="str">
+        <v>669.26</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>0xF6a52cb99b772d46C736F6F90Be792A1d4159414</v>
+      </c>
+      <c r="B155" t="str">
+        <v>49.4</v>
+      </c>
+      <c r="C155" t="str">
+        <v>49.4</v>
+      </c>
+      <c r="D155" t="str">
+        <v>42.55</v>
+      </c>
+      <c r="E155" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>0xdFdf143A6a12185023e01ddC61092Ac97eCB6c05</v>
+      </c>
+      <c r="B156" t="str">
+        <v>119.45</v>
+      </c>
+      <c r="C156" t="str">
+        <v>119.45</v>
+      </c>
+      <c r="D156" t="str">
+        <v>102.87</v>
+      </c>
+      <c r="E156" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
+      </c>
+      <c r="B157" t="str">
+        <v>67,137.05</v>
+      </c>
+      <c r="C157" t="str">
+        <v>67,137.05</v>
+      </c>
+      <c r="D157" t="str">
+        <v>57,817.61</v>
+      </c>
+      <c r="E157" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+      </c>
+      <c r="B158" t="str">
+        <v>2,616.15</v>
+      </c>
+      <c r="C158" t="str">
+        <v>2,616.15</v>
+      </c>
+      <c r="D158" t="str">
+        <v>0</v>
+      </c>
+      <c r="E158" t="str">
+        <v>2,253</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>0xBc7b31dFbEd762841AC646961C887B49e3f625d5</v>
+      </c>
+      <c r="B159" t="str">
+        <v>356.49</v>
+      </c>
+      <c r="C159" t="str">
+        <v>356.49</v>
+      </c>
+      <c r="D159" t="str">
+        <v>307.01</v>
+      </c>
+      <c r="E159" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>0xc4b88bff8D047576eC693EaFA72482A5e8f0fd7A</v>
+      </c>
+      <c r="B160" t="str">
+        <v>100</v>
+      </c>
+      <c r="C160" t="str">
+        <v>100</v>
+      </c>
+      <c r="D160" t="str">
+        <v>86.12</v>
+      </c>
+      <c r="E160" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
+      </c>
+      <c r="B161" t="str">
+        <v>0</v>
+      </c>
+      <c r="C161" t="str">
+        <v>2,695.71</v>
+      </c>
+      <c r="D161" t="str">
+        <v>0</v>
+      </c>
+      <c r="E161" t="str">
+        <v>2,321.52</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>0x886049Df7a8010a7e3c21A32b74e41402986ae37</v>
+      </c>
+      <c r="B162" t="str">
+        <v>133.07</v>
+      </c>
+      <c r="C162" t="str">
+        <v>133.07</v>
+      </c>
+      <c r="D162" t="str">
+        <v>114.6</v>
+      </c>
+      <c r="E162" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+      </c>
+      <c r="B163" t="str">
+        <v>8,092.05</v>
+      </c>
+      <c r="C163" t="str">
+        <v>8,092.05</v>
+      </c>
+      <c r="D163" t="str">
+        <v>6,968.78</v>
+      </c>
+      <c r="E163" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>0x9A4dbCDE63b55273DC51BeA546A7ba6456f059D0</v>
+      </c>
+      <c r="B164" t="str">
+        <v>2,043.32</v>
+      </c>
+      <c r="C164" t="str">
+        <v>2,043.32</v>
+      </c>
+      <c r="D164" t="str">
+        <v>0</v>
+      </c>
+      <c r="E164" t="str">
+        <v>1,759.69</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+      </c>
+      <c r="B165" t="str">
+        <v>1,436.73</v>
+      </c>
+      <c r="C165" t="str">
+        <v>1,436.73</v>
+      </c>
+      <c r="D165" t="str">
+        <v>0</v>
+      </c>
+      <c r="E165" t="str">
+        <v>1,237.3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>0xfA9FBD6360692a1b23b84A9dDFf63ed77faF58c9</v>
+      </c>
+      <c r="B166" t="str">
+        <v>17.68</v>
+      </c>
+      <c r="C166" t="str">
+        <v>17.68</v>
+      </c>
+      <c r="D166" t="str">
+        <v>0</v>
+      </c>
+      <c r="E166" t="str">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
+      </c>
+      <c r="B167" t="str">
+        <v>50.59</v>
+      </c>
+      <c r="C167" t="str">
+        <v>50.59</v>
+      </c>
+      <c r="D167" t="str">
+        <v>0</v>
+      </c>
+      <c r="E167" t="str">
+        <v>43.57</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>0x9C4e5edC6A735e4AB68ef04497b64008A955A1A5</v>
+      </c>
+      <c r="B168" t="str">
+        <v>715.26</v>
+      </c>
+      <c r="C168" t="str">
+        <v>715.26</v>
+      </c>
+      <c r="D168" t="str">
+        <v>0</v>
+      </c>
+      <c r="E168" t="str">
+        <v>615.98</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+      </c>
+      <c r="B169" t="str">
+        <v>44,560.21</v>
+      </c>
+      <c r="C169" t="str">
+        <v>44,560.21</v>
+      </c>
+      <c r="D169" t="str">
+        <v>38,374.71</v>
+      </c>
+      <c r="E169" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+      </c>
+      <c r="B170" t="str">
+        <v>11,449.64</v>
+      </c>
+      <c r="C170" t="str">
+        <v>11,449.64</v>
+      </c>
+      <c r="D170" t="str">
+        <v>9,860.29</v>
+      </c>
+      <c r="E170" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>0x53ca313FFDcAADAd0CCa71b3eEf7fDc57d83Bfed</v>
+      </c>
+      <c r="B171" t="str">
+        <v>70.01</v>
+      </c>
+      <c r="C171" t="str">
+        <v>70.01</v>
+      </c>
+      <c r="D171" t="str">
+        <v>60.3</v>
+      </c>
+      <c r="E171" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>0x555D98207F3Cb7fdB6fB7217A081A365ca45c135</v>
+      </c>
+      <c r="B172" t="str">
+        <v>70.01</v>
+      </c>
+      <c r="C172" t="str">
+        <v>70.01</v>
+      </c>
+      <c r="D172" t="str">
+        <v>0</v>
+      </c>
+      <c r="E172" t="str">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>0x89c7eF9CE8c8B7C683f8051f355B5f6B55acA4De</v>
+      </c>
+      <c r="B173" t="str">
+        <v>94.81</v>
+      </c>
+      <c r="C173" t="str">
+        <v>94.81</v>
+      </c>
+      <c r="D173" t="str">
+        <v>81.65</v>
+      </c>
+      <c r="E173" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>0x2848A658c1097a8639d2fb62a977b23903200b53</v>
+      </c>
+      <c r="B174" t="str">
+        <v>94.81</v>
+      </c>
+      <c r="C174" t="str">
+        <v>94.81</v>
+      </c>
+      <c r="D174" t="str">
+        <v>0</v>
+      </c>
+      <c r="E174" t="str">
+        <v>81.65</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>0xC023483Fa22d037EC5f056FC31C8f40751722aD5</v>
+      </c>
+      <c r="B175" t="str">
+        <v>58.05</v>
+      </c>
+      <c r="C175" t="str">
+        <v>58.05</v>
+      </c>
+      <c r="D175" t="str">
+        <v>0</v>
+      </c>
+      <c r="E175" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>0xeBB36F543A6c3E09a06c937E86fB0930a6EdA151</v>
+      </c>
+      <c r="B176" t="str">
+        <v>174.17</v>
+      </c>
+      <c r="C176" t="str">
+        <v>174.17</v>
+      </c>
+      <c r="D176" t="str">
+        <v>0</v>
+      </c>
+      <c r="E176" t="str">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
+      </c>
+      <c r="B177" t="str">
+        <v>2,888.92</v>
+      </c>
+      <c r="C177" t="str">
+        <v>2,888.92</v>
+      </c>
+      <c r="D177" t="str">
+        <v>2,487.91</v>
+      </c>
+      <c r="E177" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
+      </c>
+      <c r="B178" t="str">
+        <v>2,888.92</v>
+      </c>
+      <c r="C178" t="str">
+        <v>2,888.92</v>
+      </c>
+      <c r="D178" t="str">
+        <v>0</v>
+      </c>
+      <c r="E178" t="str">
+        <v>2,487.91</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>0x1A24A8CDa46ACac40606af1D233dAfF9AEe66e2f</v>
+      </c>
+      <c r="B179" t="str">
+        <v>95.7</v>
+      </c>
+      <c r="C179" t="str">
+        <v>95.7</v>
+      </c>
+      <c r="D179" t="str">
+        <v>0</v>
+      </c>
+      <c r="E179" t="str">
+        <v>82.42</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>0xFa544d034dC07aD4Fa185ba769031a29Fbef5e36</v>
+      </c>
+      <c r="B180" t="str">
+        <v>18.81</v>
+      </c>
+      <c r="C180" t="str">
+        <v>18.81</v>
+      </c>
+      <c r="D180" t="str">
+        <v>0</v>
+      </c>
+      <c r="E180" t="str">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+      </c>
+      <c r="B181" t="str">
+        <v>577,271.42</v>
+      </c>
+      <c r="C181" t="str">
+        <v>577,271.42</v>
+      </c>
+      <c r="D181" t="str">
+        <v>248,448.98</v>
+      </c>
+      <c r="E181" t="str">
+        <v>248,690.08</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>0x1B5f7cBb775f11BC5CFC4ac9dC1406Ef613F7A63</v>
+      </c>
+      <c r="B182" t="str">
+        <v>19.84</v>
+      </c>
+      <c r="C182" t="str">
+        <v>19.84</v>
+      </c>
+      <c r="D182" t="str">
+        <v>17.09</v>
+      </c>
+      <c r="E182" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
+      </c>
+      <c r="B183" t="str">
+        <v>284.49</v>
+      </c>
+      <c r="C183" t="str">
+        <v>284.49</v>
+      </c>
+      <c r="D183" t="str">
+        <v>0</v>
+      </c>
+      <c r="E183" t="str">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>0x27e0D3A0D88BACaD8720aa9c6Bf7e0d099f3bCEa</v>
+      </c>
+      <c r="B184" t="str">
+        <v>510</v>
+      </c>
+      <c r="C184" t="str">
+        <v>697.01</v>
+      </c>
+      <c r="D184" t="str">
+        <v>600.26</v>
+      </c>
+      <c r="E184" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+      </c>
+      <c r="B185" t="str">
+        <v>54.32</v>
+      </c>
+      <c r="C185" t="str">
+        <v>54.32</v>
+      </c>
+      <c r="D185" t="str">
+        <v>0</v>
+      </c>
+      <c r="E185" t="str">
+        <v>46.78</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
+      </c>
+      <c r="B186" t="str">
+        <v>20,996.02</v>
+      </c>
+      <c r="C186" t="str">
+        <v>20,996.02</v>
+      </c>
+      <c r="D186" t="str">
+        <v>18,081.52</v>
+      </c>
+      <c r="E186" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>0x4CEbE974145E6796dB356F3689082D2d1eEf02Bf</v>
+      </c>
+      <c r="B187" t="str">
+        <v>116.11</v>
+      </c>
+      <c r="C187" t="str">
+        <v>116.11</v>
+      </c>
+      <c r="D187" t="str">
+        <v>100</v>
+      </c>
+      <c r="E187" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
+      </c>
+      <c r="B188" t="str">
+        <v>116.11</v>
+      </c>
+      <c r="C188" t="str">
+        <v>116.11</v>
+      </c>
+      <c r="D188" t="str">
+        <v>0</v>
+      </c>
+      <c r="E188" t="str">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>0x880cd618B4cA66bBb8862558954d8473d7b0C867</v>
+      </c>
+      <c r="B189" t="str">
+        <v>1,285.92</v>
+      </c>
+      <c r="C189" t="str">
+        <v>1,285.92</v>
+      </c>
+      <c r="D189" t="str">
+        <v>1,107.42</v>
+      </c>
+      <c r="E189" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>0x9ff812DfE804e2BF400Fd6fD22293203674DDdEe</v>
+      </c>
+      <c r="B190" t="str">
+        <v>50.47</v>
+      </c>
+      <c r="C190" t="str">
+        <v>50.47</v>
+      </c>
+      <c r="D190" t="str">
+        <v>0</v>
+      </c>
+      <c r="E190" t="str">
+        <v>43.47</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>0x2728c19586e1eB6b2AA599c15fA1456426C7CC7C</v>
+      </c>
+      <c r="B191" t="str">
+        <v>2,800.28</v>
+      </c>
+      <c r="C191" t="str">
+        <v>2,800.28</v>
+      </c>
+      <c r="D191" t="str">
+        <v>2,407.06</v>
+      </c>
+      <c r="E191" t="str">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>0x1893c5D2fb92D2AD0990943E952D8370bfBD9463</v>
+      </c>
+      <c r="B192" t="str">
+        <v>44.84</v>
+      </c>
+      <c r="C192" t="str">
+        <v>44.84</v>
+      </c>
+      <c r="D192" t="str">
+        <v>0</v>
+      </c>
+      <c r="E192" t="str">
+        <v>38.62</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
+      </c>
+      <c r="B193" t="str">
+        <v>2,802.21</v>
+      </c>
+      <c r="C193" t="str">
+        <v>2,802.21</v>
+      </c>
+      <c r="D193" t="str">
+        <v>2,403.63</v>
+      </c>
+      <c r="E193" t="str">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>0x48A7209DD07Bc7409bF3f61820E1Ee9409F462e9</v>
+      </c>
+      <c r="B194" t="str">
+        <v>219.48</v>
+      </c>
+      <c r="C194" t="str">
+        <v>219.48</v>
+      </c>
+      <c r="D194" t="str">
+        <v>0</v>
+      </c>
+      <c r="E194" t="str">
+        <v>189.02</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>0xAE1aD5B0Cb04CFe479E9308006F2e0063Ab8E845</v>
+      </c>
+      <c r="B195" t="str">
+        <v>138.13</v>
+      </c>
+      <c r="C195" t="str">
+        <v>138.13</v>
+      </c>
+      <c r="D195" t="str">
+        <v>0</v>
+      </c>
+      <c r="E195" t="str">
+        <v>118.96</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+      </c>
+      <c r="B196" t="str">
+        <v>63.22</v>
+      </c>
+      <c r="C196" t="str">
+        <v>63.22</v>
+      </c>
+      <c r="D196" t="str">
+        <v>54.45</v>
+      </c>
+      <c r="E196" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
+      </c>
+      <c r="B197" t="str">
+        <v>1,465.48</v>
+      </c>
+      <c r="C197" t="str">
+        <v>1,465.48</v>
+      </c>
+      <c r="D197" t="str">
+        <v>0</v>
+      </c>
+      <c r="E197" t="str">
+        <v>1,262.06</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
+      </c>
+      <c r="B198" t="str">
+        <v>870.89</v>
+      </c>
+      <c r="C198" t="str">
+        <v>870.89</v>
+      </c>
+      <c r="D198" t="str">
+        <v>750</v>
+      </c>
+      <c r="E198" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>0xBe1f72dA08102c8B54EbCde91c68f07f759f2712</v>
+      </c>
+      <c r="B199" t="str">
+        <v>1,384.56</v>
+      </c>
+      <c r="C199" t="str">
+        <v>1,384.56</v>
+      </c>
+      <c r="D199" t="str">
+        <v>0</v>
+      </c>
+      <c r="E199" t="str">
+        <v>1,192.37</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
+      </c>
+      <c r="B200" t="str">
+        <v>0</v>
+      </c>
+      <c r="C200" t="str">
+        <v>8.17</v>
+      </c>
+      <c r="D200" t="str">
+        <v>7.04</v>
+      </c>
+      <c r="E200" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
+      </c>
+      <c r="B201" t="str">
+        <v>25.41</v>
+      </c>
+      <c r="C201" t="str">
+        <v>25.41</v>
+      </c>
+      <c r="D201" t="str">
+        <v>0</v>
+      </c>
+      <c r="E201" t="str">
+        <v>21.89</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+      </c>
+      <c r="B202" t="str">
+        <v>158.33</v>
+      </c>
+      <c r="C202" t="str">
+        <v>158.33</v>
+      </c>
+      <c r="D202" t="str">
+        <v>0</v>
+      </c>
+      <c r="E202" t="str">
+        <v>136.36</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
+      </c>
+      <c r="B203" t="str">
+        <v>4,086.86</v>
+      </c>
+      <c r="C203" t="str">
+        <v>4,086.86</v>
+      </c>
+      <c r="D203" t="str">
+        <v>0</v>
+      </c>
+      <c r="E203" t="str">
+        <v>3,519.56</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>0xedaa63C95A0faB8e7Dc7A710f8b9Aa6ee461dAC7</v>
+      </c>
+      <c r="B204" t="str">
+        <v>1,051.88</v>
+      </c>
+      <c r="C204" t="str">
+        <v>1,051.88</v>
+      </c>
+      <c r="D204" t="str">
+        <v>905.87</v>
+      </c>
+      <c r="E204" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
+      </c>
+      <c r="B205" t="str">
+        <v>1,051.88</v>
+      </c>
+      <c r="C205" t="str">
+        <v>1,051.88</v>
+      </c>
+      <c r="D205" t="str">
+        <v>0</v>
+      </c>
+      <c r="E205" t="str">
+        <v>905.87</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>0x361631d54F49b6a4C19F033Ef507D67aC6BA1c0a</v>
+      </c>
+      <c r="B206" t="str">
+        <v>470.31</v>
+      </c>
+      <c r="C206" t="str">
+        <v>470.31</v>
+      </c>
+      <c r="D206" t="str">
+        <v>405.03</v>
+      </c>
+      <c r="E206" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+      </c>
+      <c r="B207" t="str">
+        <v>1,527.44</v>
+      </c>
+      <c r="C207" t="str">
+        <v>1,527.44</v>
+      </c>
+      <c r="D207" t="str">
+        <v>0</v>
+      </c>
+      <c r="E207" t="str">
+        <v>1,315.42</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>0xa8CE35A87d51EaC37675c1Cf7C5d6435a3b2079A</v>
+      </c>
+      <c r="B208" t="str">
+        <v>2,813.1</v>
+      </c>
+      <c r="C208" t="str">
+        <v>2,813.1</v>
+      </c>
+      <c r="D208" t="str">
+        <v>0</v>
+      </c>
+      <c r="E208" t="str">
+        <v>2,422.61</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>0x46d47D232d27bdF83FEA707ffd9Ce3e175B2D1dE</v>
+      </c>
+      <c r="B209" t="str">
+        <v>1,161.18</v>
+      </c>
+      <c r="C209" t="str">
+        <v>1,161.18</v>
+      </c>
+      <c r="D209" t="str">
+        <v>0</v>
+      </c>
+      <c r="E209" t="str">
+        <v>1,000</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>0xb4903c3b44dA26bf38cD923C64c6Cdad18ED280E</v>
+      </c>
+      <c r="B210" t="str">
+        <v>1,910.1</v>
+      </c>
+      <c r="C210" t="str">
+        <v>1,910.1</v>
+      </c>
+      <c r="D210" t="str">
+        <v>1,644.96</v>
+      </c>
+      <c r="E210" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>0x9c6E23aC65D33b747B8c56C04db77d836c41Faf5</v>
+      </c>
+      <c r="B211" t="str">
+        <v>3,407.24</v>
+      </c>
+      <c r="C211" t="str">
+        <v>3,407.24</v>
+      </c>
+      <c r="D211" t="str">
+        <v>0</v>
+      </c>
+      <c r="E211" t="str">
+        <v>2,934.28</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
+      </c>
+      <c r="B212" t="str">
+        <v>472.33</v>
+      </c>
+      <c r="C212" t="str">
+        <v>472.33</v>
+      </c>
+      <c r="D212" t="str">
+        <v>0</v>
+      </c>
+      <c r="E212" t="str">
+        <v>406.77</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
+      </c>
+      <c r="B213" t="str">
+        <v>58.05</v>
+      </c>
+      <c r="C213" t="str">
+        <v>58.05</v>
+      </c>
+      <c r="D213" t="str">
+        <v>0</v>
+      </c>
+      <c r="E213" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
+      </c>
+      <c r="B214" t="str">
+        <v>216.03</v>
+      </c>
+      <c r="C214" t="str">
+        <v>216.03</v>
+      </c>
+      <c r="D214" t="str">
+        <v>0</v>
+      </c>
+      <c r="E214" t="str">
+        <v>186.05</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>0xf74f5cF53A6746b1eddD9C7ea8Ab7447797c3D74</v>
+      </c>
+      <c r="B215" t="str">
+        <v>6,538.66</v>
+      </c>
+      <c r="C215" t="str">
+        <v>6,538.66</v>
+      </c>
+      <c r="D215" t="str">
+        <v>0</v>
+      </c>
+      <c r="E215" t="str">
+        <v>5,631.02</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>0x36413818a988749f40de4877B51f782126282a89</v>
+      </c>
+      <c r="B216" t="str">
+        <v>1,175.19</v>
+      </c>
+      <c r="C216" t="str">
+        <v>1,175.19</v>
+      </c>
+      <c r="D216" t="str">
+        <v>1,012.06</v>
+      </c>
+      <c r="E216" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>0x48682644c1e8529338e46e7DdabA4383C1fceBb1</v>
+      </c>
+      <c r="B217" t="str">
+        <v>2,128.64</v>
+      </c>
+      <c r="C217" t="str">
+        <v>2,128.64</v>
+      </c>
+      <c r="D217" t="str">
+        <v>0</v>
+      </c>
+      <c r="E217" t="str">
+        <v>1,833.16</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>0x9B275D3580D7db9613e14308C978e27134365828</v>
+      </c>
+      <c r="B218" t="str">
+        <v>410.52</v>
+      </c>
+      <c r="C218" t="str">
+        <v>410.52</v>
+      </c>
+      <c r="D218" t="str">
+        <v>353.54</v>
+      </c>
+      <c r="E218" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>0xf0eeE0837e8F4feaC444412991f7005B8dFFa305</v>
+      </c>
+      <c r="B219" t="str">
+        <v>270.81</v>
+      </c>
+      <c r="C219" t="str">
+        <v>270.81</v>
+      </c>
+      <c r="D219" t="str">
+        <v>0</v>
+      </c>
+      <c r="E219" t="str">
+        <v>233.22</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>0x3f80b42ae4B6a8701329682B5C66a2780917E5D0</v>
+      </c>
+      <c r="B220" t="str">
+        <v>32.95</v>
+      </c>
+      <c r="C220" t="str">
+        <v>32.95</v>
+      </c>
+      <c r="D220" t="str">
+        <v>0</v>
+      </c>
+      <c r="E220" t="str">
+        <v>28.38</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>0x041BbF8dAEE68Bc5D306B7775b8299b0026416b3</v>
+      </c>
+      <c r="B221" t="str">
+        <v>205.06</v>
+      </c>
+      <c r="C221" t="str">
+        <v>205.06</v>
+      </c>
+      <c r="D221" t="str">
+        <v>176.6</v>
+      </c>
+      <c r="E221" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
+      </c>
+      <c r="B222" t="str">
+        <v>136.41</v>
+      </c>
+      <c r="C222" t="str">
+        <v>136.41</v>
+      </c>
+      <c r="D222" t="str">
+        <v>117.48</v>
+      </c>
+      <c r="E222" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
+      </c>
+      <c r="B223" t="str">
+        <v>54.56</v>
+      </c>
+      <c r="C223" t="str">
+        <v>54.56</v>
+      </c>
+      <c r="D223" t="str">
+        <v>46.99</v>
+      </c>
+      <c r="E223" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>0x9fF7d51Cf6a3A12F2Cdd36035827037a35A4B139</v>
+      </c>
+      <c r="B224" t="str">
+        <v>17.58</v>
+      </c>
+      <c r="C224" t="str">
+        <v>17.58</v>
+      </c>
+      <c r="D224" t="str">
+        <v>0</v>
+      </c>
+      <c r="E224" t="str">
+        <v>15.14</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
+      </c>
+      <c r="B225" t="str">
+        <v>1,102.89</v>
+      </c>
+      <c r="C225" t="str">
+        <v>1,102.89</v>
+      </c>
+      <c r="D225" t="str">
+        <v>0</v>
+      </c>
+      <c r="E225" t="str">
+        <v>949.8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
+      </c>
+      <c r="B226" t="str">
+        <v>11.14</v>
+      </c>
+      <c r="C226" t="str">
+        <v>11.14</v>
+      </c>
+      <c r="D226" t="str">
+        <v>9.6</v>
+      </c>
+      <c r="E226" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B227" t="str">
+        <v>2,859,070.7</v>
+      </c>
+      <c r="C227" t="str">
+        <v>3,205,127.05</v>
+      </c>
+      <c r="D227" t="str">
+        <v>1,244,153.33</v>
+      </c>
+      <c r="E227" t="str">
+        <v>1,516,063.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E227"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1000"/>
@@ -43735,13 +47616,6 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">

--- a/staker_incentives.xlsx
+++ b/staker_incentives.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Blocks 70067139 - 70350763" sheetId="8" r:id="rId8"/>
     <sheet name="Blocks 70350764 - 70634063" sheetId="9" r:id="rId9"/>
     <sheet name="Blocks 70634064 - 70917849" sheetId="10" r:id="rId10"/>
+    <sheet name="Blocks 70917850 - 71201412" sheetId="11" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -7071,6 +7072,3879 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Staker Address</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Reward (ERC20 TEL)</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Uncapped Reward (ERC20 TEL)</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Staker Fees</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Referee Fees</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1,997.25</v>
+      </c>
+      <c r="C2" t="str">
+        <v>1,997.25</v>
+      </c>
+      <c r="D2" t="str">
+        <v>309.92</v>
+      </c>
+      <c r="E2" t="str">
+        <v>1,410.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2,202.23</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2,202.23</v>
+      </c>
+      <c r="D3" t="str">
+        <v>831.4</v>
+      </c>
+      <c r="E3" t="str">
+        <v>1,065.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2,202.23</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2,202.23</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1,065.14</v>
+      </c>
+      <c r="E4" t="str">
+        <v>831.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+      </c>
+      <c r="B5" t="str">
+        <v>79,719.08</v>
+      </c>
+      <c r="C5" t="str">
+        <v>79,719.08</v>
+      </c>
+      <c r="D5" t="str">
+        <v>3,582.7</v>
+      </c>
+      <c r="E5" t="str">
+        <v>65,070.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>0x77Fb1AeEEC6e3F3Cfe3a1f3aB87E7cB74872Db5D</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1,926.5</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1,926.5</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1.06</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1,658.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+      </c>
+      <c r="B7" t="str">
+        <v>11,951.61</v>
+      </c>
+      <c r="C7" t="str">
+        <v>11,951.61</v>
+      </c>
+      <c r="D7" t="str">
+        <v>10,292.58</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>0x4B3D17974c2F79fEf5D495F082e9eC7d1FD95a06</v>
+      </c>
+      <c r="B8" t="str">
+        <v>947.01</v>
+      </c>
+      <c r="C8" t="str">
+        <v>947.01</v>
+      </c>
+      <c r="D8" t="str">
+        <v>815.56</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
+      </c>
+      <c r="B9" t="str">
+        <v>947.01</v>
+      </c>
+      <c r="C9" t="str">
+        <v>947.01</v>
+      </c>
+      <c r="D9" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>815.56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+      </c>
+      <c r="B10" t="str">
+        <v>5,465.27</v>
+      </c>
+      <c r="C10" t="str">
+        <v>5,465.27</v>
+      </c>
+      <c r="D10" t="str">
+        <v>1,164.33</v>
+      </c>
+      <c r="E10" t="str">
+        <v>3,542.3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>0xf78D0cdFB459eD9CC19eEb7c22B5F193d7662fcC</v>
+      </c>
+      <c r="B11" t="str">
+        <v>906.01</v>
+      </c>
+      <c r="C11" t="str">
+        <v>906.01</v>
+      </c>
+      <c r="D11" t="str">
+        <v>780.25</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>0xAD5c21611Ea4790991c40BFD8e0888e012D7162E</v>
+      </c>
+      <c r="B12" t="str">
+        <v>1,138</v>
+      </c>
+      <c r="C12" t="str">
+        <v>1,138</v>
+      </c>
+      <c r="D12" t="str">
+        <v>980.04</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>0x3F3Cb523ce45c048c07081925CBd588a6C601b72</v>
+      </c>
+      <c r="B13" t="str">
+        <v>90.2</v>
+      </c>
+      <c r="C13" t="str">
+        <v>90.2</v>
+      </c>
+      <c r="D13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>77.68</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>0x143A47CAF24904a750242e138F31ADd7F6999Cb5</v>
+      </c>
+      <c r="B14" t="str">
+        <v>8.99</v>
+      </c>
+      <c r="C14" t="str">
+        <v>8.99</v>
+      </c>
+      <c r="D14" t="str">
+        <v>7.75</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>0xE233390f362B1dC22F621feead135D828a39781A</v>
+      </c>
+      <c r="B15" t="str">
+        <v>17.73</v>
+      </c>
+      <c r="C15" t="str">
+        <v>17.73</v>
+      </c>
+      <c r="D15" t="str">
+        <v>15.27</v>
+      </c>
+      <c r="E15" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>0x25E9eA1a93D9e505cd7d056C1e1bA16789537EAb</v>
+      </c>
+      <c r="B16" t="str">
+        <v>9,195.33</v>
+      </c>
+      <c r="C16" t="str">
+        <v>9,195.33</v>
+      </c>
+      <c r="D16" t="str">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <v>7,918.91</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+      </c>
+      <c r="B17" t="str">
+        <v>1,707.65</v>
+      </c>
+      <c r="C17" t="str">
+        <v>1,707.65</v>
+      </c>
+      <c r="D17" t="str">
+        <v>1,470.61</v>
+      </c>
+      <c r="E17" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>0x5Fc4faF3934548c57d66f1179C2991cEd028E61F</v>
+      </c>
+      <c r="B18" t="str">
+        <v>290.29</v>
+      </c>
+      <c r="C18" t="str">
+        <v>290.29</v>
+      </c>
+      <c r="D18" t="str">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+      </c>
+      <c r="B19" t="str">
+        <v>108,672.83</v>
+      </c>
+      <c r="C19" t="str">
+        <v>108,672.83</v>
+      </c>
+      <c r="D19" t="str">
+        <v>18,501.95</v>
+      </c>
+      <c r="E19" t="str">
+        <v>75,085.76</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
+      </c>
+      <c r="B20" t="str">
+        <v>12,278.97</v>
+      </c>
+      <c r="C20" t="str">
+        <v>12,278.97</v>
+      </c>
+      <c r="D20" t="str">
+        <v>4,092.1</v>
+      </c>
+      <c r="E20" t="str">
+        <v>6,482.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
+      </c>
+      <c r="B21" t="str">
+        <v>72,480.52</v>
+      </c>
+      <c r="C21" t="str">
+        <v>72,480.52</v>
+      </c>
+      <c r="D21" t="str">
+        <v>4,601.73</v>
+      </c>
+      <c r="E21" t="str">
+        <v>57,817.61</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>0x16eE201E4fD4418f47A6c7f45fB0Aaf8a61011Df</v>
+      </c>
+      <c r="B22" t="str">
+        <v>2,858.79</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2,858.79</v>
+      </c>
+      <c r="D22" t="str">
+        <v>2,461.96</v>
+      </c>
+      <c r="E22" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+      </c>
+      <c r="B23" t="str">
+        <v>9,775.49</v>
+      </c>
+      <c r="C23" t="str">
+        <v>9,775.49</v>
+      </c>
+      <c r="D23" t="str">
+        <v>8,111.53</v>
+      </c>
+      <c r="E23" t="str">
+        <v>307.01</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+      </c>
+      <c r="B24" t="str">
+        <v>310.87</v>
+      </c>
+      <c r="C24" t="str">
+        <v>310.87</v>
+      </c>
+      <c r="D24" t="str">
+        <v>267.72</v>
+      </c>
+      <c r="E24" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+      </c>
+      <c r="B25" t="str">
+        <v>3,753.37</v>
+      </c>
+      <c r="C25" t="str">
+        <v>3,753.37</v>
+      </c>
+      <c r="D25" t="str">
+        <v>2,922.44</v>
+      </c>
+      <c r="E25" t="str">
+        <v>309.92</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
+      </c>
+      <c r="B26" t="str">
+        <v>788.88</v>
+      </c>
+      <c r="C26" t="str">
+        <v>788.88</v>
+      </c>
+      <c r="D26" t="str">
+        <v>679.38</v>
+      </c>
+      <c r="E26" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
+      </c>
+      <c r="B27" t="str">
+        <v>1,275.99</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1,275.99</v>
+      </c>
+      <c r="D27" t="str">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <v>1,098.87</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>0x72d20dcB42DC91D2Dc1DB60375e1945e23708130</v>
+      </c>
+      <c r="B28" t="str">
+        <v>480.71</v>
+      </c>
+      <c r="C28" t="str">
+        <v>480.71</v>
+      </c>
+      <c r="D28" t="str">
+        <v>413.99</v>
+      </c>
+      <c r="E28" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
+      </c>
+      <c r="B29" t="str">
+        <v>480.71</v>
+      </c>
+      <c r="C29" t="str">
+        <v>480.71</v>
+      </c>
+      <c r="D29" t="str">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <v>413.99</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>0x893b99952A101ea504E2DA3d44164858b11a58a1</v>
+      </c>
+      <c r="B30" t="str">
+        <v>118.8</v>
+      </c>
+      <c r="C30" t="str">
+        <v>118.8</v>
+      </c>
+      <c r="D30" t="str">
+        <v>102.31</v>
+      </c>
+      <c r="E30" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+      </c>
+      <c r="B31" t="str">
+        <v>0</v>
+      </c>
+      <c r="C31" t="str">
+        <v>21,514.21</v>
+      </c>
+      <c r="D31" t="str">
+        <v>17.99</v>
+      </c>
+      <c r="E31" t="str">
+        <v>18,509.79</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>0x964087989Df5D5e89cF7527b72A3949367a337bA</v>
+      </c>
+      <c r="B32" t="str">
+        <v>9,669.08</v>
+      </c>
+      <c r="C32" t="str">
+        <v>9,669.08</v>
+      </c>
+      <c r="D32" t="str">
+        <v>8,326.9</v>
+      </c>
+      <c r="E32" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>0x65ED1e1351640D112aeAc04d4988B6916a5f62dc</v>
+      </c>
+      <c r="B33" t="str">
+        <v>249.73</v>
+      </c>
+      <c r="C33" t="str">
+        <v>249.73</v>
+      </c>
+      <c r="D33" t="str">
+        <v>215.07</v>
+      </c>
+      <c r="E33" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>0x883c4BF5F45e8E75C59DdeA8B2ba3Cd40e81047D</v>
+      </c>
+      <c r="B34" t="str">
+        <v>249.73</v>
+      </c>
+      <c r="C34" t="str">
+        <v>249.73</v>
+      </c>
+      <c r="D34" t="str">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <v>215.07</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>0x8218E1a9D02E26E2aF124EA28b121031Cf25AaC8</v>
+      </c>
+      <c r="B35" t="str">
+        <v>3,442.5</v>
+      </c>
+      <c r="C35" t="str">
+        <v>3,442.5</v>
+      </c>
+      <c r="D35" t="str">
+        <v>2,964.64</v>
+      </c>
+      <c r="E35" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>0x64d564A6A6003a9fcb44f8F50b9A3C7bBea2a7E7</v>
+      </c>
+      <c r="B36" t="str">
+        <v>119.46</v>
+      </c>
+      <c r="C36" t="str">
+        <v>119.46</v>
+      </c>
+      <c r="D36" t="str">
+        <v>102.88</v>
+      </c>
+      <c r="E36" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>0xf0a8596541F839EBcC9f0A9d1442c15f43A2836E</v>
+      </c>
+      <c r="B37" t="str">
+        <v>119.46</v>
+      </c>
+      <c r="C37" t="str">
+        <v>119.46</v>
+      </c>
+      <c r="D37" t="str">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <v>102.88</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
+      </c>
+      <c r="B38" t="str">
+        <v>1,888.71</v>
+      </c>
+      <c r="C38" t="str">
+        <v>1,888.71</v>
+      </c>
+      <c r="D38" t="str">
+        <v>1,626.54</v>
+      </c>
+      <c r="E38" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>0x5099ccbB5FC14BF6ea516EE6CC3e6B209a7aA8C6</v>
+      </c>
+      <c r="B39" t="str">
+        <v>603.43</v>
+      </c>
+      <c r="C39" t="str">
+        <v>603.43</v>
+      </c>
+      <c r="D39" t="str">
+        <v>519.67</v>
+      </c>
+      <c r="E39" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
+      </c>
+      <c r="B40" t="str">
+        <v>15,946.55</v>
+      </c>
+      <c r="C40" t="str">
+        <v>15,946.55</v>
+      </c>
+      <c r="D40" t="str">
+        <v>590.78</v>
+      </c>
+      <c r="E40" t="str">
+        <v>13,142.2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+      </c>
+      <c r="B41" t="str">
+        <v>686</v>
+      </c>
+      <c r="C41" t="str">
+        <v>686</v>
+      </c>
+      <c r="D41" t="str">
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <v>590.78</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>0xdd61cabccEa7933D2372606963D66F0924831D29</v>
+      </c>
+      <c r="B42" t="str">
+        <v>20.4</v>
+      </c>
+      <c r="C42" t="str">
+        <v>20.4</v>
+      </c>
+      <c r="D42" t="str">
+        <v>17.57</v>
+      </c>
+      <c r="E42" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
+      </c>
+      <c r="B43" t="str">
+        <v>20.4</v>
+      </c>
+      <c r="C43" t="str">
+        <v>20.4</v>
+      </c>
+      <c r="D43" t="str">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
+      </c>
+      <c r="B44" t="str">
+        <v>1,436.73</v>
+      </c>
+      <c r="C44" t="str">
+        <v>1,436.73</v>
+      </c>
+      <c r="D44" t="str">
+        <v>1,237.3</v>
+      </c>
+      <c r="E44" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+      </c>
+      <c r="B45" t="str">
+        <v>44,560.21</v>
+      </c>
+      <c r="C45" t="str">
+        <v>44,560.21</v>
+      </c>
+      <c r="D45" t="str">
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <v>38,374.71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
+      </c>
+      <c r="B46" t="str">
+        <v>275.77</v>
+      </c>
+      <c r="C46" t="str">
+        <v>275.77</v>
+      </c>
+      <c r="D46" t="str">
+        <v>237.49</v>
+      </c>
+      <c r="E46" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>0x04d9f35C7c292ca2c75C498563b48123C0662e19</v>
+      </c>
+      <c r="B47" t="str">
+        <v>2,909.13</v>
+      </c>
+      <c r="C47" t="str">
+        <v>2,909.13</v>
+      </c>
+      <c r="D47" t="str">
+        <v>2,505.31</v>
+      </c>
+      <c r="E47" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>0x7B82007d91312Bb84E57A79c6df7Fa3928beD152</v>
+      </c>
+      <c r="B48" t="str">
+        <v>18.97</v>
+      </c>
+      <c r="C48" t="str">
+        <v>18.97</v>
+      </c>
+      <c r="D48" t="str">
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
+      </c>
+      <c r="B49" t="str">
+        <v>18.81</v>
+      </c>
+      <c r="C49" t="str">
+        <v>18.81</v>
+      </c>
+      <c r="D49" t="str">
+        <v>16.2</v>
+      </c>
+      <c r="E49" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+      </c>
+      <c r="B50" t="str">
+        <v>577,271.42</v>
+      </c>
+      <c r="C50" t="str">
+        <v>577,271.42</v>
+      </c>
+      <c r="D50" t="str">
+        <v>248,690.08</v>
+      </c>
+      <c r="E50" t="str">
+        <v>248,448.98</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
+      </c>
+      <c r="B51" t="str">
+        <v>284.49</v>
+      </c>
+      <c r="C51" t="str">
+        <v>284.49</v>
+      </c>
+      <c r="D51" t="str">
+        <v>245</v>
+      </c>
+      <c r="E51" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>0x413Af536E3D18D259A9b71B42AC66faC5aBa0Fbf</v>
+      </c>
+      <c r="B52" t="str">
+        <v>9.87</v>
+      </c>
+      <c r="C52" t="str">
+        <v>9.87</v>
+      </c>
+      <c r="D52" t="str">
+        <v>8.5</v>
+      </c>
+      <c r="E52" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
+      </c>
+      <c r="B53" t="str">
+        <v>54.32</v>
+      </c>
+      <c r="C53" t="str">
+        <v>54.32</v>
+      </c>
+      <c r="D53" t="str">
+        <v>46.78</v>
+      </c>
+      <c r="E53" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>0x4e50BEF218F0Db065F4EE833D3679712A74F21F2</v>
+      </c>
+      <c r="B54" t="str">
+        <v>50.47</v>
+      </c>
+      <c r="C54" t="str">
+        <v>50.47</v>
+      </c>
+      <c r="D54" t="str">
+        <v>43.47</v>
+      </c>
+      <c r="E54" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0xc3E8E2045564533F6a31ec05b3BD9BCFc5C9f76D</v>
+      </c>
+      <c r="B55" t="str">
+        <v>44.84</v>
+      </c>
+      <c r="C55" t="str">
+        <v>44.84</v>
+      </c>
+      <c r="D55" t="str">
+        <v>38.62</v>
+      </c>
+      <c r="E55" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+      </c>
+      <c r="B56" t="str">
+        <v>32.72</v>
+      </c>
+      <c r="C56" t="str">
+        <v>32.72</v>
+      </c>
+      <c r="D56" t="str">
+        <v>28.18</v>
+      </c>
+      <c r="E56" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
+      </c>
+      <c r="B57" t="str">
+        <v>25.41</v>
+      </c>
+      <c r="C57" t="str">
+        <v>25.41</v>
+      </c>
+      <c r="D57" t="str">
+        <v>21.89</v>
+      </c>
+      <c r="E57" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>0xa755B0E03b0C0411c64749C64F063a6600a24D8c</v>
+      </c>
+      <c r="B58" t="str">
+        <v>721.32</v>
+      </c>
+      <c r="C58" t="str">
+        <v>721.32</v>
+      </c>
+      <c r="D58" t="str">
+        <v>621.2</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>0x357cDa2237d31e618ba3A39dD4691429E7cDD107</v>
+      </c>
+      <c r="B59" t="str">
+        <v>1,391.03</v>
+      </c>
+      <c r="C59" t="str">
+        <v>1,391.03</v>
+      </c>
+      <c r="D59" t="str">
+        <v>1,197.94</v>
+      </c>
+      <c r="E59" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>0x24EC4345706a30747bA16dCA3e9751B73b72C78a</v>
+      </c>
+      <c r="B60" t="str">
+        <v>466.69</v>
+      </c>
+      <c r="C60" t="str">
+        <v>466.69</v>
+      </c>
+      <c r="D60" t="str">
+        <v>401.91</v>
+      </c>
+      <c r="E60" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
+      </c>
+      <c r="B61" t="str">
+        <v>472.33</v>
+      </c>
+      <c r="C61" t="str">
+        <v>472.33</v>
+      </c>
+      <c r="D61" t="str">
+        <v>406.77</v>
+      </c>
+      <c r="E61" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>0x2731b9BC4c6AC6287996741A5A87D6E51D18B2EB</v>
+      </c>
+      <c r="B62" t="str">
+        <v>368.39</v>
+      </c>
+      <c r="C62" t="str">
+        <v>368.39</v>
+      </c>
+      <c r="D62" t="str">
+        <v>317.26</v>
+      </c>
+      <c r="E62" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>0x942E746C384bec88Dfa6164e8d699858E9988FeB</v>
+      </c>
+      <c r="B63" t="str">
+        <v>270.81</v>
+      </c>
+      <c r="C63" t="str">
+        <v>270.81</v>
+      </c>
+      <c r="D63" t="str">
+        <v>233.22</v>
+      </c>
+      <c r="E63" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
+      </c>
+      <c r="B64" t="str">
+        <v>32.95</v>
+      </c>
+      <c r="C64" t="str">
+        <v>32.95</v>
+      </c>
+      <c r="D64" t="str">
+        <v>28.38</v>
+      </c>
+      <c r="E64" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
+      </c>
+      <c r="B65" t="str">
+        <v>15,260.55</v>
+      </c>
+      <c r="C65" t="str">
+        <v>15,260.55</v>
+      </c>
+      <c r="D65" t="str">
+        <v>13,142.2</v>
+      </c>
+      <c r="E65" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
+      </c>
+      <c r="B66" t="str">
+        <v>6,070.82</v>
+      </c>
+      <c r="C66" t="str">
+        <v>6,070.82</v>
+      </c>
+      <c r="D66" t="str">
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <v>5,228.12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+      </c>
+      <c r="B67" t="str">
+        <v>878.04</v>
+      </c>
+      <c r="C67" t="str">
+        <v>878.04</v>
+      </c>
+      <c r="D67" t="str">
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <v>756.16</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>0xb4120A72ad3778E123da74F3C09c1272521C8b7e</v>
+      </c>
+      <c r="B68" t="str">
+        <v>74,795.79</v>
+      </c>
+      <c r="C68" t="str">
+        <v>74,795.79</v>
+      </c>
+      <c r="D68" t="str">
+        <v>64,413.22</v>
+      </c>
+      <c r="E68" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>0xa8f881849583f2dBC55f04433C62Edbc79f46286</v>
+      </c>
+      <c r="B69" t="str">
+        <v>23.35</v>
+      </c>
+      <c r="C69" t="str">
+        <v>23.35</v>
+      </c>
+      <c r="D69" t="str">
+        <v>20.11</v>
+      </c>
+      <c r="E69" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
+      </c>
+      <c r="B70" t="str">
+        <v>51.92</v>
+      </c>
+      <c r="C70" t="str">
+        <v>51.92</v>
+      </c>
+      <c r="D70" t="str">
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <v>44.72</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>0x7e729b21005cF2FDda685bA7Bef04c6Dc3DcD444</v>
+      </c>
+      <c r="B71" t="str">
+        <v>4.81</v>
+      </c>
+      <c r="C71" t="str">
+        <v>4.81</v>
+      </c>
+      <c r="D71" t="str">
+        <v>4.15</v>
+      </c>
+      <c r="E71" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+      </c>
+      <c r="B72" t="str">
+        <v>44,765.14</v>
+      </c>
+      <c r="C72" t="str">
+        <v>44,765.14</v>
+      </c>
+      <c r="D72" t="str">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <v>38,551.19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+      </c>
+      <c r="B73" t="str">
+        <v>1,989.25</v>
+      </c>
+      <c r="C73" t="str">
+        <v>1,989.25</v>
+      </c>
+      <c r="D73" t="str">
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <v>1,713.12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
+      </c>
+      <c r="B74" t="str">
+        <v>1,697.43</v>
+      </c>
+      <c r="C74" t="str">
+        <v>1,697.43</v>
+      </c>
+      <c r="D74" t="str">
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <v>1,461.81</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>0x494700b98fE1F432EeF0F5Ca8262D6d903F8a5Ab</v>
+      </c>
+      <c r="B75" t="str">
+        <v>1,211.72</v>
+      </c>
+      <c r="C75" t="str">
+        <v>1,211.72</v>
+      </c>
+      <c r="D75" t="str">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <v>1,043.52</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>0x889f1F09b491711013cA6787E29e07a04FDf42a4</v>
+      </c>
+      <c r="B76" t="str">
+        <v>237,594.93</v>
+      </c>
+      <c r="C76" t="str">
+        <v>237,594.93</v>
+      </c>
+      <c r="D76" t="str">
+        <v>25,974.89</v>
+      </c>
+      <c r="E76" t="str">
+        <v>178,638.95</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+      </c>
+      <c r="B77" t="str">
+        <v>194,482.46</v>
+      </c>
+      <c r="C77" t="str">
+        <v>194,482.46</v>
+      </c>
+      <c r="D77" t="str">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <v>167,485.91</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
+      </c>
+      <c r="B78" t="str">
+        <v>1,714.38</v>
+      </c>
+      <c r="C78" t="str">
+        <v>1,714.38</v>
+      </c>
+      <c r="D78" t="str">
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <v>1,476.41</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+      </c>
+      <c r="B79" t="str">
+        <v>634.9</v>
+      </c>
+      <c r="C79" t="str">
+        <v>634.9</v>
+      </c>
+      <c r="D79" t="str">
+        <v>546.77</v>
+      </c>
+      <c r="E79" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
+      </c>
+      <c r="B80" t="str">
+        <v>13,743.43</v>
+      </c>
+      <c r="C80" t="str">
+        <v>13,743.43</v>
+      </c>
+      <c r="D80" t="str">
+        <v>11,835.68</v>
+      </c>
+      <c r="E80" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
+      </c>
+      <c r="B81" t="str">
+        <v>13,743.43</v>
+      </c>
+      <c r="C81" t="str">
+        <v>13,743.43</v>
+      </c>
+      <c r="D81" t="str">
+        <v>0</v>
+      </c>
+      <c r="E81" t="str">
+        <v>11,835.68</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>0x387c310a3cC65aa12BC11CAF67a17b4a8693ed5e</v>
+      </c>
+      <c r="B82" t="str">
+        <v>11,129.75</v>
+      </c>
+      <c r="C82" t="str">
+        <v>11,129.75</v>
+      </c>
+      <c r="D82" t="str">
+        <v>9,584.81</v>
+      </c>
+      <c r="E82" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+      </c>
+      <c r="B83" t="str">
+        <v>8,390.06</v>
+      </c>
+      <c r="C83" t="str">
+        <v>8,390.06</v>
+      </c>
+      <c r="D83" t="str">
+        <v>7,225.42</v>
+      </c>
+      <c r="E83" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+      </c>
+      <c r="B84" t="str">
+        <v>8,390.06</v>
+      </c>
+      <c r="C84" t="str">
+        <v>8,390.06</v>
+      </c>
+      <c r="D84" t="str">
+        <v>0</v>
+      </c>
+      <c r="E84" t="str">
+        <v>7,225.42</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>0x0fA1AfF9540786DCad9196e0676e2e4423317FAf</v>
+      </c>
+      <c r="B85" t="str">
+        <v>9,596.35</v>
+      </c>
+      <c r="C85" t="str">
+        <v>9,596.35</v>
+      </c>
+      <c r="D85" t="str">
+        <v>8,264.26</v>
+      </c>
+      <c r="E85" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
+      </c>
+      <c r="B86" t="str">
+        <v>9,730.6</v>
+      </c>
+      <c r="C86" t="str">
+        <v>9,730.6</v>
+      </c>
+      <c r="D86" t="str">
+        <v>115.62</v>
+      </c>
+      <c r="E86" t="str">
+        <v>8,264.26</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
+      </c>
+      <c r="B87" t="str">
+        <v>3,232.73</v>
+      </c>
+      <c r="C87" t="str">
+        <v>3,232.73</v>
+      </c>
+      <c r="D87" t="str">
+        <v>2,783.99</v>
+      </c>
+      <c r="E87" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
+      </c>
+      <c r="B88" t="str">
+        <v>0</v>
+      </c>
+      <c r="C88" t="str">
+        <v>3,232.73</v>
+      </c>
+      <c r="D88" t="str">
+        <v>0</v>
+      </c>
+      <c r="E88" t="str">
+        <v>2,783.99</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+      </c>
+      <c r="B89" t="str">
+        <v>6,739.71</v>
+      </c>
+      <c r="C89" t="str">
+        <v>6,739.71</v>
+      </c>
+      <c r="D89" t="str">
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <v>5,804.16</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
+      </c>
+      <c r="B90" t="str">
+        <v>59.22</v>
+      </c>
+      <c r="C90" t="str">
+        <v>59.22</v>
+      </c>
+      <c r="D90" t="str">
+        <v>51</v>
+      </c>
+      <c r="E90" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>0xCf54bb8C360FB4Ec47AE0c31Bc8864B163651277</v>
+      </c>
+      <c r="B91" t="str">
+        <v>0</v>
+      </c>
+      <c r="C91" t="str">
+        <v>140.1</v>
+      </c>
+      <c r="D91" t="str">
+        <v>120.66</v>
+      </c>
+      <c r="E91" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
+      </c>
+      <c r="B92" t="str">
+        <v>643.82</v>
+      </c>
+      <c r="C92" t="str">
+        <v>643.82</v>
+      </c>
+      <c r="D92" t="str">
+        <v>500</v>
+      </c>
+      <c r="E92" t="str">
+        <v>54.45</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
+      </c>
+      <c r="B93" t="str">
+        <v>580.59</v>
+      </c>
+      <c r="C93" t="str">
+        <v>580.59</v>
+      </c>
+      <c r="D93" t="str">
+        <v>0</v>
+      </c>
+      <c r="E93" t="str">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+      </c>
+      <c r="B94" t="str">
+        <v>321.43</v>
+      </c>
+      <c r="C94" t="str">
+        <v>321.43</v>
+      </c>
+      <c r="D94" t="str">
+        <v>0</v>
+      </c>
+      <c r="E94" t="str">
+        <v>276.82</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+      </c>
+      <c r="B95" t="str">
+        <v>35,222.79</v>
+      </c>
+      <c r="C95" t="str">
+        <v>35,222.79</v>
+      </c>
+      <c r="D95" t="str">
+        <v>30,333.44</v>
+      </c>
+      <c r="E95" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+      </c>
+      <c r="B96" t="str">
+        <v>0</v>
+      </c>
+      <c r="C96" t="str">
+        <v>35,222.79</v>
+      </c>
+      <c r="D96" t="str">
+        <v>0</v>
+      </c>
+      <c r="E96" t="str">
+        <v>30,333.44</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+      </c>
+      <c r="B97" t="str">
+        <v>8,204.03</v>
+      </c>
+      <c r="C97" t="str">
+        <v>8,204.03</v>
+      </c>
+      <c r="D97" t="str">
+        <v>2,321.52</v>
+      </c>
+      <c r="E97" t="str">
+        <v>4,743.69</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>0x61c17C2EbD2647F82F7450b9956f1EE9357eA4B1</v>
+      </c>
+      <c r="B98" t="str">
+        <v>55,063.92</v>
+      </c>
+      <c r="C98" t="str">
+        <v>60,372.84</v>
+      </c>
+      <c r="D98" t="str">
+        <v>51,992.35</v>
+      </c>
+      <c r="E98" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>0xA66ABB96cC791CFD157CFcd404B27A0920824B35</v>
+      </c>
+      <c r="B99" t="str">
+        <v>0</v>
+      </c>
+      <c r="C99" t="str">
+        <v>267,806.07</v>
+      </c>
+      <c r="D99" t="str">
+        <v>178,638.95</v>
+      </c>
+      <c r="E99" t="str">
+        <v>51,992.35</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+      </c>
+      <c r="B100" t="str">
+        <v>46.93</v>
+      </c>
+      <c r="C100" t="str">
+        <v>46.93</v>
+      </c>
+      <c r="D100" t="str">
+        <v>40.42</v>
+      </c>
+      <c r="E100" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>0x41382710CB3320194F0fb9Ef8e8531e0E291D740</v>
+      </c>
+      <c r="B101" t="str">
+        <v>233.45</v>
+      </c>
+      <c r="C101" t="str">
+        <v>233.45</v>
+      </c>
+      <c r="D101" t="str">
+        <v>201.05</v>
+      </c>
+      <c r="E101" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>0xAa00788779C2bB3C012BA6914A26cA5B23E02371</v>
+      </c>
+      <c r="B102" t="str">
+        <v>233.45</v>
+      </c>
+      <c r="C102" t="str">
+        <v>233.45</v>
+      </c>
+      <c r="D102" t="str">
+        <v>0</v>
+      </c>
+      <c r="E102" t="str">
+        <v>201.05</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
+      </c>
+      <c r="B103" t="str">
+        <v>3,530</v>
+      </c>
+      <c r="C103" t="str">
+        <v>3,530</v>
+      </c>
+      <c r="D103" t="str">
+        <v>3,040</v>
+      </c>
+      <c r="E103" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+      </c>
+      <c r="B104" t="str">
+        <v>3,530</v>
+      </c>
+      <c r="C104" t="str">
+        <v>3,530</v>
+      </c>
+      <c r="D104" t="str">
+        <v>0</v>
+      </c>
+      <c r="E104" t="str">
+        <v>3,040</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>0xc5f85e44C65783b4f1fD18D81CDA4e0Eb0eBb77d</v>
+      </c>
+      <c r="B105" t="str">
+        <v>93.54</v>
+      </c>
+      <c r="C105" t="str">
+        <v>93.54</v>
+      </c>
+      <c r="D105" t="str">
+        <v>80.56</v>
+      </c>
+      <c r="E105" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+      </c>
+      <c r="B106" t="str">
+        <v>18,968.52</v>
+      </c>
+      <c r="C106" t="str">
+        <v>18,968.52</v>
+      </c>
+      <c r="D106" t="str">
+        <v>9,967.11</v>
+      </c>
+      <c r="E106" t="str">
+        <v>6,368.35</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>0xe1cE7bDEae6757E29008f2ECA572b6208E23a822</v>
+      </c>
+      <c r="B107" t="str">
+        <v>3,499.42</v>
+      </c>
+      <c r="C107" t="str">
+        <v>3,499.42</v>
+      </c>
+      <c r="D107" t="str">
+        <v>3,013.66</v>
+      </c>
+      <c r="E107" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>0xb8D8066d1EE9D03800B7600d2807b7749B9F6899</v>
+      </c>
+      <c r="B108" t="str">
+        <v>290.29</v>
+      </c>
+      <c r="C108" t="str">
+        <v>290.29</v>
+      </c>
+      <c r="D108" t="str">
+        <v>250</v>
+      </c>
+      <c r="E108" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>0xD465Ffa5efAdF5cF1Dd6c45c3C305f58279A2140</v>
+      </c>
+      <c r="B109" t="str">
+        <v>0</v>
+      </c>
+      <c r="C109" t="str">
+        <v>290.29</v>
+      </c>
+      <c r="D109" t="str">
+        <v>0</v>
+      </c>
+      <c r="E109" t="str">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+      </c>
+      <c r="B110" t="str">
+        <v>39.96</v>
+      </c>
+      <c r="C110" t="str">
+        <v>39.96</v>
+      </c>
+      <c r="D110" t="str">
+        <v>0</v>
+      </c>
+      <c r="E110" t="str">
+        <v>34.42</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+      </c>
+      <c r="B111" t="str">
+        <v>71.19</v>
+      </c>
+      <c r="C111" t="str">
+        <v>71.19</v>
+      </c>
+      <c r="D111" t="str">
+        <v>61.31</v>
+      </c>
+      <c r="E111" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
+      </c>
+      <c r="B112" t="str">
+        <v>28.29</v>
+      </c>
+      <c r="C112" t="str">
+        <v>28.29</v>
+      </c>
+      <c r="D112" t="str">
+        <v>0</v>
+      </c>
+      <c r="E112" t="str">
+        <v>24.37</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>0xC53Fa15adE563291bF8ba8d7E62a9B0959e6aE30</v>
+      </c>
+      <c r="B113" t="str">
+        <v>67.11</v>
+      </c>
+      <c r="C113" t="str">
+        <v>67.11</v>
+      </c>
+      <c r="D113" t="str">
+        <v>57.8</v>
+      </c>
+      <c r="E113" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>0xcE1290F5457067497EAd8Aea22515d52ca94357E</v>
+      </c>
+      <c r="B114" t="str">
+        <v>165</v>
+      </c>
+      <c r="C114" t="str">
+        <v>165</v>
+      </c>
+      <c r="D114" t="str">
+        <v>0</v>
+      </c>
+      <c r="E114" t="str">
+        <v>142.1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
+      </c>
+      <c r="B115" t="str">
+        <v>4,630.54</v>
+      </c>
+      <c r="C115" t="str">
+        <v>4,630.54</v>
+      </c>
+      <c r="D115" t="str">
+        <v>3,987.77</v>
+      </c>
+      <c r="E115" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+      </c>
+      <c r="B116" t="str">
+        <v>86,038.08</v>
+      </c>
+      <c r="C116" t="str">
+        <v>86,038.08</v>
+      </c>
+      <c r="D116" t="str">
+        <v>70,000</v>
+      </c>
+      <c r="E116" t="str">
+        <v>4,094.94</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>0x425F2F1287045bC9d04C0f933E7FdEdA4A2e5765</v>
+      </c>
+      <c r="B117" t="str">
+        <v>2,858.79</v>
+      </c>
+      <c r="C117" t="str">
+        <v>2,858.79</v>
+      </c>
+      <c r="D117" t="str">
+        <v>0</v>
+      </c>
+      <c r="E117" t="str">
+        <v>2,461.96</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>0x358e444fFb60A1Cc82A6E412C6720f110dc1E921</v>
+      </c>
+      <c r="B118" t="str">
+        <v>0</v>
+      </c>
+      <c r="C118" t="str">
+        <v>4,222.52</v>
+      </c>
+      <c r="D118" t="str">
+        <v>0</v>
+      </c>
+      <c r="E118" t="str">
+        <v>3,636.39</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>0xFeD4972A2Ee597c587C1b0643849845544c17C2F</v>
+      </c>
+      <c r="B119" t="str">
+        <v>1,071.24</v>
+      </c>
+      <c r="C119" t="str">
+        <v>1,071.24</v>
+      </c>
+      <c r="D119" t="str">
+        <v>0</v>
+      </c>
+      <c r="E119" t="str">
+        <v>922.54</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
+      </c>
+      <c r="B120" t="str">
+        <v>293.46</v>
+      </c>
+      <c r="C120" t="str">
+        <v>293.46</v>
+      </c>
+      <c r="D120" t="str">
+        <v>252.73</v>
+      </c>
+      <c r="E120" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>0x2A1Cc6c77782EA6BE6C08d61430A79E31Ea4efDf</v>
+      </c>
+      <c r="B121" t="str">
+        <v>149.95</v>
+      </c>
+      <c r="C121" t="str">
+        <v>149.95</v>
+      </c>
+      <c r="D121" t="str">
+        <v>0</v>
+      </c>
+      <c r="E121" t="str">
+        <v>129.14</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>0x233680379B54D12357711b431Be3B8a4cdfBe6bD</v>
+      </c>
+      <c r="B122" t="str">
+        <v>107.1</v>
+      </c>
+      <c r="C122" t="str">
+        <v>107.1</v>
+      </c>
+      <c r="D122" t="str">
+        <v>92.24</v>
+      </c>
+      <c r="E122" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+      </c>
+      <c r="B123" t="str">
+        <v>827.83</v>
+      </c>
+      <c r="C123" t="str">
+        <v>827.83</v>
+      </c>
+      <c r="D123" t="str">
+        <v>362.27</v>
+      </c>
+      <c r="E123" t="str">
+        <v>350.65</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>0xDbfd080A579b7DFc5D99834C86ffd543b688c864</v>
+      </c>
+      <c r="B124" t="str">
+        <v>1,916.74</v>
+      </c>
+      <c r="C124" t="str">
+        <v>1,916.74</v>
+      </c>
+      <c r="D124" t="str">
+        <v>1,650.68</v>
+      </c>
+      <c r="E124" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>0x69f96f2A5Cdd84E574dB2a353880095988243417</v>
+      </c>
+      <c r="B125" t="str">
+        <v>0</v>
+      </c>
+      <c r="C125" t="str">
+        <v>5,246.88</v>
+      </c>
+      <c r="D125" t="str">
+        <v>4,518.55</v>
+      </c>
+      <c r="E125" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+      </c>
+      <c r="B126" t="str">
+        <v>11,331.51</v>
+      </c>
+      <c r="C126" t="str">
+        <v>11,331.51</v>
+      </c>
+      <c r="D126" t="str">
+        <v>0</v>
+      </c>
+      <c r="E126" t="str">
+        <v>9,758.56</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>0x9AFd15a40275947bDD6824ba0eAfE1cCe4143a2F</v>
+      </c>
+      <c r="B127" t="str">
+        <v>378.04</v>
+      </c>
+      <c r="C127" t="str">
+        <v>378.04</v>
+      </c>
+      <c r="D127" t="str">
+        <v>325.57</v>
+      </c>
+      <c r="E127" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>0xF473Ea7dc6E82C348530FDE410bFF035bCe0B269</v>
+      </c>
+      <c r="B128" t="str">
+        <v>958.64</v>
+      </c>
+      <c r="C128" t="str">
+        <v>958.64</v>
+      </c>
+      <c r="D128" t="str">
+        <v>0</v>
+      </c>
+      <c r="E128" t="str">
+        <v>825.57</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
+      </c>
+      <c r="B129" t="str">
+        <v>4,716.57</v>
+      </c>
+      <c r="C129" t="str">
+        <v>4,716.57</v>
+      </c>
+      <c r="D129" t="str">
+        <v>0</v>
+      </c>
+      <c r="E129" t="str">
+        <v>4,061.86</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
+      </c>
+      <c r="B130" t="str">
+        <v>7.91</v>
+      </c>
+      <c r="C130" t="str">
+        <v>7.91</v>
+      </c>
+      <c r="D130" t="str">
+        <v>6.82</v>
+      </c>
+      <c r="E130" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
+      </c>
+      <c r="B131" t="str">
+        <v>7.91</v>
+      </c>
+      <c r="C131" t="str">
+        <v>7.91</v>
+      </c>
+      <c r="D131" t="str">
+        <v>0</v>
+      </c>
+      <c r="E131" t="str">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>0x9C19FE52c5b04d39EF89d58fCDef24A55CfDA4a7</v>
+      </c>
+      <c r="B132" t="str">
+        <v>98.35</v>
+      </c>
+      <c r="C132" t="str">
+        <v>98.35</v>
+      </c>
+      <c r="D132" t="str">
+        <v>84.7</v>
+      </c>
+      <c r="E132" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
+      </c>
+      <c r="B133" t="str">
+        <v>245.33</v>
+      </c>
+      <c r="C133" t="str">
+        <v>245.33</v>
+      </c>
+      <c r="D133" t="str">
+        <v>0</v>
+      </c>
+      <c r="E133" t="str">
+        <v>211.28</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+      </c>
+      <c r="B134" t="str">
+        <v>21,795.09</v>
+      </c>
+      <c r="C134" t="str">
+        <v>21,795.09</v>
+      </c>
+      <c r="D134" t="str">
+        <v>0</v>
+      </c>
+      <c r="E134" t="str">
+        <v>18,769.67</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
+      </c>
+      <c r="B135" t="str">
+        <v>1,533.09</v>
+      </c>
+      <c r="C135" t="str">
+        <v>1,533.09</v>
+      </c>
+      <c r="D135" t="str">
+        <v>235.01</v>
+      </c>
+      <c r="E135" t="str">
+        <v>1,085.27</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>0x240e0289a4d0D6B1b412ad1A4fD04711656A29ee</v>
+      </c>
+      <c r="B136" t="str">
+        <v>201.67</v>
+      </c>
+      <c r="C136" t="str">
+        <v>201.67</v>
+      </c>
+      <c r="D136" t="str">
+        <v>173.68</v>
+      </c>
+      <c r="E136" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
+      </c>
+      <c r="B137" t="str">
+        <v>26,905.19</v>
+      </c>
+      <c r="C137" t="str">
+        <v>26,905.19</v>
+      </c>
+      <c r="D137" t="str">
+        <v>0</v>
+      </c>
+      <c r="E137" t="str">
+        <v>23,170.42</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
+      </c>
+      <c r="B138" t="str">
+        <v>31.53</v>
+      </c>
+      <c r="C138" t="str">
+        <v>31.53</v>
+      </c>
+      <c r="D138" t="str">
+        <v>27.16</v>
+      </c>
+      <c r="E138" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>0xfDbb14D0A9a2f85663134F16BF006c08e2918B6a</v>
+      </c>
+      <c r="B139" t="str">
+        <v>118.8</v>
+      </c>
+      <c r="C139" t="str">
+        <v>118.8</v>
+      </c>
+      <c r="D139" t="str">
+        <v>0</v>
+      </c>
+      <c r="E139" t="str">
+        <v>102.31</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+      </c>
+      <c r="B140" t="str">
+        <v>17,260.87</v>
+      </c>
+      <c r="C140" t="str">
+        <v>17,260.87</v>
+      </c>
+      <c r="D140" t="str">
+        <v>4,897.74</v>
+      </c>
+      <c r="E140" t="str">
+        <v>9,967.11</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>0xB19c1b3cEc4c5bD6DCA220A4f59de9EC681e9211</v>
+      </c>
+      <c r="B141" t="str">
+        <v>0</v>
+      </c>
+      <c r="C141" t="str">
+        <v>180.95</v>
+      </c>
+      <c r="D141" t="str">
+        <v>12.73</v>
+      </c>
+      <c r="E141" t="str">
+        <v>143.11</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>0x175780bC4d0A1bc28c46C3E71130C092790E7576</v>
+      </c>
+      <c r="B142" t="str">
+        <v>166.17</v>
+      </c>
+      <c r="C142" t="str">
+        <v>166.17</v>
+      </c>
+      <c r="D142" t="str">
+        <v>143.11</v>
+      </c>
+      <c r="E142" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>0x19d4dEce6C48d99F0Ec4bE4258f26fdA9a7Ad4e5</v>
+      </c>
+      <c r="B143" t="str">
+        <v>350.87</v>
+      </c>
+      <c r="C143" t="str">
+        <v>350.87</v>
+      </c>
+      <c r="D143" t="str">
+        <v>302.17</v>
+      </c>
+      <c r="E143" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
+      </c>
+      <c r="B144" t="str">
+        <v>20.88</v>
+      </c>
+      <c r="C144" t="str">
+        <v>20.88</v>
+      </c>
+      <c r="D144" t="str">
+        <v>0</v>
+      </c>
+      <c r="E144" t="str">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
+      </c>
+      <c r="B145" t="str">
+        <v>3,193.26</v>
+      </c>
+      <c r="C145" t="str">
+        <v>3,193.26</v>
+      </c>
+      <c r="D145" t="str">
+        <v>2,750</v>
+      </c>
+      <c r="E145" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
+      </c>
+      <c r="B146" t="str">
+        <v>7,257.41</v>
+      </c>
+      <c r="C146" t="str">
+        <v>7,257.41</v>
+      </c>
+      <c r="D146" t="str">
+        <v>0</v>
+      </c>
+      <c r="E146" t="str">
+        <v>6,250</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>0x8538330Cd197d24CDdF7DEe46309c2ad9428FACc</v>
+      </c>
+      <c r="B147" t="str">
+        <v>32.82</v>
+      </c>
+      <c r="C147" t="str">
+        <v>32.82</v>
+      </c>
+      <c r="D147" t="str">
+        <v>28.27</v>
+      </c>
+      <c r="E147" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>0x4922dc29D2d0c725F542f5021D9353F3872F2dFF</v>
+      </c>
+      <c r="B148" t="str">
+        <v>580.59</v>
+      </c>
+      <c r="C148" t="str">
+        <v>580.59</v>
+      </c>
+      <c r="D148" t="str">
+        <v>500</v>
+      </c>
+      <c r="E148" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>0x4e0F1063F13d020B1316791Ae56ea5a826aba501</v>
+      </c>
+      <c r="B149" t="str">
+        <v>62.26</v>
+      </c>
+      <c r="C149" t="str">
+        <v>62.26</v>
+      </c>
+      <c r="D149" t="str">
+        <v>0</v>
+      </c>
+      <c r="E149" t="str">
+        <v>53.62</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+      </c>
+      <c r="B150" t="str">
+        <v>102.11</v>
+      </c>
+      <c r="C150" t="str">
+        <v>102.11</v>
+      </c>
+      <c r="D150" t="str">
+        <v>87.94</v>
+      </c>
+      <c r="E150" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
+      </c>
+      <c r="B151" t="str">
+        <v>357.77</v>
+      </c>
+      <c r="C151" t="str">
+        <v>357.77</v>
+      </c>
+      <c r="D151" t="str">
+        <v>0</v>
+      </c>
+      <c r="E151" t="str">
+        <v>308.11</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>0x96f194Cf1c9e5eE23B4D96785791F468F6A9C98e</v>
+      </c>
+      <c r="B152" t="str">
+        <v>81,283.09</v>
+      </c>
+      <c r="C152" t="str">
+        <v>81,283.09</v>
+      </c>
+      <c r="D152" t="str">
+        <v>0</v>
+      </c>
+      <c r="E152" t="str">
+        <v>70,000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>0x09aFEC89b908C2cbD220942f3788530C195Ba894</v>
+      </c>
+      <c r="B153" t="str">
+        <v>597.46</v>
+      </c>
+      <c r="C153" t="str">
+        <v>597.46</v>
+      </c>
+      <c r="D153" t="str">
+        <v>0</v>
+      </c>
+      <c r="E153" t="str">
+        <v>514.53</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+      </c>
+      <c r="B154" t="str">
+        <v>777.13</v>
+      </c>
+      <c r="C154" t="str">
+        <v>777.13</v>
+      </c>
+      <c r="D154" t="str">
+        <v>0</v>
+      </c>
+      <c r="E154" t="str">
+        <v>669.26</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>0xF6a52cb99b772d46C736F6F90Be792A1d4159414</v>
+      </c>
+      <c r="B155" t="str">
+        <v>49.4</v>
+      </c>
+      <c r="C155" t="str">
+        <v>49.4</v>
+      </c>
+      <c r="D155" t="str">
+        <v>42.55</v>
+      </c>
+      <c r="E155" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>0xdFdf143A6a12185023e01ddC61092Ac97eCB6c05</v>
+      </c>
+      <c r="B156" t="str">
+        <v>119.45</v>
+      </c>
+      <c r="C156" t="str">
+        <v>119.45</v>
+      </c>
+      <c r="D156" t="str">
+        <v>102.87</v>
+      </c>
+      <c r="E156" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
+      </c>
+      <c r="B157" t="str">
+        <v>67,137.05</v>
+      </c>
+      <c r="C157" t="str">
+        <v>67,137.05</v>
+      </c>
+      <c r="D157" t="str">
+        <v>57,817.61</v>
+      </c>
+      <c r="E157" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+      </c>
+      <c r="B158" t="str">
+        <v>2,616.15</v>
+      </c>
+      <c r="C158" t="str">
+        <v>2,616.15</v>
+      </c>
+      <c r="D158" t="str">
+        <v>0</v>
+      </c>
+      <c r="E158" t="str">
+        <v>2,253</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>0xBc7b31dFbEd762841AC646961C887B49e3f625d5</v>
+      </c>
+      <c r="B159" t="str">
+        <v>356.49</v>
+      </c>
+      <c r="C159" t="str">
+        <v>356.49</v>
+      </c>
+      <c r="D159" t="str">
+        <v>307.01</v>
+      </c>
+      <c r="E159" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>0xc4b88bff8D047576eC693EaFA72482A5e8f0fd7A</v>
+      </c>
+      <c r="B160" t="str">
+        <v>100</v>
+      </c>
+      <c r="C160" t="str">
+        <v>100</v>
+      </c>
+      <c r="D160" t="str">
+        <v>86.12</v>
+      </c>
+      <c r="E160" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
+      </c>
+      <c r="B161" t="str">
+        <v>0</v>
+      </c>
+      <c r="C161" t="str">
+        <v>2,695.71</v>
+      </c>
+      <c r="D161" t="str">
+        <v>0</v>
+      </c>
+      <c r="E161" t="str">
+        <v>2,321.52</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>0x886049Df7a8010a7e3c21A32b74e41402986ae37</v>
+      </c>
+      <c r="B162" t="str">
+        <v>133.07</v>
+      </c>
+      <c r="C162" t="str">
+        <v>133.07</v>
+      </c>
+      <c r="D162" t="str">
+        <v>114.6</v>
+      </c>
+      <c r="E162" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+      </c>
+      <c r="B163" t="str">
+        <v>8,092.05</v>
+      </c>
+      <c r="C163" t="str">
+        <v>8,092.05</v>
+      </c>
+      <c r="D163" t="str">
+        <v>6,968.78</v>
+      </c>
+      <c r="E163" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>0x9A4dbCDE63b55273DC51BeA546A7ba6456f059D0</v>
+      </c>
+      <c r="B164" t="str">
+        <v>2,043.32</v>
+      </c>
+      <c r="C164" t="str">
+        <v>2,043.32</v>
+      </c>
+      <c r="D164" t="str">
+        <v>0</v>
+      </c>
+      <c r="E164" t="str">
+        <v>1,759.69</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+      </c>
+      <c r="B165" t="str">
+        <v>1,436.73</v>
+      </c>
+      <c r="C165" t="str">
+        <v>1,436.73</v>
+      </c>
+      <c r="D165" t="str">
+        <v>0</v>
+      </c>
+      <c r="E165" t="str">
+        <v>1,237.3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>0xfA9FBD6360692a1b23b84A9dDFf63ed77faF58c9</v>
+      </c>
+      <c r="B166" t="str">
+        <v>17.68</v>
+      </c>
+      <c r="C166" t="str">
+        <v>17.68</v>
+      </c>
+      <c r="D166" t="str">
+        <v>0</v>
+      </c>
+      <c r="E166" t="str">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
+      </c>
+      <c r="B167" t="str">
+        <v>50.59</v>
+      </c>
+      <c r="C167" t="str">
+        <v>50.59</v>
+      </c>
+      <c r="D167" t="str">
+        <v>0</v>
+      </c>
+      <c r="E167" t="str">
+        <v>43.57</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>0x9C4e5edC6A735e4AB68ef04497b64008A955A1A5</v>
+      </c>
+      <c r="B168" t="str">
+        <v>715.26</v>
+      </c>
+      <c r="C168" t="str">
+        <v>715.26</v>
+      </c>
+      <c r="D168" t="str">
+        <v>0</v>
+      </c>
+      <c r="E168" t="str">
+        <v>615.98</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+      </c>
+      <c r="B169" t="str">
+        <v>44,560.21</v>
+      </c>
+      <c r="C169" t="str">
+        <v>44,560.21</v>
+      </c>
+      <c r="D169" t="str">
+        <v>38,374.71</v>
+      </c>
+      <c r="E169" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+      </c>
+      <c r="B170" t="str">
+        <v>11,449.64</v>
+      </c>
+      <c r="C170" t="str">
+        <v>11,449.64</v>
+      </c>
+      <c r="D170" t="str">
+        <v>9,860.29</v>
+      </c>
+      <c r="E170" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>0x53ca313FFDcAADAd0CCa71b3eEf7fDc57d83Bfed</v>
+      </c>
+      <c r="B171" t="str">
+        <v>70.01</v>
+      </c>
+      <c r="C171" t="str">
+        <v>70.01</v>
+      </c>
+      <c r="D171" t="str">
+        <v>60.3</v>
+      </c>
+      <c r="E171" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>0x555D98207F3Cb7fdB6fB7217A081A365ca45c135</v>
+      </c>
+      <c r="B172" t="str">
+        <v>70.01</v>
+      </c>
+      <c r="C172" t="str">
+        <v>70.01</v>
+      </c>
+      <c r="D172" t="str">
+        <v>0</v>
+      </c>
+      <c r="E172" t="str">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>0x89c7eF9CE8c8B7C683f8051f355B5f6B55acA4De</v>
+      </c>
+      <c r="B173" t="str">
+        <v>94.81</v>
+      </c>
+      <c r="C173" t="str">
+        <v>94.81</v>
+      </c>
+      <c r="D173" t="str">
+        <v>81.65</v>
+      </c>
+      <c r="E173" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>0x2848A658c1097a8639d2fb62a977b23903200b53</v>
+      </c>
+      <c r="B174" t="str">
+        <v>94.81</v>
+      </c>
+      <c r="C174" t="str">
+        <v>94.81</v>
+      </c>
+      <c r="D174" t="str">
+        <v>0</v>
+      </c>
+      <c r="E174" t="str">
+        <v>81.65</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>0xC023483Fa22d037EC5f056FC31C8f40751722aD5</v>
+      </c>
+      <c r="B175" t="str">
+        <v>58.05</v>
+      </c>
+      <c r="C175" t="str">
+        <v>58.05</v>
+      </c>
+      <c r="D175" t="str">
+        <v>0</v>
+      </c>
+      <c r="E175" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>0xeBB36F543A6c3E09a06c937E86fB0930a6EdA151</v>
+      </c>
+      <c r="B176" t="str">
+        <v>174.17</v>
+      </c>
+      <c r="C176" t="str">
+        <v>174.17</v>
+      </c>
+      <c r="D176" t="str">
+        <v>0</v>
+      </c>
+      <c r="E176" t="str">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
+      </c>
+      <c r="B177" t="str">
+        <v>2,888.92</v>
+      </c>
+      <c r="C177" t="str">
+        <v>2,888.92</v>
+      </c>
+      <c r="D177" t="str">
+        <v>2,487.91</v>
+      </c>
+      <c r="E177" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
+      </c>
+      <c r="B178" t="str">
+        <v>2,888.92</v>
+      </c>
+      <c r="C178" t="str">
+        <v>2,888.92</v>
+      </c>
+      <c r="D178" t="str">
+        <v>0</v>
+      </c>
+      <c r="E178" t="str">
+        <v>2,487.91</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>0x1A24A8CDa46ACac40606af1D233dAfF9AEe66e2f</v>
+      </c>
+      <c r="B179" t="str">
+        <v>95.7</v>
+      </c>
+      <c r="C179" t="str">
+        <v>95.7</v>
+      </c>
+      <c r="D179" t="str">
+        <v>0</v>
+      </c>
+      <c r="E179" t="str">
+        <v>82.42</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>0xFa544d034dC07aD4Fa185ba769031a29Fbef5e36</v>
+      </c>
+      <c r="B180" t="str">
+        <v>18.81</v>
+      </c>
+      <c r="C180" t="str">
+        <v>18.81</v>
+      </c>
+      <c r="D180" t="str">
+        <v>0</v>
+      </c>
+      <c r="E180" t="str">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+      </c>
+      <c r="B181" t="str">
+        <v>577,271.42</v>
+      </c>
+      <c r="C181" t="str">
+        <v>577,271.42</v>
+      </c>
+      <c r="D181" t="str">
+        <v>248,448.98</v>
+      </c>
+      <c r="E181" t="str">
+        <v>248,690.08</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>0x1B5f7cBb775f11BC5CFC4ac9dC1406Ef613F7A63</v>
+      </c>
+      <c r="B182" t="str">
+        <v>19.84</v>
+      </c>
+      <c r="C182" t="str">
+        <v>19.84</v>
+      </c>
+      <c r="D182" t="str">
+        <v>17.09</v>
+      </c>
+      <c r="E182" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
+      </c>
+      <c r="B183" t="str">
+        <v>284.49</v>
+      </c>
+      <c r="C183" t="str">
+        <v>284.49</v>
+      </c>
+      <c r="D183" t="str">
+        <v>0</v>
+      </c>
+      <c r="E183" t="str">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>0x27e0D3A0D88BACaD8720aa9c6Bf7e0d099f3bCEa</v>
+      </c>
+      <c r="B184" t="str">
+        <v>510</v>
+      </c>
+      <c r="C184" t="str">
+        <v>697.01</v>
+      </c>
+      <c r="D184" t="str">
+        <v>600.26</v>
+      </c>
+      <c r="E184" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+      </c>
+      <c r="B185" t="str">
+        <v>54.32</v>
+      </c>
+      <c r="C185" t="str">
+        <v>54.32</v>
+      </c>
+      <c r="D185" t="str">
+        <v>0</v>
+      </c>
+      <c r="E185" t="str">
+        <v>46.78</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
+      </c>
+      <c r="B186" t="str">
+        <v>20,996.02</v>
+      </c>
+      <c r="C186" t="str">
+        <v>20,996.02</v>
+      </c>
+      <c r="D186" t="str">
+        <v>18,081.52</v>
+      </c>
+      <c r="E186" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>0x4CEbE974145E6796dB356F3689082D2d1eEf02Bf</v>
+      </c>
+      <c r="B187" t="str">
+        <v>116.11</v>
+      </c>
+      <c r="C187" t="str">
+        <v>116.11</v>
+      </c>
+      <c r="D187" t="str">
+        <v>100</v>
+      </c>
+      <c r="E187" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
+      </c>
+      <c r="B188" t="str">
+        <v>116.11</v>
+      </c>
+      <c r="C188" t="str">
+        <v>116.11</v>
+      </c>
+      <c r="D188" t="str">
+        <v>0</v>
+      </c>
+      <c r="E188" t="str">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>0x880cd618B4cA66bBb8862558954d8473d7b0C867</v>
+      </c>
+      <c r="B189" t="str">
+        <v>1,285.92</v>
+      </c>
+      <c r="C189" t="str">
+        <v>1,285.92</v>
+      </c>
+      <c r="D189" t="str">
+        <v>1,107.42</v>
+      </c>
+      <c r="E189" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>0x9ff812DfE804e2BF400Fd6fD22293203674DDdEe</v>
+      </c>
+      <c r="B190" t="str">
+        <v>50.47</v>
+      </c>
+      <c r="C190" t="str">
+        <v>50.47</v>
+      </c>
+      <c r="D190" t="str">
+        <v>0</v>
+      </c>
+      <c r="E190" t="str">
+        <v>43.47</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>0x2728c19586e1eB6b2AA599c15fA1456426C7CC7C</v>
+      </c>
+      <c r="B191" t="str">
+        <v>2,800.28</v>
+      </c>
+      <c r="C191" t="str">
+        <v>2,800.28</v>
+      </c>
+      <c r="D191" t="str">
+        <v>2,407.06</v>
+      </c>
+      <c r="E191" t="str">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>0x1893c5D2fb92D2AD0990943E952D8370bfBD9463</v>
+      </c>
+      <c r="B192" t="str">
+        <v>44.84</v>
+      </c>
+      <c r="C192" t="str">
+        <v>44.84</v>
+      </c>
+      <c r="D192" t="str">
+        <v>0</v>
+      </c>
+      <c r="E192" t="str">
+        <v>38.62</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
+      </c>
+      <c r="B193" t="str">
+        <v>2,802.21</v>
+      </c>
+      <c r="C193" t="str">
+        <v>2,802.21</v>
+      </c>
+      <c r="D193" t="str">
+        <v>2,403.63</v>
+      </c>
+      <c r="E193" t="str">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>0x48A7209DD07Bc7409bF3f61820E1Ee9409F462e9</v>
+      </c>
+      <c r="B194" t="str">
+        <v>219.48</v>
+      </c>
+      <c r="C194" t="str">
+        <v>219.48</v>
+      </c>
+      <c r="D194" t="str">
+        <v>0</v>
+      </c>
+      <c r="E194" t="str">
+        <v>189.02</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>0xAE1aD5B0Cb04CFe479E9308006F2e0063Ab8E845</v>
+      </c>
+      <c r="B195" t="str">
+        <v>138.13</v>
+      </c>
+      <c r="C195" t="str">
+        <v>138.13</v>
+      </c>
+      <c r="D195" t="str">
+        <v>0</v>
+      </c>
+      <c r="E195" t="str">
+        <v>118.96</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+      </c>
+      <c r="B196" t="str">
+        <v>63.22</v>
+      </c>
+      <c r="C196" t="str">
+        <v>63.22</v>
+      </c>
+      <c r="D196" t="str">
+        <v>54.45</v>
+      </c>
+      <c r="E196" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
+      </c>
+      <c r="B197" t="str">
+        <v>1,465.48</v>
+      </c>
+      <c r="C197" t="str">
+        <v>1,465.48</v>
+      </c>
+      <c r="D197" t="str">
+        <v>0</v>
+      </c>
+      <c r="E197" t="str">
+        <v>1,262.06</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
+      </c>
+      <c r="B198" t="str">
+        <v>870.89</v>
+      </c>
+      <c r="C198" t="str">
+        <v>870.89</v>
+      </c>
+      <c r="D198" t="str">
+        <v>750</v>
+      </c>
+      <c r="E198" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>0xBe1f72dA08102c8B54EbCde91c68f07f759f2712</v>
+      </c>
+      <c r="B199" t="str">
+        <v>1,384.56</v>
+      </c>
+      <c r="C199" t="str">
+        <v>1,384.56</v>
+      </c>
+      <c r="D199" t="str">
+        <v>0</v>
+      </c>
+      <c r="E199" t="str">
+        <v>1,192.37</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
+      </c>
+      <c r="B200" t="str">
+        <v>0</v>
+      </c>
+      <c r="C200" t="str">
+        <v>8.17</v>
+      </c>
+      <c r="D200" t="str">
+        <v>7.04</v>
+      </c>
+      <c r="E200" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
+      </c>
+      <c r="B201" t="str">
+        <v>25.41</v>
+      </c>
+      <c r="C201" t="str">
+        <v>25.41</v>
+      </c>
+      <c r="D201" t="str">
+        <v>0</v>
+      </c>
+      <c r="E201" t="str">
+        <v>21.89</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+      </c>
+      <c r="B202" t="str">
+        <v>158.33</v>
+      </c>
+      <c r="C202" t="str">
+        <v>158.33</v>
+      </c>
+      <c r="D202" t="str">
+        <v>0</v>
+      </c>
+      <c r="E202" t="str">
+        <v>136.36</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
+      </c>
+      <c r="B203" t="str">
+        <v>4,086.86</v>
+      </c>
+      <c r="C203" t="str">
+        <v>4,086.86</v>
+      </c>
+      <c r="D203" t="str">
+        <v>0</v>
+      </c>
+      <c r="E203" t="str">
+        <v>3,519.56</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>0xedaa63C95A0faB8e7Dc7A710f8b9Aa6ee461dAC7</v>
+      </c>
+      <c r="B204" t="str">
+        <v>1,051.88</v>
+      </c>
+      <c r="C204" t="str">
+        <v>1,051.88</v>
+      </c>
+      <c r="D204" t="str">
+        <v>905.87</v>
+      </c>
+      <c r="E204" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
+      </c>
+      <c r="B205" t="str">
+        <v>1,051.88</v>
+      </c>
+      <c r="C205" t="str">
+        <v>1,051.88</v>
+      </c>
+      <c r="D205" t="str">
+        <v>0</v>
+      </c>
+      <c r="E205" t="str">
+        <v>905.87</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>0x361631d54F49b6a4C19F033Ef507D67aC6BA1c0a</v>
+      </c>
+      <c r="B206" t="str">
+        <v>470.31</v>
+      </c>
+      <c r="C206" t="str">
+        <v>470.31</v>
+      </c>
+      <c r="D206" t="str">
+        <v>405.03</v>
+      </c>
+      <c r="E206" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+      </c>
+      <c r="B207" t="str">
+        <v>1,527.44</v>
+      </c>
+      <c r="C207" t="str">
+        <v>1,527.44</v>
+      </c>
+      <c r="D207" t="str">
+        <v>0</v>
+      </c>
+      <c r="E207" t="str">
+        <v>1,315.42</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>0xa8CE35A87d51EaC37675c1Cf7C5d6435a3b2079A</v>
+      </c>
+      <c r="B208" t="str">
+        <v>2,813.1</v>
+      </c>
+      <c r="C208" t="str">
+        <v>2,813.1</v>
+      </c>
+      <c r="D208" t="str">
+        <v>0</v>
+      </c>
+      <c r="E208" t="str">
+        <v>2,422.61</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>0x46d47D232d27bdF83FEA707ffd9Ce3e175B2D1dE</v>
+      </c>
+      <c r="B209" t="str">
+        <v>1,161.18</v>
+      </c>
+      <c r="C209" t="str">
+        <v>1,161.18</v>
+      </c>
+      <c r="D209" t="str">
+        <v>0</v>
+      </c>
+      <c r="E209" t="str">
+        <v>1,000</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>0xb4903c3b44dA26bf38cD923C64c6Cdad18ED280E</v>
+      </c>
+      <c r="B210" t="str">
+        <v>1,910.1</v>
+      </c>
+      <c r="C210" t="str">
+        <v>1,910.1</v>
+      </c>
+      <c r="D210" t="str">
+        <v>1,644.96</v>
+      </c>
+      <c r="E210" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>0x9c6E23aC65D33b747B8c56C04db77d836c41Faf5</v>
+      </c>
+      <c r="B211" t="str">
+        <v>3,407.24</v>
+      </c>
+      <c r="C211" t="str">
+        <v>3,407.24</v>
+      </c>
+      <c r="D211" t="str">
+        <v>0</v>
+      </c>
+      <c r="E211" t="str">
+        <v>2,934.28</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
+      </c>
+      <c r="B212" t="str">
+        <v>472.33</v>
+      </c>
+      <c r="C212" t="str">
+        <v>472.33</v>
+      </c>
+      <c r="D212" t="str">
+        <v>0</v>
+      </c>
+      <c r="E212" t="str">
+        <v>406.77</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
+      </c>
+      <c r="B213" t="str">
+        <v>58.05</v>
+      </c>
+      <c r="C213" t="str">
+        <v>58.05</v>
+      </c>
+      <c r="D213" t="str">
+        <v>0</v>
+      </c>
+      <c r="E213" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
+      </c>
+      <c r="B214" t="str">
+        <v>216.03</v>
+      </c>
+      <c r="C214" t="str">
+        <v>216.03</v>
+      </c>
+      <c r="D214" t="str">
+        <v>0</v>
+      </c>
+      <c r="E214" t="str">
+        <v>186.05</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>0xf74f5cF53A6746b1eddD9C7ea8Ab7447797c3D74</v>
+      </c>
+      <c r="B215" t="str">
+        <v>6,538.66</v>
+      </c>
+      <c r="C215" t="str">
+        <v>6,538.66</v>
+      </c>
+      <c r="D215" t="str">
+        <v>0</v>
+      </c>
+      <c r="E215" t="str">
+        <v>5,631.02</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>0x36413818a988749f40de4877B51f782126282a89</v>
+      </c>
+      <c r="B216" t="str">
+        <v>1,175.19</v>
+      </c>
+      <c r="C216" t="str">
+        <v>1,175.19</v>
+      </c>
+      <c r="D216" t="str">
+        <v>1,012.06</v>
+      </c>
+      <c r="E216" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>0x48682644c1e8529338e46e7DdabA4383C1fceBb1</v>
+      </c>
+      <c r="B217" t="str">
+        <v>2,128.64</v>
+      </c>
+      <c r="C217" t="str">
+        <v>2,128.64</v>
+      </c>
+      <c r="D217" t="str">
+        <v>0</v>
+      </c>
+      <c r="E217" t="str">
+        <v>1,833.16</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>0x9B275D3580D7db9613e14308C978e27134365828</v>
+      </c>
+      <c r="B218" t="str">
+        <v>410.52</v>
+      </c>
+      <c r="C218" t="str">
+        <v>410.52</v>
+      </c>
+      <c r="D218" t="str">
+        <v>353.54</v>
+      </c>
+      <c r="E218" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>0xf0eeE0837e8F4feaC444412991f7005B8dFFa305</v>
+      </c>
+      <c r="B219" t="str">
+        <v>270.81</v>
+      </c>
+      <c r="C219" t="str">
+        <v>270.81</v>
+      </c>
+      <c r="D219" t="str">
+        <v>0</v>
+      </c>
+      <c r="E219" t="str">
+        <v>233.22</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>0x3f80b42ae4B6a8701329682B5C66a2780917E5D0</v>
+      </c>
+      <c r="B220" t="str">
+        <v>32.95</v>
+      </c>
+      <c r="C220" t="str">
+        <v>32.95</v>
+      </c>
+      <c r="D220" t="str">
+        <v>0</v>
+      </c>
+      <c r="E220" t="str">
+        <v>28.38</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>0x041BbF8dAEE68Bc5D306B7775b8299b0026416b3</v>
+      </c>
+      <c r="B221" t="str">
+        <v>205.06</v>
+      </c>
+      <c r="C221" t="str">
+        <v>205.06</v>
+      </c>
+      <c r="D221" t="str">
+        <v>176.6</v>
+      </c>
+      <c r="E221" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
+      </c>
+      <c r="B222" t="str">
+        <v>136.41</v>
+      </c>
+      <c r="C222" t="str">
+        <v>136.41</v>
+      </c>
+      <c r="D222" t="str">
+        <v>117.48</v>
+      </c>
+      <c r="E222" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
+      </c>
+      <c r="B223" t="str">
+        <v>54.56</v>
+      </c>
+      <c r="C223" t="str">
+        <v>54.56</v>
+      </c>
+      <c r="D223" t="str">
+        <v>46.99</v>
+      </c>
+      <c r="E223" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>0x9fF7d51Cf6a3A12F2Cdd36035827037a35A4B139</v>
+      </c>
+      <c r="B224" t="str">
+        <v>17.58</v>
+      </c>
+      <c r="C224" t="str">
+        <v>17.58</v>
+      </c>
+      <c r="D224" t="str">
+        <v>0</v>
+      </c>
+      <c r="E224" t="str">
+        <v>15.14</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
+      </c>
+      <c r="B225" t="str">
+        <v>1,102.89</v>
+      </c>
+      <c r="C225" t="str">
+        <v>1,102.89</v>
+      </c>
+      <c r="D225" t="str">
+        <v>0</v>
+      </c>
+      <c r="E225" t="str">
+        <v>949.8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
+      </c>
+      <c r="B226" t="str">
+        <v>11.14</v>
+      </c>
+      <c r="C226" t="str">
+        <v>11.14</v>
+      </c>
+      <c r="D226" t="str">
+        <v>9.6</v>
+      </c>
+      <c r="E226" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B227" t="str">
+        <v>2,859,070.7</v>
+      </c>
+      <c r="C227" t="str">
+        <v>3,205,127.05</v>
+      </c>
+      <c r="D227" t="str">
+        <v>1,244,153.33</v>
+      </c>
+      <c r="E227" t="str">
+        <v>1,516,063.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E227"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E191"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -7098,118 +10972,118 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
+        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
       </c>
       <c r="B2" t="str">
-        <v>1,997.25</v>
+        <v>17,275.02</v>
       </c>
       <c r="C2" t="str">
-        <v>1,997.25</v>
+        <v>17,275.02</v>
       </c>
       <c r="D2" t="str">
-        <v>309.92</v>
+        <v>10,776.11</v>
       </c>
       <c r="E2" t="str">
-        <v>1,410.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
       </c>
       <c r="B3" t="str">
-        <v>2,202.23</v>
+        <v>1,787.1</v>
       </c>
       <c r="C3" t="str">
-        <v>2,202.23</v>
+        <v>1,787.1</v>
       </c>
       <c r="D3" t="str">
-        <v>831.4</v>
+        <v>1,114.79</v>
       </c>
       <c r="E3" t="str">
-        <v>1,065.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
       </c>
       <c r="B4" t="str">
-        <v>2,202.23</v>
+        <v>7,340.36</v>
       </c>
       <c r="C4" t="str">
-        <v>2,202.23</v>
+        <v>7,340.36</v>
       </c>
       <c r="D4" t="str">
-        <v>1,065.14</v>
+        <v>1,966.51</v>
       </c>
       <c r="E4" t="str">
-        <v>831.4</v>
+        <v>2,612.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+        <v>0x8060070C9811bdbAeA20fd829033CFC77b498d99</v>
       </c>
       <c r="B5" t="str">
-        <v>79,719.08</v>
+        <v>9,854.47</v>
       </c>
       <c r="C5" t="str">
-        <v>79,719.08</v>
+        <v>9,854.47</v>
       </c>
       <c r="D5" t="str">
-        <v>3,582.7</v>
+        <v>6,147.19</v>
       </c>
       <c r="E5" t="str">
-        <v>65,070.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0x77Fb1AeEEC6e3F3Cfe3a1f3aB87E7cB74872Db5D</v>
+        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
       </c>
       <c r="B6" t="str">
-        <v>1,926.5</v>
+        <v>171.35</v>
       </c>
       <c r="C6" t="str">
-        <v>1,926.5</v>
+        <v>171.35</v>
       </c>
       <c r="D6" t="str">
-        <v>1.06</v>
+        <v>106.89</v>
       </c>
       <c r="E6" t="str">
-        <v>1,658.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
       </c>
       <c r="B7" t="str">
-        <v>11,951.61</v>
+        <v>90.75</v>
       </c>
       <c r="C7" t="str">
-        <v>11,951.61</v>
+        <v>90.75</v>
       </c>
       <c r="D7" t="str">
-        <v>10,292.58</v>
+        <v>10.05</v>
       </c>
       <c r="E7" t="str">
-        <v>0</v>
+        <v>46.56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0x4B3D17974c2F79fEf5D495F082e9eC7d1FD95a06</v>
+        <v>0x620964B76328a1Ec5039361877eA64510A241139</v>
       </c>
       <c r="B8" t="str">
-        <v>947.01</v>
+        <v>240.46</v>
       </c>
       <c r="C8" t="str">
-        <v>947.01</v>
+        <v>240.46</v>
       </c>
       <c r="D8" t="str">
-        <v>815.56</v>
+        <v>150</v>
       </c>
       <c r="E8" t="str">
         <v>0</v>
@@ -7217,67 +11091,67 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
+        <v>0xDbfd080A579b7DFc5D99834C86ffd543b688c864</v>
       </c>
       <c r="B9" t="str">
-        <v>947.01</v>
+        <v>4,935.38</v>
       </c>
       <c r="C9" t="str">
-        <v>947.01</v>
+        <v>4,935.38</v>
       </c>
       <c r="D9" t="str">
-        <v>0</v>
+        <v>3,078.68</v>
       </c>
       <c r="E9" t="str">
-        <v>815.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
       </c>
       <c r="B10" t="str">
-        <v>5,465.27</v>
+        <v>82,767.45</v>
       </c>
       <c r="C10" t="str">
-        <v>5,465.27</v>
+        <v>82,767.45</v>
       </c>
       <c r="D10" t="str">
-        <v>1,164.33</v>
+        <v>39,696.68</v>
       </c>
       <c r="E10" t="str">
-        <v>3,542.3</v>
+        <v>11,933.41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>0xf78D0cdFB459eD9CC19eEb7c22B5F193d7662fcC</v>
+        <v>0x79622cD63ff61A74613fAFB805B7f32D3cf78A95</v>
       </c>
       <c r="B11" t="str">
-        <v>906.01</v>
+        <v>65,288.78</v>
       </c>
       <c r="C11" t="str">
-        <v>906.01</v>
+        <v>65,288.78</v>
       </c>
       <c r="D11" t="str">
-        <v>780.25</v>
+        <v>0</v>
       </c>
       <c r="E11" t="str">
-        <v>0</v>
+        <v>40,726.95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>0xAD5c21611Ea4790991c40BFD8e0888e012D7162E</v>
+        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
       </c>
       <c r="B12" t="str">
-        <v>1,138</v>
+        <v>6,253.39</v>
       </c>
       <c r="C12" t="str">
-        <v>1,138</v>
+        <v>6,253.39</v>
       </c>
       <c r="D12" t="str">
-        <v>980.04</v>
+        <v>3,900.85</v>
       </c>
       <c r="E12" t="str">
         <v>0</v>
@@ -7285,169 +11159,169 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>0x3F3Cb523ce45c048c07081925CBd588a6C601b72</v>
+        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
       </c>
       <c r="B13" t="str">
-        <v>90.2</v>
+        <v>420.8</v>
       </c>
       <c r="C13" t="str">
-        <v>90.2</v>
+        <v>420.8</v>
       </c>
       <c r="D13" t="str">
-        <v>0</v>
+        <v>262.5</v>
       </c>
       <c r="E13" t="str">
-        <v>77.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>0x143A47CAF24904a750242e138F31ADd7F6999Cb5</v>
+        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
       </c>
       <c r="B14" t="str">
-        <v>8.99</v>
+        <v>11,643.48</v>
       </c>
       <c r="C14" t="str">
-        <v>8.99</v>
+        <v>11,643.48</v>
       </c>
       <c r="D14" t="str">
-        <v>7.75</v>
+        <v>4,105.78</v>
       </c>
       <c r="E14" t="str">
-        <v>0</v>
+        <v>3,157.39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>0xE233390f362B1dC22F621feead135D828a39781A</v>
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
       </c>
       <c r="B15" t="str">
-        <v>17.73</v>
+        <v>18,156.8</v>
       </c>
       <c r="C15" t="str">
-        <v>17.73</v>
+        <v>18,156.8</v>
       </c>
       <c r="D15" t="str">
-        <v>15.27</v>
+        <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>0</v>
+        <v>11,326.16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>0x25E9eA1a93D9e505cd7d056C1e1bA16789537EAb</v>
+        <v>0xf6732447a0Da3D8973897e247cf04f53B87Cfa2e</v>
       </c>
       <c r="B16" t="str">
-        <v>9,195.33</v>
+        <v>76.45</v>
       </c>
       <c r="C16" t="str">
-        <v>9,195.33</v>
+        <v>76.45</v>
       </c>
       <c r="D16" t="str">
-        <v>0</v>
+        <v>47.69</v>
       </c>
       <c r="E16" t="str">
-        <v>7,918.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
       </c>
       <c r="B17" t="str">
-        <v>1,707.65</v>
+        <v>76.45</v>
       </c>
       <c r="C17" t="str">
-        <v>1,707.65</v>
+        <v>76.45</v>
       </c>
       <c r="D17" t="str">
-        <v>1,470.61</v>
+        <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>0</v>
+        <v>47.69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>0x5Fc4faF3934548c57d66f1179C2991cEd028E61F</v>
+        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
       </c>
       <c r="B18" t="str">
-        <v>290.29</v>
+        <v>182.75</v>
       </c>
       <c r="C18" t="str">
-        <v>290.29</v>
+        <v>182.75</v>
       </c>
       <c r="D18" t="str">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="E18" t="str">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
       </c>
       <c r="B19" t="str">
-        <v>108,672.83</v>
+        <v>396.41</v>
       </c>
       <c r="C19" t="str">
-        <v>108,672.83</v>
+        <v>396.41</v>
       </c>
       <c r="D19" t="str">
-        <v>18,501.95</v>
+        <v>133.28</v>
       </c>
       <c r="E19" t="str">
-        <v>75,085.76</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
+        <v>0x2b7b77412BDb929a9f19584C9DC4657CCc5a7BFa</v>
       </c>
       <c r="B20" t="str">
-        <v>12,278.97</v>
+        <v>825.97</v>
       </c>
       <c r="C20" t="str">
-        <v>12,278.97</v>
+        <v>825.97</v>
       </c>
       <c r="D20" t="str">
-        <v>4,092.1</v>
+        <v>515.24</v>
       </c>
       <c r="E20" t="str">
-        <v>6,482.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
+        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
       </c>
       <c r="B21" t="str">
-        <v>72,480.52</v>
+        <v>1,231.6</v>
       </c>
       <c r="C21" t="str">
-        <v>72,480.52</v>
+        <v>1,231.6</v>
       </c>
       <c r="D21" t="str">
-        <v>4,601.73</v>
+        <v>0</v>
       </c>
       <c r="E21" t="str">
-        <v>57,817.61</v>
+        <v>768.27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>0x16eE201E4fD4418f47A6c7f45fB0Aaf8a61011Df</v>
+        <v>0xD1E51324E7F061311b80471B996d64fB837f1c55</v>
       </c>
       <c r="B22" t="str">
-        <v>2,858.79</v>
+        <v>22.6</v>
       </c>
       <c r="C22" t="str">
-        <v>2,858.79</v>
+        <v>22.6</v>
       </c>
       <c r="D22" t="str">
-        <v>2,461.96</v>
+        <v>14.1</v>
       </c>
       <c r="E22" t="str">
         <v>0</v>
@@ -7455,33 +11329,33 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
       </c>
       <c r="B23" t="str">
-        <v>9,775.49</v>
+        <v>4,269.67</v>
       </c>
       <c r="C23" t="str">
-        <v>9,775.49</v>
+        <v>4,269.67</v>
       </c>
       <c r="D23" t="str">
-        <v>8,111.53</v>
+        <v>634.17</v>
       </c>
       <c r="E23" t="str">
-        <v>307.01</v>
+        <v>2,029.24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+        <v>0xc4b88bff8D047576eC693EaFA72482A5e8f0fd7A</v>
       </c>
       <c r="B24" t="str">
-        <v>310.87</v>
+        <v>154.26</v>
       </c>
       <c r="C24" t="str">
-        <v>310.87</v>
+        <v>154.26</v>
       </c>
       <c r="D24" t="str">
-        <v>267.72</v>
+        <v>96.23</v>
       </c>
       <c r="E24" t="str">
         <v>0</v>
@@ -7489,186 +11363,186 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+        <v>0x04267804C32cb3E1A0eB23FD177F0aFE519a3Cc0</v>
       </c>
       <c r="B25" t="str">
-        <v>3,753.37</v>
+        <v>70.34</v>
       </c>
       <c r="C25" t="str">
-        <v>3,753.37</v>
+        <v>70.34</v>
       </c>
       <c r="D25" t="str">
-        <v>2,922.44</v>
+        <v>43.88</v>
       </c>
       <c r="E25" t="str">
-        <v>309.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
+        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
       </c>
       <c r="B26" t="str">
-        <v>788.88</v>
+        <v>98.86</v>
       </c>
       <c r="C26" t="str">
-        <v>788.88</v>
+        <v>98.86</v>
       </c>
       <c r="D26" t="str">
-        <v>679.38</v>
+        <v>0</v>
       </c>
       <c r="E26" t="str">
-        <v>0</v>
+        <v>61.67</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
+        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
       </c>
       <c r="B27" t="str">
-        <v>1,275.99</v>
+        <v>293.25</v>
       </c>
       <c r="C27" t="str">
-        <v>1,275.99</v>
+        <v>293.25</v>
       </c>
       <c r="D27" t="str">
-        <v>0</v>
+        <v>182.93</v>
       </c>
       <c r="E27" t="str">
-        <v>1,098.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>0x72d20dcB42DC91D2Dc1DB60375e1945e23708130</v>
+        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
       </c>
       <c r="B28" t="str">
-        <v>480.71</v>
+        <v>293.25</v>
       </c>
       <c r="C28" t="str">
-        <v>480.71</v>
+        <v>293.25</v>
       </c>
       <c r="D28" t="str">
-        <v>413.99</v>
+        <v>0</v>
       </c>
       <c r="E28" t="str">
-        <v>0</v>
+        <v>182.93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
+        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
       </c>
       <c r="B29" t="str">
-        <v>480.71</v>
+        <v>73.11</v>
       </c>
       <c r="C29" t="str">
-        <v>480.71</v>
+        <v>73.11</v>
       </c>
       <c r="D29" t="str">
-        <v>0</v>
+        <v>45.61</v>
       </c>
       <c r="E29" t="str">
-        <v>413.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>0x893b99952A101ea504E2DA3d44164858b11a58a1</v>
+        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
       </c>
       <c r="B30" t="str">
-        <v>118.8</v>
+        <v>996.99</v>
       </c>
       <c r="C30" t="str">
-        <v>118.8</v>
+        <v>996.99</v>
       </c>
       <c r="D30" t="str">
-        <v>102.31</v>
+        <v>520.98</v>
       </c>
       <c r="E30" t="str">
-        <v>0</v>
+        <v>100.94</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
       </c>
       <c r="B31" t="str">
-        <v>0</v>
+        <v>835.17</v>
       </c>
       <c r="C31" t="str">
-        <v>21,514.21</v>
+        <v>835.17</v>
       </c>
       <c r="D31" t="str">
-        <v>17.99</v>
+        <v>0</v>
       </c>
       <c r="E31" t="str">
-        <v>18,509.79</v>
+        <v>520.98</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>0x964087989Df5D5e89cF7527b72A3949367a337bA</v>
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
       </c>
       <c r="B32" t="str">
-        <v>9,669.08</v>
+        <v>19,181.62</v>
       </c>
       <c r="C32" t="str">
-        <v>9,669.08</v>
+        <v>19,181.62</v>
       </c>
       <c r="D32" t="str">
-        <v>8,326.9</v>
+        <v>0</v>
       </c>
       <c r="E32" t="str">
-        <v>0</v>
+        <v>11,965.44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>0x65ED1e1351640D112aeAc04d4988B6916a5f62dc</v>
+        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
       </c>
       <c r="B33" t="str">
-        <v>249.73</v>
+        <v>7,368.71</v>
       </c>
       <c r="C33" t="str">
-        <v>249.73</v>
+        <v>7,368.71</v>
       </c>
       <c r="D33" t="str">
-        <v>215.07</v>
+        <v>200</v>
       </c>
       <c r="E33" t="str">
-        <v>0</v>
+        <v>4,396.58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>0x883c4BF5F45e8E75C59DdeA8B2ba3Cd40e81047D</v>
+        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
       </c>
       <c r="B34" t="str">
-        <v>249.73</v>
+        <v>13,318.03</v>
       </c>
       <c r="C34" t="str">
-        <v>249.73</v>
+        <v>13,318.03</v>
       </c>
       <c r="D34" t="str">
-        <v>0</v>
+        <v>8,307.75</v>
       </c>
       <c r="E34" t="str">
-        <v>215.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>0x8218E1a9D02E26E2aF124EA28b121031Cf25AaC8</v>
+        <v>0x175780bC4d0A1bc28c46C3E71130C092790E7576</v>
       </c>
       <c r="B35" t="str">
-        <v>3,442.5</v>
+        <v>33.7</v>
       </c>
       <c r="C35" t="str">
-        <v>3,442.5</v>
+        <v>244.21</v>
       </c>
       <c r="D35" t="str">
-        <v>2,964.64</v>
+        <v>152.34</v>
       </c>
       <c r="E35" t="str">
         <v>0</v>
@@ -7676,16 +11550,16 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>0x64d564A6A6003a9fcb44f8F50b9A3C7bBea2a7E7</v>
+        <v>0x5099ccbB5FC14BF6ea516EE6CC3e6B209a7aA8C6</v>
       </c>
       <c r="B36" t="str">
-        <v>119.46</v>
+        <v>842.42</v>
       </c>
       <c r="C36" t="str">
-        <v>119.46</v>
+        <v>842.42</v>
       </c>
       <c r="D36" t="str">
-        <v>102.88</v>
+        <v>525.5</v>
       </c>
       <c r="E36" t="str">
         <v>0</v>
@@ -7693,33 +11567,33 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>0xf0a8596541F839EBcC9f0A9d1442c15f43A2836E</v>
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
       </c>
       <c r="B37" t="str">
-        <v>119.46</v>
+        <v>1,449.57</v>
       </c>
       <c r="C37" t="str">
-        <v>119.46</v>
+        <v>1,449.57</v>
       </c>
       <c r="D37" t="str">
-        <v>0</v>
+        <v>904.24</v>
       </c>
       <c r="E37" t="str">
-        <v>102.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
       </c>
       <c r="B38" t="str">
-        <v>1,888.71</v>
+        <v>16,126.64</v>
       </c>
       <c r="C38" t="str">
-        <v>1,888.71</v>
+        <v>16,126.64</v>
       </c>
       <c r="D38" t="str">
-        <v>1,626.54</v>
+        <v>10,059.75</v>
       </c>
       <c r="E38" t="str">
         <v>0</v>
@@ -7727,67 +11601,67 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>0x5099ccbB5FC14BF6ea516EE6CC3e6B209a7aA8C6</v>
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
       </c>
       <c r="B39" t="str">
-        <v>603.43</v>
+        <v>1,064.43</v>
       </c>
       <c r="C39" t="str">
-        <v>603.43</v>
+        <v>1,064.43</v>
       </c>
       <c r="D39" t="str">
-        <v>519.67</v>
+        <v>0</v>
       </c>
       <c r="E39" t="str">
-        <v>0</v>
+        <v>663.99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
+        <v>0x4b2FB0f43FD133B0814a0DD9E45fAe9d4d60c500</v>
       </c>
       <c r="B40" t="str">
-        <v>15,946.55</v>
+        <v>128.45</v>
       </c>
       <c r="C40" t="str">
-        <v>15,946.55</v>
+        <v>128.45</v>
       </c>
       <c r="D40" t="str">
-        <v>590.78</v>
+        <v>0</v>
       </c>
       <c r="E40" t="str">
-        <v>13,142.2</v>
+        <v>80.13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
       </c>
       <c r="B41" t="str">
-        <v>686</v>
+        <v>12,896.67</v>
       </c>
       <c r="C41" t="str">
-        <v>686</v>
+        <v>12,896.67</v>
       </c>
       <c r="D41" t="str">
-        <v>0</v>
+        <v>175.61</v>
       </c>
       <c r="E41" t="str">
-        <v>590.78</v>
+        <v>7,869.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>0xdd61cabccEa7933D2372606963D66F0924831D29</v>
+        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
       </c>
       <c r="B42" t="str">
-        <v>20.4</v>
+        <v>1,775.85</v>
       </c>
       <c r="C42" t="str">
-        <v>20.4</v>
+        <v>1,775.85</v>
       </c>
       <c r="D42" t="str">
-        <v>17.57</v>
+        <v>1,107.77</v>
       </c>
       <c r="E42" t="str">
         <v>0</v>
@@ -7795,33 +11669,33 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
+        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
       </c>
       <c r="B43" t="str">
-        <v>20.4</v>
+        <v>403.28</v>
       </c>
       <c r="C43" t="str">
-        <v>20.4</v>
+        <v>403.28</v>
       </c>
       <c r="D43" t="str">
-        <v>0</v>
+        <v>251.57</v>
       </c>
       <c r="E43" t="str">
-        <v>17.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
+        <v>0xdd61cabccEa7933D2372606963D66F0924831D29</v>
       </c>
       <c r="B44" t="str">
-        <v>1,436.73</v>
+        <v>28.51</v>
       </c>
       <c r="C44" t="str">
-        <v>1,436.73</v>
+        <v>28.51</v>
       </c>
       <c r="D44" t="str">
-        <v>1,237.3</v>
+        <v>17.79</v>
       </c>
       <c r="E44" t="str">
         <v>0</v>
@@ -7829,33 +11703,33 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+        <v>0xd3330632C0e3C5A54b4B80a4a13EF9389db19B5E</v>
       </c>
       <c r="B45" t="str">
-        <v>44,560.21</v>
+        <v>161.49</v>
       </c>
       <c r="C45" t="str">
-        <v>44,560.21</v>
+        <v>161.49</v>
       </c>
       <c r="D45" t="str">
-        <v>0</v>
+        <v>100.74</v>
       </c>
       <c r="E45" t="str">
-        <v>38,374.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
       </c>
       <c r="B46" t="str">
-        <v>275.77</v>
+        <v>45.72</v>
       </c>
       <c r="C46" t="str">
-        <v>275.77</v>
+        <v>45.72</v>
       </c>
       <c r="D46" t="str">
-        <v>237.49</v>
+        <v>28.52</v>
       </c>
       <c r="E46" t="str">
         <v>0</v>
@@ -7863,16 +11737,16 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>0x04d9f35C7c292ca2c75C498563b48123C0662e19</v>
+        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
       </c>
       <c r="B47" t="str">
-        <v>2,909.13</v>
+        <v>73.48</v>
       </c>
       <c r="C47" t="str">
-        <v>2,909.13</v>
+        <v>73.48</v>
       </c>
       <c r="D47" t="str">
-        <v>2,505.31</v>
+        <v>45.84</v>
       </c>
       <c r="E47" t="str">
         <v>0</v>
@@ -7880,33 +11754,33 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>0x7B82007d91312Bb84E57A79c6df7Fa3928beD152</v>
+        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
       </c>
       <c r="B48" t="str">
-        <v>18.97</v>
+        <v>75.36</v>
       </c>
       <c r="C48" t="str">
-        <v>18.97</v>
+        <v>75.36</v>
       </c>
       <c r="D48" t="str">
-        <v>0</v>
+        <v>47.01</v>
       </c>
       <c r="E48" t="str">
-        <v>16.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
+        <v>0x7A7d706D6578FE3DD1540dC69b31de7C8C0c20d2</v>
       </c>
       <c r="B49" t="str">
-        <v>18.81</v>
+        <v>83.64</v>
       </c>
       <c r="C49" t="str">
-        <v>18.81</v>
+        <v>83.64</v>
       </c>
       <c r="D49" t="str">
-        <v>16.2</v>
+        <v>52.18</v>
       </c>
       <c r="E49" t="str">
         <v>0</v>
@@ -7914,50 +11788,50 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+        <v>0xeb9Ea287a5BD59731C6fbDEfd9e81dAa4Dc7eB11</v>
       </c>
       <c r="B50" t="str">
-        <v>577,271.42</v>
+        <v>10.14</v>
       </c>
       <c r="C50" t="str">
-        <v>577,271.42</v>
+        <v>10.14</v>
       </c>
       <c r="D50" t="str">
-        <v>248,690.08</v>
+        <v>6.33</v>
       </c>
       <c r="E50" t="str">
-        <v>248,448.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
       </c>
       <c r="B51" t="str">
-        <v>284.49</v>
+        <v>537.22</v>
       </c>
       <c r="C51" t="str">
-        <v>284.49</v>
+        <v>537.22</v>
       </c>
       <c r="D51" t="str">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="E51" t="str">
-        <v>0</v>
+        <v>335.12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>0x413Af536E3D18D259A9b71B42AC66faC5aBa0Fbf</v>
+        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
       </c>
       <c r="B52" t="str">
-        <v>9.87</v>
+        <v>161.81</v>
       </c>
       <c r="C52" t="str">
-        <v>9.87</v>
+        <v>161.81</v>
       </c>
       <c r="D52" t="str">
-        <v>8.5</v>
+        <v>100.94</v>
       </c>
       <c r="E52" t="str">
         <v>0</v>
@@ -7965,16 +11839,16 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
+        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
       </c>
       <c r="B53" t="str">
-        <v>54.32</v>
+        <v>113</v>
       </c>
       <c r="C53" t="str">
-        <v>54.32</v>
+        <v>113</v>
       </c>
       <c r="D53" t="str">
-        <v>46.78</v>
+        <v>70.49</v>
       </c>
       <c r="E53" t="str">
         <v>0</v>
@@ -7982,84 +11856,84 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>0x4e50BEF218F0Db065F4EE833D3679712A74F21F2</v>
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
       </c>
       <c r="B54" t="str">
-        <v>50.47</v>
+        <v>588.9</v>
       </c>
       <c r="C54" t="str">
-        <v>50.47</v>
+        <v>588.9</v>
       </c>
       <c r="D54" t="str">
-        <v>43.47</v>
+        <v>0</v>
       </c>
       <c r="E54" t="str">
-        <v>0</v>
+        <v>367.36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>0xc3E8E2045564533F6a31ec05b3BD9BCFc5C9f76D</v>
+        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
       </c>
       <c r="B55" t="str">
-        <v>44.84</v>
+        <v>6,477.86</v>
       </c>
       <c r="C55" t="str">
-        <v>44.84</v>
+        <v>6,477.86</v>
       </c>
       <c r="D55" t="str">
-        <v>38.62</v>
+        <v>0</v>
       </c>
       <c r="E55" t="str">
-        <v>0</v>
+        <v>4,040.87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
       </c>
       <c r="B56" t="str">
-        <v>32.72</v>
+        <v>17,275.02</v>
       </c>
       <c r="C56" t="str">
-        <v>32.72</v>
+        <v>17,275.02</v>
       </c>
       <c r="D56" t="str">
-        <v>28.18</v>
+        <v>0</v>
       </c>
       <c r="E56" t="str">
-        <v>0</v>
+        <v>10,776.11</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
+        <v>0xA2cE2556195590dd554691e99170115Fb2e9c2c2</v>
       </c>
       <c r="B57" t="str">
-        <v>25.41</v>
+        <v>40.15</v>
       </c>
       <c r="C57" t="str">
-        <v>25.41</v>
+        <v>40.15</v>
       </c>
       <c r="D57" t="str">
-        <v>21.89</v>
+        <v>0</v>
       </c>
       <c r="E57" t="str">
-        <v>0</v>
+        <v>25.05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>0xa755B0E03b0C0411c64749C64F063a6600a24D8c</v>
+        <v>0x96366995FA701346A6f9bCD875E3E80D7421d8b3</v>
       </c>
       <c r="B58" t="str">
-        <v>721.32</v>
+        <v>391.84</v>
       </c>
       <c r="C58" t="str">
-        <v>721.32</v>
+        <v>391.84</v>
       </c>
       <c r="D58" t="str">
-        <v>621.2</v>
+        <v>244.43</v>
       </c>
       <c r="E58" t="str">
         <v>0</v>
@@ -8067,33 +11941,33 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>0x357cDa2237d31e618ba3A39dD4691429E7cDD107</v>
+        <v>0x41208763DD0C33e81cD7908ec88656ca7578d591</v>
       </c>
       <c r="B59" t="str">
-        <v>1,391.03</v>
+        <v>391.84</v>
       </c>
       <c r="C59" t="str">
-        <v>1,391.03</v>
+        <v>391.84</v>
       </c>
       <c r="D59" t="str">
-        <v>1,197.94</v>
+        <v>0</v>
       </c>
       <c r="E59" t="str">
-        <v>0</v>
+        <v>244.43</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>0x24EC4345706a30747bA16dCA3e9751B73b72C78a</v>
+        <v>0x77729e862D70e8d6856Fb5f4786B02E626B9cf65</v>
       </c>
       <c r="B60" t="str">
-        <v>466.69</v>
+        <v>4,559.78</v>
       </c>
       <c r="C60" t="str">
-        <v>466.69</v>
+        <v>4,559.78</v>
       </c>
       <c r="D60" t="str">
-        <v>401.91</v>
+        <v>2,844.38</v>
       </c>
       <c r="E60" t="str">
         <v>0</v>
@@ -8101,33 +11975,33 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
       </c>
       <c r="B61" t="str">
-        <v>472.33</v>
+        <v>46,864.17</v>
       </c>
       <c r="C61" t="str">
-        <v>472.33</v>
+        <v>46,864.17</v>
       </c>
       <c r="D61" t="str">
-        <v>406.77</v>
+        <v>0</v>
       </c>
       <c r="E61" t="str">
-        <v>0</v>
+        <v>29,233.73</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>0x2731b9BC4c6AC6287996741A5A87D6E51D18B2EB</v>
+        <v>0x77Fb1AeEEC6e3F3Cfe3a1f3aB87E7cB74872Db5D</v>
       </c>
       <c r="B62" t="str">
-        <v>368.39</v>
+        <v>171.09</v>
       </c>
       <c r="C62" t="str">
-        <v>368.39</v>
+        <v>171.09</v>
       </c>
       <c r="D62" t="str">
-        <v>317.26</v>
+        <v>106.73</v>
       </c>
       <c r="E62" t="str">
         <v>0</v>
@@ -8135,16 +12009,16 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>0x942E746C384bec88Dfa6164e8d699858E9988FeB</v>
+        <v>0x180D009d48a8B254E88986BC83bF4214F7fBBafA</v>
       </c>
       <c r="B63" t="str">
-        <v>270.81</v>
+        <v>322.15</v>
       </c>
       <c r="C63" t="str">
-        <v>270.81</v>
+        <v>322.15</v>
       </c>
       <c r="D63" t="str">
-        <v>233.22</v>
+        <v>200.96</v>
       </c>
       <c r="E63" t="str">
         <v>0</v>
@@ -8152,33 +12026,33 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
+        <v>0xeB0F9489F9aeFB6Bbd8d7f1cc3620898E30b49c0</v>
       </c>
       <c r="B64" t="str">
-        <v>32.95</v>
+        <v>322.15</v>
       </c>
       <c r="C64" t="str">
-        <v>32.95</v>
+        <v>322.15</v>
       </c>
       <c r="D64" t="str">
-        <v>28.38</v>
+        <v>0</v>
       </c>
       <c r="E64" t="str">
-        <v>0</v>
+        <v>200.96</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
       </c>
       <c r="B65" t="str">
-        <v>15,260.55</v>
+        <v>484.05</v>
       </c>
       <c r="C65" t="str">
-        <v>15,260.55</v>
+        <v>484.05</v>
       </c>
       <c r="D65" t="str">
-        <v>13,142.2</v>
+        <v>301.95</v>
       </c>
       <c r="E65" t="str">
         <v>0</v>
@@ -8186,67 +12060,67 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
       </c>
       <c r="B66" t="str">
-        <v>6,070.82</v>
+        <v>164,684.21</v>
       </c>
       <c r="C66" t="str">
-        <v>6,070.82</v>
+        <v>244,589.23</v>
       </c>
       <c r="D66" t="str">
         <v>0</v>
       </c>
       <c r="E66" t="str">
-        <v>5,228.12</v>
+        <v>152,574.03</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+        <v>0x3f80b42ae4B6a8701329682B5C66a2780917E5D0</v>
       </c>
       <c r="B67" t="str">
-        <v>878.04</v>
+        <v>16.11</v>
       </c>
       <c r="C67" t="str">
-        <v>878.04</v>
+        <v>16.11</v>
       </c>
       <c r="D67" t="str">
         <v>0</v>
       </c>
       <c r="E67" t="str">
-        <v>756.16</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>0xb4120A72ad3778E123da74F3C09c1272521C8b7e</v>
+        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
       </c>
       <c r="B68" t="str">
-        <v>74,795.79</v>
+        <v>1,209.2</v>
       </c>
       <c r="C68" t="str">
-        <v>74,795.79</v>
+        <v>1,209.2</v>
       </c>
       <c r="D68" t="str">
-        <v>64,413.22</v>
+        <v>0</v>
       </c>
       <c r="E68" t="str">
-        <v>0</v>
+        <v>754.3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>0xa8f881849583f2dBC55f04433C62Edbc79f46286</v>
+        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
       </c>
       <c r="B69" t="str">
-        <v>23.35</v>
+        <v>0</v>
       </c>
       <c r="C69" t="str">
-        <v>23.35</v>
+        <v>74.63</v>
       </c>
       <c r="D69" t="str">
-        <v>20.11</v>
+        <v>46.56</v>
       </c>
       <c r="E69" t="str">
         <v>0</v>
@@ -8254,356 +12128,356 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
       </c>
       <c r="B70" t="str">
-        <v>51.92</v>
+        <v>4,608.87</v>
       </c>
       <c r="C70" t="str">
-        <v>51.92</v>
+        <v>4,608.87</v>
       </c>
       <c r="D70" t="str">
-        <v>0</v>
+        <v>2,875</v>
       </c>
       <c r="E70" t="str">
-        <v>44.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>0x7e729b21005cF2FDda685bA7Bef04c6Dc3DcD444</v>
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
       </c>
       <c r="B71" t="str">
-        <v>4.81</v>
+        <v>35,023.22</v>
       </c>
       <c r="C71" t="str">
-        <v>4.81</v>
+        <v>35,023.22</v>
       </c>
       <c r="D71" t="str">
-        <v>4.15</v>
+        <v>1,428.66</v>
       </c>
       <c r="E71" t="str">
-        <v>0</v>
+        <v>20,418.72</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+        <v>0x5C55e86A38d24BE5fF7f12221BF674C95FB188a7</v>
       </c>
       <c r="B72" t="str">
-        <v>44,765.14</v>
+        <v>153.3</v>
       </c>
       <c r="C72" t="str">
-        <v>44,765.14</v>
+        <v>153.3</v>
       </c>
       <c r="D72" t="str">
         <v>0</v>
       </c>
       <c r="E72" t="str">
-        <v>38,551.19</v>
+        <v>95.63</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
       </c>
       <c r="B73" t="str">
-        <v>1,989.25</v>
+        <v>14,443.78</v>
       </c>
       <c r="C73" t="str">
-        <v>1,989.25</v>
+        <v>14,443.78</v>
       </c>
       <c r="D73" t="str">
-        <v>0</v>
+        <v>9,009.99</v>
       </c>
       <c r="E73" t="str">
-        <v>1,713.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
       </c>
       <c r="B74" t="str">
-        <v>1,697.43</v>
+        <v>37,220.36</v>
       </c>
       <c r="C74" t="str">
-        <v>1,697.43</v>
+        <v>37,220.36</v>
       </c>
       <c r="D74" t="str">
-        <v>0</v>
+        <v>23,217.95</v>
       </c>
       <c r="E74" t="str">
-        <v>1,461.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>0x494700b98fE1F432EeF0F5Ca8262D6d903F8a5Ab</v>
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
       </c>
       <c r="B75" t="str">
-        <v>1,211.72</v>
+        <v>0</v>
       </c>
       <c r="C75" t="str">
-        <v>1,211.72</v>
+        <v>37,220.36</v>
       </c>
       <c r="D75" t="str">
         <v>0</v>
       </c>
       <c r="E75" t="str">
-        <v>1,043.52</v>
+        <v>23,217.95</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>0x889f1F09b491711013cA6787E29e07a04FDf42a4</v>
+        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
       </c>
       <c r="B76" t="str">
-        <v>237,594.93</v>
+        <v>6,111.52</v>
       </c>
       <c r="C76" t="str">
-        <v>237,594.93</v>
+        <v>6,111.52</v>
       </c>
       <c r="D76" t="str">
-        <v>25,974.89</v>
+        <v>0</v>
       </c>
       <c r="E76" t="str">
-        <v>178,638.95</v>
+        <v>3,812.35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
       </c>
       <c r="B77" t="str">
-        <v>194,482.46</v>
+        <v>15,014.72</v>
       </c>
       <c r="C77" t="str">
-        <v>194,482.46</v>
+        <v>15,014.72</v>
       </c>
       <c r="D77" t="str">
         <v>0</v>
       </c>
       <c r="E77" t="str">
-        <v>167,485.91</v>
+        <v>9,366.14</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
       </c>
       <c r="B78" t="str">
-        <v>1,714.38</v>
+        <v>756.46</v>
       </c>
       <c r="C78" t="str">
-        <v>1,714.38</v>
+        <v>756.46</v>
       </c>
       <c r="D78" t="str">
         <v>0</v>
       </c>
       <c r="E78" t="str">
-        <v>1,476.41</v>
+        <v>471.88</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
       </c>
       <c r="B79" t="str">
-        <v>634.9</v>
+        <v>10,822.19</v>
       </c>
       <c r="C79" t="str">
-        <v>634.9</v>
+        <v>10,822.19</v>
       </c>
       <c r="D79" t="str">
-        <v>546.77</v>
+        <v>0</v>
       </c>
       <c r="E79" t="str">
-        <v>0</v>
+        <v>6,750.85</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
+        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
       </c>
       <c r="B80" t="str">
-        <v>13,743.43</v>
+        <v>420.8</v>
       </c>
       <c r="C80" t="str">
-        <v>13,743.43</v>
+        <v>420.8</v>
       </c>
       <c r="D80" t="str">
-        <v>11,835.68</v>
+        <v>0</v>
       </c>
       <c r="E80" t="str">
-        <v>0</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
+        <v>0x7062f97091BaD1bc5086aeE9AA13dbDEC17AA148</v>
       </c>
       <c r="B81" t="str">
-        <v>13,743.43</v>
+        <v>1,490.46</v>
       </c>
       <c r="C81" t="str">
-        <v>13,743.43</v>
+        <v>1,490.46</v>
       </c>
       <c r="D81" t="str">
-        <v>0</v>
+        <v>929.75</v>
       </c>
       <c r="E81" t="str">
-        <v>11,835.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>0x387c310a3cC65aa12BC11CAF67a17b4a8693ed5e</v>
+        <v>0x9331C5f74A13ee04abDA206dceec4c82c9f6e19E</v>
       </c>
       <c r="B82" t="str">
-        <v>11,129.75</v>
+        <v>1,490.46</v>
       </c>
       <c r="C82" t="str">
-        <v>11,129.75</v>
+        <v>1,490.46</v>
       </c>
       <c r="D82" t="str">
-        <v>9,584.81</v>
+        <v>0</v>
       </c>
       <c r="E82" t="str">
-        <v>0</v>
+        <v>929.75</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
       </c>
       <c r="B83" t="str">
-        <v>8,390.06</v>
+        <v>1,565.79</v>
       </c>
       <c r="C83" t="str">
-        <v>8,390.06</v>
+        <v>1,565.79</v>
       </c>
       <c r="D83" t="str">
-        <v>7,225.42</v>
+        <v>0</v>
       </c>
       <c r="E83" t="str">
-        <v>0</v>
+        <v>976.74</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
       </c>
       <c r="B84" t="str">
-        <v>8,390.06</v>
+        <v>2,560.7</v>
       </c>
       <c r="C84" t="str">
-        <v>8,390.06</v>
+        <v>2,560.7</v>
       </c>
       <c r="D84" t="str">
-        <v>0</v>
+        <v>890.4</v>
       </c>
       <c r="E84" t="str">
-        <v>7,225.42</v>
+        <v>706.96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>0x0fA1AfF9540786DCad9196e0676e2e4423317FAf</v>
+        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
       </c>
       <c r="B85" t="str">
-        <v>9,596.35</v>
+        <v>4,166.19</v>
       </c>
       <c r="C85" t="str">
-        <v>9,596.35</v>
+        <v>4,166.19</v>
       </c>
       <c r="D85" t="str">
-        <v>8,264.26</v>
+        <v>431.95</v>
       </c>
       <c r="E85" t="str">
-        <v>0</v>
+        <v>2,166.91</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
       </c>
       <c r="B86" t="str">
-        <v>9,730.6</v>
+        <v>4,166.19</v>
       </c>
       <c r="C86" t="str">
-        <v>9,730.6</v>
+        <v>4,166.19</v>
       </c>
       <c r="D86" t="str">
-        <v>115.62</v>
+        <v>2,166.91</v>
       </c>
       <c r="E86" t="str">
-        <v>8,264.26</v>
+        <v>431.95</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
+        <v>0x2731b9BC4c6AC6287996741A5A87D6E51D18B2EB</v>
       </c>
       <c r="B87" t="str">
-        <v>3,232.73</v>
+        <v>825.97</v>
       </c>
       <c r="C87" t="str">
-        <v>3,232.73</v>
+        <v>825.97</v>
       </c>
       <c r="D87" t="str">
-        <v>2,783.99</v>
+        <v>0</v>
       </c>
       <c r="E87" t="str">
-        <v>0</v>
+        <v>515.24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
+        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
       </c>
       <c r="B88" t="str">
-        <v>0</v>
+        <v>353.64</v>
       </c>
       <c r="C88" t="str">
-        <v>3,232.73</v>
+        <v>353.64</v>
       </c>
       <c r="D88" t="str">
-        <v>0</v>
+        <v>220.6</v>
       </c>
       <c r="E88" t="str">
-        <v>2,783.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+        <v>0x73755c77A68017d6E755Ac0cE9df5EA7c2aF8F75</v>
       </c>
       <c r="B89" t="str">
-        <v>6,739.71</v>
+        <v>0</v>
       </c>
       <c r="C89" t="str">
-        <v>6,739.71</v>
+        <v>24,252.5</v>
       </c>
       <c r="D89" t="str">
         <v>0</v>
       </c>
       <c r="E89" t="str">
-        <v>5,804.16</v>
+        <v>15,128.64</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
+        <v>0x48A7209DD07Bc7409bF3f61820E1Ee9409F462e9</v>
       </c>
       <c r="B90" t="str">
-        <v>59.22</v>
+        <v>155.62</v>
       </c>
       <c r="C90" t="str">
-        <v>59.22</v>
+        <v>155.62</v>
       </c>
       <c r="D90" t="str">
-        <v>51</v>
+        <v>97.08</v>
       </c>
       <c r="E90" t="str">
         <v>0</v>
@@ -8611,16 +12485,16 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>0xCf54bb8C360FB4Ec47AE0c31Bc8864B163651277</v>
+        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
       </c>
       <c r="B91" t="str">
-        <v>0</v>
+        <v>232.55</v>
       </c>
       <c r="C91" t="str">
-        <v>140.1</v>
+        <v>232.55</v>
       </c>
       <c r="D91" t="str">
-        <v>120.66</v>
+        <v>145.07</v>
       </c>
       <c r="E91" t="str">
         <v>0</v>
@@ -8628,118 +12502,118 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
+        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
       </c>
       <c r="B92" t="str">
-        <v>643.82</v>
+        <v>232.55</v>
       </c>
       <c r="C92" t="str">
-        <v>643.82</v>
+        <v>232.55</v>
       </c>
       <c r="D92" t="str">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E92" t="str">
-        <v>54.45</v>
+        <v>145.07</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
       </c>
       <c r="B93" t="str">
-        <v>580.59</v>
+        <v>65,725.86</v>
       </c>
       <c r="C93" t="str">
-        <v>580.59</v>
+        <v>65,725.86</v>
       </c>
       <c r="D93" t="str">
         <v>0</v>
       </c>
       <c r="E93" t="str">
-        <v>500</v>
+        <v>40,999.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
       </c>
       <c r="B94" t="str">
-        <v>321.43</v>
+        <v>1.53</v>
       </c>
       <c r="C94" t="str">
-        <v>321.43</v>
+        <v>1.53</v>
       </c>
       <c r="D94" t="str">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="E94" t="str">
-        <v>276.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
       </c>
       <c r="B95" t="str">
-        <v>35,222.79</v>
+        <v>73.11</v>
       </c>
       <c r="C95" t="str">
-        <v>35,222.79</v>
+        <v>73.11</v>
       </c>
       <c r="D95" t="str">
-        <v>30,333.44</v>
+        <v>0</v>
       </c>
       <c r="E95" t="str">
-        <v>0</v>
+        <v>45.61</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
       </c>
       <c r="B96" t="str">
-        <v>0</v>
+        <v>985.3</v>
       </c>
       <c r="C96" t="str">
-        <v>35,222.79</v>
+        <v>985.3</v>
       </c>
       <c r="D96" t="str">
-        <v>0</v>
+        <v>614.63</v>
       </c>
       <c r="E96" t="str">
-        <v>30,333.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
       </c>
       <c r="B97" t="str">
-        <v>8,204.03</v>
+        <v>0</v>
       </c>
       <c r="C97" t="str">
-        <v>8,204.03</v>
+        <v>985.3</v>
       </c>
       <c r="D97" t="str">
-        <v>2,321.52</v>
+        <v>0</v>
       </c>
       <c r="E97" t="str">
-        <v>4,743.69</v>
+        <v>614.63</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>0x61c17C2EbD2647F82F7450b9956f1EE9357eA4B1</v>
+        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
       </c>
       <c r="B98" t="str">
-        <v>55,063.92</v>
+        <v>3,041.59</v>
       </c>
       <c r="C98" t="str">
-        <v>60,372.84</v>
+        <v>3,041.59</v>
       </c>
       <c r="D98" t="str">
-        <v>51,992.35</v>
+        <v>1,897.34</v>
       </c>
       <c r="E98" t="str">
         <v>0</v>
@@ -8747,50 +12621,50 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>0xA66ABB96cC791CFD157CFcd404B27A0920824B35</v>
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
       </c>
       <c r="B99" t="str">
-        <v>0</v>
+        <v>11,896.48</v>
       </c>
       <c r="C99" t="str">
-        <v>267,806.07</v>
+        <v>11,896.48</v>
       </c>
       <c r="D99" t="str">
-        <v>178,638.95</v>
+        <v>5,000</v>
       </c>
       <c r="E99" t="str">
-        <v>51,992.35</v>
+        <v>2,420.99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
       </c>
       <c r="B100" t="str">
-        <v>46.93</v>
+        <v>1,066.06</v>
       </c>
       <c r="C100" t="str">
-        <v>46.93</v>
+        <v>1,066.06</v>
       </c>
       <c r="D100" t="str">
-        <v>40.42</v>
+        <v>0</v>
       </c>
       <c r="E100" t="str">
-        <v>0</v>
+        <v>665.01</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>0x41382710CB3320194F0fb9Ef8e8531e0E291D740</v>
+        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
       </c>
       <c r="B101" t="str">
-        <v>233.45</v>
+        <v>19,171.47</v>
       </c>
       <c r="C101" t="str">
-        <v>233.45</v>
+        <v>19,171.47</v>
       </c>
       <c r="D101" t="str">
-        <v>201.05</v>
+        <v>11,959.11</v>
       </c>
       <c r="E101" t="str">
         <v>0</v>
@@ -8798,67 +12672,67 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>0xAa00788779C2bB3C012BA6914A26cA5B23E02371</v>
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
       </c>
       <c r="B102" t="str">
-        <v>233.45</v>
+        <v>16,545.3</v>
       </c>
       <c r="C102" t="str">
-        <v>233.45</v>
+        <v>16,545.3</v>
       </c>
       <c r="D102" t="str">
-        <v>0</v>
+        <v>8,028.02</v>
       </c>
       <c r="E102" t="str">
-        <v>201.05</v>
+        <v>2,292.89</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
       </c>
       <c r="B103" t="str">
-        <v>3,530</v>
+        <v>15,095.72</v>
       </c>
       <c r="C103" t="str">
-        <v>3,530</v>
+        <v>15,095.72</v>
       </c>
       <c r="D103" t="str">
-        <v>3,040</v>
+        <v>1,388.65</v>
       </c>
       <c r="E103" t="str">
-        <v>0</v>
+        <v>8,028.02</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
       </c>
       <c r="B104" t="str">
-        <v>3,530</v>
+        <v>1,634.23</v>
       </c>
       <c r="C104" t="str">
-        <v>3,530</v>
+        <v>1,634.23</v>
       </c>
       <c r="D104" t="str">
         <v>0</v>
       </c>
       <c r="E104" t="str">
-        <v>3,040</v>
+        <v>1,019.43</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>0xc5f85e44C65783b4f1fD18D81CDA4e0Eb0eBb77d</v>
+        <v>0xdD40bFeDDd1511322A763a82e31Ef3e401415927</v>
       </c>
       <c r="B105" t="str">
-        <v>93.54</v>
+        <v>348.36</v>
       </c>
       <c r="C105" t="str">
-        <v>93.54</v>
+        <v>348.36</v>
       </c>
       <c r="D105" t="str">
-        <v>80.56</v>
+        <v>217.31</v>
       </c>
       <c r="E105" t="str">
         <v>0</v>
@@ -8866,33 +12740,33 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+        <v>0xfA9FBD6360692a1b23b84A9dDFf63ed77faF58c9</v>
       </c>
       <c r="B106" t="str">
-        <v>18,968.52</v>
+        <v>415.51</v>
       </c>
       <c r="C106" t="str">
-        <v>18,968.52</v>
+        <v>415.51</v>
       </c>
       <c r="D106" t="str">
-        <v>9,967.11</v>
+        <v>0</v>
       </c>
       <c r="E106" t="str">
-        <v>6,368.35</v>
+        <v>259.2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>0xe1cE7bDEae6757E29008f2ECA572b6208E23a822</v>
+        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
       </c>
       <c r="B107" t="str">
-        <v>3,499.42</v>
+        <v>0</v>
       </c>
       <c r="C107" t="str">
-        <v>3,499.42</v>
+        <v>801.54</v>
       </c>
       <c r="D107" t="str">
-        <v>3,013.66</v>
+        <v>500</v>
       </c>
       <c r="E107" t="str">
         <v>0</v>
@@ -8900,16 +12774,16 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>0xb8D8066d1EE9D03800B7600d2807b7749B9F6899</v>
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
       </c>
       <c r="B108" t="str">
-        <v>290.29</v>
+        <v>16,120.88</v>
       </c>
       <c r="C108" t="str">
-        <v>290.29</v>
+        <v>16,120.88</v>
       </c>
       <c r="D108" t="str">
-        <v>250</v>
+        <v>10,056.16</v>
       </c>
       <c r="E108" t="str">
         <v>0</v>
@@ -8917,84 +12791,84 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>0xD465Ffa5efAdF5cF1Dd6c45c3C305f58279A2140</v>
+        <v>0xe23bc0609A8Df4EA2A597AEAAFcBF421BFfBDCFd</v>
       </c>
       <c r="B109" t="str">
-        <v>0</v>
+        <v>1,133.31</v>
       </c>
       <c r="C109" t="str">
-        <v>290.29</v>
+        <v>1,133.31</v>
       </c>
       <c r="D109" t="str">
-        <v>0</v>
+        <v>706.96</v>
       </c>
       <c r="E109" t="str">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
       </c>
       <c r="B110" t="str">
-        <v>39.96</v>
+        <v>471.43</v>
       </c>
       <c r="C110" t="str">
-        <v>39.96</v>
+        <v>471.43</v>
       </c>
       <c r="D110" t="str">
-        <v>0</v>
+        <v>294.08</v>
       </c>
       <c r="E110" t="str">
-        <v>34.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
       </c>
       <c r="B111" t="str">
-        <v>71.19</v>
+        <v>1,474.32</v>
       </c>
       <c r="C111" t="str">
-        <v>71.19</v>
+        <v>1,474.32</v>
       </c>
       <c r="D111" t="str">
-        <v>61.31</v>
+        <v>0</v>
       </c>
       <c r="E111" t="str">
-        <v>0</v>
+        <v>919.68</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
+        <v>0x3d1F678EBd71CA033f21D6B1B5B0781a66537447</v>
       </c>
       <c r="B112" t="str">
-        <v>28.29</v>
+        <v>2,416.45</v>
       </c>
       <c r="C112" t="str">
-        <v>28.29</v>
+        <v>2,416.45</v>
       </c>
       <c r="D112" t="str">
         <v>0</v>
       </c>
       <c r="E112" t="str">
-        <v>24.37</v>
+        <v>1,507.38</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>0xC53Fa15adE563291bF8ba8d7E62a9B0959e6aE30</v>
+        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
       </c>
       <c r="B113" t="str">
-        <v>67.11</v>
+        <v>2,451.5</v>
       </c>
       <c r="C113" t="str">
-        <v>67.11</v>
+        <v>2,451.5</v>
       </c>
       <c r="D113" t="str">
-        <v>57.8</v>
+        <v>1,529.24</v>
       </c>
       <c r="E113" t="str">
         <v>0</v>
@@ -9002,203 +12876,203 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>0xcE1290F5457067497EAd8Aea22515d52ca94357E</v>
+        <v>0xC44b6fcf320C7A15f288D3792E5BBF7D770e25c4</v>
       </c>
       <c r="B114" t="str">
-        <v>165</v>
+        <v>53.97</v>
       </c>
       <c r="C114" t="str">
-        <v>165</v>
+        <v>53.97</v>
       </c>
       <c r="D114" t="str">
-        <v>0</v>
+        <v>33.67</v>
       </c>
       <c r="E114" t="str">
-        <v>142.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
+        <v>0x9C0557216e919eDaCCc56037c66A5fAC1D41D82a</v>
       </c>
       <c r="B115" t="str">
-        <v>4,630.54</v>
+        <v>53.97</v>
       </c>
       <c r="C115" t="str">
-        <v>4,630.54</v>
+        <v>53.97</v>
       </c>
       <c r="D115" t="str">
-        <v>3,987.77</v>
+        <v>0</v>
       </c>
       <c r="E115" t="str">
-        <v>0</v>
+        <v>33.67</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
       </c>
       <c r="B116" t="str">
-        <v>86,038.08</v>
+        <v>1,339.93</v>
       </c>
       <c r="C116" t="str">
-        <v>86,038.08</v>
+        <v>1,339.93</v>
       </c>
       <c r="D116" t="str">
-        <v>70,000</v>
+        <v>835.85</v>
       </c>
       <c r="E116" t="str">
-        <v>4,094.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>0x425F2F1287045bC9d04C0f933E7FdEdA4A2e5765</v>
+        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
       </c>
       <c r="B117" t="str">
-        <v>2,858.79</v>
+        <v>1,339.93</v>
       </c>
       <c r="C117" t="str">
-        <v>2,858.79</v>
+        <v>1,339.93</v>
       </c>
       <c r="D117" t="str">
         <v>0</v>
       </c>
       <c r="E117" t="str">
-        <v>2,461.96</v>
+        <v>835.85</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>0x358e444fFb60A1Cc82A6E412C6720f110dc1E921</v>
+        <v>0xB19c1b3cEc4c5bD6DCA220A4f59de9EC681e9211</v>
       </c>
       <c r="B118" t="str">
         <v>0</v>
       </c>
       <c r="C118" t="str">
-        <v>4,222.52</v>
+        <v>244.21</v>
       </c>
       <c r="D118" t="str">
         <v>0</v>
       </c>
       <c r="E118" t="str">
-        <v>3,636.39</v>
+        <v>152.34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>0xFeD4972A2Ee597c587C1b0643849845544c17C2F</v>
+        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
       </c>
       <c r="B119" t="str">
-        <v>1,071.24</v>
+        <v>20,038.57</v>
       </c>
       <c r="C119" t="str">
-        <v>1,071.24</v>
+        <v>20,038.57</v>
       </c>
       <c r="D119" t="str">
         <v>0</v>
       </c>
       <c r="E119" t="str">
-        <v>922.54</v>
+        <v>12,500</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
+        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
       </c>
       <c r="B120" t="str">
-        <v>293.46</v>
+        <v>0</v>
       </c>
       <c r="C120" t="str">
-        <v>293.46</v>
+        <v>2,290.26</v>
       </c>
       <c r="D120" t="str">
-        <v>252.73</v>
+        <v>0</v>
       </c>
       <c r="E120" t="str">
-        <v>0</v>
+        <v>1,428.66</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>0x2A1Cc6c77782EA6BE6C08d61430A79E31Ea4efDf</v>
+        <v>0xEE6cafF44C45094a0a0Dd7dD2235f534Fa1EBa3F</v>
       </c>
       <c r="B121" t="str">
-        <v>149.95</v>
+        <v>1,309.76</v>
       </c>
       <c r="C121" t="str">
-        <v>149.95</v>
+        <v>1,309.76</v>
       </c>
       <c r="D121" t="str">
         <v>0</v>
       </c>
       <c r="E121" t="str">
-        <v>129.14</v>
+        <v>817.03</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>0x233680379B54D12357711b431Be3B8a4cdfBe6bD</v>
+        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
       </c>
       <c r="B122" t="str">
-        <v>107.1</v>
+        <v>8,090.78</v>
       </c>
       <c r="C122" t="str">
-        <v>107.1</v>
+        <v>8,090.78</v>
       </c>
       <c r="D122" t="str">
-        <v>92.24</v>
+        <v>0</v>
       </c>
       <c r="E122" t="str">
-        <v>0</v>
+        <v>5,047.01</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+        <v>0x0fA1AfF9540786DCad9196e0676e2e4423317FAf</v>
       </c>
       <c r="B123" t="str">
-        <v>827.83</v>
+        <v>10,583.23</v>
       </c>
       <c r="C123" t="str">
-        <v>827.83</v>
+        <v>10,583.23</v>
       </c>
       <c r="D123" t="str">
-        <v>362.27</v>
+        <v>6,601.79</v>
       </c>
       <c r="E123" t="str">
-        <v>350.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>0xDbfd080A579b7DFc5D99834C86ffd543b688c864</v>
+        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
       </c>
       <c r="B124" t="str">
-        <v>1,916.74</v>
+        <v>10,583.23</v>
       </c>
       <c r="C124" t="str">
-        <v>1,916.74</v>
+        <v>10,583.23</v>
       </c>
       <c r="D124" t="str">
-        <v>1,650.68</v>
+        <v>0</v>
       </c>
       <c r="E124" t="str">
-        <v>0</v>
+        <v>6,601.79</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>0x69f96f2A5Cdd84E574dB2a353880095988243417</v>
+        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
       </c>
       <c r="B125" t="str">
-        <v>0</v>
+        <v>3,212.98</v>
       </c>
       <c r="C125" t="str">
-        <v>5,246.88</v>
+        <v>3,212.98</v>
       </c>
       <c r="D125" t="str">
-        <v>4,518.55</v>
+        <v>2,004.25</v>
       </c>
       <c r="E125" t="str">
         <v>0</v>
@@ -9206,33 +13080,33 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+        <v>0xE34bBD8d72B7Ffe5ad2e84CE93e3A07581De2e50</v>
       </c>
       <c r="B126" t="str">
-        <v>11,331.51</v>
+        <v>0</v>
       </c>
       <c r="C126" t="str">
-        <v>11,331.51</v>
+        <v>144.27</v>
       </c>
       <c r="D126" t="str">
         <v>0</v>
       </c>
       <c r="E126" t="str">
-        <v>9,758.56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>0x9AFd15a40275947bDD6824ba0eAfE1cCe4143a2F</v>
+        <v>0x69f96f2A5Cdd84E574dB2a353880095988243417</v>
       </c>
       <c r="B127" t="str">
-        <v>378.04</v>
+        <v>0</v>
       </c>
       <c r="C127" t="str">
-        <v>378.04</v>
+        <v>56.1</v>
       </c>
       <c r="D127" t="str">
-        <v>325.57</v>
+        <v>35</v>
       </c>
       <c r="E127" t="str">
         <v>0</v>
@@ -9240,356 +13114,356 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>0xF473Ea7dc6E82C348530FDE410bFF035bCe0B269</v>
+        <v>0xdE976b1178696723F86102aaf17Ddd70522908dA</v>
       </c>
       <c r="B128" t="str">
-        <v>958.64</v>
+        <v>801.54</v>
       </c>
       <c r="C128" t="str">
-        <v>958.64</v>
+        <v>801.54</v>
       </c>
       <c r="D128" t="str">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E128" t="str">
-        <v>825.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
+        <v>0x96f194Cf1c9e5eE23B4D96785791F468F6A9C98e</v>
       </c>
       <c r="B129" t="str">
-        <v>4,716.57</v>
+        <v>8,015.42</v>
       </c>
       <c r="C129" t="str">
-        <v>4,716.57</v>
+        <v>8,015.42</v>
       </c>
       <c r="D129" t="str">
         <v>0</v>
       </c>
       <c r="E129" t="str">
-        <v>4,061.86</v>
+        <v>5,000</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
+        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
       </c>
       <c r="B130" t="str">
-        <v>7.91</v>
+        <v>2,344.67</v>
       </c>
       <c r="C130" t="str">
-        <v>7.91</v>
+        <v>2,344.67</v>
       </c>
       <c r="D130" t="str">
-        <v>6.82</v>
+        <v>0</v>
       </c>
       <c r="E130" t="str">
-        <v>0</v>
+        <v>1,462.6</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
+        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
       </c>
       <c r="B131" t="str">
-        <v>7.91</v>
+        <v>139.72</v>
       </c>
       <c r="C131" t="str">
-        <v>7.91</v>
+        <v>139.72</v>
       </c>
       <c r="D131" t="str">
-        <v>0</v>
+        <v>87.16</v>
       </c>
       <c r="E131" t="str">
-        <v>6.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>0x9C19FE52c5b04d39EF89d58fCDef24A55CfDA4a7</v>
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
       </c>
       <c r="B132" t="str">
-        <v>98.35</v>
+        <v>139.72</v>
       </c>
       <c r="C132" t="str">
-        <v>98.35</v>
+        <v>139.72</v>
       </c>
       <c r="D132" t="str">
-        <v>84.7</v>
+        <v>0</v>
       </c>
       <c r="E132" t="str">
-        <v>0</v>
+        <v>87.16</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
+        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
       </c>
       <c r="B133" t="str">
-        <v>245.33</v>
+        <v>175.71</v>
       </c>
       <c r="C133" t="str">
-        <v>245.33</v>
+        <v>175.71</v>
       </c>
       <c r="D133" t="str">
-        <v>0</v>
+        <v>87.98</v>
       </c>
       <c r="E133" t="str">
-        <v>211.28</v>
+        <v>21.63</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+        <v>0x36413818a988749f40de4877B51f782126282a89</v>
       </c>
       <c r="B134" t="str">
-        <v>21,795.09</v>
+        <v>1,909.56</v>
       </c>
       <c r="C134" t="str">
-        <v>21,795.09</v>
+        <v>1,909.56</v>
       </c>
       <c r="D134" t="str">
-        <v>0</v>
+        <v>1,191.18</v>
       </c>
       <c r="E134" t="str">
-        <v>18,769.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
+        <v>0xd092C607a92c75de3bB1240494C4822Bf3766D46</v>
       </c>
       <c r="B135" t="str">
-        <v>1,533.09</v>
+        <v>155.29</v>
       </c>
       <c r="C135" t="str">
-        <v>1,533.09</v>
+        <v>155.29</v>
       </c>
       <c r="D135" t="str">
-        <v>235.01</v>
+        <v>96.87</v>
       </c>
       <c r="E135" t="str">
-        <v>1,085.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>0x240e0289a4d0D6B1b412ad1A4fD04711656A29ee</v>
+        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
       </c>
       <c r="B136" t="str">
-        <v>201.67</v>
+        <v>7,749.78</v>
       </c>
       <c r="C136" t="str">
-        <v>201.67</v>
+        <v>7,749.78</v>
       </c>
       <c r="D136" t="str">
-        <v>173.68</v>
+        <v>0</v>
       </c>
       <c r="E136" t="str">
-        <v>0</v>
+        <v>4,834.29</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
+        <v>0xAD5c21611Ea4790991c40BFD8e0888e012D7162E</v>
       </c>
       <c r="B137" t="str">
-        <v>26,905.19</v>
+        <v>915.23</v>
       </c>
       <c r="C137" t="str">
-        <v>26,905.19</v>
+        <v>915.23</v>
       </c>
       <c r="D137" t="str">
-        <v>0</v>
+        <v>570.92</v>
       </c>
       <c r="E137" t="str">
-        <v>23,170.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
       </c>
       <c r="B138" t="str">
-        <v>31.53</v>
+        <v>915.23</v>
       </c>
       <c r="C138" t="str">
-        <v>31.53</v>
+        <v>915.23</v>
       </c>
       <c r="D138" t="str">
-        <v>27.16</v>
+        <v>0</v>
       </c>
       <c r="E138" t="str">
-        <v>0</v>
+        <v>570.92</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>0xfDbb14D0A9a2f85663134F16BF006c08e2918B6a</v>
+        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
       </c>
       <c r="B139" t="str">
-        <v>118.8</v>
+        <v>5,371.71</v>
       </c>
       <c r="C139" t="str">
-        <v>118.8</v>
+        <v>5,371.71</v>
       </c>
       <c r="D139" t="str">
-        <v>0</v>
+        <v>3,350.86</v>
       </c>
       <c r="E139" t="str">
-        <v>102.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+        <v>0x04d9f35C7c292ca2c75C498563b48123C0662e19</v>
       </c>
       <c r="B140" t="str">
-        <v>17,260.87</v>
+        <v>2,471.09</v>
       </c>
       <c r="C140" t="str">
-        <v>17,260.87</v>
+        <v>2,471.09</v>
       </c>
       <c r="D140" t="str">
-        <v>4,897.74</v>
+        <v>1,541.46</v>
       </c>
       <c r="E140" t="str">
-        <v>9,967.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>0xB19c1b3cEc4c5bD6DCA220A4f59de9EC681e9211</v>
+        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
       </c>
       <c r="B141" t="str">
-        <v>0</v>
+        <v>1,064.43</v>
       </c>
       <c r="C141" t="str">
-        <v>180.95</v>
+        <v>1,064.43</v>
       </c>
       <c r="D141" t="str">
-        <v>12.73</v>
+        <v>663.99</v>
       </c>
       <c r="E141" t="str">
-        <v>143.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>0x175780bC4d0A1bc28c46C3E71130C092790E7576</v>
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
       </c>
       <c r="B142" t="str">
-        <v>166.17</v>
+        <v>957,107.45</v>
       </c>
       <c r="C142" t="str">
-        <v>166.17</v>
+        <v>957,107.45</v>
       </c>
       <c r="D142" t="str">
-        <v>143.11</v>
+        <v>298,866.65</v>
       </c>
       <c r="E142" t="str">
-        <v>0</v>
+        <v>298,174.11</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>0x19d4dEce6C48d99F0Ec4bE4258f26fdA9a7Ad4e5</v>
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
       </c>
       <c r="B143" t="str">
-        <v>350.87</v>
+        <v>957,107.45</v>
       </c>
       <c r="C143" t="str">
-        <v>350.87</v>
+        <v>957,107.45</v>
       </c>
       <c r="D143" t="str">
-        <v>302.17</v>
+        <v>298,174.11</v>
       </c>
       <c r="E143" t="str">
-        <v>0</v>
+        <v>298,866.65</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
+        <v>0xfFbea98964b8683427F5c3CFFbddcDA07E40caD4</v>
       </c>
       <c r="B144" t="str">
-        <v>20.88</v>
+        <v>24.04</v>
       </c>
       <c r="C144" t="str">
-        <v>20.88</v>
+        <v>24.04</v>
       </c>
       <c r="D144" t="str">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E144" t="str">
-        <v>17.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
+        <v>0x54bE4074E027546F3De714a350782b380ab2B513</v>
       </c>
       <c r="B145" t="str">
-        <v>3,193.26</v>
+        <v>24.04</v>
       </c>
       <c r="C145" t="str">
-        <v>3,193.26</v>
+        <v>24.04</v>
       </c>
       <c r="D145" t="str">
-        <v>2,750</v>
+        <v>0</v>
       </c>
       <c r="E145" t="str">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
       </c>
       <c r="B146" t="str">
-        <v>7,257.41</v>
+        <v>492.72</v>
       </c>
       <c r="C146" t="str">
-        <v>7,257.41</v>
+        <v>492.72</v>
       </c>
       <c r="D146" t="str">
         <v>0</v>
       </c>
       <c r="E146" t="str">
-        <v>6,250</v>
+        <v>307.36</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>0x8538330Cd197d24CDdF7DEe46309c2ad9428FACc</v>
+        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
       </c>
       <c r="B147" t="str">
-        <v>32.82</v>
+        <v>189.06</v>
       </c>
       <c r="C147" t="str">
-        <v>32.82</v>
+        <v>189.06</v>
       </c>
       <c r="D147" t="str">
-        <v>28.27</v>
+        <v>0</v>
       </c>
       <c r="E147" t="str">
-        <v>0</v>
+        <v>117.94</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>0x4922dc29D2d0c725F542f5021D9353F3872F2dFF</v>
+        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
       </c>
       <c r="B148" t="str">
-        <v>580.59</v>
+        <v>71.43</v>
       </c>
       <c r="C148" t="str">
-        <v>580.59</v>
+        <v>71.43</v>
       </c>
       <c r="D148" t="str">
-        <v>500</v>
+        <v>44.56</v>
       </c>
       <c r="E148" t="str">
         <v>0</v>
@@ -9597,118 +13471,118 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>0x4e0F1063F13d020B1316791Ae56ea5a826aba501</v>
+        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
       </c>
       <c r="B149" t="str">
-        <v>62.26</v>
+        <v>182.81</v>
       </c>
       <c r="C149" t="str">
-        <v>62.26</v>
+        <v>182.81</v>
       </c>
       <c r="D149" t="str">
-        <v>0</v>
+        <v>114.04</v>
       </c>
       <c r="E149" t="str">
-        <v>53.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
       </c>
       <c r="B150" t="str">
-        <v>102.11</v>
+        <v>182.81</v>
       </c>
       <c r="C150" t="str">
-        <v>102.11</v>
+        <v>182.81</v>
       </c>
       <c r="D150" t="str">
-        <v>87.94</v>
+        <v>0</v>
       </c>
       <c r="E150" t="str">
-        <v>0</v>
+        <v>114.04</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
+        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
       </c>
       <c r="B151" t="str">
-        <v>357.77</v>
+        <v>106.81</v>
       </c>
       <c r="C151" t="str">
-        <v>357.77</v>
+        <v>106.81</v>
       </c>
       <c r="D151" t="str">
-        <v>0</v>
+        <v>66.63</v>
       </c>
       <c r="E151" t="str">
-        <v>308.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>0x96f194Cf1c9e5eE23B4D96785791F468F6A9C98e</v>
+        <v>0xFa544d034dC07aD4Fa185ba769031a29Fbef5e36</v>
       </c>
       <c r="B152" t="str">
-        <v>81,283.09</v>
+        <v>106.81</v>
       </c>
       <c r="C152" t="str">
-        <v>81,283.09</v>
+        <v>106.81</v>
       </c>
       <c r="D152" t="str">
         <v>0</v>
       </c>
       <c r="E152" t="str">
-        <v>70,000</v>
+        <v>66.63</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>0x09aFEC89b908C2cbD220942f3788530C195Ba894</v>
+        <v>0x25E9eA1a93D9e505cd7d056C1e1bA16789537EAb</v>
       </c>
       <c r="B153" t="str">
-        <v>597.46</v>
+        <v>6,905.51</v>
       </c>
       <c r="C153" t="str">
-        <v>597.46</v>
+        <v>6,905.51</v>
       </c>
       <c r="D153" t="str">
-        <v>0</v>
+        <v>507.82</v>
       </c>
       <c r="E153" t="str">
-        <v>514.53</v>
+        <v>3,799.82</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
       </c>
       <c r="B154" t="str">
-        <v>777.13</v>
+        <v>438.87</v>
       </c>
       <c r="C154" t="str">
-        <v>777.13</v>
+        <v>438.87</v>
       </c>
       <c r="D154" t="str">
-        <v>0</v>
+        <v>273.77</v>
       </c>
       <c r="E154" t="str">
-        <v>669.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>0xF6a52cb99b772d46C736F6F90Be792A1d4159414</v>
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
       </c>
       <c r="B155" t="str">
-        <v>49.4</v>
+        <v>3,862.55</v>
       </c>
       <c r="C155" t="str">
-        <v>49.4</v>
+        <v>3,862.55</v>
       </c>
       <c r="D155" t="str">
-        <v>42.55</v>
+        <v>2,409.45</v>
       </c>
       <c r="E155" t="str">
         <v>0</v>
@@ -9716,16 +13590,16 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>0xdFdf143A6a12185023e01ddC61092Ac97eCB6c05</v>
+        <v>0x4922dc29D2d0c725F542f5021D9353F3872F2dFF</v>
       </c>
       <c r="B156" t="str">
-        <v>119.45</v>
+        <v>2,003.85</v>
       </c>
       <c r="C156" t="str">
-        <v>119.45</v>
+        <v>2,003.85</v>
       </c>
       <c r="D156" t="str">
-        <v>102.87</v>
+        <v>1,250</v>
       </c>
       <c r="E156" t="str">
         <v>0</v>
@@ -9733,118 +13607,118 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
+        <v>0xF473Ea7dc6E82C348530FDE410bFF035bCe0B269</v>
       </c>
       <c r="B157" t="str">
-        <v>67,137.05</v>
+        <v>2,003.85</v>
       </c>
       <c r="C157" t="str">
-        <v>67,137.05</v>
+        <v>2,003.85</v>
       </c>
       <c r="D157" t="str">
-        <v>57,817.61</v>
+        <v>0</v>
       </c>
       <c r="E157" t="str">
-        <v>0</v>
+        <v>1,250</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+        <v>0x2abf42F330c60491E8A36B73c9F3F9Ed40CDa546</v>
       </c>
       <c r="B158" t="str">
-        <v>2,616.15</v>
+        <v>26,480.48</v>
       </c>
       <c r="C158" t="str">
-        <v>2,616.15</v>
+        <v>26,480.48</v>
       </c>
       <c r="D158" t="str">
         <v>0</v>
       </c>
       <c r="E158" t="str">
-        <v>2,253</v>
+        <v>16,518.45</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>0xBc7b31dFbEd762841AC646961C887B49e3f625d5</v>
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
       </c>
       <c r="B159" t="str">
-        <v>356.49</v>
+        <v>1,775.85</v>
       </c>
       <c r="C159" t="str">
-        <v>356.49</v>
+        <v>1,775.85</v>
       </c>
       <c r="D159" t="str">
-        <v>307.01</v>
+        <v>0</v>
       </c>
       <c r="E159" t="str">
-        <v>0</v>
+        <v>1,107.77</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>0xc4b88bff8D047576eC693EaFA72482A5e8f0fd7A</v>
+        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
       </c>
       <c r="B160" t="str">
+        <v>160.3</v>
+      </c>
+      <c r="C160" t="str">
+        <v>160.3</v>
+      </c>
+      <c r="D160" t="str">
+        <v>0</v>
+      </c>
+      <c r="E160" t="str">
         <v>100</v>
-      </c>
-      <c r="C160" t="str">
-        <v>100</v>
-      </c>
-      <c r="D160" t="str">
-        <v>86.12</v>
-      </c>
-      <c r="E160" t="str">
-        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
+        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
       </c>
       <c r="B161" t="str">
-        <v>0</v>
+        <v>2,003.85</v>
       </c>
       <c r="C161" t="str">
-        <v>2,695.71</v>
+        <v>2,003.85</v>
       </c>
       <c r="D161" t="str">
-        <v>0</v>
+        <v>1,250</v>
       </c>
       <c r="E161" t="str">
-        <v>2,321.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>0x886049Df7a8010a7e3c21A32b74e41402986ae37</v>
+        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
       </c>
       <c r="B162" t="str">
-        <v>133.07</v>
+        <v>2,003.85</v>
       </c>
       <c r="C162" t="str">
-        <v>133.07</v>
+        <v>2,003.85</v>
       </c>
       <c r="D162" t="str">
-        <v>114.6</v>
+        <v>0</v>
       </c>
       <c r="E162" t="str">
-        <v>0</v>
+        <v>1,250</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+        <v>0x7c8f1cdd0fCC84d9A0354B91Cf77507982ED31De</v>
       </c>
       <c r="B163" t="str">
-        <v>8,092.05</v>
+        <v>2.66</v>
       </c>
       <c r="C163" t="str">
-        <v>8,092.05</v>
+        <v>2.66</v>
       </c>
       <c r="D163" t="str">
-        <v>6,968.78</v>
+        <v>1.66</v>
       </c>
       <c r="E163" t="str">
         <v>0</v>
@@ -9852,135 +13726,135 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>0x9A4dbCDE63b55273DC51BeA546A7ba6456f059D0</v>
+        <v>0xfC8B5e50e7aa48f71F422339e4c0040f7779C714</v>
       </c>
       <c r="B164" t="str">
-        <v>2,043.32</v>
+        <v>4,568.79</v>
       </c>
       <c r="C164" t="str">
-        <v>2,043.32</v>
+        <v>4,568.79</v>
       </c>
       <c r="D164" t="str">
-        <v>0</v>
+        <v>2,850</v>
       </c>
       <c r="E164" t="str">
-        <v>1,759.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
       </c>
       <c r="B165" t="str">
-        <v>1,436.73</v>
+        <v>1,061.38</v>
       </c>
       <c r="C165" t="str">
-        <v>1,436.73</v>
+        <v>1,061.38</v>
       </c>
       <c r="D165" t="str">
-        <v>0</v>
+        <v>662.09</v>
       </c>
       <c r="E165" t="str">
-        <v>1,237.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>0xfA9FBD6360692a1b23b84A9dDFf63ed77faF58c9</v>
+        <v>0xC284bbe095d47DC05C9695Ed0aBA98Db088a993F</v>
       </c>
       <c r="B166" t="str">
-        <v>17.68</v>
+        <v>66.44</v>
       </c>
       <c r="C166" t="str">
-        <v>17.68</v>
+        <v>66.44</v>
       </c>
       <c r="D166" t="str">
-        <v>0</v>
+        <v>41.45</v>
       </c>
       <c r="E166" t="str">
-        <v>15.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
       </c>
       <c r="B167" t="str">
-        <v>50.59</v>
+        <v>1,669.53</v>
       </c>
       <c r="C167" t="str">
-        <v>50.59</v>
+        <v>1,669.53</v>
       </c>
       <c r="D167" t="str">
         <v>0</v>
       </c>
       <c r="E167" t="str">
-        <v>43.57</v>
+        <v>1,041.45</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>0x9C4e5edC6A735e4AB68ef04497b64008A955A1A5</v>
+        <v>0x3e666FADbdC565692DEc4aB6A95CaaA708d28d76</v>
       </c>
       <c r="B168" t="str">
-        <v>715.26</v>
+        <v>519.41</v>
       </c>
       <c r="C168" t="str">
-        <v>715.26</v>
+        <v>519.41</v>
       </c>
       <c r="D168" t="str">
-        <v>0</v>
+        <v>324.01</v>
       </c>
       <c r="E168" t="str">
-        <v>615.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+        <v>0xd939730f3611112DaF234420f57Cfe0e3D3b16B3</v>
       </c>
       <c r="B169" t="str">
-        <v>44,560.21</v>
+        <v>1.6</v>
       </c>
       <c r="C169" t="str">
-        <v>44,560.21</v>
+        <v>1.6</v>
       </c>
       <c r="D169" t="str">
-        <v>38,374.71</v>
+        <v>0</v>
       </c>
       <c r="E169" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+        <v>0xb8e441ad9cA68bf92Da52A40BFBb03Bc6454ABB4</v>
       </c>
       <c r="B170" t="str">
-        <v>11,449.64</v>
+        <v>4.85</v>
       </c>
       <c r="C170" t="str">
-        <v>11,449.64</v>
+        <v>4.85</v>
       </c>
       <c r="D170" t="str">
-        <v>9,860.29</v>
+        <v>0</v>
       </c>
       <c r="E170" t="str">
-        <v>0</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>0x53ca313FFDcAADAd0CCa71b3eEf7fDc57d83Bfed</v>
+        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
       </c>
       <c r="B171" t="str">
-        <v>70.01</v>
+        <v>0</v>
       </c>
       <c r="C171" t="str">
-        <v>70.01</v>
+        <v>47.32</v>
       </c>
       <c r="D171" t="str">
-        <v>60.3</v>
+        <v>29.52</v>
       </c>
       <c r="E171" t="str">
         <v>0</v>
@@ -9988,101 +13862,101 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>0x555D98207F3Cb7fdB6fB7217A081A365ca45c135</v>
+        <v>0xa8f881849583f2dBC55f04433C62Edbc79f46286</v>
       </c>
       <c r="B172" t="str">
-        <v>70.01</v>
+        <v>29.81</v>
       </c>
       <c r="C172" t="str">
-        <v>70.01</v>
+        <v>29.81</v>
       </c>
       <c r="D172" t="str">
-        <v>0</v>
+        <v>18.6</v>
       </c>
       <c r="E172" t="str">
-        <v>60.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>0x89c7eF9CE8c8B7C683f8051f355B5f6B55acA4De</v>
+        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
       </c>
       <c r="B173" t="str">
-        <v>94.81</v>
+        <v>29.81</v>
       </c>
       <c r="C173" t="str">
-        <v>94.81</v>
+        <v>29.81</v>
       </c>
       <c r="D173" t="str">
-        <v>81.65</v>
+        <v>0</v>
       </c>
       <c r="E173" t="str">
-        <v>0</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>0x2848A658c1097a8639d2fb62a977b23903200b53</v>
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
       </c>
       <c r="B174" t="str">
-        <v>94.81</v>
+        <v>74.15</v>
       </c>
       <c r="C174" t="str">
-        <v>94.81</v>
+        <v>74.15</v>
       </c>
       <c r="D174" t="str">
-        <v>0</v>
+        <v>46.26</v>
       </c>
       <c r="E174" t="str">
-        <v>81.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>0xC023483Fa22d037EC5f056FC31C8f40751722aD5</v>
+        <v>0x4e0F1063F13d020B1316791Ae56ea5a826aba501</v>
       </c>
       <c r="B175" t="str">
-        <v>58.05</v>
+        <v>82.62</v>
       </c>
       <c r="C175" t="str">
-        <v>58.05</v>
+        <v>82.62</v>
       </c>
       <c r="D175" t="str">
         <v>0</v>
       </c>
       <c r="E175" t="str">
-        <v>50</v>
+        <v>51.54</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>0xeBB36F543A6c3E09a06c937E86fB0930a6EdA151</v>
+        <v>0xAba474811CaEE0FfD4cAA44fECC15130246EF0c5</v>
       </c>
       <c r="B176" t="str">
-        <v>174.17</v>
+        <v>67.15</v>
       </c>
       <c r="C176" t="str">
-        <v>174.17</v>
+        <v>67.15</v>
       </c>
       <c r="D176" t="str">
-        <v>0</v>
+        <v>41.89</v>
       </c>
       <c r="E176" t="str">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
+        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
       </c>
       <c r="B177" t="str">
-        <v>2,888.92</v>
+        <v>146.95</v>
       </c>
       <c r="C177" t="str">
-        <v>2,888.92</v>
+        <v>146.95</v>
       </c>
       <c r="D177" t="str">
-        <v>2,487.91</v>
+        <v>91.67</v>
       </c>
       <c r="E177" t="str">
         <v>0</v>
@@ -10090,84 +13964,84 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
+        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
       </c>
       <c r="B178" t="str">
-        <v>2,888.92</v>
+        <v>29.68</v>
       </c>
       <c r="C178" t="str">
-        <v>2,888.92</v>
+        <v>29.68</v>
       </c>
       <c r="D178" t="str">
         <v>0</v>
       </c>
       <c r="E178" t="str">
-        <v>2,487.91</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>0x1A24A8CDa46ACac40606af1D233dAfF9AEe66e2f</v>
+        <v>0x886bEa30e61b20d47180418c86279a12708F6dC5</v>
       </c>
       <c r="B179" t="str">
-        <v>95.7</v>
+        <v>1,603.08</v>
       </c>
       <c r="C179" t="str">
-        <v>95.7</v>
+        <v>1,603.08</v>
       </c>
       <c r="D179" t="str">
         <v>0</v>
       </c>
       <c r="E179" t="str">
-        <v>82.42</v>
+        <v>1,000</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>0xFa544d034dC07aD4Fa185ba769031a29Fbef5e36</v>
+        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
       </c>
       <c r="B180" t="str">
-        <v>18.81</v>
+        <v>558.62</v>
       </c>
       <c r="C180" t="str">
-        <v>18.81</v>
+        <v>558.62</v>
       </c>
       <c r="D180" t="str">
-        <v>0</v>
+        <v>348.47</v>
       </c>
       <c r="E180" t="str">
-        <v>16.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+        <v>0x413Af536E3D18D259A9b71B42AC66faC5aBa0Fbf</v>
       </c>
       <c r="B181" t="str">
-        <v>577,271.42</v>
+        <v>222.9</v>
       </c>
       <c r="C181" t="str">
-        <v>577,271.42</v>
+        <v>222.9</v>
       </c>
       <c r="D181" t="str">
-        <v>248,448.98</v>
+        <v>0</v>
       </c>
       <c r="E181" t="str">
-        <v>248,690.08</v>
+        <v>139.05</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>0x1B5f7cBb775f11BC5CFC4ac9dC1406Ef613F7A63</v>
+        <v>0x361631d54F49b6a4C19F033Ef507D67aC6BA1c0a</v>
       </c>
       <c r="B182" t="str">
-        <v>19.84</v>
+        <v>818.37</v>
       </c>
       <c r="C182" t="str">
-        <v>19.84</v>
+        <v>818.37</v>
       </c>
       <c r="D182" t="str">
-        <v>17.09</v>
+        <v>510.5</v>
       </c>
       <c r="E182" t="str">
         <v>0</v>
@@ -10175,67 +14049,67 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
+        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
       </c>
       <c r="B183" t="str">
-        <v>284.49</v>
+        <v>64,462.28</v>
       </c>
       <c r="C183" t="str">
-        <v>284.49</v>
+        <v>64,462.28</v>
       </c>
       <c r="D183" t="str">
-        <v>0</v>
+        <v>40,211.38</v>
       </c>
       <c r="E183" t="str">
-        <v>245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>0x27e0D3A0D88BACaD8720aa9c6Bf7e0d099f3bCEa</v>
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
       </c>
       <c r="B184" t="str">
-        <v>510</v>
+        <v>64,462.28</v>
       </c>
       <c r="C184" t="str">
-        <v>697.01</v>
+        <v>64,462.28</v>
       </c>
       <c r="D184" t="str">
-        <v>600.26</v>
+        <v>0</v>
       </c>
       <c r="E184" t="str">
-        <v>0</v>
+        <v>40,211.38</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+        <v>0x760d7E2525DDB8790d047CFF195b753F9dCCac41</v>
       </c>
       <c r="B185" t="str">
-        <v>54.32</v>
+        <v>83.64</v>
       </c>
       <c r="C185" t="str">
-        <v>54.32</v>
+        <v>83.64</v>
       </c>
       <c r="D185" t="str">
         <v>0</v>
       </c>
       <c r="E185" t="str">
-        <v>46.78</v>
+        <v>52.18</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
+        <v>0xb71A9245bC9D0f6b78c7b38527e939C4A0a2fa53</v>
       </c>
       <c r="B186" t="str">
-        <v>20,996.02</v>
+        <v>2,084.01</v>
       </c>
       <c r="C186" t="str">
-        <v>20,996.02</v>
+        <v>2,084.01</v>
       </c>
       <c r="D186" t="str">
-        <v>18,081.52</v>
+        <v>1,300</v>
       </c>
       <c r="E186" t="str">
         <v>0</v>
@@ -10243,50 +14117,50 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>0x4CEbE974145E6796dB356F3689082D2d1eEf02Bf</v>
+        <v>0x425F2F1287045bC9d04C0f933E7FdEdA4A2e5765</v>
       </c>
       <c r="B187" t="str">
-        <v>116.11</v>
+        <v>2,084.01</v>
       </c>
       <c r="C187" t="str">
-        <v>116.11</v>
+        <v>2,084.01</v>
       </c>
       <c r="D187" t="str">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E187" t="str">
-        <v>0</v>
+        <v>1,300</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
+        <v>0xDA9e27051edceb149021f81437A6de9959c11eDf</v>
       </c>
       <c r="B188" t="str">
-        <v>116.11</v>
+        <v>0</v>
       </c>
       <c r="C188" t="str">
-        <v>116.11</v>
+        <v>4,408.48</v>
       </c>
       <c r="D188" t="str">
         <v>0</v>
       </c>
       <c r="E188" t="str">
-        <v>100</v>
+        <v>2,750</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>0x880cd618B4cA66bBb8862558954d8473d7b0C867</v>
+        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
       </c>
       <c r="B189" t="str">
-        <v>1,285.92</v>
+        <v>41.95</v>
       </c>
       <c r="C189" t="str">
-        <v>1,285.92</v>
+        <v>41.95</v>
       </c>
       <c r="D189" t="str">
-        <v>1,107.42</v>
+        <v>26.17</v>
       </c>
       <c r="E189" t="str">
         <v>0</v>
@@ -10294,653 +14168,41 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>0x9ff812DfE804e2BF400Fd6fD22293203674DDdEe</v>
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
       </c>
       <c r="B190" t="str">
-        <v>50.47</v>
+        <v>16.2</v>
       </c>
       <c r="C190" t="str">
-        <v>50.47</v>
+        <v>16.2</v>
       </c>
       <c r="D190" t="str">
         <v>0</v>
       </c>
       <c r="E190" t="str">
-        <v>43.47</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>0x2728c19586e1eB6b2AA599c15fA1456426C7CC7C</v>
+        <v>Total</v>
       </c>
       <c r="B191" t="str">
-        <v>2,800.28</v>
+        <v>3,054,486.74</v>
       </c>
       <c r="C191" t="str">
-        <v>2,800.28</v>
+        <v>3,205,127.24</v>
       </c>
       <c r="D191" t="str">
-        <v>2,407.06</v>
+        <v>850,246.02</v>
       </c>
       <c r="E191" t="str">
-        <v>4.51</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="str">
-        <v>0x1893c5D2fb92D2AD0990943E952D8370bfBD9463</v>
-      </c>
-      <c r="B192" t="str">
-        <v>44.84</v>
-      </c>
-      <c r="C192" t="str">
-        <v>44.84</v>
-      </c>
-      <c r="D192" t="str">
-        <v>0</v>
-      </c>
-      <c r="E192" t="str">
-        <v>38.62</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="str">
-        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
-      </c>
-      <c r="B193" t="str">
-        <v>2,802.21</v>
-      </c>
-      <c r="C193" t="str">
-        <v>2,802.21</v>
-      </c>
-      <c r="D193" t="str">
-        <v>2,403.63</v>
-      </c>
-      <c r="E193" t="str">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="str">
-        <v>0x48A7209DD07Bc7409bF3f61820E1Ee9409F462e9</v>
-      </c>
-      <c r="B194" t="str">
-        <v>219.48</v>
-      </c>
-      <c r="C194" t="str">
-        <v>219.48</v>
-      </c>
-      <c r="D194" t="str">
-        <v>0</v>
-      </c>
-      <c r="E194" t="str">
-        <v>189.02</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="str">
-        <v>0xAE1aD5B0Cb04CFe479E9308006F2e0063Ab8E845</v>
-      </c>
-      <c r="B195" t="str">
-        <v>138.13</v>
-      </c>
-      <c r="C195" t="str">
-        <v>138.13</v>
-      </c>
-      <c r="D195" t="str">
-        <v>0</v>
-      </c>
-      <c r="E195" t="str">
-        <v>118.96</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="str">
-        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
-      </c>
-      <c r="B196" t="str">
-        <v>63.22</v>
-      </c>
-      <c r="C196" t="str">
-        <v>63.22</v>
-      </c>
-      <c r="D196" t="str">
-        <v>54.45</v>
-      </c>
-      <c r="E196" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="str">
-        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
-      </c>
-      <c r="B197" t="str">
-        <v>1,465.48</v>
-      </c>
-      <c r="C197" t="str">
-        <v>1,465.48</v>
-      </c>
-      <c r="D197" t="str">
-        <v>0</v>
-      </c>
-      <c r="E197" t="str">
-        <v>1,262.06</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="str">
-        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
-      </c>
-      <c r="B198" t="str">
-        <v>870.89</v>
-      </c>
-      <c r="C198" t="str">
-        <v>870.89</v>
-      </c>
-      <c r="D198" t="str">
-        <v>750</v>
-      </c>
-      <c r="E198" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="str">
-        <v>0xBe1f72dA08102c8B54EbCde91c68f07f759f2712</v>
-      </c>
-      <c r="B199" t="str">
-        <v>1,384.56</v>
-      </c>
-      <c r="C199" t="str">
-        <v>1,384.56</v>
-      </c>
-      <c r="D199" t="str">
-        <v>0</v>
-      </c>
-      <c r="E199" t="str">
-        <v>1,192.37</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="str">
-        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
-      </c>
-      <c r="B200" t="str">
-        <v>0</v>
-      </c>
-      <c r="C200" t="str">
-        <v>8.17</v>
-      </c>
-      <c r="D200" t="str">
-        <v>7.04</v>
-      </c>
-      <c r="E200" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="str">
-        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
-      </c>
-      <c r="B201" t="str">
-        <v>25.41</v>
-      </c>
-      <c r="C201" t="str">
-        <v>25.41</v>
-      </c>
-      <c r="D201" t="str">
-        <v>0</v>
-      </c>
-      <c r="E201" t="str">
-        <v>21.89</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="str">
-        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
-      </c>
-      <c r="B202" t="str">
-        <v>158.33</v>
-      </c>
-      <c r="C202" t="str">
-        <v>158.33</v>
-      </c>
-      <c r="D202" t="str">
-        <v>0</v>
-      </c>
-      <c r="E202" t="str">
-        <v>136.36</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="str">
-        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
-      </c>
-      <c r="B203" t="str">
-        <v>4,086.86</v>
-      </c>
-      <c r="C203" t="str">
-        <v>4,086.86</v>
-      </c>
-      <c r="D203" t="str">
-        <v>0</v>
-      </c>
-      <c r="E203" t="str">
-        <v>3,519.56</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="str">
-        <v>0xedaa63C95A0faB8e7Dc7A710f8b9Aa6ee461dAC7</v>
-      </c>
-      <c r="B204" t="str">
-        <v>1,051.88</v>
-      </c>
-      <c r="C204" t="str">
-        <v>1,051.88</v>
-      </c>
-      <c r="D204" t="str">
-        <v>905.87</v>
-      </c>
-      <c r="E204" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="str">
-        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
-      </c>
-      <c r="B205" t="str">
-        <v>1,051.88</v>
-      </c>
-      <c r="C205" t="str">
-        <v>1,051.88</v>
-      </c>
-      <c r="D205" t="str">
-        <v>0</v>
-      </c>
-      <c r="E205" t="str">
-        <v>905.87</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="str">
-        <v>0x361631d54F49b6a4C19F033Ef507D67aC6BA1c0a</v>
-      </c>
-      <c r="B206" t="str">
-        <v>470.31</v>
-      </c>
-      <c r="C206" t="str">
-        <v>470.31</v>
-      </c>
-      <c r="D206" t="str">
-        <v>405.03</v>
-      </c>
-      <c r="E206" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="str">
-        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
-      </c>
-      <c r="B207" t="str">
-        <v>1,527.44</v>
-      </c>
-      <c r="C207" t="str">
-        <v>1,527.44</v>
-      </c>
-      <c r="D207" t="str">
-        <v>0</v>
-      </c>
-      <c r="E207" t="str">
-        <v>1,315.42</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="str">
-        <v>0xa8CE35A87d51EaC37675c1Cf7C5d6435a3b2079A</v>
-      </c>
-      <c r="B208" t="str">
-        <v>2,813.1</v>
-      </c>
-      <c r="C208" t="str">
-        <v>2,813.1</v>
-      </c>
-      <c r="D208" t="str">
-        <v>0</v>
-      </c>
-      <c r="E208" t="str">
-        <v>2,422.61</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="str">
-        <v>0x46d47D232d27bdF83FEA707ffd9Ce3e175B2D1dE</v>
-      </c>
-      <c r="B209" t="str">
-        <v>1,161.18</v>
-      </c>
-      <c r="C209" t="str">
-        <v>1,161.18</v>
-      </c>
-      <c r="D209" t="str">
-        <v>0</v>
-      </c>
-      <c r="E209" t="str">
-        <v>1,000</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="str">
-        <v>0xb4903c3b44dA26bf38cD923C64c6Cdad18ED280E</v>
-      </c>
-      <c r="B210" t="str">
-        <v>1,910.1</v>
-      </c>
-      <c r="C210" t="str">
-        <v>1,910.1</v>
-      </c>
-      <c r="D210" t="str">
-        <v>1,644.96</v>
-      </c>
-      <c r="E210" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="str">
-        <v>0x9c6E23aC65D33b747B8c56C04db77d836c41Faf5</v>
-      </c>
-      <c r="B211" t="str">
-        <v>3,407.24</v>
-      </c>
-      <c r="C211" t="str">
-        <v>3,407.24</v>
-      </c>
-      <c r="D211" t="str">
-        <v>0</v>
-      </c>
-      <c r="E211" t="str">
-        <v>2,934.28</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="str">
-        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
-      </c>
-      <c r="B212" t="str">
-        <v>472.33</v>
-      </c>
-      <c r="C212" t="str">
-        <v>472.33</v>
-      </c>
-      <c r="D212" t="str">
-        <v>0</v>
-      </c>
-      <c r="E212" t="str">
-        <v>406.77</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="str">
-        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
-      </c>
-      <c r="B213" t="str">
-        <v>58.05</v>
-      </c>
-      <c r="C213" t="str">
-        <v>58.05</v>
-      </c>
-      <c r="D213" t="str">
-        <v>0</v>
-      </c>
-      <c r="E213" t="str">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="str">
-        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
-      </c>
-      <c r="B214" t="str">
-        <v>216.03</v>
-      </c>
-      <c r="C214" t="str">
-        <v>216.03</v>
-      </c>
-      <c r="D214" t="str">
-        <v>0</v>
-      </c>
-      <c r="E214" t="str">
-        <v>186.05</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="str">
-        <v>0xf74f5cF53A6746b1eddD9C7ea8Ab7447797c3D74</v>
-      </c>
-      <c r="B215" t="str">
-        <v>6,538.66</v>
-      </c>
-      <c r="C215" t="str">
-        <v>6,538.66</v>
-      </c>
-      <c r="D215" t="str">
-        <v>0</v>
-      </c>
-      <c r="E215" t="str">
-        <v>5,631.02</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="str">
-        <v>0x36413818a988749f40de4877B51f782126282a89</v>
-      </c>
-      <c r="B216" t="str">
-        <v>1,175.19</v>
-      </c>
-      <c r="C216" t="str">
-        <v>1,175.19</v>
-      </c>
-      <c r="D216" t="str">
-        <v>1,012.06</v>
-      </c>
-      <c r="E216" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="str">
-        <v>0x48682644c1e8529338e46e7DdabA4383C1fceBb1</v>
-      </c>
-      <c r="B217" t="str">
-        <v>2,128.64</v>
-      </c>
-      <c r="C217" t="str">
-        <v>2,128.64</v>
-      </c>
-      <c r="D217" t="str">
-        <v>0</v>
-      </c>
-      <c r="E217" t="str">
-        <v>1,833.16</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="str">
-        <v>0x9B275D3580D7db9613e14308C978e27134365828</v>
-      </c>
-      <c r="B218" t="str">
-        <v>410.52</v>
-      </c>
-      <c r="C218" t="str">
-        <v>410.52</v>
-      </c>
-      <c r="D218" t="str">
-        <v>353.54</v>
-      </c>
-      <c r="E218" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="str">
-        <v>0xf0eeE0837e8F4feaC444412991f7005B8dFFa305</v>
-      </c>
-      <c r="B219" t="str">
-        <v>270.81</v>
-      </c>
-      <c r="C219" t="str">
-        <v>270.81</v>
-      </c>
-      <c r="D219" t="str">
-        <v>0</v>
-      </c>
-      <c r="E219" t="str">
-        <v>233.22</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="str">
-        <v>0x3f80b42ae4B6a8701329682B5C66a2780917E5D0</v>
-      </c>
-      <c r="B220" t="str">
-        <v>32.95</v>
-      </c>
-      <c r="C220" t="str">
-        <v>32.95</v>
-      </c>
-      <c r="D220" t="str">
-        <v>0</v>
-      </c>
-      <c r="E220" t="str">
-        <v>28.38</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="str">
-        <v>0x041BbF8dAEE68Bc5D306B7775b8299b0026416b3</v>
-      </c>
-      <c r="B221" t="str">
-        <v>205.06</v>
-      </c>
-      <c r="C221" t="str">
-        <v>205.06</v>
-      </c>
-      <c r="D221" t="str">
-        <v>176.6</v>
-      </c>
-      <c r="E221" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="str">
-        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
-      </c>
-      <c r="B222" t="str">
-        <v>136.41</v>
-      </c>
-      <c r="C222" t="str">
-        <v>136.41</v>
-      </c>
-      <c r="D222" t="str">
-        <v>117.48</v>
-      </c>
-      <c r="E222" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="str">
-        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
-      </c>
-      <c r="B223" t="str">
-        <v>54.56</v>
-      </c>
-      <c r="C223" t="str">
-        <v>54.56</v>
-      </c>
-      <c r="D223" t="str">
-        <v>46.99</v>
-      </c>
-      <c r="E223" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="str">
-        <v>0x9fF7d51Cf6a3A12F2Cdd36035827037a35A4B139</v>
-      </c>
-      <c r="B224" t="str">
-        <v>17.58</v>
-      </c>
-      <c r="C224" t="str">
-        <v>17.58</v>
-      </c>
-      <c r="D224" t="str">
-        <v>0</v>
-      </c>
-      <c r="E224" t="str">
-        <v>15.14</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="str">
-        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
-      </c>
-      <c r="B225" t="str">
-        <v>1,102.89</v>
-      </c>
-      <c r="C225" t="str">
-        <v>1,102.89</v>
-      </c>
-      <c r="D225" t="str">
-        <v>0</v>
-      </c>
-      <c r="E225" t="str">
-        <v>949.8</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="str">
-        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
-      </c>
-      <c r="B226" t="str">
-        <v>11.14</v>
-      </c>
-      <c r="C226" t="str">
-        <v>11.14</v>
-      </c>
-      <c r="D226" t="str">
-        <v>9.6</v>
-      </c>
-      <c r="E226" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="str">
-        <v>Total</v>
-      </c>
-      <c r="B227" t="str">
-        <v>2,859,070.7</v>
-      </c>
-      <c r="C227" t="str">
-        <v>3,205,127.05</v>
-      </c>
-      <c r="D227" t="str">
-        <v>1,244,153.33</v>
-      </c>
-      <c r="E227" t="str">
-        <v>1,516,063.72</v>
+        <v>1,149,103.33</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E227"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E191"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/staker_incentives.xlsx
+++ b/staker_incentives.xlsx
@@ -14,6 +14,7 @@
     <sheet name="Blocks 70350764 - 70634063" sheetId="9" r:id="rId9"/>
     <sheet name="Blocks 70634064 - 70917849" sheetId="10" r:id="rId10"/>
     <sheet name="Blocks 70917850 - 71201412" sheetId="11" r:id="rId11"/>
+    <sheet name="Blocks 71201413 - 71485154" sheetId="12" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
@@ -10945,6 +10946,3267 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Staker Address</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Reward (ERC20 TEL)</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Uncapped Reward (ERC20 TEL)</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Staker Fees</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Referee Fees</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
+      </c>
+      <c r="B2" t="str">
+        <v>17,275.02</v>
+      </c>
+      <c r="C2" t="str">
+        <v>17,275.02</v>
+      </c>
+      <c r="D2" t="str">
+        <v>10,776.11</v>
+      </c>
+      <c r="E2" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+      </c>
+      <c r="B3" t="str">
+        <v>1,787.1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>1,787.1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>1,114.79</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+      </c>
+      <c r="B4" t="str">
+        <v>7,340.36</v>
+      </c>
+      <c r="C4" t="str">
+        <v>7,340.36</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1,966.51</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2,612.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>0x8060070C9811bdbAeA20fd829033CFC77b498d99</v>
+      </c>
+      <c r="B5" t="str">
+        <v>9,854.47</v>
+      </c>
+      <c r="C5" t="str">
+        <v>9,854.47</v>
+      </c>
+      <c r="D5" t="str">
+        <v>6,147.19</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
+      </c>
+      <c r="B6" t="str">
+        <v>171.35</v>
+      </c>
+      <c r="C6" t="str">
+        <v>171.35</v>
+      </c>
+      <c r="D6" t="str">
+        <v>106.89</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
+      </c>
+      <c r="B7" t="str">
+        <v>90.75</v>
+      </c>
+      <c r="C7" t="str">
+        <v>90.75</v>
+      </c>
+      <c r="D7" t="str">
+        <v>10.05</v>
+      </c>
+      <c r="E7" t="str">
+        <v>46.56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>0x620964B76328a1Ec5039361877eA64510A241139</v>
+      </c>
+      <c r="B8" t="str">
+        <v>240.46</v>
+      </c>
+      <c r="C8" t="str">
+        <v>240.46</v>
+      </c>
+      <c r="D8" t="str">
+        <v>150</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>0xDbfd080A579b7DFc5D99834C86ffd543b688c864</v>
+      </c>
+      <c r="B9" t="str">
+        <v>4,935.38</v>
+      </c>
+      <c r="C9" t="str">
+        <v>4,935.38</v>
+      </c>
+      <c r="D9" t="str">
+        <v>3,078.68</v>
+      </c>
+      <c r="E9" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+      </c>
+      <c r="B10" t="str">
+        <v>82,767.45</v>
+      </c>
+      <c r="C10" t="str">
+        <v>82,767.45</v>
+      </c>
+      <c r="D10" t="str">
+        <v>39,696.68</v>
+      </c>
+      <c r="E10" t="str">
+        <v>11,933.41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>0x79622cD63ff61A74613fAFB805B7f32D3cf78A95</v>
+      </c>
+      <c r="B11" t="str">
+        <v>65,288.78</v>
+      </c>
+      <c r="C11" t="str">
+        <v>65,288.78</v>
+      </c>
+      <c r="D11" t="str">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>40,726.95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
+      </c>
+      <c r="B12" t="str">
+        <v>6,253.39</v>
+      </c>
+      <c r="C12" t="str">
+        <v>6,253.39</v>
+      </c>
+      <c r="D12" t="str">
+        <v>3,900.85</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
+      </c>
+      <c r="B13" t="str">
+        <v>420.8</v>
+      </c>
+      <c r="C13" t="str">
+        <v>420.8</v>
+      </c>
+      <c r="D13" t="str">
+        <v>262.5</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
+      </c>
+      <c r="B14" t="str">
+        <v>11,643.48</v>
+      </c>
+      <c r="C14" t="str">
+        <v>11,643.48</v>
+      </c>
+      <c r="D14" t="str">
+        <v>4,105.78</v>
+      </c>
+      <c r="E14" t="str">
+        <v>3,157.39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
+      </c>
+      <c r="B15" t="str">
+        <v>18,156.8</v>
+      </c>
+      <c r="C15" t="str">
+        <v>18,156.8</v>
+      </c>
+      <c r="D15" t="str">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <v>11,326.16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>0xf6732447a0Da3D8973897e247cf04f53B87Cfa2e</v>
+      </c>
+      <c r="B16" t="str">
+        <v>76.45</v>
+      </c>
+      <c r="C16" t="str">
+        <v>76.45</v>
+      </c>
+      <c r="D16" t="str">
+        <v>47.69</v>
+      </c>
+      <c r="E16" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
+      </c>
+      <c r="B17" t="str">
+        <v>76.45</v>
+      </c>
+      <c r="C17" t="str">
+        <v>76.45</v>
+      </c>
+      <c r="D17" t="str">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <v>47.69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
+      </c>
+      <c r="B18" t="str">
+        <v>182.75</v>
+      </c>
+      <c r="C18" t="str">
+        <v>182.75</v>
+      </c>
+      <c r="D18" t="str">
+        <v>114</v>
+      </c>
+      <c r="E18" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
+      </c>
+      <c r="B19" t="str">
+        <v>396.41</v>
+      </c>
+      <c r="C19" t="str">
+        <v>396.41</v>
+      </c>
+      <c r="D19" t="str">
+        <v>133.28</v>
+      </c>
+      <c r="E19" t="str">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>0x2b7b77412BDb929a9f19584C9DC4657CCc5a7BFa</v>
+      </c>
+      <c r="B20" t="str">
+        <v>825.97</v>
+      </c>
+      <c r="C20" t="str">
+        <v>825.97</v>
+      </c>
+      <c r="D20" t="str">
+        <v>515.24</v>
+      </c>
+      <c r="E20" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
+      </c>
+      <c r="B21" t="str">
+        <v>1,231.6</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1,231.6</v>
+      </c>
+      <c r="D21" t="str">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <v>768.27</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>0xD1E51324E7F061311b80471B996d64fB837f1c55</v>
+      </c>
+      <c r="B22" t="str">
+        <v>22.6</v>
+      </c>
+      <c r="C22" t="str">
+        <v>22.6</v>
+      </c>
+      <c r="D22" t="str">
+        <v>14.1</v>
+      </c>
+      <c r="E22" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
+      </c>
+      <c r="B23" t="str">
+        <v>4,269.67</v>
+      </c>
+      <c r="C23" t="str">
+        <v>4,269.67</v>
+      </c>
+      <c r="D23" t="str">
+        <v>634.17</v>
+      </c>
+      <c r="E23" t="str">
+        <v>2,029.24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>0xc4b88bff8D047576eC693EaFA72482A5e8f0fd7A</v>
+      </c>
+      <c r="B24" t="str">
+        <v>154.26</v>
+      </c>
+      <c r="C24" t="str">
+        <v>154.26</v>
+      </c>
+      <c r="D24" t="str">
+        <v>96.23</v>
+      </c>
+      <c r="E24" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>0x04267804C32cb3E1A0eB23FD177F0aFE519a3Cc0</v>
+      </c>
+      <c r="B25" t="str">
+        <v>70.34</v>
+      </c>
+      <c r="C25" t="str">
+        <v>70.34</v>
+      </c>
+      <c r="D25" t="str">
+        <v>43.88</v>
+      </c>
+      <c r="E25" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
+      </c>
+      <c r="B26" t="str">
+        <v>98.86</v>
+      </c>
+      <c r="C26" t="str">
+        <v>98.86</v>
+      </c>
+      <c r="D26" t="str">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <v>61.67</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
+      </c>
+      <c r="B27" t="str">
+        <v>293.25</v>
+      </c>
+      <c r="C27" t="str">
+        <v>293.25</v>
+      </c>
+      <c r="D27" t="str">
+        <v>182.93</v>
+      </c>
+      <c r="E27" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
+      </c>
+      <c r="B28" t="str">
+        <v>293.25</v>
+      </c>
+      <c r="C28" t="str">
+        <v>293.25</v>
+      </c>
+      <c r="D28" t="str">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <v>182.93</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
+      </c>
+      <c r="B29" t="str">
+        <v>73.11</v>
+      </c>
+      <c r="C29" t="str">
+        <v>73.11</v>
+      </c>
+      <c r="D29" t="str">
+        <v>45.61</v>
+      </c>
+      <c r="E29" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
+      </c>
+      <c r="B30" t="str">
+        <v>996.99</v>
+      </c>
+      <c r="C30" t="str">
+        <v>996.99</v>
+      </c>
+      <c r="D30" t="str">
+        <v>520.98</v>
+      </c>
+      <c r="E30" t="str">
+        <v>100.94</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+      </c>
+      <c r="B31" t="str">
+        <v>835.17</v>
+      </c>
+      <c r="C31" t="str">
+        <v>835.17</v>
+      </c>
+      <c r="D31" t="str">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <v>520.98</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+      </c>
+      <c r="B32" t="str">
+        <v>19,181.62</v>
+      </c>
+      <c r="C32" t="str">
+        <v>19,181.62</v>
+      </c>
+      <c r="D32" t="str">
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <v>11,965.44</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
+      </c>
+      <c r="B33" t="str">
+        <v>7,368.71</v>
+      </c>
+      <c r="C33" t="str">
+        <v>7,368.71</v>
+      </c>
+      <c r="D33" t="str">
+        <v>200</v>
+      </c>
+      <c r="E33" t="str">
+        <v>4,396.58</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
+      </c>
+      <c r="B34" t="str">
+        <v>13,318.03</v>
+      </c>
+      <c r="C34" t="str">
+        <v>13,318.03</v>
+      </c>
+      <c r="D34" t="str">
+        <v>8,307.75</v>
+      </c>
+      <c r="E34" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>0x175780bC4d0A1bc28c46C3E71130C092790E7576</v>
+      </c>
+      <c r="B35" t="str">
+        <v>33.7</v>
+      </c>
+      <c r="C35" t="str">
+        <v>244.21</v>
+      </c>
+      <c r="D35" t="str">
+        <v>152.34</v>
+      </c>
+      <c r="E35" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>0x5099ccbB5FC14BF6ea516EE6CC3e6B209a7aA8C6</v>
+      </c>
+      <c r="B36" t="str">
+        <v>842.42</v>
+      </c>
+      <c r="C36" t="str">
+        <v>842.42</v>
+      </c>
+      <c r="D36" t="str">
+        <v>525.5</v>
+      </c>
+      <c r="E36" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+      </c>
+      <c r="B37" t="str">
+        <v>1,449.57</v>
+      </c>
+      <c r="C37" t="str">
+        <v>1,449.57</v>
+      </c>
+      <c r="D37" t="str">
+        <v>904.24</v>
+      </c>
+      <c r="E37" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+      </c>
+      <c r="B38" t="str">
+        <v>16,126.64</v>
+      </c>
+      <c r="C38" t="str">
+        <v>16,126.64</v>
+      </c>
+      <c r="D38" t="str">
+        <v>10,059.75</v>
+      </c>
+      <c r="E38" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+      </c>
+      <c r="B39" t="str">
+        <v>1,064.43</v>
+      </c>
+      <c r="C39" t="str">
+        <v>1,064.43</v>
+      </c>
+      <c r="D39" t="str">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <v>663.99</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>0x4b2FB0f43FD133B0814a0DD9E45fAe9d4d60c500</v>
+      </c>
+      <c r="B40" t="str">
+        <v>128.45</v>
+      </c>
+      <c r="C40" t="str">
+        <v>128.45</v>
+      </c>
+      <c r="D40" t="str">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <v>80.13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+      </c>
+      <c r="B41" t="str">
+        <v>12,896.67</v>
+      </c>
+      <c r="C41" t="str">
+        <v>12,896.67</v>
+      </c>
+      <c r="D41" t="str">
+        <v>175.61</v>
+      </c>
+      <c r="E41" t="str">
+        <v>7,869.3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
+      </c>
+      <c r="B42" t="str">
+        <v>1,775.85</v>
+      </c>
+      <c r="C42" t="str">
+        <v>1,775.85</v>
+      </c>
+      <c r="D42" t="str">
+        <v>1,107.77</v>
+      </c>
+      <c r="E42" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
+      </c>
+      <c r="B43" t="str">
+        <v>403.28</v>
+      </c>
+      <c r="C43" t="str">
+        <v>403.28</v>
+      </c>
+      <c r="D43" t="str">
+        <v>251.57</v>
+      </c>
+      <c r="E43" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>0xdd61cabccEa7933D2372606963D66F0924831D29</v>
+      </c>
+      <c r="B44" t="str">
+        <v>28.51</v>
+      </c>
+      <c r="C44" t="str">
+        <v>28.51</v>
+      </c>
+      <c r="D44" t="str">
+        <v>17.79</v>
+      </c>
+      <c r="E44" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>0xd3330632C0e3C5A54b4B80a4a13EF9389db19B5E</v>
+      </c>
+      <c r="B45" t="str">
+        <v>161.49</v>
+      </c>
+      <c r="C45" t="str">
+        <v>161.49</v>
+      </c>
+      <c r="D45" t="str">
+        <v>100.74</v>
+      </c>
+      <c r="E45" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+      </c>
+      <c r="B46" t="str">
+        <v>45.72</v>
+      </c>
+      <c r="C46" t="str">
+        <v>45.72</v>
+      </c>
+      <c r="D46" t="str">
+        <v>28.52</v>
+      </c>
+      <c r="E46" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
+      </c>
+      <c r="B47" t="str">
+        <v>73.48</v>
+      </c>
+      <c r="C47" t="str">
+        <v>73.48</v>
+      </c>
+      <c r="D47" t="str">
+        <v>45.84</v>
+      </c>
+      <c r="E47" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
+      </c>
+      <c r="B48" t="str">
+        <v>75.36</v>
+      </c>
+      <c r="C48" t="str">
+        <v>75.36</v>
+      </c>
+      <c r="D48" t="str">
+        <v>47.01</v>
+      </c>
+      <c r="E48" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>0x7A7d706D6578FE3DD1540dC69b31de7C8C0c20d2</v>
+      </c>
+      <c r="B49" t="str">
+        <v>83.64</v>
+      </c>
+      <c r="C49" t="str">
+        <v>83.64</v>
+      </c>
+      <c r="D49" t="str">
+        <v>52.18</v>
+      </c>
+      <c r="E49" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>0xeb9Ea287a5BD59731C6fbDEfd9e81dAa4Dc7eB11</v>
+      </c>
+      <c r="B50" t="str">
+        <v>10.14</v>
+      </c>
+      <c r="C50" t="str">
+        <v>10.14</v>
+      </c>
+      <c r="D50" t="str">
+        <v>6.33</v>
+      </c>
+      <c r="E50" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+      </c>
+      <c r="B51" t="str">
+        <v>537.22</v>
+      </c>
+      <c r="C51" t="str">
+        <v>537.22</v>
+      </c>
+      <c r="D51" t="str">
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <v>335.12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
+      </c>
+      <c r="B52" t="str">
+        <v>161.81</v>
+      </c>
+      <c r="C52" t="str">
+        <v>161.81</v>
+      </c>
+      <c r="D52" t="str">
+        <v>100.94</v>
+      </c>
+      <c r="E52" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
+      </c>
+      <c r="B53" t="str">
+        <v>113</v>
+      </c>
+      <c r="C53" t="str">
+        <v>113</v>
+      </c>
+      <c r="D53" t="str">
+        <v>70.49</v>
+      </c>
+      <c r="E53" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+      </c>
+      <c r="B54" t="str">
+        <v>588.9</v>
+      </c>
+      <c r="C54" t="str">
+        <v>588.9</v>
+      </c>
+      <c r="D54" t="str">
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <v>367.36</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
+      </c>
+      <c r="B55" t="str">
+        <v>6,477.86</v>
+      </c>
+      <c r="C55" t="str">
+        <v>6,477.86</v>
+      </c>
+      <c r="D55" t="str">
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <v>4,040.87</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
+      </c>
+      <c r="B56" t="str">
+        <v>17,275.02</v>
+      </c>
+      <c r="C56" t="str">
+        <v>17,275.02</v>
+      </c>
+      <c r="D56" t="str">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <v>10,776.11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>0xA2cE2556195590dd554691e99170115Fb2e9c2c2</v>
+      </c>
+      <c r="B57" t="str">
+        <v>40.15</v>
+      </c>
+      <c r="C57" t="str">
+        <v>40.15</v>
+      </c>
+      <c r="D57" t="str">
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <v>25.05</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>0x96366995FA701346A6f9bCD875E3E80D7421d8b3</v>
+      </c>
+      <c r="B58" t="str">
+        <v>391.84</v>
+      </c>
+      <c r="C58" t="str">
+        <v>391.84</v>
+      </c>
+      <c r="D58" t="str">
+        <v>244.43</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>0x41208763DD0C33e81cD7908ec88656ca7578d591</v>
+      </c>
+      <c r="B59" t="str">
+        <v>391.84</v>
+      </c>
+      <c r="C59" t="str">
+        <v>391.84</v>
+      </c>
+      <c r="D59" t="str">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <v>244.43</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>0x77729e862D70e8d6856Fb5f4786B02E626B9cf65</v>
+      </c>
+      <c r="B60" t="str">
+        <v>4,559.78</v>
+      </c>
+      <c r="C60" t="str">
+        <v>4,559.78</v>
+      </c>
+      <c r="D60" t="str">
+        <v>2,844.38</v>
+      </c>
+      <c r="E60" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+      </c>
+      <c r="B61" t="str">
+        <v>46,864.17</v>
+      </c>
+      <c r="C61" t="str">
+        <v>46,864.17</v>
+      </c>
+      <c r="D61" t="str">
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <v>29,233.73</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>0x77Fb1AeEEC6e3F3Cfe3a1f3aB87E7cB74872Db5D</v>
+      </c>
+      <c r="B62" t="str">
+        <v>171.09</v>
+      </c>
+      <c r="C62" t="str">
+        <v>171.09</v>
+      </c>
+      <c r="D62" t="str">
+        <v>106.73</v>
+      </c>
+      <c r="E62" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>0x180D009d48a8B254E88986BC83bF4214F7fBBafA</v>
+      </c>
+      <c r="B63" t="str">
+        <v>322.15</v>
+      </c>
+      <c r="C63" t="str">
+        <v>322.15</v>
+      </c>
+      <c r="D63" t="str">
+        <v>200.96</v>
+      </c>
+      <c r="E63" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>0xeB0F9489F9aeFB6Bbd8d7f1cc3620898E30b49c0</v>
+      </c>
+      <c r="B64" t="str">
+        <v>322.15</v>
+      </c>
+      <c r="C64" t="str">
+        <v>322.15</v>
+      </c>
+      <c r="D64" t="str">
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <v>200.96</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+      </c>
+      <c r="B65" t="str">
+        <v>484.05</v>
+      </c>
+      <c r="C65" t="str">
+        <v>484.05</v>
+      </c>
+      <c r="D65" t="str">
+        <v>301.95</v>
+      </c>
+      <c r="E65" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+      </c>
+      <c r="B66" t="str">
+        <v>164,684.21</v>
+      </c>
+      <c r="C66" t="str">
+        <v>244,589.23</v>
+      </c>
+      <c r="D66" t="str">
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <v>152,574.03</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>0x3f80b42ae4B6a8701329682B5C66a2780917E5D0</v>
+      </c>
+      <c r="B67" t="str">
+        <v>16.11</v>
+      </c>
+      <c r="C67" t="str">
+        <v>16.11</v>
+      </c>
+      <c r="D67" t="str">
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <v>10.05</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+      </c>
+      <c r="B68" t="str">
+        <v>1,209.2</v>
+      </c>
+      <c r="C68" t="str">
+        <v>1,209.2</v>
+      </c>
+      <c r="D68" t="str">
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <v>754.3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
+      </c>
+      <c r="B69" t="str">
+        <v>0</v>
+      </c>
+      <c r="C69" t="str">
+        <v>74.63</v>
+      </c>
+      <c r="D69" t="str">
+        <v>46.56</v>
+      </c>
+      <c r="E69" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
+      </c>
+      <c r="B70" t="str">
+        <v>4,608.87</v>
+      </c>
+      <c r="C70" t="str">
+        <v>4,608.87</v>
+      </c>
+      <c r="D70" t="str">
+        <v>2,875</v>
+      </c>
+      <c r="E70" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+      </c>
+      <c r="B71" t="str">
+        <v>35,023.22</v>
+      </c>
+      <c r="C71" t="str">
+        <v>35,023.22</v>
+      </c>
+      <c r="D71" t="str">
+        <v>1,428.66</v>
+      </c>
+      <c r="E71" t="str">
+        <v>20,418.72</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>0x5C55e86A38d24BE5fF7f12221BF674C95FB188a7</v>
+      </c>
+      <c r="B72" t="str">
+        <v>153.3</v>
+      </c>
+      <c r="C72" t="str">
+        <v>153.3</v>
+      </c>
+      <c r="D72" t="str">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <v>95.63</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+      </c>
+      <c r="B73" t="str">
+        <v>14,443.78</v>
+      </c>
+      <c r="C73" t="str">
+        <v>14,443.78</v>
+      </c>
+      <c r="D73" t="str">
+        <v>9,009.99</v>
+      </c>
+      <c r="E73" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+      </c>
+      <c r="B74" t="str">
+        <v>37,220.36</v>
+      </c>
+      <c r="C74" t="str">
+        <v>37,220.36</v>
+      </c>
+      <c r="D74" t="str">
+        <v>23,217.95</v>
+      </c>
+      <c r="E74" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+      </c>
+      <c r="B75" t="str">
+        <v>0</v>
+      </c>
+      <c r="C75" t="str">
+        <v>37,220.36</v>
+      </c>
+      <c r="D75" t="str">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <v>23,217.95</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
+      </c>
+      <c r="B76" t="str">
+        <v>6,111.52</v>
+      </c>
+      <c r="C76" t="str">
+        <v>6,111.52</v>
+      </c>
+      <c r="D76" t="str">
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <v>3,812.35</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
+      </c>
+      <c r="B77" t="str">
+        <v>15,014.72</v>
+      </c>
+      <c r="C77" t="str">
+        <v>15,014.72</v>
+      </c>
+      <c r="D77" t="str">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <v>9,366.14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+      </c>
+      <c r="B78" t="str">
+        <v>756.46</v>
+      </c>
+      <c r="C78" t="str">
+        <v>756.46</v>
+      </c>
+      <c r="D78" t="str">
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <v>471.88</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+      </c>
+      <c r="B79" t="str">
+        <v>10,822.19</v>
+      </c>
+      <c r="C79" t="str">
+        <v>10,822.19</v>
+      </c>
+      <c r="D79" t="str">
+        <v>0</v>
+      </c>
+      <c r="E79" t="str">
+        <v>6,750.85</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
+      </c>
+      <c r="B80" t="str">
+        <v>420.8</v>
+      </c>
+      <c r="C80" t="str">
+        <v>420.8</v>
+      </c>
+      <c r="D80" t="str">
+        <v>0</v>
+      </c>
+      <c r="E80" t="str">
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>0x7062f97091BaD1bc5086aeE9AA13dbDEC17AA148</v>
+      </c>
+      <c r="B81" t="str">
+        <v>1,490.46</v>
+      </c>
+      <c r="C81" t="str">
+        <v>1,490.46</v>
+      </c>
+      <c r="D81" t="str">
+        <v>929.75</v>
+      </c>
+      <c r="E81" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>0x9331C5f74A13ee04abDA206dceec4c82c9f6e19E</v>
+      </c>
+      <c r="B82" t="str">
+        <v>1,490.46</v>
+      </c>
+      <c r="C82" t="str">
+        <v>1,490.46</v>
+      </c>
+      <c r="D82" t="str">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <v>929.75</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
+      </c>
+      <c r="B83" t="str">
+        <v>1,565.79</v>
+      </c>
+      <c r="C83" t="str">
+        <v>1,565.79</v>
+      </c>
+      <c r="D83" t="str">
+        <v>0</v>
+      </c>
+      <c r="E83" t="str">
+        <v>976.74</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+      </c>
+      <c r="B84" t="str">
+        <v>2,560.7</v>
+      </c>
+      <c r="C84" t="str">
+        <v>2,560.7</v>
+      </c>
+      <c r="D84" t="str">
+        <v>890.4</v>
+      </c>
+      <c r="E84" t="str">
+        <v>706.96</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
+      </c>
+      <c r="B85" t="str">
+        <v>4,166.19</v>
+      </c>
+      <c r="C85" t="str">
+        <v>4,166.19</v>
+      </c>
+      <c r="D85" t="str">
+        <v>431.95</v>
+      </c>
+      <c r="E85" t="str">
+        <v>2,166.91</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+      </c>
+      <c r="B86" t="str">
+        <v>4,166.19</v>
+      </c>
+      <c r="C86" t="str">
+        <v>4,166.19</v>
+      </c>
+      <c r="D86" t="str">
+        <v>2,166.91</v>
+      </c>
+      <c r="E86" t="str">
+        <v>431.95</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>0x2731b9BC4c6AC6287996741A5A87D6E51D18B2EB</v>
+      </c>
+      <c r="B87" t="str">
+        <v>825.97</v>
+      </c>
+      <c r="C87" t="str">
+        <v>825.97</v>
+      </c>
+      <c r="D87" t="str">
+        <v>0</v>
+      </c>
+      <c r="E87" t="str">
+        <v>515.24</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
+      </c>
+      <c r="B88" t="str">
+        <v>353.64</v>
+      </c>
+      <c r="C88" t="str">
+        <v>353.64</v>
+      </c>
+      <c r="D88" t="str">
+        <v>220.6</v>
+      </c>
+      <c r="E88" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>0x73755c77A68017d6E755Ac0cE9df5EA7c2aF8F75</v>
+      </c>
+      <c r="B89" t="str">
+        <v>0</v>
+      </c>
+      <c r="C89" t="str">
+        <v>24,252.5</v>
+      </c>
+      <c r="D89" t="str">
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <v>15,128.64</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>0x48A7209DD07Bc7409bF3f61820E1Ee9409F462e9</v>
+      </c>
+      <c r="B90" t="str">
+        <v>155.62</v>
+      </c>
+      <c r="C90" t="str">
+        <v>155.62</v>
+      </c>
+      <c r="D90" t="str">
+        <v>97.08</v>
+      </c>
+      <c r="E90" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
+      </c>
+      <c r="B91" t="str">
+        <v>232.55</v>
+      </c>
+      <c r="C91" t="str">
+        <v>232.55</v>
+      </c>
+      <c r="D91" t="str">
+        <v>145.07</v>
+      </c>
+      <c r="E91" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
+      </c>
+      <c r="B92" t="str">
+        <v>232.55</v>
+      </c>
+      <c r="C92" t="str">
+        <v>232.55</v>
+      </c>
+      <c r="D92" t="str">
+        <v>0</v>
+      </c>
+      <c r="E92" t="str">
+        <v>145.07</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+      </c>
+      <c r="B93" t="str">
+        <v>65,725.86</v>
+      </c>
+      <c r="C93" t="str">
+        <v>65,725.86</v>
+      </c>
+      <c r="D93" t="str">
+        <v>0</v>
+      </c>
+      <c r="E93" t="str">
+        <v>40,999.6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
+      </c>
+      <c r="B94" t="str">
+        <v>1.53</v>
+      </c>
+      <c r="C94" t="str">
+        <v>1.53</v>
+      </c>
+      <c r="D94" t="str">
+        <v>0.96</v>
+      </c>
+      <c r="E94" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
+      </c>
+      <c r="B95" t="str">
+        <v>73.11</v>
+      </c>
+      <c r="C95" t="str">
+        <v>73.11</v>
+      </c>
+      <c r="D95" t="str">
+        <v>0</v>
+      </c>
+      <c r="E95" t="str">
+        <v>45.61</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
+      </c>
+      <c r="B96" t="str">
+        <v>985.3</v>
+      </c>
+      <c r="C96" t="str">
+        <v>985.3</v>
+      </c>
+      <c r="D96" t="str">
+        <v>614.63</v>
+      </c>
+      <c r="E96" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
+      </c>
+      <c r="B97" t="str">
+        <v>0</v>
+      </c>
+      <c r="C97" t="str">
+        <v>985.3</v>
+      </c>
+      <c r="D97" t="str">
+        <v>0</v>
+      </c>
+      <c r="E97" t="str">
+        <v>614.63</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
+      </c>
+      <c r="B98" t="str">
+        <v>3,041.59</v>
+      </c>
+      <c r="C98" t="str">
+        <v>3,041.59</v>
+      </c>
+      <c r="D98" t="str">
+        <v>1,897.34</v>
+      </c>
+      <c r="E98" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+      </c>
+      <c r="B99" t="str">
+        <v>11,896.48</v>
+      </c>
+      <c r="C99" t="str">
+        <v>11,896.48</v>
+      </c>
+      <c r="D99" t="str">
+        <v>5,000</v>
+      </c>
+      <c r="E99" t="str">
+        <v>2,420.99</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+      </c>
+      <c r="B100" t="str">
+        <v>1,066.06</v>
+      </c>
+      <c r="C100" t="str">
+        <v>1,066.06</v>
+      </c>
+      <c r="D100" t="str">
+        <v>0</v>
+      </c>
+      <c r="E100" t="str">
+        <v>665.01</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
+      </c>
+      <c r="B101" t="str">
+        <v>19,171.47</v>
+      </c>
+      <c r="C101" t="str">
+        <v>19,171.47</v>
+      </c>
+      <c r="D101" t="str">
+        <v>11,959.11</v>
+      </c>
+      <c r="E101" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+      </c>
+      <c r="B102" t="str">
+        <v>16,545.3</v>
+      </c>
+      <c r="C102" t="str">
+        <v>16,545.3</v>
+      </c>
+      <c r="D102" t="str">
+        <v>8,028.02</v>
+      </c>
+      <c r="E102" t="str">
+        <v>2,292.89</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+      </c>
+      <c r="B103" t="str">
+        <v>15,095.72</v>
+      </c>
+      <c r="C103" t="str">
+        <v>15,095.72</v>
+      </c>
+      <c r="D103" t="str">
+        <v>1,388.65</v>
+      </c>
+      <c r="E103" t="str">
+        <v>8,028.02</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
+      </c>
+      <c r="B104" t="str">
+        <v>1,634.23</v>
+      </c>
+      <c r="C104" t="str">
+        <v>1,634.23</v>
+      </c>
+      <c r="D104" t="str">
+        <v>0</v>
+      </c>
+      <c r="E104" t="str">
+        <v>1,019.43</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>0xdD40bFeDDd1511322A763a82e31Ef3e401415927</v>
+      </c>
+      <c r="B105" t="str">
+        <v>348.36</v>
+      </c>
+      <c r="C105" t="str">
+        <v>348.36</v>
+      </c>
+      <c r="D105" t="str">
+        <v>217.31</v>
+      </c>
+      <c r="E105" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>0xfA9FBD6360692a1b23b84A9dDFf63ed77faF58c9</v>
+      </c>
+      <c r="B106" t="str">
+        <v>415.51</v>
+      </c>
+      <c r="C106" t="str">
+        <v>415.51</v>
+      </c>
+      <c r="D106" t="str">
+        <v>0</v>
+      </c>
+      <c r="E106" t="str">
+        <v>259.2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
+      </c>
+      <c r="B107" t="str">
+        <v>0</v>
+      </c>
+      <c r="C107" t="str">
+        <v>801.54</v>
+      </c>
+      <c r="D107" t="str">
+        <v>500</v>
+      </c>
+      <c r="E107" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+      </c>
+      <c r="B108" t="str">
+        <v>16,120.88</v>
+      </c>
+      <c r="C108" t="str">
+        <v>16,120.88</v>
+      </c>
+      <c r="D108" t="str">
+        <v>10,056.16</v>
+      </c>
+      <c r="E108" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>0xe23bc0609A8Df4EA2A597AEAAFcBF421BFfBDCFd</v>
+      </c>
+      <c r="B109" t="str">
+        <v>1,133.31</v>
+      </c>
+      <c r="C109" t="str">
+        <v>1,133.31</v>
+      </c>
+      <c r="D109" t="str">
+        <v>706.96</v>
+      </c>
+      <c r="E109" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+      </c>
+      <c r="B110" t="str">
+        <v>471.43</v>
+      </c>
+      <c r="C110" t="str">
+        <v>471.43</v>
+      </c>
+      <c r="D110" t="str">
+        <v>294.08</v>
+      </c>
+      <c r="E110" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
+      </c>
+      <c r="B111" t="str">
+        <v>1,474.32</v>
+      </c>
+      <c r="C111" t="str">
+        <v>1,474.32</v>
+      </c>
+      <c r="D111" t="str">
+        <v>0</v>
+      </c>
+      <c r="E111" t="str">
+        <v>919.68</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>0x3d1F678EBd71CA033f21D6B1B5B0781a66537447</v>
+      </c>
+      <c r="B112" t="str">
+        <v>2,416.45</v>
+      </c>
+      <c r="C112" t="str">
+        <v>2,416.45</v>
+      </c>
+      <c r="D112" t="str">
+        <v>0</v>
+      </c>
+      <c r="E112" t="str">
+        <v>1,507.38</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
+      </c>
+      <c r="B113" t="str">
+        <v>2,451.5</v>
+      </c>
+      <c r="C113" t="str">
+        <v>2,451.5</v>
+      </c>
+      <c r="D113" t="str">
+        <v>1,529.24</v>
+      </c>
+      <c r="E113" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>0xC44b6fcf320C7A15f288D3792E5BBF7D770e25c4</v>
+      </c>
+      <c r="B114" t="str">
+        <v>53.97</v>
+      </c>
+      <c r="C114" t="str">
+        <v>53.97</v>
+      </c>
+      <c r="D114" t="str">
+        <v>33.67</v>
+      </c>
+      <c r="E114" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>0x9C0557216e919eDaCCc56037c66A5fAC1D41D82a</v>
+      </c>
+      <c r="B115" t="str">
+        <v>53.97</v>
+      </c>
+      <c r="C115" t="str">
+        <v>53.97</v>
+      </c>
+      <c r="D115" t="str">
+        <v>0</v>
+      </c>
+      <c r="E115" t="str">
+        <v>33.67</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
+      </c>
+      <c r="B116" t="str">
+        <v>1,339.93</v>
+      </c>
+      <c r="C116" t="str">
+        <v>1,339.93</v>
+      </c>
+      <c r="D116" t="str">
+        <v>835.85</v>
+      </c>
+      <c r="E116" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
+      </c>
+      <c r="B117" t="str">
+        <v>1,339.93</v>
+      </c>
+      <c r="C117" t="str">
+        <v>1,339.93</v>
+      </c>
+      <c r="D117" t="str">
+        <v>0</v>
+      </c>
+      <c r="E117" t="str">
+        <v>835.85</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>0xB19c1b3cEc4c5bD6DCA220A4f59de9EC681e9211</v>
+      </c>
+      <c r="B118" t="str">
+        <v>0</v>
+      </c>
+      <c r="C118" t="str">
+        <v>244.21</v>
+      </c>
+      <c r="D118" t="str">
+        <v>0</v>
+      </c>
+      <c r="E118" t="str">
+        <v>152.34</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
+      </c>
+      <c r="B119" t="str">
+        <v>20,038.57</v>
+      </c>
+      <c r="C119" t="str">
+        <v>20,038.57</v>
+      </c>
+      <c r="D119" t="str">
+        <v>0</v>
+      </c>
+      <c r="E119" t="str">
+        <v>12,500</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
+      </c>
+      <c r="B120" t="str">
+        <v>0</v>
+      </c>
+      <c r="C120" t="str">
+        <v>2,290.26</v>
+      </c>
+      <c r="D120" t="str">
+        <v>0</v>
+      </c>
+      <c r="E120" t="str">
+        <v>1,428.66</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>0xEE6cafF44C45094a0a0Dd7dD2235f534Fa1EBa3F</v>
+      </c>
+      <c r="B121" t="str">
+        <v>1,309.76</v>
+      </c>
+      <c r="C121" t="str">
+        <v>1,309.76</v>
+      </c>
+      <c r="D121" t="str">
+        <v>0</v>
+      </c>
+      <c r="E121" t="str">
+        <v>817.03</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+      </c>
+      <c r="B122" t="str">
+        <v>8,090.78</v>
+      </c>
+      <c r="C122" t="str">
+        <v>8,090.78</v>
+      </c>
+      <c r="D122" t="str">
+        <v>0</v>
+      </c>
+      <c r="E122" t="str">
+        <v>5,047.01</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>0x0fA1AfF9540786DCad9196e0676e2e4423317FAf</v>
+      </c>
+      <c r="B123" t="str">
+        <v>10,583.23</v>
+      </c>
+      <c r="C123" t="str">
+        <v>10,583.23</v>
+      </c>
+      <c r="D123" t="str">
+        <v>6,601.79</v>
+      </c>
+      <c r="E123" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
+      </c>
+      <c r="B124" t="str">
+        <v>10,583.23</v>
+      </c>
+      <c r="C124" t="str">
+        <v>10,583.23</v>
+      </c>
+      <c r="D124" t="str">
+        <v>0</v>
+      </c>
+      <c r="E124" t="str">
+        <v>6,601.79</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
+      </c>
+      <c r="B125" t="str">
+        <v>3,212.98</v>
+      </c>
+      <c r="C125" t="str">
+        <v>3,212.98</v>
+      </c>
+      <c r="D125" t="str">
+        <v>2,004.25</v>
+      </c>
+      <c r="E125" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>0xE34bBD8d72B7Ffe5ad2e84CE93e3A07581De2e50</v>
+      </c>
+      <c r="B126" t="str">
+        <v>0</v>
+      </c>
+      <c r="C126" t="str">
+        <v>144.27</v>
+      </c>
+      <c r="D126" t="str">
+        <v>0</v>
+      </c>
+      <c r="E126" t="str">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>0x69f96f2A5Cdd84E574dB2a353880095988243417</v>
+      </c>
+      <c r="B127" t="str">
+        <v>0</v>
+      </c>
+      <c r="C127" t="str">
+        <v>56.1</v>
+      </c>
+      <c r="D127" t="str">
+        <v>35</v>
+      </c>
+      <c r="E127" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>0xdE976b1178696723F86102aaf17Ddd70522908dA</v>
+      </c>
+      <c r="B128" t="str">
+        <v>801.54</v>
+      </c>
+      <c r="C128" t="str">
+        <v>801.54</v>
+      </c>
+      <c r="D128" t="str">
+        <v>500</v>
+      </c>
+      <c r="E128" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>0x96f194Cf1c9e5eE23B4D96785791F468F6A9C98e</v>
+      </c>
+      <c r="B129" t="str">
+        <v>8,015.42</v>
+      </c>
+      <c r="C129" t="str">
+        <v>8,015.42</v>
+      </c>
+      <c r="D129" t="str">
+        <v>0</v>
+      </c>
+      <c r="E129" t="str">
+        <v>5,000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
+      </c>
+      <c r="B130" t="str">
+        <v>2,344.67</v>
+      </c>
+      <c r="C130" t="str">
+        <v>2,344.67</v>
+      </c>
+      <c r="D130" t="str">
+        <v>0</v>
+      </c>
+      <c r="E130" t="str">
+        <v>1,462.6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
+      </c>
+      <c r="B131" t="str">
+        <v>139.72</v>
+      </c>
+      <c r="C131" t="str">
+        <v>139.72</v>
+      </c>
+      <c r="D131" t="str">
+        <v>87.16</v>
+      </c>
+      <c r="E131" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+      </c>
+      <c r="B132" t="str">
+        <v>139.72</v>
+      </c>
+      <c r="C132" t="str">
+        <v>139.72</v>
+      </c>
+      <c r="D132" t="str">
+        <v>0</v>
+      </c>
+      <c r="E132" t="str">
+        <v>87.16</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
+      </c>
+      <c r="B133" t="str">
+        <v>175.71</v>
+      </c>
+      <c r="C133" t="str">
+        <v>175.71</v>
+      </c>
+      <c r="D133" t="str">
+        <v>87.98</v>
+      </c>
+      <c r="E133" t="str">
+        <v>21.63</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>0x36413818a988749f40de4877B51f782126282a89</v>
+      </c>
+      <c r="B134" t="str">
+        <v>1,909.56</v>
+      </c>
+      <c r="C134" t="str">
+        <v>1,909.56</v>
+      </c>
+      <c r="D134" t="str">
+        <v>1,191.18</v>
+      </c>
+      <c r="E134" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>0xd092C607a92c75de3bB1240494C4822Bf3766D46</v>
+      </c>
+      <c r="B135" t="str">
+        <v>155.29</v>
+      </c>
+      <c r="C135" t="str">
+        <v>155.29</v>
+      </c>
+      <c r="D135" t="str">
+        <v>96.87</v>
+      </c>
+      <c r="E135" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
+      </c>
+      <c r="B136" t="str">
+        <v>7,749.78</v>
+      </c>
+      <c r="C136" t="str">
+        <v>7,749.78</v>
+      </c>
+      <c r="D136" t="str">
+        <v>0</v>
+      </c>
+      <c r="E136" t="str">
+        <v>4,834.29</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>0xAD5c21611Ea4790991c40BFD8e0888e012D7162E</v>
+      </c>
+      <c r="B137" t="str">
+        <v>915.23</v>
+      </c>
+      <c r="C137" t="str">
+        <v>915.23</v>
+      </c>
+      <c r="D137" t="str">
+        <v>570.92</v>
+      </c>
+      <c r="E137" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+      </c>
+      <c r="B138" t="str">
+        <v>915.23</v>
+      </c>
+      <c r="C138" t="str">
+        <v>915.23</v>
+      </c>
+      <c r="D138" t="str">
+        <v>0</v>
+      </c>
+      <c r="E138" t="str">
+        <v>570.92</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
+      </c>
+      <c r="B139" t="str">
+        <v>5,371.71</v>
+      </c>
+      <c r="C139" t="str">
+        <v>5,371.71</v>
+      </c>
+      <c r="D139" t="str">
+        <v>3,350.86</v>
+      </c>
+      <c r="E139" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>0x04d9f35C7c292ca2c75C498563b48123C0662e19</v>
+      </c>
+      <c r="B140" t="str">
+        <v>2,471.09</v>
+      </c>
+      <c r="C140" t="str">
+        <v>2,471.09</v>
+      </c>
+      <c r="D140" t="str">
+        <v>1,541.46</v>
+      </c>
+      <c r="E140" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+      </c>
+      <c r="B141" t="str">
+        <v>1,064.43</v>
+      </c>
+      <c r="C141" t="str">
+        <v>1,064.43</v>
+      </c>
+      <c r="D141" t="str">
+        <v>663.99</v>
+      </c>
+      <c r="E141" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+      </c>
+      <c r="B142" t="str">
+        <v>957,107.45</v>
+      </c>
+      <c r="C142" t="str">
+        <v>957,107.45</v>
+      </c>
+      <c r="D142" t="str">
+        <v>298,866.65</v>
+      </c>
+      <c r="E142" t="str">
+        <v>298,174.11</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+      </c>
+      <c r="B143" t="str">
+        <v>957,107.45</v>
+      </c>
+      <c r="C143" t="str">
+        <v>957,107.45</v>
+      </c>
+      <c r="D143" t="str">
+        <v>298,174.11</v>
+      </c>
+      <c r="E143" t="str">
+        <v>298,866.65</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>0xfFbea98964b8683427F5c3CFFbddcDA07E40caD4</v>
+      </c>
+      <c r="B144" t="str">
+        <v>24.04</v>
+      </c>
+      <c r="C144" t="str">
+        <v>24.04</v>
+      </c>
+      <c r="D144" t="str">
+        <v>15</v>
+      </c>
+      <c r="E144" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>0x54bE4074E027546F3De714a350782b380ab2B513</v>
+      </c>
+      <c r="B145" t="str">
+        <v>24.04</v>
+      </c>
+      <c r="C145" t="str">
+        <v>24.04</v>
+      </c>
+      <c r="D145" t="str">
+        <v>0</v>
+      </c>
+      <c r="E145" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+      </c>
+      <c r="B146" t="str">
+        <v>492.72</v>
+      </c>
+      <c r="C146" t="str">
+        <v>492.72</v>
+      </c>
+      <c r="D146" t="str">
+        <v>0</v>
+      </c>
+      <c r="E146" t="str">
+        <v>307.36</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
+      </c>
+      <c r="B147" t="str">
+        <v>189.06</v>
+      </c>
+      <c r="C147" t="str">
+        <v>189.06</v>
+      </c>
+      <c r="D147" t="str">
+        <v>0</v>
+      </c>
+      <c r="E147" t="str">
+        <v>117.94</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
+      </c>
+      <c r="B148" t="str">
+        <v>71.43</v>
+      </c>
+      <c r="C148" t="str">
+        <v>71.43</v>
+      </c>
+      <c r="D148" t="str">
+        <v>44.56</v>
+      </c>
+      <c r="E148" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
+      </c>
+      <c r="B149" t="str">
+        <v>182.81</v>
+      </c>
+      <c r="C149" t="str">
+        <v>182.81</v>
+      </c>
+      <c r="D149" t="str">
+        <v>114.04</v>
+      </c>
+      <c r="E149" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
+      </c>
+      <c r="B150" t="str">
+        <v>182.81</v>
+      </c>
+      <c r="C150" t="str">
+        <v>182.81</v>
+      </c>
+      <c r="D150" t="str">
+        <v>0</v>
+      </c>
+      <c r="E150" t="str">
+        <v>114.04</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
+      </c>
+      <c r="B151" t="str">
+        <v>106.81</v>
+      </c>
+      <c r="C151" t="str">
+        <v>106.81</v>
+      </c>
+      <c r="D151" t="str">
+        <v>66.63</v>
+      </c>
+      <c r="E151" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>0xFa544d034dC07aD4Fa185ba769031a29Fbef5e36</v>
+      </c>
+      <c r="B152" t="str">
+        <v>106.81</v>
+      </c>
+      <c r="C152" t="str">
+        <v>106.81</v>
+      </c>
+      <c r="D152" t="str">
+        <v>0</v>
+      </c>
+      <c r="E152" t="str">
+        <v>66.63</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>0x25E9eA1a93D9e505cd7d056C1e1bA16789537EAb</v>
+      </c>
+      <c r="B153" t="str">
+        <v>6,905.51</v>
+      </c>
+      <c r="C153" t="str">
+        <v>6,905.51</v>
+      </c>
+      <c r="D153" t="str">
+        <v>507.82</v>
+      </c>
+      <c r="E153" t="str">
+        <v>3,799.82</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+      </c>
+      <c r="B154" t="str">
+        <v>438.87</v>
+      </c>
+      <c r="C154" t="str">
+        <v>438.87</v>
+      </c>
+      <c r="D154" t="str">
+        <v>273.77</v>
+      </c>
+      <c r="E154" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+      </c>
+      <c r="B155" t="str">
+        <v>3,862.55</v>
+      </c>
+      <c r="C155" t="str">
+        <v>3,862.55</v>
+      </c>
+      <c r="D155" t="str">
+        <v>2,409.45</v>
+      </c>
+      <c r="E155" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>0x4922dc29D2d0c725F542f5021D9353F3872F2dFF</v>
+      </c>
+      <c r="B156" t="str">
+        <v>2,003.85</v>
+      </c>
+      <c r="C156" t="str">
+        <v>2,003.85</v>
+      </c>
+      <c r="D156" t="str">
+        <v>1,250</v>
+      </c>
+      <c r="E156" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>0xF473Ea7dc6E82C348530FDE410bFF035bCe0B269</v>
+      </c>
+      <c r="B157" t="str">
+        <v>2,003.85</v>
+      </c>
+      <c r="C157" t="str">
+        <v>2,003.85</v>
+      </c>
+      <c r="D157" t="str">
+        <v>0</v>
+      </c>
+      <c r="E157" t="str">
+        <v>1,250</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>0x2abf42F330c60491E8A36B73c9F3F9Ed40CDa546</v>
+      </c>
+      <c r="B158" t="str">
+        <v>26,480.48</v>
+      </c>
+      <c r="C158" t="str">
+        <v>26,480.48</v>
+      </c>
+      <c r="D158" t="str">
+        <v>0</v>
+      </c>
+      <c r="E158" t="str">
+        <v>16,518.45</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+      </c>
+      <c r="B159" t="str">
+        <v>1,775.85</v>
+      </c>
+      <c r="C159" t="str">
+        <v>1,775.85</v>
+      </c>
+      <c r="D159" t="str">
+        <v>0</v>
+      </c>
+      <c r="E159" t="str">
+        <v>1,107.77</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
+      </c>
+      <c r="B160" t="str">
+        <v>160.3</v>
+      </c>
+      <c r="C160" t="str">
+        <v>160.3</v>
+      </c>
+      <c r="D160" t="str">
+        <v>0</v>
+      </c>
+      <c r="E160" t="str">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
+      </c>
+      <c r="B161" t="str">
+        <v>2,003.85</v>
+      </c>
+      <c r="C161" t="str">
+        <v>2,003.85</v>
+      </c>
+      <c r="D161" t="str">
+        <v>1,250</v>
+      </c>
+      <c r="E161" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
+      </c>
+      <c r="B162" t="str">
+        <v>2,003.85</v>
+      </c>
+      <c r="C162" t="str">
+        <v>2,003.85</v>
+      </c>
+      <c r="D162" t="str">
+        <v>0</v>
+      </c>
+      <c r="E162" t="str">
+        <v>1,250</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>0x7c8f1cdd0fCC84d9A0354B91Cf77507982ED31De</v>
+      </c>
+      <c r="B163" t="str">
+        <v>2.66</v>
+      </c>
+      <c r="C163" t="str">
+        <v>2.66</v>
+      </c>
+      <c r="D163" t="str">
+        <v>1.66</v>
+      </c>
+      <c r="E163" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>0xfC8B5e50e7aa48f71F422339e4c0040f7779C714</v>
+      </c>
+      <c r="B164" t="str">
+        <v>4,568.79</v>
+      </c>
+      <c r="C164" t="str">
+        <v>4,568.79</v>
+      </c>
+      <c r="D164" t="str">
+        <v>2,850</v>
+      </c>
+      <c r="E164" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
+      </c>
+      <c r="B165" t="str">
+        <v>1,061.38</v>
+      </c>
+      <c r="C165" t="str">
+        <v>1,061.38</v>
+      </c>
+      <c r="D165" t="str">
+        <v>662.09</v>
+      </c>
+      <c r="E165" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>0xC284bbe095d47DC05C9695Ed0aBA98Db088a993F</v>
+      </c>
+      <c r="B166" t="str">
+        <v>66.44</v>
+      </c>
+      <c r="C166" t="str">
+        <v>66.44</v>
+      </c>
+      <c r="D166" t="str">
+        <v>41.45</v>
+      </c>
+      <c r="E166" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+      </c>
+      <c r="B167" t="str">
+        <v>1,669.53</v>
+      </c>
+      <c r="C167" t="str">
+        <v>1,669.53</v>
+      </c>
+      <c r="D167" t="str">
+        <v>0</v>
+      </c>
+      <c r="E167" t="str">
+        <v>1,041.45</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>0x3e666FADbdC565692DEc4aB6A95CaaA708d28d76</v>
+      </c>
+      <c r="B168" t="str">
+        <v>519.41</v>
+      </c>
+      <c r="C168" t="str">
+        <v>519.41</v>
+      </c>
+      <c r="D168" t="str">
+        <v>324.01</v>
+      </c>
+      <c r="E168" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>0xd939730f3611112DaF234420f57Cfe0e3D3b16B3</v>
+      </c>
+      <c r="B169" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="C169" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="D169" t="str">
+        <v>0</v>
+      </c>
+      <c r="E169" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>0xb8e441ad9cA68bf92Da52A40BFBb03Bc6454ABB4</v>
+      </c>
+      <c r="B170" t="str">
+        <v>4.85</v>
+      </c>
+      <c r="C170" t="str">
+        <v>4.85</v>
+      </c>
+      <c r="D170" t="str">
+        <v>0</v>
+      </c>
+      <c r="E170" t="str">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
+      </c>
+      <c r="B171" t="str">
+        <v>0</v>
+      </c>
+      <c r="C171" t="str">
+        <v>47.32</v>
+      </c>
+      <c r="D171" t="str">
+        <v>29.52</v>
+      </c>
+      <c r="E171" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>0xa8f881849583f2dBC55f04433C62Edbc79f46286</v>
+      </c>
+      <c r="B172" t="str">
+        <v>29.81</v>
+      </c>
+      <c r="C172" t="str">
+        <v>29.81</v>
+      </c>
+      <c r="D172" t="str">
+        <v>18.6</v>
+      </c>
+      <c r="E172" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
+      </c>
+      <c r="B173" t="str">
+        <v>29.81</v>
+      </c>
+      <c r="C173" t="str">
+        <v>29.81</v>
+      </c>
+      <c r="D173" t="str">
+        <v>0</v>
+      </c>
+      <c r="E173" t="str">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+      </c>
+      <c r="B174" t="str">
+        <v>74.15</v>
+      </c>
+      <c r="C174" t="str">
+        <v>74.15</v>
+      </c>
+      <c r="D174" t="str">
+        <v>46.26</v>
+      </c>
+      <c r="E174" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>0x4e0F1063F13d020B1316791Ae56ea5a826aba501</v>
+      </c>
+      <c r="B175" t="str">
+        <v>82.62</v>
+      </c>
+      <c r="C175" t="str">
+        <v>82.62</v>
+      </c>
+      <c r="D175" t="str">
+        <v>0</v>
+      </c>
+      <c r="E175" t="str">
+        <v>51.54</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>0xAba474811CaEE0FfD4cAA44fECC15130246EF0c5</v>
+      </c>
+      <c r="B176" t="str">
+        <v>67.15</v>
+      </c>
+      <c r="C176" t="str">
+        <v>67.15</v>
+      </c>
+      <c r="D176" t="str">
+        <v>41.89</v>
+      </c>
+      <c r="E176" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
+      </c>
+      <c r="B177" t="str">
+        <v>146.95</v>
+      </c>
+      <c r="C177" t="str">
+        <v>146.95</v>
+      </c>
+      <c r="D177" t="str">
+        <v>91.67</v>
+      </c>
+      <c r="E177" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+      </c>
+      <c r="B178" t="str">
+        <v>29.68</v>
+      </c>
+      <c r="C178" t="str">
+        <v>29.68</v>
+      </c>
+      <c r="D178" t="str">
+        <v>0</v>
+      </c>
+      <c r="E178" t="str">
+        <v>18.52</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>0x886bEa30e61b20d47180418c86279a12708F6dC5</v>
+      </c>
+      <c r="B179" t="str">
+        <v>1,603.08</v>
+      </c>
+      <c r="C179" t="str">
+        <v>1,603.08</v>
+      </c>
+      <c r="D179" t="str">
+        <v>0</v>
+      </c>
+      <c r="E179" t="str">
+        <v>1,000</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
+      </c>
+      <c r="B180" t="str">
+        <v>558.62</v>
+      </c>
+      <c r="C180" t="str">
+        <v>558.62</v>
+      </c>
+      <c r="D180" t="str">
+        <v>348.47</v>
+      </c>
+      <c r="E180" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>0x413Af536E3D18D259A9b71B42AC66faC5aBa0Fbf</v>
+      </c>
+      <c r="B181" t="str">
+        <v>222.9</v>
+      </c>
+      <c r="C181" t="str">
+        <v>222.9</v>
+      </c>
+      <c r="D181" t="str">
+        <v>0</v>
+      </c>
+      <c r="E181" t="str">
+        <v>139.05</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>0x361631d54F49b6a4C19F033Ef507D67aC6BA1c0a</v>
+      </c>
+      <c r="B182" t="str">
+        <v>818.37</v>
+      </c>
+      <c r="C182" t="str">
+        <v>818.37</v>
+      </c>
+      <c r="D182" t="str">
+        <v>510.5</v>
+      </c>
+      <c r="E182" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+      </c>
+      <c r="B183" t="str">
+        <v>64,462.28</v>
+      </c>
+      <c r="C183" t="str">
+        <v>64,462.28</v>
+      </c>
+      <c r="D183" t="str">
+        <v>40,211.38</v>
+      </c>
+      <c r="E183" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+      </c>
+      <c r="B184" t="str">
+        <v>64,462.28</v>
+      </c>
+      <c r="C184" t="str">
+        <v>64,462.28</v>
+      </c>
+      <c r="D184" t="str">
+        <v>0</v>
+      </c>
+      <c r="E184" t="str">
+        <v>40,211.38</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>0x760d7E2525DDB8790d047CFF195b753F9dCCac41</v>
+      </c>
+      <c r="B185" t="str">
+        <v>83.64</v>
+      </c>
+      <c r="C185" t="str">
+        <v>83.64</v>
+      </c>
+      <c r="D185" t="str">
+        <v>0</v>
+      </c>
+      <c r="E185" t="str">
+        <v>52.18</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>0xb71A9245bC9D0f6b78c7b38527e939C4A0a2fa53</v>
+      </c>
+      <c r="B186" t="str">
+        <v>2,084.01</v>
+      </c>
+      <c r="C186" t="str">
+        <v>2,084.01</v>
+      </c>
+      <c r="D186" t="str">
+        <v>1,300</v>
+      </c>
+      <c r="E186" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>0x425F2F1287045bC9d04C0f933E7FdEdA4A2e5765</v>
+      </c>
+      <c r="B187" t="str">
+        <v>2,084.01</v>
+      </c>
+      <c r="C187" t="str">
+        <v>2,084.01</v>
+      </c>
+      <c r="D187" t="str">
+        <v>0</v>
+      </c>
+      <c r="E187" t="str">
+        <v>1,300</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>0xDA9e27051edceb149021f81437A6de9959c11eDf</v>
+      </c>
+      <c r="B188" t="str">
+        <v>0</v>
+      </c>
+      <c r="C188" t="str">
+        <v>4,408.48</v>
+      </c>
+      <c r="D188" t="str">
+        <v>0</v>
+      </c>
+      <c r="E188" t="str">
+        <v>2,750</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
+      </c>
+      <c r="B189" t="str">
+        <v>41.95</v>
+      </c>
+      <c r="C189" t="str">
+        <v>41.95</v>
+      </c>
+      <c r="D189" t="str">
+        <v>26.17</v>
+      </c>
+      <c r="E189" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+      </c>
+      <c r="B190" t="str">
+        <v>16.2</v>
+      </c>
+      <c r="C190" t="str">
+        <v>16.2</v>
+      </c>
+      <c r="D190" t="str">
+        <v>0</v>
+      </c>
+      <c r="E190" t="str">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B191" t="str">
+        <v>3,054,486.74</v>
+      </c>
+      <c r="C191" t="str">
+        <v>3,205,127.24</v>
+      </c>
+      <c r="D191" t="str">
+        <v>850,246.02</v>
+      </c>
+      <c r="E191" t="str">
+        <v>1,149,103.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E191"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E218"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -10972,84 +14234,84 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
+        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
       </c>
       <c r="B2" t="str">
-        <v>17,275.02</v>
+        <v>1,949.3</v>
       </c>
       <c r="C2" t="str">
-        <v>17,275.02</v>
+        <v>1,949.3</v>
       </c>
       <c r="D2" t="str">
-        <v>10,776.11</v>
+        <v>25</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>1,386.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
       </c>
       <c r="B3" t="str">
-        <v>1,787.1</v>
+        <v>439.54</v>
       </c>
       <c r="C3" t="str">
-        <v>1,787.1</v>
+        <v>439.54</v>
       </c>
       <c r="D3" t="str">
-        <v>1,114.79</v>
+        <v>187.18</v>
       </c>
       <c r="E3" t="str">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
       </c>
       <c r="B4" t="str">
-        <v>7,340.36</v>
+        <v>1,572.5</v>
       </c>
       <c r="C4" t="str">
-        <v>7,340.36</v>
+        <v>1,572.5</v>
       </c>
       <c r="D4" t="str">
-        <v>1,966.51</v>
+        <v>0</v>
       </c>
       <c r="E4" t="str">
-        <v>2,612.39</v>
+        <v>1,138.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0x8060070C9811bdbAeA20fd829033CFC77b498d99</v>
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
       </c>
       <c r="B5" t="str">
-        <v>9,854.47</v>
+        <v>10,534.25</v>
       </c>
       <c r="C5" t="str">
-        <v>9,854.47</v>
+        <v>10,534.25</v>
       </c>
       <c r="D5" t="str">
-        <v>6,147.19</v>
+        <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v>7,625.62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
+        <v>0x7308fC774925316052AD22Fbdc21f2a7FF4bDA49</v>
       </c>
       <c r="B6" t="str">
-        <v>171.35</v>
+        <v>0</v>
       </c>
       <c r="C6" t="str">
-        <v>171.35</v>
+        <v>733.98</v>
       </c>
       <c r="D6" t="str">
-        <v>106.89</v>
+        <v>531.32</v>
       </c>
       <c r="E6" t="str">
         <v>0</v>
@@ -11057,118 +14319,118 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
+        <v>0x8060070C9811bdbAeA20fd829033CFC77b498d99</v>
       </c>
       <c r="B7" t="str">
-        <v>90.75</v>
+        <v>0</v>
       </c>
       <c r="C7" t="str">
-        <v>90.75</v>
+        <v>11,500.15</v>
       </c>
       <c r="D7" t="str">
-        <v>10.05</v>
+        <v>8,324.82</v>
       </c>
       <c r="E7" t="str">
-        <v>46.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0x620964B76328a1Ec5039361877eA64510A241139</v>
+        <v>0xeb9Ea287a5BD59731C6fbDEfd9e81dAa4Dc7eB11</v>
       </c>
       <c r="B8" t="str">
-        <v>240.46</v>
+        <v>1,110.15</v>
       </c>
       <c r="C8" t="str">
-        <v>240.46</v>
+        <v>1,110.15</v>
       </c>
       <c r="D8" t="str">
-        <v>150</v>
+        <v>724.97</v>
       </c>
       <c r="E8" t="str">
-        <v>0</v>
+        <v>78.66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0xDbfd080A579b7DFc5D99834C86ffd543b688c864</v>
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
       </c>
       <c r="B9" t="str">
-        <v>4,935.38</v>
+        <v>25,670.76</v>
       </c>
       <c r="C9" t="str">
-        <v>4,935.38</v>
+        <v>25,670.76</v>
       </c>
       <c r="D9" t="str">
-        <v>3,078.68</v>
+        <v>16.67</v>
       </c>
       <c r="E9" t="str">
-        <v>0</v>
+        <v>18,566.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
       </c>
       <c r="B10" t="str">
-        <v>82,767.45</v>
+        <v>12,484.56</v>
       </c>
       <c r="C10" t="str">
-        <v>82,767.45</v>
+        <v>12,484.56</v>
       </c>
       <c r="D10" t="str">
-        <v>39,696.68</v>
+        <v>643.49</v>
       </c>
       <c r="E10" t="str">
-        <v>11,933.41</v>
+        <v>8,393.93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>0x79622cD63ff61A74613fAFB805B7f32D3cf78A95</v>
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
       </c>
       <c r="B11" t="str">
-        <v>65,288.78</v>
+        <v>406.07</v>
       </c>
       <c r="C11" t="str">
-        <v>65,288.78</v>
+        <v>406.07</v>
       </c>
       <c r="D11" t="str">
-        <v>0</v>
+        <v>293.95</v>
       </c>
       <c r="E11" t="str">
-        <v>40,726.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
       </c>
       <c r="B12" t="str">
-        <v>6,253.39</v>
+        <v>23,825.56</v>
       </c>
       <c r="C12" t="str">
-        <v>6,253.39</v>
+        <v>23,825.56</v>
       </c>
       <c r="D12" t="str">
-        <v>3,900.85</v>
+        <v>463.07</v>
       </c>
       <c r="E12" t="str">
-        <v>0</v>
+        <v>16,783.96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
+        <v>0x16eE201E4fD4418f47A6c7f45fB0Aaf8a61011Df</v>
       </c>
       <c r="B13" t="str">
-        <v>420.8</v>
+        <v>6,715.69</v>
       </c>
       <c r="C13" t="str">
-        <v>420.8</v>
+        <v>6,715.69</v>
       </c>
       <c r="D13" t="str">
-        <v>262.5</v>
+        <v>4,861.41</v>
       </c>
       <c r="E13" t="str">
         <v>0</v>
@@ -11176,84 +14438,84 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
+        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
       </c>
       <c r="B14" t="str">
-        <v>11,643.48</v>
+        <v>6,245.34</v>
       </c>
       <c r="C14" t="str">
-        <v>11,643.48</v>
+        <v>6,245.34</v>
       </c>
       <c r="D14" t="str">
-        <v>4,105.78</v>
+        <v>4,520.93</v>
       </c>
       <c r="E14" t="str">
-        <v>3,157.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
       </c>
       <c r="B15" t="str">
-        <v>18,156.8</v>
+        <v>59,882.96</v>
       </c>
       <c r="C15" t="str">
-        <v>18,156.8</v>
+        <v>59,882.96</v>
       </c>
       <c r="D15" t="str">
-        <v>0</v>
+        <v>16,490.01</v>
       </c>
       <c r="E15" t="str">
-        <v>11,326.16</v>
+        <v>26,858.53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>0xf6732447a0Da3D8973897e247cf04f53B87Cfa2e</v>
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
       </c>
       <c r="B16" t="str">
-        <v>76.45</v>
+        <v>16,154.14</v>
       </c>
       <c r="C16" t="str">
-        <v>76.45</v>
+        <v>16,154.14</v>
       </c>
       <c r="D16" t="str">
-        <v>47.69</v>
+        <v>6,819.79</v>
       </c>
       <c r="E16" t="str">
-        <v>0</v>
+        <v>4,874</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
+        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
       </c>
       <c r="B17" t="str">
-        <v>76.45</v>
+        <v>731.05</v>
       </c>
       <c r="C17" t="str">
-        <v>76.45</v>
+        <v>731.05</v>
       </c>
       <c r="D17" t="str">
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>47.69</v>
+        <v>529.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
+        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
       </c>
       <c r="B18" t="str">
-        <v>182.75</v>
+        <v>392.06</v>
       </c>
       <c r="C18" t="str">
-        <v>182.75</v>
+        <v>392.06</v>
       </c>
       <c r="D18" t="str">
-        <v>114</v>
+        <v>283.81</v>
       </c>
       <c r="E18" t="str">
         <v>0</v>
@@ -11261,67 +14523,67 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
       </c>
       <c r="B19" t="str">
-        <v>396.41</v>
+        <v>271.96</v>
       </c>
       <c r="C19" t="str">
-        <v>396.41</v>
+        <v>271.96</v>
       </c>
       <c r="D19" t="str">
-        <v>133.28</v>
+        <v>0</v>
       </c>
       <c r="E19" t="str">
-        <v>114</v>
+        <v>196.87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>0x2b7b77412BDb929a9f19584C9DC4657CCc5a7BFa</v>
+        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
       </c>
       <c r="B20" t="str">
-        <v>825.97</v>
+        <v>1,321.28</v>
       </c>
       <c r="C20" t="str">
-        <v>825.97</v>
+        <v>1,321.28</v>
       </c>
       <c r="D20" t="str">
-        <v>515.24</v>
+        <v>775.23</v>
       </c>
       <c r="E20" t="str">
-        <v>0</v>
+        <v>181.23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
+        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
       </c>
       <c r="B21" t="str">
-        <v>1,231.6</v>
+        <v>1,070.92</v>
       </c>
       <c r="C21" t="str">
-        <v>1,231.6</v>
+        <v>1,070.92</v>
       </c>
       <c r="D21" t="str">
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <v>768.27</v>
+        <v>775.23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>0xD1E51324E7F061311b80471B996d64fB837f1c55</v>
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
       </c>
       <c r="B22" t="str">
-        <v>22.6</v>
+        <v>1,472.24</v>
       </c>
       <c r="C22" t="str">
-        <v>22.6</v>
+        <v>1,472.24</v>
       </c>
       <c r="D22" t="str">
-        <v>14.1</v>
+        <v>1,065.74</v>
       </c>
       <c r="E22" t="str">
         <v>0</v>
@@ -11329,33 +14591,33 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
+        <v>0x942E746C384bec88Dfa6164e8d699858E9988FeB</v>
       </c>
       <c r="B23" t="str">
-        <v>4,269.67</v>
+        <v>611.53</v>
       </c>
       <c r="C23" t="str">
-        <v>4,269.67</v>
+        <v>611.53</v>
       </c>
       <c r="D23" t="str">
-        <v>634.17</v>
+        <v>442.68</v>
       </c>
       <c r="E23" t="str">
-        <v>2,029.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>0xc4b88bff8D047576eC693EaFA72482A5e8f0fd7A</v>
+        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
       </c>
       <c r="B24" t="str">
-        <v>154.26</v>
+        <v>225.91</v>
       </c>
       <c r="C24" t="str">
-        <v>154.26</v>
+        <v>225.91</v>
       </c>
       <c r="D24" t="str">
-        <v>96.23</v>
+        <v>163.54</v>
       </c>
       <c r="E24" t="str">
         <v>0</v>
@@ -11363,16 +14625,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>0x04267804C32cb3E1A0eB23FD177F0aFE519a3Cc0</v>
+        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
       </c>
       <c r="B25" t="str">
-        <v>70.34</v>
+        <v>180.96</v>
       </c>
       <c r="C25" t="str">
-        <v>70.34</v>
+        <v>180.96</v>
       </c>
       <c r="D25" t="str">
-        <v>43.88</v>
+        <v>131</v>
       </c>
       <c r="E25" t="str">
         <v>0</v>
@@ -11380,152 +14642,152 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
+        <v>0x79622cD63ff61A74613fAFB805B7f32D3cf78A95</v>
       </c>
       <c r="B26" t="str">
-        <v>98.86</v>
+        <v>17,460.15</v>
       </c>
       <c r="C26" t="str">
-        <v>98.86</v>
+        <v>17,460.15</v>
       </c>
       <c r="D26" t="str">
         <v>0</v>
       </c>
       <c r="E26" t="str">
-        <v>61.67</v>
+        <v>12,639.19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
+        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
       </c>
       <c r="B27" t="str">
-        <v>293.25</v>
+        <v>1,488.65</v>
       </c>
       <c r="C27" t="str">
-        <v>293.25</v>
+        <v>1,488.65</v>
       </c>
       <c r="D27" t="str">
-        <v>182.93</v>
+        <v>467.62</v>
       </c>
       <c r="E27" t="str">
-        <v>0</v>
+        <v>610</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
+        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
       </c>
       <c r="B28" t="str">
-        <v>293.25</v>
+        <v>6,126.01</v>
       </c>
       <c r="C28" t="str">
-        <v>293.25</v>
+        <v>6,126.01</v>
       </c>
       <c r="D28" t="str">
-        <v>0</v>
+        <v>4,434.55</v>
       </c>
       <c r="E28" t="str">
-        <v>182.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
+        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
       </c>
       <c r="B29" t="str">
-        <v>73.11</v>
+        <v>98,240.66</v>
       </c>
       <c r="C29" t="str">
-        <v>73.11</v>
+        <v>98,240.66</v>
       </c>
       <c r="D29" t="str">
-        <v>45.61</v>
+        <v>9,968</v>
       </c>
       <c r="E29" t="str">
-        <v>0</v>
+        <v>61,147.21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
+        <v>0x175780bC4d0A1bc28c46C3E71130C092790E7576</v>
       </c>
       <c r="B30" t="str">
-        <v>996.99</v>
+        <v>1.2</v>
       </c>
       <c r="C30" t="str">
-        <v>996.99</v>
+        <v>1.2</v>
       </c>
       <c r="D30" t="str">
-        <v>520.98</v>
+        <v>0.87</v>
       </c>
       <c r="E30" t="str">
-        <v>100.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
       </c>
       <c r="B31" t="str">
-        <v>835.17</v>
+        <v>370.38</v>
       </c>
       <c r="C31" t="str">
-        <v>835.17</v>
+        <v>370.38</v>
       </c>
       <c r="D31" t="str">
-        <v>0</v>
+        <v>268.12</v>
       </c>
       <c r="E31" t="str">
-        <v>520.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+        <v>0x27dF802924227b28Ad0Bec076Bd7f1D223441bF5</v>
       </c>
       <c r="B32" t="str">
-        <v>19,181.62</v>
+        <v>321.01</v>
       </c>
       <c r="C32" t="str">
-        <v>19,181.62</v>
+        <v>321.01</v>
       </c>
       <c r="D32" t="str">
-        <v>0</v>
+        <v>232.38</v>
       </c>
       <c r="E32" t="str">
-        <v>11,965.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
+        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
       </c>
       <c r="B33" t="str">
-        <v>7,368.71</v>
+        <v>470.81</v>
       </c>
       <c r="C33" t="str">
-        <v>7,368.71</v>
+        <v>470.81</v>
       </c>
       <c r="D33" t="str">
-        <v>200</v>
+        <v>340.82</v>
       </c>
       <c r="E33" t="str">
-        <v>4,396.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
+        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
       </c>
       <c r="B34" t="str">
-        <v>13,318.03</v>
+        <v>10,748.39</v>
       </c>
       <c r="C34" t="str">
-        <v>13,318.03</v>
+        <v>10,748.39</v>
       </c>
       <c r="D34" t="str">
-        <v>8,307.75</v>
+        <v>7,780.63</v>
       </c>
       <c r="E34" t="str">
         <v>0</v>
@@ -11533,16 +14795,16 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>0x175780bC4d0A1bc28c46C3E71130C092790E7576</v>
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
       </c>
       <c r="B35" t="str">
-        <v>33.7</v>
+        <v>762.42</v>
       </c>
       <c r="C35" t="str">
-        <v>244.21</v>
+        <v>762.42</v>
       </c>
       <c r="D35" t="str">
-        <v>152.34</v>
+        <v>551.91</v>
       </c>
       <c r="E35" t="str">
         <v>0</v>
@@ -11550,33 +14812,33 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>0x5099ccbB5FC14BF6ea516EE6CC3e6B209a7aA8C6</v>
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
       </c>
       <c r="B36" t="str">
-        <v>842.42</v>
+        <v>1,301.14</v>
       </c>
       <c r="C36" t="str">
-        <v>842.42</v>
+        <v>1,301.14</v>
       </c>
       <c r="D36" t="str">
-        <v>525.5</v>
+        <v>332.66</v>
       </c>
       <c r="E36" t="str">
-        <v>0</v>
+        <v>609.22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
       </c>
       <c r="B37" t="str">
-        <v>1,449.57</v>
+        <v>250.35</v>
       </c>
       <c r="C37" t="str">
-        <v>1,449.57</v>
+        <v>250.35</v>
       </c>
       <c r="D37" t="str">
-        <v>904.24</v>
+        <v>181.23</v>
       </c>
       <c r="E37" t="str">
         <v>0</v>
@@ -11584,16 +14846,16 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
       </c>
       <c r="B38" t="str">
-        <v>16,126.64</v>
+        <v>953.21</v>
       </c>
       <c r="C38" t="str">
-        <v>16,126.64</v>
+        <v>953.21</v>
       </c>
       <c r="D38" t="str">
-        <v>10,059.75</v>
+        <v>690.02</v>
       </c>
       <c r="E38" t="str">
         <v>0</v>
@@ -11601,67 +14863,67 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+        <v>0x4e0F1063F13d020B1316791Ae56ea5a826aba501</v>
       </c>
       <c r="B39" t="str">
-        <v>1,064.43</v>
+        <v>351.9</v>
       </c>
       <c r="C39" t="str">
-        <v>1,064.43</v>
+        <v>351.9</v>
       </c>
       <c r="D39" t="str">
-        <v>0</v>
+        <v>254.74</v>
       </c>
       <c r="E39" t="str">
-        <v>663.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>0x4b2FB0f43FD133B0814a0DD9E45fAe9d4d60c500</v>
+        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
       </c>
       <c r="B40" t="str">
-        <v>128.45</v>
+        <v>902.95</v>
       </c>
       <c r="C40" t="str">
-        <v>128.45</v>
+        <v>902.95</v>
       </c>
       <c r="D40" t="str">
         <v>0</v>
       </c>
       <c r="E40" t="str">
-        <v>80.13</v>
+        <v>653.64</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
       </c>
       <c r="B41" t="str">
-        <v>12,896.67</v>
+        <v>4,396.28</v>
       </c>
       <c r="C41" t="str">
-        <v>12,896.67</v>
+        <v>4,396.28</v>
       </c>
       <c r="D41" t="str">
-        <v>175.61</v>
+        <v>3,182.42</v>
       </c>
       <c r="E41" t="str">
-        <v>7,869.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
+        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
       </c>
       <c r="B42" t="str">
-        <v>1,775.85</v>
+        <v>143.72</v>
       </c>
       <c r="C42" t="str">
-        <v>1,775.85</v>
+        <v>143.72</v>
       </c>
       <c r="D42" t="str">
-        <v>1,107.77</v>
+        <v>104.04</v>
       </c>
       <c r="E42" t="str">
         <v>0</v>
@@ -11669,16 +14931,16 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
+        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
       </c>
       <c r="B43" t="str">
-        <v>403.28</v>
+        <v>63.44</v>
       </c>
       <c r="C43" t="str">
-        <v>403.28</v>
+        <v>63.44</v>
       </c>
       <c r="D43" t="str">
-        <v>251.57</v>
+        <v>45.93</v>
       </c>
       <c r="E43" t="str">
         <v>0</v>
@@ -11686,16 +14948,16 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>0xdd61cabccEa7933D2372606963D66F0924831D29</v>
+        <v>0x68Aaa776A6Ac3DA289893423D8827DF25841F72C</v>
       </c>
       <c r="B44" t="str">
-        <v>28.51</v>
+        <v>140.82</v>
       </c>
       <c r="C44" t="str">
-        <v>28.51</v>
+        <v>140.82</v>
       </c>
       <c r="D44" t="str">
-        <v>17.79</v>
+        <v>101.94</v>
       </c>
       <c r="E44" t="str">
         <v>0</v>
@@ -11703,16 +14965,16 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>0xd3330632C0e3C5A54b4B80a4a13EF9389db19B5E</v>
+        <v>0xf2278c9CE9438A1e24F1BE11Ab0B399A03baB717</v>
       </c>
       <c r="B45" t="str">
-        <v>161.49</v>
+        <v>83.35</v>
       </c>
       <c r="C45" t="str">
-        <v>161.49</v>
+        <v>83.35</v>
       </c>
       <c r="D45" t="str">
-        <v>100.74</v>
+        <v>60.34</v>
       </c>
       <c r="E45" t="str">
         <v>0</v>
@@ -11720,16 +14982,16 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+        <v>0x80BEe177a79d87c112CB40694182fAa7351a1CF4</v>
       </c>
       <c r="B46" t="str">
-        <v>45.72</v>
+        <v>154.01</v>
       </c>
       <c r="C46" t="str">
-        <v>45.72</v>
+        <v>154.01</v>
       </c>
       <c r="D46" t="str">
-        <v>28.52</v>
+        <v>111.49</v>
       </c>
       <c r="E46" t="str">
         <v>0</v>
@@ -11737,16 +14999,16 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
+        <v>0xc4b88bff8D047576eC693EaFA72482A5e8f0fd7A</v>
       </c>
       <c r="B47" t="str">
-        <v>73.48</v>
+        <v>55.07</v>
       </c>
       <c r="C47" t="str">
-        <v>73.48</v>
+        <v>55.07</v>
       </c>
       <c r="D47" t="str">
-        <v>45.84</v>
+        <v>39.87</v>
       </c>
       <c r="E47" t="str">
         <v>0</v>
@@ -11754,16 +15016,16 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
+        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
       </c>
       <c r="B48" t="str">
-        <v>75.36</v>
+        <v>13.81</v>
       </c>
       <c r="C48" t="str">
-        <v>75.36</v>
+        <v>13.81</v>
       </c>
       <c r="D48" t="str">
-        <v>47.01</v>
+        <v>10</v>
       </c>
       <c r="E48" t="str">
         <v>0</v>
@@ -11771,16 +15033,16 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>0x7A7d706D6578FE3DD1540dC69b31de7C8C0c20d2</v>
+        <v>0x8BFF5eB745527844b0abfd7D9730cDE82948cFf0</v>
       </c>
       <c r="B49" t="str">
-        <v>83.64</v>
+        <v>507.77</v>
       </c>
       <c r="C49" t="str">
-        <v>83.64</v>
+        <v>507.77</v>
       </c>
       <c r="D49" t="str">
-        <v>52.18</v>
+        <v>367.57</v>
       </c>
       <c r="E49" t="str">
         <v>0</v>
@@ -11788,16 +15050,16 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>0xeb9Ea287a5BD59731C6fbDEfd9e81dAa4Dc7eB11</v>
+        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
       </c>
       <c r="B50" t="str">
-        <v>10.14</v>
+        <v>1,049.66</v>
       </c>
       <c r="C50" t="str">
-        <v>10.14</v>
+        <v>1,049.66</v>
       </c>
       <c r="D50" t="str">
-        <v>6.33</v>
+        <v>759.84</v>
       </c>
       <c r="E50" t="str">
         <v>0</v>
@@ -11805,135 +15067,135 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+        <v>0x620964B76328a1Ec5039361877eA64510A241139</v>
       </c>
       <c r="B51" t="str">
-        <v>537.22</v>
+        <v>356.45</v>
       </c>
       <c r="C51" t="str">
-        <v>537.22</v>
+        <v>356.45</v>
       </c>
       <c r="D51" t="str">
-        <v>0</v>
+        <v>258.03</v>
       </c>
       <c r="E51" t="str">
-        <v>335.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
+        <v>0x31D167b99FF574edfF7205bde0bF3D0555351574</v>
       </c>
       <c r="B52" t="str">
-        <v>161.81</v>
+        <v>130.42</v>
       </c>
       <c r="C52" t="str">
-        <v>161.81</v>
+        <v>130.42</v>
       </c>
       <c r="D52" t="str">
-        <v>100.94</v>
+        <v>0</v>
       </c>
       <c r="E52" t="str">
-        <v>0</v>
+        <v>94.41</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
+        <v>0x5Fc4faF3934548c57d66f1179C2991cEd028E61F</v>
       </c>
       <c r="B53" t="str">
-        <v>113</v>
+        <v>884.59</v>
       </c>
       <c r="C53" t="str">
-        <v>113</v>
+        <v>884.59</v>
       </c>
       <c r="D53" t="str">
-        <v>70.49</v>
+        <v>0</v>
       </c>
       <c r="E53" t="str">
-        <v>0</v>
+        <v>640.35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
       </c>
       <c r="B54" t="str">
-        <v>588.9</v>
+        <v>290.12</v>
       </c>
       <c r="C54" t="str">
-        <v>588.9</v>
+        <v>290.12</v>
       </c>
       <c r="D54" t="str">
-        <v>0</v>
+        <v>210.02</v>
       </c>
       <c r="E54" t="str">
-        <v>367.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
+        <v>0x0325B1b36Dc59ac07519AC60b5c7A85747274C8A</v>
       </c>
       <c r="B55" t="str">
-        <v>6,477.86</v>
+        <v>1,222.56</v>
       </c>
       <c r="C55" t="str">
-        <v>6,477.86</v>
+        <v>1,222.56</v>
       </c>
       <c r="D55" t="str">
-        <v>0</v>
+        <v>885</v>
       </c>
       <c r="E55" t="str">
-        <v>4,040.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
+        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
       </c>
       <c r="B56" t="str">
-        <v>17,275.02</v>
+        <v>1,222.56</v>
       </c>
       <c r="C56" t="str">
-        <v>17,275.02</v>
+        <v>1,222.56</v>
       </c>
       <c r="D56" t="str">
         <v>0</v>
       </c>
       <c r="E56" t="str">
-        <v>10,776.11</v>
+        <v>885</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>0xA2cE2556195590dd554691e99170115Fb2e9c2c2</v>
+        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
       </c>
       <c r="B57" t="str">
-        <v>40.15</v>
+        <v>1,116.87</v>
       </c>
       <c r="C57" t="str">
-        <v>40.15</v>
+        <v>1,116.87</v>
       </c>
       <c r="D57" t="str">
-        <v>0</v>
+        <v>808.49</v>
       </c>
       <c r="E57" t="str">
-        <v>25.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>0x96366995FA701346A6f9bCD875E3E80D7421d8b3</v>
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
       </c>
       <c r="B58" t="str">
-        <v>391.84</v>
+        <v>36.41</v>
       </c>
       <c r="C58" t="str">
-        <v>391.84</v>
+        <v>36.41</v>
       </c>
       <c r="D58" t="str">
-        <v>244.43</v>
+        <v>26.36</v>
       </c>
       <c r="E58" t="str">
         <v>0</v>
@@ -11941,33 +15203,33 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>0x41208763DD0C33e81cD7908ec88656ca7578d591</v>
+        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
       </c>
       <c r="B59" t="str">
-        <v>391.84</v>
+        <v>29.32</v>
       </c>
       <c r="C59" t="str">
-        <v>391.84</v>
+        <v>29.32</v>
       </c>
       <c r="D59" t="str">
-        <v>0</v>
+        <v>21.23</v>
       </c>
       <c r="E59" t="str">
-        <v>244.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>0x77729e862D70e8d6856Fb5f4786B02E626B9cf65</v>
+        <v>0xd3330632C0e3C5A54b4B80a4a13EF9389db19B5E</v>
       </c>
       <c r="B60" t="str">
-        <v>4,559.78</v>
+        <v>134.48</v>
       </c>
       <c r="C60" t="str">
-        <v>4,559.78</v>
+        <v>134.48</v>
       </c>
       <c r="D60" t="str">
-        <v>2,844.38</v>
+        <v>97.35</v>
       </c>
       <c r="E60" t="str">
         <v>0</v>
@@ -11975,33 +15237,33 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
       </c>
       <c r="B61" t="str">
-        <v>46,864.17</v>
+        <v>66,653.57</v>
       </c>
       <c r="C61" t="str">
-        <v>46,864.17</v>
+        <v>66,653.57</v>
       </c>
       <c r="D61" t="str">
         <v>0</v>
       </c>
       <c r="E61" t="str">
-        <v>29,233.73</v>
+        <v>48,249.7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>0x77Fb1AeEEC6e3F3Cfe3a1f3aB87E7cB74872Db5D</v>
+        <v>0x7e729b21005cF2FDda685bA7Bef04c6Dc3DcD444</v>
       </c>
       <c r="B62" t="str">
-        <v>171.09</v>
+        <v>3.61</v>
       </c>
       <c r="C62" t="str">
-        <v>171.09</v>
+        <v>3.61</v>
       </c>
       <c r="D62" t="str">
-        <v>106.73</v>
+        <v>2.62</v>
       </c>
       <c r="E62" t="str">
         <v>0</v>
@@ -12009,16 +15271,16 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>0x180D009d48a8B254E88986BC83bF4214F7fBBafA</v>
+        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
       </c>
       <c r="B63" t="str">
-        <v>322.15</v>
+        <v>88.54</v>
       </c>
       <c r="C63" t="str">
-        <v>322.15</v>
+        <v>88.54</v>
       </c>
       <c r="D63" t="str">
-        <v>200.96</v>
+        <v>64.1</v>
       </c>
       <c r="E63" t="str">
         <v>0</v>
@@ -12026,101 +15288,101 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>0xeB0F9489F9aeFB6Bbd8d7f1cc3620898E30b49c0</v>
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
       </c>
       <c r="B64" t="str">
-        <v>322.15</v>
+        <v>1,990.14</v>
       </c>
       <c r="C64" t="str">
-        <v>322.15</v>
+        <v>1,990.14</v>
       </c>
       <c r="D64" t="str">
         <v>0</v>
       </c>
       <c r="E64" t="str">
-        <v>200.96</v>
+        <v>1,440.64</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
       </c>
       <c r="B65" t="str">
-        <v>484.05</v>
+        <v>1,495.24</v>
       </c>
       <c r="C65" t="str">
-        <v>484.05</v>
+        <v>1,495.24</v>
       </c>
       <c r="D65" t="str">
-        <v>301.95</v>
+        <v>0</v>
       </c>
       <c r="E65" t="str">
-        <v>0</v>
+        <v>1,082.39</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
       </c>
       <c r="B66" t="str">
-        <v>164,684.21</v>
+        <v>5,731.69</v>
       </c>
       <c r="C66" t="str">
-        <v>244,589.23</v>
+        <v>5,731.69</v>
       </c>
       <c r="D66" t="str">
         <v>0</v>
       </c>
       <c r="E66" t="str">
-        <v>152,574.03</v>
+        <v>4,149.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>0x3f80b42ae4B6a8701329682B5C66a2780917E5D0</v>
+        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
       </c>
       <c r="B67" t="str">
-        <v>16.11</v>
+        <v>871.53</v>
       </c>
       <c r="C67" t="str">
-        <v>16.11</v>
+        <v>871.53</v>
       </c>
       <c r="D67" t="str">
         <v>0</v>
       </c>
       <c r="E67" t="str">
-        <v>10.05</v>
+        <v>630.89</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
       </c>
       <c r="B68" t="str">
-        <v>1,209.2</v>
+        <v>1,572.5</v>
       </c>
       <c r="C68" t="str">
-        <v>1,209.2</v>
+        <v>1,572.5</v>
       </c>
       <c r="D68" t="str">
-        <v>0</v>
+        <v>1,138.32</v>
       </c>
       <c r="E68" t="str">
-        <v>754.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
+        <v>0x9ff812DfE804e2BF400Fd6fD22293203674DDdEe</v>
       </c>
       <c r="B69" t="str">
-        <v>0</v>
+        <v>63.32</v>
       </c>
       <c r="C69" t="str">
-        <v>74.63</v>
+        <v>63.32</v>
       </c>
       <c r="D69" t="str">
-        <v>46.56</v>
+        <v>45.84</v>
       </c>
       <c r="E69" t="str">
         <v>0</v>
@@ -12128,84 +15390,84 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
+        <v>0x4e50BEF218F0Db065F4EE833D3679712A74F21F2</v>
       </c>
       <c r="B70" t="str">
-        <v>4,608.87</v>
+        <v>63.32</v>
       </c>
       <c r="C70" t="str">
-        <v>4,608.87</v>
+        <v>63.32</v>
       </c>
       <c r="D70" t="str">
-        <v>2,875</v>
+        <v>0</v>
       </c>
       <c r="E70" t="str">
-        <v>0</v>
+        <v>45.84</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+        <v>0xB188a4B33E4755DD08c93b07D627A605004104d2</v>
       </c>
       <c r="B71" t="str">
-        <v>35,023.22</v>
+        <v>2,008.01</v>
       </c>
       <c r="C71" t="str">
-        <v>35,023.22</v>
+        <v>2,008.01</v>
       </c>
       <c r="D71" t="str">
-        <v>1,428.66</v>
+        <v>1,453.58</v>
       </c>
       <c r="E71" t="str">
-        <v>20,418.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>0x5C55e86A38d24BE5fF7f12221BF674C95FB188a7</v>
+        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
       </c>
       <c r="B72" t="str">
-        <v>153.3</v>
+        <v>115.54</v>
       </c>
       <c r="C72" t="str">
-        <v>153.3</v>
+        <v>115.54</v>
       </c>
       <c r="D72" t="str">
         <v>0</v>
       </c>
       <c r="E72" t="str">
-        <v>95.63</v>
+        <v>83.64</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
       </c>
       <c r="B73" t="str">
-        <v>14,443.78</v>
+        <v>0</v>
       </c>
       <c r="C73" t="str">
-        <v>14,443.78</v>
+        <v>44,338.88</v>
       </c>
       <c r="D73" t="str">
-        <v>9,009.99</v>
+        <v>0</v>
       </c>
       <c r="E73" t="str">
-        <v>0</v>
+        <v>32,096.37</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
       </c>
       <c r="B74" t="str">
-        <v>37,220.36</v>
+        <v>24,450.15</v>
       </c>
       <c r="C74" t="str">
-        <v>37,220.36</v>
+        <v>24,450.15</v>
       </c>
       <c r="D74" t="str">
-        <v>23,217.95</v>
+        <v>17,699.17</v>
       </c>
       <c r="E74" t="str">
         <v>0</v>
@@ -12213,19 +15475,19 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+        <v>0x425F2F1287045bC9d04C0f933E7FdEdA4A2e5765</v>
       </c>
       <c r="B75" t="str">
-        <v>0</v>
+        <v>8,352.01</v>
       </c>
       <c r="C75" t="str">
-        <v>37,220.36</v>
+        <v>8,352.01</v>
       </c>
       <c r="D75" t="str">
         <v>0</v>
       </c>
       <c r="E75" t="str">
-        <v>23,217.95</v>
+        <v>6,045.92</v>
       </c>
     </row>
     <row r="76">
@@ -12233,98 +15495,98 @@
         <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
       </c>
       <c r="B76" t="str">
-        <v>6,111.52</v>
+        <v>3,429.84</v>
       </c>
       <c r="C76" t="str">
-        <v>6,111.52</v>
+        <v>3,429.84</v>
       </c>
       <c r="D76" t="str">
         <v>0</v>
       </c>
       <c r="E76" t="str">
-        <v>3,812.35</v>
+        <v>2,482.82</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
+        <v>0xe23bc0609A8Df4EA2A597AEAAFcBF421BFfBDCFd</v>
       </c>
       <c r="B77" t="str">
-        <v>15,014.72</v>
+        <v>325.63</v>
       </c>
       <c r="C77" t="str">
-        <v>15,014.72</v>
+        <v>325.63</v>
       </c>
       <c r="D77" t="str">
-        <v>0</v>
+        <v>235.72</v>
       </c>
       <c r="E77" t="str">
-        <v>9,366.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
       </c>
       <c r="B78" t="str">
-        <v>756.46</v>
+        <v>1,832.36</v>
       </c>
       <c r="C78" t="str">
-        <v>756.46</v>
+        <v>1,832.36</v>
       </c>
       <c r="D78" t="str">
-        <v>0</v>
+        <v>1,090.71</v>
       </c>
       <c r="E78" t="str">
-        <v>471.88</v>
+        <v>235.72</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
       </c>
       <c r="B79" t="str">
-        <v>10,822.19</v>
+        <v>23,205.94</v>
       </c>
       <c r="C79" t="str">
-        <v>10,822.19</v>
+        <v>23,205.94</v>
       </c>
       <c r="D79" t="str">
-        <v>0</v>
+        <v>16,798.5</v>
       </c>
       <c r="E79" t="str">
-        <v>6,750.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
       </c>
       <c r="B80" t="str">
-        <v>420.8</v>
+        <v>0</v>
       </c>
       <c r="C80" t="str">
-        <v>420.8</v>
+        <v>23,205.94</v>
       </c>
       <c r="D80" t="str">
         <v>0</v>
       </c>
       <c r="E80" t="str">
-        <v>262.5</v>
+        <v>16,798.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>0x7062f97091BaD1bc5086aeE9AA13dbDEC17AA148</v>
+        <v>0xF6a52cb99b772d46C736F6F90Be792A1d4159414</v>
       </c>
       <c r="B81" t="str">
-        <v>1,490.46</v>
+        <v>131.94</v>
       </c>
       <c r="C81" t="str">
-        <v>1,490.46</v>
+        <v>131.94</v>
       </c>
       <c r="D81" t="str">
-        <v>929.75</v>
+        <v>95.51</v>
       </c>
       <c r="E81" t="str">
         <v>0</v>
@@ -12332,118 +15594,118 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>0x9331C5f74A13ee04abDA206dceec4c82c9f6e19E</v>
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
       </c>
       <c r="B82" t="str">
-        <v>1,490.46</v>
+        <v>1,516.05</v>
       </c>
       <c r="C82" t="str">
-        <v>1,490.46</v>
+        <v>1,516.05</v>
       </c>
       <c r="D82" t="str">
-        <v>0</v>
+        <v>1,097.45</v>
       </c>
       <c r="E82" t="str">
-        <v>929.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
+        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
       </c>
       <c r="B83" t="str">
-        <v>1,565.79</v>
+        <v>344.48</v>
       </c>
       <c r="C83" t="str">
-        <v>1,565.79</v>
+        <v>344.48</v>
       </c>
       <c r="D83" t="str">
-        <v>0</v>
+        <v>196.87</v>
       </c>
       <c r="E83" t="str">
-        <v>976.74</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
       </c>
       <c r="B84" t="str">
-        <v>2,560.7</v>
+        <v>15,274.51</v>
       </c>
       <c r="C84" t="str">
-        <v>2,560.7</v>
+        <v>15,274.51</v>
       </c>
       <c r="D84" t="str">
-        <v>890.4</v>
+        <v>141.94</v>
       </c>
       <c r="E84" t="str">
-        <v>706.96</v>
+        <v>10,915.09</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
+        <v>0x413Af536E3D18D259A9b71B42AC66faC5aBa0Fbf</v>
       </c>
       <c r="B85" t="str">
-        <v>4,166.19</v>
+        <v>133.03</v>
       </c>
       <c r="C85" t="str">
-        <v>4,166.19</v>
+        <v>133.03</v>
       </c>
       <c r="D85" t="str">
-        <v>431.95</v>
+        <v>0</v>
       </c>
       <c r="E85" t="str">
-        <v>2,166.91</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
       </c>
       <c r="B86" t="str">
-        <v>4,166.19</v>
+        <v>176.75</v>
       </c>
       <c r="C86" t="str">
-        <v>4,166.19</v>
+        <v>176.75</v>
       </c>
       <c r="D86" t="str">
-        <v>2,166.91</v>
+        <v>127.95</v>
       </c>
       <c r="E86" t="str">
-        <v>431.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>0x2731b9BC4c6AC6287996741A5A87D6E51D18B2EB</v>
+        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
       </c>
       <c r="B87" t="str">
-        <v>825.97</v>
+        <v>190.12</v>
       </c>
       <c r="C87" t="str">
-        <v>825.97</v>
+        <v>190.12</v>
       </c>
       <c r="D87" t="str">
-        <v>0</v>
+        <v>137.63</v>
       </c>
       <c r="E87" t="str">
-        <v>515.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
+        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
       </c>
       <c r="B88" t="str">
-        <v>353.64</v>
+        <v>1,410.01</v>
       </c>
       <c r="C88" t="str">
-        <v>353.64</v>
+        <v>1,410.01</v>
       </c>
       <c r="D88" t="str">
-        <v>220.6</v>
+        <v>1,020.69</v>
       </c>
       <c r="E88" t="str">
         <v>0</v>
@@ -12451,50 +15713,50 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>0x73755c77A68017d6E755Ac0cE9df5EA7c2aF8F75</v>
+        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
       </c>
       <c r="B89" t="str">
-        <v>0</v>
+        <v>660.35</v>
       </c>
       <c r="C89" t="str">
-        <v>24,252.5</v>
+        <v>660.35</v>
       </c>
       <c r="D89" t="str">
         <v>0</v>
       </c>
       <c r="E89" t="str">
-        <v>15,128.64</v>
+        <v>478.02</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>0x48A7209DD07Bc7409bF3f61820E1Ee9409F462e9</v>
+        <v>0xf0eeE0837e8F4feaC444412991f7005B8dFFa305</v>
       </c>
       <c r="B90" t="str">
-        <v>155.62</v>
+        <v>611.53</v>
       </c>
       <c r="C90" t="str">
-        <v>155.62</v>
+        <v>611.53</v>
       </c>
       <c r="D90" t="str">
-        <v>97.08</v>
+        <v>0</v>
       </c>
       <c r="E90" t="str">
-        <v>0</v>
+        <v>442.68</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
+        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
       </c>
       <c r="B91" t="str">
-        <v>232.55</v>
+        <v>2,788.33</v>
       </c>
       <c r="C91" t="str">
-        <v>232.55</v>
+        <v>2,788.33</v>
       </c>
       <c r="D91" t="str">
-        <v>145.07</v>
+        <v>2,018.44</v>
       </c>
       <c r="E91" t="str">
         <v>0</v>
@@ -12502,305 +15764,305 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
       </c>
       <c r="B92" t="str">
-        <v>232.55</v>
+        <v>0</v>
       </c>
       <c r="C92" t="str">
-        <v>232.55</v>
+        <v>2,788.33</v>
       </c>
       <c r="D92" t="str">
         <v>0</v>
       </c>
       <c r="E92" t="str">
-        <v>145.07</v>
+        <v>2,018.44</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+        <v>0xFa544d034dC07aD4Fa185ba769031a29Fbef5e36</v>
       </c>
       <c r="B93" t="str">
-        <v>65,725.86</v>
+        <v>59.32</v>
       </c>
       <c r="C93" t="str">
-        <v>65,725.86</v>
+        <v>225.91</v>
       </c>
       <c r="D93" t="str">
         <v>0</v>
       </c>
       <c r="E93" t="str">
-        <v>40,999.6</v>
+        <v>163.54</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
+        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
       </c>
       <c r="B94" t="str">
-        <v>1.53</v>
+        <v>2,819.33</v>
       </c>
       <c r="C94" t="str">
-        <v>1.53</v>
+        <v>2,819.33</v>
       </c>
       <c r="D94" t="str">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="E94" t="str">
-        <v>0</v>
+        <v>2,040.88</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
+        <v>0xA918ADC20A91e7C932e6E00e436D710DA71C765C</v>
       </c>
       <c r="B95" t="str">
-        <v>73.11</v>
+        <v>393.32</v>
       </c>
       <c r="C95" t="str">
-        <v>73.11</v>
+        <v>393.32</v>
       </c>
       <c r="D95" t="str">
-        <v>0</v>
+        <v>284.72</v>
       </c>
       <c r="E95" t="str">
-        <v>45.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
+        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
       </c>
       <c r="B96" t="str">
-        <v>985.3</v>
+        <v>393.32</v>
       </c>
       <c r="C96" t="str">
-        <v>985.3</v>
+        <v>393.32</v>
       </c>
       <c r="D96" t="str">
-        <v>614.63</v>
+        <v>0</v>
       </c>
       <c r="E96" t="str">
-        <v>0</v>
+        <v>284.72</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
+        <v>0x4045d560bdcd01295dB6B3041ecfB7C5a346eDa8</v>
       </c>
       <c r="B97" t="str">
         <v>0</v>
       </c>
       <c r="C97" t="str">
-        <v>985.3</v>
+        <v>64,493.78</v>
       </c>
       <c r="D97" t="str">
         <v>0</v>
       </c>
       <c r="E97" t="str">
-        <v>614.63</v>
+        <v>46,686.26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
+        <v>0xa8CE35A87d51EaC37675c1Cf7C5d6435a3b2079A</v>
       </c>
       <c r="B98" t="str">
-        <v>3,041.59</v>
+        <v>22,650.12</v>
       </c>
       <c r="C98" t="str">
-        <v>3,041.59</v>
+        <v>22,650.12</v>
       </c>
       <c r="D98" t="str">
-        <v>1,897.34</v>
+        <v>0</v>
       </c>
       <c r="E98" t="str">
-        <v>0</v>
+        <v>16,396.15</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+        <v>0xCf54bb8C360FB4Ec47AE0c31Bc8864B163651277</v>
       </c>
       <c r="B99" t="str">
-        <v>11,896.48</v>
+        <v>0</v>
       </c>
       <c r="C99" t="str">
-        <v>11,896.48</v>
+        <v>4,951.15</v>
       </c>
       <c r="D99" t="str">
-        <v>5,000</v>
+        <v>3,584.08</v>
       </c>
       <c r="E99" t="str">
-        <v>2,420.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
       </c>
       <c r="B100" t="str">
-        <v>1,066.06</v>
+        <v>418</v>
       </c>
       <c r="C100" t="str">
-        <v>1,066.06</v>
+        <v>418</v>
       </c>
       <c r="D100" t="str">
-        <v>0</v>
+        <v>302.59</v>
       </c>
       <c r="E100" t="str">
-        <v>665.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
+        <v>0x48682644c1e8529338e46e7DdabA4383C1fceBb1</v>
       </c>
       <c r="B101" t="str">
-        <v>19,171.47</v>
+        <v>488.04</v>
       </c>
       <c r="C101" t="str">
-        <v>19,171.47</v>
+        <v>488.04</v>
       </c>
       <c r="D101" t="str">
-        <v>11,959.11</v>
+        <v>0</v>
       </c>
       <c r="E101" t="str">
-        <v>0</v>
+        <v>353.29</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+        <v>0xCbf575DA18d760a18dB55333bE8662CC07463069</v>
       </c>
       <c r="B102" t="str">
-        <v>16,545.3</v>
+        <v>609.91</v>
       </c>
       <c r="C102" t="str">
-        <v>16,545.3</v>
+        <v>609.91</v>
       </c>
       <c r="D102" t="str">
-        <v>8,028.02</v>
+        <v>441.51</v>
       </c>
       <c r="E102" t="str">
-        <v>2,292.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
       </c>
       <c r="B103" t="str">
-        <v>15,095.72</v>
+        <v>6,126.01</v>
       </c>
       <c r="C103" t="str">
-        <v>15,095.72</v>
+        <v>6,126.01</v>
       </c>
       <c r="D103" t="str">
-        <v>1,388.65</v>
+        <v>0</v>
       </c>
       <c r="E103" t="str">
-        <v>8,028.02</v>
+        <v>4,434.55</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
+        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
       </c>
       <c r="B104" t="str">
-        <v>1,634.23</v>
+        <v>1,423.66</v>
       </c>
       <c r="C104" t="str">
-        <v>1,634.23</v>
+        <v>1,423.66</v>
       </c>
       <c r="D104" t="str">
-        <v>0</v>
+        <v>114.16</v>
       </c>
       <c r="E104" t="str">
-        <v>1,019.43</v>
+        <v>916.41</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>0xdD40bFeDDd1511322A763a82e31Ef3e401415927</v>
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
       </c>
       <c r="B105" t="str">
-        <v>348.36</v>
+        <v>194.51</v>
       </c>
       <c r="C105" t="str">
-        <v>348.36</v>
+        <v>194.51</v>
       </c>
       <c r="D105" t="str">
-        <v>217.31</v>
+        <v>0</v>
       </c>
       <c r="E105" t="str">
-        <v>0</v>
+        <v>140.81</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>0xfA9FBD6360692a1b23b84A9dDFf63ed77faF58c9</v>
+        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
       </c>
       <c r="B106" t="str">
-        <v>415.51</v>
+        <v>84,470.57</v>
       </c>
       <c r="C106" t="str">
-        <v>415.51</v>
+        <v>84,470.57</v>
       </c>
       <c r="D106" t="str">
-        <v>0</v>
+        <v>61,147.21</v>
       </c>
       <c r="E106" t="str">
-        <v>259.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
       </c>
       <c r="B107" t="str">
-        <v>0</v>
+        <v>30,527.92</v>
       </c>
       <c r="C107" t="str">
-        <v>801.54</v>
+        <v>30,527.92</v>
       </c>
       <c r="D107" t="str">
-        <v>500</v>
+        <v>16,357.4</v>
       </c>
       <c r="E107" t="str">
-        <v>0</v>
+        <v>5,741.39</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
       </c>
       <c r="B108" t="str">
-        <v>16,120.88</v>
+        <v>29,765.5</v>
       </c>
       <c r="C108" t="str">
-        <v>16,120.88</v>
+        <v>29,765.5</v>
       </c>
       <c r="D108" t="str">
-        <v>10,056.16</v>
+        <v>5,189.48</v>
       </c>
       <c r="E108" t="str">
-        <v>0</v>
+        <v>16,357.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>0xe23bc0609A8Df4EA2A597AEAAFcBF421BFfBDCFd</v>
+        <v>0x97FD7d404b26A9b59d6F5bAc4Ff34349641bA6c5</v>
       </c>
       <c r="B109" t="str">
-        <v>1,133.31</v>
+        <v>582.54</v>
       </c>
       <c r="C109" t="str">
-        <v>1,133.31</v>
+        <v>582.54</v>
       </c>
       <c r="D109" t="str">
-        <v>706.96</v>
+        <v>421.7</v>
       </c>
       <c r="E109" t="str">
         <v>0</v>
@@ -12808,237 +16070,237 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
       </c>
       <c r="B110" t="str">
-        <v>471.43</v>
+        <v>582.54</v>
       </c>
       <c r="C110" t="str">
-        <v>471.43</v>
+        <v>582.54</v>
       </c>
       <c r="D110" t="str">
-        <v>294.08</v>
+        <v>0</v>
       </c>
       <c r="E110" t="str">
-        <v>0</v>
+        <v>421.7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
+        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
       </c>
       <c r="B111" t="str">
-        <v>1,474.32</v>
+        <v>2,829.07</v>
       </c>
       <c r="C111" t="str">
-        <v>1,474.32</v>
+        <v>2,829.07</v>
       </c>
       <c r="D111" t="str">
-        <v>0</v>
+        <v>999.73</v>
       </c>
       <c r="E111" t="str">
-        <v>919.68</v>
+        <v>1,048.2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>0x3d1F678EBd71CA033f21D6B1B5B0781a66537447</v>
+        <v>0x5766ee90ab6f2Cd995CA845d09b2AeC45E870EC9</v>
       </c>
       <c r="B112" t="str">
-        <v>2,416.45</v>
+        <v>389.89</v>
       </c>
       <c r="C112" t="str">
-        <v>2,416.45</v>
+        <v>389.89</v>
       </c>
       <c r="D112" t="str">
         <v>0</v>
       </c>
       <c r="E112" t="str">
-        <v>1,507.38</v>
+        <v>282.24</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
+        <v>0xB19c1b3cEc4c5bD6DCA220A4f59de9EC681e9211</v>
       </c>
       <c r="B113" t="str">
-        <v>2,451.5</v>
+        <v>0</v>
       </c>
       <c r="C113" t="str">
-        <v>2,451.5</v>
+        <v>16.49</v>
       </c>
       <c r="D113" t="str">
-        <v>1,529.24</v>
+        <v>11.07</v>
       </c>
       <c r="E113" t="str">
-        <v>0</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>0xC44b6fcf320C7A15f288D3792E5BBF7D770e25c4</v>
+        <v>0x3d1F678EBd71CA033f21D6B1B5B0781a66537447</v>
       </c>
       <c r="B114" t="str">
-        <v>53.97</v>
+        <v>3,391.03</v>
       </c>
       <c r="C114" t="str">
-        <v>53.97</v>
+        <v>3,391.03</v>
       </c>
       <c r="D114" t="str">
-        <v>33.67</v>
+        <v>0</v>
       </c>
       <c r="E114" t="str">
-        <v>0</v>
+        <v>2,454.73</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>0x9C0557216e919eDaCCc56037c66A5fAC1D41D82a</v>
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
       </c>
       <c r="B115" t="str">
-        <v>53.97</v>
+        <v>1,421.73</v>
       </c>
       <c r="C115" t="str">
-        <v>53.97</v>
+        <v>1,421.73</v>
       </c>
       <c r="D115" t="str">
-        <v>0</v>
+        <v>1,029.18</v>
       </c>
       <c r="E115" t="str">
-        <v>33.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
+        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
       </c>
       <c r="B116" t="str">
-        <v>1,339.93</v>
+        <v>2,624.77</v>
       </c>
       <c r="C116" t="str">
-        <v>1,339.93</v>
+        <v>2,624.77</v>
       </c>
       <c r="D116" t="str">
-        <v>835.85</v>
+        <v>0</v>
       </c>
       <c r="E116" t="str">
-        <v>0</v>
+        <v>1,900.04</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
+        <v>0x11C3498d0D70BBfCdAa8dA275d7dDEb7BF977137</v>
       </c>
       <c r="B117" t="str">
-        <v>1,339.93</v>
+        <v>321.01</v>
       </c>
       <c r="C117" t="str">
-        <v>1,339.93</v>
+        <v>321.01</v>
       </c>
       <c r="D117" t="str">
         <v>0</v>
       </c>
       <c r="E117" t="str">
-        <v>835.85</v>
+        <v>232.38</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>0xB19c1b3cEc4c5bD6DCA220A4f59de9EC681e9211</v>
+        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
       </c>
       <c r="B118" t="str">
-        <v>0</v>
+        <v>470.81</v>
       </c>
       <c r="C118" t="str">
-        <v>244.21</v>
+        <v>470.81</v>
       </c>
       <c r="D118" t="str">
         <v>0</v>
       </c>
       <c r="E118" t="str">
-        <v>152.34</v>
+        <v>340.82</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
       </c>
       <c r="B119" t="str">
-        <v>20,038.57</v>
+        <v>192.33</v>
       </c>
       <c r="C119" t="str">
-        <v>20,038.57</v>
+        <v>192.33</v>
       </c>
       <c r="D119" t="str">
-        <v>0</v>
+        <v>35.19</v>
       </c>
       <c r="E119" t="str">
-        <v>12,500</v>
+        <v>104.04</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
+        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
       </c>
       <c r="B120" t="str">
-        <v>0</v>
+        <v>695.14</v>
       </c>
       <c r="C120" t="str">
-        <v>2,290.26</v>
+        <v>695.14</v>
       </c>
       <c r="D120" t="str">
-        <v>0</v>
+        <v>468.02</v>
       </c>
       <c r="E120" t="str">
-        <v>1,428.66</v>
+        <v>35.19</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>0xEE6cafF44C45094a0a0Dd7dD2235f534Fa1EBa3F</v>
+        <v>0x95814b787287141C80e9917Ee9eC9B2F89275629</v>
       </c>
       <c r="B121" t="str">
-        <v>1,309.76</v>
+        <v>6,516.42</v>
       </c>
       <c r="C121" t="str">
-        <v>1,309.76</v>
+        <v>6,516.42</v>
       </c>
       <c r="D121" t="str">
-        <v>0</v>
+        <v>4,717.16</v>
       </c>
       <c r="E121" t="str">
-        <v>817.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
       </c>
       <c r="B122" t="str">
-        <v>8,090.78</v>
+        <v>37,143.77</v>
       </c>
       <c r="C122" t="str">
-        <v>8,090.78</v>
+        <v>37,143.77</v>
       </c>
       <c r="D122" t="str">
         <v>0</v>
       </c>
       <c r="E122" t="str">
-        <v>5,047.01</v>
+        <v>26,887.92</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>0x0fA1AfF9540786DCad9196e0676e2e4423317FAf</v>
+        <v>0xa5d134A404FBAe6B980D22C2A1be268a1a995F6C</v>
       </c>
       <c r="B123" t="str">
-        <v>10,583.23</v>
+        <v>78.28</v>
       </c>
       <c r="C123" t="str">
-        <v>10,583.23</v>
+        <v>78.28</v>
       </c>
       <c r="D123" t="str">
-        <v>6,601.79</v>
+        <v>56.67</v>
       </c>
       <c r="E123" t="str">
         <v>0</v>
@@ -13046,84 +16308,84 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
+        <v>0xB251f156Ae5a223749c53C0eC3B74800810f2F25</v>
       </c>
       <c r="B124" t="str">
-        <v>10,583.23</v>
+        <v>3,332.4</v>
       </c>
       <c r="C124" t="str">
-        <v>10,583.23</v>
+        <v>3,332.4</v>
       </c>
       <c r="D124" t="str">
-        <v>0</v>
+        <v>2,412.29</v>
       </c>
       <c r="E124" t="str">
-        <v>6,601.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
+        <v>0x387c310a3cC65aa12BC11CAF67a17b4a8693ed5e</v>
       </c>
       <c r="B125" t="str">
-        <v>3,212.98</v>
+        <v>3,332.4</v>
       </c>
       <c r="C125" t="str">
-        <v>3,212.98</v>
+        <v>3,332.4</v>
       </c>
       <c r="D125" t="str">
-        <v>2,004.25</v>
+        <v>0</v>
       </c>
       <c r="E125" t="str">
-        <v>0</v>
+        <v>2,412.29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>0xE34bBD8d72B7Ffe5ad2e84CE93e3A07581De2e50</v>
+        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
       </c>
       <c r="B126" t="str">
-        <v>0</v>
+        <v>10,748.39</v>
       </c>
       <c r="C126" t="str">
-        <v>144.27</v>
+        <v>10,748.39</v>
       </c>
       <c r="D126" t="str">
         <v>0</v>
       </c>
       <c r="E126" t="str">
-        <v>90</v>
+        <v>7,780.63</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>0x69f96f2A5Cdd84E574dB2a353880095988243417</v>
+        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
       </c>
       <c r="B127" t="str">
-        <v>0</v>
+        <v>256.62</v>
       </c>
       <c r="C127" t="str">
-        <v>56.1</v>
+        <v>256.62</v>
       </c>
       <c r="D127" t="str">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E127" t="str">
-        <v>0</v>
+        <v>185.77</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>0xdE976b1178696723F86102aaf17Ddd70522908dA</v>
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
       </c>
       <c r="B128" t="str">
-        <v>801.54</v>
+        <v>404.34</v>
       </c>
       <c r="C128" t="str">
-        <v>801.54</v>
+        <v>404.34</v>
       </c>
       <c r="D128" t="str">
-        <v>500</v>
+        <v>292.7</v>
       </c>
       <c r="E128" t="str">
         <v>0</v>
@@ -13131,50 +16393,50 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>0x96f194Cf1c9e5eE23B4D96785791F468F6A9C98e</v>
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
       </c>
       <c r="B129" t="str">
-        <v>8,015.42</v>
+        <v>34,753.8</v>
       </c>
       <c r="C129" t="str">
-        <v>8,015.42</v>
+        <v>34,753.8</v>
       </c>
       <c r="D129" t="str">
         <v>0</v>
       </c>
       <c r="E129" t="str">
-        <v>5,000</v>
+        <v>25,157.85</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
       </c>
       <c r="B130" t="str">
-        <v>2,344.67</v>
+        <v>2,423.91</v>
       </c>
       <c r="C130" t="str">
-        <v>2,344.67</v>
+        <v>2,423.91</v>
       </c>
       <c r="D130" t="str">
-        <v>0</v>
+        <v>1,754.64</v>
       </c>
       <c r="E130" t="str">
-        <v>1,462.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
+        <v>0x04d9f35C7c292ca2c75C498563b48123C0662e19</v>
       </c>
       <c r="B131" t="str">
-        <v>139.72</v>
+        <v>1,834.08</v>
       </c>
       <c r="C131" t="str">
-        <v>139.72</v>
+        <v>1,834.08</v>
       </c>
       <c r="D131" t="str">
-        <v>87.16</v>
+        <v>1,327.67</v>
       </c>
       <c r="E131" t="str">
         <v>0</v>
@@ -13182,67 +16444,67 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+        <v>0xBc7b31dFbEd762841AC646961C887B49e3f625d5</v>
       </c>
       <c r="B132" t="str">
-        <v>139.72</v>
+        <v>841.59</v>
       </c>
       <c r="C132" t="str">
-        <v>139.72</v>
+        <v>841.59</v>
       </c>
       <c r="D132" t="str">
-        <v>0</v>
+        <v>609.22</v>
       </c>
       <c r="E132" t="str">
-        <v>87.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
+        <v>0x4e300F965ACE7aBF11A53662419F9A2D27dE3B1d</v>
       </c>
       <c r="B133" t="str">
-        <v>175.71</v>
+        <v>1,352.35</v>
       </c>
       <c r="C133" t="str">
-        <v>175.71</v>
+        <v>1,352.35</v>
       </c>
       <c r="D133" t="str">
-        <v>87.98</v>
+        <v>0</v>
       </c>
       <c r="E133" t="str">
-        <v>21.63</v>
+        <v>978.95</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>0x36413818a988749f40de4877B51f782126282a89</v>
+        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
       </c>
       <c r="B134" t="str">
-        <v>1,909.56</v>
+        <v>28,280.45</v>
       </c>
       <c r="C134" t="str">
-        <v>1,909.56</v>
+        <v>28,280.45</v>
       </c>
       <c r="D134" t="str">
-        <v>1,191.18</v>
+        <v>0</v>
       </c>
       <c r="E134" t="str">
-        <v>0</v>
+        <v>20,471.87</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>0xd092C607a92c75de3bB1240494C4822Bf3766D46</v>
+        <v>0xc677a6C972baeCe4Bf9C0a2EbB600886F0300a7D</v>
       </c>
       <c r="B135" t="str">
-        <v>155.29</v>
+        <v>17,708.69</v>
       </c>
       <c r="C135" t="str">
-        <v>155.29</v>
+        <v>17,708.69</v>
       </c>
       <c r="D135" t="str">
-        <v>96.87</v>
+        <v>12,819.11</v>
       </c>
       <c r="E135" t="str">
         <v>0</v>
@@ -13250,33 +16512,33 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
       </c>
       <c r="B136" t="str">
-        <v>7,749.78</v>
+        <v>2,698.73</v>
       </c>
       <c r="C136" t="str">
-        <v>7,749.78</v>
+        <v>2,698.73</v>
       </c>
       <c r="D136" t="str">
-        <v>0</v>
+        <v>1,796.44</v>
       </c>
       <c r="E136" t="str">
-        <v>4,834.29</v>
+        <v>157.14</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>0xAD5c21611Ea4790991c40BFD8e0888e012D7162E</v>
+        <v>0x25E9eA1a93D9e505cd7d056C1e1bA16789537EAb</v>
       </c>
       <c r="B137" t="str">
-        <v>915.23</v>
+        <v>52.05</v>
       </c>
       <c r="C137" t="str">
-        <v>915.23</v>
+        <v>52.05</v>
       </c>
       <c r="D137" t="str">
-        <v>570.92</v>
+        <v>37.68</v>
       </c>
       <c r="E137" t="str">
         <v>0</v>
@@ -13284,50 +16546,50 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
       </c>
       <c r="B138" t="str">
-        <v>915.23</v>
+        <v>1,333.35</v>
       </c>
       <c r="C138" t="str">
-        <v>915.23</v>
+        <v>1,333.35</v>
       </c>
       <c r="D138" t="str">
         <v>0</v>
       </c>
       <c r="E138" t="str">
-        <v>570.92</v>
+        <v>965.2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
+        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
       </c>
       <c r="B139" t="str">
-        <v>5,371.71</v>
+        <v>996.52</v>
       </c>
       <c r="C139" t="str">
-        <v>5,371.71</v>
+        <v>996.52</v>
       </c>
       <c r="D139" t="str">
-        <v>3,350.86</v>
+        <v>0</v>
       </c>
       <c r="E139" t="str">
-        <v>0</v>
+        <v>721.37</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>0x04d9f35C7c292ca2c75C498563b48123C0662e19</v>
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
       </c>
       <c r="B140" t="str">
-        <v>2,471.09</v>
+        <v>20,869.09</v>
       </c>
       <c r="C140" t="str">
-        <v>2,471.09</v>
+        <v>20,869.09</v>
       </c>
       <c r="D140" t="str">
-        <v>1,541.46</v>
+        <v>15,106.88</v>
       </c>
       <c r="E140" t="str">
         <v>0</v>
@@ -13335,271 +16597,271 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
       </c>
       <c r="B141" t="str">
-        <v>1,064.43</v>
+        <v>646.53</v>
       </c>
       <c r="C141" t="str">
-        <v>1,064.43</v>
+        <v>646.53</v>
       </c>
       <c r="D141" t="str">
-        <v>663.99</v>
+        <v>0</v>
       </c>
       <c r="E141" t="str">
-        <v>0</v>
+        <v>468.02</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+        <v>0xb71A9245bC9D0f6b78c7b38527e939C4A0a2fa53</v>
       </c>
       <c r="B142" t="str">
-        <v>957,107.45</v>
+        <v>1,636.31</v>
       </c>
       <c r="C142" t="str">
-        <v>957,107.45</v>
+        <v>1,636.31</v>
       </c>
       <c r="D142" t="str">
-        <v>298,866.65</v>
+        <v>1,184.51</v>
       </c>
       <c r="E142" t="str">
-        <v>298,174.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
       </c>
       <c r="B143" t="str">
-        <v>957,107.45</v>
+        <v>961,395.47</v>
       </c>
       <c r="C143" t="str">
-        <v>957,107.45</v>
+        <v>961,395.47</v>
       </c>
       <c r="D143" t="str">
-        <v>298,174.11</v>
+        <v>347,930.24</v>
       </c>
       <c r="E143" t="str">
-        <v>298,866.65</v>
+        <v>348,012.12</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>0xfFbea98964b8683427F5c3CFFbddcDA07E40caD4</v>
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
       </c>
       <c r="B144" t="str">
-        <v>24.04</v>
+        <v>961,395.47</v>
       </c>
       <c r="C144" t="str">
-        <v>24.04</v>
+        <v>961,395.47</v>
       </c>
       <c r="D144" t="str">
-        <v>15</v>
+        <v>348,012.12</v>
       </c>
       <c r="E144" t="str">
-        <v>0</v>
+        <v>347,930.24</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>0x54bE4074E027546F3De714a350782b380ab2B513</v>
+        <v>0x9C19FE52c5b04d39EF89d58fCDef24A55CfDA4a7</v>
       </c>
       <c r="B145" t="str">
-        <v>24.04</v>
+        <v>240.36</v>
       </c>
       <c r="C145" t="str">
-        <v>24.04</v>
+        <v>240.36</v>
       </c>
       <c r="D145" t="str">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="E145" t="str">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+        <v>0x8218E1a9D02E26E2aF124EA28b121031Cf25AaC8</v>
       </c>
       <c r="B146" t="str">
-        <v>492.72</v>
+        <v>2,495.53</v>
       </c>
       <c r="C146" t="str">
-        <v>492.72</v>
+        <v>2,495.53</v>
       </c>
       <c r="D146" t="str">
-        <v>0</v>
+        <v>1,806.49</v>
       </c>
       <c r="E146" t="str">
-        <v>307.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
+        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
       </c>
       <c r="B147" t="str">
-        <v>189.06</v>
+        <v>1,174.21</v>
       </c>
       <c r="C147" t="str">
-        <v>189.06</v>
+        <v>1,174.21</v>
       </c>
       <c r="D147" t="str">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="E147" t="str">
-        <v>117.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
+        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
       </c>
       <c r="B148" t="str">
-        <v>71.43</v>
+        <v>1,174.21</v>
       </c>
       <c r="C148" t="str">
-        <v>71.43</v>
+        <v>1,174.21</v>
       </c>
       <c r="D148" t="str">
-        <v>44.56</v>
+        <v>0</v>
       </c>
       <c r="E148" t="str">
-        <v>0</v>
+        <v>850</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
       </c>
       <c r="B149" t="str">
-        <v>182.81</v>
+        <v>1,107.22</v>
       </c>
       <c r="C149" t="str">
-        <v>182.81</v>
+        <v>1,107.22</v>
       </c>
       <c r="D149" t="str">
-        <v>114.04</v>
+        <v>0</v>
       </c>
       <c r="E149" t="str">
-        <v>0</v>
+        <v>801.51</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
+        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
       </c>
       <c r="B150" t="str">
-        <v>182.81</v>
+        <v>217.07</v>
       </c>
       <c r="C150" t="str">
-        <v>182.81</v>
+        <v>217.07</v>
       </c>
       <c r="D150" t="str">
-        <v>0</v>
+        <v>157.14</v>
       </c>
       <c r="E150" t="str">
-        <v>114.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
+        <v>0xa865CAf1A880B631f6AaB646168Bb7AF029ae4a0</v>
       </c>
       <c r="B151" t="str">
-        <v>106.81</v>
+        <v>351.9</v>
       </c>
       <c r="C151" t="str">
-        <v>106.81</v>
+        <v>351.9</v>
       </c>
       <c r="D151" t="str">
-        <v>66.63</v>
+        <v>0</v>
       </c>
       <c r="E151" t="str">
-        <v>0</v>
+        <v>254.74</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>0xFa544d034dC07aD4Fa185ba769031a29Fbef5e36</v>
+        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
       </c>
       <c r="B152" t="str">
-        <v>106.81</v>
+        <v>23.02</v>
       </c>
       <c r="C152" t="str">
-        <v>106.81</v>
+        <v>23.02</v>
       </c>
       <c r="D152" t="str">
         <v>0</v>
       </c>
       <c r="E152" t="str">
-        <v>66.63</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>0x25E9eA1a93D9e505cd7d056C1e1bA16789537EAb</v>
+        <v>0x65715D1348199900B590cEBef7E0141EC224aaF7</v>
       </c>
       <c r="B153" t="str">
-        <v>6,905.51</v>
+        <v>1,296.11</v>
       </c>
       <c r="C153" t="str">
-        <v>6,905.51</v>
+        <v>1,296.11</v>
       </c>
       <c r="D153" t="str">
-        <v>507.82</v>
+        <v>938.24</v>
       </c>
       <c r="E153" t="str">
-        <v>3,799.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
       </c>
       <c r="B154" t="str">
-        <v>438.87</v>
+        <v>28.58</v>
       </c>
       <c r="C154" t="str">
-        <v>438.87</v>
+        <v>28.58</v>
       </c>
       <c r="D154" t="str">
-        <v>273.77</v>
+        <v>0</v>
       </c>
       <c r="E154" t="str">
-        <v>0</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
       </c>
       <c r="B155" t="str">
-        <v>3,862.55</v>
+        <v>0</v>
       </c>
       <c r="C155" t="str">
-        <v>3,862.55</v>
+        <v>9,421.06</v>
       </c>
       <c r="D155" t="str">
-        <v>2,409.45</v>
+        <v>0</v>
       </c>
       <c r="E155" t="str">
-        <v>0</v>
+        <v>6,819.79</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>0x4922dc29D2d0c725F542f5021D9353F3872F2dFF</v>
+        <v>0xf90518CBcd4ef086891cb22C87bd4F80B61a7081</v>
       </c>
       <c r="B156" t="str">
-        <v>2,003.85</v>
+        <v>3,427.82</v>
       </c>
       <c r="C156" t="str">
-        <v>2,003.85</v>
+        <v>3,427.82</v>
       </c>
       <c r="D156" t="str">
-        <v>1,250</v>
+        <v>2,481.36</v>
       </c>
       <c r="E156" t="str">
         <v>0</v>
@@ -13607,84 +16869,84 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>0xF473Ea7dc6E82C348530FDE410bFF035bCe0B269</v>
+        <v>0xD53314Cd179ccD3926Af264e62E3B6dAB06A6419</v>
       </c>
       <c r="B157" t="str">
-        <v>2,003.85</v>
+        <v>3,427.82</v>
       </c>
       <c r="C157" t="str">
-        <v>2,003.85</v>
+        <v>3,427.82</v>
       </c>
       <c r="D157" t="str">
         <v>0</v>
       </c>
       <c r="E157" t="str">
-        <v>1,250</v>
+        <v>2,481.36</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>0x2abf42F330c60491E8A36B73c9F3F9Ed40CDa546</v>
+        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
       </c>
       <c r="B158" t="str">
-        <v>26,480.48</v>
+        <v>1,471.95</v>
       </c>
       <c r="C158" t="str">
-        <v>26,480.48</v>
+        <v>1,471.95</v>
       </c>
       <c r="D158" t="str">
-        <v>0</v>
+        <v>1,065.53</v>
       </c>
       <c r="E158" t="str">
-        <v>16,518.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
       </c>
       <c r="B159" t="str">
-        <v>1,775.85</v>
+        <v>2,521.62</v>
       </c>
       <c r="C159" t="str">
-        <v>1,775.85</v>
+        <v>2,521.62</v>
       </c>
       <c r="D159" t="str">
         <v>0</v>
       </c>
       <c r="E159" t="str">
-        <v>1,107.77</v>
+        <v>1,825.37</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
+        <v>0x880cd618B4cA66bBb8862558954d8473d7b0C867</v>
       </c>
       <c r="B160" t="str">
-        <v>160.3</v>
+        <v>826.31</v>
       </c>
       <c r="C160" t="str">
-        <v>160.3</v>
+        <v>826.31</v>
       </c>
       <c r="D160" t="str">
-        <v>0</v>
+        <v>598.16</v>
       </c>
       <c r="E160" t="str">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
+        <v>0x0fB3b0892619aF19B0a8016783f84EED26CfAE1E</v>
       </c>
       <c r="B161" t="str">
-        <v>2,003.85</v>
+        <v>67.1</v>
       </c>
       <c r="C161" t="str">
-        <v>2,003.85</v>
+        <v>67.1</v>
       </c>
       <c r="D161" t="str">
-        <v>1,250</v>
+        <v>48.58</v>
       </c>
       <c r="E161" t="str">
         <v>0</v>
@@ -13692,50 +16954,50 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
+        <v>0x8a3B39c36e88E3BE71B960cFBe2e4F66dB890E42</v>
       </c>
       <c r="B162" t="str">
-        <v>2,003.85</v>
+        <v>0</v>
       </c>
       <c r="C162" t="str">
-        <v>2,003.85</v>
+        <v>3,546.95</v>
       </c>
       <c r="D162" t="str">
-        <v>0</v>
+        <v>2,567.6</v>
       </c>
       <c r="E162" t="str">
-        <v>1,250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>0x7c8f1cdd0fCC84d9A0354B91Cf77507982ED31De</v>
+        <v>0xeC1F8ED638E9599e90A701a94b9Fe216BC2C8bca</v>
       </c>
       <c r="B163" t="str">
-        <v>2.66</v>
+        <v>228.79</v>
       </c>
       <c r="C163" t="str">
-        <v>2.66</v>
+        <v>228.79</v>
       </c>
       <c r="D163" t="str">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="E163" t="str">
-        <v>0</v>
+        <v>165.62</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>0xfC8B5e50e7aa48f71F422339e4c0040f7779C714</v>
+        <v>0x949ed04509D001B0f6614695b496f23dE010252A</v>
       </c>
       <c r="B164" t="str">
-        <v>4,568.79</v>
+        <v>285.91</v>
       </c>
       <c r="C164" t="str">
-        <v>4,568.79</v>
+        <v>285.91</v>
       </c>
       <c r="D164" t="str">
-        <v>2,850</v>
+        <v>206.97</v>
       </c>
       <c r="E164" t="str">
         <v>0</v>
@@ -13743,33 +17005,33 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
+        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
       </c>
       <c r="B165" t="str">
-        <v>1,061.38</v>
+        <v>103.6</v>
       </c>
       <c r="C165" t="str">
-        <v>1,061.38</v>
+        <v>103.6</v>
       </c>
       <c r="D165" t="str">
-        <v>662.09</v>
+        <v>0</v>
       </c>
       <c r="E165" t="str">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>0xC284bbe095d47DC05C9695Ed0aBA98Db088a993F</v>
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
       </c>
       <c r="B166" t="str">
-        <v>66.44</v>
+        <v>56.37</v>
       </c>
       <c r="C166" t="str">
-        <v>66.44</v>
+        <v>56.37</v>
       </c>
       <c r="D166" t="str">
-        <v>41.45</v>
+        <v>40.81</v>
       </c>
       <c r="E166" t="str">
         <v>0</v>
@@ -13777,84 +17039,84 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+        <v>0xc3Dd788d51cA010573e840aE4B5fF45b5671F197</v>
       </c>
       <c r="B167" t="str">
-        <v>1,669.53</v>
+        <v>782.63</v>
       </c>
       <c r="C167" t="str">
-        <v>1,669.53</v>
+        <v>782.63</v>
       </c>
       <c r="D167" t="str">
-        <v>0</v>
+        <v>566.54</v>
       </c>
       <c r="E167" t="str">
-        <v>1,041.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>0x3e666FADbdC565692DEc4aB6A95CaaA708d28d76</v>
+        <v>0xec981ddA47A7BbA1f1A3224AC91C72825DEf2dFb</v>
       </c>
       <c r="B168" t="str">
-        <v>519.41</v>
+        <v>782.63</v>
       </c>
       <c r="C168" t="str">
-        <v>519.41</v>
+        <v>782.63</v>
       </c>
       <c r="D168" t="str">
-        <v>324.01</v>
+        <v>0</v>
       </c>
       <c r="E168" t="str">
-        <v>0</v>
+        <v>566.54</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>0xd939730f3611112DaF234420f57Cfe0e3D3b16B3</v>
+        <v>0xBC3f8985F75c8628C3a6687EB91e21f50C961a5D</v>
       </c>
       <c r="B169" t="str">
-        <v>1.6</v>
+        <v>106.17</v>
       </c>
       <c r="C169" t="str">
-        <v>1.6</v>
+        <v>106.17</v>
       </c>
       <c r="D169" t="str">
-        <v>0</v>
+        <v>76.86</v>
       </c>
       <c r="E169" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>0xb8e441ad9cA68bf92Da52A40BFBb03Bc6454ABB4</v>
+        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
       </c>
       <c r="B170" t="str">
-        <v>4.85</v>
+        <v>106.17</v>
       </c>
       <c r="C170" t="str">
-        <v>4.85</v>
+        <v>106.17</v>
       </c>
       <c r="D170" t="str">
         <v>0</v>
       </c>
       <c r="E170" t="str">
-        <v>3.03</v>
+        <v>76.86</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
+        <v>0x2e9Ba451A457f10c4737C4d3B2a16db225153B84</v>
       </c>
       <c r="B171" t="str">
-        <v>0</v>
+        <v>1,593.82</v>
       </c>
       <c r="C171" t="str">
-        <v>47.32</v>
+        <v>1,593.82</v>
       </c>
       <c r="D171" t="str">
-        <v>29.52</v>
+        <v>1,153.75</v>
       </c>
       <c r="E171" t="str">
         <v>0</v>
@@ -13862,16 +17124,16 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>0xa8f881849583f2dBC55f04433C62Edbc79f46286</v>
+        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
       </c>
       <c r="B172" t="str">
-        <v>29.81</v>
+        <v>0</v>
       </c>
       <c r="C172" t="str">
-        <v>29.81</v>
+        <v>81.51</v>
       </c>
       <c r="D172" t="str">
-        <v>18.6</v>
+        <v>59.01</v>
       </c>
       <c r="E172" t="str">
         <v>0</v>
@@ -13879,33 +17141,33 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
+        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
       </c>
       <c r="B173" t="str">
-        <v>29.81</v>
+        <v>81.51</v>
       </c>
       <c r="C173" t="str">
-        <v>29.81</v>
+        <v>81.51</v>
       </c>
       <c r="D173" t="str">
         <v>0</v>
       </c>
       <c r="E173" t="str">
-        <v>18.6</v>
+        <v>59.01</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+        <v>0x091D2bf74f675Df1d72eD6E07bCB693D56a4163c</v>
       </c>
       <c r="B174" t="str">
-        <v>74.15</v>
+        <v>0</v>
       </c>
       <c r="C174" t="str">
-        <v>74.15</v>
+        <v>2,573.13</v>
       </c>
       <c r="D174" t="str">
-        <v>46.26</v>
+        <v>1,862.66</v>
       </c>
       <c r="E174" t="str">
         <v>0</v>
@@ -13913,33 +17175,33 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>0x4e0F1063F13d020B1316791Ae56ea5a826aba501</v>
+        <v>0xAE1aD5B0Cb04CFe479E9308006F2e0063Ab8E845</v>
       </c>
       <c r="B175" t="str">
-        <v>82.62</v>
+        <v>1,072.95</v>
       </c>
       <c r="C175" t="str">
-        <v>82.62</v>
+        <v>1,072.95</v>
       </c>
       <c r="D175" t="str">
-        <v>0</v>
+        <v>776.7</v>
       </c>
       <c r="E175" t="str">
-        <v>51.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>0xAba474811CaEE0FfD4cAA44fECC15130246EF0c5</v>
+        <v>0x5f29805024b14736b5e6f2bfBe425e67a22e33B4</v>
       </c>
       <c r="B176" t="str">
-        <v>67.15</v>
+        <v>34,380.52</v>
       </c>
       <c r="C176" t="str">
-        <v>67.15</v>
+        <v>34,380.52</v>
       </c>
       <c r="D176" t="str">
-        <v>41.89</v>
+        <v>24,887.64</v>
       </c>
       <c r="E176" t="str">
         <v>0</v>
@@ -13947,169 +17209,169 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
+        <v>0x0F6b0AE7be4dc9173E938237B6969499463a5eB7</v>
       </c>
       <c r="B177" t="str">
-        <v>146.95</v>
+        <v>34,380.52</v>
       </c>
       <c r="C177" t="str">
-        <v>146.95</v>
+        <v>34,380.52</v>
       </c>
       <c r="D177" t="str">
-        <v>91.67</v>
+        <v>0</v>
       </c>
       <c r="E177" t="str">
-        <v>0</v>
+        <v>24,887.64</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+        <v>0x3D31F6Bf45af4c98238a9A9589c038CCB1Ae9b3f</v>
       </c>
       <c r="B178" t="str">
-        <v>29.68</v>
+        <v>507.77</v>
       </c>
       <c r="C178" t="str">
-        <v>29.68</v>
+        <v>507.77</v>
       </c>
       <c r="D178" t="str">
         <v>0</v>
       </c>
       <c r="E178" t="str">
-        <v>18.52</v>
+        <v>367.57</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>0x886bEa30e61b20d47180418c86279a12708F6dC5</v>
+        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
       </c>
       <c r="B179" t="str">
-        <v>1,603.08</v>
+        <v>78.63</v>
       </c>
       <c r="C179" t="str">
-        <v>1,603.08</v>
+        <v>78.63</v>
       </c>
       <c r="D179" t="str">
         <v>0</v>
       </c>
       <c r="E179" t="str">
-        <v>1,000</v>
+        <v>56.92</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
+        <v>0x8969DF60ACc4BB0f05cE8137608AD4434E2f4dEA</v>
       </c>
       <c r="B180" t="str">
-        <v>558.62</v>
+        <v>542.68</v>
       </c>
       <c r="C180" t="str">
-        <v>558.62</v>
+        <v>542.68</v>
       </c>
       <c r="D180" t="str">
-        <v>348.47</v>
+        <v>0</v>
       </c>
       <c r="E180" t="str">
-        <v>0</v>
+        <v>392.84</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>0x413Af536E3D18D259A9b71B42AC66faC5aBa0Fbf</v>
+        <v>0x66B6221845b9bd7A029BCCb5523168a5AcE1e013</v>
       </c>
       <c r="B181" t="str">
-        <v>222.9</v>
+        <v>639.69</v>
       </c>
       <c r="C181" t="str">
-        <v>222.9</v>
+        <v>639.69</v>
       </c>
       <c r="D181" t="str">
         <v>0</v>
       </c>
       <c r="E181" t="str">
-        <v>139.05</v>
+        <v>463.07</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>0x361631d54F49b6a4C19F033Ef507D67aC6BA1c0a</v>
+        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
       </c>
       <c r="B182" t="str">
-        <v>818.37</v>
+        <v>3,774.7</v>
       </c>
       <c r="C182" t="str">
-        <v>818.37</v>
+        <v>3,774.7</v>
       </c>
       <c r="D182" t="str">
-        <v>510.5</v>
+        <v>0</v>
       </c>
       <c r="E182" t="str">
-        <v>0</v>
+        <v>2,732.46</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+        <v>0xE1FcC0676dE7f03EB6c63b55A5ad667416029A5F</v>
       </c>
       <c r="B183" t="str">
-        <v>64,462.28</v>
+        <v>56.05</v>
       </c>
       <c r="C183" t="str">
-        <v>64,462.28</v>
+        <v>56.05</v>
       </c>
       <c r="D183" t="str">
-        <v>40,211.38</v>
+        <v>0</v>
       </c>
       <c r="E183" t="str">
-        <v>0</v>
+        <v>40.58</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+        <v>0x7aa90dE22D64831e54DA455A90621560f1bC97a2</v>
       </c>
       <c r="B184" t="str">
-        <v>64,462.28</v>
+        <v>7,905.2</v>
       </c>
       <c r="C184" t="str">
-        <v>64,462.28</v>
+        <v>7,905.2</v>
       </c>
       <c r="D184" t="str">
-        <v>0</v>
+        <v>210.96</v>
       </c>
       <c r="E184" t="str">
-        <v>40,211.38</v>
+        <v>5,511.52</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>0x760d7E2525DDB8790d047CFF195b753F9dCCac41</v>
+        <v>0xFa12186c269720c59e6019e4C200589A0d4BCa24</v>
       </c>
       <c r="B185" t="str">
-        <v>83.64</v>
+        <v>130.46</v>
       </c>
       <c r="C185" t="str">
-        <v>83.64</v>
+        <v>130.46</v>
       </c>
       <c r="D185" t="str">
         <v>0</v>
       </c>
       <c r="E185" t="str">
-        <v>52.18</v>
+        <v>94.44</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>0xb71A9245bC9D0f6b78c7b38527e939C4A0a2fa53</v>
+        <v>0x2A1Cc6c77782EA6BE6C08d61430A79E31Ea4efDf</v>
       </c>
       <c r="B186" t="str">
-        <v>2,084.01</v>
+        <v>8,895.03</v>
       </c>
       <c r="C186" t="str">
-        <v>2,084.01</v>
+        <v>8,895.03</v>
       </c>
       <c r="D186" t="str">
-        <v>1,300</v>
+        <v>6,439.01</v>
       </c>
       <c r="E186" t="str">
         <v>0</v>
@@ -14117,50 +17379,50 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>0x425F2F1287045bC9d04C0f933E7FdEdA4A2e5765</v>
+        <v>0xb8D8066d1EE9D03800B7600d2807b7749B9F6899</v>
       </c>
       <c r="B187" t="str">
-        <v>2,084.01</v>
+        <v>172.67</v>
       </c>
       <c r="C187" t="str">
-        <v>2,084.01</v>
+        <v>172.67</v>
       </c>
       <c r="D187" t="str">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E187" t="str">
-        <v>1,300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>0xDA9e27051edceb149021f81437A6de9959c11eDf</v>
+        <v>0x0fA1AfF9540786DCad9196e0676e2e4423317FAf</v>
       </c>
       <c r="B188" t="str">
-        <v>0</v>
+        <v>783.58</v>
       </c>
       <c r="C188" t="str">
-        <v>4,408.48</v>
+        <v>783.58</v>
       </c>
       <c r="D188" t="str">
-        <v>0</v>
+        <v>567.23</v>
       </c>
       <c r="E188" t="str">
-        <v>2,750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
+        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
       </c>
       <c r="B189" t="str">
-        <v>41.95</v>
+        <v>232.35</v>
       </c>
       <c r="C189" t="str">
-        <v>41.95</v>
+        <v>232.35</v>
       </c>
       <c r="D189" t="str">
-        <v>26.17</v>
+        <v>168.2</v>
       </c>
       <c r="E189" t="str">
         <v>0</v>
@@ -14168,41 +17430,500 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+        <v>0x28207aadAe97226F70a54c25d16692197c062898</v>
       </c>
       <c r="B190" t="str">
-        <v>16.2</v>
+        <v>336.84</v>
       </c>
       <c r="C190" t="str">
-        <v>16.2</v>
+        <v>336.84</v>
       </c>
       <c r="D190" t="str">
         <v>0</v>
       </c>
       <c r="E190" t="str">
-        <v>10.11</v>
+        <v>243.84</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
+        <v>0x3d5F0A62033206273527Ef33569213E904eC4DdF</v>
+      </c>
+      <c r="B191" t="str">
+        <v>67.24</v>
+      </c>
+      <c r="C191" t="str">
+        <v>67.24</v>
+      </c>
+      <c r="D191" t="str">
+        <v>0</v>
+      </c>
+      <c r="E191" t="str">
+        <v>48.68</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>0x9F20AB479C311059cc1b4C24837Ce2B38d260e0E</v>
+      </c>
+      <c r="B192" t="str">
+        <v>690.71</v>
+      </c>
+      <c r="C192" t="str">
+        <v>690.71</v>
+      </c>
+      <c r="D192" t="str">
+        <v>0</v>
+      </c>
+      <c r="E192" t="str">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>0x620C45Fd6A4C15A4aa2A3a9301F0009b34F7809b</v>
+      </c>
+      <c r="B193" t="str">
+        <v>626.36</v>
+      </c>
+      <c r="C193" t="str">
+        <v>626.36</v>
+      </c>
+      <c r="D193" t="str">
+        <v>453.42</v>
+      </c>
+      <c r="E193" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
+      </c>
+      <c r="B194" t="str">
+        <v>139.88</v>
+      </c>
+      <c r="C194" t="str">
+        <v>139.88</v>
+      </c>
+      <c r="D194" t="str">
+        <v>0</v>
+      </c>
+      <c r="E194" t="str">
+        <v>101.26</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
+      </c>
+      <c r="B195" t="str">
+        <v>183.44</v>
+      </c>
+      <c r="C195" t="str">
+        <v>183.44</v>
+      </c>
+      <c r="D195" t="str">
+        <v>0</v>
+      </c>
+      <c r="E195" t="str">
+        <v>132.79</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+      </c>
+      <c r="B196" t="str">
+        <v>23.92</v>
+      </c>
+      <c r="C196" t="str">
+        <v>23.92</v>
+      </c>
+      <c r="D196" t="str">
+        <v>0</v>
+      </c>
+      <c r="E196" t="str">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>0x889f1F09b491711013cA6787E29e07a04FDf42a4</v>
+      </c>
+      <c r="B197" t="str">
+        <v>22,572.45</v>
+      </c>
+      <c r="C197" t="str">
+        <v>22,572.45</v>
+      </c>
+      <c r="D197" t="str">
+        <v>16,339.92</v>
+      </c>
+      <c r="E197" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>0x5C55e86A38d24BE5fF7f12221BF674C95FB188a7</v>
+      </c>
+      <c r="B198" t="str">
+        <v>13,922.79</v>
+      </c>
+      <c r="C198" t="str">
+        <v>13,922.79</v>
+      </c>
+      <c r="D198" t="str">
+        <v>10,078.54</v>
+      </c>
+      <c r="E198" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>0x29074b73Ac945ADb38081F69E2178A851C7DF091</v>
+      </c>
+      <c r="B199" t="str">
+        <v>89.41</v>
+      </c>
+      <c r="C199" t="str">
+        <v>89.41</v>
+      </c>
+      <c r="D199" t="str">
+        <v>64.73</v>
+      </c>
+      <c r="E199" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>0x8Dca7891aAb1d43b8402d23e2Ca88B0399Ed542E</v>
+      </c>
+      <c r="B200" t="str">
+        <v>121.08</v>
+      </c>
+      <c r="C200" t="str">
+        <v>121.08</v>
+      </c>
+      <c r="D200" t="str">
+        <v>0</v>
+      </c>
+      <c r="E200" t="str">
+        <v>87.65</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
+      </c>
+      <c r="B201" t="str">
+        <v>1,311.15</v>
+      </c>
+      <c r="C201" t="str">
+        <v>1,311.15</v>
+      </c>
+      <c r="D201" t="str">
+        <v>0</v>
+      </c>
+      <c r="E201" t="str">
+        <v>949.13</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+      </c>
+      <c r="B202" t="str">
+        <v>209.24</v>
+      </c>
+      <c r="C202" t="str">
+        <v>209.24</v>
+      </c>
+      <c r="D202" t="str">
+        <v>0</v>
+      </c>
+      <c r="E202" t="str">
+        <v>151.47</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>0xBf5cC197739c6B8492DAD34EaB2C33ED04061a4c</v>
+      </c>
+      <c r="B203" t="str">
+        <v>1,162.74</v>
+      </c>
+      <c r="C203" t="str">
+        <v>1,162.74</v>
+      </c>
+      <c r="D203" t="str">
+        <v>841.7</v>
+      </c>
+      <c r="E203" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
+      </c>
+      <c r="B204" t="str">
+        <v>0</v>
+      </c>
+      <c r="C204" t="str">
+        <v>180.3</v>
+      </c>
+      <c r="D204" t="str">
+        <v>130.52</v>
+      </c>
+      <c r="E204" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>0x4D30408614E40276712949ACbbF49853eA606b4a</v>
+      </c>
+      <c r="B205" t="str">
+        <v>29.86</v>
+      </c>
+      <c r="C205" t="str">
+        <v>29.86</v>
+      </c>
+      <c r="D205" t="str">
+        <v>21.62</v>
+      </c>
+      <c r="E205" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>0x487EE46941931178c481a9fA3Eeb2016E2B0CBdA</v>
+      </c>
+      <c r="B206" t="str">
+        <v>13.86</v>
+      </c>
+      <c r="C206" t="str">
+        <v>13.86</v>
+      </c>
+      <c r="D206" t="str">
+        <v>10.04</v>
+      </c>
+      <c r="E206" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
+      </c>
+      <c r="B207" t="str">
+        <v>2,225.28</v>
+      </c>
+      <c r="C207" t="str">
+        <v>2,225.28</v>
+      </c>
+      <c r="D207" t="str">
+        <v>1,610.86</v>
+      </c>
+      <c r="E207" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>0x95E299A16E92649D2Ae7E56Eed03124BcE3F2d65</v>
+      </c>
+      <c r="B208" t="str">
+        <v>32</v>
+      </c>
+      <c r="C208" t="str">
+        <v>32</v>
+      </c>
+      <c r="D208" t="str">
+        <v>23.17</v>
+      </c>
+      <c r="E208" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>0x9F6f9286f959A78F5d1E3eE78f331842539BA37B</v>
+      </c>
+      <c r="B209" t="str">
+        <v>69.76</v>
+      </c>
+      <c r="C209" t="str">
+        <v>69.76</v>
+      </c>
+      <c r="D209" t="str">
+        <v>0</v>
+      </c>
+      <c r="E209" t="str">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>0x7DE25BC41EfeD6Ee6d903Fc161C905D2fcb72Fff</v>
+      </c>
+      <c r="B210" t="str">
+        <v>3,492.36</v>
+      </c>
+      <c r="C210" t="str">
+        <v>3,492.36</v>
+      </c>
+      <c r="D210" t="str">
+        <v>0</v>
+      </c>
+      <c r="E210" t="str">
+        <v>2,528.08</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+      </c>
+      <c r="B211" t="str">
+        <v>44.67</v>
+      </c>
+      <c r="C211" t="str">
+        <v>44.67</v>
+      </c>
+      <c r="D211" t="str">
+        <v>32.34</v>
+      </c>
+      <c r="E211" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>0x2728c19586e1eB6b2AA599c15fA1456426C7CC7C</v>
+      </c>
+      <c r="B212" t="str">
+        <v>207.17</v>
+      </c>
+      <c r="C212" t="str">
+        <v>207.17</v>
+      </c>
+      <c r="D212" t="str">
+        <v>0</v>
+      </c>
+      <c r="E212" t="str">
+        <v>149.97</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+      </c>
+      <c r="B213" t="str">
+        <v>126.41</v>
+      </c>
+      <c r="C213" t="str">
+        <v>126.41</v>
+      </c>
+      <c r="D213" t="str">
+        <v>0</v>
+      </c>
+      <c r="E213" t="str">
+        <v>91.51</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+      </c>
+      <c r="B214" t="str">
+        <v>66,653.57</v>
+      </c>
+      <c r="C214" t="str">
+        <v>66,653.57</v>
+      </c>
+      <c r="D214" t="str">
+        <v>48,249.7</v>
+      </c>
+      <c r="E214" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>0x2abf42F330c60491E8A36B73c9F3F9Ed40CDa546</v>
+      </c>
+      <c r="B215" t="str">
+        <v>20,511.62</v>
+      </c>
+      <c r="C215" t="str">
+        <v>20,511.62</v>
+      </c>
+      <c r="D215" t="str">
+        <v>0</v>
+      </c>
+      <c r="E215" t="str">
+        <v>14,848.11</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
+      </c>
+      <c r="B216" t="str">
+        <v>28.41</v>
+      </c>
+      <c r="C216" t="str">
+        <v>28.41</v>
+      </c>
+      <c r="D216" t="str">
+        <v>0</v>
+      </c>
+      <c r="E216" t="str">
+        <v>20.57</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>0x358e444fFb60A1Cc82A6E412C6720f110dc1E921</v>
+      </c>
+      <c r="B217" t="str">
+        <v>0</v>
+      </c>
+      <c r="C217" t="str">
+        <v>294.29</v>
+      </c>
+      <c r="D217" t="str">
+        <v>0</v>
+      </c>
+      <c r="E217" t="str">
+        <v>213.04</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
         <v>Total</v>
       </c>
-      <c r="B191" t="str">
-        <v>3,054,486.74</v>
-      </c>
-      <c r="C191" t="str">
-        <v>3,205,127.24</v>
-      </c>
-      <c r="D191" t="str">
-        <v>850,246.02</v>
-      </c>
-      <c r="E191" t="str">
-        <v>1,149,103.33</v>
+      <c r="B218" t="str">
+        <v>3,036,834.56</v>
+      </c>
+      <c r="C218" t="str">
+        <v>3,205,127.09</v>
+      </c>
+      <c r="D218" t="str">
+        <v>1,076,851.49</v>
+      </c>
+      <c r="E218" t="str">
+        <v>1,243,301.39</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E191"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E218"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/staker_incentives.xlsx
+++ b/staker_incentives.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Blocks 70634064 - 70917849" sheetId="10" r:id="rId10"/>
     <sheet name="Blocks 70917850 - 71201412" sheetId="11" r:id="rId11"/>
     <sheet name="Blocks 71201413 - 71485154" sheetId="12" r:id="rId12"/>
+    <sheet name="Blocks 71485155 - 71767951" sheetId="13" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
@@ -14207,6 +14208,3726 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Staker Address</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Reward (ERC20 TEL)</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Uncapped Reward (ERC20 TEL)</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Staker Fees</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Referee Fees</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1,949.3</v>
+      </c>
+      <c r="C2" t="str">
+        <v>1,949.3</v>
+      </c>
+      <c r="D2" t="str">
+        <v>25</v>
+      </c>
+      <c r="E2" t="str">
+        <v>1,386.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
+      </c>
+      <c r="B3" t="str">
+        <v>439.54</v>
+      </c>
+      <c r="C3" t="str">
+        <v>439.54</v>
+      </c>
+      <c r="D3" t="str">
+        <v>187.18</v>
+      </c>
+      <c r="E3" t="str">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1,572.5</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1,572.5</v>
+      </c>
+      <c r="D4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>1,138.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+      </c>
+      <c r="B5" t="str">
+        <v>10,534.25</v>
+      </c>
+      <c r="C5" t="str">
+        <v>10,534.25</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>7,625.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>0x7308fC774925316052AD22Fbdc21f2a7FF4bDA49</v>
+      </c>
+      <c r="B6" t="str">
+        <v>0</v>
+      </c>
+      <c r="C6" t="str">
+        <v>733.98</v>
+      </c>
+      <c r="D6" t="str">
+        <v>531.32</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>0x8060070C9811bdbAeA20fd829033CFC77b498d99</v>
+      </c>
+      <c r="B7" t="str">
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <v>11,500.15</v>
+      </c>
+      <c r="D7" t="str">
+        <v>8,324.82</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>0xeb9Ea287a5BD59731C6fbDEfd9e81dAa4Dc7eB11</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1,110.15</v>
+      </c>
+      <c r="C8" t="str">
+        <v>1,110.15</v>
+      </c>
+      <c r="D8" t="str">
+        <v>724.97</v>
+      </c>
+      <c r="E8" t="str">
+        <v>78.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+      </c>
+      <c r="B9" t="str">
+        <v>25,670.76</v>
+      </c>
+      <c r="C9" t="str">
+        <v>25,670.76</v>
+      </c>
+      <c r="D9" t="str">
+        <v>16.67</v>
+      </c>
+      <c r="E9" t="str">
+        <v>18,566.08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+      </c>
+      <c r="B10" t="str">
+        <v>12,484.56</v>
+      </c>
+      <c r="C10" t="str">
+        <v>12,484.56</v>
+      </c>
+      <c r="D10" t="str">
+        <v>643.49</v>
+      </c>
+      <c r="E10" t="str">
+        <v>8,393.93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+      </c>
+      <c r="B11" t="str">
+        <v>406.07</v>
+      </c>
+      <c r="C11" t="str">
+        <v>406.07</v>
+      </c>
+      <c r="D11" t="str">
+        <v>293.95</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+      </c>
+      <c r="B12" t="str">
+        <v>23,825.56</v>
+      </c>
+      <c r="C12" t="str">
+        <v>23,825.56</v>
+      </c>
+      <c r="D12" t="str">
+        <v>463.07</v>
+      </c>
+      <c r="E12" t="str">
+        <v>16,783.96</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>0x16eE201E4fD4418f47A6c7f45fB0Aaf8a61011Df</v>
+      </c>
+      <c r="B13" t="str">
+        <v>6,715.69</v>
+      </c>
+      <c r="C13" t="str">
+        <v>6,715.69</v>
+      </c>
+      <c r="D13" t="str">
+        <v>4,861.41</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
+      </c>
+      <c r="B14" t="str">
+        <v>6,245.34</v>
+      </c>
+      <c r="C14" t="str">
+        <v>6,245.34</v>
+      </c>
+      <c r="D14" t="str">
+        <v>4,520.93</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+      </c>
+      <c r="B15" t="str">
+        <v>59,882.96</v>
+      </c>
+      <c r="C15" t="str">
+        <v>59,882.96</v>
+      </c>
+      <c r="D15" t="str">
+        <v>16,490.01</v>
+      </c>
+      <c r="E15" t="str">
+        <v>26,858.53</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+      </c>
+      <c r="B16" t="str">
+        <v>16,154.14</v>
+      </c>
+      <c r="C16" t="str">
+        <v>16,154.14</v>
+      </c>
+      <c r="D16" t="str">
+        <v>6,819.79</v>
+      </c>
+      <c r="E16" t="str">
+        <v>4,874</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
+      </c>
+      <c r="B17" t="str">
+        <v>731.05</v>
+      </c>
+      <c r="C17" t="str">
+        <v>731.05</v>
+      </c>
+      <c r="D17" t="str">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <v>529.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
+      </c>
+      <c r="B18" t="str">
+        <v>392.06</v>
+      </c>
+      <c r="C18" t="str">
+        <v>392.06</v>
+      </c>
+      <c r="D18" t="str">
+        <v>283.81</v>
+      </c>
+      <c r="E18" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+      </c>
+      <c r="B19" t="str">
+        <v>271.96</v>
+      </c>
+      <c r="C19" t="str">
+        <v>271.96</v>
+      </c>
+      <c r="D19" t="str">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <v>196.87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
+      </c>
+      <c r="B20" t="str">
+        <v>1,321.28</v>
+      </c>
+      <c r="C20" t="str">
+        <v>1,321.28</v>
+      </c>
+      <c r="D20" t="str">
+        <v>775.23</v>
+      </c>
+      <c r="E20" t="str">
+        <v>181.23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+      </c>
+      <c r="B21" t="str">
+        <v>1,070.92</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1,070.92</v>
+      </c>
+      <c r="D21" t="str">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <v>775.23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
+      </c>
+      <c r="B22" t="str">
+        <v>1,472.24</v>
+      </c>
+      <c r="C22" t="str">
+        <v>1,472.24</v>
+      </c>
+      <c r="D22" t="str">
+        <v>1,065.74</v>
+      </c>
+      <c r="E22" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>0x942E746C384bec88Dfa6164e8d699858E9988FeB</v>
+      </c>
+      <c r="B23" t="str">
+        <v>611.53</v>
+      </c>
+      <c r="C23" t="str">
+        <v>611.53</v>
+      </c>
+      <c r="D23" t="str">
+        <v>442.68</v>
+      </c>
+      <c r="E23" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
+      </c>
+      <c r="B24" t="str">
+        <v>225.91</v>
+      </c>
+      <c r="C24" t="str">
+        <v>225.91</v>
+      </c>
+      <c r="D24" t="str">
+        <v>163.54</v>
+      </c>
+      <c r="E24" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
+      </c>
+      <c r="B25" t="str">
+        <v>180.96</v>
+      </c>
+      <c r="C25" t="str">
+        <v>180.96</v>
+      </c>
+      <c r="D25" t="str">
+        <v>131</v>
+      </c>
+      <c r="E25" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>0x79622cD63ff61A74613fAFB805B7f32D3cf78A95</v>
+      </c>
+      <c r="B26" t="str">
+        <v>17,460.15</v>
+      </c>
+      <c r="C26" t="str">
+        <v>17,460.15</v>
+      </c>
+      <c r="D26" t="str">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <v>12,639.19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
+      </c>
+      <c r="B27" t="str">
+        <v>1,488.65</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1,488.65</v>
+      </c>
+      <c r="D27" t="str">
+        <v>467.62</v>
+      </c>
+      <c r="E27" t="str">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
+      </c>
+      <c r="B28" t="str">
+        <v>6,126.01</v>
+      </c>
+      <c r="C28" t="str">
+        <v>6,126.01</v>
+      </c>
+      <c r="D28" t="str">
+        <v>4,434.55</v>
+      </c>
+      <c r="E28" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
+      </c>
+      <c r="B29" t="str">
+        <v>98,240.66</v>
+      </c>
+      <c r="C29" t="str">
+        <v>98,240.66</v>
+      </c>
+      <c r="D29" t="str">
+        <v>9,968</v>
+      </c>
+      <c r="E29" t="str">
+        <v>61,147.21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>0x175780bC4d0A1bc28c46C3E71130C092790E7576</v>
+      </c>
+      <c r="B30" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="C30" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="D30" t="str">
+        <v>0.87</v>
+      </c>
+      <c r="E30" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
+      </c>
+      <c r="B31" t="str">
+        <v>370.38</v>
+      </c>
+      <c r="C31" t="str">
+        <v>370.38</v>
+      </c>
+      <c r="D31" t="str">
+        <v>268.12</v>
+      </c>
+      <c r="E31" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>0x27dF802924227b28Ad0Bec076Bd7f1D223441bF5</v>
+      </c>
+      <c r="B32" t="str">
+        <v>321.01</v>
+      </c>
+      <c r="C32" t="str">
+        <v>321.01</v>
+      </c>
+      <c r="D32" t="str">
+        <v>232.38</v>
+      </c>
+      <c r="E32" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
+      </c>
+      <c r="B33" t="str">
+        <v>470.81</v>
+      </c>
+      <c r="C33" t="str">
+        <v>470.81</v>
+      </c>
+      <c r="D33" t="str">
+        <v>340.82</v>
+      </c>
+      <c r="E33" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
+      </c>
+      <c r="B34" t="str">
+        <v>10,748.39</v>
+      </c>
+      <c r="C34" t="str">
+        <v>10,748.39</v>
+      </c>
+      <c r="D34" t="str">
+        <v>7,780.63</v>
+      </c>
+      <c r="E34" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+      </c>
+      <c r="B35" t="str">
+        <v>762.42</v>
+      </c>
+      <c r="C35" t="str">
+        <v>762.42</v>
+      </c>
+      <c r="D35" t="str">
+        <v>551.91</v>
+      </c>
+      <c r="E35" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+      </c>
+      <c r="B36" t="str">
+        <v>1,301.14</v>
+      </c>
+      <c r="C36" t="str">
+        <v>1,301.14</v>
+      </c>
+      <c r="D36" t="str">
+        <v>332.66</v>
+      </c>
+      <c r="E36" t="str">
+        <v>609.22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
+      </c>
+      <c r="B37" t="str">
+        <v>250.35</v>
+      </c>
+      <c r="C37" t="str">
+        <v>250.35</v>
+      </c>
+      <c r="D37" t="str">
+        <v>181.23</v>
+      </c>
+      <c r="E37" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
+      </c>
+      <c r="B38" t="str">
+        <v>953.21</v>
+      </c>
+      <c r="C38" t="str">
+        <v>953.21</v>
+      </c>
+      <c r="D38" t="str">
+        <v>690.02</v>
+      </c>
+      <c r="E38" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>0x4e0F1063F13d020B1316791Ae56ea5a826aba501</v>
+      </c>
+      <c r="B39" t="str">
+        <v>351.9</v>
+      </c>
+      <c r="C39" t="str">
+        <v>351.9</v>
+      </c>
+      <c r="D39" t="str">
+        <v>254.74</v>
+      </c>
+      <c r="E39" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
+      </c>
+      <c r="B40" t="str">
+        <v>902.95</v>
+      </c>
+      <c r="C40" t="str">
+        <v>902.95</v>
+      </c>
+      <c r="D40" t="str">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <v>653.64</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+      </c>
+      <c r="B41" t="str">
+        <v>4,396.28</v>
+      </c>
+      <c r="C41" t="str">
+        <v>4,396.28</v>
+      </c>
+      <c r="D41" t="str">
+        <v>3,182.42</v>
+      </c>
+      <c r="E41" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
+      </c>
+      <c r="B42" t="str">
+        <v>143.72</v>
+      </c>
+      <c r="C42" t="str">
+        <v>143.72</v>
+      </c>
+      <c r="D42" t="str">
+        <v>104.04</v>
+      </c>
+      <c r="E42" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
+      </c>
+      <c r="B43" t="str">
+        <v>63.44</v>
+      </c>
+      <c r="C43" t="str">
+        <v>63.44</v>
+      </c>
+      <c r="D43" t="str">
+        <v>45.93</v>
+      </c>
+      <c r="E43" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>0x68Aaa776A6Ac3DA289893423D8827DF25841F72C</v>
+      </c>
+      <c r="B44" t="str">
+        <v>140.82</v>
+      </c>
+      <c r="C44" t="str">
+        <v>140.82</v>
+      </c>
+      <c r="D44" t="str">
+        <v>101.94</v>
+      </c>
+      <c r="E44" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>0xf2278c9CE9438A1e24F1BE11Ab0B399A03baB717</v>
+      </c>
+      <c r="B45" t="str">
+        <v>83.35</v>
+      </c>
+      <c r="C45" t="str">
+        <v>83.35</v>
+      </c>
+      <c r="D45" t="str">
+        <v>60.34</v>
+      </c>
+      <c r="E45" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>0x80BEe177a79d87c112CB40694182fAa7351a1CF4</v>
+      </c>
+      <c r="B46" t="str">
+        <v>154.01</v>
+      </c>
+      <c r="C46" t="str">
+        <v>154.01</v>
+      </c>
+      <c r="D46" t="str">
+        <v>111.49</v>
+      </c>
+      <c r="E46" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>0xc4b88bff8D047576eC693EaFA72482A5e8f0fd7A</v>
+      </c>
+      <c r="B47" t="str">
+        <v>55.07</v>
+      </c>
+      <c r="C47" t="str">
+        <v>55.07</v>
+      </c>
+      <c r="D47" t="str">
+        <v>39.87</v>
+      </c>
+      <c r="E47" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
+      </c>
+      <c r="B48" t="str">
+        <v>13.81</v>
+      </c>
+      <c r="C48" t="str">
+        <v>13.81</v>
+      </c>
+      <c r="D48" t="str">
+        <v>10</v>
+      </c>
+      <c r="E48" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>0x8BFF5eB745527844b0abfd7D9730cDE82948cFf0</v>
+      </c>
+      <c r="B49" t="str">
+        <v>507.77</v>
+      </c>
+      <c r="C49" t="str">
+        <v>507.77</v>
+      </c>
+      <c r="D49" t="str">
+        <v>367.57</v>
+      </c>
+      <c r="E49" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
+      </c>
+      <c r="B50" t="str">
+        <v>1,049.66</v>
+      </c>
+      <c r="C50" t="str">
+        <v>1,049.66</v>
+      </c>
+      <c r="D50" t="str">
+        <v>759.84</v>
+      </c>
+      <c r="E50" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>0x620964B76328a1Ec5039361877eA64510A241139</v>
+      </c>
+      <c r="B51" t="str">
+        <v>356.45</v>
+      </c>
+      <c r="C51" t="str">
+        <v>356.45</v>
+      </c>
+      <c r="D51" t="str">
+        <v>258.03</v>
+      </c>
+      <c r="E51" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>0x31D167b99FF574edfF7205bde0bF3D0555351574</v>
+      </c>
+      <c r="B52" t="str">
+        <v>130.42</v>
+      </c>
+      <c r="C52" t="str">
+        <v>130.42</v>
+      </c>
+      <c r="D52" t="str">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <v>94.41</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>0x5Fc4faF3934548c57d66f1179C2991cEd028E61F</v>
+      </c>
+      <c r="B53" t="str">
+        <v>884.59</v>
+      </c>
+      <c r="C53" t="str">
+        <v>884.59</v>
+      </c>
+      <c r="D53" t="str">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <v>640.35</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
+      </c>
+      <c r="B54" t="str">
+        <v>290.12</v>
+      </c>
+      <c r="C54" t="str">
+        <v>290.12</v>
+      </c>
+      <c r="D54" t="str">
+        <v>210.02</v>
+      </c>
+      <c r="E54" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0x0325B1b36Dc59ac07519AC60b5c7A85747274C8A</v>
+      </c>
+      <c r="B55" t="str">
+        <v>1,222.56</v>
+      </c>
+      <c r="C55" t="str">
+        <v>1,222.56</v>
+      </c>
+      <c r="D55" t="str">
+        <v>885</v>
+      </c>
+      <c r="E55" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
+      </c>
+      <c r="B56" t="str">
+        <v>1,222.56</v>
+      </c>
+      <c r="C56" t="str">
+        <v>1,222.56</v>
+      </c>
+      <c r="D56" t="str">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
+      </c>
+      <c r="B57" t="str">
+        <v>1,116.87</v>
+      </c>
+      <c r="C57" t="str">
+        <v>1,116.87</v>
+      </c>
+      <c r="D57" t="str">
+        <v>808.49</v>
+      </c>
+      <c r="E57" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+      </c>
+      <c r="B58" t="str">
+        <v>36.41</v>
+      </c>
+      <c r="C58" t="str">
+        <v>36.41</v>
+      </c>
+      <c r="D58" t="str">
+        <v>26.36</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
+      </c>
+      <c r="B59" t="str">
+        <v>29.32</v>
+      </c>
+      <c r="C59" t="str">
+        <v>29.32</v>
+      </c>
+      <c r="D59" t="str">
+        <v>21.23</v>
+      </c>
+      <c r="E59" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>0xd3330632C0e3C5A54b4B80a4a13EF9389db19B5E</v>
+      </c>
+      <c r="B60" t="str">
+        <v>134.48</v>
+      </c>
+      <c r="C60" t="str">
+        <v>134.48</v>
+      </c>
+      <c r="D60" t="str">
+        <v>97.35</v>
+      </c>
+      <c r="E60" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+      </c>
+      <c r="B61" t="str">
+        <v>66,653.57</v>
+      </c>
+      <c r="C61" t="str">
+        <v>66,653.57</v>
+      </c>
+      <c r="D61" t="str">
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <v>48,249.7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>0x7e729b21005cF2FDda685bA7Bef04c6Dc3DcD444</v>
+      </c>
+      <c r="B62" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="C62" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="D62" t="str">
+        <v>2.62</v>
+      </c>
+      <c r="E62" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
+      </c>
+      <c r="B63" t="str">
+        <v>88.54</v>
+      </c>
+      <c r="C63" t="str">
+        <v>88.54</v>
+      </c>
+      <c r="D63" t="str">
+        <v>64.1</v>
+      </c>
+      <c r="E63" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+      </c>
+      <c r="B64" t="str">
+        <v>1,990.14</v>
+      </c>
+      <c r="C64" t="str">
+        <v>1,990.14</v>
+      </c>
+      <c r="D64" t="str">
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <v>1,440.64</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+      </c>
+      <c r="B65" t="str">
+        <v>1,495.24</v>
+      </c>
+      <c r="C65" t="str">
+        <v>1,495.24</v>
+      </c>
+      <c r="D65" t="str">
+        <v>0</v>
+      </c>
+      <c r="E65" t="str">
+        <v>1,082.39</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+      </c>
+      <c r="B66" t="str">
+        <v>5,731.69</v>
+      </c>
+      <c r="C66" t="str">
+        <v>5,731.69</v>
+      </c>
+      <c r="D66" t="str">
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <v>4,149.1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
+      </c>
+      <c r="B67" t="str">
+        <v>871.53</v>
+      </c>
+      <c r="C67" t="str">
+        <v>871.53</v>
+      </c>
+      <c r="D67" t="str">
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <v>630.89</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+      </c>
+      <c r="B68" t="str">
+        <v>1,572.5</v>
+      </c>
+      <c r="C68" t="str">
+        <v>1,572.5</v>
+      </c>
+      <c r="D68" t="str">
+        <v>1,138.32</v>
+      </c>
+      <c r="E68" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>0x9ff812DfE804e2BF400Fd6fD22293203674DDdEe</v>
+      </c>
+      <c r="B69" t="str">
+        <v>63.32</v>
+      </c>
+      <c r="C69" t="str">
+        <v>63.32</v>
+      </c>
+      <c r="D69" t="str">
+        <v>45.84</v>
+      </c>
+      <c r="E69" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>0x4e50BEF218F0Db065F4EE833D3679712A74F21F2</v>
+      </c>
+      <c r="B70" t="str">
+        <v>63.32</v>
+      </c>
+      <c r="C70" t="str">
+        <v>63.32</v>
+      </c>
+      <c r="D70" t="str">
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <v>45.84</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>0xB188a4B33E4755DD08c93b07D627A605004104d2</v>
+      </c>
+      <c r="B71" t="str">
+        <v>2,008.01</v>
+      </c>
+      <c r="C71" t="str">
+        <v>2,008.01</v>
+      </c>
+      <c r="D71" t="str">
+        <v>1,453.58</v>
+      </c>
+      <c r="E71" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
+      </c>
+      <c r="B72" t="str">
+        <v>115.54</v>
+      </c>
+      <c r="C72" t="str">
+        <v>115.54</v>
+      </c>
+      <c r="D72" t="str">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <v>83.64</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+      </c>
+      <c r="B73" t="str">
+        <v>0</v>
+      </c>
+      <c r="C73" t="str">
+        <v>44,338.88</v>
+      </c>
+      <c r="D73" t="str">
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <v>32,096.37</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
+      </c>
+      <c r="B74" t="str">
+        <v>24,450.15</v>
+      </c>
+      <c r="C74" t="str">
+        <v>24,450.15</v>
+      </c>
+      <c r="D74" t="str">
+        <v>17,699.17</v>
+      </c>
+      <c r="E74" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>0x425F2F1287045bC9d04C0f933E7FdEdA4A2e5765</v>
+      </c>
+      <c r="B75" t="str">
+        <v>8,352.01</v>
+      </c>
+      <c r="C75" t="str">
+        <v>8,352.01</v>
+      </c>
+      <c r="D75" t="str">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <v>6,045.92</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
+      </c>
+      <c r="B76" t="str">
+        <v>3,429.84</v>
+      </c>
+      <c r="C76" t="str">
+        <v>3,429.84</v>
+      </c>
+      <c r="D76" t="str">
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <v>2,482.82</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>0xe23bc0609A8Df4EA2A597AEAAFcBF421BFfBDCFd</v>
+      </c>
+      <c r="B77" t="str">
+        <v>325.63</v>
+      </c>
+      <c r="C77" t="str">
+        <v>325.63</v>
+      </c>
+      <c r="D77" t="str">
+        <v>235.72</v>
+      </c>
+      <c r="E77" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+      </c>
+      <c r="B78" t="str">
+        <v>1,832.36</v>
+      </c>
+      <c r="C78" t="str">
+        <v>1,832.36</v>
+      </c>
+      <c r="D78" t="str">
+        <v>1,090.71</v>
+      </c>
+      <c r="E78" t="str">
+        <v>235.72</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+      </c>
+      <c r="B79" t="str">
+        <v>23,205.94</v>
+      </c>
+      <c r="C79" t="str">
+        <v>23,205.94</v>
+      </c>
+      <c r="D79" t="str">
+        <v>16,798.5</v>
+      </c>
+      <c r="E79" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+      </c>
+      <c r="B80" t="str">
+        <v>0</v>
+      </c>
+      <c r="C80" t="str">
+        <v>23,205.94</v>
+      </c>
+      <c r="D80" t="str">
+        <v>0</v>
+      </c>
+      <c r="E80" t="str">
+        <v>16,798.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>0xF6a52cb99b772d46C736F6F90Be792A1d4159414</v>
+      </c>
+      <c r="B81" t="str">
+        <v>131.94</v>
+      </c>
+      <c r="C81" t="str">
+        <v>131.94</v>
+      </c>
+      <c r="D81" t="str">
+        <v>95.51</v>
+      </c>
+      <c r="E81" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+      </c>
+      <c r="B82" t="str">
+        <v>1,516.05</v>
+      </c>
+      <c r="C82" t="str">
+        <v>1,516.05</v>
+      </c>
+      <c r="D82" t="str">
+        <v>1,097.45</v>
+      </c>
+      <c r="E82" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+      </c>
+      <c r="B83" t="str">
+        <v>344.48</v>
+      </c>
+      <c r="C83" t="str">
+        <v>344.48</v>
+      </c>
+      <c r="D83" t="str">
+        <v>196.87</v>
+      </c>
+      <c r="E83" t="str">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+      </c>
+      <c r="B84" t="str">
+        <v>15,274.51</v>
+      </c>
+      <c r="C84" t="str">
+        <v>15,274.51</v>
+      </c>
+      <c r="D84" t="str">
+        <v>141.94</v>
+      </c>
+      <c r="E84" t="str">
+        <v>10,915.09</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>0x413Af536E3D18D259A9b71B42AC66faC5aBa0Fbf</v>
+      </c>
+      <c r="B85" t="str">
+        <v>133.03</v>
+      </c>
+      <c r="C85" t="str">
+        <v>133.03</v>
+      </c>
+      <c r="D85" t="str">
+        <v>0</v>
+      </c>
+      <c r="E85" t="str">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
+      </c>
+      <c r="B86" t="str">
+        <v>176.75</v>
+      </c>
+      <c r="C86" t="str">
+        <v>176.75</v>
+      </c>
+      <c r="D86" t="str">
+        <v>127.95</v>
+      </c>
+      <c r="E86" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
+      </c>
+      <c r="B87" t="str">
+        <v>190.12</v>
+      </c>
+      <c r="C87" t="str">
+        <v>190.12</v>
+      </c>
+      <c r="D87" t="str">
+        <v>137.63</v>
+      </c>
+      <c r="E87" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
+      </c>
+      <c r="B88" t="str">
+        <v>1,410.01</v>
+      </c>
+      <c r="C88" t="str">
+        <v>1,410.01</v>
+      </c>
+      <c r="D88" t="str">
+        <v>1,020.69</v>
+      </c>
+      <c r="E88" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
+      </c>
+      <c r="B89" t="str">
+        <v>660.35</v>
+      </c>
+      <c r="C89" t="str">
+        <v>660.35</v>
+      </c>
+      <c r="D89" t="str">
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <v>478.02</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>0xf0eeE0837e8F4feaC444412991f7005B8dFFa305</v>
+      </c>
+      <c r="B90" t="str">
+        <v>611.53</v>
+      </c>
+      <c r="C90" t="str">
+        <v>611.53</v>
+      </c>
+      <c r="D90" t="str">
+        <v>0</v>
+      </c>
+      <c r="E90" t="str">
+        <v>442.68</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
+      </c>
+      <c r="B91" t="str">
+        <v>2,788.33</v>
+      </c>
+      <c r="C91" t="str">
+        <v>2,788.33</v>
+      </c>
+      <c r="D91" t="str">
+        <v>2,018.44</v>
+      </c>
+      <c r="E91" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
+      </c>
+      <c r="B92" t="str">
+        <v>0</v>
+      </c>
+      <c r="C92" t="str">
+        <v>2,788.33</v>
+      </c>
+      <c r="D92" t="str">
+        <v>0</v>
+      </c>
+      <c r="E92" t="str">
+        <v>2,018.44</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>0xFa544d034dC07aD4Fa185ba769031a29Fbef5e36</v>
+      </c>
+      <c r="B93" t="str">
+        <v>59.32</v>
+      </c>
+      <c r="C93" t="str">
+        <v>225.91</v>
+      </c>
+      <c r="D93" t="str">
+        <v>0</v>
+      </c>
+      <c r="E93" t="str">
+        <v>163.54</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
+      </c>
+      <c r="B94" t="str">
+        <v>2,819.33</v>
+      </c>
+      <c r="C94" t="str">
+        <v>2,819.33</v>
+      </c>
+      <c r="D94" t="str">
+        <v>0</v>
+      </c>
+      <c r="E94" t="str">
+        <v>2,040.88</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>0xA918ADC20A91e7C932e6E00e436D710DA71C765C</v>
+      </c>
+      <c r="B95" t="str">
+        <v>393.32</v>
+      </c>
+      <c r="C95" t="str">
+        <v>393.32</v>
+      </c>
+      <c r="D95" t="str">
+        <v>284.72</v>
+      </c>
+      <c r="E95" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
+      </c>
+      <c r="B96" t="str">
+        <v>393.32</v>
+      </c>
+      <c r="C96" t="str">
+        <v>393.32</v>
+      </c>
+      <c r="D96" t="str">
+        <v>0</v>
+      </c>
+      <c r="E96" t="str">
+        <v>284.72</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>0x4045d560bdcd01295dB6B3041ecfB7C5a346eDa8</v>
+      </c>
+      <c r="B97" t="str">
+        <v>0</v>
+      </c>
+      <c r="C97" t="str">
+        <v>64,493.78</v>
+      </c>
+      <c r="D97" t="str">
+        <v>0</v>
+      </c>
+      <c r="E97" t="str">
+        <v>46,686.26</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>0xa8CE35A87d51EaC37675c1Cf7C5d6435a3b2079A</v>
+      </c>
+      <c r="B98" t="str">
+        <v>22,650.12</v>
+      </c>
+      <c r="C98" t="str">
+        <v>22,650.12</v>
+      </c>
+      <c r="D98" t="str">
+        <v>0</v>
+      </c>
+      <c r="E98" t="str">
+        <v>16,396.15</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>0xCf54bb8C360FB4Ec47AE0c31Bc8864B163651277</v>
+      </c>
+      <c r="B99" t="str">
+        <v>0</v>
+      </c>
+      <c r="C99" t="str">
+        <v>4,951.15</v>
+      </c>
+      <c r="D99" t="str">
+        <v>3,584.08</v>
+      </c>
+      <c r="E99" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+      </c>
+      <c r="B100" t="str">
+        <v>418</v>
+      </c>
+      <c r="C100" t="str">
+        <v>418</v>
+      </c>
+      <c r="D100" t="str">
+        <v>302.59</v>
+      </c>
+      <c r="E100" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>0x48682644c1e8529338e46e7DdabA4383C1fceBb1</v>
+      </c>
+      <c r="B101" t="str">
+        <v>488.04</v>
+      </c>
+      <c r="C101" t="str">
+        <v>488.04</v>
+      </c>
+      <c r="D101" t="str">
+        <v>0</v>
+      </c>
+      <c r="E101" t="str">
+        <v>353.29</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>0xCbf575DA18d760a18dB55333bE8662CC07463069</v>
+      </c>
+      <c r="B102" t="str">
+        <v>609.91</v>
+      </c>
+      <c r="C102" t="str">
+        <v>609.91</v>
+      </c>
+      <c r="D102" t="str">
+        <v>441.51</v>
+      </c>
+      <c r="E102" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
+      </c>
+      <c r="B103" t="str">
+        <v>6,126.01</v>
+      </c>
+      <c r="C103" t="str">
+        <v>6,126.01</v>
+      </c>
+      <c r="D103" t="str">
+        <v>0</v>
+      </c>
+      <c r="E103" t="str">
+        <v>4,434.55</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
+      </c>
+      <c r="B104" t="str">
+        <v>1,423.66</v>
+      </c>
+      <c r="C104" t="str">
+        <v>1,423.66</v>
+      </c>
+      <c r="D104" t="str">
+        <v>114.16</v>
+      </c>
+      <c r="E104" t="str">
+        <v>916.41</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+      </c>
+      <c r="B105" t="str">
+        <v>194.51</v>
+      </c>
+      <c r="C105" t="str">
+        <v>194.51</v>
+      </c>
+      <c r="D105" t="str">
+        <v>0</v>
+      </c>
+      <c r="E105" t="str">
+        <v>140.81</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
+      </c>
+      <c r="B106" t="str">
+        <v>84,470.57</v>
+      </c>
+      <c r="C106" t="str">
+        <v>84,470.57</v>
+      </c>
+      <c r="D106" t="str">
+        <v>61,147.21</v>
+      </c>
+      <c r="E106" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+      </c>
+      <c r="B107" t="str">
+        <v>30,527.92</v>
+      </c>
+      <c r="C107" t="str">
+        <v>30,527.92</v>
+      </c>
+      <c r="D107" t="str">
+        <v>16,357.4</v>
+      </c>
+      <c r="E107" t="str">
+        <v>5,741.39</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+      </c>
+      <c r="B108" t="str">
+        <v>29,765.5</v>
+      </c>
+      <c r="C108" t="str">
+        <v>29,765.5</v>
+      </c>
+      <c r="D108" t="str">
+        <v>5,189.48</v>
+      </c>
+      <c r="E108" t="str">
+        <v>16,357.4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>0x97FD7d404b26A9b59d6F5bAc4Ff34349641bA6c5</v>
+      </c>
+      <c r="B109" t="str">
+        <v>582.54</v>
+      </c>
+      <c r="C109" t="str">
+        <v>582.54</v>
+      </c>
+      <c r="D109" t="str">
+        <v>421.7</v>
+      </c>
+      <c r="E109" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
+      </c>
+      <c r="B110" t="str">
+        <v>582.54</v>
+      </c>
+      <c r="C110" t="str">
+        <v>582.54</v>
+      </c>
+      <c r="D110" t="str">
+        <v>0</v>
+      </c>
+      <c r="E110" t="str">
+        <v>421.7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
+      </c>
+      <c r="B111" t="str">
+        <v>2,829.07</v>
+      </c>
+      <c r="C111" t="str">
+        <v>2,829.07</v>
+      </c>
+      <c r="D111" t="str">
+        <v>999.73</v>
+      </c>
+      <c r="E111" t="str">
+        <v>1,048.2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>0x5766ee90ab6f2Cd995CA845d09b2AeC45E870EC9</v>
+      </c>
+      <c r="B112" t="str">
+        <v>389.89</v>
+      </c>
+      <c r="C112" t="str">
+        <v>389.89</v>
+      </c>
+      <c r="D112" t="str">
+        <v>0</v>
+      </c>
+      <c r="E112" t="str">
+        <v>282.24</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>0xB19c1b3cEc4c5bD6DCA220A4f59de9EC681e9211</v>
+      </c>
+      <c r="B113" t="str">
+        <v>0</v>
+      </c>
+      <c r="C113" t="str">
+        <v>16.49</v>
+      </c>
+      <c r="D113" t="str">
+        <v>11.07</v>
+      </c>
+      <c r="E113" t="str">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>0x3d1F678EBd71CA033f21D6B1B5B0781a66537447</v>
+      </c>
+      <c r="B114" t="str">
+        <v>3,391.03</v>
+      </c>
+      <c r="C114" t="str">
+        <v>3,391.03</v>
+      </c>
+      <c r="D114" t="str">
+        <v>0</v>
+      </c>
+      <c r="E114" t="str">
+        <v>2,454.73</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+      </c>
+      <c r="B115" t="str">
+        <v>1,421.73</v>
+      </c>
+      <c r="C115" t="str">
+        <v>1,421.73</v>
+      </c>
+      <c r="D115" t="str">
+        <v>1,029.18</v>
+      </c>
+      <c r="E115" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
+      </c>
+      <c r="B116" t="str">
+        <v>2,624.77</v>
+      </c>
+      <c r="C116" t="str">
+        <v>2,624.77</v>
+      </c>
+      <c r="D116" t="str">
+        <v>0</v>
+      </c>
+      <c r="E116" t="str">
+        <v>1,900.04</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>0x11C3498d0D70BBfCdAa8dA275d7dDEb7BF977137</v>
+      </c>
+      <c r="B117" t="str">
+        <v>321.01</v>
+      </c>
+      <c r="C117" t="str">
+        <v>321.01</v>
+      </c>
+      <c r="D117" t="str">
+        <v>0</v>
+      </c>
+      <c r="E117" t="str">
+        <v>232.38</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
+      </c>
+      <c r="B118" t="str">
+        <v>470.81</v>
+      </c>
+      <c r="C118" t="str">
+        <v>470.81</v>
+      </c>
+      <c r="D118" t="str">
+        <v>0</v>
+      </c>
+      <c r="E118" t="str">
+        <v>340.82</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+      </c>
+      <c r="B119" t="str">
+        <v>192.33</v>
+      </c>
+      <c r="C119" t="str">
+        <v>192.33</v>
+      </c>
+      <c r="D119" t="str">
+        <v>35.19</v>
+      </c>
+      <c r="E119" t="str">
+        <v>104.04</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
+      </c>
+      <c r="B120" t="str">
+        <v>695.14</v>
+      </c>
+      <c r="C120" t="str">
+        <v>695.14</v>
+      </c>
+      <c r="D120" t="str">
+        <v>468.02</v>
+      </c>
+      <c r="E120" t="str">
+        <v>35.19</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>0x95814b787287141C80e9917Ee9eC9B2F89275629</v>
+      </c>
+      <c r="B121" t="str">
+        <v>6,516.42</v>
+      </c>
+      <c r="C121" t="str">
+        <v>6,516.42</v>
+      </c>
+      <c r="D121" t="str">
+        <v>4,717.16</v>
+      </c>
+      <c r="E121" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
+      </c>
+      <c r="B122" t="str">
+        <v>37,143.77</v>
+      </c>
+      <c r="C122" t="str">
+        <v>37,143.77</v>
+      </c>
+      <c r="D122" t="str">
+        <v>0</v>
+      </c>
+      <c r="E122" t="str">
+        <v>26,887.92</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>0xa5d134A404FBAe6B980D22C2A1be268a1a995F6C</v>
+      </c>
+      <c r="B123" t="str">
+        <v>78.28</v>
+      </c>
+      <c r="C123" t="str">
+        <v>78.28</v>
+      </c>
+      <c r="D123" t="str">
+        <v>56.67</v>
+      </c>
+      <c r="E123" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>0xB251f156Ae5a223749c53C0eC3B74800810f2F25</v>
+      </c>
+      <c r="B124" t="str">
+        <v>3,332.4</v>
+      </c>
+      <c r="C124" t="str">
+        <v>3,332.4</v>
+      </c>
+      <c r="D124" t="str">
+        <v>2,412.29</v>
+      </c>
+      <c r="E124" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>0x387c310a3cC65aa12BC11CAF67a17b4a8693ed5e</v>
+      </c>
+      <c r="B125" t="str">
+        <v>3,332.4</v>
+      </c>
+      <c r="C125" t="str">
+        <v>3,332.4</v>
+      </c>
+      <c r="D125" t="str">
+        <v>0</v>
+      </c>
+      <c r="E125" t="str">
+        <v>2,412.29</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
+      </c>
+      <c r="B126" t="str">
+        <v>10,748.39</v>
+      </c>
+      <c r="C126" t="str">
+        <v>10,748.39</v>
+      </c>
+      <c r="D126" t="str">
+        <v>0</v>
+      </c>
+      <c r="E126" t="str">
+        <v>7,780.63</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
+      </c>
+      <c r="B127" t="str">
+        <v>256.62</v>
+      </c>
+      <c r="C127" t="str">
+        <v>256.62</v>
+      </c>
+      <c r="D127" t="str">
+        <v>0</v>
+      </c>
+      <c r="E127" t="str">
+        <v>185.77</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+      </c>
+      <c r="B128" t="str">
+        <v>404.34</v>
+      </c>
+      <c r="C128" t="str">
+        <v>404.34</v>
+      </c>
+      <c r="D128" t="str">
+        <v>292.7</v>
+      </c>
+      <c r="E128" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+      </c>
+      <c r="B129" t="str">
+        <v>34,753.8</v>
+      </c>
+      <c r="C129" t="str">
+        <v>34,753.8</v>
+      </c>
+      <c r="D129" t="str">
+        <v>0</v>
+      </c>
+      <c r="E129" t="str">
+        <v>25,157.85</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
+      </c>
+      <c r="B130" t="str">
+        <v>2,423.91</v>
+      </c>
+      <c r="C130" t="str">
+        <v>2,423.91</v>
+      </c>
+      <c r="D130" t="str">
+        <v>1,754.64</v>
+      </c>
+      <c r="E130" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>0x04d9f35C7c292ca2c75C498563b48123C0662e19</v>
+      </c>
+      <c r="B131" t="str">
+        <v>1,834.08</v>
+      </c>
+      <c r="C131" t="str">
+        <v>1,834.08</v>
+      </c>
+      <c r="D131" t="str">
+        <v>1,327.67</v>
+      </c>
+      <c r="E131" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>0xBc7b31dFbEd762841AC646961C887B49e3f625d5</v>
+      </c>
+      <c r="B132" t="str">
+        <v>841.59</v>
+      </c>
+      <c r="C132" t="str">
+        <v>841.59</v>
+      </c>
+      <c r="D132" t="str">
+        <v>609.22</v>
+      </c>
+      <c r="E132" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>0x4e300F965ACE7aBF11A53662419F9A2D27dE3B1d</v>
+      </c>
+      <c r="B133" t="str">
+        <v>1,352.35</v>
+      </c>
+      <c r="C133" t="str">
+        <v>1,352.35</v>
+      </c>
+      <c r="D133" t="str">
+        <v>0</v>
+      </c>
+      <c r="E133" t="str">
+        <v>978.95</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
+      </c>
+      <c r="B134" t="str">
+        <v>28,280.45</v>
+      </c>
+      <c r="C134" t="str">
+        <v>28,280.45</v>
+      </c>
+      <c r="D134" t="str">
+        <v>0</v>
+      </c>
+      <c r="E134" t="str">
+        <v>20,471.87</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>0xc677a6C972baeCe4Bf9C0a2EbB600886F0300a7D</v>
+      </c>
+      <c r="B135" t="str">
+        <v>17,708.69</v>
+      </c>
+      <c r="C135" t="str">
+        <v>17,708.69</v>
+      </c>
+      <c r="D135" t="str">
+        <v>12,819.11</v>
+      </c>
+      <c r="E135" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+      </c>
+      <c r="B136" t="str">
+        <v>2,698.73</v>
+      </c>
+      <c r="C136" t="str">
+        <v>2,698.73</v>
+      </c>
+      <c r="D136" t="str">
+        <v>1,796.44</v>
+      </c>
+      <c r="E136" t="str">
+        <v>157.14</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>0x25E9eA1a93D9e505cd7d056C1e1bA16789537EAb</v>
+      </c>
+      <c r="B137" t="str">
+        <v>52.05</v>
+      </c>
+      <c r="C137" t="str">
+        <v>52.05</v>
+      </c>
+      <c r="D137" t="str">
+        <v>37.68</v>
+      </c>
+      <c r="E137" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+      </c>
+      <c r="B138" t="str">
+        <v>1,333.35</v>
+      </c>
+      <c r="C138" t="str">
+        <v>1,333.35</v>
+      </c>
+      <c r="D138" t="str">
+        <v>0</v>
+      </c>
+      <c r="E138" t="str">
+        <v>965.2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
+      </c>
+      <c r="B139" t="str">
+        <v>996.52</v>
+      </c>
+      <c r="C139" t="str">
+        <v>996.52</v>
+      </c>
+      <c r="D139" t="str">
+        <v>0</v>
+      </c>
+      <c r="E139" t="str">
+        <v>721.37</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+      </c>
+      <c r="B140" t="str">
+        <v>20,869.09</v>
+      </c>
+      <c r="C140" t="str">
+        <v>20,869.09</v>
+      </c>
+      <c r="D140" t="str">
+        <v>15,106.88</v>
+      </c>
+      <c r="E140" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
+      </c>
+      <c r="B141" t="str">
+        <v>646.53</v>
+      </c>
+      <c r="C141" t="str">
+        <v>646.53</v>
+      </c>
+      <c r="D141" t="str">
+        <v>0</v>
+      </c>
+      <c r="E141" t="str">
+        <v>468.02</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>0xb71A9245bC9D0f6b78c7b38527e939C4A0a2fa53</v>
+      </c>
+      <c r="B142" t="str">
+        <v>1,636.31</v>
+      </c>
+      <c r="C142" t="str">
+        <v>1,636.31</v>
+      </c>
+      <c r="D142" t="str">
+        <v>1,184.51</v>
+      </c>
+      <c r="E142" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+      </c>
+      <c r="B143" t="str">
+        <v>961,395.47</v>
+      </c>
+      <c r="C143" t="str">
+        <v>961,395.47</v>
+      </c>
+      <c r="D143" t="str">
+        <v>347,930.24</v>
+      </c>
+      <c r="E143" t="str">
+        <v>348,012.12</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+      </c>
+      <c r="B144" t="str">
+        <v>961,395.47</v>
+      </c>
+      <c r="C144" t="str">
+        <v>961,395.47</v>
+      </c>
+      <c r="D144" t="str">
+        <v>348,012.12</v>
+      </c>
+      <c r="E144" t="str">
+        <v>347,930.24</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>0x9C19FE52c5b04d39EF89d58fCDef24A55CfDA4a7</v>
+      </c>
+      <c r="B145" t="str">
+        <v>240.36</v>
+      </c>
+      <c r="C145" t="str">
+        <v>240.36</v>
+      </c>
+      <c r="D145" t="str">
+        <v>174</v>
+      </c>
+      <c r="E145" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>0x8218E1a9D02E26E2aF124EA28b121031Cf25AaC8</v>
+      </c>
+      <c r="B146" t="str">
+        <v>2,495.53</v>
+      </c>
+      <c r="C146" t="str">
+        <v>2,495.53</v>
+      </c>
+      <c r="D146" t="str">
+        <v>1,806.49</v>
+      </c>
+      <c r="E146" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
+      </c>
+      <c r="B147" t="str">
+        <v>1,174.21</v>
+      </c>
+      <c r="C147" t="str">
+        <v>1,174.21</v>
+      </c>
+      <c r="D147" t="str">
+        <v>850</v>
+      </c>
+      <c r="E147" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
+      </c>
+      <c r="B148" t="str">
+        <v>1,174.21</v>
+      </c>
+      <c r="C148" t="str">
+        <v>1,174.21</v>
+      </c>
+      <c r="D148" t="str">
+        <v>0</v>
+      </c>
+      <c r="E148" t="str">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+      </c>
+      <c r="B149" t="str">
+        <v>1,107.22</v>
+      </c>
+      <c r="C149" t="str">
+        <v>1,107.22</v>
+      </c>
+      <c r="D149" t="str">
+        <v>0</v>
+      </c>
+      <c r="E149" t="str">
+        <v>801.51</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
+      </c>
+      <c r="B150" t="str">
+        <v>217.07</v>
+      </c>
+      <c r="C150" t="str">
+        <v>217.07</v>
+      </c>
+      <c r="D150" t="str">
+        <v>157.14</v>
+      </c>
+      <c r="E150" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>0xa865CAf1A880B631f6AaB646168Bb7AF029ae4a0</v>
+      </c>
+      <c r="B151" t="str">
+        <v>351.9</v>
+      </c>
+      <c r="C151" t="str">
+        <v>351.9</v>
+      </c>
+      <c r="D151" t="str">
+        <v>0</v>
+      </c>
+      <c r="E151" t="str">
+        <v>254.74</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
+      </c>
+      <c r="B152" t="str">
+        <v>23.02</v>
+      </c>
+      <c r="C152" t="str">
+        <v>23.02</v>
+      </c>
+      <c r="D152" t="str">
+        <v>0</v>
+      </c>
+      <c r="E152" t="str">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>0x65715D1348199900B590cEBef7E0141EC224aaF7</v>
+      </c>
+      <c r="B153" t="str">
+        <v>1,296.11</v>
+      </c>
+      <c r="C153" t="str">
+        <v>1,296.11</v>
+      </c>
+      <c r="D153" t="str">
+        <v>938.24</v>
+      </c>
+      <c r="E153" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
+      </c>
+      <c r="B154" t="str">
+        <v>28.58</v>
+      </c>
+      <c r="C154" t="str">
+        <v>28.58</v>
+      </c>
+      <c r="D154" t="str">
+        <v>0</v>
+      </c>
+      <c r="E154" t="str">
+        <v>20.69</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
+      </c>
+      <c r="B155" t="str">
+        <v>0</v>
+      </c>
+      <c r="C155" t="str">
+        <v>9,421.06</v>
+      </c>
+      <c r="D155" t="str">
+        <v>0</v>
+      </c>
+      <c r="E155" t="str">
+        <v>6,819.79</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>0xf90518CBcd4ef086891cb22C87bd4F80B61a7081</v>
+      </c>
+      <c r="B156" t="str">
+        <v>3,427.82</v>
+      </c>
+      <c r="C156" t="str">
+        <v>3,427.82</v>
+      </c>
+      <c r="D156" t="str">
+        <v>2,481.36</v>
+      </c>
+      <c r="E156" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>0xD53314Cd179ccD3926Af264e62E3B6dAB06A6419</v>
+      </c>
+      <c r="B157" t="str">
+        <v>3,427.82</v>
+      </c>
+      <c r="C157" t="str">
+        <v>3,427.82</v>
+      </c>
+      <c r="D157" t="str">
+        <v>0</v>
+      </c>
+      <c r="E157" t="str">
+        <v>2,481.36</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
+      </c>
+      <c r="B158" t="str">
+        <v>1,471.95</v>
+      </c>
+      <c r="C158" t="str">
+        <v>1,471.95</v>
+      </c>
+      <c r="D158" t="str">
+        <v>1,065.53</v>
+      </c>
+      <c r="E158" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+      </c>
+      <c r="B159" t="str">
+        <v>2,521.62</v>
+      </c>
+      <c r="C159" t="str">
+        <v>2,521.62</v>
+      </c>
+      <c r="D159" t="str">
+        <v>0</v>
+      </c>
+      <c r="E159" t="str">
+        <v>1,825.37</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>0x880cd618B4cA66bBb8862558954d8473d7b0C867</v>
+      </c>
+      <c r="B160" t="str">
+        <v>826.31</v>
+      </c>
+      <c r="C160" t="str">
+        <v>826.31</v>
+      </c>
+      <c r="D160" t="str">
+        <v>598.16</v>
+      </c>
+      <c r="E160" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>0x0fB3b0892619aF19B0a8016783f84EED26CfAE1E</v>
+      </c>
+      <c r="B161" t="str">
+        <v>67.1</v>
+      </c>
+      <c r="C161" t="str">
+        <v>67.1</v>
+      </c>
+      <c r="D161" t="str">
+        <v>48.58</v>
+      </c>
+      <c r="E161" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>0x8a3B39c36e88E3BE71B960cFBe2e4F66dB890E42</v>
+      </c>
+      <c r="B162" t="str">
+        <v>0</v>
+      </c>
+      <c r="C162" t="str">
+        <v>3,546.95</v>
+      </c>
+      <c r="D162" t="str">
+        <v>2,567.6</v>
+      </c>
+      <c r="E162" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>0xeC1F8ED638E9599e90A701a94b9Fe216BC2C8bca</v>
+      </c>
+      <c r="B163" t="str">
+        <v>228.79</v>
+      </c>
+      <c r="C163" t="str">
+        <v>228.79</v>
+      </c>
+      <c r="D163" t="str">
+        <v>0</v>
+      </c>
+      <c r="E163" t="str">
+        <v>165.62</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>0x949ed04509D001B0f6614695b496f23dE010252A</v>
+      </c>
+      <c r="B164" t="str">
+        <v>285.91</v>
+      </c>
+      <c r="C164" t="str">
+        <v>285.91</v>
+      </c>
+      <c r="D164" t="str">
+        <v>206.97</v>
+      </c>
+      <c r="E164" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+      </c>
+      <c r="B165" t="str">
+        <v>103.6</v>
+      </c>
+      <c r="C165" t="str">
+        <v>103.6</v>
+      </c>
+      <c r="D165" t="str">
+        <v>0</v>
+      </c>
+      <c r="E165" t="str">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+      </c>
+      <c r="B166" t="str">
+        <v>56.37</v>
+      </c>
+      <c r="C166" t="str">
+        <v>56.37</v>
+      </c>
+      <c r="D166" t="str">
+        <v>40.81</v>
+      </c>
+      <c r="E166" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>0xc3Dd788d51cA010573e840aE4B5fF45b5671F197</v>
+      </c>
+      <c r="B167" t="str">
+        <v>782.63</v>
+      </c>
+      <c r="C167" t="str">
+        <v>782.63</v>
+      </c>
+      <c r="D167" t="str">
+        <v>566.54</v>
+      </c>
+      <c r="E167" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>0xec981ddA47A7BbA1f1A3224AC91C72825DEf2dFb</v>
+      </c>
+      <c r="B168" t="str">
+        <v>782.63</v>
+      </c>
+      <c r="C168" t="str">
+        <v>782.63</v>
+      </c>
+      <c r="D168" t="str">
+        <v>0</v>
+      </c>
+      <c r="E168" t="str">
+        <v>566.54</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>0xBC3f8985F75c8628C3a6687EB91e21f50C961a5D</v>
+      </c>
+      <c r="B169" t="str">
+        <v>106.17</v>
+      </c>
+      <c r="C169" t="str">
+        <v>106.17</v>
+      </c>
+      <c r="D169" t="str">
+        <v>76.86</v>
+      </c>
+      <c r="E169" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
+      </c>
+      <c r="B170" t="str">
+        <v>106.17</v>
+      </c>
+      <c r="C170" t="str">
+        <v>106.17</v>
+      </c>
+      <c r="D170" t="str">
+        <v>0</v>
+      </c>
+      <c r="E170" t="str">
+        <v>76.86</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>0x2e9Ba451A457f10c4737C4d3B2a16db225153B84</v>
+      </c>
+      <c r="B171" t="str">
+        <v>1,593.82</v>
+      </c>
+      <c r="C171" t="str">
+        <v>1,593.82</v>
+      </c>
+      <c r="D171" t="str">
+        <v>1,153.75</v>
+      </c>
+      <c r="E171" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
+      </c>
+      <c r="B172" t="str">
+        <v>0</v>
+      </c>
+      <c r="C172" t="str">
+        <v>81.51</v>
+      </c>
+      <c r="D172" t="str">
+        <v>59.01</v>
+      </c>
+      <c r="E172" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
+      </c>
+      <c r="B173" t="str">
+        <v>81.51</v>
+      </c>
+      <c r="C173" t="str">
+        <v>81.51</v>
+      </c>
+      <c r="D173" t="str">
+        <v>0</v>
+      </c>
+      <c r="E173" t="str">
+        <v>59.01</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>0x091D2bf74f675Df1d72eD6E07bCB693D56a4163c</v>
+      </c>
+      <c r="B174" t="str">
+        <v>0</v>
+      </c>
+      <c r="C174" t="str">
+        <v>2,573.13</v>
+      </c>
+      <c r="D174" t="str">
+        <v>1,862.66</v>
+      </c>
+      <c r="E174" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>0xAE1aD5B0Cb04CFe479E9308006F2e0063Ab8E845</v>
+      </c>
+      <c r="B175" t="str">
+        <v>1,072.95</v>
+      </c>
+      <c r="C175" t="str">
+        <v>1,072.95</v>
+      </c>
+      <c r="D175" t="str">
+        <v>776.7</v>
+      </c>
+      <c r="E175" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>0x5f29805024b14736b5e6f2bfBe425e67a22e33B4</v>
+      </c>
+      <c r="B176" t="str">
+        <v>34,380.52</v>
+      </c>
+      <c r="C176" t="str">
+        <v>34,380.52</v>
+      </c>
+      <c r="D176" t="str">
+        <v>24,887.64</v>
+      </c>
+      <c r="E176" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>0x0F6b0AE7be4dc9173E938237B6969499463a5eB7</v>
+      </c>
+      <c r="B177" t="str">
+        <v>34,380.52</v>
+      </c>
+      <c r="C177" t="str">
+        <v>34,380.52</v>
+      </c>
+      <c r="D177" t="str">
+        <v>0</v>
+      </c>
+      <c r="E177" t="str">
+        <v>24,887.64</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>0x3D31F6Bf45af4c98238a9A9589c038CCB1Ae9b3f</v>
+      </c>
+      <c r="B178" t="str">
+        <v>507.77</v>
+      </c>
+      <c r="C178" t="str">
+        <v>507.77</v>
+      </c>
+      <c r="D178" t="str">
+        <v>0</v>
+      </c>
+      <c r="E178" t="str">
+        <v>367.57</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
+      </c>
+      <c r="B179" t="str">
+        <v>78.63</v>
+      </c>
+      <c r="C179" t="str">
+        <v>78.63</v>
+      </c>
+      <c r="D179" t="str">
+        <v>0</v>
+      </c>
+      <c r="E179" t="str">
+        <v>56.92</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>0x8969DF60ACc4BB0f05cE8137608AD4434E2f4dEA</v>
+      </c>
+      <c r="B180" t="str">
+        <v>542.68</v>
+      </c>
+      <c r="C180" t="str">
+        <v>542.68</v>
+      </c>
+      <c r="D180" t="str">
+        <v>0</v>
+      </c>
+      <c r="E180" t="str">
+        <v>392.84</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>0x66B6221845b9bd7A029BCCb5523168a5AcE1e013</v>
+      </c>
+      <c r="B181" t="str">
+        <v>639.69</v>
+      </c>
+      <c r="C181" t="str">
+        <v>639.69</v>
+      </c>
+      <c r="D181" t="str">
+        <v>0</v>
+      </c>
+      <c r="E181" t="str">
+        <v>463.07</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
+      </c>
+      <c r="B182" t="str">
+        <v>3,774.7</v>
+      </c>
+      <c r="C182" t="str">
+        <v>3,774.7</v>
+      </c>
+      <c r="D182" t="str">
+        <v>0</v>
+      </c>
+      <c r="E182" t="str">
+        <v>2,732.46</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>0xE1FcC0676dE7f03EB6c63b55A5ad667416029A5F</v>
+      </c>
+      <c r="B183" t="str">
+        <v>56.05</v>
+      </c>
+      <c r="C183" t="str">
+        <v>56.05</v>
+      </c>
+      <c r="D183" t="str">
+        <v>0</v>
+      </c>
+      <c r="E183" t="str">
+        <v>40.58</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>0x7aa90dE22D64831e54DA455A90621560f1bC97a2</v>
+      </c>
+      <c r="B184" t="str">
+        <v>7,905.2</v>
+      </c>
+      <c r="C184" t="str">
+        <v>7,905.2</v>
+      </c>
+      <c r="D184" t="str">
+        <v>210.96</v>
+      </c>
+      <c r="E184" t="str">
+        <v>5,511.52</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>0xFa12186c269720c59e6019e4C200589A0d4BCa24</v>
+      </c>
+      <c r="B185" t="str">
+        <v>130.46</v>
+      </c>
+      <c r="C185" t="str">
+        <v>130.46</v>
+      </c>
+      <c r="D185" t="str">
+        <v>0</v>
+      </c>
+      <c r="E185" t="str">
+        <v>94.44</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>0x2A1Cc6c77782EA6BE6C08d61430A79E31Ea4efDf</v>
+      </c>
+      <c r="B186" t="str">
+        <v>8,895.03</v>
+      </c>
+      <c r="C186" t="str">
+        <v>8,895.03</v>
+      </c>
+      <c r="D186" t="str">
+        <v>6,439.01</v>
+      </c>
+      <c r="E186" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>0xb8D8066d1EE9D03800B7600d2807b7749B9F6899</v>
+      </c>
+      <c r="B187" t="str">
+        <v>172.67</v>
+      </c>
+      <c r="C187" t="str">
+        <v>172.67</v>
+      </c>
+      <c r="D187" t="str">
+        <v>125</v>
+      </c>
+      <c r="E187" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>0x0fA1AfF9540786DCad9196e0676e2e4423317FAf</v>
+      </c>
+      <c r="B188" t="str">
+        <v>783.58</v>
+      </c>
+      <c r="C188" t="str">
+        <v>783.58</v>
+      </c>
+      <c r="D188" t="str">
+        <v>567.23</v>
+      </c>
+      <c r="E188" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
+      </c>
+      <c r="B189" t="str">
+        <v>232.35</v>
+      </c>
+      <c r="C189" t="str">
+        <v>232.35</v>
+      </c>
+      <c r="D189" t="str">
+        <v>168.2</v>
+      </c>
+      <c r="E189" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>0x28207aadAe97226F70a54c25d16692197c062898</v>
+      </c>
+      <c r="B190" t="str">
+        <v>336.84</v>
+      </c>
+      <c r="C190" t="str">
+        <v>336.84</v>
+      </c>
+      <c r="D190" t="str">
+        <v>0</v>
+      </c>
+      <c r="E190" t="str">
+        <v>243.84</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>0x3d5F0A62033206273527Ef33569213E904eC4DdF</v>
+      </c>
+      <c r="B191" t="str">
+        <v>67.24</v>
+      </c>
+      <c r="C191" t="str">
+        <v>67.24</v>
+      </c>
+      <c r="D191" t="str">
+        <v>0</v>
+      </c>
+      <c r="E191" t="str">
+        <v>48.68</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>0x9F20AB479C311059cc1b4C24837Ce2B38d260e0E</v>
+      </c>
+      <c r="B192" t="str">
+        <v>690.71</v>
+      </c>
+      <c r="C192" t="str">
+        <v>690.71</v>
+      </c>
+      <c r="D192" t="str">
+        <v>0</v>
+      </c>
+      <c r="E192" t="str">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>0x620C45Fd6A4C15A4aa2A3a9301F0009b34F7809b</v>
+      </c>
+      <c r="B193" t="str">
+        <v>626.36</v>
+      </c>
+      <c r="C193" t="str">
+        <v>626.36</v>
+      </c>
+      <c r="D193" t="str">
+        <v>453.42</v>
+      </c>
+      <c r="E193" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
+      </c>
+      <c r="B194" t="str">
+        <v>139.88</v>
+      </c>
+      <c r="C194" t="str">
+        <v>139.88</v>
+      </c>
+      <c r="D194" t="str">
+        <v>0</v>
+      </c>
+      <c r="E194" t="str">
+        <v>101.26</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
+      </c>
+      <c r="B195" t="str">
+        <v>183.44</v>
+      </c>
+      <c r="C195" t="str">
+        <v>183.44</v>
+      </c>
+      <c r="D195" t="str">
+        <v>0</v>
+      </c>
+      <c r="E195" t="str">
+        <v>132.79</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+      </c>
+      <c r="B196" t="str">
+        <v>23.92</v>
+      </c>
+      <c r="C196" t="str">
+        <v>23.92</v>
+      </c>
+      <c r="D196" t="str">
+        <v>0</v>
+      </c>
+      <c r="E196" t="str">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>0x889f1F09b491711013cA6787E29e07a04FDf42a4</v>
+      </c>
+      <c r="B197" t="str">
+        <v>22,572.45</v>
+      </c>
+      <c r="C197" t="str">
+        <v>22,572.45</v>
+      </c>
+      <c r="D197" t="str">
+        <v>16,339.92</v>
+      </c>
+      <c r="E197" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>0x5C55e86A38d24BE5fF7f12221BF674C95FB188a7</v>
+      </c>
+      <c r="B198" t="str">
+        <v>13,922.79</v>
+      </c>
+      <c r="C198" t="str">
+        <v>13,922.79</v>
+      </c>
+      <c r="D198" t="str">
+        <v>10,078.54</v>
+      </c>
+      <c r="E198" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>0x29074b73Ac945ADb38081F69E2178A851C7DF091</v>
+      </c>
+      <c r="B199" t="str">
+        <v>89.41</v>
+      </c>
+      <c r="C199" t="str">
+        <v>89.41</v>
+      </c>
+      <c r="D199" t="str">
+        <v>64.73</v>
+      </c>
+      <c r="E199" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>0x8Dca7891aAb1d43b8402d23e2Ca88B0399Ed542E</v>
+      </c>
+      <c r="B200" t="str">
+        <v>121.08</v>
+      </c>
+      <c r="C200" t="str">
+        <v>121.08</v>
+      </c>
+      <c r="D200" t="str">
+        <v>0</v>
+      </c>
+      <c r="E200" t="str">
+        <v>87.65</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
+      </c>
+      <c r="B201" t="str">
+        <v>1,311.15</v>
+      </c>
+      <c r="C201" t="str">
+        <v>1,311.15</v>
+      </c>
+      <c r="D201" t="str">
+        <v>0</v>
+      </c>
+      <c r="E201" t="str">
+        <v>949.13</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+      </c>
+      <c r="B202" t="str">
+        <v>209.24</v>
+      </c>
+      <c r="C202" t="str">
+        <v>209.24</v>
+      </c>
+      <c r="D202" t="str">
+        <v>0</v>
+      </c>
+      <c r="E202" t="str">
+        <v>151.47</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>0xBf5cC197739c6B8492DAD34EaB2C33ED04061a4c</v>
+      </c>
+      <c r="B203" t="str">
+        <v>1,162.74</v>
+      </c>
+      <c r="C203" t="str">
+        <v>1,162.74</v>
+      </c>
+      <c r="D203" t="str">
+        <v>841.7</v>
+      </c>
+      <c r="E203" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
+      </c>
+      <c r="B204" t="str">
+        <v>0</v>
+      </c>
+      <c r="C204" t="str">
+        <v>180.3</v>
+      </c>
+      <c r="D204" t="str">
+        <v>130.52</v>
+      </c>
+      <c r="E204" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>0x4D30408614E40276712949ACbbF49853eA606b4a</v>
+      </c>
+      <c r="B205" t="str">
+        <v>29.86</v>
+      </c>
+      <c r="C205" t="str">
+        <v>29.86</v>
+      </c>
+      <c r="D205" t="str">
+        <v>21.62</v>
+      </c>
+      <c r="E205" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>0x487EE46941931178c481a9fA3Eeb2016E2B0CBdA</v>
+      </c>
+      <c r="B206" t="str">
+        <v>13.86</v>
+      </c>
+      <c r="C206" t="str">
+        <v>13.86</v>
+      </c>
+      <c r="D206" t="str">
+        <v>10.04</v>
+      </c>
+      <c r="E206" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
+      </c>
+      <c r="B207" t="str">
+        <v>2,225.28</v>
+      </c>
+      <c r="C207" t="str">
+        <v>2,225.28</v>
+      </c>
+      <c r="D207" t="str">
+        <v>1,610.86</v>
+      </c>
+      <c r="E207" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>0x95E299A16E92649D2Ae7E56Eed03124BcE3F2d65</v>
+      </c>
+      <c r="B208" t="str">
+        <v>32</v>
+      </c>
+      <c r="C208" t="str">
+        <v>32</v>
+      </c>
+      <c r="D208" t="str">
+        <v>23.17</v>
+      </c>
+      <c r="E208" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>0x9F6f9286f959A78F5d1E3eE78f331842539BA37B</v>
+      </c>
+      <c r="B209" t="str">
+        <v>69.76</v>
+      </c>
+      <c r="C209" t="str">
+        <v>69.76</v>
+      </c>
+      <c r="D209" t="str">
+        <v>0</v>
+      </c>
+      <c r="E209" t="str">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>0x7DE25BC41EfeD6Ee6d903Fc161C905D2fcb72Fff</v>
+      </c>
+      <c r="B210" t="str">
+        <v>3,492.36</v>
+      </c>
+      <c r="C210" t="str">
+        <v>3,492.36</v>
+      </c>
+      <c r="D210" t="str">
+        <v>0</v>
+      </c>
+      <c r="E210" t="str">
+        <v>2,528.08</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+      </c>
+      <c r="B211" t="str">
+        <v>44.67</v>
+      </c>
+      <c r="C211" t="str">
+        <v>44.67</v>
+      </c>
+      <c r="D211" t="str">
+        <v>32.34</v>
+      </c>
+      <c r="E211" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>0x2728c19586e1eB6b2AA599c15fA1456426C7CC7C</v>
+      </c>
+      <c r="B212" t="str">
+        <v>207.17</v>
+      </c>
+      <c r="C212" t="str">
+        <v>207.17</v>
+      </c>
+      <c r="D212" t="str">
+        <v>0</v>
+      </c>
+      <c r="E212" t="str">
+        <v>149.97</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+      </c>
+      <c r="B213" t="str">
+        <v>126.41</v>
+      </c>
+      <c r="C213" t="str">
+        <v>126.41</v>
+      </c>
+      <c r="D213" t="str">
+        <v>0</v>
+      </c>
+      <c r="E213" t="str">
+        <v>91.51</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+      </c>
+      <c r="B214" t="str">
+        <v>66,653.57</v>
+      </c>
+      <c r="C214" t="str">
+        <v>66,653.57</v>
+      </c>
+      <c r="D214" t="str">
+        <v>48,249.7</v>
+      </c>
+      <c r="E214" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>0x2abf42F330c60491E8A36B73c9F3F9Ed40CDa546</v>
+      </c>
+      <c r="B215" t="str">
+        <v>20,511.62</v>
+      </c>
+      <c r="C215" t="str">
+        <v>20,511.62</v>
+      </c>
+      <c r="D215" t="str">
+        <v>0</v>
+      </c>
+      <c r="E215" t="str">
+        <v>14,848.11</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
+      </c>
+      <c r="B216" t="str">
+        <v>28.41</v>
+      </c>
+      <c r="C216" t="str">
+        <v>28.41</v>
+      </c>
+      <c r="D216" t="str">
+        <v>0</v>
+      </c>
+      <c r="E216" t="str">
+        <v>20.57</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>0x358e444fFb60A1Cc82A6E412C6720f110dc1E921</v>
+      </c>
+      <c r="B217" t="str">
+        <v>0</v>
+      </c>
+      <c r="C217" t="str">
+        <v>294.29</v>
+      </c>
+      <c r="D217" t="str">
+        <v>0</v>
+      </c>
+      <c r="E217" t="str">
+        <v>213.04</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B218" t="str">
+        <v>3,036,834.56</v>
+      </c>
+      <c r="C218" t="str">
+        <v>3,205,127.09</v>
+      </c>
+      <c r="D218" t="str">
+        <v>1,076,851.49</v>
+      </c>
+      <c r="E218" t="str">
+        <v>1,243,301.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E218"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E231"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -14234,84 +17955,84 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
+        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
       </c>
       <c r="B2" t="str">
-        <v>1,949.3</v>
+        <v>877.47</v>
       </c>
       <c r="C2" t="str">
-        <v>1,949.3</v>
+        <v>877.47</v>
       </c>
       <c r="D2" t="str">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E2" t="str">
-        <v>1,386.08</v>
+        <v>553.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
+        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
       </c>
       <c r="B3" t="str">
-        <v>439.54</v>
+        <v>11,970.77</v>
       </c>
       <c r="C3" t="str">
-        <v>439.54</v>
+        <v>11,970.77</v>
       </c>
       <c r="D3" t="str">
-        <v>187.18</v>
+        <v>721.9</v>
       </c>
       <c r="E3" t="str">
-        <v>131</v>
+        <v>8,145.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
       </c>
       <c r="B4" t="str">
-        <v>1,572.5</v>
+        <v>10,452.2</v>
       </c>
       <c r="C4" t="str">
-        <v>1,572.5</v>
+        <v>10,452.2</v>
       </c>
       <c r="D4" t="str">
-        <v>0</v>
+        <v>1,090.13</v>
       </c>
       <c r="E4" t="str">
-        <v>1,138.32</v>
+        <v>6,652.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
       </c>
       <c r="B5" t="str">
-        <v>10,534.25</v>
+        <v>482.53</v>
       </c>
       <c r="C5" t="str">
-        <v>10,534.25</v>
+        <v>482.53</v>
       </c>
       <c r="D5" t="str">
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>7,625.62</v>
+        <v>357.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0x7308fC774925316052AD22Fbdc21f2a7FF4bDA49</v>
+        <v>0xe23bc0609A8Df4EA2A597AEAAFcBF421BFfBDCFd</v>
       </c>
       <c r="B6" t="str">
-        <v>0</v>
+        <v>1,034.31</v>
       </c>
       <c r="C6" t="str">
-        <v>733.98</v>
+        <v>1,034.31</v>
       </c>
       <c r="D6" t="str">
-        <v>531.32</v>
+        <v>766.14</v>
       </c>
       <c r="E6" t="str">
         <v>0</v>
@@ -14319,84 +18040,84 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0x8060070C9811bdbAeA20fd829033CFC77b498d99</v>
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
       </c>
       <c r="B7" t="str">
-        <v>0</v>
+        <v>723.48</v>
       </c>
       <c r="C7" t="str">
-        <v>11,500.15</v>
+        <v>723.48</v>
       </c>
       <c r="D7" t="str">
-        <v>8,324.82</v>
+        <v>440.68</v>
       </c>
       <c r="E7" t="str">
-        <v>0</v>
+        <v>95.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0xeb9Ea287a5BD59731C6fbDEfd9e81dAa4Dc7eB11</v>
+        <v>0x620964B76328a1Ec5039361877eA64510A241139</v>
       </c>
       <c r="B8" t="str">
-        <v>1,110.15</v>
+        <v>337.5</v>
       </c>
       <c r="C8" t="str">
-        <v>1,110.15</v>
+        <v>337.5</v>
       </c>
       <c r="D8" t="str">
-        <v>724.97</v>
+        <v>250</v>
       </c>
       <c r="E8" t="str">
-        <v>78.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
       </c>
       <c r="B9" t="str">
-        <v>25,670.76</v>
+        <v>54,666.41</v>
       </c>
       <c r="C9" t="str">
-        <v>25,670.76</v>
+        <v>54,666.41</v>
       </c>
       <c r="D9" t="str">
-        <v>16.67</v>
+        <v>17,406.1</v>
       </c>
       <c r="E9" t="str">
-        <v>18,566.08</v>
+        <v>23,086.43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+        <v>0x5Fc4faF3934548c57d66f1179C2991cEd028E61F</v>
       </c>
       <c r="B10" t="str">
-        <v>12,484.56</v>
+        <v>907.48</v>
       </c>
       <c r="C10" t="str">
-        <v>12,484.56</v>
+        <v>907.48</v>
       </c>
       <c r="D10" t="str">
-        <v>643.49</v>
+        <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>8,393.93</v>
+        <v>672.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+        <v>0x7B82007d91312Bb84E57A79c6df7Fa3928beD152</v>
       </c>
       <c r="B11" t="str">
-        <v>406.07</v>
+        <v>3,805.51</v>
       </c>
       <c r="C11" t="str">
-        <v>406.07</v>
+        <v>3,805.51</v>
       </c>
       <c r="D11" t="str">
-        <v>293.95</v>
+        <v>2,818.82</v>
       </c>
       <c r="E11" t="str">
         <v>0</v>
@@ -14404,33 +18125,33 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
       </c>
       <c r="B12" t="str">
-        <v>23,825.56</v>
+        <v>675.01</v>
       </c>
       <c r="C12" t="str">
-        <v>23,825.56</v>
+        <v>675.01</v>
       </c>
       <c r="D12" t="str">
-        <v>463.07</v>
+        <v>500</v>
       </c>
       <c r="E12" t="str">
-        <v>16,783.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>0x16eE201E4fD4418f47A6c7f45fB0Aaf8a61011Df</v>
+        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
       </c>
       <c r="B13" t="str">
-        <v>6,715.69</v>
+        <v>0</v>
       </c>
       <c r="C13" t="str">
-        <v>6,715.69</v>
+        <v>56.39</v>
       </c>
       <c r="D13" t="str">
-        <v>4,861.41</v>
+        <v>41.77</v>
       </c>
       <c r="E13" t="str">
         <v>0</v>
@@ -14438,16 +18159,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
+        <v>0x175780bC4d0A1bc28c46C3E71130C092790E7576</v>
       </c>
       <c r="B14" t="str">
-        <v>6,245.34</v>
+        <v>198.67</v>
       </c>
       <c r="C14" t="str">
-        <v>6,245.34</v>
+        <v>611.62</v>
       </c>
       <c r="D14" t="str">
-        <v>4,520.93</v>
+        <v>453.04</v>
       </c>
       <c r="E14" t="str">
         <v>0</v>
@@ -14455,135 +18176,135 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
       </c>
       <c r="B15" t="str">
-        <v>59,882.96</v>
+        <v>6,094.29</v>
       </c>
       <c r="C15" t="str">
-        <v>59,882.96</v>
+        <v>6,094.29</v>
       </c>
       <c r="D15" t="str">
-        <v>16,490.01</v>
+        <v>4,514.17</v>
       </c>
       <c r="E15" t="str">
-        <v>26,858.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
       </c>
       <c r="B16" t="str">
-        <v>16,154.14</v>
+        <v>3,412.06</v>
       </c>
       <c r="C16" t="str">
-        <v>16,154.14</v>
+        <v>3,412.06</v>
       </c>
       <c r="D16" t="str">
-        <v>6,819.79</v>
+        <v>22.57</v>
       </c>
       <c r="E16" t="str">
-        <v>4,874</v>
+        <v>2,504.82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
       </c>
       <c r="B17" t="str">
-        <v>731.05</v>
+        <v>13,179.91</v>
       </c>
       <c r="C17" t="str">
-        <v>731.05</v>
+        <v>13,179.91</v>
       </c>
       <c r="D17" t="str">
-        <v>0</v>
+        <v>1,474.58</v>
       </c>
       <c r="E17" t="str">
-        <v>529.2</v>
+        <v>8,288.05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
+        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
       </c>
       <c r="B18" t="str">
-        <v>392.06</v>
+        <v>17,182.86</v>
       </c>
       <c r="C18" t="str">
-        <v>392.06</v>
+        <v>17,182.86</v>
       </c>
       <c r="D18" t="str">
-        <v>283.81</v>
+        <v>10,545.58</v>
       </c>
       <c r="E18" t="str">
-        <v>0</v>
+        <v>2,182.12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+        <v>0xdD40bFeDDd1511322A763a82e31Ef3e401415927</v>
       </c>
       <c r="B19" t="str">
-        <v>271.96</v>
+        <v>38.16</v>
       </c>
       <c r="C19" t="str">
-        <v>271.96</v>
+        <v>38.16</v>
       </c>
       <c r="D19" t="str">
-        <v>0</v>
+        <v>28.27</v>
       </c>
       <c r="E19" t="str">
-        <v>196.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
+        <v>0x942E746C384bec88Dfa6164e8d699858E9988FeB</v>
       </c>
       <c r="B20" t="str">
-        <v>1,321.28</v>
+        <v>661.05</v>
       </c>
       <c r="C20" t="str">
-        <v>1,321.28</v>
+        <v>661.05</v>
       </c>
       <c r="D20" t="str">
-        <v>775.23</v>
+        <v>489.66</v>
       </c>
       <c r="E20" t="str">
-        <v>181.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+        <v>0x95E299A16E92649D2Ae7E56Eed03124BcE3F2d65</v>
       </c>
       <c r="B21" t="str">
-        <v>1,070.92</v>
+        <v>305.4</v>
       </c>
       <c r="C21" t="str">
-        <v>1,070.92</v>
+        <v>305.4</v>
       </c>
       <c r="D21" t="str">
-        <v>0</v>
+        <v>226.22</v>
       </c>
       <c r="E21" t="str">
-        <v>775.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
+        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
       </c>
       <c r="B22" t="str">
-        <v>1,472.24</v>
+        <v>1,227.8</v>
       </c>
       <c r="C22" t="str">
-        <v>1,472.24</v>
+        <v>1,227.8</v>
       </c>
       <c r="D22" t="str">
-        <v>1,065.74</v>
+        <v>909.46</v>
       </c>
       <c r="E22" t="str">
         <v>0</v>
@@ -14591,33 +18312,33 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>0x942E746C384bec88Dfa6164e8d699858E9988FeB</v>
+        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
       </c>
       <c r="B23" t="str">
-        <v>611.53</v>
+        <v>1,345.19</v>
       </c>
       <c r="C23" t="str">
-        <v>611.53</v>
+        <v>1,345.19</v>
       </c>
       <c r="D23" t="str">
-        <v>442.68</v>
+        <v>0</v>
       </c>
       <c r="E23" t="str">
-        <v>0</v>
+        <v>996.41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
+        <v>0xf6732447a0Da3D8973897e247cf04f53B87Cfa2e</v>
       </c>
       <c r="B24" t="str">
-        <v>225.91</v>
+        <v>57.83</v>
       </c>
       <c r="C24" t="str">
-        <v>225.91</v>
+        <v>57.83</v>
       </c>
       <c r="D24" t="str">
-        <v>163.54</v>
+        <v>42.84</v>
       </c>
       <c r="E24" t="str">
         <v>0</v>
@@ -14625,118 +18346,118 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
+        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
       </c>
       <c r="B25" t="str">
-        <v>180.96</v>
+        <v>881.41</v>
       </c>
       <c r="C25" t="str">
-        <v>180.96</v>
+        <v>881.41</v>
       </c>
       <c r="D25" t="str">
-        <v>131</v>
+        <v>103.35</v>
       </c>
       <c r="E25" t="str">
-        <v>0</v>
+        <v>549.53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>0x79622cD63ff61A74613fAFB805B7f32D3cf78A95</v>
+        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
       </c>
       <c r="B26" t="str">
-        <v>17,460.15</v>
+        <v>570.47</v>
       </c>
       <c r="C26" t="str">
-        <v>17,460.15</v>
+        <v>570.47</v>
       </c>
       <c r="D26" t="str">
-        <v>0</v>
+        <v>280.47</v>
       </c>
       <c r="E26" t="str">
-        <v>12,639.19</v>
+        <v>142.09</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
+        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
       </c>
       <c r="B27" t="str">
-        <v>1,488.65</v>
+        <v>402.51</v>
       </c>
       <c r="C27" t="str">
-        <v>1,488.65</v>
+        <v>402.51</v>
       </c>
       <c r="D27" t="str">
-        <v>467.62</v>
+        <v>17.68</v>
       </c>
       <c r="E27" t="str">
-        <v>610</v>
+        <v>280.47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
+        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
       </c>
       <c r="B28" t="str">
-        <v>6,126.01</v>
+        <v>548.91</v>
       </c>
       <c r="C28" t="str">
-        <v>6,126.01</v>
+        <v>548.91</v>
       </c>
       <c r="D28" t="str">
-        <v>4,434.55</v>
+        <v>102.9</v>
       </c>
       <c r="E28" t="str">
-        <v>0</v>
+        <v>303.69</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
+        <v>0x4B3D17974c2F79fEf5D495F082e9eC7d1FD95a06</v>
       </c>
       <c r="B29" t="str">
-        <v>98,240.66</v>
+        <v>548.91</v>
       </c>
       <c r="C29" t="str">
-        <v>98,240.66</v>
+        <v>548.91</v>
       </c>
       <c r="D29" t="str">
-        <v>9,968</v>
+        <v>303.69</v>
       </c>
       <c r="E29" t="str">
-        <v>61,147.21</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>0x175780bC4d0A1bc28c46C3E71130C092790E7576</v>
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
       </c>
       <c r="B30" t="str">
-        <v>1.2</v>
+        <v>939,390.68</v>
       </c>
       <c r="C30" t="str">
-        <v>1.2</v>
+        <v>939,390.68</v>
       </c>
       <c r="D30" t="str">
-        <v>0.87</v>
+        <v>347,778.99</v>
       </c>
       <c r="E30" t="str">
-        <v>0</v>
+        <v>348,046.91</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
+        <v>0xd092C607a92c75de3bB1240494C4822Bf3766D46</v>
       </c>
       <c r="B31" t="str">
-        <v>370.38</v>
+        <v>136.2</v>
       </c>
       <c r="C31" t="str">
-        <v>370.38</v>
+        <v>136.2</v>
       </c>
       <c r="D31" t="str">
-        <v>268.12</v>
+        <v>100.89</v>
       </c>
       <c r="E31" t="str">
         <v>0</v>
@@ -14744,16 +18465,16 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>0x27dF802924227b28Ad0Bec076Bd7f1D223441bF5</v>
+        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
       </c>
       <c r="B32" t="str">
-        <v>321.01</v>
+        <v>82.83</v>
       </c>
       <c r="C32" t="str">
-        <v>321.01</v>
+        <v>82.83</v>
       </c>
       <c r="D32" t="str">
-        <v>232.38</v>
+        <v>61.36</v>
       </c>
       <c r="E32" t="str">
         <v>0</v>
@@ -14761,16 +18482,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
       </c>
       <c r="B33" t="str">
-        <v>470.81</v>
+        <v>39.42</v>
       </c>
       <c r="C33" t="str">
-        <v>470.81</v>
+        <v>39.42</v>
       </c>
       <c r="D33" t="str">
-        <v>340.82</v>
+        <v>29.2</v>
       </c>
       <c r="E33" t="str">
         <v>0</v>
@@ -14778,16 +18499,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
+        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
       </c>
       <c r="B34" t="str">
-        <v>10,748.39</v>
+        <v>992.27</v>
       </c>
       <c r="C34" t="str">
-        <v>10,748.39</v>
+        <v>992.27</v>
       </c>
       <c r="D34" t="str">
-        <v>7,780.63</v>
+        <v>735</v>
       </c>
       <c r="E34" t="str">
         <v>0</v>
@@ -14795,16 +18516,16 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+        <v>0xEe5358d1d36262CeFC36478E37A718FA4d7847eB</v>
       </c>
       <c r="B35" t="str">
-        <v>762.42</v>
+        <v>79.85</v>
       </c>
       <c r="C35" t="str">
-        <v>762.42</v>
+        <v>79.85</v>
       </c>
       <c r="D35" t="str">
-        <v>551.91</v>
+        <v>59.15</v>
       </c>
       <c r="E35" t="str">
         <v>0</v>
@@ -14812,50 +18533,50 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
       </c>
       <c r="B36" t="str">
-        <v>1,301.14</v>
+        <v>167.95</v>
       </c>
       <c r="C36" t="str">
-        <v>1,301.14</v>
+        <v>167.95</v>
       </c>
       <c r="D36" t="str">
-        <v>332.66</v>
+        <v>124.41</v>
       </c>
       <c r="E36" t="str">
-        <v>609.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
+        <v>0xf74f5cF53A6746b1eddD9C7ea8Ab7447797c3D74</v>
       </c>
       <c r="B37" t="str">
-        <v>250.35</v>
+        <v>1,537.86</v>
       </c>
       <c r="C37" t="str">
-        <v>250.35</v>
+        <v>1,537.86</v>
       </c>
       <c r="D37" t="str">
-        <v>181.23</v>
+        <v>0</v>
       </c>
       <c r="E37" t="str">
-        <v>0</v>
+        <v>1,139.13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
+        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
       </c>
       <c r="B38" t="str">
-        <v>953.21</v>
+        <v>66.24</v>
       </c>
       <c r="C38" t="str">
-        <v>953.21</v>
+        <v>66.24</v>
       </c>
       <c r="D38" t="str">
-        <v>690.02</v>
+        <v>49.07</v>
       </c>
       <c r="E38" t="str">
         <v>0</v>
@@ -14863,50 +18584,50 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>0x4e0F1063F13d020B1316791Ae56ea5a826aba501</v>
+        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
       </c>
       <c r="B39" t="str">
-        <v>351.9</v>
+        <v>5,240.61</v>
       </c>
       <c r="C39" t="str">
-        <v>351.9</v>
+        <v>5,240.61</v>
       </c>
       <c r="D39" t="str">
-        <v>254.74</v>
+        <v>0</v>
       </c>
       <c r="E39" t="str">
-        <v>0</v>
+        <v>3,881.83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
+        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
       </c>
       <c r="B40" t="str">
-        <v>902.95</v>
+        <v>3,385.13</v>
       </c>
       <c r="C40" t="str">
-        <v>902.95</v>
+        <v>3,385.13</v>
       </c>
       <c r="D40" t="str">
-        <v>0</v>
+        <v>2,507.44</v>
       </c>
       <c r="E40" t="str">
-        <v>653.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
       </c>
       <c r="B41" t="str">
-        <v>4,396.28</v>
+        <v>114.75</v>
       </c>
       <c r="C41" t="str">
-        <v>4,396.28</v>
+        <v>114.75</v>
       </c>
       <c r="D41" t="str">
-        <v>3,182.42</v>
+        <v>85</v>
       </c>
       <c r="E41" t="str">
         <v>0</v>
@@ -14914,16 +18635,16 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
+        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
       </c>
       <c r="B42" t="str">
-        <v>143.72</v>
+        <v>205.65</v>
       </c>
       <c r="C42" t="str">
-        <v>143.72</v>
+        <v>205.65</v>
       </c>
       <c r="D42" t="str">
-        <v>104.04</v>
+        <v>152.33</v>
       </c>
       <c r="E42" t="str">
         <v>0</v>
@@ -14931,16 +18652,16 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
+        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
       </c>
       <c r="B43" t="str">
-        <v>63.44</v>
+        <v>7,716.97</v>
       </c>
       <c r="C43" t="str">
-        <v>63.44</v>
+        <v>7,716.97</v>
       </c>
       <c r="D43" t="str">
-        <v>45.93</v>
+        <v>5,716.12</v>
       </c>
       <c r="E43" t="str">
         <v>0</v>
@@ -14948,33 +18669,33 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>0x68Aaa776A6Ac3DA289893423D8827DF25841F72C</v>
+        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
       </c>
       <c r="B44" t="str">
-        <v>140.82</v>
+        <v>4,273.05</v>
       </c>
       <c r="C44" t="str">
-        <v>140.82</v>
+        <v>4,273.05</v>
       </c>
       <c r="D44" t="str">
-        <v>101.94</v>
+        <v>0</v>
       </c>
       <c r="E44" t="str">
-        <v>0</v>
+        <v>3,165.14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>0xf2278c9CE9438A1e24F1BE11Ab0B399A03baB717</v>
+        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
       </c>
       <c r="B45" t="str">
-        <v>83.35</v>
+        <v>137.97</v>
       </c>
       <c r="C45" t="str">
-        <v>83.35</v>
+        <v>137.97</v>
       </c>
       <c r="D45" t="str">
-        <v>60.34</v>
+        <v>102.2</v>
       </c>
       <c r="E45" t="str">
         <v>0</v>
@@ -14982,16 +18703,16 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>0x80BEe177a79d87c112CB40694182fAa7351a1CF4</v>
+        <v>0xa755B0E03b0C0411c64749C64F063a6600a24D8c</v>
       </c>
       <c r="B46" t="str">
-        <v>154.01</v>
+        <v>931.57</v>
       </c>
       <c r="C46" t="str">
-        <v>154.01</v>
+        <v>931.57</v>
       </c>
       <c r="D46" t="str">
-        <v>111.49</v>
+        <v>690.04</v>
       </c>
       <c r="E46" t="str">
         <v>0</v>
@@ -14999,16 +18720,16 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>0xc4b88bff8D047576eC693EaFA72482A5e8f0fd7A</v>
+        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
       </c>
       <c r="B47" t="str">
-        <v>55.07</v>
+        <v>512.62</v>
       </c>
       <c r="C47" t="str">
-        <v>55.07</v>
+        <v>512.62</v>
       </c>
       <c r="D47" t="str">
-        <v>39.87</v>
+        <v>379.71</v>
       </c>
       <c r="E47" t="str">
         <v>0</v>
@@ -15016,16 +18737,16 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
+        <v>0xfF228D6Bc48699D8ced802eDB384242D4a22febc</v>
       </c>
       <c r="B48" t="str">
-        <v>13.81</v>
+        <v>3,438.4</v>
       </c>
       <c r="C48" t="str">
-        <v>13.81</v>
+        <v>3,438.4</v>
       </c>
       <c r="D48" t="str">
-        <v>10</v>
+        <v>2,546.9</v>
       </c>
       <c r="E48" t="str">
         <v>0</v>
@@ -15033,16 +18754,16 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>0x8BFF5eB745527844b0abfd7D9730cDE82948cFf0</v>
+        <v>0x893b99952A101ea504E2DA3d44164858b11a58a1</v>
       </c>
       <c r="B49" t="str">
-        <v>507.77</v>
+        <v>161.45</v>
       </c>
       <c r="C49" t="str">
-        <v>507.77</v>
+        <v>161.45</v>
       </c>
       <c r="D49" t="str">
-        <v>367.57</v>
+        <v>119.59</v>
       </c>
       <c r="E49" t="str">
         <v>0</v>
@@ -15050,84 +18771,84 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
+        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
       </c>
       <c r="B50" t="str">
-        <v>1,049.66</v>
+        <v>3,996.85</v>
       </c>
       <c r="C50" t="str">
-        <v>1,049.66</v>
+        <v>3,996.85</v>
       </c>
       <c r="D50" t="str">
-        <v>759.84</v>
+        <v>2,880.23</v>
       </c>
       <c r="E50" t="str">
-        <v>0</v>
+        <v>80.32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>0x620964B76328a1Ec5039361877eA64510A241139</v>
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
       </c>
       <c r="B51" t="str">
-        <v>356.45</v>
+        <v>18,753.37</v>
       </c>
       <c r="C51" t="str">
-        <v>356.45</v>
+        <v>18,753.37</v>
       </c>
       <c r="D51" t="str">
-        <v>258.03</v>
+        <v>8,145.1</v>
       </c>
       <c r="E51" t="str">
-        <v>0</v>
+        <v>5,745.91</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>0x31D167b99FF574edfF7205bde0bF3D0555351574</v>
+        <v>0xfFbea98964b8683427F5c3CFFbddcDA07E40caD4</v>
       </c>
       <c r="B52" t="str">
-        <v>130.42</v>
+        <v>8.82</v>
       </c>
       <c r="C52" t="str">
-        <v>130.42</v>
+        <v>8.82</v>
       </c>
       <c r="D52" t="str">
-        <v>0</v>
+        <v>6.54</v>
       </c>
       <c r="E52" t="str">
-        <v>94.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>0x5Fc4faF3934548c57d66f1179C2991cEd028E61F</v>
+        <v>0x54bE4074E027546F3De714a350782b380ab2B513</v>
       </c>
       <c r="B53" t="str">
-        <v>884.59</v>
+        <v>8.82</v>
       </c>
       <c r="C53" t="str">
-        <v>884.59</v>
+        <v>8.82</v>
       </c>
       <c r="D53" t="str">
         <v>0</v>
       </c>
       <c r="E53" t="str">
-        <v>640.35</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
+        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
       </c>
       <c r="B54" t="str">
-        <v>290.12</v>
+        <v>115.5</v>
       </c>
       <c r="C54" t="str">
-        <v>290.12</v>
+        <v>115.5</v>
       </c>
       <c r="D54" t="str">
-        <v>210.02</v>
+        <v>85.56</v>
       </c>
       <c r="E54" t="str">
         <v>0</v>
@@ -15135,50 +18856,50 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>0x0325B1b36Dc59ac07519AC60b5c7A85747274C8A</v>
+        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
       </c>
       <c r="B55" t="str">
-        <v>1,222.56</v>
+        <v>379.29</v>
       </c>
       <c r="C55" t="str">
-        <v>1,222.56</v>
+        <v>379.29</v>
       </c>
       <c r="D55" t="str">
-        <v>885</v>
+        <v>0</v>
       </c>
       <c r="E55" t="str">
-        <v>0</v>
+        <v>280.95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
+        <v>0xbE68d65f491CaCc7f4eaa49b813A92DfFa001DBc</v>
       </c>
       <c r="B56" t="str">
-        <v>1,222.56</v>
+        <v>3,503.69</v>
       </c>
       <c r="C56" t="str">
-        <v>1,222.56</v>
+        <v>3,503.69</v>
       </c>
       <c r="D56" t="str">
         <v>0</v>
       </c>
       <c r="E56" t="str">
-        <v>885</v>
+        <v>2,595.26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
+        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
       </c>
       <c r="B57" t="str">
-        <v>1,116.87</v>
+        <v>272.69</v>
       </c>
       <c r="C57" t="str">
-        <v>1,116.87</v>
+        <v>272.69</v>
       </c>
       <c r="D57" t="str">
-        <v>808.49</v>
+        <v>201.99</v>
       </c>
       <c r="E57" t="str">
         <v>0</v>
@@ -15186,16 +18907,16 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+        <v>0xeb9Ea287a5BD59731C6fbDEfd9e81dAa4Dc7eB11</v>
       </c>
       <c r="B58" t="str">
-        <v>36.41</v>
+        <v>270</v>
       </c>
       <c r="C58" t="str">
-        <v>36.41</v>
+        <v>270</v>
       </c>
       <c r="D58" t="str">
-        <v>26.36</v>
+        <v>200</v>
       </c>
       <c r="E58" t="str">
         <v>0</v>
@@ -15203,169 +18924,169 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
       </c>
       <c r="B59" t="str">
-        <v>29.32</v>
+        <v>9,395.97</v>
       </c>
       <c r="C59" t="str">
-        <v>29.32</v>
+        <v>9,395.97</v>
       </c>
       <c r="D59" t="str">
-        <v>21.23</v>
+        <v>9.79</v>
       </c>
       <c r="E59" t="str">
-        <v>0</v>
+        <v>6,950</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>0xd3330632C0e3C5A54b4B80a4a13EF9389db19B5E</v>
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
       </c>
       <c r="B60" t="str">
-        <v>134.48</v>
+        <v>2,277.57</v>
       </c>
       <c r="C60" t="str">
-        <v>134.48</v>
+        <v>2,277.57</v>
       </c>
       <c r="D60" t="str">
-        <v>97.35</v>
+        <v>920.91</v>
       </c>
       <c r="E60" t="str">
-        <v>0</v>
+        <v>766.14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
       </c>
       <c r="B61" t="str">
-        <v>66,653.57</v>
+        <v>31,860.28</v>
       </c>
       <c r="C61" t="str">
-        <v>66,653.57</v>
+        <v>34,516.77</v>
       </c>
       <c r="D61" t="str">
-        <v>0</v>
+        <v>25,567.28</v>
       </c>
       <c r="E61" t="str">
-        <v>48,249.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>0x7e729b21005cF2FDda685bA7Bef04c6Dc3DcD444</v>
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
       </c>
       <c r="B62" t="str">
-        <v>3.61</v>
+        <v>0</v>
       </c>
       <c r="C62" t="str">
-        <v>3.61</v>
+        <v>34,516.77</v>
       </c>
       <c r="D62" t="str">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="E62" t="str">
-        <v>0</v>
+        <v>25,567.28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
       </c>
       <c r="B63" t="str">
-        <v>88.54</v>
+        <v>350.9</v>
       </c>
       <c r="C63" t="str">
-        <v>88.54</v>
+        <v>350.9</v>
       </c>
       <c r="D63" t="str">
-        <v>64.1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="str">
-        <v>0</v>
+        <v>259.92</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+        <v>0x9A4dbCDE63b55273DC51BeA546A7ba6456f059D0</v>
       </c>
       <c r="B64" t="str">
-        <v>1,990.14</v>
+        <v>2,348.82</v>
       </c>
       <c r="C64" t="str">
-        <v>1,990.14</v>
+        <v>2,348.82</v>
       </c>
       <c r="D64" t="str">
         <v>0</v>
       </c>
       <c r="E64" t="str">
-        <v>1,440.64</v>
+        <v>1,739.82</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+        <v>0x425F2F1287045bC9d04C0f933E7FdEdA4A2e5765</v>
       </c>
       <c r="B65" t="str">
-        <v>1,495.24</v>
+        <v>6,722.5</v>
       </c>
       <c r="C65" t="str">
-        <v>1,495.24</v>
+        <v>6,722.5</v>
       </c>
       <c r="D65" t="str">
         <v>0</v>
       </c>
       <c r="E65" t="str">
-        <v>1,082.39</v>
+        <v>4,979.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
       </c>
       <c r="B66" t="str">
-        <v>5,731.69</v>
+        <v>52,443.79</v>
       </c>
       <c r="C66" t="str">
-        <v>5,731.69</v>
+        <v>52,443.79</v>
       </c>
       <c r="D66" t="str">
-        <v>0</v>
+        <v>12,296.1</v>
       </c>
       <c r="E66" t="str">
-        <v>4,149.1</v>
+        <v>26,550.09</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
       </c>
       <c r="B67" t="str">
-        <v>871.53</v>
+        <v>51,841.4</v>
       </c>
       <c r="C67" t="str">
-        <v>871.53</v>
+        <v>51,841.4</v>
       </c>
       <c r="D67" t="str">
-        <v>0</v>
+        <v>26,103.89</v>
       </c>
       <c r="E67" t="str">
-        <v>630.89</v>
+        <v>12,296.1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+        <v>0xCf54bb8C360FB4Ec47AE0c31Bc8864B163651277</v>
       </c>
       <c r="B68" t="str">
-        <v>1,572.5</v>
+        <v>0</v>
       </c>
       <c r="C68" t="str">
-        <v>1,572.5</v>
+        <v>697.29</v>
       </c>
       <c r="D68" t="str">
-        <v>1,138.32</v>
+        <v>516.5</v>
       </c>
       <c r="E68" t="str">
         <v>0</v>
@@ -15373,16 +19094,16 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>0x9ff812DfE804e2BF400Fd6fD22293203674DDdEe</v>
+        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
       </c>
       <c r="B69" t="str">
-        <v>63.32</v>
+        <v>642.9</v>
       </c>
       <c r="C69" t="str">
-        <v>63.32</v>
+        <v>642.9</v>
       </c>
       <c r="D69" t="str">
-        <v>45.84</v>
+        <v>476.21</v>
       </c>
       <c r="E69" t="str">
         <v>0</v>
@@ -15390,169 +19111,169 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>0x4e50BEF218F0Db065F4EE833D3679712A74F21F2</v>
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
       </c>
       <c r="B70" t="str">
-        <v>63.32</v>
+        <v>24,538.23</v>
       </c>
       <c r="C70" t="str">
-        <v>63.32</v>
+        <v>24,538.23</v>
       </c>
       <c r="D70" t="str">
         <v>0</v>
       </c>
       <c r="E70" t="str">
-        <v>45.84</v>
+        <v>18,175.97</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>0xB188a4B33E4755DD08c93b07D627A605004104d2</v>
+        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
       </c>
       <c r="B71" t="str">
-        <v>2,008.01</v>
+        <v>2,083.83</v>
       </c>
       <c r="C71" t="str">
-        <v>2,008.01</v>
+        <v>2,083.83</v>
       </c>
       <c r="D71" t="str">
-        <v>1,453.58</v>
+        <v>0</v>
       </c>
       <c r="E71" t="str">
-        <v>0</v>
+        <v>1,543.54</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
+        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
       </c>
       <c r="B72" t="str">
-        <v>115.54</v>
+        <v>3,454.78</v>
       </c>
       <c r="C72" t="str">
-        <v>115.54</v>
+        <v>3,454.78</v>
       </c>
       <c r="D72" t="str">
         <v>0</v>
       </c>
       <c r="E72" t="str">
-        <v>83.64</v>
+        <v>2,559.03</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
       </c>
       <c r="B73" t="str">
-        <v>0</v>
+        <v>808.87</v>
       </c>
       <c r="C73" t="str">
-        <v>44,338.88</v>
+        <v>808.87</v>
       </c>
       <c r="D73" t="str">
-        <v>0</v>
+        <v>95.22</v>
       </c>
       <c r="E73" t="str">
-        <v>32,096.37</v>
+        <v>503.93</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
       </c>
       <c r="B74" t="str">
-        <v>24,450.15</v>
+        <v>40,752.56</v>
       </c>
       <c r="C74" t="str">
-        <v>24,450.15</v>
+        <v>40,752.56</v>
       </c>
       <c r="D74" t="str">
-        <v>17,699.17</v>
+        <v>0</v>
       </c>
       <c r="E74" t="str">
-        <v>0</v>
+        <v>30,186.26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>0x425F2F1287045bC9d04C0f933E7FdEdA4A2e5765</v>
+        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
       </c>
       <c r="B75" t="str">
-        <v>8,352.01</v>
+        <v>38,285.11</v>
       </c>
       <c r="C75" t="str">
-        <v>8,352.01</v>
+        <v>38,285.11</v>
       </c>
       <c r="D75" t="str">
         <v>0</v>
       </c>
       <c r="E75" t="str">
-        <v>6,045.92</v>
+        <v>28,358.57</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
       </c>
       <c r="B76" t="str">
-        <v>3,429.84</v>
+        <v>7,003.85</v>
       </c>
       <c r="C76" t="str">
-        <v>3,429.84</v>
+        <v>7,003.85</v>
       </c>
       <c r="D76" t="str">
-        <v>0</v>
+        <v>4,498.51</v>
       </c>
       <c r="E76" t="str">
-        <v>2,482.82</v>
+        <v>689.39</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>0xe23bc0609A8Df4EA2A597AEAAFcBF421BFfBDCFd</v>
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
       </c>
       <c r="B77" t="str">
-        <v>325.63</v>
+        <v>0</v>
       </c>
       <c r="C77" t="str">
-        <v>325.63</v>
+        <v>11,619.33</v>
       </c>
       <c r="D77" t="str">
-        <v>235.72</v>
+        <v>0</v>
       </c>
       <c r="E77" t="str">
-        <v>0</v>
+        <v>8,606.68</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
       </c>
       <c r="B78" t="str">
-        <v>1,832.36</v>
+        <v>990.81</v>
       </c>
       <c r="C78" t="str">
-        <v>1,832.36</v>
+        <v>990.81</v>
       </c>
       <c r="D78" t="str">
-        <v>1,090.71</v>
+        <v>733.92</v>
       </c>
       <c r="E78" t="str">
-        <v>235.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+        <v>0xB318309e50C1f09825f903B5773c45b0d2930f28</v>
       </c>
       <c r="B79" t="str">
-        <v>23,205.94</v>
+        <v>329.44</v>
       </c>
       <c r="C79" t="str">
-        <v>23,205.94</v>
+        <v>329.44</v>
       </c>
       <c r="D79" t="str">
-        <v>16,798.5</v>
+        <v>244.03</v>
       </c>
       <c r="E79" t="str">
         <v>0</v>
@@ -15560,50 +19281,50 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
       </c>
       <c r="B80" t="str">
-        <v>0</v>
+        <v>82,469.32</v>
       </c>
       <c r="C80" t="str">
-        <v>23,205.94</v>
+        <v>82,469.32</v>
       </c>
       <c r="D80" t="str">
         <v>0</v>
       </c>
       <c r="E80" t="str">
-        <v>16,798.5</v>
+        <v>61,086.72</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>0xF6a52cb99b772d46C736F6F90Be792A1d4159414</v>
+        <v>0x889f1F09b491711013cA6787E29e07a04FDf42a4</v>
       </c>
       <c r="B81" t="str">
-        <v>131.94</v>
+        <v>675.01</v>
       </c>
       <c r="C81" t="str">
-        <v>131.94</v>
+        <v>675.01</v>
       </c>
       <c r="D81" t="str">
-        <v>95.51</v>
+        <v>0</v>
       </c>
       <c r="E81" t="str">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+        <v>0x880cd618B4cA66bBb8862558954d8473d7b0C867</v>
       </c>
       <c r="B82" t="str">
-        <v>1,516.05</v>
+        <v>333.87</v>
       </c>
       <c r="C82" t="str">
-        <v>1,516.05</v>
+        <v>333.87</v>
       </c>
       <c r="D82" t="str">
-        <v>1,097.45</v>
+        <v>247.31</v>
       </c>
       <c r="E82" t="str">
         <v>0</v>
@@ -15611,220 +19332,220 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+        <v>0x358e444fFb60A1Cc82A6E412C6720f110dc1E921</v>
       </c>
       <c r="B83" t="str">
-        <v>344.48</v>
+        <v>0</v>
       </c>
       <c r="C83" t="str">
-        <v>344.48</v>
+        <v>10,564.75</v>
       </c>
       <c r="D83" t="str">
-        <v>196.87</v>
+        <v>0</v>
       </c>
       <c r="E83" t="str">
-        <v>52.5</v>
+        <v>7,825.53</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
       </c>
       <c r="B84" t="str">
-        <v>15,274.51</v>
+        <v>4,177.16</v>
       </c>
       <c r="C84" t="str">
-        <v>15,274.51</v>
+        <v>4,177.16</v>
       </c>
       <c r="D84" t="str">
-        <v>141.94</v>
+        <v>0</v>
       </c>
       <c r="E84" t="str">
-        <v>10,915.09</v>
+        <v>3,094.11</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>0x413Af536E3D18D259A9b71B42AC66faC5aBa0Fbf</v>
+        <v>0x3E3309ab5312f6875b6e9bE672b9A43EFb70D760</v>
       </c>
       <c r="B85" t="str">
-        <v>133.03</v>
+        <v>857.27</v>
       </c>
       <c r="C85" t="str">
-        <v>133.03</v>
+        <v>857.27</v>
       </c>
       <c r="D85" t="str">
         <v>0</v>
       </c>
       <c r="E85" t="str">
-        <v>96.3</v>
+        <v>635</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
       </c>
       <c r="B86" t="str">
-        <v>176.75</v>
+        <v>2,211.57</v>
       </c>
       <c r="C86" t="str">
-        <v>176.75</v>
+        <v>2,211.57</v>
       </c>
       <c r="D86" t="str">
-        <v>127.95</v>
+        <v>0</v>
       </c>
       <c r="E86" t="str">
-        <v>0</v>
+        <v>1,638.16</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
       </c>
       <c r="B87" t="str">
-        <v>190.12</v>
+        <v>79,886.85</v>
       </c>
       <c r="C87" t="str">
-        <v>190.12</v>
+        <v>79,886.85</v>
       </c>
       <c r="D87" t="str">
-        <v>137.63</v>
+        <v>57,269.63</v>
       </c>
       <c r="E87" t="str">
-        <v>0</v>
+        <v>1,904.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
+        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
       </c>
       <c r="B88" t="str">
-        <v>1,410.01</v>
+        <v>481.49</v>
       </c>
       <c r="C88" t="str">
-        <v>1,410.01</v>
+        <v>481.49</v>
       </c>
       <c r="D88" t="str">
-        <v>1,020.69</v>
+        <v>0</v>
       </c>
       <c r="E88" t="str">
-        <v>0</v>
+        <v>356.65</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
+        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
       </c>
       <c r="B89" t="str">
-        <v>660.35</v>
+        <v>1,933.45</v>
       </c>
       <c r="C89" t="str">
-        <v>660.35</v>
+        <v>1,933.45</v>
       </c>
       <c r="D89" t="str">
-        <v>0</v>
+        <v>1,432.15</v>
       </c>
       <c r="E89" t="str">
-        <v>478.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>0xf0eeE0837e8F4feaC444412991f7005B8dFFa305</v>
+        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
       </c>
       <c r="B90" t="str">
-        <v>611.53</v>
+        <v>1,933.45</v>
       </c>
       <c r="C90" t="str">
-        <v>611.53</v>
+        <v>1,933.45</v>
       </c>
       <c r="D90" t="str">
         <v>0</v>
       </c>
       <c r="E90" t="str">
-        <v>442.68</v>
+        <v>1,432.15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
+        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
       </c>
       <c r="B91" t="str">
-        <v>2,788.33</v>
+        <v>225.18</v>
       </c>
       <c r="C91" t="str">
-        <v>2,788.33</v>
+        <v>225.18</v>
       </c>
       <c r="D91" t="str">
-        <v>2,018.44</v>
+        <v>0</v>
       </c>
       <c r="E91" t="str">
-        <v>0</v>
+        <v>166.8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
       </c>
       <c r="B92" t="str">
-        <v>0</v>
+        <v>26,513.47</v>
       </c>
       <c r="C92" t="str">
-        <v>2,788.33</v>
+        <v>26,513.47</v>
       </c>
       <c r="D92" t="str">
-        <v>0</v>
+        <v>19,639.07</v>
       </c>
       <c r="E92" t="str">
-        <v>2,018.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>0xFa544d034dC07aD4Fa185ba769031a29Fbef5e36</v>
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
       </c>
       <c r="B93" t="str">
-        <v>59.32</v>
+        <v>602.38</v>
       </c>
       <c r="C93" t="str">
-        <v>225.91</v>
+        <v>602.38</v>
       </c>
       <c r="D93" t="str">
-        <v>0</v>
+        <v>446.2</v>
       </c>
       <c r="E93" t="str">
-        <v>163.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
+        <v>0xB19c1b3cEc4c5bD6DCA220A4f59de9EC681e9211</v>
       </c>
       <c r="B94" t="str">
-        <v>2,819.33</v>
+        <v>0</v>
       </c>
       <c r="C94" t="str">
-        <v>2,819.33</v>
+        <v>612.97</v>
       </c>
       <c r="D94" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="str">
-        <v>2,040.88</v>
+        <v>453.04</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>0xA918ADC20A91e7C932e6E00e436D710DA71C765C</v>
+        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
       </c>
       <c r="B95" t="str">
-        <v>393.32</v>
+        <v>810.06</v>
       </c>
       <c r="C95" t="str">
-        <v>393.32</v>
+        <v>810.06</v>
       </c>
       <c r="D95" t="str">
-        <v>284.72</v>
+        <v>600.03</v>
       </c>
       <c r="E95" t="str">
         <v>0</v>
@@ -15832,67 +19553,67 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
       </c>
       <c r="B96" t="str">
-        <v>393.32</v>
+        <v>25,202.98</v>
       </c>
       <c r="C96" t="str">
-        <v>393.32</v>
+        <v>25,202.98</v>
       </c>
       <c r="D96" t="str">
         <v>0</v>
       </c>
       <c r="E96" t="str">
-        <v>284.72</v>
+        <v>18,668.37</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>0x4045d560bdcd01295dB6B3041ecfB7C5a346eDa8</v>
+        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
       </c>
       <c r="B97" t="str">
-        <v>0</v>
+        <v>6,094.29</v>
       </c>
       <c r="C97" t="str">
-        <v>64,493.78</v>
+        <v>6,094.29</v>
       </c>
       <c r="D97" t="str">
         <v>0</v>
       </c>
       <c r="E97" t="str">
-        <v>46,686.26</v>
+        <v>4,514.17</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>0xa8CE35A87d51EaC37675c1Cf7C5d6435a3b2079A</v>
+        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
       </c>
       <c r="B98" t="str">
-        <v>22,650.12</v>
+        <v>12,070.28</v>
       </c>
       <c r="C98" t="str">
-        <v>22,650.12</v>
+        <v>12,070.28</v>
       </c>
       <c r="D98" t="str">
         <v>0</v>
       </c>
       <c r="E98" t="str">
-        <v>16,396.15</v>
+        <v>8,940.71</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>0xCf54bb8C360FB4Ec47AE0c31Bc8864B163651277</v>
+        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
       </c>
       <c r="B99" t="str">
-        <v>0</v>
+        <v>681.52</v>
       </c>
       <c r="C99" t="str">
-        <v>4,951.15</v>
+        <v>681.52</v>
       </c>
       <c r="D99" t="str">
-        <v>3,584.08</v>
+        <v>504.82</v>
       </c>
       <c r="E99" t="str">
         <v>0</v>
@@ -15900,50 +19621,50 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+        <v>0xC11519b13b1F70d0Ac7742BC60EFBa16c54b29f8</v>
       </c>
       <c r="B100" t="str">
-        <v>418</v>
+        <v>144.92</v>
       </c>
       <c r="C100" t="str">
-        <v>418</v>
+        <v>144.92</v>
       </c>
       <c r="D100" t="str">
-        <v>302.59</v>
+        <v>0</v>
       </c>
       <c r="E100" t="str">
-        <v>0</v>
+        <v>107.35</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>0x48682644c1e8529338e46e7DdabA4383C1fceBb1</v>
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
       </c>
       <c r="B101" t="str">
-        <v>488.04</v>
+        <v>3,926.01</v>
       </c>
       <c r="C101" t="str">
-        <v>488.04</v>
+        <v>3,926.01</v>
       </c>
       <c r="D101" t="str">
         <v>0</v>
       </c>
       <c r="E101" t="str">
-        <v>353.29</v>
+        <v>2,908.08</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>0xCbf575DA18d760a18dB55333bE8662CC07463069</v>
+        <v>0x7e729b21005cF2FDda685bA7Bef04c6Dc3DcD444</v>
       </c>
       <c r="B102" t="str">
-        <v>609.91</v>
+        <v>5.44</v>
       </c>
       <c r="C102" t="str">
-        <v>609.91</v>
+        <v>5.44</v>
       </c>
       <c r="D102" t="str">
-        <v>441.51</v>
+        <v>4.03</v>
       </c>
       <c r="E102" t="str">
         <v>0</v>
@@ -15951,118 +19672,118 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
+        <v>0xf78D0cdFB459eD9CC19eEb7c22B5F193d7662fcC</v>
       </c>
       <c r="B103" t="str">
-        <v>6,126.01</v>
+        <v>3,379.39</v>
       </c>
       <c r="C103" t="str">
-        <v>6,126.01</v>
+        <v>3,379.39</v>
       </c>
       <c r="D103" t="str">
-        <v>0</v>
+        <v>2,503.19</v>
       </c>
       <c r="E103" t="str">
-        <v>4,434.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
+        <v>0x2A1Cc6c77782EA6BE6C08d61430A79E31Ea4efDf</v>
       </c>
       <c r="B104" t="str">
-        <v>1,423.66</v>
+        <v>313.46</v>
       </c>
       <c r="C104" t="str">
-        <v>1,423.66</v>
+        <v>313.46</v>
       </c>
       <c r="D104" t="str">
-        <v>114.16</v>
+        <v>0</v>
       </c>
       <c r="E104" t="str">
-        <v>916.41</v>
+        <v>232.19</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+        <v>0xb05822516a701573678447E6966F7eD3bdDf78C5</v>
       </c>
       <c r="B105" t="str">
-        <v>194.51</v>
+        <v>170.99</v>
       </c>
       <c r="C105" t="str">
-        <v>194.51</v>
+        <v>170.99</v>
       </c>
       <c r="D105" t="str">
-        <v>0</v>
+        <v>126.66</v>
       </c>
       <c r="E105" t="str">
-        <v>140.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
+        <v>0x2844bE58E6d43728a6E81c5C7886B938be8f5378</v>
       </c>
       <c r="B106" t="str">
-        <v>84,470.57</v>
+        <v>61.11</v>
       </c>
       <c r="C106" t="str">
-        <v>84,470.57</v>
+        <v>61.11</v>
       </c>
       <c r="D106" t="str">
-        <v>61,147.21</v>
+        <v>0</v>
       </c>
       <c r="E106" t="str">
-        <v>0</v>
+        <v>45.27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
       </c>
       <c r="B107" t="str">
-        <v>30,527.92</v>
+        <v>306.55</v>
       </c>
       <c r="C107" t="str">
-        <v>30,527.92</v>
+        <v>306.55</v>
       </c>
       <c r="D107" t="str">
-        <v>16,357.4</v>
+        <v>0</v>
       </c>
       <c r="E107" t="str">
-        <v>5,741.39</v>
+        <v>227.07</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
       </c>
       <c r="B108" t="str">
-        <v>29,765.5</v>
+        <v>2,263.56</v>
       </c>
       <c r="C108" t="str">
-        <v>29,765.5</v>
+        <v>2,263.56</v>
       </c>
       <c r="D108" t="str">
-        <v>5,189.48</v>
+        <v>1,676.67</v>
       </c>
       <c r="E108" t="str">
-        <v>16,357.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>0x97FD7d404b26A9b59d6F5bAc4Ff34349641bA6c5</v>
+        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
       </c>
       <c r="B109" t="str">
-        <v>582.54</v>
+        <v>67.54</v>
       </c>
       <c r="C109" t="str">
-        <v>582.54</v>
+        <v>67.54</v>
       </c>
       <c r="D109" t="str">
-        <v>421.7</v>
+        <v>50.03</v>
       </c>
       <c r="E109" t="str">
         <v>0</v>
@@ -16070,203 +19791,203 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
+        <v>0xfA9FBD6360692a1b23b84A9dDFf63ed77faF58c9</v>
       </c>
       <c r="B110" t="str">
-        <v>582.54</v>
+        <v>139.41</v>
       </c>
       <c r="C110" t="str">
-        <v>582.54</v>
+        <v>139.41</v>
       </c>
       <c r="D110" t="str">
         <v>0</v>
       </c>
       <c r="E110" t="str">
-        <v>421.7</v>
+        <v>103.27</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
+        <v>0x46c17eC4E5fb0529F5559f6990d81f0420Be1E5c</v>
       </c>
       <c r="B111" t="str">
-        <v>2,829.07</v>
+        <v>23,635.88</v>
       </c>
       <c r="C111" t="str">
-        <v>2,829.07</v>
+        <v>23,635.88</v>
       </c>
       <c r="D111" t="str">
-        <v>999.73</v>
+        <v>17,507.58</v>
       </c>
       <c r="E111" t="str">
-        <v>1,048.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>0x5766ee90ab6f2Cd995CA845d09b2AeC45E870EC9</v>
+        <v>0xf0eeE0837e8F4feaC444412991f7005B8dFFa305</v>
       </c>
       <c r="B112" t="str">
-        <v>389.89</v>
+        <v>661.05</v>
       </c>
       <c r="C112" t="str">
-        <v>389.89</v>
+        <v>661.05</v>
       </c>
       <c r="D112" t="str">
         <v>0</v>
       </c>
       <c r="E112" t="str">
-        <v>282.24</v>
+        <v>489.66</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>0xB19c1b3cEc4c5bD6DCA220A4f59de9EC681e9211</v>
+        <v>0xbc44E6f03C150df10Fe594d42eACAAC51C13e15B</v>
       </c>
       <c r="B113" t="str">
-        <v>0</v>
+        <v>74.69</v>
       </c>
       <c r="C113" t="str">
-        <v>16.49</v>
+        <v>74.69</v>
       </c>
       <c r="D113" t="str">
-        <v>11.07</v>
+        <v>55.33</v>
       </c>
       <c r="E113" t="str">
-        <v>0.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>0x3d1F678EBd71CA033f21D6B1B5B0781a66537447</v>
+        <v>0xA271d7ad0ce0b28cdc464dfD5F3A66B4d55B5Acc</v>
       </c>
       <c r="B114" t="str">
-        <v>3,391.03</v>
+        <v>1,232.63</v>
       </c>
       <c r="C114" t="str">
-        <v>3,391.03</v>
+        <v>1,232.63</v>
       </c>
       <c r="D114" t="str">
-        <v>0</v>
+        <v>913.04</v>
       </c>
       <c r="E114" t="str">
-        <v>2,454.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+        <v>0xE3c3CD768EF78506A37144Ce83b1f34af56A89D5</v>
       </c>
       <c r="B115" t="str">
-        <v>1,421.73</v>
+        <v>1,232.63</v>
       </c>
       <c r="C115" t="str">
-        <v>1,421.73</v>
+        <v>1,232.63</v>
       </c>
       <c r="D115" t="str">
-        <v>1,029.18</v>
+        <v>0</v>
       </c>
       <c r="E115" t="str">
-        <v>0</v>
+        <v>913.04</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
+        <v>0xAE1aD5B0Cb04CFe479E9308006F2e0063Ab8E845</v>
       </c>
       <c r="B116" t="str">
-        <v>2,624.77</v>
+        <v>25.89</v>
       </c>
       <c r="C116" t="str">
-        <v>2,624.77</v>
+        <v>25.89</v>
       </c>
       <c r="D116" t="str">
         <v>0</v>
       </c>
       <c r="E116" t="str">
-        <v>1,900.04</v>
+        <v>19.18</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>0x11C3498d0D70BBfCdAa8dA275d7dDEb7BF977137</v>
+        <v>0x88bA50adD63cB2b90Eb3277cb4AC27Ca7b4fa596</v>
       </c>
       <c r="B117" t="str">
-        <v>321.01</v>
+        <v>434.83</v>
       </c>
       <c r="C117" t="str">
-        <v>321.01</v>
+        <v>434.83</v>
       </c>
       <c r="D117" t="str">
-        <v>0</v>
+        <v>322.09</v>
       </c>
       <c r="E117" t="str">
-        <v>232.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
+        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
       </c>
       <c r="B118" t="str">
-        <v>470.81</v>
+        <v>434.83</v>
       </c>
       <c r="C118" t="str">
-        <v>470.81</v>
+        <v>434.83</v>
       </c>
       <c r="D118" t="str">
         <v>0</v>
       </c>
       <c r="E118" t="str">
-        <v>340.82</v>
+        <v>322.09</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+        <v>0x9fF7d51Cf6a3A12F2Cdd36035827037a35A4B139</v>
       </c>
       <c r="B119" t="str">
-        <v>192.33</v>
+        <v>2.97</v>
       </c>
       <c r="C119" t="str">
-        <v>192.33</v>
+        <v>2.97</v>
       </c>
       <c r="D119" t="str">
-        <v>35.19</v>
+        <v>2.2</v>
       </c>
       <c r="E119" t="str">
-        <v>104.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
+        <v>0x7617203fAd8e02b81d866a269500fdF417A0Cb2c</v>
       </c>
       <c r="B120" t="str">
-        <v>695.14</v>
+        <v>6.45</v>
       </c>
       <c r="C120" t="str">
-        <v>695.14</v>
+        <v>6.45</v>
       </c>
       <c r="D120" t="str">
-        <v>468.02</v>
+        <v>0</v>
       </c>
       <c r="E120" t="str">
-        <v>35.19</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>0x95814b787287141C80e9917Ee9eC9B2F89275629</v>
+        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
       </c>
       <c r="B121" t="str">
-        <v>6,516.42</v>
+        <v>0</v>
       </c>
       <c r="C121" t="str">
-        <v>6,516.42</v>
+        <v>278.63</v>
       </c>
       <c r="D121" t="str">
-        <v>4,717.16</v>
+        <v>206.39</v>
       </c>
       <c r="E121" t="str">
         <v>0</v>
@@ -16274,169 +19995,169 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
+        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
       </c>
       <c r="B122" t="str">
-        <v>37,143.77</v>
+        <v>278.63</v>
       </c>
       <c r="C122" t="str">
-        <v>37,143.77</v>
+        <v>278.63</v>
       </c>
       <c r="D122" t="str">
         <v>0</v>
       </c>
       <c r="E122" t="str">
-        <v>26,887.92</v>
+        <v>206.39</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>0xa5d134A404FBAe6B980D22C2A1be268a1a995F6C</v>
+        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
       </c>
       <c r="B123" t="str">
-        <v>78.28</v>
+        <v>34.66</v>
       </c>
       <c r="C123" t="str">
-        <v>78.28</v>
+        <v>34.66</v>
       </c>
       <c r="D123" t="str">
-        <v>56.67</v>
+        <v>0</v>
       </c>
       <c r="E123" t="str">
-        <v>0</v>
+        <v>25.68</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>0xB251f156Ae5a223749c53C0eC3B74800810f2F25</v>
+        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
       </c>
       <c r="B124" t="str">
-        <v>3,332.4</v>
+        <v>1,227.8</v>
       </c>
       <c r="C124" t="str">
-        <v>3,332.4</v>
+        <v>1,227.8</v>
       </c>
       <c r="D124" t="str">
-        <v>2,412.29</v>
+        <v>0</v>
       </c>
       <c r="E124" t="str">
-        <v>0</v>
+        <v>909.46</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>0x387c310a3cC65aa12BC11CAF67a17b4a8693ed5e</v>
+        <v>0x3d5F0A62033206273527Ef33569213E904eC4DdF</v>
       </c>
       <c r="B125" t="str">
-        <v>3,332.4</v>
+        <v>209.17</v>
       </c>
       <c r="C125" t="str">
-        <v>3,332.4</v>
+        <v>209.17</v>
       </c>
       <c r="D125" t="str">
-        <v>0</v>
+        <v>91.29</v>
       </c>
       <c r="E125" t="str">
-        <v>2,412.29</v>
+        <v>63.65</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
+        <v>0x0fA1AfF9540786DCad9196e0676e2e4423317FAf</v>
       </c>
       <c r="B126" t="str">
-        <v>10,748.39</v>
+        <v>2,987.79</v>
       </c>
       <c r="C126" t="str">
-        <v>10,748.39</v>
+        <v>2,987.79</v>
       </c>
       <c r="D126" t="str">
-        <v>0</v>
+        <v>2,213.12</v>
       </c>
       <c r="E126" t="str">
-        <v>7,780.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
+        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
       </c>
       <c r="B127" t="str">
-        <v>256.62</v>
+        <v>3,002.79</v>
       </c>
       <c r="C127" t="str">
-        <v>256.62</v>
+        <v>3,002.79</v>
       </c>
       <c r="D127" t="str">
-        <v>0</v>
+        <v>11.11</v>
       </c>
       <c r="E127" t="str">
-        <v>185.77</v>
+        <v>2,213.12</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+        <v>0x5C55e86A38d24BE5fF7f12221BF674C95FB188a7</v>
       </c>
       <c r="B128" t="str">
-        <v>404.34</v>
+        <v>120.96</v>
       </c>
       <c r="C128" t="str">
-        <v>404.34</v>
+        <v>120.96</v>
       </c>
       <c r="D128" t="str">
-        <v>292.7</v>
+        <v>0</v>
       </c>
       <c r="E128" t="str">
-        <v>0</v>
+        <v>89.6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
       </c>
       <c r="B129" t="str">
-        <v>34,753.8</v>
+        <v>57.83</v>
       </c>
       <c r="C129" t="str">
-        <v>34,753.8</v>
+        <v>57.83</v>
       </c>
       <c r="D129" t="str">
         <v>0</v>
       </c>
       <c r="E129" t="str">
-        <v>25,157.85</v>
+        <v>42.84</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
+        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
       </c>
       <c r="B130" t="str">
-        <v>2,423.91</v>
+        <v>13.21</v>
       </c>
       <c r="C130" t="str">
-        <v>2,423.91</v>
+        <v>13.21</v>
       </c>
       <c r="D130" t="str">
-        <v>1,754.64</v>
+        <v>0</v>
       </c>
       <c r="E130" t="str">
-        <v>0</v>
+        <v>9.79</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>0x04d9f35C7c292ca2c75C498563b48123C0662e19</v>
+        <v>0xdfd7445EF7dB056F68cEdEB4c1A709d02C0c3AA7</v>
       </c>
       <c r="B131" t="str">
-        <v>1,834.08</v>
+        <v>162.28</v>
       </c>
       <c r="C131" t="str">
-        <v>1,834.08</v>
+        <v>162.28</v>
       </c>
       <c r="D131" t="str">
-        <v>1,327.67</v>
+        <v>120.21</v>
       </c>
       <c r="E131" t="str">
         <v>0</v>
@@ -16444,186 +20165,186 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>0xBc7b31dFbEd762841AC646961C887B49e3f625d5</v>
+        <v>0x9C4e5edC6A735e4AB68ef04497b64008A955A1A5</v>
       </c>
       <c r="B132" t="str">
-        <v>841.59</v>
+        <v>16,875.46</v>
       </c>
       <c r="C132" t="str">
-        <v>841.59</v>
+        <v>16,875.46</v>
       </c>
       <c r="D132" t="str">
-        <v>609.22</v>
+        <v>0</v>
       </c>
       <c r="E132" t="str">
-        <v>0</v>
+        <v>12,500</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>0x4e300F965ACE7aBF11A53662419F9A2D27dE3B1d</v>
+        <v>0xBc7b31dFbEd762841AC646961C887B49e3f625d5</v>
       </c>
       <c r="B133" t="str">
-        <v>1,352.35</v>
+        <v>930.7</v>
       </c>
       <c r="C133" t="str">
-        <v>1,352.35</v>
+        <v>930.7</v>
       </c>
       <c r="D133" t="str">
-        <v>0</v>
+        <v>689.39</v>
       </c>
       <c r="E133" t="str">
-        <v>978.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
+        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
       </c>
       <c r="B134" t="str">
-        <v>28,280.45</v>
+        <v>65.85</v>
       </c>
       <c r="C134" t="str">
-        <v>28,280.45</v>
+        <v>65.85</v>
       </c>
       <c r="D134" t="str">
         <v>0</v>
       </c>
       <c r="E134" t="str">
-        <v>20,471.87</v>
+        <v>48.78</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>0xc677a6C972baeCe4Bf9C0a2EbB600886F0300a7D</v>
+        <v>0x96f194Cf1c9e5eE23B4D96785791F468F6A9C98e</v>
       </c>
       <c r="B135" t="str">
-        <v>17,708.69</v>
+        <v>77,316.11</v>
       </c>
       <c r="C135" t="str">
-        <v>17,708.69</v>
+        <v>77,316.11</v>
       </c>
       <c r="D135" t="str">
-        <v>12,819.11</v>
+        <v>0</v>
       </c>
       <c r="E135" t="str">
-        <v>0</v>
+        <v>57,269.63</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+        <v>0xeBB36F543A6c3E09a06c937E86fB0930a6EdA151</v>
       </c>
       <c r="B136" t="str">
-        <v>2,698.73</v>
+        <v>107.4</v>
       </c>
       <c r="C136" t="str">
-        <v>2,698.73</v>
+        <v>107.4</v>
       </c>
       <c r="D136" t="str">
-        <v>1,796.44</v>
+        <v>0</v>
       </c>
       <c r="E136" t="str">
-        <v>157.14</v>
+        <v>79.56</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>0x25E9eA1a93D9e505cd7d056C1e1bA16789537EAb</v>
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
       </c>
       <c r="B137" t="str">
-        <v>52.05</v>
+        <v>939,390.68</v>
       </c>
       <c r="C137" t="str">
-        <v>52.05</v>
+        <v>939,390.68</v>
       </c>
       <c r="D137" t="str">
-        <v>37.68</v>
+        <v>348,046.91</v>
       </c>
       <c r="E137" t="str">
-        <v>0</v>
+        <v>347,778.99</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+        <v>0xbD73E24F927E9f1D9ce45B7e47f36711Dca35A88</v>
       </c>
       <c r="B138" t="str">
-        <v>1,333.35</v>
+        <v>74.56</v>
       </c>
       <c r="C138" t="str">
-        <v>1,333.35</v>
+        <v>74.56</v>
       </c>
       <c r="D138" t="str">
         <v>0</v>
       </c>
       <c r="E138" t="str">
-        <v>965.2</v>
+        <v>55.23</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
+        <v>0xA2cfCc9E68d9138ED4eacF9b7E2141D9B41C6eCF</v>
       </c>
       <c r="B139" t="str">
-        <v>996.52</v>
+        <v>878.17</v>
       </c>
       <c r="C139" t="str">
-        <v>996.52</v>
+        <v>878.17</v>
       </c>
       <c r="D139" t="str">
-        <v>0</v>
+        <v>650.48</v>
       </c>
       <c r="E139" t="str">
-        <v>721.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+        <v>0x48f5880a56dC2b8e123aB8CddD58521631332e36</v>
       </c>
       <c r="B140" t="str">
-        <v>20,869.09</v>
+        <v>878.17</v>
       </c>
       <c r="C140" t="str">
-        <v>20,869.09</v>
+        <v>878.17</v>
       </c>
       <c r="D140" t="str">
-        <v>15,106.88</v>
+        <v>0</v>
       </c>
       <c r="E140" t="str">
-        <v>0</v>
+        <v>650.48</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
       </c>
       <c r="B141" t="str">
-        <v>646.53</v>
+        <v>168.74</v>
       </c>
       <c r="C141" t="str">
-        <v>646.53</v>
+        <v>168.74</v>
       </c>
       <c r="D141" t="str">
         <v>0</v>
       </c>
       <c r="E141" t="str">
-        <v>468.02</v>
+        <v>124.99</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>0xb71A9245bC9D0f6b78c7b38527e939C4A0a2fa53</v>
+        <v>0x947d2c8935C715428702231AD85E293a94CbEB65</v>
       </c>
       <c r="B142" t="str">
-        <v>1,636.31</v>
+        <v>675.01</v>
       </c>
       <c r="C142" t="str">
-        <v>1,636.31</v>
+        <v>675.01</v>
       </c>
       <c r="D142" t="str">
-        <v>1,184.51</v>
+        <v>500</v>
       </c>
       <c r="E142" t="str">
         <v>0</v>
@@ -16631,50 +20352,50 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
       </c>
       <c r="B143" t="str">
-        <v>961,395.47</v>
+        <v>675.01</v>
       </c>
       <c r="C143" t="str">
-        <v>961,395.47</v>
+        <v>675.01</v>
       </c>
       <c r="D143" t="str">
-        <v>347,930.24</v>
+        <v>0</v>
       </c>
       <c r="E143" t="str">
-        <v>348,012.12</v>
+        <v>500</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+        <v>0x091D2bf74f675Df1d72eD6E07bCB693D56a4163c</v>
       </c>
       <c r="B144" t="str">
-        <v>961,395.47</v>
+        <v>0</v>
       </c>
       <c r="C144" t="str">
-        <v>961,395.47</v>
+        <v>2,458.39</v>
       </c>
       <c r="D144" t="str">
-        <v>348,012.12</v>
+        <v>1,820.98</v>
       </c>
       <c r="E144" t="str">
-        <v>347,930.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>0x9C19FE52c5b04d39EF89d58fCDef24A55CfDA4a7</v>
+        <v>0x0fB3b0892619aF19B0a8016783f84EED26CfAE1E</v>
       </c>
       <c r="B145" t="str">
-        <v>240.36</v>
+        <v>131.26</v>
       </c>
       <c r="C145" t="str">
-        <v>240.36</v>
+        <v>131.26</v>
       </c>
       <c r="D145" t="str">
-        <v>174</v>
+        <v>97.23</v>
       </c>
       <c r="E145" t="str">
         <v>0</v>
@@ -16682,33 +20403,33 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>0x8218E1a9D02E26E2aF124EA28b121031Cf25AaC8</v>
+        <v>0x4e300F965ACE7aBF11A53662419F9A2D27dE3B1d</v>
       </c>
       <c r="B146" t="str">
-        <v>2,495.53</v>
+        <v>131.26</v>
       </c>
       <c r="C146" t="str">
-        <v>2,495.53</v>
+        <v>131.26</v>
       </c>
       <c r="D146" t="str">
-        <v>1,806.49</v>
+        <v>0</v>
       </c>
       <c r="E146" t="str">
-        <v>0</v>
+        <v>97.23</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
+        <v>0xF1D275F804a6b3d3f75B7C08150178836E56dE8B</v>
       </c>
       <c r="B147" t="str">
-        <v>1,174.21</v>
+        <v>381.62</v>
       </c>
       <c r="C147" t="str">
-        <v>1,174.21</v>
+        <v>381.62</v>
       </c>
       <c r="D147" t="str">
-        <v>850</v>
+        <v>282.68</v>
       </c>
       <c r="E147" t="str">
         <v>0</v>
@@ -16716,50 +20437,50 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
+        <v>0xBb3123adaa39aA9b0Bf8c0374eab50353F479c97</v>
       </c>
       <c r="B148" t="str">
-        <v>1,174.21</v>
+        <v>381.62</v>
       </c>
       <c r="C148" t="str">
-        <v>1,174.21</v>
+        <v>381.62</v>
       </c>
       <c r="D148" t="str">
         <v>0</v>
       </c>
       <c r="E148" t="str">
-        <v>850</v>
+        <v>282.68</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+        <v>0x0feD39AC6093e042825EfE8862f37dc8425B8f74</v>
       </c>
       <c r="B149" t="str">
-        <v>1,107.22</v>
+        <v>216.39</v>
       </c>
       <c r="C149" t="str">
-        <v>1,107.22</v>
+        <v>409.95</v>
       </c>
       <c r="D149" t="str">
         <v>0</v>
       </c>
       <c r="E149" t="str">
-        <v>801.51</v>
+        <v>303.66</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
       </c>
       <c r="B150" t="str">
-        <v>217.07</v>
+        <v>3,103.41</v>
       </c>
       <c r="C150" t="str">
-        <v>217.07</v>
+        <v>3,103.41</v>
       </c>
       <c r="D150" t="str">
-        <v>157.14</v>
+        <v>2,298.76</v>
       </c>
       <c r="E150" t="str">
         <v>0</v>
@@ -16767,50 +20488,50 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>0xa865CAf1A880B631f6AaB646168Bb7AF029ae4a0</v>
+        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
       </c>
       <c r="B151" t="str">
-        <v>351.9</v>
+        <v>1,461.36</v>
       </c>
       <c r="C151" t="str">
-        <v>351.9</v>
+        <v>1,461.36</v>
       </c>
       <c r="D151" t="str">
         <v>0</v>
       </c>
       <c r="E151" t="str">
-        <v>254.74</v>
+        <v>1,082.46</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
+        <v>0x487EE46941931178c481a9fA3Eeb2016E2B0CBdA</v>
       </c>
       <c r="B152" t="str">
-        <v>23.02</v>
+        <v>51.16</v>
       </c>
       <c r="C152" t="str">
-        <v>23.02</v>
+        <v>51.16</v>
       </c>
       <c r="D152" t="str">
-        <v>0</v>
+        <v>37.9</v>
       </c>
       <c r="E152" t="str">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>0x65715D1348199900B590cEBef7E0141EC224aaF7</v>
+        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
       </c>
       <c r="B153" t="str">
-        <v>1,296.11</v>
+        <v>126,068.53</v>
       </c>
       <c r="C153" t="str">
-        <v>1,296.11</v>
+        <v>126,068.53</v>
       </c>
       <c r="D153" t="str">
-        <v>938.24</v>
+        <v>93,381.54</v>
       </c>
       <c r="E153" t="str">
         <v>0</v>
@@ -16818,186 +20539,186 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
       </c>
       <c r="B154" t="str">
-        <v>28.58</v>
+        <v>126,068.53</v>
       </c>
       <c r="C154" t="str">
-        <v>28.58</v>
+        <v>126,068.53</v>
       </c>
       <c r="D154" t="str">
         <v>0</v>
       </c>
       <c r="E154" t="str">
-        <v>20.69</v>
+        <v>93,381.54</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
       </c>
       <c r="B155" t="str">
-        <v>0</v>
+        <v>1,087.96</v>
       </c>
       <c r="C155" t="str">
-        <v>9,421.06</v>
+        <v>1,087.96</v>
       </c>
       <c r="D155" t="str">
         <v>0</v>
       </c>
       <c r="E155" t="str">
-        <v>6,819.79</v>
+        <v>805.88</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>0xf90518CBcd4ef086891cb22C87bd4F80B61a7081</v>
+        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
       </c>
       <c r="B156" t="str">
-        <v>3,427.82</v>
+        <v>879.53</v>
       </c>
       <c r="C156" t="str">
-        <v>3,427.82</v>
+        <v>879.53</v>
       </c>
       <c r="D156" t="str">
-        <v>2,481.36</v>
+        <v>98.2</v>
       </c>
       <c r="E156" t="str">
-        <v>0</v>
+        <v>553.29</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>0xD53314Cd179ccD3926Af264e62E3B6dAB06A6419</v>
+        <v>0xd4dB3DbEe64e9e3A9dc049CbC558904FeFc04ce1</v>
       </c>
       <c r="B157" t="str">
-        <v>3,427.82</v>
+        <v>298.81</v>
       </c>
       <c r="C157" t="str">
-        <v>3,427.82</v>
+        <v>298.81</v>
       </c>
       <c r="D157" t="str">
-        <v>0</v>
+        <v>221.34</v>
       </c>
       <c r="E157" t="str">
-        <v>2,481.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
       </c>
       <c r="B158" t="str">
-        <v>1,471.95</v>
+        <v>364.05</v>
       </c>
       <c r="C158" t="str">
-        <v>1,471.95</v>
+        <v>364.05</v>
       </c>
       <c r="D158" t="str">
-        <v>1,065.53</v>
+        <v>0</v>
       </c>
       <c r="E158" t="str">
-        <v>0</v>
+        <v>269.66</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+        <v>0x8f1928e8FEa7238b9B53A7E62AFd471b69732a66</v>
       </c>
       <c r="B159" t="str">
-        <v>2,521.62</v>
+        <v>14,115.04</v>
       </c>
       <c r="C159" t="str">
-        <v>2,521.62</v>
+        <v>14,115.04</v>
       </c>
       <c r="D159" t="str">
-        <v>0</v>
+        <v>10,455.3</v>
       </c>
       <c r="E159" t="str">
-        <v>1,825.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>0x880cd618B4cA66bBb8862558954d8473d7b0C867</v>
+        <v>0x5390651dd0824159FE0e82554feC7b283bCa3745</v>
       </c>
       <c r="B160" t="str">
-        <v>826.31</v>
+        <v>14,115.04</v>
       </c>
       <c r="C160" t="str">
-        <v>826.31</v>
+        <v>14,115.04</v>
       </c>
       <c r="D160" t="str">
-        <v>598.16</v>
+        <v>0</v>
       </c>
       <c r="E160" t="str">
-        <v>0</v>
+        <v>10,455.3</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>0x0fB3b0892619aF19B0a8016783f84EED26CfAE1E</v>
+        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
       </c>
       <c r="B161" t="str">
-        <v>67.1</v>
+        <v>20.45</v>
       </c>
       <c r="C161" t="str">
-        <v>67.1</v>
+        <v>20.45</v>
       </c>
       <c r="D161" t="str">
-        <v>48.58</v>
+        <v>0</v>
       </c>
       <c r="E161" t="str">
-        <v>0</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>0x8a3B39c36e88E3BE71B960cFBe2e4F66dB890E42</v>
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
       </c>
       <c r="B162" t="str">
-        <v>0</v>
+        <v>992.27</v>
       </c>
       <c r="C162" t="str">
-        <v>3,546.95</v>
+        <v>992.27</v>
       </c>
       <c r="D162" t="str">
-        <v>2,567.6</v>
+        <v>0</v>
       </c>
       <c r="E162" t="str">
-        <v>0</v>
+        <v>735</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>0xeC1F8ED638E9599e90A701a94b9Fe216BC2C8bca</v>
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
       </c>
       <c r="B163" t="str">
-        <v>228.79</v>
+        <v>681.55</v>
       </c>
       <c r="C163" t="str">
-        <v>228.79</v>
+        <v>681.55</v>
       </c>
       <c r="D163" t="str">
-        <v>0</v>
+        <v>504.84</v>
       </c>
       <c r="E163" t="str">
-        <v>165.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>0x949ed04509D001B0f6614695b496f23dE010252A</v>
+        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
       </c>
       <c r="B164" t="str">
-        <v>285.91</v>
+        <v>5,074.45</v>
       </c>
       <c r="C164" t="str">
-        <v>285.91</v>
+        <v>5,074.45</v>
       </c>
       <c r="D164" t="str">
-        <v>206.97</v>
+        <v>3,758.75</v>
       </c>
       <c r="E164" t="str">
         <v>0</v>
@@ -17005,33 +20726,33 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+        <v>0xb62430C5fD8281c2F2ADf3ae7Cec7171d6F71EC6</v>
       </c>
       <c r="B165" t="str">
-        <v>103.6</v>
+        <v>129.52</v>
       </c>
       <c r="C165" t="str">
-        <v>103.6</v>
+        <v>129.52</v>
       </c>
       <c r="D165" t="str">
-        <v>0</v>
+        <v>95.94</v>
       </c>
       <c r="E165" t="str">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+        <v>0xA6F3eb75fa915C7Bf8a6987710511070D97E2a75</v>
       </c>
       <c r="B166" t="str">
-        <v>56.37</v>
+        <v>327.89</v>
       </c>
       <c r="C166" t="str">
-        <v>56.37</v>
+        <v>327.89</v>
       </c>
       <c r="D166" t="str">
-        <v>40.81</v>
+        <v>242.88</v>
       </c>
       <c r="E166" t="str">
         <v>0</v>
@@ -17039,16 +20760,16 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>0xc3Dd788d51cA010573e840aE4B5fF45b5671F197</v>
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
       </c>
       <c r="B167" t="str">
-        <v>782.63</v>
+        <v>158.03</v>
       </c>
       <c r="C167" t="str">
-        <v>782.63</v>
+        <v>158.03</v>
       </c>
       <c r="D167" t="str">
-        <v>566.54</v>
+        <v>117.06</v>
       </c>
       <c r="E167" t="str">
         <v>0</v>
@@ -17056,33 +20777,33 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>0xec981ddA47A7BbA1f1A3224AC91C72825DEf2dFb</v>
+        <v>0xCbf575DA18d760a18dB55333bE8662CC07463069</v>
       </c>
       <c r="B168" t="str">
-        <v>782.63</v>
+        <v>665.13</v>
       </c>
       <c r="C168" t="str">
-        <v>782.63</v>
+        <v>665.13</v>
       </c>
       <c r="D168" t="str">
-        <v>0</v>
+        <v>492.68</v>
       </c>
       <c r="E168" t="str">
-        <v>566.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>0xBC3f8985F75c8628C3a6687EB91e21f50C961a5D</v>
+        <v>0xF6a52cb99b772d46C736F6F90Be792A1d4159414</v>
       </c>
       <c r="B169" t="str">
-        <v>106.17</v>
+        <v>133.19</v>
       </c>
       <c r="C169" t="str">
-        <v>106.17</v>
+        <v>133.19</v>
       </c>
       <c r="D169" t="str">
-        <v>76.86</v>
+        <v>98.66</v>
       </c>
       <c r="E169" t="str">
         <v>0</v>
@@ -17090,50 +20811,50 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
+        <v>0xD45bc979277382882e1B41A5efa2561F55915716</v>
       </c>
       <c r="B170" t="str">
-        <v>106.17</v>
+        <v>140.34</v>
       </c>
       <c r="C170" t="str">
-        <v>106.17</v>
+        <v>140.34</v>
       </c>
       <c r="D170" t="str">
-        <v>0</v>
+        <v>103.96</v>
       </c>
       <c r="E170" t="str">
-        <v>76.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>0x2e9Ba451A457f10c4737C4d3B2a16db225153B84</v>
+        <v>0x5766ee90ab6f2Cd995CA845d09b2AeC45E870EC9</v>
       </c>
       <c r="B171" t="str">
-        <v>1,593.82</v>
+        <v>144.8</v>
       </c>
       <c r="C171" t="str">
-        <v>1,593.82</v>
+        <v>144.8</v>
       </c>
       <c r="D171" t="str">
-        <v>1,153.75</v>
+        <v>0</v>
       </c>
       <c r="E171" t="str">
-        <v>0</v>
+        <v>107.26</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
+        <v>0xf90518CBcd4ef086891cb22C87bd4F80B61a7081</v>
       </c>
       <c r="B172" t="str">
-        <v>0</v>
+        <v>1,326.5</v>
       </c>
       <c r="C172" t="str">
-        <v>81.51</v>
+        <v>1,326.5</v>
       </c>
       <c r="D172" t="str">
-        <v>59.01</v>
+        <v>982.57</v>
       </c>
       <c r="E172" t="str">
         <v>0</v>
@@ -17141,33 +20862,33 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
+        <v>0xD53314Cd179ccD3926Af264e62E3B6dAB06A6419</v>
       </c>
       <c r="B173" t="str">
-        <v>81.51</v>
+        <v>1,326.5</v>
       </c>
       <c r="C173" t="str">
-        <v>81.51</v>
+        <v>1,326.5</v>
       </c>
       <c r="D173" t="str">
         <v>0</v>
       </c>
       <c r="E173" t="str">
-        <v>59.01</v>
+        <v>982.57</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>0x091D2bf74f675Df1d72eD6E07bCB693D56a4163c</v>
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
       </c>
       <c r="B174" t="str">
-        <v>0</v>
+        <v>67.09</v>
       </c>
       <c r="C174" t="str">
-        <v>2,573.13</v>
+        <v>67.09</v>
       </c>
       <c r="D174" t="str">
-        <v>1,862.66</v>
+        <v>49.7</v>
       </c>
       <c r="E174" t="str">
         <v>0</v>
@@ -17175,16 +20896,16 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>0xAE1aD5B0Cb04CFe479E9308006F2e0063Ab8E845</v>
+        <v>0x11AbA9ACdFbAaB8e7C1Dc4d92b8B2467FD5d0e3B</v>
       </c>
       <c r="B175" t="str">
-        <v>1,072.95</v>
+        <v>133.3</v>
       </c>
       <c r="C175" t="str">
-        <v>1,072.95</v>
+        <v>133.3</v>
       </c>
       <c r="D175" t="str">
-        <v>776.7</v>
+        <v>98.74</v>
       </c>
       <c r="E175" t="str">
         <v>0</v>
@@ -17192,104 +20913,104 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>0x5f29805024b14736b5e6f2bfBe425e67a22e33B4</v>
+        <v>0x8Dca7891aAb1d43b8402d23e2Ca88B0399Ed542E</v>
       </c>
       <c r="B176" t="str">
-        <v>34,380.52</v>
+        <v>133.3</v>
       </c>
       <c r="C176" t="str">
-        <v>34,380.52</v>
+        <v>133.3</v>
       </c>
       <c r="D176" t="str">
-        <v>24,887.64</v>
+        <v>0</v>
       </c>
       <c r="E176" t="str">
-        <v>0</v>
+        <v>98.74</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>0x0F6b0AE7be4dc9173E938237B6969499463a5eB7</v>
+        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
       </c>
       <c r="B177" t="str">
-        <v>34,380.52</v>
+        <v>207.91</v>
       </c>
       <c r="C177" t="str">
-        <v>34,380.52</v>
+        <v>207.91</v>
       </c>
       <c r="D177" t="str">
-        <v>0</v>
+        <v>154.01</v>
       </c>
       <c r="E177" t="str">
-        <v>24,887.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>0x3D31F6Bf45af4c98238a9A9589c038CCB1Ae9b3f</v>
+        <v>0x7aa90dE22D64831e54DA455A90621560f1bC97a2</v>
       </c>
       <c r="B178" t="str">
-        <v>507.77</v>
+        <v>330.46</v>
       </c>
       <c r="C178" t="str">
-        <v>507.77</v>
+        <v>330.46</v>
       </c>
       <c r="D178" t="str">
-        <v>0</v>
+        <v>244.78</v>
       </c>
       <c r="E178" t="str">
-        <v>367.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
+        <v>0x2373654B6a1564c5BdA4D28dDeF1827D66d7EA2b</v>
       </c>
       <c r="B179" t="str">
-        <v>78.63</v>
+        <v>200</v>
       </c>
       <c r="C179" t="str">
-        <v>78.63</v>
+        <v>330.46</v>
       </c>
       <c r="D179" t="str">
         <v>0</v>
       </c>
       <c r="E179" t="str">
-        <v>56.92</v>
+        <v>244.78</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>0x8969DF60ACc4BB0f05cE8137608AD4434E2f4dEA</v>
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
       </c>
       <c r="B180" t="str">
-        <v>542.68</v>
+        <v>3,785.65</v>
       </c>
       <c r="C180" t="str">
-        <v>542.68</v>
+        <v>3,785.65</v>
       </c>
       <c r="D180" t="str">
-        <v>0</v>
+        <v>2,804.11</v>
       </c>
       <c r="E180" t="str">
-        <v>392.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>0x66B6221845b9bd7A029BCCb5523168a5AcE1e013</v>
+        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
       </c>
       <c r="B181" t="str">
-        <v>639.69</v>
+        <v>796.31</v>
       </c>
       <c r="C181" t="str">
-        <v>639.69</v>
+        <v>796.31</v>
       </c>
       <c r="D181" t="str">
-        <v>0</v>
+        <v>259.94</v>
       </c>
       <c r="E181" t="str">
-        <v>463.07</v>
+        <v>329.91</v>
       </c>
     </row>
     <row r="182">
@@ -17297,81 +21018,81 @@
         <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
       </c>
       <c r="B182" t="str">
-        <v>3,774.7</v>
+        <v>371.26</v>
       </c>
       <c r="C182" t="str">
-        <v>3,774.7</v>
+        <v>371.26</v>
       </c>
       <c r="D182" t="str">
         <v>0</v>
       </c>
       <c r="E182" t="str">
-        <v>2,732.46</v>
+        <v>275</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>0xE1FcC0676dE7f03EB6c63b55A5ad667416029A5F</v>
+        <v>0x75ac9574e8142636654713A984365e3E3427E31b</v>
       </c>
       <c r="B183" t="str">
-        <v>56.05</v>
+        <v>266.41</v>
       </c>
       <c r="C183" t="str">
-        <v>56.05</v>
+        <v>266.41</v>
       </c>
       <c r="D183" t="str">
-        <v>0</v>
+        <v>197.34</v>
       </c>
       <c r="E183" t="str">
-        <v>40.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>0x7aa90dE22D64831e54DA455A90621560f1bC97a2</v>
+        <v>0xD957cc84a2B565e7572a8F02A39e487466c3bFF7</v>
       </c>
       <c r="B184" t="str">
-        <v>7,905.2</v>
+        <v>266.41</v>
       </c>
       <c r="C184" t="str">
-        <v>7,905.2</v>
+        <v>266.41</v>
       </c>
       <c r="D184" t="str">
-        <v>210.96</v>
+        <v>0</v>
       </c>
       <c r="E184" t="str">
-        <v>5,511.52</v>
+        <v>197.34</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>0xFa12186c269720c59e6019e4C200589A0d4BCa24</v>
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
       </c>
       <c r="B185" t="str">
-        <v>130.46</v>
+        <v>21,482.24</v>
       </c>
       <c r="C185" t="str">
-        <v>130.46</v>
+        <v>21,482.24</v>
       </c>
       <c r="D185" t="str">
-        <v>0</v>
+        <v>15,912.34</v>
       </c>
       <c r="E185" t="str">
-        <v>94.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>0x2A1Cc6c77782EA6BE6C08d61430A79E31Ea4efDf</v>
+        <v>0x8fa6e6dB6B86d0Cad2fa8DeEb737BC1cB97a2bE1</v>
       </c>
       <c r="B186" t="str">
-        <v>8,895.03</v>
+        <v>263.78</v>
       </c>
       <c r="C186" t="str">
-        <v>8,895.03</v>
+        <v>263.78</v>
       </c>
       <c r="D186" t="str">
-        <v>6,439.01</v>
+        <v>195.39</v>
       </c>
       <c r="E186" t="str">
         <v>0</v>
@@ -17379,16 +21100,16 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>0xb8D8066d1EE9D03800B7600d2807b7749B9F6899</v>
+        <v>0x13160Af129c94Cc28f1547999dfe8050EC56e7e6</v>
       </c>
       <c r="B187" t="str">
-        <v>172.67</v>
+        <v>13,194.18</v>
       </c>
       <c r="C187" t="str">
-        <v>172.67</v>
+        <v>13,194.18</v>
       </c>
       <c r="D187" t="str">
-        <v>125</v>
+        <v>9,773.2</v>
       </c>
       <c r="E187" t="str">
         <v>0</v>
@@ -17396,33 +21117,33 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>0x0fA1AfF9540786DCad9196e0676e2e4423317FAf</v>
+        <v>0xB36879272EEab16198D46a47F985c9DDd2A827f1</v>
       </c>
       <c r="B188" t="str">
-        <v>783.58</v>
+        <v>10,500</v>
       </c>
       <c r="C188" t="str">
-        <v>783.58</v>
+        <v>13,527.2</v>
       </c>
       <c r="D188" t="str">
-        <v>567.23</v>
+        <v>0</v>
       </c>
       <c r="E188" t="str">
-        <v>0</v>
+        <v>10,019.88</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
+        <v>0x0325B1b36Dc59ac07519AC60b5c7A85747274C8A</v>
       </c>
       <c r="B189" t="str">
-        <v>232.35</v>
+        <v>741.88</v>
       </c>
       <c r="C189" t="str">
-        <v>232.35</v>
+        <v>741.88</v>
       </c>
       <c r="D189" t="str">
-        <v>168.2</v>
+        <v>549.53</v>
       </c>
       <c r="E189" t="str">
         <v>0</v>
@@ -17430,237 +21151,237 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>0x28207aadAe97226F70a54c25d16692197c062898</v>
+        <v>0xb4120A72ad3778E123da74F3C09c1272521C8b7e</v>
       </c>
       <c r="B190" t="str">
-        <v>336.84</v>
+        <v>6,743.75</v>
       </c>
       <c r="C190" t="str">
-        <v>336.84</v>
+        <v>6,743.75</v>
       </c>
       <c r="D190" t="str">
-        <v>0</v>
+        <v>4,995.24</v>
       </c>
       <c r="E190" t="str">
-        <v>243.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>0x3d5F0A62033206273527Ef33569213E904eC4DdF</v>
+        <v>0x413Af536E3D18D259A9b71B42AC66faC5aBa0Fbf</v>
       </c>
       <c r="B191" t="str">
-        <v>67.24</v>
+        <v>662.46</v>
       </c>
       <c r="C191" t="str">
-        <v>67.24</v>
+        <v>662.46</v>
       </c>
       <c r="D191" t="str">
         <v>0</v>
       </c>
       <c r="E191" t="str">
-        <v>48.68</v>
+        <v>490.7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>0x9F20AB479C311059cc1b4C24837Ce2B38d260e0E</v>
+        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
       </c>
       <c r="B192" t="str">
-        <v>690.71</v>
+        <v>129.6</v>
       </c>
       <c r="C192" t="str">
-        <v>690.71</v>
+        <v>129.6</v>
       </c>
       <c r="D192" t="str">
         <v>0</v>
       </c>
       <c r="E192" t="str">
-        <v>500</v>
+        <v>96</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>0x620C45Fd6A4C15A4aa2A3a9301F0009b34F7809b</v>
+        <v>0x9AB469940cDC998d67F116Bd47A0859f74AAA202</v>
       </c>
       <c r="B193" t="str">
-        <v>626.36</v>
+        <v>329.57</v>
       </c>
       <c r="C193" t="str">
-        <v>626.36</v>
+        <v>329.57</v>
       </c>
       <c r="D193" t="str">
-        <v>453.42</v>
+        <v>0</v>
       </c>
       <c r="E193" t="str">
-        <v>0</v>
+        <v>244.12</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
+        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
       </c>
       <c r="B194" t="str">
-        <v>139.88</v>
+        <v>1,690.94</v>
       </c>
       <c r="C194" t="str">
-        <v>139.88</v>
+        <v>1,690.94</v>
       </c>
       <c r="D194" t="str">
-        <v>0</v>
+        <v>68.04</v>
       </c>
       <c r="E194" t="str">
-        <v>101.26</v>
+        <v>1,184.48</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
+        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
       </c>
       <c r="B195" t="str">
-        <v>183.44</v>
+        <v>1,766.41</v>
       </c>
       <c r="C195" t="str">
-        <v>183.44</v>
+        <v>1,766.41</v>
       </c>
       <c r="D195" t="str">
-        <v>0</v>
+        <v>1,184.48</v>
       </c>
       <c r="E195" t="str">
-        <v>132.79</v>
+        <v>123.94</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
       </c>
       <c r="B196" t="str">
-        <v>23.92</v>
+        <v>649.98</v>
       </c>
       <c r="C196" t="str">
-        <v>23.92</v>
+        <v>649.98</v>
       </c>
       <c r="D196" t="str">
-        <v>0</v>
+        <v>481.46</v>
       </c>
       <c r="E196" t="str">
-        <v>17.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>0x889f1F09b491711013cA6787E29e07a04FDf42a4</v>
+        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
       </c>
       <c r="B197" t="str">
-        <v>22,572.45</v>
+        <v>649.98</v>
       </c>
       <c r="C197" t="str">
-        <v>22,572.45</v>
+        <v>649.98</v>
       </c>
       <c r="D197" t="str">
-        <v>16,339.92</v>
+        <v>0</v>
       </c>
       <c r="E197" t="str">
-        <v>0</v>
+        <v>481.46</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>0x5C55e86A38d24BE5fF7f12221BF674C95FB188a7</v>
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
       </c>
       <c r="B198" t="str">
-        <v>13,922.79</v>
+        <v>213.44</v>
       </c>
       <c r="C198" t="str">
-        <v>13,922.79</v>
+        <v>213.44</v>
       </c>
       <c r="D198" t="str">
-        <v>10,078.54</v>
+        <v>55.9</v>
       </c>
       <c r="E198" t="str">
-        <v>0</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>0x29074b73Ac945ADb38081F69E2178A851C7DF091</v>
+        <v>0x3F3Cb523ce45c048c07081925CBd588a6C601b72</v>
       </c>
       <c r="B199" t="str">
-        <v>89.41</v>
+        <v>123.25</v>
       </c>
       <c r="C199" t="str">
-        <v>89.41</v>
+        <v>123.25</v>
       </c>
       <c r="D199" t="str">
-        <v>64.73</v>
+        <v>0</v>
       </c>
       <c r="E199" t="str">
-        <v>0</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>0x8Dca7891aAb1d43b8402d23e2Ca88B0399Ed542E</v>
+        <v>0xdE976b1178696723F86102aaf17Ddd70522908dA</v>
       </c>
       <c r="B200" t="str">
-        <v>121.08</v>
+        <v>682.37</v>
       </c>
       <c r="C200" t="str">
-        <v>121.08</v>
+        <v>682.37</v>
       </c>
       <c r="D200" t="str">
-        <v>0</v>
+        <v>505.45</v>
       </c>
       <c r="E200" t="str">
-        <v>87.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
       </c>
       <c r="B201" t="str">
-        <v>1,311.15</v>
+        <v>0</v>
       </c>
       <c r="C201" t="str">
-        <v>1,311.15</v>
+        <v>3,888.41</v>
       </c>
       <c r="D201" t="str">
         <v>0</v>
       </c>
       <c r="E201" t="str">
-        <v>949.13</v>
+        <v>2,880.23</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+        <v>0x1Bf35e8Cd908D953b84B10a88C74DF7612Ecc660</v>
       </c>
       <c r="B202" t="str">
-        <v>209.24</v>
+        <v>53.01</v>
       </c>
       <c r="C202" t="str">
-        <v>209.24</v>
+        <v>53.01</v>
       </c>
       <c r="D202" t="str">
-        <v>0</v>
+        <v>39.27</v>
       </c>
       <c r="E202" t="str">
-        <v>151.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>0xBf5cC197739c6B8492DAD34EaB2C33ED04061a4c</v>
+        <v>0x05Ae4D4E3aca4cBc8dD3535712AA705e05c04D66</v>
       </c>
       <c r="B203" t="str">
-        <v>1,162.74</v>
+        <v>170.75</v>
       </c>
       <c r="C203" t="str">
-        <v>1,162.74</v>
+        <v>170.75</v>
       </c>
       <c r="D203" t="str">
-        <v>841.7</v>
+        <v>126.48</v>
       </c>
       <c r="E203" t="str">
         <v>0</v>
@@ -17668,67 +21389,67 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
+        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
       </c>
       <c r="B204" t="str">
-        <v>0</v>
+        <v>114.75</v>
       </c>
       <c r="C204" t="str">
-        <v>180.3</v>
+        <v>114.75</v>
       </c>
       <c r="D204" t="str">
-        <v>130.52</v>
+        <v>0</v>
       </c>
       <c r="E204" t="str">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>0x4D30408614E40276712949ACbbF49853eA606b4a</v>
+        <v>0xeB0F9489F9aeFB6Bbd8d7f1cc3620898E30b49c0</v>
       </c>
       <c r="B205" t="str">
-        <v>29.86</v>
+        <v>205.65</v>
       </c>
       <c r="C205" t="str">
-        <v>29.86</v>
+        <v>205.65</v>
       </c>
       <c r="D205" t="str">
-        <v>21.62</v>
+        <v>0</v>
       </c>
       <c r="E205" t="str">
-        <v>0</v>
+        <v>152.33</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>0x487EE46941931178c481a9fA3Eeb2016E2B0CBdA</v>
+        <v>0xdF8Df47E5109Adc155E436C0712adB78f53A418c</v>
       </c>
       <c r="B206" t="str">
-        <v>13.86</v>
+        <v>1,687.54</v>
       </c>
       <c r="C206" t="str">
-        <v>13.86</v>
+        <v>1,687.54</v>
       </c>
       <c r="D206" t="str">
-        <v>10.04</v>
+        <v>0</v>
       </c>
       <c r="E206" t="str">
-        <v>0</v>
+        <v>1,250</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
+        <v>0x4789c9e0634499C2726ecF5a176fa4167D641098</v>
       </c>
       <c r="B207" t="str">
-        <v>2,225.28</v>
+        <v>4,273.05</v>
       </c>
       <c r="C207" t="str">
-        <v>2,225.28</v>
+        <v>4,273.05</v>
       </c>
       <c r="D207" t="str">
-        <v>1,610.86</v>
+        <v>3,165.14</v>
       </c>
       <c r="E207" t="str">
         <v>0</v>
@@ -17736,67 +21457,67 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>0x95E299A16E92649D2Ae7E56Eed03124BcE3F2d65</v>
+        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
       </c>
       <c r="B208" t="str">
-        <v>32</v>
+        <v>267.79</v>
       </c>
       <c r="C208" t="str">
-        <v>32</v>
+        <v>267.79</v>
       </c>
       <c r="D208" t="str">
-        <v>23.17</v>
+        <v>0</v>
       </c>
       <c r="E208" t="str">
-        <v>0</v>
+        <v>198.36</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>0x9F6f9286f959A78F5d1E3eE78f331842539BA37B</v>
+        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
       </c>
       <c r="B209" t="str">
-        <v>69.76</v>
+        <v>8,100.22</v>
       </c>
       <c r="C209" t="str">
-        <v>69.76</v>
+        <v>8,100.22</v>
       </c>
       <c r="D209" t="str">
-        <v>0</v>
+        <v>6,000</v>
       </c>
       <c r="E209" t="str">
-        <v>50.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>0x7DE25BC41EfeD6Ee6d903Fc161C905D2fcb72Fff</v>
+        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
       </c>
       <c r="B210" t="str">
-        <v>3,492.36</v>
+        <v>28.24</v>
       </c>
       <c r="C210" t="str">
-        <v>3,492.36</v>
+        <v>28.24</v>
       </c>
       <c r="D210" t="str">
         <v>0</v>
       </c>
       <c r="E210" t="str">
-        <v>2,528.08</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+        <v>0xAD5c21611Ea4790991c40BFD8e0888e012D7162E</v>
       </c>
       <c r="B211" t="str">
-        <v>44.67</v>
+        <v>153.74</v>
       </c>
       <c r="C211" t="str">
-        <v>44.67</v>
+        <v>153.74</v>
       </c>
       <c r="D211" t="str">
-        <v>32.34</v>
+        <v>113.88</v>
       </c>
       <c r="E211" t="str">
         <v>0</v>
@@ -17804,50 +21525,50 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>0x2728c19586e1eB6b2AA599c15fA1456426C7CC7C</v>
+        <v>0x2c7771aCC47795D2F05Ed29C8c17e8887e49fda7</v>
       </c>
       <c r="B212" t="str">
-        <v>207.17</v>
+        <v>136.93</v>
       </c>
       <c r="C212" t="str">
-        <v>207.17</v>
+        <v>136.93</v>
       </c>
       <c r="D212" t="str">
-        <v>0</v>
+        <v>101.43</v>
       </c>
       <c r="E212" t="str">
-        <v>149.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
       </c>
       <c r="B213" t="str">
-        <v>126.41</v>
+        <v>111.17</v>
       </c>
       <c r="C213" t="str">
-        <v>126.41</v>
+        <v>111.17</v>
       </c>
       <c r="D213" t="str">
         <v>0</v>
       </c>
       <c r="E213" t="str">
-        <v>91.51</v>
+        <v>82.35</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+        <v>0x387c310a3cC65aa12BC11CAF67a17b4a8693ed5e</v>
       </c>
       <c r="B214" t="str">
-        <v>66,653.57</v>
+        <v>81</v>
       </c>
       <c r="C214" t="str">
-        <v>66,653.57</v>
+        <v>81</v>
       </c>
       <c r="D214" t="str">
-        <v>48,249.7</v>
+        <v>60</v>
       </c>
       <c r="E214" t="str">
         <v>0</v>
@@ -17855,75 +21576,296 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>0x2abf42F330c60491E8A36B73c9F3F9Ed40CDa546</v>
+        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
       </c>
       <c r="B215" t="str">
-        <v>20,511.62</v>
+        <v>30.42</v>
       </c>
       <c r="C215" t="str">
-        <v>20,511.62</v>
+        <v>30.42</v>
       </c>
       <c r="D215" t="str">
         <v>0</v>
       </c>
       <c r="E215" t="str">
-        <v>14,848.11</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
+        <v>0xC023483Fa22d037EC5f056FC31C8f40751722aD5</v>
       </c>
       <c r="B216" t="str">
-        <v>28.41</v>
+        <v>2,025.05</v>
       </c>
       <c r="C216" t="str">
-        <v>28.41</v>
+        <v>2,025.05</v>
       </c>
       <c r="D216" t="str">
         <v>0</v>
       </c>
       <c r="E216" t="str">
-        <v>20.57</v>
+        <v>1,500</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>0x358e444fFb60A1Cc82A6E412C6720f110dc1E921</v>
+        <v>0x7aD2809008E5DA0c33A72f9144e7970a996D5B6D</v>
       </c>
       <c r="B217" t="str">
-        <v>0</v>
+        <v>13.63</v>
       </c>
       <c r="C217" t="str">
-        <v>294.29</v>
+        <v>13.63</v>
       </c>
       <c r="D217" t="str">
         <v>0</v>
       </c>
       <c r="E217" t="str">
-        <v>213.04</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
+        <v>0x9c6E23aC65D33b747B8c56C04db77d836c41Faf5</v>
+      </c>
+      <c r="B218" t="str">
+        <v>135.19</v>
+      </c>
+      <c r="C218" t="str">
+        <v>135.19</v>
+      </c>
+      <c r="D218" t="str">
+        <v>0</v>
+      </c>
+      <c r="E218" t="str">
+        <v>100.14</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
+      </c>
+      <c r="B219" t="str">
+        <v>1,613.91</v>
+      </c>
+      <c r="C219" t="str">
+        <v>1,613.91</v>
+      </c>
+      <c r="D219" t="str">
+        <v>0</v>
+      </c>
+      <c r="E219" t="str">
+        <v>1,195.46</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
+      </c>
+      <c r="B220" t="str">
+        <v>512.62</v>
+      </c>
+      <c r="C220" t="str">
+        <v>512.62</v>
+      </c>
+      <c r="D220" t="str">
+        <v>0</v>
+      </c>
+      <c r="E220" t="str">
+        <v>379.71</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>0xb8D8066d1EE9D03800B7600d2807b7749B9F6899</v>
+      </c>
+      <c r="B221" t="str">
+        <v>168.75</v>
+      </c>
+      <c r="C221" t="str">
+        <v>168.75</v>
+      </c>
+      <c r="D221" t="str">
+        <v>125</v>
+      </c>
+      <c r="E221" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
+      </c>
+      <c r="B222" t="str">
+        <v>239.59</v>
+      </c>
+      <c r="C222" t="str">
+        <v>239.59</v>
+      </c>
+      <c r="D222" t="str">
+        <v>177.47</v>
+      </c>
+      <c r="E222" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>0xEEe37E83b74Ebf3679962F6199dADF968E74efa5</v>
+      </c>
+      <c r="B223" t="str">
+        <v>239.59</v>
+      </c>
+      <c r="C223" t="str">
+        <v>239.59</v>
+      </c>
+      <c r="D223" t="str">
+        <v>0</v>
+      </c>
+      <c r="E223" t="str">
+        <v>177.47</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>0xe19CE573b43a5C9232e48A267FC2E16b1A9c456e</v>
+      </c>
+      <c r="B224" t="str">
+        <v>6,772.25</v>
+      </c>
+      <c r="C224" t="str">
+        <v>6,772.25</v>
+      </c>
+      <c r="D224" t="str">
+        <v>5,016.35</v>
+      </c>
+      <c r="E224" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>0x4e0F1063F13d020B1316791Ae56ea5a826aba501</v>
+      </c>
+      <c r="B225" t="str">
+        <v>153.44</v>
+      </c>
+      <c r="C225" t="str">
+        <v>153.44</v>
+      </c>
+      <c r="D225" t="str">
+        <v>0</v>
+      </c>
+      <c r="E225" t="str">
+        <v>113.66</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>0x48682644c1e8529338e46e7DdabA4383C1fceBb1</v>
+      </c>
+      <c r="B226" t="str">
+        <v>168.97</v>
+      </c>
+      <c r="C226" t="str">
+        <v>168.97</v>
+      </c>
+      <c r="D226" t="str">
+        <v>0</v>
+      </c>
+      <c r="E226" t="str">
+        <v>125.16</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>0xf1aCBD5dd358c3252ADaa77bDc920cafff2eC0fA</v>
+      </c>
+      <c r="B227" t="str">
+        <v>68.91</v>
+      </c>
+      <c r="C227" t="str">
+        <v>68.91</v>
+      </c>
+      <c r="D227" t="str">
+        <v>0</v>
+      </c>
+      <c r="E227" t="str">
+        <v>51.05</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>0xabf7b5b7CdC68F8C01DE6bFD5EAf79da30D8B66A</v>
+      </c>
+      <c r="B228" t="str">
+        <v>3,438.4</v>
+      </c>
+      <c r="C228" t="str">
+        <v>3,438.4</v>
+      </c>
+      <c r="D228" t="str">
+        <v>0</v>
+      </c>
+      <c r="E228" t="str">
+        <v>2,546.9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>0xfDbb14D0A9a2f85663134F16BF006c08e2918B6a</v>
+      </c>
+      <c r="B229" t="str">
+        <v>161.45</v>
+      </c>
+      <c r="C229" t="str">
+        <v>161.45</v>
+      </c>
+      <c r="D229" t="str">
+        <v>0</v>
+      </c>
+      <c r="E229" t="str">
+        <v>119.59</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>0xFdEC4840b313115EC4DfDD7EfA4FE156C8C61475</v>
+      </c>
+      <c r="B230" t="str">
+        <v>78.36</v>
+      </c>
+      <c r="C230" t="str">
+        <v>78.36</v>
+      </c>
+      <c r="D230" t="str">
+        <v>58.05</v>
+      </c>
+      <c r="E230" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
         <v>Total</v>
       </c>
-      <c r="B218" t="str">
-        <v>3,036,834.56</v>
-      </c>
-      <c r="C218" t="str">
-        <v>3,205,127.09</v>
-      </c>
-      <c r="D218" t="str">
-        <v>1,076,851.49</v>
-      </c>
-      <c r="E218" t="str">
-        <v>1,243,301.39</v>
+      <c r="B231" t="str">
+        <v>3,134,013.51</v>
+      </c>
+      <c r="C231" t="str">
+        <v>3,205,127.1</v>
+      </c>
+      <c r="D231" t="str">
+        <v>1,111,299.12</v>
+      </c>
+      <c r="E231" t="str">
+        <v>1,262,804.92</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E218"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E231"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/staker_incentives.xlsx
+++ b/staker_incentives.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Blocks 70917850 - 71201412" sheetId="11" r:id="rId11"/>
     <sheet name="Blocks 71201413 - 71485154" sheetId="12" r:id="rId12"/>
     <sheet name="Blocks 71485155 - 71767951" sheetId="13" r:id="rId13"/>
+    <sheet name="Blocks 71767952 - 72049006" sheetId="14" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
@@ -17928,6 +17929,3947 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Staker Address</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Reward (ERC20 TEL)</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Uncapped Reward (ERC20 TEL)</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Staker Fees</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Referee Fees</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
+      </c>
+      <c r="B2" t="str">
+        <v>877.47</v>
+      </c>
+      <c r="C2" t="str">
+        <v>877.47</v>
+      </c>
+      <c r="D2" t="str">
+        <v>96</v>
+      </c>
+      <c r="E2" t="str">
+        <v>553.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
+      </c>
+      <c r="B3" t="str">
+        <v>11,970.77</v>
+      </c>
+      <c r="C3" t="str">
+        <v>11,970.77</v>
+      </c>
+      <c r="D3" t="str">
+        <v>721.9</v>
+      </c>
+      <c r="E3" t="str">
+        <v>8,145.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+      </c>
+      <c r="B4" t="str">
+        <v>10,452.2</v>
+      </c>
+      <c r="C4" t="str">
+        <v>10,452.2</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1,090.13</v>
+      </c>
+      <c r="E4" t="str">
+        <v>6,652.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>482.53</v>
+      </c>
+      <c r="C5" t="str">
+        <v>482.53</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>357.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>0xe23bc0609A8Df4EA2A597AEAAFcBF421BFfBDCFd</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1,034.31</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1,034.31</v>
+      </c>
+      <c r="D6" t="str">
+        <v>766.14</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+      </c>
+      <c r="B7" t="str">
+        <v>723.48</v>
+      </c>
+      <c r="C7" t="str">
+        <v>723.48</v>
+      </c>
+      <c r="D7" t="str">
+        <v>440.68</v>
+      </c>
+      <c r="E7" t="str">
+        <v>95.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>0x620964B76328a1Ec5039361877eA64510A241139</v>
+      </c>
+      <c r="B8" t="str">
+        <v>337.5</v>
+      </c>
+      <c r="C8" t="str">
+        <v>337.5</v>
+      </c>
+      <c r="D8" t="str">
+        <v>250</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+      </c>
+      <c r="B9" t="str">
+        <v>54,666.41</v>
+      </c>
+      <c r="C9" t="str">
+        <v>54,666.41</v>
+      </c>
+      <c r="D9" t="str">
+        <v>17,406.1</v>
+      </c>
+      <c r="E9" t="str">
+        <v>23,086.43</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>0x5Fc4faF3934548c57d66f1179C2991cEd028E61F</v>
+      </c>
+      <c r="B10" t="str">
+        <v>907.48</v>
+      </c>
+      <c r="C10" t="str">
+        <v>907.48</v>
+      </c>
+      <c r="D10" t="str">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>672.19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>0x7B82007d91312Bb84E57A79c6df7Fa3928beD152</v>
+      </c>
+      <c r="B11" t="str">
+        <v>3,805.51</v>
+      </c>
+      <c r="C11" t="str">
+        <v>3,805.51</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2,818.82</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
+      </c>
+      <c r="B12" t="str">
+        <v>675.01</v>
+      </c>
+      <c r="C12" t="str">
+        <v>675.01</v>
+      </c>
+      <c r="D12" t="str">
+        <v>500</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
+      </c>
+      <c r="B13" t="str">
+        <v>0</v>
+      </c>
+      <c r="C13" t="str">
+        <v>56.39</v>
+      </c>
+      <c r="D13" t="str">
+        <v>41.77</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>0x175780bC4d0A1bc28c46C3E71130C092790E7576</v>
+      </c>
+      <c r="B14" t="str">
+        <v>198.67</v>
+      </c>
+      <c r="C14" t="str">
+        <v>611.62</v>
+      </c>
+      <c r="D14" t="str">
+        <v>453.04</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
+      </c>
+      <c r="B15" t="str">
+        <v>6,094.29</v>
+      </c>
+      <c r="C15" t="str">
+        <v>6,094.29</v>
+      </c>
+      <c r="D15" t="str">
+        <v>4,514.17</v>
+      </c>
+      <c r="E15" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+      </c>
+      <c r="B16" t="str">
+        <v>3,412.06</v>
+      </c>
+      <c r="C16" t="str">
+        <v>3,412.06</v>
+      </c>
+      <c r="D16" t="str">
+        <v>22.57</v>
+      </c>
+      <c r="E16" t="str">
+        <v>2,504.82</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
+      </c>
+      <c r="B17" t="str">
+        <v>13,179.91</v>
+      </c>
+      <c r="C17" t="str">
+        <v>13,179.91</v>
+      </c>
+      <c r="D17" t="str">
+        <v>1,474.58</v>
+      </c>
+      <c r="E17" t="str">
+        <v>8,288.05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
+      </c>
+      <c r="B18" t="str">
+        <v>17,182.86</v>
+      </c>
+      <c r="C18" t="str">
+        <v>17,182.86</v>
+      </c>
+      <c r="D18" t="str">
+        <v>10,545.58</v>
+      </c>
+      <c r="E18" t="str">
+        <v>2,182.12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>0xdD40bFeDDd1511322A763a82e31Ef3e401415927</v>
+      </c>
+      <c r="B19" t="str">
+        <v>38.16</v>
+      </c>
+      <c r="C19" t="str">
+        <v>38.16</v>
+      </c>
+      <c r="D19" t="str">
+        <v>28.27</v>
+      </c>
+      <c r="E19" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>0x942E746C384bec88Dfa6164e8d699858E9988FeB</v>
+      </c>
+      <c r="B20" t="str">
+        <v>661.05</v>
+      </c>
+      <c r="C20" t="str">
+        <v>661.05</v>
+      </c>
+      <c r="D20" t="str">
+        <v>489.66</v>
+      </c>
+      <c r="E20" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>0x95E299A16E92649D2Ae7E56Eed03124BcE3F2d65</v>
+      </c>
+      <c r="B21" t="str">
+        <v>305.4</v>
+      </c>
+      <c r="C21" t="str">
+        <v>305.4</v>
+      </c>
+      <c r="D21" t="str">
+        <v>226.22</v>
+      </c>
+      <c r="E21" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
+      </c>
+      <c r="B22" t="str">
+        <v>1,227.8</v>
+      </c>
+      <c r="C22" t="str">
+        <v>1,227.8</v>
+      </c>
+      <c r="D22" t="str">
+        <v>909.46</v>
+      </c>
+      <c r="E22" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
+      </c>
+      <c r="B23" t="str">
+        <v>1,345.19</v>
+      </c>
+      <c r="C23" t="str">
+        <v>1,345.19</v>
+      </c>
+      <c r="D23" t="str">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <v>996.41</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>0xf6732447a0Da3D8973897e247cf04f53B87Cfa2e</v>
+      </c>
+      <c r="B24" t="str">
+        <v>57.83</v>
+      </c>
+      <c r="C24" t="str">
+        <v>57.83</v>
+      </c>
+      <c r="D24" t="str">
+        <v>42.84</v>
+      </c>
+      <c r="E24" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
+      </c>
+      <c r="B25" t="str">
+        <v>881.41</v>
+      </c>
+      <c r="C25" t="str">
+        <v>881.41</v>
+      </c>
+      <c r="D25" t="str">
+        <v>103.35</v>
+      </c>
+      <c r="E25" t="str">
+        <v>549.53</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
+      </c>
+      <c r="B26" t="str">
+        <v>570.47</v>
+      </c>
+      <c r="C26" t="str">
+        <v>570.47</v>
+      </c>
+      <c r="D26" t="str">
+        <v>280.47</v>
+      </c>
+      <c r="E26" t="str">
+        <v>142.09</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+      </c>
+      <c r="B27" t="str">
+        <v>402.51</v>
+      </c>
+      <c r="C27" t="str">
+        <v>402.51</v>
+      </c>
+      <c r="D27" t="str">
+        <v>17.68</v>
+      </c>
+      <c r="E27" t="str">
+        <v>280.47</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
+      </c>
+      <c r="B28" t="str">
+        <v>548.91</v>
+      </c>
+      <c r="C28" t="str">
+        <v>548.91</v>
+      </c>
+      <c r="D28" t="str">
+        <v>102.9</v>
+      </c>
+      <c r="E28" t="str">
+        <v>303.69</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>0x4B3D17974c2F79fEf5D495F082e9eC7d1FD95a06</v>
+      </c>
+      <c r="B29" t="str">
+        <v>548.91</v>
+      </c>
+      <c r="C29" t="str">
+        <v>548.91</v>
+      </c>
+      <c r="D29" t="str">
+        <v>303.69</v>
+      </c>
+      <c r="E29" t="str">
+        <v>102.9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+      </c>
+      <c r="B30" t="str">
+        <v>939,390.68</v>
+      </c>
+      <c r="C30" t="str">
+        <v>939,390.68</v>
+      </c>
+      <c r="D30" t="str">
+        <v>347,778.99</v>
+      </c>
+      <c r="E30" t="str">
+        <v>348,046.91</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>0xd092C607a92c75de3bB1240494C4822Bf3766D46</v>
+      </c>
+      <c r="B31" t="str">
+        <v>136.2</v>
+      </c>
+      <c r="C31" t="str">
+        <v>136.2</v>
+      </c>
+      <c r="D31" t="str">
+        <v>100.89</v>
+      </c>
+      <c r="E31" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
+      </c>
+      <c r="B32" t="str">
+        <v>82.83</v>
+      </c>
+      <c r="C32" t="str">
+        <v>82.83</v>
+      </c>
+      <c r="D32" t="str">
+        <v>61.36</v>
+      </c>
+      <c r="E32" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+      </c>
+      <c r="B33" t="str">
+        <v>39.42</v>
+      </c>
+      <c r="C33" t="str">
+        <v>39.42</v>
+      </c>
+      <c r="D33" t="str">
+        <v>29.2</v>
+      </c>
+      <c r="E33" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
+      </c>
+      <c r="B34" t="str">
+        <v>992.27</v>
+      </c>
+      <c r="C34" t="str">
+        <v>992.27</v>
+      </c>
+      <c r="D34" t="str">
+        <v>735</v>
+      </c>
+      <c r="E34" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>0xEe5358d1d36262CeFC36478E37A718FA4d7847eB</v>
+      </c>
+      <c r="B35" t="str">
+        <v>79.85</v>
+      </c>
+      <c r="C35" t="str">
+        <v>79.85</v>
+      </c>
+      <c r="D35" t="str">
+        <v>59.15</v>
+      </c>
+      <c r="E35" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
+      </c>
+      <c r="B36" t="str">
+        <v>167.95</v>
+      </c>
+      <c r="C36" t="str">
+        <v>167.95</v>
+      </c>
+      <c r="D36" t="str">
+        <v>124.41</v>
+      </c>
+      <c r="E36" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>0xf74f5cF53A6746b1eddD9C7ea8Ab7447797c3D74</v>
+      </c>
+      <c r="B37" t="str">
+        <v>1,537.86</v>
+      </c>
+      <c r="C37" t="str">
+        <v>1,537.86</v>
+      </c>
+      <c r="D37" t="str">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <v>1,139.13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
+      </c>
+      <c r="B38" t="str">
+        <v>66.24</v>
+      </c>
+      <c r="C38" t="str">
+        <v>66.24</v>
+      </c>
+      <c r="D38" t="str">
+        <v>49.07</v>
+      </c>
+      <c r="E38" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
+      </c>
+      <c r="B39" t="str">
+        <v>5,240.61</v>
+      </c>
+      <c r="C39" t="str">
+        <v>5,240.61</v>
+      </c>
+      <c r="D39" t="str">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <v>3,881.83</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
+      </c>
+      <c r="B40" t="str">
+        <v>3,385.13</v>
+      </c>
+      <c r="C40" t="str">
+        <v>3,385.13</v>
+      </c>
+      <c r="D40" t="str">
+        <v>2,507.44</v>
+      </c>
+      <c r="E40" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
+      </c>
+      <c r="B41" t="str">
+        <v>114.75</v>
+      </c>
+      <c r="C41" t="str">
+        <v>114.75</v>
+      </c>
+      <c r="D41" t="str">
+        <v>85</v>
+      </c>
+      <c r="E41" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
+      </c>
+      <c r="B42" t="str">
+        <v>205.65</v>
+      </c>
+      <c r="C42" t="str">
+        <v>205.65</v>
+      </c>
+      <c r="D42" t="str">
+        <v>152.33</v>
+      </c>
+      <c r="E42" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
+      </c>
+      <c r="B43" t="str">
+        <v>7,716.97</v>
+      </c>
+      <c r="C43" t="str">
+        <v>7,716.97</v>
+      </c>
+      <c r="D43" t="str">
+        <v>5,716.12</v>
+      </c>
+      <c r="E43" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
+      </c>
+      <c r="B44" t="str">
+        <v>4,273.05</v>
+      </c>
+      <c r="C44" t="str">
+        <v>4,273.05</v>
+      </c>
+      <c r="D44" t="str">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <v>3,165.14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
+      </c>
+      <c r="B45" t="str">
+        <v>137.97</v>
+      </c>
+      <c r="C45" t="str">
+        <v>137.97</v>
+      </c>
+      <c r="D45" t="str">
+        <v>102.2</v>
+      </c>
+      <c r="E45" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>0xa755B0E03b0C0411c64749C64F063a6600a24D8c</v>
+      </c>
+      <c r="B46" t="str">
+        <v>931.57</v>
+      </c>
+      <c r="C46" t="str">
+        <v>931.57</v>
+      </c>
+      <c r="D46" t="str">
+        <v>690.04</v>
+      </c>
+      <c r="E46" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
+      </c>
+      <c r="B47" t="str">
+        <v>512.62</v>
+      </c>
+      <c r="C47" t="str">
+        <v>512.62</v>
+      </c>
+      <c r="D47" t="str">
+        <v>379.71</v>
+      </c>
+      <c r="E47" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>0xfF228D6Bc48699D8ced802eDB384242D4a22febc</v>
+      </c>
+      <c r="B48" t="str">
+        <v>3,438.4</v>
+      </c>
+      <c r="C48" t="str">
+        <v>3,438.4</v>
+      </c>
+      <c r="D48" t="str">
+        <v>2,546.9</v>
+      </c>
+      <c r="E48" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>0x893b99952A101ea504E2DA3d44164858b11a58a1</v>
+      </c>
+      <c r="B49" t="str">
+        <v>161.45</v>
+      </c>
+      <c r="C49" t="str">
+        <v>161.45</v>
+      </c>
+      <c r="D49" t="str">
+        <v>119.59</v>
+      </c>
+      <c r="E49" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
+      </c>
+      <c r="B50" t="str">
+        <v>3,996.85</v>
+      </c>
+      <c r="C50" t="str">
+        <v>3,996.85</v>
+      </c>
+      <c r="D50" t="str">
+        <v>2,880.23</v>
+      </c>
+      <c r="E50" t="str">
+        <v>80.32</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+      </c>
+      <c r="B51" t="str">
+        <v>18,753.37</v>
+      </c>
+      <c r="C51" t="str">
+        <v>18,753.37</v>
+      </c>
+      <c r="D51" t="str">
+        <v>8,145.1</v>
+      </c>
+      <c r="E51" t="str">
+        <v>5,745.91</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>0xfFbea98964b8683427F5c3CFFbddcDA07E40caD4</v>
+      </c>
+      <c r="B52" t="str">
+        <v>8.82</v>
+      </c>
+      <c r="C52" t="str">
+        <v>8.82</v>
+      </c>
+      <c r="D52" t="str">
+        <v>6.54</v>
+      </c>
+      <c r="E52" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>0x54bE4074E027546F3De714a350782b380ab2B513</v>
+      </c>
+      <c r="B53" t="str">
+        <v>8.82</v>
+      </c>
+      <c r="C53" t="str">
+        <v>8.82</v>
+      </c>
+      <c r="D53" t="str">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
+      </c>
+      <c r="B54" t="str">
+        <v>115.5</v>
+      </c>
+      <c r="C54" t="str">
+        <v>115.5</v>
+      </c>
+      <c r="D54" t="str">
+        <v>85.56</v>
+      </c>
+      <c r="E54" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
+      </c>
+      <c r="B55" t="str">
+        <v>379.29</v>
+      </c>
+      <c r="C55" t="str">
+        <v>379.29</v>
+      </c>
+      <c r="D55" t="str">
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <v>280.95</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>0xbE68d65f491CaCc7f4eaa49b813A92DfFa001DBc</v>
+      </c>
+      <c r="B56" t="str">
+        <v>3,503.69</v>
+      </c>
+      <c r="C56" t="str">
+        <v>3,503.69</v>
+      </c>
+      <c r="D56" t="str">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <v>2,595.26</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
+      </c>
+      <c r="B57" t="str">
+        <v>272.69</v>
+      </c>
+      <c r="C57" t="str">
+        <v>272.69</v>
+      </c>
+      <c r="D57" t="str">
+        <v>201.99</v>
+      </c>
+      <c r="E57" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>0xeb9Ea287a5BD59731C6fbDEfd9e81dAa4Dc7eB11</v>
+      </c>
+      <c r="B58" t="str">
+        <v>270</v>
+      </c>
+      <c r="C58" t="str">
+        <v>270</v>
+      </c>
+      <c r="D58" t="str">
+        <v>200</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+      </c>
+      <c r="B59" t="str">
+        <v>9,395.97</v>
+      </c>
+      <c r="C59" t="str">
+        <v>9,395.97</v>
+      </c>
+      <c r="D59" t="str">
+        <v>9.79</v>
+      </c>
+      <c r="E59" t="str">
+        <v>6,950</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+      </c>
+      <c r="B60" t="str">
+        <v>2,277.57</v>
+      </c>
+      <c r="C60" t="str">
+        <v>2,277.57</v>
+      </c>
+      <c r="D60" t="str">
+        <v>920.91</v>
+      </c>
+      <c r="E60" t="str">
+        <v>766.14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+      </c>
+      <c r="B61" t="str">
+        <v>31,860.28</v>
+      </c>
+      <c r="C61" t="str">
+        <v>34,516.77</v>
+      </c>
+      <c r="D61" t="str">
+        <v>25,567.28</v>
+      </c>
+      <c r="E61" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+      </c>
+      <c r="B62" t="str">
+        <v>0</v>
+      </c>
+      <c r="C62" t="str">
+        <v>34,516.77</v>
+      </c>
+      <c r="D62" t="str">
+        <v>0</v>
+      </c>
+      <c r="E62" t="str">
+        <v>25,567.28</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+      </c>
+      <c r="B63" t="str">
+        <v>350.9</v>
+      </c>
+      <c r="C63" t="str">
+        <v>350.9</v>
+      </c>
+      <c r="D63" t="str">
+        <v>0</v>
+      </c>
+      <c r="E63" t="str">
+        <v>259.92</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>0x9A4dbCDE63b55273DC51BeA546A7ba6456f059D0</v>
+      </c>
+      <c r="B64" t="str">
+        <v>2,348.82</v>
+      </c>
+      <c r="C64" t="str">
+        <v>2,348.82</v>
+      </c>
+      <c r="D64" t="str">
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <v>1,739.82</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>0x425F2F1287045bC9d04C0f933E7FdEdA4A2e5765</v>
+      </c>
+      <c r="B65" t="str">
+        <v>6,722.5</v>
+      </c>
+      <c r="C65" t="str">
+        <v>6,722.5</v>
+      </c>
+      <c r="D65" t="str">
+        <v>0</v>
+      </c>
+      <c r="E65" t="str">
+        <v>4,979.5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+      </c>
+      <c r="B66" t="str">
+        <v>52,443.79</v>
+      </c>
+      <c r="C66" t="str">
+        <v>52,443.79</v>
+      </c>
+      <c r="D66" t="str">
+        <v>12,296.1</v>
+      </c>
+      <c r="E66" t="str">
+        <v>26,550.09</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+      </c>
+      <c r="B67" t="str">
+        <v>51,841.4</v>
+      </c>
+      <c r="C67" t="str">
+        <v>51,841.4</v>
+      </c>
+      <c r="D67" t="str">
+        <v>26,103.89</v>
+      </c>
+      <c r="E67" t="str">
+        <v>12,296.1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>0xCf54bb8C360FB4Ec47AE0c31Bc8864B163651277</v>
+      </c>
+      <c r="B68" t="str">
+        <v>0</v>
+      </c>
+      <c r="C68" t="str">
+        <v>697.29</v>
+      </c>
+      <c r="D68" t="str">
+        <v>516.5</v>
+      </c>
+      <c r="E68" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
+      </c>
+      <c r="B69" t="str">
+        <v>642.9</v>
+      </c>
+      <c r="C69" t="str">
+        <v>642.9</v>
+      </c>
+      <c r="D69" t="str">
+        <v>476.21</v>
+      </c>
+      <c r="E69" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+      </c>
+      <c r="B70" t="str">
+        <v>24,538.23</v>
+      </c>
+      <c r="C70" t="str">
+        <v>24,538.23</v>
+      </c>
+      <c r="D70" t="str">
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <v>18,175.97</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
+      </c>
+      <c r="B71" t="str">
+        <v>2,083.83</v>
+      </c>
+      <c r="C71" t="str">
+        <v>2,083.83</v>
+      </c>
+      <c r="D71" t="str">
+        <v>0</v>
+      </c>
+      <c r="E71" t="str">
+        <v>1,543.54</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
+      </c>
+      <c r="B72" t="str">
+        <v>3,454.78</v>
+      </c>
+      <c r="C72" t="str">
+        <v>3,454.78</v>
+      </c>
+      <c r="D72" t="str">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <v>2,559.03</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+      </c>
+      <c r="B73" t="str">
+        <v>808.87</v>
+      </c>
+      <c r="C73" t="str">
+        <v>808.87</v>
+      </c>
+      <c r="D73" t="str">
+        <v>95.22</v>
+      </c>
+      <c r="E73" t="str">
+        <v>503.93</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+      </c>
+      <c r="B74" t="str">
+        <v>40,752.56</v>
+      </c>
+      <c r="C74" t="str">
+        <v>40,752.56</v>
+      </c>
+      <c r="D74" t="str">
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <v>30,186.26</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
+      </c>
+      <c r="B75" t="str">
+        <v>38,285.11</v>
+      </c>
+      <c r="C75" t="str">
+        <v>38,285.11</v>
+      </c>
+      <c r="D75" t="str">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <v>28,358.57</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+      </c>
+      <c r="B76" t="str">
+        <v>7,003.85</v>
+      </c>
+      <c r="C76" t="str">
+        <v>7,003.85</v>
+      </c>
+      <c r="D76" t="str">
+        <v>4,498.51</v>
+      </c>
+      <c r="E76" t="str">
+        <v>689.39</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+      </c>
+      <c r="B77" t="str">
+        <v>0</v>
+      </c>
+      <c r="C77" t="str">
+        <v>11,619.33</v>
+      </c>
+      <c r="D77" t="str">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <v>8,606.68</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+      </c>
+      <c r="B78" t="str">
+        <v>990.81</v>
+      </c>
+      <c r="C78" t="str">
+        <v>990.81</v>
+      </c>
+      <c r="D78" t="str">
+        <v>733.92</v>
+      </c>
+      <c r="E78" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>0xB318309e50C1f09825f903B5773c45b0d2930f28</v>
+      </c>
+      <c r="B79" t="str">
+        <v>329.44</v>
+      </c>
+      <c r="C79" t="str">
+        <v>329.44</v>
+      </c>
+      <c r="D79" t="str">
+        <v>244.03</v>
+      </c>
+      <c r="E79" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+      </c>
+      <c r="B80" t="str">
+        <v>82,469.32</v>
+      </c>
+      <c r="C80" t="str">
+        <v>82,469.32</v>
+      </c>
+      <c r="D80" t="str">
+        <v>0</v>
+      </c>
+      <c r="E80" t="str">
+        <v>61,086.72</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>0x889f1F09b491711013cA6787E29e07a04FDf42a4</v>
+      </c>
+      <c r="B81" t="str">
+        <v>675.01</v>
+      </c>
+      <c r="C81" t="str">
+        <v>675.01</v>
+      </c>
+      <c r="D81" t="str">
+        <v>0</v>
+      </c>
+      <c r="E81" t="str">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>0x880cd618B4cA66bBb8862558954d8473d7b0C867</v>
+      </c>
+      <c r="B82" t="str">
+        <v>333.87</v>
+      </c>
+      <c r="C82" t="str">
+        <v>333.87</v>
+      </c>
+      <c r="D82" t="str">
+        <v>247.31</v>
+      </c>
+      <c r="E82" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>0x358e444fFb60A1Cc82A6E412C6720f110dc1E921</v>
+      </c>
+      <c r="B83" t="str">
+        <v>0</v>
+      </c>
+      <c r="C83" t="str">
+        <v>10,564.75</v>
+      </c>
+      <c r="D83" t="str">
+        <v>0</v>
+      </c>
+      <c r="E83" t="str">
+        <v>7,825.53</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+      </c>
+      <c r="B84" t="str">
+        <v>4,177.16</v>
+      </c>
+      <c r="C84" t="str">
+        <v>4,177.16</v>
+      </c>
+      <c r="D84" t="str">
+        <v>0</v>
+      </c>
+      <c r="E84" t="str">
+        <v>3,094.11</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>0x3E3309ab5312f6875b6e9bE672b9A43EFb70D760</v>
+      </c>
+      <c r="B85" t="str">
+        <v>857.27</v>
+      </c>
+      <c r="C85" t="str">
+        <v>857.27</v>
+      </c>
+      <c r="D85" t="str">
+        <v>0</v>
+      </c>
+      <c r="E85" t="str">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+      </c>
+      <c r="B86" t="str">
+        <v>2,211.57</v>
+      </c>
+      <c r="C86" t="str">
+        <v>2,211.57</v>
+      </c>
+      <c r="D86" t="str">
+        <v>0</v>
+      </c>
+      <c r="E86" t="str">
+        <v>1,638.16</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+      </c>
+      <c r="B87" t="str">
+        <v>79,886.85</v>
+      </c>
+      <c r="C87" t="str">
+        <v>79,886.85</v>
+      </c>
+      <c r="D87" t="str">
+        <v>57,269.63</v>
+      </c>
+      <c r="E87" t="str">
+        <v>1,904.2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
+      </c>
+      <c r="B88" t="str">
+        <v>481.49</v>
+      </c>
+      <c r="C88" t="str">
+        <v>481.49</v>
+      </c>
+      <c r="D88" t="str">
+        <v>0</v>
+      </c>
+      <c r="E88" t="str">
+        <v>356.65</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
+      </c>
+      <c r="B89" t="str">
+        <v>1,933.45</v>
+      </c>
+      <c r="C89" t="str">
+        <v>1,933.45</v>
+      </c>
+      <c r="D89" t="str">
+        <v>1,432.15</v>
+      </c>
+      <c r="E89" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
+      </c>
+      <c r="B90" t="str">
+        <v>1,933.45</v>
+      </c>
+      <c r="C90" t="str">
+        <v>1,933.45</v>
+      </c>
+      <c r="D90" t="str">
+        <v>0</v>
+      </c>
+      <c r="E90" t="str">
+        <v>1,432.15</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+      </c>
+      <c r="B91" t="str">
+        <v>225.18</v>
+      </c>
+      <c r="C91" t="str">
+        <v>225.18</v>
+      </c>
+      <c r="D91" t="str">
+        <v>0</v>
+      </c>
+      <c r="E91" t="str">
+        <v>166.8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+      </c>
+      <c r="B92" t="str">
+        <v>26,513.47</v>
+      </c>
+      <c r="C92" t="str">
+        <v>26,513.47</v>
+      </c>
+      <c r="D92" t="str">
+        <v>19,639.07</v>
+      </c>
+      <c r="E92" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+      </c>
+      <c r="B93" t="str">
+        <v>602.38</v>
+      </c>
+      <c r="C93" t="str">
+        <v>602.38</v>
+      </c>
+      <c r="D93" t="str">
+        <v>446.2</v>
+      </c>
+      <c r="E93" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>0xB19c1b3cEc4c5bD6DCA220A4f59de9EC681e9211</v>
+      </c>
+      <c r="B94" t="str">
+        <v>0</v>
+      </c>
+      <c r="C94" t="str">
+        <v>612.97</v>
+      </c>
+      <c r="D94" t="str">
+        <v>1</v>
+      </c>
+      <c r="E94" t="str">
+        <v>453.04</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
+      </c>
+      <c r="B95" t="str">
+        <v>810.06</v>
+      </c>
+      <c r="C95" t="str">
+        <v>810.06</v>
+      </c>
+      <c r="D95" t="str">
+        <v>600.03</v>
+      </c>
+      <c r="E95" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+      </c>
+      <c r="B96" t="str">
+        <v>25,202.98</v>
+      </c>
+      <c r="C96" t="str">
+        <v>25,202.98</v>
+      </c>
+      <c r="D96" t="str">
+        <v>0</v>
+      </c>
+      <c r="E96" t="str">
+        <v>18,668.37</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
+      </c>
+      <c r="B97" t="str">
+        <v>6,094.29</v>
+      </c>
+      <c r="C97" t="str">
+        <v>6,094.29</v>
+      </c>
+      <c r="D97" t="str">
+        <v>0</v>
+      </c>
+      <c r="E97" t="str">
+        <v>4,514.17</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
+      </c>
+      <c r="B98" t="str">
+        <v>12,070.28</v>
+      </c>
+      <c r="C98" t="str">
+        <v>12,070.28</v>
+      </c>
+      <c r="D98" t="str">
+        <v>0</v>
+      </c>
+      <c r="E98" t="str">
+        <v>8,940.71</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
+      </c>
+      <c r="B99" t="str">
+        <v>681.52</v>
+      </c>
+      <c r="C99" t="str">
+        <v>681.52</v>
+      </c>
+      <c r="D99" t="str">
+        <v>504.82</v>
+      </c>
+      <c r="E99" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>0xC11519b13b1F70d0Ac7742BC60EFBa16c54b29f8</v>
+      </c>
+      <c r="B100" t="str">
+        <v>144.92</v>
+      </c>
+      <c r="C100" t="str">
+        <v>144.92</v>
+      </c>
+      <c r="D100" t="str">
+        <v>0</v>
+      </c>
+      <c r="E100" t="str">
+        <v>107.35</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+      </c>
+      <c r="B101" t="str">
+        <v>3,926.01</v>
+      </c>
+      <c r="C101" t="str">
+        <v>3,926.01</v>
+      </c>
+      <c r="D101" t="str">
+        <v>0</v>
+      </c>
+      <c r="E101" t="str">
+        <v>2,908.08</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>0x7e729b21005cF2FDda685bA7Bef04c6Dc3DcD444</v>
+      </c>
+      <c r="B102" t="str">
+        <v>5.44</v>
+      </c>
+      <c r="C102" t="str">
+        <v>5.44</v>
+      </c>
+      <c r="D102" t="str">
+        <v>4.03</v>
+      </c>
+      <c r="E102" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>0xf78D0cdFB459eD9CC19eEb7c22B5F193d7662fcC</v>
+      </c>
+      <c r="B103" t="str">
+        <v>3,379.39</v>
+      </c>
+      <c r="C103" t="str">
+        <v>3,379.39</v>
+      </c>
+      <c r="D103" t="str">
+        <v>2,503.19</v>
+      </c>
+      <c r="E103" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>0x2A1Cc6c77782EA6BE6C08d61430A79E31Ea4efDf</v>
+      </c>
+      <c r="B104" t="str">
+        <v>313.46</v>
+      </c>
+      <c r="C104" t="str">
+        <v>313.46</v>
+      </c>
+      <c r="D104" t="str">
+        <v>0</v>
+      </c>
+      <c r="E104" t="str">
+        <v>232.19</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>0xb05822516a701573678447E6966F7eD3bdDf78C5</v>
+      </c>
+      <c r="B105" t="str">
+        <v>170.99</v>
+      </c>
+      <c r="C105" t="str">
+        <v>170.99</v>
+      </c>
+      <c r="D105" t="str">
+        <v>126.66</v>
+      </c>
+      <c r="E105" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>0x2844bE58E6d43728a6E81c5C7886B938be8f5378</v>
+      </c>
+      <c r="B106" t="str">
+        <v>61.11</v>
+      </c>
+      <c r="C106" t="str">
+        <v>61.11</v>
+      </c>
+      <c r="D106" t="str">
+        <v>0</v>
+      </c>
+      <c r="E106" t="str">
+        <v>45.27</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
+      </c>
+      <c r="B107" t="str">
+        <v>306.55</v>
+      </c>
+      <c r="C107" t="str">
+        <v>306.55</v>
+      </c>
+      <c r="D107" t="str">
+        <v>0</v>
+      </c>
+      <c r="E107" t="str">
+        <v>227.07</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
+      </c>
+      <c r="B108" t="str">
+        <v>2,263.56</v>
+      </c>
+      <c r="C108" t="str">
+        <v>2,263.56</v>
+      </c>
+      <c r="D108" t="str">
+        <v>1,676.67</v>
+      </c>
+      <c r="E108" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
+      </c>
+      <c r="B109" t="str">
+        <v>67.54</v>
+      </c>
+      <c r="C109" t="str">
+        <v>67.54</v>
+      </c>
+      <c r="D109" t="str">
+        <v>50.03</v>
+      </c>
+      <c r="E109" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>0xfA9FBD6360692a1b23b84A9dDFf63ed77faF58c9</v>
+      </c>
+      <c r="B110" t="str">
+        <v>139.41</v>
+      </c>
+      <c r="C110" t="str">
+        <v>139.41</v>
+      </c>
+      <c r="D110" t="str">
+        <v>0</v>
+      </c>
+      <c r="E110" t="str">
+        <v>103.27</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>0x46c17eC4E5fb0529F5559f6990d81f0420Be1E5c</v>
+      </c>
+      <c r="B111" t="str">
+        <v>23,635.88</v>
+      </c>
+      <c r="C111" t="str">
+        <v>23,635.88</v>
+      </c>
+      <c r="D111" t="str">
+        <v>17,507.58</v>
+      </c>
+      <c r="E111" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>0xf0eeE0837e8F4feaC444412991f7005B8dFFa305</v>
+      </c>
+      <c r="B112" t="str">
+        <v>661.05</v>
+      </c>
+      <c r="C112" t="str">
+        <v>661.05</v>
+      </c>
+      <c r="D112" t="str">
+        <v>0</v>
+      </c>
+      <c r="E112" t="str">
+        <v>489.66</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>0xbc44E6f03C150df10Fe594d42eACAAC51C13e15B</v>
+      </c>
+      <c r="B113" t="str">
+        <v>74.69</v>
+      </c>
+      <c r="C113" t="str">
+        <v>74.69</v>
+      </c>
+      <c r="D113" t="str">
+        <v>55.33</v>
+      </c>
+      <c r="E113" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>0xA271d7ad0ce0b28cdc464dfD5F3A66B4d55B5Acc</v>
+      </c>
+      <c r="B114" t="str">
+        <v>1,232.63</v>
+      </c>
+      <c r="C114" t="str">
+        <v>1,232.63</v>
+      </c>
+      <c r="D114" t="str">
+        <v>913.04</v>
+      </c>
+      <c r="E114" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>0xE3c3CD768EF78506A37144Ce83b1f34af56A89D5</v>
+      </c>
+      <c r="B115" t="str">
+        <v>1,232.63</v>
+      </c>
+      <c r="C115" t="str">
+        <v>1,232.63</v>
+      </c>
+      <c r="D115" t="str">
+        <v>0</v>
+      </c>
+      <c r="E115" t="str">
+        <v>913.04</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>0xAE1aD5B0Cb04CFe479E9308006F2e0063Ab8E845</v>
+      </c>
+      <c r="B116" t="str">
+        <v>25.89</v>
+      </c>
+      <c r="C116" t="str">
+        <v>25.89</v>
+      </c>
+      <c r="D116" t="str">
+        <v>0</v>
+      </c>
+      <c r="E116" t="str">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>0x88bA50adD63cB2b90Eb3277cb4AC27Ca7b4fa596</v>
+      </c>
+      <c r="B117" t="str">
+        <v>434.83</v>
+      </c>
+      <c r="C117" t="str">
+        <v>434.83</v>
+      </c>
+      <c r="D117" t="str">
+        <v>322.09</v>
+      </c>
+      <c r="E117" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
+      </c>
+      <c r="B118" t="str">
+        <v>434.83</v>
+      </c>
+      <c r="C118" t="str">
+        <v>434.83</v>
+      </c>
+      <c r="D118" t="str">
+        <v>0</v>
+      </c>
+      <c r="E118" t="str">
+        <v>322.09</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>0x9fF7d51Cf6a3A12F2Cdd36035827037a35A4B139</v>
+      </c>
+      <c r="B119" t="str">
+        <v>2.97</v>
+      </c>
+      <c r="C119" t="str">
+        <v>2.97</v>
+      </c>
+      <c r="D119" t="str">
+        <v>2.2</v>
+      </c>
+      <c r="E119" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>0x7617203fAd8e02b81d866a269500fdF417A0Cb2c</v>
+      </c>
+      <c r="B120" t="str">
+        <v>6.45</v>
+      </c>
+      <c r="C120" t="str">
+        <v>6.45</v>
+      </c>
+      <c r="D120" t="str">
+        <v>0</v>
+      </c>
+      <c r="E120" t="str">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
+      </c>
+      <c r="B121" t="str">
+        <v>0</v>
+      </c>
+      <c r="C121" t="str">
+        <v>278.63</v>
+      </c>
+      <c r="D121" t="str">
+        <v>206.39</v>
+      </c>
+      <c r="E121" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
+      </c>
+      <c r="B122" t="str">
+        <v>278.63</v>
+      </c>
+      <c r="C122" t="str">
+        <v>278.63</v>
+      </c>
+      <c r="D122" t="str">
+        <v>0</v>
+      </c>
+      <c r="E122" t="str">
+        <v>206.39</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
+      </c>
+      <c r="B123" t="str">
+        <v>34.66</v>
+      </c>
+      <c r="C123" t="str">
+        <v>34.66</v>
+      </c>
+      <c r="D123" t="str">
+        <v>0</v>
+      </c>
+      <c r="E123" t="str">
+        <v>25.68</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
+      </c>
+      <c r="B124" t="str">
+        <v>1,227.8</v>
+      </c>
+      <c r="C124" t="str">
+        <v>1,227.8</v>
+      </c>
+      <c r="D124" t="str">
+        <v>0</v>
+      </c>
+      <c r="E124" t="str">
+        <v>909.46</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>0x3d5F0A62033206273527Ef33569213E904eC4DdF</v>
+      </c>
+      <c r="B125" t="str">
+        <v>209.17</v>
+      </c>
+      <c r="C125" t="str">
+        <v>209.17</v>
+      </c>
+      <c r="D125" t="str">
+        <v>91.29</v>
+      </c>
+      <c r="E125" t="str">
+        <v>63.65</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>0x0fA1AfF9540786DCad9196e0676e2e4423317FAf</v>
+      </c>
+      <c r="B126" t="str">
+        <v>2,987.79</v>
+      </c>
+      <c r="C126" t="str">
+        <v>2,987.79</v>
+      </c>
+      <c r="D126" t="str">
+        <v>2,213.12</v>
+      </c>
+      <c r="E126" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
+      </c>
+      <c r="B127" t="str">
+        <v>3,002.79</v>
+      </c>
+      <c r="C127" t="str">
+        <v>3,002.79</v>
+      </c>
+      <c r="D127" t="str">
+        <v>11.11</v>
+      </c>
+      <c r="E127" t="str">
+        <v>2,213.12</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>0x5C55e86A38d24BE5fF7f12221BF674C95FB188a7</v>
+      </c>
+      <c r="B128" t="str">
+        <v>120.96</v>
+      </c>
+      <c r="C128" t="str">
+        <v>120.96</v>
+      </c>
+      <c r="D128" t="str">
+        <v>0</v>
+      </c>
+      <c r="E128" t="str">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
+      </c>
+      <c r="B129" t="str">
+        <v>57.83</v>
+      </c>
+      <c r="C129" t="str">
+        <v>57.83</v>
+      </c>
+      <c r="D129" t="str">
+        <v>0</v>
+      </c>
+      <c r="E129" t="str">
+        <v>42.84</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
+      </c>
+      <c r="B130" t="str">
+        <v>13.21</v>
+      </c>
+      <c r="C130" t="str">
+        <v>13.21</v>
+      </c>
+      <c r="D130" t="str">
+        <v>0</v>
+      </c>
+      <c r="E130" t="str">
+        <v>9.79</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>0xdfd7445EF7dB056F68cEdEB4c1A709d02C0c3AA7</v>
+      </c>
+      <c r="B131" t="str">
+        <v>162.28</v>
+      </c>
+      <c r="C131" t="str">
+        <v>162.28</v>
+      </c>
+      <c r="D131" t="str">
+        <v>120.21</v>
+      </c>
+      <c r="E131" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>0x9C4e5edC6A735e4AB68ef04497b64008A955A1A5</v>
+      </c>
+      <c r="B132" t="str">
+        <v>16,875.46</v>
+      </c>
+      <c r="C132" t="str">
+        <v>16,875.46</v>
+      </c>
+      <c r="D132" t="str">
+        <v>0</v>
+      </c>
+      <c r="E132" t="str">
+        <v>12,500</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>0xBc7b31dFbEd762841AC646961C887B49e3f625d5</v>
+      </c>
+      <c r="B133" t="str">
+        <v>930.7</v>
+      </c>
+      <c r="C133" t="str">
+        <v>930.7</v>
+      </c>
+      <c r="D133" t="str">
+        <v>689.39</v>
+      </c>
+      <c r="E133" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
+      </c>
+      <c r="B134" t="str">
+        <v>65.85</v>
+      </c>
+      <c r="C134" t="str">
+        <v>65.85</v>
+      </c>
+      <c r="D134" t="str">
+        <v>0</v>
+      </c>
+      <c r="E134" t="str">
+        <v>48.78</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>0x96f194Cf1c9e5eE23B4D96785791F468F6A9C98e</v>
+      </c>
+      <c r="B135" t="str">
+        <v>77,316.11</v>
+      </c>
+      <c r="C135" t="str">
+        <v>77,316.11</v>
+      </c>
+      <c r="D135" t="str">
+        <v>0</v>
+      </c>
+      <c r="E135" t="str">
+        <v>57,269.63</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>0xeBB36F543A6c3E09a06c937E86fB0930a6EdA151</v>
+      </c>
+      <c r="B136" t="str">
+        <v>107.4</v>
+      </c>
+      <c r="C136" t="str">
+        <v>107.4</v>
+      </c>
+      <c r="D136" t="str">
+        <v>0</v>
+      </c>
+      <c r="E136" t="str">
+        <v>79.56</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+      </c>
+      <c r="B137" t="str">
+        <v>939,390.68</v>
+      </c>
+      <c r="C137" t="str">
+        <v>939,390.68</v>
+      </c>
+      <c r="D137" t="str">
+        <v>348,046.91</v>
+      </c>
+      <c r="E137" t="str">
+        <v>347,778.99</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>0xbD73E24F927E9f1D9ce45B7e47f36711Dca35A88</v>
+      </c>
+      <c r="B138" t="str">
+        <v>74.56</v>
+      </c>
+      <c r="C138" t="str">
+        <v>74.56</v>
+      </c>
+      <c r="D138" t="str">
+        <v>0</v>
+      </c>
+      <c r="E138" t="str">
+        <v>55.23</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>0xA2cfCc9E68d9138ED4eacF9b7E2141D9B41C6eCF</v>
+      </c>
+      <c r="B139" t="str">
+        <v>878.17</v>
+      </c>
+      <c r="C139" t="str">
+        <v>878.17</v>
+      </c>
+      <c r="D139" t="str">
+        <v>650.48</v>
+      </c>
+      <c r="E139" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>0x48f5880a56dC2b8e123aB8CddD58521631332e36</v>
+      </c>
+      <c r="B140" t="str">
+        <v>878.17</v>
+      </c>
+      <c r="C140" t="str">
+        <v>878.17</v>
+      </c>
+      <c r="D140" t="str">
+        <v>0</v>
+      </c>
+      <c r="E140" t="str">
+        <v>650.48</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+      </c>
+      <c r="B141" t="str">
+        <v>168.74</v>
+      </c>
+      <c r="C141" t="str">
+        <v>168.74</v>
+      </c>
+      <c r="D141" t="str">
+        <v>0</v>
+      </c>
+      <c r="E141" t="str">
+        <v>124.99</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>0x947d2c8935C715428702231AD85E293a94CbEB65</v>
+      </c>
+      <c r="B142" t="str">
+        <v>675.01</v>
+      </c>
+      <c r="C142" t="str">
+        <v>675.01</v>
+      </c>
+      <c r="D142" t="str">
+        <v>500</v>
+      </c>
+      <c r="E142" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
+      </c>
+      <c r="B143" t="str">
+        <v>675.01</v>
+      </c>
+      <c r="C143" t="str">
+        <v>675.01</v>
+      </c>
+      <c r="D143" t="str">
+        <v>0</v>
+      </c>
+      <c r="E143" t="str">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>0x091D2bf74f675Df1d72eD6E07bCB693D56a4163c</v>
+      </c>
+      <c r="B144" t="str">
+        <v>0</v>
+      </c>
+      <c r="C144" t="str">
+        <v>2,458.39</v>
+      </c>
+      <c r="D144" t="str">
+        <v>1,820.98</v>
+      </c>
+      <c r="E144" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>0x0fB3b0892619aF19B0a8016783f84EED26CfAE1E</v>
+      </c>
+      <c r="B145" t="str">
+        <v>131.26</v>
+      </c>
+      <c r="C145" t="str">
+        <v>131.26</v>
+      </c>
+      <c r="D145" t="str">
+        <v>97.23</v>
+      </c>
+      <c r="E145" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>0x4e300F965ACE7aBF11A53662419F9A2D27dE3B1d</v>
+      </c>
+      <c r="B146" t="str">
+        <v>131.26</v>
+      </c>
+      <c r="C146" t="str">
+        <v>131.26</v>
+      </c>
+      <c r="D146" t="str">
+        <v>0</v>
+      </c>
+      <c r="E146" t="str">
+        <v>97.23</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>0xF1D275F804a6b3d3f75B7C08150178836E56dE8B</v>
+      </c>
+      <c r="B147" t="str">
+        <v>381.62</v>
+      </c>
+      <c r="C147" t="str">
+        <v>381.62</v>
+      </c>
+      <c r="D147" t="str">
+        <v>282.68</v>
+      </c>
+      <c r="E147" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>0xBb3123adaa39aA9b0Bf8c0374eab50353F479c97</v>
+      </c>
+      <c r="B148" t="str">
+        <v>381.62</v>
+      </c>
+      <c r="C148" t="str">
+        <v>381.62</v>
+      </c>
+      <c r="D148" t="str">
+        <v>0</v>
+      </c>
+      <c r="E148" t="str">
+        <v>282.68</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>0x0feD39AC6093e042825EfE8862f37dc8425B8f74</v>
+      </c>
+      <c r="B149" t="str">
+        <v>216.39</v>
+      </c>
+      <c r="C149" t="str">
+        <v>409.95</v>
+      </c>
+      <c r="D149" t="str">
+        <v>0</v>
+      </c>
+      <c r="E149" t="str">
+        <v>303.66</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+      </c>
+      <c r="B150" t="str">
+        <v>3,103.41</v>
+      </c>
+      <c r="C150" t="str">
+        <v>3,103.41</v>
+      </c>
+      <c r="D150" t="str">
+        <v>2,298.76</v>
+      </c>
+      <c r="E150" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
+      </c>
+      <c r="B151" t="str">
+        <v>1,461.36</v>
+      </c>
+      <c r="C151" t="str">
+        <v>1,461.36</v>
+      </c>
+      <c r="D151" t="str">
+        <v>0</v>
+      </c>
+      <c r="E151" t="str">
+        <v>1,082.46</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>0x487EE46941931178c481a9fA3Eeb2016E2B0CBdA</v>
+      </c>
+      <c r="B152" t="str">
+        <v>51.16</v>
+      </c>
+      <c r="C152" t="str">
+        <v>51.16</v>
+      </c>
+      <c r="D152" t="str">
+        <v>37.9</v>
+      </c>
+      <c r="E152" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+      </c>
+      <c r="B153" t="str">
+        <v>126,068.53</v>
+      </c>
+      <c r="C153" t="str">
+        <v>126,068.53</v>
+      </c>
+      <c r="D153" t="str">
+        <v>93,381.54</v>
+      </c>
+      <c r="E153" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+      </c>
+      <c r="B154" t="str">
+        <v>126,068.53</v>
+      </c>
+      <c r="C154" t="str">
+        <v>126,068.53</v>
+      </c>
+      <c r="D154" t="str">
+        <v>0</v>
+      </c>
+      <c r="E154" t="str">
+        <v>93,381.54</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+      </c>
+      <c r="B155" t="str">
+        <v>1,087.96</v>
+      </c>
+      <c r="C155" t="str">
+        <v>1,087.96</v>
+      </c>
+      <c r="D155" t="str">
+        <v>0</v>
+      </c>
+      <c r="E155" t="str">
+        <v>805.88</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+      </c>
+      <c r="B156" t="str">
+        <v>879.53</v>
+      </c>
+      <c r="C156" t="str">
+        <v>879.53</v>
+      </c>
+      <c r="D156" t="str">
+        <v>98.2</v>
+      </c>
+      <c r="E156" t="str">
+        <v>553.29</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>0xd4dB3DbEe64e9e3A9dc049CbC558904FeFc04ce1</v>
+      </c>
+      <c r="B157" t="str">
+        <v>298.81</v>
+      </c>
+      <c r="C157" t="str">
+        <v>298.81</v>
+      </c>
+      <c r="D157" t="str">
+        <v>221.34</v>
+      </c>
+      <c r="E157" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+      </c>
+      <c r="B158" t="str">
+        <v>364.05</v>
+      </c>
+      <c r="C158" t="str">
+        <v>364.05</v>
+      </c>
+      <c r="D158" t="str">
+        <v>0</v>
+      </c>
+      <c r="E158" t="str">
+        <v>269.66</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>0x8f1928e8FEa7238b9B53A7E62AFd471b69732a66</v>
+      </c>
+      <c r="B159" t="str">
+        <v>14,115.04</v>
+      </c>
+      <c r="C159" t="str">
+        <v>14,115.04</v>
+      </c>
+      <c r="D159" t="str">
+        <v>10,455.3</v>
+      </c>
+      <c r="E159" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>0x5390651dd0824159FE0e82554feC7b283bCa3745</v>
+      </c>
+      <c r="B160" t="str">
+        <v>14,115.04</v>
+      </c>
+      <c r="C160" t="str">
+        <v>14,115.04</v>
+      </c>
+      <c r="D160" t="str">
+        <v>0</v>
+      </c>
+      <c r="E160" t="str">
+        <v>10,455.3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
+      </c>
+      <c r="B161" t="str">
+        <v>20.45</v>
+      </c>
+      <c r="C161" t="str">
+        <v>20.45</v>
+      </c>
+      <c r="D161" t="str">
+        <v>0</v>
+      </c>
+      <c r="E161" t="str">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+      </c>
+      <c r="B162" t="str">
+        <v>992.27</v>
+      </c>
+      <c r="C162" t="str">
+        <v>992.27</v>
+      </c>
+      <c r="D162" t="str">
+        <v>0</v>
+      </c>
+      <c r="E162" t="str">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+      </c>
+      <c r="B163" t="str">
+        <v>681.55</v>
+      </c>
+      <c r="C163" t="str">
+        <v>681.55</v>
+      </c>
+      <c r="D163" t="str">
+        <v>504.84</v>
+      </c>
+      <c r="E163" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
+      </c>
+      <c r="B164" t="str">
+        <v>5,074.45</v>
+      </c>
+      <c r="C164" t="str">
+        <v>5,074.45</v>
+      </c>
+      <c r="D164" t="str">
+        <v>3,758.75</v>
+      </c>
+      <c r="E164" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>0xb62430C5fD8281c2F2ADf3ae7Cec7171d6F71EC6</v>
+      </c>
+      <c r="B165" t="str">
+        <v>129.52</v>
+      </c>
+      <c r="C165" t="str">
+        <v>129.52</v>
+      </c>
+      <c r="D165" t="str">
+        <v>95.94</v>
+      </c>
+      <c r="E165" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>0xA6F3eb75fa915C7Bf8a6987710511070D97E2a75</v>
+      </c>
+      <c r="B166" t="str">
+        <v>327.89</v>
+      </c>
+      <c r="C166" t="str">
+        <v>327.89</v>
+      </c>
+      <c r="D166" t="str">
+        <v>242.88</v>
+      </c>
+      <c r="E166" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+      </c>
+      <c r="B167" t="str">
+        <v>158.03</v>
+      </c>
+      <c r="C167" t="str">
+        <v>158.03</v>
+      </c>
+      <c r="D167" t="str">
+        <v>117.06</v>
+      </c>
+      <c r="E167" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>0xCbf575DA18d760a18dB55333bE8662CC07463069</v>
+      </c>
+      <c r="B168" t="str">
+        <v>665.13</v>
+      </c>
+      <c r="C168" t="str">
+        <v>665.13</v>
+      </c>
+      <c r="D168" t="str">
+        <v>492.68</v>
+      </c>
+      <c r="E168" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>0xF6a52cb99b772d46C736F6F90Be792A1d4159414</v>
+      </c>
+      <c r="B169" t="str">
+        <v>133.19</v>
+      </c>
+      <c r="C169" t="str">
+        <v>133.19</v>
+      </c>
+      <c r="D169" t="str">
+        <v>98.66</v>
+      </c>
+      <c r="E169" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>0xD45bc979277382882e1B41A5efa2561F55915716</v>
+      </c>
+      <c r="B170" t="str">
+        <v>140.34</v>
+      </c>
+      <c r="C170" t="str">
+        <v>140.34</v>
+      </c>
+      <c r="D170" t="str">
+        <v>103.96</v>
+      </c>
+      <c r="E170" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>0x5766ee90ab6f2Cd995CA845d09b2AeC45E870EC9</v>
+      </c>
+      <c r="B171" t="str">
+        <v>144.8</v>
+      </c>
+      <c r="C171" t="str">
+        <v>144.8</v>
+      </c>
+      <c r="D171" t="str">
+        <v>0</v>
+      </c>
+      <c r="E171" t="str">
+        <v>107.26</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>0xf90518CBcd4ef086891cb22C87bd4F80B61a7081</v>
+      </c>
+      <c r="B172" t="str">
+        <v>1,326.5</v>
+      </c>
+      <c r="C172" t="str">
+        <v>1,326.5</v>
+      </c>
+      <c r="D172" t="str">
+        <v>982.57</v>
+      </c>
+      <c r="E172" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>0xD53314Cd179ccD3926Af264e62E3B6dAB06A6419</v>
+      </c>
+      <c r="B173" t="str">
+        <v>1,326.5</v>
+      </c>
+      <c r="C173" t="str">
+        <v>1,326.5</v>
+      </c>
+      <c r="D173" t="str">
+        <v>0</v>
+      </c>
+      <c r="E173" t="str">
+        <v>982.57</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+      </c>
+      <c r="B174" t="str">
+        <v>67.09</v>
+      </c>
+      <c r="C174" t="str">
+        <v>67.09</v>
+      </c>
+      <c r="D174" t="str">
+        <v>49.7</v>
+      </c>
+      <c r="E174" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>0x11AbA9ACdFbAaB8e7C1Dc4d92b8B2467FD5d0e3B</v>
+      </c>
+      <c r="B175" t="str">
+        <v>133.3</v>
+      </c>
+      <c r="C175" t="str">
+        <v>133.3</v>
+      </c>
+      <c r="D175" t="str">
+        <v>98.74</v>
+      </c>
+      <c r="E175" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>0x8Dca7891aAb1d43b8402d23e2Ca88B0399Ed542E</v>
+      </c>
+      <c r="B176" t="str">
+        <v>133.3</v>
+      </c>
+      <c r="C176" t="str">
+        <v>133.3</v>
+      </c>
+      <c r="D176" t="str">
+        <v>0</v>
+      </c>
+      <c r="E176" t="str">
+        <v>98.74</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
+      </c>
+      <c r="B177" t="str">
+        <v>207.91</v>
+      </c>
+      <c r="C177" t="str">
+        <v>207.91</v>
+      </c>
+      <c r="D177" t="str">
+        <v>154.01</v>
+      </c>
+      <c r="E177" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>0x7aa90dE22D64831e54DA455A90621560f1bC97a2</v>
+      </c>
+      <c r="B178" t="str">
+        <v>330.46</v>
+      </c>
+      <c r="C178" t="str">
+        <v>330.46</v>
+      </c>
+      <c r="D178" t="str">
+        <v>244.78</v>
+      </c>
+      <c r="E178" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>0x2373654B6a1564c5BdA4D28dDeF1827D66d7EA2b</v>
+      </c>
+      <c r="B179" t="str">
+        <v>200</v>
+      </c>
+      <c r="C179" t="str">
+        <v>330.46</v>
+      </c>
+      <c r="D179" t="str">
+        <v>0</v>
+      </c>
+      <c r="E179" t="str">
+        <v>244.78</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
+      </c>
+      <c r="B180" t="str">
+        <v>3,785.65</v>
+      </c>
+      <c r="C180" t="str">
+        <v>3,785.65</v>
+      </c>
+      <c r="D180" t="str">
+        <v>2,804.11</v>
+      </c>
+      <c r="E180" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
+      </c>
+      <c r="B181" t="str">
+        <v>796.31</v>
+      </c>
+      <c r="C181" t="str">
+        <v>796.31</v>
+      </c>
+      <c r="D181" t="str">
+        <v>259.94</v>
+      </c>
+      <c r="E181" t="str">
+        <v>329.91</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
+      </c>
+      <c r="B182" t="str">
+        <v>371.26</v>
+      </c>
+      <c r="C182" t="str">
+        <v>371.26</v>
+      </c>
+      <c r="D182" t="str">
+        <v>0</v>
+      </c>
+      <c r="E182" t="str">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>0x75ac9574e8142636654713A984365e3E3427E31b</v>
+      </c>
+      <c r="B183" t="str">
+        <v>266.41</v>
+      </c>
+      <c r="C183" t="str">
+        <v>266.41</v>
+      </c>
+      <c r="D183" t="str">
+        <v>197.34</v>
+      </c>
+      <c r="E183" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>0xD957cc84a2B565e7572a8F02A39e487466c3bFF7</v>
+      </c>
+      <c r="B184" t="str">
+        <v>266.41</v>
+      </c>
+      <c r="C184" t="str">
+        <v>266.41</v>
+      </c>
+      <c r="D184" t="str">
+        <v>0</v>
+      </c>
+      <c r="E184" t="str">
+        <v>197.34</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+      </c>
+      <c r="B185" t="str">
+        <v>21,482.24</v>
+      </c>
+      <c r="C185" t="str">
+        <v>21,482.24</v>
+      </c>
+      <c r="D185" t="str">
+        <v>15,912.34</v>
+      </c>
+      <c r="E185" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>0x8fa6e6dB6B86d0Cad2fa8DeEb737BC1cB97a2bE1</v>
+      </c>
+      <c r="B186" t="str">
+        <v>263.78</v>
+      </c>
+      <c r="C186" t="str">
+        <v>263.78</v>
+      </c>
+      <c r="D186" t="str">
+        <v>195.39</v>
+      </c>
+      <c r="E186" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>0x13160Af129c94Cc28f1547999dfe8050EC56e7e6</v>
+      </c>
+      <c r="B187" t="str">
+        <v>13,194.18</v>
+      </c>
+      <c r="C187" t="str">
+        <v>13,194.18</v>
+      </c>
+      <c r="D187" t="str">
+        <v>9,773.2</v>
+      </c>
+      <c r="E187" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>0xB36879272EEab16198D46a47F985c9DDd2A827f1</v>
+      </c>
+      <c r="B188" t="str">
+        <v>10,500</v>
+      </c>
+      <c r="C188" t="str">
+        <v>13,527.2</v>
+      </c>
+      <c r="D188" t="str">
+        <v>0</v>
+      </c>
+      <c r="E188" t="str">
+        <v>10,019.88</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>0x0325B1b36Dc59ac07519AC60b5c7A85747274C8A</v>
+      </c>
+      <c r="B189" t="str">
+        <v>741.88</v>
+      </c>
+      <c r="C189" t="str">
+        <v>741.88</v>
+      </c>
+      <c r="D189" t="str">
+        <v>549.53</v>
+      </c>
+      <c r="E189" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>0xb4120A72ad3778E123da74F3C09c1272521C8b7e</v>
+      </c>
+      <c r="B190" t="str">
+        <v>6,743.75</v>
+      </c>
+      <c r="C190" t="str">
+        <v>6,743.75</v>
+      </c>
+      <c r="D190" t="str">
+        <v>4,995.24</v>
+      </c>
+      <c r="E190" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>0x413Af536E3D18D259A9b71B42AC66faC5aBa0Fbf</v>
+      </c>
+      <c r="B191" t="str">
+        <v>662.46</v>
+      </c>
+      <c r="C191" t="str">
+        <v>662.46</v>
+      </c>
+      <c r="D191" t="str">
+        <v>0</v>
+      </c>
+      <c r="E191" t="str">
+        <v>490.7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
+      </c>
+      <c r="B192" t="str">
+        <v>129.6</v>
+      </c>
+      <c r="C192" t="str">
+        <v>129.6</v>
+      </c>
+      <c r="D192" t="str">
+        <v>0</v>
+      </c>
+      <c r="E192" t="str">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>0x9AB469940cDC998d67F116Bd47A0859f74AAA202</v>
+      </c>
+      <c r="B193" t="str">
+        <v>329.57</v>
+      </c>
+      <c r="C193" t="str">
+        <v>329.57</v>
+      </c>
+      <c r="D193" t="str">
+        <v>0</v>
+      </c>
+      <c r="E193" t="str">
+        <v>244.12</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
+      </c>
+      <c r="B194" t="str">
+        <v>1,690.94</v>
+      </c>
+      <c r="C194" t="str">
+        <v>1,690.94</v>
+      </c>
+      <c r="D194" t="str">
+        <v>68.04</v>
+      </c>
+      <c r="E194" t="str">
+        <v>1,184.48</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
+      </c>
+      <c r="B195" t="str">
+        <v>1,766.41</v>
+      </c>
+      <c r="C195" t="str">
+        <v>1,766.41</v>
+      </c>
+      <c r="D195" t="str">
+        <v>1,184.48</v>
+      </c>
+      <c r="E195" t="str">
+        <v>123.94</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
+      </c>
+      <c r="B196" t="str">
+        <v>649.98</v>
+      </c>
+      <c r="C196" t="str">
+        <v>649.98</v>
+      </c>
+      <c r="D196" t="str">
+        <v>481.46</v>
+      </c>
+      <c r="E196" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
+      </c>
+      <c r="B197" t="str">
+        <v>649.98</v>
+      </c>
+      <c r="C197" t="str">
+        <v>649.98</v>
+      </c>
+      <c r="D197" t="str">
+        <v>0</v>
+      </c>
+      <c r="E197" t="str">
+        <v>481.46</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+      </c>
+      <c r="B198" t="str">
+        <v>213.44</v>
+      </c>
+      <c r="C198" t="str">
+        <v>213.44</v>
+      </c>
+      <c r="D198" t="str">
+        <v>55.9</v>
+      </c>
+      <c r="E198" t="str">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>0x3F3Cb523ce45c048c07081925CBd588a6C601b72</v>
+      </c>
+      <c r="B199" t="str">
+        <v>123.25</v>
+      </c>
+      <c r="C199" t="str">
+        <v>123.25</v>
+      </c>
+      <c r="D199" t="str">
+        <v>0</v>
+      </c>
+      <c r="E199" t="str">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>0xdE976b1178696723F86102aaf17Ddd70522908dA</v>
+      </c>
+      <c r="B200" t="str">
+        <v>682.37</v>
+      </c>
+      <c r="C200" t="str">
+        <v>682.37</v>
+      </c>
+      <c r="D200" t="str">
+        <v>505.45</v>
+      </c>
+      <c r="E200" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
+      </c>
+      <c r="B201" t="str">
+        <v>0</v>
+      </c>
+      <c r="C201" t="str">
+        <v>3,888.41</v>
+      </c>
+      <c r="D201" t="str">
+        <v>0</v>
+      </c>
+      <c r="E201" t="str">
+        <v>2,880.23</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>0x1Bf35e8Cd908D953b84B10a88C74DF7612Ecc660</v>
+      </c>
+      <c r="B202" t="str">
+        <v>53.01</v>
+      </c>
+      <c r="C202" t="str">
+        <v>53.01</v>
+      </c>
+      <c r="D202" t="str">
+        <v>39.27</v>
+      </c>
+      <c r="E202" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>0x05Ae4D4E3aca4cBc8dD3535712AA705e05c04D66</v>
+      </c>
+      <c r="B203" t="str">
+        <v>170.75</v>
+      </c>
+      <c r="C203" t="str">
+        <v>170.75</v>
+      </c>
+      <c r="D203" t="str">
+        <v>126.48</v>
+      </c>
+      <c r="E203" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
+      </c>
+      <c r="B204" t="str">
+        <v>114.75</v>
+      </c>
+      <c r="C204" t="str">
+        <v>114.75</v>
+      </c>
+      <c r="D204" t="str">
+        <v>0</v>
+      </c>
+      <c r="E204" t="str">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>0xeB0F9489F9aeFB6Bbd8d7f1cc3620898E30b49c0</v>
+      </c>
+      <c r="B205" t="str">
+        <v>205.65</v>
+      </c>
+      <c r="C205" t="str">
+        <v>205.65</v>
+      </c>
+      <c r="D205" t="str">
+        <v>0</v>
+      </c>
+      <c r="E205" t="str">
+        <v>152.33</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>0xdF8Df47E5109Adc155E436C0712adB78f53A418c</v>
+      </c>
+      <c r="B206" t="str">
+        <v>1,687.54</v>
+      </c>
+      <c r="C206" t="str">
+        <v>1,687.54</v>
+      </c>
+      <c r="D206" t="str">
+        <v>0</v>
+      </c>
+      <c r="E206" t="str">
+        <v>1,250</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>0x4789c9e0634499C2726ecF5a176fa4167D641098</v>
+      </c>
+      <c r="B207" t="str">
+        <v>4,273.05</v>
+      </c>
+      <c r="C207" t="str">
+        <v>4,273.05</v>
+      </c>
+      <c r="D207" t="str">
+        <v>3,165.14</v>
+      </c>
+      <c r="E207" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
+      </c>
+      <c r="B208" t="str">
+        <v>267.79</v>
+      </c>
+      <c r="C208" t="str">
+        <v>267.79</v>
+      </c>
+      <c r="D208" t="str">
+        <v>0</v>
+      </c>
+      <c r="E208" t="str">
+        <v>198.36</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
+      </c>
+      <c r="B209" t="str">
+        <v>8,100.22</v>
+      </c>
+      <c r="C209" t="str">
+        <v>8,100.22</v>
+      </c>
+      <c r="D209" t="str">
+        <v>6,000</v>
+      </c>
+      <c r="E209" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+      </c>
+      <c r="B210" t="str">
+        <v>28.24</v>
+      </c>
+      <c r="C210" t="str">
+        <v>28.24</v>
+      </c>
+      <c r="D210" t="str">
+        <v>0</v>
+      </c>
+      <c r="E210" t="str">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>0xAD5c21611Ea4790991c40BFD8e0888e012D7162E</v>
+      </c>
+      <c r="B211" t="str">
+        <v>153.74</v>
+      </c>
+      <c r="C211" t="str">
+        <v>153.74</v>
+      </c>
+      <c r="D211" t="str">
+        <v>113.88</v>
+      </c>
+      <c r="E211" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>0x2c7771aCC47795D2F05Ed29C8c17e8887e49fda7</v>
+      </c>
+      <c r="B212" t="str">
+        <v>136.93</v>
+      </c>
+      <c r="C212" t="str">
+        <v>136.93</v>
+      </c>
+      <c r="D212" t="str">
+        <v>101.43</v>
+      </c>
+      <c r="E212" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
+      </c>
+      <c r="B213" t="str">
+        <v>111.17</v>
+      </c>
+      <c r="C213" t="str">
+        <v>111.17</v>
+      </c>
+      <c r="D213" t="str">
+        <v>0</v>
+      </c>
+      <c r="E213" t="str">
+        <v>82.35</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>0x387c310a3cC65aa12BC11CAF67a17b4a8693ed5e</v>
+      </c>
+      <c r="B214" t="str">
+        <v>81</v>
+      </c>
+      <c r="C214" t="str">
+        <v>81</v>
+      </c>
+      <c r="D214" t="str">
+        <v>60</v>
+      </c>
+      <c r="E214" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
+      </c>
+      <c r="B215" t="str">
+        <v>30.42</v>
+      </c>
+      <c r="C215" t="str">
+        <v>30.42</v>
+      </c>
+      <c r="D215" t="str">
+        <v>0</v>
+      </c>
+      <c r="E215" t="str">
+        <v>22.54</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>0xC023483Fa22d037EC5f056FC31C8f40751722aD5</v>
+      </c>
+      <c r="B216" t="str">
+        <v>2,025.05</v>
+      </c>
+      <c r="C216" t="str">
+        <v>2,025.05</v>
+      </c>
+      <c r="D216" t="str">
+        <v>0</v>
+      </c>
+      <c r="E216" t="str">
+        <v>1,500</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>0x7aD2809008E5DA0c33A72f9144e7970a996D5B6D</v>
+      </c>
+      <c r="B217" t="str">
+        <v>13.63</v>
+      </c>
+      <c r="C217" t="str">
+        <v>13.63</v>
+      </c>
+      <c r="D217" t="str">
+        <v>0</v>
+      </c>
+      <c r="E217" t="str">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>0x9c6E23aC65D33b747B8c56C04db77d836c41Faf5</v>
+      </c>
+      <c r="B218" t="str">
+        <v>135.19</v>
+      </c>
+      <c r="C218" t="str">
+        <v>135.19</v>
+      </c>
+      <c r="D218" t="str">
+        <v>0</v>
+      </c>
+      <c r="E218" t="str">
+        <v>100.14</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
+      </c>
+      <c r="B219" t="str">
+        <v>1,613.91</v>
+      </c>
+      <c r="C219" t="str">
+        <v>1,613.91</v>
+      </c>
+      <c r="D219" t="str">
+        <v>0</v>
+      </c>
+      <c r="E219" t="str">
+        <v>1,195.46</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
+      </c>
+      <c r="B220" t="str">
+        <v>512.62</v>
+      </c>
+      <c r="C220" t="str">
+        <v>512.62</v>
+      </c>
+      <c r="D220" t="str">
+        <v>0</v>
+      </c>
+      <c r="E220" t="str">
+        <v>379.71</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>0xb8D8066d1EE9D03800B7600d2807b7749B9F6899</v>
+      </c>
+      <c r="B221" t="str">
+        <v>168.75</v>
+      </c>
+      <c r="C221" t="str">
+        <v>168.75</v>
+      </c>
+      <c r="D221" t="str">
+        <v>125</v>
+      </c>
+      <c r="E221" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
+      </c>
+      <c r="B222" t="str">
+        <v>239.59</v>
+      </c>
+      <c r="C222" t="str">
+        <v>239.59</v>
+      </c>
+      <c r="D222" t="str">
+        <v>177.47</v>
+      </c>
+      <c r="E222" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>0xEEe37E83b74Ebf3679962F6199dADF968E74efa5</v>
+      </c>
+      <c r="B223" t="str">
+        <v>239.59</v>
+      </c>
+      <c r="C223" t="str">
+        <v>239.59</v>
+      </c>
+      <c r="D223" t="str">
+        <v>0</v>
+      </c>
+      <c r="E223" t="str">
+        <v>177.47</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>0xe19CE573b43a5C9232e48A267FC2E16b1A9c456e</v>
+      </c>
+      <c r="B224" t="str">
+        <v>6,772.25</v>
+      </c>
+      <c r="C224" t="str">
+        <v>6,772.25</v>
+      </c>
+      <c r="D224" t="str">
+        <v>5,016.35</v>
+      </c>
+      <c r="E224" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>0x4e0F1063F13d020B1316791Ae56ea5a826aba501</v>
+      </c>
+      <c r="B225" t="str">
+        <v>153.44</v>
+      </c>
+      <c r="C225" t="str">
+        <v>153.44</v>
+      </c>
+      <c r="D225" t="str">
+        <v>0</v>
+      </c>
+      <c r="E225" t="str">
+        <v>113.66</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>0x48682644c1e8529338e46e7DdabA4383C1fceBb1</v>
+      </c>
+      <c r="B226" t="str">
+        <v>168.97</v>
+      </c>
+      <c r="C226" t="str">
+        <v>168.97</v>
+      </c>
+      <c r="D226" t="str">
+        <v>0</v>
+      </c>
+      <c r="E226" t="str">
+        <v>125.16</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>0xf1aCBD5dd358c3252ADaa77bDc920cafff2eC0fA</v>
+      </c>
+      <c r="B227" t="str">
+        <v>68.91</v>
+      </c>
+      <c r="C227" t="str">
+        <v>68.91</v>
+      </c>
+      <c r="D227" t="str">
+        <v>0</v>
+      </c>
+      <c r="E227" t="str">
+        <v>51.05</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>0xabf7b5b7CdC68F8C01DE6bFD5EAf79da30D8B66A</v>
+      </c>
+      <c r="B228" t="str">
+        <v>3,438.4</v>
+      </c>
+      <c r="C228" t="str">
+        <v>3,438.4</v>
+      </c>
+      <c r="D228" t="str">
+        <v>0</v>
+      </c>
+      <c r="E228" t="str">
+        <v>2,546.9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>0xfDbb14D0A9a2f85663134F16BF006c08e2918B6a</v>
+      </c>
+      <c r="B229" t="str">
+        <v>161.45</v>
+      </c>
+      <c r="C229" t="str">
+        <v>161.45</v>
+      </c>
+      <c r="D229" t="str">
+        <v>0</v>
+      </c>
+      <c r="E229" t="str">
+        <v>119.59</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>0xFdEC4840b313115EC4DfDD7EfA4FE156C8C61475</v>
+      </c>
+      <c r="B230" t="str">
+        <v>78.36</v>
+      </c>
+      <c r="C230" t="str">
+        <v>78.36</v>
+      </c>
+      <c r="D230" t="str">
+        <v>58.05</v>
+      </c>
+      <c r="E230" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B231" t="str">
+        <v>3,134,013.51</v>
+      </c>
+      <c r="C231" t="str">
+        <v>3,205,127.1</v>
+      </c>
+      <c r="D231" t="str">
+        <v>1,111,299.12</v>
+      </c>
+      <c r="E231" t="str">
+        <v>1,262,804.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E231"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E226"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -17955,84 +21897,84 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
       </c>
       <c r="B2" t="str">
-        <v>877.47</v>
+        <v>3,695.77</v>
       </c>
       <c r="C2" t="str">
-        <v>877.47</v>
+        <v>3,695.77</v>
       </c>
       <c r="D2" t="str">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>553.96</v>
+        <v>3,301.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
+        <v>0x5Fc4faF3934548c57d66f1179C2991cEd028E61F</v>
       </c>
       <c r="B3" t="str">
-        <v>11,970.77</v>
+        <v>839.49</v>
       </c>
       <c r="C3" t="str">
-        <v>11,970.77</v>
+        <v>839.49</v>
       </c>
       <c r="D3" t="str">
-        <v>721.9</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>8,145.1</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+        <v>0xe23bc0609A8Df4EA2A597AEAAFcBF421BFfBDCFd</v>
       </c>
       <c r="B4" t="str">
-        <v>10,452.2</v>
+        <v>1,019.41</v>
       </c>
       <c r="C4" t="str">
-        <v>10,452.2</v>
+        <v>1,019.41</v>
       </c>
       <c r="D4" t="str">
-        <v>1,090.13</v>
+        <v>910.74</v>
       </c>
       <c r="E4" t="str">
-        <v>6,652.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
       </c>
       <c r="B5" t="str">
-        <v>482.53</v>
+        <v>46,884.22</v>
       </c>
       <c r="C5" t="str">
-        <v>482.53</v>
+        <v>46,884.22</v>
       </c>
       <c r="D5" t="str">
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>357.42</v>
+        <v>41,886.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0xe23bc0609A8Df4EA2A597AEAAFcBF421BFfBDCFd</v>
+        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
       </c>
       <c r="B6" t="str">
-        <v>1,034.31</v>
+        <v>7,244.79</v>
       </c>
       <c r="C6" t="str">
-        <v>1,034.31</v>
+        <v>7,244.79</v>
       </c>
       <c r="D6" t="str">
-        <v>766.14</v>
+        <v>6,472.45</v>
       </c>
       <c r="E6" t="str">
         <v>0</v>
@@ -18040,33 +21982,33 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
       </c>
       <c r="B7" t="str">
-        <v>723.48</v>
+        <v>10,411.22</v>
       </c>
       <c r="C7" t="str">
-        <v>723.48</v>
+        <v>10,411.22</v>
       </c>
       <c r="D7" t="str">
-        <v>440.68</v>
+        <v>441.95</v>
       </c>
       <c r="E7" t="str">
-        <v>95.22</v>
+        <v>8,859.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0x620964B76328a1Ec5039361877eA64510A241139</v>
+        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
       </c>
       <c r="B8" t="str">
-        <v>337.5</v>
+        <v>27.8</v>
       </c>
       <c r="C8" t="str">
-        <v>337.5</v>
+        <v>27.8</v>
       </c>
       <c r="D8" t="str">
-        <v>250</v>
+        <v>24.84</v>
       </c>
       <c r="E8" t="str">
         <v>0</v>
@@ -18074,118 +22016,118 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
       </c>
       <c r="B9" t="str">
-        <v>54,666.41</v>
+        <v>2,147.95</v>
       </c>
       <c r="C9" t="str">
-        <v>54,666.41</v>
+        <v>2,147.95</v>
       </c>
       <c r="D9" t="str">
-        <v>17,406.1</v>
+        <v>1,918.97</v>
       </c>
       <c r="E9" t="str">
-        <v>23,086.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0x5Fc4faF3934548c57d66f1179C2991cEd028E61F</v>
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
       </c>
       <c r="B10" t="str">
-        <v>907.48</v>
+        <v>12,913.08</v>
       </c>
       <c r="C10" t="str">
-        <v>907.48</v>
+        <v>12,913.08</v>
       </c>
       <c r="D10" t="str">
-        <v>0</v>
+        <v>5,729.41</v>
       </c>
       <c r="E10" t="str">
-        <v>672.19</v>
+        <v>5,807.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>0x7B82007d91312Bb84E57A79c6df7Fa3928beD152</v>
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
       </c>
       <c r="B11" t="str">
-        <v>3,805.51</v>
+        <v>12,047.79</v>
       </c>
       <c r="C11" t="str">
-        <v>3,805.51</v>
+        <v>12,047.79</v>
       </c>
       <c r="D11" t="str">
-        <v>2,818.82</v>
+        <v>248.49</v>
       </c>
       <c r="E11" t="str">
-        <v>0</v>
+        <v>10,514.92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
+        <v>0x46c17eC4E5fb0529F5559f6990d81f0420Be1E5c</v>
       </c>
       <c r="B12" t="str">
-        <v>675.01</v>
+        <v>3,073.64</v>
       </c>
       <c r="C12" t="str">
-        <v>675.01</v>
+        <v>3,073.64</v>
       </c>
       <c r="D12" t="str">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="E12" t="str">
-        <v>0</v>
+        <v>2,743.97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
       </c>
       <c r="B13" t="str">
-        <v>0</v>
+        <v>13,746.66</v>
       </c>
       <c r="C13" t="str">
-        <v>56.39</v>
+        <v>13,746.66</v>
       </c>
       <c r="D13" t="str">
-        <v>41.77</v>
+        <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>0</v>
+        <v>12,281.17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>0x175780bC4d0A1bc28c46C3E71130C092790E7576</v>
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
       </c>
       <c r="B14" t="str">
-        <v>198.67</v>
+        <v>65,894.99</v>
       </c>
       <c r="C14" t="str">
-        <v>611.62</v>
+        <v>65,894.99</v>
       </c>
       <c r="D14" t="str">
-        <v>453.04</v>
+        <v>14,400.67</v>
       </c>
       <c r="E14" t="str">
-        <v>0</v>
+        <v>44,469.43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
+        <v>0x880cd618B4cA66bBb8862558954d8473d7b0C867</v>
       </c>
       <c r="B15" t="str">
-        <v>6,094.29</v>
+        <v>60.72</v>
       </c>
       <c r="C15" t="str">
-        <v>6,094.29</v>
+        <v>60.72</v>
       </c>
       <c r="D15" t="str">
-        <v>4,514.17</v>
+        <v>54.25</v>
       </c>
       <c r="E15" t="str">
         <v>0</v>
@@ -18193,67 +22135,67 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
       </c>
       <c r="B16" t="str">
-        <v>3,412.06</v>
+        <v>350.11</v>
       </c>
       <c r="C16" t="str">
-        <v>3,412.06</v>
+        <v>350.11</v>
       </c>
       <c r="D16" t="str">
-        <v>22.57</v>
+        <v>312.79</v>
       </c>
       <c r="E16" t="str">
-        <v>2,504.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
       </c>
       <c r="B17" t="str">
-        <v>13,179.91</v>
+        <v>495.06</v>
       </c>
       <c r="C17" t="str">
-        <v>13,179.91</v>
+        <v>495.06</v>
       </c>
       <c r="D17" t="str">
-        <v>1,474.58</v>
+        <v>442.29</v>
       </c>
       <c r="E17" t="str">
-        <v>8,288.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
+        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
       </c>
       <c r="B18" t="str">
-        <v>17,182.86</v>
+        <v>477.41</v>
       </c>
       <c r="C18" t="str">
-        <v>17,182.86</v>
+        <v>477.41</v>
       </c>
       <c r="D18" t="str">
-        <v>10,545.58</v>
+        <v>426.52</v>
       </c>
       <c r="E18" t="str">
-        <v>2,182.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>0xdD40bFeDDd1511322A763a82e31Ef3e401415927</v>
+        <v>0x5536d4a1AA3bB77FD79ba4f8492a1BF8B9772e88</v>
       </c>
       <c r="B19" t="str">
-        <v>38.16</v>
+        <v>736.74</v>
       </c>
       <c r="C19" t="str">
-        <v>38.16</v>
+        <v>736.74</v>
       </c>
       <c r="D19" t="str">
-        <v>28.27</v>
+        <v>658.2</v>
       </c>
       <c r="E19" t="str">
         <v>0</v>
@@ -18261,16 +22203,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>0x942E746C384bec88Dfa6164e8d699858E9988FeB</v>
+        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
       </c>
       <c r="B20" t="str">
-        <v>661.05</v>
+        <v>504.33</v>
       </c>
       <c r="C20" t="str">
-        <v>661.05</v>
+        <v>504.33</v>
       </c>
       <c r="D20" t="str">
-        <v>489.66</v>
+        <v>450.57</v>
       </c>
       <c r="E20" t="str">
         <v>0</v>
@@ -18278,16 +22220,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>0x95E299A16E92649D2Ae7E56Eed03124BcE3F2d65</v>
+        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
       </c>
       <c r="B21" t="str">
-        <v>305.4</v>
+        <v>7,835.3</v>
       </c>
       <c r="C21" t="str">
-        <v>305.4</v>
+        <v>7,835.3</v>
       </c>
       <c r="D21" t="str">
-        <v>226.22</v>
+        <v>7,000</v>
       </c>
       <c r="E21" t="str">
         <v>0</v>
@@ -18295,186 +22237,186 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
+        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
       </c>
       <c r="B22" t="str">
-        <v>1,227.8</v>
+        <v>631.45</v>
       </c>
       <c r="C22" t="str">
-        <v>1,227.8</v>
+        <v>631.45</v>
       </c>
       <c r="D22" t="str">
-        <v>909.46</v>
+        <v>122.19</v>
       </c>
       <c r="E22" t="str">
-        <v>0</v>
+        <v>441.95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
+        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
       </c>
       <c r="B23" t="str">
-        <v>1,345.19</v>
+        <v>124.89</v>
       </c>
       <c r="C23" t="str">
-        <v>1,345.19</v>
+        <v>124.89</v>
       </c>
       <c r="D23" t="str">
-        <v>0</v>
+        <v>111.58</v>
       </c>
       <c r="E23" t="str">
-        <v>996.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>0xf6732447a0Da3D8973897e247cf04f53B87Cfa2e</v>
+        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
       </c>
       <c r="B24" t="str">
-        <v>57.83</v>
+        <v>11,805.56</v>
       </c>
       <c r="C24" t="str">
-        <v>57.83</v>
+        <v>11,805.56</v>
       </c>
       <c r="D24" t="str">
-        <v>42.84</v>
+        <v>2,515.02</v>
       </c>
       <c r="E24" t="str">
-        <v>0</v>
+        <v>8,031.98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
+        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
       </c>
       <c r="B25" t="str">
-        <v>881.41</v>
+        <v>96,884.95</v>
       </c>
       <c r="C25" t="str">
-        <v>881.41</v>
+        <v>220,291.95</v>
       </c>
       <c r="D25" t="str">
-        <v>103.35</v>
+        <v>345.38</v>
       </c>
       <c r="E25" t="str">
-        <v>549.53</v>
+        <v>196,461.82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
       </c>
       <c r="B26" t="str">
-        <v>570.47</v>
+        <v>79,313.03</v>
       </c>
       <c r="C26" t="str">
-        <v>570.47</v>
+        <v>220,291.95</v>
       </c>
       <c r="D26" t="str">
-        <v>280.47</v>
+        <v>196,461.82</v>
       </c>
       <c r="E26" t="str">
-        <v>142.09</v>
+        <v>345.38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
       </c>
       <c r="B27" t="str">
-        <v>402.51</v>
+        <v>16,178.43</v>
       </c>
       <c r="C27" t="str">
-        <v>402.51</v>
+        <v>16,178.43</v>
       </c>
       <c r="D27" t="str">
-        <v>17.68</v>
+        <v>0</v>
       </c>
       <c r="E27" t="str">
-        <v>280.47</v>
+        <v>14,453.69</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
+        <v>0x9A4dbCDE63b55273DC51BeA546A7ba6456f059D0</v>
       </c>
       <c r="B28" t="str">
-        <v>548.91</v>
+        <v>223.86</v>
       </c>
       <c r="C28" t="str">
-        <v>548.91</v>
+        <v>223.86</v>
       </c>
       <c r="D28" t="str">
-        <v>102.9</v>
+        <v>200</v>
       </c>
       <c r="E28" t="str">
-        <v>303.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>0x4B3D17974c2F79fEf5D495F082e9eC7d1FD95a06</v>
+        <v>0x95E299A16E92649D2Ae7E56Eed03124BcE3F2d65</v>
       </c>
       <c r="B29" t="str">
-        <v>548.91</v>
+        <v>460.45</v>
       </c>
       <c r="C29" t="str">
-        <v>548.91</v>
+        <v>460.45</v>
       </c>
       <c r="D29" t="str">
-        <v>303.69</v>
+        <v>411.37</v>
       </c>
       <c r="E29" t="str">
-        <v>102.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
       </c>
       <c r="B30" t="str">
-        <v>939,390.68</v>
+        <v>0</v>
       </c>
       <c r="C30" t="str">
-        <v>939,390.68</v>
+        <v>25.47</v>
       </c>
       <c r="D30" t="str">
-        <v>347,778.99</v>
+        <v>22.76</v>
       </c>
       <c r="E30" t="str">
-        <v>348,046.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>0xd092C607a92c75de3bB1240494C4822Bf3766D46</v>
+        <v>0xF6a52cb99b772d46C736F6F90Be792A1d4159414</v>
       </c>
       <c r="B31" t="str">
-        <v>136.2</v>
+        <v>103.1</v>
       </c>
       <c r="C31" t="str">
-        <v>136.2</v>
+        <v>103.1</v>
       </c>
       <c r="D31" t="str">
-        <v>100.89</v>
+        <v>0</v>
       </c>
       <c r="E31" t="str">
-        <v>0</v>
+        <v>92.11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
+        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
       </c>
       <c r="B32" t="str">
-        <v>82.83</v>
+        <v>1,421.45</v>
       </c>
       <c r="C32" t="str">
-        <v>82.83</v>
+        <v>1,421.45</v>
       </c>
       <c r="D32" t="str">
-        <v>61.36</v>
+        <v>1,269.92</v>
       </c>
       <c r="E32" t="str">
         <v>0</v>
@@ -18482,33 +22424,33 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+        <v>0x7617203fAd8e02b81d866a269500fdF417A0Cb2c</v>
       </c>
       <c r="B33" t="str">
-        <v>39.42</v>
+        <v>243.47</v>
       </c>
       <c r="C33" t="str">
-        <v>39.42</v>
+        <v>243.47</v>
       </c>
       <c r="D33" t="str">
-        <v>29.2</v>
+        <v>0</v>
       </c>
       <c r="E33" t="str">
-        <v>0</v>
+        <v>217.52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
+        <v>0xBc7b31dFbEd762841AC646961C887B49e3f625d5</v>
       </c>
       <c r="B34" t="str">
-        <v>992.27</v>
+        <v>838.23</v>
       </c>
       <c r="C34" t="str">
-        <v>992.27</v>
+        <v>838.23</v>
       </c>
       <c r="D34" t="str">
-        <v>735</v>
+        <v>748.87</v>
       </c>
       <c r="E34" t="str">
         <v>0</v>
@@ -18516,16 +22458,16 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>0xEe5358d1d36262CeFC36478E37A718FA4d7847eB</v>
+        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
       </c>
       <c r="B35" t="str">
-        <v>79.85</v>
+        <v>5,326.46</v>
       </c>
       <c r="C35" t="str">
-        <v>79.85</v>
+        <v>5,326.46</v>
       </c>
       <c r="D35" t="str">
-        <v>59.15</v>
+        <v>4,758.62</v>
       </c>
       <c r="E35" t="str">
         <v>0</v>
@@ -18533,101 +22475,101 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
+        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
       </c>
       <c r="B36" t="str">
-        <v>167.95</v>
+        <v>13.45</v>
       </c>
       <c r="C36" t="str">
-        <v>167.95</v>
+        <v>13.45</v>
       </c>
       <c r="D36" t="str">
-        <v>124.41</v>
+        <v>0</v>
       </c>
       <c r="E36" t="str">
-        <v>0</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>0xf74f5cF53A6746b1eddD9C7ea8Ab7447797c3D74</v>
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
       </c>
       <c r="B37" t="str">
-        <v>1,537.86</v>
+        <v>3,682.65</v>
       </c>
       <c r="C37" t="str">
-        <v>1,537.86</v>
+        <v>3,682.65</v>
       </c>
       <c r="D37" t="str">
-        <v>0</v>
+        <v>302.37</v>
       </c>
       <c r="E37" t="str">
-        <v>1,139.13</v>
+        <v>2,987.69</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
+        <v>0xEe5358d1d36262CeFC36478E37A718FA4d7847eB</v>
       </c>
       <c r="B38" t="str">
-        <v>66.24</v>
+        <v>77.25</v>
       </c>
       <c r="C38" t="str">
-        <v>66.24</v>
+        <v>77.25</v>
       </c>
       <c r="D38" t="str">
-        <v>49.07</v>
+        <v>21.85</v>
       </c>
       <c r="E38" t="str">
-        <v>0</v>
+        <v>47.17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
       </c>
       <c r="B39" t="str">
-        <v>5,240.61</v>
+        <v>778,724.99</v>
       </c>
       <c r="C39" t="str">
-        <v>5,240.61</v>
+        <v>778,724.99</v>
       </c>
       <c r="D39" t="str">
-        <v>0</v>
+        <v>347,844.7</v>
       </c>
       <c r="E39" t="str">
-        <v>3,881.83</v>
+        <v>347,862.43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
       </c>
       <c r="B40" t="str">
-        <v>3,385.13</v>
+        <v>156,352.73</v>
       </c>
       <c r="C40" t="str">
-        <v>3,385.13</v>
+        <v>156,352.73</v>
       </c>
       <c r="D40" t="str">
-        <v>2,507.44</v>
+        <v>0</v>
       </c>
       <c r="E40" t="str">
-        <v>0</v>
+        <v>139,684.37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
+        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
       </c>
       <c r="B41" t="str">
-        <v>114.75</v>
+        <v>4,070.14</v>
       </c>
       <c r="C41" t="str">
-        <v>114.75</v>
+        <v>4,070.14</v>
       </c>
       <c r="D41" t="str">
-        <v>85</v>
+        <v>3,636.24</v>
       </c>
       <c r="E41" t="str">
         <v>0</v>
@@ -18635,16 +22577,16 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
+        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
       </c>
       <c r="B42" t="str">
-        <v>205.65</v>
+        <v>1,890.9</v>
       </c>
       <c r="C42" t="str">
-        <v>205.65</v>
+        <v>1,890.9</v>
       </c>
       <c r="D42" t="str">
-        <v>152.33</v>
+        <v>1,689.32</v>
       </c>
       <c r="E42" t="str">
         <v>0</v>
@@ -18652,16 +22594,16 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
+        <v>0x24EC4345706a30747bA16dCA3e9751B73b72C78a</v>
       </c>
       <c r="B43" t="str">
-        <v>7,716.97</v>
+        <v>512.12</v>
       </c>
       <c r="C43" t="str">
-        <v>7,716.97</v>
+        <v>512.12</v>
       </c>
       <c r="D43" t="str">
-        <v>5,716.12</v>
+        <v>457.53</v>
       </c>
       <c r="E43" t="str">
         <v>0</v>
@@ -18669,33 +22611,33 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
       </c>
       <c r="B44" t="str">
-        <v>4,273.05</v>
+        <v>78.59</v>
       </c>
       <c r="C44" t="str">
-        <v>4,273.05</v>
+        <v>78.59</v>
       </c>
       <c r="D44" t="str">
         <v>0</v>
       </c>
       <c r="E44" t="str">
-        <v>3,165.14</v>
+        <v>70.22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
       </c>
       <c r="B45" t="str">
-        <v>137.97</v>
+        <v>74.8</v>
       </c>
       <c r="C45" t="str">
-        <v>137.97</v>
+        <v>74.8</v>
       </c>
       <c r="D45" t="str">
-        <v>102.2</v>
+        <v>66.83</v>
       </c>
       <c r="E45" t="str">
         <v>0</v>
@@ -18703,67 +22645,67 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>0xa755B0E03b0C0411c64749C64F063a6600a24D8c</v>
+        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
       </c>
       <c r="B46" t="str">
-        <v>931.57</v>
+        <v>139.93</v>
       </c>
       <c r="C46" t="str">
-        <v>931.57</v>
+        <v>139.93</v>
       </c>
       <c r="D46" t="str">
-        <v>690.04</v>
+        <v>5.26</v>
       </c>
       <c r="E46" t="str">
-        <v>0</v>
+        <v>119.76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
       </c>
       <c r="B47" t="str">
-        <v>512.62</v>
+        <v>452.42</v>
       </c>
       <c r="C47" t="str">
-        <v>512.62</v>
+        <v>452.42</v>
       </c>
       <c r="D47" t="str">
-        <v>379.71</v>
+        <v>0</v>
       </c>
       <c r="E47" t="str">
-        <v>0</v>
+        <v>404.19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>0xfF228D6Bc48699D8ced802eDB384242D4a22febc</v>
+        <v>0x3d5F0A62033206273527Ef33569213E904eC4DdF</v>
       </c>
       <c r="B48" t="str">
-        <v>3,438.4</v>
+        <v>86.92</v>
       </c>
       <c r="C48" t="str">
-        <v>3,438.4</v>
+        <v>86.92</v>
       </c>
       <c r="D48" t="str">
-        <v>2,546.9</v>
+        <v>12.5</v>
       </c>
       <c r="E48" t="str">
-        <v>0</v>
+        <v>65.16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>0x893b99952A101ea504E2DA3d44164858b11a58a1</v>
+        <v>0xD1FFD361cAb618DD952bB36067FC4a41e40729FB</v>
       </c>
       <c r="B49" t="str">
-        <v>161.45</v>
+        <v>2,250</v>
       </c>
       <c r="C49" t="str">
-        <v>161.45</v>
+        <v>3,902.85</v>
       </c>
       <c r="D49" t="str">
-        <v>119.59</v>
+        <v>3,486.78</v>
       </c>
       <c r="E49" t="str">
         <v>0</v>
@@ -18771,50 +22713,50 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
       </c>
       <c r="B50" t="str">
-        <v>3,996.85</v>
+        <v>14,648.99</v>
       </c>
       <c r="C50" t="str">
-        <v>3,996.85</v>
+        <v>14,648.99</v>
       </c>
       <c r="D50" t="str">
-        <v>2,880.23</v>
+        <v>13,087.3</v>
       </c>
       <c r="E50" t="str">
-        <v>80.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+        <v>0x77Fb1AeEEC6e3F3Cfe3a1f3aB87E7cB74872Db5D</v>
       </c>
       <c r="B51" t="str">
-        <v>18,753.37</v>
+        <v>6,098.51</v>
       </c>
       <c r="C51" t="str">
-        <v>18,753.37</v>
+        <v>6,098.51</v>
       </c>
       <c r="D51" t="str">
-        <v>8,145.1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="str">
-        <v>5,745.91</v>
+        <v>5,448.37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>0xfFbea98964b8683427F5c3CFFbddcDA07E40caD4</v>
+        <v>0x9331C5f74A13ee04abDA206dceec4c82c9f6e19E</v>
       </c>
       <c r="B52" t="str">
-        <v>8.82</v>
+        <v>3,582.16</v>
       </c>
       <c r="C52" t="str">
-        <v>8.82</v>
+        <v>3,582.16</v>
       </c>
       <c r="D52" t="str">
-        <v>6.54</v>
+        <v>3,200.28</v>
       </c>
       <c r="E52" t="str">
         <v>0</v>
@@ -18822,84 +22764,84 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>0x54bE4074E027546F3De714a350782b380ab2B513</v>
+        <v>0x7DDA419096b8c81d4A5E6cc65ea0D380D0A1b6E4</v>
       </c>
       <c r="B53" t="str">
-        <v>8.82</v>
+        <v>2,262.92</v>
       </c>
       <c r="C53" t="str">
-        <v>8.82</v>
+        <v>2,262.92</v>
       </c>
       <c r="D53" t="str">
-        <v>0</v>
+        <v>2,021.68</v>
       </c>
       <c r="E53" t="str">
-        <v>6.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
+        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
       </c>
       <c r="B54" t="str">
-        <v>115.5</v>
+        <v>117.52</v>
       </c>
       <c r="C54" t="str">
-        <v>115.5</v>
+        <v>117.52</v>
       </c>
       <c r="D54" t="str">
-        <v>85.56</v>
+        <v>0</v>
       </c>
       <c r="E54" t="str">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
+        <v>0x79aEE20f3285556556f78fE4d56c121B981cE910</v>
       </c>
       <c r="B55" t="str">
-        <v>379.29</v>
+        <v>254.26</v>
       </c>
       <c r="C55" t="str">
-        <v>379.29</v>
+        <v>254.26</v>
       </c>
       <c r="D55" t="str">
-        <v>0</v>
+        <v>227.16</v>
       </c>
       <c r="E55" t="str">
-        <v>280.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>0xbE68d65f491CaCc7f4eaa49b813A92DfFa001DBc</v>
+        <v>0x8Bd36e5768cc249C5Bd016DFC10f6EFC3D4EC4FA</v>
       </c>
       <c r="B56" t="str">
-        <v>3,503.69</v>
+        <v>30.35</v>
       </c>
       <c r="C56" t="str">
-        <v>3,503.69</v>
+        <v>30.35</v>
       </c>
       <c r="D56" t="str">
-        <v>0</v>
+        <v>27.12</v>
       </c>
       <c r="E56" t="str">
-        <v>2,595.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
+        <v>0x8BFF5eB745527844b0abfd7D9730cDE82948cFf0</v>
       </c>
       <c r="B57" t="str">
-        <v>272.69</v>
+        <v>1,348.39</v>
       </c>
       <c r="C57" t="str">
-        <v>272.69</v>
+        <v>1,348.39</v>
       </c>
       <c r="D57" t="str">
-        <v>201.99</v>
+        <v>1,204.65</v>
       </c>
       <c r="E57" t="str">
         <v>0</v>
@@ -18907,16 +22849,16 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>0xeb9Ea287a5BD59731C6fbDEfd9e81dAa4Dc7eB11</v>
+        <v>0x165F4f9805770Eb044Cd2A5a3f1b3E07Ba8B15e9</v>
       </c>
       <c r="B58" t="str">
-        <v>270</v>
+        <v>117.97</v>
       </c>
       <c r="C58" t="str">
-        <v>270</v>
+        <v>117.97</v>
       </c>
       <c r="D58" t="str">
-        <v>200</v>
+        <v>105.4</v>
       </c>
       <c r="E58" t="str">
         <v>0</v>
@@ -18924,798 +22866,798 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+        <v>0x97FD7d404b26A9b59d6F5bAc4Ff34349641bA6c5</v>
       </c>
       <c r="B59" t="str">
-        <v>9,395.97</v>
+        <v>937</v>
       </c>
       <c r="C59" t="str">
-        <v>9,395.97</v>
+        <v>937</v>
       </c>
       <c r="D59" t="str">
-        <v>9.79</v>
+        <v>837.11</v>
       </c>
       <c r="E59" t="str">
-        <v>6,950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+        <v>0x357cDa2237d31e618ba3A39dD4691429E7cDD107</v>
       </c>
       <c r="B60" t="str">
-        <v>2,277.57</v>
+        <v>685.96</v>
       </c>
       <c r="C60" t="str">
-        <v>2,277.57</v>
+        <v>685.96</v>
       </c>
       <c r="D60" t="str">
-        <v>920.91</v>
+        <v>612.84</v>
       </c>
       <c r="E60" t="str">
-        <v>766.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
       </c>
       <c r="B61" t="str">
-        <v>31,860.28</v>
+        <v>111.93</v>
       </c>
       <c r="C61" t="str">
-        <v>34,516.77</v>
+        <v>111.93</v>
       </c>
       <c r="D61" t="str">
-        <v>25,567.28</v>
+        <v>0</v>
       </c>
       <c r="E61" t="str">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+        <v>0x54241C1A4d287D49c5f815467708db4247DFA763</v>
       </c>
       <c r="B62" t="str">
-        <v>0</v>
+        <v>37.22</v>
       </c>
       <c r="C62" t="str">
-        <v>34,516.77</v>
+        <v>37.22</v>
       </c>
       <c r="D62" t="str">
-        <v>0</v>
+        <v>33.26</v>
       </c>
       <c r="E62" t="str">
-        <v>25,567.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
       </c>
       <c r="B63" t="str">
-        <v>350.9</v>
+        <v>37.22</v>
       </c>
       <c r="C63" t="str">
-        <v>350.9</v>
+        <v>37.22</v>
       </c>
       <c r="D63" t="str">
         <v>0</v>
       </c>
       <c r="E63" t="str">
-        <v>259.92</v>
+        <v>33.26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>0x9A4dbCDE63b55273DC51BeA546A7ba6456f059D0</v>
+        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
       </c>
       <c r="B64" t="str">
-        <v>2,348.82</v>
+        <v>407.25</v>
       </c>
       <c r="C64" t="str">
-        <v>2,348.82</v>
+        <v>407.25</v>
       </c>
       <c r="D64" t="str">
-        <v>0</v>
+        <v>363.84</v>
       </c>
       <c r="E64" t="str">
-        <v>1,739.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>0x425F2F1287045bC9d04C0f933E7FdEdA4A2e5765</v>
+        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
       </c>
       <c r="B65" t="str">
-        <v>6,722.5</v>
+        <v>422.61</v>
       </c>
       <c r="C65" t="str">
-        <v>6,722.5</v>
+        <v>422.61</v>
       </c>
       <c r="D65" t="str">
-        <v>0</v>
+        <v>377.56</v>
       </c>
       <c r="E65" t="str">
-        <v>4,979.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+        <v>0xf74f5cF53A6746b1eddD9C7ea8Ab7447797c3D74</v>
       </c>
       <c r="B66" t="str">
-        <v>52,443.79</v>
+        <v>24,586.26</v>
       </c>
       <c r="C66" t="str">
-        <v>52,443.79</v>
+        <v>24,586.26</v>
       </c>
       <c r="D66" t="str">
-        <v>12,296.1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="str">
-        <v>26,550.09</v>
+        <v>21,965.19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
       </c>
       <c r="B67" t="str">
-        <v>51,841.4</v>
+        <v>38,504.61</v>
       </c>
       <c r="C67" t="str">
-        <v>51,841.4</v>
+        <v>38,504.61</v>
       </c>
       <c r="D67" t="str">
-        <v>26,103.89</v>
+        <v>11,178.52</v>
       </c>
       <c r="E67" t="str">
-        <v>12,296.1</v>
+        <v>23,221.22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>0xCf54bb8C360FB4Ec47AE0c31Bc8864B163651277</v>
+        <v>0x2848A658c1097a8639d2fb62a977b23903200b53</v>
       </c>
       <c r="B68" t="str">
-        <v>0</v>
+        <v>234.17</v>
       </c>
       <c r="C68" t="str">
-        <v>697.29</v>
+        <v>234.17</v>
       </c>
       <c r="D68" t="str">
-        <v>516.5</v>
+        <v>0</v>
       </c>
       <c r="E68" t="str">
-        <v>0</v>
+        <v>209.21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
       </c>
       <c r="B69" t="str">
-        <v>642.9</v>
+        <v>2,077.22</v>
       </c>
       <c r="C69" t="str">
-        <v>642.9</v>
+        <v>2,077.22</v>
       </c>
       <c r="D69" t="str">
-        <v>476.21</v>
+        <v>0</v>
       </c>
       <c r="E69" t="str">
-        <v>0</v>
+        <v>1,855.78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+        <v>0xb8D8066d1EE9D03800B7600d2807b7749B9F6899</v>
       </c>
       <c r="B70" t="str">
-        <v>24,538.23</v>
+        <v>839.49</v>
       </c>
       <c r="C70" t="str">
-        <v>24,538.23</v>
+        <v>839.49</v>
       </c>
       <c r="D70" t="str">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E70" t="str">
-        <v>18,175.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
       </c>
       <c r="B71" t="str">
-        <v>2,083.83</v>
+        <v>4,344.66</v>
       </c>
       <c r="C71" t="str">
-        <v>2,083.83</v>
+        <v>4,344.66</v>
       </c>
       <c r="D71" t="str">
-        <v>0</v>
+        <v>2,970.75</v>
       </c>
       <c r="E71" t="str">
-        <v>1,543.54</v>
+        <v>910.74</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
+        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
       </c>
       <c r="B72" t="str">
-        <v>3,454.78</v>
+        <v>1,221.13</v>
       </c>
       <c r="C72" t="str">
-        <v>3,454.78</v>
+        <v>1,221.13</v>
       </c>
       <c r="D72" t="str">
-        <v>0</v>
+        <v>994.06</v>
       </c>
       <c r="E72" t="str">
-        <v>2,559.03</v>
+        <v>96.89</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
       </c>
       <c r="B73" t="str">
-        <v>808.87</v>
+        <v>1,112.67</v>
       </c>
       <c r="C73" t="str">
-        <v>808.87</v>
+        <v>1,112.67</v>
       </c>
       <c r="D73" t="str">
-        <v>95.22</v>
+        <v>0</v>
       </c>
       <c r="E73" t="str">
-        <v>503.93</v>
+        <v>994.06</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
       </c>
       <c r="B74" t="str">
-        <v>40,752.56</v>
+        <v>5,009.85</v>
       </c>
       <c r="C74" t="str">
-        <v>40,752.56</v>
+        <v>5,009.85</v>
       </c>
       <c r="D74" t="str">
-        <v>0</v>
+        <v>536.28</v>
       </c>
       <c r="E74" t="str">
-        <v>30,186.26</v>
+        <v>3,939.49</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
+        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
       </c>
       <c r="B75" t="str">
-        <v>38,285.11</v>
+        <v>1,339.39</v>
       </c>
       <c r="C75" t="str">
-        <v>38,285.11</v>
+        <v>1,339.39</v>
       </c>
       <c r="D75" t="str">
-        <v>0</v>
+        <v>1,196.61</v>
       </c>
       <c r="E75" t="str">
-        <v>28,358.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
       </c>
       <c r="B76" t="str">
-        <v>7,003.85</v>
+        <v>336.91</v>
       </c>
       <c r="C76" t="str">
-        <v>7,003.85</v>
+        <v>336.91</v>
       </c>
       <c r="D76" t="str">
-        <v>4,498.51</v>
+        <v>301</v>
       </c>
       <c r="E76" t="str">
-        <v>689.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
       </c>
       <c r="B77" t="str">
-        <v>0</v>
+        <v>470.06</v>
       </c>
       <c r="C77" t="str">
-        <v>11,619.33</v>
+        <v>470.06</v>
       </c>
       <c r="D77" t="str">
         <v>0</v>
       </c>
       <c r="E77" t="str">
-        <v>8,606.68</v>
+        <v>419.95</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
       </c>
       <c r="B78" t="str">
-        <v>990.81</v>
+        <v>71,247.77</v>
       </c>
       <c r="C78" t="str">
-        <v>990.81</v>
+        <v>71,247.77</v>
       </c>
       <c r="D78" t="str">
-        <v>733.92</v>
+        <v>33,021.88</v>
       </c>
       <c r="E78" t="str">
-        <v>0</v>
+        <v>30,630.35</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>0xB318309e50C1f09825f903B5773c45b0d2930f28</v>
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
       </c>
       <c r="B79" t="str">
-        <v>329.44</v>
+        <v>71,742.83</v>
       </c>
       <c r="C79" t="str">
-        <v>329.44</v>
+        <v>71,742.83</v>
       </c>
       <c r="D79" t="str">
-        <v>244.03</v>
+        <v>30,630.35</v>
       </c>
       <c r="E79" t="str">
-        <v>0</v>
+        <v>33,464.17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
       </c>
       <c r="B80" t="str">
-        <v>82,469.32</v>
+        <v>7,330.43</v>
       </c>
       <c r="C80" t="str">
-        <v>82,469.32</v>
+        <v>7,330.43</v>
       </c>
       <c r="D80" t="str">
-        <v>0</v>
+        <v>6,548.96</v>
       </c>
       <c r="E80" t="str">
-        <v>61,086.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>0x889f1F09b491711013cA6787E29e07a04FDf42a4</v>
+        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
       </c>
       <c r="B81" t="str">
-        <v>675.01</v>
+        <v>4,645.21</v>
       </c>
       <c r="C81" t="str">
-        <v>675.01</v>
+        <v>4,645.21</v>
       </c>
       <c r="D81" t="str">
         <v>0</v>
       </c>
       <c r="E81" t="str">
-        <v>500</v>
+        <v>4,150</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>0x880cd618B4cA66bBb8862558954d8473d7b0C867</v>
+        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
       </c>
       <c r="B82" t="str">
-        <v>333.87</v>
+        <v>27.8</v>
       </c>
       <c r="C82" t="str">
-        <v>333.87</v>
+        <v>27.8</v>
       </c>
       <c r="D82" t="str">
-        <v>247.31</v>
+        <v>0</v>
       </c>
       <c r="E82" t="str">
-        <v>0</v>
+        <v>24.84</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>0x358e444fFb60A1Cc82A6E412C6720f110dc1E921</v>
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
       </c>
       <c r="B83" t="str">
-        <v>0</v>
+        <v>7,794.56</v>
       </c>
       <c r="C83" t="str">
-        <v>10,564.75</v>
+        <v>7,794.56</v>
       </c>
       <c r="D83" t="str">
-        <v>0</v>
+        <v>6,963.61</v>
       </c>
       <c r="E83" t="str">
-        <v>7,825.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
       </c>
       <c r="B84" t="str">
-        <v>4,177.16</v>
+        <v>278.14</v>
       </c>
       <c r="C84" t="str">
-        <v>4,177.16</v>
+        <v>278.14</v>
       </c>
       <c r="D84" t="str">
         <v>0</v>
       </c>
       <c r="E84" t="str">
-        <v>3,094.11</v>
+        <v>248.49</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>0x3E3309ab5312f6875b6e9bE672b9A43EFb70D760</v>
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
       </c>
       <c r="B85" t="str">
-        <v>857.27</v>
+        <v>1,626.45</v>
       </c>
       <c r="C85" t="str">
-        <v>857.27</v>
+        <v>1,626.45</v>
       </c>
       <c r="D85" t="str">
         <v>0</v>
       </c>
       <c r="E85" t="str">
-        <v>635</v>
+        <v>1,453.06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
       </c>
       <c r="B86" t="str">
-        <v>2,211.57</v>
+        <v>576.45</v>
       </c>
       <c r="C86" t="str">
-        <v>2,211.57</v>
+        <v>576.45</v>
       </c>
       <c r="D86" t="str">
         <v>0</v>
       </c>
       <c r="E86" t="str">
-        <v>1,638.16</v>
+        <v>515</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+        <v>0x2abf42F330c60491E8A36B73c9F3F9Ed40CDa546</v>
       </c>
       <c r="B87" t="str">
-        <v>79,886.85</v>
+        <v>17,244.9</v>
       </c>
       <c r="C87" t="str">
-        <v>79,886.85</v>
+        <v>17,244.9</v>
       </c>
       <c r="D87" t="str">
-        <v>57,269.63</v>
+        <v>608.22</v>
       </c>
       <c r="E87" t="str">
-        <v>1,904.2</v>
+        <v>14,798.25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
+        <v>0x36413818a988749f40de4877B51f782126282a89</v>
       </c>
       <c r="B88" t="str">
-        <v>481.49</v>
+        <v>1,087.37</v>
       </c>
       <c r="C88" t="str">
-        <v>481.49</v>
+        <v>1,087.37</v>
       </c>
       <c r="D88" t="str">
-        <v>0</v>
+        <v>971.45</v>
       </c>
       <c r="E88" t="str">
-        <v>356.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
+        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
       </c>
       <c r="B89" t="str">
-        <v>1,933.45</v>
+        <v>1,362.06</v>
       </c>
       <c r="C89" t="str">
-        <v>1,933.45</v>
+        <v>1,362.06</v>
       </c>
       <c r="D89" t="str">
-        <v>1,432.15</v>
+        <v>0</v>
       </c>
       <c r="E89" t="str">
-        <v>0</v>
+        <v>1,216.86</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
+        <v>0x48A7209DD07Bc7409bF3f61820E1Ee9409F462e9</v>
       </c>
       <c r="B90" t="str">
-        <v>1,933.45</v>
+        <v>352.58</v>
       </c>
       <c r="C90" t="str">
-        <v>1,933.45</v>
+        <v>352.58</v>
       </c>
       <c r="D90" t="str">
         <v>0</v>
       </c>
       <c r="E90" t="str">
-        <v>1,432.15</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
       </c>
       <c r="B91" t="str">
-        <v>225.18</v>
+        <v>11,769.65</v>
       </c>
       <c r="C91" t="str">
-        <v>225.18</v>
+        <v>11,769.65</v>
       </c>
       <c r="D91" t="str">
-        <v>0</v>
+        <v>10,514.92</v>
       </c>
       <c r="E91" t="str">
-        <v>166.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
       </c>
       <c r="B92" t="str">
-        <v>26,513.47</v>
+        <v>247.13</v>
       </c>
       <c r="C92" t="str">
-        <v>26,513.47</v>
+        <v>247.13</v>
       </c>
       <c r="D92" t="str">
-        <v>19,639.07</v>
+        <v>167.99</v>
       </c>
       <c r="E92" t="str">
-        <v>0</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
       </c>
       <c r="B93" t="str">
-        <v>602.38</v>
+        <v>1,097.17</v>
       </c>
       <c r="C93" t="str">
-        <v>602.38</v>
+        <v>1,097.17</v>
       </c>
       <c r="D93" t="str">
-        <v>446.2</v>
+        <v>419.33</v>
       </c>
       <c r="E93" t="str">
-        <v>0</v>
+        <v>560.88</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>0xB19c1b3cEc4c5bD6DCA220A4f59de9EC681e9211</v>
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
       </c>
       <c r="B94" t="str">
         <v>0</v>
       </c>
       <c r="C94" t="str">
-        <v>612.97</v>
+        <v>35,083.86</v>
       </c>
       <c r="D94" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="str">
-        <v>453.04</v>
+        <v>31,343.66</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
+        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
       </c>
       <c r="B95" t="str">
-        <v>810.06</v>
+        <v>279.83</v>
       </c>
       <c r="C95" t="str">
-        <v>810.06</v>
+        <v>279.83</v>
       </c>
       <c r="D95" t="str">
-        <v>600.03</v>
+        <v>0</v>
       </c>
       <c r="E95" t="str">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+        <v>0xc01bdF2F593bbbFe1e15540c818c57f919466D7B</v>
       </c>
       <c r="B96" t="str">
-        <v>25,202.98</v>
+        <v>4,362.93</v>
       </c>
       <c r="C96" t="str">
-        <v>25,202.98</v>
+        <v>4,362.93</v>
       </c>
       <c r="D96" t="str">
-        <v>0</v>
+        <v>1,917.14</v>
       </c>
       <c r="E96" t="str">
-        <v>18,668.37</v>
+        <v>1,980.67</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
       </c>
       <c r="B97" t="str">
-        <v>6,094.29</v>
+        <v>93.94</v>
       </c>
       <c r="C97" t="str">
-        <v>6,094.29</v>
+        <v>93.94</v>
       </c>
       <c r="D97" t="str">
-        <v>0</v>
+        <v>83.93</v>
       </c>
       <c r="E97" t="str">
-        <v>4,514.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
       </c>
       <c r="B98" t="str">
-        <v>12,070.28</v>
+        <v>572.97</v>
       </c>
       <c r="C98" t="str">
-        <v>12,070.28</v>
+        <v>572.97</v>
       </c>
       <c r="D98" t="str">
-        <v>0</v>
+        <v>511.89</v>
       </c>
       <c r="E98" t="str">
-        <v>8,940.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
+        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
       </c>
       <c r="B99" t="str">
-        <v>681.52</v>
+        <v>5,146.77</v>
       </c>
       <c r="C99" t="str">
-        <v>681.52</v>
+        <v>5,146.77</v>
       </c>
       <c r="D99" t="str">
-        <v>504.82</v>
+        <v>0</v>
       </c>
       <c r="E99" t="str">
-        <v>0</v>
+        <v>4,598.09</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>0xC11519b13b1F70d0Ac7742BC60EFBa16c54b29f8</v>
+        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
       </c>
       <c r="B100" t="str">
-        <v>144.92</v>
+        <v>350.11</v>
       </c>
       <c r="C100" t="str">
-        <v>144.92</v>
+        <v>350.11</v>
       </c>
       <c r="D100" t="str">
         <v>0</v>
       </c>
       <c r="E100" t="str">
-        <v>107.35</v>
+        <v>312.79</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
       </c>
       <c r="B101" t="str">
-        <v>3,926.01</v>
+        <v>243.45</v>
       </c>
       <c r="C101" t="str">
-        <v>3,926.01</v>
+        <v>243.45</v>
       </c>
       <c r="D101" t="str">
-        <v>0</v>
+        <v>217.5</v>
       </c>
       <c r="E101" t="str">
-        <v>2,908.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>0x7e729b21005cF2FDda685bA7Bef04c6Dc3DcD444</v>
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
       </c>
       <c r="B102" t="str">
-        <v>5.44</v>
+        <v>23,338.74</v>
       </c>
       <c r="C102" t="str">
-        <v>5.44</v>
+        <v>23,338.74</v>
       </c>
       <c r="D102" t="str">
-        <v>4.03</v>
+        <v>20,101.79</v>
       </c>
       <c r="E102" t="str">
-        <v>0</v>
+        <v>748.87</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>0xf78D0cdFB459eD9CC19eEb7c22B5F193d7662fcC</v>
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
       </c>
       <c r="B103" t="str">
-        <v>3,379.39</v>
+        <v>8,509.13</v>
       </c>
       <c r="C103" t="str">
-        <v>3,379.39</v>
+        <v>8,509.13</v>
       </c>
       <c r="D103" t="str">
-        <v>2,503.19</v>
+        <v>0</v>
       </c>
       <c r="E103" t="str">
-        <v>0</v>
+        <v>7,602</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>0x2A1Cc6c77782EA6BE6C08d61430A79E31Ea4efDf</v>
+        <v>0x9c6E23aC65D33b747B8c56C04db77d836c41Faf5</v>
       </c>
       <c r="B104" t="str">
-        <v>313.46</v>
+        <v>597.4</v>
       </c>
       <c r="C104" t="str">
-        <v>313.46</v>
+        <v>597.4</v>
       </c>
       <c r="D104" t="str">
         <v>0</v>
       </c>
       <c r="E104" t="str">
-        <v>232.19</v>
+        <v>533.72</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>0xb05822516a701573678447E6966F7eD3bdDf78C5</v>
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
       </c>
       <c r="B105" t="str">
-        <v>170.99</v>
+        <v>4,152.09</v>
       </c>
       <c r="C105" t="str">
-        <v>170.99</v>
+        <v>4,152.09</v>
       </c>
       <c r="D105" t="str">
-        <v>126.66</v>
+        <v>3,709.45</v>
       </c>
       <c r="E105" t="str">
         <v>0</v>
@@ -19723,67 +23665,67 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>0x2844bE58E6d43728a6E81c5C7886B938be8f5378</v>
+        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
       </c>
       <c r="B106" t="str">
-        <v>61.11</v>
+        <v>504.33</v>
       </c>
       <c r="C106" t="str">
-        <v>61.11</v>
+        <v>504.33</v>
       </c>
       <c r="D106" t="str">
         <v>0</v>
       </c>
       <c r="E106" t="str">
-        <v>45.27</v>
+        <v>450.57</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
+        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
       </c>
       <c r="B107" t="str">
-        <v>306.55</v>
+        <v>593.84</v>
       </c>
       <c r="C107" t="str">
-        <v>306.55</v>
+        <v>593.84</v>
       </c>
       <c r="D107" t="str">
-        <v>0</v>
+        <v>530.54</v>
       </c>
       <c r="E107" t="str">
-        <v>227.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>0x16CaEA275D4F7cF454537b121915D92Bc5CB8C16</v>
+        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
       </c>
       <c r="B108" t="str">
-        <v>2,263.56</v>
+        <v>593.84</v>
       </c>
       <c r="C108" t="str">
-        <v>2,263.56</v>
+        <v>593.84</v>
       </c>
       <c r="D108" t="str">
-        <v>1,676.67</v>
+        <v>0</v>
       </c>
       <c r="E108" t="str">
-        <v>0</v>
+        <v>530.54</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
+        <v>0xA271d7ad0ce0b28cdc464dfD5F3A66B4d55B5Acc</v>
       </c>
       <c r="B109" t="str">
-        <v>67.54</v>
+        <v>390.27</v>
       </c>
       <c r="C109" t="str">
-        <v>67.54</v>
+        <v>390.27</v>
       </c>
       <c r="D109" t="str">
-        <v>50.03</v>
+        <v>348.67</v>
       </c>
       <c r="E109" t="str">
         <v>0</v>
@@ -19791,33 +23733,33 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>0xfA9FBD6360692a1b23b84A9dDFf63ed77faF58c9</v>
+        <v>0xE3c3CD768EF78506A37144Ce83b1f34af56A89D5</v>
       </c>
       <c r="B110" t="str">
-        <v>139.41</v>
+        <v>390.27</v>
       </c>
       <c r="C110" t="str">
-        <v>139.41</v>
+        <v>390.27</v>
       </c>
       <c r="D110" t="str">
         <v>0</v>
       </c>
       <c r="E110" t="str">
-        <v>103.27</v>
+        <v>348.67</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>0x46c17eC4E5fb0529F5559f6990d81f0420Be1E5c</v>
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
       </c>
       <c r="B111" t="str">
-        <v>23,635.88</v>
+        <v>348.54</v>
       </c>
       <c r="C111" t="str">
-        <v>23,635.88</v>
+        <v>348.54</v>
       </c>
       <c r="D111" t="str">
-        <v>17,507.58</v>
+        <v>311.39</v>
       </c>
       <c r="E111" t="str">
         <v>0</v>
@@ -19825,33 +23767,33 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>0xf0eeE0837e8F4feaC444412991f7005B8dFFa305</v>
+        <v>0xB19c1b3cEc4c5bD6DCA220A4f59de9EC681e9211</v>
       </c>
       <c r="B112" t="str">
-        <v>661.05</v>
+        <v>0</v>
       </c>
       <c r="C112" t="str">
-        <v>661.05</v>
+        <v>22.11</v>
       </c>
       <c r="D112" t="str">
-        <v>0</v>
+        <v>19.76</v>
       </c>
       <c r="E112" t="str">
-        <v>489.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>0xbc44E6f03C150df10Fe594d42eACAAC51C13e15B</v>
+        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
       </c>
       <c r="B113" t="str">
-        <v>74.69</v>
+        <v>0</v>
       </c>
       <c r="C113" t="str">
-        <v>74.69</v>
+        <v>596.45</v>
       </c>
       <c r="D113" t="str">
-        <v>55.33</v>
+        <v>532.87</v>
       </c>
       <c r="E113" t="str">
         <v>0</v>
@@ -19859,101 +23801,101 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>0xA271d7ad0ce0b28cdc464dfD5F3A66B4d55B5Acc</v>
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
       </c>
       <c r="B114" t="str">
-        <v>1,232.63</v>
+        <v>143.87</v>
       </c>
       <c r="C114" t="str">
-        <v>1,232.63</v>
+        <v>143.87</v>
       </c>
       <c r="D114" t="str">
-        <v>913.04</v>
+        <v>0</v>
       </c>
       <c r="E114" t="str">
-        <v>0</v>
+        <v>128.54</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>0xE3c3CD768EF78506A37144Ce83b1f34af56A89D5</v>
+        <v>0x9C19FE52c5b04d39EF89d58fCDef24A55CfDA4a7</v>
       </c>
       <c r="B115" t="str">
-        <v>1,232.63</v>
+        <v>123.12</v>
       </c>
       <c r="C115" t="str">
-        <v>1,232.63</v>
+        <v>123.12</v>
       </c>
       <c r="D115" t="str">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E115" t="str">
-        <v>913.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>0xAE1aD5B0Cb04CFe479E9308006F2e0063Ab8E845</v>
+        <v>0x1e08bba24EeaB34dCc15Bc335c2638D40E1e3BD5</v>
       </c>
       <c r="B116" t="str">
-        <v>25.89</v>
+        <v>2,296.11</v>
       </c>
       <c r="C116" t="str">
-        <v>25.89</v>
+        <v>2,296.11</v>
       </c>
       <c r="D116" t="str">
-        <v>0</v>
+        <v>2,051.33</v>
       </c>
       <c r="E116" t="str">
-        <v>19.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>0x88bA50adD63cB2b90Eb3277cb4AC27Ca7b4fa596</v>
+        <v>0x60999E23eccfa3f5e3361ABAb7DA635f2aBf891e</v>
       </c>
       <c r="B117" t="str">
-        <v>434.83</v>
+        <v>2,296.11</v>
       </c>
       <c r="C117" t="str">
-        <v>434.83</v>
+        <v>2,296.11</v>
       </c>
       <c r="D117" t="str">
-        <v>322.09</v>
+        <v>0</v>
       </c>
       <c r="E117" t="str">
-        <v>0</v>
+        <v>2,051.33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
+        <v>0x212A3caD6d1572C706959d2aeF63071e61914bf2</v>
       </c>
       <c r="B118" t="str">
-        <v>434.83</v>
+        <v>1,429.15</v>
       </c>
       <c r="C118" t="str">
-        <v>434.83</v>
+        <v>1,429.15</v>
       </c>
       <c r="D118" t="str">
-        <v>0</v>
+        <v>763.09</v>
       </c>
       <c r="E118" t="str">
-        <v>322.09</v>
+        <v>513.71</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>0x9fF7d51Cf6a3A12F2Cdd36035827037a35A4B139</v>
+        <v>0x3479Ce7954Aebd06dD613A42301C911d85c789bF</v>
       </c>
       <c r="B119" t="str">
-        <v>2.97</v>
+        <v>1,076.21</v>
       </c>
       <c r="C119" t="str">
-        <v>2.97</v>
+        <v>1,076.21</v>
       </c>
       <c r="D119" t="str">
-        <v>2.2</v>
+        <v>961.48</v>
       </c>
       <c r="E119" t="str">
         <v>0</v>
@@ -19961,33 +23903,33 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>0x7617203fAd8e02b81d866a269500fdF417A0Cb2c</v>
+        <v>0xa899FaB0CE9CDA2E314856C10A9F5B578b9f2778</v>
       </c>
       <c r="B120" t="str">
-        <v>6.45</v>
+        <v>1,076.21</v>
       </c>
       <c r="C120" t="str">
-        <v>6.45</v>
+        <v>1,076.21</v>
       </c>
       <c r="D120" t="str">
         <v>0</v>
       </c>
       <c r="E120" t="str">
-        <v>4.78</v>
+        <v>961.48</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
+        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
       </c>
       <c r="B121" t="str">
         <v>0</v>
       </c>
       <c r="C121" t="str">
-        <v>278.63</v>
+        <v>1,259.24</v>
       </c>
       <c r="D121" t="str">
-        <v>206.39</v>
+        <v>1,125</v>
       </c>
       <c r="E121" t="str">
         <v>0</v>
@@ -19995,203 +23937,203 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
+        <v>0xFa544d034dC07aD4Fa185ba769031a29Fbef5e36</v>
       </c>
       <c r="B122" t="str">
-        <v>278.63</v>
+        <v>0</v>
       </c>
       <c r="C122" t="str">
-        <v>278.63</v>
+        <v>124.89</v>
       </c>
       <c r="D122" t="str">
         <v>0</v>
       </c>
       <c r="E122" t="str">
-        <v>206.39</v>
+        <v>111.58</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
+        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
       </c>
       <c r="B123" t="str">
-        <v>34.66</v>
+        <v>532.29</v>
       </c>
       <c r="C123" t="str">
-        <v>34.66</v>
+        <v>532.29</v>
       </c>
       <c r="D123" t="str">
         <v>0</v>
       </c>
       <c r="E123" t="str">
-        <v>25.68</v>
+        <v>475.55</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
       </c>
       <c r="B124" t="str">
-        <v>1,227.8</v>
+        <v>2,408.48</v>
       </c>
       <c r="C124" t="str">
-        <v>1,227.8</v>
+        <v>2,408.48</v>
       </c>
       <c r="D124" t="str">
         <v>0</v>
       </c>
       <c r="E124" t="str">
-        <v>909.46</v>
+        <v>2,151.72</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>0x3d5F0A62033206273527Ef33569213E904eC4DdF</v>
+        <v>0xedaa63C95A0faB8e7Dc7A710f8b9Aa6ee461dAC7</v>
       </c>
       <c r="B125" t="str">
-        <v>209.17</v>
+        <v>1,093.04</v>
       </c>
       <c r="C125" t="str">
-        <v>209.17</v>
+        <v>1,093.04</v>
       </c>
       <c r="D125" t="str">
-        <v>91.29</v>
+        <v>976.52</v>
       </c>
       <c r="E125" t="str">
-        <v>63.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>0x0fA1AfF9540786DCad9196e0676e2e4423317FAf</v>
+        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
       </c>
       <c r="B126" t="str">
-        <v>2,987.79</v>
+        <v>8,570.1</v>
       </c>
       <c r="C126" t="str">
-        <v>2,987.79</v>
+        <v>8,570.1</v>
       </c>
       <c r="D126" t="str">
-        <v>2,213.12</v>
+        <v>0</v>
       </c>
       <c r="E126" t="str">
-        <v>0</v>
+        <v>7,656.47</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
+        <v>0xbe34Aa80F76Ac0FFc4398933df1BD891253e6CdB</v>
       </c>
       <c r="B127" t="str">
-        <v>3,002.79</v>
+        <v>1.11</v>
       </c>
       <c r="C127" t="str">
-        <v>3,002.79</v>
+        <v>1.11</v>
       </c>
       <c r="D127" t="str">
-        <v>11.11</v>
+        <v>1</v>
       </c>
       <c r="E127" t="str">
-        <v>2,213.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>0x5C55e86A38d24BE5fF7f12221BF674C95FB188a7</v>
+        <v>0xbB20a4e0514AF7e17d4ED83A55881F067B393c5E</v>
       </c>
       <c r="B128" t="str">
-        <v>120.96</v>
+        <v>108.45</v>
       </c>
       <c r="C128" t="str">
-        <v>120.96</v>
+        <v>108.45</v>
       </c>
       <c r="D128" t="str">
-        <v>0</v>
+        <v>96.89</v>
       </c>
       <c r="E128" t="str">
-        <v>89.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
+        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
       </c>
       <c r="B129" t="str">
-        <v>57.83</v>
+        <v>1,159.93</v>
       </c>
       <c r="C129" t="str">
-        <v>57.83</v>
+        <v>1,159.93</v>
       </c>
       <c r="D129" t="str">
         <v>0</v>
       </c>
       <c r="E129" t="str">
-        <v>42.84</v>
+        <v>1,036.28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
       </c>
       <c r="B130" t="str">
-        <v>13.21</v>
+        <v>16,255.42</v>
       </c>
       <c r="C130" t="str">
-        <v>13.21</v>
+        <v>16,255.42</v>
       </c>
       <c r="D130" t="str">
-        <v>0</v>
+        <v>14,522.48</v>
       </c>
       <c r="E130" t="str">
-        <v>9.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>0xdfd7445EF7dB056F68cEdEB4c1A709d02C0c3AA7</v>
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
       </c>
       <c r="B131" t="str">
-        <v>162.28</v>
+        <v>0</v>
       </c>
       <c r="C131" t="str">
-        <v>162.28</v>
+        <v>16,255.42</v>
       </c>
       <c r="D131" t="str">
-        <v>120.21</v>
+        <v>0</v>
       </c>
       <c r="E131" t="str">
-        <v>0</v>
+        <v>14,522.48</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>0x9C4e5edC6A735e4AB68ef04497b64008A955A1A5</v>
+        <v>0xdF8Df47E5109Adc155E436C0712adB78f53A418c</v>
       </c>
       <c r="B132" t="str">
-        <v>16,875.46</v>
+        <v>1,399.16</v>
       </c>
       <c r="C132" t="str">
-        <v>16,875.46</v>
+        <v>1,399.16</v>
       </c>
       <c r="D132" t="str">
         <v>0</v>
       </c>
       <c r="E132" t="str">
-        <v>12,500</v>
+        <v>1,250</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>0xBc7b31dFbEd762841AC646961C887B49e3f625d5</v>
+        <v>0x9D6B1E57daaE9A80411481801733B750d58782c0</v>
       </c>
       <c r="B133" t="str">
-        <v>930.7</v>
+        <v>430.65</v>
       </c>
       <c r="C133" t="str">
-        <v>930.7</v>
+        <v>430.65</v>
       </c>
       <c r="D133" t="str">
-        <v>689.39</v>
+        <v>384.74</v>
       </c>
       <c r="E133" t="str">
         <v>0</v>
@@ -20199,101 +24141,101 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
+        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
       </c>
       <c r="B134" t="str">
-        <v>65.85</v>
+        <v>281.88</v>
       </c>
       <c r="C134" t="str">
-        <v>65.85</v>
+        <v>281.88</v>
       </c>
       <c r="D134" t="str">
-        <v>0</v>
+        <v>251.83</v>
       </c>
       <c r="E134" t="str">
-        <v>48.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>0x96f194Cf1c9e5eE23B4D96785791F468F6A9C98e</v>
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
       </c>
       <c r="B135" t="str">
-        <v>77,316.11</v>
+        <v>3,240.97</v>
       </c>
       <c r="C135" t="str">
-        <v>77,316.11</v>
+        <v>3,240.97</v>
       </c>
       <c r="D135" t="str">
         <v>0</v>
       </c>
       <c r="E135" t="str">
-        <v>57,269.63</v>
+        <v>2,895.46</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>0xeBB36F543A6c3E09a06c937E86fB0930a6EdA151</v>
+        <v>0x947d2c8935C715428702231AD85E293a94CbEB65</v>
       </c>
       <c r="B136" t="str">
-        <v>107.4</v>
+        <v>559.66</v>
       </c>
       <c r="C136" t="str">
-        <v>107.4</v>
+        <v>559.66</v>
       </c>
       <c r="D136" t="str">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E136" t="str">
-        <v>79.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
       </c>
       <c r="B137" t="str">
-        <v>939,390.68</v>
+        <v>26,617.87</v>
       </c>
       <c r="C137" t="str">
-        <v>939,390.68</v>
+        <v>26,617.87</v>
       </c>
       <c r="D137" t="str">
-        <v>348,046.91</v>
+        <v>0</v>
       </c>
       <c r="E137" t="str">
-        <v>347,778.99</v>
+        <v>23,780.21</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>0xbD73E24F927E9f1D9ce45B7e47f36711Dca35A88</v>
+        <v>0x436aCB00107faBb69b486e2C7F4654bB37b02c41</v>
       </c>
       <c r="B138" t="str">
-        <v>74.56</v>
+        <v>2,534.96</v>
       </c>
       <c r="C138" t="str">
-        <v>74.56</v>
+        <v>2,534.96</v>
       </c>
       <c r="D138" t="str">
-        <v>0</v>
+        <v>2,264.72</v>
       </c>
       <c r="E138" t="str">
-        <v>55.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>0xA2cfCc9E68d9138ED4eacF9b7E2141D9B41C6eCF</v>
+        <v>0xb62430C5fD8281c2F2ADf3ae7Cec7171d6F71EC6</v>
       </c>
       <c r="B139" t="str">
-        <v>878.17</v>
+        <v>103.1</v>
       </c>
       <c r="C139" t="str">
-        <v>878.17</v>
+        <v>103.1</v>
       </c>
       <c r="D139" t="str">
-        <v>650.48</v>
+        <v>92.11</v>
       </c>
       <c r="E139" t="str">
         <v>0</v>
@@ -20301,135 +24243,135 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>0x48f5880a56dC2b8e123aB8CddD58521631332e36</v>
+        <v>0x9fF7d51Cf6a3A12F2Cdd36035827037a35A4B139</v>
       </c>
       <c r="B140" t="str">
-        <v>878.17</v>
+        <v>243.47</v>
       </c>
       <c r="C140" t="str">
-        <v>878.17</v>
+        <v>243.47</v>
       </c>
       <c r="D140" t="str">
-        <v>0</v>
+        <v>217.52</v>
       </c>
       <c r="E140" t="str">
-        <v>650.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+        <v>0x331B6287b04a4Bb359C75D102a2104561BB84fe3</v>
       </c>
       <c r="B141" t="str">
-        <v>168.74</v>
+        <v>32.93</v>
       </c>
       <c r="C141" t="str">
-        <v>168.74</v>
+        <v>32.93</v>
       </c>
       <c r="D141" t="str">
         <v>0</v>
       </c>
       <c r="E141" t="str">
-        <v>124.99</v>
+        <v>29.42</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>0x947d2c8935C715428702231AD85E293a94CbEB65</v>
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
       </c>
       <c r="B142" t="str">
-        <v>675.01</v>
+        <v>778,724.99</v>
       </c>
       <c r="C142" t="str">
-        <v>675.01</v>
+        <v>778,724.99</v>
       </c>
       <c r="D142" t="str">
-        <v>500</v>
+        <v>347,862.43</v>
       </c>
       <c r="E142" t="str">
-        <v>0</v>
+        <v>347,844.7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
+        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
       </c>
       <c r="B143" t="str">
-        <v>675.01</v>
+        <v>312.49</v>
       </c>
       <c r="C143" t="str">
-        <v>675.01</v>
+        <v>312.49</v>
       </c>
       <c r="D143" t="str">
-        <v>0</v>
+        <v>279.18</v>
       </c>
       <c r="E143" t="str">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>0x091D2bf74f675Df1d72eD6E07bCB693D56a4163c</v>
+        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
       </c>
       <c r="B144" t="str">
-        <v>0</v>
+        <v>312.49</v>
       </c>
       <c r="C144" t="str">
-        <v>2,458.39</v>
+        <v>312.49</v>
       </c>
       <c r="D144" t="str">
-        <v>1,820.98</v>
+        <v>0</v>
       </c>
       <c r="E144" t="str">
-        <v>0</v>
+        <v>279.18</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>0x0fB3b0892619aF19B0a8016783f84EED26CfAE1E</v>
+        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
       </c>
       <c r="B145" t="str">
-        <v>131.26</v>
+        <v>0</v>
       </c>
       <c r="C145" t="str">
-        <v>131.26</v>
+        <v>12,512.43</v>
       </c>
       <c r="D145" t="str">
-        <v>97.23</v>
+        <v>0</v>
       </c>
       <c r="E145" t="str">
-        <v>0</v>
+        <v>11,178.52</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>0x4e300F965ACE7aBF11A53662419F9A2D27dE3B1d</v>
+        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
       </c>
       <c r="B146" t="str">
-        <v>131.26</v>
+        <v>275.36</v>
       </c>
       <c r="C146" t="str">
-        <v>131.26</v>
+        <v>275.36</v>
       </c>
       <c r="D146" t="str">
         <v>0</v>
       </c>
       <c r="E146" t="str">
-        <v>97.23</v>
+        <v>246.01</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>0xF1D275F804a6b3d3f75B7C08150178836E56dE8B</v>
+        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
       </c>
       <c r="B147" t="str">
-        <v>381.62</v>
+        <v>337.95</v>
       </c>
       <c r="C147" t="str">
-        <v>381.62</v>
+        <v>337.95</v>
       </c>
       <c r="D147" t="str">
-        <v>282.68</v>
+        <v>301.93</v>
       </c>
       <c r="E147" t="str">
         <v>0</v>
@@ -20437,84 +24379,84 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>0xBb3123adaa39aA9b0Bf8c0374eab50353F479c97</v>
+        <v>0xB318309e50C1f09825f903B5773c45b0d2930f28</v>
       </c>
       <c r="B148" t="str">
-        <v>381.62</v>
+        <v>1,167.14</v>
       </c>
       <c r="C148" t="str">
-        <v>381.62</v>
+        <v>1,167.14</v>
       </c>
       <c r="D148" t="str">
-        <v>0</v>
+        <v>1,042.72</v>
       </c>
       <c r="E148" t="str">
-        <v>282.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>0x0feD39AC6093e042825EfE8862f37dc8425B8f74</v>
+        <v>0xC65cA88Bd73441A540590CB547F978afe8d503bb</v>
       </c>
       <c r="B149" t="str">
-        <v>216.39</v>
+        <v>1,879.02</v>
       </c>
       <c r="C149" t="str">
-        <v>409.95</v>
+        <v>1,879.02</v>
       </c>
       <c r="D149" t="str">
-        <v>0</v>
+        <v>1,678.71</v>
       </c>
       <c r="E149" t="str">
-        <v>303.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
       </c>
       <c r="B150" t="str">
-        <v>3,103.41</v>
+        <v>6,495.68</v>
       </c>
       <c r="C150" t="str">
-        <v>3,103.41</v>
+        <v>6,495.68</v>
       </c>
       <c r="D150" t="str">
-        <v>2,298.76</v>
+        <v>383.02</v>
       </c>
       <c r="E150" t="str">
-        <v>0</v>
+        <v>5,420.18</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
+        <v>0xF1ea664AbbA3452bc6cA6B289a6059613855805B</v>
       </c>
       <c r="B151" t="str">
-        <v>1,461.36</v>
+        <v>854.14</v>
       </c>
       <c r="C151" t="str">
-        <v>1,461.36</v>
+        <v>854.14</v>
       </c>
       <c r="D151" t="str">
         <v>0</v>
       </c>
       <c r="E151" t="str">
-        <v>1,082.46</v>
+        <v>763.09</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>0x487EE46941931178c481a9fA3Eeb2016E2B0CBdA</v>
+        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
       </c>
       <c r="B152" t="str">
-        <v>51.16</v>
+        <v>18.27</v>
       </c>
       <c r="C152" t="str">
-        <v>51.16</v>
+        <v>18.27</v>
       </c>
       <c r="D152" t="str">
-        <v>37.9</v>
+        <v>16.33</v>
       </c>
       <c r="E152" t="str">
         <v>0</v>
@@ -20525,13 +24467,13 @@
         <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
       </c>
       <c r="B153" t="str">
-        <v>126,068.53</v>
+        <v>156,352.73</v>
       </c>
       <c r="C153" t="str">
-        <v>126,068.53</v>
+        <v>156,352.73</v>
       </c>
       <c r="D153" t="str">
-        <v>93,381.54</v>
+        <v>139,684.37</v>
       </c>
       <c r="E153" t="str">
         <v>0</v>
@@ -20539,67 +24481,67 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+        <v>0xf0a8596541F839EBcC9f0A9d1442c15f43A2836E</v>
       </c>
       <c r="B154" t="str">
-        <v>126,068.53</v>
+        <v>39.76</v>
       </c>
       <c r="C154" t="str">
-        <v>126,068.53</v>
+        <v>39.76</v>
       </c>
       <c r="D154" t="str">
         <v>0</v>
       </c>
       <c r="E154" t="str">
-        <v>93,381.54</v>
+        <v>35.53</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+        <v>0xE34bBD8d72B7Ffe5ad2e84CE93e3A07581De2e50</v>
       </c>
       <c r="B155" t="str">
-        <v>1,087.96</v>
+        <v>0</v>
       </c>
       <c r="C155" t="str">
-        <v>1,087.96</v>
+        <v>509.56</v>
       </c>
       <c r="D155" t="str">
         <v>0</v>
       </c>
       <c r="E155" t="str">
-        <v>805.88</v>
+        <v>455.24</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
       </c>
       <c r="B156" t="str">
-        <v>879.53</v>
+        <v>1,890.9</v>
       </c>
       <c r="C156" t="str">
-        <v>879.53</v>
+        <v>1,890.9</v>
       </c>
       <c r="D156" t="str">
-        <v>98.2</v>
+        <v>0</v>
       </c>
       <c r="E156" t="str">
-        <v>553.29</v>
+        <v>1,689.32</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>0xd4dB3DbEe64e9e3A9dc049CbC558904FeFc04ce1</v>
+        <v>0xD45bc979277382882e1B41A5efa2561F55915716</v>
       </c>
       <c r="B157" t="str">
-        <v>298.81</v>
+        <v>374.29</v>
       </c>
       <c r="C157" t="str">
-        <v>298.81</v>
+        <v>374.29</v>
       </c>
       <c r="D157" t="str">
-        <v>221.34</v>
+        <v>334.39</v>
       </c>
       <c r="E157" t="str">
         <v>0</v>
@@ -20607,135 +24549,135 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
       </c>
       <c r="B158" t="str">
-        <v>364.05</v>
+        <v>215.37</v>
       </c>
       <c r="C158" t="str">
-        <v>364.05</v>
+        <v>215.37</v>
       </c>
       <c r="D158" t="str">
-        <v>0</v>
+        <v>70.22</v>
       </c>
       <c r="E158" t="str">
-        <v>269.66</v>
+        <v>122.19</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>0x8f1928e8FEa7238b9B53A7E62AFd471b69732a66</v>
+        <v>0x280a3925f1fAD53B5a263fFc0028Fbab9abE6131</v>
       </c>
       <c r="B159" t="str">
-        <v>14,115.04</v>
+        <v>9.24</v>
       </c>
       <c r="C159" t="str">
-        <v>14,115.04</v>
+        <v>9.24</v>
       </c>
       <c r="D159" t="str">
-        <v>10,455.3</v>
+        <v>0</v>
       </c>
       <c r="E159" t="str">
-        <v>0</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>0x5390651dd0824159FE0e82554feC7b283bCa3745</v>
+        <v>0x1D712193A96B4d9D4eC32108cfcde704AC9CCC9C</v>
       </c>
       <c r="B160" t="str">
-        <v>14,115.04</v>
+        <v>141.28</v>
       </c>
       <c r="C160" t="str">
-        <v>14,115.04</v>
+        <v>141.28</v>
       </c>
       <c r="D160" t="str">
-        <v>0</v>
+        <v>126.22</v>
       </c>
       <c r="E160" t="str">
-        <v>10,455.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
+        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
       </c>
       <c r="B161" t="str">
-        <v>20.45</v>
+        <v>4,459.05</v>
       </c>
       <c r="C161" t="str">
-        <v>20.45</v>
+        <v>4,459.05</v>
       </c>
       <c r="D161" t="str">
         <v>0</v>
       </c>
       <c r="E161" t="str">
-        <v>15.15</v>
+        <v>3,983.69</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
       </c>
       <c r="B162" t="str">
-        <v>992.27</v>
+        <v>99.32</v>
       </c>
       <c r="C162" t="str">
-        <v>992.27</v>
+        <v>99.32</v>
       </c>
       <c r="D162" t="str">
         <v>0</v>
       </c>
       <c r="E162" t="str">
-        <v>735</v>
+        <v>88.74</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+        <v>0x48682644c1e8529338e46e7DdabA4383C1fceBb1</v>
       </c>
       <c r="B163" t="str">
-        <v>681.55</v>
+        <v>6,351.76</v>
       </c>
       <c r="C163" t="str">
-        <v>681.55</v>
+        <v>6,351.76</v>
       </c>
       <c r="D163" t="str">
-        <v>504.84</v>
+        <v>0</v>
       </c>
       <c r="E163" t="str">
-        <v>0</v>
+        <v>5,674.62</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
+        <v>0x3f80b42ae4B6a8701329682B5C66a2780917E5D0</v>
       </c>
       <c r="B164" t="str">
-        <v>5,074.45</v>
+        <v>5.88</v>
       </c>
       <c r="C164" t="str">
-        <v>5,074.45</v>
+        <v>5.88</v>
       </c>
       <c r="D164" t="str">
-        <v>3,758.75</v>
+        <v>0</v>
       </c>
       <c r="E164" t="str">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>0xb62430C5fD8281c2F2ADf3ae7Cec7171d6F71EC6</v>
+        <v>0x31B6BBb170C7F75A4b8A6225811526B96697125E</v>
       </c>
       <c r="B165" t="str">
-        <v>129.52</v>
+        <v>3,927.06</v>
       </c>
       <c r="C165" t="str">
-        <v>129.52</v>
+        <v>3,927.06</v>
       </c>
       <c r="D165" t="str">
-        <v>95.94</v>
+        <v>3,508.41</v>
       </c>
       <c r="E165" t="str">
         <v>0</v>
@@ -20743,33 +24685,33 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>0xA6F3eb75fa915C7Bf8a6987710511070D97E2a75</v>
+        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
       </c>
       <c r="B166" t="str">
-        <v>327.89</v>
+        <v>3,927.06</v>
       </c>
       <c r="C166" t="str">
-        <v>327.89</v>
+        <v>3,927.06</v>
       </c>
       <c r="D166" t="str">
-        <v>242.88</v>
+        <v>0</v>
       </c>
       <c r="E166" t="str">
-        <v>0</v>
+        <v>3,508.41</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
       </c>
       <c r="B167" t="str">
-        <v>158.03</v>
+        <v>781.87</v>
       </c>
       <c r="C167" t="str">
-        <v>158.03</v>
+        <v>781.87</v>
       </c>
       <c r="D167" t="str">
-        <v>117.06</v>
+        <v>698.52</v>
       </c>
       <c r="E167" t="str">
         <v>0</v>
@@ -20780,13 +24722,13 @@
         <v>0xCbf575DA18d760a18dB55333bE8662CC07463069</v>
       </c>
       <c r="B168" t="str">
-        <v>665.13</v>
+        <v>138.41</v>
       </c>
       <c r="C168" t="str">
-        <v>665.13</v>
+        <v>138.41</v>
       </c>
       <c r="D168" t="str">
-        <v>492.68</v>
+        <v>123.66</v>
       </c>
       <c r="E168" t="str">
         <v>0</v>
@@ -20794,16 +24736,16 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>0xF6a52cb99b772d46C736F6F90Be792A1d4159414</v>
+        <v>0x96366995FA701346A6f9bCD875E3E80D7421d8b3</v>
       </c>
       <c r="B169" t="str">
-        <v>133.19</v>
+        <v>227.35</v>
       </c>
       <c r="C169" t="str">
-        <v>133.19</v>
+        <v>227.35</v>
       </c>
       <c r="D169" t="str">
-        <v>98.66</v>
+        <v>203.12</v>
       </c>
       <c r="E169" t="str">
         <v>0</v>
@@ -20811,50 +24753,50 @@
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>0xD45bc979277382882e1B41A5efa2561F55915716</v>
+        <v>0x41208763DD0C33e81cD7908ec88656ca7578d591</v>
       </c>
       <c r="B170" t="str">
-        <v>140.34</v>
+        <v>227.35</v>
       </c>
       <c r="C170" t="str">
-        <v>140.34</v>
+        <v>227.35</v>
       </c>
       <c r="D170" t="str">
-        <v>103.96</v>
+        <v>0</v>
       </c>
       <c r="E170" t="str">
-        <v>0</v>
+        <v>203.12</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>0x5766ee90ab6f2Cd995CA845d09b2AeC45E870EC9</v>
+        <v>0x9F6f9286f959A78F5d1E3eE78f331842539BA37B</v>
       </c>
       <c r="B171" t="str">
-        <v>144.8</v>
+        <v>227.87</v>
       </c>
       <c r="C171" t="str">
-        <v>144.8</v>
+        <v>227.87</v>
       </c>
       <c r="D171" t="str">
         <v>0</v>
       </c>
       <c r="E171" t="str">
-        <v>107.26</v>
+        <v>203.58</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>0xf90518CBcd4ef086891cb22C87bd4F80B61a7081</v>
+        <v>0x95814b787287141C80e9917Ee9eC9B2F89275629</v>
       </c>
       <c r="B172" t="str">
-        <v>1,326.5</v>
+        <v>6,786.57</v>
       </c>
       <c r="C172" t="str">
-        <v>1,326.5</v>
+        <v>6,786.57</v>
       </c>
       <c r="D172" t="str">
-        <v>982.57</v>
+        <v>6,063.08</v>
       </c>
       <c r="E172" t="str">
         <v>0</v>
@@ -20862,50 +24804,50 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>0xD53314Cd179ccD3926Af264e62E3B6dAB06A6419</v>
+        <v>0xb4E2Ff46D5013BFa1C53135dF3BC240046ab88FA</v>
       </c>
       <c r="B173" t="str">
-        <v>1,326.5</v>
+        <v>657.54</v>
       </c>
       <c r="C173" t="str">
-        <v>1,326.5</v>
+        <v>657.54</v>
       </c>
       <c r="D173" t="str">
-        <v>0</v>
+        <v>587.45</v>
       </c>
       <c r="E173" t="str">
-        <v>982.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+        <v>0xc4a806D25d423059bb2E5D6aFc7dC5E046518E15</v>
       </c>
       <c r="B174" t="str">
-        <v>67.09</v>
+        <v>657.54</v>
       </c>
       <c r="C174" t="str">
-        <v>67.09</v>
+        <v>657.54</v>
       </c>
       <c r="D174" t="str">
-        <v>49.7</v>
+        <v>0</v>
       </c>
       <c r="E174" t="str">
-        <v>0</v>
+        <v>587.45</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>0x11AbA9ACdFbAaB8e7C1Dc4d92b8B2467FD5d0e3B</v>
+        <v>0xFF052E04aaC25F232d068678B1E053d8217F4786</v>
       </c>
       <c r="B175" t="str">
-        <v>133.3</v>
+        <v>1,106.62</v>
       </c>
       <c r="C175" t="str">
-        <v>133.3</v>
+        <v>1,106.62</v>
       </c>
       <c r="D175" t="str">
-        <v>98.74</v>
+        <v>988.65</v>
       </c>
       <c r="E175" t="str">
         <v>0</v>
@@ -20913,186 +24855,186 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>0x8Dca7891aAb1d43b8402d23e2Ca88B0399Ed542E</v>
+        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
       </c>
       <c r="B176" t="str">
-        <v>133.3</v>
+        <v>1,647.87</v>
       </c>
       <c r="C176" t="str">
-        <v>133.3</v>
+        <v>1,647.87</v>
       </c>
       <c r="D176" t="str">
-        <v>0</v>
+        <v>1,250</v>
       </c>
       <c r="E176" t="str">
-        <v>98.74</v>
+        <v>222.2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
+        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
       </c>
       <c r="B177" t="str">
-        <v>207.91</v>
+        <v>1,647.87</v>
       </c>
       <c r="C177" t="str">
-        <v>207.91</v>
+        <v>1,647.87</v>
       </c>
       <c r="D177" t="str">
-        <v>154.01</v>
+        <v>222.2</v>
       </c>
       <c r="E177" t="str">
-        <v>0</v>
+        <v>1,250</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>0x7aa90dE22D64831e54DA455A90621560f1bC97a2</v>
+        <v>0x10C629454B361De9d161491cBd0fd4F0Bf1c1B0A</v>
       </c>
       <c r="B178" t="str">
-        <v>330.46</v>
+        <v>428.72</v>
       </c>
       <c r="C178" t="str">
-        <v>330.46</v>
+        <v>428.72</v>
       </c>
       <c r="D178" t="str">
-        <v>244.78</v>
+        <v>0</v>
       </c>
       <c r="E178" t="str">
-        <v>0</v>
+        <v>383.02</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>0x2373654B6a1564c5BdA4D28dDeF1827D66d7EA2b</v>
+        <v>0x031F54de8aB5748cE32866d806441Ba65Feec4e8</v>
       </c>
       <c r="B179" t="str">
-        <v>200</v>
+        <v>153.07</v>
       </c>
       <c r="C179" t="str">
-        <v>330.46</v>
+        <v>153.07</v>
       </c>
       <c r="D179" t="str">
-        <v>0</v>
+        <v>136.76</v>
       </c>
       <c r="E179" t="str">
-        <v>244.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
+        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
       </c>
       <c r="B180" t="str">
-        <v>3,785.65</v>
+        <v>120.07</v>
       </c>
       <c r="C180" t="str">
-        <v>3,785.65</v>
+        <v>120.07</v>
       </c>
       <c r="D180" t="str">
-        <v>2,804.11</v>
+        <v>0</v>
       </c>
       <c r="E180" t="str">
-        <v>0</v>
+        <v>107.27</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
+        <v>0x6605532d3D1b060bDeae5FC44DBA7EC8cd4C2dC3</v>
       </c>
       <c r="B181" t="str">
-        <v>796.31</v>
+        <v>829.87</v>
       </c>
       <c r="C181" t="str">
-        <v>796.31</v>
+        <v>829.87</v>
       </c>
       <c r="D181" t="str">
-        <v>259.94</v>
+        <v>741.4</v>
       </c>
       <c r="E181" t="str">
-        <v>329.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
+        <v>0x28207aadAe97226F70a54c25d16692197c062898</v>
       </c>
       <c r="B182" t="str">
-        <v>371.26</v>
+        <v>806.37</v>
       </c>
       <c r="C182" t="str">
-        <v>371.26</v>
+        <v>806.37</v>
       </c>
       <c r="D182" t="str">
         <v>0</v>
       </c>
       <c r="E182" t="str">
-        <v>275</v>
+        <v>720.41</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>0x75ac9574e8142636654713A984365e3E3427E31b</v>
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
       </c>
       <c r="B183" t="str">
-        <v>266.41</v>
+        <v>12,713.63</v>
       </c>
       <c r="C183" t="str">
-        <v>266.41</v>
+        <v>12,713.63</v>
       </c>
       <c r="D183" t="str">
-        <v>197.34</v>
+        <v>0</v>
       </c>
       <c r="E183" t="str">
-        <v>0</v>
+        <v>11,358.27</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>0xD957cc84a2B565e7572a8F02A39e487466c3bFF7</v>
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
       </c>
       <c r="B184" t="str">
-        <v>266.41</v>
+        <v>20,524.42</v>
       </c>
       <c r="C184" t="str">
-        <v>266.41</v>
+        <v>20,524.42</v>
       </c>
       <c r="D184" t="str">
-        <v>0</v>
+        <v>18,336.37</v>
       </c>
       <c r="E184" t="str">
-        <v>197.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
       </c>
       <c r="B185" t="str">
-        <v>21,482.24</v>
+        <v>600.37</v>
       </c>
       <c r="C185" t="str">
-        <v>21,482.24</v>
+        <v>600.37</v>
       </c>
       <c r="D185" t="str">
-        <v>15,912.34</v>
+        <v>0</v>
       </c>
       <c r="E185" t="str">
-        <v>0</v>
+        <v>536.37</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>0x8fa6e6dB6B86d0Cad2fa8DeEb737BC1cB97a2bE1</v>
+        <v>0xA7d0053076d12451b721FCa4e513CF4808846e1F</v>
       </c>
       <c r="B186" t="str">
-        <v>263.78</v>
+        <v>91.35</v>
       </c>
       <c r="C186" t="str">
-        <v>263.78</v>
+        <v>91.35</v>
       </c>
       <c r="D186" t="str">
-        <v>195.39</v>
+        <v>81.62</v>
       </c>
       <c r="E186" t="str">
         <v>0</v>
@@ -21100,50 +25042,50 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>0x13160Af129c94Cc28f1547999dfe8050EC56e7e6</v>
+        <v>0xE592EbB555eC4dBc9b98B0D6C8e86c7a7Fa24138</v>
       </c>
       <c r="B187" t="str">
-        <v>13,194.18</v>
+        <v>91.35</v>
       </c>
       <c r="C187" t="str">
-        <v>13,194.18</v>
+        <v>91.35</v>
       </c>
       <c r="D187" t="str">
-        <v>9,773.2</v>
+        <v>0</v>
       </c>
       <c r="E187" t="str">
-        <v>0</v>
+        <v>81.62</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>0xB36879272EEab16198D46a47F985c9DDd2A827f1</v>
+        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
       </c>
       <c r="B188" t="str">
-        <v>10,500</v>
+        <v>0</v>
       </c>
       <c r="C188" t="str">
-        <v>13,527.2</v>
+        <v>134.05</v>
       </c>
       <c r="D188" t="str">
-        <v>0</v>
+        <v>119.76</v>
       </c>
       <c r="E188" t="str">
-        <v>10,019.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>0x0325B1b36Dc59ac07519AC60b5c7A85747274C8A</v>
+        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
       </c>
       <c r="B189" t="str">
-        <v>741.88</v>
+        <v>128.74</v>
       </c>
       <c r="C189" t="str">
-        <v>741.88</v>
+        <v>128.74</v>
       </c>
       <c r="D189" t="str">
-        <v>549.53</v>
+        <v>115.02</v>
       </c>
       <c r="E189" t="str">
         <v>0</v>
@@ -21151,118 +25093,118 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>0xb4120A72ad3778E123da74F3C09c1272521C8b7e</v>
+        <v>0x3E3309ab5312f6875b6e9bE672b9A43EFb70D760</v>
       </c>
       <c r="B190" t="str">
-        <v>6,743.75</v>
+        <v>1,231.26</v>
       </c>
       <c r="C190" t="str">
-        <v>6,743.75</v>
+        <v>1,231.26</v>
       </c>
       <c r="D190" t="str">
-        <v>4,995.24</v>
+        <v>0</v>
       </c>
       <c r="E190" t="str">
-        <v>0</v>
+        <v>1,100</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>0x413Af536E3D18D259A9b71B42AC66faC5aBa0Fbf</v>
+        <v>0xF2Aa3A5Df3Af1eD5ff72631A8bcFF0F0AfE060eC</v>
       </c>
       <c r="B191" t="str">
-        <v>662.46</v>
+        <v>1,429.34</v>
       </c>
       <c r="C191" t="str">
-        <v>662.46</v>
+        <v>1,429.34</v>
       </c>
       <c r="D191" t="str">
-        <v>0</v>
+        <v>710.75</v>
       </c>
       <c r="E191" t="str">
-        <v>490.7</v>
+        <v>566.22</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
+        <v>0xE1FcC0676dE7f03EB6c63b55A5ad667416029A5F</v>
       </c>
       <c r="B192" t="str">
-        <v>129.6</v>
+        <v>61.2</v>
       </c>
       <c r="C192" t="str">
-        <v>129.6</v>
+        <v>61.2</v>
       </c>
       <c r="D192" t="str">
         <v>0</v>
       </c>
       <c r="E192" t="str">
-        <v>96</v>
+        <v>54.68</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>0x9AB469940cDC998d67F116Bd47A0859f74AAA202</v>
+        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
       </c>
       <c r="B193" t="str">
-        <v>329.57</v>
+        <v>46.26</v>
       </c>
       <c r="C193" t="str">
-        <v>329.57</v>
+        <v>46.26</v>
       </c>
       <c r="D193" t="str">
-        <v>0</v>
+        <v>41.33</v>
       </c>
       <c r="E193" t="str">
-        <v>244.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
+        <v>0xbc44E6f03C150df10Fe594d42eACAAC51C13e15B</v>
       </c>
       <c r="B194" t="str">
-        <v>1,690.94</v>
+        <v>95.35</v>
       </c>
       <c r="C194" t="str">
-        <v>1,690.94</v>
+        <v>95.35</v>
       </c>
       <c r="D194" t="str">
-        <v>68.04</v>
+        <v>0</v>
       </c>
       <c r="E194" t="str">
-        <v>1,184.48</v>
+        <v>85.19</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
+        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
       </c>
       <c r="B195" t="str">
-        <v>1,766.41</v>
+        <v>469.36</v>
       </c>
       <c r="C195" t="str">
-        <v>1,766.41</v>
+        <v>469.36</v>
       </c>
       <c r="D195" t="str">
-        <v>1,184.48</v>
+        <v>0</v>
       </c>
       <c r="E195" t="str">
-        <v>123.94</v>
+        <v>419.33</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
+        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
       </c>
       <c r="B196" t="str">
-        <v>649.98</v>
+        <v>1,169.56</v>
       </c>
       <c r="C196" t="str">
-        <v>649.98</v>
+        <v>1,169.56</v>
       </c>
       <c r="D196" t="str">
-        <v>481.46</v>
+        <v>1,044.88</v>
       </c>
       <c r="E196" t="str">
         <v>0</v>
@@ -21270,254 +25212,254 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
       </c>
       <c r="B197" t="str">
-        <v>649.98</v>
+        <v>0</v>
       </c>
       <c r="C197" t="str">
-        <v>649.98</v>
+        <v>1,169.56</v>
       </c>
       <c r="D197" t="str">
         <v>0</v>
       </c>
       <c r="E197" t="str">
-        <v>481.46</v>
+        <v>1,044.88</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
       </c>
       <c r="B198" t="str">
-        <v>213.44</v>
+        <v>59.1</v>
       </c>
       <c r="C198" t="str">
-        <v>213.44</v>
+        <v>59.1</v>
       </c>
       <c r="D198" t="str">
-        <v>55.9</v>
+        <v>52.8</v>
       </c>
       <c r="E198" t="str">
-        <v>102.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>0x3F3Cb523ce45c048c07081925CBd588a6C601b72</v>
+        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
       </c>
       <c r="B199" t="str">
-        <v>123.25</v>
+        <v>12.57</v>
       </c>
       <c r="C199" t="str">
-        <v>123.25</v>
+        <v>12.57</v>
       </c>
       <c r="D199" t="str">
-        <v>0</v>
+        <v>11.23</v>
       </c>
       <c r="E199" t="str">
-        <v>91.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>0xdE976b1178696723F86102aaf17Ddd70522908dA</v>
+        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
       </c>
       <c r="B200" t="str">
-        <v>682.37</v>
+        <v>12.57</v>
       </c>
       <c r="C200" t="str">
-        <v>682.37</v>
+        <v>12.57</v>
       </c>
       <c r="D200" t="str">
-        <v>505.45</v>
+        <v>0</v>
       </c>
       <c r="E200" t="str">
-        <v>0</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
+        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
       </c>
       <c r="B201" t="str">
-        <v>0</v>
+        <v>705.91</v>
       </c>
       <c r="C201" t="str">
-        <v>3,888.41</v>
+        <v>705.91</v>
       </c>
       <c r="D201" t="str">
-        <v>0</v>
+        <v>630.66</v>
       </c>
       <c r="E201" t="str">
-        <v>2,880.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>0x1Bf35e8Cd908D953b84B10a88C74DF7612Ecc660</v>
+        <v>0xEEe37E83b74Ebf3679962F6199dADF968E74efa5</v>
       </c>
       <c r="B202" t="str">
-        <v>53.01</v>
+        <v>705.91</v>
       </c>
       <c r="C202" t="str">
-        <v>53.01</v>
+        <v>705.91</v>
       </c>
       <c r="D202" t="str">
-        <v>39.27</v>
+        <v>0</v>
       </c>
       <c r="E202" t="str">
-        <v>0</v>
+        <v>630.66</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>0x05Ae4D4E3aca4cBc8dD3535712AA705e05c04D66</v>
+        <v>0x3D31F6Bf45af4c98238a9A9589c038CCB1Ae9b3f</v>
       </c>
       <c r="B203" t="str">
-        <v>170.75</v>
+        <v>1,348.39</v>
       </c>
       <c r="C203" t="str">
-        <v>170.75</v>
+        <v>1,348.39</v>
       </c>
       <c r="D203" t="str">
-        <v>126.48</v>
+        <v>0</v>
       </c>
       <c r="E203" t="str">
-        <v>0</v>
+        <v>1,204.65</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
+        <v>0xfC8B5e50e7aa48f71F422339e4c0040f7779C714</v>
       </c>
       <c r="B204" t="str">
-        <v>114.75</v>
+        <v>2,680.8</v>
       </c>
       <c r="C204" t="str">
-        <v>114.75</v>
+        <v>2,680.8</v>
       </c>
       <c r="D204" t="str">
-        <v>0</v>
+        <v>2,395.01</v>
       </c>
       <c r="E204" t="str">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>0xeB0F9489F9aeFB6Bbd8d7f1cc3620898E30b49c0</v>
+        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
       </c>
       <c r="B205" t="str">
-        <v>205.65</v>
+        <v>1,526.17</v>
       </c>
       <c r="C205" t="str">
-        <v>205.65</v>
+        <v>1,526.17</v>
       </c>
       <c r="D205" t="str">
-        <v>0</v>
+        <v>526.36</v>
       </c>
       <c r="E205" t="str">
-        <v>152.33</v>
+        <v>837.11</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>0xdF8Df47E5109Adc155E436C0712adB78f53A418c</v>
+        <v>0x620C45Fd6A4C15A4aa2A3a9301F0009b34F7809b</v>
       </c>
       <c r="B206" t="str">
-        <v>1,687.54</v>
+        <v>696.45</v>
       </c>
       <c r="C206" t="str">
-        <v>1,687.54</v>
+        <v>696.45</v>
       </c>
       <c r="D206" t="str">
-        <v>0</v>
+        <v>622.21</v>
       </c>
       <c r="E206" t="str">
-        <v>1,250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>0x4789c9e0634499C2726ecF5a176fa4167D641098</v>
+        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
       </c>
       <c r="B207" t="str">
-        <v>4,273.05</v>
+        <v>845.26</v>
       </c>
       <c r="C207" t="str">
-        <v>4,273.05</v>
+        <v>845.26</v>
       </c>
       <c r="D207" t="str">
-        <v>3,165.14</v>
+        <v>0</v>
       </c>
       <c r="E207" t="str">
-        <v>0</v>
+        <v>755.15</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
+        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
       </c>
       <c r="B208" t="str">
-        <v>267.79</v>
+        <v>568.11</v>
       </c>
       <c r="C208" t="str">
-        <v>267.79</v>
+        <v>568.11</v>
       </c>
       <c r="D208" t="str">
         <v>0</v>
       </c>
       <c r="E208" t="str">
-        <v>198.36</v>
+        <v>507.55</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
+        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
       </c>
       <c r="B209" t="str">
-        <v>8,100.22</v>
+        <v>24.79</v>
       </c>
       <c r="C209" t="str">
-        <v>8,100.22</v>
+        <v>24.79</v>
       </c>
       <c r="D209" t="str">
-        <v>6,000</v>
+        <v>0</v>
       </c>
       <c r="E209" t="str">
-        <v>0</v>
+        <v>22.15</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+        <v>0xD465Ffa5efAdF5cF1Dd6c45c3C305f58279A2140</v>
       </c>
       <c r="B210" t="str">
-        <v>28.24</v>
+        <v>0</v>
       </c>
       <c r="C210" t="str">
-        <v>28.24</v>
+        <v>377.86</v>
       </c>
       <c r="D210" t="str">
         <v>0</v>
       </c>
       <c r="E210" t="str">
-        <v>20.92</v>
+        <v>337.58</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>0xAD5c21611Ea4790991c40BFD8e0888e012D7162E</v>
+        <v>0xc677a6C972baeCe4Bf9C0a2EbB600886F0300a7D</v>
       </c>
       <c r="B211" t="str">
-        <v>153.74</v>
+        <v>10,961.29</v>
       </c>
       <c r="C211" t="str">
-        <v>153.74</v>
+        <v>10,961.29</v>
       </c>
       <c r="D211" t="str">
-        <v>113.88</v>
+        <v>9,792.74</v>
       </c>
       <c r="E211" t="str">
         <v>0</v>
@@ -21525,50 +25467,50 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>0x2c7771aCC47795D2F05Ed29C8c17e8887e49fda7</v>
+        <v>0x0feD39AC6093e042825EfE8862f37dc8425B8f74</v>
       </c>
       <c r="B212" t="str">
-        <v>136.93</v>
+        <v>0</v>
       </c>
       <c r="C212" t="str">
-        <v>136.93</v>
+        <v>243.99</v>
       </c>
       <c r="D212" t="str">
-        <v>101.43</v>
+        <v>0</v>
       </c>
       <c r="E212" t="str">
-        <v>0</v>
+        <v>217.98</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
+        <v>0xe6DA3D64EB935d2B013F2895cEa5CaAb8E4DbED5</v>
       </c>
       <c r="B213" t="str">
-        <v>111.17</v>
+        <v>24,566.59</v>
       </c>
       <c r="C213" t="str">
-        <v>111.17</v>
+        <v>24,566.59</v>
       </c>
       <c r="D213" t="str">
-        <v>0</v>
+        <v>21,947.61</v>
       </c>
       <c r="E213" t="str">
-        <v>82.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>0x387c310a3cC65aa12BC11CAF67a17b4a8693ed5e</v>
+        <v>0xD6C80eeC795F0564D20d517dd742dC6cD2Bf2EE0</v>
       </c>
       <c r="B214" t="str">
-        <v>81</v>
+        <v>49.77</v>
       </c>
       <c r="C214" t="str">
-        <v>81</v>
+        <v>49.77</v>
       </c>
       <c r="D214" t="str">
-        <v>60</v>
+        <v>44.47</v>
       </c>
       <c r="E214" t="str">
         <v>0</v>
@@ -21576,118 +25518,118 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
+        <v>0x1A24A8CDa46ACac40606af1D233dAfF9AEe66e2f</v>
       </c>
       <c r="B215" t="str">
-        <v>30.42</v>
+        <v>3,301.98</v>
       </c>
       <c r="C215" t="str">
-        <v>30.42</v>
+        <v>3,301.98</v>
       </c>
       <c r="D215" t="str">
         <v>0</v>
       </c>
       <c r="E215" t="str">
-        <v>22.54</v>
+        <v>2,949.97</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>0xC023483Fa22d037EC5f056FC31C8f40751722aD5</v>
+        <v>0x2c7771aCC47795D2F05Ed29C8c17e8887e49fda7</v>
       </c>
       <c r="B216" t="str">
-        <v>2,025.05</v>
+        <v>24.52</v>
       </c>
       <c r="C216" t="str">
-        <v>2,025.05</v>
+        <v>24.52</v>
       </c>
       <c r="D216" t="str">
-        <v>0</v>
+        <v>21.91</v>
       </c>
       <c r="E216" t="str">
-        <v>1,500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>0x7aD2809008E5DA0c33A72f9144e7970a996D5B6D</v>
+        <v>0xa814A19ca89c55cD435C138552a9EDeab68Ded49</v>
       </c>
       <c r="B217" t="str">
-        <v>13.63</v>
+        <v>839.49</v>
       </c>
       <c r="C217" t="str">
-        <v>13.63</v>
+        <v>839.49</v>
       </c>
       <c r="D217" t="str">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E217" t="str">
-        <v>10.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>0x9c6E23aC65D33b747B8c56C04db77d836c41Faf5</v>
+        <v>0xd092C607a92c75de3bB1240494C4822Bf3766D46</v>
       </c>
       <c r="B218" t="str">
-        <v>135.19</v>
+        <v>839.49</v>
       </c>
       <c r="C218" t="str">
-        <v>135.19</v>
+        <v>839.49</v>
       </c>
       <c r="D218" t="str">
         <v>0</v>
       </c>
       <c r="E218" t="str">
-        <v>100.14</v>
+        <v>750</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
+        <v>0x240e0289a4d0D6B1b412ad1A4fD04711656A29ee</v>
       </c>
       <c r="B219" t="str">
-        <v>1,613.91</v>
+        <v>125.05</v>
       </c>
       <c r="C219" t="str">
-        <v>1,613.91</v>
+        <v>125.05</v>
       </c>
       <c r="D219" t="str">
-        <v>0</v>
+        <v>111.72</v>
       </c>
       <c r="E219" t="str">
-        <v>1,195.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
+        <v>0xeB0F9489F9aeFB6Bbd8d7f1cc3620898E30b49c0</v>
       </c>
       <c r="B220" t="str">
-        <v>512.62</v>
+        <v>407.25</v>
       </c>
       <c r="C220" t="str">
-        <v>512.62</v>
+        <v>407.25</v>
       </c>
       <c r="D220" t="str">
         <v>0</v>
       </c>
       <c r="E220" t="str">
-        <v>379.71</v>
+        <v>363.84</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>0xb8D8066d1EE9D03800B7600d2807b7749B9F6899</v>
+        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
       </c>
       <c r="B221" t="str">
-        <v>168.75</v>
+        <v>3,575.08</v>
       </c>
       <c r="C221" t="str">
-        <v>168.75</v>
+        <v>3,575.08</v>
       </c>
       <c r="D221" t="str">
-        <v>125</v>
+        <v>3,193.95</v>
       </c>
       <c r="E221" t="str">
         <v>0</v>
@@ -21695,16 +25637,16 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
+        <v>0x375bE33B63Ad8204eb4FB2CaCa325126d1eC6f19</v>
       </c>
       <c r="B222" t="str">
-        <v>239.59</v>
+        <v>479.96</v>
       </c>
       <c r="C222" t="str">
-        <v>239.59</v>
+        <v>479.96</v>
       </c>
       <c r="D222" t="str">
-        <v>177.47</v>
+        <v>428.8</v>
       </c>
       <c r="E222" t="str">
         <v>0</v>
@@ -21712,160 +25654,75 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>0xEEe37E83b74Ebf3679962F6199dADF968E74efa5</v>
+        <v>0x4DF1C6c7973f4E6e3B22149f7b8eFc4389f97C56</v>
       </c>
       <c r="B223" t="str">
-        <v>239.59</v>
+        <v>546.62</v>
       </c>
       <c r="C223" t="str">
-        <v>239.59</v>
+        <v>546.62</v>
       </c>
       <c r="D223" t="str">
-        <v>0</v>
+        <v>488.35</v>
       </c>
       <c r="E223" t="str">
-        <v>177.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>0xe19CE573b43a5C9232e48A267FC2E16b1A9c456e</v>
+        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
       </c>
       <c r="B224" t="str">
-        <v>6,772.25</v>
+        <v>546.62</v>
       </c>
       <c r="C224" t="str">
-        <v>6,772.25</v>
+        <v>546.62</v>
       </c>
       <c r="D224" t="str">
-        <v>5,016.35</v>
+        <v>0</v>
       </c>
       <c r="E224" t="str">
-        <v>0</v>
+        <v>488.35</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>0x4e0F1063F13d020B1316791Ae56ea5a826aba501</v>
+        <v>0xC023483Fa22d037EC5f056FC31C8f40751722aD5</v>
       </c>
       <c r="B225" t="str">
-        <v>153.44</v>
+        <v>5,596.64</v>
       </c>
       <c r="C225" t="str">
-        <v>153.44</v>
+        <v>5,596.64</v>
       </c>
       <c r="D225" t="str">
         <v>0</v>
       </c>
       <c r="E225" t="str">
-        <v>113.66</v>
+        <v>5,000</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>0x48682644c1e8529338e46e7DdabA4383C1fceBb1</v>
+        <v>Total</v>
       </c>
       <c r="B226" t="str">
-        <v>168.97</v>
+        <v>2,870,773.34</v>
       </c>
       <c r="C226" t="str">
-        <v>168.97</v>
+        <v>3,205,127</v>
       </c>
       <c r="D226" t="str">
-        <v>0</v>
+        <v>1,354,231.14</v>
       </c>
       <c r="E226" t="str">
-        <v>125.16</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="str">
-        <v>0xf1aCBD5dd358c3252ADaa77bDc920cafff2eC0fA</v>
-      </c>
-      <c r="B227" t="str">
-        <v>68.91</v>
-      </c>
-      <c r="C227" t="str">
-        <v>68.91</v>
-      </c>
-      <c r="D227" t="str">
-        <v>0</v>
-      </c>
-      <c r="E227" t="str">
-        <v>51.05</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="str">
-        <v>0xabf7b5b7CdC68F8C01DE6bFD5EAf79da30D8B66A</v>
-      </c>
-      <c r="B228" t="str">
-        <v>3,438.4</v>
-      </c>
-      <c r="C228" t="str">
-        <v>3,438.4</v>
-      </c>
-      <c r="D228" t="str">
-        <v>0</v>
-      </c>
-      <c r="E228" t="str">
-        <v>2,546.9</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="str">
-        <v>0xfDbb14D0A9a2f85663134F16BF006c08e2918B6a</v>
-      </c>
-      <c r="B229" t="str">
-        <v>161.45</v>
-      </c>
-      <c r="C229" t="str">
-        <v>161.45</v>
-      </c>
-      <c r="D229" t="str">
-        <v>0</v>
-      </c>
-      <c r="E229" t="str">
-        <v>119.59</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="str">
-        <v>0xFdEC4840b313115EC4DfDD7EfA4FE156C8C61475</v>
-      </c>
-      <c r="B230" t="str">
-        <v>78.36</v>
-      </c>
-      <c r="C230" t="str">
-        <v>78.36</v>
-      </c>
-      <c r="D230" t="str">
-        <v>58.05</v>
-      </c>
-      <c r="E230" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="str">
-        <v>Total</v>
-      </c>
-      <c r="B231" t="str">
-        <v>3,134,013.51</v>
-      </c>
-      <c r="C231" t="str">
-        <v>3,205,127.1</v>
-      </c>
-      <c r="D231" t="str">
-        <v>1,111,299.12</v>
-      </c>
-      <c r="E231" t="str">
-        <v>1,262,804.92</v>
+        <v>1,509,206.59</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E231"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E226"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/staker_incentives.xlsx
+++ b/staker_incentives.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Blocks 71201413 - 71485154" sheetId="12" r:id="rId12"/>
     <sheet name="Blocks 71485155 - 71767951" sheetId="13" r:id="rId13"/>
     <sheet name="Blocks 71767952 - 72049006" sheetId="14" r:id="rId14"/>
+    <sheet name="Blocks 72049007 - 72332266" sheetId="15" r:id="rId15"/>
   </sheets>
 </workbook>
 </file>
@@ -21870,6 +21871,3862 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Staker Address</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Reward (ERC20 TEL)</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Uncapped Reward (ERC20 TEL)</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Staker Fees</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Referee Fees</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+      </c>
+      <c r="B2" t="str">
+        <v>3,695.77</v>
+      </c>
+      <c r="C2" t="str">
+        <v>3,695.77</v>
+      </c>
+      <c r="D2" t="str">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <v>3,301.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>0x5Fc4faF3934548c57d66f1179C2991cEd028E61F</v>
+      </c>
+      <c r="B3" t="str">
+        <v>839.49</v>
+      </c>
+      <c r="C3" t="str">
+        <v>839.49</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>0xe23bc0609A8Df4EA2A597AEAAFcBF421BFfBDCFd</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1,019.41</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1,019.41</v>
+      </c>
+      <c r="D4" t="str">
+        <v>910.74</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+      </c>
+      <c r="B5" t="str">
+        <v>46,884.22</v>
+      </c>
+      <c r="C5" t="str">
+        <v>46,884.22</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>41,886.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
+      </c>
+      <c r="B6" t="str">
+        <v>7,244.79</v>
+      </c>
+      <c r="C6" t="str">
+        <v>7,244.79</v>
+      </c>
+      <c r="D6" t="str">
+        <v>6,472.45</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
+      </c>
+      <c r="B7" t="str">
+        <v>10,411.22</v>
+      </c>
+      <c r="C7" t="str">
+        <v>10,411.22</v>
+      </c>
+      <c r="D7" t="str">
+        <v>441.95</v>
+      </c>
+      <c r="E7" t="str">
+        <v>8,859.36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
+      </c>
+      <c r="B8" t="str">
+        <v>27.8</v>
+      </c>
+      <c r="C8" t="str">
+        <v>27.8</v>
+      </c>
+      <c r="D8" t="str">
+        <v>24.84</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+      </c>
+      <c r="B9" t="str">
+        <v>2,147.95</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2,147.95</v>
+      </c>
+      <c r="D9" t="str">
+        <v>1,918.97</v>
+      </c>
+      <c r="E9" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+      </c>
+      <c r="B10" t="str">
+        <v>12,913.08</v>
+      </c>
+      <c r="C10" t="str">
+        <v>12,913.08</v>
+      </c>
+      <c r="D10" t="str">
+        <v>5,729.41</v>
+      </c>
+      <c r="E10" t="str">
+        <v>5,807.04</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+      </c>
+      <c r="B11" t="str">
+        <v>12,047.79</v>
+      </c>
+      <c r="C11" t="str">
+        <v>12,047.79</v>
+      </c>
+      <c r="D11" t="str">
+        <v>248.49</v>
+      </c>
+      <c r="E11" t="str">
+        <v>10,514.92</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>0x46c17eC4E5fb0529F5559f6990d81f0420Be1E5c</v>
+      </c>
+      <c r="B12" t="str">
+        <v>3,073.64</v>
+      </c>
+      <c r="C12" t="str">
+        <v>3,073.64</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2,743.97</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+      </c>
+      <c r="B13" t="str">
+        <v>13,746.66</v>
+      </c>
+      <c r="C13" t="str">
+        <v>13,746.66</v>
+      </c>
+      <c r="D13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>12,281.17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+      </c>
+      <c r="B14" t="str">
+        <v>65,894.99</v>
+      </c>
+      <c r="C14" t="str">
+        <v>65,894.99</v>
+      </c>
+      <c r="D14" t="str">
+        <v>14,400.67</v>
+      </c>
+      <c r="E14" t="str">
+        <v>44,469.43</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>0x880cd618B4cA66bBb8862558954d8473d7b0C867</v>
+      </c>
+      <c r="B15" t="str">
+        <v>60.72</v>
+      </c>
+      <c r="C15" t="str">
+        <v>60.72</v>
+      </c>
+      <c r="D15" t="str">
+        <v>54.25</v>
+      </c>
+      <c r="E15" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
+      </c>
+      <c r="B16" t="str">
+        <v>350.11</v>
+      </c>
+      <c r="C16" t="str">
+        <v>350.11</v>
+      </c>
+      <c r="D16" t="str">
+        <v>312.79</v>
+      </c>
+      <c r="E16" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+      </c>
+      <c r="B17" t="str">
+        <v>495.06</v>
+      </c>
+      <c r="C17" t="str">
+        <v>495.06</v>
+      </c>
+      <c r="D17" t="str">
+        <v>442.29</v>
+      </c>
+      <c r="E17" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
+      </c>
+      <c r="B18" t="str">
+        <v>477.41</v>
+      </c>
+      <c r="C18" t="str">
+        <v>477.41</v>
+      </c>
+      <c r="D18" t="str">
+        <v>426.52</v>
+      </c>
+      <c r="E18" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>0x5536d4a1AA3bB77FD79ba4f8492a1BF8B9772e88</v>
+      </c>
+      <c r="B19" t="str">
+        <v>736.74</v>
+      </c>
+      <c r="C19" t="str">
+        <v>736.74</v>
+      </c>
+      <c r="D19" t="str">
+        <v>658.2</v>
+      </c>
+      <c r="E19" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
+      </c>
+      <c r="B20" t="str">
+        <v>504.33</v>
+      </c>
+      <c r="C20" t="str">
+        <v>504.33</v>
+      </c>
+      <c r="D20" t="str">
+        <v>450.57</v>
+      </c>
+      <c r="E20" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
+      </c>
+      <c r="B21" t="str">
+        <v>7,835.3</v>
+      </c>
+      <c r="C21" t="str">
+        <v>7,835.3</v>
+      </c>
+      <c r="D21" t="str">
+        <v>7,000</v>
+      </c>
+      <c r="E21" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+      </c>
+      <c r="B22" t="str">
+        <v>631.45</v>
+      </c>
+      <c r="C22" t="str">
+        <v>631.45</v>
+      </c>
+      <c r="D22" t="str">
+        <v>122.19</v>
+      </c>
+      <c r="E22" t="str">
+        <v>441.95</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
+      </c>
+      <c r="B23" t="str">
+        <v>124.89</v>
+      </c>
+      <c r="C23" t="str">
+        <v>124.89</v>
+      </c>
+      <c r="D23" t="str">
+        <v>111.58</v>
+      </c>
+      <c r="E23" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
+      </c>
+      <c r="B24" t="str">
+        <v>11,805.56</v>
+      </c>
+      <c r="C24" t="str">
+        <v>11,805.56</v>
+      </c>
+      <c r="D24" t="str">
+        <v>2,515.02</v>
+      </c>
+      <c r="E24" t="str">
+        <v>8,031.98</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
+      </c>
+      <c r="B25" t="str">
+        <v>96,884.95</v>
+      </c>
+      <c r="C25" t="str">
+        <v>220,291.95</v>
+      </c>
+      <c r="D25" t="str">
+        <v>345.38</v>
+      </c>
+      <c r="E25" t="str">
+        <v>196,461.82</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+      </c>
+      <c r="B26" t="str">
+        <v>79,313.03</v>
+      </c>
+      <c r="C26" t="str">
+        <v>220,291.95</v>
+      </c>
+      <c r="D26" t="str">
+        <v>196,461.82</v>
+      </c>
+      <c r="E26" t="str">
+        <v>345.38</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+      </c>
+      <c r="B27" t="str">
+        <v>16,178.43</v>
+      </c>
+      <c r="C27" t="str">
+        <v>16,178.43</v>
+      </c>
+      <c r="D27" t="str">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <v>14,453.69</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>0x9A4dbCDE63b55273DC51BeA546A7ba6456f059D0</v>
+      </c>
+      <c r="B28" t="str">
+        <v>223.86</v>
+      </c>
+      <c r="C28" t="str">
+        <v>223.86</v>
+      </c>
+      <c r="D28" t="str">
+        <v>200</v>
+      </c>
+      <c r="E28" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>0x95E299A16E92649D2Ae7E56Eed03124BcE3F2d65</v>
+      </c>
+      <c r="B29" t="str">
+        <v>460.45</v>
+      </c>
+      <c r="C29" t="str">
+        <v>460.45</v>
+      </c>
+      <c r="D29" t="str">
+        <v>411.37</v>
+      </c>
+      <c r="E29" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
+      </c>
+      <c r="B30" t="str">
+        <v>0</v>
+      </c>
+      <c r="C30" t="str">
+        <v>25.47</v>
+      </c>
+      <c r="D30" t="str">
+        <v>22.76</v>
+      </c>
+      <c r="E30" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>0xF6a52cb99b772d46C736F6F90Be792A1d4159414</v>
+      </c>
+      <c r="B31" t="str">
+        <v>103.1</v>
+      </c>
+      <c r="C31" t="str">
+        <v>103.1</v>
+      </c>
+      <c r="D31" t="str">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <v>92.11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
+      </c>
+      <c r="B32" t="str">
+        <v>1,421.45</v>
+      </c>
+      <c r="C32" t="str">
+        <v>1,421.45</v>
+      </c>
+      <c r="D32" t="str">
+        <v>1,269.92</v>
+      </c>
+      <c r="E32" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>0x7617203fAd8e02b81d866a269500fdF417A0Cb2c</v>
+      </c>
+      <c r="B33" t="str">
+        <v>243.47</v>
+      </c>
+      <c r="C33" t="str">
+        <v>243.47</v>
+      </c>
+      <c r="D33" t="str">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <v>217.52</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>0xBc7b31dFbEd762841AC646961C887B49e3f625d5</v>
+      </c>
+      <c r="B34" t="str">
+        <v>838.23</v>
+      </c>
+      <c r="C34" t="str">
+        <v>838.23</v>
+      </c>
+      <c r="D34" t="str">
+        <v>748.87</v>
+      </c>
+      <c r="E34" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
+      </c>
+      <c r="B35" t="str">
+        <v>5,326.46</v>
+      </c>
+      <c r="C35" t="str">
+        <v>5,326.46</v>
+      </c>
+      <c r="D35" t="str">
+        <v>4,758.62</v>
+      </c>
+      <c r="E35" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
+      </c>
+      <c r="B36" t="str">
+        <v>13.45</v>
+      </c>
+      <c r="C36" t="str">
+        <v>13.45</v>
+      </c>
+      <c r="D36" t="str">
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
+      </c>
+      <c r="B37" t="str">
+        <v>3,682.65</v>
+      </c>
+      <c r="C37" t="str">
+        <v>3,682.65</v>
+      </c>
+      <c r="D37" t="str">
+        <v>302.37</v>
+      </c>
+      <c r="E37" t="str">
+        <v>2,987.69</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>0xEe5358d1d36262CeFC36478E37A718FA4d7847eB</v>
+      </c>
+      <c r="B38" t="str">
+        <v>77.25</v>
+      </c>
+      <c r="C38" t="str">
+        <v>77.25</v>
+      </c>
+      <c r="D38" t="str">
+        <v>21.85</v>
+      </c>
+      <c r="E38" t="str">
+        <v>47.17</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+      </c>
+      <c r="B39" t="str">
+        <v>778,724.99</v>
+      </c>
+      <c r="C39" t="str">
+        <v>778,724.99</v>
+      </c>
+      <c r="D39" t="str">
+        <v>347,844.7</v>
+      </c>
+      <c r="E39" t="str">
+        <v>347,862.43</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+      </c>
+      <c r="B40" t="str">
+        <v>156,352.73</v>
+      </c>
+      <c r="C40" t="str">
+        <v>156,352.73</v>
+      </c>
+      <c r="D40" t="str">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <v>139,684.37</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
+      </c>
+      <c r="B41" t="str">
+        <v>4,070.14</v>
+      </c>
+      <c r="C41" t="str">
+        <v>4,070.14</v>
+      </c>
+      <c r="D41" t="str">
+        <v>3,636.24</v>
+      </c>
+      <c r="E41" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
+      </c>
+      <c r="B42" t="str">
+        <v>1,890.9</v>
+      </c>
+      <c r="C42" t="str">
+        <v>1,890.9</v>
+      </c>
+      <c r="D42" t="str">
+        <v>1,689.32</v>
+      </c>
+      <c r="E42" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>0x24EC4345706a30747bA16dCA3e9751B73b72C78a</v>
+      </c>
+      <c r="B43" t="str">
+        <v>512.12</v>
+      </c>
+      <c r="C43" t="str">
+        <v>512.12</v>
+      </c>
+      <c r="D43" t="str">
+        <v>457.53</v>
+      </c>
+      <c r="E43" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+      </c>
+      <c r="B44" t="str">
+        <v>78.59</v>
+      </c>
+      <c r="C44" t="str">
+        <v>78.59</v>
+      </c>
+      <c r="D44" t="str">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <v>70.22</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+      </c>
+      <c r="B45" t="str">
+        <v>74.8</v>
+      </c>
+      <c r="C45" t="str">
+        <v>74.8</v>
+      </c>
+      <c r="D45" t="str">
+        <v>66.83</v>
+      </c>
+      <c r="E45" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
+      </c>
+      <c r="B46" t="str">
+        <v>139.93</v>
+      </c>
+      <c r="C46" t="str">
+        <v>139.93</v>
+      </c>
+      <c r="D46" t="str">
+        <v>5.26</v>
+      </c>
+      <c r="E46" t="str">
+        <v>119.76</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+      </c>
+      <c r="B47" t="str">
+        <v>452.42</v>
+      </c>
+      <c r="C47" t="str">
+        <v>452.42</v>
+      </c>
+      <c r="D47" t="str">
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <v>404.19</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>0x3d5F0A62033206273527Ef33569213E904eC4DdF</v>
+      </c>
+      <c r="B48" t="str">
+        <v>86.92</v>
+      </c>
+      <c r="C48" t="str">
+        <v>86.92</v>
+      </c>
+      <c r="D48" t="str">
+        <v>12.5</v>
+      </c>
+      <c r="E48" t="str">
+        <v>65.16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>0xD1FFD361cAb618DD952bB36067FC4a41e40729FB</v>
+      </c>
+      <c r="B49" t="str">
+        <v>2,250</v>
+      </c>
+      <c r="C49" t="str">
+        <v>3,902.85</v>
+      </c>
+      <c r="D49" t="str">
+        <v>3,486.78</v>
+      </c>
+      <c r="E49" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+      </c>
+      <c r="B50" t="str">
+        <v>14,648.99</v>
+      </c>
+      <c r="C50" t="str">
+        <v>14,648.99</v>
+      </c>
+      <c r="D50" t="str">
+        <v>13,087.3</v>
+      </c>
+      <c r="E50" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>0x77Fb1AeEEC6e3F3Cfe3a1f3aB87E7cB74872Db5D</v>
+      </c>
+      <c r="B51" t="str">
+        <v>6,098.51</v>
+      </c>
+      <c r="C51" t="str">
+        <v>6,098.51</v>
+      </c>
+      <c r="D51" t="str">
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <v>5,448.37</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>0x9331C5f74A13ee04abDA206dceec4c82c9f6e19E</v>
+      </c>
+      <c r="B52" t="str">
+        <v>3,582.16</v>
+      </c>
+      <c r="C52" t="str">
+        <v>3,582.16</v>
+      </c>
+      <c r="D52" t="str">
+        <v>3,200.28</v>
+      </c>
+      <c r="E52" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>0x7DDA419096b8c81d4A5E6cc65ea0D380D0A1b6E4</v>
+      </c>
+      <c r="B53" t="str">
+        <v>2,262.92</v>
+      </c>
+      <c r="C53" t="str">
+        <v>2,262.92</v>
+      </c>
+      <c r="D53" t="str">
+        <v>2,021.68</v>
+      </c>
+      <c r="E53" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
+      </c>
+      <c r="B54" t="str">
+        <v>117.52</v>
+      </c>
+      <c r="C54" t="str">
+        <v>117.52</v>
+      </c>
+      <c r="D54" t="str">
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0x79aEE20f3285556556f78fE4d56c121B981cE910</v>
+      </c>
+      <c r="B55" t="str">
+        <v>254.26</v>
+      </c>
+      <c r="C55" t="str">
+        <v>254.26</v>
+      </c>
+      <c r="D55" t="str">
+        <v>227.16</v>
+      </c>
+      <c r="E55" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>0x8Bd36e5768cc249C5Bd016DFC10f6EFC3D4EC4FA</v>
+      </c>
+      <c r="B56" t="str">
+        <v>30.35</v>
+      </c>
+      <c r="C56" t="str">
+        <v>30.35</v>
+      </c>
+      <c r="D56" t="str">
+        <v>27.12</v>
+      </c>
+      <c r="E56" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>0x8BFF5eB745527844b0abfd7D9730cDE82948cFf0</v>
+      </c>
+      <c r="B57" t="str">
+        <v>1,348.39</v>
+      </c>
+      <c r="C57" t="str">
+        <v>1,348.39</v>
+      </c>
+      <c r="D57" t="str">
+        <v>1,204.65</v>
+      </c>
+      <c r="E57" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>0x165F4f9805770Eb044Cd2A5a3f1b3E07Ba8B15e9</v>
+      </c>
+      <c r="B58" t="str">
+        <v>117.97</v>
+      </c>
+      <c r="C58" t="str">
+        <v>117.97</v>
+      </c>
+      <c r="D58" t="str">
+        <v>105.4</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>0x97FD7d404b26A9b59d6F5bAc4Ff34349641bA6c5</v>
+      </c>
+      <c r="B59" t="str">
+        <v>937</v>
+      </c>
+      <c r="C59" t="str">
+        <v>937</v>
+      </c>
+      <c r="D59" t="str">
+        <v>837.11</v>
+      </c>
+      <c r="E59" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>0x357cDa2237d31e618ba3A39dD4691429E7cDD107</v>
+      </c>
+      <c r="B60" t="str">
+        <v>685.96</v>
+      </c>
+      <c r="C60" t="str">
+        <v>685.96</v>
+      </c>
+      <c r="D60" t="str">
+        <v>612.84</v>
+      </c>
+      <c r="E60" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
+      </c>
+      <c r="B61" t="str">
+        <v>111.93</v>
+      </c>
+      <c r="C61" t="str">
+        <v>111.93</v>
+      </c>
+      <c r="D61" t="str">
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>0x54241C1A4d287D49c5f815467708db4247DFA763</v>
+      </c>
+      <c r="B62" t="str">
+        <v>37.22</v>
+      </c>
+      <c r="C62" t="str">
+        <v>37.22</v>
+      </c>
+      <c r="D62" t="str">
+        <v>33.26</v>
+      </c>
+      <c r="E62" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
+      </c>
+      <c r="B63" t="str">
+        <v>37.22</v>
+      </c>
+      <c r="C63" t="str">
+        <v>37.22</v>
+      </c>
+      <c r="D63" t="str">
+        <v>0</v>
+      </c>
+      <c r="E63" t="str">
+        <v>33.26</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
+      </c>
+      <c r="B64" t="str">
+        <v>407.25</v>
+      </c>
+      <c r="C64" t="str">
+        <v>407.25</v>
+      </c>
+      <c r="D64" t="str">
+        <v>363.84</v>
+      </c>
+      <c r="E64" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
+      </c>
+      <c r="B65" t="str">
+        <v>422.61</v>
+      </c>
+      <c r="C65" t="str">
+        <v>422.61</v>
+      </c>
+      <c r="D65" t="str">
+        <v>377.56</v>
+      </c>
+      <c r="E65" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>0xf74f5cF53A6746b1eddD9C7ea8Ab7447797c3D74</v>
+      </c>
+      <c r="B66" t="str">
+        <v>24,586.26</v>
+      </c>
+      <c r="C66" t="str">
+        <v>24,586.26</v>
+      </c>
+      <c r="D66" t="str">
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <v>21,965.19</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+      </c>
+      <c r="B67" t="str">
+        <v>38,504.61</v>
+      </c>
+      <c r="C67" t="str">
+        <v>38,504.61</v>
+      </c>
+      <c r="D67" t="str">
+        <v>11,178.52</v>
+      </c>
+      <c r="E67" t="str">
+        <v>23,221.22</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>0x2848A658c1097a8639d2fb62a977b23903200b53</v>
+      </c>
+      <c r="B68" t="str">
+        <v>234.17</v>
+      </c>
+      <c r="C68" t="str">
+        <v>234.17</v>
+      </c>
+      <c r="D68" t="str">
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <v>209.21</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+      </c>
+      <c r="B69" t="str">
+        <v>2,077.22</v>
+      </c>
+      <c r="C69" t="str">
+        <v>2,077.22</v>
+      </c>
+      <c r="D69" t="str">
+        <v>0</v>
+      </c>
+      <c r="E69" t="str">
+        <v>1,855.78</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>0xb8D8066d1EE9D03800B7600d2807b7749B9F6899</v>
+      </c>
+      <c r="B70" t="str">
+        <v>839.49</v>
+      </c>
+      <c r="C70" t="str">
+        <v>839.49</v>
+      </c>
+      <c r="D70" t="str">
+        <v>750</v>
+      </c>
+      <c r="E70" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+      </c>
+      <c r="B71" t="str">
+        <v>4,344.66</v>
+      </c>
+      <c r="C71" t="str">
+        <v>4,344.66</v>
+      </c>
+      <c r="D71" t="str">
+        <v>2,970.75</v>
+      </c>
+      <c r="E71" t="str">
+        <v>910.74</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
+      </c>
+      <c r="B72" t="str">
+        <v>1,221.13</v>
+      </c>
+      <c r="C72" t="str">
+        <v>1,221.13</v>
+      </c>
+      <c r="D72" t="str">
+        <v>994.06</v>
+      </c>
+      <c r="E72" t="str">
+        <v>96.89</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
+      </c>
+      <c r="B73" t="str">
+        <v>1,112.67</v>
+      </c>
+      <c r="C73" t="str">
+        <v>1,112.67</v>
+      </c>
+      <c r="D73" t="str">
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <v>994.06</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
+      </c>
+      <c r="B74" t="str">
+        <v>5,009.85</v>
+      </c>
+      <c r="C74" t="str">
+        <v>5,009.85</v>
+      </c>
+      <c r="D74" t="str">
+        <v>536.28</v>
+      </c>
+      <c r="E74" t="str">
+        <v>3,939.49</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
+      </c>
+      <c r="B75" t="str">
+        <v>1,339.39</v>
+      </c>
+      <c r="C75" t="str">
+        <v>1,339.39</v>
+      </c>
+      <c r="D75" t="str">
+        <v>1,196.61</v>
+      </c>
+      <c r="E75" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
+      </c>
+      <c r="B76" t="str">
+        <v>336.91</v>
+      </c>
+      <c r="C76" t="str">
+        <v>336.91</v>
+      </c>
+      <c r="D76" t="str">
+        <v>301</v>
+      </c>
+      <c r="E76" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+      </c>
+      <c r="B77" t="str">
+        <v>470.06</v>
+      </c>
+      <c r="C77" t="str">
+        <v>470.06</v>
+      </c>
+      <c r="D77" t="str">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <v>419.95</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+      </c>
+      <c r="B78" t="str">
+        <v>71,247.77</v>
+      </c>
+      <c r="C78" t="str">
+        <v>71,247.77</v>
+      </c>
+      <c r="D78" t="str">
+        <v>33,021.88</v>
+      </c>
+      <c r="E78" t="str">
+        <v>30,630.35</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+      </c>
+      <c r="B79" t="str">
+        <v>71,742.83</v>
+      </c>
+      <c r="C79" t="str">
+        <v>71,742.83</v>
+      </c>
+      <c r="D79" t="str">
+        <v>30,630.35</v>
+      </c>
+      <c r="E79" t="str">
+        <v>33,464.17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+      </c>
+      <c r="B80" t="str">
+        <v>7,330.43</v>
+      </c>
+      <c r="C80" t="str">
+        <v>7,330.43</v>
+      </c>
+      <c r="D80" t="str">
+        <v>6,548.96</v>
+      </c>
+      <c r="E80" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
+      </c>
+      <c r="B81" t="str">
+        <v>4,645.21</v>
+      </c>
+      <c r="C81" t="str">
+        <v>4,645.21</v>
+      </c>
+      <c r="D81" t="str">
+        <v>0</v>
+      </c>
+      <c r="E81" t="str">
+        <v>4,150</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
+      </c>
+      <c r="B82" t="str">
+        <v>27.8</v>
+      </c>
+      <c r="C82" t="str">
+        <v>27.8</v>
+      </c>
+      <c r="D82" t="str">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <v>24.84</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+      </c>
+      <c r="B83" t="str">
+        <v>7,794.56</v>
+      </c>
+      <c r="C83" t="str">
+        <v>7,794.56</v>
+      </c>
+      <c r="D83" t="str">
+        <v>6,963.61</v>
+      </c>
+      <c r="E83" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
+      </c>
+      <c r="B84" t="str">
+        <v>278.14</v>
+      </c>
+      <c r="C84" t="str">
+        <v>278.14</v>
+      </c>
+      <c r="D84" t="str">
+        <v>0</v>
+      </c>
+      <c r="E84" t="str">
+        <v>248.49</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+      </c>
+      <c r="B85" t="str">
+        <v>1,626.45</v>
+      </c>
+      <c r="C85" t="str">
+        <v>1,626.45</v>
+      </c>
+      <c r="D85" t="str">
+        <v>0</v>
+      </c>
+      <c r="E85" t="str">
+        <v>1,453.06</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
+      </c>
+      <c r="B86" t="str">
+        <v>576.45</v>
+      </c>
+      <c r="C86" t="str">
+        <v>576.45</v>
+      </c>
+      <c r="D86" t="str">
+        <v>0</v>
+      </c>
+      <c r="E86" t="str">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>0x2abf42F330c60491E8A36B73c9F3F9Ed40CDa546</v>
+      </c>
+      <c r="B87" t="str">
+        <v>17,244.9</v>
+      </c>
+      <c r="C87" t="str">
+        <v>17,244.9</v>
+      </c>
+      <c r="D87" t="str">
+        <v>608.22</v>
+      </c>
+      <c r="E87" t="str">
+        <v>14,798.25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>0x36413818a988749f40de4877B51f782126282a89</v>
+      </c>
+      <c r="B88" t="str">
+        <v>1,087.37</v>
+      </c>
+      <c r="C88" t="str">
+        <v>1,087.37</v>
+      </c>
+      <c r="D88" t="str">
+        <v>971.45</v>
+      </c>
+      <c r="E88" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
+      </c>
+      <c r="B89" t="str">
+        <v>1,362.06</v>
+      </c>
+      <c r="C89" t="str">
+        <v>1,362.06</v>
+      </c>
+      <c r="D89" t="str">
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <v>1,216.86</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>0x48A7209DD07Bc7409bF3f61820E1Ee9409F462e9</v>
+      </c>
+      <c r="B90" t="str">
+        <v>352.58</v>
+      </c>
+      <c r="C90" t="str">
+        <v>352.58</v>
+      </c>
+      <c r="D90" t="str">
+        <v>0</v>
+      </c>
+      <c r="E90" t="str">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
+      </c>
+      <c r="B91" t="str">
+        <v>11,769.65</v>
+      </c>
+      <c r="C91" t="str">
+        <v>11,769.65</v>
+      </c>
+      <c r="D91" t="str">
+        <v>10,514.92</v>
+      </c>
+      <c r="E91" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+      </c>
+      <c r="B92" t="str">
+        <v>247.13</v>
+      </c>
+      <c r="C92" t="str">
+        <v>247.13</v>
+      </c>
+      <c r="D92" t="str">
+        <v>167.99</v>
+      </c>
+      <c r="E92" t="str">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
+      </c>
+      <c r="B93" t="str">
+        <v>1,097.17</v>
+      </c>
+      <c r="C93" t="str">
+        <v>1,097.17</v>
+      </c>
+      <c r="D93" t="str">
+        <v>419.33</v>
+      </c>
+      <c r="E93" t="str">
+        <v>560.88</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+      </c>
+      <c r="B94" t="str">
+        <v>0</v>
+      </c>
+      <c r="C94" t="str">
+        <v>35,083.86</v>
+      </c>
+      <c r="D94" t="str">
+        <v>0</v>
+      </c>
+      <c r="E94" t="str">
+        <v>31,343.66</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
+      </c>
+      <c r="B95" t="str">
+        <v>279.83</v>
+      </c>
+      <c r="C95" t="str">
+        <v>279.83</v>
+      </c>
+      <c r="D95" t="str">
+        <v>0</v>
+      </c>
+      <c r="E95" t="str">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>0xc01bdF2F593bbbFe1e15540c818c57f919466D7B</v>
+      </c>
+      <c r="B96" t="str">
+        <v>4,362.93</v>
+      </c>
+      <c r="C96" t="str">
+        <v>4,362.93</v>
+      </c>
+      <c r="D96" t="str">
+        <v>1,917.14</v>
+      </c>
+      <c r="E96" t="str">
+        <v>1,980.67</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+      </c>
+      <c r="B97" t="str">
+        <v>93.94</v>
+      </c>
+      <c r="C97" t="str">
+        <v>93.94</v>
+      </c>
+      <c r="D97" t="str">
+        <v>83.93</v>
+      </c>
+      <c r="E97" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+      </c>
+      <c r="B98" t="str">
+        <v>572.97</v>
+      </c>
+      <c r="C98" t="str">
+        <v>572.97</v>
+      </c>
+      <c r="D98" t="str">
+        <v>511.89</v>
+      </c>
+      <c r="E98" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
+      </c>
+      <c r="B99" t="str">
+        <v>5,146.77</v>
+      </c>
+      <c r="C99" t="str">
+        <v>5,146.77</v>
+      </c>
+      <c r="D99" t="str">
+        <v>0</v>
+      </c>
+      <c r="E99" t="str">
+        <v>4,598.09</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+      </c>
+      <c r="B100" t="str">
+        <v>350.11</v>
+      </c>
+      <c r="C100" t="str">
+        <v>350.11</v>
+      </c>
+      <c r="D100" t="str">
+        <v>0</v>
+      </c>
+      <c r="E100" t="str">
+        <v>312.79</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
+      </c>
+      <c r="B101" t="str">
+        <v>243.45</v>
+      </c>
+      <c r="C101" t="str">
+        <v>243.45</v>
+      </c>
+      <c r="D101" t="str">
+        <v>217.5</v>
+      </c>
+      <c r="E101" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+      </c>
+      <c r="B102" t="str">
+        <v>23,338.74</v>
+      </c>
+      <c r="C102" t="str">
+        <v>23,338.74</v>
+      </c>
+      <c r="D102" t="str">
+        <v>20,101.79</v>
+      </c>
+      <c r="E102" t="str">
+        <v>748.87</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+      </c>
+      <c r="B103" t="str">
+        <v>8,509.13</v>
+      </c>
+      <c r="C103" t="str">
+        <v>8,509.13</v>
+      </c>
+      <c r="D103" t="str">
+        <v>0</v>
+      </c>
+      <c r="E103" t="str">
+        <v>7,602</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>0x9c6E23aC65D33b747B8c56C04db77d836c41Faf5</v>
+      </c>
+      <c r="B104" t="str">
+        <v>597.4</v>
+      </c>
+      <c r="C104" t="str">
+        <v>597.4</v>
+      </c>
+      <c r="D104" t="str">
+        <v>0</v>
+      </c>
+      <c r="E104" t="str">
+        <v>533.72</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
+      </c>
+      <c r="B105" t="str">
+        <v>4,152.09</v>
+      </c>
+      <c r="C105" t="str">
+        <v>4,152.09</v>
+      </c>
+      <c r="D105" t="str">
+        <v>3,709.45</v>
+      </c>
+      <c r="E105" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
+      </c>
+      <c r="B106" t="str">
+        <v>504.33</v>
+      </c>
+      <c r="C106" t="str">
+        <v>504.33</v>
+      </c>
+      <c r="D106" t="str">
+        <v>0</v>
+      </c>
+      <c r="E106" t="str">
+        <v>450.57</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
+      </c>
+      <c r="B107" t="str">
+        <v>593.84</v>
+      </c>
+      <c r="C107" t="str">
+        <v>593.84</v>
+      </c>
+      <c r="D107" t="str">
+        <v>530.54</v>
+      </c>
+      <c r="E107" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
+      </c>
+      <c r="B108" t="str">
+        <v>593.84</v>
+      </c>
+      <c r="C108" t="str">
+        <v>593.84</v>
+      </c>
+      <c r="D108" t="str">
+        <v>0</v>
+      </c>
+      <c r="E108" t="str">
+        <v>530.54</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>0xA271d7ad0ce0b28cdc464dfD5F3A66B4d55B5Acc</v>
+      </c>
+      <c r="B109" t="str">
+        <v>390.27</v>
+      </c>
+      <c r="C109" t="str">
+        <v>390.27</v>
+      </c>
+      <c r="D109" t="str">
+        <v>348.67</v>
+      </c>
+      <c r="E109" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>0xE3c3CD768EF78506A37144Ce83b1f34af56A89D5</v>
+      </c>
+      <c r="B110" t="str">
+        <v>390.27</v>
+      </c>
+      <c r="C110" t="str">
+        <v>390.27</v>
+      </c>
+      <c r="D110" t="str">
+        <v>0</v>
+      </c>
+      <c r="E110" t="str">
+        <v>348.67</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+      </c>
+      <c r="B111" t="str">
+        <v>348.54</v>
+      </c>
+      <c r="C111" t="str">
+        <v>348.54</v>
+      </c>
+      <c r="D111" t="str">
+        <v>311.39</v>
+      </c>
+      <c r="E111" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>0xB19c1b3cEc4c5bD6DCA220A4f59de9EC681e9211</v>
+      </c>
+      <c r="B112" t="str">
+        <v>0</v>
+      </c>
+      <c r="C112" t="str">
+        <v>22.11</v>
+      </c>
+      <c r="D112" t="str">
+        <v>19.76</v>
+      </c>
+      <c r="E112" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
+      </c>
+      <c r="B113" t="str">
+        <v>0</v>
+      </c>
+      <c r="C113" t="str">
+        <v>596.45</v>
+      </c>
+      <c r="D113" t="str">
+        <v>532.87</v>
+      </c>
+      <c r="E113" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+      </c>
+      <c r="B114" t="str">
+        <v>143.87</v>
+      </c>
+      <c r="C114" t="str">
+        <v>143.87</v>
+      </c>
+      <c r="D114" t="str">
+        <v>0</v>
+      </c>
+      <c r="E114" t="str">
+        <v>128.54</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>0x9C19FE52c5b04d39EF89d58fCDef24A55CfDA4a7</v>
+      </c>
+      <c r="B115" t="str">
+        <v>123.12</v>
+      </c>
+      <c r="C115" t="str">
+        <v>123.12</v>
+      </c>
+      <c r="D115" t="str">
+        <v>110</v>
+      </c>
+      <c r="E115" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>0x1e08bba24EeaB34dCc15Bc335c2638D40E1e3BD5</v>
+      </c>
+      <c r="B116" t="str">
+        <v>2,296.11</v>
+      </c>
+      <c r="C116" t="str">
+        <v>2,296.11</v>
+      </c>
+      <c r="D116" t="str">
+        <v>2,051.33</v>
+      </c>
+      <c r="E116" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>0x60999E23eccfa3f5e3361ABAb7DA635f2aBf891e</v>
+      </c>
+      <c r="B117" t="str">
+        <v>2,296.11</v>
+      </c>
+      <c r="C117" t="str">
+        <v>2,296.11</v>
+      </c>
+      <c r="D117" t="str">
+        <v>0</v>
+      </c>
+      <c r="E117" t="str">
+        <v>2,051.33</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>0x212A3caD6d1572C706959d2aeF63071e61914bf2</v>
+      </c>
+      <c r="B118" t="str">
+        <v>1,429.15</v>
+      </c>
+      <c r="C118" t="str">
+        <v>1,429.15</v>
+      </c>
+      <c r="D118" t="str">
+        <v>763.09</v>
+      </c>
+      <c r="E118" t="str">
+        <v>513.71</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>0x3479Ce7954Aebd06dD613A42301C911d85c789bF</v>
+      </c>
+      <c r="B119" t="str">
+        <v>1,076.21</v>
+      </c>
+      <c r="C119" t="str">
+        <v>1,076.21</v>
+      </c>
+      <c r="D119" t="str">
+        <v>961.48</v>
+      </c>
+      <c r="E119" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>0xa899FaB0CE9CDA2E314856C10A9F5B578b9f2778</v>
+      </c>
+      <c r="B120" t="str">
+        <v>1,076.21</v>
+      </c>
+      <c r="C120" t="str">
+        <v>1,076.21</v>
+      </c>
+      <c r="D120" t="str">
+        <v>0</v>
+      </c>
+      <c r="E120" t="str">
+        <v>961.48</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
+      </c>
+      <c r="B121" t="str">
+        <v>0</v>
+      </c>
+      <c r="C121" t="str">
+        <v>1,259.24</v>
+      </c>
+      <c r="D121" t="str">
+        <v>1,125</v>
+      </c>
+      <c r="E121" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>0xFa544d034dC07aD4Fa185ba769031a29Fbef5e36</v>
+      </c>
+      <c r="B122" t="str">
+        <v>0</v>
+      </c>
+      <c r="C122" t="str">
+        <v>124.89</v>
+      </c>
+      <c r="D122" t="str">
+        <v>0</v>
+      </c>
+      <c r="E122" t="str">
+        <v>111.58</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
+      </c>
+      <c r="B123" t="str">
+        <v>532.29</v>
+      </c>
+      <c r="C123" t="str">
+        <v>532.29</v>
+      </c>
+      <c r="D123" t="str">
+        <v>0</v>
+      </c>
+      <c r="E123" t="str">
+        <v>475.55</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+      </c>
+      <c r="B124" t="str">
+        <v>2,408.48</v>
+      </c>
+      <c r="C124" t="str">
+        <v>2,408.48</v>
+      </c>
+      <c r="D124" t="str">
+        <v>0</v>
+      </c>
+      <c r="E124" t="str">
+        <v>2,151.72</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>0xedaa63C95A0faB8e7Dc7A710f8b9Aa6ee461dAC7</v>
+      </c>
+      <c r="B125" t="str">
+        <v>1,093.04</v>
+      </c>
+      <c r="C125" t="str">
+        <v>1,093.04</v>
+      </c>
+      <c r="D125" t="str">
+        <v>976.52</v>
+      </c>
+      <c r="E125" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
+      </c>
+      <c r="B126" t="str">
+        <v>8,570.1</v>
+      </c>
+      <c r="C126" t="str">
+        <v>8,570.1</v>
+      </c>
+      <c r="D126" t="str">
+        <v>0</v>
+      </c>
+      <c r="E126" t="str">
+        <v>7,656.47</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>0xbe34Aa80F76Ac0FFc4398933df1BD891253e6CdB</v>
+      </c>
+      <c r="B127" t="str">
+        <v>1.11</v>
+      </c>
+      <c r="C127" t="str">
+        <v>1.11</v>
+      </c>
+      <c r="D127" t="str">
+        <v>1</v>
+      </c>
+      <c r="E127" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>0xbB20a4e0514AF7e17d4ED83A55881F067B393c5E</v>
+      </c>
+      <c r="B128" t="str">
+        <v>108.45</v>
+      </c>
+      <c r="C128" t="str">
+        <v>108.45</v>
+      </c>
+      <c r="D128" t="str">
+        <v>96.89</v>
+      </c>
+      <c r="E128" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
+      </c>
+      <c r="B129" t="str">
+        <v>1,159.93</v>
+      </c>
+      <c r="C129" t="str">
+        <v>1,159.93</v>
+      </c>
+      <c r="D129" t="str">
+        <v>0</v>
+      </c>
+      <c r="E129" t="str">
+        <v>1,036.28</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+      </c>
+      <c r="B130" t="str">
+        <v>16,255.42</v>
+      </c>
+      <c r="C130" t="str">
+        <v>16,255.42</v>
+      </c>
+      <c r="D130" t="str">
+        <v>14,522.48</v>
+      </c>
+      <c r="E130" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+      </c>
+      <c r="B131" t="str">
+        <v>0</v>
+      </c>
+      <c r="C131" t="str">
+        <v>16,255.42</v>
+      </c>
+      <c r="D131" t="str">
+        <v>0</v>
+      </c>
+      <c r="E131" t="str">
+        <v>14,522.48</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>0xdF8Df47E5109Adc155E436C0712adB78f53A418c</v>
+      </c>
+      <c r="B132" t="str">
+        <v>1,399.16</v>
+      </c>
+      <c r="C132" t="str">
+        <v>1,399.16</v>
+      </c>
+      <c r="D132" t="str">
+        <v>0</v>
+      </c>
+      <c r="E132" t="str">
+        <v>1,250</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>0x9D6B1E57daaE9A80411481801733B750d58782c0</v>
+      </c>
+      <c r="B133" t="str">
+        <v>430.65</v>
+      </c>
+      <c r="C133" t="str">
+        <v>430.65</v>
+      </c>
+      <c r="D133" t="str">
+        <v>384.74</v>
+      </c>
+      <c r="E133" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
+      </c>
+      <c r="B134" t="str">
+        <v>281.88</v>
+      </c>
+      <c r="C134" t="str">
+        <v>281.88</v>
+      </c>
+      <c r="D134" t="str">
+        <v>251.83</v>
+      </c>
+      <c r="E134" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+      </c>
+      <c r="B135" t="str">
+        <v>3,240.97</v>
+      </c>
+      <c r="C135" t="str">
+        <v>3,240.97</v>
+      </c>
+      <c r="D135" t="str">
+        <v>0</v>
+      </c>
+      <c r="E135" t="str">
+        <v>2,895.46</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>0x947d2c8935C715428702231AD85E293a94CbEB65</v>
+      </c>
+      <c r="B136" t="str">
+        <v>559.66</v>
+      </c>
+      <c r="C136" t="str">
+        <v>559.66</v>
+      </c>
+      <c r="D136" t="str">
+        <v>500</v>
+      </c>
+      <c r="E136" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
+      </c>
+      <c r="B137" t="str">
+        <v>26,617.87</v>
+      </c>
+      <c r="C137" t="str">
+        <v>26,617.87</v>
+      </c>
+      <c r="D137" t="str">
+        <v>0</v>
+      </c>
+      <c r="E137" t="str">
+        <v>23,780.21</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>0x436aCB00107faBb69b486e2C7F4654bB37b02c41</v>
+      </c>
+      <c r="B138" t="str">
+        <v>2,534.96</v>
+      </c>
+      <c r="C138" t="str">
+        <v>2,534.96</v>
+      </c>
+      <c r="D138" t="str">
+        <v>2,264.72</v>
+      </c>
+      <c r="E138" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>0xb62430C5fD8281c2F2ADf3ae7Cec7171d6F71EC6</v>
+      </c>
+      <c r="B139" t="str">
+        <v>103.1</v>
+      </c>
+      <c r="C139" t="str">
+        <v>103.1</v>
+      </c>
+      <c r="D139" t="str">
+        <v>92.11</v>
+      </c>
+      <c r="E139" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>0x9fF7d51Cf6a3A12F2Cdd36035827037a35A4B139</v>
+      </c>
+      <c r="B140" t="str">
+        <v>243.47</v>
+      </c>
+      <c r="C140" t="str">
+        <v>243.47</v>
+      </c>
+      <c r="D140" t="str">
+        <v>217.52</v>
+      </c>
+      <c r="E140" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>0x331B6287b04a4Bb359C75D102a2104561BB84fe3</v>
+      </c>
+      <c r="B141" t="str">
+        <v>32.93</v>
+      </c>
+      <c r="C141" t="str">
+        <v>32.93</v>
+      </c>
+      <c r="D141" t="str">
+        <v>0</v>
+      </c>
+      <c r="E141" t="str">
+        <v>29.42</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+      </c>
+      <c r="B142" t="str">
+        <v>778,724.99</v>
+      </c>
+      <c r="C142" t="str">
+        <v>778,724.99</v>
+      </c>
+      <c r="D142" t="str">
+        <v>347,862.43</v>
+      </c>
+      <c r="E142" t="str">
+        <v>347,844.7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
+      </c>
+      <c r="B143" t="str">
+        <v>312.49</v>
+      </c>
+      <c r="C143" t="str">
+        <v>312.49</v>
+      </c>
+      <c r="D143" t="str">
+        <v>279.18</v>
+      </c>
+      <c r="E143" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
+      </c>
+      <c r="B144" t="str">
+        <v>312.49</v>
+      </c>
+      <c r="C144" t="str">
+        <v>312.49</v>
+      </c>
+      <c r="D144" t="str">
+        <v>0</v>
+      </c>
+      <c r="E144" t="str">
+        <v>279.18</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
+      </c>
+      <c r="B145" t="str">
+        <v>0</v>
+      </c>
+      <c r="C145" t="str">
+        <v>12,512.43</v>
+      </c>
+      <c r="D145" t="str">
+        <v>0</v>
+      </c>
+      <c r="E145" t="str">
+        <v>11,178.52</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
+      </c>
+      <c r="B146" t="str">
+        <v>275.36</v>
+      </c>
+      <c r="C146" t="str">
+        <v>275.36</v>
+      </c>
+      <c r="D146" t="str">
+        <v>0</v>
+      </c>
+      <c r="E146" t="str">
+        <v>246.01</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
+      </c>
+      <c r="B147" t="str">
+        <v>337.95</v>
+      </c>
+      <c r="C147" t="str">
+        <v>337.95</v>
+      </c>
+      <c r="D147" t="str">
+        <v>301.93</v>
+      </c>
+      <c r="E147" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>0xB318309e50C1f09825f903B5773c45b0d2930f28</v>
+      </c>
+      <c r="B148" t="str">
+        <v>1,167.14</v>
+      </c>
+      <c r="C148" t="str">
+        <v>1,167.14</v>
+      </c>
+      <c r="D148" t="str">
+        <v>1,042.72</v>
+      </c>
+      <c r="E148" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>0xC65cA88Bd73441A540590CB547F978afe8d503bb</v>
+      </c>
+      <c r="B149" t="str">
+        <v>1,879.02</v>
+      </c>
+      <c r="C149" t="str">
+        <v>1,879.02</v>
+      </c>
+      <c r="D149" t="str">
+        <v>1,678.71</v>
+      </c>
+      <c r="E149" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
+      </c>
+      <c r="B150" t="str">
+        <v>6,495.68</v>
+      </c>
+      <c r="C150" t="str">
+        <v>6,495.68</v>
+      </c>
+      <c r="D150" t="str">
+        <v>383.02</v>
+      </c>
+      <c r="E150" t="str">
+        <v>5,420.18</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>0xF1ea664AbbA3452bc6cA6B289a6059613855805B</v>
+      </c>
+      <c r="B151" t="str">
+        <v>854.14</v>
+      </c>
+      <c r="C151" t="str">
+        <v>854.14</v>
+      </c>
+      <c r="D151" t="str">
+        <v>0</v>
+      </c>
+      <c r="E151" t="str">
+        <v>763.09</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
+      </c>
+      <c r="B152" t="str">
+        <v>18.27</v>
+      </c>
+      <c r="C152" t="str">
+        <v>18.27</v>
+      </c>
+      <c r="D152" t="str">
+        <v>16.33</v>
+      </c>
+      <c r="E152" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+      </c>
+      <c r="B153" t="str">
+        <v>156,352.73</v>
+      </c>
+      <c r="C153" t="str">
+        <v>156,352.73</v>
+      </c>
+      <c r="D153" t="str">
+        <v>139,684.37</v>
+      </c>
+      <c r="E153" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>0xf0a8596541F839EBcC9f0A9d1442c15f43A2836E</v>
+      </c>
+      <c r="B154" t="str">
+        <v>39.76</v>
+      </c>
+      <c r="C154" t="str">
+        <v>39.76</v>
+      </c>
+      <c r="D154" t="str">
+        <v>0</v>
+      </c>
+      <c r="E154" t="str">
+        <v>35.53</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>0xE34bBD8d72B7Ffe5ad2e84CE93e3A07581De2e50</v>
+      </c>
+      <c r="B155" t="str">
+        <v>0</v>
+      </c>
+      <c r="C155" t="str">
+        <v>509.56</v>
+      </c>
+      <c r="D155" t="str">
+        <v>0</v>
+      </c>
+      <c r="E155" t="str">
+        <v>455.24</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+      </c>
+      <c r="B156" t="str">
+        <v>1,890.9</v>
+      </c>
+      <c r="C156" t="str">
+        <v>1,890.9</v>
+      </c>
+      <c r="D156" t="str">
+        <v>0</v>
+      </c>
+      <c r="E156" t="str">
+        <v>1,689.32</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>0xD45bc979277382882e1B41A5efa2561F55915716</v>
+      </c>
+      <c r="B157" t="str">
+        <v>374.29</v>
+      </c>
+      <c r="C157" t="str">
+        <v>374.29</v>
+      </c>
+      <c r="D157" t="str">
+        <v>334.39</v>
+      </c>
+      <c r="E157" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+      </c>
+      <c r="B158" t="str">
+        <v>215.37</v>
+      </c>
+      <c r="C158" t="str">
+        <v>215.37</v>
+      </c>
+      <c r="D158" t="str">
+        <v>70.22</v>
+      </c>
+      <c r="E158" t="str">
+        <v>122.19</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>0x280a3925f1fAD53B5a263fFc0028Fbab9abE6131</v>
+      </c>
+      <c r="B159" t="str">
+        <v>9.24</v>
+      </c>
+      <c r="C159" t="str">
+        <v>9.24</v>
+      </c>
+      <c r="D159" t="str">
+        <v>0</v>
+      </c>
+      <c r="E159" t="str">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>0x1D712193A96B4d9D4eC32108cfcde704AC9CCC9C</v>
+      </c>
+      <c r="B160" t="str">
+        <v>141.28</v>
+      </c>
+      <c r="C160" t="str">
+        <v>141.28</v>
+      </c>
+      <c r="D160" t="str">
+        <v>126.22</v>
+      </c>
+      <c r="E160" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
+      </c>
+      <c r="B161" t="str">
+        <v>4,459.05</v>
+      </c>
+      <c r="C161" t="str">
+        <v>4,459.05</v>
+      </c>
+      <c r="D161" t="str">
+        <v>0</v>
+      </c>
+      <c r="E161" t="str">
+        <v>3,983.69</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+      </c>
+      <c r="B162" t="str">
+        <v>99.32</v>
+      </c>
+      <c r="C162" t="str">
+        <v>99.32</v>
+      </c>
+      <c r="D162" t="str">
+        <v>0</v>
+      </c>
+      <c r="E162" t="str">
+        <v>88.74</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>0x48682644c1e8529338e46e7DdabA4383C1fceBb1</v>
+      </c>
+      <c r="B163" t="str">
+        <v>6,351.76</v>
+      </c>
+      <c r="C163" t="str">
+        <v>6,351.76</v>
+      </c>
+      <c r="D163" t="str">
+        <v>0</v>
+      </c>
+      <c r="E163" t="str">
+        <v>5,674.62</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>0x3f80b42ae4B6a8701329682B5C66a2780917E5D0</v>
+      </c>
+      <c r="B164" t="str">
+        <v>5.88</v>
+      </c>
+      <c r="C164" t="str">
+        <v>5.88</v>
+      </c>
+      <c r="D164" t="str">
+        <v>0</v>
+      </c>
+      <c r="E164" t="str">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>0x31B6BBb170C7F75A4b8A6225811526B96697125E</v>
+      </c>
+      <c r="B165" t="str">
+        <v>3,927.06</v>
+      </c>
+      <c r="C165" t="str">
+        <v>3,927.06</v>
+      </c>
+      <c r="D165" t="str">
+        <v>3,508.41</v>
+      </c>
+      <c r="E165" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
+      </c>
+      <c r="B166" t="str">
+        <v>3,927.06</v>
+      </c>
+      <c r="C166" t="str">
+        <v>3,927.06</v>
+      </c>
+      <c r="D166" t="str">
+        <v>0</v>
+      </c>
+      <c r="E166" t="str">
+        <v>3,508.41</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
+      </c>
+      <c r="B167" t="str">
+        <v>781.87</v>
+      </c>
+      <c r="C167" t="str">
+        <v>781.87</v>
+      </c>
+      <c r="D167" t="str">
+        <v>698.52</v>
+      </c>
+      <c r="E167" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>0xCbf575DA18d760a18dB55333bE8662CC07463069</v>
+      </c>
+      <c r="B168" t="str">
+        <v>138.41</v>
+      </c>
+      <c r="C168" t="str">
+        <v>138.41</v>
+      </c>
+      <c r="D168" t="str">
+        <v>123.66</v>
+      </c>
+      <c r="E168" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>0x96366995FA701346A6f9bCD875E3E80D7421d8b3</v>
+      </c>
+      <c r="B169" t="str">
+        <v>227.35</v>
+      </c>
+      <c r="C169" t="str">
+        <v>227.35</v>
+      </c>
+      <c r="D169" t="str">
+        <v>203.12</v>
+      </c>
+      <c r="E169" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>0x41208763DD0C33e81cD7908ec88656ca7578d591</v>
+      </c>
+      <c r="B170" t="str">
+        <v>227.35</v>
+      </c>
+      <c r="C170" t="str">
+        <v>227.35</v>
+      </c>
+      <c r="D170" t="str">
+        <v>0</v>
+      </c>
+      <c r="E170" t="str">
+        <v>203.12</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>0x9F6f9286f959A78F5d1E3eE78f331842539BA37B</v>
+      </c>
+      <c r="B171" t="str">
+        <v>227.87</v>
+      </c>
+      <c r="C171" t="str">
+        <v>227.87</v>
+      </c>
+      <c r="D171" t="str">
+        <v>0</v>
+      </c>
+      <c r="E171" t="str">
+        <v>203.58</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>0x95814b787287141C80e9917Ee9eC9B2F89275629</v>
+      </c>
+      <c r="B172" t="str">
+        <v>6,786.57</v>
+      </c>
+      <c r="C172" t="str">
+        <v>6,786.57</v>
+      </c>
+      <c r="D172" t="str">
+        <v>6,063.08</v>
+      </c>
+      <c r="E172" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>0xb4E2Ff46D5013BFa1C53135dF3BC240046ab88FA</v>
+      </c>
+      <c r="B173" t="str">
+        <v>657.54</v>
+      </c>
+      <c r="C173" t="str">
+        <v>657.54</v>
+      </c>
+      <c r="D173" t="str">
+        <v>587.45</v>
+      </c>
+      <c r="E173" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>0xc4a806D25d423059bb2E5D6aFc7dC5E046518E15</v>
+      </c>
+      <c r="B174" t="str">
+        <v>657.54</v>
+      </c>
+      <c r="C174" t="str">
+        <v>657.54</v>
+      </c>
+      <c r="D174" t="str">
+        <v>0</v>
+      </c>
+      <c r="E174" t="str">
+        <v>587.45</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>0xFF052E04aaC25F232d068678B1E053d8217F4786</v>
+      </c>
+      <c r="B175" t="str">
+        <v>1,106.62</v>
+      </c>
+      <c r="C175" t="str">
+        <v>1,106.62</v>
+      </c>
+      <c r="D175" t="str">
+        <v>988.65</v>
+      </c>
+      <c r="E175" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
+      </c>
+      <c r="B176" t="str">
+        <v>1,647.87</v>
+      </c>
+      <c r="C176" t="str">
+        <v>1,647.87</v>
+      </c>
+      <c r="D176" t="str">
+        <v>1,250</v>
+      </c>
+      <c r="E176" t="str">
+        <v>222.2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
+      </c>
+      <c r="B177" t="str">
+        <v>1,647.87</v>
+      </c>
+      <c r="C177" t="str">
+        <v>1,647.87</v>
+      </c>
+      <c r="D177" t="str">
+        <v>222.2</v>
+      </c>
+      <c r="E177" t="str">
+        <v>1,250</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>0x10C629454B361De9d161491cBd0fd4F0Bf1c1B0A</v>
+      </c>
+      <c r="B178" t="str">
+        <v>428.72</v>
+      </c>
+      <c r="C178" t="str">
+        <v>428.72</v>
+      </c>
+      <c r="D178" t="str">
+        <v>0</v>
+      </c>
+      <c r="E178" t="str">
+        <v>383.02</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>0x031F54de8aB5748cE32866d806441Ba65Feec4e8</v>
+      </c>
+      <c r="B179" t="str">
+        <v>153.07</v>
+      </c>
+      <c r="C179" t="str">
+        <v>153.07</v>
+      </c>
+      <c r="D179" t="str">
+        <v>136.76</v>
+      </c>
+      <c r="E179" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
+      </c>
+      <c r="B180" t="str">
+        <v>120.07</v>
+      </c>
+      <c r="C180" t="str">
+        <v>120.07</v>
+      </c>
+      <c r="D180" t="str">
+        <v>0</v>
+      </c>
+      <c r="E180" t="str">
+        <v>107.27</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>0x6605532d3D1b060bDeae5FC44DBA7EC8cd4C2dC3</v>
+      </c>
+      <c r="B181" t="str">
+        <v>829.87</v>
+      </c>
+      <c r="C181" t="str">
+        <v>829.87</v>
+      </c>
+      <c r="D181" t="str">
+        <v>741.4</v>
+      </c>
+      <c r="E181" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>0x28207aadAe97226F70a54c25d16692197c062898</v>
+      </c>
+      <c r="B182" t="str">
+        <v>806.37</v>
+      </c>
+      <c r="C182" t="str">
+        <v>806.37</v>
+      </c>
+      <c r="D182" t="str">
+        <v>0</v>
+      </c>
+      <c r="E182" t="str">
+        <v>720.41</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+      </c>
+      <c r="B183" t="str">
+        <v>12,713.63</v>
+      </c>
+      <c r="C183" t="str">
+        <v>12,713.63</v>
+      </c>
+      <c r="D183" t="str">
+        <v>0</v>
+      </c>
+      <c r="E183" t="str">
+        <v>11,358.27</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+      </c>
+      <c r="B184" t="str">
+        <v>20,524.42</v>
+      </c>
+      <c r="C184" t="str">
+        <v>20,524.42</v>
+      </c>
+      <c r="D184" t="str">
+        <v>18,336.37</v>
+      </c>
+      <c r="E184" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
+      </c>
+      <c r="B185" t="str">
+        <v>600.37</v>
+      </c>
+      <c r="C185" t="str">
+        <v>600.37</v>
+      </c>
+      <c r="D185" t="str">
+        <v>0</v>
+      </c>
+      <c r="E185" t="str">
+        <v>536.37</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>0xA7d0053076d12451b721FCa4e513CF4808846e1F</v>
+      </c>
+      <c r="B186" t="str">
+        <v>91.35</v>
+      </c>
+      <c r="C186" t="str">
+        <v>91.35</v>
+      </c>
+      <c r="D186" t="str">
+        <v>81.62</v>
+      </c>
+      <c r="E186" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>0xE592EbB555eC4dBc9b98B0D6C8e86c7a7Fa24138</v>
+      </c>
+      <c r="B187" t="str">
+        <v>91.35</v>
+      </c>
+      <c r="C187" t="str">
+        <v>91.35</v>
+      </c>
+      <c r="D187" t="str">
+        <v>0</v>
+      </c>
+      <c r="E187" t="str">
+        <v>81.62</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
+      </c>
+      <c r="B188" t="str">
+        <v>0</v>
+      </c>
+      <c r="C188" t="str">
+        <v>134.05</v>
+      </c>
+      <c r="D188" t="str">
+        <v>119.76</v>
+      </c>
+      <c r="E188" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
+      </c>
+      <c r="B189" t="str">
+        <v>128.74</v>
+      </c>
+      <c r="C189" t="str">
+        <v>128.74</v>
+      </c>
+      <c r="D189" t="str">
+        <v>115.02</v>
+      </c>
+      <c r="E189" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>0x3E3309ab5312f6875b6e9bE672b9A43EFb70D760</v>
+      </c>
+      <c r="B190" t="str">
+        <v>1,231.26</v>
+      </c>
+      <c r="C190" t="str">
+        <v>1,231.26</v>
+      </c>
+      <c r="D190" t="str">
+        <v>0</v>
+      </c>
+      <c r="E190" t="str">
+        <v>1,100</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>0xF2Aa3A5Df3Af1eD5ff72631A8bcFF0F0AfE060eC</v>
+      </c>
+      <c r="B191" t="str">
+        <v>1,429.34</v>
+      </c>
+      <c r="C191" t="str">
+        <v>1,429.34</v>
+      </c>
+      <c r="D191" t="str">
+        <v>710.75</v>
+      </c>
+      <c r="E191" t="str">
+        <v>566.22</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>0xE1FcC0676dE7f03EB6c63b55A5ad667416029A5F</v>
+      </c>
+      <c r="B192" t="str">
+        <v>61.2</v>
+      </c>
+      <c r="C192" t="str">
+        <v>61.2</v>
+      </c>
+      <c r="D192" t="str">
+        <v>0</v>
+      </c>
+      <c r="E192" t="str">
+        <v>54.68</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
+      </c>
+      <c r="B193" t="str">
+        <v>46.26</v>
+      </c>
+      <c r="C193" t="str">
+        <v>46.26</v>
+      </c>
+      <c r="D193" t="str">
+        <v>41.33</v>
+      </c>
+      <c r="E193" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>0xbc44E6f03C150df10Fe594d42eACAAC51C13e15B</v>
+      </c>
+      <c r="B194" t="str">
+        <v>95.35</v>
+      </c>
+      <c r="C194" t="str">
+        <v>95.35</v>
+      </c>
+      <c r="D194" t="str">
+        <v>0</v>
+      </c>
+      <c r="E194" t="str">
+        <v>85.19</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
+      </c>
+      <c r="B195" t="str">
+        <v>469.36</v>
+      </c>
+      <c r="C195" t="str">
+        <v>469.36</v>
+      </c>
+      <c r="D195" t="str">
+        <v>0</v>
+      </c>
+      <c r="E195" t="str">
+        <v>419.33</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
+      </c>
+      <c r="B196" t="str">
+        <v>1,169.56</v>
+      </c>
+      <c r="C196" t="str">
+        <v>1,169.56</v>
+      </c>
+      <c r="D196" t="str">
+        <v>1,044.88</v>
+      </c>
+      <c r="E196" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
+      </c>
+      <c r="B197" t="str">
+        <v>0</v>
+      </c>
+      <c r="C197" t="str">
+        <v>1,169.56</v>
+      </c>
+      <c r="D197" t="str">
+        <v>0</v>
+      </c>
+      <c r="E197" t="str">
+        <v>1,044.88</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
+      </c>
+      <c r="B198" t="str">
+        <v>59.1</v>
+      </c>
+      <c r="C198" t="str">
+        <v>59.1</v>
+      </c>
+      <c r="D198" t="str">
+        <v>52.8</v>
+      </c>
+      <c r="E198" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
+      </c>
+      <c r="B199" t="str">
+        <v>12.57</v>
+      </c>
+      <c r="C199" t="str">
+        <v>12.57</v>
+      </c>
+      <c r="D199" t="str">
+        <v>11.23</v>
+      </c>
+      <c r="E199" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
+      </c>
+      <c r="B200" t="str">
+        <v>12.57</v>
+      </c>
+      <c r="C200" t="str">
+        <v>12.57</v>
+      </c>
+      <c r="D200" t="str">
+        <v>0</v>
+      </c>
+      <c r="E200" t="str">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
+      </c>
+      <c r="B201" t="str">
+        <v>705.91</v>
+      </c>
+      <c r="C201" t="str">
+        <v>705.91</v>
+      </c>
+      <c r="D201" t="str">
+        <v>630.66</v>
+      </c>
+      <c r="E201" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>0xEEe37E83b74Ebf3679962F6199dADF968E74efa5</v>
+      </c>
+      <c r="B202" t="str">
+        <v>705.91</v>
+      </c>
+      <c r="C202" t="str">
+        <v>705.91</v>
+      </c>
+      <c r="D202" t="str">
+        <v>0</v>
+      </c>
+      <c r="E202" t="str">
+        <v>630.66</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>0x3D31F6Bf45af4c98238a9A9589c038CCB1Ae9b3f</v>
+      </c>
+      <c r="B203" t="str">
+        <v>1,348.39</v>
+      </c>
+      <c r="C203" t="str">
+        <v>1,348.39</v>
+      </c>
+      <c r="D203" t="str">
+        <v>0</v>
+      </c>
+      <c r="E203" t="str">
+        <v>1,204.65</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>0xfC8B5e50e7aa48f71F422339e4c0040f7779C714</v>
+      </c>
+      <c r="B204" t="str">
+        <v>2,680.8</v>
+      </c>
+      <c r="C204" t="str">
+        <v>2,680.8</v>
+      </c>
+      <c r="D204" t="str">
+        <v>2,395.01</v>
+      </c>
+      <c r="E204" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
+      </c>
+      <c r="B205" t="str">
+        <v>1,526.17</v>
+      </c>
+      <c r="C205" t="str">
+        <v>1,526.17</v>
+      </c>
+      <c r="D205" t="str">
+        <v>526.36</v>
+      </c>
+      <c r="E205" t="str">
+        <v>837.11</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>0x620C45Fd6A4C15A4aa2A3a9301F0009b34F7809b</v>
+      </c>
+      <c r="B206" t="str">
+        <v>696.45</v>
+      </c>
+      <c r="C206" t="str">
+        <v>696.45</v>
+      </c>
+      <c r="D206" t="str">
+        <v>622.21</v>
+      </c>
+      <c r="E206" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
+      </c>
+      <c r="B207" t="str">
+        <v>845.26</v>
+      </c>
+      <c r="C207" t="str">
+        <v>845.26</v>
+      </c>
+      <c r="D207" t="str">
+        <v>0</v>
+      </c>
+      <c r="E207" t="str">
+        <v>755.15</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
+      </c>
+      <c r="B208" t="str">
+        <v>568.11</v>
+      </c>
+      <c r="C208" t="str">
+        <v>568.11</v>
+      </c>
+      <c r="D208" t="str">
+        <v>0</v>
+      </c>
+      <c r="E208" t="str">
+        <v>507.55</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+      </c>
+      <c r="B209" t="str">
+        <v>24.79</v>
+      </c>
+      <c r="C209" t="str">
+        <v>24.79</v>
+      </c>
+      <c r="D209" t="str">
+        <v>0</v>
+      </c>
+      <c r="E209" t="str">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>0xD465Ffa5efAdF5cF1Dd6c45c3C305f58279A2140</v>
+      </c>
+      <c r="B210" t="str">
+        <v>0</v>
+      </c>
+      <c r="C210" t="str">
+        <v>377.86</v>
+      </c>
+      <c r="D210" t="str">
+        <v>0</v>
+      </c>
+      <c r="E210" t="str">
+        <v>337.58</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>0xc677a6C972baeCe4Bf9C0a2EbB600886F0300a7D</v>
+      </c>
+      <c r="B211" t="str">
+        <v>10,961.29</v>
+      </c>
+      <c r="C211" t="str">
+        <v>10,961.29</v>
+      </c>
+      <c r="D211" t="str">
+        <v>9,792.74</v>
+      </c>
+      <c r="E211" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>0x0feD39AC6093e042825EfE8862f37dc8425B8f74</v>
+      </c>
+      <c r="B212" t="str">
+        <v>0</v>
+      </c>
+      <c r="C212" t="str">
+        <v>243.99</v>
+      </c>
+      <c r="D212" t="str">
+        <v>0</v>
+      </c>
+      <c r="E212" t="str">
+        <v>217.98</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>0xe6DA3D64EB935d2B013F2895cEa5CaAb8E4DbED5</v>
+      </c>
+      <c r="B213" t="str">
+        <v>24,566.59</v>
+      </c>
+      <c r="C213" t="str">
+        <v>24,566.59</v>
+      </c>
+      <c r="D213" t="str">
+        <v>21,947.61</v>
+      </c>
+      <c r="E213" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>0xD6C80eeC795F0564D20d517dd742dC6cD2Bf2EE0</v>
+      </c>
+      <c r="B214" t="str">
+        <v>49.77</v>
+      </c>
+      <c r="C214" t="str">
+        <v>49.77</v>
+      </c>
+      <c r="D214" t="str">
+        <v>44.47</v>
+      </c>
+      <c r="E214" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>0x1A24A8CDa46ACac40606af1D233dAfF9AEe66e2f</v>
+      </c>
+      <c r="B215" t="str">
+        <v>3,301.98</v>
+      </c>
+      <c r="C215" t="str">
+        <v>3,301.98</v>
+      </c>
+      <c r="D215" t="str">
+        <v>0</v>
+      </c>
+      <c r="E215" t="str">
+        <v>2,949.97</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>0x2c7771aCC47795D2F05Ed29C8c17e8887e49fda7</v>
+      </c>
+      <c r="B216" t="str">
+        <v>24.52</v>
+      </c>
+      <c r="C216" t="str">
+        <v>24.52</v>
+      </c>
+      <c r="D216" t="str">
+        <v>21.91</v>
+      </c>
+      <c r="E216" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>0xa814A19ca89c55cD435C138552a9EDeab68Ded49</v>
+      </c>
+      <c r="B217" t="str">
+        <v>839.49</v>
+      </c>
+      <c r="C217" t="str">
+        <v>839.49</v>
+      </c>
+      <c r="D217" t="str">
+        <v>750</v>
+      </c>
+      <c r="E217" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>0xd092C607a92c75de3bB1240494C4822Bf3766D46</v>
+      </c>
+      <c r="B218" t="str">
+        <v>839.49</v>
+      </c>
+      <c r="C218" t="str">
+        <v>839.49</v>
+      </c>
+      <c r="D218" t="str">
+        <v>0</v>
+      </c>
+      <c r="E218" t="str">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>0x240e0289a4d0D6B1b412ad1A4fD04711656A29ee</v>
+      </c>
+      <c r="B219" t="str">
+        <v>125.05</v>
+      </c>
+      <c r="C219" t="str">
+        <v>125.05</v>
+      </c>
+      <c r="D219" t="str">
+        <v>111.72</v>
+      </c>
+      <c r="E219" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>0xeB0F9489F9aeFB6Bbd8d7f1cc3620898E30b49c0</v>
+      </c>
+      <c r="B220" t="str">
+        <v>407.25</v>
+      </c>
+      <c r="C220" t="str">
+        <v>407.25</v>
+      </c>
+      <c r="D220" t="str">
+        <v>0</v>
+      </c>
+      <c r="E220" t="str">
+        <v>363.84</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
+      </c>
+      <c r="B221" t="str">
+        <v>3,575.08</v>
+      </c>
+      <c r="C221" t="str">
+        <v>3,575.08</v>
+      </c>
+      <c r="D221" t="str">
+        <v>3,193.95</v>
+      </c>
+      <c r="E221" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>0x375bE33B63Ad8204eb4FB2CaCa325126d1eC6f19</v>
+      </c>
+      <c r="B222" t="str">
+        <v>479.96</v>
+      </c>
+      <c r="C222" t="str">
+        <v>479.96</v>
+      </c>
+      <c r="D222" t="str">
+        <v>428.8</v>
+      </c>
+      <c r="E222" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>0x4DF1C6c7973f4E6e3B22149f7b8eFc4389f97C56</v>
+      </c>
+      <c r="B223" t="str">
+        <v>546.62</v>
+      </c>
+      <c r="C223" t="str">
+        <v>546.62</v>
+      </c>
+      <c r="D223" t="str">
+        <v>488.35</v>
+      </c>
+      <c r="E223" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
+      </c>
+      <c r="B224" t="str">
+        <v>546.62</v>
+      </c>
+      <c r="C224" t="str">
+        <v>546.62</v>
+      </c>
+      <c r="D224" t="str">
+        <v>0</v>
+      </c>
+      <c r="E224" t="str">
+        <v>488.35</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>0xC023483Fa22d037EC5f056FC31C8f40751722aD5</v>
+      </c>
+      <c r="B225" t="str">
+        <v>5,596.64</v>
+      </c>
+      <c r="C225" t="str">
+        <v>5,596.64</v>
+      </c>
+      <c r="D225" t="str">
+        <v>0</v>
+      </c>
+      <c r="E225" t="str">
+        <v>5,000</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B226" t="str">
+        <v>2,870,773.34</v>
+      </c>
+      <c r="C226" t="str">
+        <v>3,205,127</v>
+      </c>
+      <c r="D226" t="str">
+        <v>1,354,231.14</v>
+      </c>
+      <c r="E226" t="str">
+        <v>1,509,206.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E226"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E245"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -21897,70 +25754,70 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
       </c>
       <c r="B2" t="str">
-        <v>3,695.77</v>
+        <v>1,716.71</v>
       </c>
       <c r="C2" t="str">
-        <v>3,695.77</v>
+        <v>1,716.71</v>
       </c>
       <c r="D2" t="str">
-        <v>0</v>
+        <v>1,955</v>
       </c>
       <c r="E2" t="str">
-        <v>3,301.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0x5Fc4faF3934548c57d66f1179C2991cEd028E61F</v>
+        <v>0xe23bc0609A8Df4EA2A597AEAAFcBF421BFfBDCFd</v>
       </c>
       <c r="B3" t="str">
-        <v>839.49</v>
+        <v>579.51</v>
       </c>
       <c r="C3" t="str">
-        <v>839.49</v>
+        <v>579.51</v>
       </c>
       <c r="D3" t="str">
-        <v>0</v>
+        <v>659.95</v>
       </c>
       <c r="E3" t="str">
-        <v>750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0xe23bc0609A8Df4EA2A597AEAAFcBF421BFfBDCFd</v>
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
       </c>
       <c r="B4" t="str">
-        <v>1,019.41</v>
+        <v>145,569.36</v>
       </c>
       <c r="C4" t="str">
-        <v>1,019.41</v>
+        <v>145,569.36</v>
       </c>
       <c r="D4" t="str">
-        <v>910.74</v>
+        <v>20,348.88</v>
       </c>
       <c r="E4" t="str">
-        <v>0</v>
+        <v>145,426.01</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
       </c>
       <c r="B5" t="str">
-        <v>46,884.22</v>
+        <v>8,430.44</v>
       </c>
       <c r="C5" t="str">
-        <v>46,884.22</v>
+        <v>8,430.44</v>
       </c>
       <c r="D5" t="str">
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>41,886.02</v>
+        <v>9,600.62</v>
       </c>
     </row>
     <row r="6">
@@ -21968,13 +25825,13 @@
         <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
       </c>
       <c r="B6" t="str">
-        <v>7,244.79</v>
+        <v>182.43</v>
       </c>
       <c r="C6" t="str">
-        <v>7,244.79</v>
+        <v>182.43</v>
       </c>
       <c r="D6" t="str">
-        <v>6,472.45</v>
+        <v>207.76</v>
       </c>
       <c r="E6" t="str">
         <v>0</v>
@@ -21985,30 +25842,30 @@
         <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
       </c>
       <c r="B7" t="str">
-        <v>10,411.22</v>
+        <v>4,003.36</v>
       </c>
       <c r="C7" t="str">
-        <v>10,411.22</v>
+        <v>4,003.36</v>
       </c>
       <c r="D7" t="str">
-        <v>441.95</v>
+        <v>0</v>
       </c>
       <c r="E7" t="str">
-        <v>8,859.36</v>
+        <v>4,559.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
+        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
       </c>
       <c r="B8" t="str">
-        <v>27.8</v>
+        <v>323.9</v>
       </c>
       <c r="C8" t="str">
-        <v>27.8</v>
+        <v>323.9</v>
       </c>
       <c r="D8" t="str">
-        <v>24.84</v>
+        <v>368.86</v>
       </c>
       <c r="E8" t="str">
         <v>0</v>
@@ -22016,16 +25873,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+        <v>0x19d4dEce6C48d99F0Ec4bE4258f26fdA9a7Ad4e5</v>
       </c>
       <c r="B9" t="str">
-        <v>2,147.95</v>
+        <v>82.77</v>
       </c>
       <c r="C9" t="str">
-        <v>2,147.95</v>
+        <v>82.77</v>
       </c>
       <c r="D9" t="str">
-        <v>1,918.97</v>
+        <v>94.27</v>
       </c>
       <c r="E9" t="str">
         <v>0</v>
@@ -22033,135 +25890,135 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
       </c>
       <c r="B10" t="str">
-        <v>12,913.08</v>
+        <v>24.27</v>
       </c>
       <c r="C10" t="str">
-        <v>12,913.08</v>
+        <v>24.27</v>
       </c>
       <c r="D10" t="str">
-        <v>5,729.41</v>
+        <v>27.65</v>
       </c>
       <c r="E10" t="str">
-        <v>5,807.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
       </c>
       <c r="B11" t="str">
-        <v>12,047.79</v>
+        <v>8,694.99</v>
       </c>
       <c r="C11" t="str">
-        <v>12,047.79</v>
+        <v>8,694.99</v>
       </c>
       <c r="D11" t="str">
-        <v>248.49</v>
+        <v>4,215.24</v>
       </c>
       <c r="E11" t="str">
-        <v>10,514.92</v>
+        <v>5,686.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>0x46c17eC4E5fb0529F5559f6990d81f0420Be1E5c</v>
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
       </c>
       <c r="B12" t="str">
-        <v>3,073.64</v>
+        <v>0</v>
       </c>
       <c r="C12" t="str">
-        <v>3,073.64</v>
+        <v>18,175.96</v>
       </c>
       <c r="D12" t="str">
-        <v>2</v>
+        <v>20,698.85</v>
       </c>
       <c r="E12" t="str">
-        <v>2,743.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+        <v>0xD957cc84a2B565e7572a8F02A39e487466c3bFF7</v>
       </c>
       <c r="B13" t="str">
-        <v>13,746.66</v>
+        <v>560.56</v>
       </c>
       <c r="C13" t="str">
-        <v>13,746.66</v>
+        <v>560.56</v>
       </c>
       <c r="D13" t="str">
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>12,281.17</v>
+        <v>638.37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
       </c>
       <c r="B14" t="str">
-        <v>65,894.99</v>
+        <v>132.61</v>
       </c>
       <c r="C14" t="str">
-        <v>65,894.99</v>
+        <v>132.61</v>
       </c>
       <c r="D14" t="str">
-        <v>14,400.67</v>
+        <v>151.02</v>
       </c>
       <c r="E14" t="str">
-        <v>44,469.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>0x880cd618B4cA66bBb8862558954d8473d7b0C867</v>
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
       </c>
       <c r="B15" t="str">
-        <v>60.72</v>
+        <v>1,083.54</v>
       </c>
       <c r="C15" t="str">
-        <v>60.72</v>
+        <v>1,083.54</v>
       </c>
       <c r="D15" t="str">
-        <v>54.25</v>
+        <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>0</v>
+        <v>1,233.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
+        <v>0x46c17eC4E5fb0529F5559f6990d81f0420Be1E5c</v>
       </c>
       <c r="B16" t="str">
-        <v>350.11</v>
+        <v>28,003.89</v>
       </c>
       <c r="C16" t="str">
-        <v>350.11</v>
+        <v>28,003.89</v>
       </c>
       <c r="D16" t="str">
-        <v>312.79</v>
+        <v>27,317.41</v>
       </c>
       <c r="E16" t="str">
-        <v>0</v>
+        <v>4,573.52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
       </c>
       <c r="B17" t="str">
-        <v>495.06</v>
+        <v>33,770.54</v>
       </c>
       <c r="C17" t="str">
-        <v>495.06</v>
+        <v>33,770.54</v>
       </c>
       <c r="D17" t="str">
-        <v>442.29</v>
+        <v>38,458.01</v>
       </c>
       <c r="E17" t="str">
         <v>0</v>
@@ -22169,50 +26026,50 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
+        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
       </c>
       <c r="B18" t="str">
-        <v>477.41</v>
+        <v>33,770.54</v>
       </c>
       <c r="C18" t="str">
-        <v>477.41</v>
+        <v>33,770.54</v>
       </c>
       <c r="D18" t="str">
-        <v>426.52</v>
+        <v>0</v>
       </c>
       <c r="E18" t="str">
-        <v>0</v>
+        <v>38,458.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>0x5536d4a1AA3bB77FD79ba4f8492a1BF8B9772e88</v>
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
       </c>
       <c r="B19" t="str">
-        <v>736.74</v>
+        <v>182,606.04</v>
       </c>
       <c r="C19" t="str">
-        <v>736.74</v>
+        <v>182,606.04</v>
       </c>
       <c r="D19" t="str">
-        <v>658.2</v>
+        <v>1,355.78</v>
       </c>
       <c r="E19" t="str">
-        <v>0</v>
+        <v>206,596.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
+        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
       </c>
       <c r="B20" t="str">
-        <v>504.33</v>
+        <v>461.01</v>
       </c>
       <c r="C20" t="str">
-        <v>504.33</v>
+        <v>461.01</v>
       </c>
       <c r="D20" t="str">
-        <v>450.57</v>
+        <v>525</v>
       </c>
       <c r="E20" t="str">
         <v>0</v>
@@ -22220,16 +26077,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
+        <v>0x6cD7Eab4A323E88d1170a609c6694531C3AFcA11</v>
       </c>
       <c r="B21" t="str">
-        <v>7,835.3</v>
+        <v>1,722.16</v>
       </c>
       <c r="C21" t="str">
-        <v>7,835.3</v>
+        <v>1,722.16</v>
       </c>
       <c r="D21" t="str">
-        <v>7,000</v>
+        <v>1,961.21</v>
       </c>
       <c r="E21" t="str">
         <v>0</v>
@@ -22237,118 +26094,118 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
       </c>
       <c r="B22" t="str">
-        <v>631.45</v>
+        <v>2,971.61</v>
       </c>
       <c r="C22" t="str">
-        <v>631.45</v>
+        <v>2,971.61</v>
       </c>
       <c r="D22" t="str">
-        <v>122.19</v>
+        <v>819.61</v>
       </c>
       <c r="E22" t="str">
-        <v>441.95</v>
+        <v>2,564.48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
+        <v>0x0feD39AC6093e042825EfE8862f37dc8425B8f74</v>
       </c>
       <c r="B23" t="str">
-        <v>124.89</v>
+        <v>0</v>
       </c>
       <c r="C23" t="str">
-        <v>124.89</v>
+        <v>121.81</v>
       </c>
       <c r="D23" t="str">
-        <v>111.58</v>
+        <v>0</v>
       </c>
       <c r="E23" t="str">
-        <v>0</v>
+        <v>138.72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
+        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
       </c>
       <c r="B24" t="str">
-        <v>11,805.56</v>
+        <v>357.08</v>
       </c>
       <c r="C24" t="str">
-        <v>11,805.56</v>
+        <v>357.08</v>
       </c>
       <c r="D24" t="str">
-        <v>2,515.02</v>
+        <v>406.65</v>
       </c>
       <c r="E24" t="str">
-        <v>8,031.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
+        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
       </c>
       <c r="B25" t="str">
-        <v>96,884.95</v>
+        <v>3,062.54</v>
       </c>
       <c r="C25" t="str">
-        <v>220,291.95</v>
+        <v>3,062.54</v>
       </c>
       <c r="D25" t="str">
-        <v>345.38</v>
+        <v>0</v>
       </c>
       <c r="E25" t="str">
-        <v>196,461.82</v>
+        <v>3,487.64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+        <v>0x942E746C384bec88Dfa6164e8d699858E9988FeB</v>
       </c>
       <c r="B26" t="str">
-        <v>79,313.03</v>
+        <v>3,651.43</v>
       </c>
       <c r="C26" t="str">
-        <v>220,291.95</v>
+        <v>3,651.43</v>
       </c>
       <c r="D26" t="str">
-        <v>196,461.82</v>
+        <v>601.69</v>
       </c>
       <c r="E26" t="str">
-        <v>345.38</v>
+        <v>3,556.58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
       </c>
       <c r="B27" t="str">
-        <v>16,178.43</v>
+        <v>133.93</v>
       </c>
       <c r="C27" t="str">
-        <v>16,178.43</v>
+        <v>133.93</v>
       </c>
       <c r="D27" t="str">
-        <v>0</v>
+        <v>152.52</v>
       </c>
       <c r="E27" t="str">
-        <v>14,453.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>0x9A4dbCDE63b55273DC51BeA546A7ba6456f059D0</v>
+        <v>0xdD40bFeDDd1511322A763a82e31Ef3e401415927</v>
       </c>
       <c r="B28" t="str">
-        <v>223.86</v>
+        <v>266.71</v>
       </c>
       <c r="C28" t="str">
-        <v>223.86</v>
+        <v>266.71</v>
       </c>
       <c r="D28" t="str">
-        <v>200</v>
+        <v>303.74</v>
       </c>
       <c r="E28" t="str">
         <v>0</v>
@@ -22356,16 +26213,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>0x95E299A16E92649D2Ae7E56Eed03124BcE3F2d65</v>
+        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
       </c>
       <c r="B29" t="str">
-        <v>460.45</v>
+        <v>40.63</v>
       </c>
       <c r="C29" t="str">
-        <v>460.45</v>
+        <v>40.63</v>
       </c>
       <c r="D29" t="str">
-        <v>411.37</v>
+        <v>46.27</v>
       </c>
       <c r="E29" t="str">
         <v>0</v>
@@ -22373,16 +26230,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
+        <v>0xcC07cb9557409822792D39FA9918c4d1Fd0F6E62</v>
       </c>
       <c r="B30" t="str">
-        <v>0</v>
+        <v>724.94</v>
       </c>
       <c r="C30" t="str">
-        <v>25.47</v>
+        <v>724.94</v>
       </c>
       <c r="D30" t="str">
-        <v>22.76</v>
+        <v>825.57</v>
       </c>
       <c r="E30" t="str">
         <v>0</v>
@@ -22390,33 +26247,33 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>0xF6a52cb99b772d46C736F6F90Be792A1d4159414</v>
+        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
       </c>
       <c r="B31" t="str">
-        <v>103.1</v>
+        <v>439.05</v>
       </c>
       <c r="C31" t="str">
-        <v>103.1</v>
+        <v>439.05</v>
       </c>
       <c r="D31" t="str">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E31" t="str">
-        <v>92.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
+        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
       </c>
       <c r="B32" t="str">
-        <v>1,421.45</v>
+        <v>99.78</v>
       </c>
       <c r="C32" t="str">
-        <v>1,421.45</v>
+        <v>99.78</v>
       </c>
       <c r="D32" t="str">
-        <v>1,269.92</v>
+        <v>113.63</v>
       </c>
       <c r="E32" t="str">
         <v>0</v>
@@ -22424,33 +26281,33 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>0x7617203fAd8e02b81d866a269500fdF417A0Cb2c</v>
+        <v>0xEEe37E83b74Ebf3679962F6199dADF968E74efa5</v>
       </c>
       <c r="B33" t="str">
-        <v>243.47</v>
+        <v>99.78</v>
       </c>
       <c r="C33" t="str">
-        <v>243.47</v>
+        <v>99.78</v>
       </c>
       <c r="D33" t="str">
         <v>0</v>
       </c>
       <c r="E33" t="str">
-        <v>217.52</v>
+        <v>113.63</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>0xBc7b31dFbEd762841AC646961C887B49e3f625d5</v>
+        <v>0x375bE33B63Ad8204eb4FB2CaCa325126d1eC6f19</v>
       </c>
       <c r="B34" t="str">
-        <v>838.23</v>
+        <v>182.57</v>
       </c>
       <c r="C34" t="str">
-        <v>838.23</v>
+        <v>182.57</v>
       </c>
       <c r="D34" t="str">
-        <v>748.87</v>
+        <v>207.92</v>
       </c>
       <c r="E34" t="str">
         <v>0</v>
@@ -22458,16 +26315,16 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
+        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
       </c>
       <c r="B35" t="str">
-        <v>5,326.46</v>
+        <v>216.52</v>
       </c>
       <c r="C35" t="str">
-        <v>5,326.46</v>
+        <v>216.52</v>
       </c>
       <c r="D35" t="str">
-        <v>4,758.62</v>
+        <v>246.58</v>
       </c>
       <c r="E35" t="str">
         <v>0</v>
@@ -22475,135 +26332,135 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
+        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
       </c>
       <c r="B36" t="str">
-        <v>13.45</v>
+        <v>219.52</v>
       </c>
       <c r="C36" t="str">
-        <v>13.45</v>
+        <v>219.52</v>
       </c>
       <c r="D36" t="str">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E36" t="str">
-        <v>12.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
+        <v>0xf6732447a0Da3D8973897e247cf04f53B87Cfa2e</v>
       </c>
       <c r="B37" t="str">
-        <v>3,682.65</v>
+        <v>58.38</v>
       </c>
       <c r="C37" t="str">
-        <v>3,682.65</v>
+        <v>58.38</v>
       </c>
       <c r="D37" t="str">
-        <v>302.37</v>
+        <v>66.49</v>
       </c>
       <c r="E37" t="str">
-        <v>2,987.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>0xEe5358d1d36262CeFC36478E37A718FA4d7847eB</v>
+        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
       </c>
       <c r="B38" t="str">
-        <v>77.25</v>
+        <v>2,107.74</v>
       </c>
       <c r="C38" t="str">
-        <v>77.25</v>
+        <v>2,107.74</v>
       </c>
       <c r="D38" t="str">
-        <v>21.85</v>
+        <v>0</v>
       </c>
       <c r="E38" t="str">
-        <v>47.17</v>
+        <v>2,400.31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+        <v>0x7B82007d91312Bb84E57A79c6df7Fa3928beD152</v>
       </c>
       <c r="B39" t="str">
-        <v>778,724.99</v>
+        <v>9,416.39</v>
       </c>
       <c r="C39" t="str">
-        <v>778,724.99</v>
+        <v>9,416.39</v>
       </c>
       <c r="D39" t="str">
-        <v>347,844.7</v>
+        <v>10,206.94</v>
       </c>
       <c r="E39" t="str">
-        <v>347,862.43</v>
+        <v>516.48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+        <v>0x48A7209DD07Bc7409bF3f61820E1Ee9409F462e9</v>
       </c>
       <c r="B40" t="str">
-        <v>156,352.73</v>
+        <v>443.4</v>
       </c>
       <c r="C40" t="str">
-        <v>156,352.73</v>
+        <v>443.4</v>
       </c>
       <c r="D40" t="str">
-        <v>0</v>
+        <v>504.95</v>
       </c>
       <c r="E40" t="str">
-        <v>139,684.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
+        <v>0xF2Aa3A5Df3Af1eD5ff72631A8bcFF0F0AfE060eC</v>
       </c>
       <c r="B41" t="str">
-        <v>4,070.14</v>
+        <v>863.37</v>
       </c>
       <c r="C41" t="str">
-        <v>4,070.14</v>
+        <v>863.37</v>
       </c>
       <c r="D41" t="str">
-        <v>3,636.24</v>
+        <v>69.11</v>
       </c>
       <c r="E41" t="str">
-        <v>0</v>
+        <v>914.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
       </c>
       <c r="B42" t="str">
-        <v>1,890.9</v>
+        <v>733,665.14</v>
       </c>
       <c r="C42" t="str">
-        <v>1,890.9</v>
+        <v>733,665.14</v>
       </c>
       <c r="D42" t="str">
-        <v>1,689.32</v>
+        <v>417,458.8</v>
       </c>
       <c r="E42" t="str">
-        <v>0</v>
+        <v>418,041.55</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>0x24EC4345706a30747bA16dCA3e9751B73b72C78a</v>
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
       </c>
       <c r="B43" t="str">
-        <v>512.12</v>
+        <v>34.15</v>
       </c>
       <c r="C43" t="str">
-        <v>512.12</v>
+        <v>34.15</v>
       </c>
       <c r="D43" t="str">
-        <v>457.53</v>
+        <v>38.9</v>
       </c>
       <c r="E43" t="str">
         <v>0</v>
@@ -22611,33 +26468,33 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
       </c>
       <c r="B44" t="str">
-        <v>78.59</v>
+        <v>164.35</v>
       </c>
       <c r="C44" t="str">
-        <v>78.59</v>
+        <v>164.35</v>
       </c>
       <c r="D44" t="str">
-        <v>0</v>
+        <v>187.17</v>
       </c>
       <c r="E44" t="str">
-        <v>70.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+        <v>0xEe5358d1d36262CeFC36478E37A718FA4d7847eB</v>
       </c>
       <c r="B45" t="str">
-        <v>74.8</v>
+        <v>53.99</v>
       </c>
       <c r="C45" t="str">
-        <v>74.8</v>
+        <v>53.99</v>
       </c>
       <c r="D45" t="str">
-        <v>66.83</v>
+        <v>61.49</v>
       </c>
       <c r="E45" t="str">
         <v>0</v>
@@ -22645,67 +26502,67 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
       </c>
       <c r="B46" t="str">
-        <v>139.93</v>
+        <v>4,846.53</v>
       </c>
       <c r="C46" t="str">
-        <v>139.93</v>
+        <v>4,846.53</v>
       </c>
       <c r="D46" t="str">
-        <v>5.26</v>
+        <v>0</v>
       </c>
       <c r="E46" t="str">
-        <v>119.76</v>
+        <v>5,519.25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+        <v>0x0fB3b0892619aF19B0a8016783f84EED26CfAE1E</v>
       </c>
       <c r="B47" t="str">
-        <v>452.42</v>
+        <v>61.92</v>
       </c>
       <c r="C47" t="str">
-        <v>452.42</v>
+        <v>61.92</v>
       </c>
       <c r="D47" t="str">
-        <v>0</v>
+        <v>70.52</v>
       </c>
       <c r="E47" t="str">
-        <v>404.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>0x3d5F0A62033206273527Ef33569213E904eC4DdF</v>
+        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
       </c>
       <c r="B48" t="str">
-        <v>86.92</v>
+        <v>620.01</v>
       </c>
       <c r="C48" t="str">
-        <v>86.92</v>
+        <v>620.01</v>
       </c>
       <c r="D48" t="str">
-        <v>12.5</v>
+        <v>706.08</v>
       </c>
       <c r="E48" t="str">
-        <v>65.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>0xD1FFD361cAb618DD952bB36067FC4a41e40729FB</v>
+        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
       </c>
       <c r="B49" t="str">
-        <v>2,250</v>
+        <v>622.85</v>
       </c>
       <c r="C49" t="str">
-        <v>3,902.85</v>
+        <v>622.85</v>
       </c>
       <c r="D49" t="str">
-        <v>3,486.78</v>
+        <v>709.31</v>
       </c>
       <c r="E49" t="str">
         <v>0</v>
@@ -22713,101 +26570,101 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+        <v>0xF6a52cb99b772d46C736F6F90Be792A1d4159414</v>
       </c>
       <c r="B50" t="str">
-        <v>14,648.99</v>
+        <v>109.28</v>
       </c>
       <c r="C50" t="str">
-        <v>14,648.99</v>
+        <v>109.28</v>
       </c>
       <c r="D50" t="str">
-        <v>13,087.3</v>
+        <v>63.14</v>
       </c>
       <c r="E50" t="str">
-        <v>0</v>
+        <v>61.31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>0x77Fb1AeEEC6e3F3Cfe3a1f3aB87E7cB74872Db5D</v>
+        <v>0xCDB5b0dceF4D6289241C063EEF22A56850Fc18d1</v>
       </c>
       <c r="B51" t="str">
-        <v>6,098.51</v>
+        <v>54.61</v>
       </c>
       <c r="C51" t="str">
-        <v>6,098.51</v>
+        <v>54.61</v>
       </c>
       <c r="D51" t="str">
-        <v>0</v>
+        <v>62.2</v>
       </c>
       <c r="E51" t="str">
-        <v>5,448.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>0x9331C5f74A13ee04abDA206dceec4c82c9f6e19E</v>
+        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
       </c>
       <c r="B52" t="str">
-        <v>3,582.16</v>
+        <v>54.61</v>
       </c>
       <c r="C52" t="str">
-        <v>3,582.16</v>
+        <v>54.61</v>
       </c>
       <c r="D52" t="str">
-        <v>3,200.28</v>
+        <v>0</v>
       </c>
       <c r="E52" t="str">
-        <v>0</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>0x7DDA419096b8c81d4A5E6cc65ea0D380D0A1b6E4</v>
+        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
       </c>
       <c r="B53" t="str">
-        <v>2,262.92</v>
+        <v>135.96</v>
       </c>
       <c r="C53" t="str">
-        <v>2,262.92</v>
+        <v>135.96</v>
       </c>
       <c r="D53" t="str">
-        <v>2,021.68</v>
+        <v>0</v>
       </c>
       <c r="E53" t="str">
-        <v>0</v>
+        <v>154.84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
+        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
       </c>
       <c r="B54" t="str">
-        <v>117.52</v>
+        <v>152,187.46</v>
       </c>
       <c r="C54" t="str">
-        <v>117.52</v>
+        <v>152,187.46</v>
       </c>
       <c r="D54" t="str">
-        <v>0</v>
+        <v>173,311.6</v>
       </c>
       <c r="E54" t="str">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>0x79aEE20f3285556556f78fE4d56c121B981cE910</v>
+        <v>0xdfd7445EF7dB056F68cEdEB4c1A709d02C0c3AA7</v>
       </c>
       <c r="B55" t="str">
-        <v>254.26</v>
+        <v>85.37</v>
       </c>
       <c r="C55" t="str">
-        <v>254.26</v>
+        <v>85.37</v>
       </c>
       <c r="D55" t="str">
-        <v>227.16</v>
+        <v>97.23</v>
       </c>
       <c r="E55" t="str">
         <v>0</v>
@@ -22815,33 +26672,33 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>0x8Bd36e5768cc249C5Bd016DFC10f6EFC3D4EC4FA</v>
+        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
       </c>
       <c r="B56" t="str">
-        <v>30.35</v>
+        <v>1,755.89</v>
       </c>
       <c r="C56" t="str">
-        <v>30.35</v>
+        <v>1,755.89</v>
       </c>
       <c r="D56" t="str">
-        <v>27.12</v>
+        <v>0</v>
       </c>
       <c r="E56" t="str">
-        <v>0</v>
+        <v>1,999.62</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>0x8BFF5eB745527844b0abfd7D9730cDE82948cFf0</v>
+        <v>0xE910838B91486D4Fef2d0C4a77a3819D7600D36b</v>
       </c>
       <c r="B57" t="str">
-        <v>1,348.39</v>
+        <v>57.23</v>
       </c>
       <c r="C57" t="str">
-        <v>1,348.39</v>
+        <v>57.23</v>
       </c>
       <c r="D57" t="str">
-        <v>1,204.65</v>
+        <v>65.18</v>
       </c>
       <c r="E57" t="str">
         <v>0</v>
@@ -22849,16 +26706,16 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>0x165F4f9805770Eb044Cd2A5a3f1b3E07Ba8B15e9</v>
+        <v>0x77729e862D70e8d6856Fb5f4786B02E626B9cf65</v>
       </c>
       <c r="B58" t="str">
-        <v>117.97</v>
+        <v>1,067.63</v>
       </c>
       <c r="C58" t="str">
-        <v>117.97</v>
+        <v>1,067.63</v>
       </c>
       <c r="D58" t="str">
-        <v>105.4</v>
+        <v>1,215.83</v>
       </c>
       <c r="E58" t="str">
         <v>0</v>
@@ -22866,16 +26723,16 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>0x97FD7d404b26A9b59d6F5bAc4Ff34349641bA6c5</v>
+        <v>0x1B5f7cBb775f11BC5CFC4ac9dC1406Ef613F7A63</v>
       </c>
       <c r="B59" t="str">
-        <v>937</v>
+        <v>32.78</v>
       </c>
       <c r="C59" t="str">
-        <v>937</v>
+        <v>32.78</v>
       </c>
       <c r="D59" t="str">
-        <v>837.11</v>
+        <v>37.34</v>
       </c>
       <c r="E59" t="str">
         <v>0</v>
@@ -22883,50 +26740,50 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>0x357cDa2237d31e618ba3A39dD4691429E7cDD107</v>
+        <v>0xf74f5cF53A6746b1eddD9C7ea8Ab7447797c3D74</v>
       </c>
       <c r="B60" t="str">
-        <v>685.96</v>
+        <v>6,601.34</v>
       </c>
       <c r="C60" t="str">
-        <v>685.96</v>
+        <v>6,601.34</v>
       </c>
       <c r="D60" t="str">
-        <v>612.84</v>
+        <v>0</v>
       </c>
       <c r="E60" t="str">
-        <v>0</v>
+        <v>7,517.63</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>0x60E7Ff2154093f10d619e1ed30EDd11e8f1DDcAc</v>
+        <v>0x5099ccbB5FC14BF6ea516EE6CC3e6B209a7aA8C6</v>
       </c>
       <c r="B61" t="str">
-        <v>111.93</v>
+        <v>627.86</v>
       </c>
       <c r="C61" t="str">
-        <v>111.93</v>
+        <v>627.86</v>
       </c>
       <c r="D61" t="str">
-        <v>0</v>
+        <v>715.02</v>
       </c>
       <c r="E61" t="str">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>0x54241C1A4d287D49c5f815467708db4247DFA763</v>
+        <v>0x748B2F0784f8Aa4D1948D2bAeE433BAD2f86376e</v>
       </c>
       <c r="B62" t="str">
-        <v>37.22</v>
+        <v>109.71</v>
       </c>
       <c r="C62" t="str">
-        <v>37.22</v>
+        <v>109.71</v>
       </c>
       <c r="D62" t="str">
-        <v>33.26</v>
+        <v>124.94</v>
       </c>
       <c r="E62" t="str">
         <v>0</v>
@@ -22934,50 +26791,50 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
       </c>
       <c r="B63" t="str">
-        <v>37.22</v>
+        <v>32,663.31</v>
       </c>
       <c r="C63" t="str">
-        <v>37.22</v>
+        <v>32,663.31</v>
       </c>
       <c r="D63" t="str">
-        <v>0</v>
+        <v>37,197.09</v>
       </c>
       <c r="E63" t="str">
-        <v>33.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
+        <v>0x41c1a44B0608309714f0C5ee544f84262E510198</v>
       </c>
       <c r="B64" t="str">
-        <v>407.25</v>
+        <v>142.56</v>
       </c>
       <c r="C64" t="str">
-        <v>407.25</v>
+        <v>142.56</v>
       </c>
       <c r="D64" t="str">
-        <v>363.84</v>
+        <v>124.78</v>
       </c>
       <c r="E64" t="str">
-        <v>0</v>
+        <v>37.57</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
+        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
       </c>
       <c r="B65" t="str">
-        <v>422.61</v>
+        <v>19,980.04</v>
       </c>
       <c r="C65" t="str">
-        <v>422.61</v>
+        <v>19,980.04</v>
       </c>
       <c r="D65" t="str">
-        <v>377.56</v>
+        <v>22,753.34</v>
       </c>
       <c r="E65" t="str">
         <v>0</v>
@@ -22985,169 +26842,169 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>0xf74f5cF53A6746b1eddD9C7ea8Ab7447797c3D74</v>
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
       </c>
       <c r="B66" t="str">
-        <v>24,586.26</v>
+        <v>922.02</v>
       </c>
       <c r="C66" t="str">
-        <v>24,586.26</v>
+        <v>922.02</v>
       </c>
       <c r="D66" t="str">
-        <v>0</v>
+        <v>1,050</v>
       </c>
       <c r="E66" t="str">
-        <v>21,965.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+        <v>0x49Dd6E1D94604918B6235cEbC90208E03E021AD7</v>
       </c>
       <c r="B67" t="str">
-        <v>38,504.61</v>
+        <v>2,532.45</v>
       </c>
       <c r="C67" t="str">
-        <v>38,504.61</v>
+        <v>2,532.45</v>
       </c>
       <c r="D67" t="str">
-        <v>11,178.52</v>
+        <v>2,883.97</v>
       </c>
       <c r="E67" t="str">
-        <v>23,221.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>0x2848A658c1097a8639d2fb62a977b23903200b53</v>
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
       </c>
       <c r="B68" t="str">
-        <v>234.17</v>
+        <v>1,716.71</v>
       </c>
       <c r="C68" t="str">
-        <v>234.17</v>
+        <v>1,716.71</v>
       </c>
       <c r="D68" t="str">
         <v>0</v>
       </c>
       <c r="E68" t="str">
-        <v>209.21</v>
+        <v>1,955</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
       </c>
       <c r="B69" t="str">
-        <v>2,077.22</v>
+        <v>1,465.37</v>
       </c>
       <c r="C69" t="str">
-        <v>2,077.22</v>
+        <v>1,465.37</v>
       </c>
       <c r="D69" t="str">
-        <v>0</v>
+        <v>1,008.82</v>
       </c>
       <c r="E69" t="str">
-        <v>1,855.78</v>
+        <v>659.95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>0xb8D8066d1EE9D03800B7600d2807b7749B9F6899</v>
+        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
       </c>
       <c r="B70" t="str">
-        <v>839.49</v>
+        <v>1,141.54</v>
       </c>
       <c r="C70" t="str">
-        <v>839.49</v>
+        <v>1,141.54</v>
       </c>
       <c r="D70" t="str">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E70" t="str">
-        <v>0</v>
+        <v>1,300</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+        <v>0x2848A658c1097a8639d2fb62a977b23903200b53</v>
       </c>
       <c r="B71" t="str">
-        <v>4,344.66</v>
+        <v>208.11</v>
       </c>
       <c r="C71" t="str">
-        <v>4,344.66</v>
+        <v>208.11</v>
       </c>
       <c r="D71" t="str">
-        <v>2,970.75</v>
+        <v>0</v>
       </c>
       <c r="E71" t="str">
-        <v>910.74</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
       </c>
       <c r="B72" t="str">
-        <v>1,221.13</v>
+        <v>488.65</v>
       </c>
       <c r="C72" t="str">
-        <v>1,221.13</v>
+        <v>488.65</v>
       </c>
       <c r="D72" t="str">
-        <v>994.06</v>
+        <v>556.48</v>
       </c>
       <c r="E72" t="str">
-        <v>96.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
       </c>
       <c r="B73" t="str">
-        <v>1,112.67</v>
+        <v>441.63</v>
       </c>
       <c r="C73" t="str">
-        <v>1,112.67</v>
+        <v>441.63</v>
       </c>
       <c r="D73" t="str">
-        <v>0</v>
+        <v>502.93</v>
       </c>
       <c r="E73" t="str">
-        <v>994.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
+        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
       </c>
       <c r="B74" t="str">
-        <v>5,009.85</v>
+        <v>0</v>
       </c>
       <c r="C74" t="str">
-        <v>5,009.85</v>
+        <v>238.31</v>
       </c>
       <c r="D74" t="str">
-        <v>536.28</v>
+        <v>271.39</v>
       </c>
       <c r="E74" t="str">
-        <v>3,939.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
       </c>
       <c r="B75" t="str">
-        <v>1,339.39</v>
+        <v>0</v>
       </c>
       <c r="C75" t="str">
-        <v>1,339.39</v>
+        <v>5,189.64</v>
       </c>
       <c r="D75" t="str">
-        <v>1,196.61</v>
+        <v>5,909.98</v>
       </c>
       <c r="E75" t="str">
         <v>0</v>
@@ -23155,135 +27012,135 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
       </c>
       <c r="B76" t="str">
-        <v>336.91</v>
+        <v>98,963.1</v>
       </c>
       <c r="C76" t="str">
-        <v>336.91</v>
+        <v>98,963.1</v>
       </c>
       <c r="D76" t="str">
-        <v>301</v>
+        <v>94,158.28</v>
       </c>
       <c r="E76" t="str">
-        <v>0</v>
+        <v>18,541.24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
       </c>
       <c r="B77" t="str">
-        <v>470.06</v>
+        <v>99,525.78</v>
       </c>
       <c r="C77" t="str">
-        <v>470.06</v>
+        <v>99,525.78</v>
       </c>
       <c r="D77" t="str">
-        <v>0</v>
+        <v>18,541.24</v>
       </c>
       <c r="E77" t="str">
-        <v>419.95</v>
+        <v>94,799.06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+        <v>0x41382710CB3320194F0fb9Ef8e8531e0E291D740</v>
       </c>
       <c r="B78" t="str">
-        <v>71,247.77</v>
+        <v>953.27</v>
       </c>
       <c r="C78" t="str">
-        <v>71,247.77</v>
+        <v>953.27</v>
       </c>
       <c r="D78" t="str">
-        <v>33,021.88</v>
+        <v>0</v>
       </c>
       <c r="E78" t="str">
-        <v>30,630.35</v>
+        <v>1,085.59</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+        <v>0xFa544d034dC07aD4Fa185ba769031a29Fbef5e36</v>
       </c>
       <c r="B79" t="str">
-        <v>71,742.83</v>
+        <v>0</v>
       </c>
       <c r="C79" t="str">
-        <v>71,742.83</v>
+        <v>323.9</v>
       </c>
       <c r="D79" t="str">
-        <v>30,630.35</v>
+        <v>0</v>
       </c>
       <c r="E79" t="str">
-        <v>33,464.17</v>
+        <v>368.86</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
       </c>
       <c r="B80" t="str">
-        <v>7,330.43</v>
+        <v>222.89</v>
       </c>
       <c r="C80" t="str">
-        <v>7,330.43</v>
+        <v>222.89</v>
       </c>
       <c r="D80" t="str">
-        <v>6,548.96</v>
+        <v>0</v>
       </c>
       <c r="E80" t="str">
-        <v>0</v>
+        <v>253.83</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
       </c>
       <c r="B81" t="str">
-        <v>4,645.21</v>
+        <v>4,767.32</v>
       </c>
       <c r="C81" t="str">
-        <v>4,645.21</v>
+        <v>4,767.32</v>
       </c>
       <c r="D81" t="str">
         <v>0</v>
       </c>
       <c r="E81" t="str">
-        <v>4,150</v>
+        <v>5,429.05</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
       </c>
       <c r="B82" t="str">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="C82" t="str">
-        <v>27.8</v>
+        <v>18,314.97</v>
       </c>
       <c r="D82" t="str">
         <v>0</v>
       </c>
       <c r="E82" t="str">
-        <v>24.84</v>
+        <v>20,857.15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
       </c>
       <c r="B83" t="str">
-        <v>7,794.56</v>
+        <v>509.85</v>
       </c>
       <c r="C83" t="str">
-        <v>7,794.56</v>
+        <v>509.85</v>
       </c>
       <c r="D83" t="str">
-        <v>6,963.61</v>
+        <v>580.63</v>
       </c>
       <c r="E83" t="str">
         <v>0</v>
@@ -23291,135 +27148,135 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
       </c>
       <c r="B84" t="str">
-        <v>278.14</v>
+        <v>25,020.13</v>
       </c>
       <c r="C84" t="str">
-        <v>278.14</v>
+        <v>25,020.13</v>
       </c>
       <c r="D84" t="str">
         <v>0</v>
       </c>
       <c r="E84" t="str">
-        <v>248.49</v>
+        <v>28,493.02</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
       </c>
       <c r="B85" t="str">
-        <v>1,626.45</v>
+        <v>0</v>
       </c>
       <c r="C85" t="str">
-        <v>1,626.45</v>
+        <v>25,985.91</v>
       </c>
       <c r="D85" t="str">
         <v>0</v>
       </c>
       <c r="E85" t="str">
-        <v>1,453.06</v>
+        <v>29,592.85</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
+        <v>0xd092C607a92c75de3bB1240494C4822Bf3766D46</v>
       </c>
       <c r="B86" t="str">
-        <v>576.45</v>
+        <v>178.17</v>
       </c>
       <c r="C86" t="str">
-        <v>576.45</v>
+        <v>178.17</v>
       </c>
       <c r="D86" t="str">
-        <v>0</v>
+        <v>202.91</v>
       </c>
       <c r="E86" t="str">
-        <v>515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>0x2abf42F330c60491E8A36B73c9F3F9Ed40CDa546</v>
+        <v>0x75ac9574e8142636654713A984365e3E3427E31b</v>
       </c>
       <c r="B87" t="str">
-        <v>17,244.9</v>
+        <v>560.56</v>
       </c>
       <c r="C87" t="str">
-        <v>17,244.9</v>
+        <v>560.56</v>
       </c>
       <c r="D87" t="str">
-        <v>608.22</v>
+        <v>638.37</v>
       </c>
       <c r="E87" t="str">
-        <v>14,798.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>0x36413818a988749f40de4877B51f782126282a89</v>
+        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
       </c>
       <c r="B88" t="str">
-        <v>1,087.37</v>
+        <v>6,444.29</v>
       </c>
       <c r="C88" t="str">
-        <v>1,087.37</v>
+        <v>6,444.29</v>
       </c>
       <c r="D88" t="str">
-        <v>971.45</v>
+        <v>91.18</v>
       </c>
       <c r="E88" t="str">
-        <v>0</v>
+        <v>7,247.6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
       </c>
       <c r="B89" t="str">
-        <v>1,362.06</v>
+        <v>68,777.59</v>
       </c>
       <c r="C89" t="str">
-        <v>1,362.06</v>
+        <v>68,777.59</v>
       </c>
       <c r="D89" t="str">
-        <v>0</v>
+        <v>5,000</v>
       </c>
       <c r="E89" t="str">
-        <v>1,216.86</v>
+        <v>73,324.16</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>0x48A7209DD07Bc7409bF3f61820E1Ee9409F462e9</v>
+        <v>0x96f194Cf1c9e5eE23B4D96785791F468F6A9C98e</v>
       </c>
       <c r="B90" t="str">
-        <v>352.58</v>
+        <v>4,390.57</v>
       </c>
       <c r="C90" t="str">
-        <v>352.58</v>
+        <v>4,390.57</v>
       </c>
       <c r="D90" t="str">
         <v>0</v>
       </c>
       <c r="E90" t="str">
-        <v>315</v>
+        <v>5,000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
+        <v>0xA271d7ad0ce0b28cdc464dfD5F3A66B4d55B5Acc</v>
       </c>
       <c r="B91" t="str">
-        <v>11,769.65</v>
+        <v>363.67</v>
       </c>
       <c r="C91" t="str">
-        <v>11,769.65</v>
+        <v>363.67</v>
       </c>
       <c r="D91" t="str">
-        <v>10,514.92</v>
+        <v>414.15</v>
       </c>
       <c r="E91" t="str">
         <v>0</v>
@@ -23427,101 +27284,101 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+        <v>0xE3c3CD768EF78506A37144Ce83b1f34af56A89D5</v>
       </c>
       <c r="B92" t="str">
-        <v>247.13</v>
+        <v>363.67</v>
       </c>
       <c r="C92" t="str">
-        <v>247.13</v>
+        <v>363.67</v>
       </c>
       <c r="D92" t="str">
-        <v>167.99</v>
+        <v>0</v>
       </c>
       <c r="E92" t="str">
-        <v>52.8</v>
+        <v>414.15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
+        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
       </c>
       <c r="B93" t="str">
-        <v>1,097.17</v>
+        <v>1,343.91</v>
       </c>
       <c r="C93" t="str">
-        <v>1,097.17</v>
+        <v>1,343.91</v>
       </c>
       <c r="D93" t="str">
-        <v>419.33</v>
+        <v>1,005.46</v>
       </c>
       <c r="E93" t="str">
-        <v>560.88</v>
+        <v>525</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+        <v>0xf90518CBcd4ef086891cb22C87bd4F80B61a7081</v>
       </c>
       <c r="B94" t="str">
-        <v>0</v>
+        <v>5,704.56</v>
       </c>
       <c r="C94" t="str">
-        <v>35,083.86</v>
+        <v>5,704.56</v>
       </c>
       <c r="D94" t="str">
-        <v>0</v>
+        <v>6,136.74</v>
       </c>
       <c r="E94" t="str">
-        <v>31,343.66</v>
+        <v>359.64</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
+        <v>0xD53314Cd179ccD3926Af264e62E3B6dAB06A6419</v>
       </c>
       <c r="B95" t="str">
-        <v>279.83</v>
+        <v>5,704.56</v>
       </c>
       <c r="C95" t="str">
-        <v>279.83</v>
+        <v>5,704.56</v>
       </c>
       <c r="D95" t="str">
-        <v>0</v>
+        <v>359.64</v>
       </c>
       <c r="E95" t="str">
-        <v>250</v>
+        <v>6,136.74</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>0xc01bdF2F593bbbFe1e15540c818c57f919466D7B</v>
+        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
       </c>
       <c r="B96" t="str">
-        <v>4,362.93</v>
+        <v>1,856.03</v>
       </c>
       <c r="C96" t="str">
-        <v>4,362.93</v>
+        <v>1,856.03</v>
       </c>
       <c r="D96" t="str">
-        <v>1,917.14</v>
+        <v>1,997.19</v>
       </c>
       <c r="E96" t="str">
-        <v>1,980.67</v>
+        <v>116.47</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+        <v>0xC624151fAE86ae8E697A0ee14A07C1B78Cc04Ae1</v>
       </c>
       <c r="B97" t="str">
-        <v>93.94</v>
+        <v>60.01</v>
       </c>
       <c r="C97" t="str">
-        <v>93.94</v>
+        <v>60.01</v>
       </c>
       <c r="D97" t="str">
-        <v>83.93</v>
+        <v>68.34</v>
       </c>
       <c r="E97" t="str">
         <v>0</v>
@@ -23529,254 +27386,254 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+        <v>0x3ff6b69e12e8883f31Da74dBdfAeC4c0e23E20aE</v>
       </c>
       <c r="B98" t="str">
-        <v>572.97</v>
+        <v>60.01</v>
       </c>
       <c r="C98" t="str">
-        <v>572.97</v>
+        <v>60.01</v>
       </c>
       <c r="D98" t="str">
-        <v>511.89</v>
+        <v>0</v>
       </c>
       <c r="E98" t="str">
-        <v>0</v>
+        <v>68.34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
       </c>
       <c r="B99" t="str">
-        <v>5,146.77</v>
+        <v>5,056.95</v>
       </c>
       <c r="C99" t="str">
-        <v>5,146.77</v>
+        <v>5,056.95</v>
       </c>
       <c r="D99" t="str">
         <v>0</v>
       </c>
       <c r="E99" t="str">
-        <v>4,598.09</v>
+        <v>5,758.88</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
       </c>
       <c r="B100" t="str">
-        <v>350.11</v>
+        <v>316.11</v>
       </c>
       <c r="C100" t="str">
-        <v>350.11</v>
+        <v>316.11</v>
       </c>
       <c r="D100" t="str">
-        <v>0</v>
+        <v>105.1</v>
       </c>
       <c r="E100" t="str">
-        <v>312.79</v>
+        <v>254.89</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
+        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
       </c>
       <c r="B101" t="str">
-        <v>243.45</v>
+        <v>316.11</v>
       </c>
       <c r="C101" t="str">
-        <v>243.45</v>
+        <v>316.11</v>
       </c>
       <c r="D101" t="str">
-        <v>217.5</v>
+        <v>254.89</v>
       </c>
       <c r="E101" t="str">
-        <v>0</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+        <v>0xD6C80eeC795F0564D20d517dd742dC6cD2Bf2EE0</v>
       </c>
       <c r="B102" t="str">
-        <v>23,338.74</v>
+        <v>50.75</v>
       </c>
       <c r="C102" t="str">
-        <v>23,338.74</v>
+        <v>50.75</v>
       </c>
       <c r="D102" t="str">
-        <v>20,101.79</v>
+        <v>57.8</v>
       </c>
       <c r="E102" t="str">
-        <v>748.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
       </c>
       <c r="B103" t="str">
-        <v>8,509.13</v>
+        <v>562.67</v>
       </c>
       <c r="C103" t="str">
-        <v>8,509.13</v>
+        <v>562.67</v>
       </c>
       <c r="D103" t="str">
-        <v>0</v>
+        <v>640.78</v>
       </c>
       <c r="E103" t="str">
-        <v>7,602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>0x9c6E23aC65D33b747B8c56C04db77d836c41Faf5</v>
+        <v>0x9C4e5edC6A735e4AB68ef04497b64008A955A1A5</v>
       </c>
       <c r="B104" t="str">
-        <v>597.4</v>
+        <v>1,842.04</v>
       </c>
       <c r="C104" t="str">
-        <v>597.4</v>
+        <v>1,842.04</v>
       </c>
       <c r="D104" t="str">
         <v>0</v>
       </c>
       <c r="E104" t="str">
-        <v>533.72</v>
+        <v>2,097.73</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
       </c>
       <c r="B105" t="str">
-        <v>4,152.09</v>
+        <v>88,489.86</v>
       </c>
       <c r="C105" t="str">
-        <v>4,152.09</v>
+        <v>88,489.86</v>
       </c>
       <c r="D105" t="str">
-        <v>3,709.45</v>
+        <v>0</v>
       </c>
       <c r="E105" t="str">
-        <v>0</v>
+        <v>100,772.56</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
+        <v>0x8f1928e8FEa7238b9B53A7E62AFd471b69732a66</v>
       </c>
       <c r="B106" t="str">
-        <v>504.33</v>
+        <v>433.49</v>
       </c>
       <c r="C106" t="str">
-        <v>504.33</v>
+        <v>433.49</v>
       </c>
       <c r="D106" t="str">
-        <v>0</v>
+        <v>367.77</v>
       </c>
       <c r="E106" t="str">
-        <v>450.57</v>
+        <v>125.9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
+        <v>0x5390651dd0824159FE0e82554feC7b283bCa3745</v>
       </c>
       <c r="B107" t="str">
-        <v>593.84</v>
+        <v>322.94</v>
       </c>
       <c r="C107" t="str">
-        <v>593.84</v>
+        <v>322.94</v>
       </c>
       <c r="D107" t="str">
-        <v>530.54</v>
+        <v>0</v>
       </c>
       <c r="E107" t="str">
-        <v>0</v>
+        <v>367.77</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
+        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
       </c>
       <c r="B108" t="str">
-        <v>593.84</v>
+        <v>365.18</v>
       </c>
       <c r="C108" t="str">
-        <v>593.84</v>
+        <v>365.18</v>
       </c>
       <c r="D108" t="str">
-        <v>0</v>
+        <v>415.87</v>
       </c>
       <c r="E108" t="str">
-        <v>530.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>0xA271d7ad0ce0b28cdc464dfD5F3A66B4d55B5Acc</v>
+        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
       </c>
       <c r="B109" t="str">
-        <v>390.27</v>
+        <v>9,938.42</v>
       </c>
       <c r="C109" t="str">
-        <v>390.27</v>
+        <v>9,938.42</v>
       </c>
       <c r="D109" t="str">
-        <v>348.67</v>
+        <v>8,319.06</v>
       </c>
       <c r="E109" t="str">
-        <v>0</v>
+        <v>2,998.85</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>0xE3c3CD768EF78506A37144Ce83b1f34af56A89D5</v>
+        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
       </c>
       <c r="B110" t="str">
-        <v>390.27</v>
+        <v>4,085.7</v>
       </c>
       <c r="C110" t="str">
-        <v>390.27</v>
+        <v>4,085.7</v>
       </c>
       <c r="D110" t="str">
-        <v>0</v>
+        <v>4,652.81</v>
       </c>
       <c r="E110" t="str">
-        <v>348.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
       </c>
       <c r="B111" t="str">
-        <v>348.54</v>
+        <v>4,085.7</v>
       </c>
       <c r="C111" t="str">
-        <v>348.54</v>
+        <v>4,085.7</v>
       </c>
       <c r="D111" t="str">
-        <v>311.39</v>
+        <v>0</v>
       </c>
       <c r="E111" t="str">
-        <v>0</v>
+        <v>4,652.81</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>0xB19c1b3cEc4c5bD6DCA220A4f59de9EC681e9211</v>
+        <v>0x6072640cFeFf7317C367B3648AcA357eD459d4fd</v>
       </c>
       <c r="B112" t="str">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="C112" t="str">
-        <v>22.11</v>
+        <v>139</v>
       </c>
       <c r="D112" t="str">
-        <v>19.76</v>
+        <v>158.3</v>
       </c>
       <c r="E112" t="str">
         <v>0</v>
@@ -23784,16 +27641,16 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
+        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
       </c>
       <c r="B113" t="str">
-        <v>0</v>
+        <v>14,383.59</v>
       </c>
       <c r="C113" t="str">
-        <v>596.45</v>
+        <v>14,383.59</v>
       </c>
       <c r="D113" t="str">
-        <v>532.87</v>
+        <v>16,380.09</v>
       </c>
       <c r="E113" t="str">
         <v>0</v>
@@ -23801,33 +27658,33 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
       </c>
       <c r="B114" t="str">
-        <v>143.87</v>
+        <v>6,534.7</v>
       </c>
       <c r="C114" t="str">
-        <v>143.87</v>
+        <v>6,534.7</v>
       </c>
       <c r="D114" t="str">
-        <v>0</v>
+        <v>7,441.74</v>
       </c>
       <c r="E114" t="str">
-        <v>128.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>0x9C19FE52c5b04d39EF89d58fCDef24A55CfDA4a7</v>
+        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
       </c>
       <c r="B115" t="str">
-        <v>123.12</v>
+        <v>5,560.38</v>
       </c>
       <c r="C115" t="str">
-        <v>123.12</v>
+        <v>5,560.38</v>
       </c>
       <c r="D115" t="str">
-        <v>110</v>
+        <v>6,332.18</v>
       </c>
       <c r="E115" t="str">
         <v>0</v>
@@ -23835,101 +27692,101 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>0x1e08bba24EeaB34dCc15Bc335c2638D40E1e3BD5</v>
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
       </c>
       <c r="B116" t="str">
-        <v>2,296.11</v>
+        <v>0</v>
       </c>
       <c r="C116" t="str">
-        <v>2,296.11</v>
+        <v>5,560.38</v>
       </c>
       <c r="D116" t="str">
-        <v>2,051.33</v>
+        <v>0</v>
       </c>
       <c r="E116" t="str">
-        <v>0</v>
+        <v>6,332.18</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>0x60999E23eccfa3f5e3361ABAb7DA635f2aBf891e</v>
+        <v>0xf0eeE0837e8F4feaC444412991f7005B8dFFa305</v>
       </c>
       <c r="B117" t="str">
-        <v>2,296.11</v>
+        <v>528.35</v>
       </c>
       <c r="C117" t="str">
-        <v>2,296.11</v>
+        <v>528.35</v>
       </c>
       <c r="D117" t="str">
         <v>0</v>
       </c>
       <c r="E117" t="str">
-        <v>2,051.33</v>
+        <v>601.69</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>0x212A3caD6d1572C706959d2aeF63071e61914bf2</v>
+        <v>0xa6A4BE6499cfdd7E94Cd1BF5498533FdCbb6CE5d</v>
       </c>
       <c r="B118" t="str">
-        <v>1,429.15</v>
+        <v>8,511.41</v>
       </c>
       <c r="C118" t="str">
-        <v>1,429.15</v>
+        <v>8,511.41</v>
       </c>
       <c r="D118" t="str">
-        <v>763.09</v>
+        <v>8,414.32</v>
       </c>
       <c r="E118" t="str">
-        <v>513.71</v>
+        <v>1,278.51</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>0x3479Ce7954Aebd06dD613A42301C911d85c789bF</v>
+        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
       </c>
       <c r="B119" t="str">
-        <v>1,076.21</v>
+        <v>11,958.44</v>
       </c>
       <c r="C119" t="str">
-        <v>1,076.21</v>
+        <v>11,958.44</v>
       </c>
       <c r="D119" t="str">
-        <v>961.48</v>
+        <v>2,202.1</v>
       </c>
       <c r="E119" t="str">
-        <v>0</v>
+        <v>11,416.22</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>0xa899FaB0CE9CDA2E314856C10A9F5B578b9f2778</v>
+        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
       </c>
       <c r="B120" t="str">
-        <v>1,076.21</v>
+        <v>133.93</v>
       </c>
       <c r="C120" t="str">
-        <v>1,076.21</v>
+        <v>133.93</v>
       </c>
       <c r="D120" t="str">
         <v>0</v>
       </c>
       <c r="E120" t="str">
-        <v>961.48</v>
+        <v>152.52</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
+        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
       </c>
       <c r="B121" t="str">
-        <v>0</v>
+        <v>750.17</v>
       </c>
       <c r="C121" t="str">
-        <v>1,259.24</v>
+        <v>750.17</v>
       </c>
       <c r="D121" t="str">
-        <v>1,125</v>
+        <v>854.3</v>
       </c>
       <c r="E121" t="str">
         <v>0</v>
@@ -23937,67 +27794,67 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>0xFa544d034dC07aD4Fa185ba769031a29Fbef5e36</v>
+        <v>0x9c6E23aC65D33b747B8c56C04db77d836c41Faf5</v>
       </c>
       <c r="B122" t="str">
-        <v>0</v>
+        <v>1,104.76</v>
       </c>
       <c r="C122" t="str">
-        <v>124.89</v>
+        <v>1,104.76</v>
       </c>
       <c r="D122" t="str">
         <v>0</v>
       </c>
       <c r="E122" t="str">
-        <v>111.58</v>
+        <v>1,258.11</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
+        <v>0x15E0239Bf3796e1e1eCbf911113eac89C0Db15d1</v>
       </c>
       <c r="B123" t="str">
-        <v>532.29</v>
+        <v>202.31</v>
       </c>
       <c r="C123" t="str">
-        <v>532.29</v>
+        <v>202.31</v>
       </c>
       <c r="D123" t="str">
-        <v>0</v>
+        <v>230.4</v>
       </c>
       <c r="E123" t="str">
-        <v>475.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+        <v>0x34F7C6378a4D0F3FB021594E337e727f5E23f53A</v>
       </c>
       <c r="B124" t="str">
-        <v>2,408.48</v>
+        <v>202.31</v>
       </c>
       <c r="C124" t="str">
-        <v>2,408.48</v>
+        <v>202.31</v>
       </c>
       <c r="D124" t="str">
         <v>0</v>
       </c>
       <c r="E124" t="str">
-        <v>2,151.72</v>
+        <v>230.4</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>0xedaa63C95A0faB8e7Dc7A710f8b9Aa6ee461dAC7</v>
+        <v>0x1D712193A96B4d9D4eC32108cfcde704AC9CCC9C</v>
       </c>
       <c r="B125" t="str">
-        <v>1,093.04</v>
+        <v>101.09</v>
       </c>
       <c r="C125" t="str">
-        <v>1,093.04</v>
+        <v>101.09</v>
       </c>
       <c r="D125" t="str">
-        <v>976.52</v>
+        <v>115.13</v>
       </c>
       <c r="E125" t="str">
         <v>0</v>
@@ -24005,84 +27862,84 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
+        <v>0xfA9FBD6360692a1b23b84A9dDFf63ed77faF58c9</v>
       </c>
       <c r="B126" t="str">
-        <v>8,570.1</v>
+        <v>266.71</v>
       </c>
       <c r="C126" t="str">
-        <v>8,570.1</v>
+        <v>266.71</v>
       </c>
       <c r="D126" t="str">
         <v>0</v>
       </c>
       <c r="E126" t="str">
-        <v>7,656.47</v>
+        <v>303.74</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>0xbe34Aa80F76Ac0FFc4398933df1BD891253e6CdB</v>
+        <v>0x000648b3abCcEbdEEA6594FdEC3741c54D75e21F</v>
       </c>
       <c r="B127" t="str">
-        <v>1.11</v>
+        <v>7,305.08</v>
       </c>
       <c r="C127" t="str">
-        <v>1.11</v>
+        <v>7,305.08</v>
       </c>
       <c r="D127" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="str">
-        <v>0</v>
+        <v>8,319.06</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>0xbB20a4e0514AF7e17d4ED83A55881F067B393c5E</v>
+        <v>0xeB0F9489F9aeFB6Bbd8d7f1cc3620898E30b49c0</v>
       </c>
       <c r="B128" t="str">
-        <v>108.45</v>
+        <v>439.05</v>
       </c>
       <c r="C128" t="str">
-        <v>108.45</v>
+        <v>439.05</v>
       </c>
       <c r="D128" t="str">
-        <v>96.89</v>
+        <v>0</v>
       </c>
       <c r="E128" t="str">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
       </c>
       <c r="B129" t="str">
-        <v>1,159.93</v>
+        <v>50.39</v>
       </c>
       <c r="C129" t="str">
-        <v>1,159.93</v>
+        <v>50.39</v>
       </c>
       <c r="D129" t="str">
         <v>0</v>
       </c>
       <c r="E129" t="str">
-        <v>1,036.28</v>
+        <v>57.39</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
       </c>
       <c r="B130" t="str">
-        <v>16,255.42</v>
+        <v>884.39</v>
       </c>
       <c r="C130" t="str">
-        <v>16,255.42</v>
+        <v>884.39</v>
       </c>
       <c r="D130" t="str">
-        <v>14,522.48</v>
+        <v>1,007.15</v>
       </c>
       <c r="E130" t="str">
         <v>0</v>
@@ -24090,67 +27947,67 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+        <v>0x8a3B39c36e88E3BE71B960cFBe2e4F66dB890E42</v>
       </c>
       <c r="B131" t="str">
         <v>0</v>
       </c>
       <c r="C131" t="str">
-        <v>16,255.42</v>
+        <v>3,081.63</v>
       </c>
       <c r="D131" t="str">
-        <v>0</v>
+        <v>3,509.38</v>
       </c>
       <c r="E131" t="str">
-        <v>14,522.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>0xdF8Df47E5109Adc155E436C0712adB78f53A418c</v>
+        <v>0xc01bdF2F593bbbFe1e15540c818c57f919466D7B</v>
       </c>
       <c r="B132" t="str">
-        <v>1,399.16</v>
+        <v>1,079.89</v>
       </c>
       <c r="C132" t="str">
-        <v>1,399.16</v>
+        <v>1,079.89</v>
       </c>
       <c r="D132" t="str">
-        <v>0</v>
+        <v>914.1</v>
       </c>
       <c r="E132" t="str">
-        <v>1,250</v>
+        <v>315.69</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>0x9D6B1E57daaE9A80411481801733B750d58782c0</v>
+        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
       </c>
       <c r="B133" t="str">
-        <v>430.65</v>
+        <v>131.71</v>
       </c>
       <c r="C133" t="str">
-        <v>430.65</v>
+        <v>131.71</v>
       </c>
       <c r="D133" t="str">
-        <v>384.74</v>
+        <v>0</v>
       </c>
       <c r="E133" t="str">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
+        <v>0x094CAE95AB3744453Cf7Ce9251dFDD816C3C810E</v>
       </c>
       <c r="B134" t="str">
-        <v>281.88</v>
+        <v>52.12</v>
       </c>
       <c r="C134" t="str">
-        <v>281.88</v>
+        <v>52.12</v>
       </c>
       <c r="D134" t="str">
-        <v>251.83</v>
+        <v>59.36</v>
       </c>
       <c r="E134" t="str">
         <v>0</v>
@@ -24158,33 +28015,33 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+        <v>0xec3348378419042E91B221137855B5412F78A539</v>
       </c>
       <c r="B135" t="str">
-        <v>3,240.97</v>
+        <v>2,241.97</v>
       </c>
       <c r="C135" t="str">
-        <v>3,240.97</v>
+        <v>2,241.97</v>
       </c>
       <c r="D135" t="str">
-        <v>0</v>
+        <v>2,553.17</v>
       </c>
       <c r="E135" t="str">
-        <v>2,895.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>0x947d2c8935C715428702231AD85E293a94CbEB65</v>
+        <v>0x7DE25BC41EfeD6Ee6d903Fc161C905D2fcb72Fff</v>
       </c>
       <c r="B136" t="str">
-        <v>559.66</v>
+        <v>156.15</v>
       </c>
       <c r="C136" t="str">
-        <v>559.66</v>
+        <v>156.15</v>
       </c>
       <c r="D136" t="str">
-        <v>500</v>
+        <v>177.83</v>
       </c>
       <c r="E136" t="str">
         <v>0</v>
@@ -24192,50 +28049,50 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
       </c>
       <c r="B137" t="str">
-        <v>26,617.87</v>
+        <v>988.9</v>
       </c>
       <c r="C137" t="str">
-        <v>26,617.87</v>
+        <v>988.9</v>
       </c>
       <c r="D137" t="str">
         <v>0</v>
       </c>
       <c r="E137" t="str">
-        <v>23,780.21</v>
+        <v>1,126.17</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>0x436aCB00107faBb69b486e2C7F4654bB37b02c41</v>
+        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
       </c>
       <c r="B138" t="str">
-        <v>2,534.96</v>
+        <v>8,502.34</v>
       </c>
       <c r="C138" t="str">
-        <v>2,534.96</v>
+        <v>8,502.34</v>
       </c>
       <c r="D138" t="str">
-        <v>2,264.72</v>
+        <v>0</v>
       </c>
       <c r="E138" t="str">
-        <v>0</v>
+        <v>9,682.5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>0xb62430C5fD8281c2F2ADf3ae7Cec7171d6F71EC6</v>
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
       </c>
       <c r="B139" t="str">
-        <v>103.1</v>
+        <v>58.5</v>
       </c>
       <c r="C139" t="str">
-        <v>103.1</v>
+        <v>58.5</v>
       </c>
       <c r="D139" t="str">
-        <v>92.11</v>
+        <v>66.63</v>
       </c>
       <c r="E139" t="str">
         <v>0</v>
@@ -24243,152 +28100,152 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>0x9fF7d51Cf6a3A12F2Cdd36035827037a35A4B139</v>
+        <v>0xdE976b1178696723F86102aaf17Ddd70522908dA</v>
       </c>
       <c r="B140" t="str">
-        <v>243.47</v>
+        <v>562.52</v>
       </c>
       <c r="C140" t="str">
-        <v>243.47</v>
+        <v>562.52</v>
       </c>
       <c r="D140" t="str">
-        <v>217.52</v>
+        <v>603.27</v>
       </c>
       <c r="E140" t="str">
-        <v>0</v>
+        <v>37.34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>0x331B6287b04a4Bb359C75D102a2104561BB84fe3</v>
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
       </c>
       <c r="B141" t="str">
-        <v>32.93</v>
+        <v>21,763.59</v>
       </c>
       <c r="C141" t="str">
-        <v>32.93</v>
+        <v>21,763.59</v>
       </c>
       <c r="D141" t="str">
         <v>0</v>
       </c>
       <c r="E141" t="str">
-        <v>29.42</v>
+        <v>24,784.46</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
       </c>
       <c r="B142" t="str">
-        <v>778,724.99</v>
+        <v>349.81</v>
       </c>
       <c r="C142" t="str">
-        <v>778,724.99</v>
+        <v>349.81</v>
       </c>
       <c r="D142" t="str">
-        <v>347,862.43</v>
+        <v>313.35</v>
       </c>
       <c r="E142" t="str">
-        <v>347,844.7</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
       </c>
       <c r="B143" t="str">
-        <v>312.49</v>
+        <v>275.15</v>
       </c>
       <c r="C143" t="str">
-        <v>312.49</v>
+        <v>275.15</v>
       </c>
       <c r="D143" t="str">
-        <v>279.18</v>
+        <v>0</v>
       </c>
       <c r="E143" t="str">
-        <v>0</v>
+        <v>313.35</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
+        <v>0x09aFEC89b908C2cbD220942f3788530C195Ba894</v>
       </c>
       <c r="B144" t="str">
-        <v>312.49</v>
+        <v>342.46</v>
       </c>
       <c r="C144" t="str">
-        <v>312.49</v>
+        <v>342.46</v>
       </c>
       <c r="D144" t="str">
         <v>0</v>
       </c>
       <c r="E144" t="str">
-        <v>279.18</v>
+        <v>390</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
+        <v>0x62Ff55e86d95A460a661929d6D125139bB7DCF7b</v>
       </c>
       <c r="B145" t="str">
-        <v>0</v>
+        <v>25,945.69</v>
       </c>
       <c r="C145" t="str">
-        <v>12,512.43</v>
+        <v>25,945.69</v>
       </c>
       <c r="D145" t="str">
         <v>0</v>
       </c>
       <c r="E145" t="str">
-        <v>11,178.52</v>
+        <v>29,547.05</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>0xa235aF3C12D4A0b91EB6Fd836da45464141a21e8</v>
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
       </c>
       <c r="B146" t="str">
-        <v>275.36</v>
+        <v>1,572.1</v>
       </c>
       <c r="C146" t="str">
-        <v>275.36</v>
+        <v>1,572.1</v>
       </c>
       <c r="D146" t="str">
-        <v>0</v>
+        <v>1,790.32</v>
       </c>
       <c r="E146" t="str">
-        <v>246.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
+        <v>0x1A24A8CDa46ACac40606af1D233dAfF9AEe66e2f</v>
       </c>
       <c r="B147" t="str">
-        <v>337.95</v>
+        <v>8,223.57</v>
       </c>
       <c r="C147" t="str">
-        <v>337.95</v>
+        <v>8,223.57</v>
       </c>
       <c r="D147" t="str">
-        <v>301.93</v>
+        <v>0</v>
       </c>
       <c r="E147" t="str">
-        <v>0</v>
+        <v>9,365.03</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>0xB318309e50C1f09825f903B5773c45b0d2930f28</v>
+        <v>0xBb3123adaa39aA9b0Bf8c0374eab50353F479c97</v>
       </c>
       <c r="B148" t="str">
-        <v>1,167.14</v>
+        <v>6,542.06</v>
       </c>
       <c r="C148" t="str">
-        <v>1,167.14</v>
+        <v>6,542.06</v>
       </c>
       <c r="D148" t="str">
-        <v>1,042.72</v>
+        <v>7,450.13</v>
       </c>
       <c r="E148" t="str">
         <v>0</v>
@@ -24396,84 +28253,84 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>0xC65cA88Bd73441A540590CB547F978afe8d503bb</v>
+        <v>0xF1D275F804a6b3d3f75B7C08150178836E56dE8B</v>
       </c>
       <c r="B149" t="str">
-        <v>1,879.02</v>
+        <v>6,542.06</v>
       </c>
       <c r="C149" t="str">
-        <v>1,879.02</v>
+        <v>6,542.06</v>
       </c>
       <c r="D149" t="str">
-        <v>1,678.71</v>
+        <v>0</v>
       </c>
       <c r="E149" t="str">
-        <v>0</v>
+        <v>7,450.13</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
+        <v>0x487EE46941931178c481a9fA3Eeb2016E2B0CBdA</v>
       </c>
       <c r="B150" t="str">
-        <v>6,495.68</v>
+        <v>154.33</v>
       </c>
       <c r="C150" t="str">
-        <v>6,495.68</v>
+        <v>154.33</v>
       </c>
       <c r="D150" t="str">
-        <v>383.02</v>
+        <v>175.76</v>
       </c>
       <c r="E150" t="str">
-        <v>5,420.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>0xF1ea664AbbA3452bc6cA6B289a6059613855805B</v>
+        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
       </c>
       <c r="B151" t="str">
-        <v>854.14</v>
+        <v>58.38</v>
       </c>
       <c r="C151" t="str">
-        <v>854.14</v>
+        <v>58.38</v>
       </c>
       <c r="D151" t="str">
         <v>0</v>
       </c>
       <c r="E151" t="str">
-        <v>763.09</v>
+        <v>66.49</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
+        <v>0x7aa90dE22D64831e54DA455A90621560f1bC97a2</v>
       </c>
       <c r="B152" t="str">
-        <v>18.27</v>
+        <v>1,376.54</v>
       </c>
       <c r="C152" t="str">
-        <v>18.27</v>
+        <v>1,376.54</v>
       </c>
       <c r="D152" t="str">
-        <v>16.33</v>
+        <v>326.89</v>
       </c>
       <c r="E152" t="str">
-        <v>0</v>
+        <v>1,240.72</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
       </c>
       <c r="B153" t="str">
-        <v>156,352.73</v>
+        <v>1,084.41</v>
       </c>
       <c r="C153" t="str">
-        <v>156,352.73</v>
+        <v>1,084.41</v>
       </c>
       <c r="D153" t="str">
-        <v>139,684.37</v>
+        <v>1,234.94</v>
       </c>
       <c r="E153" t="str">
         <v>0</v>
@@ -24481,67 +28338,67 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>0xf0a8596541F839EBcC9f0A9d1442c15f43A2836E</v>
+        <v>0xE67c4FDDfE95e21287889B41cA419A5896b36D22</v>
       </c>
       <c r="B154" t="str">
-        <v>39.76</v>
+        <v>542.05</v>
       </c>
       <c r="C154" t="str">
-        <v>39.76</v>
+        <v>542.05</v>
       </c>
       <c r="D154" t="str">
-        <v>0</v>
+        <v>617.29</v>
       </c>
       <c r="E154" t="str">
-        <v>35.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>0xE34bBD8d72B7Ffe5ad2e84CE93e3A07581De2e50</v>
+        <v>0xa5d134A404FBAe6B980D22C2A1be268a1a995F6C</v>
       </c>
       <c r="B155" t="str">
-        <v>0</v>
+        <v>291.16</v>
       </c>
       <c r="C155" t="str">
-        <v>509.56</v>
+        <v>291.16</v>
       </c>
       <c r="D155" t="str">
-        <v>0</v>
+        <v>331.58</v>
       </c>
       <c r="E155" t="str">
-        <v>455.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
       </c>
       <c r="B156" t="str">
-        <v>1,890.9</v>
+        <v>1,015.34</v>
       </c>
       <c r="C156" t="str">
-        <v>1,890.9</v>
+        <v>1,015.34</v>
       </c>
       <c r="D156" t="str">
-        <v>0</v>
+        <v>1,156.28</v>
       </c>
       <c r="E156" t="str">
-        <v>1,689.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>0xD45bc979277382882e1B41A5efa2561F55915716</v>
+        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
       </c>
       <c r="B157" t="str">
-        <v>374.29</v>
+        <v>0</v>
       </c>
       <c r="C157" t="str">
-        <v>374.29</v>
+        <v>3,744.41</v>
       </c>
       <c r="D157" t="str">
-        <v>334.39</v>
+        <v>4,264.15</v>
       </c>
       <c r="E157" t="str">
         <v>0</v>
@@ -24549,50 +28406,50 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
       </c>
       <c r="B158" t="str">
-        <v>215.37</v>
+        <v>6,271.06</v>
       </c>
       <c r="C158" t="str">
-        <v>215.37</v>
+        <v>6,271.06</v>
       </c>
       <c r="D158" t="str">
-        <v>70.22</v>
+        <v>7,141.51</v>
       </c>
       <c r="E158" t="str">
-        <v>122.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>0x280a3925f1fAD53B5a263fFc0028Fbab9abE6131</v>
+        <v>0x10C629454B361De9d161491cBd0fd4F0Bf1c1B0A</v>
       </c>
       <c r="B159" t="str">
-        <v>9.24</v>
+        <v>1,753.76</v>
       </c>
       <c r="C159" t="str">
-        <v>9.24</v>
+        <v>1,753.76</v>
       </c>
       <c r="D159" t="str">
         <v>0</v>
       </c>
       <c r="E159" t="str">
-        <v>8.26</v>
+        <v>1,997.19</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>0x1D712193A96B4d9D4eC32108cfcde704AC9CCC9C</v>
+        <v>0x7c7e966dB11308a39Eb64Ae1e3779DD9Cce3E38f</v>
       </c>
       <c r="B160" t="str">
-        <v>141.28</v>
+        <v>18.15</v>
       </c>
       <c r="C160" t="str">
-        <v>141.28</v>
+        <v>18.15</v>
       </c>
       <c r="D160" t="str">
-        <v>126.22</v>
+        <v>20.67</v>
       </c>
       <c r="E160" t="str">
         <v>0</v>
@@ -24600,118 +28457,118 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
+        <v>0x5C569dC00640a1bD6BCbDd9629Aa6Da1c358BD2a</v>
       </c>
       <c r="B161" t="str">
-        <v>4,459.05</v>
+        <v>18.15</v>
       </c>
       <c r="C161" t="str">
-        <v>4,459.05</v>
+        <v>18.15</v>
       </c>
       <c r="D161" t="str">
         <v>0</v>
       </c>
       <c r="E161" t="str">
-        <v>3,983.69</v>
+        <v>20.67</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
       </c>
       <c r="B162" t="str">
-        <v>99.32</v>
+        <v>351.16</v>
       </c>
       <c r="C162" t="str">
-        <v>99.32</v>
+        <v>351.16</v>
       </c>
       <c r="D162" t="str">
         <v>0</v>
       </c>
       <c r="E162" t="str">
-        <v>88.74</v>
+        <v>399.91</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>0x48682644c1e8529338e46e7DdabA4383C1fceBb1</v>
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
       </c>
       <c r="B163" t="str">
-        <v>6,351.76</v>
+        <v>733,083.86</v>
       </c>
       <c r="C163" t="str">
-        <v>6,351.76</v>
+        <v>733,083.86</v>
       </c>
       <c r="D163" t="str">
-        <v>0</v>
+        <v>417,379.59</v>
       </c>
       <c r="E163" t="str">
-        <v>5,674.62</v>
+        <v>417,458.8</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>0x3f80b42ae4B6a8701329682B5C66a2780917E5D0</v>
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
       </c>
       <c r="B164" t="str">
-        <v>5.88</v>
+        <v>1,122.67</v>
       </c>
       <c r="C164" t="str">
-        <v>5.88</v>
+        <v>1,122.67</v>
       </c>
       <c r="D164" t="str">
-        <v>0</v>
+        <v>1,278.51</v>
       </c>
       <c r="E164" t="str">
-        <v>5.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>0x31B6BBb170C7F75A4b8A6225811526B96697125E</v>
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
       </c>
       <c r="B165" t="str">
-        <v>3,927.06</v>
+        <v>143.87</v>
       </c>
       <c r="C165" t="str">
-        <v>3,927.06</v>
+        <v>143.87</v>
       </c>
       <c r="D165" t="str">
-        <v>3,508.41</v>
+        <v>0</v>
       </c>
       <c r="E165" t="str">
-        <v>0</v>
+        <v>163.84</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
+        <v>0x69f96f2A5Cdd84E574dB2a353880095988243417</v>
       </c>
       <c r="B166" t="str">
-        <v>3,927.06</v>
+        <v>0</v>
       </c>
       <c r="C166" t="str">
-        <v>3,927.06</v>
+        <v>1,940.65</v>
       </c>
       <c r="D166" t="str">
-        <v>0</v>
+        <v>2,210.02</v>
       </c>
       <c r="E166" t="str">
-        <v>3,508.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
+        <v>0x9dC9384487647375e43dcc32D979F48263EccDdE</v>
       </c>
       <c r="B167" t="str">
-        <v>781.87</v>
+        <v>3,123.08</v>
       </c>
       <c r="C167" t="str">
-        <v>781.87</v>
+        <v>3,123.08</v>
       </c>
       <c r="D167" t="str">
-        <v>698.52</v>
+        <v>3,556.58</v>
       </c>
       <c r="E167" t="str">
         <v>0</v>
@@ -24719,16 +28576,16 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>0xCbf575DA18d760a18dB55333bE8662CC07463069</v>
+        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
       </c>
       <c r="B168" t="str">
-        <v>138.41</v>
+        <v>111.48</v>
       </c>
       <c r="C168" t="str">
-        <v>138.41</v>
+        <v>111.48</v>
       </c>
       <c r="D168" t="str">
-        <v>123.66</v>
+        <v>126.96</v>
       </c>
       <c r="E168" t="str">
         <v>0</v>
@@ -24736,67 +28593,67 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>0x96366995FA701346A6f9bCD875E3E80D7421d8b3</v>
+        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
       </c>
       <c r="B169" t="str">
-        <v>227.35</v>
+        <v>111.48</v>
       </c>
       <c r="C169" t="str">
-        <v>227.35</v>
+        <v>111.48</v>
       </c>
       <c r="D169" t="str">
-        <v>203.12</v>
+        <v>0</v>
       </c>
       <c r="E169" t="str">
-        <v>0</v>
+        <v>126.96</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>0x41208763DD0C33e81cD7908ec88656ca7578d591</v>
+        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
       </c>
       <c r="B170" t="str">
-        <v>227.35</v>
+        <v>663.8</v>
       </c>
       <c r="C170" t="str">
-        <v>227.35</v>
+        <v>663.8</v>
       </c>
       <c r="D170" t="str">
         <v>0</v>
       </c>
       <c r="E170" t="str">
-        <v>203.12</v>
+        <v>755.94</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>0x9F6f9286f959A78F5d1E3eE78f331842539BA37B</v>
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
       </c>
       <c r="B171" t="str">
-        <v>227.87</v>
+        <v>186.27</v>
       </c>
       <c r="C171" t="str">
-        <v>227.87</v>
+        <v>186.27</v>
       </c>
       <c r="D171" t="str">
-        <v>0</v>
+        <v>212.13</v>
       </c>
       <c r="E171" t="str">
-        <v>203.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>0x95814b787287141C80e9917Ee9eC9B2F89275629</v>
+        <v>0x436aCB00107faBb69b486e2C7F4654bB37b02c41</v>
       </c>
       <c r="B172" t="str">
-        <v>6,786.57</v>
+        <v>3,463.83</v>
       </c>
       <c r="C172" t="str">
-        <v>6,786.57</v>
+        <v>3,463.83</v>
       </c>
       <c r="D172" t="str">
-        <v>6,063.08</v>
+        <v>3,944.63</v>
       </c>
       <c r="E172" t="str">
         <v>0</v>
@@ -24804,152 +28661,152 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>0xb4E2Ff46D5013BFa1C53135dF3BC240046ab88FA</v>
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
       </c>
       <c r="B173" t="str">
-        <v>657.54</v>
+        <v>18,417.08</v>
       </c>
       <c r="C173" t="str">
-        <v>657.54</v>
+        <v>18,417.08</v>
       </c>
       <c r="D173" t="str">
-        <v>587.45</v>
+        <v>0</v>
       </c>
       <c r="E173" t="str">
-        <v>0</v>
+        <v>20,973.44</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>0xc4a806D25d423059bb2E5D6aFc7dC5E046518E15</v>
+        <v>0x340eAB7488e336fDc588F1da47452f02945E80b3</v>
       </c>
       <c r="B174" t="str">
-        <v>657.54</v>
+        <v>276.86</v>
       </c>
       <c r="C174" t="str">
-        <v>657.54</v>
+        <v>276.86</v>
       </c>
       <c r="D174" t="str">
         <v>0</v>
       </c>
       <c r="E174" t="str">
-        <v>587.45</v>
+        <v>315.3</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>0xFF052E04aaC25F232d068678B1E053d8217F4786</v>
+        <v>0x8969DF60ACc4BB0f05cE8137608AD4434E2f4dEA</v>
       </c>
       <c r="B175" t="str">
-        <v>1,106.62</v>
+        <v>1,125.05</v>
       </c>
       <c r="C175" t="str">
-        <v>1,106.62</v>
+        <v>1,125.05</v>
       </c>
       <c r="D175" t="str">
-        <v>988.65</v>
+        <v>0</v>
       </c>
       <c r="E175" t="str">
-        <v>0</v>
+        <v>1,281.22</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
+        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
       </c>
       <c r="B176" t="str">
-        <v>1,647.87</v>
+        <v>4,846.53</v>
       </c>
       <c r="C176" t="str">
-        <v>1,647.87</v>
+        <v>4,846.53</v>
       </c>
       <c r="D176" t="str">
-        <v>1,250</v>
+        <v>5,519.25</v>
       </c>
       <c r="E176" t="str">
-        <v>222.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
+        <v>0x3479Ce7954Aebd06dD613A42301C911d85c789bF</v>
       </c>
       <c r="B177" t="str">
-        <v>1,647.87</v>
+        <v>1,096.77</v>
       </c>
       <c r="C177" t="str">
-        <v>1,647.87</v>
+        <v>1,096.77</v>
       </c>
       <c r="D177" t="str">
-        <v>222.2</v>
+        <v>1,249.01</v>
       </c>
       <c r="E177" t="str">
-        <v>1,250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>0x10C629454B361De9d161491cBd0fd4F0Bf1c1B0A</v>
+        <v>0xa899FaB0CE9CDA2E314856C10A9F5B578b9f2778</v>
       </c>
       <c r="B178" t="str">
-        <v>428.72</v>
+        <v>1,096.77</v>
       </c>
       <c r="C178" t="str">
-        <v>428.72</v>
+        <v>1,096.77</v>
       </c>
       <c r="D178" t="str">
         <v>0</v>
       </c>
       <c r="E178" t="str">
-        <v>383.02</v>
+        <v>1,249.01</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>0x031F54de8aB5748cE32866d806441Ba65Feec4e8</v>
+        <v>0xdF8Df47E5109Adc155E436C0712adB78f53A418c</v>
       </c>
       <c r="B179" t="str">
-        <v>153.07</v>
+        <v>1,097.64</v>
       </c>
       <c r="C179" t="str">
-        <v>153.07</v>
+        <v>1,097.64</v>
       </c>
       <c r="D179" t="str">
-        <v>136.76</v>
+        <v>0</v>
       </c>
       <c r="E179" t="str">
-        <v>0</v>
+        <v>1,250</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
+        <v>0x4e300F965ACE7aBF11A53662419F9A2D27dE3B1d</v>
       </c>
       <c r="B180" t="str">
-        <v>120.07</v>
+        <v>185.33</v>
       </c>
       <c r="C180" t="str">
-        <v>120.07</v>
+        <v>185.33</v>
       </c>
       <c r="D180" t="str">
         <v>0</v>
       </c>
       <c r="E180" t="str">
-        <v>107.27</v>
+        <v>211.06</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>0x6605532d3D1b060bDeae5FC44DBA7EC8cd4C2dC3</v>
+        <v>0x091D2bf74f675Df1d72eD6E07bCB693D56a4163c</v>
       </c>
       <c r="B181" t="str">
-        <v>829.87</v>
+        <v>0</v>
       </c>
       <c r="C181" t="str">
-        <v>829.87</v>
+        <v>2,183.66</v>
       </c>
       <c r="D181" t="str">
-        <v>741.4</v>
+        <v>2,486.77</v>
       </c>
       <c r="E181" t="str">
         <v>0</v>
@@ -24957,50 +28814,50 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>0x28207aadAe97226F70a54c25d16692197c062898</v>
+        <v>0x6605532d3D1b060bDeae5FC44DBA7EC8cd4C2dC3</v>
       </c>
       <c r="B182" t="str">
-        <v>806.37</v>
+        <v>171.96</v>
       </c>
       <c r="C182" t="str">
-        <v>806.37</v>
+        <v>171.96</v>
       </c>
       <c r="D182" t="str">
-        <v>0</v>
+        <v>195.84</v>
       </c>
       <c r="E182" t="str">
-        <v>720.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
       </c>
       <c r="B183" t="str">
-        <v>12,713.63</v>
+        <v>4.35</v>
       </c>
       <c r="C183" t="str">
-        <v>12,713.63</v>
+        <v>4.35</v>
       </c>
       <c r="D183" t="str">
         <v>0</v>
       </c>
       <c r="E183" t="str">
-        <v>11,358.27</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+        <v>0xD45bc979277382882e1B41A5efa2561F55915716</v>
       </c>
       <c r="B184" t="str">
-        <v>20,524.42</v>
+        <v>77.98</v>
       </c>
       <c r="C184" t="str">
-        <v>20,524.42</v>
+        <v>77.98</v>
       </c>
       <c r="D184" t="str">
-        <v>18,336.37</v>
+        <v>88.81</v>
       </c>
       <c r="E184" t="str">
         <v>0</v>
@@ -25008,33 +28865,33 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
+        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
       </c>
       <c r="B185" t="str">
-        <v>600.37</v>
+        <v>595.61</v>
       </c>
       <c r="C185" t="str">
-        <v>600.37</v>
+        <v>595.61</v>
       </c>
       <c r="D185" t="str">
-        <v>0</v>
+        <v>628.26</v>
       </c>
       <c r="E185" t="str">
-        <v>536.37</v>
+        <v>50.03</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>0xA7d0053076d12451b721FCa4e513CF4808846e1F</v>
+        <v>0x04d9f35C7c292ca2c75C498563b48123C0662e19</v>
       </c>
       <c r="B186" t="str">
-        <v>91.35</v>
+        <v>1,294.15</v>
       </c>
       <c r="C186" t="str">
-        <v>91.35</v>
+        <v>1,294.15</v>
       </c>
       <c r="D186" t="str">
-        <v>81.62</v>
+        <v>1,473.79</v>
       </c>
       <c r="E186" t="str">
         <v>0</v>
@@ -25042,118 +28899,118 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>0xE592EbB555eC4dBc9b98B0D6C8e86c7a7Fa24138</v>
+        <v>0xb62430C5fD8281c2F2ADf3ae7Cec7171d6F71EC6</v>
       </c>
       <c r="B187" t="str">
-        <v>91.35</v>
+        <v>109.28</v>
       </c>
       <c r="C187" t="str">
-        <v>91.35</v>
+        <v>109.28</v>
       </c>
       <c r="D187" t="str">
-        <v>0</v>
+        <v>61.31</v>
       </c>
       <c r="E187" t="str">
-        <v>81.62</v>
+        <v>63.14</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
+        <v>0x280a3925f1fAD53B5a263fFc0028Fbab9abE6131</v>
       </c>
       <c r="B188" t="str">
-        <v>0</v>
+        <v>8,854.51</v>
       </c>
       <c r="C188" t="str">
-        <v>134.05</v>
+        <v>8,854.51</v>
       </c>
       <c r="D188" t="str">
-        <v>119.76</v>
+        <v>6,906.99</v>
       </c>
       <c r="E188" t="str">
-        <v>0</v>
+        <v>3,176.56</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
+        <v>0x212A3caD6d1572C706959d2aeF63071e61914bf2</v>
       </c>
       <c r="B189" t="str">
-        <v>128.74</v>
+        <v>1,332.54</v>
       </c>
       <c r="C189" t="str">
-        <v>128.74</v>
+        <v>1,332.54</v>
       </c>
       <c r="D189" t="str">
-        <v>115.02</v>
+        <v>900.05</v>
       </c>
       <c r="E189" t="str">
-        <v>0</v>
+        <v>617.46</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>0x3E3309ab5312f6875b6e9bE672b9A43EFb70D760</v>
+        <v>0xf78D0cdFB459eD9CC19eEb7c22B5F193d7662fcC</v>
       </c>
       <c r="B190" t="str">
-        <v>1,231.26</v>
+        <v>8,785.35</v>
       </c>
       <c r="C190" t="str">
-        <v>1,231.26</v>
+        <v>8,785.35</v>
       </c>
       <c r="D190" t="str">
-        <v>0</v>
+        <v>10,004.79</v>
       </c>
       <c r="E190" t="str">
-        <v>1,100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>0xF2Aa3A5Df3Af1eD5ff72631A8bcFF0F0AfE060eC</v>
+        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
       </c>
       <c r="B191" t="str">
-        <v>1,429.34</v>
+        <v>600.62</v>
       </c>
       <c r="C191" t="str">
-        <v>1,429.34</v>
+        <v>600.62</v>
       </c>
       <c r="D191" t="str">
-        <v>710.75</v>
+        <v>0</v>
       </c>
       <c r="E191" t="str">
-        <v>566.22</v>
+        <v>683.99</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>0xE1FcC0676dE7f03EB6c63b55A5ad667416029A5F</v>
+        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
       </c>
       <c r="B192" t="str">
-        <v>61.2</v>
+        <v>17,096.69</v>
       </c>
       <c r="C192" t="str">
-        <v>61.2</v>
+        <v>17,096.69</v>
       </c>
       <c r="D192" t="str">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E192" t="str">
-        <v>54.68</v>
+        <v>19,468.67</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
+        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
       </c>
       <c r="B193" t="str">
-        <v>46.26</v>
+        <v>0</v>
       </c>
       <c r="C193" t="str">
-        <v>46.26</v>
+        <v>135.96</v>
       </c>
       <c r="D193" t="str">
-        <v>41.33</v>
+        <v>154.84</v>
       </c>
       <c r="E193" t="str">
         <v>0</v>
@@ -25161,50 +29018,50 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>0xbc44E6f03C150df10Fe594d42eACAAC51C13e15B</v>
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
       </c>
       <c r="B194" t="str">
-        <v>95.35</v>
+        <v>152,187.46</v>
       </c>
       <c r="C194" t="str">
-        <v>95.35</v>
+        <v>152,187.46</v>
       </c>
       <c r="D194" t="str">
         <v>0</v>
       </c>
       <c r="E194" t="str">
-        <v>85.19</v>
+        <v>173,311.6</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
+        <v>0x760d7E2525DDB8790d047CFF195b753F9dCCac41</v>
       </c>
       <c r="B195" t="str">
-        <v>469.36</v>
+        <v>274.14</v>
       </c>
       <c r="C195" t="str">
-        <v>469.36</v>
+        <v>274.14</v>
       </c>
       <c r="D195" t="str">
         <v>0</v>
       </c>
       <c r="E195" t="str">
-        <v>419.33</v>
+        <v>312.2</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
+        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
       </c>
       <c r="B196" t="str">
-        <v>1,169.56</v>
+        <v>43.8</v>
       </c>
       <c r="C196" t="str">
-        <v>1,169.56</v>
+        <v>43.8</v>
       </c>
       <c r="D196" t="str">
-        <v>1,044.88</v>
+        <v>49.88</v>
       </c>
       <c r="E196" t="str">
         <v>0</v>
@@ -25212,33 +29069,33 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
+        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
       </c>
       <c r="B197" t="str">
-        <v>0</v>
+        <v>18,700.27</v>
       </c>
       <c r="C197" t="str">
-        <v>1,169.56</v>
+        <v>18,700.27</v>
       </c>
       <c r="D197" t="str">
-        <v>0</v>
+        <v>21,295.94</v>
       </c>
       <c r="E197" t="str">
-        <v>1,044.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
       </c>
       <c r="B198" t="str">
-        <v>59.1</v>
+        <v>7,516.85</v>
       </c>
       <c r="C198" t="str">
-        <v>59.1</v>
+        <v>7,516.85</v>
       </c>
       <c r="D198" t="str">
-        <v>52.8</v>
+        <v>8,560.22</v>
       </c>
       <c r="E198" t="str">
         <v>0</v>
@@ -25246,16 +29103,16 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
+        <v>0xedaa63C95A0faB8e7Dc7A710f8b9Aa6ee461dAC7</v>
       </c>
       <c r="B199" t="str">
-        <v>12.57</v>
+        <v>1,114.47</v>
       </c>
       <c r="C199" t="str">
-        <v>12.57</v>
+        <v>1,114.47</v>
       </c>
       <c r="D199" t="str">
-        <v>11.23</v>
+        <v>1,269.17</v>
       </c>
       <c r="E199" t="str">
         <v>0</v>
@@ -25263,373 +29120,373 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
+        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
       </c>
       <c r="B200" t="str">
-        <v>12.57</v>
+        <v>4,409.37</v>
       </c>
       <c r="C200" t="str">
-        <v>12.57</v>
+        <v>4,409.37</v>
       </c>
       <c r="D200" t="str">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="E200" t="str">
-        <v>11.23</v>
+        <v>5,019.17</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
+        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
       </c>
       <c r="B201" t="str">
-        <v>705.91</v>
+        <v>40,799.11</v>
       </c>
       <c r="C201" t="str">
-        <v>705.91</v>
+        <v>40,799.11</v>
       </c>
       <c r="D201" t="str">
-        <v>630.66</v>
+        <v>46,168.07</v>
       </c>
       <c r="E201" t="str">
-        <v>0</v>
+        <v>294.1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>0xEEe37E83b74Ebf3679962F6199dADF968E74efa5</v>
+        <v>0xC023483Fa22d037EC5f056FC31C8f40751722aD5</v>
       </c>
       <c r="B202" t="str">
-        <v>705.91</v>
+        <v>55.89</v>
       </c>
       <c r="C202" t="str">
-        <v>705.91</v>
+        <v>55.89</v>
       </c>
       <c r="D202" t="str">
         <v>0</v>
       </c>
       <c r="E202" t="str">
-        <v>630.66</v>
+        <v>63.65</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>0x3D31F6Bf45af4c98238a9A9589c038CCB1Ae9b3f</v>
+        <v>0xcE1290F5457067497EAd8Aea22515d52ca94357E</v>
       </c>
       <c r="B203" t="str">
-        <v>1,348.39</v>
+        <v>111.64</v>
       </c>
       <c r="C203" t="str">
-        <v>1,348.39</v>
+        <v>111.64</v>
       </c>
       <c r="D203" t="str">
         <v>0</v>
       </c>
       <c r="E203" t="str">
-        <v>1,204.65</v>
+        <v>127.14</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>0xfC8B5e50e7aa48f71F422339e4c0040f7779C714</v>
+        <v>0x73755c77A68017d6E755Ac0cE9df5EA7c2aF8F75</v>
       </c>
       <c r="B204" t="str">
-        <v>2,680.8</v>
+        <v>0</v>
       </c>
       <c r="C204" t="str">
-        <v>2,680.8</v>
+        <v>476.37</v>
       </c>
       <c r="D204" t="str">
-        <v>2,395.01</v>
+        <v>0</v>
       </c>
       <c r="E204" t="str">
-        <v>0</v>
+        <v>542.5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
+        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
       </c>
       <c r="B205" t="str">
-        <v>1,526.17</v>
+        <v>888.1</v>
       </c>
       <c r="C205" t="str">
-        <v>1,526.17</v>
+        <v>888.1</v>
       </c>
       <c r="D205" t="str">
-        <v>526.36</v>
+        <v>0</v>
       </c>
       <c r="E205" t="str">
-        <v>837.11</v>
+        <v>1,011.38</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>0x620C45Fd6A4C15A4aa2A3a9301F0009b34F7809b</v>
+        <v>0x2373654B6a1564c5BdA4D28dDeF1827D66d7EA2b</v>
       </c>
       <c r="B206" t="str">
-        <v>696.45</v>
+        <v>0</v>
       </c>
       <c r="C206" t="str">
-        <v>696.45</v>
+        <v>287.04</v>
       </c>
       <c r="D206" t="str">
-        <v>622.21</v>
+        <v>0</v>
       </c>
       <c r="E206" t="str">
-        <v>0</v>
+        <v>326.89</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
+        <v>0xE34bBD8d72B7Ffe5ad2e84CE93e3A07581De2e50</v>
       </c>
       <c r="B207" t="str">
-        <v>845.26</v>
+        <v>0</v>
       </c>
       <c r="C207" t="str">
-        <v>845.26</v>
+        <v>115.72</v>
       </c>
       <c r="D207" t="str">
         <v>0</v>
       </c>
       <c r="E207" t="str">
-        <v>755.15</v>
+        <v>131.79</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
+        <v>0x8218E1a9D02E26E2aF124EA28b121031Cf25AaC8</v>
       </c>
       <c r="B208" t="str">
-        <v>568.11</v>
+        <v>651.19</v>
       </c>
       <c r="C208" t="str">
-        <v>568.11</v>
+        <v>651.19</v>
       </c>
       <c r="D208" t="str">
         <v>0</v>
       </c>
       <c r="E208" t="str">
-        <v>507.55</v>
+        <v>741.58</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
       </c>
       <c r="B209" t="str">
-        <v>24.79</v>
+        <v>432.95</v>
       </c>
       <c r="C209" t="str">
-        <v>24.79</v>
+        <v>432.95</v>
       </c>
       <c r="D209" t="str">
         <v>0</v>
       </c>
       <c r="E209" t="str">
-        <v>22.15</v>
+        <v>493.05</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>0xD465Ffa5efAdF5cF1Dd6c45c3C305f58279A2140</v>
+        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
       </c>
       <c r="B210" t="str">
-        <v>0</v>
+        <v>109.46</v>
       </c>
       <c r="C210" t="str">
-        <v>377.86</v>
+        <v>109.46</v>
       </c>
       <c r="D210" t="str">
-        <v>0</v>
+        <v>124.66</v>
       </c>
       <c r="E210" t="str">
-        <v>337.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>0xc677a6C972baeCe4Bf9C0a2EbB600886F0300a7D</v>
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
       </c>
       <c r="B211" t="str">
-        <v>10,961.29</v>
+        <v>142.83</v>
       </c>
       <c r="C211" t="str">
-        <v>10,961.29</v>
+        <v>142.83</v>
       </c>
       <c r="D211" t="str">
-        <v>9,792.74</v>
+        <v>38</v>
       </c>
       <c r="E211" t="str">
-        <v>0</v>
+        <v>124.66</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>0x0feD39AC6093e042825EfE8862f37dc8425B8f74</v>
+        <v>0x143A47CAF24904a750242e138F31ADd7F6999Cb5</v>
       </c>
       <c r="B212" t="str">
-        <v>0</v>
+        <v>11.05</v>
       </c>
       <c r="C212" t="str">
-        <v>243.99</v>
+        <v>11.05</v>
       </c>
       <c r="D212" t="str">
-        <v>0</v>
+        <v>12.59</v>
       </c>
       <c r="E212" t="str">
-        <v>217.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>0xe6DA3D64EB935d2B013F2895cEa5CaAb8E4DbED5</v>
+        <v>0x5c077b6a51010d308bb6F0Fce9Cd1593d0F78517</v>
       </c>
       <c r="B213" t="str">
-        <v>24,566.59</v>
+        <v>279.15</v>
       </c>
       <c r="C213" t="str">
-        <v>24,566.59</v>
+        <v>279.15</v>
       </c>
       <c r="D213" t="str">
-        <v>21,947.61</v>
+        <v>0</v>
       </c>
       <c r="E213" t="str">
-        <v>0</v>
+        <v>317.9</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>0xD6C80eeC795F0564D20d517dd742dC6cD2Bf2EE0</v>
+        <v>0x01Bf02ECf2aa5f2E824a64Fba6A0DC3Ee46D775B</v>
       </c>
       <c r="B214" t="str">
-        <v>49.77</v>
+        <v>9,220.22</v>
       </c>
       <c r="C214" t="str">
-        <v>49.77</v>
+        <v>9,220.22</v>
       </c>
       <c r="D214" t="str">
-        <v>44.47</v>
+        <v>5,543.71</v>
       </c>
       <c r="E214" t="str">
-        <v>0</v>
+        <v>4,956.31</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>0x1A24A8CDa46ACac40606af1D233dAfF9AEe66e2f</v>
+        <v>0xA7258aeA0F44A7fe4a4933a1434e2fc8217891C0</v>
       </c>
       <c r="B215" t="str">
-        <v>3,301.98</v>
+        <v>9,220.22</v>
       </c>
       <c r="C215" t="str">
-        <v>3,301.98</v>
+        <v>9,220.22</v>
       </c>
       <c r="D215" t="str">
-        <v>0</v>
+        <v>4,956.31</v>
       </c>
       <c r="E215" t="str">
-        <v>2,949.97</v>
+        <v>5,543.71</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>0x2c7771aCC47795D2F05Ed29C8c17e8887e49fda7</v>
+        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
       </c>
       <c r="B216" t="str">
-        <v>24.52</v>
+        <v>861.03</v>
       </c>
       <c r="C216" t="str">
-        <v>24.52</v>
+        <v>861.03</v>
       </c>
       <c r="D216" t="str">
-        <v>21.91</v>
+        <v>0</v>
       </c>
       <c r="E216" t="str">
-        <v>0</v>
+        <v>980.55</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>0xa814A19ca89c55cD435C138552a9EDeab68Ded49</v>
+        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
       </c>
       <c r="B217" t="str">
-        <v>839.49</v>
+        <v>495.8</v>
       </c>
       <c r="C217" t="str">
-        <v>839.49</v>
+        <v>495.8</v>
       </c>
       <c r="D217" t="str">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E217" t="str">
-        <v>0</v>
+        <v>564.62</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>0xd092C607a92c75de3bB1240494C4822Bf3766D46</v>
+        <v>0xd63c4fE2E52948079b40d0eFd5FBa8a5F54aB32b</v>
       </c>
       <c r="B218" t="str">
-        <v>839.49</v>
+        <v>375.77</v>
       </c>
       <c r="C218" t="str">
-        <v>839.49</v>
+        <v>375.77</v>
       </c>
       <c r="D218" t="str">
-        <v>0</v>
+        <v>427.93</v>
       </c>
       <c r="E218" t="str">
-        <v>750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>0x240e0289a4d0D6B1b412ad1A4fD04711656A29ee</v>
+        <v>0xA678C16Ecca94a90764973FedEbE71d524FAfF84</v>
       </c>
       <c r="B219" t="str">
-        <v>125.05</v>
+        <v>375.77</v>
       </c>
       <c r="C219" t="str">
-        <v>125.05</v>
+        <v>375.77</v>
       </c>
       <c r="D219" t="str">
-        <v>111.72</v>
+        <v>0</v>
       </c>
       <c r="E219" t="str">
-        <v>0</v>
+        <v>427.93</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>0xeB0F9489F9aeFB6Bbd8d7f1cc3620898E30b49c0</v>
+        <v>0xF3FA7EB53b74e2A29f36108f18f12f50616168d1</v>
       </c>
       <c r="B220" t="str">
-        <v>407.25</v>
+        <v>1,072.3</v>
       </c>
       <c r="C220" t="str">
-        <v>407.25</v>
+        <v>1,072.3</v>
       </c>
       <c r="D220" t="str">
-        <v>0</v>
+        <v>1,221.15</v>
       </c>
       <c r="E220" t="str">
-        <v>363.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
+        <v>0x8D61A43F4D07a78132D5239D5B84e3D46205bED2</v>
       </c>
       <c r="B221" t="str">
-        <v>3,575.08</v>
+        <v>43.96</v>
       </c>
       <c r="C221" t="str">
-        <v>3,575.08</v>
+        <v>43.96</v>
       </c>
       <c r="D221" t="str">
-        <v>3,193.95</v>
+        <v>50.07</v>
       </c>
       <c r="E221" t="str">
         <v>0</v>
@@ -25637,92 +29494,415 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>0x375bE33B63Ad8204eb4FB2CaCa325126d1eC6f19</v>
+        <v>0x997501e72C3deE97cb9608d72d9C1176D85Bb7C7</v>
       </c>
       <c r="B222" t="str">
-        <v>479.96</v>
+        <v>109.57</v>
       </c>
       <c r="C222" t="str">
-        <v>479.96</v>
+        <v>109.57</v>
       </c>
       <c r="D222" t="str">
-        <v>428.8</v>
+        <v>0</v>
       </c>
       <c r="E222" t="str">
-        <v>0</v>
+        <v>124.78</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>0x4DF1C6c7973f4E6e3B22149f7b8eFc4389f97C56</v>
+        <v>0xE1FcC0676dE7f03EB6c63b55A5ad667416029A5F</v>
       </c>
       <c r="B223" t="str">
-        <v>546.62</v>
+        <v>55.16</v>
       </c>
       <c r="C223" t="str">
-        <v>546.62</v>
+        <v>55.16</v>
       </c>
       <c r="D223" t="str">
-        <v>488.35</v>
+        <v>0</v>
       </c>
       <c r="E223" t="str">
-        <v>0</v>
+        <v>62.82</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
+        <v>0x1A7Ff4ee32B3cF4Ce8633D7596c7FD3bf327515a</v>
       </c>
       <c r="B224" t="str">
-        <v>546.62</v>
+        <v>0</v>
       </c>
       <c r="C224" t="str">
-        <v>546.62</v>
+        <v>32.99</v>
       </c>
       <c r="D224" t="str">
-        <v>0</v>
+        <v>37.57</v>
       </c>
       <c r="E224" t="str">
-        <v>488.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>0xC023483Fa22d037EC5f056FC31C8f40751722aD5</v>
+        <v>0xAD5c21611Ea4790991c40BFD8e0888e012D7162E</v>
       </c>
       <c r="B225" t="str">
-        <v>5,596.64</v>
+        <v>1,903.81</v>
       </c>
       <c r="C225" t="str">
-        <v>5,596.64</v>
+        <v>1,903.81</v>
       </c>
       <c r="D225" t="str">
-        <v>0</v>
+        <v>2,168.07</v>
       </c>
       <c r="E225" t="str">
-        <v>5,000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
+        <v>0xE3060D70A15f2EdFb390D66e60467Da6F5ECA1C7</v>
+      </c>
+      <c r="B226" t="str">
+        <v>117.63</v>
+      </c>
+      <c r="C226" t="str">
+        <v>117.63</v>
+      </c>
+      <c r="D226" t="str">
+        <v>0</v>
+      </c>
+      <c r="E226" t="str">
+        <v>133.96</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>0x2Ac0D00cd67535221C29B756e91175454f62Fb0b</v>
+      </c>
+      <c r="B227" t="str">
+        <v>177.1</v>
+      </c>
+      <c r="C227" t="str">
+        <v>177.1</v>
+      </c>
+      <c r="D227" t="str">
+        <v>201.69</v>
+      </c>
+      <c r="E227" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>0x0c75cB1d74392a119691ae930151162D611EAC54</v>
+      </c>
+      <c r="B228" t="str">
+        <v>439.05</v>
+      </c>
+      <c r="C228" t="str">
+        <v>439.05</v>
+      </c>
+      <c r="D228" t="str">
+        <v>500</v>
+      </c>
+      <c r="E228" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
+      </c>
+      <c r="B229" t="str">
+        <v>2,882.99</v>
+      </c>
+      <c r="C229" t="str">
+        <v>2,882.99</v>
+      </c>
+      <c r="D229" t="str">
+        <v>3,283.16</v>
+      </c>
+      <c r="E229" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
+      </c>
+      <c r="B230" t="str">
+        <v>2,882.99</v>
+      </c>
+      <c r="C230" t="str">
+        <v>2,882.99</v>
+      </c>
+      <c r="D230" t="str">
+        <v>0</v>
+      </c>
+      <c r="E230" t="str">
+        <v>3,283.16</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
+      </c>
+      <c r="B231" t="str">
+        <v>526.99</v>
+      </c>
+      <c r="C231" t="str">
+        <v>526.99</v>
+      </c>
+      <c r="D231" t="str">
+        <v>600.14</v>
+      </c>
+      <c r="E231" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
+      </c>
+      <c r="B232" t="str">
+        <v>526.99</v>
+      </c>
+      <c r="C232" t="str">
+        <v>526.99</v>
+      </c>
+      <c r="D232" t="str">
+        <v>0</v>
+      </c>
+      <c r="E232" t="str">
+        <v>600.14</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>0xF1ea664AbbA3452bc6cA6B289a6059613855805B</v>
+      </c>
+      <c r="B233" t="str">
+        <v>790.34</v>
+      </c>
+      <c r="C233" t="str">
+        <v>790.34</v>
+      </c>
+      <c r="D233" t="str">
+        <v>0</v>
+      </c>
+      <c r="E233" t="str">
+        <v>900.05</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+      </c>
+      <c r="B234" t="str">
+        <v>21.01</v>
+      </c>
+      <c r="C234" t="str">
+        <v>21.01</v>
+      </c>
+      <c r="D234" t="str">
+        <v>0</v>
+      </c>
+      <c r="E234" t="str">
+        <v>23.93</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
+      </c>
+      <c r="B235" t="str">
+        <v>104.24</v>
+      </c>
+      <c r="C235" t="str">
+        <v>104.24</v>
+      </c>
+      <c r="D235" t="str">
+        <v>118.71</v>
+      </c>
+      <c r="E235" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>0xA918ADC20A91e7C932e6E00e436D710DA71C765C</v>
+      </c>
+      <c r="B236" t="str">
+        <v>258.25</v>
+      </c>
+      <c r="C236" t="str">
+        <v>258.25</v>
+      </c>
+      <c r="D236" t="str">
+        <v>294.1</v>
+      </c>
+      <c r="E236" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
+      </c>
+      <c r="B237" t="str">
+        <v>1,129.71</v>
+      </c>
+      <c r="C237" t="str">
+        <v>1,129.71</v>
+      </c>
+      <c r="D237" t="str">
+        <v>0</v>
+      </c>
+      <c r="E237" t="str">
+        <v>1,286.52</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
+      </c>
+      <c r="B238" t="str">
+        <v>26.34</v>
+      </c>
+      <c r="C238" t="str">
+        <v>26.34</v>
+      </c>
+      <c r="D238" t="str">
+        <v>0</v>
+      </c>
+      <c r="E238" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>0x1e08bba24EeaB34dCc15Bc335c2638D40E1e3BD5</v>
+      </c>
+      <c r="B239" t="str">
+        <v>2,886</v>
+      </c>
+      <c r="C239" t="str">
+        <v>2,886</v>
+      </c>
+      <c r="D239" t="str">
+        <v>0</v>
+      </c>
+      <c r="E239" t="str">
+        <v>3,286.59</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>0xC090D9F71184D03568485a351456C570ff9F9Cbf</v>
+      </c>
+      <c r="B240" t="str">
+        <v>3,046.85</v>
+      </c>
+      <c r="C240" t="str">
+        <v>3,046.85</v>
+      </c>
+      <c r="D240" t="str">
+        <v>3,468.67</v>
+      </c>
+      <c r="E240" t="str">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>0x947d2c8935C715428702231AD85E293a94CbEB65</v>
+      </c>
+      <c r="B241" t="str">
+        <v>658.58</v>
+      </c>
+      <c r="C241" t="str">
+        <v>658.58</v>
+      </c>
+      <c r="D241" t="str">
+        <v>750</v>
+      </c>
+      <c r="E241" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>0x28207aadAe97226F70a54c25d16692197c062898</v>
+      </c>
+      <c r="B242" t="str">
+        <v>4.04</v>
+      </c>
+      <c r="C242" t="str">
+        <v>4.04</v>
+      </c>
+      <c r="D242" t="str">
+        <v>4.61</v>
+      </c>
+      <c r="E242" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>0xc47024d1c6E59E5FCc715353B53601474768Fa6b</v>
+      </c>
+      <c r="B243" t="str">
+        <v>329.29</v>
+      </c>
+      <c r="C243" t="str">
+        <v>329.29</v>
+      </c>
+      <c r="D243" t="str">
+        <v>375</v>
+      </c>
+      <c r="E243" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
+      </c>
+      <c r="B244" t="str">
+        <v>0</v>
+      </c>
+      <c r="C244" t="str">
+        <v>1,190.53</v>
+      </c>
+      <c r="D244" t="str">
+        <v>0</v>
+      </c>
+      <c r="E244" t="str">
+        <v>1,355.78</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
         <v>Total</v>
       </c>
-      <c r="B226" t="str">
-        <v>2,870,773.34</v>
-      </c>
-      <c r="C226" t="str">
-        <v>3,205,127</v>
-      </c>
-      <c r="D226" t="str">
-        <v>1,354,231.14</v>
-      </c>
-      <c r="E226" t="str">
-        <v>1,509,206.59</v>
+      <c r="B245" t="str">
+        <v>3,118,027.2</v>
+      </c>
+      <c r="C245" t="str">
+        <v>3,205,127.04</v>
+      </c>
+      <c r="D245" t="str">
+        <v>1,580,601.51</v>
+      </c>
+      <c r="E245" t="str">
+        <v>2,069,409.34</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E226"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E245"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/staker_incentives.xlsx
+++ b/staker_incentives.xlsx
@@ -18,6 +18,7 @@
     <sheet name="Blocks 71485155 - 71767951" sheetId="13" r:id="rId13"/>
     <sheet name="Blocks 71767952 - 72049006" sheetId="14" r:id="rId14"/>
     <sheet name="Blocks 72049007 - 72332266" sheetId="15" r:id="rId15"/>
+    <sheet name="Blocks 72332267 - 72615454" sheetId="16" r:id="rId16"/>
   </sheets>
 </workbook>
 </file>
@@ -25727,6 +25728,4185 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Staker Address</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Reward (ERC20 TEL)</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Uncapped Reward (ERC20 TEL)</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Staker Fees</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Referee Fees</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1,716.71</v>
+      </c>
+      <c r="C2" t="str">
+        <v>1,716.71</v>
+      </c>
+      <c r="D2" t="str">
+        <v>1,955</v>
+      </c>
+      <c r="E2" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>0xe23bc0609A8Df4EA2A597AEAAFcBF421BFfBDCFd</v>
+      </c>
+      <c r="B3" t="str">
+        <v>579.51</v>
+      </c>
+      <c r="C3" t="str">
+        <v>579.51</v>
+      </c>
+      <c r="D3" t="str">
+        <v>659.95</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+      </c>
+      <c r="B4" t="str">
+        <v>145,569.36</v>
+      </c>
+      <c r="C4" t="str">
+        <v>145,569.36</v>
+      </c>
+      <c r="D4" t="str">
+        <v>20,348.88</v>
+      </c>
+      <c r="E4" t="str">
+        <v>145,426.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
+      </c>
+      <c r="B5" t="str">
+        <v>8,430.44</v>
+      </c>
+      <c r="C5" t="str">
+        <v>8,430.44</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>9,600.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
+      </c>
+      <c r="B6" t="str">
+        <v>182.43</v>
+      </c>
+      <c r="C6" t="str">
+        <v>182.43</v>
+      </c>
+      <c r="D6" t="str">
+        <v>207.76</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
+      </c>
+      <c r="B7" t="str">
+        <v>4,003.36</v>
+      </c>
+      <c r="C7" t="str">
+        <v>4,003.36</v>
+      </c>
+      <c r="D7" t="str">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>4,559.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
+      </c>
+      <c r="B8" t="str">
+        <v>323.9</v>
+      </c>
+      <c r="C8" t="str">
+        <v>323.9</v>
+      </c>
+      <c r="D8" t="str">
+        <v>368.86</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>0x19d4dEce6C48d99F0Ec4bE4258f26fdA9a7Ad4e5</v>
+      </c>
+      <c r="B9" t="str">
+        <v>82.77</v>
+      </c>
+      <c r="C9" t="str">
+        <v>82.77</v>
+      </c>
+      <c r="D9" t="str">
+        <v>94.27</v>
+      </c>
+      <c r="E9" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
+      </c>
+      <c r="B10" t="str">
+        <v>24.27</v>
+      </c>
+      <c r="C10" t="str">
+        <v>24.27</v>
+      </c>
+      <c r="D10" t="str">
+        <v>27.65</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+      </c>
+      <c r="B11" t="str">
+        <v>8,694.99</v>
+      </c>
+      <c r="C11" t="str">
+        <v>8,694.99</v>
+      </c>
+      <c r="D11" t="str">
+        <v>4,215.24</v>
+      </c>
+      <c r="E11" t="str">
+        <v>5,686.65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+      </c>
+      <c r="B12" t="str">
+        <v>0</v>
+      </c>
+      <c r="C12" t="str">
+        <v>18,175.96</v>
+      </c>
+      <c r="D12" t="str">
+        <v>20,698.85</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>0xD957cc84a2B565e7572a8F02A39e487466c3bFF7</v>
+      </c>
+      <c r="B13" t="str">
+        <v>560.56</v>
+      </c>
+      <c r="C13" t="str">
+        <v>560.56</v>
+      </c>
+      <c r="D13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>638.37</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
+      </c>
+      <c r="B14" t="str">
+        <v>132.61</v>
+      </c>
+      <c r="C14" t="str">
+        <v>132.61</v>
+      </c>
+      <c r="D14" t="str">
+        <v>151.02</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+      </c>
+      <c r="B15" t="str">
+        <v>1,083.54</v>
+      </c>
+      <c r="C15" t="str">
+        <v>1,083.54</v>
+      </c>
+      <c r="D15" t="str">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <v>1,233.94</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>0x46c17eC4E5fb0529F5559f6990d81f0420Be1E5c</v>
+      </c>
+      <c r="B16" t="str">
+        <v>28,003.89</v>
+      </c>
+      <c r="C16" t="str">
+        <v>28,003.89</v>
+      </c>
+      <c r="D16" t="str">
+        <v>27,317.41</v>
+      </c>
+      <c r="E16" t="str">
+        <v>4,573.52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+      </c>
+      <c r="B17" t="str">
+        <v>33,770.54</v>
+      </c>
+      <c r="C17" t="str">
+        <v>33,770.54</v>
+      </c>
+      <c r="D17" t="str">
+        <v>38,458.01</v>
+      </c>
+      <c r="E17" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
+      </c>
+      <c r="B18" t="str">
+        <v>33,770.54</v>
+      </c>
+      <c r="C18" t="str">
+        <v>33,770.54</v>
+      </c>
+      <c r="D18" t="str">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <v>38,458.01</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+      </c>
+      <c r="B19" t="str">
+        <v>182,606.04</v>
+      </c>
+      <c r="C19" t="str">
+        <v>182,606.04</v>
+      </c>
+      <c r="D19" t="str">
+        <v>1,355.78</v>
+      </c>
+      <c r="E19" t="str">
+        <v>206,596.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
+      </c>
+      <c r="B20" t="str">
+        <v>461.01</v>
+      </c>
+      <c r="C20" t="str">
+        <v>461.01</v>
+      </c>
+      <c r="D20" t="str">
+        <v>525</v>
+      </c>
+      <c r="E20" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>0x6cD7Eab4A323E88d1170a609c6694531C3AFcA11</v>
+      </c>
+      <c r="B21" t="str">
+        <v>1,722.16</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1,722.16</v>
+      </c>
+      <c r="D21" t="str">
+        <v>1,961.21</v>
+      </c>
+      <c r="E21" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
+      </c>
+      <c r="B22" t="str">
+        <v>2,971.61</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2,971.61</v>
+      </c>
+      <c r="D22" t="str">
+        <v>819.61</v>
+      </c>
+      <c r="E22" t="str">
+        <v>2,564.48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>0x0feD39AC6093e042825EfE8862f37dc8425B8f74</v>
+      </c>
+      <c r="B23" t="str">
+        <v>0</v>
+      </c>
+      <c r="C23" t="str">
+        <v>121.81</v>
+      </c>
+      <c r="D23" t="str">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <v>138.72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+      </c>
+      <c r="B24" t="str">
+        <v>357.08</v>
+      </c>
+      <c r="C24" t="str">
+        <v>357.08</v>
+      </c>
+      <c r="D24" t="str">
+        <v>406.65</v>
+      </c>
+      <c r="E24" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
+      </c>
+      <c r="B25" t="str">
+        <v>3,062.54</v>
+      </c>
+      <c r="C25" t="str">
+        <v>3,062.54</v>
+      </c>
+      <c r="D25" t="str">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <v>3,487.64</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>0x942E746C384bec88Dfa6164e8d699858E9988FeB</v>
+      </c>
+      <c r="B26" t="str">
+        <v>3,651.43</v>
+      </c>
+      <c r="C26" t="str">
+        <v>3,651.43</v>
+      </c>
+      <c r="D26" t="str">
+        <v>601.69</v>
+      </c>
+      <c r="E26" t="str">
+        <v>3,556.58</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
+      </c>
+      <c r="B27" t="str">
+        <v>133.93</v>
+      </c>
+      <c r="C27" t="str">
+        <v>133.93</v>
+      </c>
+      <c r="D27" t="str">
+        <v>152.52</v>
+      </c>
+      <c r="E27" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>0xdD40bFeDDd1511322A763a82e31Ef3e401415927</v>
+      </c>
+      <c r="B28" t="str">
+        <v>266.71</v>
+      </c>
+      <c r="C28" t="str">
+        <v>266.71</v>
+      </c>
+      <c r="D28" t="str">
+        <v>303.74</v>
+      </c>
+      <c r="E28" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
+      </c>
+      <c r="B29" t="str">
+        <v>40.63</v>
+      </c>
+      <c r="C29" t="str">
+        <v>40.63</v>
+      </c>
+      <c r="D29" t="str">
+        <v>46.27</v>
+      </c>
+      <c r="E29" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>0xcC07cb9557409822792D39FA9918c4d1Fd0F6E62</v>
+      </c>
+      <c r="B30" t="str">
+        <v>724.94</v>
+      </c>
+      <c r="C30" t="str">
+        <v>724.94</v>
+      </c>
+      <c r="D30" t="str">
+        <v>825.57</v>
+      </c>
+      <c r="E30" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
+      </c>
+      <c r="B31" t="str">
+        <v>439.05</v>
+      </c>
+      <c r="C31" t="str">
+        <v>439.05</v>
+      </c>
+      <c r="D31" t="str">
+        <v>500</v>
+      </c>
+      <c r="E31" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
+      </c>
+      <c r="B32" t="str">
+        <v>99.78</v>
+      </c>
+      <c r="C32" t="str">
+        <v>99.78</v>
+      </c>
+      <c r="D32" t="str">
+        <v>113.63</v>
+      </c>
+      <c r="E32" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>0xEEe37E83b74Ebf3679962F6199dADF968E74efa5</v>
+      </c>
+      <c r="B33" t="str">
+        <v>99.78</v>
+      </c>
+      <c r="C33" t="str">
+        <v>99.78</v>
+      </c>
+      <c r="D33" t="str">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <v>113.63</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>0x375bE33B63Ad8204eb4FB2CaCa325126d1eC6f19</v>
+      </c>
+      <c r="B34" t="str">
+        <v>182.57</v>
+      </c>
+      <c r="C34" t="str">
+        <v>182.57</v>
+      </c>
+      <c r="D34" t="str">
+        <v>207.92</v>
+      </c>
+      <c r="E34" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
+      </c>
+      <c r="B35" t="str">
+        <v>216.52</v>
+      </c>
+      <c r="C35" t="str">
+        <v>216.52</v>
+      </c>
+      <c r="D35" t="str">
+        <v>246.58</v>
+      </c>
+      <c r="E35" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
+      </c>
+      <c r="B36" t="str">
+        <v>219.52</v>
+      </c>
+      <c r="C36" t="str">
+        <v>219.52</v>
+      </c>
+      <c r="D36" t="str">
+        <v>250</v>
+      </c>
+      <c r="E36" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>0xf6732447a0Da3D8973897e247cf04f53B87Cfa2e</v>
+      </c>
+      <c r="B37" t="str">
+        <v>58.38</v>
+      </c>
+      <c r="C37" t="str">
+        <v>58.38</v>
+      </c>
+      <c r="D37" t="str">
+        <v>66.49</v>
+      </c>
+      <c r="E37" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
+      </c>
+      <c r="B38" t="str">
+        <v>2,107.74</v>
+      </c>
+      <c r="C38" t="str">
+        <v>2,107.74</v>
+      </c>
+      <c r="D38" t="str">
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <v>2,400.31</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>0x7B82007d91312Bb84E57A79c6df7Fa3928beD152</v>
+      </c>
+      <c r="B39" t="str">
+        <v>9,416.39</v>
+      </c>
+      <c r="C39" t="str">
+        <v>9,416.39</v>
+      </c>
+      <c r="D39" t="str">
+        <v>10,206.94</v>
+      </c>
+      <c r="E39" t="str">
+        <v>516.48</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>0x48A7209DD07Bc7409bF3f61820E1Ee9409F462e9</v>
+      </c>
+      <c r="B40" t="str">
+        <v>443.4</v>
+      </c>
+      <c r="C40" t="str">
+        <v>443.4</v>
+      </c>
+      <c r="D40" t="str">
+        <v>504.95</v>
+      </c>
+      <c r="E40" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>0xF2Aa3A5Df3Af1eD5ff72631A8bcFF0F0AfE060eC</v>
+      </c>
+      <c r="B41" t="str">
+        <v>863.37</v>
+      </c>
+      <c r="C41" t="str">
+        <v>863.37</v>
+      </c>
+      <c r="D41" t="str">
+        <v>69.11</v>
+      </c>
+      <c r="E41" t="str">
+        <v>914.1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+      </c>
+      <c r="B42" t="str">
+        <v>733,665.14</v>
+      </c>
+      <c r="C42" t="str">
+        <v>733,665.14</v>
+      </c>
+      <c r="D42" t="str">
+        <v>417,458.8</v>
+      </c>
+      <c r="E42" t="str">
+        <v>418,041.55</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+      </c>
+      <c r="B43" t="str">
+        <v>34.15</v>
+      </c>
+      <c r="C43" t="str">
+        <v>34.15</v>
+      </c>
+      <c r="D43" t="str">
+        <v>38.9</v>
+      </c>
+      <c r="E43" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
+      </c>
+      <c r="B44" t="str">
+        <v>164.35</v>
+      </c>
+      <c r="C44" t="str">
+        <v>164.35</v>
+      </c>
+      <c r="D44" t="str">
+        <v>187.17</v>
+      </c>
+      <c r="E44" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>0xEe5358d1d36262CeFC36478E37A718FA4d7847eB</v>
+      </c>
+      <c r="B45" t="str">
+        <v>53.99</v>
+      </c>
+      <c r="C45" t="str">
+        <v>53.99</v>
+      </c>
+      <c r="D45" t="str">
+        <v>61.49</v>
+      </c>
+      <c r="E45" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+      </c>
+      <c r="B46" t="str">
+        <v>4,846.53</v>
+      </c>
+      <c r="C46" t="str">
+        <v>4,846.53</v>
+      </c>
+      <c r="D46" t="str">
+        <v>0</v>
+      </c>
+      <c r="E46" t="str">
+        <v>5,519.25</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>0x0fB3b0892619aF19B0a8016783f84EED26CfAE1E</v>
+      </c>
+      <c r="B47" t="str">
+        <v>61.92</v>
+      </c>
+      <c r="C47" t="str">
+        <v>61.92</v>
+      </c>
+      <c r="D47" t="str">
+        <v>70.52</v>
+      </c>
+      <c r="E47" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
+      </c>
+      <c r="B48" t="str">
+        <v>620.01</v>
+      </c>
+      <c r="C48" t="str">
+        <v>620.01</v>
+      </c>
+      <c r="D48" t="str">
+        <v>706.08</v>
+      </c>
+      <c r="E48" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
+      </c>
+      <c r="B49" t="str">
+        <v>622.85</v>
+      </c>
+      <c r="C49" t="str">
+        <v>622.85</v>
+      </c>
+      <c r="D49" t="str">
+        <v>709.31</v>
+      </c>
+      <c r="E49" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>0xF6a52cb99b772d46C736F6F90Be792A1d4159414</v>
+      </c>
+      <c r="B50" t="str">
+        <v>109.28</v>
+      </c>
+      <c r="C50" t="str">
+        <v>109.28</v>
+      </c>
+      <c r="D50" t="str">
+        <v>63.14</v>
+      </c>
+      <c r="E50" t="str">
+        <v>61.31</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>0xCDB5b0dceF4D6289241C063EEF22A56850Fc18d1</v>
+      </c>
+      <c r="B51" t="str">
+        <v>54.61</v>
+      </c>
+      <c r="C51" t="str">
+        <v>54.61</v>
+      </c>
+      <c r="D51" t="str">
+        <v>62.2</v>
+      </c>
+      <c r="E51" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
+      </c>
+      <c r="B52" t="str">
+        <v>54.61</v>
+      </c>
+      <c r="C52" t="str">
+        <v>54.61</v>
+      </c>
+      <c r="D52" t="str">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
+      </c>
+      <c r="B53" t="str">
+        <v>135.96</v>
+      </c>
+      <c r="C53" t="str">
+        <v>135.96</v>
+      </c>
+      <c r="D53" t="str">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <v>154.84</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+      </c>
+      <c r="B54" t="str">
+        <v>152,187.46</v>
+      </c>
+      <c r="C54" t="str">
+        <v>152,187.46</v>
+      </c>
+      <c r="D54" t="str">
+        <v>173,311.6</v>
+      </c>
+      <c r="E54" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0xdfd7445EF7dB056F68cEdEB4c1A709d02C0c3AA7</v>
+      </c>
+      <c r="B55" t="str">
+        <v>85.37</v>
+      </c>
+      <c r="C55" t="str">
+        <v>85.37</v>
+      </c>
+      <c r="D55" t="str">
+        <v>97.23</v>
+      </c>
+      <c r="E55" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
+      </c>
+      <c r="B56" t="str">
+        <v>1,755.89</v>
+      </c>
+      <c r="C56" t="str">
+        <v>1,755.89</v>
+      </c>
+      <c r="D56" t="str">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <v>1,999.62</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>0xE910838B91486D4Fef2d0C4a77a3819D7600D36b</v>
+      </c>
+      <c r="B57" t="str">
+        <v>57.23</v>
+      </c>
+      <c r="C57" t="str">
+        <v>57.23</v>
+      </c>
+      <c r="D57" t="str">
+        <v>65.18</v>
+      </c>
+      <c r="E57" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>0x77729e862D70e8d6856Fb5f4786B02E626B9cf65</v>
+      </c>
+      <c r="B58" t="str">
+        <v>1,067.63</v>
+      </c>
+      <c r="C58" t="str">
+        <v>1,067.63</v>
+      </c>
+      <c r="D58" t="str">
+        <v>1,215.83</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>0x1B5f7cBb775f11BC5CFC4ac9dC1406Ef613F7A63</v>
+      </c>
+      <c r="B59" t="str">
+        <v>32.78</v>
+      </c>
+      <c r="C59" t="str">
+        <v>32.78</v>
+      </c>
+      <c r="D59" t="str">
+        <v>37.34</v>
+      </c>
+      <c r="E59" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>0xf74f5cF53A6746b1eddD9C7ea8Ab7447797c3D74</v>
+      </c>
+      <c r="B60" t="str">
+        <v>6,601.34</v>
+      </c>
+      <c r="C60" t="str">
+        <v>6,601.34</v>
+      </c>
+      <c r="D60" t="str">
+        <v>0</v>
+      </c>
+      <c r="E60" t="str">
+        <v>7,517.63</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>0x5099ccbB5FC14BF6ea516EE6CC3e6B209a7aA8C6</v>
+      </c>
+      <c r="B61" t="str">
+        <v>627.86</v>
+      </c>
+      <c r="C61" t="str">
+        <v>627.86</v>
+      </c>
+      <c r="D61" t="str">
+        <v>715.02</v>
+      </c>
+      <c r="E61" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>0x748B2F0784f8Aa4D1948D2bAeE433BAD2f86376e</v>
+      </c>
+      <c r="B62" t="str">
+        <v>109.71</v>
+      </c>
+      <c r="C62" t="str">
+        <v>109.71</v>
+      </c>
+      <c r="D62" t="str">
+        <v>124.94</v>
+      </c>
+      <c r="E62" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+      </c>
+      <c r="B63" t="str">
+        <v>32,663.31</v>
+      </c>
+      <c r="C63" t="str">
+        <v>32,663.31</v>
+      </c>
+      <c r="D63" t="str">
+        <v>37,197.09</v>
+      </c>
+      <c r="E63" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>0x41c1a44B0608309714f0C5ee544f84262E510198</v>
+      </c>
+      <c r="B64" t="str">
+        <v>142.56</v>
+      </c>
+      <c r="C64" t="str">
+        <v>142.56</v>
+      </c>
+      <c r="D64" t="str">
+        <v>124.78</v>
+      </c>
+      <c r="E64" t="str">
+        <v>37.57</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
+      </c>
+      <c r="B65" t="str">
+        <v>19,980.04</v>
+      </c>
+      <c r="C65" t="str">
+        <v>19,980.04</v>
+      </c>
+      <c r="D65" t="str">
+        <v>22,753.34</v>
+      </c>
+      <c r="E65" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+      </c>
+      <c r="B66" t="str">
+        <v>922.02</v>
+      </c>
+      <c r="C66" t="str">
+        <v>922.02</v>
+      </c>
+      <c r="D66" t="str">
+        <v>1,050</v>
+      </c>
+      <c r="E66" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>0x49Dd6E1D94604918B6235cEbC90208E03E021AD7</v>
+      </c>
+      <c r="B67" t="str">
+        <v>2,532.45</v>
+      </c>
+      <c r="C67" t="str">
+        <v>2,532.45</v>
+      </c>
+      <c r="D67" t="str">
+        <v>2,883.97</v>
+      </c>
+      <c r="E67" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+      </c>
+      <c r="B68" t="str">
+        <v>1,716.71</v>
+      </c>
+      <c r="C68" t="str">
+        <v>1,716.71</v>
+      </c>
+      <c r="D68" t="str">
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <v>1,955</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+      </c>
+      <c r="B69" t="str">
+        <v>1,465.37</v>
+      </c>
+      <c r="C69" t="str">
+        <v>1,465.37</v>
+      </c>
+      <c r="D69" t="str">
+        <v>1,008.82</v>
+      </c>
+      <c r="E69" t="str">
+        <v>659.95</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
+      </c>
+      <c r="B70" t="str">
+        <v>1,141.54</v>
+      </c>
+      <c r="C70" t="str">
+        <v>1,141.54</v>
+      </c>
+      <c r="D70" t="str">
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <v>1,300</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>0x2848A658c1097a8639d2fb62a977b23903200b53</v>
+      </c>
+      <c r="B71" t="str">
+        <v>208.11</v>
+      </c>
+      <c r="C71" t="str">
+        <v>208.11</v>
+      </c>
+      <c r="D71" t="str">
+        <v>0</v>
+      </c>
+      <c r="E71" t="str">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+      </c>
+      <c r="B72" t="str">
+        <v>488.65</v>
+      </c>
+      <c r="C72" t="str">
+        <v>488.65</v>
+      </c>
+      <c r="D72" t="str">
+        <v>556.48</v>
+      </c>
+      <c r="E72" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+      </c>
+      <c r="B73" t="str">
+        <v>441.63</v>
+      </c>
+      <c r="C73" t="str">
+        <v>441.63</v>
+      </c>
+      <c r="D73" t="str">
+        <v>502.93</v>
+      </c>
+      <c r="E73" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
+      </c>
+      <c r="B74" t="str">
+        <v>0</v>
+      </c>
+      <c r="C74" t="str">
+        <v>238.31</v>
+      </c>
+      <c r="D74" t="str">
+        <v>271.39</v>
+      </c>
+      <c r="E74" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+      </c>
+      <c r="B75" t="str">
+        <v>0</v>
+      </c>
+      <c r="C75" t="str">
+        <v>5,189.64</v>
+      </c>
+      <c r="D75" t="str">
+        <v>5,909.98</v>
+      </c>
+      <c r="E75" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+      </c>
+      <c r="B76" t="str">
+        <v>98,963.1</v>
+      </c>
+      <c r="C76" t="str">
+        <v>98,963.1</v>
+      </c>
+      <c r="D76" t="str">
+        <v>94,158.28</v>
+      </c>
+      <c r="E76" t="str">
+        <v>18,541.24</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+      </c>
+      <c r="B77" t="str">
+        <v>99,525.78</v>
+      </c>
+      <c r="C77" t="str">
+        <v>99,525.78</v>
+      </c>
+      <c r="D77" t="str">
+        <v>18,541.24</v>
+      </c>
+      <c r="E77" t="str">
+        <v>94,799.06</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>0x41382710CB3320194F0fb9Ef8e8531e0E291D740</v>
+      </c>
+      <c r="B78" t="str">
+        <v>953.27</v>
+      </c>
+      <c r="C78" t="str">
+        <v>953.27</v>
+      </c>
+      <c r="D78" t="str">
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <v>1,085.59</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>0xFa544d034dC07aD4Fa185ba769031a29Fbef5e36</v>
+      </c>
+      <c r="B79" t="str">
+        <v>0</v>
+      </c>
+      <c r="C79" t="str">
+        <v>323.9</v>
+      </c>
+      <c r="D79" t="str">
+        <v>0</v>
+      </c>
+      <c r="E79" t="str">
+        <v>368.86</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
+      </c>
+      <c r="B80" t="str">
+        <v>222.89</v>
+      </c>
+      <c r="C80" t="str">
+        <v>222.89</v>
+      </c>
+      <c r="D80" t="str">
+        <v>0</v>
+      </c>
+      <c r="E80" t="str">
+        <v>253.83</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+      </c>
+      <c r="B81" t="str">
+        <v>4,767.32</v>
+      </c>
+      <c r="C81" t="str">
+        <v>4,767.32</v>
+      </c>
+      <c r="D81" t="str">
+        <v>0</v>
+      </c>
+      <c r="E81" t="str">
+        <v>5,429.05</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+      </c>
+      <c r="B82" t="str">
+        <v>0</v>
+      </c>
+      <c r="C82" t="str">
+        <v>18,314.97</v>
+      </c>
+      <c r="D82" t="str">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <v>20,857.15</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
+      </c>
+      <c r="B83" t="str">
+        <v>509.85</v>
+      </c>
+      <c r="C83" t="str">
+        <v>509.85</v>
+      </c>
+      <c r="D83" t="str">
+        <v>580.63</v>
+      </c>
+      <c r="E83" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+      </c>
+      <c r="B84" t="str">
+        <v>25,020.13</v>
+      </c>
+      <c r="C84" t="str">
+        <v>25,020.13</v>
+      </c>
+      <c r="D84" t="str">
+        <v>0</v>
+      </c>
+      <c r="E84" t="str">
+        <v>28,493.02</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+      </c>
+      <c r="B85" t="str">
+        <v>0</v>
+      </c>
+      <c r="C85" t="str">
+        <v>25,985.91</v>
+      </c>
+      <c r="D85" t="str">
+        <v>0</v>
+      </c>
+      <c r="E85" t="str">
+        <v>29,592.85</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>0xd092C607a92c75de3bB1240494C4822Bf3766D46</v>
+      </c>
+      <c r="B86" t="str">
+        <v>178.17</v>
+      </c>
+      <c r="C86" t="str">
+        <v>178.17</v>
+      </c>
+      <c r="D86" t="str">
+        <v>202.91</v>
+      </c>
+      <c r="E86" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>0x75ac9574e8142636654713A984365e3E3427E31b</v>
+      </c>
+      <c r="B87" t="str">
+        <v>560.56</v>
+      </c>
+      <c r="C87" t="str">
+        <v>560.56</v>
+      </c>
+      <c r="D87" t="str">
+        <v>638.37</v>
+      </c>
+      <c r="E87" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+      </c>
+      <c r="B88" t="str">
+        <v>6,444.29</v>
+      </c>
+      <c r="C88" t="str">
+        <v>6,444.29</v>
+      </c>
+      <c r="D88" t="str">
+        <v>91.18</v>
+      </c>
+      <c r="E88" t="str">
+        <v>7,247.6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+      </c>
+      <c r="B89" t="str">
+        <v>68,777.59</v>
+      </c>
+      <c r="C89" t="str">
+        <v>68,777.59</v>
+      </c>
+      <c r="D89" t="str">
+        <v>5,000</v>
+      </c>
+      <c r="E89" t="str">
+        <v>73,324.16</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>0x96f194Cf1c9e5eE23B4D96785791F468F6A9C98e</v>
+      </c>
+      <c r="B90" t="str">
+        <v>4,390.57</v>
+      </c>
+      <c r="C90" t="str">
+        <v>4,390.57</v>
+      </c>
+      <c r="D90" t="str">
+        <v>0</v>
+      </c>
+      <c r="E90" t="str">
+        <v>5,000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>0xA271d7ad0ce0b28cdc464dfD5F3A66B4d55B5Acc</v>
+      </c>
+      <c r="B91" t="str">
+        <v>363.67</v>
+      </c>
+      <c r="C91" t="str">
+        <v>363.67</v>
+      </c>
+      <c r="D91" t="str">
+        <v>414.15</v>
+      </c>
+      <c r="E91" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>0xE3c3CD768EF78506A37144Ce83b1f34af56A89D5</v>
+      </c>
+      <c r="B92" t="str">
+        <v>363.67</v>
+      </c>
+      <c r="C92" t="str">
+        <v>363.67</v>
+      </c>
+      <c r="D92" t="str">
+        <v>0</v>
+      </c>
+      <c r="E92" t="str">
+        <v>414.15</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
+      </c>
+      <c r="B93" t="str">
+        <v>1,343.91</v>
+      </c>
+      <c r="C93" t="str">
+        <v>1,343.91</v>
+      </c>
+      <c r="D93" t="str">
+        <v>1,005.46</v>
+      </c>
+      <c r="E93" t="str">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>0xf90518CBcd4ef086891cb22C87bd4F80B61a7081</v>
+      </c>
+      <c r="B94" t="str">
+        <v>5,704.56</v>
+      </c>
+      <c r="C94" t="str">
+        <v>5,704.56</v>
+      </c>
+      <c r="D94" t="str">
+        <v>6,136.74</v>
+      </c>
+      <c r="E94" t="str">
+        <v>359.64</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>0xD53314Cd179ccD3926Af264e62E3B6dAB06A6419</v>
+      </c>
+      <c r="B95" t="str">
+        <v>5,704.56</v>
+      </c>
+      <c r="C95" t="str">
+        <v>5,704.56</v>
+      </c>
+      <c r="D95" t="str">
+        <v>359.64</v>
+      </c>
+      <c r="E95" t="str">
+        <v>6,136.74</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
+      </c>
+      <c r="B96" t="str">
+        <v>1,856.03</v>
+      </c>
+      <c r="C96" t="str">
+        <v>1,856.03</v>
+      </c>
+      <c r="D96" t="str">
+        <v>1,997.19</v>
+      </c>
+      <c r="E96" t="str">
+        <v>116.47</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>0xC624151fAE86ae8E697A0ee14A07C1B78Cc04Ae1</v>
+      </c>
+      <c r="B97" t="str">
+        <v>60.01</v>
+      </c>
+      <c r="C97" t="str">
+        <v>60.01</v>
+      </c>
+      <c r="D97" t="str">
+        <v>68.34</v>
+      </c>
+      <c r="E97" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>0x3ff6b69e12e8883f31Da74dBdfAeC4c0e23E20aE</v>
+      </c>
+      <c r="B98" t="str">
+        <v>60.01</v>
+      </c>
+      <c r="C98" t="str">
+        <v>60.01</v>
+      </c>
+      <c r="D98" t="str">
+        <v>0</v>
+      </c>
+      <c r="E98" t="str">
+        <v>68.34</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+      </c>
+      <c r="B99" t="str">
+        <v>5,056.95</v>
+      </c>
+      <c r="C99" t="str">
+        <v>5,056.95</v>
+      </c>
+      <c r="D99" t="str">
+        <v>0</v>
+      </c>
+      <c r="E99" t="str">
+        <v>5,758.88</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
+      </c>
+      <c r="B100" t="str">
+        <v>316.11</v>
+      </c>
+      <c r="C100" t="str">
+        <v>316.11</v>
+      </c>
+      <c r="D100" t="str">
+        <v>105.1</v>
+      </c>
+      <c r="E100" t="str">
+        <v>254.89</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
+      </c>
+      <c r="B101" t="str">
+        <v>316.11</v>
+      </c>
+      <c r="C101" t="str">
+        <v>316.11</v>
+      </c>
+      <c r="D101" t="str">
+        <v>254.89</v>
+      </c>
+      <c r="E101" t="str">
+        <v>105.1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>0xD6C80eeC795F0564D20d517dd742dC6cD2Bf2EE0</v>
+      </c>
+      <c r="B102" t="str">
+        <v>50.75</v>
+      </c>
+      <c r="C102" t="str">
+        <v>50.75</v>
+      </c>
+      <c r="D102" t="str">
+        <v>57.8</v>
+      </c>
+      <c r="E102" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+      </c>
+      <c r="B103" t="str">
+        <v>562.67</v>
+      </c>
+      <c r="C103" t="str">
+        <v>562.67</v>
+      </c>
+      <c r="D103" t="str">
+        <v>640.78</v>
+      </c>
+      <c r="E103" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>0x9C4e5edC6A735e4AB68ef04497b64008A955A1A5</v>
+      </c>
+      <c r="B104" t="str">
+        <v>1,842.04</v>
+      </c>
+      <c r="C104" t="str">
+        <v>1,842.04</v>
+      </c>
+      <c r="D104" t="str">
+        <v>0</v>
+      </c>
+      <c r="E104" t="str">
+        <v>2,097.73</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+      </c>
+      <c r="B105" t="str">
+        <v>88,489.86</v>
+      </c>
+      <c r="C105" t="str">
+        <v>88,489.86</v>
+      </c>
+      <c r="D105" t="str">
+        <v>0</v>
+      </c>
+      <c r="E105" t="str">
+        <v>100,772.56</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>0x8f1928e8FEa7238b9B53A7E62AFd471b69732a66</v>
+      </c>
+      <c r="B106" t="str">
+        <v>433.49</v>
+      </c>
+      <c r="C106" t="str">
+        <v>433.49</v>
+      </c>
+      <c r="D106" t="str">
+        <v>367.77</v>
+      </c>
+      <c r="E106" t="str">
+        <v>125.9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>0x5390651dd0824159FE0e82554feC7b283bCa3745</v>
+      </c>
+      <c r="B107" t="str">
+        <v>322.94</v>
+      </c>
+      <c r="C107" t="str">
+        <v>322.94</v>
+      </c>
+      <c r="D107" t="str">
+        <v>0</v>
+      </c>
+      <c r="E107" t="str">
+        <v>367.77</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
+      </c>
+      <c r="B108" t="str">
+        <v>365.18</v>
+      </c>
+      <c r="C108" t="str">
+        <v>365.18</v>
+      </c>
+      <c r="D108" t="str">
+        <v>415.87</v>
+      </c>
+      <c r="E108" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
+      </c>
+      <c r="B109" t="str">
+        <v>9,938.42</v>
+      </c>
+      <c r="C109" t="str">
+        <v>9,938.42</v>
+      </c>
+      <c r="D109" t="str">
+        <v>8,319.06</v>
+      </c>
+      <c r="E109" t="str">
+        <v>2,998.85</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
+      </c>
+      <c r="B110" t="str">
+        <v>4,085.7</v>
+      </c>
+      <c r="C110" t="str">
+        <v>4,085.7</v>
+      </c>
+      <c r="D110" t="str">
+        <v>4,652.81</v>
+      </c>
+      <c r="E110" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
+      </c>
+      <c r="B111" t="str">
+        <v>4,085.7</v>
+      </c>
+      <c r="C111" t="str">
+        <v>4,085.7</v>
+      </c>
+      <c r="D111" t="str">
+        <v>0</v>
+      </c>
+      <c r="E111" t="str">
+        <v>4,652.81</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>0x6072640cFeFf7317C367B3648AcA357eD459d4fd</v>
+      </c>
+      <c r="B112" t="str">
+        <v>139</v>
+      </c>
+      <c r="C112" t="str">
+        <v>139</v>
+      </c>
+      <c r="D112" t="str">
+        <v>158.3</v>
+      </c>
+      <c r="E112" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
+      </c>
+      <c r="B113" t="str">
+        <v>14,383.59</v>
+      </c>
+      <c r="C113" t="str">
+        <v>14,383.59</v>
+      </c>
+      <c r="D113" t="str">
+        <v>16,380.09</v>
+      </c>
+      <c r="E113" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
+      </c>
+      <c r="B114" t="str">
+        <v>6,534.7</v>
+      </c>
+      <c r="C114" t="str">
+        <v>6,534.7</v>
+      </c>
+      <c r="D114" t="str">
+        <v>7,441.74</v>
+      </c>
+      <c r="E114" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
+      </c>
+      <c r="B115" t="str">
+        <v>5,560.38</v>
+      </c>
+      <c r="C115" t="str">
+        <v>5,560.38</v>
+      </c>
+      <c r="D115" t="str">
+        <v>6,332.18</v>
+      </c>
+      <c r="E115" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
+      </c>
+      <c r="B116" t="str">
+        <v>0</v>
+      </c>
+      <c r="C116" t="str">
+        <v>5,560.38</v>
+      </c>
+      <c r="D116" t="str">
+        <v>0</v>
+      </c>
+      <c r="E116" t="str">
+        <v>6,332.18</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>0xf0eeE0837e8F4feaC444412991f7005B8dFFa305</v>
+      </c>
+      <c r="B117" t="str">
+        <v>528.35</v>
+      </c>
+      <c r="C117" t="str">
+        <v>528.35</v>
+      </c>
+      <c r="D117" t="str">
+        <v>0</v>
+      </c>
+      <c r="E117" t="str">
+        <v>601.69</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>0xa6A4BE6499cfdd7E94Cd1BF5498533FdCbb6CE5d</v>
+      </c>
+      <c r="B118" t="str">
+        <v>8,511.41</v>
+      </c>
+      <c r="C118" t="str">
+        <v>8,511.41</v>
+      </c>
+      <c r="D118" t="str">
+        <v>8,414.32</v>
+      </c>
+      <c r="E118" t="str">
+        <v>1,278.51</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
+      </c>
+      <c r="B119" t="str">
+        <v>11,958.44</v>
+      </c>
+      <c r="C119" t="str">
+        <v>11,958.44</v>
+      </c>
+      <c r="D119" t="str">
+        <v>2,202.1</v>
+      </c>
+      <c r="E119" t="str">
+        <v>11,416.22</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
+      </c>
+      <c r="B120" t="str">
+        <v>133.93</v>
+      </c>
+      <c r="C120" t="str">
+        <v>133.93</v>
+      </c>
+      <c r="D120" t="str">
+        <v>0</v>
+      </c>
+      <c r="E120" t="str">
+        <v>152.52</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
+      </c>
+      <c r="B121" t="str">
+        <v>750.17</v>
+      </c>
+      <c r="C121" t="str">
+        <v>750.17</v>
+      </c>
+      <c r="D121" t="str">
+        <v>854.3</v>
+      </c>
+      <c r="E121" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>0x9c6E23aC65D33b747B8c56C04db77d836c41Faf5</v>
+      </c>
+      <c r="B122" t="str">
+        <v>1,104.76</v>
+      </c>
+      <c r="C122" t="str">
+        <v>1,104.76</v>
+      </c>
+      <c r="D122" t="str">
+        <v>0</v>
+      </c>
+      <c r="E122" t="str">
+        <v>1,258.11</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>0x15E0239Bf3796e1e1eCbf911113eac89C0Db15d1</v>
+      </c>
+      <c r="B123" t="str">
+        <v>202.31</v>
+      </c>
+      <c r="C123" t="str">
+        <v>202.31</v>
+      </c>
+      <c r="D123" t="str">
+        <v>230.4</v>
+      </c>
+      <c r="E123" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>0x34F7C6378a4D0F3FB021594E337e727f5E23f53A</v>
+      </c>
+      <c r="B124" t="str">
+        <v>202.31</v>
+      </c>
+      <c r="C124" t="str">
+        <v>202.31</v>
+      </c>
+      <c r="D124" t="str">
+        <v>0</v>
+      </c>
+      <c r="E124" t="str">
+        <v>230.4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>0x1D712193A96B4d9D4eC32108cfcde704AC9CCC9C</v>
+      </c>
+      <c r="B125" t="str">
+        <v>101.09</v>
+      </c>
+      <c r="C125" t="str">
+        <v>101.09</v>
+      </c>
+      <c r="D125" t="str">
+        <v>115.13</v>
+      </c>
+      <c r="E125" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>0xfA9FBD6360692a1b23b84A9dDFf63ed77faF58c9</v>
+      </c>
+      <c r="B126" t="str">
+        <v>266.71</v>
+      </c>
+      <c r="C126" t="str">
+        <v>266.71</v>
+      </c>
+      <c r="D126" t="str">
+        <v>0</v>
+      </c>
+      <c r="E126" t="str">
+        <v>303.74</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>0x000648b3abCcEbdEEA6594FdEC3741c54D75e21F</v>
+      </c>
+      <c r="B127" t="str">
+        <v>7,305.08</v>
+      </c>
+      <c r="C127" t="str">
+        <v>7,305.08</v>
+      </c>
+      <c r="D127" t="str">
+        <v>0</v>
+      </c>
+      <c r="E127" t="str">
+        <v>8,319.06</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>0xeB0F9489F9aeFB6Bbd8d7f1cc3620898E30b49c0</v>
+      </c>
+      <c r="B128" t="str">
+        <v>439.05</v>
+      </c>
+      <c r="C128" t="str">
+        <v>439.05</v>
+      </c>
+      <c r="D128" t="str">
+        <v>0</v>
+      </c>
+      <c r="E128" t="str">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+      </c>
+      <c r="B129" t="str">
+        <v>50.39</v>
+      </c>
+      <c r="C129" t="str">
+        <v>50.39</v>
+      </c>
+      <c r="D129" t="str">
+        <v>0</v>
+      </c>
+      <c r="E129" t="str">
+        <v>57.39</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
+      </c>
+      <c r="B130" t="str">
+        <v>884.39</v>
+      </c>
+      <c r="C130" t="str">
+        <v>884.39</v>
+      </c>
+      <c r="D130" t="str">
+        <v>1,007.15</v>
+      </c>
+      <c r="E130" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>0x8a3B39c36e88E3BE71B960cFBe2e4F66dB890E42</v>
+      </c>
+      <c r="B131" t="str">
+        <v>0</v>
+      </c>
+      <c r="C131" t="str">
+        <v>3,081.63</v>
+      </c>
+      <c r="D131" t="str">
+        <v>3,509.38</v>
+      </c>
+      <c r="E131" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>0xc01bdF2F593bbbFe1e15540c818c57f919466D7B</v>
+      </c>
+      <c r="B132" t="str">
+        <v>1,079.89</v>
+      </c>
+      <c r="C132" t="str">
+        <v>1,079.89</v>
+      </c>
+      <c r="D132" t="str">
+        <v>914.1</v>
+      </c>
+      <c r="E132" t="str">
+        <v>315.69</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
+      </c>
+      <c r="B133" t="str">
+        <v>131.71</v>
+      </c>
+      <c r="C133" t="str">
+        <v>131.71</v>
+      </c>
+      <c r="D133" t="str">
+        <v>0</v>
+      </c>
+      <c r="E133" t="str">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>0x094CAE95AB3744453Cf7Ce9251dFDD816C3C810E</v>
+      </c>
+      <c r="B134" t="str">
+        <v>52.12</v>
+      </c>
+      <c r="C134" t="str">
+        <v>52.12</v>
+      </c>
+      <c r="D134" t="str">
+        <v>59.36</v>
+      </c>
+      <c r="E134" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>0xec3348378419042E91B221137855B5412F78A539</v>
+      </c>
+      <c r="B135" t="str">
+        <v>2,241.97</v>
+      </c>
+      <c r="C135" t="str">
+        <v>2,241.97</v>
+      </c>
+      <c r="D135" t="str">
+        <v>2,553.17</v>
+      </c>
+      <c r="E135" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>0x7DE25BC41EfeD6Ee6d903Fc161C905D2fcb72Fff</v>
+      </c>
+      <c r="B136" t="str">
+        <v>156.15</v>
+      </c>
+      <c r="C136" t="str">
+        <v>156.15</v>
+      </c>
+      <c r="D136" t="str">
+        <v>177.83</v>
+      </c>
+      <c r="E136" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+      </c>
+      <c r="B137" t="str">
+        <v>988.9</v>
+      </c>
+      <c r="C137" t="str">
+        <v>988.9</v>
+      </c>
+      <c r="D137" t="str">
+        <v>0</v>
+      </c>
+      <c r="E137" t="str">
+        <v>1,126.17</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
+      </c>
+      <c r="B138" t="str">
+        <v>8,502.34</v>
+      </c>
+      <c r="C138" t="str">
+        <v>8,502.34</v>
+      </c>
+      <c r="D138" t="str">
+        <v>0</v>
+      </c>
+      <c r="E138" t="str">
+        <v>9,682.5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+      </c>
+      <c r="B139" t="str">
+        <v>58.5</v>
+      </c>
+      <c r="C139" t="str">
+        <v>58.5</v>
+      </c>
+      <c r="D139" t="str">
+        <v>66.63</v>
+      </c>
+      <c r="E139" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>0xdE976b1178696723F86102aaf17Ddd70522908dA</v>
+      </c>
+      <c r="B140" t="str">
+        <v>562.52</v>
+      </c>
+      <c r="C140" t="str">
+        <v>562.52</v>
+      </c>
+      <c r="D140" t="str">
+        <v>603.27</v>
+      </c>
+      <c r="E140" t="str">
+        <v>37.34</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+      </c>
+      <c r="B141" t="str">
+        <v>21,763.59</v>
+      </c>
+      <c r="C141" t="str">
+        <v>21,763.59</v>
+      </c>
+      <c r="D141" t="str">
+        <v>0</v>
+      </c>
+      <c r="E141" t="str">
+        <v>24,784.46</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+      </c>
+      <c r="B142" t="str">
+        <v>349.81</v>
+      </c>
+      <c r="C142" t="str">
+        <v>349.81</v>
+      </c>
+      <c r="D142" t="str">
+        <v>313.35</v>
+      </c>
+      <c r="E142" t="str">
+        <v>85.02</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+      </c>
+      <c r="B143" t="str">
+        <v>275.15</v>
+      </c>
+      <c r="C143" t="str">
+        <v>275.15</v>
+      </c>
+      <c r="D143" t="str">
+        <v>0</v>
+      </c>
+      <c r="E143" t="str">
+        <v>313.35</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>0x09aFEC89b908C2cbD220942f3788530C195Ba894</v>
+      </c>
+      <c r="B144" t="str">
+        <v>342.46</v>
+      </c>
+      <c r="C144" t="str">
+        <v>342.46</v>
+      </c>
+      <c r="D144" t="str">
+        <v>0</v>
+      </c>
+      <c r="E144" t="str">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>0x62Ff55e86d95A460a661929d6D125139bB7DCF7b</v>
+      </c>
+      <c r="B145" t="str">
+        <v>25,945.69</v>
+      </c>
+      <c r="C145" t="str">
+        <v>25,945.69</v>
+      </c>
+      <c r="D145" t="str">
+        <v>0</v>
+      </c>
+      <c r="E145" t="str">
+        <v>29,547.05</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+      </c>
+      <c r="B146" t="str">
+        <v>1,572.1</v>
+      </c>
+      <c r="C146" t="str">
+        <v>1,572.1</v>
+      </c>
+      <c r="D146" t="str">
+        <v>1,790.32</v>
+      </c>
+      <c r="E146" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>0x1A24A8CDa46ACac40606af1D233dAfF9AEe66e2f</v>
+      </c>
+      <c r="B147" t="str">
+        <v>8,223.57</v>
+      </c>
+      <c r="C147" t="str">
+        <v>8,223.57</v>
+      </c>
+      <c r="D147" t="str">
+        <v>0</v>
+      </c>
+      <c r="E147" t="str">
+        <v>9,365.03</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>0xBb3123adaa39aA9b0Bf8c0374eab50353F479c97</v>
+      </c>
+      <c r="B148" t="str">
+        <v>6,542.06</v>
+      </c>
+      <c r="C148" t="str">
+        <v>6,542.06</v>
+      </c>
+      <c r="D148" t="str">
+        <v>7,450.13</v>
+      </c>
+      <c r="E148" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>0xF1D275F804a6b3d3f75B7C08150178836E56dE8B</v>
+      </c>
+      <c r="B149" t="str">
+        <v>6,542.06</v>
+      </c>
+      <c r="C149" t="str">
+        <v>6,542.06</v>
+      </c>
+      <c r="D149" t="str">
+        <v>0</v>
+      </c>
+      <c r="E149" t="str">
+        <v>7,450.13</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>0x487EE46941931178c481a9fA3Eeb2016E2B0CBdA</v>
+      </c>
+      <c r="B150" t="str">
+        <v>154.33</v>
+      </c>
+      <c r="C150" t="str">
+        <v>154.33</v>
+      </c>
+      <c r="D150" t="str">
+        <v>175.76</v>
+      </c>
+      <c r="E150" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
+      </c>
+      <c r="B151" t="str">
+        <v>58.38</v>
+      </c>
+      <c r="C151" t="str">
+        <v>58.38</v>
+      </c>
+      <c r="D151" t="str">
+        <v>0</v>
+      </c>
+      <c r="E151" t="str">
+        <v>66.49</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>0x7aa90dE22D64831e54DA455A90621560f1bC97a2</v>
+      </c>
+      <c r="B152" t="str">
+        <v>1,376.54</v>
+      </c>
+      <c r="C152" t="str">
+        <v>1,376.54</v>
+      </c>
+      <c r="D152" t="str">
+        <v>326.89</v>
+      </c>
+      <c r="E152" t="str">
+        <v>1,240.72</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
+      </c>
+      <c r="B153" t="str">
+        <v>1,084.41</v>
+      </c>
+      <c r="C153" t="str">
+        <v>1,084.41</v>
+      </c>
+      <c r="D153" t="str">
+        <v>1,234.94</v>
+      </c>
+      <c r="E153" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>0xE67c4FDDfE95e21287889B41cA419A5896b36D22</v>
+      </c>
+      <c r="B154" t="str">
+        <v>542.05</v>
+      </c>
+      <c r="C154" t="str">
+        <v>542.05</v>
+      </c>
+      <c r="D154" t="str">
+        <v>617.29</v>
+      </c>
+      <c r="E154" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>0xa5d134A404FBAe6B980D22C2A1be268a1a995F6C</v>
+      </c>
+      <c r="B155" t="str">
+        <v>291.16</v>
+      </c>
+      <c r="C155" t="str">
+        <v>291.16</v>
+      </c>
+      <c r="D155" t="str">
+        <v>331.58</v>
+      </c>
+      <c r="E155" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
+      </c>
+      <c r="B156" t="str">
+        <v>1,015.34</v>
+      </c>
+      <c r="C156" t="str">
+        <v>1,015.34</v>
+      </c>
+      <c r="D156" t="str">
+        <v>1,156.28</v>
+      </c>
+      <c r="E156" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
+      </c>
+      <c r="B157" t="str">
+        <v>0</v>
+      </c>
+      <c r="C157" t="str">
+        <v>3,744.41</v>
+      </c>
+      <c r="D157" t="str">
+        <v>4,264.15</v>
+      </c>
+      <c r="E157" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
+      </c>
+      <c r="B158" t="str">
+        <v>6,271.06</v>
+      </c>
+      <c r="C158" t="str">
+        <v>6,271.06</v>
+      </c>
+      <c r="D158" t="str">
+        <v>7,141.51</v>
+      </c>
+      <c r="E158" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>0x10C629454B361De9d161491cBd0fd4F0Bf1c1B0A</v>
+      </c>
+      <c r="B159" t="str">
+        <v>1,753.76</v>
+      </c>
+      <c r="C159" t="str">
+        <v>1,753.76</v>
+      </c>
+      <c r="D159" t="str">
+        <v>0</v>
+      </c>
+      <c r="E159" t="str">
+        <v>1,997.19</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>0x7c7e966dB11308a39Eb64Ae1e3779DD9Cce3E38f</v>
+      </c>
+      <c r="B160" t="str">
+        <v>18.15</v>
+      </c>
+      <c r="C160" t="str">
+        <v>18.15</v>
+      </c>
+      <c r="D160" t="str">
+        <v>20.67</v>
+      </c>
+      <c r="E160" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>0x5C569dC00640a1bD6BCbDd9629Aa6Da1c358BD2a</v>
+      </c>
+      <c r="B161" t="str">
+        <v>18.15</v>
+      </c>
+      <c r="C161" t="str">
+        <v>18.15</v>
+      </c>
+      <c r="D161" t="str">
+        <v>0</v>
+      </c>
+      <c r="E161" t="str">
+        <v>20.67</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
+      </c>
+      <c r="B162" t="str">
+        <v>351.16</v>
+      </c>
+      <c r="C162" t="str">
+        <v>351.16</v>
+      </c>
+      <c r="D162" t="str">
+        <v>0</v>
+      </c>
+      <c r="E162" t="str">
+        <v>399.91</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+      </c>
+      <c r="B163" t="str">
+        <v>733,083.86</v>
+      </c>
+      <c r="C163" t="str">
+        <v>733,083.86</v>
+      </c>
+      <c r="D163" t="str">
+        <v>417,379.59</v>
+      </c>
+      <c r="E163" t="str">
+        <v>417,458.8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+      </c>
+      <c r="B164" t="str">
+        <v>1,122.67</v>
+      </c>
+      <c r="C164" t="str">
+        <v>1,122.67</v>
+      </c>
+      <c r="D164" t="str">
+        <v>1,278.51</v>
+      </c>
+      <c r="E164" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+      </c>
+      <c r="B165" t="str">
+        <v>143.87</v>
+      </c>
+      <c r="C165" t="str">
+        <v>143.87</v>
+      </c>
+      <c r="D165" t="str">
+        <v>0</v>
+      </c>
+      <c r="E165" t="str">
+        <v>163.84</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>0x69f96f2A5Cdd84E574dB2a353880095988243417</v>
+      </c>
+      <c r="B166" t="str">
+        <v>0</v>
+      </c>
+      <c r="C166" t="str">
+        <v>1,940.65</v>
+      </c>
+      <c r="D166" t="str">
+        <v>2,210.02</v>
+      </c>
+      <c r="E166" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>0x9dC9384487647375e43dcc32D979F48263EccDdE</v>
+      </c>
+      <c r="B167" t="str">
+        <v>3,123.08</v>
+      </c>
+      <c r="C167" t="str">
+        <v>3,123.08</v>
+      </c>
+      <c r="D167" t="str">
+        <v>3,556.58</v>
+      </c>
+      <c r="E167" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
+      </c>
+      <c r="B168" t="str">
+        <v>111.48</v>
+      </c>
+      <c r="C168" t="str">
+        <v>111.48</v>
+      </c>
+      <c r="D168" t="str">
+        <v>126.96</v>
+      </c>
+      <c r="E168" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
+      </c>
+      <c r="B169" t="str">
+        <v>111.48</v>
+      </c>
+      <c r="C169" t="str">
+        <v>111.48</v>
+      </c>
+      <c r="D169" t="str">
+        <v>0</v>
+      </c>
+      <c r="E169" t="str">
+        <v>126.96</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
+      </c>
+      <c r="B170" t="str">
+        <v>663.8</v>
+      </c>
+      <c r="C170" t="str">
+        <v>663.8</v>
+      </c>
+      <c r="D170" t="str">
+        <v>0</v>
+      </c>
+      <c r="E170" t="str">
+        <v>755.94</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+      </c>
+      <c r="B171" t="str">
+        <v>186.27</v>
+      </c>
+      <c r="C171" t="str">
+        <v>186.27</v>
+      </c>
+      <c r="D171" t="str">
+        <v>212.13</v>
+      </c>
+      <c r="E171" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>0x436aCB00107faBb69b486e2C7F4654bB37b02c41</v>
+      </c>
+      <c r="B172" t="str">
+        <v>3,463.83</v>
+      </c>
+      <c r="C172" t="str">
+        <v>3,463.83</v>
+      </c>
+      <c r="D172" t="str">
+        <v>3,944.63</v>
+      </c>
+      <c r="E172" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+      </c>
+      <c r="B173" t="str">
+        <v>18,417.08</v>
+      </c>
+      <c r="C173" t="str">
+        <v>18,417.08</v>
+      </c>
+      <c r="D173" t="str">
+        <v>0</v>
+      </c>
+      <c r="E173" t="str">
+        <v>20,973.44</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>0x340eAB7488e336fDc588F1da47452f02945E80b3</v>
+      </c>
+      <c r="B174" t="str">
+        <v>276.86</v>
+      </c>
+      <c r="C174" t="str">
+        <v>276.86</v>
+      </c>
+      <c r="D174" t="str">
+        <v>0</v>
+      </c>
+      <c r="E174" t="str">
+        <v>315.3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>0x8969DF60ACc4BB0f05cE8137608AD4434E2f4dEA</v>
+      </c>
+      <c r="B175" t="str">
+        <v>1,125.05</v>
+      </c>
+      <c r="C175" t="str">
+        <v>1,125.05</v>
+      </c>
+      <c r="D175" t="str">
+        <v>0</v>
+      </c>
+      <c r="E175" t="str">
+        <v>1,281.22</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
+      </c>
+      <c r="B176" t="str">
+        <v>4,846.53</v>
+      </c>
+      <c r="C176" t="str">
+        <v>4,846.53</v>
+      </c>
+      <c r="D176" t="str">
+        <v>5,519.25</v>
+      </c>
+      <c r="E176" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>0x3479Ce7954Aebd06dD613A42301C911d85c789bF</v>
+      </c>
+      <c r="B177" t="str">
+        <v>1,096.77</v>
+      </c>
+      <c r="C177" t="str">
+        <v>1,096.77</v>
+      </c>
+      <c r="D177" t="str">
+        <v>1,249.01</v>
+      </c>
+      <c r="E177" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>0xa899FaB0CE9CDA2E314856C10A9F5B578b9f2778</v>
+      </c>
+      <c r="B178" t="str">
+        <v>1,096.77</v>
+      </c>
+      <c r="C178" t="str">
+        <v>1,096.77</v>
+      </c>
+      <c r="D178" t="str">
+        <v>0</v>
+      </c>
+      <c r="E178" t="str">
+        <v>1,249.01</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>0xdF8Df47E5109Adc155E436C0712adB78f53A418c</v>
+      </c>
+      <c r="B179" t="str">
+        <v>1,097.64</v>
+      </c>
+      <c r="C179" t="str">
+        <v>1,097.64</v>
+      </c>
+      <c r="D179" t="str">
+        <v>0</v>
+      </c>
+      <c r="E179" t="str">
+        <v>1,250</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>0x4e300F965ACE7aBF11A53662419F9A2D27dE3B1d</v>
+      </c>
+      <c r="B180" t="str">
+        <v>185.33</v>
+      </c>
+      <c r="C180" t="str">
+        <v>185.33</v>
+      </c>
+      <c r="D180" t="str">
+        <v>0</v>
+      </c>
+      <c r="E180" t="str">
+        <v>211.06</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>0x091D2bf74f675Df1d72eD6E07bCB693D56a4163c</v>
+      </c>
+      <c r="B181" t="str">
+        <v>0</v>
+      </c>
+      <c r="C181" t="str">
+        <v>2,183.66</v>
+      </c>
+      <c r="D181" t="str">
+        <v>2,486.77</v>
+      </c>
+      <c r="E181" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>0x6605532d3D1b060bDeae5FC44DBA7EC8cd4C2dC3</v>
+      </c>
+      <c r="B182" t="str">
+        <v>171.96</v>
+      </c>
+      <c r="C182" t="str">
+        <v>171.96</v>
+      </c>
+      <c r="D182" t="str">
+        <v>195.84</v>
+      </c>
+      <c r="E182" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
+      </c>
+      <c r="B183" t="str">
+        <v>4.35</v>
+      </c>
+      <c r="C183" t="str">
+        <v>4.35</v>
+      </c>
+      <c r="D183" t="str">
+        <v>0</v>
+      </c>
+      <c r="E183" t="str">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>0xD45bc979277382882e1B41A5efa2561F55915716</v>
+      </c>
+      <c r="B184" t="str">
+        <v>77.98</v>
+      </c>
+      <c r="C184" t="str">
+        <v>77.98</v>
+      </c>
+      <c r="D184" t="str">
+        <v>88.81</v>
+      </c>
+      <c r="E184" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
+      </c>
+      <c r="B185" t="str">
+        <v>595.61</v>
+      </c>
+      <c r="C185" t="str">
+        <v>595.61</v>
+      </c>
+      <c r="D185" t="str">
+        <v>628.26</v>
+      </c>
+      <c r="E185" t="str">
+        <v>50.03</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>0x04d9f35C7c292ca2c75C498563b48123C0662e19</v>
+      </c>
+      <c r="B186" t="str">
+        <v>1,294.15</v>
+      </c>
+      <c r="C186" t="str">
+        <v>1,294.15</v>
+      </c>
+      <c r="D186" t="str">
+        <v>1,473.79</v>
+      </c>
+      <c r="E186" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>0xb62430C5fD8281c2F2ADf3ae7Cec7171d6F71EC6</v>
+      </c>
+      <c r="B187" t="str">
+        <v>109.28</v>
+      </c>
+      <c r="C187" t="str">
+        <v>109.28</v>
+      </c>
+      <c r="D187" t="str">
+        <v>61.31</v>
+      </c>
+      <c r="E187" t="str">
+        <v>63.14</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>0x280a3925f1fAD53B5a263fFc0028Fbab9abE6131</v>
+      </c>
+      <c r="B188" t="str">
+        <v>8,854.51</v>
+      </c>
+      <c r="C188" t="str">
+        <v>8,854.51</v>
+      </c>
+      <c r="D188" t="str">
+        <v>6,906.99</v>
+      </c>
+      <c r="E188" t="str">
+        <v>3,176.56</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>0x212A3caD6d1572C706959d2aeF63071e61914bf2</v>
+      </c>
+      <c r="B189" t="str">
+        <v>1,332.54</v>
+      </c>
+      <c r="C189" t="str">
+        <v>1,332.54</v>
+      </c>
+      <c r="D189" t="str">
+        <v>900.05</v>
+      </c>
+      <c r="E189" t="str">
+        <v>617.46</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>0xf78D0cdFB459eD9CC19eEb7c22B5F193d7662fcC</v>
+      </c>
+      <c r="B190" t="str">
+        <v>8,785.35</v>
+      </c>
+      <c r="C190" t="str">
+        <v>8,785.35</v>
+      </c>
+      <c r="D190" t="str">
+        <v>10,004.79</v>
+      </c>
+      <c r="E190" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
+      </c>
+      <c r="B191" t="str">
+        <v>600.62</v>
+      </c>
+      <c r="C191" t="str">
+        <v>600.62</v>
+      </c>
+      <c r="D191" t="str">
+        <v>0</v>
+      </c>
+      <c r="E191" t="str">
+        <v>683.99</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
+      </c>
+      <c r="B192" t="str">
+        <v>17,096.69</v>
+      </c>
+      <c r="C192" t="str">
+        <v>17,096.69</v>
+      </c>
+      <c r="D192" t="str">
+        <v>1.1</v>
+      </c>
+      <c r="E192" t="str">
+        <v>19,468.67</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
+      </c>
+      <c r="B193" t="str">
+        <v>0</v>
+      </c>
+      <c r="C193" t="str">
+        <v>135.96</v>
+      </c>
+      <c r="D193" t="str">
+        <v>154.84</v>
+      </c>
+      <c r="E193" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+      </c>
+      <c r="B194" t="str">
+        <v>152,187.46</v>
+      </c>
+      <c r="C194" t="str">
+        <v>152,187.46</v>
+      </c>
+      <c r="D194" t="str">
+        <v>0</v>
+      </c>
+      <c r="E194" t="str">
+        <v>173,311.6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>0x760d7E2525DDB8790d047CFF195b753F9dCCac41</v>
+      </c>
+      <c r="B195" t="str">
+        <v>274.14</v>
+      </c>
+      <c r="C195" t="str">
+        <v>274.14</v>
+      </c>
+      <c r="D195" t="str">
+        <v>0</v>
+      </c>
+      <c r="E195" t="str">
+        <v>312.2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
+      </c>
+      <c r="B196" t="str">
+        <v>43.8</v>
+      </c>
+      <c r="C196" t="str">
+        <v>43.8</v>
+      </c>
+      <c r="D196" t="str">
+        <v>49.88</v>
+      </c>
+      <c r="E196" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
+      </c>
+      <c r="B197" t="str">
+        <v>18,700.27</v>
+      </c>
+      <c r="C197" t="str">
+        <v>18,700.27</v>
+      </c>
+      <c r="D197" t="str">
+        <v>21,295.94</v>
+      </c>
+      <c r="E197" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+      </c>
+      <c r="B198" t="str">
+        <v>7,516.85</v>
+      </c>
+      <c r="C198" t="str">
+        <v>7,516.85</v>
+      </c>
+      <c r="D198" t="str">
+        <v>8,560.22</v>
+      </c>
+      <c r="E198" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>0xedaa63C95A0faB8e7Dc7A710f8b9Aa6ee461dAC7</v>
+      </c>
+      <c r="B199" t="str">
+        <v>1,114.47</v>
+      </c>
+      <c r="C199" t="str">
+        <v>1,114.47</v>
+      </c>
+      <c r="D199" t="str">
+        <v>1,269.17</v>
+      </c>
+      <c r="E199" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
+      </c>
+      <c r="B200" t="str">
+        <v>4,409.37</v>
+      </c>
+      <c r="C200" t="str">
+        <v>4,409.37</v>
+      </c>
+      <c r="D200" t="str">
+        <v>2.24</v>
+      </c>
+      <c r="E200" t="str">
+        <v>5,019.17</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
+      </c>
+      <c r="B201" t="str">
+        <v>40,799.11</v>
+      </c>
+      <c r="C201" t="str">
+        <v>40,799.11</v>
+      </c>
+      <c r="D201" t="str">
+        <v>46,168.07</v>
+      </c>
+      <c r="E201" t="str">
+        <v>294.1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>0xC023483Fa22d037EC5f056FC31C8f40751722aD5</v>
+      </c>
+      <c r="B202" t="str">
+        <v>55.89</v>
+      </c>
+      <c r="C202" t="str">
+        <v>55.89</v>
+      </c>
+      <c r="D202" t="str">
+        <v>0</v>
+      </c>
+      <c r="E202" t="str">
+        <v>63.65</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>0xcE1290F5457067497EAd8Aea22515d52ca94357E</v>
+      </c>
+      <c r="B203" t="str">
+        <v>111.64</v>
+      </c>
+      <c r="C203" t="str">
+        <v>111.64</v>
+      </c>
+      <c r="D203" t="str">
+        <v>0</v>
+      </c>
+      <c r="E203" t="str">
+        <v>127.14</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>0x73755c77A68017d6E755Ac0cE9df5EA7c2aF8F75</v>
+      </c>
+      <c r="B204" t="str">
+        <v>0</v>
+      </c>
+      <c r="C204" t="str">
+        <v>476.37</v>
+      </c>
+      <c r="D204" t="str">
+        <v>0</v>
+      </c>
+      <c r="E204" t="str">
+        <v>542.5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
+      </c>
+      <c r="B205" t="str">
+        <v>888.1</v>
+      </c>
+      <c r="C205" t="str">
+        <v>888.1</v>
+      </c>
+      <c r="D205" t="str">
+        <v>0</v>
+      </c>
+      <c r="E205" t="str">
+        <v>1,011.38</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>0x2373654B6a1564c5BdA4D28dDeF1827D66d7EA2b</v>
+      </c>
+      <c r="B206" t="str">
+        <v>0</v>
+      </c>
+      <c r="C206" t="str">
+        <v>287.04</v>
+      </c>
+      <c r="D206" t="str">
+        <v>0</v>
+      </c>
+      <c r="E206" t="str">
+        <v>326.89</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>0xE34bBD8d72B7Ffe5ad2e84CE93e3A07581De2e50</v>
+      </c>
+      <c r="B207" t="str">
+        <v>0</v>
+      </c>
+      <c r="C207" t="str">
+        <v>115.72</v>
+      </c>
+      <c r="D207" t="str">
+        <v>0</v>
+      </c>
+      <c r="E207" t="str">
+        <v>131.79</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>0x8218E1a9D02E26E2aF124EA28b121031Cf25AaC8</v>
+      </c>
+      <c r="B208" t="str">
+        <v>651.19</v>
+      </c>
+      <c r="C208" t="str">
+        <v>651.19</v>
+      </c>
+      <c r="D208" t="str">
+        <v>0</v>
+      </c>
+      <c r="E208" t="str">
+        <v>741.58</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+      </c>
+      <c r="B209" t="str">
+        <v>432.95</v>
+      </c>
+      <c r="C209" t="str">
+        <v>432.95</v>
+      </c>
+      <c r="D209" t="str">
+        <v>0</v>
+      </c>
+      <c r="E209" t="str">
+        <v>493.05</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
+      </c>
+      <c r="B210" t="str">
+        <v>109.46</v>
+      </c>
+      <c r="C210" t="str">
+        <v>109.46</v>
+      </c>
+      <c r="D210" t="str">
+        <v>124.66</v>
+      </c>
+      <c r="E210" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+      </c>
+      <c r="B211" t="str">
+        <v>142.83</v>
+      </c>
+      <c r="C211" t="str">
+        <v>142.83</v>
+      </c>
+      <c r="D211" t="str">
+        <v>38</v>
+      </c>
+      <c r="E211" t="str">
+        <v>124.66</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>0x143A47CAF24904a750242e138F31ADd7F6999Cb5</v>
+      </c>
+      <c r="B212" t="str">
+        <v>11.05</v>
+      </c>
+      <c r="C212" t="str">
+        <v>11.05</v>
+      </c>
+      <c r="D212" t="str">
+        <v>12.59</v>
+      </c>
+      <c r="E212" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>0x5c077b6a51010d308bb6F0Fce9Cd1593d0F78517</v>
+      </c>
+      <c r="B213" t="str">
+        <v>279.15</v>
+      </c>
+      <c r="C213" t="str">
+        <v>279.15</v>
+      </c>
+      <c r="D213" t="str">
+        <v>0</v>
+      </c>
+      <c r="E213" t="str">
+        <v>317.9</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>0x01Bf02ECf2aa5f2E824a64Fba6A0DC3Ee46D775B</v>
+      </c>
+      <c r="B214" t="str">
+        <v>9,220.22</v>
+      </c>
+      <c r="C214" t="str">
+        <v>9,220.22</v>
+      </c>
+      <c r="D214" t="str">
+        <v>5,543.71</v>
+      </c>
+      <c r="E214" t="str">
+        <v>4,956.31</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>0xA7258aeA0F44A7fe4a4933a1434e2fc8217891C0</v>
+      </c>
+      <c r="B215" t="str">
+        <v>9,220.22</v>
+      </c>
+      <c r="C215" t="str">
+        <v>9,220.22</v>
+      </c>
+      <c r="D215" t="str">
+        <v>4,956.31</v>
+      </c>
+      <c r="E215" t="str">
+        <v>5,543.71</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
+      </c>
+      <c r="B216" t="str">
+        <v>861.03</v>
+      </c>
+      <c r="C216" t="str">
+        <v>861.03</v>
+      </c>
+      <c r="D216" t="str">
+        <v>0</v>
+      </c>
+      <c r="E216" t="str">
+        <v>980.55</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+      </c>
+      <c r="B217" t="str">
+        <v>495.8</v>
+      </c>
+      <c r="C217" t="str">
+        <v>495.8</v>
+      </c>
+      <c r="D217" t="str">
+        <v>0</v>
+      </c>
+      <c r="E217" t="str">
+        <v>564.62</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>0xd63c4fE2E52948079b40d0eFd5FBa8a5F54aB32b</v>
+      </c>
+      <c r="B218" t="str">
+        <v>375.77</v>
+      </c>
+      <c r="C218" t="str">
+        <v>375.77</v>
+      </c>
+      <c r="D218" t="str">
+        <v>427.93</v>
+      </c>
+      <c r="E218" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>0xA678C16Ecca94a90764973FedEbE71d524FAfF84</v>
+      </c>
+      <c r="B219" t="str">
+        <v>375.77</v>
+      </c>
+      <c r="C219" t="str">
+        <v>375.77</v>
+      </c>
+      <c r="D219" t="str">
+        <v>0</v>
+      </c>
+      <c r="E219" t="str">
+        <v>427.93</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>0xF3FA7EB53b74e2A29f36108f18f12f50616168d1</v>
+      </c>
+      <c r="B220" t="str">
+        <v>1,072.3</v>
+      </c>
+      <c r="C220" t="str">
+        <v>1,072.3</v>
+      </c>
+      <c r="D220" t="str">
+        <v>1,221.15</v>
+      </c>
+      <c r="E220" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>0x8D61A43F4D07a78132D5239D5B84e3D46205bED2</v>
+      </c>
+      <c r="B221" t="str">
+        <v>43.96</v>
+      </c>
+      <c r="C221" t="str">
+        <v>43.96</v>
+      </c>
+      <c r="D221" t="str">
+        <v>50.07</v>
+      </c>
+      <c r="E221" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>0x997501e72C3deE97cb9608d72d9C1176D85Bb7C7</v>
+      </c>
+      <c r="B222" t="str">
+        <v>109.57</v>
+      </c>
+      <c r="C222" t="str">
+        <v>109.57</v>
+      </c>
+      <c r="D222" t="str">
+        <v>0</v>
+      </c>
+      <c r="E222" t="str">
+        <v>124.78</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>0xE1FcC0676dE7f03EB6c63b55A5ad667416029A5F</v>
+      </c>
+      <c r="B223" t="str">
+        <v>55.16</v>
+      </c>
+      <c r="C223" t="str">
+        <v>55.16</v>
+      </c>
+      <c r="D223" t="str">
+        <v>0</v>
+      </c>
+      <c r="E223" t="str">
+        <v>62.82</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>0x1A7Ff4ee32B3cF4Ce8633D7596c7FD3bf327515a</v>
+      </c>
+      <c r="B224" t="str">
+        <v>0</v>
+      </c>
+      <c r="C224" t="str">
+        <v>32.99</v>
+      </c>
+      <c r="D224" t="str">
+        <v>37.57</v>
+      </c>
+      <c r="E224" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>0xAD5c21611Ea4790991c40BFD8e0888e012D7162E</v>
+      </c>
+      <c r="B225" t="str">
+        <v>1,903.81</v>
+      </c>
+      <c r="C225" t="str">
+        <v>1,903.81</v>
+      </c>
+      <c r="D225" t="str">
+        <v>2,168.07</v>
+      </c>
+      <c r="E225" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>0xE3060D70A15f2EdFb390D66e60467Da6F5ECA1C7</v>
+      </c>
+      <c r="B226" t="str">
+        <v>117.63</v>
+      </c>
+      <c r="C226" t="str">
+        <v>117.63</v>
+      </c>
+      <c r="D226" t="str">
+        <v>0</v>
+      </c>
+      <c r="E226" t="str">
+        <v>133.96</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>0x2Ac0D00cd67535221C29B756e91175454f62Fb0b</v>
+      </c>
+      <c r="B227" t="str">
+        <v>177.1</v>
+      </c>
+      <c r="C227" t="str">
+        <v>177.1</v>
+      </c>
+      <c r="D227" t="str">
+        <v>201.69</v>
+      </c>
+      <c r="E227" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>0x0c75cB1d74392a119691ae930151162D611EAC54</v>
+      </c>
+      <c r="B228" t="str">
+        <v>439.05</v>
+      </c>
+      <c r="C228" t="str">
+        <v>439.05</v>
+      </c>
+      <c r="D228" t="str">
+        <v>500</v>
+      </c>
+      <c r="E228" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
+      </c>
+      <c r="B229" t="str">
+        <v>2,882.99</v>
+      </c>
+      <c r="C229" t="str">
+        <v>2,882.99</v>
+      </c>
+      <c r="D229" t="str">
+        <v>3,283.16</v>
+      </c>
+      <c r="E229" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
+      </c>
+      <c r="B230" t="str">
+        <v>2,882.99</v>
+      </c>
+      <c r="C230" t="str">
+        <v>2,882.99</v>
+      </c>
+      <c r="D230" t="str">
+        <v>0</v>
+      </c>
+      <c r="E230" t="str">
+        <v>3,283.16</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
+      </c>
+      <c r="B231" t="str">
+        <v>526.99</v>
+      </c>
+      <c r="C231" t="str">
+        <v>526.99</v>
+      </c>
+      <c r="D231" t="str">
+        <v>600.14</v>
+      </c>
+      <c r="E231" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
+      </c>
+      <c r="B232" t="str">
+        <v>526.99</v>
+      </c>
+      <c r="C232" t="str">
+        <v>526.99</v>
+      </c>
+      <c r="D232" t="str">
+        <v>0</v>
+      </c>
+      <c r="E232" t="str">
+        <v>600.14</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>0xF1ea664AbbA3452bc6cA6B289a6059613855805B</v>
+      </c>
+      <c r="B233" t="str">
+        <v>790.34</v>
+      </c>
+      <c r="C233" t="str">
+        <v>790.34</v>
+      </c>
+      <c r="D233" t="str">
+        <v>0</v>
+      </c>
+      <c r="E233" t="str">
+        <v>900.05</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+      </c>
+      <c r="B234" t="str">
+        <v>21.01</v>
+      </c>
+      <c r="C234" t="str">
+        <v>21.01</v>
+      </c>
+      <c r="D234" t="str">
+        <v>0</v>
+      </c>
+      <c r="E234" t="str">
+        <v>23.93</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
+      </c>
+      <c r="B235" t="str">
+        <v>104.24</v>
+      </c>
+      <c r="C235" t="str">
+        <v>104.24</v>
+      </c>
+      <c r="D235" t="str">
+        <v>118.71</v>
+      </c>
+      <c r="E235" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>0xA918ADC20A91e7C932e6E00e436D710DA71C765C</v>
+      </c>
+      <c r="B236" t="str">
+        <v>258.25</v>
+      </c>
+      <c r="C236" t="str">
+        <v>258.25</v>
+      </c>
+      <c r="D236" t="str">
+        <v>294.1</v>
+      </c>
+      <c r="E236" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
+      </c>
+      <c r="B237" t="str">
+        <v>1,129.71</v>
+      </c>
+      <c r="C237" t="str">
+        <v>1,129.71</v>
+      </c>
+      <c r="D237" t="str">
+        <v>0</v>
+      </c>
+      <c r="E237" t="str">
+        <v>1,286.52</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
+      </c>
+      <c r="B238" t="str">
+        <v>26.34</v>
+      </c>
+      <c r="C238" t="str">
+        <v>26.34</v>
+      </c>
+      <c r="D238" t="str">
+        <v>0</v>
+      </c>
+      <c r="E238" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>0x1e08bba24EeaB34dCc15Bc335c2638D40E1e3BD5</v>
+      </c>
+      <c r="B239" t="str">
+        <v>2,886</v>
+      </c>
+      <c r="C239" t="str">
+        <v>2,886</v>
+      </c>
+      <c r="D239" t="str">
+        <v>0</v>
+      </c>
+      <c r="E239" t="str">
+        <v>3,286.59</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>0xC090D9F71184D03568485a351456C570ff9F9Cbf</v>
+      </c>
+      <c r="B240" t="str">
+        <v>3,046.85</v>
+      </c>
+      <c r="C240" t="str">
+        <v>3,046.85</v>
+      </c>
+      <c r="D240" t="str">
+        <v>3,468.67</v>
+      </c>
+      <c r="E240" t="str">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>0x947d2c8935C715428702231AD85E293a94CbEB65</v>
+      </c>
+      <c r="B241" t="str">
+        <v>658.58</v>
+      </c>
+      <c r="C241" t="str">
+        <v>658.58</v>
+      </c>
+      <c r="D241" t="str">
+        <v>750</v>
+      </c>
+      <c r="E241" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>0x28207aadAe97226F70a54c25d16692197c062898</v>
+      </c>
+      <c r="B242" t="str">
+        <v>4.04</v>
+      </c>
+      <c r="C242" t="str">
+        <v>4.04</v>
+      </c>
+      <c r="D242" t="str">
+        <v>4.61</v>
+      </c>
+      <c r="E242" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>0xc47024d1c6E59E5FCc715353B53601474768Fa6b</v>
+      </c>
+      <c r="B243" t="str">
+        <v>329.29</v>
+      </c>
+      <c r="C243" t="str">
+        <v>329.29</v>
+      </c>
+      <c r="D243" t="str">
+        <v>375</v>
+      </c>
+      <c r="E243" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
+      </c>
+      <c r="B244" t="str">
+        <v>0</v>
+      </c>
+      <c r="C244" t="str">
+        <v>1,190.53</v>
+      </c>
+      <c r="D244" t="str">
+        <v>0</v>
+      </c>
+      <c r="E244" t="str">
+        <v>1,355.78</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B245" t="str">
+        <v>3,118,027.2</v>
+      </c>
+      <c r="C245" t="str">
+        <v>3,205,127.04</v>
+      </c>
+      <c r="D245" t="str">
+        <v>1,580,601.51</v>
+      </c>
+      <c r="E245" t="str">
+        <v>2,069,409.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E245"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E198"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -25754,33 +29934,33 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
+        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
       </c>
       <c r="B2" t="str">
-        <v>1,716.71</v>
+        <v>458.24</v>
       </c>
       <c r="C2" t="str">
-        <v>1,716.71</v>
+        <v>458.24</v>
       </c>
       <c r="D2" t="str">
-        <v>1,955</v>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>457.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0xe23bc0609A8Df4EA2A597AEAAFcBF421BFfBDCFd</v>
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
       </c>
       <c r="B3" t="str">
-        <v>579.51</v>
+        <v>34,326.22</v>
       </c>
       <c r="C3" t="str">
-        <v>579.51</v>
+        <v>34,326.22</v>
       </c>
       <c r="D3" t="str">
-        <v>659.95</v>
+        <v>34,247.66</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -25788,118 +29968,118 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
       </c>
       <c r="B4" t="str">
-        <v>145,569.36</v>
+        <v>1,140.87</v>
       </c>
       <c r="C4" t="str">
-        <v>145,569.36</v>
+        <v>1,140.87</v>
       </c>
       <c r="D4" t="str">
-        <v>20,348.88</v>
+        <v>1,138.26</v>
       </c>
       <c r="E4" t="str">
-        <v>145,426.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
+        <v>0xEEe37E83b74Ebf3679962F6199dADF968E74efa5</v>
       </c>
       <c r="B5" t="str">
-        <v>8,430.44</v>
+        <v>1,140.87</v>
       </c>
       <c r="C5" t="str">
-        <v>8,430.44</v>
+        <v>1,140.87</v>
       </c>
       <c r="D5" t="str">
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>9,600.62</v>
+        <v>1,138.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
+        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
       </c>
       <c r="B6" t="str">
-        <v>182.43</v>
+        <v>2,006.69</v>
       </c>
       <c r="C6" t="str">
-        <v>182.43</v>
+        <v>2,006.69</v>
       </c>
       <c r="D6" t="str">
-        <v>207.76</v>
+        <v>875.74</v>
       </c>
       <c r="E6" t="str">
-        <v>0</v>
+        <v>1,126.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
       </c>
       <c r="B7" t="str">
-        <v>4,003.36</v>
+        <v>133,988.56</v>
       </c>
       <c r="C7" t="str">
-        <v>4,003.36</v>
+        <v>133,988.56</v>
       </c>
       <c r="D7" t="str">
-        <v>0</v>
+        <v>6.96</v>
       </c>
       <c r="E7" t="str">
-        <v>4,559.04</v>
+        <v>133,674.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0xaE8f06402E8e67023b13f2F132Dc34422aFA6189</v>
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
       </c>
       <c r="B8" t="str">
-        <v>323.9</v>
+        <v>9,196.3</v>
       </c>
       <c r="C8" t="str">
-        <v>323.9</v>
+        <v>9,196.3</v>
       </c>
       <c r="D8" t="str">
-        <v>368.86</v>
+        <v>3,868.74</v>
       </c>
       <c r="E8" t="str">
-        <v>0</v>
+        <v>5,306.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0x19d4dEce6C48d99F0Ec4bE4258f26fdA9a7Ad4e5</v>
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
       </c>
       <c r="B9" t="str">
-        <v>82.77</v>
+        <v>16,642.6</v>
       </c>
       <c r="C9" t="str">
-        <v>82.77</v>
+        <v>16,642.6</v>
       </c>
       <c r="D9" t="str">
-        <v>94.27</v>
+        <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>0</v>
+        <v>16,604.51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
+        <v>0x092F2C7B8daf5e94e9bF990ceDE5f2d4fD318B22</v>
       </c>
       <c r="B10" t="str">
-        <v>24.27</v>
+        <v>389.06</v>
       </c>
       <c r="C10" t="str">
-        <v>24.27</v>
+        <v>389.06</v>
       </c>
       <c r="D10" t="str">
-        <v>27.65</v>
+        <v>388.17</v>
       </c>
       <c r="E10" t="str">
         <v>0</v>
@@ -25907,33 +30087,33 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
       </c>
       <c r="B11" t="str">
-        <v>8,694.99</v>
+        <v>2,832.63</v>
       </c>
       <c r="C11" t="str">
-        <v>8,694.99</v>
+        <v>2,832.63</v>
       </c>
       <c r="D11" t="str">
-        <v>4,215.24</v>
+        <v>2,826.15</v>
       </c>
       <c r="E11" t="str">
-        <v>5,686.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
       </c>
       <c r="B12" t="str">
-        <v>0</v>
+        <v>296.33</v>
       </c>
       <c r="C12" t="str">
-        <v>18,175.96</v>
+        <v>296.33</v>
       </c>
       <c r="D12" t="str">
-        <v>20,698.85</v>
+        <v>295.66</v>
       </c>
       <c r="E12" t="str">
         <v>0</v>
@@ -25941,135 +30121,135 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>0xD957cc84a2B565e7572a8F02A39e487466c3bFF7</v>
+        <v>0xE32A6FAf659859D331f7Ec7D38Ad3925AaFBEc45</v>
       </c>
       <c r="B13" t="str">
-        <v>560.56</v>
+        <v>7,804.53</v>
       </c>
       <c r="C13" t="str">
-        <v>560.56</v>
+        <v>7,804.53</v>
       </c>
       <c r="D13" t="str">
-        <v>0</v>
+        <v>7,786.67</v>
       </c>
       <c r="E13" t="str">
-        <v>638.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
+        <v>0x2Ac0D00cd67535221C29B756e91175454f62Fb0b</v>
       </c>
       <c r="B14" t="str">
-        <v>132.61</v>
+        <v>7,804.53</v>
       </c>
       <c r="C14" t="str">
-        <v>132.61</v>
+        <v>7,804.53</v>
       </c>
       <c r="D14" t="str">
-        <v>151.02</v>
+        <v>0</v>
       </c>
       <c r="E14" t="str">
-        <v>0</v>
+        <v>7,786.67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
       </c>
       <c r="B15" t="str">
-        <v>1,083.54</v>
+        <v>53,683.24</v>
       </c>
       <c r="C15" t="str">
-        <v>1,083.54</v>
+        <v>53,683.24</v>
       </c>
       <c r="D15" t="str">
-        <v>0</v>
+        <v>16,110.79</v>
       </c>
       <c r="E15" t="str">
-        <v>1,233.94</v>
+        <v>37,449.58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>0x46c17eC4E5fb0529F5559f6990d81f0420Be1E5c</v>
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
       </c>
       <c r="B16" t="str">
-        <v>28,003.89</v>
+        <v>0</v>
       </c>
       <c r="C16" t="str">
-        <v>28,003.89</v>
+        <v>14,807.92</v>
       </c>
       <c r="D16" t="str">
-        <v>27,317.41</v>
+        <v>13,524.03</v>
       </c>
       <c r="E16" t="str">
-        <v>4,573.52</v>
+        <v>1,250</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
       </c>
       <c r="B17" t="str">
-        <v>33,770.54</v>
+        <v>5,453.83</v>
       </c>
       <c r="C17" t="str">
-        <v>33,770.54</v>
+        <v>5,453.83</v>
       </c>
       <c r="D17" t="str">
-        <v>38,458.01</v>
+        <v>183.13</v>
       </c>
       <c r="E17" t="str">
-        <v>0</v>
+        <v>5,258.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
+        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
       </c>
       <c r="B18" t="str">
-        <v>33,770.54</v>
+        <v>2,689.57</v>
       </c>
       <c r="C18" t="str">
-        <v>33,770.54</v>
+        <v>2,689.57</v>
       </c>
       <c r="D18" t="str">
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <v>38,458.01</v>
+        <v>2,683.42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+        <v>0xdfd7445EF7dB056F68cEdEB4c1A709d02C0c3AA7</v>
       </c>
       <c r="B19" t="str">
-        <v>182,606.04</v>
+        <v>278.96</v>
       </c>
       <c r="C19" t="str">
-        <v>182,606.04</v>
+        <v>278.96</v>
       </c>
       <c r="D19" t="str">
-        <v>1,355.78</v>
+        <v>220.49</v>
       </c>
       <c r="E19" t="str">
-        <v>206,596.6</v>
+        <v>57.84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
+        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
       </c>
       <c r="B20" t="str">
-        <v>461.01</v>
+        <v>28.54</v>
       </c>
       <c r="C20" t="str">
-        <v>461.01</v>
+        <v>28.54</v>
       </c>
       <c r="D20" t="str">
-        <v>525</v>
+        <v>28.48</v>
       </c>
       <c r="E20" t="str">
         <v>0</v>
@@ -26077,16 +30257,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>0x6cD7Eab4A323E88d1170a609c6694531C3AFcA11</v>
+        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
       </c>
       <c r="B21" t="str">
-        <v>1,722.16</v>
+        <v>34.4</v>
       </c>
       <c r="C21" t="str">
-        <v>1,722.16</v>
+        <v>34.4</v>
       </c>
       <c r="D21" t="str">
-        <v>1,961.21</v>
+        <v>34.33</v>
       </c>
       <c r="E21" t="str">
         <v>0</v>
@@ -26094,50 +30274,50 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
+        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
       </c>
       <c r="B22" t="str">
-        <v>2,971.61</v>
+        <v>1,030.07</v>
       </c>
       <c r="C22" t="str">
-        <v>2,971.61</v>
+        <v>1,030.07</v>
       </c>
       <c r="D22" t="str">
-        <v>819.61</v>
+        <v>1,027.72</v>
       </c>
       <c r="E22" t="str">
-        <v>2,564.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>0x0feD39AC6093e042825EfE8862f37dc8425B8f74</v>
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
       </c>
       <c r="B23" t="str">
-        <v>0</v>
+        <v>117,695.98</v>
       </c>
       <c r="C23" t="str">
-        <v>121.81</v>
+        <v>117,695.98</v>
       </c>
       <c r="D23" t="str">
         <v>0</v>
       </c>
       <c r="E23" t="str">
-        <v>138.72</v>
+        <v>117,426.59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+        <v>0xdAed012E9aB6746d6D048Fe9730AdC888b5610d5</v>
       </c>
       <c r="B24" t="str">
-        <v>357.08</v>
+        <v>22.91</v>
       </c>
       <c r="C24" t="str">
-        <v>357.08</v>
+        <v>22.91</v>
       </c>
       <c r="D24" t="str">
-        <v>406.65</v>
+        <v>22.86</v>
       </c>
       <c r="E24" t="str">
         <v>0</v>
@@ -26145,50 +30325,50 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
+        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
       </c>
       <c r="B25" t="str">
-        <v>3,062.54</v>
+        <v>25,248.15</v>
       </c>
       <c r="C25" t="str">
-        <v>3,062.54</v>
+        <v>25,248.15</v>
       </c>
       <c r="D25" t="str">
-        <v>0</v>
+        <v>25,093.5</v>
       </c>
       <c r="E25" t="str">
-        <v>3,487.64</v>
+        <v>96.87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>0x942E746C384bec88Dfa6164e8d699858E9988FeB</v>
+        <v>0xdFdf143A6a12185023e01ddC61092Ac97eCB6c05</v>
       </c>
       <c r="B26" t="str">
-        <v>3,651.43</v>
+        <v>250.57</v>
       </c>
       <c r="C26" t="str">
-        <v>3,651.43</v>
+        <v>250.57</v>
       </c>
       <c r="D26" t="str">
-        <v>601.69</v>
+        <v>250</v>
       </c>
       <c r="E26" t="str">
-        <v>3,556.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
+        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
       </c>
       <c r="B27" t="str">
-        <v>133.93</v>
+        <v>5,330.35</v>
       </c>
       <c r="C27" t="str">
-        <v>133.93</v>
+        <v>5,330.35</v>
       </c>
       <c r="D27" t="str">
-        <v>152.52</v>
+        <v>5,318.15</v>
       </c>
       <c r="E27" t="str">
         <v>0</v>
@@ -26196,50 +30376,50 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>0xdD40bFeDDd1511322A763a82e31Ef3e401415927</v>
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
       </c>
       <c r="B28" t="str">
-        <v>266.71</v>
+        <v>5,330.35</v>
       </c>
       <c r="C28" t="str">
-        <v>266.71</v>
+        <v>5,330.35</v>
       </c>
       <c r="D28" t="str">
-        <v>303.74</v>
+        <v>0</v>
       </c>
       <c r="E28" t="str">
-        <v>0</v>
+        <v>5,318.15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
+        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
       </c>
       <c r="B29" t="str">
-        <v>40.63</v>
+        <v>702.1</v>
       </c>
       <c r="C29" t="str">
-        <v>40.63</v>
+        <v>702.1</v>
       </c>
       <c r="D29" t="str">
-        <v>46.27</v>
+        <v>0</v>
       </c>
       <c r="E29" t="str">
-        <v>0</v>
+        <v>700.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>0xcC07cb9557409822792D39FA9918c4d1Fd0F6E62</v>
+        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
       </c>
       <c r="B30" t="str">
-        <v>724.94</v>
+        <v>21.93</v>
       </c>
       <c r="C30" t="str">
-        <v>724.94</v>
+        <v>21.93</v>
       </c>
       <c r="D30" t="str">
-        <v>825.57</v>
+        <v>21.88</v>
       </c>
       <c r="E30" t="str">
         <v>0</v>
@@ -26247,33 +30427,33 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
       </c>
       <c r="B31" t="str">
-        <v>439.05</v>
+        <v>22,011.91</v>
       </c>
       <c r="C31" t="str">
-        <v>439.05</v>
+        <v>22,011.91</v>
       </c>
       <c r="D31" t="str">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E31" t="str">
-        <v>0</v>
+        <v>21,961.53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
       </c>
       <c r="B32" t="str">
-        <v>99.78</v>
+        <v>76.34</v>
       </c>
       <c r="C32" t="str">
-        <v>99.78</v>
+        <v>76.34</v>
       </c>
       <c r="D32" t="str">
-        <v>113.63</v>
+        <v>76.17</v>
       </c>
       <c r="E32" t="str">
         <v>0</v>
@@ -26281,33 +30461,33 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>0xEEe37E83b74Ebf3679962F6199dADF968E74efa5</v>
+        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
       </c>
       <c r="B33" t="str">
-        <v>99.78</v>
+        <v>104.01</v>
       </c>
       <c r="C33" t="str">
-        <v>99.78</v>
+        <v>104.01</v>
       </c>
       <c r="D33" t="str">
-        <v>0</v>
+        <v>103.78</v>
       </c>
       <c r="E33" t="str">
-        <v>113.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>0x375bE33B63Ad8204eb4FB2CaCa325126d1eC6f19</v>
+        <v>0x5099ccbB5FC14BF6ea516EE6CC3e6B209a7aA8C6</v>
       </c>
       <c r="B34" t="str">
-        <v>182.57</v>
+        <v>597.22</v>
       </c>
       <c r="C34" t="str">
-        <v>182.57</v>
+        <v>597.22</v>
       </c>
       <c r="D34" t="str">
-        <v>207.92</v>
+        <v>595.86</v>
       </c>
       <c r="E34" t="str">
         <v>0</v>
@@ -26315,16 +30495,16 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
+        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
       </c>
       <c r="B35" t="str">
-        <v>216.52</v>
+        <v>250.86</v>
       </c>
       <c r="C35" t="str">
-        <v>216.52</v>
+        <v>250.86</v>
       </c>
       <c r="D35" t="str">
-        <v>246.58</v>
+        <v>250.29</v>
       </c>
       <c r="E35" t="str">
         <v>0</v>
@@ -26332,16 +30512,16 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
+        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
       </c>
       <c r="B36" t="str">
-        <v>219.52</v>
+        <v>261.25</v>
       </c>
       <c r="C36" t="str">
-        <v>219.52</v>
+        <v>261.25</v>
       </c>
       <c r="D36" t="str">
-        <v>250</v>
+        <v>260.66</v>
       </c>
       <c r="E36" t="str">
         <v>0</v>
@@ -26349,16 +30529,16 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>0xf6732447a0Da3D8973897e247cf04f53B87Cfa2e</v>
+        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
       </c>
       <c r="B37" t="str">
-        <v>58.38</v>
+        <v>407.21</v>
       </c>
       <c r="C37" t="str">
-        <v>58.38</v>
+        <v>407.21</v>
       </c>
       <c r="D37" t="str">
-        <v>66.49</v>
+        <v>406.28</v>
       </c>
       <c r="E37" t="str">
         <v>0</v>
@@ -26366,50 +30546,50 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
+        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
       </c>
       <c r="B38" t="str">
-        <v>2,107.74</v>
+        <v>183.55</v>
       </c>
       <c r="C38" t="str">
-        <v>2,107.74</v>
+        <v>183.55</v>
       </c>
       <c r="D38" t="str">
         <v>0</v>
       </c>
       <c r="E38" t="str">
-        <v>2,400.31</v>
+        <v>183.13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>0x7B82007d91312Bb84E57A79c6df7Fa3928beD152</v>
+        <v>0xF3FA7EB53b74e2A29f36108f18f12f50616168d1</v>
       </c>
       <c r="B39" t="str">
-        <v>9,416.39</v>
+        <v>5,925.85</v>
       </c>
       <c r="C39" t="str">
-        <v>9,416.39</v>
+        <v>5,925.85</v>
       </c>
       <c r="D39" t="str">
-        <v>10,206.94</v>
+        <v>5,912.29</v>
       </c>
       <c r="E39" t="str">
-        <v>516.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>0x48A7209DD07Bc7409bF3f61820E1Ee9409F462e9</v>
+        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
       </c>
       <c r="B40" t="str">
-        <v>443.4</v>
+        <v>1,893.03</v>
       </c>
       <c r="C40" t="str">
-        <v>443.4</v>
+        <v>1,893.03</v>
       </c>
       <c r="D40" t="str">
-        <v>504.95</v>
+        <v>1,888.7</v>
       </c>
       <c r="E40" t="str">
         <v>0</v>
@@ -26417,84 +30597,84 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>0xF2Aa3A5Df3Af1eD5ff72631A8bcFF0F0AfE060eC</v>
+        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
       </c>
       <c r="B41" t="str">
-        <v>863.37</v>
+        <v>1,118.11</v>
       </c>
       <c r="C41" t="str">
-        <v>863.37</v>
+        <v>1,118.11</v>
       </c>
       <c r="D41" t="str">
-        <v>69.11</v>
+        <v>1,115.56</v>
       </c>
       <c r="E41" t="str">
-        <v>914.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+        <v>0x964087989Df5D5e89cF7527b72A3949367a337bA</v>
       </c>
       <c r="B42" t="str">
-        <v>733,665.14</v>
+        <v>2,933.69</v>
       </c>
       <c r="C42" t="str">
-        <v>733,665.14</v>
+        <v>2,933.69</v>
       </c>
       <c r="D42" t="str">
-        <v>417,458.8</v>
+        <v>2,926.98</v>
       </c>
       <c r="E42" t="str">
-        <v>418,041.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+        <v>0xD957cc84a2B565e7572a8F02A39e487466c3bFF7</v>
       </c>
       <c r="B43" t="str">
-        <v>34.15</v>
+        <v>234.77</v>
       </c>
       <c r="C43" t="str">
-        <v>34.15</v>
+        <v>234.77</v>
       </c>
       <c r="D43" t="str">
-        <v>38.9</v>
+        <v>0</v>
       </c>
       <c r="E43" t="str">
-        <v>0</v>
+        <v>234.24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
+        <v>0xf0a8596541F839EBcC9f0A9d1442c15f43A2836E</v>
       </c>
       <c r="B44" t="str">
-        <v>164.35</v>
+        <v>341.8</v>
       </c>
       <c r="C44" t="str">
-        <v>164.35</v>
+        <v>341.8</v>
       </c>
       <c r="D44" t="str">
-        <v>187.17</v>
+        <v>0</v>
       </c>
       <c r="E44" t="str">
-        <v>0</v>
+        <v>341.02</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>0xEe5358d1d36262CeFC36478E37A718FA4d7847eB</v>
+        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
       </c>
       <c r="B45" t="str">
-        <v>53.99</v>
+        <v>38.97</v>
       </c>
       <c r="C45" t="str">
-        <v>53.99</v>
+        <v>38.97</v>
       </c>
       <c r="D45" t="str">
-        <v>61.49</v>
+        <v>38.89</v>
       </c>
       <c r="E45" t="str">
         <v>0</v>
@@ -26502,33 +30682,33 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
       </c>
       <c r="B46" t="str">
-        <v>4,846.53</v>
+        <v>1,124.05</v>
       </c>
       <c r="C46" t="str">
-        <v>4,846.53</v>
+        <v>1,124.05</v>
       </c>
       <c r="D46" t="str">
-        <v>0</v>
+        <v>1,121.48</v>
       </c>
       <c r="E46" t="str">
-        <v>5,519.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>0x0fB3b0892619aF19B0a8016783f84EED26CfAE1E</v>
+        <v>0x165F4f9805770Eb044Cd2A5a3f1b3E07Ba8B15e9</v>
       </c>
       <c r="B47" t="str">
-        <v>61.92</v>
+        <v>359.04</v>
       </c>
       <c r="C47" t="str">
-        <v>61.92</v>
+        <v>359.04</v>
       </c>
       <c r="D47" t="str">
-        <v>70.52</v>
+        <v>358.22</v>
       </c>
       <c r="E47" t="str">
         <v>0</v>
@@ -26536,16 +30716,16 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
+        <v>0xd63c4fE2E52948079b40d0eFd5FBa8a5F54aB32b</v>
       </c>
       <c r="B48" t="str">
-        <v>620.01</v>
+        <v>6,463.44</v>
       </c>
       <c r="C48" t="str">
-        <v>620.01</v>
+        <v>6,463.44</v>
       </c>
       <c r="D48" t="str">
-        <v>706.08</v>
+        <v>6,448.65</v>
       </c>
       <c r="E48" t="str">
         <v>0</v>
@@ -26553,50 +30733,50 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
       </c>
       <c r="B49" t="str">
-        <v>622.85</v>
+        <v>0</v>
       </c>
       <c r="C49" t="str">
-        <v>622.85</v>
+        <v>7,834.38</v>
       </c>
       <c r="D49" t="str">
-        <v>709.31</v>
+        <v>6,316.45</v>
       </c>
       <c r="E49" t="str">
-        <v>0</v>
+        <v>1,500</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>0xF6a52cb99b772d46C736F6F90Be792A1d4159414</v>
+        <v>0x64d564A6A6003a9fcb44f8F50b9A3C7bBea2a7E7</v>
       </c>
       <c r="B50" t="str">
-        <v>109.28</v>
+        <v>330.13</v>
       </c>
       <c r="C50" t="str">
-        <v>109.28</v>
+        <v>330.13</v>
       </c>
       <c r="D50" t="str">
-        <v>63.14</v>
+        <v>329.38</v>
       </c>
       <c r="E50" t="str">
-        <v>61.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>0xCDB5b0dceF4D6289241C063EEF22A56850Fc18d1</v>
+        <v>0xa755B0E03b0C0411c64749C64F063a6600a24D8c</v>
       </c>
       <c r="B51" t="str">
-        <v>54.61</v>
+        <v>841.16</v>
       </c>
       <c r="C51" t="str">
-        <v>54.61</v>
+        <v>841.16</v>
       </c>
       <c r="D51" t="str">
-        <v>62.2</v>
+        <v>839.24</v>
       </c>
       <c r="E51" t="str">
         <v>0</v>
@@ -26604,67 +30784,67 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
       </c>
       <c r="B52" t="str">
-        <v>54.61</v>
+        <v>5,066.34</v>
       </c>
       <c r="C52" t="str">
-        <v>54.61</v>
+        <v>5,066.34</v>
       </c>
       <c r="D52" t="str">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E52" t="str">
-        <v>62.2</v>
+        <v>4,654.75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
+        <v>0xE233390f362B1dC22F621feead135D828a39781A</v>
       </c>
       <c r="B53" t="str">
-        <v>135.96</v>
+        <v>5,014.12</v>
       </c>
       <c r="C53" t="str">
-        <v>135.96</v>
+        <v>5,014.12</v>
       </c>
       <c r="D53" t="str">
-        <v>0</v>
+        <v>5,002.65</v>
       </c>
       <c r="E53" t="str">
-        <v>154.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
       </c>
       <c r="B54" t="str">
-        <v>152,187.46</v>
+        <v>288.05</v>
       </c>
       <c r="C54" t="str">
-        <v>152,187.46</v>
+        <v>288.05</v>
       </c>
       <c r="D54" t="str">
-        <v>173,311.6</v>
+        <v>0</v>
       </c>
       <c r="E54" t="str">
-        <v>0</v>
+        <v>287.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>0xdfd7445EF7dB056F68cEdEB4c1A709d02C0c3AA7</v>
+        <v>0xdd61cabccEa7933D2372606963D66F0924831D29</v>
       </c>
       <c r="B55" t="str">
-        <v>85.37</v>
+        <v>35.61</v>
       </c>
       <c r="C55" t="str">
-        <v>85.37</v>
+        <v>35.61</v>
       </c>
       <c r="D55" t="str">
-        <v>97.23</v>
+        <v>35.53</v>
       </c>
       <c r="E55" t="str">
         <v>0</v>
@@ -26672,118 +30852,118 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>0xb78b932C7FA6f818D2c46aD42B38c4E9289660E4</v>
+        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
       </c>
       <c r="B56" t="str">
-        <v>1,755.89</v>
+        <v>125.28</v>
       </c>
       <c r="C56" t="str">
-        <v>1,755.89</v>
+        <v>125.28</v>
       </c>
       <c r="D56" t="str">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E56" t="str">
-        <v>1,999.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>0xE910838B91486D4Fef2d0C4a77a3819D7600D36b</v>
+        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
       </c>
       <c r="B57" t="str">
-        <v>57.23</v>
+        <v>1,263.79</v>
       </c>
       <c r="C57" t="str">
-        <v>57.23</v>
+        <v>1,263.79</v>
       </c>
       <c r="D57" t="str">
-        <v>65.18</v>
+        <v>0</v>
       </c>
       <c r="E57" t="str">
-        <v>0</v>
+        <v>1,260.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>0x77729e862D70e8d6856Fb5f4786B02E626B9cf65</v>
+        <v>0xa6A4BE6499cfdd7E94Cd1BF5498533FdCbb6CE5d</v>
       </c>
       <c r="B58" t="str">
-        <v>1,067.63</v>
+        <v>131,080.73</v>
       </c>
       <c r="C58" t="str">
-        <v>1,067.63</v>
+        <v>131,080.73</v>
       </c>
       <c r="D58" t="str">
-        <v>1,215.83</v>
+        <v>120,757.82</v>
       </c>
       <c r="E58" t="str">
-        <v>0</v>
+        <v>10,022.89</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>0x1B5f7cBb775f11BC5CFC4ac9dC1406Ef613F7A63</v>
+        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
       </c>
       <c r="B59" t="str">
-        <v>32.78</v>
+        <v>121,034.85</v>
       </c>
       <c r="C59" t="str">
-        <v>32.78</v>
+        <v>121,034.85</v>
       </c>
       <c r="D59" t="str">
-        <v>37.34</v>
+        <v>0</v>
       </c>
       <c r="E59" t="str">
-        <v>0</v>
+        <v>120,757.82</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>0xf74f5cF53A6746b1eddD9C7ea8Ab7447797c3D74</v>
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
       </c>
       <c r="B60" t="str">
-        <v>6,601.34</v>
+        <v>458.24</v>
       </c>
       <c r="C60" t="str">
-        <v>6,601.34</v>
+        <v>458.24</v>
       </c>
       <c r="D60" t="str">
-        <v>0</v>
+        <v>457.2</v>
       </c>
       <c r="E60" t="str">
-        <v>7,517.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>0x5099ccbB5FC14BF6ea516EE6CC3e6B209a7aA8C6</v>
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
       </c>
       <c r="B61" t="str">
-        <v>627.86</v>
+        <v>73,927.83</v>
       </c>
       <c r="C61" t="str">
-        <v>627.86</v>
+        <v>73,927.83</v>
       </c>
       <c r="D61" t="str">
-        <v>715.02</v>
+        <v>0</v>
       </c>
       <c r="E61" t="str">
-        <v>0</v>
+        <v>73,758.62</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>0x748B2F0784f8Aa4D1948D2bAeE433BAD2f86376e</v>
+        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
       </c>
       <c r="B62" t="str">
-        <v>109.71</v>
+        <v>7,867.45</v>
       </c>
       <c r="C62" t="str">
-        <v>109.71</v>
+        <v>7,867.45</v>
       </c>
       <c r="D62" t="str">
-        <v>124.94</v>
+        <v>7,849.45</v>
       </c>
       <c r="E62" t="str">
         <v>0</v>
@@ -26791,169 +30971,169 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
       </c>
       <c r="B63" t="str">
-        <v>32,663.31</v>
+        <v>0</v>
       </c>
       <c r="C63" t="str">
-        <v>32,663.31</v>
+        <v>7,867.45</v>
       </c>
       <c r="D63" t="str">
-        <v>37,197.09</v>
+        <v>0</v>
       </c>
       <c r="E63" t="str">
-        <v>0</v>
+        <v>7,849.45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>0x41c1a44B0608309714f0C5ee544f84262E510198</v>
+        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
       </c>
       <c r="B64" t="str">
-        <v>142.56</v>
+        <v>160.35</v>
       </c>
       <c r="C64" t="str">
-        <v>142.56</v>
+        <v>160.35</v>
       </c>
       <c r="D64" t="str">
-        <v>124.78</v>
+        <v>159.99</v>
       </c>
       <c r="E64" t="str">
-        <v>37.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
       </c>
       <c r="B65" t="str">
-        <v>19,980.04</v>
+        <v>1,190.43</v>
       </c>
       <c r="C65" t="str">
-        <v>19,980.04</v>
+        <v>1,190.43</v>
       </c>
       <c r="D65" t="str">
-        <v>22,753.34</v>
+        <v>0</v>
       </c>
       <c r="E65" t="str">
-        <v>0</v>
+        <v>1,187.71</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
       </c>
       <c r="B66" t="str">
-        <v>922.02</v>
+        <v>2,668.62</v>
       </c>
       <c r="C66" t="str">
-        <v>922.02</v>
+        <v>2,668.62</v>
       </c>
       <c r="D66" t="str">
-        <v>1,050</v>
+        <v>504.7</v>
       </c>
       <c r="E66" t="str">
-        <v>0</v>
+        <v>2,157.82</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>0x49Dd6E1D94604918B6235cEbC90208E03E021AD7</v>
+        <v>0xA7258aeA0F44A7fe4a4933a1434e2fc8217891C0</v>
       </c>
       <c r="B67" t="str">
-        <v>2,532.45</v>
+        <v>103,921.41</v>
       </c>
       <c r="C67" t="str">
-        <v>2,532.45</v>
+        <v>103,921.41</v>
       </c>
       <c r="D67" t="str">
-        <v>2,883.97</v>
+        <v>9,766.39</v>
       </c>
       <c r="E67" t="str">
-        <v>0</v>
+        <v>93,917.16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+        <v>0x01Bf02ECf2aa5f2E824a64Fba6A0DC3Ee46D775B</v>
       </c>
       <c r="B68" t="str">
-        <v>1,716.71</v>
+        <v>103,921.41</v>
       </c>
       <c r="C68" t="str">
-        <v>1,716.71</v>
+        <v>103,921.41</v>
       </c>
       <c r="D68" t="str">
-        <v>0</v>
+        <v>93,917.16</v>
       </c>
       <c r="E68" t="str">
-        <v>1,955</v>
+        <v>9,766.39</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+        <v>0xbc44E6f03C150df10Fe594d42eACAAC51C13e15B</v>
       </c>
       <c r="B69" t="str">
-        <v>1,465.37</v>
+        <v>139.31</v>
       </c>
       <c r="C69" t="str">
-        <v>1,465.37</v>
+        <v>139.31</v>
       </c>
       <c r="D69" t="str">
-        <v>1,008.82</v>
+        <v>139</v>
       </c>
       <c r="E69" t="str">
-        <v>659.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
       </c>
       <c r="B70" t="str">
-        <v>1,141.54</v>
+        <v>71,081.05</v>
       </c>
       <c r="C70" t="str">
-        <v>1,141.54</v>
+        <v>71,081.05</v>
       </c>
       <c r="D70" t="str">
-        <v>0</v>
+        <v>30,850.93</v>
       </c>
       <c r="E70" t="str">
-        <v>1,300</v>
+        <v>40,067.43</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>0x2848A658c1097a8639d2fb62a977b23903200b53</v>
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
       </c>
       <c r="B71" t="str">
-        <v>208.11</v>
+        <v>72,209.19</v>
       </c>
       <c r="C71" t="str">
-        <v>208.11</v>
+        <v>72,209.19</v>
       </c>
       <c r="D71" t="str">
-        <v>0</v>
+        <v>40,067.43</v>
       </c>
       <c r="E71" t="str">
-        <v>237</v>
+        <v>31,976.49</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
       </c>
       <c r="B72" t="str">
-        <v>488.65</v>
+        <v>1,128.14</v>
       </c>
       <c r="C72" t="str">
-        <v>488.65</v>
+        <v>1,128.14</v>
       </c>
       <c r="D72" t="str">
-        <v>556.48</v>
+        <v>1,125.56</v>
       </c>
       <c r="E72" t="str">
         <v>0</v>
@@ -26961,16 +31141,16 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+        <v>0x96366995FA701346A6f9bCD875E3E80D7421d8b3</v>
       </c>
       <c r="B73" t="str">
-        <v>441.63</v>
+        <v>2,633.97</v>
       </c>
       <c r="C73" t="str">
-        <v>441.63</v>
+        <v>2,633.97</v>
       </c>
       <c r="D73" t="str">
-        <v>502.93</v>
+        <v>2,627.95</v>
       </c>
       <c r="E73" t="str">
         <v>0</v>
@@ -26978,33 +31158,33 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
+        <v>0x41208763DD0C33e81cD7908ec88656ca7578d591</v>
       </c>
       <c r="B74" t="str">
-        <v>0</v>
+        <v>2,633.97</v>
       </c>
       <c r="C74" t="str">
-        <v>238.31</v>
+        <v>2,633.97</v>
       </c>
       <c r="D74" t="str">
-        <v>271.39</v>
+        <v>0</v>
       </c>
       <c r="E74" t="str">
-        <v>0</v>
+        <v>2,627.95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+        <v>0x69f96f2A5Cdd84E574dB2a353880095988243417</v>
       </c>
       <c r="B75" t="str">
         <v>0</v>
       </c>
       <c r="C75" t="str">
-        <v>5,189.64</v>
+        <v>564.59</v>
       </c>
       <c r="D75" t="str">
-        <v>5,909.98</v>
+        <v>563.3</v>
       </c>
       <c r="E75" t="str">
         <v>0</v>
@@ -27012,186 +31192,186 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
       </c>
       <c r="B76" t="str">
-        <v>98,963.1</v>
+        <v>698,360.93</v>
       </c>
       <c r="C76" t="str">
-        <v>98,963.1</v>
+        <v>698,360.93</v>
       </c>
       <c r="D76" t="str">
-        <v>94,158.28</v>
+        <v>347,917.12</v>
       </c>
       <c r="E76" t="str">
-        <v>18,541.24</v>
+        <v>348,845.35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+        <v>0xf78D0cdFB459eD9CC19eEb7c22B5F193d7662fcC</v>
       </c>
       <c r="B77" t="str">
-        <v>99,525.78</v>
+        <v>10,062.87</v>
       </c>
       <c r="C77" t="str">
-        <v>99,525.78</v>
+        <v>10,062.87</v>
       </c>
       <c r="D77" t="str">
-        <v>18,541.24</v>
+        <v>10,039.84</v>
       </c>
       <c r="E77" t="str">
-        <v>94,799.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>0x41382710CB3320194F0fb9Ef8e8531e0E291D740</v>
+        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
       </c>
       <c r="B78" t="str">
-        <v>953.27</v>
+        <v>1,257.98</v>
       </c>
       <c r="C78" t="str">
-        <v>953.27</v>
+        <v>1,257.98</v>
       </c>
       <c r="D78" t="str">
-        <v>0</v>
+        <v>1,255.11</v>
       </c>
       <c r="E78" t="str">
-        <v>1,085.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>0xFa544d034dC07aD4Fa185ba769031a29Fbef5e36</v>
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
       </c>
       <c r="B79" t="str">
-        <v>0</v>
+        <v>187.27</v>
       </c>
       <c r="C79" t="str">
-        <v>323.9</v>
+        <v>187.27</v>
       </c>
       <c r="D79" t="str">
-        <v>0</v>
+        <v>186.85</v>
       </c>
       <c r="E79" t="str">
-        <v>368.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
+        <v>0x95814b787287141C80e9917Ee9eC9B2F89275629</v>
       </c>
       <c r="B80" t="str">
-        <v>222.89</v>
+        <v>8,378.42</v>
       </c>
       <c r="C80" t="str">
-        <v>222.89</v>
+        <v>8,378.42</v>
       </c>
       <c r="D80" t="str">
-        <v>0</v>
+        <v>8,359.25</v>
       </c>
       <c r="E80" t="str">
-        <v>253.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+        <v>0xf941B6d81ff3BBc9E6eb182887a1FAE58fcE9fCE</v>
       </c>
       <c r="B81" t="str">
-        <v>4,767.32</v>
+        <v>57.28</v>
       </c>
       <c r="C81" t="str">
-        <v>4,767.32</v>
+        <v>57.28</v>
       </c>
       <c r="D81" t="str">
-        <v>0</v>
+        <v>57.15</v>
       </c>
       <c r="E81" t="str">
-        <v>5,429.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
       </c>
       <c r="B82" t="str">
-        <v>0</v>
+        <v>7,116.94</v>
       </c>
       <c r="C82" t="str">
-        <v>18,314.97</v>
+        <v>7,116.94</v>
       </c>
       <c r="D82" t="str">
         <v>0</v>
       </c>
       <c r="E82" t="str">
-        <v>20,857.15</v>
+        <v>7,100.66</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
+        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
       </c>
       <c r="B83" t="str">
-        <v>509.85</v>
+        <v>285.85</v>
       </c>
       <c r="C83" t="str">
-        <v>509.85</v>
+        <v>285.85</v>
       </c>
       <c r="D83" t="str">
-        <v>580.63</v>
+        <v>0</v>
       </c>
       <c r="E83" t="str">
-        <v>0</v>
+        <v>285.2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
       </c>
       <c r="B84" t="str">
-        <v>25,020.13</v>
+        <v>3,060.02</v>
       </c>
       <c r="C84" t="str">
-        <v>25,020.13</v>
+        <v>3,060.02</v>
       </c>
       <c r="D84" t="str">
-        <v>0</v>
+        <v>3,053.02</v>
       </c>
       <c r="E84" t="str">
-        <v>28,493.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
       </c>
       <c r="B85" t="str">
-        <v>0</v>
+        <v>3,060.02</v>
       </c>
       <c r="C85" t="str">
-        <v>25,985.91</v>
+        <v>3,060.02</v>
       </c>
       <c r="D85" t="str">
         <v>0</v>
       </c>
       <c r="E85" t="str">
-        <v>29,592.85</v>
+        <v>3,053.02</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>0xd092C607a92c75de3bB1240494C4822Bf3766D46</v>
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
       </c>
       <c r="B86" t="str">
-        <v>178.17</v>
+        <v>3,006.88</v>
       </c>
       <c r="C86" t="str">
-        <v>178.17</v>
+        <v>3,006.88</v>
       </c>
       <c r="D86" t="str">
-        <v>202.91</v>
+        <v>3,000</v>
       </c>
       <c r="E86" t="str">
         <v>0</v>
@@ -27199,16 +31379,16 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>0x75ac9574e8142636654713A984365e3E3427E31b</v>
+        <v>0xBb3123adaa39aA9b0Bf8c0374eab50353F479c97</v>
       </c>
       <c r="B87" t="str">
-        <v>560.56</v>
+        <v>5,326.99</v>
       </c>
       <c r="C87" t="str">
-        <v>560.56</v>
+        <v>5,326.99</v>
       </c>
       <c r="D87" t="str">
-        <v>638.37</v>
+        <v>5,314.8</v>
       </c>
       <c r="E87" t="str">
         <v>0</v>
@@ -27216,271 +31396,271 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+        <v>0xF1D275F804a6b3d3f75B7C08150178836E56dE8B</v>
       </c>
       <c r="B88" t="str">
-        <v>6,444.29</v>
+        <v>5,326.99</v>
       </c>
       <c r="C88" t="str">
-        <v>6,444.29</v>
+        <v>5,326.99</v>
       </c>
       <c r="D88" t="str">
-        <v>91.18</v>
+        <v>0</v>
       </c>
       <c r="E88" t="str">
-        <v>7,247.6</v>
+        <v>5,314.8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
       </c>
       <c r="B89" t="str">
-        <v>68,777.59</v>
+        <v>2,244.75</v>
       </c>
       <c r="C89" t="str">
-        <v>68,777.59</v>
+        <v>2,244.75</v>
       </c>
       <c r="D89" t="str">
-        <v>5,000</v>
+        <v>0</v>
       </c>
       <c r="E89" t="str">
-        <v>73,324.16</v>
+        <v>2,239.62</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>0x96f194Cf1c9e5eE23B4D96785791F468F6A9C98e</v>
+        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
       </c>
       <c r="B90" t="str">
-        <v>4,390.57</v>
+        <v>8,858.58</v>
       </c>
       <c r="C90" t="str">
-        <v>4,390.57</v>
+        <v>8,858.58</v>
       </c>
       <c r="D90" t="str">
-        <v>0</v>
+        <v>5,453.38</v>
       </c>
       <c r="E90" t="str">
-        <v>5,000</v>
+        <v>3,384.93</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>0xA271d7ad0ce0b28cdc464dfD5F3A66B4d55B5Acc</v>
+        <v>0xC090D9F71184D03568485a351456C570ff9F9Cbf</v>
       </c>
       <c r="B91" t="str">
-        <v>363.67</v>
+        <v>5,465.89</v>
       </c>
       <c r="C91" t="str">
-        <v>363.67</v>
+        <v>5,465.89</v>
       </c>
       <c r="D91" t="str">
-        <v>414.15</v>
+        <v>0</v>
       </c>
       <c r="E91" t="str">
-        <v>0</v>
+        <v>5,453.38</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>0xE3c3CD768EF78506A37144Ce83b1f34af56A89D5</v>
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
       </c>
       <c r="B92" t="str">
-        <v>363.67</v>
+        <v>0</v>
       </c>
       <c r="C92" t="str">
-        <v>363.67</v>
+        <v>13,555.05</v>
       </c>
       <c r="D92" t="str">
         <v>0</v>
       </c>
       <c r="E92" t="str">
-        <v>414.15</v>
+        <v>13,524.03</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
+        <v>0x98085d3327429Fc85f875e6baE8498EbC336eD97</v>
       </c>
       <c r="B93" t="str">
-        <v>1,343.91</v>
+        <v>26,880.16</v>
       </c>
       <c r="C93" t="str">
-        <v>1,343.91</v>
+        <v>26,880.16</v>
       </c>
       <c r="D93" t="str">
-        <v>1,005.46</v>
+        <v>26,818.64</v>
       </c>
       <c r="E93" t="str">
-        <v>525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>0xf90518CBcd4ef086891cb22C87bd4F80B61a7081</v>
+        <v>0xF56A7C0C4f08356F9987Ef2C02f2034FD7F8608C</v>
       </c>
       <c r="B94" t="str">
-        <v>5,704.56</v>
+        <v>26,880.16</v>
       </c>
       <c r="C94" t="str">
-        <v>5,704.56</v>
+        <v>26,880.16</v>
       </c>
       <c r="D94" t="str">
-        <v>6,136.74</v>
+        <v>0</v>
       </c>
       <c r="E94" t="str">
-        <v>359.64</v>
+        <v>26,818.64</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>0xD53314Cd179ccD3926Af264e62E3B6dAB06A6419</v>
+        <v>0x436aCB00107faBb69b486e2C7F4654bB37b02c41</v>
       </c>
       <c r="B95" t="str">
-        <v>5,704.56</v>
+        <v>5,270.28</v>
       </c>
       <c r="C95" t="str">
-        <v>5,704.56</v>
+        <v>5,270.28</v>
       </c>
       <c r="D95" t="str">
-        <v>359.64</v>
+        <v>5,258.22</v>
       </c>
       <c r="E95" t="str">
-        <v>6,136.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
+        <v>0x62Ff55e86d95A460a661929d6D125139bB7DCF7b</v>
       </c>
       <c r="B96" t="str">
-        <v>1,856.03</v>
+        <v>53,151.02</v>
       </c>
       <c r="C96" t="str">
-        <v>1,856.03</v>
+        <v>53,151.02</v>
       </c>
       <c r="D96" t="str">
-        <v>1,997.19</v>
+        <v>0</v>
       </c>
       <c r="E96" t="str">
-        <v>116.47</v>
+        <v>53,029.37</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>0xC624151fAE86ae8E697A0ee14A07C1B78Cc04Ae1</v>
+        <v>0x406d01fbF31Aeb1953b3c8F1E98aAE2BA6e8329a</v>
       </c>
       <c r="B97" t="str">
-        <v>60.01</v>
+        <v>172.04</v>
       </c>
       <c r="C97" t="str">
-        <v>60.01</v>
+        <v>172.04</v>
       </c>
       <c r="D97" t="str">
-        <v>68.34</v>
+        <v>0</v>
       </c>
       <c r="E97" t="str">
-        <v>0</v>
+        <v>171.65</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>0x3ff6b69e12e8883f31Da74dBdfAeC4c0e23E20aE</v>
+        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
       </c>
       <c r="B98" t="str">
-        <v>60.01</v>
+        <v>236.46</v>
       </c>
       <c r="C98" t="str">
-        <v>60.01</v>
+        <v>236.46</v>
       </c>
       <c r="D98" t="str">
-        <v>0</v>
+        <v>235.92</v>
       </c>
       <c r="E98" t="str">
-        <v>68.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
       </c>
       <c r="B99" t="str">
-        <v>5,056.95</v>
+        <v>236.46</v>
       </c>
       <c r="C99" t="str">
-        <v>5,056.95</v>
+        <v>236.46</v>
       </c>
       <c r="D99" t="str">
         <v>0</v>
       </c>
       <c r="E99" t="str">
-        <v>5,758.88</v>
+        <v>235.92</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
+        <v>0xF2Aa3A5Df3Af1eD5ff72631A8bcFF0F0AfE060eC</v>
       </c>
       <c r="B100" t="str">
-        <v>316.11</v>
+        <v>176.48</v>
       </c>
       <c r="C100" t="str">
-        <v>316.11</v>
+        <v>176.48</v>
       </c>
       <c r="D100" t="str">
-        <v>105.1</v>
+        <v>23.76</v>
       </c>
       <c r="E100" t="str">
-        <v>254.89</v>
+        <v>152.32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
+        <v>0xc01bdF2F593bbbFe1e15540c818c57f919466D7B</v>
       </c>
       <c r="B101" t="str">
-        <v>316.11</v>
+        <v>210.89</v>
       </c>
       <c r="C101" t="str">
-        <v>316.11</v>
+        <v>210.89</v>
       </c>
       <c r="D101" t="str">
-        <v>254.89</v>
+        <v>152.32</v>
       </c>
       <c r="E101" t="str">
-        <v>105.1</v>
+        <v>58.09</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>0xD6C80eeC795F0564D20d517dd742dC6cD2Bf2EE0</v>
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
       </c>
       <c r="B102" t="str">
-        <v>50.75</v>
+        <v>251.74</v>
       </c>
       <c r="C102" t="str">
-        <v>50.75</v>
+        <v>251.74</v>
       </c>
       <c r="D102" t="str">
-        <v>57.8</v>
+        <v>0</v>
       </c>
       <c r="E102" t="str">
-        <v>0</v>
+        <v>251.17</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+        <v>0x8D61A43F4D07a78132D5239D5B84e3D46205bED2</v>
       </c>
       <c r="B103" t="str">
-        <v>562.67</v>
+        <v>74.07</v>
       </c>
       <c r="C103" t="str">
-        <v>562.67</v>
+        <v>74.07</v>
       </c>
       <c r="D103" t="str">
-        <v>640.78</v>
+        <v>73.91</v>
       </c>
       <c r="E103" t="str">
         <v>0</v>
@@ -27488,84 +31668,84 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>0x9C4e5edC6A735e4AB68ef04497b64008A955A1A5</v>
+        <v>0xC65cA88Bd73441A540590CB547F978afe8d503bb</v>
       </c>
       <c r="B104" t="str">
-        <v>1,842.04</v>
+        <v>1,413.54</v>
       </c>
       <c r="C104" t="str">
-        <v>1,842.04</v>
+        <v>1,413.54</v>
       </c>
       <c r="D104" t="str">
-        <v>0</v>
+        <v>1,410.31</v>
       </c>
       <c r="E104" t="str">
-        <v>2,097.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
       </c>
       <c r="B105" t="str">
-        <v>88,489.86</v>
+        <v>10,045.88</v>
       </c>
       <c r="C105" t="str">
-        <v>88,489.86</v>
+        <v>10,045.88</v>
       </c>
       <c r="D105" t="str">
-        <v>0</v>
+        <v>10,022.89</v>
       </c>
       <c r="E105" t="str">
-        <v>100,772.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>0x8f1928e8FEa7238b9B53A7E62AFd471b69732a66</v>
+        <v>0xDd7e4E36199cC322cb61758F13708b3bC95A688c</v>
       </c>
       <c r="B106" t="str">
-        <v>433.49</v>
+        <v>607.04</v>
       </c>
       <c r="C106" t="str">
-        <v>433.49</v>
+        <v>607.04</v>
       </c>
       <c r="D106" t="str">
-        <v>367.77</v>
+        <v>605.66</v>
       </c>
       <c r="E106" t="str">
-        <v>125.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>0x5390651dd0824159FE0e82554feC7b283bCa3745</v>
+        <v>0xf1e040d8043313C798715a5B6eAC5cfdd102A11c</v>
       </c>
       <c r="B107" t="str">
-        <v>322.94</v>
+        <v>57.97</v>
       </c>
       <c r="C107" t="str">
-        <v>322.94</v>
+        <v>57.97</v>
       </c>
       <c r="D107" t="str">
-        <v>0</v>
+        <v>57.84</v>
       </c>
       <c r="E107" t="str">
-        <v>367.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
+        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
       </c>
       <c r="B108" t="str">
-        <v>365.18</v>
+        <v>115.8</v>
       </c>
       <c r="C108" t="str">
-        <v>365.18</v>
+        <v>115.8</v>
       </c>
       <c r="D108" t="str">
-        <v>415.87</v>
+        <v>115.54</v>
       </c>
       <c r="E108" t="str">
         <v>0</v>
@@ -27573,67 +31753,67 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
+        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
       </c>
       <c r="B109" t="str">
-        <v>9,938.42</v>
+        <v>14,296.99</v>
       </c>
       <c r="C109" t="str">
-        <v>9,938.42</v>
+        <v>14,296.99</v>
       </c>
       <c r="D109" t="str">
-        <v>8,319.06</v>
+        <v>14,264.27</v>
       </c>
       <c r="E109" t="str">
-        <v>2,998.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
+        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
       </c>
       <c r="B110" t="str">
-        <v>4,085.7</v>
+        <v>28.54</v>
       </c>
       <c r="C110" t="str">
-        <v>4,085.7</v>
+        <v>28.54</v>
       </c>
       <c r="D110" t="str">
-        <v>4,652.81</v>
+        <v>0</v>
       </c>
       <c r="E110" t="str">
-        <v>0</v>
+        <v>28.48</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
+        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
       </c>
       <c r="B111" t="str">
-        <v>4,085.7</v>
+        <v>0</v>
       </c>
       <c r="C111" t="str">
-        <v>4,085.7</v>
+        <v>721.28</v>
       </c>
       <c r="D111" t="str">
-        <v>0</v>
+        <v>719.63</v>
       </c>
       <c r="E111" t="str">
-        <v>4,652.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>0x6072640cFeFf7317C367B3648AcA357eD459d4fd</v>
+        <v>0xaFAEB333D506430E09C773aCe6F9b6a8389e14B6</v>
       </c>
       <c r="B112" t="str">
-        <v>139</v>
+        <v>3,392.69</v>
       </c>
       <c r="C112" t="str">
-        <v>139</v>
+        <v>3,392.69</v>
       </c>
       <c r="D112" t="str">
-        <v>158.3</v>
+        <v>3,384.93</v>
       </c>
       <c r="E112" t="str">
         <v>0</v>
@@ -27641,33 +31821,33 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>0x0254704C23C4765496894a632ef28d6be4DCB259</v>
+        <v>0x280a3925f1fAD53B5a263fFc0028Fbab9abE6131</v>
       </c>
       <c r="B113" t="str">
-        <v>14,383.59</v>
+        <v>9,954.4</v>
       </c>
       <c r="C113" t="str">
-        <v>14,383.59</v>
+        <v>9,954.4</v>
       </c>
       <c r="D113" t="str">
-        <v>16,380.09</v>
+        <v>6,916.89</v>
       </c>
       <c r="E113" t="str">
-        <v>0</v>
+        <v>3,014.73</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
+        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
       </c>
       <c r="B114" t="str">
-        <v>6,534.7</v>
+        <v>117,695.98</v>
       </c>
       <c r="C114" t="str">
-        <v>6,534.7</v>
+        <v>117,695.98</v>
       </c>
       <c r="D114" t="str">
-        <v>7,441.74</v>
+        <v>117,426.59</v>
       </c>
       <c r="E114" t="str">
         <v>0</v>
@@ -27675,16 +31855,16 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
+        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
       </c>
       <c r="B115" t="str">
-        <v>5,560.38</v>
+        <v>106.6</v>
       </c>
       <c r="C115" t="str">
-        <v>5,560.38</v>
+        <v>106.6</v>
       </c>
       <c r="D115" t="str">
-        <v>6,332.18</v>
+        <v>106.36</v>
       </c>
       <c r="E115" t="str">
         <v>0</v>
@@ -27692,271 +31872,271 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
       </c>
       <c r="B116" t="str">
-        <v>0</v>
+        <v>2,559.34</v>
       </c>
       <c r="C116" t="str">
-        <v>5,560.38</v>
+        <v>2,559.34</v>
       </c>
       <c r="D116" t="str">
-        <v>0</v>
+        <v>2,553.49</v>
       </c>
       <c r="E116" t="str">
-        <v>6,332.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>0xf0eeE0837e8F4feaC444412991f7005B8dFFa305</v>
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
       </c>
       <c r="B117" t="str">
-        <v>528.35</v>
+        <v>1,141.03</v>
       </c>
       <c r="C117" t="str">
-        <v>528.35</v>
+        <v>1,141.03</v>
       </c>
       <c r="D117" t="str">
         <v>0</v>
       </c>
       <c r="E117" t="str">
-        <v>601.69</v>
+        <v>1,138.42</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>0xa6A4BE6499cfdd7E94Cd1BF5498533FdCbb6CE5d</v>
+        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
       </c>
       <c r="B118" t="str">
-        <v>8,511.41</v>
+        <v>345.58</v>
       </c>
       <c r="C118" t="str">
-        <v>8,511.41</v>
+        <v>345.58</v>
       </c>
       <c r="D118" t="str">
-        <v>8,414.32</v>
+        <v>0</v>
       </c>
       <c r="E118" t="str">
-        <v>1,278.51</v>
+        <v>344.79</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
       </c>
       <c r="B119" t="str">
-        <v>11,958.44</v>
+        <v>25,631.51</v>
       </c>
       <c r="C119" t="str">
-        <v>11,958.44</v>
+        <v>25,631.51</v>
       </c>
       <c r="D119" t="str">
-        <v>2,202.1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="str">
-        <v>11,416.22</v>
+        <v>25,572.85</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
+        <v>0x75E0f59BC838EfBdCE76EaC57c8F4C41F23e2905</v>
       </c>
       <c r="B120" t="str">
-        <v>133.93</v>
+        <v>37.21</v>
       </c>
       <c r="C120" t="str">
-        <v>133.93</v>
+        <v>37.21</v>
       </c>
       <c r="D120" t="str">
         <v>0</v>
       </c>
       <c r="E120" t="str">
-        <v>152.52</v>
+        <v>37.13</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
+        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
       </c>
       <c r="B121" t="str">
-        <v>750.17</v>
+        <v>50.11</v>
       </c>
       <c r="C121" t="str">
-        <v>750.17</v>
+        <v>50.11</v>
       </c>
       <c r="D121" t="str">
-        <v>854.3</v>
+        <v>0</v>
       </c>
       <c r="E121" t="str">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>0x9c6E23aC65D33b747B8c56C04db77d836c41Faf5</v>
+        <v>0xD53314Cd179ccD3926Af264e62E3B6dAB06A6419</v>
       </c>
       <c r="B122" t="str">
-        <v>1,104.76</v>
+        <v>344.44</v>
       </c>
       <c r="C122" t="str">
-        <v>1,104.76</v>
+        <v>344.44</v>
       </c>
       <c r="D122" t="str">
-        <v>0</v>
+        <v>343.66</v>
       </c>
       <c r="E122" t="str">
-        <v>1,258.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>0x15E0239Bf3796e1e1eCbf911113eac89C0Db15d1</v>
+        <v>0xf90518CBcd4ef086891cb22C87bd4F80B61a7081</v>
       </c>
       <c r="B123" t="str">
-        <v>202.31</v>
+        <v>344.44</v>
       </c>
       <c r="C123" t="str">
-        <v>202.31</v>
+        <v>344.44</v>
       </c>
       <c r="D123" t="str">
-        <v>230.4</v>
+        <v>0</v>
       </c>
       <c r="E123" t="str">
-        <v>0</v>
+        <v>343.66</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>0x34F7C6378a4D0F3FB021594E337e727f5E23f53A</v>
+        <v>0x4FDC77D8fFDD4F8a3CbFc3De2886DfEE1FD5112f</v>
       </c>
       <c r="B124" t="str">
-        <v>202.31</v>
+        <v>0</v>
       </c>
       <c r="C124" t="str">
-        <v>202.31</v>
+        <v>172.22</v>
       </c>
       <c r="D124" t="str">
-        <v>0</v>
+        <v>171.83</v>
       </c>
       <c r="E124" t="str">
-        <v>230.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>0x1D712193A96B4d9D4eC32108cfcde704AC9CCC9C</v>
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
       </c>
       <c r="B125" t="str">
-        <v>101.09</v>
+        <v>0</v>
       </c>
       <c r="C125" t="str">
-        <v>101.09</v>
+        <v>6,038.23</v>
       </c>
       <c r="D125" t="str">
-        <v>115.13</v>
+        <v>0</v>
       </c>
       <c r="E125" t="str">
-        <v>0</v>
+        <v>6,024.41</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>0xfA9FBD6360692a1b23b84A9dDFf63ed77faF58c9</v>
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
       </c>
       <c r="B126" t="str">
-        <v>266.71</v>
+        <v>4,426.99</v>
       </c>
       <c r="C126" t="str">
-        <v>266.71</v>
+        <v>4,426.99</v>
       </c>
       <c r="D126" t="str">
-        <v>0</v>
+        <v>4,416.86</v>
       </c>
       <c r="E126" t="str">
-        <v>303.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>0x000648b3abCcEbdEEA6594FdEC3741c54D75e21F</v>
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
       </c>
       <c r="B127" t="str">
-        <v>7,305.08</v>
+        <v>274.5</v>
       </c>
       <c r="C127" t="str">
-        <v>7,305.08</v>
+        <v>274.5</v>
       </c>
       <c r="D127" t="str">
         <v>0</v>
       </c>
       <c r="E127" t="str">
-        <v>8,319.06</v>
+        <v>273.88</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>0xeB0F9489F9aeFB6Bbd8d7f1cc3620898E30b49c0</v>
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
       </c>
       <c r="B128" t="str">
-        <v>439.05</v>
+        <v>697,619.5</v>
       </c>
       <c r="C128" t="str">
-        <v>439.05</v>
+        <v>697,619.5</v>
       </c>
       <c r="D128" t="str">
-        <v>0</v>
+        <v>348,105.62</v>
       </c>
       <c r="E128" t="str">
-        <v>500</v>
+        <v>347,917.12</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
       </c>
       <c r="B129" t="str">
-        <v>50.39</v>
+        <v>13,551.24</v>
       </c>
       <c r="C129" t="str">
-        <v>50.39</v>
+        <v>13,551.24</v>
       </c>
       <c r="D129" t="str">
-        <v>0</v>
+        <v>13,520.23</v>
       </c>
       <c r="E129" t="str">
-        <v>57.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
+        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
       </c>
       <c r="B130" t="str">
-        <v>884.39</v>
+        <v>13,551.24</v>
       </c>
       <c r="C130" t="str">
-        <v>884.39</v>
+        <v>13,551.24</v>
       </c>
       <c r="D130" t="str">
-        <v>1,007.15</v>
+        <v>0</v>
       </c>
       <c r="E130" t="str">
-        <v>0</v>
+        <v>13,520.23</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>0x8a3B39c36e88E3BE71B960cFBe2e4F66dB890E42</v>
+        <v>0x4CEbE974145E6796dB356F3689082D2d1eEf02Bf</v>
       </c>
       <c r="B131" t="str">
-        <v>0</v>
+        <v>45.1</v>
       </c>
       <c r="C131" t="str">
-        <v>3,081.63</v>
+        <v>45.1</v>
       </c>
       <c r="D131" t="str">
-        <v>3,509.38</v>
+        <v>45</v>
       </c>
       <c r="E131" t="str">
         <v>0</v>
@@ -27964,288 +32144,288 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>0xc01bdF2F593bbbFe1e15540c818c57f919466D7B</v>
+        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
       </c>
       <c r="B132" t="str">
-        <v>1,079.89</v>
+        <v>2,248.7</v>
       </c>
       <c r="C132" t="str">
-        <v>1,079.89</v>
+        <v>2,248.7</v>
       </c>
       <c r="D132" t="str">
-        <v>914.1</v>
+        <v>0</v>
       </c>
       <c r="E132" t="str">
-        <v>315.69</v>
+        <v>2,243.56</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
+        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
       </c>
       <c r="B133" t="str">
-        <v>131.71</v>
+        <v>22,011.91</v>
       </c>
       <c r="C133" t="str">
-        <v>131.71</v>
+        <v>22,011.91</v>
       </c>
       <c r="D133" t="str">
-        <v>0</v>
+        <v>21,961.53</v>
       </c>
       <c r="E133" t="str">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>0x094CAE95AB3744453Cf7Ce9251dFDD816C3C810E</v>
+        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
       </c>
       <c r="B134" t="str">
-        <v>52.12</v>
+        <v>11.82</v>
       </c>
       <c r="C134" t="str">
-        <v>52.12</v>
+        <v>11.82</v>
       </c>
       <c r="D134" t="str">
-        <v>59.36</v>
+        <v>0</v>
       </c>
       <c r="E134" t="str">
-        <v>0</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>0xec3348378419042E91B221137855B5412F78A539</v>
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
       </c>
       <c r="B135" t="str">
-        <v>2,241.97</v>
+        <v>76.34</v>
       </c>
       <c r="C135" t="str">
-        <v>2,241.97</v>
+        <v>76.34</v>
       </c>
       <c r="D135" t="str">
-        <v>2,553.17</v>
+        <v>0</v>
       </c>
       <c r="E135" t="str">
-        <v>0</v>
+        <v>76.17</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>0x7DE25BC41EfeD6Ee6d903Fc161C905D2fcb72Fff</v>
+        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
       </c>
       <c r="B136" t="str">
-        <v>156.15</v>
+        <v>21,289.99</v>
       </c>
       <c r="C136" t="str">
-        <v>156.15</v>
+        <v>21,289.99</v>
       </c>
       <c r="D136" t="str">
-        <v>177.83</v>
+        <v>0</v>
       </c>
       <c r="E136" t="str">
-        <v>0</v>
+        <v>21,241.26</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+        <v>0xedaa63C95A0faB8e7Dc7A710f8b9Aa6ee461dAC7</v>
       </c>
       <c r="B137" t="str">
-        <v>988.9</v>
+        <v>9,858.22</v>
       </c>
       <c r="C137" t="str">
-        <v>988.9</v>
+        <v>9,858.22</v>
       </c>
       <c r="D137" t="str">
-        <v>0</v>
+        <v>9,835.66</v>
       </c>
       <c r="E137" t="str">
-        <v>1,126.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>0x262ba7354bA2946de8f90dCe06883FaFebB6f043</v>
+        <v>0x1f259F3A113a0bA97084152Bd93C80d90752c896</v>
       </c>
       <c r="B138" t="str">
-        <v>8,502.34</v>
+        <v>23.93</v>
       </c>
       <c r="C138" t="str">
-        <v>8,502.34</v>
+        <v>23.93</v>
       </c>
       <c r="D138" t="str">
-        <v>0</v>
+        <v>23.88</v>
       </c>
       <c r="E138" t="str">
-        <v>9,682.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
       </c>
       <c r="B139" t="str">
-        <v>58.5</v>
+        <v>1,002.29</v>
       </c>
       <c r="C139" t="str">
-        <v>58.5</v>
+        <v>1,002.29</v>
       </c>
       <c r="D139" t="str">
-        <v>66.63</v>
+        <v>0</v>
       </c>
       <c r="E139" t="str">
-        <v>0</v>
+        <v>1,000</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>0xdE976b1178696723F86102aaf17Ddd70522908dA</v>
+        <v>0x2fA11c3F698BEb911d823D62be4AdFf5b6F82671</v>
       </c>
       <c r="B140" t="str">
-        <v>562.52</v>
+        <v>7,596.53</v>
       </c>
       <c r="C140" t="str">
-        <v>562.52</v>
+        <v>7,596.53</v>
       </c>
       <c r="D140" t="str">
-        <v>603.27</v>
+        <v>7,579.15</v>
       </c>
       <c r="E140" t="str">
-        <v>37.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+        <v>0x8Ad7B9763377E32645D8C7Da41e28F0800a831bB</v>
       </c>
       <c r="B141" t="str">
-        <v>21,763.59</v>
+        <v>7,596.53</v>
       </c>
       <c r="C141" t="str">
-        <v>21,763.59</v>
+        <v>7,596.53</v>
       </c>
       <c r="D141" t="str">
         <v>0</v>
       </c>
       <c r="E141" t="str">
-        <v>24,784.46</v>
+        <v>7,579.15</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+        <v>0x1D712193A96B4d9D4eC32108cfcde704AC9CCC9C</v>
       </c>
       <c r="B142" t="str">
-        <v>349.81</v>
+        <v>252.06</v>
       </c>
       <c r="C142" t="str">
-        <v>349.81</v>
+        <v>252.06</v>
       </c>
       <c r="D142" t="str">
-        <v>313.35</v>
+        <v>251.49</v>
       </c>
       <c r="E142" t="str">
-        <v>85.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
       </c>
       <c r="B143" t="str">
-        <v>275.15</v>
+        <v>125.92</v>
       </c>
       <c r="C143" t="str">
-        <v>275.15</v>
+        <v>125.92</v>
       </c>
       <c r="D143" t="str">
-        <v>0</v>
+        <v>125.64</v>
       </c>
       <c r="E143" t="str">
-        <v>313.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>0x09aFEC89b908C2cbD220942f3788530C195Ba894</v>
+        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
       </c>
       <c r="B144" t="str">
-        <v>342.46</v>
+        <v>770.36</v>
       </c>
       <c r="C144" t="str">
-        <v>342.46</v>
+        <v>770.36</v>
       </c>
       <c r="D144" t="str">
-        <v>0</v>
+        <v>479.35</v>
       </c>
       <c r="E144" t="str">
-        <v>390</v>
+        <v>289.25</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>0x62Ff55e86d95A460a661929d6D125139bB7DCF7b</v>
+        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
       </c>
       <c r="B145" t="str">
-        <v>25,945.69</v>
+        <v>1,507.59</v>
       </c>
       <c r="C145" t="str">
-        <v>25,945.69</v>
+        <v>1,507.59</v>
       </c>
       <c r="D145" t="str">
         <v>0</v>
       </c>
       <c r="E145" t="str">
-        <v>29,547.05</v>
+        <v>1,504.14</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
       </c>
       <c r="B146" t="str">
-        <v>1,572.1</v>
+        <v>250.86</v>
       </c>
       <c r="C146" t="str">
-        <v>1,572.1</v>
+        <v>250.86</v>
       </c>
       <c r="D146" t="str">
-        <v>1,790.32</v>
+        <v>0</v>
       </c>
       <c r="E146" t="str">
-        <v>0</v>
+        <v>250.29</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>0x1A24A8CDa46ACac40606af1D233dAfF9AEe66e2f</v>
+        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
       </c>
       <c r="B147" t="str">
-        <v>8,223.57</v>
+        <v>261.25</v>
       </c>
       <c r="C147" t="str">
-        <v>8,223.57</v>
+        <v>261.25</v>
       </c>
       <c r="D147" t="str">
         <v>0</v>
       </c>
       <c r="E147" t="str">
-        <v>9,365.03</v>
+        <v>260.66</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>0xBb3123adaa39aA9b0Bf8c0374eab50353F479c97</v>
+        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
       </c>
       <c r="B148" t="str">
-        <v>6,542.06</v>
+        <v>0</v>
       </c>
       <c r="C148" t="str">
-        <v>6,542.06</v>
+        <v>310.66</v>
       </c>
       <c r="D148" t="str">
-        <v>7,450.13</v>
+        <v>309.95</v>
       </c>
       <c r="E148" t="str">
         <v>0</v>
@@ -28253,33 +32433,33 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>0xF1D275F804a6b3d3f75B7C08150178836E56dE8B</v>
+        <v>0x28207aadAe97226F70a54c25d16692197c062898</v>
       </c>
       <c r="B149" t="str">
-        <v>6,542.06</v>
+        <v>4,229.87</v>
       </c>
       <c r="C149" t="str">
-        <v>6,542.06</v>
+        <v>4,229.87</v>
       </c>
       <c r="D149" t="str">
-        <v>0</v>
+        <v>4,220.19</v>
       </c>
       <c r="E149" t="str">
-        <v>7,450.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>0x487EE46941931178c481a9fA3Eeb2016E2B0CBdA</v>
+        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
       </c>
       <c r="B150" t="str">
-        <v>154.33</v>
+        <v>240.16</v>
       </c>
       <c r="C150" t="str">
-        <v>154.33</v>
+        <v>240.16</v>
       </c>
       <c r="D150" t="str">
-        <v>175.76</v>
+        <v>239.62</v>
       </c>
       <c r="E150" t="str">
         <v>0</v>
@@ -28287,50 +32467,50 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
+        <v>0xc677a6C972baeCe4Bf9C0a2EbB600886F0300a7D</v>
       </c>
       <c r="B151" t="str">
-        <v>58.38</v>
+        <v>27,703.99</v>
       </c>
       <c r="C151" t="str">
-        <v>58.38</v>
+        <v>27,703.99</v>
       </c>
       <c r="D151" t="str">
-        <v>0</v>
+        <v>27,640.58</v>
       </c>
       <c r="E151" t="str">
-        <v>66.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>0x7aa90dE22D64831e54DA455A90621560f1bC97a2</v>
+        <v>0x0feD39AC6093e042825EfE8862f37dc8425B8f74</v>
       </c>
       <c r="B152" t="str">
-        <v>1,376.54</v>
+        <v>453.43</v>
       </c>
       <c r="C152" t="str">
-        <v>1,376.54</v>
+        <v>453.43</v>
       </c>
       <c r="D152" t="str">
-        <v>326.89</v>
+        <v>0</v>
       </c>
       <c r="E152" t="str">
-        <v>1,240.72</v>
+        <v>452.4</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
+        <v>0x212A3caD6d1572C706959d2aeF63071e61914bf2</v>
       </c>
       <c r="B153" t="str">
-        <v>1,084.41</v>
+        <v>594.88</v>
       </c>
       <c r="C153" t="str">
-        <v>1,084.41</v>
+        <v>594.88</v>
       </c>
       <c r="D153" t="str">
-        <v>1,234.94</v>
+        <v>593.52</v>
       </c>
       <c r="E153" t="str">
         <v>0</v>
@@ -28338,67 +32518,67 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>0xE67c4FDDfE95e21287889B41cA419A5896b36D22</v>
+        <v>0xF1ea664AbbA3452bc6cA6B289a6059613855805B</v>
       </c>
       <c r="B154" t="str">
-        <v>542.05</v>
+        <v>594.88</v>
       </c>
       <c r="C154" t="str">
-        <v>542.05</v>
+        <v>594.88</v>
       </c>
       <c r="D154" t="str">
-        <v>617.29</v>
+        <v>0</v>
       </c>
       <c r="E154" t="str">
-        <v>0</v>
+        <v>593.52</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>0xa5d134A404FBAe6B980D22C2A1be268a1a995F6C</v>
+        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
       </c>
       <c r="B155" t="str">
-        <v>291.16</v>
+        <v>681.91</v>
       </c>
       <c r="C155" t="str">
-        <v>291.16</v>
+        <v>681.91</v>
       </c>
       <c r="D155" t="str">
-        <v>331.58</v>
+        <v>265.35</v>
       </c>
       <c r="E155" t="str">
-        <v>0</v>
+        <v>415</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
+        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
       </c>
       <c r="B156" t="str">
-        <v>1,015.34</v>
+        <v>681.91</v>
       </c>
       <c r="C156" t="str">
-        <v>1,015.34</v>
+        <v>681.91</v>
       </c>
       <c r="D156" t="str">
-        <v>1,156.28</v>
+        <v>415</v>
       </c>
       <c r="E156" t="str">
-        <v>0</v>
+        <v>265.35</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
+        <v>0xD4588f639D5C9E922a3283E013D58a115911c63c</v>
       </c>
       <c r="B157" t="str">
-        <v>0</v>
+        <v>234.77</v>
       </c>
       <c r="C157" t="str">
-        <v>3,744.41</v>
+        <v>234.77</v>
       </c>
       <c r="D157" t="str">
-        <v>4,264.15</v>
+        <v>234.24</v>
       </c>
       <c r="E157" t="str">
         <v>0</v>
@@ -28406,118 +32586,118 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
+        <v>0xc4a806D25d423059bb2E5D6aFc7dC5E046518E15</v>
       </c>
       <c r="B158" t="str">
-        <v>6,271.06</v>
+        <v>5,765.12</v>
       </c>
       <c r="C158" t="str">
-        <v>6,271.06</v>
+        <v>5,765.12</v>
       </c>
       <c r="D158" t="str">
-        <v>7,141.51</v>
+        <v>0</v>
       </c>
       <c r="E158" t="str">
-        <v>0</v>
+        <v>5,751.93</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>0x10C629454B361De9d161491cBd0fd4F0Bf1c1B0A</v>
+        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
       </c>
       <c r="B159" t="str">
-        <v>1,753.76</v>
+        <v>0</v>
       </c>
       <c r="C159" t="str">
-        <v>1,753.76</v>
+        <v>6.97</v>
       </c>
       <c r="D159" t="str">
         <v>0</v>
       </c>
       <c r="E159" t="str">
-        <v>1,997.19</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>0x7c7e966dB11308a39Eb64Ae1e3779DD9Cce3E38f</v>
+        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
       </c>
       <c r="B160" t="str">
-        <v>18.15</v>
+        <v>6,971.73</v>
       </c>
       <c r="C160" t="str">
-        <v>18.15</v>
+        <v>6,971.73</v>
       </c>
       <c r="D160" t="str">
-        <v>20.67</v>
+        <v>0</v>
       </c>
       <c r="E160" t="str">
-        <v>0</v>
+        <v>6,955.78</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>0x5C569dC00640a1bD6BCbDd9629Aa6Da1c358BD2a</v>
+        <v>0xD51a57fa53a22A063088950FfB92ddAFFa214141</v>
       </c>
       <c r="B161" t="str">
-        <v>18.15</v>
+        <v>375.86</v>
       </c>
       <c r="C161" t="str">
-        <v>18.15</v>
+        <v>375.86</v>
       </c>
       <c r="D161" t="str">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="E161" t="str">
-        <v>20.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
+        <v>0x04BA03baabB1e9221520fD9c31505a0d4c073167</v>
       </c>
       <c r="B162" t="str">
-        <v>351.16</v>
+        <v>375.86</v>
       </c>
       <c r="C162" t="str">
-        <v>351.16</v>
+        <v>375.86</v>
       </c>
       <c r="D162" t="str">
         <v>0</v>
       </c>
       <c r="E162" t="str">
-        <v>399.91</v>
+        <v>375</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+        <v>0x094CAE95AB3744453Cf7Ce9251dFDD816C3C810E</v>
       </c>
       <c r="B163" t="str">
-        <v>733,083.86</v>
+        <v>117.53</v>
       </c>
       <c r="C163" t="str">
-        <v>733,083.86</v>
+        <v>117.53</v>
       </c>
       <c r="D163" t="str">
-        <v>417,379.59</v>
+        <v>117.27</v>
       </c>
       <c r="E163" t="str">
-        <v>417,458.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+        <v>0xE77dF488D556c00355342b8Be573702011C86750</v>
       </c>
       <c r="B164" t="str">
-        <v>1,122.67</v>
+        <v>179.53</v>
       </c>
       <c r="C164" t="str">
-        <v>1,122.67</v>
+        <v>179.53</v>
       </c>
       <c r="D164" t="str">
-        <v>1,278.51</v>
+        <v>179.12</v>
       </c>
       <c r="E164" t="str">
         <v>0</v>
@@ -28525,33 +32705,33 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+        <v>0xcE1290F5457067497EAd8Aea22515d52ca94357E</v>
       </c>
       <c r="B165" t="str">
-        <v>143.87</v>
+        <v>118.29</v>
       </c>
       <c r="C165" t="str">
-        <v>143.87</v>
+        <v>118.29</v>
       </c>
       <c r="D165" t="str">
         <v>0</v>
       </c>
       <c r="E165" t="str">
-        <v>163.84</v>
+        <v>118.02</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>0x69f96f2A5Cdd84E574dB2a353880095988243417</v>
+        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
       </c>
       <c r="B166" t="str">
-        <v>0</v>
+        <v>120.74</v>
       </c>
       <c r="C166" t="str">
-        <v>1,940.65</v>
+        <v>120.74</v>
       </c>
       <c r="D166" t="str">
-        <v>2,210.02</v>
+        <v>120.47</v>
       </c>
       <c r="E166" t="str">
         <v>0</v>
@@ -28559,101 +32739,101 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>0x9dC9384487647375e43dcc32D979F48263EccDdE</v>
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
       </c>
       <c r="B167" t="str">
-        <v>3,123.08</v>
+        <v>120.74</v>
       </c>
       <c r="C167" t="str">
-        <v>3,123.08</v>
+        <v>120.74</v>
       </c>
       <c r="D167" t="str">
-        <v>3,556.58</v>
+        <v>0</v>
       </c>
       <c r="E167" t="str">
-        <v>0</v>
+        <v>120.47</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>0x88852100b52867c80eaa3b5eA0500F4bFB7E5899</v>
+        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
       </c>
       <c r="B168" t="str">
-        <v>111.48</v>
+        <v>58.5</v>
       </c>
       <c r="C168" t="str">
-        <v>111.48</v>
+        <v>58.5</v>
       </c>
       <c r="D168" t="str">
-        <v>126.96</v>
+        <v>0</v>
       </c>
       <c r="E168" t="str">
-        <v>0</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>0x5284F4d83AFBF50c661169FC50376aec49a2eEC4</v>
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
       </c>
       <c r="B169" t="str">
-        <v>111.48</v>
+        <v>470.64</v>
       </c>
       <c r="C169" t="str">
-        <v>111.48</v>
+        <v>470.64</v>
       </c>
       <c r="D169" t="str">
         <v>0</v>
       </c>
       <c r="E169" t="str">
-        <v>126.96</v>
+        <v>469.57</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
+        <v>0xAFA44A7514ad85793Bc10C56DD731aEe4EA854F3</v>
       </c>
       <c r="B170" t="str">
-        <v>663.8</v>
+        <v>241.27</v>
       </c>
       <c r="C170" t="str">
-        <v>663.8</v>
+        <v>241.27</v>
       </c>
       <c r="D170" t="str">
         <v>0</v>
       </c>
       <c r="E170" t="str">
-        <v>755.94</v>
+        <v>240.72</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+        <v>0xe19CE573b43a5C9232e48A267FC2E16b1A9c456e</v>
       </c>
       <c r="B171" t="str">
-        <v>186.27</v>
+        <v>9,271.83</v>
       </c>
       <c r="C171" t="str">
-        <v>186.27</v>
+        <v>9,271.83</v>
       </c>
       <c r="D171" t="str">
-        <v>212.13</v>
+        <v>9,130.52</v>
       </c>
       <c r="E171" t="str">
-        <v>0</v>
+        <v>120.09</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>0x436aCB00107faBb69b486e2C7F4654bB37b02c41</v>
+        <v>0xE5C4701D49AF62E8A92739d5CCc6453D864A79B6</v>
       </c>
       <c r="B172" t="str">
-        <v>3,463.83</v>
+        <v>1,203.95</v>
       </c>
       <c r="C172" t="str">
-        <v>3,463.83</v>
+        <v>1,203.95</v>
       </c>
       <c r="D172" t="str">
-        <v>3,944.63</v>
+        <v>1,201.2</v>
       </c>
       <c r="E172" t="str">
         <v>0</v>
@@ -28661,152 +32841,152 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+        <v>0xa9d05788ed070B6a304C89b6eFf0a00361ABc2df</v>
       </c>
       <c r="B173" t="str">
-        <v>18,417.08</v>
+        <v>1,203.95</v>
       </c>
       <c r="C173" t="str">
-        <v>18,417.08</v>
+        <v>1,203.95</v>
       </c>
       <c r="D173" t="str">
         <v>0</v>
       </c>
       <c r="E173" t="str">
-        <v>20,973.44</v>
+        <v>1,201.2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>0x340eAB7488e336fDc588F1da47452f02945E80b3</v>
+        <v>0xA678C16Ecca94a90764973FedEbE71d524FAfF84</v>
       </c>
       <c r="B174" t="str">
-        <v>276.86</v>
+        <v>6,463.44</v>
       </c>
       <c r="C174" t="str">
-        <v>276.86</v>
+        <v>6,463.44</v>
       </c>
       <c r="D174" t="str">
         <v>0</v>
       </c>
       <c r="E174" t="str">
-        <v>315.3</v>
+        <v>6,448.65</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>0x8969DF60ACc4BB0f05cE8137608AD4434E2f4dEA</v>
+        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
       </c>
       <c r="B175" t="str">
-        <v>1,125.05</v>
+        <v>7,825.45</v>
       </c>
       <c r="C175" t="str">
-        <v>1,125.05</v>
+        <v>7,825.45</v>
       </c>
       <c r="D175" t="str">
-        <v>0</v>
+        <v>7,807.54</v>
       </c>
       <c r="E175" t="str">
-        <v>1,281.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
+        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
       </c>
       <c r="B176" t="str">
-        <v>4,846.53</v>
+        <v>43.34</v>
       </c>
       <c r="C176" t="str">
-        <v>4,846.53</v>
+        <v>43.34</v>
       </c>
       <c r="D176" t="str">
-        <v>5,519.25</v>
+        <v>0</v>
       </c>
       <c r="E176" t="str">
-        <v>0</v>
+        <v>43.25</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>0x3479Ce7954Aebd06dD613A42301C911d85c789bF</v>
+        <v>0x9A4dbCDE63b55273DC51BeA546A7ba6456f059D0</v>
       </c>
       <c r="B177" t="str">
-        <v>1,096.77</v>
+        <v>1,206.85</v>
       </c>
       <c r="C177" t="str">
-        <v>1,096.77</v>
+        <v>1,206.85</v>
       </c>
       <c r="D177" t="str">
-        <v>1,249.01</v>
+        <v>0</v>
       </c>
       <c r="E177" t="str">
-        <v>0</v>
+        <v>1,204.09</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>0xa899FaB0CE9CDA2E314856C10A9F5B578b9f2778</v>
+        <v>0x5C55e86A38d24BE5fF7f12221BF674C95FB188a7</v>
       </c>
       <c r="B178" t="str">
-        <v>1,096.77</v>
+        <v>691.35</v>
       </c>
       <c r="C178" t="str">
-        <v>1,096.77</v>
+        <v>691.35</v>
       </c>
       <c r="D178" t="str">
         <v>0</v>
       </c>
       <c r="E178" t="str">
-        <v>1,249.01</v>
+        <v>689.77</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>0xdF8Df47E5109Adc155E436C0712adB78f53A418c</v>
+        <v>0x19dDC06bd36C69D830e6f958FC244aacd1c266f2</v>
       </c>
       <c r="B179" t="str">
-        <v>1,097.64</v>
+        <v>5.01</v>
       </c>
       <c r="C179" t="str">
-        <v>1,097.64</v>
+        <v>5.01</v>
       </c>
       <c r="D179" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E179" t="str">
-        <v>1,250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>0x4e300F965ACE7aBF11A53662419F9A2D27dE3B1d</v>
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
       </c>
       <c r="B180" t="str">
-        <v>185.33</v>
+        <v>410.94</v>
       </c>
       <c r="C180" t="str">
-        <v>185.33</v>
+        <v>410.94</v>
       </c>
       <c r="D180" t="str">
         <v>0</v>
       </c>
       <c r="E180" t="str">
-        <v>211.06</v>
+        <v>410</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>0x091D2bf74f675Df1d72eD6E07bCB693D56a4163c</v>
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
       </c>
       <c r="B181" t="str">
-        <v>0</v>
+        <v>30.51</v>
       </c>
       <c r="C181" t="str">
-        <v>2,183.66</v>
+        <v>30.51</v>
       </c>
       <c r="D181" t="str">
-        <v>2,486.77</v>
+        <v>30.45</v>
       </c>
       <c r="E181" t="str">
         <v>0</v>
@@ -28814,16 +32994,16 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>0x6605532d3D1b060bDeae5FC44DBA7EC8cd4C2dC3</v>
+        <v>0x5Eb272c936045FBA109B92A1c2BBE54523f0f1CA</v>
       </c>
       <c r="B182" t="str">
-        <v>171.96</v>
+        <v>775.93</v>
       </c>
       <c r="C182" t="str">
-        <v>171.96</v>
+        <v>775.93</v>
       </c>
       <c r="D182" t="str">
-        <v>195.84</v>
+        <v>774.16</v>
       </c>
       <c r="E182" t="str">
         <v>0</v>
@@ -28831,1078 +33011,279 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
+        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
       </c>
       <c r="B183" t="str">
-        <v>4.35</v>
+        <v>585.93</v>
       </c>
       <c r="C183" t="str">
-        <v>4.35</v>
+        <v>585.93</v>
       </c>
       <c r="D183" t="str">
         <v>0</v>
       </c>
       <c r="E183" t="str">
-        <v>4.96</v>
+        <v>584.59</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>0xD45bc979277382882e1B41A5efa2561F55915716</v>
+        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
       </c>
       <c r="B184" t="str">
-        <v>77.98</v>
+        <v>25.85</v>
       </c>
       <c r="C184" t="str">
-        <v>77.98</v>
+        <v>25.85</v>
       </c>
       <c r="D184" t="str">
-        <v>88.81</v>
+        <v>0</v>
       </c>
       <c r="E184" t="str">
-        <v>0</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
+        <v>0x72d20dcB42DC91D2Dc1DB60375e1945e23708130</v>
       </c>
       <c r="B185" t="str">
-        <v>595.61</v>
+        <v>288.05</v>
       </c>
       <c r="C185" t="str">
-        <v>595.61</v>
+        <v>288.05</v>
       </c>
       <c r="D185" t="str">
-        <v>628.26</v>
+        <v>287.4</v>
       </c>
       <c r="E185" t="str">
-        <v>50.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>0x04d9f35C7c292ca2c75C498563b48123C0662e19</v>
+        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
       </c>
       <c r="B186" t="str">
-        <v>1,294.15</v>
+        <v>8,163.64</v>
       </c>
       <c r="C186" t="str">
-        <v>1,294.15</v>
+        <v>8,163.64</v>
       </c>
       <c r="D186" t="str">
-        <v>1,473.79</v>
+        <v>0</v>
       </c>
       <c r="E186" t="str">
-        <v>0</v>
+        <v>8,144.96</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>0xb62430C5fD8281c2F2ADf3ae7Cec7171d6F71EC6</v>
+        <v>0x09aFEC89b908C2cbD220942f3788530C195Ba894</v>
       </c>
       <c r="B187" t="str">
-        <v>109.28</v>
+        <v>7.77</v>
       </c>
       <c r="C187" t="str">
-        <v>109.28</v>
+        <v>7.77</v>
       </c>
       <c r="D187" t="str">
-        <v>61.31</v>
+        <v>0</v>
       </c>
       <c r="E187" t="str">
-        <v>63.14</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>0x280a3925f1fAD53B5a263fFc0028Fbab9abE6131</v>
+        <v>0xA918ADC20A91e7C932e6E00e436D710DA71C765C</v>
       </c>
       <c r="B188" t="str">
-        <v>8,854.51</v>
+        <v>289.91</v>
       </c>
       <c r="C188" t="str">
-        <v>8,854.51</v>
+        <v>289.91</v>
       </c>
       <c r="D188" t="str">
-        <v>6,906.99</v>
+        <v>289.25</v>
       </c>
       <c r="E188" t="str">
-        <v>3,176.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>0x212A3caD6d1572C706959d2aeF63071e61914bf2</v>
+        <v>0x7e729b21005cF2FDda685bA7Bef04c6Dc3DcD444</v>
       </c>
       <c r="B189" t="str">
-        <v>1,332.54</v>
+        <v>1.32</v>
       </c>
       <c r="C189" t="str">
-        <v>1,332.54</v>
+        <v>1.32</v>
       </c>
       <c r="D189" t="str">
-        <v>900.05</v>
+        <v>1.32</v>
       </c>
       <c r="E189" t="str">
-        <v>617.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>0xf78D0cdFB459eD9CC19eEb7c22B5F193d7662fcC</v>
+        <v>0x9AB469940cDC998d67F116Bd47A0859f74AAA202</v>
       </c>
       <c r="B190" t="str">
-        <v>8,785.35</v>
+        <v>1,152.1</v>
       </c>
       <c r="C190" t="str">
-        <v>8,785.35</v>
+        <v>1,152.1</v>
       </c>
       <c r="D190" t="str">
-        <v>10,004.79</v>
+        <v>0</v>
       </c>
       <c r="E190" t="str">
-        <v>0</v>
+        <v>1,149.47</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
+        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
       </c>
       <c r="B191" t="str">
-        <v>600.62</v>
+        <v>0</v>
       </c>
       <c r="C191" t="str">
-        <v>600.62</v>
+        <v>176.63</v>
       </c>
       <c r="D191" t="str">
-        <v>0</v>
+        <v>176.23</v>
       </c>
       <c r="E191" t="str">
-        <v>683.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
+        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
       </c>
       <c r="B192" t="str">
-        <v>17,096.69</v>
+        <v>176.63</v>
       </c>
       <c r="C192" t="str">
-        <v>17,096.69</v>
+        <v>176.63</v>
       </c>
       <c r="D192" t="str">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="E192" t="str">
-        <v>19,468.67</v>
+        <v>176.23</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
+        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
       </c>
       <c r="B193" t="str">
-        <v>0</v>
+        <v>35.61</v>
       </c>
       <c r="C193" t="str">
-        <v>135.96</v>
+        <v>35.61</v>
       </c>
       <c r="D193" t="str">
-        <v>154.84</v>
+        <v>0</v>
       </c>
       <c r="E193" t="str">
-        <v>0</v>
+        <v>35.53</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
       </c>
       <c r="B194" t="str">
-        <v>152,187.46</v>
+        <v>507.69</v>
       </c>
       <c r="C194" t="str">
-        <v>152,187.46</v>
+        <v>507.69</v>
       </c>
       <c r="D194" t="str">
-        <v>0</v>
+        <v>506.53</v>
       </c>
       <c r="E194" t="str">
-        <v>173,311.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>0x760d7E2525DDB8790d047CFF195b753F9dCCac41</v>
+        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
       </c>
       <c r="B195" t="str">
-        <v>274.14</v>
+        <v>6.99</v>
       </c>
       <c r="C195" t="str">
-        <v>274.14</v>
+        <v>6.99</v>
       </c>
       <c r="D195" t="str">
         <v>0</v>
       </c>
       <c r="E195" t="str">
-        <v>312.2</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
+        <v>0xa8CE35A87d51EaC37675c1Cf7C5d6435a3b2079A</v>
       </c>
       <c r="B196" t="str">
-        <v>43.8</v>
+        <v>5,011.47</v>
       </c>
       <c r="C196" t="str">
-        <v>43.8</v>
+        <v>5,011.47</v>
       </c>
       <c r="D196" t="str">
-        <v>49.88</v>
+        <v>0</v>
       </c>
       <c r="E196" t="str">
-        <v>0</v>
+        <v>5,000</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
+        <v>0xf1aCBD5dd358c3252ADaa77bDc920cafff2eC0fA</v>
       </c>
       <c r="B197" t="str">
-        <v>18,700.27</v>
+        <v>60.47</v>
       </c>
       <c r="C197" t="str">
-        <v>18,700.27</v>
+        <v>60.47</v>
       </c>
       <c r="D197" t="str">
-        <v>21,295.94</v>
+        <v>0</v>
       </c>
       <c r="E197" t="str">
-        <v>0</v>
+        <v>60.34</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+        <v>Total</v>
       </c>
       <c r="B198" t="str">
-        <v>7,516.85</v>
+        <v>3,153,071.88</v>
       </c>
       <c r="C198" t="str">
-        <v>7,516.85</v>
+        <v>3,205,127.26</v>
       </c>
       <c r="D198" t="str">
-        <v>8,560.22</v>
+        <v>1,493,171.81</v>
       </c>
       <c r="E198" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="str">
-        <v>0xedaa63C95A0faB8e7Dc7A710f8b9Aa6ee461dAC7</v>
-      </c>
-      <c r="B199" t="str">
-        <v>1,114.47</v>
-      </c>
-      <c r="C199" t="str">
-        <v>1,114.47</v>
-      </c>
-      <c r="D199" t="str">
-        <v>1,269.17</v>
-      </c>
-      <c r="E199" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="str">
-        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
-      </c>
-      <c r="B200" t="str">
-        <v>4,409.37</v>
-      </c>
-      <c r="C200" t="str">
-        <v>4,409.37</v>
-      </c>
-      <c r="D200" t="str">
-        <v>2.24</v>
-      </c>
-      <c r="E200" t="str">
-        <v>5,019.17</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="str">
-        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
-      </c>
-      <c r="B201" t="str">
-        <v>40,799.11</v>
-      </c>
-      <c r="C201" t="str">
-        <v>40,799.11</v>
-      </c>
-      <c r="D201" t="str">
-        <v>46,168.07</v>
-      </c>
-      <c r="E201" t="str">
-        <v>294.1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="str">
-        <v>0xC023483Fa22d037EC5f056FC31C8f40751722aD5</v>
-      </c>
-      <c r="B202" t="str">
-        <v>55.89</v>
-      </c>
-      <c r="C202" t="str">
-        <v>55.89</v>
-      </c>
-      <c r="D202" t="str">
-        <v>0</v>
-      </c>
-      <c r="E202" t="str">
-        <v>63.65</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="str">
-        <v>0xcE1290F5457067497EAd8Aea22515d52ca94357E</v>
-      </c>
-      <c r="B203" t="str">
-        <v>111.64</v>
-      </c>
-      <c r="C203" t="str">
-        <v>111.64</v>
-      </c>
-      <c r="D203" t="str">
-        <v>0</v>
-      </c>
-      <c r="E203" t="str">
-        <v>127.14</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="str">
-        <v>0x73755c77A68017d6E755Ac0cE9df5EA7c2aF8F75</v>
-      </c>
-      <c r="B204" t="str">
-        <v>0</v>
-      </c>
-      <c r="C204" t="str">
-        <v>476.37</v>
-      </c>
-      <c r="D204" t="str">
-        <v>0</v>
-      </c>
-      <c r="E204" t="str">
-        <v>542.5</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="str">
-        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
-      </c>
-      <c r="B205" t="str">
-        <v>888.1</v>
-      </c>
-      <c r="C205" t="str">
-        <v>888.1</v>
-      </c>
-      <c r="D205" t="str">
-        <v>0</v>
-      </c>
-      <c r="E205" t="str">
-        <v>1,011.38</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="str">
-        <v>0x2373654B6a1564c5BdA4D28dDeF1827D66d7EA2b</v>
-      </c>
-      <c r="B206" t="str">
-        <v>0</v>
-      </c>
-      <c r="C206" t="str">
-        <v>287.04</v>
-      </c>
-      <c r="D206" t="str">
-        <v>0</v>
-      </c>
-      <c r="E206" t="str">
-        <v>326.89</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="str">
-        <v>0xE34bBD8d72B7Ffe5ad2e84CE93e3A07581De2e50</v>
-      </c>
-      <c r="B207" t="str">
-        <v>0</v>
-      </c>
-      <c r="C207" t="str">
-        <v>115.72</v>
-      </c>
-      <c r="D207" t="str">
-        <v>0</v>
-      </c>
-      <c r="E207" t="str">
-        <v>131.79</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="str">
-        <v>0x8218E1a9D02E26E2aF124EA28b121031Cf25AaC8</v>
-      </c>
-      <c r="B208" t="str">
-        <v>651.19</v>
-      </c>
-      <c r="C208" t="str">
-        <v>651.19</v>
-      </c>
-      <c r="D208" t="str">
-        <v>0</v>
-      </c>
-      <c r="E208" t="str">
-        <v>741.58</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="str">
-        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
-      </c>
-      <c r="B209" t="str">
-        <v>432.95</v>
-      </c>
-      <c r="C209" t="str">
-        <v>432.95</v>
-      </c>
-      <c r="D209" t="str">
-        <v>0</v>
-      </c>
-      <c r="E209" t="str">
-        <v>493.05</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="str">
-        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
-      </c>
-      <c r="B210" t="str">
-        <v>109.46</v>
-      </c>
-      <c r="C210" t="str">
-        <v>109.46</v>
-      </c>
-      <c r="D210" t="str">
-        <v>124.66</v>
-      </c>
-      <c r="E210" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="str">
-        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
-      </c>
-      <c r="B211" t="str">
-        <v>142.83</v>
-      </c>
-      <c r="C211" t="str">
-        <v>142.83</v>
-      </c>
-      <c r="D211" t="str">
-        <v>38</v>
-      </c>
-      <c r="E211" t="str">
-        <v>124.66</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="str">
-        <v>0x143A47CAF24904a750242e138F31ADd7F6999Cb5</v>
-      </c>
-      <c r="B212" t="str">
-        <v>11.05</v>
-      </c>
-      <c r="C212" t="str">
-        <v>11.05</v>
-      </c>
-      <c r="D212" t="str">
-        <v>12.59</v>
-      </c>
-      <c r="E212" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="str">
-        <v>0x5c077b6a51010d308bb6F0Fce9Cd1593d0F78517</v>
-      </c>
-      <c r="B213" t="str">
-        <v>279.15</v>
-      </c>
-      <c r="C213" t="str">
-        <v>279.15</v>
-      </c>
-      <c r="D213" t="str">
-        <v>0</v>
-      </c>
-      <c r="E213" t="str">
-        <v>317.9</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="str">
-        <v>0x01Bf02ECf2aa5f2E824a64Fba6A0DC3Ee46D775B</v>
-      </c>
-      <c r="B214" t="str">
-        <v>9,220.22</v>
-      </c>
-      <c r="C214" t="str">
-        <v>9,220.22</v>
-      </c>
-      <c r="D214" t="str">
-        <v>5,543.71</v>
-      </c>
-      <c r="E214" t="str">
-        <v>4,956.31</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="str">
-        <v>0xA7258aeA0F44A7fe4a4933a1434e2fc8217891C0</v>
-      </c>
-      <c r="B215" t="str">
-        <v>9,220.22</v>
-      </c>
-      <c r="C215" t="str">
-        <v>9,220.22</v>
-      </c>
-      <c r="D215" t="str">
-        <v>4,956.31</v>
-      </c>
-      <c r="E215" t="str">
-        <v>5,543.71</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="str">
-        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
-      </c>
-      <c r="B216" t="str">
-        <v>861.03</v>
-      </c>
-      <c r="C216" t="str">
-        <v>861.03</v>
-      </c>
-      <c r="D216" t="str">
-        <v>0</v>
-      </c>
-      <c r="E216" t="str">
-        <v>980.55</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="str">
-        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
-      </c>
-      <c r="B217" t="str">
-        <v>495.8</v>
-      </c>
-      <c r="C217" t="str">
-        <v>495.8</v>
-      </c>
-      <c r="D217" t="str">
-        <v>0</v>
-      </c>
-      <c r="E217" t="str">
-        <v>564.62</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="str">
-        <v>0xd63c4fE2E52948079b40d0eFd5FBa8a5F54aB32b</v>
-      </c>
-      <c r="B218" t="str">
-        <v>375.77</v>
-      </c>
-      <c r="C218" t="str">
-        <v>375.77</v>
-      </c>
-      <c r="D218" t="str">
-        <v>427.93</v>
-      </c>
-      <c r="E218" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="str">
-        <v>0xA678C16Ecca94a90764973FedEbE71d524FAfF84</v>
-      </c>
-      <c r="B219" t="str">
-        <v>375.77</v>
-      </c>
-      <c r="C219" t="str">
-        <v>375.77</v>
-      </c>
-      <c r="D219" t="str">
-        <v>0</v>
-      </c>
-      <c r="E219" t="str">
-        <v>427.93</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="str">
-        <v>0xF3FA7EB53b74e2A29f36108f18f12f50616168d1</v>
-      </c>
-      <c r="B220" t="str">
-        <v>1,072.3</v>
-      </c>
-      <c r="C220" t="str">
-        <v>1,072.3</v>
-      </c>
-      <c r="D220" t="str">
-        <v>1,221.15</v>
-      </c>
-      <c r="E220" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="str">
-        <v>0x8D61A43F4D07a78132D5239D5B84e3D46205bED2</v>
-      </c>
-      <c r="B221" t="str">
-        <v>43.96</v>
-      </c>
-      <c r="C221" t="str">
-        <v>43.96</v>
-      </c>
-      <c r="D221" t="str">
-        <v>50.07</v>
-      </c>
-      <c r="E221" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="str">
-        <v>0x997501e72C3deE97cb9608d72d9C1176D85Bb7C7</v>
-      </c>
-      <c r="B222" t="str">
-        <v>109.57</v>
-      </c>
-      <c r="C222" t="str">
-        <v>109.57</v>
-      </c>
-      <c r="D222" t="str">
-        <v>0</v>
-      </c>
-      <c r="E222" t="str">
-        <v>124.78</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="str">
-        <v>0xE1FcC0676dE7f03EB6c63b55A5ad667416029A5F</v>
-      </c>
-      <c r="B223" t="str">
-        <v>55.16</v>
-      </c>
-      <c r="C223" t="str">
-        <v>55.16</v>
-      </c>
-      <c r="D223" t="str">
-        <v>0</v>
-      </c>
-      <c r="E223" t="str">
-        <v>62.82</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="str">
-        <v>0x1A7Ff4ee32B3cF4Ce8633D7596c7FD3bf327515a</v>
-      </c>
-      <c r="B224" t="str">
-        <v>0</v>
-      </c>
-      <c r="C224" t="str">
-        <v>32.99</v>
-      </c>
-      <c r="D224" t="str">
-        <v>37.57</v>
-      </c>
-      <c r="E224" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="str">
-        <v>0xAD5c21611Ea4790991c40BFD8e0888e012D7162E</v>
-      </c>
-      <c r="B225" t="str">
-        <v>1,903.81</v>
-      </c>
-      <c r="C225" t="str">
-        <v>1,903.81</v>
-      </c>
-      <c r="D225" t="str">
-        <v>2,168.07</v>
-      </c>
-      <c r="E225" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="str">
-        <v>0xE3060D70A15f2EdFb390D66e60467Da6F5ECA1C7</v>
-      </c>
-      <c r="B226" t="str">
-        <v>117.63</v>
-      </c>
-      <c r="C226" t="str">
-        <v>117.63</v>
-      </c>
-      <c r="D226" t="str">
-        <v>0</v>
-      </c>
-      <c r="E226" t="str">
-        <v>133.96</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="str">
-        <v>0x2Ac0D00cd67535221C29B756e91175454f62Fb0b</v>
-      </c>
-      <c r="B227" t="str">
-        <v>177.1</v>
-      </c>
-      <c r="C227" t="str">
-        <v>177.1</v>
-      </c>
-      <c r="D227" t="str">
-        <v>201.69</v>
-      </c>
-      <c r="E227" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="str">
-        <v>0x0c75cB1d74392a119691ae930151162D611EAC54</v>
-      </c>
-      <c r="B228" t="str">
-        <v>439.05</v>
-      </c>
-      <c r="C228" t="str">
-        <v>439.05</v>
-      </c>
-      <c r="D228" t="str">
-        <v>500</v>
-      </c>
-      <c r="E228" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="str">
-        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
-      </c>
-      <c r="B229" t="str">
-        <v>2,882.99</v>
-      </c>
-      <c r="C229" t="str">
-        <v>2,882.99</v>
-      </c>
-      <c r="D229" t="str">
-        <v>3,283.16</v>
-      </c>
-      <c r="E229" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="str">
-        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
-      </c>
-      <c r="B230" t="str">
-        <v>2,882.99</v>
-      </c>
-      <c r="C230" t="str">
-        <v>2,882.99</v>
-      </c>
-      <c r="D230" t="str">
-        <v>0</v>
-      </c>
-      <c r="E230" t="str">
-        <v>3,283.16</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="str">
-        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
-      </c>
-      <c r="B231" t="str">
-        <v>526.99</v>
-      </c>
-      <c r="C231" t="str">
-        <v>526.99</v>
-      </c>
-      <c r="D231" t="str">
-        <v>600.14</v>
-      </c>
-      <c r="E231" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="str">
-        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
-      </c>
-      <c r="B232" t="str">
-        <v>526.99</v>
-      </c>
-      <c r="C232" t="str">
-        <v>526.99</v>
-      </c>
-      <c r="D232" t="str">
-        <v>0</v>
-      </c>
-      <c r="E232" t="str">
-        <v>600.14</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="str">
-        <v>0xF1ea664AbbA3452bc6cA6B289a6059613855805B</v>
-      </c>
-      <c r="B233" t="str">
-        <v>790.34</v>
-      </c>
-      <c r="C233" t="str">
-        <v>790.34</v>
-      </c>
-      <c r="D233" t="str">
-        <v>0</v>
-      </c>
-      <c r="E233" t="str">
-        <v>900.05</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="str">
-        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
-      </c>
-      <c r="B234" t="str">
-        <v>21.01</v>
-      </c>
-      <c r="C234" t="str">
-        <v>21.01</v>
-      </c>
-      <c r="D234" t="str">
-        <v>0</v>
-      </c>
-      <c r="E234" t="str">
-        <v>23.93</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="str">
-        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
-      </c>
-      <c r="B235" t="str">
-        <v>104.24</v>
-      </c>
-      <c r="C235" t="str">
-        <v>104.24</v>
-      </c>
-      <c r="D235" t="str">
-        <v>118.71</v>
-      </c>
-      <c r="E235" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="str">
-        <v>0xA918ADC20A91e7C932e6E00e436D710DA71C765C</v>
-      </c>
-      <c r="B236" t="str">
-        <v>258.25</v>
-      </c>
-      <c r="C236" t="str">
-        <v>258.25</v>
-      </c>
-      <c r="D236" t="str">
-        <v>294.1</v>
-      </c>
-      <c r="E236" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="str">
-        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
-      </c>
-      <c r="B237" t="str">
-        <v>1,129.71</v>
-      </c>
-      <c r="C237" t="str">
-        <v>1,129.71</v>
-      </c>
-      <c r="D237" t="str">
-        <v>0</v>
-      </c>
-      <c r="E237" t="str">
-        <v>1,286.52</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="str">
-        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
-      </c>
-      <c r="B238" t="str">
-        <v>26.34</v>
-      </c>
-      <c r="C238" t="str">
-        <v>26.34</v>
-      </c>
-      <c r="D238" t="str">
-        <v>0</v>
-      </c>
-      <c r="E238" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="str">
-        <v>0x1e08bba24EeaB34dCc15Bc335c2638D40E1e3BD5</v>
-      </c>
-      <c r="B239" t="str">
-        <v>2,886</v>
-      </c>
-      <c r="C239" t="str">
-        <v>2,886</v>
-      </c>
-      <c r="D239" t="str">
-        <v>0</v>
-      </c>
-      <c r="E239" t="str">
-        <v>3,286.59</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="str">
-        <v>0xC090D9F71184D03568485a351456C570ff9F9Cbf</v>
-      </c>
-      <c r="B240" t="str">
-        <v>3,046.85</v>
-      </c>
-      <c r="C240" t="str">
-        <v>3,046.85</v>
-      </c>
-      <c r="D240" t="str">
-        <v>3,468.67</v>
-      </c>
-      <c r="E240" t="str">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="str">
-        <v>0x947d2c8935C715428702231AD85E293a94CbEB65</v>
-      </c>
-      <c r="B241" t="str">
-        <v>658.58</v>
-      </c>
-      <c r="C241" t="str">
-        <v>658.58</v>
-      </c>
-      <c r="D241" t="str">
-        <v>750</v>
-      </c>
-      <c r="E241" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="str">
-        <v>0x28207aadAe97226F70a54c25d16692197c062898</v>
-      </c>
-      <c r="B242" t="str">
-        <v>4.04</v>
-      </c>
-      <c r="C242" t="str">
-        <v>4.04</v>
-      </c>
-      <c r="D242" t="str">
-        <v>4.61</v>
-      </c>
-      <c r="E242" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="str">
-        <v>0xc47024d1c6E59E5FCc715353B53601474768Fa6b</v>
-      </c>
-      <c r="B243" t="str">
-        <v>329.29</v>
-      </c>
-      <c r="C243" t="str">
-        <v>329.29</v>
-      </c>
-      <c r="D243" t="str">
-        <v>375</v>
-      </c>
-      <c r="E243" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="str">
-        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
-      </c>
-      <c r="B244" t="str">
-        <v>0</v>
-      </c>
-      <c r="C244" t="str">
-        <v>1,190.53</v>
-      </c>
-      <c r="D244" t="str">
-        <v>0</v>
-      </c>
-      <c r="E244" t="str">
-        <v>1,355.78</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="str">
-        <v>Total</v>
-      </c>
-      <c r="B245" t="str">
-        <v>3,118,027.2</v>
-      </c>
-      <c r="C245" t="str">
-        <v>3,205,127.04</v>
-      </c>
-      <c r="D245" t="str">
-        <v>1,580,601.51</v>
-      </c>
-      <c r="E245" t="str">
-        <v>2,069,409.34</v>
+        <v>1,704,620.24</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E245"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E198"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/staker_incentives.xlsx
+++ b/staker_incentives.xlsx
@@ -19,6 +19,7 @@
     <sheet name="Blocks 71767952 - 72049006" sheetId="14" r:id="rId14"/>
     <sheet name="Blocks 72049007 - 72332266" sheetId="15" r:id="rId15"/>
     <sheet name="Blocks 72332267 - 72615454" sheetId="16" r:id="rId16"/>
+    <sheet name="Blocks 72615455 - 72898666" sheetId="17" r:id="rId17"/>
   </sheets>
 </workbook>
 </file>
@@ -29907,6 +29908,3386 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Staker Address</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Reward (ERC20 TEL)</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Uncapped Reward (ERC20 TEL)</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Staker Fees</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Referee Fees</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
+      </c>
+      <c r="B2" t="str">
+        <v>458.24</v>
+      </c>
+      <c r="C2" t="str">
+        <v>458.24</v>
+      </c>
+      <c r="D2" t="str">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <v>457.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+      </c>
+      <c r="B3" t="str">
+        <v>34,326.22</v>
+      </c>
+      <c r="C3" t="str">
+        <v>34,326.22</v>
+      </c>
+      <c r="D3" t="str">
+        <v>34,247.66</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1,140.87</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1,140.87</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1,138.26</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>0xEEe37E83b74Ebf3679962F6199dADF968E74efa5</v>
+      </c>
+      <c r="B5" t="str">
+        <v>1,140.87</v>
+      </c>
+      <c r="C5" t="str">
+        <v>1,140.87</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>1,138.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2,006.69</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2,006.69</v>
+      </c>
+      <c r="D6" t="str">
+        <v>875.74</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1,126.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+      </c>
+      <c r="B7" t="str">
+        <v>133,988.56</v>
+      </c>
+      <c r="C7" t="str">
+        <v>133,988.56</v>
+      </c>
+      <c r="D7" t="str">
+        <v>6.96</v>
+      </c>
+      <c r="E7" t="str">
+        <v>133,674.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+      </c>
+      <c r="B8" t="str">
+        <v>9,196.3</v>
+      </c>
+      <c r="C8" t="str">
+        <v>9,196.3</v>
+      </c>
+      <c r="D8" t="str">
+        <v>3,868.74</v>
+      </c>
+      <c r="E8" t="str">
+        <v>5,306.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+      </c>
+      <c r="B9" t="str">
+        <v>16,642.6</v>
+      </c>
+      <c r="C9" t="str">
+        <v>16,642.6</v>
+      </c>
+      <c r="D9" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>16,604.51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>0x092F2C7B8daf5e94e9bF990ceDE5f2d4fD318B22</v>
+      </c>
+      <c r="B10" t="str">
+        <v>389.06</v>
+      </c>
+      <c r="C10" t="str">
+        <v>389.06</v>
+      </c>
+      <c r="D10" t="str">
+        <v>388.17</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+      </c>
+      <c r="B11" t="str">
+        <v>2,832.63</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2,832.63</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2,826.15</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
+      </c>
+      <c r="B12" t="str">
+        <v>296.33</v>
+      </c>
+      <c r="C12" t="str">
+        <v>296.33</v>
+      </c>
+      <c r="D12" t="str">
+        <v>295.66</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>0xE32A6FAf659859D331f7Ec7D38Ad3925AaFBEc45</v>
+      </c>
+      <c r="B13" t="str">
+        <v>7,804.53</v>
+      </c>
+      <c r="C13" t="str">
+        <v>7,804.53</v>
+      </c>
+      <c r="D13" t="str">
+        <v>7,786.67</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>0x2Ac0D00cd67535221C29B756e91175454f62Fb0b</v>
+      </c>
+      <c r="B14" t="str">
+        <v>7,804.53</v>
+      </c>
+      <c r="C14" t="str">
+        <v>7,804.53</v>
+      </c>
+      <c r="D14" t="str">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <v>7,786.67</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+      </c>
+      <c r="B15" t="str">
+        <v>53,683.24</v>
+      </c>
+      <c r="C15" t="str">
+        <v>53,683.24</v>
+      </c>
+      <c r="D15" t="str">
+        <v>16,110.79</v>
+      </c>
+      <c r="E15" t="str">
+        <v>37,449.58</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+      </c>
+      <c r="B16" t="str">
+        <v>0</v>
+      </c>
+      <c r="C16" t="str">
+        <v>14,807.92</v>
+      </c>
+      <c r="D16" t="str">
+        <v>13,524.03</v>
+      </c>
+      <c r="E16" t="str">
+        <v>1,250</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
+      </c>
+      <c r="B17" t="str">
+        <v>5,453.83</v>
+      </c>
+      <c r="C17" t="str">
+        <v>5,453.83</v>
+      </c>
+      <c r="D17" t="str">
+        <v>183.13</v>
+      </c>
+      <c r="E17" t="str">
+        <v>5,258.22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
+      </c>
+      <c r="B18" t="str">
+        <v>2,689.57</v>
+      </c>
+      <c r="C18" t="str">
+        <v>2,689.57</v>
+      </c>
+      <c r="D18" t="str">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <v>2,683.42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>0xdfd7445EF7dB056F68cEdEB4c1A709d02C0c3AA7</v>
+      </c>
+      <c r="B19" t="str">
+        <v>278.96</v>
+      </c>
+      <c r="C19" t="str">
+        <v>278.96</v>
+      </c>
+      <c r="D19" t="str">
+        <v>220.49</v>
+      </c>
+      <c r="E19" t="str">
+        <v>57.84</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
+      </c>
+      <c r="B20" t="str">
+        <v>28.54</v>
+      </c>
+      <c r="C20" t="str">
+        <v>28.54</v>
+      </c>
+      <c r="D20" t="str">
+        <v>28.48</v>
+      </c>
+      <c r="E20" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
+      </c>
+      <c r="B21" t="str">
+        <v>34.4</v>
+      </c>
+      <c r="C21" t="str">
+        <v>34.4</v>
+      </c>
+      <c r="D21" t="str">
+        <v>34.33</v>
+      </c>
+      <c r="E21" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
+      </c>
+      <c r="B22" t="str">
+        <v>1,030.07</v>
+      </c>
+      <c r="C22" t="str">
+        <v>1,030.07</v>
+      </c>
+      <c r="D22" t="str">
+        <v>1,027.72</v>
+      </c>
+      <c r="E22" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+      </c>
+      <c r="B23" t="str">
+        <v>117,695.98</v>
+      </c>
+      <c r="C23" t="str">
+        <v>117,695.98</v>
+      </c>
+      <c r="D23" t="str">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <v>117,426.59</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>0xdAed012E9aB6746d6D048Fe9730AdC888b5610d5</v>
+      </c>
+      <c r="B24" t="str">
+        <v>22.91</v>
+      </c>
+      <c r="C24" t="str">
+        <v>22.91</v>
+      </c>
+      <c r="D24" t="str">
+        <v>22.86</v>
+      </c>
+      <c r="E24" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
+      </c>
+      <c r="B25" t="str">
+        <v>25,248.15</v>
+      </c>
+      <c r="C25" t="str">
+        <v>25,248.15</v>
+      </c>
+      <c r="D25" t="str">
+        <v>25,093.5</v>
+      </c>
+      <c r="E25" t="str">
+        <v>96.87</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>0xdFdf143A6a12185023e01ddC61092Ac97eCB6c05</v>
+      </c>
+      <c r="B26" t="str">
+        <v>250.57</v>
+      </c>
+      <c r="C26" t="str">
+        <v>250.57</v>
+      </c>
+      <c r="D26" t="str">
+        <v>250</v>
+      </c>
+      <c r="E26" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+      </c>
+      <c r="B27" t="str">
+        <v>5,330.35</v>
+      </c>
+      <c r="C27" t="str">
+        <v>5,330.35</v>
+      </c>
+      <c r="D27" t="str">
+        <v>5,318.15</v>
+      </c>
+      <c r="E27" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+      </c>
+      <c r="B28" t="str">
+        <v>5,330.35</v>
+      </c>
+      <c r="C28" t="str">
+        <v>5,330.35</v>
+      </c>
+      <c r="D28" t="str">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <v>5,318.15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
+      </c>
+      <c r="B29" t="str">
+        <v>702.1</v>
+      </c>
+      <c r="C29" t="str">
+        <v>702.1</v>
+      </c>
+      <c r="D29" t="str">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <v>700.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
+      </c>
+      <c r="B30" t="str">
+        <v>21.93</v>
+      </c>
+      <c r="C30" t="str">
+        <v>21.93</v>
+      </c>
+      <c r="D30" t="str">
+        <v>21.88</v>
+      </c>
+      <c r="E30" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+      </c>
+      <c r="B31" t="str">
+        <v>22,011.91</v>
+      </c>
+      <c r="C31" t="str">
+        <v>22,011.91</v>
+      </c>
+      <c r="D31" t="str">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <v>21,961.53</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+      </c>
+      <c r="B32" t="str">
+        <v>76.34</v>
+      </c>
+      <c r="C32" t="str">
+        <v>76.34</v>
+      </c>
+      <c r="D32" t="str">
+        <v>76.17</v>
+      </c>
+      <c r="E32" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
+      </c>
+      <c r="B33" t="str">
+        <v>104.01</v>
+      </c>
+      <c r="C33" t="str">
+        <v>104.01</v>
+      </c>
+      <c r="D33" t="str">
+        <v>103.78</v>
+      </c>
+      <c r="E33" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>0x5099ccbB5FC14BF6ea516EE6CC3e6B209a7aA8C6</v>
+      </c>
+      <c r="B34" t="str">
+        <v>597.22</v>
+      </c>
+      <c r="C34" t="str">
+        <v>597.22</v>
+      </c>
+      <c r="D34" t="str">
+        <v>595.86</v>
+      </c>
+      <c r="E34" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
+      </c>
+      <c r="B35" t="str">
+        <v>250.86</v>
+      </c>
+      <c r="C35" t="str">
+        <v>250.86</v>
+      </c>
+      <c r="D35" t="str">
+        <v>250.29</v>
+      </c>
+      <c r="E35" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
+      </c>
+      <c r="B36" t="str">
+        <v>261.25</v>
+      </c>
+      <c r="C36" t="str">
+        <v>261.25</v>
+      </c>
+      <c r="D36" t="str">
+        <v>260.66</v>
+      </c>
+      <c r="E36" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
+      </c>
+      <c r="B37" t="str">
+        <v>407.21</v>
+      </c>
+      <c r="C37" t="str">
+        <v>407.21</v>
+      </c>
+      <c r="D37" t="str">
+        <v>406.28</v>
+      </c>
+      <c r="E37" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+      </c>
+      <c r="B38" t="str">
+        <v>183.55</v>
+      </c>
+      <c r="C38" t="str">
+        <v>183.55</v>
+      </c>
+      <c r="D38" t="str">
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <v>183.13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>0xF3FA7EB53b74e2A29f36108f18f12f50616168d1</v>
+      </c>
+      <c r="B39" t="str">
+        <v>5,925.85</v>
+      </c>
+      <c r="C39" t="str">
+        <v>5,925.85</v>
+      </c>
+      <c r="D39" t="str">
+        <v>5,912.29</v>
+      </c>
+      <c r="E39" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
+      </c>
+      <c r="B40" t="str">
+        <v>1,893.03</v>
+      </c>
+      <c r="C40" t="str">
+        <v>1,893.03</v>
+      </c>
+      <c r="D40" t="str">
+        <v>1,888.7</v>
+      </c>
+      <c r="E40" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
+      </c>
+      <c r="B41" t="str">
+        <v>1,118.11</v>
+      </c>
+      <c r="C41" t="str">
+        <v>1,118.11</v>
+      </c>
+      <c r="D41" t="str">
+        <v>1,115.56</v>
+      </c>
+      <c r="E41" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>0x964087989Df5D5e89cF7527b72A3949367a337bA</v>
+      </c>
+      <c r="B42" t="str">
+        <v>2,933.69</v>
+      </c>
+      <c r="C42" t="str">
+        <v>2,933.69</v>
+      </c>
+      <c r="D42" t="str">
+        <v>2,926.98</v>
+      </c>
+      <c r="E42" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>0xD957cc84a2B565e7572a8F02A39e487466c3bFF7</v>
+      </c>
+      <c r="B43" t="str">
+        <v>234.77</v>
+      </c>
+      <c r="C43" t="str">
+        <v>234.77</v>
+      </c>
+      <c r="D43" t="str">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <v>234.24</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>0xf0a8596541F839EBcC9f0A9d1442c15f43A2836E</v>
+      </c>
+      <c r="B44" t="str">
+        <v>341.8</v>
+      </c>
+      <c r="C44" t="str">
+        <v>341.8</v>
+      </c>
+      <c r="D44" t="str">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <v>341.02</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
+      </c>
+      <c r="B45" t="str">
+        <v>38.97</v>
+      </c>
+      <c r="C45" t="str">
+        <v>38.97</v>
+      </c>
+      <c r="D45" t="str">
+        <v>38.89</v>
+      </c>
+      <c r="E45" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
+      </c>
+      <c r="B46" t="str">
+        <v>1,124.05</v>
+      </c>
+      <c r="C46" t="str">
+        <v>1,124.05</v>
+      </c>
+      <c r="D46" t="str">
+        <v>1,121.48</v>
+      </c>
+      <c r="E46" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>0x165F4f9805770Eb044Cd2A5a3f1b3E07Ba8B15e9</v>
+      </c>
+      <c r="B47" t="str">
+        <v>359.04</v>
+      </c>
+      <c r="C47" t="str">
+        <v>359.04</v>
+      </c>
+      <c r="D47" t="str">
+        <v>358.22</v>
+      </c>
+      <c r="E47" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>0xd63c4fE2E52948079b40d0eFd5FBa8a5F54aB32b</v>
+      </c>
+      <c r="B48" t="str">
+        <v>6,463.44</v>
+      </c>
+      <c r="C48" t="str">
+        <v>6,463.44</v>
+      </c>
+      <c r="D48" t="str">
+        <v>6,448.65</v>
+      </c>
+      <c r="E48" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+      </c>
+      <c r="B49" t="str">
+        <v>0</v>
+      </c>
+      <c r="C49" t="str">
+        <v>7,834.38</v>
+      </c>
+      <c r="D49" t="str">
+        <v>6,316.45</v>
+      </c>
+      <c r="E49" t="str">
+        <v>1,500</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>0x64d564A6A6003a9fcb44f8F50b9A3C7bBea2a7E7</v>
+      </c>
+      <c r="B50" t="str">
+        <v>330.13</v>
+      </c>
+      <c r="C50" t="str">
+        <v>330.13</v>
+      </c>
+      <c r="D50" t="str">
+        <v>329.38</v>
+      </c>
+      <c r="E50" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>0xa755B0E03b0C0411c64749C64F063a6600a24D8c</v>
+      </c>
+      <c r="B51" t="str">
+        <v>841.16</v>
+      </c>
+      <c r="C51" t="str">
+        <v>841.16</v>
+      </c>
+      <c r="D51" t="str">
+        <v>839.24</v>
+      </c>
+      <c r="E51" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+      </c>
+      <c r="B52" t="str">
+        <v>5,066.34</v>
+      </c>
+      <c r="C52" t="str">
+        <v>5,066.34</v>
+      </c>
+      <c r="D52" t="str">
+        <v>400</v>
+      </c>
+      <c r="E52" t="str">
+        <v>4,654.75</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>0xE233390f362B1dC22F621feead135D828a39781A</v>
+      </c>
+      <c r="B53" t="str">
+        <v>5,014.12</v>
+      </c>
+      <c r="C53" t="str">
+        <v>5,014.12</v>
+      </c>
+      <c r="D53" t="str">
+        <v>5,002.65</v>
+      </c>
+      <c r="E53" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
+      </c>
+      <c r="B54" t="str">
+        <v>288.05</v>
+      </c>
+      <c r="C54" t="str">
+        <v>288.05</v>
+      </c>
+      <c r="D54" t="str">
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <v>287.4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0xdd61cabccEa7933D2372606963D66F0924831D29</v>
+      </c>
+      <c r="B55" t="str">
+        <v>35.61</v>
+      </c>
+      <c r="C55" t="str">
+        <v>35.61</v>
+      </c>
+      <c r="D55" t="str">
+        <v>35.53</v>
+      </c>
+      <c r="E55" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
+      </c>
+      <c r="B56" t="str">
+        <v>125.28</v>
+      </c>
+      <c r="C56" t="str">
+        <v>125.28</v>
+      </c>
+      <c r="D56" t="str">
+        <v>125</v>
+      </c>
+      <c r="E56" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
+      </c>
+      <c r="B57" t="str">
+        <v>1,263.79</v>
+      </c>
+      <c r="C57" t="str">
+        <v>1,263.79</v>
+      </c>
+      <c r="D57" t="str">
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <v>1,260.9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>0xa6A4BE6499cfdd7E94Cd1BF5498533FdCbb6CE5d</v>
+      </c>
+      <c r="B58" t="str">
+        <v>131,080.73</v>
+      </c>
+      <c r="C58" t="str">
+        <v>131,080.73</v>
+      </c>
+      <c r="D58" t="str">
+        <v>120,757.82</v>
+      </c>
+      <c r="E58" t="str">
+        <v>10,022.89</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
+      </c>
+      <c r="B59" t="str">
+        <v>121,034.85</v>
+      </c>
+      <c r="C59" t="str">
+        <v>121,034.85</v>
+      </c>
+      <c r="D59" t="str">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <v>120,757.82</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+      </c>
+      <c r="B60" t="str">
+        <v>458.24</v>
+      </c>
+      <c r="C60" t="str">
+        <v>458.24</v>
+      </c>
+      <c r="D60" t="str">
+        <v>457.2</v>
+      </c>
+      <c r="E60" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+      </c>
+      <c r="B61" t="str">
+        <v>73,927.83</v>
+      </c>
+      <c r="C61" t="str">
+        <v>73,927.83</v>
+      </c>
+      <c r="D61" t="str">
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <v>73,758.62</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
+      </c>
+      <c r="B62" t="str">
+        <v>7,867.45</v>
+      </c>
+      <c r="C62" t="str">
+        <v>7,867.45</v>
+      </c>
+      <c r="D62" t="str">
+        <v>7,849.45</v>
+      </c>
+      <c r="E62" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
+      </c>
+      <c r="B63" t="str">
+        <v>0</v>
+      </c>
+      <c r="C63" t="str">
+        <v>7,867.45</v>
+      </c>
+      <c r="D63" t="str">
+        <v>0</v>
+      </c>
+      <c r="E63" t="str">
+        <v>7,849.45</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
+      </c>
+      <c r="B64" t="str">
+        <v>160.35</v>
+      </c>
+      <c r="C64" t="str">
+        <v>160.35</v>
+      </c>
+      <c r="D64" t="str">
+        <v>159.99</v>
+      </c>
+      <c r="E64" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+      </c>
+      <c r="B65" t="str">
+        <v>1,190.43</v>
+      </c>
+      <c r="C65" t="str">
+        <v>1,190.43</v>
+      </c>
+      <c r="D65" t="str">
+        <v>0</v>
+      </c>
+      <c r="E65" t="str">
+        <v>1,187.71</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
+      </c>
+      <c r="B66" t="str">
+        <v>2,668.62</v>
+      </c>
+      <c r="C66" t="str">
+        <v>2,668.62</v>
+      </c>
+      <c r="D66" t="str">
+        <v>504.7</v>
+      </c>
+      <c r="E66" t="str">
+        <v>2,157.82</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>0xA7258aeA0F44A7fe4a4933a1434e2fc8217891C0</v>
+      </c>
+      <c r="B67" t="str">
+        <v>103,921.41</v>
+      </c>
+      <c r="C67" t="str">
+        <v>103,921.41</v>
+      </c>
+      <c r="D67" t="str">
+        <v>9,766.39</v>
+      </c>
+      <c r="E67" t="str">
+        <v>93,917.16</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>0x01Bf02ECf2aa5f2E824a64Fba6A0DC3Ee46D775B</v>
+      </c>
+      <c r="B68" t="str">
+        <v>103,921.41</v>
+      </c>
+      <c r="C68" t="str">
+        <v>103,921.41</v>
+      </c>
+      <c r="D68" t="str">
+        <v>93,917.16</v>
+      </c>
+      <c r="E68" t="str">
+        <v>9,766.39</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>0xbc44E6f03C150df10Fe594d42eACAAC51C13e15B</v>
+      </c>
+      <c r="B69" t="str">
+        <v>139.31</v>
+      </c>
+      <c r="C69" t="str">
+        <v>139.31</v>
+      </c>
+      <c r="D69" t="str">
+        <v>139</v>
+      </c>
+      <c r="E69" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+      </c>
+      <c r="B70" t="str">
+        <v>71,081.05</v>
+      </c>
+      <c r="C70" t="str">
+        <v>71,081.05</v>
+      </c>
+      <c r="D70" t="str">
+        <v>30,850.93</v>
+      </c>
+      <c r="E70" t="str">
+        <v>40,067.43</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+      </c>
+      <c r="B71" t="str">
+        <v>72,209.19</v>
+      </c>
+      <c r="C71" t="str">
+        <v>72,209.19</v>
+      </c>
+      <c r="D71" t="str">
+        <v>40,067.43</v>
+      </c>
+      <c r="E71" t="str">
+        <v>31,976.49</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+      </c>
+      <c r="B72" t="str">
+        <v>1,128.14</v>
+      </c>
+      <c r="C72" t="str">
+        <v>1,128.14</v>
+      </c>
+      <c r="D72" t="str">
+        <v>1,125.56</v>
+      </c>
+      <c r="E72" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>0x96366995FA701346A6f9bCD875E3E80D7421d8b3</v>
+      </c>
+      <c r="B73" t="str">
+        <v>2,633.97</v>
+      </c>
+      <c r="C73" t="str">
+        <v>2,633.97</v>
+      </c>
+      <c r="D73" t="str">
+        <v>2,627.95</v>
+      </c>
+      <c r="E73" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>0x41208763DD0C33e81cD7908ec88656ca7578d591</v>
+      </c>
+      <c r="B74" t="str">
+        <v>2,633.97</v>
+      </c>
+      <c r="C74" t="str">
+        <v>2,633.97</v>
+      </c>
+      <c r="D74" t="str">
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <v>2,627.95</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>0x69f96f2A5Cdd84E574dB2a353880095988243417</v>
+      </c>
+      <c r="B75" t="str">
+        <v>0</v>
+      </c>
+      <c r="C75" t="str">
+        <v>564.59</v>
+      </c>
+      <c r="D75" t="str">
+        <v>563.3</v>
+      </c>
+      <c r="E75" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+      </c>
+      <c r="B76" t="str">
+        <v>698,360.93</v>
+      </c>
+      <c r="C76" t="str">
+        <v>698,360.93</v>
+      </c>
+      <c r="D76" t="str">
+        <v>347,917.12</v>
+      </c>
+      <c r="E76" t="str">
+        <v>348,845.35</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>0xf78D0cdFB459eD9CC19eEb7c22B5F193d7662fcC</v>
+      </c>
+      <c r="B77" t="str">
+        <v>10,062.87</v>
+      </c>
+      <c r="C77" t="str">
+        <v>10,062.87</v>
+      </c>
+      <c r="D77" t="str">
+        <v>10,039.84</v>
+      </c>
+      <c r="E77" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
+      </c>
+      <c r="B78" t="str">
+        <v>1,257.98</v>
+      </c>
+      <c r="C78" t="str">
+        <v>1,257.98</v>
+      </c>
+      <c r="D78" t="str">
+        <v>1,255.11</v>
+      </c>
+      <c r="E78" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+      </c>
+      <c r="B79" t="str">
+        <v>187.27</v>
+      </c>
+      <c r="C79" t="str">
+        <v>187.27</v>
+      </c>
+      <c r="D79" t="str">
+        <v>186.85</v>
+      </c>
+      <c r="E79" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>0x95814b787287141C80e9917Ee9eC9B2F89275629</v>
+      </c>
+      <c r="B80" t="str">
+        <v>8,378.42</v>
+      </c>
+      <c r="C80" t="str">
+        <v>8,378.42</v>
+      </c>
+      <c r="D80" t="str">
+        <v>8,359.25</v>
+      </c>
+      <c r="E80" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>0xf941B6d81ff3BBc9E6eb182887a1FAE58fcE9fCE</v>
+      </c>
+      <c r="B81" t="str">
+        <v>57.28</v>
+      </c>
+      <c r="C81" t="str">
+        <v>57.28</v>
+      </c>
+      <c r="D81" t="str">
+        <v>57.15</v>
+      </c>
+      <c r="E81" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+      </c>
+      <c r="B82" t="str">
+        <v>7,116.94</v>
+      </c>
+      <c r="C82" t="str">
+        <v>7,116.94</v>
+      </c>
+      <c r="D82" t="str">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <v>7,100.66</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+      </c>
+      <c r="B83" t="str">
+        <v>285.85</v>
+      </c>
+      <c r="C83" t="str">
+        <v>285.85</v>
+      </c>
+      <c r="D83" t="str">
+        <v>0</v>
+      </c>
+      <c r="E83" t="str">
+        <v>285.2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
+      </c>
+      <c r="B84" t="str">
+        <v>3,060.02</v>
+      </c>
+      <c r="C84" t="str">
+        <v>3,060.02</v>
+      </c>
+      <c r="D84" t="str">
+        <v>3,053.02</v>
+      </c>
+      <c r="E84" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
+      </c>
+      <c r="B85" t="str">
+        <v>3,060.02</v>
+      </c>
+      <c r="C85" t="str">
+        <v>3,060.02</v>
+      </c>
+      <c r="D85" t="str">
+        <v>0</v>
+      </c>
+      <c r="E85" t="str">
+        <v>3,053.02</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
+      </c>
+      <c r="B86" t="str">
+        <v>3,006.88</v>
+      </c>
+      <c r="C86" t="str">
+        <v>3,006.88</v>
+      </c>
+      <c r="D86" t="str">
+        <v>3,000</v>
+      </c>
+      <c r="E86" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>0xBb3123adaa39aA9b0Bf8c0374eab50353F479c97</v>
+      </c>
+      <c r="B87" t="str">
+        <v>5,326.99</v>
+      </c>
+      <c r="C87" t="str">
+        <v>5,326.99</v>
+      </c>
+      <c r="D87" t="str">
+        <v>5,314.8</v>
+      </c>
+      <c r="E87" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>0xF1D275F804a6b3d3f75B7C08150178836E56dE8B</v>
+      </c>
+      <c r="B88" t="str">
+        <v>5,326.99</v>
+      </c>
+      <c r="C88" t="str">
+        <v>5,326.99</v>
+      </c>
+      <c r="D88" t="str">
+        <v>0</v>
+      </c>
+      <c r="E88" t="str">
+        <v>5,314.8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+      </c>
+      <c r="B89" t="str">
+        <v>2,244.75</v>
+      </c>
+      <c r="C89" t="str">
+        <v>2,244.75</v>
+      </c>
+      <c r="D89" t="str">
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <v>2,239.62</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
+      </c>
+      <c r="B90" t="str">
+        <v>8,858.58</v>
+      </c>
+      <c r="C90" t="str">
+        <v>8,858.58</v>
+      </c>
+      <c r="D90" t="str">
+        <v>5,453.38</v>
+      </c>
+      <c r="E90" t="str">
+        <v>3,384.93</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>0xC090D9F71184D03568485a351456C570ff9F9Cbf</v>
+      </c>
+      <c r="B91" t="str">
+        <v>5,465.89</v>
+      </c>
+      <c r="C91" t="str">
+        <v>5,465.89</v>
+      </c>
+      <c r="D91" t="str">
+        <v>0</v>
+      </c>
+      <c r="E91" t="str">
+        <v>5,453.38</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+      </c>
+      <c r="B92" t="str">
+        <v>0</v>
+      </c>
+      <c r="C92" t="str">
+        <v>13,555.05</v>
+      </c>
+      <c r="D92" t="str">
+        <v>0</v>
+      </c>
+      <c r="E92" t="str">
+        <v>13,524.03</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>0x98085d3327429Fc85f875e6baE8498EbC336eD97</v>
+      </c>
+      <c r="B93" t="str">
+        <v>26,880.16</v>
+      </c>
+      <c r="C93" t="str">
+        <v>26,880.16</v>
+      </c>
+      <c r="D93" t="str">
+        <v>26,818.64</v>
+      </c>
+      <c r="E93" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>0xF56A7C0C4f08356F9987Ef2C02f2034FD7F8608C</v>
+      </c>
+      <c r="B94" t="str">
+        <v>26,880.16</v>
+      </c>
+      <c r="C94" t="str">
+        <v>26,880.16</v>
+      </c>
+      <c r="D94" t="str">
+        <v>0</v>
+      </c>
+      <c r="E94" t="str">
+        <v>26,818.64</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>0x436aCB00107faBb69b486e2C7F4654bB37b02c41</v>
+      </c>
+      <c r="B95" t="str">
+        <v>5,270.28</v>
+      </c>
+      <c r="C95" t="str">
+        <v>5,270.28</v>
+      </c>
+      <c r="D95" t="str">
+        <v>5,258.22</v>
+      </c>
+      <c r="E95" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>0x62Ff55e86d95A460a661929d6D125139bB7DCF7b</v>
+      </c>
+      <c r="B96" t="str">
+        <v>53,151.02</v>
+      </c>
+      <c r="C96" t="str">
+        <v>53,151.02</v>
+      </c>
+      <c r="D96" t="str">
+        <v>0</v>
+      </c>
+      <c r="E96" t="str">
+        <v>53,029.37</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>0x406d01fbF31Aeb1953b3c8F1E98aAE2BA6e8329a</v>
+      </c>
+      <c r="B97" t="str">
+        <v>172.04</v>
+      </c>
+      <c r="C97" t="str">
+        <v>172.04</v>
+      </c>
+      <c r="D97" t="str">
+        <v>0</v>
+      </c>
+      <c r="E97" t="str">
+        <v>171.65</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
+      </c>
+      <c r="B98" t="str">
+        <v>236.46</v>
+      </c>
+      <c r="C98" t="str">
+        <v>236.46</v>
+      </c>
+      <c r="D98" t="str">
+        <v>235.92</v>
+      </c>
+      <c r="E98" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+      </c>
+      <c r="B99" t="str">
+        <v>236.46</v>
+      </c>
+      <c r="C99" t="str">
+        <v>236.46</v>
+      </c>
+      <c r="D99" t="str">
+        <v>0</v>
+      </c>
+      <c r="E99" t="str">
+        <v>235.92</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>0xF2Aa3A5Df3Af1eD5ff72631A8bcFF0F0AfE060eC</v>
+      </c>
+      <c r="B100" t="str">
+        <v>176.48</v>
+      </c>
+      <c r="C100" t="str">
+        <v>176.48</v>
+      </c>
+      <c r="D100" t="str">
+        <v>23.76</v>
+      </c>
+      <c r="E100" t="str">
+        <v>152.32</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>0xc01bdF2F593bbbFe1e15540c818c57f919466D7B</v>
+      </c>
+      <c r="B101" t="str">
+        <v>210.89</v>
+      </c>
+      <c r="C101" t="str">
+        <v>210.89</v>
+      </c>
+      <c r="D101" t="str">
+        <v>152.32</v>
+      </c>
+      <c r="E101" t="str">
+        <v>58.09</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+      </c>
+      <c r="B102" t="str">
+        <v>251.74</v>
+      </c>
+      <c r="C102" t="str">
+        <v>251.74</v>
+      </c>
+      <c r="D102" t="str">
+        <v>0</v>
+      </c>
+      <c r="E102" t="str">
+        <v>251.17</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>0x8D61A43F4D07a78132D5239D5B84e3D46205bED2</v>
+      </c>
+      <c r="B103" t="str">
+        <v>74.07</v>
+      </c>
+      <c r="C103" t="str">
+        <v>74.07</v>
+      </c>
+      <c r="D103" t="str">
+        <v>73.91</v>
+      </c>
+      <c r="E103" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>0xC65cA88Bd73441A540590CB547F978afe8d503bb</v>
+      </c>
+      <c r="B104" t="str">
+        <v>1,413.54</v>
+      </c>
+      <c r="C104" t="str">
+        <v>1,413.54</v>
+      </c>
+      <c r="D104" t="str">
+        <v>1,410.31</v>
+      </c>
+      <c r="E104" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+      </c>
+      <c r="B105" t="str">
+        <v>10,045.88</v>
+      </c>
+      <c r="C105" t="str">
+        <v>10,045.88</v>
+      </c>
+      <c r="D105" t="str">
+        <v>10,022.89</v>
+      </c>
+      <c r="E105" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>0xDd7e4E36199cC322cb61758F13708b3bC95A688c</v>
+      </c>
+      <c r="B106" t="str">
+        <v>607.04</v>
+      </c>
+      <c r="C106" t="str">
+        <v>607.04</v>
+      </c>
+      <c r="D106" t="str">
+        <v>605.66</v>
+      </c>
+      <c r="E106" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>0xf1e040d8043313C798715a5B6eAC5cfdd102A11c</v>
+      </c>
+      <c r="B107" t="str">
+        <v>57.97</v>
+      </c>
+      <c r="C107" t="str">
+        <v>57.97</v>
+      </c>
+      <c r="D107" t="str">
+        <v>57.84</v>
+      </c>
+      <c r="E107" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
+      </c>
+      <c r="B108" t="str">
+        <v>115.8</v>
+      </c>
+      <c r="C108" t="str">
+        <v>115.8</v>
+      </c>
+      <c r="D108" t="str">
+        <v>115.54</v>
+      </c>
+      <c r="E108" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
+      </c>
+      <c r="B109" t="str">
+        <v>14,296.99</v>
+      </c>
+      <c r="C109" t="str">
+        <v>14,296.99</v>
+      </c>
+      <c r="D109" t="str">
+        <v>14,264.27</v>
+      </c>
+      <c r="E109" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
+      </c>
+      <c r="B110" t="str">
+        <v>28.54</v>
+      </c>
+      <c r="C110" t="str">
+        <v>28.54</v>
+      </c>
+      <c r="D110" t="str">
+        <v>0</v>
+      </c>
+      <c r="E110" t="str">
+        <v>28.48</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
+      </c>
+      <c r="B111" t="str">
+        <v>0</v>
+      </c>
+      <c r="C111" t="str">
+        <v>721.28</v>
+      </c>
+      <c r="D111" t="str">
+        <v>719.63</v>
+      </c>
+      <c r="E111" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>0xaFAEB333D506430E09C773aCe6F9b6a8389e14B6</v>
+      </c>
+      <c r="B112" t="str">
+        <v>3,392.69</v>
+      </c>
+      <c r="C112" t="str">
+        <v>3,392.69</v>
+      </c>
+      <c r="D112" t="str">
+        <v>3,384.93</v>
+      </c>
+      <c r="E112" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>0x280a3925f1fAD53B5a263fFc0028Fbab9abE6131</v>
+      </c>
+      <c r="B113" t="str">
+        <v>9,954.4</v>
+      </c>
+      <c r="C113" t="str">
+        <v>9,954.4</v>
+      </c>
+      <c r="D113" t="str">
+        <v>6,916.89</v>
+      </c>
+      <c r="E113" t="str">
+        <v>3,014.73</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+      </c>
+      <c r="B114" t="str">
+        <v>117,695.98</v>
+      </c>
+      <c r="C114" t="str">
+        <v>117,695.98</v>
+      </c>
+      <c r="D114" t="str">
+        <v>117,426.59</v>
+      </c>
+      <c r="E114" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
+      </c>
+      <c r="B115" t="str">
+        <v>106.6</v>
+      </c>
+      <c r="C115" t="str">
+        <v>106.6</v>
+      </c>
+      <c r="D115" t="str">
+        <v>106.36</v>
+      </c>
+      <c r="E115" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+      </c>
+      <c r="B116" t="str">
+        <v>2,559.34</v>
+      </c>
+      <c r="C116" t="str">
+        <v>2,559.34</v>
+      </c>
+      <c r="D116" t="str">
+        <v>2,553.49</v>
+      </c>
+      <c r="E116" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+      </c>
+      <c r="B117" t="str">
+        <v>1,141.03</v>
+      </c>
+      <c r="C117" t="str">
+        <v>1,141.03</v>
+      </c>
+      <c r="D117" t="str">
+        <v>0</v>
+      </c>
+      <c r="E117" t="str">
+        <v>1,138.42</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
+      </c>
+      <c r="B118" t="str">
+        <v>345.58</v>
+      </c>
+      <c r="C118" t="str">
+        <v>345.58</v>
+      </c>
+      <c r="D118" t="str">
+        <v>0</v>
+      </c>
+      <c r="E118" t="str">
+        <v>344.79</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+      </c>
+      <c r="B119" t="str">
+        <v>25,631.51</v>
+      </c>
+      <c r="C119" t="str">
+        <v>25,631.51</v>
+      </c>
+      <c r="D119" t="str">
+        <v>0</v>
+      </c>
+      <c r="E119" t="str">
+        <v>25,572.85</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>0x75E0f59BC838EfBdCE76EaC57c8F4C41F23e2905</v>
+      </c>
+      <c r="B120" t="str">
+        <v>37.21</v>
+      </c>
+      <c r="C120" t="str">
+        <v>37.21</v>
+      </c>
+      <c r="D120" t="str">
+        <v>0</v>
+      </c>
+      <c r="E120" t="str">
+        <v>37.13</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
+      </c>
+      <c r="B121" t="str">
+        <v>50.11</v>
+      </c>
+      <c r="C121" t="str">
+        <v>50.11</v>
+      </c>
+      <c r="D121" t="str">
+        <v>0</v>
+      </c>
+      <c r="E121" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>0xD53314Cd179ccD3926Af264e62E3B6dAB06A6419</v>
+      </c>
+      <c r="B122" t="str">
+        <v>344.44</v>
+      </c>
+      <c r="C122" t="str">
+        <v>344.44</v>
+      </c>
+      <c r="D122" t="str">
+        <v>343.66</v>
+      </c>
+      <c r="E122" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>0xf90518CBcd4ef086891cb22C87bd4F80B61a7081</v>
+      </c>
+      <c r="B123" t="str">
+        <v>344.44</v>
+      </c>
+      <c r="C123" t="str">
+        <v>344.44</v>
+      </c>
+      <c r="D123" t="str">
+        <v>0</v>
+      </c>
+      <c r="E123" t="str">
+        <v>343.66</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>0x4FDC77D8fFDD4F8a3CbFc3De2886DfEE1FD5112f</v>
+      </c>
+      <c r="B124" t="str">
+        <v>0</v>
+      </c>
+      <c r="C124" t="str">
+        <v>172.22</v>
+      </c>
+      <c r="D124" t="str">
+        <v>171.83</v>
+      </c>
+      <c r="E124" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+      </c>
+      <c r="B125" t="str">
+        <v>0</v>
+      </c>
+      <c r="C125" t="str">
+        <v>6,038.23</v>
+      </c>
+      <c r="D125" t="str">
+        <v>0</v>
+      </c>
+      <c r="E125" t="str">
+        <v>6,024.41</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+      </c>
+      <c r="B126" t="str">
+        <v>4,426.99</v>
+      </c>
+      <c r="C126" t="str">
+        <v>4,426.99</v>
+      </c>
+      <c r="D126" t="str">
+        <v>4,416.86</v>
+      </c>
+      <c r="E126" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+      </c>
+      <c r="B127" t="str">
+        <v>274.5</v>
+      </c>
+      <c r="C127" t="str">
+        <v>274.5</v>
+      </c>
+      <c r="D127" t="str">
+        <v>0</v>
+      </c>
+      <c r="E127" t="str">
+        <v>273.88</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+      </c>
+      <c r="B128" t="str">
+        <v>697,619.5</v>
+      </c>
+      <c r="C128" t="str">
+        <v>697,619.5</v>
+      </c>
+      <c r="D128" t="str">
+        <v>348,105.62</v>
+      </c>
+      <c r="E128" t="str">
+        <v>347,917.12</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
+      </c>
+      <c r="B129" t="str">
+        <v>13,551.24</v>
+      </c>
+      <c r="C129" t="str">
+        <v>13,551.24</v>
+      </c>
+      <c r="D129" t="str">
+        <v>13,520.23</v>
+      </c>
+      <c r="E129" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
+      </c>
+      <c r="B130" t="str">
+        <v>13,551.24</v>
+      </c>
+      <c r="C130" t="str">
+        <v>13,551.24</v>
+      </c>
+      <c r="D130" t="str">
+        <v>0</v>
+      </c>
+      <c r="E130" t="str">
+        <v>13,520.23</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>0x4CEbE974145E6796dB356F3689082D2d1eEf02Bf</v>
+      </c>
+      <c r="B131" t="str">
+        <v>45.1</v>
+      </c>
+      <c r="C131" t="str">
+        <v>45.1</v>
+      </c>
+      <c r="D131" t="str">
+        <v>45</v>
+      </c>
+      <c r="E131" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
+      </c>
+      <c r="B132" t="str">
+        <v>2,248.7</v>
+      </c>
+      <c r="C132" t="str">
+        <v>2,248.7</v>
+      </c>
+      <c r="D132" t="str">
+        <v>0</v>
+      </c>
+      <c r="E132" t="str">
+        <v>2,243.56</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
+      </c>
+      <c r="B133" t="str">
+        <v>22,011.91</v>
+      </c>
+      <c r="C133" t="str">
+        <v>22,011.91</v>
+      </c>
+      <c r="D133" t="str">
+        <v>21,961.53</v>
+      </c>
+      <c r="E133" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
+      </c>
+      <c r="B134" t="str">
+        <v>11.82</v>
+      </c>
+      <c r="C134" t="str">
+        <v>11.82</v>
+      </c>
+      <c r="D134" t="str">
+        <v>0</v>
+      </c>
+      <c r="E134" t="str">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+      </c>
+      <c r="B135" t="str">
+        <v>76.34</v>
+      </c>
+      <c r="C135" t="str">
+        <v>76.34</v>
+      </c>
+      <c r="D135" t="str">
+        <v>0</v>
+      </c>
+      <c r="E135" t="str">
+        <v>76.17</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
+      </c>
+      <c r="B136" t="str">
+        <v>21,289.99</v>
+      </c>
+      <c r="C136" t="str">
+        <v>21,289.99</v>
+      </c>
+      <c r="D136" t="str">
+        <v>0</v>
+      </c>
+      <c r="E136" t="str">
+        <v>21,241.26</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>0xedaa63C95A0faB8e7Dc7A710f8b9Aa6ee461dAC7</v>
+      </c>
+      <c r="B137" t="str">
+        <v>9,858.22</v>
+      </c>
+      <c r="C137" t="str">
+        <v>9,858.22</v>
+      </c>
+      <c r="D137" t="str">
+        <v>9,835.66</v>
+      </c>
+      <c r="E137" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>0x1f259F3A113a0bA97084152Bd93C80d90752c896</v>
+      </c>
+      <c r="B138" t="str">
+        <v>23.93</v>
+      </c>
+      <c r="C138" t="str">
+        <v>23.93</v>
+      </c>
+      <c r="D138" t="str">
+        <v>23.88</v>
+      </c>
+      <c r="E138" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
+      </c>
+      <c r="B139" t="str">
+        <v>1,002.29</v>
+      </c>
+      <c r="C139" t="str">
+        <v>1,002.29</v>
+      </c>
+      <c r="D139" t="str">
+        <v>0</v>
+      </c>
+      <c r="E139" t="str">
+        <v>1,000</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>0x2fA11c3F698BEb911d823D62be4AdFf5b6F82671</v>
+      </c>
+      <c r="B140" t="str">
+        <v>7,596.53</v>
+      </c>
+      <c r="C140" t="str">
+        <v>7,596.53</v>
+      </c>
+      <c r="D140" t="str">
+        <v>7,579.15</v>
+      </c>
+      <c r="E140" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>0x8Ad7B9763377E32645D8C7Da41e28F0800a831bB</v>
+      </c>
+      <c r="B141" t="str">
+        <v>7,596.53</v>
+      </c>
+      <c r="C141" t="str">
+        <v>7,596.53</v>
+      </c>
+      <c r="D141" t="str">
+        <v>0</v>
+      </c>
+      <c r="E141" t="str">
+        <v>7,579.15</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>0x1D712193A96B4d9D4eC32108cfcde704AC9CCC9C</v>
+      </c>
+      <c r="B142" t="str">
+        <v>252.06</v>
+      </c>
+      <c r="C142" t="str">
+        <v>252.06</v>
+      </c>
+      <c r="D142" t="str">
+        <v>251.49</v>
+      </c>
+      <c r="E142" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
+      </c>
+      <c r="B143" t="str">
+        <v>125.92</v>
+      </c>
+      <c r="C143" t="str">
+        <v>125.92</v>
+      </c>
+      <c r="D143" t="str">
+        <v>125.64</v>
+      </c>
+      <c r="E143" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
+      </c>
+      <c r="B144" t="str">
+        <v>770.36</v>
+      </c>
+      <c r="C144" t="str">
+        <v>770.36</v>
+      </c>
+      <c r="D144" t="str">
+        <v>479.35</v>
+      </c>
+      <c r="E144" t="str">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
+      </c>
+      <c r="B145" t="str">
+        <v>1,507.59</v>
+      </c>
+      <c r="C145" t="str">
+        <v>1,507.59</v>
+      </c>
+      <c r="D145" t="str">
+        <v>0</v>
+      </c>
+      <c r="E145" t="str">
+        <v>1,504.14</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
+      </c>
+      <c r="B146" t="str">
+        <v>250.86</v>
+      </c>
+      <c r="C146" t="str">
+        <v>250.86</v>
+      </c>
+      <c r="D146" t="str">
+        <v>0</v>
+      </c>
+      <c r="E146" t="str">
+        <v>250.29</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
+      </c>
+      <c r="B147" t="str">
+        <v>261.25</v>
+      </c>
+      <c r="C147" t="str">
+        <v>261.25</v>
+      </c>
+      <c r="D147" t="str">
+        <v>0</v>
+      </c>
+      <c r="E147" t="str">
+        <v>260.66</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
+      </c>
+      <c r="B148" t="str">
+        <v>0</v>
+      </c>
+      <c r="C148" t="str">
+        <v>310.66</v>
+      </c>
+      <c r="D148" t="str">
+        <v>309.95</v>
+      </c>
+      <c r="E148" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>0x28207aadAe97226F70a54c25d16692197c062898</v>
+      </c>
+      <c r="B149" t="str">
+        <v>4,229.87</v>
+      </c>
+      <c r="C149" t="str">
+        <v>4,229.87</v>
+      </c>
+      <c r="D149" t="str">
+        <v>4,220.19</v>
+      </c>
+      <c r="E149" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
+      </c>
+      <c r="B150" t="str">
+        <v>240.16</v>
+      </c>
+      <c r="C150" t="str">
+        <v>240.16</v>
+      </c>
+      <c r="D150" t="str">
+        <v>239.62</v>
+      </c>
+      <c r="E150" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>0xc677a6C972baeCe4Bf9C0a2EbB600886F0300a7D</v>
+      </c>
+      <c r="B151" t="str">
+        <v>27,703.99</v>
+      </c>
+      <c r="C151" t="str">
+        <v>27,703.99</v>
+      </c>
+      <c r="D151" t="str">
+        <v>27,640.58</v>
+      </c>
+      <c r="E151" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>0x0feD39AC6093e042825EfE8862f37dc8425B8f74</v>
+      </c>
+      <c r="B152" t="str">
+        <v>453.43</v>
+      </c>
+      <c r="C152" t="str">
+        <v>453.43</v>
+      </c>
+      <c r="D152" t="str">
+        <v>0</v>
+      </c>
+      <c r="E152" t="str">
+        <v>452.4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>0x212A3caD6d1572C706959d2aeF63071e61914bf2</v>
+      </c>
+      <c r="B153" t="str">
+        <v>594.88</v>
+      </c>
+      <c r="C153" t="str">
+        <v>594.88</v>
+      </c>
+      <c r="D153" t="str">
+        <v>593.52</v>
+      </c>
+      <c r="E153" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>0xF1ea664AbbA3452bc6cA6B289a6059613855805B</v>
+      </c>
+      <c r="B154" t="str">
+        <v>594.88</v>
+      </c>
+      <c r="C154" t="str">
+        <v>594.88</v>
+      </c>
+      <c r="D154" t="str">
+        <v>0</v>
+      </c>
+      <c r="E154" t="str">
+        <v>593.52</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
+      </c>
+      <c r="B155" t="str">
+        <v>681.91</v>
+      </c>
+      <c r="C155" t="str">
+        <v>681.91</v>
+      </c>
+      <c r="D155" t="str">
+        <v>265.35</v>
+      </c>
+      <c r="E155" t="str">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
+      </c>
+      <c r="B156" t="str">
+        <v>681.91</v>
+      </c>
+      <c r="C156" t="str">
+        <v>681.91</v>
+      </c>
+      <c r="D156" t="str">
+        <v>415</v>
+      </c>
+      <c r="E156" t="str">
+        <v>265.35</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>0xD4588f639D5C9E922a3283E013D58a115911c63c</v>
+      </c>
+      <c r="B157" t="str">
+        <v>234.77</v>
+      </c>
+      <c r="C157" t="str">
+        <v>234.77</v>
+      </c>
+      <c r="D157" t="str">
+        <v>234.24</v>
+      </c>
+      <c r="E157" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>0xc4a806D25d423059bb2E5D6aFc7dC5E046518E15</v>
+      </c>
+      <c r="B158" t="str">
+        <v>5,765.12</v>
+      </c>
+      <c r="C158" t="str">
+        <v>5,765.12</v>
+      </c>
+      <c r="D158" t="str">
+        <v>0</v>
+      </c>
+      <c r="E158" t="str">
+        <v>5,751.93</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
+      </c>
+      <c r="B159" t="str">
+        <v>0</v>
+      </c>
+      <c r="C159" t="str">
+        <v>6.97</v>
+      </c>
+      <c r="D159" t="str">
+        <v>0</v>
+      </c>
+      <c r="E159" t="str">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+      </c>
+      <c r="B160" t="str">
+        <v>6,971.73</v>
+      </c>
+      <c r="C160" t="str">
+        <v>6,971.73</v>
+      </c>
+      <c r="D160" t="str">
+        <v>0</v>
+      </c>
+      <c r="E160" t="str">
+        <v>6,955.78</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>0xD51a57fa53a22A063088950FfB92ddAFFa214141</v>
+      </c>
+      <c r="B161" t="str">
+        <v>375.86</v>
+      </c>
+      <c r="C161" t="str">
+        <v>375.86</v>
+      </c>
+      <c r="D161" t="str">
+        <v>375</v>
+      </c>
+      <c r="E161" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>0x04BA03baabB1e9221520fD9c31505a0d4c073167</v>
+      </c>
+      <c r="B162" t="str">
+        <v>375.86</v>
+      </c>
+      <c r="C162" t="str">
+        <v>375.86</v>
+      </c>
+      <c r="D162" t="str">
+        <v>0</v>
+      </c>
+      <c r="E162" t="str">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>0x094CAE95AB3744453Cf7Ce9251dFDD816C3C810E</v>
+      </c>
+      <c r="B163" t="str">
+        <v>117.53</v>
+      </c>
+      <c r="C163" t="str">
+        <v>117.53</v>
+      </c>
+      <c r="D163" t="str">
+        <v>117.27</v>
+      </c>
+      <c r="E163" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>0xE77dF488D556c00355342b8Be573702011C86750</v>
+      </c>
+      <c r="B164" t="str">
+        <v>179.53</v>
+      </c>
+      <c r="C164" t="str">
+        <v>179.53</v>
+      </c>
+      <c r="D164" t="str">
+        <v>179.12</v>
+      </c>
+      <c r="E164" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>0xcE1290F5457067497EAd8Aea22515d52ca94357E</v>
+      </c>
+      <c r="B165" t="str">
+        <v>118.29</v>
+      </c>
+      <c r="C165" t="str">
+        <v>118.29</v>
+      </c>
+      <c r="D165" t="str">
+        <v>0</v>
+      </c>
+      <c r="E165" t="str">
+        <v>118.02</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
+      </c>
+      <c r="B166" t="str">
+        <v>120.74</v>
+      </c>
+      <c r="C166" t="str">
+        <v>120.74</v>
+      </c>
+      <c r="D166" t="str">
+        <v>120.47</v>
+      </c>
+      <c r="E166" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+      </c>
+      <c r="B167" t="str">
+        <v>120.74</v>
+      </c>
+      <c r="C167" t="str">
+        <v>120.74</v>
+      </c>
+      <c r="D167" t="str">
+        <v>0</v>
+      </c>
+      <c r="E167" t="str">
+        <v>120.47</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
+      </c>
+      <c r="B168" t="str">
+        <v>58.5</v>
+      </c>
+      <c r="C168" t="str">
+        <v>58.5</v>
+      </c>
+      <c r="D168" t="str">
+        <v>0</v>
+      </c>
+      <c r="E168" t="str">
+        <v>58.37</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+      </c>
+      <c r="B169" t="str">
+        <v>470.64</v>
+      </c>
+      <c r="C169" t="str">
+        <v>470.64</v>
+      </c>
+      <c r="D169" t="str">
+        <v>0</v>
+      </c>
+      <c r="E169" t="str">
+        <v>469.57</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>0xAFA44A7514ad85793Bc10C56DD731aEe4EA854F3</v>
+      </c>
+      <c r="B170" t="str">
+        <v>241.27</v>
+      </c>
+      <c r="C170" t="str">
+        <v>241.27</v>
+      </c>
+      <c r="D170" t="str">
+        <v>0</v>
+      </c>
+      <c r="E170" t="str">
+        <v>240.72</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>0xe19CE573b43a5C9232e48A267FC2E16b1A9c456e</v>
+      </c>
+      <c r="B171" t="str">
+        <v>9,271.83</v>
+      </c>
+      <c r="C171" t="str">
+        <v>9,271.83</v>
+      </c>
+      <c r="D171" t="str">
+        <v>9,130.52</v>
+      </c>
+      <c r="E171" t="str">
+        <v>120.09</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>0xE5C4701D49AF62E8A92739d5CCc6453D864A79B6</v>
+      </c>
+      <c r="B172" t="str">
+        <v>1,203.95</v>
+      </c>
+      <c r="C172" t="str">
+        <v>1,203.95</v>
+      </c>
+      <c r="D172" t="str">
+        <v>1,201.2</v>
+      </c>
+      <c r="E172" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>0xa9d05788ed070B6a304C89b6eFf0a00361ABc2df</v>
+      </c>
+      <c r="B173" t="str">
+        <v>1,203.95</v>
+      </c>
+      <c r="C173" t="str">
+        <v>1,203.95</v>
+      </c>
+      <c r="D173" t="str">
+        <v>0</v>
+      </c>
+      <c r="E173" t="str">
+        <v>1,201.2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>0xA678C16Ecca94a90764973FedEbE71d524FAfF84</v>
+      </c>
+      <c r="B174" t="str">
+        <v>6,463.44</v>
+      </c>
+      <c r="C174" t="str">
+        <v>6,463.44</v>
+      </c>
+      <c r="D174" t="str">
+        <v>0</v>
+      </c>
+      <c r="E174" t="str">
+        <v>6,448.65</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
+      </c>
+      <c r="B175" t="str">
+        <v>7,825.45</v>
+      </c>
+      <c r="C175" t="str">
+        <v>7,825.45</v>
+      </c>
+      <c r="D175" t="str">
+        <v>7,807.54</v>
+      </c>
+      <c r="E175" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
+      </c>
+      <c r="B176" t="str">
+        <v>43.34</v>
+      </c>
+      <c r="C176" t="str">
+        <v>43.34</v>
+      </c>
+      <c r="D176" t="str">
+        <v>0</v>
+      </c>
+      <c r="E176" t="str">
+        <v>43.25</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>0x9A4dbCDE63b55273DC51BeA546A7ba6456f059D0</v>
+      </c>
+      <c r="B177" t="str">
+        <v>1,206.85</v>
+      </c>
+      <c r="C177" t="str">
+        <v>1,206.85</v>
+      </c>
+      <c r="D177" t="str">
+        <v>0</v>
+      </c>
+      <c r="E177" t="str">
+        <v>1,204.09</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>0x5C55e86A38d24BE5fF7f12221BF674C95FB188a7</v>
+      </c>
+      <c r="B178" t="str">
+        <v>691.35</v>
+      </c>
+      <c r="C178" t="str">
+        <v>691.35</v>
+      </c>
+      <c r="D178" t="str">
+        <v>0</v>
+      </c>
+      <c r="E178" t="str">
+        <v>689.77</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>0x19dDC06bd36C69D830e6f958FC244aacd1c266f2</v>
+      </c>
+      <c r="B179" t="str">
+        <v>5.01</v>
+      </c>
+      <c r="C179" t="str">
+        <v>5.01</v>
+      </c>
+      <c r="D179" t="str">
+        <v>5</v>
+      </c>
+      <c r="E179" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+      </c>
+      <c r="B180" t="str">
+        <v>410.94</v>
+      </c>
+      <c r="C180" t="str">
+        <v>410.94</v>
+      </c>
+      <c r="D180" t="str">
+        <v>0</v>
+      </c>
+      <c r="E180" t="str">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+      </c>
+      <c r="B181" t="str">
+        <v>30.51</v>
+      </c>
+      <c r="C181" t="str">
+        <v>30.51</v>
+      </c>
+      <c r="D181" t="str">
+        <v>30.45</v>
+      </c>
+      <c r="E181" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>0x5Eb272c936045FBA109B92A1c2BBE54523f0f1CA</v>
+      </c>
+      <c r="B182" t="str">
+        <v>775.93</v>
+      </c>
+      <c r="C182" t="str">
+        <v>775.93</v>
+      </c>
+      <c r="D182" t="str">
+        <v>774.16</v>
+      </c>
+      <c r="E182" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
+      </c>
+      <c r="B183" t="str">
+        <v>585.93</v>
+      </c>
+      <c r="C183" t="str">
+        <v>585.93</v>
+      </c>
+      <c r="D183" t="str">
+        <v>0</v>
+      </c>
+      <c r="E183" t="str">
+        <v>584.59</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+      </c>
+      <c r="B184" t="str">
+        <v>25.85</v>
+      </c>
+      <c r="C184" t="str">
+        <v>25.85</v>
+      </c>
+      <c r="D184" t="str">
+        <v>0</v>
+      </c>
+      <c r="E184" t="str">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>0x72d20dcB42DC91D2Dc1DB60375e1945e23708130</v>
+      </c>
+      <c r="B185" t="str">
+        <v>288.05</v>
+      </c>
+      <c r="C185" t="str">
+        <v>288.05</v>
+      </c>
+      <c r="D185" t="str">
+        <v>287.4</v>
+      </c>
+      <c r="E185" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
+      </c>
+      <c r="B186" t="str">
+        <v>8,163.64</v>
+      </c>
+      <c r="C186" t="str">
+        <v>8,163.64</v>
+      </c>
+      <c r="D186" t="str">
+        <v>0</v>
+      </c>
+      <c r="E186" t="str">
+        <v>8,144.96</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>0x09aFEC89b908C2cbD220942f3788530C195Ba894</v>
+      </c>
+      <c r="B187" t="str">
+        <v>7.77</v>
+      </c>
+      <c r="C187" t="str">
+        <v>7.77</v>
+      </c>
+      <c r="D187" t="str">
+        <v>0</v>
+      </c>
+      <c r="E187" t="str">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>0xA918ADC20A91e7C932e6E00e436D710DA71C765C</v>
+      </c>
+      <c r="B188" t="str">
+        <v>289.91</v>
+      </c>
+      <c r="C188" t="str">
+        <v>289.91</v>
+      </c>
+      <c r="D188" t="str">
+        <v>289.25</v>
+      </c>
+      <c r="E188" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>0x7e729b21005cF2FDda685bA7Bef04c6Dc3DcD444</v>
+      </c>
+      <c r="B189" t="str">
+        <v>1.32</v>
+      </c>
+      <c r="C189" t="str">
+        <v>1.32</v>
+      </c>
+      <c r="D189" t="str">
+        <v>1.32</v>
+      </c>
+      <c r="E189" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>0x9AB469940cDC998d67F116Bd47A0859f74AAA202</v>
+      </c>
+      <c r="B190" t="str">
+        <v>1,152.1</v>
+      </c>
+      <c r="C190" t="str">
+        <v>1,152.1</v>
+      </c>
+      <c r="D190" t="str">
+        <v>0</v>
+      </c>
+      <c r="E190" t="str">
+        <v>1,149.47</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
+      </c>
+      <c r="B191" t="str">
+        <v>0</v>
+      </c>
+      <c r="C191" t="str">
+        <v>176.63</v>
+      </c>
+      <c r="D191" t="str">
+        <v>176.23</v>
+      </c>
+      <c r="E191" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
+      </c>
+      <c r="B192" t="str">
+        <v>176.63</v>
+      </c>
+      <c r="C192" t="str">
+        <v>176.63</v>
+      </c>
+      <c r="D192" t="str">
+        <v>0</v>
+      </c>
+      <c r="E192" t="str">
+        <v>176.23</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
+      </c>
+      <c r="B193" t="str">
+        <v>35.61</v>
+      </c>
+      <c r="C193" t="str">
+        <v>35.61</v>
+      </c>
+      <c r="D193" t="str">
+        <v>0</v>
+      </c>
+      <c r="E193" t="str">
+        <v>35.53</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+      </c>
+      <c r="B194" t="str">
+        <v>507.69</v>
+      </c>
+      <c r="C194" t="str">
+        <v>507.69</v>
+      </c>
+      <c r="D194" t="str">
+        <v>506.53</v>
+      </c>
+      <c r="E194" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
+      </c>
+      <c r="B195" t="str">
+        <v>6.99</v>
+      </c>
+      <c r="C195" t="str">
+        <v>6.99</v>
+      </c>
+      <c r="D195" t="str">
+        <v>0</v>
+      </c>
+      <c r="E195" t="str">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>0xa8CE35A87d51EaC37675c1Cf7C5d6435a3b2079A</v>
+      </c>
+      <c r="B196" t="str">
+        <v>5,011.47</v>
+      </c>
+      <c r="C196" t="str">
+        <v>5,011.47</v>
+      </c>
+      <c r="D196" t="str">
+        <v>0</v>
+      </c>
+      <c r="E196" t="str">
+        <v>5,000</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>0xf1aCBD5dd358c3252ADaa77bDc920cafff2eC0fA</v>
+      </c>
+      <c r="B197" t="str">
+        <v>60.47</v>
+      </c>
+      <c r="C197" t="str">
+        <v>60.47</v>
+      </c>
+      <c r="D197" t="str">
+        <v>0</v>
+      </c>
+      <c r="E197" t="str">
+        <v>60.34</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Total</v>
+      </c>
+      <c r="B198" t="str">
+        <v>3,153,071.88</v>
+      </c>
+      <c r="C198" t="str">
+        <v>3,205,127.26</v>
+      </c>
+      <c r="D198" t="str">
+        <v>1,493,171.81</v>
+      </c>
+      <c r="E198" t="str">
+        <v>1,704,620.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E198"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E226"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -29934,50 +33315,50 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
+        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
       </c>
       <c r="B2" t="str">
-        <v>458.24</v>
+        <v>2,584.76</v>
       </c>
       <c r="C2" t="str">
-        <v>458.24</v>
+        <v>2,584.76</v>
       </c>
       <c r="D2" t="str">
-        <v>0</v>
+        <v>2,750</v>
       </c>
       <c r="E2" t="str">
-        <v>457.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
       </c>
       <c r="B3" t="str">
-        <v>34,326.22</v>
+        <v>6,524.02</v>
       </c>
       <c r="C3" t="str">
-        <v>34,326.22</v>
+        <v>6,524.02</v>
       </c>
       <c r="D3" t="str">
-        <v>34,247.66</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>0</v>
+        <v>6,941.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>0xA2dedC6558D68Adf5143f526D577308e2C11A843</v>
+        <v>0x7DDA419096b8c81d4A5E6cc65ea0D380D0A1b6E4</v>
       </c>
       <c r="B4" t="str">
-        <v>1,140.87</v>
+        <v>26.92</v>
       </c>
       <c r="C4" t="str">
-        <v>1,140.87</v>
+        <v>26.92</v>
       </c>
       <c r="D4" t="str">
-        <v>1,138.26</v>
+        <v>28.65</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
@@ -29985,101 +33366,101 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>0xEEe37E83b74Ebf3679962F6199dADF968E74efa5</v>
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
       </c>
       <c r="B5" t="str">
-        <v>1,140.87</v>
+        <v>2,861.38</v>
       </c>
       <c r="C5" t="str">
-        <v>1,140.87</v>
+        <v>2,861.38</v>
       </c>
       <c r="D5" t="str">
-        <v>0</v>
+        <v>2,127.18</v>
       </c>
       <c r="E5" t="str">
-        <v>1,138.26</v>
+        <v>917.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
+        <v>0xc677a6C972baeCe4Bf9C0a2EbB600886F0300a7D</v>
       </c>
       <c r="B6" t="str">
-        <v>2,006.69</v>
+        <v>5,584.33</v>
       </c>
       <c r="C6" t="str">
-        <v>2,006.69</v>
+        <v>5,584.33</v>
       </c>
       <c r="D6" t="str">
-        <v>875.74</v>
+        <v>5,941.33</v>
       </c>
       <c r="E6" t="str">
-        <v>1,126.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
       </c>
       <c r="B7" t="str">
-        <v>133,988.56</v>
+        <v>65,277.34</v>
       </c>
       <c r="C7" t="str">
-        <v>133,988.56</v>
+        <v>65,277.34</v>
       </c>
       <c r="D7" t="str">
-        <v>6.96</v>
+        <v>16,501.02</v>
       </c>
       <c r="E7" t="str">
-        <v>133,674.92</v>
+        <v>52,949.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
       </c>
       <c r="B8" t="str">
-        <v>9,196.3</v>
+        <v>89,490.81</v>
       </c>
       <c r="C8" t="str">
-        <v>9,196.3</v>
+        <v>89,490.81</v>
       </c>
       <c r="D8" t="str">
-        <v>3,868.74</v>
+        <v>41,948.89</v>
       </c>
       <c r="E8" t="str">
-        <v>5,306.52</v>
+        <v>53,262.81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
       </c>
       <c r="B9" t="str">
-        <v>16,642.6</v>
+        <v>3,568.52</v>
       </c>
       <c r="C9" t="str">
-        <v>16,642.6</v>
+        <v>3,568.52</v>
       </c>
       <c r="D9" t="str">
-        <v>0</v>
+        <v>2,756.03</v>
       </c>
       <c r="E9" t="str">
-        <v>16,604.51</v>
+        <v>1,040.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>0x092F2C7B8daf5e94e9bF990ceDE5f2d4fD318B22</v>
+        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
       </c>
       <c r="B10" t="str">
-        <v>389.06</v>
+        <v>755.3</v>
       </c>
       <c r="C10" t="str">
-        <v>389.06</v>
+        <v>755.3</v>
       </c>
       <c r="D10" t="str">
-        <v>388.17</v>
+        <v>803.59</v>
       </c>
       <c r="E10" t="str">
         <v>0</v>
@@ -30087,33 +33468,33 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
       </c>
       <c r="B11" t="str">
-        <v>2,832.63</v>
+        <v>13,374.56</v>
       </c>
       <c r="C11" t="str">
-        <v>2,832.63</v>
+        <v>13,374.56</v>
       </c>
       <c r="D11" t="str">
-        <v>2,826.15</v>
+        <v>5,699.73</v>
       </c>
       <c r="E11" t="str">
-        <v>0</v>
+        <v>8,529.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
+        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
       </c>
       <c r="B12" t="str">
-        <v>296.33</v>
+        <v>317.7</v>
       </c>
       <c r="C12" t="str">
-        <v>296.33</v>
+        <v>317.7</v>
       </c>
       <c r="D12" t="str">
-        <v>295.66</v>
+        <v>338.02</v>
       </c>
       <c r="E12" t="str">
         <v>0</v>
@@ -30121,135 +33502,135 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>0xE32A6FAf659859D331f7Ec7D38Ad3925AaFBEc45</v>
+        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
       </c>
       <c r="B13" t="str">
-        <v>7,804.53</v>
+        <v>1,838.21</v>
       </c>
       <c r="C13" t="str">
-        <v>7,804.53</v>
+        <v>1,838.21</v>
       </c>
       <c r="D13" t="str">
-        <v>7,786.67</v>
+        <v>146</v>
       </c>
       <c r="E13" t="str">
-        <v>0</v>
+        <v>1,809.73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>0x2Ac0D00cd67535221C29B756e91175454f62Fb0b</v>
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
       </c>
       <c r="B14" t="str">
-        <v>7,804.53</v>
+        <v>1,374.65</v>
       </c>
       <c r="C14" t="str">
-        <v>7,804.53</v>
+        <v>1,374.65</v>
       </c>
       <c r="D14" t="str">
-        <v>0</v>
+        <v>1,462.53</v>
       </c>
       <c r="E14" t="str">
-        <v>7,786.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+        <v>0x7aD2809008E5DA0c33A72f9144e7970a996D5B6D</v>
       </c>
       <c r="B15" t="str">
-        <v>53,683.24</v>
+        <v>2,037.27</v>
       </c>
       <c r="C15" t="str">
-        <v>53,683.24</v>
+        <v>2,037.27</v>
       </c>
       <c r="D15" t="str">
-        <v>16,110.79</v>
+        <v>2,125</v>
       </c>
       <c r="E15" t="str">
-        <v>37,449.58</v>
+        <v>42.51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
       </c>
       <c r="B16" t="str">
-        <v>0</v>
+        <v>1,777.22</v>
       </c>
       <c r="C16" t="str">
-        <v>14,807.92</v>
+        <v>1,777.22</v>
       </c>
       <c r="D16" t="str">
-        <v>13,524.03</v>
+        <v>1,890.84</v>
       </c>
       <c r="E16" t="str">
-        <v>1,250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
       </c>
       <c r="B17" t="str">
-        <v>5,453.83</v>
+        <v>1,777.22</v>
       </c>
       <c r="C17" t="str">
-        <v>5,453.83</v>
+        <v>1,777.22</v>
       </c>
       <c r="D17" t="str">
-        <v>183.13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>5,258.22</v>
+        <v>1,890.84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
+        <v>0xD1E51324E7F061311b80471B996d64fB837f1c55</v>
       </c>
       <c r="B18" t="str">
-        <v>2,689.57</v>
+        <v>63.26</v>
       </c>
       <c r="C18" t="str">
-        <v>2,689.57</v>
+        <v>63.26</v>
       </c>
       <c r="D18" t="str">
-        <v>0</v>
+        <v>67.31</v>
       </c>
       <c r="E18" t="str">
-        <v>2,683.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>0xdfd7445EF7dB056F68cEdEB4c1A709d02C0c3AA7</v>
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
       </c>
       <c r="B19" t="str">
-        <v>278.96</v>
+        <v>31,228.11</v>
       </c>
       <c r="C19" t="str">
-        <v>278.96</v>
+        <v>31,228.11</v>
       </c>
       <c r="D19" t="str">
-        <v>220.49</v>
+        <v>33,224.44</v>
       </c>
       <c r="E19" t="str">
-        <v>57.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
+        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
       </c>
       <c r="B20" t="str">
-        <v>28.54</v>
+        <v>939.91</v>
       </c>
       <c r="C20" t="str">
-        <v>28.54</v>
+        <v>939.91</v>
       </c>
       <c r="D20" t="str">
-        <v>28.48</v>
+        <v>1,000</v>
       </c>
       <c r="E20" t="str">
         <v>0</v>
@@ -30257,33 +33638,33 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
+        <v>0xF1D275F804a6b3d3f75B7C08150178836E56dE8B</v>
       </c>
       <c r="B21" t="str">
-        <v>34.4</v>
+        <v>1,441.81</v>
       </c>
       <c r="C21" t="str">
-        <v>34.4</v>
+        <v>1,441.81</v>
       </c>
       <c r="D21" t="str">
-        <v>34.33</v>
+        <v>0</v>
       </c>
       <c r="E21" t="str">
-        <v>0</v>
+        <v>1,533.99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>0x7B7e4eEA4BE17A75d0c2E72fcEe2c91DcfeACC45</v>
+        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
       </c>
       <c r="B22" t="str">
-        <v>1,030.07</v>
+        <v>102.35</v>
       </c>
       <c r="C22" t="str">
-        <v>1,030.07</v>
+        <v>102.35</v>
       </c>
       <c r="D22" t="str">
-        <v>1,027.72</v>
+        <v>108.9</v>
       </c>
       <c r="E22" t="str">
         <v>0</v>
@@ -30291,67 +33672,67 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
       </c>
       <c r="B23" t="str">
-        <v>117,695.98</v>
+        <v>1,875.77</v>
       </c>
       <c r="C23" t="str">
-        <v>117,695.98</v>
+        <v>1,875.77</v>
       </c>
       <c r="D23" t="str">
-        <v>0</v>
+        <v>1,995.69</v>
       </c>
       <c r="E23" t="str">
-        <v>117,426.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>0xdAed012E9aB6746d6D048Fe9730AdC888b5610d5</v>
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
       </c>
       <c r="B24" t="str">
-        <v>22.91</v>
+        <v>644,604.49</v>
       </c>
       <c r="C24" t="str">
-        <v>22.91</v>
+        <v>644,604.49</v>
       </c>
       <c r="D24" t="str">
-        <v>22.86</v>
+        <v>347,884.08</v>
       </c>
       <c r="E24" t="str">
-        <v>0</v>
+        <v>337,928.12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
+        <v>0x3F3Cb523ce45c048c07081925CBd588a6C601b72</v>
       </c>
       <c r="B25" t="str">
-        <v>25,248.15</v>
+        <v>52.11</v>
       </c>
       <c r="C25" t="str">
-        <v>25,248.15</v>
+        <v>52.11</v>
       </c>
       <c r="D25" t="str">
-        <v>25,093.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="str">
-        <v>96.87</v>
+        <v>55.45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>0xdFdf143A6a12185023e01ddC61092Ac97eCB6c05</v>
+        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
       </c>
       <c r="B26" t="str">
-        <v>250.57</v>
+        <v>948.06</v>
       </c>
       <c r="C26" t="str">
-        <v>250.57</v>
+        <v>948.06</v>
       </c>
       <c r="D26" t="str">
-        <v>250</v>
+        <v>1,008.67</v>
       </c>
       <c r="E26" t="str">
         <v>0</v>
@@ -30359,16 +33740,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
       </c>
       <c r="B27" t="str">
-        <v>5,330.35</v>
+        <v>7,207.53</v>
       </c>
       <c r="C27" t="str">
-        <v>5,330.35</v>
+        <v>7,207.53</v>
       </c>
       <c r="D27" t="str">
-        <v>5,318.15</v>
+        <v>7,668.29</v>
       </c>
       <c r="E27" t="str">
         <v>0</v>
@@ -30376,50 +33757,50 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+        <v>0x7A7d706D6578FE3DD1540dC69b31de7C8C0c20d2</v>
       </c>
       <c r="B28" t="str">
-        <v>5,330.35</v>
+        <v>109.81</v>
       </c>
       <c r="C28" t="str">
-        <v>5,330.35</v>
+        <v>109.81</v>
       </c>
       <c r="D28" t="str">
-        <v>0</v>
+        <v>116.84</v>
       </c>
       <c r="E28" t="str">
-        <v>5,318.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
+        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
       </c>
       <c r="B29" t="str">
-        <v>702.1</v>
+        <v>541.2</v>
       </c>
       <c r="C29" t="str">
-        <v>702.1</v>
+        <v>541.2</v>
       </c>
       <c r="D29" t="str">
-        <v>0</v>
+        <v>575.8</v>
       </c>
       <c r="E29" t="str">
-        <v>700.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>0xd8F99Ed87B63b959354a60bade853FddddF9d965</v>
+        <v>0xd63c4fE2E52948079b40d0eFd5FBa8a5F54aB32b</v>
       </c>
       <c r="B30" t="str">
-        <v>21.93</v>
+        <v>7,130.5</v>
       </c>
       <c r="C30" t="str">
-        <v>21.93</v>
+        <v>7,130.5</v>
       </c>
       <c r="D30" t="str">
-        <v>21.88</v>
+        <v>7,586.34</v>
       </c>
       <c r="E30" t="str">
         <v>0</v>
@@ -30427,33 +33808,33 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+        <v>0xA678C16Ecca94a90764973FedEbE71d524FAfF84</v>
       </c>
       <c r="B31" t="str">
-        <v>22,011.91</v>
+        <v>7,130.5</v>
       </c>
       <c r="C31" t="str">
-        <v>22,011.91</v>
+        <v>7,130.5</v>
       </c>
       <c r="D31" t="str">
         <v>0</v>
       </c>
       <c r="E31" t="str">
-        <v>21,961.53</v>
+        <v>7,586.34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
       </c>
       <c r="B32" t="str">
-        <v>76.34</v>
+        <v>14,098.71</v>
       </c>
       <c r="C32" t="str">
-        <v>76.34</v>
+        <v>14,098.71</v>
       </c>
       <c r="D32" t="str">
-        <v>76.17</v>
+        <v>15,000</v>
       </c>
       <c r="E32" t="str">
         <v>0</v>
@@ -30461,16 +33842,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
       </c>
       <c r="B33" t="str">
-        <v>104.01</v>
+        <v>210.52</v>
       </c>
       <c r="C33" t="str">
-        <v>104.01</v>
+        <v>210.52</v>
       </c>
       <c r="D33" t="str">
-        <v>103.78</v>
+        <v>223.98</v>
       </c>
       <c r="E33" t="str">
         <v>0</v>
@@ -30478,16 +33859,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>0x5099ccbB5FC14BF6ea516EE6CC3e6B209a7aA8C6</v>
+        <v>0xf941B6d81ff3BBc9E6eb182887a1FAE58fcE9fCE</v>
       </c>
       <c r="B34" t="str">
-        <v>597.22</v>
+        <v>394.93</v>
       </c>
       <c r="C34" t="str">
-        <v>597.22</v>
+        <v>394.93</v>
       </c>
       <c r="D34" t="str">
-        <v>595.86</v>
+        <v>420.18</v>
       </c>
       <c r="E34" t="str">
         <v>0</v>
@@ -30495,33 +33876,33 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
+        <v>0xF2Aa3A5Df3Af1eD5ff72631A8bcFF0F0AfE060eC</v>
       </c>
       <c r="B35" t="str">
-        <v>250.86</v>
+        <v>5,641.76</v>
       </c>
       <c r="C35" t="str">
-        <v>250.86</v>
+        <v>5,641.76</v>
       </c>
       <c r="D35" t="str">
-        <v>250.29</v>
+        <v>2,255.95</v>
       </c>
       <c r="E35" t="str">
-        <v>0</v>
+        <v>3,746.48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
+        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
       </c>
       <c r="B36" t="str">
-        <v>261.25</v>
+        <v>26.48</v>
       </c>
       <c r="C36" t="str">
-        <v>261.25</v>
+        <v>26.48</v>
       </c>
       <c r="D36" t="str">
-        <v>260.66</v>
+        <v>28.18</v>
       </c>
       <c r="E36" t="str">
         <v>0</v>
@@ -30529,16 +33910,16 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
+        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
       </c>
       <c r="B37" t="str">
-        <v>407.21</v>
+        <v>479.41</v>
       </c>
       <c r="C37" t="str">
-        <v>407.21</v>
+        <v>479.41</v>
       </c>
       <c r="D37" t="str">
-        <v>406.28</v>
+        <v>510.06</v>
       </c>
       <c r="E37" t="str">
         <v>0</v>
@@ -30546,50 +33927,50 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
       </c>
       <c r="B38" t="str">
-        <v>183.55</v>
+        <v>128,219.46</v>
       </c>
       <c r="C38" t="str">
-        <v>183.55</v>
+        <v>128,219.46</v>
       </c>
       <c r="D38" t="str">
-        <v>0</v>
+        <v>136,416.16</v>
       </c>
       <c r="E38" t="str">
-        <v>183.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>0xF3FA7EB53b74e2A29f36108f18f12f50616168d1</v>
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
       </c>
       <c r="B39" t="str">
-        <v>5,925.85</v>
+        <v>128,219.46</v>
       </c>
       <c r="C39" t="str">
-        <v>5,925.85</v>
+        <v>128,219.46</v>
       </c>
       <c r="D39" t="str">
-        <v>5,912.29</v>
+        <v>0</v>
       </c>
       <c r="E39" t="str">
-        <v>0</v>
+        <v>136,416.16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>0x096454fa85d4bD21CBB9134966c417f2e40C288C</v>
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
       </c>
       <c r="B40" t="str">
-        <v>1,893.03</v>
+        <v>73.75</v>
       </c>
       <c r="C40" t="str">
-        <v>1,893.03</v>
+        <v>73.75</v>
       </c>
       <c r="D40" t="str">
-        <v>1,888.7</v>
+        <v>78.47</v>
       </c>
       <c r="E40" t="str">
         <v>0</v>
@@ -30597,16 +33978,16 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
+        <v>0x942E746C384bec88Dfa6164e8d699858E9988FeB</v>
       </c>
       <c r="B41" t="str">
-        <v>1,118.11</v>
+        <v>1,217.92</v>
       </c>
       <c r="C41" t="str">
-        <v>1,118.11</v>
+        <v>1,217.92</v>
       </c>
       <c r="D41" t="str">
-        <v>1,115.56</v>
+        <v>1,295.78</v>
       </c>
       <c r="E41" t="str">
         <v>0</v>
@@ -30614,101 +33995,101 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>0x964087989Df5D5e89cF7527b72A3949367a337bA</v>
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
       </c>
       <c r="B42" t="str">
-        <v>2,933.69</v>
+        <v>1,239.98</v>
       </c>
       <c r="C42" t="str">
-        <v>2,933.69</v>
+        <v>1,239.98</v>
       </c>
       <c r="D42" t="str">
-        <v>2,926.98</v>
+        <v>0</v>
       </c>
       <c r="E42" t="str">
-        <v>0</v>
+        <v>1,319.25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>0xD957cc84a2B565e7572a8F02A39e487466c3bFF7</v>
+        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
       </c>
       <c r="B43" t="str">
-        <v>234.77</v>
+        <v>4,789.07</v>
       </c>
       <c r="C43" t="str">
-        <v>234.77</v>
+        <v>4,789.07</v>
       </c>
       <c r="D43" t="str">
-        <v>0</v>
+        <v>5,095.23</v>
       </c>
       <c r="E43" t="str">
-        <v>234.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>0xf0a8596541F839EBcC9f0A9d1442c15f43A2836E</v>
+        <v>0xe23bc0609A8Df4EA2A597AEAAFcBF421BFfBDCFd</v>
       </c>
       <c r="B44" t="str">
-        <v>341.8</v>
+        <v>590.84</v>
       </c>
       <c r="C44" t="str">
-        <v>341.8</v>
+        <v>590.84</v>
       </c>
       <c r="D44" t="str">
-        <v>0</v>
+        <v>628.62</v>
       </c>
       <c r="E44" t="str">
-        <v>341.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>0x5a46E444528E8f72897FE6C08AB2bbCC11E69096</v>
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
       </c>
       <c r="B45" t="str">
-        <v>38.97</v>
+        <v>7,188.78</v>
       </c>
       <c r="C45" t="str">
-        <v>38.97</v>
+        <v>7,188.78</v>
       </c>
       <c r="D45" t="str">
-        <v>38.89</v>
+        <v>0</v>
       </c>
       <c r="E45" t="str">
-        <v>0</v>
+        <v>7,648.34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
+        <v>0x092F2C7B8daf5e94e9bF990ceDE5f2d4fD318B22</v>
       </c>
       <c r="B46" t="str">
-        <v>1,124.05</v>
+        <v>1,339.16</v>
       </c>
       <c r="C46" t="str">
-        <v>1,124.05</v>
+        <v>1,339.16</v>
       </c>
       <c r="D46" t="str">
-        <v>1,121.48</v>
+        <v>0</v>
       </c>
       <c r="E46" t="str">
-        <v>0</v>
+        <v>1,424.77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>0x165F4f9805770Eb044Cd2A5a3f1b3E07Ba8B15e9</v>
+        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
       </c>
       <c r="B47" t="str">
-        <v>359.04</v>
+        <v>305.49</v>
       </c>
       <c r="C47" t="str">
-        <v>359.04</v>
+        <v>305.49</v>
       </c>
       <c r="D47" t="str">
-        <v>358.22</v>
+        <v>325.02</v>
       </c>
       <c r="E47" t="str">
         <v>0</v>
@@ -30716,50 +34097,50 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>0xd63c4fE2E52948079b40d0eFd5FBa8a5F54aB32b</v>
+        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
       </c>
       <c r="B48" t="str">
-        <v>6,463.44</v>
+        <v>305.49</v>
       </c>
       <c r="C48" t="str">
-        <v>6,463.44</v>
+        <v>305.49</v>
       </c>
       <c r="D48" t="str">
-        <v>6,448.65</v>
+        <v>0</v>
       </c>
       <c r="E48" t="str">
-        <v>0</v>
+        <v>325.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
       </c>
       <c r="B49" t="str">
-        <v>0</v>
+        <v>124.64</v>
       </c>
       <c r="C49" t="str">
-        <v>7,834.38</v>
+        <v>124.64</v>
       </c>
       <c r="D49" t="str">
-        <v>6,316.45</v>
+        <v>7.37</v>
       </c>
       <c r="E49" t="str">
-        <v>1,500</v>
+        <v>125.24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>0x64d564A6A6003a9fcb44f8F50b9A3C7bBea2a7E7</v>
+        <v>0xEe5358d1d36262CeFC36478E37A718FA4d7847eB</v>
       </c>
       <c r="B50" t="str">
-        <v>330.13</v>
+        <v>92.85</v>
       </c>
       <c r="C50" t="str">
-        <v>330.13</v>
+        <v>92.85</v>
       </c>
       <c r="D50" t="str">
-        <v>329.38</v>
+        <v>98.79</v>
       </c>
       <c r="E50" t="str">
         <v>0</v>
@@ -30767,16 +34148,16 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>0xa755B0E03b0C0411c64749C64F063a6600a24D8c</v>
+        <v>0x2731b9BC4c6AC6287996741A5A87D6E51D18B2EB</v>
       </c>
       <c r="B51" t="str">
-        <v>841.16</v>
+        <v>1,222.16</v>
       </c>
       <c r="C51" t="str">
-        <v>841.16</v>
+        <v>1,222.16</v>
       </c>
       <c r="D51" t="str">
-        <v>839.24</v>
+        <v>1,300.29</v>
       </c>
       <c r="E51" t="str">
         <v>0</v>
@@ -30784,84 +34165,84 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
       </c>
       <c r="B52" t="str">
-        <v>5,066.34</v>
+        <v>1,524.73</v>
       </c>
       <c r="C52" t="str">
-        <v>5,066.34</v>
+        <v>1,524.73</v>
       </c>
       <c r="D52" t="str">
-        <v>400</v>
+        <v>1,622.21</v>
       </c>
       <c r="E52" t="str">
-        <v>4,654.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>0xE233390f362B1dC22F621feead135D828a39781A</v>
+        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
       </c>
       <c r="B53" t="str">
-        <v>5,014.12</v>
+        <v>4,619.02</v>
       </c>
       <c r="C53" t="str">
-        <v>5,014.12</v>
+        <v>4,619.02</v>
       </c>
       <c r="D53" t="str">
-        <v>5,002.65</v>
+        <v>368.68</v>
       </c>
       <c r="E53" t="str">
-        <v>0</v>
+        <v>4,545.63</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
+        <v>0xdfd7445EF7dB056F68cEdEB4c1A709d02C0c3AA7</v>
       </c>
       <c r="B54" t="str">
-        <v>288.05</v>
+        <v>156.26</v>
       </c>
       <c r="C54" t="str">
-        <v>288.05</v>
+        <v>156.26</v>
       </c>
       <c r="D54" t="str">
-        <v>0</v>
+        <v>102.78</v>
       </c>
       <c r="E54" t="str">
-        <v>287.4</v>
+        <v>63.47</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>0xdd61cabccEa7933D2372606963D66F0924831D29</v>
+        <v>0xbE68d65f491CaCc7f4eaa49b813A92DfFa001DBc</v>
       </c>
       <c r="B55" t="str">
-        <v>35.61</v>
+        <v>580.37</v>
       </c>
       <c r="C55" t="str">
-        <v>35.61</v>
+        <v>580.37</v>
       </c>
       <c r="D55" t="str">
-        <v>35.53</v>
+        <v>0</v>
       </c>
       <c r="E55" t="str">
-        <v>0</v>
+        <v>617.48</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
+        <v>0x3d5F0A62033206273527Ef33569213E904eC4DdF</v>
       </c>
       <c r="B56" t="str">
-        <v>125.28</v>
+        <v>117.01</v>
       </c>
       <c r="C56" t="str">
-        <v>125.28</v>
+        <v>117.01</v>
       </c>
       <c r="D56" t="str">
-        <v>125</v>
+        <v>124.5</v>
       </c>
       <c r="E56" t="str">
         <v>0</v>
@@ -30869,67 +34250,67 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
+        <v>0xA918ADC20A91e7C932e6E00e436D710DA71C765C</v>
       </c>
       <c r="B57" t="str">
-        <v>1,263.79</v>
+        <v>225.38</v>
       </c>
       <c r="C57" t="str">
-        <v>1,263.79</v>
+        <v>225.38</v>
       </c>
       <c r="D57" t="str">
-        <v>0</v>
+        <v>239.79</v>
       </c>
       <c r="E57" t="str">
-        <v>1,260.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>0xa6A4BE6499cfdd7E94Cd1BF5498533FdCbb6CE5d</v>
+        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
       </c>
       <c r="B58" t="str">
-        <v>131,080.73</v>
+        <v>164.48</v>
       </c>
       <c r="C58" t="str">
-        <v>131,080.73</v>
+        <v>164.48</v>
       </c>
       <c r="D58" t="str">
-        <v>120,757.82</v>
+        <v>175</v>
       </c>
       <c r="E58" t="str">
-        <v>10,022.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
+        <v>0x27dF802924227b28Ad0Bec076Bd7f1D223441bF5</v>
       </c>
       <c r="B59" t="str">
-        <v>121,034.85</v>
+        <v>222.07</v>
       </c>
       <c r="C59" t="str">
-        <v>121,034.85</v>
+        <v>222.07</v>
       </c>
       <c r="D59" t="str">
-        <v>0</v>
+        <v>236.27</v>
       </c>
       <c r="E59" t="str">
-        <v>120,757.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+        <v>0x436aCB00107faBb69b486e2C7F4654bB37b02c41</v>
       </c>
       <c r="B60" t="str">
-        <v>458.24</v>
+        <v>1,145.85</v>
       </c>
       <c r="C60" t="str">
-        <v>458.24</v>
+        <v>1,145.85</v>
       </c>
       <c r="D60" t="str">
-        <v>457.2</v>
+        <v>1,219.11</v>
       </c>
       <c r="E60" t="str">
         <v>0</v>
@@ -30937,33 +34318,33 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
       </c>
       <c r="B61" t="str">
-        <v>73,927.83</v>
+        <v>374.64</v>
       </c>
       <c r="C61" t="str">
-        <v>73,927.83</v>
+        <v>374.64</v>
       </c>
       <c r="D61" t="str">
-        <v>0</v>
+        <v>252.6</v>
       </c>
       <c r="E61" t="str">
-        <v>73,758.62</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
+        <v>0xa755B0E03b0C0411c64749C64F063a6600a24D8c</v>
       </c>
       <c r="B62" t="str">
-        <v>7,867.45</v>
+        <v>877.65</v>
       </c>
       <c r="C62" t="str">
-        <v>7,867.45</v>
+        <v>877.65</v>
       </c>
       <c r="D62" t="str">
-        <v>7,849.45</v>
+        <v>933.76</v>
       </c>
       <c r="E62" t="str">
         <v>0</v>
@@ -30971,33 +34352,33 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
+        <v>0xf6732447a0Da3D8973897e247cf04f53B87Cfa2e</v>
       </c>
       <c r="B63" t="str">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="C63" t="str">
-        <v>7,867.45</v>
+        <v>31.6</v>
       </c>
       <c r="D63" t="str">
-        <v>0</v>
+        <v>33.63</v>
       </c>
       <c r="E63" t="str">
-        <v>7,849.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
       </c>
       <c r="B64" t="str">
-        <v>160.35</v>
+        <v>503.63</v>
       </c>
       <c r="C64" t="str">
-        <v>160.35</v>
+        <v>503.63</v>
       </c>
       <c r="D64" t="str">
-        <v>159.99</v>
+        <v>535.83</v>
       </c>
       <c r="E64" t="str">
         <v>0</v>
@@ -31005,152 +34386,152 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+        <v>0x165F4f9805770Eb044Cd2A5a3f1b3E07Ba8B15e9</v>
       </c>
       <c r="B65" t="str">
-        <v>1,190.43</v>
+        <v>125.22</v>
       </c>
       <c r="C65" t="str">
-        <v>1,190.43</v>
+        <v>125.22</v>
       </c>
       <c r="D65" t="str">
-        <v>0</v>
+        <v>133.23</v>
       </c>
       <c r="E65" t="str">
-        <v>1,187.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
+        <v>0x24EC4345706a30747bA16dCA3e9751B73b72C78a</v>
       </c>
       <c r="B66" t="str">
-        <v>2,668.62</v>
+        <v>2,147.7</v>
       </c>
       <c r="C66" t="str">
-        <v>2,668.62</v>
+        <v>2,147.7</v>
       </c>
       <c r="D66" t="str">
-        <v>504.7</v>
+        <v>2,285</v>
       </c>
       <c r="E66" t="str">
-        <v>2,157.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>0xA7258aeA0F44A7fe4a4933a1434e2fc8217891C0</v>
+        <v>0xa6A4BE6499cfdd7E94Cd1BF5498533FdCbb6CE5d</v>
       </c>
       <c r="B67" t="str">
-        <v>103,921.41</v>
+        <v>139,792.2</v>
       </c>
       <c r="C67" t="str">
-        <v>103,921.41</v>
+        <v>139,792.2</v>
       </c>
       <c r="D67" t="str">
-        <v>9,766.39</v>
+        <v>144,716.12</v>
       </c>
       <c r="E67" t="str">
-        <v>93,917.16</v>
+        <v>4,012.6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>0x01Bf02ECf2aa5f2E824a64Fba6A0DC3Ee46D775B</v>
+        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
       </c>
       <c r="B68" t="str">
-        <v>103,921.41</v>
+        <v>136,344.48</v>
       </c>
       <c r="C68" t="str">
-        <v>103,921.41</v>
+        <v>136,344.48</v>
       </c>
       <c r="D68" t="str">
-        <v>93,917.16</v>
+        <v>344.47</v>
       </c>
       <c r="E68" t="str">
-        <v>9,766.39</v>
+        <v>144,716.12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>0xbc44E6f03C150df10Fe594d42eACAAC51C13e15B</v>
+        <v>0x1e08bba24EeaB34dCc15Bc335c2638D40E1e3BD5</v>
       </c>
       <c r="B69" t="str">
-        <v>139.31</v>
+        <v>1,589.32</v>
       </c>
       <c r="C69" t="str">
-        <v>139.31</v>
+        <v>1,589.32</v>
       </c>
       <c r="D69" t="str">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="E69" t="str">
-        <v>0</v>
+        <v>1,690.93</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
       </c>
       <c r="B70" t="str">
-        <v>71,081.05</v>
+        <v>5,113.43</v>
       </c>
       <c r="C70" t="str">
-        <v>71,081.05</v>
+        <v>5,113.43</v>
       </c>
       <c r="D70" t="str">
-        <v>30,850.93</v>
+        <v>5,440.32</v>
       </c>
       <c r="E70" t="str">
-        <v>40,067.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+        <v>0x8Ad7B9763377E32645D8C7Da41e28F0800a831bB</v>
       </c>
       <c r="B71" t="str">
-        <v>72,209.19</v>
+        <v>17,442.83</v>
       </c>
       <c r="C71" t="str">
-        <v>72,209.19</v>
+        <v>17,442.83</v>
       </c>
       <c r="D71" t="str">
-        <v>40,067.43</v>
+        <v>10,085.12</v>
       </c>
       <c r="E71" t="str">
-        <v>31,976.49</v>
+        <v>8,472.78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+        <v>0xa8CE35A87d51EaC37675c1Cf7C5d6435a3b2079A</v>
       </c>
       <c r="B72" t="str">
-        <v>1,128.14</v>
+        <v>23,358.41</v>
       </c>
       <c r="C72" t="str">
-        <v>1,128.14</v>
+        <v>23,358.41</v>
       </c>
       <c r="D72" t="str">
-        <v>1,125.56</v>
+        <v>0</v>
       </c>
       <c r="E72" t="str">
-        <v>0</v>
+        <v>24,851.65</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>0x96366995FA701346A6f9bCD875E3E80D7421d8b3</v>
+        <v>0xd4dB3DbEe64e9e3A9dc049CbC558904FeFc04ce1</v>
       </c>
       <c r="B73" t="str">
-        <v>2,633.97</v>
+        <v>1,641.74</v>
       </c>
       <c r="C73" t="str">
-        <v>2,633.97</v>
+        <v>1,641.74</v>
       </c>
       <c r="D73" t="str">
-        <v>2,627.95</v>
+        <v>1,746.7</v>
       </c>
       <c r="E73" t="str">
         <v>0</v>
@@ -31158,84 +34539,84 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>0x41208763DD0C33e81cD7908ec88656ca7578d591</v>
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
       </c>
       <c r="B74" t="str">
-        <v>2,633.97</v>
+        <v>1,641.74</v>
       </c>
       <c r="C74" t="str">
-        <v>2,633.97</v>
+        <v>1,641.74</v>
       </c>
       <c r="D74" t="str">
         <v>0</v>
       </c>
       <c r="E74" t="str">
-        <v>2,627.95</v>
+        <v>1,746.7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>0x69f96f2A5Cdd84E574dB2a353880095988243417</v>
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
       </c>
       <c r="B75" t="str">
-        <v>0</v>
+        <v>63,846.32</v>
       </c>
       <c r="C75" t="str">
-        <v>564.59</v>
+        <v>63,846.32</v>
       </c>
       <c r="D75" t="str">
-        <v>563.3</v>
+        <v>1,253.64</v>
       </c>
       <c r="E75" t="str">
-        <v>0</v>
+        <v>66,674.2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
       </c>
       <c r="B76" t="str">
-        <v>698,360.93</v>
+        <v>878.25</v>
       </c>
       <c r="C76" t="str">
-        <v>698,360.93</v>
+        <v>878.25</v>
       </c>
       <c r="D76" t="str">
-        <v>347,917.12</v>
+        <v>934.4</v>
       </c>
       <c r="E76" t="str">
-        <v>348,845.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>0xf78D0cdFB459eD9CC19eEb7c22B5F193d7662fcC</v>
+        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
       </c>
       <c r="B77" t="str">
-        <v>10,062.87</v>
+        <v>878.25</v>
       </c>
       <c r="C77" t="str">
-        <v>10,062.87</v>
+        <v>878.25</v>
       </c>
       <c r="D77" t="str">
-        <v>10,039.84</v>
+        <v>0</v>
       </c>
       <c r="E77" t="str">
-        <v>0</v>
+        <v>934.4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
+        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
       </c>
       <c r="B78" t="str">
-        <v>1,257.98</v>
+        <v>2,473.83</v>
       </c>
       <c r="C78" t="str">
-        <v>1,257.98</v>
+        <v>2,473.83</v>
       </c>
       <c r="D78" t="str">
-        <v>1,255.11</v>
+        <v>2,631.98</v>
       </c>
       <c r="E78" t="str">
         <v>0</v>
@@ -31243,152 +34624,152 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
       </c>
       <c r="B79" t="str">
-        <v>187.27</v>
+        <v>88,201.43</v>
       </c>
       <c r="C79" t="str">
-        <v>187.27</v>
+        <v>88,201.43</v>
       </c>
       <c r="D79" t="str">
-        <v>186.85</v>
+        <v>50,428.48</v>
       </c>
       <c r="E79" t="str">
-        <v>0</v>
+        <v>43,411.42</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>0x95814b787287141C80e9917Ee9eC9B2F89275629</v>
+        <v>0xeB0F9489F9aeFB6Bbd8d7f1cc3620898E30b49c0</v>
       </c>
       <c r="B80" t="str">
-        <v>8,378.42</v>
+        <v>2,590.43</v>
       </c>
       <c r="C80" t="str">
-        <v>8,378.42</v>
+        <v>2,590.43</v>
       </c>
       <c r="D80" t="str">
-        <v>8,359.25</v>
+        <v>0</v>
       </c>
       <c r="E80" t="str">
-        <v>0</v>
+        <v>2,756.03</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>0xf941B6d81ff3BBc9E6eb182887a1FAE58fcE9fCE</v>
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
       </c>
       <c r="B81" t="str">
-        <v>57.28</v>
+        <v>2,789.58</v>
       </c>
       <c r="C81" t="str">
-        <v>57.28</v>
+        <v>2,789.58</v>
       </c>
       <c r="D81" t="str">
-        <v>57.15</v>
+        <v>2,339.3</v>
       </c>
       <c r="E81" t="str">
-        <v>0</v>
+        <v>628.62</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
       </c>
       <c r="B82" t="str">
-        <v>7,116.94</v>
+        <v>0</v>
       </c>
       <c r="C82" t="str">
-        <v>7,116.94</v>
+        <v>9,680.84</v>
       </c>
       <c r="D82" t="str">
         <v>0</v>
       </c>
       <c r="E82" t="str">
-        <v>7,100.66</v>
+        <v>10,299.71</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>0xBBBA5cae882A16fEdAD9a92220C7dBF2d9Eb2313</v>
+        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
       </c>
       <c r="B83" t="str">
-        <v>285.85</v>
+        <v>597.14</v>
       </c>
       <c r="C83" t="str">
-        <v>285.85</v>
+        <v>597.14</v>
       </c>
       <c r="D83" t="str">
-        <v>0</v>
+        <v>635.32</v>
       </c>
       <c r="E83" t="str">
-        <v>285.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
       </c>
       <c r="B84" t="str">
-        <v>3,060.02</v>
+        <v>22,710.69</v>
       </c>
       <c r="C84" t="str">
-        <v>3,060.02</v>
+        <v>22,710.69</v>
       </c>
       <c r="D84" t="str">
-        <v>3,053.02</v>
+        <v>0</v>
       </c>
       <c r="E84" t="str">
-        <v>0</v>
+        <v>24,162.52</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
+        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
       </c>
       <c r="B85" t="str">
-        <v>3,060.02</v>
+        <v>330.28</v>
       </c>
       <c r="C85" t="str">
-        <v>3,060.02</v>
+        <v>330.28</v>
       </c>
       <c r="D85" t="str">
-        <v>0</v>
+        <v>351.4</v>
       </c>
       <c r="E85" t="str">
-        <v>3,053.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
       </c>
       <c r="B86" t="str">
-        <v>3,006.88</v>
+        <v>447.3</v>
       </c>
       <c r="C86" t="str">
-        <v>3,006.88</v>
+        <v>447.3</v>
       </c>
       <c r="D86" t="str">
-        <v>3,000</v>
+        <v>0</v>
       </c>
       <c r="E86" t="str">
-        <v>0</v>
+        <v>475.9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>0xBb3123adaa39aA9b0Bf8c0374eab50353F479c97</v>
+        <v>0xB19c1b3cEc4c5bD6DCA220A4f59de9EC681e9211</v>
       </c>
       <c r="B87" t="str">
-        <v>5,326.99</v>
+        <v>0</v>
       </c>
       <c r="C87" t="str">
-        <v>5,326.99</v>
+        <v>9.22</v>
       </c>
       <c r="D87" t="str">
-        <v>5,314.8</v>
+        <v>9.82</v>
       </c>
       <c r="E87" t="str">
         <v>0</v>
@@ -31396,186 +34777,186 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>0xF1D275F804a6b3d3f75B7C08150178836E56dE8B</v>
+        <v>0x53bB6A53f3B05435A15Ed43D2DF9243845d639e2</v>
       </c>
       <c r="B88" t="str">
-        <v>5,326.99</v>
+        <v>1,000</v>
       </c>
       <c r="C88" t="str">
-        <v>5,326.99</v>
+        <v>3,708.88</v>
       </c>
       <c r="D88" t="str">
-        <v>0</v>
+        <v>3,945.98</v>
       </c>
       <c r="E88" t="str">
-        <v>5,314.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+        <v>0x8969DF60ACc4BB0f05cE8137608AD4434E2f4dEA</v>
       </c>
       <c r="B89" t="str">
-        <v>2,244.75</v>
+        <v>3,708.88</v>
       </c>
       <c r="C89" t="str">
-        <v>2,244.75</v>
+        <v>3,708.88</v>
       </c>
       <c r="D89" t="str">
         <v>0</v>
       </c>
       <c r="E89" t="str">
-        <v>2,239.62</v>
+        <v>3,945.98</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
+        <v>0xD53314Cd179ccD3926Af264e62E3B6dAB06A6419</v>
       </c>
       <c r="B90" t="str">
-        <v>8,858.58</v>
+        <v>6,290.03</v>
       </c>
       <c r="C90" t="str">
-        <v>8,858.58</v>
+        <v>6,290.03</v>
       </c>
       <c r="D90" t="str">
-        <v>5,453.38</v>
+        <v>510.79</v>
       </c>
       <c r="E90" t="str">
-        <v>3,384.93</v>
+        <v>6,181.35</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>0xC090D9F71184D03568485a351456C570ff9F9Cbf</v>
+        <v>0xf90518CBcd4ef086891cb22C87bd4F80B61a7081</v>
       </c>
       <c r="B91" t="str">
-        <v>5,465.89</v>
+        <v>6,290.03</v>
       </c>
       <c r="C91" t="str">
-        <v>5,465.89</v>
+        <v>6,290.03</v>
       </c>
       <c r="D91" t="str">
-        <v>0</v>
+        <v>6,181.35</v>
       </c>
       <c r="E91" t="str">
-        <v>5,453.38</v>
+        <v>510.79</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
       </c>
       <c r="B92" t="str">
-        <v>0</v>
+        <v>15,338.17</v>
       </c>
       <c r="C92" t="str">
-        <v>13,555.05</v>
+        <v>15,338.17</v>
       </c>
       <c r="D92" t="str">
-        <v>0</v>
+        <v>16,318.7</v>
       </c>
       <c r="E92" t="str">
-        <v>13,524.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>0x98085d3327429Fc85f875e6baE8498EbC336eD97</v>
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
       </c>
       <c r="B93" t="str">
-        <v>26,880.16</v>
+        <v>0</v>
       </c>
       <c r="C93" t="str">
-        <v>26,880.16</v>
+        <v>15,338.17</v>
       </c>
       <c r="D93" t="str">
-        <v>26,818.64</v>
+        <v>0</v>
       </c>
       <c r="E93" t="str">
-        <v>0</v>
+        <v>16,318.7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>0xF56A7C0C4f08356F9987Ef2C02f2034FD7F8608C</v>
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
       </c>
       <c r="B94" t="str">
-        <v>26,880.16</v>
+        <v>1,932.71</v>
       </c>
       <c r="C94" t="str">
-        <v>26,880.16</v>
+        <v>1,932.71</v>
       </c>
       <c r="D94" t="str">
-        <v>0</v>
+        <v>2,056.27</v>
       </c>
       <c r="E94" t="str">
-        <v>26,818.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>0x436aCB00107faBb69b486e2C7F4654bB37b02c41</v>
+        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
       </c>
       <c r="B95" t="str">
-        <v>5,270.28</v>
+        <v>10,584.06</v>
       </c>
       <c r="C95" t="str">
-        <v>5,270.28</v>
+        <v>10,584.06</v>
       </c>
       <c r="D95" t="str">
-        <v>5,258.22</v>
+        <v>0</v>
       </c>
       <c r="E95" t="str">
-        <v>0</v>
+        <v>11,260.67</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>0x62Ff55e86d95A460a661929d6D125139bB7DCF7b</v>
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
       </c>
       <c r="B96" t="str">
-        <v>53,151.02</v>
+        <v>39,566.88</v>
       </c>
       <c r="C96" t="str">
-        <v>53,151.02</v>
+        <v>39,566.88</v>
       </c>
       <c r="D96" t="str">
-        <v>0</v>
+        <v>42,096.28</v>
       </c>
       <c r="E96" t="str">
-        <v>53,029.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>0x406d01fbF31Aeb1953b3c8F1E98aAE2BA6e8329a</v>
+        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
       </c>
       <c r="B97" t="str">
-        <v>172.04</v>
+        <v>939.91</v>
       </c>
       <c r="C97" t="str">
-        <v>172.04</v>
+        <v>939.91</v>
       </c>
       <c r="D97" t="str">
         <v>0</v>
       </c>
       <c r="E97" t="str">
-        <v>171.65</v>
+        <v>1,000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
+        <v>0xBb3123adaa39aA9b0Bf8c0374eab50353F479c97</v>
       </c>
       <c r="B98" t="str">
-        <v>236.46</v>
+        <v>1,441.81</v>
       </c>
       <c r="C98" t="str">
-        <v>236.46</v>
+        <v>1,441.81</v>
       </c>
       <c r="D98" t="str">
-        <v>235.92</v>
+        <v>1,533.99</v>
       </c>
       <c r="E98" t="str">
         <v>0</v>
@@ -31583,118 +34964,118 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
       </c>
       <c r="B99" t="str">
-        <v>236.46</v>
+        <v>385.35</v>
       </c>
       <c r="C99" t="str">
-        <v>236.46</v>
+        <v>385.35</v>
       </c>
       <c r="D99" t="str">
-        <v>0</v>
+        <v>409.99</v>
       </c>
       <c r="E99" t="str">
-        <v>235.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>0xF2Aa3A5Df3Af1eD5ff72631A8bcFF0F0AfE060eC</v>
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
       </c>
       <c r="B100" t="str">
-        <v>176.48</v>
+        <v>218.81</v>
       </c>
       <c r="C100" t="str">
-        <v>176.48</v>
+        <v>218.81</v>
       </c>
       <c r="D100" t="str">
-        <v>23.76</v>
+        <v>123.9</v>
       </c>
       <c r="E100" t="str">
-        <v>152.32</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>0xc01bdF2F593bbbFe1e15540c818c57f919466D7B</v>
+        <v>0xA26AE848f47Ce6f4A2C7004B20a03c6752166505</v>
       </c>
       <c r="B101" t="str">
-        <v>210.89</v>
+        <v>483.28</v>
       </c>
       <c r="C101" t="str">
-        <v>210.89</v>
+        <v>483.28</v>
       </c>
       <c r="D101" t="str">
-        <v>152.32</v>
+        <v>514.18</v>
       </c>
       <c r="E101" t="str">
-        <v>58.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+        <v>0x69fd044CD58545B50c9Ecc08256A19e12d7F099C</v>
       </c>
       <c r="B102" t="str">
-        <v>251.74</v>
+        <v>483.28</v>
       </c>
       <c r="C102" t="str">
-        <v>251.74</v>
+        <v>483.28</v>
       </c>
       <c r="D102" t="str">
         <v>0</v>
       </c>
       <c r="E102" t="str">
-        <v>251.17</v>
+        <v>514.18</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>0x8D61A43F4D07a78132D5239D5B84e3D46205bED2</v>
+        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
       </c>
       <c r="B103" t="str">
-        <v>74.07</v>
+        <v>44.48</v>
       </c>
       <c r="C103" t="str">
-        <v>74.07</v>
+        <v>44.48</v>
       </c>
       <c r="D103" t="str">
-        <v>73.91</v>
+        <v>0</v>
       </c>
       <c r="E103" t="str">
-        <v>0</v>
+        <v>47.33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>0xC65cA88Bd73441A540590CB547F978afe8d503bb</v>
+        <v>0xbD73E24F927E9f1D9ce45B7e47f36711Dca35A88</v>
       </c>
       <c r="B104" t="str">
-        <v>1,413.54</v>
+        <v>11,734.55</v>
       </c>
       <c r="C104" t="str">
-        <v>1,413.54</v>
+        <v>11,734.55</v>
       </c>
       <c r="D104" t="str">
-        <v>1,410.31</v>
+        <v>0</v>
       </c>
       <c r="E104" t="str">
-        <v>0</v>
+        <v>12,484.71</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
       </c>
       <c r="B105" t="str">
-        <v>10,045.88</v>
+        <v>2,825.21</v>
       </c>
       <c r="C105" t="str">
-        <v>10,045.88</v>
+        <v>2,825.21</v>
       </c>
       <c r="D105" t="str">
-        <v>10,022.89</v>
+        <v>3,005.82</v>
       </c>
       <c r="E105" t="str">
         <v>0</v>
@@ -31702,33 +35083,33 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>0xDd7e4E36199cC322cb61758F13708b3bC95A688c</v>
+        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
       </c>
       <c r="B106" t="str">
-        <v>607.04</v>
+        <v>2,825.21</v>
       </c>
       <c r="C106" t="str">
-        <v>607.04</v>
+        <v>2,825.21</v>
       </c>
       <c r="D106" t="str">
-        <v>605.66</v>
+        <v>0</v>
       </c>
       <c r="E106" t="str">
-        <v>0</v>
+        <v>3,005.82</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>0xf1e040d8043313C798715a5B6eAC5cfdd102A11c</v>
+        <v>0x4FDC77D8fFDD4F8a3CbFc3De2886DfEE1FD5112f</v>
       </c>
       <c r="B107" t="str">
-        <v>57.97</v>
+        <v>0</v>
       </c>
       <c r="C107" t="str">
-        <v>57.97</v>
+        <v>404.56</v>
       </c>
       <c r="D107" t="str">
-        <v>57.84</v>
+        <v>430.43</v>
       </c>
       <c r="E107" t="str">
         <v>0</v>
@@ -31736,16 +35117,16 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
       </c>
       <c r="B108" t="str">
-        <v>115.8</v>
+        <v>3,771.49</v>
       </c>
       <c r="C108" t="str">
-        <v>115.8</v>
+        <v>3,771.49</v>
       </c>
       <c r="D108" t="str">
-        <v>115.54</v>
+        <v>4,012.6</v>
       </c>
       <c r="E108" t="str">
         <v>0</v>
@@ -31753,50 +35134,50 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
       </c>
       <c r="B109" t="str">
-        <v>14,296.99</v>
+        <v>17,476.4</v>
       </c>
       <c r="C109" t="str">
-        <v>14,296.99</v>
+        <v>17,476.4</v>
       </c>
       <c r="D109" t="str">
-        <v>14,264.27</v>
+        <v>0</v>
       </c>
       <c r="E109" t="str">
-        <v>0</v>
+        <v>18,593.62</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
       </c>
       <c r="B110" t="str">
-        <v>28.54</v>
+        <v>644,604.49</v>
       </c>
       <c r="C110" t="str">
-        <v>28.54</v>
+        <v>644,604.49</v>
       </c>
       <c r="D110" t="str">
-        <v>0</v>
+        <v>337,928.12</v>
       </c>
       <c r="E110" t="str">
-        <v>28.48</v>
+        <v>347,884.08</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>0x61cD23Cf91d9B6BBb4bFF28c6AD7B667C7EC6367</v>
+        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
       </c>
       <c r="B111" t="str">
-        <v>0</v>
+        <v>558.7</v>
       </c>
       <c r="C111" t="str">
-        <v>721.28</v>
+        <v>558.7</v>
       </c>
       <c r="D111" t="str">
-        <v>719.63</v>
+        <v>594.42</v>
       </c>
       <c r="E111" t="str">
         <v>0</v>
@@ -31804,84 +35185,84 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>0xaFAEB333D506430E09C773aCe6F9b6a8389e14B6</v>
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
       </c>
       <c r="B112" t="str">
-        <v>3,392.69</v>
+        <v>3,773.37</v>
       </c>
       <c r="C112" t="str">
-        <v>3,392.69</v>
+        <v>3,773.37</v>
       </c>
       <c r="D112" t="str">
-        <v>3,384.93</v>
+        <v>0</v>
       </c>
       <c r="E112" t="str">
-        <v>0</v>
+        <v>4,014.6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>0x280a3925f1fAD53B5a263fFc0028Fbab9abE6131</v>
+        <v>0x7aa90dE22D64831e54DA455A90621560f1bC97a2</v>
       </c>
       <c r="B113" t="str">
-        <v>9,954.4</v>
+        <v>104.33</v>
       </c>
       <c r="C113" t="str">
-        <v>9,954.4</v>
+        <v>104.33</v>
       </c>
       <c r="D113" t="str">
-        <v>6,916.89</v>
+        <v>111</v>
       </c>
       <c r="E113" t="str">
-        <v>3,014.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+        <v>0x2373654B6a1564c5BdA4D28dDeF1827D66d7EA2b</v>
       </c>
       <c r="B114" t="str">
-        <v>117,695.98</v>
+        <v>0</v>
       </c>
       <c r="C114" t="str">
-        <v>117,695.98</v>
+        <v>104.33</v>
       </c>
       <c r="D114" t="str">
-        <v>117,426.59</v>
+        <v>0</v>
       </c>
       <c r="E114" t="str">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
+        <v>0xc01bdF2F593bbbFe1e15540c818c57f919466D7B</v>
       </c>
       <c r="B115" t="str">
-        <v>106.6</v>
+        <v>6,589.83</v>
       </c>
       <c r="C115" t="str">
-        <v>106.6</v>
+        <v>6,589.83</v>
       </c>
       <c r="D115" t="str">
-        <v>106.36</v>
+        <v>3,746.48</v>
       </c>
       <c r="E115" t="str">
-        <v>0</v>
+        <v>3,264.62</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
       </c>
       <c r="B116" t="str">
-        <v>2,559.34</v>
+        <v>1,879.82</v>
       </c>
       <c r="C116" t="str">
-        <v>2,559.34</v>
+        <v>1,879.82</v>
       </c>
       <c r="D116" t="str">
-        <v>2,553.49</v>
+        <v>2,000</v>
       </c>
       <c r="E116" t="str">
         <v>0</v>
@@ -31889,373 +35270,373 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
       </c>
       <c r="B117" t="str">
-        <v>1,141.03</v>
+        <v>0</v>
       </c>
       <c r="C117" t="str">
-        <v>1,141.03</v>
+        <v>1,879.82</v>
       </c>
       <c r="D117" t="str">
         <v>0</v>
       </c>
       <c r="E117" t="str">
-        <v>1,138.42</v>
+        <v>2,000</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>0x4f4EEe1b009725Bd92EF4368C3E69ca5Ee614541</v>
+        <v>0xf4f611e4f1e8C6E21B54d4A38687C44477cF4eA2</v>
       </c>
       <c r="B118" t="str">
-        <v>345.58</v>
+        <v>24.54</v>
       </c>
       <c r="C118" t="str">
-        <v>345.58</v>
+        <v>24.54</v>
       </c>
       <c r="D118" t="str">
-        <v>0</v>
+        <v>26.11</v>
       </c>
       <c r="E118" t="str">
-        <v>344.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
       </c>
       <c r="B119" t="str">
-        <v>25,631.51</v>
+        <v>7,207.53</v>
       </c>
       <c r="C119" t="str">
-        <v>25,631.51</v>
+        <v>7,207.53</v>
       </c>
       <c r="D119" t="str">
         <v>0</v>
       </c>
       <c r="E119" t="str">
-        <v>25,572.85</v>
+        <v>7,668.29</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>0x75E0f59BC838EfBdCE76EaC57c8F4C41F23e2905</v>
+        <v>0x760d7E2525DDB8790d047CFF195b753F9dCCac41</v>
       </c>
       <c r="B120" t="str">
-        <v>37.21</v>
+        <v>109.81</v>
       </c>
       <c r="C120" t="str">
-        <v>37.21</v>
+        <v>109.81</v>
       </c>
       <c r="D120" t="str">
         <v>0</v>
       </c>
       <c r="E120" t="str">
-        <v>37.13</v>
+        <v>116.84</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
+        <v>0x094CAE95AB3744453Cf7Ce9251dFDD816C3C810E</v>
       </c>
       <c r="B121" t="str">
-        <v>50.11</v>
+        <v>458.29</v>
       </c>
       <c r="C121" t="str">
-        <v>50.11</v>
+        <v>458.29</v>
       </c>
       <c r="D121" t="str">
-        <v>0</v>
+        <v>487.59</v>
       </c>
       <c r="E121" t="str">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>0xD53314Cd179ccD3926Af264e62E3B6dAB06A6419</v>
+        <v>0x280a3925f1fAD53B5a263fFc0028Fbab9abE6131</v>
       </c>
       <c r="B122" t="str">
-        <v>344.44</v>
+        <v>541.92</v>
       </c>
       <c r="C122" t="str">
-        <v>344.44</v>
+        <v>541.92</v>
       </c>
       <c r="D122" t="str">
-        <v>343.66</v>
+        <v>0</v>
       </c>
       <c r="E122" t="str">
-        <v>0</v>
+        <v>576.57</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>0xf90518CBcd4ef086891cb22C87bd4F80B61a7081</v>
+        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
       </c>
       <c r="B123" t="str">
-        <v>344.44</v>
+        <v>40,179.62</v>
       </c>
       <c r="C123" t="str">
-        <v>344.44</v>
+        <v>40,179.62</v>
       </c>
       <c r="D123" t="str">
         <v>0</v>
       </c>
       <c r="E123" t="str">
-        <v>343.66</v>
+        <v>42,748.19</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>0x4FDC77D8fFDD4F8a3CbFc3De2886DfEE1FD5112f</v>
+        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
       </c>
       <c r="B124" t="str">
-        <v>0</v>
+        <v>541.2</v>
       </c>
       <c r="C124" t="str">
-        <v>172.22</v>
+        <v>541.2</v>
       </c>
       <c r="D124" t="str">
-        <v>171.83</v>
+        <v>0</v>
       </c>
       <c r="E124" t="str">
-        <v>0</v>
+        <v>575.8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+        <v>0x1A24A8CDa46ACac40606af1D233dAfF9AEe66e2f</v>
       </c>
       <c r="B125" t="str">
-        <v>0</v>
+        <v>26.01</v>
       </c>
       <c r="C125" t="str">
-        <v>6,038.23</v>
+        <v>26.01</v>
       </c>
       <c r="D125" t="str">
         <v>0</v>
       </c>
       <c r="E125" t="str">
-        <v>6,024.41</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
       </c>
       <c r="B126" t="str">
-        <v>4,426.99</v>
+        <v>1,184.34</v>
       </c>
       <c r="C126" t="str">
-        <v>4,426.99</v>
+        <v>1,184.34</v>
       </c>
       <c r="D126" t="str">
-        <v>4,416.86</v>
+        <v>0</v>
       </c>
       <c r="E126" t="str">
-        <v>0</v>
+        <v>1,260.06</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+        <v>0x3d1F678EBd71CA033f21D6B1B5B0781a66537447</v>
       </c>
       <c r="B127" t="str">
-        <v>274.5</v>
+        <v>2,333.97</v>
       </c>
       <c r="C127" t="str">
-        <v>274.5</v>
+        <v>2,333.97</v>
       </c>
       <c r="D127" t="str">
         <v>0</v>
       </c>
       <c r="E127" t="str">
-        <v>273.88</v>
+        <v>2,483.18</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+        <v>0x212A3caD6d1572C706959d2aeF63071e61914bf2</v>
       </c>
       <c r="B128" t="str">
-        <v>697,619.5</v>
+        <v>530.89</v>
       </c>
       <c r="C128" t="str">
-        <v>697,619.5</v>
+        <v>530.89</v>
       </c>
       <c r="D128" t="str">
-        <v>348,105.62</v>
+        <v>0</v>
       </c>
       <c r="E128" t="str">
-        <v>347,917.12</v>
+        <v>564.83</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>0xFb9Fa9E9276D1631fc4f72c32c19628a8d8a3935</v>
+        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
       </c>
       <c r="B129" t="str">
-        <v>13,551.24</v>
+        <v>155.76</v>
       </c>
       <c r="C129" t="str">
-        <v>13,551.24</v>
+        <v>155.76</v>
       </c>
       <c r="D129" t="str">
-        <v>13,520.23</v>
+        <v>0</v>
       </c>
       <c r="E129" t="str">
-        <v>0</v>
+        <v>165.72</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>0xd0bC9CB19A72c6DDE6206d302E049D6E0496a453</v>
+        <v>0x8a3B39c36e88E3BE71B960cFBe2e4F66dB890E42</v>
       </c>
       <c r="B130" t="str">
-        <v>13,551.24</v>
+        <v>0</v>
       </c>
       <c r="C130" t="str">
-        <v>13,551.24</v>
+        <v>6,606.89</v>
       </c>
       <c r="D130" t="str">
-        <v>0</v>
+        <v>7,029.26</v>
       </c>
       <c r="E130" t="str">
-        <v>13,520.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>0x4CEbE974145E6796dB356F3689082D2d1eEf02Bf</v>
+        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
       </c>
       <c r="B131" t="str">
-        <v>45.1</v>
+        <v>6,872.16</v>
       </c>
       <c r="C131" t="str">
-        <v>45.1</v>
+        <v>6,872.16</v>
       </c>
       <c r="D131" t="str">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E131" t="str">
-        <v>0</v>
+        <v>7,311.48</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>0x9137e3E86cFf5736277B418E41449CC3428F5317</v>
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
       </c>
       <c r="B132" t="str">
-        <v>2,248.7</v>
+        <v>619.17</v>
       </c>
       <c r="C132" t="str">
-        <v>2,248.7</v>
+        <v>619.17</v>
       </c>
       <c r="D132" t="str">
         <v>0</v>
       </c>
       <c r="E132" t="str">
-        <v>2,243.56</v>
+        <v>658.76</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
+        <v>0xf0eeE0837e8F4feaC444412991f7005B8dFFa305</v>
       </c>
       <c r="B133" t="str">
-        <v>22,011.91</v>
+        <v>1,217.92</v>
       </c>
       <c r="C133" t="str">
-        <v>22,011.91</v>
+        <v>1,217.92</v>
       </c>
       <c r="D133" t="str">
-        <v>21,961.53</v>
+        <v>0</v>
       </c>
       <c r="E133" t="str">
-        <v>0</v>
+        <v>1,295.78</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>0x3C7c8Ae12872dCbcF52B450FADB323810B9f5a94</v>
+        <v>0xE218a0f78c7DcaF835955e2E89d79295997583f8</v>
       </c>
       <c r="B134" t="str">
-        <v>11.82</v>
+        <v>3,856.44</v>
       </c>
       <c r="C134" t="str">
-        <v>11.82</v>
+        <v>3,856.44</v>
       </c>
       <c r="D134" t="str">
-        <v>0</v>
+        <v>4,102.98</v>
       </c>
       <c r="E134" t="str">
-        <v>11.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+        <v>0xdF8Df47E5109Adc155E436C0712adB78f53A418c</v>
       </c>
       <c r="B135" t="str">
-        <v>76.34</v>
+        <v>3,856.44</v>
       </c>
       <c r="C135" t="str">
-        <v>76.34</v>
+        <v>3,856.44</v>
       </c>
       <c r="D135" t="str">
         <v>0</v>
       </c>
       <c r="E135" t="str">
-        <v>76.17</v>
+        <v>4,102.98</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>0xd19d505d3618A142E85bd1A2A8C0878cD2b1089d</v>
+        <v>0x5e1Ab2B76b3AE6d21a16d67428A3736695730f90</v>
       </c>
       <c r="B136" t="str">
-        <v>21,289.99</v>
+        <v>2,191.49</v>
       </c>
       <c r="C136" t="str">
-        <v>21,289.99</v>
+        <v>2,191.49</v>
       </c>
       <c r="D136" t="str">
-        <v>0</v>
+        <v>2,331.59</v>
       </c>
       <c r="E136" t="str">
-        <v>21,241.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>0xedaa63C95A0faB8e7Dc7A710f8b9Aa6ee461dAC7</v>
+        <v>0xF054d867FEA9866a266cCA678cB30Fe5d9F68bA5</v>
       </c>
       <c r="B137" t="str">
-        <v>9,858.22</v>
+        <v>2,191.49</v>
       </c>
       <c r="C137" t="str">
-        <v>9,858.22</v>
+        <v>2,191.49</v>
       </c>
       <c r="D137" t="str">
-        <v>9,835.66</v>
+        <v>0</v>
       </c>
       <c r="E137" t="str">
-        <v>0</v>
+        <v>2,331.59</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>0x1f259F3A113a0bA97084152Bd93C80d90752c896</v>
+        <v>0xC44b6fcf320C7A15f288D3792E5BBF7D770e25c4</v>
       </c>
       <c r="B138" t="str">
-        <v>23.93</v>
+        <v>28.97</v>
       </c>
       <c r="C138" t="str">
-        <v>23.93</v>
+        <v>28.97</v>
       </c>
       <c r="D138" t="str">
-        <v>23.88</v>
+        <v>30.83</v>
       </c>
       <c r="E138" t="str">
         <v>0</v>
@@ -32263,33 +35644,33 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
+        <v>0x9C0557216e919eDaCCc56037c66A5fAC1D41D82a</v>
       </c>
       <c r="B139" t="str">
-        <v>1,002.29</v>
+        <v>28.97</v>
       </c>
       <c r="C139" t="str">
-        <v>1,002.29</v>
+        <v>28.97</v>
       </c>
       <c r="D139" t="str">
         <v>0</v>
       </c>
       <c r="E139" t="str">
-        <v>1,000</v>
+        <v>30.83</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>0x2fA11c3F698BEb911d823D62be4AdFf5b6F82671</v>
+        <v>0xf78D0cdFB459eD9CC19eEb7c22B5F193d7662fcC</v>
       </c>
       <c r="B140" t="str">
-        <v>7,596.53</v>
+        <v>7,085.33</v>
       </c>
       <c r="C140" t="str">
-        <v>7,596.53</v>
+        <v>7,085.33</v>
       </c>
       <c r="D140" t="str">
-        <v>7,579.15</v>
+        <v>7,538.28</v>
       </c>
       <c r="E140" t="str">
         <v>0</v>
@@ -32297,50 +35678,50 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>0x8Ad7B9763377E32645D8C7Da41e28F0800a831bB</v>
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
       </c>
       <c r="B141" t="str">
-        <v>7,596.53</v>
+        <v>1,088.35</v>
       </c>
       <c r="C141" t="str">
-        <v>7,596.53</v>
+        <v>1,088.35</v>
       </c>
       <c r="D141" t="str">
         <v>0</v>
       </c>
       <c r="E141" t="str">
-        <v>7,579.15</v>
+        <v>1,157.93</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>0x1D712193A96B4d9D4eC32108cfcde704AC9CCC9C</v>
+        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
       </c>
       <c r="B142" t="str">
-        <v>252.06</v>
+        <v>345.16</v>
       </c>
       <c r="C142" t="str">
-        <v>252.06</v>
+        <v>345.16</v>
       </c>
       <c r="D142" t="str">
-        <v>251.49</v>
+        <v>0</v>
       </c>
       <c r="E142" t="str">
-        <v>0</v>
+        <v>367.23</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
+        <v>0x6cD7Eab4A323E88d1170a609c6694531C3AFcA11</v>
       </c>
       <c r="B143" t="str">
-        <v>125.92</v>
+        <v>1,438.76</v>
       </c>
       <c r="C143" t="str">
-        <v>125.92</v>
+        <v>1,438.76</v>
       </c>
       <c r="D143" t="str">
-        <v>125.64</v>
+        <v>1,530.74</v>
       </c>
       <c r="E143" t="str">
         <v>0</v>
@@ -32348,84 +35729,84 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
+        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
       </c>
       <c r="B144" t="str">
-        <v>770.36</v>
+        <v>1,438.76</v>
       </c>
       <c r="C144" t="str">
-        <v>770.36</v>
+        <v>1,438.76</v>
       </c>
       <c r="D144" t="str">
-        <v>479.35</v>
+        <v>0</v>
       </c>
       <c r="E144" t="str">
-        <v>289.25</v>
+        <v>1,530.74</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
+        <v>0xd092C607a92c75de3bB1240494C4822Bf3766D46</v>
       </c>
       <c r="B145" t="str">
-        <v>1,507.59</v>
+        <v>1,371.2</v>
       </c>
       <c r="C145" t="str">
-        <v>1,507.59</v>
+        <v>1,371.2</v>
       </c>
       <c r="D145" t="str">
         <v>0</v>
       </c>
       <c r="E145" t="str">
-        <v>1,504.14</v>
+        <v>1,458.86</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
       </c>
       <c r="B146" t="str">
-        <v>250.86</v>
+        <v>6,267.02</v>
       </c>
       <c r="C146" t="str">
-        <v>250.86</v>
+        <v>6,267.02</v>
       </c>
       <c r="D146" t="str">
         <v>0</v>
       </c>
       <c r="E146" t="str">
-        <v>250.29</v>
+        <v>6,667.66</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
+        <v>0x25E9eA1a93D9e505cd7d056C1e1bA16789537EAb</v>
       </c>
       <c r="B147" t="str">
-        <v>261.25</v>
+        <v>4,721.46</v>
       </c>
       <c r="C147" t="str">
-        <v>261.25</v>
+        <v>4,721.46</v>
       </c>
       <c r="D147" t="str">
-        <v>0</v>
+        <v>5,023.29</v>
       </c>
       <c r="E147" t="str">
-        <v>260.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>0xE2D8A9f98072298241651a1c899907892860A1f5</v>
+        <v>0x6eDdEA8fb4d722F8A31c3c62DDd805D554911d8e</v>
       </c>
       <c r="B148" t="str">
-        <v>0</v>
+        <v>1,162.88</v>
       </c>
       <c r="C148" t="str">
-        <v>310.66</v>
+        <v>1,162.88</v>
       </c>
       <c r="D148" t="str">
-        <v>309.95</v>
+        <v>1,237.22</v>
       </c>
       <c r="E148" t="str">
         <v>0</v>
@@ -32433,16 +35814,16 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>0x28207aadAe97226F70a54c25d16692197c062898</v>
+        <v>0x8Cf38fe7DDb8D871a8BF46dB42258067f8842301</v>
       </c>
       <c r="B149" t="str">
-        <v>4,229.87</v>
+        <v>31.56</v>
       </c>
       <c r="C149" t="str">
-        <v>4,229.87</v>
+        <v>31.56</v>
       </c>
       <c r="D149" t="str">
-        <v>4,220.19</v>
+        <v>33.58</v>
       </c>
       <c r="E149" t="str">
         <v>0</v>
@@ -32450,33 +35831,33 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
+        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
       </c>
       <c r="B150" t="str">
-        <v>240.16</v>
+        <v>712.12</v>
       </c>
       <c r="C150" t="str">
-        <v>240.16</v>
+        <v>712.12</v>
       </c>
       <c r="D150" t="str">
-        <v>239.62</v>
+        <v>0</v>
       </c>
       <c r="E150" t="str">
-        <v>0</v>
+        <v>757.65</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>0xc677a6C972baeCe4Bf9C0a2EbB600886F0300a7D</v>
+        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
       </c>
       <c r="B151" t="str">
-        <v>27,703.99</v>
+        <v>542.53</v>
       </c>
       <c r="C151" t="str">
-        <v>27,703.99</v>
+        <v>542.53</v>
       </c>
       <c r="D151" t="str">
-        <v>27,640.58</v>
+        <v>577.22</v>
       </c>
       <c r="E151" t="str">
         <v>0</v>
@@ -32484,33 +35865,33 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>0x0feD39AC6093e042825EfE8862f37dc8425B8f74</v>
+        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
       </c>
       <c r="B152" t="str">
-        <v>453.43</v>
+        <v>7,188.78</v>
       </c>
       <c r="C152" t="str">
-        <v>453.43</v>
+        <v>7,188.78</v>
       </c>
       <c r="D152" t="str">
-        <v>0</v>
+        <v>7,648.34</v>
       </c>
       <c r="E152" t="str">
-        <v>452.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>0x212A3caD6d1572C706959d2aeF63071e61914bf2</v>
+        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
       </c>
       <c r="B153" t="str">
-        <v>594.88</v>
+        <v>428.96</v>
       </c>
       <c r="C153" t="str">
-        <v>594.88</v>
+        <v>428.96</v>
       </c>
       <c r="D153" t="str">
-        <v>593.52</v>
+        <v>456.39</v>
       </c>
       <c r="E153" t="str">
         <v>0</v>
@@ -32518,67 +35899,67 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>0xF1ea664AbbA3452bc6cA6B289a6059613855805B</v>
+        <v>0xC090D9F71184D03568485a351456C570ff9F9Cbf</v>
       </c>
       <c r="B154" t="str">
-        <v>594.88</v>
+        <v>428.96</v>
       </c>
       <c r="C154" t="str">
-        <v>594.88</v>
+        <v>428.96</v>
       </c>
       <c r="D154" t="str">
         <v>0</v>
       </c>
       <c r="E154" t="str">
-        <v>593.52</v>
+        <v>456.39</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
+        <v>0x62Ff55e86d95A460a661929d6D125139bB7DCF7b</v>
       </c>
       <c r="B155" t="str">
-        <v>681.91</v>
+        <v>23,111.82</v>
       </c>
       <c r="C155" t="str">
-        <v>681.91</v>
+        <v>23,111.82</v>
       </c>
       <c r="D155" t="str">
-        <v>265.35</v>
+        <v>0</v>
       </c>
       <c r="E155" t="str">
-        <v>415</v>
+        <v>24,589.3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
+        <v>0x48A7209DD07Bc7409bF3f61820E1Ee9409F462e9</v>
       </c>
       <c r="B156" t="str">
-        <v>681.91</v>
+        <v>713.5</v>
       </c>
       <c r="C156" t="str">
-        <v>681.91</v>
+        <v>713.5</v>
       </c>
       <c r="D156" t="str">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="E156" t="str">
-        <v>265.35</v>
+        <v>759.12</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>0xD4588f639D5C9E922a3283E013D58a115911c63c</v>
+        <v>0x3A70F2D05c3678b8ABCbAdf9F54c1dE6F73951ca</v>
       </c>
       <c r="B157" t="str">
-        <v>234.77</v>
+        <v>840.43</v>
       </c>
       <c r="C157" t="str">
-        <v>234.77</v>
+        <v>840.43</v>
       </c>
       <c r="D157" t="str">
-        <v>234.24</v>
+        <v>894.16</v>
       </c>
       <c r="E157" t="str">
         <v>0</v>
@@ -32586,67 +35967,67 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>0xc4a806D25d423059bb2E5D6aFc7dC5E046518E15</v>
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
       </c>
       <c r="B158" t="str">
-        <v>5,765.12</v>
+        <v>369.74</v>
       </c>
       <c r="C158" t="str">
-        <v>5,765.12</v>
+        <v>369.74</v>
       </c>
       <c r="D158" t="str">
-        <v>0</v>
+        <v>393.38</v>
       </c>
       <c r="E158" t="str">
-        <v>5,751.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
+        <v>0x4e300F965ACE7aBF11A53662419F9A2D27dE3B1d</v>
       </c>
       <c r="B159" t="str">
-        <v>0</v>
+        <v>1,308.2</v>
       </c>
       <c r="C159" t="str">
-        <v>6.97</v>
+        <v>1,308.2</v>
       </c>
       <c r="D159" t="str">
         <v>0</v>
       </c>
       <c r="E159" t="str">
-        <v>6.96</v>
+        <v>1,391.84</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>0xa427746a2606c82afaa69cE757E0705c2c8081a1</v>
+        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
       </c>
       <c r="B160" t="str">
-        <v>6,971.73</v>
+        <v>243.62</v>
       </c>
       <c r="C160" t="str">
-        <v>6,971.73</v>
+        <v>243.62</v>
       </c>
       <c r="D160" t="str">
-        <v>0</v>
+        <v>259.2</v>
       </c>
       <c r="E160" t="str">
-        <v>6,955.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>0xD51a57fa53a22A063088950FfB92ddAFFa214141</v>
+        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
       </c>
       <c r="B161" t="str">
-        <v>375.86</v>
+        <v>0</v>
       </c>
       <c r="C161" t="str">
-        <v>375.86</v>
+        <v>117.71</v>
       </c>
       <c r="D161" t="str">
-        <v>375</v>
+        <v>125.24</v>
       </c>
       <c r="E161" t="str">
         <v>0</v>
@@ -32654,33 +36035,33 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>0x04BA03baabB1e9221520fD9c31505a0d4c073167</v>
+        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
       </c>
       <c r="B162" t="str">
-        <v>375.86</v>
+        <v>1,204.68</v>
       </c>
       <c r="C162" t="str">
-        <v>375.86</v>
+        <v>1,204.68</v>
       </c>
       <c r="D162" t="str">
         <v>0</v>
       </c>
       <c r="E162" t="str">
-        <v>375</v>
+        <v>1,281.7</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>0x094CAE95AB3744453Cf7Ce9251dFDD816C3C810E</v>
+        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
       </c>
       <c r="B163" t="str">
-        <v>117.53</v>
+        <v>57.87</v>
       </c>
       <c r="C163" t="str">
-        <v>117.53</v>
+        <v>57.87</v>
       </c>
       <c r="D163" t="str">
-        <v>117.27</v>
+        <v>61.58</v>
       </c>
       <c r="E163" t="str">
         <v>0</v>
@@ -32688,271 +36069,271 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>0xE77dF488D556c00355342b8Be573702011C86750</v>
+        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
       </c>
       <c r="B164" t="str">
-        <v>179.53</v>
+        <v>174.33</v>
       </c>
       <c r="C164" t="str">
-        <v>179.53</v>
+        <v>174.33</v>
       </c>
       <c r="D164" t="str">
-        <v>179.12</v>
+        <v>0</v>
       </c>
       <c r="E164" t="str">
-        <v>0</v>
+        <v>185.48</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>0xcE1290F5457067497EAd8Aea22515d52ca94357E</v>
+        <v>0x73755c77A68017d6E755Ac0cE9df5EA7c2aF8F75</v>
       </c>
       <c r="B165" t="str">
-        <v>118.29</v>
+        <v>0</v>
       </c>
       <c r="C165" t="str">
-        <v>118.29</v>
+        <v>117.48</v>
       </c>
       <c r="D165" t="str">
         <v>0</v>
       </c>
       <c r="E165" t="str">
-        <v>118.02</v>
+        <v>125</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
+        <v>0x1044c6807718B3340db2e138C101B18226Bff012</v>
       </c>
       <c r="B166" t="str">
-        <v>120.74</v>
+        <v>474.98</v>
       </c>
       <c r="C166" t="str">
-        <v>120.74</v>
+        <v>474.98</v>
       </c>
       <c r="D166" t="str">
-        <v>120.47</v>
+        <v>0</v>
       </c>
       <c r="E166" t="str">
-        <v>0</v>
+        <v>505.35</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+        <v>0x5099ccbB5FC14BF6ea516EE6CC3e6B209a7aA8C6</v>
       </c>
       <c r="B167" t="str">
-        <v>120.74</v>
+        <v>106.32</v>
       </c>
       <c r="C167" t="str">
-        <v>120.74</v>
+        <v>106.32</v>
       </c>
       <c r="D167" t="str">
-        <v>0</v>
+        <v>113.12</v>
       </c>
       <c r="E167" t="str">
-        <v>120.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
       </c>
       <c r="B168" t="str">
-        <v>58.5</v>
+        <v>235.92</v>
       </c>
       <c r="C168" t="str">
-        <v>58.5</v>
+        <v>235.92</v>
       </c>
       <c r="D168" t="str">
-        <v>0</v>
+        <v>251.01</v>
       </c>
       <c r="E168" t="str">
-        <v>58.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
       </c>
       <c r="B169" t="str">
-        <v>470.64</v>
+        <v>121.81</v>
       </c>
       <c r="C169" t="str">
-        <v>470.64</v>
+        <v>121.81</v>
       </c>
       <c r="D169" t="str">
         <v>0</v>
       </c>
       <c r="E169" t="str">
-        <v>469.57</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>0xAFA44A7514ad85793Bc10C56DD731aEe4EA854F3</v>
+        <v>0x01Bf02ECf2aa5f2E824a64Fba6A0DC3Ee46D775B</v>
       </c>
       <c r="B170" t="str">
-        <v>241.27</v>
+        <v>215,058.35</v>
       </c>
       <c r="C170" t="str">
-        <v>241.27</v>
+        <v>215,058.35</v>
       </c>
       <c r="D170" t="str">
-        <v>0</v>
+        <v>228,806.41</v>
       </c>
       <c r="E170" t="str">
-        <v>240.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>0xe19CE573b43a5C9232e48A267FC2E16b1A9c456e</v>
+        <v>0xA7258aeA0F44A7fe4a4933a1434e2fc8217891C0</v>
       </c>
       <c r="B171" t="str">
-        <v>9,271.83</v>
+        <v>215,058.35</v>
       </c>
       <c r="C171" t="str">
-        <v>9,271.83</v>
+        <v>215,058.35</v>
       </c>
       <c r="D171" t="str">
-        <v>9,130.52</v>
+        <v>0</v>
       </c>
       <c r="E171" t="str">
-        <v>120.09</v>
+        <v>228,806.41</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>0xE5C4701D49AF62E8A92739d5CCc6453D864A79B6</v>
+        <v>0x79622cD63ff61A74613fAFB805B7f32D3cf78A95</v>
       </c>
       <c r="B172" t="str">
-        <v>1,203.95</v>
+        <v>4,774.54</v>
       </c>
       <c r="C172" t="str">
-        <v>1,203.95</v>
+        <v>4,774.54</v>
       </c>
       <c r="D172" t="str">
-        <v>1,201.2</v>
+        <v>0</v>
       </c>
       <c r="E172" t="str">
-        <v>0</v>
+        <v>5,079.77</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>0xa9d05788ed070B6a304C89b6eFf0a00361ABc2df</v>
+        <v>0x12e46F45Bb7317B1dbf45825daD8a99Fb04ed431</v>
       </c>
       <c r="B173" t="str">
-        <v>1,203.95</v>
+        <v>468.81</v>
       </c>
       <c r="C173" t="str">
-        <v>1,203.95</v>
+        <v>468.81</v>
       </c>
       <c r="D173" t="str">
-        <v>0</v>
+        <v>498.79</v>
       </c>
       <c r="E173" t="str">
-        <v>1,201.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>0xA678C16Ecca94a90764973FedEbE71d524FAfF84</v>
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
       </c>
       <c r="B174" t="str">
-        <v>6,463.44</v>
+        <v>1,994.69</v>
       </c>
       <c r="C174" t="str">
-        <v>6,463.44</v>
+        <v>1,994.69</v>
       </c>
       <c r="D174" t="str">
         <v>0</v>
       </c>
       <c r="E174" t="str">
-        <v>6,448.65</v>
+        <v>2,122.21</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
+        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
       </c>
       <c r="B175" t="str">
-        <v>7,825.45</v>
+        <v>1,439.62</v>
       </c>
       <c r="C175" t="str">
-        <v>7,825.45</v>
+        <v>1,439.62</v>
       </c>
       <c r="D175" t="str">
-        <v>7,807.54</v>
+        <v>0</v>
       </c>
       <c r="E175" t="str">
-        <v>0</v>
+        <v>1,531.66</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
       </c>
       <c r="B176" t="str">
-        <v>43.34</v>
+        <v>4,619.02</v>
       </c>
       <c r="C176" t="str">
-        <v>43.34</v>
+        <v>4,619.02</v>
       </c>
       <c r="D176" t="str">
-        <v>0</v>
+        <v>4,545.63</v>
       </c>
       <c r="E176" t="str">
-        <v>43.25</v>
+        <v>368.68</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>0x9A4dbCDE63b55273DC51BeA546A7ba6456f059D0</v>
+        <v>0x28207aadAe97226F70a54c25d16692197c062898</v>
       </c>
       <c r="B177" t="str">
-        <v>1,206.85</v>
+        <v>298.15</v>
       </c>
       <c r="C177" t="str">
-        <v>1,206.85</v>
+        <v>298.15</v>
       </c>
       <c r="D177" t="str">
         <v>0</v>
       </c>
       <c r="E177" t="str">
-        <v>1,204.09</v>
+        <v>317.21</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>0x5C55e86A38d24BE5fF7f12221BF674C95FB188a7</v>
+        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
       </c>
       <c r="B178" t="str">
-        <v>691.35</v>
+        <v>4,039.63</v>
       </c>
       <c r="C178" t="str">
-        <v>691.35</v>
+        <v>4,039.63</v>
       </c>
       <c r="D178" t="str">
         <v>0</v>
       </c>
       <c r="E178" t="str">
-        <v>689.77</v>
+        <v>4,297.88</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>0x19dDC06bd36C69D830e6f958FC244aacd1c266f2</v>
+        <v>0xe19CE573b43a5C9232e48A267FC2E16b1A9c456e</v>
       </c>
       <c r="B179" t="str">
-        <v>5.01</v>
+        <v>9,784.58</v>
       </c>
       <c r="C179" t="str">
-        <v>5.01</v>
+        <v>9,784.58</v>
       </c>
       <c r="D179" t="str">
-        <v>5</v>
+        <v>10,410.08</v>
       </c>
       <c r="E179" t="str">
         <v>0</v>
@@ -32960,33 +36341,33 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
       </c>
       <c r="B180" t="str">
-        <v>410.94</v>
+        <v>140.98</v>
       </c>
       <c r="C180" t="str">
-        <v>410.94</v>
+        <v>140.98</v>
       </c>
       <c r="D180" t="str">
         <v>0</v>
       </c>
       <c r="E180" t="str">
-        <v>410</v>
+        <v>150</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+        <v>0x69f96f2A5Cdd84E574dB2a353880095988243417</v>
       </c>
       <c r="B181" t="str">
-        <v>30.51</v>
+        <v>0</v>
       </c>
       <c r="C181" t="str">
-        <v>30.51</v>
+        <v>553.12</v>
       </c>
       <c r="D181" t="str">
-        <v>30.45</v>
+        <v>588.48</v>
       </c>
       <c r="E181" t="str">
         <v>0</v>
@@ -32994,67 +36375,67 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>0x5Eb272c936045FBA109B92A1c2BBE54523f0f1CA</v>
+        <v>0xE1FcC0676dE7f03EB6c63b55A5ad667416029A5F</v>
       </c>
       <c r="B182" t="str">
-        <v>775.93</v>
+        <v>213.87</v>
       </c>
       <c r="C182" t="str">
-        <v>775.93</v>
+        <v>213.87</v>
       </c>
       <c r="D182" t="str">
-        <v>774.16</v>
+        <v>0</v>
       </c>
       <c r="E182" t="str">
-        <v>0</v>
+        <v>227.55</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
+        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
       </c>
       <c r="B183" t="str">
-        <v>585.93</v>
+        <v>1,174.89</v>
       </c>
       <c r="C183" t="str">
-        <v>585.93</v>
+        <v>1,174.89</v>
       </c>
       <c r="D183" t="str">
-        <v>0</v>
+        <v>1,250</v>
       </c>
       <c r="E183" t="str">
-        <v>584.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+        <v>0xFb55bcB2E843Cc2dA95c48273eA89F167Faf7b93</v>
       </c>
       <c r="B184" t="str">
-        <v>25.85</v>
+        <v>1,174.89</v>
       </c>
       <c r="C184" t="str">
-        <v>25.85</v>
+        <v>1,174.89</v>
       </c>
       <c r="D184" t="str">
         <v>0</v>
       </c>
       <c r="E184" t="str">
-        <v>25.8</v>
+        <v>1,250</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>0x72d20dcB42DC91D2Dc1DB60375e1945e23708130</v>
+        <v>0x3636D15fa9BBE63B1e67494f4604eD13E224F405</v>
       </c>
       <c r="B185" t="str">
-        <v>288.05</v>
+        <v>47.15</v>
       </c>
       <c r="C185" t="str">
-        <v>288.05</v>
+        <v>47.15</v>
       </c>
       <c r="D185" t="str">
-        <v>287.4</v>
+        <v>50.17</v>
       </c>
       <c r="E185" t="str">
         <v>0</v>
@@ -33062,50 +36443,50 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
+        <v>0xF5515DFf13e55c0B219fB8B56BD18B2A8dC7bF33</v>
       </c>
       <c r="B186" t="str">
-        <v>8,163.64</v>
+        <v>116.76</v>
       </c>
       <c r="C186" t="str">
-        <v>8,163.64</v>
+        <v>116.76</v>
       </c>
       <c r="D186" t="str">
         <v>0</v>
       </c>
       <c r="E186" t="str">
-        <v>8,144.96</v>
+        <v>124.23</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>0x09aFEC89b908C2cbD220942f3788530C195Ba894</v>
+        <v>0x0fB3b0892619aF19B0a8016783f84EED26CfAE1E</v>
       </c>
       <c r="B187" t="str">
-        <v>7.77</v>
+        <v>129.89</v>
       </c>
       <c r="C187" t="str">
-        <v>7.77</v>
+        <v>129.89</v>
       </c>
       <c r="D187" t="str">
-        <v>0</v>
+        <v>138.2</v>
       </c>
       <c r="E187" t="str">
-        <v>7.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>0xA918ADC20A91e7C932e6E00e436D710DA71C765C</v>
+        <v>0xb4E2Ff46D5013BFa1C53135dF3BC240046ab88FA</v>
       </c>
       <c r="B188" t="str">
-        <v>289.91</v>
+        <v>325.54</v>
       </c>
       <c r="C188" t="str">
-        <v>289.91</v>
+        <v>325.54</v>
       </c>
       <c r="D188" t="str">
-        <v>289.25</v>
+        <v>346.36</v>
       </c>
       <c r="E188" t="str">
         <v>0</v>
@@ -33113,50 +36494,50 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>0x7e729b21005cF2FDda685bA7Bef04c6Dc3DcD444</v>
+        <v>0xc4a806D25d423059bb2E5D6aFc7dC5E046518E15</v>
       </c>
       <c r="B189" t="str">
-        <v>1.32</v>
+        <v>325.54</v>
       </c>
       <c r="C189" t="str">
-        <v>1.32</v>
+        <v>325.54</v>
       </c>
       <c r="D189" t="str">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="E189" t="str">
-        <v>0</v>
+        <v>346.36</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>0x9AB469940cDC998d67F116Bd47A0859f74AAA202</v>
+        <v>0x11C3498d0D70BBfCdAa8dA275d7dDEb7BF977137</v>
       </c>
       <c r="B190" t="str">
-        <v>1,152.1</v>
+        <v>222.07</v>
       </c>
       <c r="C190" t="str">
-        <v>1,152.1</v>
+        <v>222.07</v>
       </c>
       <c r="D190" t="str">
         <v>0</v>
       </c>
       <c r="E190" t="str">
-        <v>1,149.47</v>
+        <v>236.27</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
+        <v>0x778Ba6B5ca859F7c72df96Bf13D274e35a78a356</v>
       </c>
       <c r="B191" t="str">
-        <v>0</v>
+        <v>512.72</v>
       </c>
       <c r="C191" t="str">
-        <v>176.63</v>
+        <v>512.72</v>
       </c>
       <c r="D191" t="str">
-        <v>176.23</v>
+        <v>545.5</v>
       </c>
       <c r="E191" t="str">
         <v>0</v>
@@ -33164,126 +36545,602 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
+        <v>0x880cd618B4cA66bBb8862558954d8473d7b0C867</v>
       </c>
       <c r="B192" t="str">
-        <v>176.63</v>
+        <v>93.93</v>
       </c>
       <c r="C192" t="str">
-        <v>176.63</v>
+        <v>93.93</v>
       </c>
       <c r="D192" t="str">
-        <v>0</v>
+        <v>99.94</v>
       </c>
       <c r="E192" t="str">
-        <v>176.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>0x70a358970c122dE0ebb3f9c0b8704E71c2f69352</v>
+        <v>0x7E92D8b1848D0646c369501455C363f687DFc93D</v>
       </c>
       <c r="B193" t="str">
-        <v>35.61</v>
+        <v>56.31</v>
       </c>
       <c r="C193" t="str">
-        <v>35.61</v>
+        <v>56.31</v>
       </c>
       <c r="D193" t="str">
         <v>0</v>
       </c>
       <c r="E193" t="str">
-        <v>35.53</v>
+        <v>59.92</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+        <v>0xD44E29759A73d29F7887702F864406b16612BF5e</v>
       </c>
       <c r="B194" t="str">
-        <v>507.69</v>
+        <v>0</v>
       </c>
       <c r="C194" t="str">
-        <v>507.69</v>
+        <v>1,999.36</v>
       </c>
       <c r="D194" t="str">
-        <v>506.53</v>
+        <v>0</v>
       </c>
       <c r="E194" t="str">
-        <v>0</v>
+        <v>2,127.18</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>0x040f62A18EB5D5ca87A08E41A22D004ee7A26380</v>
+        <v>0x49e680d4626B92507fa733FE4Ff79d6BF0cb1141</v>
       </c>
       <c r="B195" t="str">
-        <v>6.99</v>
+        <v>17.07</v>
       </c>
       <c r="C195" t="str">
-        <v>6.99</v>
+        <v>17.07</v>
       </c>
       <c r="D195" t="str">
-        <v>0</v>
+        <v>18.17</v>
       </c>
       <c r="E195" t="str">
-        <v>6.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>0xa8CE35A87d51EaC37675c1Cf7C5d6435a3b2079A</v>
+        <v>0xfbe0F9114CDAD8c45E95171A96881A68e3FE8B4c</v>
       </c>
       <c r="B196" t="str">
-        <v>5,011.47</v>
+        <v>469.95</v>
       </c>
       <c r="C196" t="str">
-        <v>5,011.47</v>
+        <v>469.95</v>
       </c>
       <c r="D196" t="str">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E196" t="str">
-        <v>5,000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>0xf1aCBD5dd358c3252ADaa77bDc920cafff2eC0fA</v>
+        <v>0xe1cE7bDEae6757E29008f2ECA572b6208E23a822</v>
       </c>
       <c r="B197" t="str">
-        <v>60.47</v>
+        <v>14,330.57</v>
       </c>
       <c r="C197" t="str">
-        <v>60.47</v>
+        <v>14,330.57</v>
       </c>
       <c r="D197" t="str">
-        <v>0</v>
+        <v>15,246.69</v>
       </c>
       <c r="E197" t="str">
-        <v>60.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
+        <v>0x48682644c1e8529338e46e7DdabA4383C1fceBb1</v>
+      </c>
+      <c r="B198" t="str">
+        <v>7,431.42</v>
+      </c>
+      <c r="C198" t="str">
+        <v>7,431.42</v>
+      </c>
+      <c r="D198" t="str">
+        <v>0</v>
+      </c>
+      <c r="E198" t="str">
+        <v>7,906.49</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>0xdaf24dd4c9c7888b4f31937f99A869721E1E276c</v>
+      </c>
+      <c r="B199" t="str">
+        <v>1,243.34</v>
+      </c>
+      <c r="C199" t="str">
+        <v>1,243.34</v>
+      </c>
+      <c r="D199" t="str">
+        <v>0</v>
+      </c>
+      <c r="E199" t="str">
+        <v>1,322.83</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>0xb05822516a701573678447E6966F7eD3bdDf78C5</v>
+      </c>
+      <c r="B200" t="str">
+        <v>743.48</v>
+      </c>
+      <c r="C200" t="str">
+        <v>743.48</v>
+      </c>
+      <c r="D200" t="str">
+        <v>791.01</v>
+      </c>
+      <c r="E200" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>0x8f1928e8FEa7238b9B53A7E62AFd471b69732a66</v>
+      </c>
+      <c r="B201" t="str">
+        <v>122.46</v>
+      </c>
+      <c r="C201" t="str">
+        <v>122.46</v>
+      </c>
+      <c r="D201" t="str">
+        <v>0</v>
+      </c>
+      <c r="E201" t="str">
+        <v>130.29</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>0xd4e63B2004b55E2aE3c84451951D28dE1C5226Af</v>
+      </c>
+      <c r="B202" t="str">
+        <v>24.67</v>
+      </c>
+      <c r="C202" t="str">
+        <v>24.67</v>
+      </c>
+      <c r="D202" t="str">
+        <v>0</v>
+      </c>
+      <c r="E202" t="str">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>0x8f437d47c7723C7AB5ab896D59549D547181BecB</v>
+      </c>
+      <c r="B203" t="str">
+        <v>1,559.56</v>
+      </c>
+      <c r="C203" t="str">
+        <v>1,559.56</v>
+      </c>
+      <c r="D203" t="str">
+        <v>1,659.26</v>
+      </c>
+      <c r="E203" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>0xA742150Bb2b4e5DfCC4E6df0E577237Fceb797b2</v>
+      </c>
+      <c r="B204" t="str">
+        <v>1,559.56</v>
+      </c>
+      <c r="C204" t="str">
+        <v>1,559.56</v>
+      </c>
+      <c r="D204" t="str">
+        <v>0</v>
+      </c>
+      <c r="E204" t="str">
+        <v>1,659.26</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>0x33dE4E1bE024FeD529b5af917955DBa1951FfE26</v>
+      </c>
+      <c r="B205" t="str">
+        <v>6,116.51</v>
+      </c>
+      <c r="C205" t="str">
+        <v>6,116.51</v>
+      </c>
+      <c r="D205" t="str">
+        <v>6,507.53</v>
+      </c>
+      <c r="E205" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>0x88d6B2Cdb0fEf078621De5308aD787CC147C76C0</v>
+      </c>
+      <c r="B206" t="str">
+        <v>307.14</v>
+      </c>
+      <c r="C206" t="str">
+        <v>307.14</v>
+      </c>
+      <c r="D206" t="str">
+        <v>326.78</v>
+      </c>
+      <c r="E206" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>0x531B206B50567FDF5029ae8bBc03d4C236ce185d</v>
+      </c>
+      <c r="B207" t="str">
+        <v>36.88</v>
+      </c>
+      <c r="C207" t="str">
+        <v>36.88</v>
+      </c>
+      <c r="D207" t="str">
+        <v>39.24</v>
+      </c>
+      <c r="E207" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>0x8d78DC05373E4Fa05593FfCB93ab88192F6C8121</v>
+      </c>
+      <c r="B208" t="str">
+        <v>63.02</v>
+      </c>
+      <c r="C208" t="str">
+        <v>63.02</v>
+      </c>
+      <c r="D208" t="str">
+        <v>67.05</v>
+      </c>
+      <c r="E208" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>0xaB851DBd7b470252D76C725411143d12aCd2adCB</v>
+      </c>
+      <c r="B209" t="str">
+        <v>94.63</v>
+      </c>
+      <c r="C209" t="str">
+        <v>94.63</v>
+      </c>
+      <c r="D209" t="str">
+        <v>0</v>
+      </c>
+      <c r="E209" t="str">
+        <v>100.68</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>0x487EE46941931178c481a9fA3Eeb2016E2B0CBdA</v>
+      </c>
+      <c r="B210" t="str">
+        <v>127.39</v>
+      </c>
+      <c r="C210" t="str">
+        <v>127.39</v>
+      </c>
+      <c r="D210" t="str">
+        <v>135.54</v>
+      </c>
+      <c r="E210" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>0x395eEB786dF7115b84Db4295C4576822e5D9379c</v>
+      </c>
+      <c r="B211" t="str">
+        <v>889.76</v>
+      </c>
+      <c r="C211" t="str">
+        <v>889.76</v>
+      </c>
+      <c r="D211" t="str">
+        <v>946.65</v>
+      </c>
+      <c r="E211" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>0xdc713BA971EFFe05F612357EB44AE16da60ECc4A</v>
+      </c>
+      <c r="B212" t="str">
+        <v>129.05</v>
+      </c>
+      <c r="C212" t="str">
+        <v>129.05</v>
+      </c>
+      <c r="D212" t="str">
+        <v>137.31</v>
+      </c>
+      <c r="E212" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>0x3ff6b69e12e8883f31Da74dBdfAeC4c0e23E20aE</v>
+      </c>
+      <c r="B213" t="str">
+        <v>129.05</v>
+      </c>
+      <c r="C213" t="str">
+        <v>129.05</v>
+      </c>
+      <c r="D213" t="str">
+        <v>0</v>
+      </c>
+      <c r="E213" t="str">
+        <v>137.31</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>0xF9c0f097d88E0284ac932E3090279fDc5bfe1B55</v>
+      </c>
+      <c r="B214" t="str">
+        <v>6,102.24</v>
+      </c>
+      <c r="C214" t="str">
+        <v>6,102.24</v>
+      </c>
+      <c r="D214" t="str">
+        <v>0</v>
+      </c>
+      <c r="E214" t="str">
+        <v>6,492.34</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>0xF6a52cb99b772d46C736F6F90Be792A1d4159414</v>
+      </c>
+      <c r="B215" t="str">
+        <v>126.98</v>
+      </c>
+      <c r="C215" t="str">
+        <v>126.98</v>
+      </c>
+      <c r="D215" t="str">
+        <v>68.27</v>
+      </c>
+      <c r="E215" t="str">
+        <v>66.83</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>0xb62430C5fD8281c2F2ADf3ae7Cec7171d6F71EC6</v>
+      </c>
+      <c r="B216" t="str">
+        <v>126.98</v>
+      </c>
+      <c r="C216" t="str">
+        <v>126.98</v>
+      </c>
+      <c r="D216" t="str">
+        <v>66.83</v>
+      </c>
+      <c r="E216" t="str">
+        <v>68.27</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>0xE67c4FDDfE95e21287889B41cA419A5896b36D22</v>
+      </c>
+      <c r="B217" t="str">
+        <v>451.37</v>
+      </c>
+      <c r="C217" t="str">
+        <v>451.37</v>
+      </c>
+      <c r="D217" t="str">
+        <v>480.23</v>
+      </c>
+      <c r="E217" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>0x091D2bf74f675Df1d72eD6E07bCB693D56a4163c</v>
+      </c>
+      <c r="B218" t="str">
+        <v>0</v>
+      </c>
+      <c r="C218" t="str">
+        <v>2,577</v>
+      </c>
+      <c r="D218" t="str">
+        <v>2,741.75</v>
+      </c>
+      <c r="E218" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>0x9c6E23aC65D33b747B8c56C04db77d836c41Faf5</v>
+      </c>
+      <c r="B219" t="str">
+        <v>128.22</v>
+      </c>
+      <c r="C219" t="str">
+        <v>128.22</v>
+      </c>
+      <c r="D219" t="str">
+        <v>0</v>
+      </c>
+      <c r="E219" t="str">
+        <v>136.42</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>0x375bE33B63Ad8204eb4FB2CaCa325126d1eC6f19</v>
+      </c>
+      <c r="B220" t="str">
+        <v>33.91</v>
+      </c>
+      <c r="C220" t="str">
+        <v>33.91</v>
+      </c>
+      <c r="D220" t="str">
+        <v>36.08</v>
+      </c>
+      <c r="E220" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>0x9860C142d59D2d4cBE43c20a7F072A8C5Aac2057</v>
+      </c>
+      <c r="B221" t="str">
+        <v>503.63</v>
+      </c>
+      <c r="C221" t="str">
+        <v>503.63</v>
+      </c>
+      <c r="D221" t="str">
+        <v>0</v>
+      </c>
+      <c r="E221" t="str">
+        <v>535.83</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>0x3f80b42ae4B6a8701329682B5C66a2780917E5D0</v>
+      </c>
+      <c r="B222" t="str">
+        <v>6.92</v>
+      </c>
+      <c r="C222" t="str">
+        <v>6.92</v>
+      </c>
+      <c r="D222" t="str">
+        <v>0</v>
+      </c>
+      <c r="E222" t="str">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>0x0603709F92A47D5367Cc93f5b587A29fA286ADbB</v>
+      </c>
+      <c r="B223" t="str">
+        <v>11,808.6</v>
+      </c>
+      <c r="C223" t="str">
+        <v>11,808.6</v>
+      </c>
+      <c r="D223" t="str">
+        <v>0</v>
+      </c>
+      <c r="E223" t="str">
+        <v>12,563.5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>0x11AbA9ACdFbAaB8e7C1Dc4d92b8B2467FD5d0e3B</v>
+      </c>
+      <c r="B224" t="str">
+        <v>121.12</v>
+      </c>
+      <c r="C224" t="str">
+        <v>121.12</v>
+      </c>
+      <c r="D224" t="str">
+        <v>128.87</v>
+      </c>
+      <c r="E224" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>0x8Dca7891aAb1d43b8402d23e2Ca88B0399Ed542E</v>
+      </c>
+      <c r="B225" t="str">
+        <v>121.12</v>
+      </c>
+      <c r="C225" t="str">
+        <v>121.12</v>
+      </c>
+      <c r="D225" t="str">
+        <v>0</v>
+      </c>
+      <c r="E225" t="str">
+        <v>128.87</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
         <v>Total</v>
       </c>
-      <c r="B198" t="str">
-        <v>3,153,071.88</v>
-      </c>
-      <c r="C198" t="str">
-        <v>3,205,127.26</v>
-      </c>
-      <c r="D198" t="str">
-        <v>1,493,171.81</v>
-      </c>
-      <c r="E198" t="str">
-        <v>1,704,620.24</v>
+      <c r="B226" t="str">
+        <v>3,163,029.68</v>
+      </c>
+      <c r="C226" t="str">
+        <v>3,205,127.06</v>
+      </c>
+      <c r="D226" t="str">
+        <v>1,621,466.94</v>
+      </c>
+      <c r="E226" t="str">
+        <v>1,788,555.85</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E198"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E226"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/staker_incentives.xlsx
+++ b/staker_incentives.xlsx
@@ -20,6 +20,7 @@
     <sheet name="Blocks 72049007 - 72332266" sheetId="15" r:id="rId15"/>
     <sheet name="Blocks 72332267 - 72615454" sheetId="16" r:id="rId16"/>
     <sheet name="Blocks 72615455 - 72898666" sheetId="17" r:id="rId17"/>
+    <sheet name="Blocks 72898667 - 73182217" sheetId="18" r:id="rId18"/>
   </sheets>
 </workbook>
 </file>
@@ -33288,6 +33289,3862 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Staker Address</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Reward (ERC20 TEL)</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Uncapped Reward (ERC20 TEL)</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Staker Fees</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Referee Fees</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>0x20944C8A17cfa6cb96556116037e3aEeB506a0b0</v>
+      </c>
+      <c r="B2" t="str">
+        <v>2,584.76</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2,584.76</v>
+      </c>
+      <c r="D2" t="str">
+        <v>2,750</v>
+      </c>
+      <c r="E2" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>0xCdDca3b68166cB76442B5D69cB6B800fD7fc67c0</v>
+      </c>
+      <c r="B3" t="str">
+        <v>6,524.02</v>
+      </c>
+      <c r="C3" t="str">
+        <v>6,524.02</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>6,941.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>0x7DDA419096b8c81d4A5E6cc65ea0D380D0A1b6E4</v>
+      </c>
+      <c r="B4" t="str">
+        <v>26.92</v>
+      </c>
+      <c r="C4" t="str">
+        <v>26.92</v>
+      </c>
+      <c r="D4" t="str">
+        <v>28.65</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>0xe05DDFB83A8b66Df42f06BfB5517Fb5d6857a8ce</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2,861.38</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2,861.38</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2,127.18</v>
+      </c>
+      <c r="E5" t="str">
+        <v>917.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>0xc677a6C972baeCe4Bf9C0a2EbB600886F0300a7D</v>
+      </c>
+      <c r="B6" t="str">
+        <v>5,584.33</v>
+      </c>
+      <c r="C6" t="str">
+        <v>5,584.33</v>
+      </c>
+      <c r="D6" t="str">
+        <v>5,941.33</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>0x9D89f9451C4B7e04bd58616dbC72e924088AFF21</v>
+      </c>
+      <c r="B7" t="str">
+        <v>65,277.34</v>
+      </c>
+      <c r="C7" t="str">
+        <v>65,277.34</v>
+      </c>
+      <c r="D7" t="str">
+        <v>16,501.02</v>
+      </c>
+      <c r="E7" t="str">
+        <v>52,949.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>0x74c0d21e8ffC5b83dce1A0BB6abCD061D071E85a</v>
+      </c>
+      <c r="B8" t="str">
+        <v>89,490.81</v>
+      </c>
+      <c r="C8" t="str">
+        <v>89,490.81</v>
+      </c>
+      <c r="D8" t="str">
+        <v>41,948.89</v>
+      </c>
+      <c r="E8" t="str">
+        <v>53,262.81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>0x03b114a54280ea14562E86CCB32D7BD26E919321</v>
+      </c>
+      <c r="B9" t="str">
+        <v>3,568.52</v>
+      </c>
+      <c r="C9" t="str">
+        <v>3,568.52</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2,756.03</v>
+      </c>
+      <c r="E9" t="str">
+        <v>1,040.62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>0xF336C5e15E672F6606CA8CDe3D4FaF95fE1C63Bb</v>
+      </c>
+      <c r="B10" t="str">
+        <v>755.3</v>
+      </c>
+      <c r="C10" t="str">
+        <v>755.3</v>
+      </c>
+      <c r="D10" t="str">
+        <v>803.59</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>0x9195C770DCe41eC211353afD92c8a0f0b28fB011</v>
+      </c>
+      <c r="B11" t="str">
+        <v>13,374.56</v>
+      </c>
+      <c r="C11" t="str">
+        <v>13,374.56</v>
+      </c>
+      <c r="D11" t="str">
+        <v>5,699.73</v>
+      </c>
+      <c r="E11" t="str">
+        <v>8,529.83</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>0xB51e05e0F9b9a22D714fC181aBA3a43d79d728bB</v>
+      </c>
+      <c r="B12" t="str">
+        <v>317.7</v>
+      </c>
+      <c r="C12" t="str">
+        <v>317.7</v>
+      </c>
+      <c r="D12" t="str">
+        <v>338.02</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>0x033047D46C9dD342b21274a0f328DD04c3ABa9b7</v>
+      </c>
+      <c r="B13" t="str">
+        <v>1,838.21</v>
+      </c>
+      <c r="C13" t="str">
+        <v>1,838.21</v>
+      </c>
+      <c r="D13" t="str">
+        <v>146</v>
+      </c>
+      <c r="E13" t="str">
+        <v>1,809.73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>0xBBF6951084154eB73b77f9A9BA943e478bFa06c4</v>
+      </c>
+      <c r="B14" t="str">
+        <v>1,374.65</v>
+      </c>
+      <c r="C14" t="str">
+        <v>1,374.65</v>
+      </c>
+      <c r="D14" t="str">
+        <v>1,462.53</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>0x7aD2809008E5DA0c33A72f9144e7970a996D5B6D</v>
+      </c>
+      <c r="B15" t="str">
+        <v>2,037.27</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2,037.27</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2,125</v>
+      </c>
+      <c r="E15" t="str">
+        <v>42.51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>0xb51D1dC8c04786ec6B47570619bBa8f6D0B7bcbc</v>
+      </c>
+      <c r="B16" t="str">
+        <v>1,777.22</v>
+      </c>
+      <c r="C16" t="str">
+        <v>1,777.22</v>
+      </c>
+      <c r="D16" t="str">
+        <v>1,890.84</v>
+      </c>
+      <c r="E16" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>0x5C9A07e59Bdc264d0579530b4e08338122833942</v>
+      </c>
+      <c r="B17" t="str">
+        <v>1,777.22</v>
+      </c>
+      <c r="C17" t="str">
+        <v>1,777.22</v>
+      </c>
+      <c r="D17" t="str">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <v>1,890.84</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>0xD1E51324E7F061311b80471B996d64fB837f1c55</v>
+      </c>
+      <c r="B18" t="str">
+        <v>63.26</v>
+      </c>
+      <c r="C18" t="str">
+        <v>63.26</v>
+      </c>
+      <c r="D18" t="str">
+        <v>67.31</v>
+      </c>
+      <c r="E18" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>0xF68784ce085df3b5d3493A29F3Be8Bc971c3C87A</v>
+      </c>
+      <c r="B19" t="str">
+        <v>31,228.11</v>
+      </c>
+      <c r="C19" t="str">
+        <v>31,228.11</v>
+      </c>
+      <c r="D19" t="str">
+        <v>33,224.44</v>
+      </c>
+      <c r="E19" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>0xE5d3b6737c87c922A0D6D4Abe4C76A8D6C70C628</v>
+      </c>
+      <c r="B20" t="str">
+        <v>939.91</v>
+      </c>
+      <c r="C20" t="str">
+        <v>939.91</v>
+      </c>
+      <c r="D20" t="str">
+        <v>1,000</v>
+      </c>
+      <c r="E20" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>0xF1D275F804a6b3d3f75B7C08150178836E56dE8B</v>
+      </c>
+      <c r="B21" t="str">
+        <v>1,441.81</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1,441.81</v>
+      </c>
+      <c r="D21" t="str">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <v>1,533.99</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>0x4E17E118dFfd16659cA02086aA34476fe6350b20</v>
+      </c>
+      <c r="B22" t="str">
+        <v>102.35</v>
+      </c>
+      <c r="C22" t="str">
+        <v>102.35</v>
+      </c>
+      <c r="D22" t="str">
+        <v>108.9</v>
+      </c>
+      <c r="E22" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>0x5eE2FC3425b4e3C908C6d6BcaDf3dce444BE8617</v>
+      </c>
+      <c r="B23" t="str">
+        <v>1,875.77</v>
+      </c>
+      <c r="C23" t="str">
+        <v>1,875.77</v>
+      </c>
+      <c r="D23" t="str">
+        <v>1,995.69</v>
+      </c>
+      <c r="E23" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>0xEbbabF54e68354253E41f2D0F1C543FEc5Bcfffa</v>
+      </c>
+      <c r="B24" t="str">
+        <v>644,604.49</v>
+      </c>
+      <c r="C24" t="str">
+        <v>644,604.49</v>
+      </c>
+      <c r="D24" t="str">
+        <v>347,884.08</v>
+      </c>
+      <c r="E24" t="str">
+        <v>337,928.12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>0x3F3Cb523ce45c048c07081925CBd588a6C601b72</v>
+      </c>
+      <c r="B25" t="str">
+        <v>52.11</v>
+      </c>
+      <c r="C25" t="str">
+        <v>52.11</v>
+      </c>
+      <c r="D25" t="str">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <v>55.45</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>0xDe113Cfea35386619bB00AD4B84130b22222c742</v>
+      </c>
+      <c r="B26" t="str">
+        <v>948.06</v>
+      </c>
+      <c r="C26" t="str">
+        <v>948.06</v>
+      </c>
+      <c r="D26" t="str">
+        <v>1,008.67</v>
+      </c>
+      <c r="E26" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>0x4279DFA3c1fE5c16337f173f13D3BCBAA508a4C0</v>
+      </c>
+      <c r="B27" t="str">
+        <v>7,207.53</v>
+      </c>
+      <c r="C27" t="str">
+        <v>7,207.53</v>
+      </c>
+      <c r="D27" t="str">
+        <v>7,668.29</v>
+      </c>
+      <c r="E27" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>0x7A7d706D6578FE3DD1540dC69b31de7C8C0c20d2</v>
+      </c>
+      <c r="B28" t="str">
+        <v>109.81</v>
+      </c>
+      <c r="C28" t="str">
+        <v>109.81</v>
+      </c>
+      <c r="D28" t="str">
+        <v>116.84</v>
+      </c>
+      <c r="E28" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>0x76cf73e99947E31e951416E3859F3cFB07f9Fd3B</v>
+      </c>
+      <c r="B29" t="str">
+        <v>541.2</v>
+      </c>
+      <c r="C29" t="str">
+        <v>541.2</v>
+      </c>
+      <c r="D29" t="str">
+        <v>575.8</v>
+      </c>
+      <c r="E29" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>0xd63c4fE2E52948079b40d0eFd5FBa8a5F54aB32b</v>
+      </c>
+      <c r="B30" t="str">
+        <v>7,130.5</v>
+      </c>
+      <c r="C30" t="str">
+        <v>7,130.5</v>
+      </c>
+      <c r="D30" t="str">
+        <v>7,586.34</v>
+      </c>
+      <c r="E30" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>0xA678C16Ecca94a90764973FedEbE71d524FAfF84</v>
+      </c>
+      <c r="B31" t="str">
+        <v>7,130.5</v>
+      </c>
+      <c r="C31" t="str">
+        <v>7,130.5</v>
+      </c>
+      <c r="D31" t="str">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <v>7,586.34</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>0x426d787930A93314048488c4D10946FCeD265Cc7</v>
+      </c>
+      <c r="B32" t="str">
+        <v>14,098.71</v>
+      </c>
+      <c r="C32" t="str">
+        <v>14,098.71</v>
+      </c>
+      <c r="D32" t="str">
+        <v>15,000</v>
+      </c>
+      <c r="E32" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>0x82983a034CD8811b62fbdEcDEb300b46947fCC45</v>
+      </c>
+      <c r="B33" t="str">
+        <v>210.52</v>
+      </c>
+      <c r="C33" t="str">
+        <v>210.52</v>
+      </c>
+      <c r="D33" t="str">
+        <v>223.98</v>
+      </c>
+      <c r="E33" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>0xf941B6d81ff3BBc9E6eb182887a1FAE58fcE9fCE</v>
+      </c>
+      <c r="B34" t="str">
+        <v>394.93</v>
+      </c>
+      <c r="C34" t="str">
+        <v>394.93</v>
+      </c>
+      <c r="D34" t="str">
+        <v>420.18</v>
+      </c>
+      <c r="E34" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>0xF2Aa3A5Df3Af1eD5ff72631A8bcFF0F0AfE060eC</v>
+      </c>
+      <c r="B35" t="str">
+        <v>5,641.76</v>
+      </c>
+      <c r="C35" t="str">
+        <v>5,641.76</v>
+      </c>
+      <c r="D35" t="str">
+        <v>2,255.95</v>
+      </c>
+      <c r="E35" t="str">
+        <v>3,746.48</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>0x4E2069d03340c94A9C79e31dd93D577d82C83b22</v>
+      </c>
+      <c r="B36" t="str">
+        <v>26.48</v>
+      </c>
+      <c r="C36" t="str">
+        <v>26.48</v>
+      </c>
+      <c r="D36" t="str">
+        <v>28.18</v>
+      </c>
+      <c r="E36" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>0xc003A6Dab5463E71667324fe7F50F36199B22674</v>
+      </c>
+      <c r="B37" t="str">
+        <v>479.41</v>
+      </c>
+      <c r="C37" t="str">
+        <v>479.41</v>
+      </c>
+      <c r="D37" t="str">
+        <v>510.06</v>
+      </c>
+      <c r="E37" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>0x1DA42d0A3108af9D1f8eB3bFd80bD26FBE2d911d</v>
+      </c>
+      <c r="B38" t="str">
+        <v>128,219.46</v>
+      </c>
+      <c r="C38" t="str">
+        <v>128,219.46</v>
+      </c>
+      <c r="D38" t="str">
+        <v>136,416.16</v>
+      </c>
+      <c r="E38" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>0x8f26838FF9A288727088F10968Ea663A424509F4</v>
+      </c>
+      <c r="B39" t="str">
+        <v>128,219.46</v>
+      </c>
+      <c r="C39" t="str">
+        <v>128,219.46</v>
+      </c>
+      <c r="D39" t="str">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <v>136,416.16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>0x98Bf5dA74530B21130C029663a25A32066b9913b</v>
+      </c>
+      <c r="B40" t="str">
+        <v>73.75</v>
+      </c>
+      <c r="C40" t="str">
+        <v>73.75</v>
+      </c>
+      <c r="D40" t="str">
+        <v>78.47</v>
+      </c>
+      <c r="E40" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>0x942E746C384bec88Dfa6164e8d699858E9988FeB</v>
+      </c>
+      <c r="B41" t="str">
+        <v>1,217.92</v>
+      </c>
+      <c r="C41" t="str">
+        <v>1,217.92</v>
+      </c>
+      <c r="D41" t="str">
+        <v>1,295.78</v>
+      </c>
+      <c r="E41" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>0xd2938A7fCa560A5b6630aaf12d817E5f146cddA4</v>
+      </c>
+      <c r="B42" t="str">
+        <v>1,239.98</v>
+      </c>
+      <c r="C42" t="str">
+        <v>1,239.98</v>
+      </c>
+      <c r="D42" t="str">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <v>1,319.25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>0x1174EaB7a553690130EC76fa1E950df457b930a5</v>
+      </c>
+      <c r="B43" t="str">
+        <v>4,789.07</v>
+      </c>
+      <c r="C43" t="str">
+        <v>4,789.07</v>
+      </c>
+      <c r="D43" t="str">
+        <v>5,095.23</v>
+      </c>
+      <c r="E43" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>0xe23bc0609A8Df4EA2A597AEAAFcBF421BFfBDCFd</v>
+      </c>
+      <c r="B44" t="str">
+        <v>590.84</v>
+      </c>
+      <c r="C44" t="str">
+        <v>590.84</v>
+      </c>
+      <c r="D44" t="str">
+        <v>628.62</v>
+      </c>
+      <c r="E44" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>0xc790596C713f906Bc24beEC6da941AC5DDD92800</v>
+      </c>
+      <c r="B45" t="str">
+        <v>7,188.78</v>
+      </c>
+      <c r="C45" t="str">
+        <v>7,188.78</v>
+      </c>
+      <c r="D45" t="str">
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <v>7,648.34</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>0x092F2C7B8daf5e94e9bF990ceDE5f2d4fD318B22</v>
+      </c>
+      <c r="B46" t="str">
+        <v>1,339.16</v>
+      </c>
+      <c r="C46" t="str">
+        <v>1,339.16</v>
+      </c>
+      <c r="D46" t="str">
+        <v>0</v>
+      </c>
+      <c r="E46" t="str">
+        <v>1,424.77</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>0xBcb9C22A0b6479E1519fC26a9499FE12AeA0c848</v>
+      </c>
+      <c r="B47" t="str">
+        <v>305.49</v>
+      </c>
+      <c r="C47" t="str">
+        <v>305.49</v>
+      </c>
+      <c r="D47" t="str">
+        <v>325.02</v>
+      </c>
+      <c r="E47" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>0xA0De99feED77A3f228F9e6Bfe3B8333c2fc1D0f9</v>
+      </c>
+      <c r="B48" t="str">
+        <v>305.49</v>
+      </c>
+      <c r="C48" t="str">
+        <v>305.49</v>
+      </c>
+      <c r="D48" t="str">
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <v>325.02</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>0x8f956317B24CA7CB331BdfC3ECB21864f7dF731E</v>
+      </c>
+      <c r="B49" t="str">
+        <v>124.64</v>
+      </c>
+      <c r="C49" t="str">
+        <v>124.64</v>
+      </c>
+      <c r="D49" t="str">
+        <v>7.37</v>
+      </c>
+      <c r="E49" t="str">
+        <v>125.24</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>0xEe5358d1d36262CeFC36478E37A718FA4d7847eB</v>
+      </c>
+      <c r="B50" t="str">
+        <v>92.85</v>
+      </c>
+      <c r="C50" t="str">
+        <v>92.85</v>
+      </c>
+      <c r="D50" t="str">
+        <v>98.79</v>
+      </c>
+      <c r="E50" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>0x2731b9BC4c6AC6287996741A5A87D6E51D18B2EB</v>
+      </c>
+      <c r="B51" t="str">
+        <v>1,222.16</v>
+      </c>
+      <c r="C51" t="str">
+        <v>1,222.16</v>
+      </c>
+      <c r="D51" t="str">
+        <v>1,300.29</v>
+      </c>
+      <c r="E51" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>0x75f87A0070d3710DA45A39D9d8D4bc9435d6287b</v>
+      </c>
+      <c r="B52" t="str">
+        <v>1,524.73</v>
+      </c>
+      <c r="C52" t="str">
+        <v>1,524.73</v>
+      </c>
+      <c r="D52" t="str">
+        <v>1,622.21</v>
+      </c>
+      <c r="E52" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>0xEE9688E9CBa96c56ad91c9899507580415a47795</v>
+      </c>
+      <c r="B53" t="str">
+        <v>4,619.02</v>
+      </c>
+      <c r="C53" t="str">
+        <v>4,619.02</v>
+      </c>
+      <c r="D53" t="str">
+        <v>368.68</v>
+      </c>
+      <c r="E53" t="str">
+        <v>4,545.63</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>0xdfd7445EF7dB056F68cEdEB4c1A709d02C0c3AA7</v>
+      </c>
+      <c r="B54" t="str">
+        <v>156.26</v>
+      </c>
+      <c r="C54" t="str">
+        <v>156.26</v>
+      </c>
+      <c r="D54" t="str">
+        <v>102.78</v>
+      </c>
+      <c r="E54" t="str">
+        <v>63.47</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>0xbE68d65f491CaCc7f4eaa49b813A92DfFa001DBc</v>
+      </c>
+      <c r="B55" t="str">
+        <v>580.37</v>
+      </c>
+      <c r="C55" t="str">
+        <v>580.37</v>
+      </c>
+      <c r="D55" t="str">
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <v>617.48</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>0x3d5F0A62033206273527Ef33569213E904eC4DdF</v>
+      </c>
+      <c r="B56" t="str">
+        <v>117.01</v>
+      </c>
+      <c r="C56" t="str">
+        <v>117.01</v>
+      </c>
+      <c r="D56" t="str">
+        <v>124.5</v>
+      </c>
+      <c r="E56" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>0xA918ADC20A91e7C932e6E00e436D710DA71C765C</v>
+      </c>
+      <c r="B57" t="str">
+        <v>225.38</v>
+      </c>
+      <c r="C57" t="str">
+        <v>225.38</v>
+      </c>
+      <c r="D57" t="str">
+        <v>239.79</v>
+      </c>
+      <c r="E57" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>0xb26C7c04A98eb3b92a2688ee8Fc1dA17054eF909</v>
+      </c>
+      <c r="B58" t="str">
+        <v>164.48</v>
+      </c>
+      <c r="C58" t="str">
+        <v>164.48</v>
+      </c>
+      <c r="D58" t="str">
+        <v>175</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>0x27dF802924227b28Ad0Bec076Bd7f1D223441bF5</v>
+      </c>
+      <c r="B59" t="str">
+        <v>222.07</v>
+      </c>
+      <c r="C59" t="str">
+        <v>222.07</v>
+      </c>
+      <c r="D59" t="str">
+        <v>236.27</v>
+      </c>
+      <c r="E59" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>0x436aCB00107faBb69b486e2C7F4654bB37b02c41</v>
+      </c>
+      <c r="B60" t="str">
+        <v>1,145.85</v>
+      </c>
+      <c r="C60" t="str">
+        <v>1,145.85</v>
+      </c>
+      <c r="D60" t="str">
+        <v>1,219.11</v>
+      </c>
+      <c r="E60" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>0xfC433E52b109b00c9e9f9532Da4a1B94a873A3a8</v>
+      </c>
+      <c r="B61" t="str">
+        <v>374.64</v>
+      </c>
+      <c r="C61" t="str">
+        <v>374.64</v>
+      </c>
+      <c r="D61" t="str">
+        <v>252.6</v>
+      </c>
+      <c r="E61" t="str">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>0xa755B0E03b0C0411c64749C64F063a6600a24D8c</v>
+      </c>
+      <c r="B62" t="str">
+        <v>877.65</v>
+      </c>
+      <c r="C62" t="str">
+        <v>877.65</v>
+      </c>
+      <c r="D62" t="str">
+        <v>933.76</v>
+      </c>
+      <c r="E62" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>0xf6732447a0Da3D8973897e247cf04f53B87Cfa2e</v>
+      </c>
+      <c r="B63" t="str">
+        <v>31.6</v>
+      </c>
+      <c r="C63" t="str">
+        <v>31.6</v>
+      </c>
+      <c r="D63" t="str">
+        <v>33.63</v>
+      </c>
+      <c r="E63" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>0xFb286C7ca309a0B72885Fa2022633440C6334D6e</v>
+      </c>
+      <c r="B64" t="str">
+        <v>503.63</v>
+      </c>
+      <c r="C64" t="str">
+        <v>503.63</v>
+      </c>
+      <c r="D64" t="str">
+        <v>535.83</v>
+      </c>
+      <c r="E64" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>0x165F4f9805770Eb044Cd2A5a3f1b3E07Ba8B15e9</v>
+      </c>
+      <c r="B65" t="str">
+        <v>125.22</v>
+      </c>
+      <c r="C65" t="str">
+        <v>125.22</v>
+      </c>
+      <c r="D65" t="str">
+        <v>133.23</v>
+      </c>
+      <c r="E65" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>0x24EC4345706a30747bA16dCA3e9751B73b72C78a</v>
+      </c>
+      <c r="B66" t="str">
+        <v>2,147.7</v>
+      </c>
+      <c r="C66" t="str">
+        <v>2,147.7</v>
+      </c>
+      <c r="D66" t="str">
+        <v>2,285</v>
+      </c>
+      <c r="E66" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>0xa6A4BE6499cfdd7E94Cd1BF5498533FdCbb6CE5d</v>
+      </c>
+      <c r="B67" t="str">
+        <v>139,792.2</v>
+      </c>
+      <c r="C67" t="str">
+        <v>139,792.2</v>
+      </c>
+      <c r="D67" t="str">
+        <v>144,716.12</v>
+      </c>
+      <c r="E67" t="str">
+        <v>4,012.6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>0xcC333A0d55395f7cABD42793850D4ea5B32E1D78</v>
+      </c>
+      <c r="B68" t="str">
+        <v>136,344.48</v>
+      </c>
+      <c r="C68" t="str">
+        <v>136,344.48</v>
+      </c>
+      <c r="D68" t="str">
+        <v>344.47</v>
+      </c>
+      <c r="E68" t="str">
+        <v>144,716.12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>0x1e08bba24EeaB34dCc15Bc335c2638D40E1e3BD5</v>
+      </c>
+      <c r="B69" t="str">
+        <v>1,589.32</v>
+      </c>
+      <c r="C69" t="str">
+        <v>1,589.32</v>
+      </c>
+      <c r="D69" t="str">
+        <v>0</v>
+      </c>
+      <c r="E69" t="str">
+        <v>1,690.93</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>0x289CB824389DF5F824e9fde13E9Ed9cE16a85B07</v>
+      </c>
+      <c r="B70" t="str">
+        <v>5,113.43</v>
+      </c>
+      <c r="C70" t="str">
+        <v>5,113.43</v>
+      </c>
+      <c r="D70" t="str">
+        <v>5,440.32</v>
+      </c>
+      <c r="E70" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>0x8Ad7B9763377E32645D8C7Da41e28F0800a831bB</v>
+      </c>
+      <c r="B71" t="str">
+        <v>17,442.83</v>
+      </c>
+      <c r="C71" t="str">
+        <v>17,442.83</v>
+      </c>
+      <c r="D71" t="str">
+        <v>10,085.12</v>
+      </c>
+      <c r="E71" t="str">
+        <v>8,472.78</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>0xa8CE35A87d51EaC37675c1Cf7C5d6435a3b2079A</v>
+      </c>
+      <c r="B72" t="str">
+        <v>23,358.41</v>
+      </c>
+      <c r="C72" t="str">
+        <v>23,358.41</v>
+      </c>
+      <c r="D72" t="str">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <v>24,851.65</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>0xd4dB3DbEe64e9e3A9dc049CbC558904FeFc04ce1</v>
+      </c>
+      <c r="B73" t="str">
+        <v>1,641.74</v>
+      </c>
+      <c r="C73" t="str">
+        <v>1,641.74</v>
+      </c>
+      <c r="D73" t="str">
+        <v>1,746.7</v>
+      </c>
+      <c r="E73" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>0xEA67438f0857e93968F50aE87db18720b9E457Ef</v>
+      </c>
+      <c r="B74" t="str">
+        <v>1,641.74</v>
+      </c>
+      <c r="C74" t="str">
+        <v>1,641.74</v>
+      </c>
+      <c r="D74" t="str">
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <v>1,746.7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>0x18fc6c299B7aA35C8f59537b4b67c23D93E782ea</v>
+      </c>
+      <c r="B75" t="str">
+        <v>63,846.32</v>
+      </c>
+      <c r="C75" t="str">
+        <v>63,846.32</v>
+      </c>
+      <c r="D75" t="str">
+        <v>1,253.64</v>
+      </c>
+      <c r="E75" t="str">
+        <v>66,674.2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>0x99D5f1d103A892A191aCF6897CE4b65f2F627a28</v>
+      </c>
+      <c r="B76" t="str">
+        <v>878.25</v>
+      </c>
+      <c r="C76" t="str">
+        <v>878.25</v>
+      </c>
+      <c r="D76" t="str">
+        <v>934.4</v>
+      </c>
+      <c r="E76" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>0x8364044ee8062F0F6C9835f7dfC26da4CE433BB8</v>
+      </c>
+      <c r="B77" t="str">
+        <v>878.25</v>
+      </c>
+      <c r="C77" t="str">
+        <v>878.25</v>
+      </c>
+      <c r="D77" t="str">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <v>934.4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>0xb76c661bad5bbc54F1D4a7BF7663211aa34455D8</v>
+      </c>
+      <c r="B78" t="str">
+        <v>2,473.83</v>
+      </c>
+      <c r="C78" t="str">
+        <v>2,473.83</v>
+      </c>
+      <c r="D78" t="str">
+        <v>2,631.98</v>
+      </c>
+      <c r="E78" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>0xAcF543A44c24aAdF47B50e5cc05c628f3F2A5046</v>
+      </c>
+      <c r="B79" t="str">
+        <v>88,201.43</v>
+      </c>
+      <c r="C79" t="str">
+        <v>88,201.43</v>
+      </c>
+      <c r="D79" t="str">
+        <v>50,428.48</v>
+      </c>
+      <c r="E79" t="str">
+        <v>43,411.42</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>0xeB0F9489F9aeFB6Bbd8d7f1cc3620898E30b49c0</v>
+      </c>
+      <c r="B80" t="str">
+        <v>2,590.43</v>
+      </c>
+      <c r="C80" t="str">
+        <v>2,590.43</v>
+      </c>
+      <c r="D80" t="str">
+        <v>0</v>
+      </c>
+      <c r="E80" t="str">
+        <v>2,756.03</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>0x9342fD3f10101019Cf9e6774640957fa1d7A78B2</v>
+      </c>
+      <c r="B81" t="str">
+        <v>2,789.58</v>
+      </c>
+      <c r="C81" t="str">
+        <v>2,789.58</v>
+      </c>
+      <c r="D81" t="str">
+        <v>2,339.3</v>
+      </c>
+      <c r="E81" t="str">
+        <v>628.62</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>0x94B72396b6B40e19C2a04c28c8aE93dE08b12733</v>
+      </c>
+      <c r="B82" t="str">
+        <v>0</v>
+      </c>
+      <c r="C82" t="str">
+        <v>9,680.84</v>
+      </c>
+      <c r="D82" t="str">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <v>10,299.71</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>0x212172E536d6c24f46D64F57f8FA64E201882146</v>
+      </c>
+      <c r="B83" t="str">
+        <v>597.14</v>
+      </c>
+      <c r="C83" t="str">
+        <v>597.14</v>
+      </c>
+      <c r="D83" t="str">
+        <v>635.32</v>
+      </c>
+      <c r="E83" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>0x4994A7059A2921398780818c203F83613A9Bf743</v>
+      </c>
+      <c r="B84" t="str">
+        <v>22,710.69</v>
+      </c>
+      <c r="C84" t="str">
+        <v>22,710.69</v>
+      </c>
+      <c r="D84" t="str">
+        <v>0</v>
+      </c>
+      <c r="E84" t="str">
+        <v>24,162.52</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>0x260250876501b886EB540553d1f5306FAce6E393</v>
+      </c>
+      <c r="B85" t="str">
+        <v>330.28</v>
+      </c>
+      <c r="C85" t="str">
+        <v>330.28</v>
+      </c>
+      <c r="D85" t="str">
+        <v>351.4</v>
+      </c>
+      <c r="E85" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>0x9f65AE97F174c6849297dF848651C520cC145A69</v>
+      </c>
+      <c r="B86" t="str">
+        <v>447.3</v>
+      </c>
+      <c r="C86" t="str">
+        <v>447.3</v>
+      </c>
+      <c r="D86" t="str">
+        <v>0</v>
+      </c>
+      <c r="E86" t="str">
+        <v>475.9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>0xB19c1b3cEc4c5bD6DCA220A4f59de9EC681e9211</v>
+      </c>
+      <c r="B87" t="str">
+        <v>0</v>
+      </c>
+      <c r="C87" t="str">
+        <v>9.22</v>
+      </c>
+      <c r="D87" t="str">
+        <v>9.82</v>
+      </c>
+      <c r="E87" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>0x53bB6A53f3B05435A15Ed43D2DF9243845d639e2</v>
+      </c>
+      <c r="B88" t="str">
+        <v>1,000</v>
+      </c>
+      <c r="C88" t="str">
+        <v>3,708.88</v>
+      </c>
+      <c r="D88" t="str">
+        <v>3,945.98</v>
+      </c>
+      <c r="E88" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>0x8969DF60ACc4BB0f05cE8137608AD4434E2f4dEA</v>
+      </c>
+      <c r="B89" t="str">
+        <v>3,708.88</v>
+      </c>
+      <c r="C89" t="str">
+        <v>3,708.88</v>
+      </c>
+      <c r="D89" t="str">
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <v>3,945.98</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>0xD53314Cd179ccD3926Af264e62E3B6dAB06A6419</v>
+      </c>
+      <c r="B90" t="str">
+        <v>6,290.03</v>
+      </c>
+      <c r="C90" t="str">
+        <v>6,290.03</v>
+      </c>
+      <c r="D90" t="str">
+        <v>510.79</v>
+      </c>
+      <c r="E90" t="str">
+        <v>6,181.35</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>0xf90518CBcd4ef086891cb22C87bd4F80B61a7081</v>
+      </c>
+      <c r="B91" t="str">
+        <v>6,290.03</v>
+      </c>
+      <c r="C91" t="str">
+        <v>6,290.03</v>
+      </c>
+      <c r="D91" t="str">
+        <v>6,181.35</v>
+      </c>
+      <c r="E91" t="str">
+        <v>510.79</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>0x77940861e000BfC8A8f67440ad21656B9e7dbA04</v>
+      </c>
+      <c r="B92" t="str">
+        <v>15,338.17</v>
+      </c>
+      <c r="C92" t="str">
+        <v>15,338.17</v>
+      </c>
+      <c r="D92" t="str">
+        <v>16,318.7</v>
+      </c>
+      <c r="E92" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>0x6BF81D0d4f4e606C3cB09C45f6FA29f8743c72DE</v>
+      </c>
+      <c r="B93" t="str">
+        <v>0</v>
+      </c>
+      <c r="C93" t="str">
+        <v>15,338.17</v>
+      </c>
+      <c r="D93" t="str">
+        <v>0</v>
+      </c>
+      <c r="E93" t="str">
+        <v>16,318.7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>0xC8a3B31C5d3Ba95Eec7377887a445BE34AfEE3BD</v>
+      </c>
+      <c r="B94" t="str">
+        <v>1,932.71</v>
+      </c>
+      <c r="C94" t="str">
+        <v>1,932.71</v>
+      </c>
+      <c r="D94" t="str">
+        <v>2,056.27</v>
+      </c>
+      <c r="E94" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>0xe9052daAC8667a27B38369aD37BEE63A8CD80Fc7</v>
+      </c>
+      <c r="B95" t="str">
+        <v>10,584.06</v>
+      </c>
+      <c r="C95" t="str">
+        <v>10,584.06</v>
+      </c>
+      <c r="D95" t="str">
+        <v>0</v>
+      </c>
+      <c r="E95" t="str">
+        <v>11,260.67</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>0xB34C5F08ff67cF102D31055ba5Fc517eDeD517BC</v>
+      </c>
+      <c r="B96" t="str">
+        <v>39,566.88</v>
+      </c>
+      <c r="C96" t="str">
+        <v>39,566.88</v>
+      </c>
+      <c r="D96" t="str">
+        <v>42,096.28</v>
+      </c>
+      <c r="E96" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>0xa5086DeBa52099aDAe5c7f70b56ea494AACdfCa1</v>
+      </c>
+      <c r="B97" t="str">
+        <v>939.91</v>
+      </c>
+      <c r="C97" t="str">
+        <v>939.91</v>
+      </c>
+      <c r="D97" t="str">
+        <v>0</v>
+      </c>
+      <c r="E97" t="str">
+        <v>1,000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>0xBb3123adaa39aA9b0Bf8c0374eab50353F479c97</v>
+      </c>
+      <c r="B98" t="str">
+        <v>1,441.81</v>
+      </c>
+      <c r="C98" t="str">
+        <v>1,441.81</v>
+      </c>
+      <c r="D98" t="str">
+        <v>1,533.99</v>
+      </c>
+      <c r="E98" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>0xdC2F100fCabBa1660d8714E2F15664488Ab4F25D</v>
+      </c>
+      <c r="B99" t="str">
+        <v>385.35</v>
+      </c>
+      <c r="C99" t="str">
+        <v>385.35</v>
+      </c>
+      <c r="D99" t="str">
+        <v>409.99</v>
+      </c>
+      <c r="E99" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>0xf85F765B52C7c319287d669D8682eC33eA52Bca9</v>
+      </c>
+      <c r="B100" t="str">
+        <v>218.81</v>
+      </c>
+      <c r="C100" t="str">
+        <v>218.81</v>
+      </c>
+      <c r="D100" t="str">
+        <v>123.9</v>
+      </c>
+      <c r="E100" t="str">
+        <v>108.9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>0xA26AE848f47Ce6f4A2C7004B20a03c6752166505</v>
+      </c>
+      <c r="B101" t="str">
+        <v>483.28</v>
+      </c>
+      <c r="C101" t="str">
+        <v>483.28</v>
+      </c>
+      <c r="D101" t="str">
+        <v>514.18</v>
+      </c>
+      <c r="E101" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>0x69fd044CD58545B50c9Ecc08256A19e12d7F099C</v>
+      </c>
+      <c r="B102" t="str">
+        <v>483.28</v>
+      </c>
+      <c r="C102" t="str">
+        <v>483.28</v>
+      </c>
+      <c r="D102" t="str">
+        <v>0</v>
+      </c>
+      <c r="E102" t="str">
+        <v>514.18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>0x3E19a28308585b842974317f2198A1f4f720EF85</v>
+      </c>
+      <c r="B103" t="str">
+        <v>44.48</v>
+      </c>
+      <c r="C103" t="str">
+        <v>44.48</v>
+      </c>
+      <c r="D103" t="str">
+        <v>0</v>
+      </c>
+      <c r="E103" t="str">
+        <v>47.33</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>0xbD73E24F927E9f1D9ce45B7e47f36711Dca35A88</v>
+      </c>
+      <c r="B104" t="str">
+        <v>11,734.55</v>
+      </c>
+      <c r="C104" t="str">
+        <v>11,734.55</v>
+      </c>
+      <c r="D104" t="str">
+        <v>0</v>
+      </c>
+      <c r="E104" t="str">
+        <v>12,484.71</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>0xA53aFB483Fa417B9491C3a7AEAeDF463Ab687E29</v>
+      </c>
+      <c r="B105" t="str">
+        <v>2,825.21</v>
+      </c>
+      <c r="C105" t="str">
+        <v>2,825.21</v>
+      </c>
+      <c r="D105" t="str">
+        <v>3,005.82</v>
+      </c>
+      <c r="E105" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>0x126f38D7Dda782e2a33f2061556524C3aA9cE30B</v>
+      </c>
+      <c r="B106" t="str">
+        <v>2,825.21</v>
+      </c>
+      <c r="C106" t="str">
+        <v>2,825.21</v>
+      </c>
+      <c r="D106" t="str">
+        <v>0</v>
+      </c>
+      <c r="E106" t="str">
+        <v>3,005.82</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>0x4FDC77D8fFDD4F8a3CbFc3De2886DfEE1FD5112f</v>
+      </c>
+      <c r="B107" t="str">
+        <v>0</v>
+      </c>
+      <c r="C107" t="str">
+        <v>404.56</v>
+      </c>
+      <c r="D107" t="str">
+        <v>430.43</v>
+      </c>
+      <c r="E107" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>0xbdAb516d352Adf142207EA2F7749c4a7e0543a55</v>
+      </c>
+      <c r="B108" t="str">
+        <v>3,771.49</v>
+      </c>
+      <c r="C108" t="str">
+        <v>3,771.49</v>
+      </c>
+      <c r="D108" t="str">
+        <v>4,012.6</v>
+      </c>
+      <c r="E108" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>0xe2e039dD3206870FE6Ad4B88DDf74730c355B2e5</v>
+      </c>
+      <c r="B109" t="str">
+        <v>17,476.4</v>
+      </c>
+      <c r="C109" t="str">
+        <v>17,476.4</v>
+      </c>
+      <c r="D109" t="str">
+        <v>0</v>
+      </c>
+      <c r="E109" t="str">
+        <v>18,593.62</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>0xd5d071b3A56381308F4B9Fa560AAd7876Df292c7</v>
+      </c>
+      <c r="B110" t="str">
+        <v>644,604.49</v>
+      </c>
+      <c r="C110" t="str">
+        <v>644,604.49</v>
+      </c>
+      <c r="D110" t="str">
+        <v>337,928.12</v>
+      </c>
+      <c r="E110" t="str">
+        <v>347,884.08</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>0xe5E0B4E52743E5A1E53162d38eAAF6DE05B9a4bF</v>
+      </c>
+      <c r="B111" t="str">
+        <v>558.7</v>
+      </c>
+      <c r="C111" t="str">
+        <v>558.7</v>
+      </c>
+      <c r="D111" t="str">
+        <v>594.42</v>
+      </c>
+      <c r="E111" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>0x7229aE5d9fa64DAe6C47d360023FfE683f0517F0</v>
+      </c>
+      <c r="B112" t="str">
+        <v>3,773.37</v>
+      </c>
+      <c r="C112" t="str">
+        <v>3,773.37</v>
+      </c>
+      <c r="D112" t="str">
+        <v>0</v>
+      </c>
+      <c r="E112" t="str">
+        <v>4,014.6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>0x7aa90dE22D64831e54DA455A90621560f1bC97a2</v>
+      </c>
+      <c r="B113" t="str">
+        <v>104.33</v>
+      </c>
+      <c r="C113" t="str">
+        <v>104.33</v>
+      </c>
+      <c r="D113" t="str">
+        <v>111</v>
+      </c>
+      <c r="E113" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>0x2373654B6a1564c5BdA4D28dDeF1827D66d7EA2b</v>
+      </c>
+      <c r="B114" t="str">
+        <v>0</v>
+      </c>
+      <c r="C114" t="str">
+        <v>104.33</v>
+      </c>
+      <c r="D114" t="str">
+        <v>0</v>
+      </c>
+      <c r="E114" t="str">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>0xc01bdF2F593bbbFe1e15540c818c57f919466D7B</v>
+      </c>
+      <c r="B115" t="str">
+        <v>6,589.83</v>
+      </c>
+      <c r="C115" t="str">
+        <v>6,589.83</v>
+      </c>
+      <c r="D115" t="str">
+        <v>3,746.48</v>
+      </c>
+      <c r="E115" t="str">
+        <v>3,264.62</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>0x44dDf2A9375EF552A77973588E3964b9BBBe8191</v>
+      </c>
+      <c r="B116" t="str">
+        <v>1,879.82</v>
+      </c>
+      <c r="C116" t="str">
+        <v>1,879.82</v>
+      </c>
+      <c r="D116" t="str">
+        <v>2,000</v>
+      </c>
+      <c r="E116" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>0x681ee9C08368ED5e30519f146cF3A27b24471Dc6</v>
+      </c>
+      <c r="B117" t="str">
+        <v>0</v>
+      </c>
+      <c r="C117" t="str">
+        <v>1,879.82</v>
+      </c>
+      <c r="D117" t="str">
+        <v>0</v>
+      </c>
+      <c r="E117" t="str">
+        <v>2,000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>0xf4f611e4f1e8C6E21B54d4A38687C44477cF4eA2</v>
+      </c>
+      <c r="B118" t="str">
+        <v>24.54</v>
+      </c>
+      <c r="C118" t="str">
+        <v>24.54</v>
+      </c>
+      <c r="D118" t="str">
+        <v>26.11</v>
+      </c>
+      <c r="E118" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>0xe5C5B9C648a3e66A2A7b8a3f2dA48e76e8309A2C</v>
+      </c>
+      <c r="B119" t="str">
+        <v>7,207.53</v>
+      </c>
+      <c r="C119" t="str">
+        <v>7,207.53</v>
+      </c>
+      <c r="D119" t="str">
+        <v>0</v>
+      </c>
+      <c r="E119" t="str">
+        <v>7,668.29</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>0x760d7E2525DDB8790d047CFF195b753F9dCCac41</v>
+      </c>
+      <c r="B120" t="str">
+        <v>109.81</v>
+      </c>
+      <c r="C120" t="str">
+        <v>109.81</v>
+      </c>
+      <c r="D120" t="str">
+        <v>0</v>
+      </c>
+      <c r="E120" t="str">
+        <v>116.84</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>0x094CAE95AB3744453Cf7Ce9251dFDD816C3C810E</v>
+      </c>
+      <c r="B121" t="str">
+        <v>458.29</v>
+      </c>
+      <c r="C121" t="str">
+        <v>458.29</v>
+      </c>
+      <c r="D121" t="str">
+        <v>487.59</v>
+      </c>
+      <c r="E121" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>0x280a3925f1fAD53B5a263fFc0028Fbab9abE6131</v>
+      </c>
+      <c r="B122" t="str">
+        <v>541.92</v>
+      </c>
+      <c r="C122" t="str">
+        <v>541.92</v>
+      </c>
+      <c r="D122" t="str">
+        <v>0</v>
+      </c>
+      <c r="E122" t="str">
+        <v>576.57</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>0xd9a2078c93792cd2f968737092ae7da44eAF64D0</v>
+      </c>
+      <c r="B123" t="str">
+        <v>40,179.62</v>
+      </c>
+      <c r="C123" t="str">
+        <v>40,179.62</v>
+      </c>
+      <c r="D123" t="str">
+        <v>0</v>
+      </c>
+      <c r="E123" t="str">
+        <v>42,748.19</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>0xDdF9E0547714839685900403611875EbB18C6236</v>
+      </c>
+      <c r="B124" t="str">
+        <v>541.2</v>
+      </c>
+      <c r="C124" t="str">
+        <v>541.2</v>
+      </c>
+      <c r="D124" t="str">
+        <v>0</v>
+      </c>
+      <c r="E124" t="str">
+        <v>575.8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>0x1A24A8CDa46ACac40606af1D233dAfF9AEe66e2f</v>
+      </c>
+      <c r="B125" t="str">
+        <v>26.01</v>
+      </c>
+      <c r="C125" t="str">
+        <v>26.01</v>
+      </c>
+      <c r="D125" t="str">
+        <v>0</v>
+      </c>
+      <c r="E125" t="str">
+        <v>27.68</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>0x47502539673c93B2ACDC9059B36360f76D3548BB</v>
+      </c>
+      <c r="B126" t="str">
+        <v>1,184.34</v>
+      </c>
+      <c r="C126" t="str">
+        <v>1,184.34</v>
+      </c>
+      <c r="D126" t="str">
+        <v>0</v>
+      </c>
+      <c r="E126" t="str">
+        <v>1,260.06</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>0x3d1F678EBd71CA033f21D6B1B5B0781a66537447</v>
+      </c>
+      <c r="B127" t="str">
+        <v>2,333.97</v>
+      </c>
+      <c r="C127" t="str">
+        <v>2,333.97</v>
+      </c>
+      <c r="D127" t="str">
+        <v>0</v>
+      </c>
+      <c r="E127" t="str">
+        <v>2,483.18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>0x212A3caD6d1572C706959d2aeF63071e61914bf2</v>
+      </c>
+      <c r="B128" t="str">
+        <v>530.89</v>
+      </c>
+      <c r="C128" t="str">
+        <v>530.89</v>
+      </c>
+      <c r="D128" t="str">
+        <v>0</v>
+      </c>
+      <c r="E128" t="str">
+        <v>564.83</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>0x231E89f21Da8d752262D42ad835B30D0Ee0aF8c5</v>
+      </c>
+      <c r="B129" t="str">
+        <v>155.76</v>
+      </c>
+      <c r="C129" t="str">
+        <v>155.76</v>
+      </c>
+      <c r="D129" t="str">
+        <v>0</v>
+      </c>
+      <c r="E129" t="str">
+        <v>165.72</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>0x8a3B39c36e88E3BE71B960cFBe2e4F66dB890E42</v>
+      </c>
+      <c r="B130" t="str">
+        <v>0</v>
+      </c>
+      <c r="C130" t="str">
+        <v>6,606.89</v>
+      </c>
+      <c r="D130" t="str">
+        <v>7,029.26</v>
+      </c>
+      <c r="E130" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>0x430cB4360cE341a6Ad0Dfa18b9aD1Ae2cFa9AD18</v>
+      </c>
+      <c r="B131" t="str">
+        <v>6,872.16</v>
+      </c>
+      <c r="C131" t="str">
+        <v>6,872.16</v>
+      </c>
+      <c r="D131" t="str">
+        <v>0</v>
+      </c>
+      <c r="E131" t="str">
+        <v>7,311.48</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>0x23ac940D8098674DE7D2d86B4264C1eB892Fe4AD</v>
+      </c>
+      <c r="B132" t="str">
+        <v>619.17</v>
+      </c>
+      <c r="C132" t="str">
+        <v>619.17</v>
+      </c>
+      <c r="D132" t="str">
+        <v>0</v>
+      </c>
+      <c r="E132" t="str">
+        <v>658.76</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>0xf0eeE0837e8F4feaC444412991f7005B8dFFa305</v>
+      </c>
+      <c r="B133" t="str">
+        <v>1,217.92</v>
+      </c>
+      <c r="C133" t="str">
+        <v>1,217.92</v>
+      </c>
+      <c r="D133" t="str">
+        <v>0</v>
+      </c>
+      <c r="E133" t="str">
+        <v>1,295.78</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>0xE218a0f78c7DcaF835955e2E89d79295997583f8</v>
+      </c>
+      <c r="B134" t="str">
+        <v>3,856.44</v>
+      </c>
+      <c r="C134" t="str">
+        <v>3,856.44</v>
+      </c>
+      <c r="D134" t="str">
+        <v>4,102.98</v>
+      </c>
+      <c r="E134" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>0xdF8Df47E5109Adc155E436C0712adB78f53A418c</v>
+      </c>
+      <c r="B135" t="str">
+        <v>3,856.44</v>
+      </c>
+      <c r="C135" t="str">
+        <v>3,856.44</v>
+      </c>
+      <c r="D135" t="str">
+        <v>0</v>
+      </c>
+      <c r="E135" t="str">
+        <v>4,102.98</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>0x5e1Ab2B76b3AE6d21a16d67428A3736695730f90</v>
+      </c>
+      <c r="B136" t="str">
+        <v>2,191.49</v>
+      </c>
+      <c r="C136" t="str">
+        <v>2,191.49</v>
+      </c>
+      <c r="D136" t="str">
+        <v>2,331.59</v>
+      </c>
+      <c r="E136" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>0xF054d867FEA9866a266cCA678cB30Fe5d9F68bA5</v>
+      </c>
+      <c r="B137" t="str">
+        <v>2,191.49</v>
+      </c>
+      <c r="C137" t="str">
+        <v>2,191.49</v>
+      </c>
+      <c r="D137" t="str">
+        <v>0</v>
+      </c>
+      <c r="E137" t="str">
+        <v>2,331.59</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>0xC44b6fcf320C7A15f288D3792E5BBF7D770e25c4</v>
+      </c>
+      <c r="B138" t="str">
+        <v>28.97</v>
+      </c>
+      <c r="C138" t="str">
+        <v>28.97</v>
+      </c>
+      <c r="D138" t="str">
+        <v>30.83</v>
+      </c>
+      <c r="E138" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>0x9C0557216e919eDaCCc56037c66A5fAC1D41D82a</v>
+      </c>
+      <c r="B139" t="str">
+        <v>28.97</v>
+      </c>
+      <c r="C139" t="str">
+        <v>28.97</v>
+      </c>
+      <c r="D139" t="str">
+        <v>0</v>
+      </c>
+      <c r="E139" t="str">
+        <v>30.83</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>0xf78D0cdFB459eD9CC19eEb7c22B5F193d7662fcC</v>
+      </c>
+      <c r="B140" t="str">
+        <v>7,085.33</v>
+      </c>
+      <c r="C140" t="str">
+        <v>7,085.33</v>
+      </c>
+      <c r="D140" t="str">
+        <v>7,538.28</v>
+      </c>
+      <c r="E140" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>0xB6e85e12331BdEA6fF03b25d3dE68a892C99C5D4</v>
+      </c>
+      <c r="B141" t="str">
+        <v>1,088.35</v>
+      </c>
+      <c r="C141" t="str">
+        <v>1,088.35</v>
+      </c>
+      <c r="D141" t="str">
+        <v>0</v>
+      </c>
+      <c r="E141" t="str">
+        <v>1,157.93</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>0x0c9168A60476c84DeD650f13837892725D25DeB1</v>
+      </c>
+      <c r="B142" t="str">
+        <v>345.16</v>
+      </c>
+      <c r="C142" t="str">
+        <v>345.16</v>
+      </c>
+      <c r="D142" t="str">
+        <v>0</v>
+      </c>
+      <c r="E142" t="str">
+        <v>367.23</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>0x6cD7Eab4A323E88d1170a609c6694531C3AFcA11</v>
+      </c>
+      <c r="B143" t="str">
+        <v>1,438.76</v>
+      </c>
+      <c r="C143" t="str">
+        <v>1,438.76</v>
+      </c>
+      <c r="D143" t="str">
+        <v>1,530.74</v>
+      </c>
+      <c r="E143" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>0xc1c106e16cF229be127C30406c598b07986c06BA</v>
+      </c>
+      <c r="B144" t="str">
+        <v>1,438.76</v>
+      </c>
+      <c r="C144" t="str">
+        <v>1,438.76</v>
+      </c>
+      <c r="D144" t="str">
+        <v>0</v>
+      </c>
+      <c r="E144" t="str">
+        <v>1,530.74</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>0xd092C607a92c75de3bB1240494C4822Bf3766D46</v>
+      </c>
+      <c r="B145" t="str">
+        <v>1,371.2</v>
+      </c>
+      <c r="C145" t="str">
+        <v>1,371.2</v>
+      </c>
+      <c r="D145" t="str">
+        <v>0</v>
+      </c>
+      <c r="E145" t="str">
+        <v>1,458.86</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>0xd9C0e53199290dF3BFB223033f3eb6C16429af0e</v>
+      </c>
+      <c r="B146" t="str">
+        <v>6,267.02</v>
+      </c>
+      <c r="C146" t="str">
+        <v>6,267.02</v>
+      </c>
+      <c r="D146" t="str">
+        <v>0</v>
+      </c>
+      <c r="E146" t="str">
+        <v>6,667.66</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>0x25E9eA1a93D9e505cd7d056C1e1bA16789537EAb</v>
+      </c>
+      <c r="B147" t="str">
+        <v>4,721.46</v>
+      </c>
+      <c r="C147" t="str">
+        <v>4,721.46</v>
+      </c>
+      <c r="D147" t="str">
+        <v>5,023.29</v>
+      </c>
+      <c r="E147" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>0x6eDdEA8fb4d722F8A31c3c62DDd805D554911d8e</v>
+      </c>
+      <c r="B148" t="str">
+        <v>1,162.88</v>
+      </c>
+      <c r="C148" t="str">
+        <v>1,162.88</v>
+      </c>
+      <c r="D148" t="str">
+        <v>1,237.22</v>
+      </c>
+      <c r="E148" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>0x8Cf38fe7DDb8D871a8BF46dB42258067f8842301</v>
+      </c>
+      <c r="B149" t="str">
+        <v>31.56</v>
+      </c>
+      <c r="C149" t="str">
+        <v>31.56</v>
+      </c>
+      <c r="D149" t="str">
+        <v>33.58</v>
+      </c>
+      <c r="E149" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>0xfdEd4Da6eaF63A8e3b36fEc708dBbb4945afD01c</v>
+      </c>
+      <c r="B150" t="str">
+        <v>712.12</v>
+      </c>
+      <c r="C150" t="str">
+        <v>712.12</v>
+      </c>
+      <c r="D150" t="str">
+        <v>0</v>
+      </c>
+      <c r="E150" t="str">
+        <v>757.65</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>0x6125f56E1a0939B72eC7D78791F7939E0faC5CA9</v>
+      </c>
+      <c r="B151" t="str">
+        <v>542.53</v>
+      </c>
+      <c r="C151" t="str">
+        <v>542.53</v>
+      </c>
+      <c r="D151" t="str">
+        <v>577.22</v>
+      </c>
+      <c r="E151" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>0xf6FE07aC323c53d2445C06566F040056a31B0612</v>
+      </c>
+      <c r="B152" t="str">
+        <v>7,188.78</v>
+      </c>
+      <c r="C152" t="str">
+        <v>7,188.78</v>
+      </c>
+      <c r="D152" t="str">
+        <v>7,648.34</v>
+      </c>
+      <c r="E152" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>0x21a18db5749f090BB96DE151de4136866cdAC8DF</v>
+      </c>
+      <c r="B153" t="str">
+        <v>428.96</v>
+      </c>
+      <c r="C153" t="str">
+        <v>428.96</v>
+      </c>
+      <c r="D153" t="str">
+        <v>456.39</v>
+      </c>
+      <c r="E153" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>0xC090D9F71184D03568485a351456C570ff9F9Cbf</v>
+      </c>
+      <c r="B154" t="str">
+        <v>428.96</v>
+      </c>
+      <c r="C154" t="str">
+        <v>428.96</v>
+      </c>
+      <c r="D154" t="str">
+        <v>0</v>
+      </c>
+      <c r="E154" t="str">
+        <v>456.39</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>0x62Ff55e86d95A460a661929d6D125139bB7DCF7b</v>
+      </c>
+      <c r="B155" t="str">
+        <v>23,111.82</v>
+      </c>
+      <c r="C155" t="str">
+        <v>23,111.82</v>
+      </c>
+      <c r="D155" t="str">
+        <v>0</v>
+      </c>
+      <c r="E155" t="str">
+        <v>24,589.3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>0x48A7209DD07Bc7409bF3f61820E1Ee9409F462e9</v>
+      </c>
+      <c r="B156" t="str">
+        <v>713.5</v>
+      </c>
+      <c r="C156" t="str">
+        <v>713.5</v>
+      </c>
+      <c r="D156" t="str">
+        <v>0</v>
+      </c>
+      <c r="E156" t="str">
+        <v>759.12</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>0x3A70F2D05c3678b8ABCbAdf9F54c1dE6F73951ca</v>
+      </c>
+      <c r="B157" t="str">
+        <v>840.43</v>
+      </c>
+      <c r="C157" t="str">
+        <v>840.43</v>
+      </c>
+      <c r="D157" t="str">
+        <v>894.16</v>
+      </c>
+      <c r="E157" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>0x9f0bE4E742e7d98a8837388b83d508d4A483AECF</v>
+      </c>
+      <c r="B158" t="str">
+        <v>369.74</v>
+      </c>
+      <c r="C158" t="str">
+        <v>369.74</v>
+      </c>
+      <c r="D158" t="str">
+        <v>393.38</v>
+      </c>
+      <c r="E158" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>0x4e300F965ACE7aBF11A53662419F9A2D27dE3B1d</v>
+      </c>
+      <c r="B159" t="str">
+        <v>1,308.2</v>
+      </c>
+      <c r="C159" t="str">
+        <v>1,308.2</v>
+      </c>
+      <c r="D159" t="str">
+        <v>0</v>
+      </c>
+      <c r="E159" t="str">
+        <v>1,391.84</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>0xEB16065429271bC05bf4A95E644f2057D6AFCB8F</v>
+      </c>
+      <c r="B160" t="str">
+        <v>243.62</v>
+      </c>
+      <c r="C160" t="str">
+        <v>243.62</v>
+      </c>
+      <c r="D160" t="str">
+        <v>259.2</v>
+      </c>
+      <c r="E160" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>0x10a6AC969B35C12a9a1EB77AcFD60699298E2da6</v>
+      </c>
+      <c r="B161" t="str">
+        <v>0</v>
+      </c>
+      <c r="C161" t="str">
+        <v>117.71</v>
+      </c>
+      <c r="D161" t="str">
+        <v>125.24</v>
+      </c>
+      <c r="E161" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>0x73A4386890268E835d8d01598D06A44d47A489d8</v>
+      </c>
+      <c r="B162" t="str">
+        <v>1,204.68</v>
+      </c>
+      <c r="C162" t="str">
+        <v>1,204.68</v>
+      </c>
+      <c r="D162" t="str">
+        <v>0</v>
+      </c>
+      <c r="E162" t="str">
+        <v>1,281.7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>0x71c951E44E3D907dfa99D590cd7e6A235190dff4</v>
+      </c>
+      <c r="B163" t="str">
+        <v>57.87</v>
+      </c>
+      <c r="C163" t="str">
+        <v>57.87</v>
+      </c>
+      <c r="D163" t="str">
+        <v>61.58</v>
+      </c>
+      <c r="E163" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>0x26763e975D773f46E8bA6AF80C09D9C90A07E14D</v>
+      </c>
+      <c r="B164" t="str">
+        <v>174.33</v>
+      </c>
+      <c r="C164" t="str">
+        <v>174.33</v>
+      </c>
+      <c r="D164" t="str">
+        <v>0</v>
+      </c>
+      <c r="E164" t="str">
+        <v>185.48</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>0x73755c77A68017d6E755Ac0cE9df5EA7c2aF8F75</v>
+      </c>
+      <c r="B165" t="str">
+        <v>0</v>
+      </c>
+      <c r="C165" t="str">
+        <v>117.48</v>
+      </c>
+      <c r="D165" t="str">
+        <v>0</v>
+      </c>
+      <c r="E165" t="str">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>0x1044c6807718B3340db2e138C101B18226Bff012</v>
+      </c>
+      <c r="B166" t="str">
+        <v>474.98</v>
+      </c>
+      <c r="C166" t="str">
+        <v>474.98</v>
+      </c>
+      <c r="D166" t="str">
+        <v>0</v>
+      </c>
+      <c r="E166" t="str">
+        <v>505.35</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>0x5099ccbB5FC14BF6ea516EE6CC3e6B209a7aA8C6</v>
+      </c>
+      <c r="B167" t="str">
+        <v>106.32</v>
+      </c>
+      <c r="C167" t="str">
+        <v>106.32</v>
+      </c>
+      <c r="D167" t="str">
+        <v>113.12</v>
+      </c>
+      <c r="E167" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>0xcFffD6F1C52280f46A0f32212150CbCaF50bBfb9</v>
+      </c>
+      <c r="B168" t="str">
+        <v>235.92</v>
+      </c>
+      <c r="C168" t="str">
+        <v>235.92</v>
+      </c>
+      <c r="D168" t="str">
+        <v>251.01</v>
+      </c>
+      <c r="E168" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>0x721D683cBd00c78Eb2676fBA03e8c03FDF07f5dC</v>
+      </c>
+      <c r="B169" t="str">
+        <v>121.81</v>
+      </c>
+      <c r="C169" t="str">
+        <v>121.81</v>
+      </c>
+      <c r="D169" t="str">
+        <v>0</v>
+      </c>
+      <c r="E169" t="str">
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>0x01Bf02ECf2aa5f2E824a64Fba6A0DC3Ee46D775B</v>
+      </c>
+      <c r="B170" t="str">
+        <v>215,058.35</v>
+      </c>
+      <c r="C170" t="str">
+        <v>215,058.35</v>
+      </c>
+      <c r="D170" t="str">
+        <v>228,806.41</v>
+      </c>
+      <c r="E170" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>0xA7258aeA0F44A7fe4a4933a1434e2fc8217891C0</v>
+      </c>
+      <c r="B171" t="str">
+        <v>215,058.35</v>
+      </c>
+      <c r="C171" t="str">
+        <v>215,058.35</v>
+      </c>
+      <c r="D171" t="str">
+        <v>0</v>
+      </c>
+      <c r="E171" t="str">
+        <v>228,806.41</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>0x79622cD63ff61A74613fAFB805B7f32D3cf78A95</v>
+      </c>
+      <c r="B172" t="str">
+        <v>4,774.54</v>
+      </c>
+      <c r="C172" t="str">
+        <v>4,774.54</v>
+      </c>
+      <c r="D172" t="str">
+        <v>0</v>
+      </c>
+      <c r="E172" t="str">
+        <v>5,079.77</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>0x12e46F45Bb7317B1dbf45825daD8a99Fb04ed431</v>
+      </c>
+      <c r="B173" t="str">
+        <v>468.81</v>
+      </c>
+      <c r="C173" t="str">
+        <v>468.81</v>
+      </c>
+      <c r="D173" t="str">
+        <v>498.79</v>
+      </c>
+      <c r="E173" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>0x4CaFc8E23616346de04DE62174B1e615D8E80c70</v>
+      </c>
+      <c r="B174" t="str">
+        <v>1,994.69</v>
+      </c>
+      <c r="C174" t="str">
+        <v>1,994.69</v>
+      </c>
+      <c r="D174" t="str">
+        <v>0</v>
+      </c>
+      <c r="E174" t="str">
+        <v>2,122.21</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>0xa7B320Ea5368EC4990Ec76E1C1719aFddeE876d6</v>
+      </c>
+      <c r="B175" t="str">
+        <v>1,439.62</v>
+      </c>
+      <c r="C175" t="str">
+        <v>1,439.62</v>
+      </c>
+      <c r="D175" t="str">
+        <v>0</v>
+      </c>
+      <c r="E175" t="str">
+        <v>1,531.66</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>0x1f21AdB9fe6A088B4F5411eEd543BEA954A15F56</v>
+      </c>
+      <c r="B176" t="str">
+        <v>4,619.02</v>
+      </c>
+      <c r="C176" t="str">
+        <v>4,619.02</v>
+      </c>
+      <c r="D176" t="str">
+        <v>4,545.63</v>
+      </c>
+      <c r="E176" t="str">
+        <v>368.68</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>0x28207aadAe97226F70a54c25d16692197c062898</v>
+      </c>
+      <c r="B177" t="str">
+        <v>298.15</v>
+      </c>
+      <c r="C177" t="str">
+        <v>298.15</v>
+      </c>
+      <c r="D177" t="str">
+        <v>0</v>
+      </c>
+      <c r="E177" t="str">
+        <v>317.21</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>0x7011467e458B4cEEED928bac3E178Ce7EB892F2d</v>
+      </c>
+      <c r="B178" t="str">
+        <v>4,039.63</v>
+      </c>
+      <c r="C178" t="str">
+        <v>4,039.63</v>
+      </c>
+      <c r="D178" t="str">
+        <v>0</v>
+      </c>
+      <c r="E178" t="str">
+        <v>4,297.88</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>0xe19CE573b43a5C9232e48A267FC2E16b1A9c456e</v>
+      </c>
+      <c r="B179" t="str">
+        <v>9,784.58</v>
+      </c>
+      <c r="C179" t="str">
+        <v>9,784.58</v>
+      </c>
+      <c r="D179" t="str">
+        <v>10,410.08</v>
+      </c>
+      <c r="E179" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>0x746F83FF7eAdA9d0fB03DbAbcAF2600ee513DCDB</v>
+      </c>
+      <c r="B180" t="str">
+        <v>140.98</v>
+      </c>
+      <c r="C180" t="str">
+        <v>140.98</v>
+      </c>
+      <c r="D180" t="str">
+        <v>0</v>
+      </c>
+      <c r="E180" t="str">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>0x69f96f2A5Cdd84E574dB2a353880095988243417</v>
+      </c>
+      <c r="B181" t="str">
+        <v>0</v>
+      </c>
+      <c r="C181" t="str">
+        <v>553.12</v>
+      </c>
+      <c r="D181" t="str">
+        <v>588.48</v>
+      </c>
+      <c r="E181" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>0xE1FcC0676dE7f03EB6c63b55A5ad667416029A5F</v>
+      </c>
+      <c r="B182" t="str">
+        <v>213.87</v>
+      </c>
+      <c r="C182" t="str">
+        <v>213.87</v>
+      </c>
+      <c r="D182" t="str">
+        <v>0</v>
+      </c>
+      <c r="E182" t="str">
+        <v>227.55</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>0x3010A4E7ce5c99208900c218d0375bfEfE7De269</v>
+      </c>
+      <c r="B183" t="str">
+        <v>1,174.89</v>
+      </c>
+      <c r="C183" t="str">
+        <v>1,174.89</v>
+      </c>
+     